--- a/01_基本設計書/20200220リリース/SC-Z01_在庫照会.xlsx
+++ b/01_基本設計書/20200220リリース/SC-Z01_在庫照会.xlsx
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D02B8AC-F644-46C4-BF2D-E31B73C071A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50E826C-F204-41CF-94D4-819A47CDF69E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -2897,34 +2897,19 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ON   実績管理データ.品名事業所コード</t>
-  </si>
-  <si>
     <t>＝</t>
   </si>
   <si>
     <t>生産品名マスタ.品名事業所コード</t>
   </si>
   <si>
-    <t>AND 実績管理データ.パック品名略称</t>
-  </si>
-  <si>
     <t>生産品名マスタ.パック品名略称</t>
-  </si>
-  <si>
-    <t>AND 実績管理データ.納入先コード</t>
   </si>
   <si>
     <t>生産品名マスタ.納入先コード</t>
   </si>
   <si>
-    <t>AND 実績管理データ.納入区分</t>
-  </si>
-  <si>
     <t>生産品名マスタ.納入区分</t>
-  </si>
-  <si>
-    <t>AND 実績管理データ.製品半製品区分</t>
   </si>
   <si>
     <t>生産品名マスタ.品名略称</t>
@@ -3348,6 +3333,21 @@
       <t>ハンセイヒン</t>
     </rPh>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ON   在庫データ.品名事業所コード</t>
+  </si>
+  <si>
+    <t>AND 在庫データ.パック品名略称</t>
+  </si>
+  <si>
+    <t>AND 在庫データ.納入先コード</t>
+  </si>
+  <si>
+    <t>AND 在庫データ.納入区分</t>
+  </si>
+  <si>
+    <t>AND 在庫データ.製品半製品区分</t>
   </si>
 </sst>
 </file>
@@ -4754,91 +4754,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4865,6 +4780,91 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5831,7 +5831,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$47" spid="_x0000_s3536"/>
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$47" spid="_x0000_s3538"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6582,8 +6582,8 @@
             <a:xfrm>
               <a:off x="426449" y="2130359"/>
               <a:ext cx="1803076" cy="1150735"/>
-              <a:chOff x="1787559" y="2316188"/>
-              <a:chExt cx="1341120" cy="969081"/>
+              <a:chOff x="1787559" y="2316186"/>
+              <a:chExt cx="1341120" cy="969080"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:grpSp>
@@ -6599,10 +6599,10 @@
             </xdr:nvGrpSpPr>
             <xdr:grpSpPr>
               <a:xfrm>
-                <a:off x="1823232" y="2648483"/>
-                <a:ext cx="777645" cy="485704"/>
-                <a:chOff x="191656" y="3012330"/>
-                <a:chExt cx="777645" cy="479515"/>
+                <a:off x="1823232" y="2648485"/>
+                <a:ext cx="777645" cy="485701"/>
+                <a:chOff x="191656" y="3012332"/>
+                <a:chExt cx="777645" cy="479512"/>
               </a:xfrm>
             </xdr:grpSpPr>
             <xdr:sp macro="" textlink="">
@@ -6621,7 +6621,7 @@
               </xdr:nvSpPr>
               <xdr:spPr bwMode="auto">
                 <a:xfrm>
-                  <a:off x="191656" y="3012330"/>
+                  <a:off x="191656" y="3012332"/>
                   <a:ext cx="777645" cy="164478"/>
                 </a:xfrm>
                 <a:prstGeom prst="rect">
@@ -6687,8 +6687,8 @@
               </xdr:nvSpPr>
               <xdr:spPr bwMode="auto">
                 <a:xfrm>
-                  <a:off x="196808" y="3340365"/>
-                  <a:ext cx="763862" cy="151480"/>
+                  <a:off x="196808" y="3340363"/>
+                  <a:ext cx="763862" cy="151481"/>
                 </a:xfrm>
                 <a:prstGeom prst="rect">
                   <a:avLst/>
@@ -6754,8 +6754,8 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="1787559" y="2316188"/>
-                <a:ext cx="1341120" cy="969081"/>
+                <a:off x="1787559" y="2316186"/>
+                <a:ext cx="1341120" cy="969080"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -8296,1779 +8296,1994 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="54"/>
-      <c r="B1" s="269" t="s">
+      <c r="B1" s="238" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="269"/>
-      <c r="D1" s="269"/>
-      <c r="E1" s="269"/>
-      <c r="F1" s="269"/>
-      <c r="G1" s="269"/>
-      <c r="H1" s="269"/>
-      <c r="I1" s="269"/>
-      <c r="J1" s="269"/>
-      <c r="K1" s="269"/>
-      <c r="L1" s="269"/>
-      <c r="M1" s="269"/>
-      <c r="N1" s="269"/>
-      <c r="O1" s="269"/>
-      <c r="P1" s="269"/>
-      <c r="Q1" s="269"/>
-      <c r="R1" s="269"/>
-      <c r="S1" s="269"/>
-      <c r="T1" s="269"/>
-      <c r="U1" s="269"/>
-      <c r="V1" s="269"/>
-      <c r="W1" s="269"/>
-      <c r="X1" s="269"/>
-      <c r="Y1" s="269"/>
-      <c r="Z1" s="269"/>
-      <c r="AA1" s="269"/>
-      <c r="AB1" s="269"/>
-      <c r="AC1" s="269"/>
-      <c r="AD1" s="269"/>
-      <c r="AE1" s="269"/>
-      <c r="AF1" s="269"/>
-      <c r="AG1" s="269"/>
-      <c r="AH1" s="269"/>
-      <c r="AI1" s="269"/>
-      <c r="AJ1" s="269"/>
-      <c r="AK1" s="269"/>
-      <c r="AL1" s="269"/>
-      <c r="AM1" s="269"/>
-      <c r="AN1" s="269"/>
-      <c r="AO1" s="269"/>
-      <c r="AP1" s="269"/>
-      <c r="AQ1" s="269"/>
-      <c r="AR1" s="269"/>
-      <c r="AS1" s="269"/>
-      <c r="AT1" s="269"/>
-      <c r="AU1" s="269"/>
-      <c r="AV1" s="269"/>
-      <c r="AW1" s="269"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="238"/>
+      <c r="F1" s="238"/>
+      <c r="G1" s="238"/>
+      <c r="H1" s="238"/>
+      <c r="I1" s="238"/>
+      <c r="J1" s="238"/>
+      <c r="K1" s="238"/>
+      <c r="L1" s="238"/>
+      <c r="M1" s="238"/>
+      <c r="N1" s="238"/>
+      <c r="O1" s="238"/>
+      <c r="P1" s="238"/>
+      <c r="Q1" s="238"/>
+      <c r="R1" s="238"/>
+      <c r="S1" s="238"/>
+      <c r="T1" s="238"/>
+      <c r="U1" s="238"/>
+      <c r="V1" s="238"/>
+      <c r="W1" s="238"/>
+      <c r="X1" s="238"/>
+      <c r="Y1" s="238"/>
+      <c r="Z1" s="238"/>
+      <c r="AA1" s="238"/>
+      <c r="AB1" s="238"/>
+      <c r="AC1" s="238"/>
+      <c r="AD1" s="238"/>
+      <c r="AE1" s="238"/>
+      <c r="AF1" s="238"/>
+      <c r="AG1" s="238"/>
+      <c r="AH1" s="238"/>
+      <c r="AI1" s="238"/>
+      <c r="AJ1" s="238"/>
+      <c r="AK1" s="238"/>
+      <c r="AL1" s="238"/>
+      <c r="AM1" s="238"/>
+      <c r="AN1" s="238"/>
+      <c r="AO1" s="238"/>
+      <c r="AP1" s="238"/>
+      <c r="AQ1" s="238"/>
+      <c r="AR1" s="238"/>
+      <c r="AS1" s="238"/>
+      <c r="AT1" s="238"/>
+      <c r="AU1" s="238"/>
+      <c r="AV1" s="238"/>
+      <c r="AW1" s="238"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="54"/>
-      <c r="B2" s="270"/>
-      <c r="C2" s="270"/>
-      <c r="D2" s="270"/>
-      <c r="E2" s="270"/>
-      <c r="F2" s="270"/>
-      <c r="G2" s="270"/>
-      <c r="H2" s="270"/>
-      <c r="I2" s="270"/>
-      <c r="J2" s="270"/>
-      <c r="K2" s="270"/>
-      <c r="L2" s="270"/>
-      <c r="M2" s="270"/>
-      <c r="N2" s="270"/>
-      <c r="O2" s="270"/>
-      <c r="P2" s="270"/>
-      <c r="Q2" s="270"/>
-      <c r="R2" s="270"/>
-      <c r="S2" s="270"/>
-      <c r="T2" s="270"/>
-      <c r="U2" s="270"/>
-      <c r="V2" s="270"/>
-      <c r="W2" s="270"/>
-      <c r="X2" s="270"/>
-      <c r="Y2" s="270"/>
-      <c r="Z2" s="270"/>
-      <c r="AA2" s="270"/>
-      <c r="AB2" s="270"/>
-      <c r="AC2" s="270"/>
-      <c r="AD2" s="270"/>
-      <c r="AE2" s="270"/>
-      <c r="AF2" s="270"/>
-      <c r="AG2" s="270"/>
-      <c r="AH2" s="270"/>
-      <c r="AI2" s="270"/>
-      <c r="AJ2" s="270"/>
-      <c r="AK2" s="270"/>
-      <c r="AL2" s="270"/>
-      <c r="AM2" s="270"/>
-      <c r="AN2" s="270"/>
-      <c r="AO2" s="270"/>
-      <c r="AP2" s="270"/>
-      <c r="AQ2" s="270"/>
-      <c r="AR2" s="270"/>
-      <c r="AS2" s="270"/>
-      <c r="AT2" s="270"/>
-      <c r="AU2" s="270"/>
-      <c r="AV2" s="270"/>
-      <c r="AW2" s="270"/>
+      <c r="B2" s="239"/>
+      <c r="C2" s="239"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="239"/>
+      <c r="F2" s="239"/>
+      <c r="G2" s="239"/>
+      <c r="H2" s="239"/>
+      <c r="I2" s="239"/>
+      <c r="J2" s="239"/>
+      <c r="K2" s="239"/>
+      <c r="L2" s="239"/>
+      <c r="M2" s="239"/>
+      <c r="N2" s="239"/>
+      <c r="O2" s="239"/>
+      <c r="P2" s="239"/>
+      <c r="Q2" s="239"/>
+      <c r="R2" s="239"/>
+      <c r="S2" s="239"/>
+      <c r="T2" s="239"/>
+      <c r="U2" s="239"/>
+      <c r="V2" s="239"/>
+      <c r="W2" s="239"/>
+      <c r="X2" s="239"/>
+      <c r="Y2" s="239"/>
+      <c r="Z2" s="239"/>
+      <c r="AA2" s="239"/>
+      <c r="AB2" s="239"/>
+      <c r="AC2" s="239"/>
+      <c r="AD2" s="239"/>
+      <c r="AE2" s="239"/>
+      <c r="AF2" s="239"/>
+      <c r="AG2" s="239"/>
+      <c r="AH2" s="239"/>
+      <c r="AI2" s="239"/>
+      <c r="AJ2" s="239"/>
+      <c r="AK2" s="239"/>
+      <c r="AL2" s="239"/>
+      <c r="AM2" s="239"/>
+      <c r="AN2" s="239"/>
+      <c r="AO2" s="239"/>
+      <c r="AP2" s="239"/>
+      <c r="AQ2" s="239"/>
+      <c r="AR2" s="239"/>
+      <c r="AS2" s="239"/>
+      <c r="AT2" s="239"/>
+      <c r="AU2" s="239"/>
+      <c r="AV2" s="239"/>
+      <c r="AW2" s="239"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="54"/>
-      <c r="B3" s="271" t="s">
+      <c r="B3" s="240" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="271"/>
-      <c r="D3" s="271"/>
-      <c r="E3" s="271" t="s">
+      <c r="C3" s="240"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="240" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="271"/>
-      <c r="G3" s="271"/>
-      <c r="H3" s="271"/>
-      <c r="I3" s="271"/>
-      <c r="J3" s="272" t="s">
+      <c r="F3" s="240"/>
+      <c r="G3" s="240"/>
+      <c r="H3" s="240"/>
+      <c r="I3" s="240"/>
+      <c r="J3" s="241" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="273"/>
-      <c r="L3" s="274"/>
-      <c r="M3" s="272" t="s">
+      <c r="K3" s="242"/>
+      <c r="L3" s="243"/>
+      <c r="M3" s="241" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="273"/>
-      <c r="O3" s="273"/>
-      <c r="P3" s="273"/>
-      <c r="Q3" s="273"/>
-      <c r="R3" s="274"/>
-      <c r="S3" s="271" t="s">
+      <c r="N3" s="242"/>
+      <c r="O3" s="242"/>
+      <c r="P3" s="242"/>
+      <c r="Q3" s="242"/>
+      <c r="R3" s="243"/>
+      <c r="S3" s="240" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="271"/>
-      <c r="U3" s="271"/>
-      <c r="V3" s="271" t="s">
+      <c r="T3" s="240"/>
+      <c r="U3" s="240"/>
+      <c r="V3" s="240" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="271"/>
-      <c r="X3" s="271"/>
-      <c r="Y3" s="271"/>
-      <c r="Z3" s="271"/>
-      <c r="AA3" s="271"/>
-      <c r="AB3" s="271"/>
-      <c r="AC3" s="271"/>
-      <c r="AD3" s="271"/>
-      <c r="AE3" s="271"/>
-      <c r="AF3" s="271"/>
-      <c r="AG3" s="271"/>
-      <c r="AH3" s="271"/>
-      <c r="AI3" s="271"/>
-      <c r="AJ3" s="271"/>
-      <c r="AK3" s="271"/>
-      <c r="AL3" s="271"/>
-      <c r="AM3" s="271"/>
-      <c r="AN3" s="271" t="s">
+      <c r="W3" s="240"/>
+      <c r="X3" s="240"/>
+      <c r="Y3" s="240"/>
+      <c r="Z3" s="240"/>
+      <c r="AA3" s="240"/>
+      <c r="AB3" s="240"/>
+      <c r="AC3" s="240"/>
+      <c r="AD3" s="240"/>
+      <c r="AE3" s="240"/>
+      <c r="AF3" s="240"/>
+      <c r="AG3" s="240"/>
+      <c r="AH3" s="240"/>
+      <c r="AI3" s="240"/>
+      <c r="AJ3" s="240"/>
+      <c r="AK3" s="240"/>
+      <c r="AL3" s="240"/>
+      <c r="AM3" s="240"/>
+      <c r="AN3" s="240" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="271"/>
-      <c r="AP3" s="271"/>
-      <c r="AQ3" s="271"/>
-      <c r="AR3" s="271"/>
-      <c r="AS3" s="271" t="s">
+      <c r="AO3" s="240"/>
+      <c r="AP3" s="240"/>
+      <c r="AQ3" s="240"/>
+      <c r="AR3" s="240"/>
+      <c r="AS3" s="240" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="271"/>
-      <c r="AU3" s="271"/>
-      <c r="AV3" s="271"/>
-      <c r="AW3" s="271"/>
+      <c r="AT3" s="240"/>
+      <c r="AU3" s="240"/>
+      <c r="AV3" s="240"/>
+      <c r="AW3" s="240"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="54"/>
-      <c r="B4" s="271"/>
-      <c r="C4" s="271"/>
-      <c r="D4" s="271"/>
-      <c r="E4" s="271"/>
-      <c r="F4" s="271"/>
-      <c r="G4" s="271"/>
-      <c r="H4" s="271"/>
-      <c r="I4" s="271"/>
-      <c r="J4" s="275"/>
-      <c r="K4" s="276"/>
-      <c r="L4" s="277"/>
-      <c r="M4" s="275"/>
-      <c r="N4" s="276"/>
-      <c r="O4" s="276"/>
-      <c r="P4" s="276"/>
-      <c r="Q4" s="276"/>
-      <c r="R4" s="277"/>
-      <c r="S4" s="271"/>
-      <c r="T4" s="271"/>
-      <c r="U4" s="271"/>
-      <c r="V4" s="271"/>
-      <c r="W4" s="271"/>
-      <c r="X4" s="271"/>
-      <c r="Y4" s="271"/>
-      <c r="Z4" s="271"/>
-      <c r="AA4" s="271"/>
-      <c r="AB4" s="271"/>
-      <c r="AC4" s="271"/>
-      <c r="AD4" s="271"/>
-      <c r="AE4" s="271"/>
-      <c r="AF4" s="271"/>
-      <c r="AG4" s="271"/>
-      <c r="AH4" s="271"/>
-      <c r="AI4" s="271"/>
-      <c r="AJ4" s="271"/>
-      <c r="AK4" s="271"/>
-      <c r="AL4" s="271"/>
-      <c r="AM4" s="271"/>
-      <c r="AN4" s="271"/>
-      <c r="AO4" s="271"/>
-      <c r="AP4" s="271"/>
-      <c r="AQ4" s="271"/>
-      <c r="AR4" s="271"/>
-      <c r="AS4" s="271"/>
-      <c r="AT4" s="271"/>
-      <c r="AU4" s="271"/>
-      <c r="AV4" s="271"/>
-      <c r="AW4" s="271"/>
+      <c r="B4" s="240"/>
+      <c r="C4" s="240"/>
+      <c r="D4" s="240"/>
+      <c r="E4" s="240"/>
+      <c r="F4" s="240"/>
+      <c r="G4" s="240"/>
+      <c r="H4" s="240"/>
+      <c r="I4" s="240"/>
+      <c r="J4" s="244"/>
+      <c r="K4" s="245"/>
+      <c r="L4" s="246"/>
+      <c r="M4" s="244"/>
+      <c r="N4" s="245"/>
+      <c r="O4" s="245"/>
+      <c r="P4" s="245"/>
+      <c r="Q4" s="245"/>
+      <c r="R4" s="246"/>
+      <c r="S4" s="240"/>
+      <c r="T4" s="240"/>
+      <c r="U4" s="240"/>
+      <c r="V4" s="240"/>
+      <c r="W4" s="240"/>
+      <c r="X4" s="240"/>
+      <c r="Y4" s="240"/>
+      <c r="Z4" s="240"/>
+      <c r="AA4" s="240"/>
+      <c r="AB4" s="240"/>
+      <c r="AC4" s="240"/>
+      <c r="AD4" s="240"/>
+      <c r="AE4" s="240"/>
+      <c r="AF4" s="240"/>
+      <c r="AG4" s="240"/>
+      <c r="AH4" s="240"/>
+      <c r="AI4" s="240"/>
+      <c r="AJ4" s="240"/>
+      <c r="AK4" s="240"/>
+      <c r="AL4" s="240"/>
+      <c r="AM4" s="240"/>
+      <c r="AN4" s="240"/>
+      <c r="AO4" s="240"/>
+      <c r="AP4" s="240"/>
+      <c r="AQ4" s="240"/>
+      <c r="AR4" s="240"/>
+      <c r="AS4" s="240"/>
+      <c r="AT4" s="240"/>
+      <c r="AU4" s="240"/>
+      <c r="AV4" s="240"/>
+      <c r="AW4" s="240"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="56"/>
-      <c r="B5" s="263">
+      <c r="B5" s="248">
         <v>1</v>
       </c>
-      <c r="C5" s="263"/>
-      <c r="D5" s="263"/>
-      <c r="E5" s="244">
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="249">
         <v>43734</v>
       </c>
-      <c r="F5" s="244"/>
-      <c r="G5" s="244"/>
-      <c r="H5" s="244"/>
-      <c r="I5" s="244"/>
-      <c r="J5" s="245" t="s">
+      <c r="F5" s="249"/>
+      <c r="G5" s="249"/>
+      <c r="H5" s="249"/>
+      <c r="I5" s="249"/>
+      <c r="J5" s="250" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="246"/>
-      <c r="L5" s="247"/>
-      <c r="M5" s="245" t="s">
+      <c r="K5" s="251"/>
+      <c r="L5" s="252"/>
+      <c r="M5" s="250" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="246"/>
-      <c r="O5" s="246"/>
-      <c r="P5" s="246"/>
-      <c r="Q5" s="246"/>
-      <c r="R5" s="247"/>
-      <c r="S5" s="251" t="s">
+      <c r="N5" s="251"/>
+      <c r="O5" s="251"/>
+      <c r="P5" s="251"/>
+      <c r="Q5" s="251"/>
+      <c r="R5" s="252"/>
+      <c r="S5" s="247" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="251"/>
-      <c r="U5" s="251"/>
-      <c r="V5" s="262" t="s">
+      <c r="T5" s="247"/>
+      <c r="U5" s="247"/>
+      <c r="V5" s="256" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="262"/>
-      <c r="X5" s="262"/>
-      <c r="Y5" s="262"/>
-      <c r="Z5" s="262"/>
-      <c r="AA5" s="262"/>
-      <c r="AB5" s="262"/>
-      <c r="AC5" s="262"/>
-      <c r="AD5" s="262"/>
-      <c r="AE5" s="262"/>
-      <c r="AF5" s="262"/>
-      <c r="AG5" s="262"/>
-      <c r="AH5" s="262"/>
-      <c r="AI5" s="262"/>
-      <c r="AJ5" s="262"/>
-      <c r="AK5" s="262"/>
-      <c r="AL5" s="262"/>
-      <c r="AM5" s="262"/>
-      <c r="AN5" s="251" t="s">
+      <c r="W5" s="256"/>
+      <c r="X5" s="256"/>
+      <c r="Y5" s="256"/>
+      <c r="Z5" s="256"/>
+      <c r="AA5" s="256"/>
+      <c r="AB5" s="256"/>
+      <c r="AC5" s="256"/>
+      <c r="AD5" s="256"/>
+      <c r="AE5" s="256"/>
+      <c r="AF5" s="256"/>
+      <c r="AG5" s="256"/>
+      <c r="AH5" s="256"/>
+      <c r="AI5" s="256"/>
+      <c r="AJ5" s="256"/>
+      <c r="AK5" s="256"/>
+      <c r="AL5" s="256"/>
+      <c r="AM5" s="256"/>
+      <c r="AN5" s="247" t="s">
         <v>190</v>
       </c>
-      <c r="AO5" s="251"/>
-      <c r="AP5" s="251"/>
-      <c r="AQ5" s="251"/>
-      <c r="AR5" s="251"/>
-      <c r="AS5" s="251"/>
-      <c r="AT5" s="251"/>
-      <c r="AU5" s="251"/>
-      <c r="AV5" s="251"/>
-      <c r="AW5" s="251"/>
+      <c r="AO5" s="247"/>
+      <c r="AP5" s="247"/>
+      <c r="AQ5" s="247"/>
+      <c r="AR5" s="247"/>
+      <c r="AS5" s="247"/>
+      <c r="AT5" s="247"/>
+      <c r="AU5" s="247"/>
+      <c r="AV5" s="247"/>
+      <c r="AW5" s="247"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="56"/>
-      <c r="B6" s="263"/>
-      <c r="C6" s="263"/>
-      <c r="D6" s="263"/>
-      <c r="E6" s="244"/>
-      <c r="F6" s="244"/>
-      <c r="G6" s="244"/>
-      <c r="H6" s="244"/>
-      <c r="I6" s="244"/>
-      <c r="J6" s="245"/>
-      <c r="K6" s="246"/>
-      <c r="L6" s="247"/>
-      <c r="M6" s="266"/>
-      <c r="N6" s="267"/>
-      <c r="O6" s="267"/>
-      <c r="P6" s="267"/>
-      <c r="Q6" s="267"/>
-      <c r="R6" s="268"/>
-      <c r="S6" s="251"/>
-      <c r="T6" s="251"/>
-      <c r="U6" s="251"/>
-      <c r="V6" s="262"/>
-      <c r="W6" s="262"/>
-      <c r="X6" s="262"/>
-      <c r="Y6" s="262"/>
-      <c r="Z6" s="262"/>
-      <c r="AA6" s="262"/>
-      <c r="AB6" s="262"/>
-      <c r="AC6" s="262"/>
-      <c r="AD6" s="262"/>
-      <c r="AE6" s="262"/>
-      <c r="AF6" s="262"/>
-      <c r="AG6" s="262"/>
-      <c r="AH6" s="262"/>
-      <c r="AI6" s="262"/>
-      <c r="AJ6" s="262"/>
-      <c r="AK6" s="262"/>
-      <c r="AL6" s="262"/>
-      <c r="AM6" s="262"/>
-      <c r="AN6" s="251"/>
-      <c r="AO6" s="251"/>
-      <c r="AP6" s="251"/>
-      <c r="AQ6" s="251"/>
-      <c r="AR6" s="251"/>
-      <c r="AS6" s="251"/>
-      <c r="AT6" s="251"/>
-      <c r="AU6" s="251"/>
-      <c r="AV6" s="251"/>
-      <c r="AW6" s="251"/>
+      <c r="B6" s="248"/>
+      <c r="C6" s="248"/>
+      <c r="D6" s="248"/>
+      <c r="E6" s="249"/>
+      <c r="F6" s="249"/>
+      <c r="G6" s="249"/>
+      <c r="H6" s="249"/>
+      <c r="I6" s="249"/>
+      <c r="J6" s="250"/>
+      <c r="K6" s="251"/>
+      <c r="L6" s="252"/>
+      <c r="M6" s="253"/>
+      <c r="N6" s="254"/>
+      <c r="O6" s="254"/>
+      <c r="P6" s="254"/>
+      <c r="Q6" s="254"/>
+      <c r="R6" s="255"/>
+      <c r="S6" s="247"/>
+      <c r="T6" s="247"/>
+      <c r="U6" s="247"/>
+      <c r="V6" s="256"/>
+      <c r="W6" s="256"/>
+      <c r="X6" s="256"/>
+      <c r="Y6" s="256"/>
+      <c r="Z6" s="256"/>
+      <c r="AA6" s="256"/>
+      <c r="AB6" s="256"/>
+      <c r="AC6" s="256"/>
+      <c r="AD6" s="256"/>
+      <c r="AE6" s="256"/>
+      <c r="AF6" s="256"/>
+      <c r="AG6" s="256"/>
+      <c r="AH6" s="256"/>
+      <c r="AI6" s="256"/>
+      <c r="AJ6" s="256"/>
+      <c r="AK6" s="256"/>
+      <c r="AL6" s="256"/>
+      <c r="AM6" s="256"/>
+      <c r="AN6" s="247"/>
+      <c r="AO6" s="247"/>
+      <c r="AP6" s="247"/>
+      <c r="AQ6" s="247"/>
+      <c r="AR6" s="247"/>
+      <c r="AS6" s="247"/>
+      <c r="AT6" s="247"/>
+      <c r="AU6" s="247"/>
+      <c r="AV6" s="247"/>
+      <c r="AW6" s="247"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="56"/>
-      <c r="B7" s="263"/>
-      <c r="C7" s="263"/>
-      <c r="D7" s="263"/>
-      <c r="E7" s="244"/>
-      <c r="F7" s="244"/>
-      <c r="G7" s="244"/>
-      <c r="H7" s="244"/>
-      <c r="I7" s="244"/>
-      <c r="J7" s="245"/>
-      <c r="K7" s="246"/>
-      <c r="L7" s="247"/>
-      <c r="M7" s="266"/>
-      <c r="N7" s="267"/>
-      <c r="O7" s="267"/>
-      <c r="P7" s="267"/>
-      <c r="Q7" s="267"/>
-      <c r="R7" s="268"/>
-      <c r="S7" s="251"/>
-      <c r="T7" s="251"/>
-      <c r="U7" s="251"/>
-      <c r="V7" s="262"/>
-      <c r="W7" s="262"/>
-      <c r="X7" s="262"/>
-      <c r="Y7" s="262"/>
-      <c r="Z7" s="262"/>
-      <c r="AA7" s="262"/>
-      <c r="AB7" s="262"/>
-      <c r="AC7" s="262"/>
-      <c r="AD7" s="262"/>
-      <c r="AE7" s="262"/>
-      <c r="AF7" s="262"/>
-      <c r="AG7" s="262"/>
-      <c r="AH7" s="262"/>
-      <c r="AI7" s="262"/>
-      <c r="AJ7" s="262"/>
-      <c r="AK7" s="262"/>
-      <c r="AL7" s="262"/>
-      <c r="AM7" s="262"/>
-      <c r="AN7" s="251"/>
-      <c r="AO7" s="251"/>
-      <c r="AP7" s="251"/>
-      <c r="AQ7" s="251"/>
-      <c r="AR7" s="251"/>
-      <c r="AS7" s="251"/>
-      <c r="AT7" s="251"/>
-      <c r="AU7" s="251"/>
-      <c r="AV7" s="251"/>
-      <c r="AW7" s="251"/>
+      <c r="B7" s="248"/>
+      <c r="C7" s="248"/>
+      <c r="D7" s="248"/>
+      <c r="E7" s="249"/>
+      <c r="F7" s="249"/>
+      <c r="G7" s="249"/>
+      <c r="H7" s="249"/>
+      <c r="I7" s="249"/>
+      <c r="J7" s="250"/>
+      <c r="K7" s="251"/>
+      <c r="L7" s="252"/>
+      <c r="M7" s="253"/>
+      <c r="N7" s="254"/>
+      <c r="O7" s="254"/>
+      <c r="P7" s="254"/>
+      <c r="Q7" s="254"/>
+      <c r="R7" s="255"/>
+      <c r="S7" s="247"/>
+      <c r="T7" s="247"/>
+      <c r="U7" s="247"/>
+      <c r="V7" s="256"/>
+      <c r="W7" s="256"/>
+      <c r="X7" s="256"/>
+      <c r="Y7" s="256"/>
+      <c r="Z7" s="256"/>
+      <c r="AA7" s="256"/>
+      <c r="AB7" s="256"/>
+      <c r="AC7" s="256"/>
+      <c r="AD7" s="256"/>
+      <c r="AE7" s="256"/>
+      <c r="AF7" s="256"/>
+      <c r="AG7" s="256"/>
+      <c r="AH7" s="256"/>
+      <c r="AI7" s="256"/>
+      <c r="AJ7" s="256"/>
+      <c r="AK7" s="256"/>
+      <c r="AL7" s="256"/>
+      <c r="AM7" s="256"/>
+      <c r="AN7" s="247"/>
+      <c r="AO7" s="247"/>
+      <c r="AP7" s="247"/>
+      <c r="AQ7" s="247"/>
+      <c r="AR7" s="247"/>
+      <c r="AS7" s="247"/>
+      <c r="AT7" s="247"/>
+      <c r="AU7" s="247"/>
+      <c r="AV7" s="247"/>
+      <c r="AW7" s="247"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="56"/>
-      <c r="B8" s="263"/>
-      <c r="C8" s="263"/>
-      <c r="D8" s="263"/>
-      <c r="E8" s="244"/>
-      <c r="F8" s="244"/>
-      <c r="G8" s="244"/>
-      <c r="H8" s="244"/>
-      <c r="I8" s="244"/>
-      <c r="J8" s="245"/>
-      <c r="K8" s="246"/>
-      <c r="L8" s="247"/>
-      <c r="M8" s="266"/>
-      <c r="N8" s="267"/>
-      <c r="O8" s="267"/>
-      <c r="P8" s="267"/>
-      <c r="Q8" s="267"/>
-      <c r="R8" s="268"/>
-      <c r="S8" s="251"/>
-      <c r="T8" s="251"/>
-      <c r="U8" s="251"/>
-      <c r="V8" s="262"/>
-      <c r="W8" s="262"/>
-      <c r="X8" s="262"/>
-      <c r="Y8" s="262"/>
-      <c r="Z8" s="262"/>
-      <c r="AA8" s="262"/>
-      <c r="AB8" s="262"/>
-      <c r="AC8" s="262"/>
-      <c r="AD8" s="262"/>
-      <c r="AE8" s="262"/>
-      <c r="AF8" s="262"/>
-      <c r="AG8" s="262"/>
-      <c r="AH8" s="262"/>
-      <c r="AI8" s="262"/>
-      <c r="AJ8" s="262"/>
-      <c r="AK8" s="262"/>
-      <c r="AL8" s="262"/>
-      <c r="AM8" s="262"/>
-      <c r="AN8" s="251"/>
-      <c r="AO8" s="251"/>
-      <c r="AP8" s="251"/>
-      <c r="AQ8" s="251"/>
-      <c r="AR8" s="251"/>
-      <c r="AS8" s="251"/>
-      <c r="AT8" s="251"/>
-      <c r="AU8" s="251"/>
-      <c r="AV8" s="251"/>
-      <c r="AW8" s="251"/>
+      <c r="B8" s="248"/>
+      <c r="C8" s="248"/>
+      <c r="D8" s="248"/>
+      <c r="E8" s="249"/>
+      <c r="F8" s="249"/>
+      <c r="G8" s="249"/>
+      <c r="H8" s="249"/>
+      <c r="I8" s="249"/>
+      <c r="J8" s="250"/>
+      <c r="K8" s="251"/>
+      <c r="L8" s="252"/>
+      <c r="M8" s="253"/>
+      <c r="N8" s="254"/>
+      <c r="O8" s="254"/>
+      <c r="P8" s="254"/>
+      <c r="Q8" s="254"/>
+      <c r="R8" s="255"/>
+      <c r="S8" s="247"/>
+      <c r="T8" s="247"/>
+      <c r="U8" s="247"/>
+      <c r="V8" s="256"/>
+      <c r="W8" s="256"/>
+      <c r="X8" s="256"/>
+      <c r="Y8" s="256"/>
+      <c r="Z8" s="256"/>
+      <c r="AA8" s="256"/>
+      <c r="AB8" s="256"/>
+      <c r="AC8" s="256"/>
+      <c r="AD8" s="256"/>
+      <c r="AE8" s="256"/>
+      <c r="AF8" s="256"/>
+      <c r="AG8" s="256"/>
+      <c r="AH8" s="256"/>
+      <c r="AI8" s="256"/>
+      <c r="AJ8" s="256"/>
+      <c r="AK8" s="256"/>
+      <c r="AL8" s="256"/>
+      <c r="AM8" s="256"/>
+      <c r="AN8" s="247"/>
+      <c r="AO8" s="247"/>
+      <c r="AP8" s="247"/>
+      <c r="AQ8" s="247"/>
+      <c r="AR8" s="247"/>
+      <c r="AS8" s="247"/>
+      <c r="AT8" s="247"/>
+      <c r="AU8" s="247"/>
+      <c r="AV8" s="247"/>
+      <c r="AW8" s="247"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="56"/>
-      <c r="B9" s="263"/>
-      <c r="C9" s="263"/>
-      <c r="D9" s="263"/>
-      <c r="E9" s="244"/>
-      <c r="F9" s="244"/>
-      <c r="G9" s="244"/>
-      <c r="H9" s="244"/>
-      <c r="I9" s="244"/>
-      <c r="J9" s="245"/>
-      <c r="K9" s="246"/>
-      <c r="L9" s="247"/>
-      <c r="M9" s="266"/>
-      <c r="N9" s="267"/>
-      <c r="O9" s="267"/>
-      <c r="P9" s="267"/>
-      <c r="Q9" s="267"/>
-      <c r="R9" s="268"/>
-      <c r="S9" s="251"/>
-      <c r="T9" s="251"/>
-      <c r="U9" s="251"/>
-      <c r="V9" s="262"/>
-      <c r="W9" s="262"/>
-      <c r="X9" s="262"/>
-      <c r="Y9" s="262"/>
-      <c r="Z9" s="262"/>
-      <c r="AA9" s="262"/>
-      <c r="AB9" s="262"/>
-      <c r="AC9" s="262"/>
-      <c r="AD9" s="262"/>
-      <c r="AE9" s="262"/>
-      <c r="AF9" s="262"/>
-      <c r="AG9" s="262"/>
-      <c r="AH9" s="262"/>
-      <c r="AI9" s="262"/>
-      <c r="AJ9" s="262"/>
-      <c r="AK9" s="262"/>
-      <c r="AL9" s="262"/>
-      <c r="AM9" s="262"/>
-      <c r="AN9" s="251"/>
-      <c r="AO9" s="251"/>
-      <c r="AP9" s="251"/>
-      <c r="AQ9" s="251"/>
-      <c r="AR9" s="251"/>
-      <c r="AS9" s="251"/>
-      <c r="AT9" s="251"/>
-      <c r="AU9" s="251"/>
-      <c r="AV9" s="251"/>
-      <c r="AW9" s="251"/>
+      <c r="B9" s="248"/>
+      <c r="C9" s="248"/>
+      <c r="D9" s="248"/>
+      <c r="E9" s="249"/>
+      <c r="F9" s="249"/>
+      <c r="G9" s="249"/>
+      <c r="H9" s="249"/>
+      <c r="I9" s="249"/>
+      <c r="J9" s="250"/>
+      <c r="K9" s="251"/>
+      <c r="L9" s="252"/>
+      <c r="M9" s="253"/>
+      <c r="N9" s="254"/>
+      <c r="O9" s="254"/>
+      <c r="P9" s="254"/>
+      <c r="Q9" s="254"/>
+      <c r="R9" s="255"/>
+      <c r="S9" s="247"/>
+      <c r="T9" s="247"/>
+      <c r="U9" s="247"/>
+      <c r="V9" s="256"/>
+      <c r="W9" s="256"/>
+      <c r="X9" s="256"/>
+      <c r="Y9" s="256"/>
+      <c r="Z9" s="256"/>
+      <c r="AA9" s="256"/>
+      <c r="AB9" s="256"/>
+      <c r="AC9" s="256"/>
+      <c r="AD9" s="256"/>
+      <c r="AE9" s="256"/>
+      <c r="AF9" s="256"/>
+      <c r="AG9" s="256"/>
+      <c r="AH9" s="256"/>
+      <c r="AI9" s="256"/>
+      <c r="AJ9" s="256"/>
+      <c r="AK9" s="256"/>
+      <c r="AL9" s="256"/>
+      <c r="AM9" s="256"/>
+      <c r="AN9" s="247"/>
+      <c r="AO9" s="247"/>
+      <c r="AP9" s="247"/>
+      <c r="AQ9" s="247"/>
+      <c r="AR9" s="247"/>
+      <c r="AS9" s="247"/>
+      <c r="AT9" s="247"/>
+      <c r="AU9" s="247"/>
+      <c r="AV9" s="247"/>
+      <c r="AW9" s="247"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="56"/>
-      <c r="B10" s="263"/>
-      <c r="C10" s="263"/>
-      <c r="D10" s="263"/>
-      <c r="E10" s="244"/>
-      <c r="F10" s="244"/>
-      <c r="G10" s="244"/>
-      <c r="H10" s="244"/>
-      <c r="I10" s="244"/>
-      <c r="J10" s="245"/>
-      <c r="K10" s="246"/>
-      <c r="L10" s="247"/>
-      <c r="M10" s="266"/>
-      <c r="N10" s="267"/>
-      <c r="O10" s="267"/>
-      <c r="P10" s="267"/>
-      <c r="Q10" s="267"/>
-      <c r="R10" s="268"/>
-      <c r="S10" s="251"/>
-      <c r="T10" s="251"/>
-      <c r="U10" s="251"/>
-      <c r="V10" s="262"/>
-      <c r="W10" s="262"/>
-      <c r="X10" s="262"/>
-      <c r="Y10" s="262"/>
-      <c r="Z10" s="262"/>
-      <c r="AA10" s="262"/>
-      <c r="AB10" s="262"/>
-      <c r="AC10" s="262"/>
-      <c r="AD10" s="262"/>
-      <c r="AE10" s="262"/>
-      <c r="AF10" s="262"/>
-      <c r="AG10" s="262"/>
-      <c r="AH10" s="262"/>
-      <c r="AI10" s="262"/>
-      <c r="AJ10" s="262"/>
-      <c r="AK10" s="262"/>
-      <c r="AL10" s="262"/>
-      <c r="AM10" s="262"/>
-      <c r="AN10" s="251"/>
-      <c r="AO10" s="251"/>
-      <c r="AP10" s="251"/>
-      <c r="AQ10" s="251"/>
-      <c r="AR10" s="251"/>
-      <c r="AS10" s="251"/>
-      <c r="AT10" s="251"/>
-      <c r="AU10" s="251"/>
-      <c r="AV10" s="251"/>
-      <c r="AW10" s="251"/>
+      <c r="B10" s="248"/>
+      <c r="C10" s="248"/>
+      <c r="D10" s="248"/>
+      <c r="E10" s="249"/>
+      <c r="F10" s="249"/>
+      <c r="G10" s="249"/>
+      <c r="H10" s="249"/>
+      <c r="I10" s="249"/>
+      <c r="J10" s="250"/>
+      <c r="K10" s="251"/>
+      <c r="L10" s="252"/>
+      <c r="M10" s="253"/>
+      <c r="N10" s="254"/>
+      <c r="O10" s="254"/>
+      <c r="P10" s="254"/>
+      <c r="Q10" s="254"/>
+      <c r="R10" s="255"/>
+      <c r="S10" s="247"/>
+      <c r="T10" s="247"/>
+      <c r="U10" s="247"/>
+      <c r="V10" s="256"/>
+      <c r="W10" s="256"/>
+      <c r="X10" s="256"/>
+      <c r="Y10" s="256"/>
+      <c r="Z10" s="256"/>
+      <c r="AA10" s="256"/>
+      <c r="AB10" s="256"/>
+      <c r="AC10" s="256"/>
+      <c r="AD10" s="256"/>
+      <c r="AE10" s="256"/>
+      <c r="AF10" s="256"/>
+      <c r="AG10" s="256"/>
+      <c r="AH10" s="256"/>
+      <c r="AI10" s="256"/>
+      <c r="AJ10" s="256"/>
+      <c r="AK10" s="256"/>
+      <c r="AL10" s="256"/>
+      <c r="AM10" s="256"/>
+      <c r="AN10" s="247"/>
+      <c r="AO10" s="247"/>
+      <c r="AP10" s="247"/>
+      <c r="AQ10" s="247"/>
+      <c r="AR10" s="247"/>
+      <c r="AS10" s="247"/>
+      <c r="AT10" s="247"/>
+      <c r="AU10" s="247"/>
+      <c r="AV10" s="247"/>
+      <c r="AW10" s="247"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="56"/>
-      <c r="B11" s="263"/>
-      <c r="C11" s="263"/>
-      <c r="D11" s="263"/>
-      <c r="E11" s="244"/>
-      <c r="F11" s="244"/>
-      <c r="G11" s="244"/>
-      <c r="H11" s="244"/>
-      <c r="I11" s="244"/>
-      <c r="J11" s="245"/>
-      <c r="K11" s="246"/>
-      <c r="L11" s="247"/>
-      <c r="M11" s="258"/>
-      <c r="N11" s="256"/>
-      <c r="O11" s="256"/>
-      <c r="P11" s="256"/>
-      <c r="Q11" s="256"/>
-      <c r="R11" s="257"/>
-      <c r="S11" s="251"/>
-      <c r="T11" s="251"/>
-      <c r="U11" s="251"/>
-      <c r="V11" s="252"/>
-      <c r="W11" s="264"/>
-      <c r="X11" s="264"/>
-      <c r="Y11" s="264"/>
-      <c r="Z11" s="264"/>
-      <c r="AA11" s="264"/>
-      <c r="AB11" s="264"/>
-      <c r="AC11" s="264"/>
-      <c r="AD11" s="264"/>
-      <c r="AE11" s="264"/>
-      <c r="AF11" s="264"/>
-      <c r="AG11" s="264"/>
-      <c r="AH11" s="264"/>
-      <c r="AI11" s="264"/>
-      <c r="AJ11" s="264"/>
-      <c r="AK11" s="264"/>
-      <c r="AL11" s="264"/>
-      <c r="AM11" s="265"/>
-      <c r="AN11" s="251"/>
-      <c r="AO11" s="251"/>
-      <c r="AP11" s="251"/>
-      <c r="AQ11" s="251"/>
-      <c r="AR11" s="251"/>
-      <c r="AS11" s="251"/>
-      <c r="AT11" s="251"/>
-      <c r="AU11" s="251"/>
-      <c r="AV11" s="251"/>
-      <c r="AW11" s="251"/>
+      <c r="B11" s="248"/>
+      <c r="C11" s="248"/>
+      <c r="D11" s="248"/>
+      <c r="E11" s="249"/>
+      <c r="F11" s="249"/>
+      <c r="G11" s="249"/>
+      <c r="H11" s="249"/>
+      <c r="I11" s="249"/>
+      <c r="J11" s="250"/>
+      <c r="K11" s="251"/>
+      <c r="L11" s="252"/>
+      <c r="M11" s="260"/>
+      <c r="N11" s="261"/>
+      <c r="O11" s="261"/>
+      <c r="P11" s="261"/>
+      <c r="Q11" s="261"/>
+      <c r="R11" s="262"/>
+      <c r="S11" s="247"/>
+      <c r="T11" s="247"/>
+      <c r="U11" s="247"/>
+      <c r="V11" s="263"/>
+      <c r="W11" s="269"/>
+      <c r="X11" s="269"/>
+      <c r="Y11" s="269"/>
+      <c r="Z11" s="269"/>
+      <c r="AA11" s="269"/>
+      <c r="AB11" s="269"/>
+      <c r="AC11" s="269"/>
+      <c r="AD11" s="269"/>
+      <c r="AE11" s="269"/>
+      <c r="AF11" s="269"/>
+      <c r="AG11" s="269"/>
+      <c r="AH11" s="269"/>
+      <c r="AI11" s="269"/>
+      <c r="AJ11" s="269"/>
+      <c r="AK11" s="269"/>
+      <c r="AL11" s="269"/>
+      <c r="AM11" s="270"/>
+      <c r="AN11" s="247"/>
+      <c r="AO11" s="247"/>
+      <c r="AP11" s="247"/>
+      <c r="AQ11" s="247"/>
+      <c r="AR11" s="247"/>
+      <c r="AS11" s="247"/>
+      <c r="AT11" s="247"/>
+      <c r="AU11" s="247"/>
+      <c r="AV11" s="247"/>
+      <c r="AW11" s="247"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="56"/>
-      <c r="B12" s="241"/>
-      <c r="C12" s="242"/>
-      <c r="D12" s="243"/>
-      <c r="E12" s="244"/>
-      <c r="F12" s="244"/>
-      <c r="G12" s="244"/>
-      <c r="H12" s="244"/>
-      <c r="I12" s="244"/>
-      <c r="J12" s="245"/>
-      <c r="K12" s="246"/>
-      <c r="L12" s="247"/>
-      <c r="M12" s="258"/>
-      <c r="N12" s="256"/>
-      <c r="O12" s="256"/>
-      <c r="P12" s="256"/>
-      <c r="Q12" s="256"/>
-      <c r="R12" s="257"/>
-      <c r="S12" s="251"/>
-      <c r="T12" s="251"/>
-      <c r="U12" s="251"/>
-      <c r="V12" s="252"/>
-      <c r="W12" s="253"/>
-      <c r="X12" s="253"/>
-      <c r="Y12" s="253"/>
-      <c r="Z12" s="253"/>
-      <c r="AA12" s="253"/>
-      <c r="AB12" s="253"/>
-      <c r="AC12" s="253"/>
-      <c r="AD12" s="253"/>
-      <c r="AE12" s="253"/>
-      <c r="AF12" s="253"/>
-      <c r="AG12" s="253"/>
-      <c r="AH12" s="253"/>
-      <c r="AI12" s="253"/>
-      <c r="AJ12" s="253"/>
-      <c r="AK12" s="253"/>
-      <c r="AL12" s="253"/>
-      <c r="AM12" s="254"/>
-      <c r="AN12" s="238"/>
-      <c r="AO12" s="239"/>
-      <c r="AP12" s="239"/>
-      <c r="AQ12" s="239"/>
-      <c r="AR12" s="240"/>
-      <c r="AS12" s="238"/>
-      <c r="AT12" s="239"/>
-      <c r="AU12" s="239"/>
-      <c r="AV12" s="239"/>
-      <c r="AW12" s="240"/>
+      <c r="B12" s="257"/>
+      <c r="C12" s="258"/>
+      <c r="D12" s="259"/>
+      <c r="E12" s="249"/>
+      <c r="F12" s="249"/>
+      <c r="G12" s="249"/>
+      <c r="H12" s="249"/>
+      <c r="I12" s="249"/>
+      <c r="J12" s="250"/>
+      <c r="K12" s="251"/>
+      <c r="L12" s="252"/>
+      <c r="M12" s="260"/>
+      <c r="N12" s="261"/>
+      <c r="O12" s="261"/>
+      <c r="P12" s="261"/>
+      <c r="Q12" s="261"/>
+      <c r="R12" s="262"/>
+      <c r="S12" s="247"/>
+      <c r="T12" s="247"/>
+      <c r="U12" s="247"/>
+      <c r="V12" s="263"/>
+      <c r="W12" s="264"/>
+      <c r="X12" s="264"/>
+      <c r="Y12" s="264"/>
+      <c r="Z12" s="264"/>
+      <c r="AA12" s="264"/>
+      <c r="AB12" s="264"/>
+      <c r="AC12" s="264"/>
+      <c r="AD12" s="264"/>
+      <c r="AE12" s="264"/>
+      <c r="AF12" s="264"/>
+      <c r="AG12" s="264"/>
+      <c r="AH12" s="264"/>
+      <c r="AI12" s="264"/>
+      <c r="AJ12" s="264"/>
+      <c r="AK12" s="264"/>
+      <c r="AL12" s="264"/>
+      <c r="AM12" s="265"/>
+      <c r="AN12" s="266"/>
+      <c r="AO12" s="267"/>
+      <c r="AP12" s="267"/>
+      <c r="AQ12" s="267"/>
+      <c r="AR12" s="268"/>
+      <c r="AS12" s="266"/>
+      <c r="AT12" s="267"/>
+      <c r="AU12" s="267"/>
+      <c r="AV12" s="267"/>
+      <c r="AW12" s="268"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="56"/>
-      <c r="B13" s="241"/>
-      <c r="C13" s="242"/>
-      <c r="D13" s="243"/>
-      <c r="E13" s="244"/>
-      <c r="F13" s="244"/>
-      <c r="G13" s="244"/>
-      <c r="H13" s="244"/>
-      <c r="I13" s="244"/>
-      <c r="J13" s="245"/>
-      <c r="K13" s="246"/>
-      <c r="L13" s="247"/>
-      <c r="M13" s="255"/>
-      <c r="N13" s="256"/>
-      <c r="O13" s="256"/>
-      <c r="P13" s="256"/>
-      <c r="Q13" s="256"/>
-      <c r="R13" s="257"/>
-      <c r="S13" s="251"/>
-      <c r="T13" s="251"/>
-      <c r="U13" s="251"/>
-      <c r="V13" s="252"/>
-      <c r="W13" s="253"/>
-      <c r="X13" s="253"/>
-      <c r="Y13" s="253"/>
-      <c r="Z13" s="253"/>
-      <c r="AA13" s="253"/>
-      <c r="AB13" s="253"/>
-      <c r="AC13" s="253"/>
-      <c r="AD13" s="253"/>
-      <c r="AE13" s="253"/>
-      <c r="AF13" s="253"/>
-      <c r="AG13" s="253"/>
-      <c r="AH13" s="253"/>
-      <c r="AI13" s="253"/>
-      <c r="AJ13" s="253"/>
-      <c r="AK13" s="253"/>
-      <c r="AL13" s="253"/>
-      <c r="AM13" s="254"/>
-      <c r="AN13" s="238"/>
-      <c r="AO13" s="239"/>
-      <c r="AP13" s="239"/>
-      <c r="AQ13" s="239"/>
-      <c r="AR13" s="240"/>
-      <c r="AS13" s="238"/>
-      <c r="AT13" s="239"/>
-      <c r="AU13" s="239"/>
-      <c r="AV13" s="239"/>
-      <c r="AW13" s="240"/>
+      <c r="B13" s="257"/>
+      <c r="C13" s="258"/>
+      <c r="D13" s="259"/>
+      <c r="E13" s="249"/>
+      <c r="F13" s="249"/>
+      <c r="G13" s="249"/>
+      <c r="H13" s="249"/>
+      <c r="I13" s="249"/>
+      <c r="J13" s="250"/>
+      <c r="K13" s="251"/>
+      <c r="L13" s="252"/>
+      <c r="M13" s="271"/>
+      <c r="N13" s="261"/>
+      <c r="O13" s="261"/>
+      <c r="P13" s="261"/>
+      <c r="Q13" s="261"/>
+      <c r="R13" s="262"/>
+      <c r="S13" s="247"/>
+      <c r="T13" s="247"/>
+      <c r="U13" s="247"/>
+      <c r="V13" s="263"/>
+      <c r="W13" s="264"/>
+      <c r="X13" s="264"/>
+      <c r="Y13" s="264"/>
+      <c r="Z13" s="264"/>
+      <c r="AA13" s="264"/>
+      <c r="AB13" s="264"/>
+      <c r="AC13" s="264"/>
+      <c r="AD13" s="264"/>
+      <c r="AE13" s="264"/>
+      <c r="AF13" s="264"/>
+      <c r="AG13" s="264"/>
+      <c r="AH13" s="264"/>
+      <c r="AI13" s="264"/>
+      <c r="AJ13" s="264"/>
+      <c r="AK13" s="264"/>
+      <c r="AL13" s="264"/>
+      <c r="AM13" s="265"/>
+      <c r="AN13" s="266"/>
+      <c r="AO13" s="267"/>
+      <c r="AP13" s="267"/>
+      <c r="AQ13" s="267"/>
+      <c r="AR13" s="268"/>
+      <c r="AS13" s="266"/>
+      <c r="AT13" s="267"/>
+      <c r="AU13" s="267"/>
+      <c r="AV13" s="267"/>
+      <c r="AW13" s="268"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="56"/>
-      <c r="B14" s="241"/>
-      <c r="C14" s="242"/>
-      <c r="D14" s="243"/>
-      <c r="E14" s="244"/>
-      <c r="F14" s="244"/>
-      <c r="G14" s="244"/>
-      <c r="H14" s="244"/>
-      <c r="I14" s="244"/>
-      <c r="J14" s="245"/>
-      <c r="K14" s="246"/>
-      <c r="L14" s="247"/>
-      <c r="M14" s="255"/>
-      <c r="N14" s="256"/>
-      <c r="O14" s="256"/>
-      <c r="P14" s="256"/>
-      <c r="Q14" s="256"/>
-      <c r="R14" s="257"/>
-      <c r="S14" s="251"/>
-      <c r="T14" s="251"/>
-      <c r="U14" s="251"/>
-      <c r="V14" s="261"/>
-      <c r="W14" s="262"/>
-      <c r="X14" s="262"/>
-      <c r="Y14" s="262"/>
-      <c r="Z14" s="262"/>
-      <c r="AA14" s="262"/>
-      <c r="AB14" s="262"/>
-      <c r="AC14" s="262"/>
-      <c r="AD14" s="262"/>
-      <c r="AE14" s="262"/>
-      <c r="AF14" s="262"/>
-      <c r="AG14" s="262"/>
-      <c r="AH14" s="262"/>
-      <c r="AI14" s="262"/>
-      <c r="AJ14" s="262"/>
-      <c r="AK14" s="262"/>
-      <c r="AL14" s="262"/>
-      <c r="AM14" s="262"/>
-      <c r="AN14" s="251"/>
-      <c r="AO14" s="251"/>
-      <c r="AP14" s="251"/>
-      <c r="AQ14" s="251"/>
-      <c r="AR14" s="251"/>
-      <c r="AS14" s="238"/>
-      <c r="AT14" s="239"/>
-      <c r="AU14" s="239"/>
-      <c r="AV14" s="239"/>
-      <c r="AW14" s="240"/>
+      <c r="B14" s="257"/>
+      <c r="C14" s="258"/>
+      <c r="D14" s="259"/>
+      <c r="E14" s="249"/>
+      <c r="F14" s="249"/>
+      <c r="G14" s="249"/>
+      <c r="H14" s="249"/>
+      <c r="I14" s="249"/>
+      <c r="J14" s="250"/>
+      <c r="K14" s="251"/>
+      <c r="L14" s="252"/>
+      <c r="M14" s="271"/>
+      <c r="N14" s="261"/>
+      <c r="O14" s="261"/>
+      <c r="P14" s="261"/>
+      <c r="Q14" s="261"/>
+      <c r="R14" s="262"/>
+      <c r="S14" s="247"/>
+      <c r="T14" s="247"/>
+      <c r="U14" s="247"/>
+      <c r="V14" s="272"/>
+      <c r="W14" s="256"/>
+      <c r="X14" s="256"/>
+      <c r="Y14" s="256"/>
+      <c r="Z14" s="256"/>
+      <c r="AA14" s="256"/>
+      <c r="AB14" s="256"/>
+      <c r="AC14" s="256"/>
+      <c r="AD14" s="256"/>
+      <c r="AE14" s="256"/>
+      <c r="AF14" s="256"/>
+      <c r="AG14" s="256"/>
+      <c r="AH14" s="256"/>
+      <c r="AI14" s="256"/>
+      <c r="AJ14" s="256"/>
+      <c r="AK14" s="256"/>
+      <c r="AL14" s="256"/>
+      <c r="AM14" s="256"/>
+      <c r="AN14" s="247"/>
+      <c r="AO14" s="247"/>
+      <c r="AP14" s="247"/>
+      <c r="AQ14" s="247"/>
+      <c r="AR14" s="247"/>
+      <c r="AS14" s="266"/>
+      <c r="AT14" s="267"/>
+      <c r="AU14" s="267"/>
+      <c r="AV14" s="267"/>
+      <c r="AW14" s="268"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="56"/>
-      <c r="B15" s="241"/>
-      <c r="C15" s="242"/>
-      <c r="D15" s="243"/>
-      <c r="E15" s="244"/>
-      <c r="F15" s="244"/>
-      <c r="G15" s="244"/>
-      <c r="H15" s="244"/>
-      <c r="I15" s="244"/>
-      <c r="J15" s="245"/>
-      <c r="K15" s="246"/>
-      <c r="L15" s="247"/>
-      <c r="M15" s="258"/>
-      <c r="N15" s="256"/>
-      <c r="O15" s="256"/>
-      <c r="P15" s="256"/>
-      <c r="Q15" s="256"/>
-      <c r="R15" s="257"/>
-      <c r="S15" s="251"/>
-      <c r="T15" s="251"/>
-      <c r="U15" s="251"/>
-      <c r="V15" s="252"/>
-      <c r="W15" s="253"/>
-      <c r="X15" s="253"/>
-      <c r="Y15" s="253"/>
-      <c r="Z15" s="253"/>
-      <c r="AA15" s="253"/>
-      <c r="AB15" s="253"/>
-      <c r="AC15" s="253"/>
-      <c r="AD15" s="253"/>
-      <c r="AE15" s="253"/>
-      <c r="AF15" s="253"/>
-      <c r="AG15" s="253"/>
-      <c r="AH15" s="253"/>
-      <c r="AI15" s="253"/>
-      <c r="AJ15" s="253"/>
-      <c r="AK15" s="253"/>
-      <c r="AL15" s="253"/>
-      <c r="AM15" s="254"/>
-      <c r="AN15" s="238"/>
-      <c r="AO15" s="239"/>
-      <c r="AP15" s="239"/>
-      <c r="AQ15" s="239"/>
-      <c r="AR15" s="240"/>
-      <c r="AS15" s="238"/>
-      <c r="AT15" s="239"/>
-      <c r="AU15" s="239"/>
-      <c r="AV15" s="239"/>
-      <c r="AW15" s="240"/>
+      <c r="B15" s="257"/>
+      <c r="C15" s="258"/>
+      <c r="D15" s="259"/>
+      <c r="E15" s="249"/>
+      <c r="F15" s="249"/>
+      <c r="G15" s="249"/>
+      <c r="H15" s="249"/>
+      <c r="I15" s="249"/>
+      <c r="J15" s="250"/>
+      <c r="K15" s="251"/>
+      <c r="L15" s="252"/>
+      <c r="M15" s="260"/>
+      <c r="N15" s="261"/>
+      <c r="O15" s="261"/>
+      <c r="P15" s="261"/>
+      <c r="Q15" s="261"/>
+      <c r="R15" s="262"/>
+      <c r="S15" s="247"/>
+      <c r="T15" s="247"/>
+      <c r="U15" s="247"/>
+      <c r="V15" s="263"/>
+      <c r="W15" s="264"/>
+      <c r="X15" s="264"/>
+      <c r="Y15" s="264"/>
+      <c r="Z15" s="264"/>
+      <c r="AA15" s="264"/>
+      <c r="AB15" s="264"/>
+      <c r="AC15" s="264"/>
+      <c r="AD15" s="264"/>
+      <c r="AE15" s="264"/>
+      <c r="AF15" s="264"/>
+      <c r="AG15" s="264"/>
+      <c r="AH15" s="264"/>
+      <c r="AI15" s="264"/>
+      <c r="AJ15" s="264"/>
+      <c r="AK15" s="264"/>
+      <c r="AL15" s="264"/>
+      <c r="AM15" s="265"/>
+      <c r="AN15" s="266"/>
+      <c r="AO15" s="267"/>
+      <c r="AP15" s="267"/>
+      <c r="AQ15" s="267"/>
+      <c r="AR15" s="268"/>
+      <c r="AS15" s="266"/>
+      <c r="AT15" s="267"/>
+      <c r="AU15" s="267"/>
+      <c r="AV15" s="267"/>
+      <c r="AW15" s="268"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="56"/>
-      <c r="B16" s="241"/>
-      <c r="C16" s="242"/>
-      <c r="D16" s="243"/>
-      <c r="E16" s="244"/>
-      <c r="F16" s="244"/>
-      <c r="G16" s="244"/>
-      <c r="H16" s="244"/>
-      <c r="I16" s="244"/>
-      <c r="J16" s="245"/>
-      <c r="K16" s="246"/>
-      <c r="L16" s="247"/>
-      <c r="M16" s="258"/>
-      <c r="N16" s="256"/>
-      <c r="O16" s="256"/>
-      <c r="P16" s="256"/>
-      <c r="Q16" s="256"/>
-      <c r="R16" s="257"/>
-      <c r="S16" s="251"/>
-      <c r="T16" s="251"/>
-      <c r="U16" s="251"/>
-      <c r="V16" s="252"/>
-      <c r="W16" s="253"/>
-      <c r="X16" s="253"/>
-      <c r="Y16" s="253"/>
-      <c r="Z16" s="253"/>
-      <c r="AA16" s="253"/>
-      <c r="AB16" s="253"/>
-      <c r="AC16" s="253"/>
-      <c r="AD16" s="253"/>
-      <c r="AE16" s="253"/>
-      <c r="AF16" s="253"/>
-      <c r="AG16" s="253"/>
-      <c r="AH16" s="253"/>
-      <c r="AI16" s="253"/>
-      <c r="AJ16" s="253"/>
-      <c r="AK16" s="253"/>
-      <c r="AL16" s="253"/>
-      <c r="AM16" s="254"/>
-      <c r="AN16" s="238"/>
-      <c r="AO16" s="239"/>
-      <c r="AP16" s="239"/>
-      <c r="AQ16" s="239"/>
-      <c r="AR16" s="240"/>
-      <c r="AS16" s="238"/>
-      <c r="AT16" s="239"/>
-      <c r="AU16" s="239"/>
-      <c r="AV16" s="239"/>
-      <c r="AW16" s="240"/>
+      <c r="B16" s="257"/>
+      <c r="C16" s="258"/>
+      <c r="D16" s="259"/>
+      <c r="E16" s="249"/>
+      <c r="F16" s="249"/>
+      <c r="G16" s="249"/>
+      <c r="H16" s="249"/>
+      <c r="I16" s="249"/>
+      <c r="J16" s="250"/>
+      <c r="K16" s="251"/>
+      <c r="L16" s="252"/>
+      <c r="M16" s="260"/>
+      <c r="N16" s="261"/>
+      <c r="O16" s="261"/>
+      <c r="P16" s="261"/>
+      <c r="Q16" s="261"/>
+      <c r="R16" s="262"/>
+      <c r="S16" s="247"/>
+      <c r="T16" s="247"/>
+      <c r="U16" s="247"/>
+      <c r="V16" s="263"/>
+      <c r="W16" s="264"/>
+      <c r="X16" s="264"/>
+      <c r="Y16" s="264"/>
+      <c r="Z16" s="264"/>
+      <c r="AA16" s="264"/>
+      <c r="AB16" s="264"/>
+      <c r="AC16" s="264"/>
+      <c r="AD16" s="264"/>
+      <c r="AE16" s="264"/>
+      <c r="AF16" s="264"/>
+      <c r="AG16" s="264"/>
+      <c r="AH16" s="264"/>
+      <c r="AI16" s="264"/>
+      <c r="AJ16" s="264"/>
+      <c r="AK16" s="264"/>
+      <c r="AL16" s="264"/>
+      <c r="AM16" s="265"/>
+      <c r="AN16" s="266"/>
+      <c r="AO16" s="267"/>
+      <c r="AP16" s="267"/>
+      <c r="AQ16" s="267"/>
+      <c r="AR16" s="268"/>
+      <c r="AS16" s="266"/>
+      <c r="AT16" s="267"/>
+      <c r="AU16" s="267"/>
+      <c r="AV16" s="267"/>
+      <c r="AW16" s="268"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="56"/>
-      <c r="B17" s="241"/>
-      <c r="C17" s="242"/>
-      <c r="D17" s="243"/>
-      <c r="E17" s="244"/>
-      <c r="F17" s="244"/>
-      <c r="G17" s="244"/>
-      <c r="H17" s="244"/>
-      <c r="I17" s="244"/>
-      <c r="J17" s="245"/>
-      <c r="K17" s="246"/>
-      <c r="L17" s="247"/>
-      <c r="M17" s="258"/>
-      <c r="N17" s="256"/>
-      <c r="O17" s="256"/>
-      <c r="P17" s="256"/>
-      <c r="Q17" s="256"/>
-      <c r="R17" s="259"/>
-      <c r="S17" s="260"/>
-      <c r="T17" s="260"/>
-      <c r="U17" s="260"/>
-      <c r="V17" s="252"/>
-      <c r="W17" s="253"/>
-      <c r="X17" s="253"/>
-      <c r="Y17" s="253"/>
-      <c r="Z17" s="253"/>
-      <c r="AA17" s="253"/>
-      <c r="AB17" s="253"/>
-      <c r="AC17" s="253"/>
-      <c r="AD17" s="253"/>
-      <c r="AE17" s="253"/>
-      <c r="AF17" s="253"/>
-      <c r="AG17" s="253"/>
-      <c r="AH17" s="253"/>
-      <c r="AI17" s="253"/>
-      <c r="AJ17" s="253"/>
-      <c r="AK17" s="253"/>
-      <c r="AL17" s="253"/>
-      <c r="AM17" s="254"/>
-      <c r="AN17" s="238"/>
-      <c r="AO17" s="239"/>
-      <c r="AP17" s="239"/>
-      <c r="AQ17" s="239"/>
-      <c r="AR17" s="240"/>
-      <c r="AS17" s="238"/>
-      <c r="AT17" s="239"/>
-      <c r="AU17" s="239"/>
-      <c r="AV17" s="239"/>
-      <c r="AW17" s="240"/>
+      <c r="B17" s="257"/>
+      <c r="C17" s="258"/>
+      <c r="D17" s="259"/>
+      <c r="E17" s="249"/>
+      <c r="F17" s="249"/>
+      <c r="G17" s="249"/>
+      <c r="H17" s="249"/>
+      <c r="I17" s="249"/>
+      <c r="J17" s="250"/>
+      <c r="K17" s="251"/>
+      <c r="L17" s="252"/>
+      <c r="M17" s="260"/>
+      <c r="N17" s="261"/>
+      <c r="O17" s="261"/>
+      <c r="P17" s="261"/>
+      <c r="Q17" s="261"/>
+      <c r="R17" s="273"/>
+      <c r="S17" s="274"/>
+      <c r="T17" s="274"/>
+      <c r="U17" s="274"/>
+      <c r="V17" s="263"/>
+      <c r="W17" s="264"/>
+      <c r="X17" s="264"/>
+      <c r="Y17" s="264"/>
+      <c r="Z17" s="264"/>
+      <c r="AA17" s="264"/>
+      <c r="AB17" s="264"/>
+      <c r="AC17" s="264"/>
+      <c r="AD17" s="264"/>
+      <c r="AE17" s="264"/>
+      <c r="AF17" s="264"/>
+      <c r="AG17" s="264"/>
+      <c r="AH17" s="264"/>
+      <c r="AI17" s="264"/>
+      <c r="AJ17" s="264"/>
+      <c r="AK17" s="264"/>
+      <c r="AL17" s="264"/>
+      <c r="AM17" s="265"/>
+      <c r="AN17" s="266"/>
+      <c r="AO17" s="267"/>
+      <c r="AP17" s="267"/>
+      <c r="AQ17" s="267"/>
+      <c r="AR17" s="268"/>
+      <c r="AS17" s="266"/>
+      <c r="AT17" s="267"/>
+      <c r="AU17" s="267"/>
+      <c r="AV17" s="267"/>
+      <c r="AW17" s="268"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
-      <c r="B18" s="241"/>
-      <c r="C18" s="242"/>
-      <c r="D18" s="243"/>
-      <c r="E18" s="244"/>
-      <c r="F18" s="244"/>
-      <c r="G18" s="244"/>
-      <c r="H18" s="244"/>
-      <c r="I18" s="244"/>
-      <c r="J18" s="245"/>
-      <c r="K18" s="246"/>
-      <c r="L18" s="247"/>
-      <c r="M18" s="255"/>
-      <c r="N18" s="256"/>
-      <c r="O18" s="256"/>
-      <c r="P18" s="256"/>
-      <c r="Q18" s="256"/>
-      <c r="R18" s="257"/>
-      <c r="S18" s="251"/>
-      <c r="T18" s="251"/>
-      <c r="U18" s="251"/>
-      <c r="V18" s="252"/>
-      <c r="W18" s="253"/>
-      <c r="X18" s="253"/>
-      <c r="Y18" s="253"/>
-      <c r="Z18" s="253"/>
-      <c r="AA18" s="253"/>
-      <c r="AB18" s="253"/>
-      <c r="AC18" s="253"/>
-      <c r="AD18" s="253"/>
-      <c r="AE18" s="253"/>
-      <c r="AF18" s="253"/>
-      <c r="AG18" s="253"/>
-      <c r="AH18" s="253"/>
-      <c r="AI18" s="253"/>
-      <c r="AJ18" s="253"/>
-      <c r="AK18" s="253"/>
-      <c r="AL18" s="253"/>
-      <c r="AM18" s="254"/>
-      <c r="AN18" s="238"/>
-      <c r="AO18" s="239"/>
-      <c r="AP18" s="239"/>
-      <c r="AQ18" s="239"/>
-      <c r="AR18" s="240"/>
-      <c r="AS18" s="238"/>
-      <c r="AT18" s="239"/>
-      <c r="AU18" s="239"/>
-      <c r="AV18" s="239"/>
-      <c r="AW18" s="240"/>
+      <c r="B18" s="257"/>
+      <c r="C18" s="258"/>
+      <c r="D18" s="259"/>
+      <c r="E18" s="249"/>
+      <c r="F18" s="249"/>
+      <c r="G18" s="249"/>
+      <c r="H18" s="249"/>
+      <c r="I18" s="249"/>
+      <c r="J18" s="250"/>
+      <c r="K18" s="251"/>
+      <c r="L18" s="252"/>
+      <c r="M18" s="271"/>
+      <c r="N18" s="261"/>
+      <c r="O18" s="261"/>
+      <c r="P18" s="261"/>
+      <c r="Q18" s="261"/>
+      <c r="R18" s="262"/>
+      <c r="S18" s="247"/>
+      <c r="T18" s="247"/>
+      <c r="U18" s="247"/>
+      <c r="V18" s="263"/>
+      <c r="W18" s="264"/>
+      <c r="X18" s="264"/>
+      <c r="Y18" s="264"/>
+      <c r="Z18" s="264"/>
+      <c r="AA18" s="264"/>
+      <c r="AB18" s="264"/>
+      <c r="AC18" s="264"/>
+      <c r="AD18" s="264"/>
+      <c r="AE18" s="264"/>
+      <c r="AF18" s="264"/>
+      <c r="AG18" s="264"/>
+      <c r="AH18" s="264"/>
+      <c r="AI18" s="264"/>
+      <c r="AJ18" s="264"/>
+      <c r="AK18" s="264"/>
+      <c r="AL18" s="264"/>
+      <c r="AM18" s="265"/>
+      <c r="AN18" s="266"/>
+      <c r="AO18" s="267"/>
+      <c r="AP18" s="267"/>
+      <c r="AQ18" s="267"/>
+      <c r="AR18" s="268"/>
+      <c r="AS18" s="266"/>
+      <c r="AT18" s="267"/>
+      <c r="AU18" s="267"/>
+      <c r="AV18" s="267"/>
+      <c r="AW18" s="268"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="56"/>
-      <c r="B19" s="241"/>
-      <c r="C19" s="242"/>
-      <c r="D19" s="243"/>
-      <c r="E19" s="244"/>
-      <c r="F19" s="244"/>
-      <c r="G19" s="244"/>
-      <c r="H19" s="244"/>
-      <c r="I19" s="244"/>
-      <c r="J19" s="245"/>
-      <c r="K19" s="246"/>
-      <c r="L19" s="247"/>
-      <c r="M19" s="258"/>
-      <c r="N19" s="256"/>
-      <c r="O19" s="256"/>
-      <c r="P19" s="256"/>
-      <c r="Q19" s="256"/>
-      <c r="R19" s="257"/>
-      <c r="S19" s="251"/>
-      <c r="T19" s="251"/>
-      <c r="U19" s="251"/>
-      <c r="V19" s="252"/>
-      <c r="W19" s="253"/>
-      <c r="X19" s="253"/>
-      <c r="Y19" s="253"/>
-      <c r="Z19" s="253"/>
-      <c r="AA19" s="253"/>
-      <c r="AB19" s="253"/>
-      <c r="AC19" s="253"/>
-      <c r="AD19" s="253"/>
-      <c r="AE19" s="253"/>
-      <c r="AF19" s="253"/>
-      <c r="AG19" s="253"/>
-      <c r="AH19" s="253"/>
-      <c r="AI19" s="253"/>
-      <c r="AJ19" s="253"/>
-      <c r="AK19" s="253"/>
-      <c r="AL19" s="253"/>
-      <c r="AM19" s="254"/>
-      <c r="AN19" s="251"/>
-      <c r="AO19" s="251"/>
-      <c r="AP19" s="251"/>
-      <c r="AQ19" s="251"/>
-      <c r="AR19" s="251"/>
-      <c r="AS19" s="238"/>
-      <c r="AT19" s="239"/>
-      <c r="AU19" s="239"/>
-      <c r="AV19" s="239"/>
-      <c r="AW19" s="240"/>
+      <c r="B19" s="257"/>
+      <c r="C19" s="258"/>
+      <c r="D19" s="259"/>
+      <c r="E19" s="249"/>
+      <c r="F19" s="249"/>
+      <c r="G19" s="249"/>
+      <c r="H19" s="249"/>
+      <c r="I19" s="249"/>
+      <c r="J19" s="250"/>
+      <c r="K19" s="251"/>
+      <c r="L19" s="252"/>
+      <c r="M19" s="260"/>
+      <c r="N19" s="261"/>
+      <c r="O19" s="261"/>
+      <c r="P19" s="261"/>
+      <c r="Q19" s="261"/>
+      <c r="R19" s="262"/>
+      <c r="S19" s="247"/>
+      <c r="T19" s="247"/>
+      <c r="U19" s="247"/>
+      <c r="V19" s="263"/>
+      <c r="W19" s="264"/>
+      <c r="X19" s="264"/>
+      <c r="Y19" s="264"/>
+      <c r="Z19" s="264"/>
+      <c r="AA19" s="264"/>
+      <c r="AB19" s="264"/>
+      <c r="AC19" s="264"/>
+      <c r="AD19" s="264"/>
+      <c r="AE19" s="264"/>
+      <c r="AF19" s="264"/>
+      <c r="AG19" s="264"/>
+      <c r="AH19" s="264"/>
+      <c r="AI19" s="264"/>
+      <c r="AJ19" s="264"/>
+      <c r="AK19" s="264"/>
+      <c r="AL19" s="264"/>
+      <c r="AM19" s="265"/>
+      <c r="AN19" s="247"/>
+      <c r="AO19" s="247"/>
+      <c r="AP19" s="247"/>
+      <c r="AQ19" s="247"/>
+      <c r="AR19" s="247"/>
+      <c r="AS19" s="266"/>
+      <c r="AT19" s="267"/>
+      <c r="AU19" s="267"/>
+      <c r="AV19" s="267"/>
+      <c r="AW19" s="268"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="56"/>
-      <c r="B20" s="241"/>
-      <c r="C20" s="242"/>
-      <c r="D20" s="243"/>
-      <c r="E20" s="244"/>
-      <c r="F20" s="244"/>
-      <c r="G20" s="244"/>
-      <c r="H20" s="244"/>
-      <c r="I20" s="244"/>
-      <c r="J20" s="245"/>
-      <c r="K20" s="246"/>
-      <c r="L20" s="247"/>
-      <c r="M20" s="258"/>
-      <c r="N20" s="256"/>
-      <c r="O20" s="256"/>
-      <c r="P20" s="256"/>
-      <c r="Q20" s="256"/>
-      <c r="R20" s="257"/>
-      <c r="S20" s="238"/>
-      <c r="T20" s="239"/>
-      <c r="U20" s="240"/>
-      <c r="V20" s="252"/>
-      <c r="W20" s="253"/>
-      <c r="X20" s="253"/>
-      <c r="Y20" s="253"/>
-      <c r="Z20" s="253"/>
-      <c r="AA20" s="253"/>
-      <c r="AB20" s="253"/>
-      <c r="AC20" s="253"/>
-      <c r="AD20" s="253"/>
-      <c r="AE20" s="253"/>
-      <c r="AF20" s="253"/>
-      <c r="AG20" s="253"/>
-      <c r="AH20" s="253"/>
-      <c r="AI20" s="253"/>
-      <c r="AJ20" s="253"/>
-      <c r="AK20" s="253"/>
-      <c r="AL20" s="253"/>
-      <c r="AM20" s="254"/>
-      <c r="AN20" s="238"/>
-      <c r="AO20" s="239"/>
-      <c r="AP20" s="239"/>
-      <c r="AQ20" s="239"/>
-      <c r="AR20" s="240"/>
-      <c r="AS20" s="238"/>
-      <c r="AT20" s="239"/>
-      <c r="AU20" s="239"/>
-      <c r="AV20" s="239"/>
-      <c r="AW20" s="240"/>
+      <c r="B20" s="257"/>
+      <c r="C20" s="258"/>
+      <c r="D20" s="259"/>
+      <c r="E20" s="249"/>
+      <c r="F20" s="249"/>
+      <c r="G20" s="249"/>
+      <c r="H20" s="249"/>
+      <c r="I20" s="249"/>
+      <c r="J20" s="250"/>
+      <c r="K20" s="251"/>
+      <c r="L20" s="252"/>
+      <c r="M20" s="260"/>
+      <c r="N20" s="261"/>
+      <c r="O20" s="261"/>
+      <c r="P20" s="261"/>
+      <c r="Q20" s="261"/>
+      <c r="R20" s="262"/>
+      <c r="S20" s="266"/>
+      <c r="T20" s="267"/>
+      <c r="U20" s="268"/>
+      <c r="V20" s="263"/>
+      <c r="W20" s="264"/>
+      <c r="X20" s="264"/>
+      <c r="Y20" s="264"/>
+      <c r="Z20" s="264"/>
+      <c r="AA20" s="264"/>
+      <c r="AB20" s="264"/>
+      <c r="AC20" s="264"/>
+      <c r="AD20" s="264"/>
+      <c r="AE20" s="264"/>
+      <c r="AF20" s="264"/>
+      <c r="AG20" s="264"/>
+      <c r="AH20" s="264"/>
+      <c r="AI20" s="264"/>
+      <c r="AJ20" s="264"/>
+      <c r="AK20" s="264"/>
+      <c r="AL20" s="264"/>
+      <c r="AM20" s="265"/>
+      <c r="AN20" s="266"/>
+      <c r="AO20" s="267"/>
+      <c r="AP20" s="267"/>
+      <c r="AQ20" s="267"/>
+      <c r="AR20" s="268"/>
+      <c r="AS20" s="266"/>
+      <c r="AT20" s="267"/>
+      <c r="AU20" s="267"/>
+      <c r="AV20" s="267"/>
+      <c r="AW20" s="268"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="56"/>
-      <c r="B21" s="241"/>
-      <c r="C21" s="242"/>
-      <c r="D21" s="243"/>
-      <c r="E21" s="244"/>
-      <c r="F21" s="244"/>
-      <c r="G21" s="244"/>
-      <c r="H21" s="244"/>
-      <c r="I21" s="244"/>
-      <c r="J21" s="245"/>
-      <c r="K21" s="246"/>
-      <c r="L21" s="247"/>
-      <c r="M21" s="258"/>
-      <c r="N21" s="256"/>
-      <c r="O21" s="256"/>
-      <c r="P21" s="256"/>
-      <c r="Q21" s="256"/>
-      <c r="R21" s="257"/>
-      <c r="S21" s="251"/>
-      <c r="T21" s="251"/>
-      <c r="U21" s="251"/>
-      <c r="V21" s="252"/>
-      <c r="W21" s="253"/>
-      <c r="X21" s="253"/>
-      <c r="Y21" s="253"/>
-      <c r="Z21" s="253"/>
-      <c r="AA21" s="253"/>
-      <c r="AB21" s="253"/>
-      <c r="AC21" s="253"/>
-      <c r="AD21" s="253"/>
-      <c r="AE21" s="253"/>
-      <c r="AF21" s="253"/>
-      <c r="AG21" s="253"/>
-      <c r="AH21" s="253"/>
-      <c r="AI21" s="253"/>
-      <c r="AJ21" s="253"/>
-      <c r="AK21" s="253"/>
-      <c r="AL21" s="253"/>
-      <c r="AM21" s="254"/>
-      <c r="AN21" s="238"/>
-      <c r="AO21" s="239"/>
-      <c r="AP21" s="239"/>
-      <c r="AQ21" s="239"/>
-      <c r="AR21" s="240"/>
-      <c r="AS21" s="238"/>
-      <c r="AT21" s="239"/>
-      <c r="AU21" s="239"/>
-      <c r="AV21" s="239"/>
-      <c r="AW21" s="240"/>
+      <c r="B21" s="257"/>
+      <c r="C21" s="258"/>
+      <c r="D21" s="259"/>
+      <c r="E21" s="249"/>
+      <c r="F21" s="249"/>
+      <c r="G21" s="249"/>
+      <c r="H21" s="249"/>
+      <c r="I21" s="249"/>
+      <c r="J21" s="250"/>
+      <c r="K21" s="251"/>
+      <c r="L21" s="252"/>
+      <c r="M21" s="260"/>
+      <c r="N21" s="261"/>
+      <c r="O21" s="261"/>
+      <c r="P21" s="261"/>
+      <c r="Q21" s="261"/>
+      <c r="R21" s="262"/>
+      <c r="S21" s="247"/>
+      <c r="T21" s="247"/>
+      <c r="U21" s="247"/>
+      <c r="V21" s="263"/>
+      <c r="W21" s="264"/>
+      <c r="X21" s="264"/>
+      <c r="Y21" s="264"/>
+      <c r="Z21" s="264"/>
+      <c r="AA21" s="264"/>
+      <c r="AB21" s="264"/>
+      <c r="AC21" s="264"/>
+      <c r="AD21" s="264"/>
+      <c r="AE21" s="264"/>
+      <c r="AF21" s="264"/>
+      <c r="AG21" s="264"/>
+      <c r="AH21" s="264"/>
+      <c r="AI21" s="264"/>
+      <c r="AJ21" s="264"/>
+      <c r="AK21" s="264"/>
+      <c r="AL21" s="264"/>
+      <c r="AM21" s="265"/>
+      <c r="AN21" s="266"/>
+      <c r="AO21" s="267"/>
+      <c r="AP21" s="267"/>
+      <c r="AQ21" s="267"/>
+      <c r="AR21" s="268"/>
+      <c r="AS21" s="266"/>
+      <c r="AT21" s="267"/>
+      <c r="AU21" s="267"/>
+      <c r="AV21" s="267"/>
+      <c r="AW21" s="268"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="56"/>
-      <c r="B22" s="241"/>
-      <c r="C22" s="242"/>
-      <c r="D22" s="243"/>
-      <c r="E22" s="244"/>
-      <c r="F22" s="244"/>
-      <c r="G22" s="244"/>
-      <c r="H22" s="244"/>
-      <c r="I22" s="244"/>
-      <c r="J22" s="245"/>
-      <c r="K22" s="246"/>
-      <c r="L22" s="247"/>
-      <c r="M22" s="258"/>
-      <c r="N22" s="256"/>
-      <c r="O22" s="256"/>
-      <c r="P22" s="256"/>
-      <c r="Q22" s="256"/>
-      <c r="R22" s="257"/>
-      <c r="S22" s="251"/>
-      <c r="T22" s="251"/>
-      <c r="U22" s="251"/>
-      <c r="V22" s="252"/>
-      <c r="W22" s="253"/>
-      <c r="X22" s="253"/>
-      <c r="Y22" s="253"/>
-      <c r="Z22" s="253"/>
-      <c r="AA22" s="253"/>
-      <c r="AB22" s="253"/>
-      <c r="AC22" s="253"/>
-      <c r="AD22" s="253"/>
-      <c r="AE22" s="253"/>
-      <c r="AF22" s="253"/>
-      <c r="AG22" s="253"/>
-      <c r="AH22" s="253"/>
-      <c r="AI22" s="253"/>
-      <c r="AJ22" s="253"/>
-      <c r="AK22" s="253"/>
-      <c r="AL22" s="253"/>
-      <c r="AM22" s="254"/>
-      <c r="AN22" s="238"/>
-      <c r="AO22" s="239"/>
-      <c r="AP22" s="239"/>
-      <c r="AQ22" s="239"/>
-      <c r="AR22" s="240"/>
-      <c r="AS22" s="238"/>
-      <c r="AT22" s="239"/>
-      <c r="AU22" s="239"/>
-      <c r="AV22" s="239"/>
-      <c r="AW22" s="240"/>
+      <c r="B22" s="257"/>
+      <c r="C22" s="258"/>
+      <c r="D22" s="259"/>
+      <c r="E22" s="249"/>
+      <c r="F22" s="249"/>
+      <c r="G22" s="249"/>
+      <c r="H22" s="249"/>
+      <c r="I22" s="249"/>
+      <c r="J22" s="250"/>
+      <c r="K22" s="251"/>
+      <c r="L22" s="252"/>
+      <c r="M22" s="260"/>
+      <c r="N22" s="261"/>
+      <c r="O22" s="261"/>
+      <c r="P22" s="261"/>
+      <c r="Q22" s="261"/>
+      <c r="R22" s="262"/>
+      <c r="S22" s="247"/>
+      <c r="T22" s="247"/>
+      <c r="U22" s="247"/>
+      <c r="V22" s="263"/>
+      <c r="W22" s="264"/>
+      <c r="X22" s="264"/>
+      <c r="Y22" s="264"/>
+      <c r="Z22" s="264"/>
+      <c r="AA22" s="264"/>
+      <c r="AB22" s="264"/>
+      <c r="AC22" s="264"/>
+      <c r="AD22" s="264"/>
+      <c r="AE22" s="264"/>
+      <c r="AF22" s="264"/>
+      <c r="AG22" s="264"/>
+      <c r="AH22" s="264"/>
+      <c r="AI22" s="264"/>
+      <c r="AJ22" s="264"/>
+      <c r="AK22" s="264"/>
+      <c r="AL22" s="264"/>
+      <c r="AM22" s="265"/>
+      <c r="AN22" s="266"/>
+      <c r="AO22" s="267"/>
+      <c r="AP22" s="267"/>
+      <c r="AQ22" s="267"/>
+      <c r="AR22" s="268"/>
+      <c r="AS22" s="266"/>
+      <c r="AT22" s="267"/>
+      <c r="AU22" s="267"/>
+      <c r="AV22" s="267"/>
+      <c r="AW22" s="268"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="54"/>
-      <c r="B23" s="241"/>
-      <c r="C23" s="242"/>
-      <c r="D23" s="243"/>
-      <c r="E23" s="244"/>
-      <c r="F23" s="244"/>
-      <c r="G23" s="244"/>
-      <c r="H23" s="244"/>
-      <c r="I23" s="244"/>
-      <c r="J23" s="245"/>
-      <c r="K23" s="246"/>
-      <c r="L23" s="247"/>
-      <c r="M23" s="258"/>
-      <c r="N23" s="256"/>
-      <c r="O23" s="256"/>
-      <c r="P23" s="256"/>
-      <c r="Q23" s="256"/>
-      <c r="R23" s="257"/>
-      <c r="S23" s="251"/>
-      <c r="T23" s="251"/>
-      <c r="U23" s="251"/>
-      <c r="V23" s="252"/>
-      <c r="W23" s="253"/>
-      <c r="X23" s="253"/>
-      <c r="Y23" s="253"/>
-      <c r="Z23" s="253"/>
-      <c r="AA23" s="253"/>
-      <c r="AB23" s="253"/>
-      <c r="AC23" s="253"/>
-      <c r="AD23" s="253"/>
-      <c r="AE23" s="253"/>
-      <c r="AF23" s="253"/>
-      <c r="AG23" s="253"/>
-      <c r="AH23" s="253"/>
-      <c r="AI23" s="253"/>
-      <c r="AJ23" s="253"/>
-      <c r="AK23" s="253"/>
-      <c r="AL23" s="253"/>
-      <c r="AM23" s="254"/>
-      <c r="AN23" s="238"/>
-      <c r="AO23" s="239"/>
-      <c r="AP23" s="239"/>
-      <c r="AQ23" s="239"/>
-      <c r="AR23" s="240"/>
-      <c r="AS23" s="238"/>
-      <c r="AT23" s="239"/>
-      <c r="AU23" s="239"/>
-      <c r="AV23" s="239"/>
-      <c r="AW23" s="240"/>
+      <c r="B23" s="257"/>
+      <c r="C23" s="258"/>
+      <c r="D23" s="259"/>
+      <c r="E23" s="249"/>
+      <c r="F23" s="249"/>
+      <c r="G23" s="249"/>
+      <c r="H23" s="249"/>
+      <c r="I23" s="249"/>
+      <c r="J23" s="250"/>
+      <c r="K23" s="251"/>
+      <c r="L23" s="252"/>
+      <c r="M23" s="260"/>
+      <c r="N23" s="261"/>
+      <c r="O23" s="261"/>
+      <c r="P23" s="261"/>
+      <c r="Q23" s="261"/>
+      <c r="R23" s="262"/>
+      <c r="S23" s="247"/>
+      <c r="T23" s="247"/>
+      <c r="U23" s="247"/>
+      <c r="V23" s="263"/>
+      <c r="W23" s="264"/>
+      <c r="X23" s="264"/>
+      <c r="Y23" s="264"/>
+      <c r="Z23" s="264"/>
+      <c r="AA23" s="264"/>
+      <c r="AB23" s="264"/>
+      <c r="AC23" s="264"/>
+      <c r="AD23" s="264"/>
+      <c r="AE23" s="264"/>
+      <c r="AF23" s="264"/>
+      <c r="AG23" s="264"/>
+      <c r="AH23" s="264"/>
+      <c r="AI23" s="264"/>
+      <c r="AJ23" s="264"/>
+      <c r="AK23" s="264"/>
+      <c r="AL23" s="264"/>
+      <c r="AM23" s="265"/>
+      <c r="AN23" s="266"/>
+      <c r="AO23" s="267"/>
+      <c r="AP23" s="267"/>
+      <c r="AQ23" s="267"/>
+      <c r="AR23" s="268"/>
+      <c r="AS23" s="266"/>
+      <c r="AT23" s="267"/>
+      <c r="AU23" s="267"/>
+      <c r="AV23" s="267"/>
+      <c r="AW23" s="268"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="54"/>
-      <c r="B24" s="241"/>
-      <c r="C24" s="242"/>
-      <c r="D24" s="243"/>
-      <c r="E24" s="244"/>
-      <c r="F24" s="244"/>
-      <c r="G24" s="244"/>
-      <c r="H24" s="244"/>
-      <c r="I24" s="244"/>
-      <c r="J24" s="245"/>
-      <c r="K24" s="246"/>
-      <c r="L24" s="247"/>
-      <c r="M24" s="258"/>
-      <c r="N24" s="256"/>
-      <c r="O24" s="256"/>
-      <c r="P24" s="256"/>
-      <c r="Q24" s="256"/>
-      <c r="R24" s="257"/>
-      <c r="S24" s="251"/>
-      <c r="T24" s="251"/>
-      <c r="U24" s="251"/>
-      <c r="V24" s="252"/>
-      <c r="W24" s="253"/>
-      <c r="X24" s="253"/>
-      <c r="Y24" s="253"/>
-      <c r="Z24" s="253"/>
-      <c r="AA24" s="253"/>
-      <c r="AB24" s="253"/>
-      <c r="AC24" s="253"/>
-      <c r="AD24" s="253"/>
-      <c r="AE24" s="253"/>
-      <c r="AF24" s="253"/>
-      <c r="AG24" s="253"/>
-      <c r="AH24" s="253"/>
-      <c r="AI24" s="253"/>
-      <c r="AJ24" s="253"/>
-      <c r="AK24" s="253"/>
-      <c r="AL24" s="253"/>
-      <c r="AM24" s="254"/>
-      <c r="AN24" s="238"/>
-      <c r="AO24" s="239"/>
-      <c r="AP24" s="239"/>
-      <c r="AQ24" s="239"/>
-      <c r="AR24" s="240"/>
-      <c r="AS24" s="238"/>
-      <c r="AT24" s="239"/>
-      <c r="AU24" s="239"/>
-      <c r="AV24" s="239"/>
-      <c r="AW24" s="240"/>
+      <c r="B24" s="257"/>
+      <c r="C24" s="258"/>
+      <c r="D24" s="259"/>
+      <c r="E24" s="249"/>
+      <c r="F24" s="249"/>
+      <c r="G24" s="249"/>
+      <c r="H24" s="249"/>
+      <c r="I24" s="249"/>
+      <c r="J24" s="250"/>
+      <c r="K24" s="251"/>
+      <c r="L24" s="252"/>
+      <c r="M24" s="260"/>
+      <c r="N24" s="261"/>
+      <c r="O24" s="261"/>
+      <c r="P24" s="261"/>
+      <c r="Q24" s="261"/>
+      <c r="R24" s="262"/>
+      <c r="S24" s="247"/>
+      <c r="T24" s="247"/>
+      <c r="U24" s="247"/>
+      <c r="V24" s="263"/>
+      <c r="W24" s="264"/>
+      <c r="X24" s="264"/>
+      <c r="Y24" s="264"/>
+      <c r="Z24" s="264"/>
+      <c r="AA24" s="264"/>
+      <c r="AB24" s="264"/>
+      <c r="AC24" s="264"/>
+      <c r="AD24" s="264"/>
+      <c r="AE24" s="264"/>
+      <c r="AF24" s="264"/>
+      <c r="AG24" s="264"/>
+      <c r="AH24" s="264"/>
+      <c r="AI24" s="264"/>
+      <c r="AJ24" s="264"/>
+      <c r="AK24" s="264"/>
+      <c r="AL24" s="264"/>
+      <c r="AM24" s="265"/>
+      <c r="AN24" s="266"/>
+      <c r="AO24" s="267"/>
+      <c r="AP24" s="267"/>
+      <c r="AQ24" s="267"/>
+      <c r="AR24" s="268"/>
+      <c r="AS24" s="266"/>
+      <c r="AT24" s="267"/>
+      <c r="AU24" s="267"/>
+      <c r="AV24" s="267"/>
+      <c r="AW24" s="268"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="54"/>
-      <c r="B25" s="241"/>
-      <c r="C25" s="242"/>
-      <c r="D25" s="243"/>
-      <c r="E25" s="244"/>
-      <c r="F25" s="244"/>
-      <c r="G25" s="244"/>
-      <c r="H25" s="244"/>
-      <c r="I25" s="244"/>
-      <c r="J25" s="245"/>
-      <c r="K25" s="246"/>
-      <c r="L25" s="247"/>
-      <c r="M25" s="255"/>
-      <c r="N25" s="256"/>
-      <c r="O25" s="256"/>
-      <c r="P25" s="256"/>
-      <c r="Q25" s="256"/>
-      <c r="R25" s="257"/>
-      <c r="S25" s="251"/>
-      <c r="T25" s="251"/>
-      <c r="U25" s="251"/>
-      <c r="V25" s="252"/>
-      <c r="W25" s="253"/>
-      <c r="X25" s="253"/>
-      <c r="Y25" s="253"/>
-      <c r="Z25" s="253"/>
-      <c r="AA25" s="253"/>
-      <c r="AB25" s="253"/>
-      <c r="AC25" s="253"/>
-      <c r="AD25" s="253"/>
-      <c r="AE25" s="253"/>
-      <c r="AF25" s="253"/>
-      <c r="AG25" s="253"/>
-      <c r="AH25" s="253"/>
-      <c r="AI25" s="253"/>
-      <c r="AJ25" s="253"/>
-      <c r="AK25" s="253"/>
-      <c r="AL25" s="253"/>
-      <c r="AM25" s="254"/>
-      <c r="AN25" s="238"/>
-      <c r="AO25" s="239"/>
-      <c r="AP25" s="239"/>
-      <c r="AQ25" s="239"/>
-      <c r="AR25" s="240"/>
-      <c r="AS25" s="238"/>
-      <c r="AT25" s="239"/>
-      <c r="AU25" s="239"/>
-      <c r="AV25" s="239"/>
-      <c r="AW25" s="240"/>
+      <c r="B25" s="257"/>
+      <c r="C25" s="258"/>
+      <c r="D25" s="259"/>
+      <c r="E25" s="249"/>
+      <c r="F25" s="249"/>
+      <c r="G25" s="249"/>
+      <c r="H25" s="249"/>
+      <c r="I25" s="249"/>
+      <c r="J25" s="250"/>
+      <c r="K25" s="251"/>
+      <c r="L25" s="252"/>
+      <c r="M25" s="271"/>
+      <c r="N25" s="261"/>
+      <c r="O25" s="261"/>
+      <c r="P25" s="261"/>
+      <c r="Q25" s="261"/>
+      <c r="R25" s="262"/>
+      <c r="S25" s="247"/>
+      <c r="T25" s="247"/>
+      <c r="U25" s="247"/>
+      <c r="V25" s="263"/>
+      <c r="W25" s="264"/>
+      <c r="X25" s="264"/>
+      <c r="Y25" s="264"/>
+      <c r="Z25" s="264"/>
+      <c r="AA25" s="264"/>
+      <c r="AB25" s="264"/>
+      <c r="AC25" s="264"/>
+      <c r="AD25" s="264"/>
+      <c r="AE25" s="264"/>
+      <c r="AF25" s="264"/>
+      <c r="AG25" s="264"/>
+      <c r="AH25" s="264"/>
+      <c r="AI25" s="264"/>
+      <c r="AJ25" s="264"/>
+      <c r="AK25" s="264"/>
+      <c r="AL25" s="264"/>
+      <c r="AM25" s="265"/>
+      <c r="AN25" s="266"/>
+      <c r="AO25" s="267"/>
+      <c r="AP25" s="267"/>
+      <c r="AQ25" s="267"/>
+      <c r="AR25" s="268"/>
+      <c r="AS25" s="266"/>
+      <c r="AT25" s="267"/>
+      <c r="AU25" s="267"/>
+      <c r="AV25" s="267"/>
+      <c r="AW25" s="268"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="54"/>
-      <c r="B26" s="241"/>
-      <c r="C26" s="242"/>
-      <c r="D26" s="243"/>
-      <c r="E26" s="244"/>
-      <c r="F26" s="244"/>
-      <c r="G26" s="244"/>
-      <c r="H26" s="244"/>
-      <c r="I26" s="244"/>
-      <c r="J26" s="245"/>
-      <c r="K26" s="246"/>
-      <c r="L26" s="247"/>
-      <c r="M26" s="255"/>
-      <c r="N26" s="256"/>
-      <c r="O26" s="256"/>
-      <c r="P26" s="256"/>
-      <c r="Q26" s="256"/>
-      <c r="R26" s="257"/>
-      <c r="S26" s="251"/>
-      <c r="T26" s="251"/>
-      <c r="U26" s="251"/>
-      <c r="V26" s="252"/>
-      <c r="W26" s="253"/>
-      <c r="X26" s="253"/>
-      <c r="Y26" s="253"/>
-      <c r="Z26" s="253"/>
-      <c r="AA26" s="253"/>
-      <c r="AB26" s="253"/>
-      <c r="AC26" s="253"/>
-      <c r="AD26" s="253"/>
-      <c r="AE26" s="253"/>
-      <c r="AF26" s="253"/>
-      <c r="AG26" s="253"/>
-      <c r="AH26" s="253"/>
-      <c r="AI26" s="253"/>
-      <c r="AJ26" s="253"/>
-      <c r="AK26" s="253"/>
-      <c r="AL26" s="253"/>
-      <c r="AM26" s="254"/>
-      <c r="AN26" s="238"/>
-      <c r="AO26" s="239"/>
-      <c r="AP26" s="239"/>
-      <c r="AQ26" s="239"/>
-      <c r="AR26" s="240"/>
-      <c r="AS26" s="238"/>
-      <c r="AT26" s="239"/>
-      <c r="AU26" s="239"/>
-      <c r="AV26" s="239"/>
-      <c r="AW26" s="240"/>
+      <c r="B26" s="257"/>
+      <c r="C26" s="258"/>
+      <c r="D26" s="259"/>
+      <c r="E26" s="249"/>
+      <c r="F26" s="249"/>
+      <c r="G26" s="249"/>
+      <c r="H26" s="249"/>
+      <c r="I26" s="249"/>
+      <c r="J26" s="250"/>
+      <c r="K26" s="251"/>
+      <c r="L26" s="252"/>
+      <c r="M26" s="271"/>
+      <c r="N26" s="261"/>
+      <c r="O26" s="261"/>
+      <c r="P26" s="261"/>
+      <c r="Q26" s="261"/>
+      <c r="R26" s="262"/>
+      <c r="S26" s="247"/>
+      <c r="T26" s="247"/>
+      <c r="U26" s="247"/>
+      <c r="V26" s="263"/>
+      <c r="W26" s="264"/>
+      <c r="X26" s="264"/>
+      <c r="Y26" s="264"/>
+      <c r="Z26" s="264"/>
+      <c r="AA26" s="264"/>
+      <c r="AB26" s="264"/>
+      <c r="AC26" s="264"/>
+      <c r="AD26" s="264"/>
+      <c r="AE26" s="264"/>
+      <c r="AF26" s="264"/>
+      <c r="AG26" s="264"/>
+      <c r="AH26" s="264"/>
+      <c r="AI26" s="264"/>
+      <c r="AJ26" s="264"/>
+      <c r="AK26" s="264"/>
+      <c r="AL26" s="264"/>
+      <c r="AM26" s="265"/>
+      <c r="AN26" s="266"/>
+      <c r="AO26" s="267"/>
+      <c r="AP26" s="267"/>
+      <c r="AQ26" s="267"/>
+      <c r="AR26" s="268"/>
+      <c r="AS26" s="266"/>
+      <c r="AT26" s="267"/>
+      <c r="AU26" s="267"/>
+      <c r="AV26" s="267"/>
+      <c r="AW26" s="268"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="54"/>
-      <c r="B27" s="241"/>
-      <c r="C27" s="242"/>
-      <c r="D27" s="243"/>
-      <c r="E27" s="244"/>
-      <c r="F27" s="244"/>
-      <c r="G27" s="244"/>
-      <c r="H27" s="244"/>
-      <c r="I27" s="244"/>
-      <c r="J27" s="245"/>
-      <c r="K27" s="246"/>
-      <c r="L27" s="247"/>
-      <c r="M27" s="255"/>
-      <c r="N27" s="256"/>
-      <c r="O27" s="256"/>
-      <c r="P27" s="256"/>
-      <c r="Q27" s="256"/>
-      <c r="R27" s="257"/>
-      <c r="S27" s="251"/>
-      <c r="T27" s="251"/>
-      <c r="U27" s="251"/>
-      <c r="V27" s="252"/>
-      <c r="W27" s="253"/>
-      <c r="X27" s="253"/>
-      <c r="Y27" s="253"/>
-      <c r="Z27" s="253"/>
-      <c r="AA27" s="253"/>
-      <c r="AB27" s="253"/>
-      <c r="AC27" s="253"/>
-      <c r="AD27" s="253"/>
-      <c r="AE27" s="253"/>
-      <c r="AF27" s="253"/>
-      <c r="AG27" s="253"/>
-      <c r="AH27" s="253"/>
-      <c r="AI27" s="253"/>
-      <c r="AJ27" s="253"/>
-      <c r="AK27" s="253"/>
-      <c r="AL27" s="253"/>
-      <c r="AM27" s="254"/>
-      <c r="AN27" s="238"/>
-      <c r="AO27" s="239"/>
-      <c r="AP27" s="239"/>
-      <c r="AQ27" s="239"/>
-      <c r="AR27" s="240"/>
-      <c r="AS27" s="238"/>
-      <c r="AT27" s="239"/>
-      <c r="AU27" s="239"/>
-      <c r="AV27" s="239"/>
-      <c r="AW27" s="240"/>
+      <c r="B27" s="257"/>
+      <c r="C27" s="258"/>
+      <c r="D27" s="259"/>
+      <c r="E27" s="249"/>
+      <c r="F27" s="249"/>
+      <c r="G27" s="249"/>
+      <c r="H27" s="249"/>
+      <c r="I27" s="249"/>
+      <c r="J27" s="250"/>
+      <c r="K27" s="251"/>
+      <c r="L27" s="252"/>
+      <c r="M27" s="271"/>
+      <c r="N27" s="261"/>
+      <c r="O27" s="261"/>
+      <c r="P27" s="261"/>
+      <c r="Q27" s="261"/>
+      <c r="R27" s="262"/>
+      <c r="S27" s="247"/>
+      <c r="T27" s="247"/>
+      <c r="U27" s="247"/>
+      <c r="V27" s="263"/>
+      <c r="W27" s="264"/>
+      <c r="X27" s="264"/>
+      <c r="Y27" s="264"/>
+      <c r="Z27" s="264"/>
+      <c r="AA27" s="264"/>
+      <c r="AB27" s="264"/>
+      <c r="AC27" s="264"/>
+      <c r="AD27" s="264"/>
+      <c r="AE27" s="264"/>
+      <c r="AF27" s="264"/>
+      <c r="AG27" s="264"/>
+      <c r="AH27" s="264"/>
+      <c r="AI27" s="264"/>
+      <c r="AJ27" s="264"/>
+      <c r="AK27" s="264"/>
+      <c r="AL27" s="264"/>
+      <c r="AM27" s="265"/>
+      <c r="AN27" s="266"/>
+      <c r="AO27" s="267"/>
+      <c r="AP27" s="267"/>
+      <c r="AQ27" s="267"/>
+      <c r="AR27" s="268"/>
+      <c r="AS27" s="266"/>
+      <c r="AT27" s="267"/>
+      <c r="AU27" s="267"/>
+      <c r="AV27" s="267"/>
+      <c r="AW27" s="268"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="54"/>
-      <c r="B28" s="241"/>
-      <c r="C28" s="242"/>
-      <c r="D28" s="243"/>
-      <c r="E28" s="244"/>
-      <c r="F28" s="244"/>
-      <c r="G28" s="244"/>
-      <c r="H28" s="244"/>
-      <c r="I28" s="244"/>
-      <c r="J28" s="245"/>
-      <c r="K28" s="246"/>
-      <c r="L28" s="247"/>
-      <c r="M28" s="258"/>
-      <c r="N28" s="256"/>
-      <c r="O28" s="256"/>
-      <c r="P28" s="256"/>
-      <c r="Q28" s="256"/>
-      <c r="R28" s="257"/>
-      <c r="S28" s="251"/>
-      <c r="T28" s="251"/>
-      <c r="U28" s="251"/>
-      <c r="V28" s="252"/>
-      <c r="W28" s="253"/>
-      <c r="X28" s="253"/>
-      <c r="Y28" s="253"/>
-      <c r="Z28" s="253"/>
-      <c r="AA28" s="253"/>
-      <c r="AB28" s="253"/>
-      <c r="AC28" s="253"/>
-      <c r="AD28" s="253"/>
-      <c r="AE28" s="253"/>
-      <c r="AF28" s="253"/>
-      <c r="AG28" s="253"/>
-      <c r="AH28" s="253"/>
-      <c r="AI28" s="253"/>
-      <c r="AJ28" s="253"/>
-      <c r="AK28" s="253"/>
-      <c r="AL28" s="253"/>
-      <c r="AM28" s="254"/>
-      <c r="AN28" s="238"/>
-      <c r="AO28" s="239"/>
-      <c r="AP28" s="239"/>
-      <c r="AQ28" s="239"/>
-      <c r="AR28" s="240"/>
-      <c r="AS28" s="238"/>
-      <c r="AT28" s="239"/>
-      <c r="AU28" s="239"/>
-      <c r="AV28" s="239"/>
-      <c r="AW28" s="240"/>
+      <c r="B28" s="257"/>
+      <c r="C28" s="258"/>
+      <c r="D28" s="259"/>
+      <c r="E28" s="249"/>
+      <c r="F28" s="249"/>
+      <c r="G28" s="249"/>
+      <c r="H28" s="249"/>
+      <c r="I28" s="249"/>
+      <c r="J28" s="250"/>
+      <c r="K28" s="251"/>
+      <c r="L28" s="252"/>
+      <c r="M28" s="260"/>
+      <c r="N28" s="261"/>
+      <c r="O28" s="261"/>
+      <c r="P28" s="261"/>
+      <c r="Q28" s="261"/>
+      <c r="R28" s="262"/>
+      <c r="S28" s="247"/>
+      <c r="T28" s="247"/>
+      <c r="U28" s="247"/>
+      <c r="V28" s="263"/>
+      <c r="W28" s="264"/>
+      <c r="X28" s="264"/>
+      <c r="Y28" s="264"/>
+      <c r="Z28" s="264"/>
+      <c r="AA28" s="264"/>
+      <c r="AB28" s="264"/>
+      <c r="AC28" s="264"/>
+      <c r="AD28" s="264"/>
+      <c r="AE28" s="264"/>
+      <c r="AF28" s="264"/>
+      <c r="AG28" s="264"/>
+      <c r="AH28" s="264"/>
+      <c r="AI28" s="264"/>
+      <c r="AJ28" s="264"/>
+      <c r="AK28" s="264"/>
+      <c r="AL28" s="264"/>
+      <c r="AM28" s="265"/>
+      <c r="AN28" s="266"/>
+      <c r="AO28" s="267"/>
+      <c r="AP28" s="267"/>
+      <c r="AQ28" s="267"/>
+      <c r="AR28" s="268"/>
+      <c r="AS28" s="266"/>
+      <c r="AT28" s="267"/>
+      <c r="AU28" s="267"/>
+      <c r="AV28" s="267"/>
+      <c r="AW28" s="268"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="54"/>
-      <c r="B29" s="241"/>
-      <c r="C29" s="242"/>
-      <c r="D29" s="243"/>
-      <c r="E29" s="244"/>
-      <c r="F29" s="244"/>
-      <c r="G29" s="244"/>
-      <c r="H29" s="244"/>
-      <c r="I29" s="244"/>
-      <c r="J29" s="245"/>
-      <c r="K29" s="246"/>
-      <c r="L29" s="247"/>
-      <c r="M29" s="258"/>
-      <c r="N29" s="256"/>
-      <c r="O29" s="256"/>
-      <c r="P29" s="256"/>
-      <c r="Q29" s="256"/>
-      <c r="R29" s="257"/>
-      <c r="S29" s="251"/>
-      <c r="T29" s="251"/>
-      <c r="U29" s="251"/>
-      <c r="V29" s="252"/>
-      <c r="W29" s="253"/>
-      <c r="X29" s="253"/>
-      <c r="Y29" s="253"/>
-      <c r="Z29" s="253"/>
-      <c r="AA29" s="253"/>
-      <c r="AB29" s="253"/>
-      <c r="AC29" s="253"/>
-      <c r="AD29" s="253"/>
-      <c r="AE29" s="253"/>
-      <c r="AF29" s="253"/>
-      <c r="AG29" s="253"/>
-      <c r="AH29" s="253"/>
-      <c r="AI29" s="253"/>
-      <c r="AJ29" s="253"/>
-      <c r="AK29" s="253"/>
-      <c r="AL29" s="253"/>
-      <c r="AM29" s="254"/>
-      <c r="AN29" s="238"/>
-      <c r="AO29" s="239"/>
-      <c r="AP29" s="239"/>
-      <c r="AQ29" s="239"/>
-      <c r="AR29" s="240"/>
-      <c r="AS29" s="238"/>
-      <c r="AT29" s="239"/>
-      <c r="AU29" s="239"/>
-      <c r="AV29" s="239"/>
-      <c r="AW29" s="240"/>
+      <c r="B29" s="257"/>
+      <c r="C29" s="258"/>
+      <c r="D29" s="259"/>
+      <c r="E29" s="249"/>
+      <c r="F29" s="249"/>
+      <c r="G29" s="249"/>
+      <c r="H29" s="249"/>
+      <c r="I29" s="249"/>
+      <c r="J29" s="250"/>
+      <c r="K29" s="251"/>
+      <c r="L29" s="252"/>
+      <c r="M29" s="260"/>
+      <c r="N29" s="261"/>
+      <c r="O29" s="261"/>
+      <c r="P29" s="261"/>
+      <c r="Q29" s="261"/>
+      <c r="R29" s="262"/>
+      <c r="S29" s="247"/>
+      <c r="T29" s="247"/>
+      <c r="U29" s="247"/>
+      <c r="V29" s="263"/>
+      <c r="W29" s="264"/>
+      <c r="X29" s="264"/>
+      <c r="Y29" s="264"/>
+      <c r="Z29" s="264"/>
+      <c r="AA29" s="264"/>
+      <c r="AB29" s="264"/>
+      <c r="AC29" s="264"/>
+      <c r="AD29" s="264"/>
+      <c r="AE29" s="264"/>
+      <c r="AF29" s="264"/>
+      <c r="AG29" s="264"/>
+      <c r="AH29" s="264"/>
+      <c r="AI29" s="264"/>
+      <c r="AJ29" s="264"/>
+      <c r="AK29" s="264"/>
+      <c r="AL29" s="264"/>
+      <c r="AM29" s="265"/>
+      <c r="AN29" s="266"/>
+      <c r="AO29" s="267"/>
+      <c r="AP29" s="267"/>
+      <c r="AQ29" s="267"/>
+      <c r="AR29" s="268"/>
+      <c r="AS29" s="266"/>
+      <c r="AT29" s="267"/>
+      <c r="AU29" s="267"/>
+      <c r="AV29" s="267"/>
+      <c r="AW29" s="268"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="54"/>
-      <c r="B30" s="241"/>
-      <c r="C30" s="242"/>
-      <c r="D30" s="243"/>
-      <c r="E30" s="244"/>
-      <c r="F30" s="244"/>
-      <c r="G30" s="244"/>
-      <c r="H30" s="244"/>
-      <c r="I30" s="244"/>
-      <c r="J30" s="245"/>
-      <c r="K30" s="246"/>
-      <c r="L30" s="247"/>
-      <c r="M30" s="255"/>
-      <c r="N30" s="256"/>
-      <c r="O30" s="256"/>
-      <c r="P30" s="256"/>
-      <c r="Q30" s="256"/>
-      <c r="R30" s="257"/>
-      <c r="S30" s="251"/>
-      <c r="T30" s="251"/>
-      <c r="U30" s="251"/>
-      <c r="V30" s="252"/>
-      <c r="W30" s="253"/>
-      <c r="X30" s="253"/>
-      <c r="Y30" s="253"/>
-      <c r="Z30" s="253"/>
-      <c r="AA30" s="253"/>
-      <c r="AB30" s="253"/>
-      <c r="AC30" s="253"/>
-      <c r="AD30" s="253"/>
-      <c r="AE30" s="253"/>
-      <c r="AF30" s="253"/>
-      <c r="AG30" s="253"/>
-      <c r="AH30" s="253"/>
-      <c r="AI30" s="253"/>
-      <c r="AJ30" s="253"/>
-      <c r="AK30" s="253"/>
-      <c r="AL30" s="253"/>
-      <c r="AM30" s="254"/>
-      <c r="AN30" s="238"/>
-      <c r="AO30" s="239"/>
-      <c r="AP30" s="239"/>
-      <c r="AQ30" s="239"/>
-      <c r="AR30" s="240"/>
-      <c r="AS30" s="238"/>
-      <c r="AT30" s="239"/>
-      <c r="AU30" s="239"/>
-      <c r="AV30" s="239"/>
-      <c r="AW30" s="240"/>
+      <c r="B30" s="257"/>
+      <c r="C30" s="258"/>
+      <c r="D30" s="259"/>
+      <c r="E30" s="249"/>
+      <c r="F30" s="249"/>
+      <c r="G30" s="249"/>
+      <c r="H30" s="249"/>
+      <c r="I30" s="249"/>
+      <c r="J30" s="250"/>
+      <c r="K30" s="251"/>
+      <c r="L30" s="252"/>
+      <c r="M30" s="271"/>
+      <c r="N30" s="261"/>
+      <c r="O30" s="261"/>
+      <c r="P30" s="261"/>
+      <c r="Q30" s="261"/>
+      <c r="R30" s="262"/>
+      <c r="S30" s="247"/>
+      <c r="T30" s="247"/>
+      <c r="U30" s="247"/>
+      <c r="V30" s="263"/>
+      <c r="W30" s="264"/>
+      <c r="X30" s="264"/>
+      <c r="Y30" s="264"/>
+      <c r="Z30" s="264"/>
+      <c r="AA30" s="264"/>
+      <c r="AB30" s="264"/>
+      <c r="AC30" s="264"/>
+      <c r="AD30" s="264"/>
+      <c r="AE30" s="264"/>
+      <c r="AF30" s="264"/>
+      <c r="AG30" s="264"/>
+      <c r="AH30" s="264"/>
+      <c r="AI30" s="264"/>
+      <c r="AJ30" s="264"/>
+      <c r="AK30" s="264"/>
+      <c r="AL30" s="264"/>
+      <c r="AM30" s="265"/>
+      <c r="AN30" s="266"/>
+      <c r="AO30" s="267"/>
+      <c r="AP30" s="267"/>
+      <c r="AQ30" s="267"/>
+      <c r="AR30" s="268"/>
+      <c r="AS30" s="266"/>
+      <c r="AT30" s="267"/>
+      <c r="AU30" s="267"/>
+      <c r="AV30" s="267"/>
+      <c r="AW30" s="268"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="54"/>
-      <c r="B31" s="241"/>
-      <c r="C31" s="242"/>
-      <c r="D31" s="243"/>
-      <c r="E31" s="244"/>
-      <c r="F31" s="244"/>
-      <c r="G31" s="244"/>
-      <c r="H31" s="244"/>
-      <c r="I31" s="244"/>
-      <c r="J31" s="245"/>
-      <c r="K31" s="246"/>
-      <c r="L31" s="247"/>
-      <c r="M31" s="255"/>
-      <c r="N31" s="256"/>
-      <c r="O31" s="256"/>
-      <c r="P31" s="256"/>
-      <c r="Q31" s="256"/>
-      <c r="R31" s="257"/>
-      <c r="S31" s="251"/>
-      <c r="T31" s="251"/>
-      <c r="U31" s="251"/>
-      <c r="V31" s="252"/>
-      <c r="W31" s="253"/>
-      <c r="X31" s="253"/>
-      <c r="Y31" s="253"/>
-      <c r="Z31" s="253"/>
-      <c r="AA31" s="253"/>
-      <c r="AB31" s="253"/>
-      <c r="AC31" s="253"/>
-      <c r="AD31" s="253"/>
-      <c r="AE31" s="253"/>
-      <c r="AF31" s="253"/>
-      <c r="AG31" s="253"/>
-      <c r="AH31" s="253"/>
-      <c r="AI31" s="253"/>
-      <c r="AJ31" s="253"/>
-      <c r="AK31" s="253"/>
-      <c r="AL31" s="253"/>
-      <c r="AM31" s="254"/>
-      <c r="AN31" s="238"/>
-      <c r="AO31" s="239"/>
-      <c r="AP31" s="239"/>
-      <c r="AQ31" s="239"/>
-      <c r="AR31" s="240"/>
-      <c r="AS31" s="238"/>
-      <c r="AT31" s="239"/>
-      <c r="AU31" s="239"/>
-      <c r="AV31" s="239"/>
-      <c r="AW31" s="240"/>
+      <c r="B31" s="257"/>
+      <c r="C31" s="258"/>
+      <c r="D31" s="259"/>
+      <c r="E31" s="249"/>
+      <c r="F31" s="249"/>
+      <c r="G31" s="249"/>
+      <c r="H31" s="249"/>
+      <c r="I31" s="249"/>
+      <c r="J31" s="250"/>
+      <c r="K31" s="251"/>
+      <c r="L31" s="252"/>
+      <c r="M31" s="271"/>
+      <c r="N31" s="261"/>
+      <c r="O31" s="261"/>
+      <c r="P31" s="261"/>
+      <c r="Q31" s="261"/>
+      <c r="R31" s="262"/>
+      <c r="S31" s="247"/>
+      <c r="T31" s="247"/>
+      <c r="U31" s="247"/>
+      <c r="V31" s="263"/>
+      <c r="W31" s="264"/>
+      <c r="X31" s="264"/>
+      <c r="Y31" s="264"/>
+      <c r="Z31" s="264"/>
+      <c r="AA31" s="264"/>
+      <c r="AB31" s="264"/>
+      <c r="AC31" s="264"/>
+      <c r="AD31" s="264"/>
+      <c r="AE31" s="264"/>
+      <c r="AF31" s="264"/>
+      <c r="AG31" s="264"/>
+      <c r="AH31" s="264"/>
+      <c r="AI31" s="264"/>
+      <c r="AJ31" s="264"/>
+      <c r="AK31" s="264"/>
+      <c r="AL31" s="264"/>
+      <c r="AM31" s="265"/>
+      <c r="AN31" s="266"/>
+      <c r="AO31" s="267"/>
+      <c r="AP31" s="267"/>
+      <c r="AQ31" s="267"/>
+      <c r="AR31" s="268"/>
+      <c r="AS31" s="266"/>
+      <c r="AT31" s="267"/>
+      <c r="AU31" s="267"/>
+      <c r="AV31" s="267"/>
+      <c r="AW31" s="268"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="54"/>
-      <c r="B32" s="241"/>
-      <c r="C32" s="242"/>
-      <c r="D32" s="243"/>
-      <c r="E32" s="244"/>
-      <c r="F32" s="244"/>
-      <c r="G32" s="244"/>
-      <c r="H32" s="244"/>
-      <c r="I32" s="244"/>
-      <c r="J32" s="245"/>
-      <c r="K32" s="246"/>
-      <c r="L32" s="247"/>
-      <c r="M32" s="255"/>
-      <c r="N32" s="256"/>
-      <c r="O32" s="256"/>
-      <c r="P32" s="256"/>
-      <c r="Q32" s="256"/>
-      <c r="R32" s="257"/>
-      <c r="S32" s="251"/>
-      <c r="T32" s="251"/>
-      <c r="U32" s="251"/>
-      <c r="V32" s="252"/>
-      <c r="W32" s="253"/>
-      <c r="X32" s="253"/>
-      <c r="Y32" s="253"/>
-      <c r="Z32" s="253"/>
-      <c r="AA32" s="253"/>
-      <c r="AB32" s="253"/>
-      <c r="AC32" s="253"/>
-      <c r="AD32" s="253"/>
-      <c r="AE32" s="253"/>
-      <c r="AF32" s="253"/>
-      <c r="AG32" s="253"/>
-      <c r="AH32" s="253"/>
-      <c r="AI32" s="253"/>
-      <c r="AJ32" s="253"/>
-      <c r="AK32" s="253"/>
-      <c r="AL32" s="253"/>
-      <c r="AM32" s="254"/>
-      <c r="AN32" s="238"/>
-      <c r="AO32" s="239"/>
-      <c r="AP32" s="239"/>
-      <c r="AQ32" s="239"/>
-      <c r="AR32" s="240"/>
-      <c r="AS32" s="238"/>
-      <c r="AT32" s="239"/>
-      <c r="AU32" s="239"/>
-      <c r="AV32" s="239"/>
-      <c r="AW32" s="240"/>
+      <c r="B32" s="257"/>
+      <c r="C32" s="258"/>
+      <c r="D32" s="259"/>
+      <c r="E32" s="249"/>
+      <c r="F32" s="249"/>
+      <c r="G32" s="249"/>
+      <c r="H32" s="249"/>
+      <c r="I32" s="249"/>
+      <c r="J32" s="250"/>
+      <c r="K32" s="251"/>
+      <c r="L32" s="252"/>
+      <c r="M32" s="271"/>
+      <c r="N32" s="261"/>
+      <c r="O32" s="261"/>
+      <c r="P32" s="261"/>
+      <c r="Q32" s="261"/>
+      <c r="R32" s="262"/>
+      <c r="S32" s="247"/>
+      <c r="T32" s="247"/>
+      <c r="U32" s="247"/>
+      <c r="V32" s="263"/>
+      <c r="W32" s="264"/>
+      <c r="X32" s="264"/>
+      <c r="Y32" s="264"/>
+      <c r="Z32" s="264"/>
+      <c r="AA32" s="264"/>
+      <c r="AB32" s="264"/>
+      <c r="AC32" s="264"/>
+      <c r="AD32" s="264"/>
+      <c r="AE32" s="264"/>
+      <c r="AF32" s="264"/>
+      <c r="AG32" s="264"/>
+      <c r="AH32" s="264"/>
+      <c r="AI32" s="264"/>
+      <c r="AJ32" s="264"/>
+      <c r="AK32" s="264"/>
+      <c r="AL32" s="264"/>
+      <c r="AM32" s="265"/>
+      <c r="AN32" s="266"/>
+      <c r="AO32" s="267"/>
+      <c r="AP32" s="267"/>
+      <c r="AQ32" s="267"/>
+      <c r="AR32" s="268"/>
+      <c r="AS32" s="266"/>
+      <c r="AT32" s="267"/>
+      <c r="AU32" s="267"/>
+      <c r="AV32" s="267"/>
+      <c r="AW32" s="268"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="241"/>
-      <c r="C33" s="242"/>
-      <c r="D33" s="243"/>
-      <c r="E33" s="244"/>
-      <c r="F33" s="244"/>
-      <c r="G33" s="244"/>
-      <c r="H33" s="244"/>
-      <c r="I33" s="244"/>
-      <c r="J33" s="245"/>
-      <c r="K33" s="246"/>
-      <c r="L33" s="247"/>
-      <c r="M33" s="255"/>
-      <c r="N33" s="256"/>
-      <c r="O33" s="256"/>
-      <c r="P33" s="256"/>
-      <c r="Q33" s="256"/>
-      <c r="R33" s="257"/>
-      <c r="S33" s="251"/>
-      <c r="T33" s="251"/>
-      <c r="U33" s="251"/>
-      <c r="V33" s="252"/>
-      <c r="W33" s="253"/>
-      <c r="X33" s="253"/>
-      <c r="Y33" s="253"/>
-      <c r="Z33" s="253"/>
-      <c r="AA33" s="253"/>
-      <c r="AB33" s="253"/>
-      <c r="AC33" s="253"/>
-      <c r="AD33" s="253"/>
-      <c r="AE33" s="253"/>
-      <c r="AF33" s="253"/>
-      <c r="AG33" s="253"/>
-      <c r="AH33" s="253"/>
-      <c r="AI33" s="253"/>
-      <c r="AJ33" s="253"/>
-      <c r="AK33" s="253"/>
-      <c r="AL33" s="253"/>
-      <c r="AM33" s="254"/>
-      <c r="AN33" s="238"/>
-      <c r="AO33" s="239"/>
-      <c r="AP33" s="239"/>
-      <c r="AQ33" s="239"/>
-      <c r="AR33" s="240"/>
-      <c r="AS33" s="238"/>
-      <c r="AT33" s="239"/>
-      <c r="AU33" s="239"/>
-      <c r="AV33" s="239"/>
-      <c r="AW33" s="240"/>
+      <c r="B33" s="257"/>
+      <c r="C33" s="258"/>
+      <c r="D33" s="259"/>
+      <c r="E33" s="249"/>
+      <c r="F33" s="249"/>
+      <c r="G33" s="249"/>
+      <c r="H33" s="249"/>
+      <c r="I33" s="249"/>
+      <c r="J33" s="250"/>
+      <c r="K33" s="251"/>
+      <c r="L33" s="252"/>
+      <c r="M33" s="271"/>
+      <c r="N33" s="261"/>
+      <c r="O33" s="261"/>
+      <c r="P33" s="261"/>
+      <c r="Q33" s="261"/>
+      <c r="R33" s="262"/>
+      <c r="S33" s="247"/>
+      <c r="T33" s="247"/>
+      <c r="U33" s="247"/>
+      <c r="V33" s="263"/>
+      <c r="W33" s="264"/>
+      <c r="X33" s="264"/>
+      <c r="Y33" s="264"/>
+      <c r="Z33" s="264"/>
+      <c r="AA33" s="264"/>
+      <c r="AB33" s="264"/>
+      <c r="AC33" s="264"/>
+      <c r="AD33" s="264"/>
+      <c r="AE33" s="264"/>
+      <c r="AF33" s="264"/>
+      <c r="AG33" s="264"/>
+      <c r="AH33" s="264"/>
+      <c r="AI33" s="264"/>
+      <c r="AJ33" s="264"/>
+      <c r="AK33" s="264"/>
+      <c r="AL33" s="264"/>
+      <c r="AM33" s="265"/>
+      <c r="AN33" s="266"/>
+      <c r="AO33" s="267"/>
+      <c r="AP33" s="267"/>
+      <c r="AQ33" s="267"/>
+      <c r="AR33" s="268"/>
+      <c r="AS33" s="266"/>
+      <c r="AT33" s="267"/>
+      <c r="AU33" s="267"/>
+      <c r="AV33" s="267"/>
+      <c r="AW33" s="268"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="241"/>
-      <c r="C34" s="242"/>
-      <c r="D34" s="243"/>
-      <c r="E34" s="244"/>
-      <c r="F34" s="244"/>
-      <c r="G34" s="244"/>
-      <c r="H34" s="244"/>
-      <c r="I34" s="244"/>
-      <c r="J34" s="245"/>
-      <c r="K34" s="246"/>
-      <c r="L34" s="247"/>
-      <c r="M34" s="248"/>
-      <c r="N34" s="249"/>
-      <c r="O34" s="249"/>
-      <c r="P34" s="249"/>
-      <c r="Q34" s="249"/>
-      <c r="R34" s="250"/>
-      <c r="S34" s="251"/>
-      <c r="T34" s="251"/>
-      <c r="U34" s="251"/>
-      <c r="V34" s="252"/>
-      <c r="W34" s="253"/>
-      <c r="X34" s="253"/>
-      <c r="Y34" s="253"/>
-      <c r="Z34" s="253"/>
-      <c r="AA34" s="253"/>
-      <c r="AB34" s="253"/>
-      <c r="AC34" s="253"/>
-      <c r="AD34" s="253"/>
-      <c r="AE34" s="253"/>
-      <c r="AF34" s="253"/>
-      <c r="AG34" s="253"/>
-      <c r="AH34" s="253"/>
-      <c r="AI34" s="253"/>
-      <c r="AJ34" s="253"/>
-      <c r="AK34" s="253"/>
-      <c r="AL34" s="253"/>
-      <c r="AM34" s="254"/>
-      <c r="AN34" s="238"/>
-      <c r="AO34" s="239"/>
-      <c r="AP34" s="239"/>
-      <c r="AQ34" s="239"/>
-      <c r="AR34" s="240"/>
-      <c r="AS34" s="238"/>
-      <c r="AT34" s="239"/>
-      <c r="AU34" s="239"/>
-      <c r="AV34" s="239"/>
-      <c r="AW34" s="240"/>
+      <c r="B34" s="257"/>
+      <c r="C34" s="258"/>
+      <c r="D34" s="259"/>
+      <c r="E34" s="249"/>
+      <c r="F34" s="249"/>
+      <c r="G34" s="249"/>
+      <c r="H34" s="249"/>
+      <c r="I34" s="249"/>
+      <c r="J34" s="250"/>
+      <c r="K34" s="251"/>
+      <c r="L34" s="252"/>
+      <c r="M34" s="275"/>
+      <c r="N34" s="276"/>
+      <c r="O34" s="276"/>
+      <c r="P34" s="276"/>
+      <c r="Q34" s="276"/>
+      <c r="R34" s="277"/>
+      <c r="S34" s="247"/>
+      <c r="T34" s="247"/>
+      <c r="U34" s="247"/>
+      <c r="V34" s="263"/>
+      <c r="W34" s="264"/>
+      <c r="X34" s="264"/>
+      <c r="Y34" s="264"/>
+      <c r="Z34" s="264"/>
+      <c r="AA34" s="264"/>
+      <c r="AB34" s="264"/>
+      <c r="AC34" s="264"/>
+      <c r="AD34" s="264"/>
+      <c r="AE34" s="264"/>
+      <c r="AF34" s="264"/>
+      <c r="AG34" s="264"/>
+      <c r="AH34" s="264"/>
+      <c r="AI34" s="264"/>
+      <c r="AJ34" s="264"/>
+      <c r="AK34" s="264"/>
+      <c r="AL34" s="264"/>
+      <c r="AM34" s="265"/>
+      <c r="AN34" s="266"/>
+      <c r="AO34" s="267"/>
+      <c r="AP34" s="267"/>
+      <c r="AQ34" s="267"/>
+      <c r="AR34" s="268"/>
+      <c r="AS34" s="266"/>
+      <c r="AT34" s="267"/>
+      <c r="AU34" s="267"/>
+      <c r="AV34" s="267"/>
+      <c r="AW34" s="268"/>
     </row>
   </sheetData>
   <mergeCells count="249">
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN33:AR33"/>
+    <mergeCell ref="AS33:AW33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:AM34"/>
+    <mergeCell ref="AN34:AR34"/>
+    <mergeCell ref="AS34:AW34"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
     <mergeCell ref="AN5:AR5"/>
     <mergeCell ref="AS5:AW5"/>
     <mergeCell ref="B6:D6"/>
@@ -10085,230 +10300,15 @@
     <mergeCell ref="M5:R5"/>
     <mergeCell ref="S5:U5"/>
     <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN33:AR33"/>
-    <mergeCell ref="AS33:AW33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:AM34"/>
-    <mergeCell ref="AN34:AR34"/>
-    <mergeCell ref="AS34:AW34"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12987,22 +12987,22 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="271" t="s">
+      <c r="C6" s="240" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="271" t="s">
+      <c r="D6" s="240" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="271" t="s">
+      <c r="E6" s="240" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="271" t="s">
+      <c r="F6" s="240" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="271" t="s">
+      <c r="G6" s="240" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="271" t="s">
+      <c r="H6" s="240" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="299" t="s">
@@ -13011,13 +13011,13 @@
       <c r="J6" s="299" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="271" t="s">
+      <c r="K6" s="240" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="271" t="s">
+      <c r="L6" s="240" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="271" t="s">
+      <c r="M6" s="240" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="65" t="s">
@@ -13032,17 +13032,17 @@
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="271"/>
-      <c r="D7" s="271"/>
-      <c r="E7" s="271"/>
-      <c r="F7" s="271"/>
-      <c r="G7" s="271"/>
-      <c r="H7" s="271"/>
+      <c r="C7" s="240"/>
+      <c r="D7" s="240"/>
+      <c r="E7" s="240"/>
+      <c r="F7" s="240"/>
+      <c r="G7" s="240"/>
+      <c r="H7" s="240"/>
       <c r="I7" s="299"/>
       <c r="J7" s="299"/>
-      <c r="K7" s="271"/>
-      <c r="L7" s="271"/>
-      <c r="M7" s="271"/>
+      <c r="K7" s="240"/>
+      <c r="L7" s="240"/>
+      <c r="M7" s="240"/>
       <c r="N7" s="43" t="s">
         <v>77</v>
       </c>
@@ -13296,22 +13296,22 @@
     <row r="15" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
-      <c r="C15" s="271" t="s">
+      <c r="C15" s="240" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="271" t="s">
+      <c r="D15" s="240" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="271" t="s">
+      <c r="E15" s="240" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="271" t="s">
+      <c r="F15" s="240" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="271" t="s">
+      <c r="G15" s="240" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="271" t="s">
+      <c r="H15" s="240" t="s">
         <v>29</v>
       </c>
       <c r="I15" s="300" t="s">
@@ -13320,13 +13320,13 @@
       <c r="J15" s="299" t="s">
         <v>48</v>
       </c>
-      <c r="K15" s="271" t="s">
+      <c r="K15" s="240" t="s">
         <v>31</v>
       </c>
-      <c r="L15" s="271" t="s">
+      <c r="L15" s="240" t="s">
         <v>30</v>
       </c>
-      <c r="M15" s="271" t="s">
+      <c r="M15" s="240" t="s">
         <v>33</v>
       </c>
       <c r="N15" s="65" t="s">
@@ -13341,17 +13341,17 @@
     <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
-      <c r="C16" s="271"/>
-      <c r="D16" s="271"/>
-      <c r="E16" s="271"/>
-      <c r="F16" s="271"/>
-      <c r="G16" s="271"/>
-      <c r="H16" s="271"/>
+      <c r="C16" s="240"/>
+      <c r="D16" s="240"/>
+      <c r="E16" s="240"/>
+      <c r="F16" s="240"/>
+      <c r="G16" s="240"/>
+      <c r="H16" s="240"/>
       <c r="I16" s="301"/>
       <c r="J16" s="299"/>
-      <c r="K16" s="271"/>
-      <c r="L16" s="271"/>
-      <c r="M16" s="271"/>
+      <c r="K16" s="240"/>
+      <c r="L16" s="240"/>
+      <c r="M16" s="240"/>
       <c r="N16" s="43" t="s">
         <v>77</v>
       </c>
@@ -13714,22 +13714,22 @@
     </row>
     <row r="26" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="95"/>
-      <c r="C26" s="271" t="s">
+      <c r="C26" s="240" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="271" t="s">
+      <c r="D26" s="240" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="271" t="s">
+      <c r="E26" s="240" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="271" t="s">
+      <c r="F26" s="240" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="271" t="s">
+      <c r="G26" s="240" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="271" t="s">
+      <c r="H26" s="240" t="s">
         <v>29</v>
       </c>
       <c r="I26" s="299" t="s">
@@ -13738,13 +13738,13 @@
       <c r="J26" s="299" t="s">
         <v>48</v>
       </c>
-      <c r="K26" s="271" t="s">
+      <c r="K26" s="240" t="s">
         <v>31</v>
       </c>
-      <c r="L26" s="271" t="s">
+      <c r="L26" s="240" t="s">
         <v>30</v>
       </c>
-      <c r="M26" s="271" t="s">
+      <c r="M26" s="240" t="s">
         <v>33</v>
       </c>
       <c r="N26" s="65" t="s">
@@ -13758,17 +13758,17 @@
     </row>
     <row r="27" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B27" s="95"/>
-      <c r="C27" s="271"/>
-      <c r="D27" s="271"/>
-      <c r="E27" s="271"/>
-      <c r="F27" s="271"/>
-      <c r="G27" s="271"/>
-      <c r="H27" s="271"/>
+      <c r="C27" s="240"/>
+      <c r="D27" s="240"/>
+      <c r="E27" s="240"/>
+      <c r="F27" s="240"/>
+      <c r="G27" s="240"/>
+      <c r="H27" s="240"/>
       <c r="I27" s="299"/>
       <c r="J27" s="299"/>
-      <c r="K27" s="271"/>
-      <c r="L27" s="271"/>
-      <c r="M27" s="271"/>
+      <c r="K27" s="240"/>
+      <c r="L27" s="240"/>
+      <c r="M27" s="240"/>
       <c r="N27" s="93" t="s">
         <v>77</v>
       </c>
@@ -14466,7 +14466,7 @@
         <v>341</v>
       </c>
       <c r="Q42" s="8" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -14564,6 +14564,34 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
     <mergeCell ref="K15:K16"/>
     <mergeCell ref="M26:M27"/>
     <mergeCell ref="Q26:Q27"/>
@@ -14572,34 +14600,6 @@
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="M15:M16"/>
     <mergeCell ref="L15:L16"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -15221,7 +15221,7 @@
       <c r="L13" s="98"/>
       <c r="M13" s="69"/>
       <c r="N13" s="69" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="O13" s="69"/>
       <c r="P13" s="69"/>
@@ -15272,7 +15272,7 @@
       <c r="L14" s="98"/>
       <c r="M14" s="69"/>
       <c r="N14" s="229" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="O14" s="69"/>
       <c r="P14" s="69"/>
@@ -15928,13 +15928,13 @@
       <c r="G27" s="227"/>
       <c r="K27" s="228"/>
       <c r="N27" s="226" t="s">
+        <v>427</v>
+      </c>
+      <c r="AA27" s="226" t="s">
         <v>394</v>
       </c>
-      <c r="AA27" s="226" t="s">
-        <v>395</v>
-      </c>
       <c r="AB27" s="226" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="AV27" s="228"/>
     </row>
@@ -15945,13 +15945,13 @@
       <c r="G28" s="227"/>
       <c r="K28" s="228"/>
       <c r="N28" s="226" t="s">
-        <v>397</v>
+        <v>428</v>
       </c>
       <c r="AA28" s="226" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AB28" s="226" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="AV28" s="228"/>
     </row>
@@ -15962,13 +15962,13 @@
       <c r="G29" s="227"/>
       <c r="K29" s="228"/>
       <c r="N29" s="226" t="s">
-        <v>399</v>
+        <v>429</v>
       </c>
       <c r="AA29" s="226" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AB29" s="226" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="AV29" s="228"/>
     </row>
@@ -15979,13 +15979,13 @@
       <c r="G30" s="227"/>
       <c r="K30" s="228"/>
       <c r="N30" s="226" t="s">
-        <v>401</v>
+        <v>430</v>
       </c>
       <c r="AA30" s="226" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AB30" s="226" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="AV30" s="228"/>
     </row>
@@ -15996,13 +15996,13 @@
       <c r="G31" s="227"/>
       <c r="K31" s="228"/>
       <c r="N31" s="226" t="s">
-        <v>403</v>
+        <v>431</v>
       </c>
       <c r="AA31" s="226" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AB31" s="226" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="AV31" s="228"/>
     </row>
@@ -16024,13 +16024,13 @@
       <c r="G33" s="227"/>
       <c r="K33" s="228"/>
       <c r="N33" s="226" t="s">
+        <v>427</v>
+      </c>
+      <c r="AA33" s="226" t="s">
         <v>394</v>
       </c>
-      <c r="AA33" s="226" t="s">
+      <c r="AB33" s="226" t="s">
         <v>395</v>
-      </c>
-      <c r="AB33" s="226" t="s">
-        <v>396</v>
       </c>
       <c r="AV33" s="228"/>
     </row>
@@ -16041,13 +16041,13 @@
       <c r="G34" s="227"/>
       <c r="K34" s="228"/>
       <c r="N34" s="226" t="s">
-        <v>397</v>
+        <v>428</v>
       </c>
       <c r="AA34" s="226" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AB34" s="226" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AV34" s="228"/>
     </row>
@@ -16058,13 +16058,13 @@
       <c r="G35" s="227"/>
       <c r="K35" s="228"/>
       <c r="N35" s="226" t="s">
-        <v>399</v>
+        <v>429</v>
       </c>
       <c r="AA35" s="226" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AB35" s="226" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="AV35" s="228"/>
     </row>
@@ -16075,13 +16075,13 @@
       <c r="G36" s="227"/>
       <c r="K36" s="228"/>
       <c r="N36" s="226" t="s">
-        <v>401</v>
+        <v>430</v>
       </c>
       <c r="AA36" s="226" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AB36" s="226" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AV36" s="228"/>
     </row>
@@ -16092,13 +16092,13 @@
       <c r="G37" s="227"/>
       <c r="K37" s="228"/>
       <c r="N37" s="226" t="s">
-        <v>403</v>
+        <v>431</v>
       </c>
       <c r="AA37" s="226" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AB37" s="226" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="AV37" s="228"/>
     </row>
@@ -16167,7 +16167,7 @@
       <c r="L39" s="98"/>
       <c r="M39" s="69"/>
       <c r="N39" s="98" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="O39" s="98"/>
       <c r="P39" s="98"/>
@@ -16185,7 +16185,7 @@
         <v>38</v>
       </c>
       <c r="AB39" s="98" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="AC39" s="98"/>
       <c r="AD39" s="98"/>
@@ -16350,7 +16350,7 @@
         <v>38</v>
       </c>
       <c r="AB42" s="98" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="AC42" s="98"/>
       <c r="AD42" s="98"/>
@@ -16380,13 +16380,13 @@
       <c r="G43" s="227"/>
       <c r="K43" s="228"/>
       <c r="N43" s="226" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="AA43" s="226" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AB43" s="226" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="AV43" s="228"/>
     </row>
@@ -16404,7 +16404,7 @@
       <c r="L44" s="98"/>
       <c r="M44" s="69"/>
       <c r="N44" s="230" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="O44" s="230"/>
       <c r="P44" s="230"/>
@@ -16510,7 +16510,7 @@
       <c r="L46" s="98"/>
       <c r="M46" s="69"/>
       <c r="N46" s="98" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="O46" s="98"/>
       <c r="P46" s="98"/>
@@ -16528,7 +16528,7 @@
         <v>38</v>
       </c>
       <c r="AB46" s="98" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="AC46" s="98"/>
       <c r="AD46" s="98"/>
@@ -16723,13 +16723,13 @@
       <c r="G50" s="227"/>
       <c r="K50" s="228"/>
       <c r="N50" s="226" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="AA50" s="226" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AB50" s="226" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="AV50" s="228"/>
     </row>
@@ -16747,7 +16747,7 @@
       <c r="L51" s="98"/>
       <c r="M51" s="69"/>
       <c r="N51" s="230" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="O51" s="230"/>
       <c r="P51" s="230"/>
@@ -16853,7 +16853,7 @@
       <c r="L53" s="98"/>
       <c r="M53" s="69"/>
       <c r="N53" s="98" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="O53" s="98"/>
       <c r="P53" s="98"/>
@@ -16871,7 +16871,7 @@
         <v>38</v>
       </c>
       <c r="AB53" s="98" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="AC53" s="98"/>
       <c r="AD53" s="98"/>
@@ -17066,13 +17066,13 @@
       <c r="G57" s="227"/>
       <c r="K57" s="228"/>
       <c r="N57" s="226" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="AA57" s="226" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AB57" s="226" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="AV57" s="228"/>
     </row>
@@ -17090,7 +17090,7 @@
       <c r="L58" s="98"/>
       <c r="M58" s="69"/>
       <c r="N58" s="230" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="O58" s="230"/>
       <c r="P58" s="230"/>
@@ -17196,7 +17196,7 @@
       <c r="L60" s="98"/>
       <c r="M60" s="69"/>
       <c r="N60" s="98" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="O60" s="98"/>
       <c r="P60" s="98"/>
@@ -17214,7 +17214,7 @@
         <v>38</v>
       </c>
       <c r="AB60" s="98" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="AC60" s="98"/>
       <c r="AD60" s="98"/>
@@ -17409,13 +17409,13 @@
       <c r="G64" s="227"/>
       <c r="K64" s="228"/>
       <c r="N64" s="226" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="AA64" s="226" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AB64" s="226" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="AV64" s="228"/>
     </row>
@@ -17433,7 +17433,7 @@
       <c r="L65" s="98"/>
       <c r="M65" s="69"/>
       <c r="N65" s="230" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="O65" s="230"/>
       <c r="P65" s="230"/>
@@ -17653,7 +17653,7 @@
       <c r="L69" s="98"/>
       <c r="M69" s="69"/>
       <c r="N69" s="98" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="O69" s="98"/>
       <c r="P69" s="98"/>
@@ -17671,7 +17671,7 @@
         <v>38</v>
       </c>
       <c r="AB69" s="96" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="AC69" s="98"/>
       <c r="AD69" s="98"/>
@@ -18486,7 +18486,7 @@
       <c r="L85" s="230"/>
       <c r="M85" s="229"/>
       <c r="N85" s="229" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="O85" s="229"/>
       <c r="P85" s="229"/>
@@ -18537,7 +18537,7 @@
       <c r="L86" s="230"/>
       <c r="M86" s="229"/>
       <c r="N86" s="229" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="O86" s="229"/>
       <c r="P86" s="229"/>
@@ -18588,7 +18588,7 @@
       <c r="L87" s="230"/>
       <c r="M87" s="229"/>
       <c r="N87" s="229" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="O87" s="229"/>
       <c r="P87" s="229"/>
@@ -18690,7 +18690,7 @@
       <c r="L89" s="230"/>
       <c r="M89" s="229"/>
       <c r="N89" s="229" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="O89" s="229"/>
       <c r="P89" s="229"/>
@@ -18741,7 +18741,7 @@
       <c r="L90" s="230"/>
       <c r="M90" s="229"/>
       <c r="N90" s="229" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="O90" s="229"/>
       <c r="P90" s="229"/>
@@ -18792,7 +18792,7 @@
       <c r="L91" s="230"/>
       <c r="M91" s="229"/>
       <c r="N91" s="229" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="O91" s="229"/>
       <c r="P91" s="229"/>
@@ -49324,12 +49324,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -49491,15 +49488,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -49523,17 +49531,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/01_基本設計書/20200220リリース/SC-Z01_在庫照会.xlsx
+++ b/01_基本設計書/20200220リリース/SC-Z01_在庫照会.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50E826C-F204-41CF-94D4-819A47CDF69E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE35D48-C1A8-4FB1-8686-F69D166AB25B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2089,20 +2089,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>・在庫データ.品種コード</t>
-    <rPh sb="7" eb="9">
-      <t>ヒンシュ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>・在庫データ.車種コード</t>
-    <rPh sb="7" eb="9">
-      <t>シャシュ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>在庫データ.前月残</t>
     <rPh sb="6" eb="8">
       <t>ゼンゲツ</t>
@@ -3303,9 +3289,6 @@
     <phoneticPr fontId="17"/>
   </si>
   <si>
-    <t>生産製品マスタ.品名事業所コード</t>
-  </si>
-  <si>
     <t>生産製品マスタ.パック品名略称</t>
   </si>
   <si>
@@ -3348,6 +3331,68 @@
   </si>
   <si>
     <t>AND 在庫データ.製品半製品区分</t>
+  </si>
+  <si>
+    <t>生産製品マスタ.品名事業所コード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>生産製品マスタ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.品種コード</t>
+    </r>
+    <rPh sb="9" eb="11">
+      <t>ヒンシュ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>生産製品マスタ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.車種コード</t>
+    </r>
+    <rPh sb="9" eb="11">
+      <t>シャシュ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -4754,6 +4799,91 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4780,91 +4910,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5831,7 +5876,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$47" spid="_x0000_s3538"/>
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$47" spid="_x0000_s3540"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6582,8 +6627,8 @@
             <a:xfrm>
               <a:off x="426449" y="2130359"/>
               <a:ext cx="1803076" cy="1150735"/>
-              <a:chOff x="1787559" y="2316186"/>
-              <a:chExt cx="1341120" cy="969080"/>
+              <a:chOff x="1787559" y="2316184"/>
+              <a:chExt cx="1341120" cy="969079"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:grpSp>
@@ -6599,10 +6644,10 @@
             </xdr:nvGrpSpPr>
             <xdr:grpSpPr>
               <a:xfrm>
-                <a:off x="1823232" y="2648485"/>
-                <a:ext cx="777645" cy="485701"/>
-                <a:chOff x="191656" y="3012332"/>
-                <a:chExt cx="777645" cy="479512"/>
+                <a:off x="1823232" y="2648489"/>
+                <a:ext cx="777645" cy="485687"/>
+                <a:chOff x="191656" y="3012335"/>
+                <a:chExt cx="777645" cy="479498"/>
               </a:xfrm>
             </xdr:grpSpPr>
             <xdr:sp macro="" textlink="">
@@ -6621,7 +6666,7 @@
               </xdr:nvSpPr>
               <xdr:spPr bwMode="auto">
                 <a:xfrm>
-                  <a:off x="191656" y="3012332"/>
+                  <a:off x="191656" y="3012335"/>
                   <a:ext cx="777645" cy="164478"/>
                 </a:xfrm>
                 <a:prstGeom prst="rect">
@@ -6687,8 +6732,8 @@
               </xdr:nvSpPr>
               <xdr:spPr bwMode="auto">
                 <a:xfrm>
-                  <a:off x="196808" y="3340363"/>
-                  <a:ext cx="763862" cy="151481"/>
+                  <a:off x="196808" y="3340353"/>
+                  <a:ext cx="763862" cy="151480"/>
                 </a:xfrm>
                 <a:prstGeom prst="rect">
                   <a:avLst/>
@@ -6754,8 +6799,8 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="1787559" y="2316186"/>
-                <a:ext cx="1341120" cy="969080"/>
+                <a:off x="1787559" y="2316184"/>
+                <a:ext cx="1341120" cy="969079"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -8296,1770 +8341,2003 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="54"/>
-      <c r="B1" s="238" t="s">
+      <c r="B1" s="269" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="238"/>
-      <c r="I1" s="238"/>
-      <c r="J1" s="238"/>
-      <c r="K1" s="238"/>
-      <c r="L1" s="238"/>
-      <c r="M1" s="238"/>
-      <c r="N1" s="238"/>
-      <c r="O1" s="238"/>
-      <c r="P1" s="238"/>
-      <c r="Q1" s="238"/>
-      <c r="R1" s="238"/>
-      <c r="S1" s="238"/>
-      <c r="T1" s="238"/>
-      <c r="U1" s="238"/>
-      <c r="V1" s="238"/>
-      <c r="W1" s="238"/>
-      <c r="X1" s="238"/>
-      <c r="Y1" s="238"/>
-      <c r="Z1" s="238"/>
-      <c r="AA1" s="238"/>
-      <c r="AB1" s="238"/>
-      <c r="AC1" s="238"/>
-      <c r="AD1" s="238"/>
-      <c r="AE1" s="238"/>
-      <c r="AF1" s="238"/>
-      <c r="AG1" s="238"/>
-      <c r="AH1" s="238"/>
-      <c r="AI1" s="238"/>
-      <c r="AJ1" s="238"/>
-      <c r="AK1" s="238"/>
-      <c r="AL1" s="238"/>
-      <c r="AM1" s="238"/>
-      <c r="AN1" s="238"/>
-      <c r="AO1" s="238"/>
-      <c r="AP1" s="238"/>
-      <c r="AQ1" s="238"/>
-      <c r="AR1" s="238"/>
-      <c r="AS1" s="238"/>
-      <c r="AT1" s="238"/>
-      <c r="AU1" s="238"/>
-      <c r="AV1" s="238"/>
-      <c r="AW1" s="238"/>
+      <c r="C1" s="269"/>
+      <c r="D1" s="269"/>
+      <c r="E1" s="269"/>
+      <c r="F1" s="269"/>
+      <c r="G1" s="269"/>
+      <c r="H1" s="269"/>
+      <c r="I1" s="269"/>
+      <c r="J1" s="269"/>
+      <c r="K1" s="269"/>
+      <c r="L1" s="269"/>
+      <c r="M1" s="269"/>
+      <c r="N1" s="269"/>
+      <c r="O1" s="269"/>
+      <c r="P1" s="269"/>
+      <c r="Q1" s="269"/>
+      <c r="R1" s="269"/>
+      <c r="S1" s="269"/>
+      <c r="T1" s="269"/>
+      <c r="U1" s="269"/>
+      <c r="V1" s="269"/>
+      <c r="W1" s="269"/>
+      <c r="X1" s="269"/>
+      <c r="Y1" s="269"/>
+      <c r="Z1" s="269"/>
+      <c r="AA1" s="269"/>
+      <c r="AB1" s="269"/>
+      <c r="AC1" s="269"/>
+      <c r="AD1" s="269"/>
+      <c r="AE1" s="269"/>
+      <c r="AF1" s="269"/>
+      <c r="AG1" s="269"/>
+      <c r="AH1" s="269"/>
+      <c r="AI1" s="269"/>
+      <c r="AJ1" s="269"/>
+      <c r="AK1" s="269"/>
+      <c r="AL1" s="269"/>
+      <c r="AM1" s="269"/>
+      <c r="AN1" s="269"/>
+      <c r="AO1" s="269"/>
+      <c r="AP1" s="269"/>
+      <c r="AQ1" s="269"/>
+      <c r="AR1" s="269"/>
+      <c r="AS1" s="269"/>
+      <c r="AT1" s="269"/>
+      <c r="AU1" s="269"/>
+      <c r="AV1" s="269"/>
+      <c r="AW1" s="269"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="54"/>
-      <c r="B2" s="239"/>
-      <c r="C2" s="239"/>
-      <c r="D2" s="239"/>
-      <c r="E2" s="239"/>
-      <c r="F2" s="239"/>
-      <c r="G2" s="239"/>
-      <c r="H2" s="239"/>
-      <c r="I2" s="239"/>
-      <c r="J2" s="239"/>
-      <c r="K2" s="239"/>
-      <c r="L2" s="239"/>
-      <c r="M2" s="239"/>
-      <c r="N2" s="239"/>
-      <c r="O2" s="239"/>
-      <c r="P2" s="239"/>
-      <c r="Q2" s="239"/>
-      <c r="R2" s="239"/>
-      <c r="S2" s="239"/>
-      <c r="T2" s="239"/>
-      <c r="U2" s="239"/>
-      <c r="V2" s="239"/>
-      <c r="W2" s="239"/>
-      <c r="X2" s="239"/>
-      <c r="Y2" s="239"/>
-      <c r="Z2" s="239"/>
-      <c r="AA2" s="239"/>
-      <c r="AB2" s="239"/>
-      <c r="AC2" s="239"/>
-      <c r="AD2" s="239"/>
-      <c r="AE2" s="239"/>
-      <c r="AF2" s="239"/>
-      <c r="AG2" s="239"/>
-      <c r="AH2" s="239"/>
-      <c r="AI2" s="239"/>
-      <c r="AJ2" s="239"/>
-      <c r="AK2" s="239"/>
-      <c r="AL2" s="239"/>
-      <c r="AM2" s="239"/>
-      <c r="AN2" s="239"/>
-      <c r="AO2" s="239"/>
-      <c r="AP2" s="239"/>
-      <c r="AQ2" s="239"/>
-      <c r="AR2" s="239"/>
-      <c r="AS2" s="239"/>
-      <c r="AT2" s="239"/>
-      <c r="AU2" s="239"/>
-      <c r="AV2" s="239"/>
-      <c r="AW2" s="239"/>
+      <c r="B2" s="270"/>
+      <c r="C2" s="270"/>
+      <c r="D2" s="270"/>
+      <c r="E2" s="270"/>
+      <c r="F2" s="270"/>
+      <c r="G2" s="270"/>
+      <c r="H2" s="270"/>
+      <c r="I2" s="270"/>
+      <c r="J2" s="270"/>
+      <c r="K2" s="270"/>
+      <c r="L2" s="270"/>
+      <c r="M2" s="270"/>
+      <c r="N2" s="270"/>
+      <c r="O2" s="270"/>
+      <c r="P2" s="270"/>
+      <c r="Q2" s="270"/>
+      <c r="R2" s="270"/>
+      <c r="S2" s="270"/>
+      <c r="T2" s="270"/>
+      <c r="U2" s="270"/>
+      <c r="V2" s="270"/>
+      <c r="W2" s="270"/>
+      <c r="X2" s="270"/>
+      <c r="Y2" s="270"/>
+      <c r="Z2" s="270"/>
+      <c r="AA2" s="270"/>
+      <c r="AB2" s="270"/>
+      <c r="AC2" s="270"/>
+      <c r="AD2" s="270"/>
+      <c r="AE2" s="270"/>
+      <c r="AF2" s="270"/>
+      <c r="AG2" s="270"/>
+      <c r="AH2" s="270"/>
+      <c r="AI2" s="270"/>
+      <c r="AJ2" s="270"/>
+      <c r="AK2" s="270"/>
+      <c r="AL2" s="270"/>
+      <c r="AM2" s="270"/>
+      <c r="AN2" s="270"/>
+      <c r="AO2" s="270"/>
+      <c r="AP2" s="270"/>
+      <c r="AQ2" s="270"/>
+      <c r="AR2" s="270"/>
+      <c r="AS2" s="270"/>
+      <c r="AT2" s="270"/>
+      <c r="AU2" s="270"/>
+      <c r="AV2" s="270"/>
+      <c r="AW2" s="270"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="54"/>
-      <c r="B3" s="240" t="s">
+      <c r="B3" s="271" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="240"/>
-      <c r="D3" s="240"/>
-      <c r="E3" s="240" t="s">
+      <c r="C3" s="271"/>
+      <c r="D3" s="271"/>
+      <c r="E3" s="271" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="240"/>
-      <c r="G3" s="240"/>
-      <c r="H3" s="240"/>
-      <c r="I3" s="240"/>
-      <c r="J3" s="241" t="s">
+      <c r="F3" s="271"/>
+      <c r="G3" s="271"/>
+      <c r="H3" s="271"/>
+      <c r="I3" s="271"/>
+      <c r="J3" s="272" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="242"/>
-      <c r="L3" s="243"/>
-      <c r="M3" s="241" t="s">
+      <c r="K3" s="273"/>
+      <c r="L3" s="274"/>
+      <c r="M3" s="272" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="242"/>
-      <c r="O3" s="242"/>
-      <c r="P3" s="242"/>
-      <c r="Q3" s="242"/>
-      <c r="R3" s="243"/>
-      <c r="S3" s="240" t="s">
+      <c r="N3" s="273"/>
+      <c r="O3" s="273"/>
+      <c r="P3" s="273"/>
+      <c r="Q3" s="273"/>
+      <c r="R3" s="274"/>
+      <c r="S3" s="271" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="240"/>
-      <c r="U3" s="240"/>
-      <c r="V3" s="240" t="s">
+      <c r="T3" s="271"/>
+      <c r="U3" s="271"/>
+      <c r="V3" s="271" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="240"/>
-      <c r="X3" s="240"/>
-      <c r="Y3" s="240"/>
-      <c r="Z3" s="240"/>
-      <c r="AA3" s="240"/>
-      <c r="AB3" s="240"/>
-      <c r="AC3" s="240"/>
-      <c r="AD3" s="240"/>
-      <c r="AE3" s="240"/>
-      <c r="AF3" s="240"/>
-      <c r="AG3" s="240"/>
-      <c r="AH3" s="240"/>
-      <c r="AI3" s="240"/>
-      <c r="AJ3" s="240"/>
-      <c r="AK3" s="240"/>
-      <c r="AL3" s="240"/>
-      <c r="AM3" s="240"/>
-      <c r="AN3" s="240" t="s">
+      <c r="W3" s="271"/>
+      <c r="X3" s="271"/>
+      <c r="Y3" s="271"/>
+      <c r="Z3" s="271"/>
+      <c r="AA3" s="271"/>
+      <c r="AB3" s="271"/>
+      <c r="AC3" s="271"/>
+      <c r="AD3" s="271"/>
+      <c r="AE3" s="271"/>
+      <c r="AF3" s="271"/>
+      <c r="AG3" s="271"/>
+      <c r="AH3" s="271"/>
+      <c r="AI3" s="271"/>
+      <c r="AJ3" s="271"/>
+      <c r="AK3" s="271"/>
+      <c r="AL3" s="271"/>
+      <c r="AM3" s="271"/>
+      <c r="AN3" s="271" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="240"/>
-      <c r="AP3" s="240"/>
-      <c r="AQ3" s="240"/>
-      <c r="AR3" s="240"/>
-      <c r="AS3" s="240" t="s">
+      <c r="AO3" s="271"/>
+      <c r="AP3" s="271"/>
+      <c r="AQ3" s="271"/>
+      <c r="AR3" s="271"/>
+      <c r="AS3" s="271" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="240"/>
-      <c r="AU3" s="240"/>
-      <c r="AV3" s="240"/>
-      <c r="AW3" s="240"/>
+      <c r="AT3" s="271"/>
+      <c r="AU3" s="271"/>
+      <c r="AV3" s="271"/>
+      <c r="AW3" s="271"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="54"/>
-      <c r="B4" s="240"/>
-      <c r="C4" s="240"/>
-      <c r="D4" s="240"/>
-      <c r="E4" s="240"/>
-      <c r="F4" s="240"/>
-      <c r="G4" s="240"/>
-      <c r="H4" s="240"/>
-      <c r="I4" s="240"/>
-      <c r="J4" s="244"/>
-      <c r="K4" s="245"/>
-      <c r="L4" s="246"/>
-      <c r="M4" s="244"/>
-      <c r="N4" s="245"/>
-      <c r="O4" s="245"/>
-      <c r="P4" s="245"/>
-      <c r="Q4" s="245"/>
-      <c r="R4" s="246"/>
-      <c r="S4" s="240"/>
-      <c r="T4" s="240"/>
-      <c r="U4" s="240"/>
-      <c r="V4" s="240"/>
-      <c r="W4" s="240"/>
-      <c r="X4" s="240"/>
-      <c r="Y4" s="240"/>
-      <c r="Z4" s="240"/>
-      <c r="AA4" s="240"/>
-      <c r="AB4" s="240"/>
-      <c r="AC4" s="240"/>
-      <c r="AD4" s="240"/>
-      <c r="AE4" s="240"/>
-      <c r="AF4" s="240"/>
-      <c r="AG4" s="240"/>
-      <c r="AH4" s="240"/>
-      <c r="AI4" s="240"/>
-      <c r="AJ4" s="240"/>
-      <c r="AK4" s="240"/>
-      <c r="AL4" s="240"/>
-      <c r="AM4" s="240"/>
-      <c r="AN4" s="240"/>
-      <c r="AO4" s="240"/>
-      <c r="AP4" s="240"/>
-      <c r="AQ4" s="240"/>
-      <c r="AR4" s="240"/>
-      <c r="AS4" s="240"/>
-      <c r="AT4" s="240"/>
-      <c r="AU4" s="240"/>
-      <c r="AV4" s="240"/>
-      <c r="AW4" s="240"/>
+      <c r="B4" s="271"/>
+      <c r="C4" s="271"/>
+      <c r="D4" s="271"/>
+      <c r="E4" s="271"/>
+      <c r="F4" s="271"/>
+      <c r="G4" s="271"/>
+      <c r="H4" s="271"/>
+      <c r="I4" s="271"/>
+      <c r="J4" s="275"/>
+      <c r="K4" s="276"/>
+      <c r="L4" s="277"/>
+      <c r="M4" s="275"/>
+      <c r="N4" s="276"/>
+      <c r="O4" s="276"/>
+      <c r="P4" s="276"/>
+      <c r="Q4" s="276"/>
+      <c r="R4" s="277"/>
+      <c r="S4" s="271"/>
+      <c r="T4" s="271"/>
+      <c r="U4" s="271"/>
+      <c r="V4" s="271"/>
+      <c r="W4" s="271"/>
+      <c r="X4" s="271"/>
+      <c r="Y4" s="271"/>
+      <c r="Z4" s="271"/>
+      <c r="AA4" s="271"/>
+      <c r="AB4" s="271"/>
+      <c r="AC4" s="271"/>
+      <c r="AD4" s="271"/>
+      <c r="AE4" s="271"/>
+      <c r="AF4" s="271"/>
+      <c r="AG4" s="271"/>
+      <c r="AH4" s="271"/>
+      <c r="AI4" s="271"/>
+      <c r="AJ4" s="271"/>
+      <c r="AK4" s="271"/>
+      <c r="AL4" s="271"/>
+      <c r="AM4" s="271"/>
+      <c r="AN4" s="271"/>
+      <c r="AO4" s="271"/>
+      <c r="AP4" s="271"/>
+      <c r="AQ4" s="271"/>
+      <c r="AR4" s="271"/>
+      <c r="AS4" s="271"/>
+      <c r="AT4" s="271"/>
+      <c r="AU4" s="271"/>
+      <c r="AV4" s="271"/>
+      <c r="AW4" s="271"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="56"/>
-      <c r="B5" s="248">
+      <c r="B5" s="263">
         <v>1</v>
       </c>
-      <c r="C5" s="248"/>
-      <c r="D5" s="248"/>
-      <c r="E5" s="249">
+      <c r="C5" s="263"/>
+      <c r="D5" s="263"/>
+      <c r="E5" s="244">
         <v>43734</v>
       </c>
-      <c r="F5" s="249"/>
-      <c r="G5" s="249"/>
-      <c r="H5" s="249"/>
-      <c r="I5" s="249"/>
-      <c r="J5" s="250" t="s">
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="244"/>
+      <c r="J5" s="245" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="251"/>
-      <c r="L5" s="252"/>
-      <c r="M5" s="250" t="s">
+      <c r="K5" s="246"/>
+      <c r="L5" s="247"/>
+      <c r="M5" s="245" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="251"/>
-      <c r="O5" s="251"/>
-      <c r="P5" s="251"/>
-      <c r="Q5" s="251"/>
-      <c r="R5" s="252"/>
-      <c r="S5" s="247" t="s">
+      <c r="N5" s="246"/>
+      <c r="O5" s="246"/>
+      <c r="P5" s="246"/>
+      <c r="Q5" s="246"/>
+      <c r="R5" s="247"/>
+      <c r="S5" s="251" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="247"/>
-      <c r="U5" s="247"/>
-      <c r="V5" s="256" t="s">
+      <c r="T5" s="251"/>
+      <c r="U5" s="251"/>
+      <c r="V5" s="262" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="256"/>
-      <c r="X5" s="256"/>
-      <c r="Y5" s="256"/>
-      <c r="Z5" s="256"/>
-      <c r="AA5" s="256"/>
-      <c r="AB5" s="256"/>
-      <c r="AC5" s="256"/>
-      <c r="AD5" s="256"/>
-      <c r="AE5" s="256"/>
-      <c r="AF5" s="256"/>
-      <c r="AG5" s="256"/>
-      <c r="AH5" s="256"/>
-      <c r="AI5" s="256"/>
-      <c r="AJ5" s="256"/>
-      <c r="AK5" s="256"/>
-      <c r="AL5" s="256"/>
-      <c r="AM5" s="256"/>
-      <c r="AN5" s="247" t="s">
+      <c r="W5" s="262"/>
+      <c r="X5" s="262"/>
+      <c r="Y5" s="262"/>
+      <c r="Z5" s="262"/>
+      <c r="AA5" s="262"/>
+      <c r="AB5" s="262"/>
+      <c r="AC5" s="262"/>
+      <c r="AD5" s="262"/>
+      <c r="AE5" s="262"/>
+      <c r="AF5" s="262"/>
+      <c r="AG5" s="262"/>
+      <c r="AH5" s="262"/>
+      <c r="AI5" s="262"/>
+      <c r="AJ5" s="262"/>
+      <c r="AK5" s="262"/>
+      <c r="AL5" s="262"/>
+      <c r="AM5" s="262"/>
+      <c r="AN5" s="251" t="s">
         <v>190</v>
       </c>
-      <c r="AO5" s="247"/>
-      <c r="AP5" s="247"/>
-      <c r="AQ5" s="247"/>
-      <c r="AR5" s="247"/>
-      <c r="AS5" s="247"/>
-      <c r="AT5" s="247"/>
-      <c r="AU5" s="247"/>
-      <c r="AV5" s="247"/>
-      <c r="AW5" s="247"/>
+      <c r="AO5" s="251"/>
+      <c r="AP5" s="251"/>
+      <c r="AQ5" s="251"/>
+      <c r="AR5" s="251"/>
+      <c r="AS5" s="251"/>
+      <c r="AT5" s="251"/>
+      <c r="AU5" s="251"/>
+      <c r="AV5" s="251"/>
+      <c r="AW5" s="251"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="56"/>
-      <c r="B6" s="248"/>
-      <c r="C6" s="248"/>
-      <c r="D6" s="248"/>
-      <c r="E6" s="249"/>
-      <c r="F6" s="249"/>
-      <c r="G6" s="249"/>
-      <c r="H6" s="249"/>
-      <c r="I6" s="249"/>
-      <c r="J6" s="250"/>
-      <c r="K6" s="251"/>
-      <c r="L6" s="252"/>
-      <c r="M6" s="253"/>
-      <c r="N6" s="254"/>
-      <c r="O6" s="254"/>
-      <c r="P6" s="254"/>
-      <c r="Q6" s="254"/>
-      <c r="R6" s="255"/>
-      <c r="S6" s="247"/>
-      <c r="T6" s="247"/>
-      <c r="U6" s="247"/>
-      <c r="V6" s="256"/>
-      <c r="W6" s="256"/>
-      <c r="X6" s="256"/>
-      <c r="Y6" s="256"/>
-      <c r="Z6" s="256"/>
-      <c r="AA6" s="256"/>
-      <c r="AB6" s="256"/>
-      <c r="AC6" s="256"/>
-      <c r="AD6" s="256"/>
-      <c r="AE6" s="256"/>
-      <c r="AF6" s="256"/>
-      <c r="AG6" s="256"/>
-      <c r="AH6" s="256"/>
-      <c r="AI6" s="256"/>
-      <c r="AJ6" s="256"/>
-      <c r="AK6" s="256"/>
-      <c r="AL6" s="256"/>
-      <c r="AM6" s="256"/>
-      <c r="AN6" s="247"/>
-      <c r="AO6" s="247"/>
-      <c r="AP6" s="247"/>
-      <c r="AQ6" s="247"/>
-      <c r="AR6" s="247"/>
-      <c r="AS6" s="247"/>
-      <c r="AT6" s="247"/>
-      <c r="AU6" s="247"/>
-      <c r="AV6" s="247"/>
-      <c r="AW6" s="247"/>
+      <c r="B6" s="263"/>
+      <c r="C6" s="263"/>
+      <c r="D6" s="263"/>
+      <c r="E6" s="244"/>
+      <c r="F6" s="244"/>
+      <c r="G6" s="244"/>
+      <c r="H6" s="244"/>
+      <c r="I6" s="244"/>
+      <c r="J6" s="245"/>
+      <c r="K6" s="246"/>
+      <c r="L6" s="247"/>
+      <c r="M6" s="266"/>
+      <c r="N6" s="267"/>
+      <c r="O6" s="267"/>
+      <c r="P6" s="267"/>
+      <c r="Q6" s="267"/>
+      <c r="R6" s="268"/>
+      <c r="S6" s="251"/>
+      <c r="T6" s="251"/>
+      <c r="U6" s="251"/>
+      <c r="V6" s="262"/>
+      <c r="W6" s="262"/>
+      <c r="X6" s="262"/>
+      <c r="Y6" s="262"/>
+      <c r="Z6" s="262"/>
+      <c r="AA6" s="262"/>
+      <c r="AB6" s="262"/>
+      <c r="AC6" s="262"/>
+      <c r="AD6" s="262"/>
+      <c r="AE6" s="262"/>
+      <c r="AF6" s="262"/>
+      <c r="AG6" s="262"/>
+      <c r="AH6" s="262"/>
+      <c r="AI6" s="262"/>
+      <c r="AJ6" s="262"/>
+      <c r="AK6" s="262"/>
+      <c r="AL6" s="262"/>
+      <c r="AM6" s="262"/>
+      <c r="AN6" s="251"/>
+      <c r="AO6" s="251"/>
+      <c r="AP6" s="251"/>
+      <c r="AQ6" s="251"/>
+      <c r="AR6" s="251"/>
+      <c r="AS6" s="251"/>
+      <c r="AT6" s="251"/>
+      <c r="AU6" s="251"/>
+      <c r="AV6" s="251"/>
+      <c r="AW6" s="251"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="56"/>
-      <c r="B7" s="248"/>
-      <c r="C7" s="248"/>
-      <c r="D7" s="248"/>
-      <c r="E7" s="249"/>
-      <c r="F7" s="249"/>
-      <c r="G7" s="249"/>
-      <c r="H7" s="249"/>
-      <c r="I7" s="249"/>
-      <c r="J7" s="250"/>
-      <c r="K7" s="251"/>
-      <c r="L7" s="252"/>
-      <c r="M7" s="253"/>
-      <c r="N7" s="254"/>
-      <c r="O7" s="254"/>
-      <c r="P7" s="254"/>
-      <c r="Q7" s="254"/>
-      <c r="R7" s="255"/>
-      <c r="S7" s="247"/>
-      <c r="T7" s="247"/>
-      <c r="U7" s="247"/>
-      <c r="V7" s="256"/>
-      <c r="W7" s="256"/>
-      <c r="X7" s="256"/>
-      <c r="Y7" s="256"/>
-      <c r="Z7" s="256"/>
-      <c r="AA7" s="256"/>
-      <c r="AB7" s="256"/>
-      <c r="AC7" s="256"/>
-      <c r="AD7" s="256"/>
-      <c r="AE7" s="256"/>
-      <c r="AF7" s="256"/>
-      <c r="AG7" s="256"/>
-      <c r="AH7" s="256"/>
-      <c r="AI7" s="256"/>
-      <c r="AJ7" s="256"/>
-      <c r="AK7" s="256"/>
-      <c r="AL7" s="256"/>
-      <c r="AM7" s="256"/>
-      <c r="AN7" s="247"/>
-      <c r="AO7" s="247"/>
-      <c r="AP7" s="247"/>
-      <c r="AQ7" s="247"/>
-      <c r="AR7" s="247"/>
-      <c r="AS7" s="247"/>
-      <c r="AT7" s="247"/>
-      <c r="AU7" s="247"/>
-      <c r="AV7" s="247"/>
-      <c r="AW7" s="247"/>
+      <c r="B7" s="263"/>
+      <c r="C7" s="263"/>
+      <c r="D7" s="263"/>
+      <c r="E7" s="244"/>
+      <c r="F7" s="244"/>
+      <c r="G7" s="244"/>
+      <c r="H7" s="244"/>
+      <c r="I7" s="244"/>
+      <c r="J7" s="245"/>
+      <c r="K7" s="246"/>
+      <c r="L7" s="247"/>
+      <c r="M7" s="266"/>
+      <c r="N7" s="267"/>
+      <c r="O7" s="267"/>
+      <c r="P7" s="267"/>
+      <c r="Q7" s="267"/>
+      <c r="R7" s="268"/>
+      <c r="S7" s="251"/>
+      <c r="T7" s="251"/>
+      <c r="U7" s="251"/>
+      <c r="V7" s="262"/>
+      <c r="W7" s="262"/>
+      <c r="X7" s="262"/>
+      <c r="Y7" s="262"/>
+      <c r="Z7" s="262"/>
+      <c r="AA7" s="262"/>
+      <c r="AB7" s="262"/>
+      <c r="AC7" s="262"/>
+      <c r="AD7" s="262"/>
+      <c r="AE7" s="262"/>
+      <c r="AF7" s="262"/>
+      <c r="AG7" s="262"/>
+      <c r="AH7" s="262"/>
+      <c r="AI7" s="262"/>
+      <c r="AJ7" s="262"/>
+      <c r="AK7" s="262"/>
+      <c r="AL7" s="262"/>
+      <c r="AM7" s="262"/>
+      <c r="AN7" s="251"/>
+      <c r="AO7" s="251"/>
+      <c r="AP7" s="251"/>
+      <c r="AQ7" s="251"/>
+      <c r="AR7" s="251"/>
+      <c r="AS7" s="251"/>
+      <c r="AT7" s="251"/>
+      <c r="AU7" s="251"/>
+      <c r="AV7" s="251"/>
+      <c r="AW7" s="251"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="56"/>
-      <c r="B8" s="248"/>
-      <c r="C8" s="248"/>
-      <c r="D8" s="248"/>
-      <c r="E8" s="249"/>
-      <c r="F8" s="249"/>
-      <c r="G8" s="249"/>
-      <c r="H8" s="249"/>
-      <c r="I8" s="249"/>
-      <c r="J8" s="250"/>
-      <c r="K8" s="251"/>
-      <c r="L8" s="252"/>
-      <c r="M8" s="253"/>
-      <c r="N8" s="254"/>
-      <c r="O8" s="254"/>
-      <c r="P8" s="254"/>
-      <c r="Q8" s="254"/>
-      <c r="R8" s="255"/>
-      <c r="S8" s="247"/>
-      <c r="T8" s="247"/>
-      <c r="U8" s="247"/>
-      <c r="V8" s="256"/>
-      <c r="W8" s="256"/>
-      <c r="X8" s="256"/>
-      <c r="Y8" s="256"/>
-      <c r="Z8" s="256"/>
-      <c r="AA8" s="256"/>
-      <c r="AB8" s="256"/>
-      <c r="AC8" s="256"/>
-      <c r="AD8" s="256"/>
-      <c r="AE8" s="256"/>
-      <c r="AF8" s="256"/>
-      <c r="AG8" s="256"/>
-      <c r="AH8" s="256"/>
-      <c r="AI8" s="256"/>
-      <c r="AJ8" s="256"/>
-      <c r="AK8" s="256"/>
-      <c r="AL8" s="256"/>
-      <c r="AM8" s="256"/>
-      <c r="AN8" s="247"/>
-      <c r="AO8" s="247"/>
-      <c r="AP8" s="247"/>
-      <c r="AQ8" s="247"/>
-      <c r="AR8" s="247"/>
-      <c r="AS8" s="247"/>
-      <c r="AT8" s="247"/>
-      <c r="AU8" s="247"/>
-      <c r="AV8" s="247"/>
-      <c r="AW8" s="247"/>
+      <c r="B8" s="263"/>
+      <c r="C8" s="263"/>
+      <c r="D8" s="263"/>
+      <c r="E8" s="244"/>
+      <c r="F8" s="244"/>
+      <c r="G8" s="244"/>
+      <c r="H8" s="244"/>
+      <c r="I8" s="244"/>
+      <c r="J8" s="245"/>
+      <c r="K8" s="246"/>
+      <c r="L8" s="247"/>
+      <c r="M8" s="266"/>
+      <c r="N8" s="267"/>
+      <c r="O8" s="267"/>
+      <c r="P8" s="267"/>
+      <c r="Q8" s="267"/>
+      <c r="R8" s="268"/>
+      <c r="S8" s="251"/>
+      <c r="T8" s="251"/>
+      <c r="U8" s="251"/>
+      <c r="V8" s="262"/>
+      <c r="W8" s="262"/>
+      <c r="X8" s="262"/>
+      <c r="Y8" s="262"/>
+      <c r="Z8" s="262"/>
+      <c r="AA8" s="262"/>
+      <c r="AB8" s="262"/>
+      <c r="AC8" s="262"/>
+      <c r="AD8" s="262"/>
+      <c r="AE8" s="262"/>
+      <c r="AF8" s="262"/>
+      <c r="AG8" s="262"/>
+      <c r="AH8" s="262"/>
+      <c r="AI8" s="262"/>
+      <c r="AJ8" s="262"/>
+      <c r="AK8" s="262"/>
+      <c r="AL8" s="262"/>
+      <c r="AM8" s="262"/>
+      <c r="AN8" s="251"/>
+      <c r="AO8" s="251"/>
+      <c r="AP8" s="251"/>
+      <c r="AQ8" s="251"/>
+      <c r="AR8" s="251"/>
+      <c r="AS8" s="251"/>
+      <c r="AT8" s="251"/>
+      <c r="AU8" s="251"/>
+      <c r="AV8" s="251"/>
+      <c r="AW8" s="251"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="56"/>
-      <c r="B9" s="248"/>
-      <c r="C9" s="248"/>
-      <c r="D9" s="248"/>
-      <c r="E9" s="249"/>
-      <c r="F9" s="249"/>
-      <c r="G9" s="249"/>
-      <c r="H9" s="249"/>
-      <c r="I9" s="249"/>
-      <c r="J9" s="250"/>
-      <c r="K9" s="251"/>
-      <c r="L9" s="252"/>
-      <c r="M9" s="253"/>
-      <c r="N9" s="254"/>
-      <c r="O9" s="254"/>
-      <c r="P9" s="254"/>
-      <c r="Q9" s="254"/>
-      <c r="R9" s="255"/>
-      <c r="S9" s="247"/>
-      <c r="T9" s="247"/>
-      <c r="U9" s="247"/>
-      <c r="V9" s="256"/>
-      <c r="W9" s="256"/>
-      <c r="X9" s="256"/>
-      <c r="Y9" s="256"/>
-      <c r="Z9" s="256"/>
-      <c r="AA9" s="256"/>
-      <c r="AB9" s="256"/>
-      <c r="AC9" s="256"/>
-      <c r="AD9" s="256"/>
-      <c r="AE9" s="256"/>
-      <c r="AF9" s="256"/>
-      <c r="AG9" s="256"/>
-      <c r="AH9" s="256"/>
-      <c r="AI9" s="256"/>
-      <c r="AJ9" s="256"/>
-      <c r="AK9" s="256"/>
-      <c r="AL9" s="256"/>
-      <c r="AM9" s="256"/>
-      <c r="AN9" s="247"/>
-      <c r="AO9" s="247"/>
-      <c r="AP9" s="247"/>
-      <c r="AQ9" s="247"/>
-      <c r="AR9" s="247"/>
-      <c r="AS9" s="247"/>
-      <c r="AT9" s="247"/>
-      <c r="AU9" s="247"/>
-      <c r="AV9" s="247"/>
-      <c r="AW9" s="247"/>
+      <c r="B9" s="263"/>
+      <c r="C9" s="263"/>
+      <c r="D9" s="263"/>
+      <c r="E9" s="244"/>
+      <c r="F9" s="244"/>
+      <c r="G9" s="244"/>
+      <c r="H9" s="244"/>
+      <c r="I9" s="244"/>
+      <c r="J9" s="245"/>
+      <c r="K9" s="246"/>
+      <c r="L9" s="247"/>
+      <c r="M9" s="266"/>
+      <c r="N9" s="267"/>
+      <c r="O9" s="267"/>
+      <c r="P9" s="267"/>
+      <c r="Q9" s="267"/>
+      <c r="R9" s="268"/>
+      <c r="S9" s="251"/>
+      <c r="T9" s="251"/>
+      <c r="U9" s="251"/>
+      <c r="V9" s="262"/>
+      <c r="W9" s="262"/>
+      <c r="X9" s="262"/>
+      <c r="Y9" s="262"/>
+      <c r="Z9" s="262"/>
+      <c r="AA9" s="262"/>
+      <c r="AB9" s="262"/>
+      <c r="AC9" s="262"/>
+      <c r="AD9" s="262"/>
+      <c r="AE9" s="262"/>
+      <c r="AF9" s="262"/>
+      <c r="AG9" s="262"/>
+      <c r="AH9" s="262"/>
+      <c r="AI9" s="262"/>
+      <c r="AJ9" s="262"/>
+      <c r="AK9" s="262"/>
+      <c r="AL9" s="262"/>
+      <c r="AM9" s="262"/>
+      <c r="AN9" s="251"/>
+      <c r="AO9" s="251"/>
+      <c r="AP9" s="251"/>
+      <c r="AQ9" s="251"/>
+      <c r="AR9" s="251"/>
+      <c r="AS9" s="251"/>
+      <c r="AT9" s="251"/>
+      <c r="AU9" s="251"/>
+      <c r="AV9" s="251"/>
+      <c r="AW9" s="251"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="56"/>
-      <c r="B10" s="248"/>
-      <c r="C10" s="248"/>
-      <c r="D10" s="248"/>
-      <c r="E10" s="249"/>
-      <c r="F10" s="249"/>
-      <c r="G10" s="249"/>
-      <c r="H10" s="249"/>
-      <c r="I10" s="249"/>
-      <c r="J10" s="250"/>
-      <c r="K10" s="251"/>
-      <c r="L10" s="252"/>
-      <c r="M10" s="253"/>
-      <c r="N10" s="254"/>
-      <c r="O10" s="254"/>
-      <c r="P10" s="254"/>
-      <c r="Q10" s="254"/>
-      <c r="R10" s="255"/>
-      <c r="S10" s="247"/>
-      <c r="T10" s="247"/>
-      <c r="U10" s="247"/>
-      <c r="V10" s="256"/>
-      <c r="W10" s="256"/>
-      <c r="X10" s="256"/>
-      <c r="Y10" s="256"/>
-      <c r="Z10" s="256"/>
-      <c r="AA10" s="256"/>
-      <c r="AB10" s="256"/>
-      <c r="AC10" s="256"/>
-      <c r="AD10" s="256"/>
-      <c r="AE10" s="256"/>
-      <c r="AF10" s="256"/>
-      <c r="AG10" s="256"/>
-      <c r="AH10" s="256"/>
-      <c r="AI10" s="256"/>
-      <c r="AJ10" s="256"/>
-      <c r="AK10" s="256"/>
-      <c r="AL10" s="256"/>
-      <c r="AM10" s="256"/>
-      <c r="AN10" s="247"/>
-      <c r="AO10" s="247"/>
-      <c r="AP10" s="247"/>
-      <c r="AQ10" s="247"/>
-      <c r="AR10" s="247"/>
-      <c r="AS10" s="247"/>
-      <c r="AT10" s="247"/>
-      <c r="AU10" s="247"/>
-      <c r="AV10" s="247"/>
-      <c r="AW10" s="247"/>
+      <c r="B10" s="263"/>
+      <c r="C10" s="263"/>
+      <c r="D10" s="263"/>
+      <c r="E10" s="244"/>
+      <c r="F10" s="244"/>
+      <c r="G10" s="244"/>
+      <c r="H10" s="244"/>
+      <c r="I10" s="244"/>
+      <c r="J10" s="245"/>
+      <c r="K10" s="246"/>
+      <c r="L10" s="247"/>
+      <c r="M10" s="266"/>
+      <c r="N10" s="267"/>
+      <c r="O10" s="267"/>
+      <c r="P10" s="267"/>
+      <c r="Q10" s="267"/>
+      <c r="R10" s="268"/>
+      <c r="S10" s="251"/>
+      <c r="T10" s="251"/>
+      <c r="U10" s="251"/>
+      <c r="V10" s="262"/>
+      <c r="W10" s="262"/>
+      <c r="X10" s="262"/>
+      <c r="Y10" s="262"/>
+      <c r="Z10" s="262"/>
+      <c r="AA10" s="262"/>
+      <c r="AB10" s="262"/>
+      <c r="AC10" s="262"/>
+      <c r="AD10" s="262"/>
+      <c r="AE10" s="262"/>
+      <c r="AF10" s="262"/>
+      <c r="AG10" s="262"/>
+      <c r="AH10" s="262"/>
+      <c r="AI10" s="262"/>
+      <c r="AJ10" s="262"/>
+      <c r="AK10" s="262"/>
+      <c r="AL10" s="262"/>
+      <c r="AM10" s="262"/>
+      <c r="AN10" s="251"/>
+      <c r="AO10" s="251"/>
+      <c r="AP10" s="251"/>
+      <c r="AQ10" s="251"/>
+      <c r="AR10" s="251"/>
+      <c r="AS10" s="251"/>
+      <c r="AT10" s="251"/>
+      <c r="AU10" s="251"/>
+      <c r="AV10" s="251"/>
+      <c r="AW10" s="251"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="56"/>
-      <c r="B11" s="248"/>
-      <c r="C11" s="248"/>
-      <c r="D11" s="248"/>
-      <c r="E11" s="249"/>
-      <c r="F11" s="249"/>
-      <c r="G11" s="249"/>
-      <c r="H11" s="249"/>
-      <c r="I11" s="249"/>
-      <c r="J11" s="250"/>
-      <c r="K11" s="251"/>
-      <c r="L11" s="252"/>
-      <c r="M11" s="260"/>
-      <c r="N11" s="261"/>
-      <c r="O11" s="261"/>
-      <c r="P11" s="261"/>
-      <c r="Q11" s="261"/>
-      <c r="R11" s="262"/>
-      <c r="S11" s="247"/>
-      <c r="T11" s="247"/>
-      <c r="U11" s="247"/>
-      <c r="V11" s="263"/>
-      <c r="W11" s="269"/>
-      <c r="X11" s="269"/>
-      <c r="Y11" s="269"/>
-      <c r="Z11" s="269"/>
-      <c r="AA11" s="269"/>
-      <c r="AB11" s="269"/>
-      <c r="AC11" s="269"/>
-      <c r="AD11" s="269"/>
-      <c r="AE11" s="269"/>
-      <c r="AF11" s="269"/>
-      <c r="AG11" s="269"/>
-      <c r="AH11" s="269"/>
-      <c r="AI11" s="269"/>
-      <c r="AJ11" s="269"/>
-      <c r="AK11" s="269"/>
-      <c r="AL11" s="269"/>
-      <c r="AM11" s="270"/>
-      <c r="AN11" s="247"/>
-      <c r="AO11" s="247"/>
-      <c r="AP11" s="247"/>
-      <c r="AQ11" s="247"/>
-      <c r="AR11" s="247"/>
-      <c r="AS11" s="247"/>
-      <c r="AT11" s="247"/>
-      <c r="AU11" s="247"/>
-      <c r="AV11" s="247"/>
-      <c r="AW11" s="247"/>
+      <c r="B11" s="263"/>
+      <c r="C11" s="263"/>
+      <c r="D11" s="263"/>
+      <c r="E11" s="244"/>
+      <c r="F11" s="244"/>
+      <c r="G11" s="244"/>
+      <c r="H11" s="244"/>
+      <c r="I11" s="244"/>
+      <c r="J11" s="245"/>
+      <c r="K11" s="246"/>
+      <c r="L11" s="247"/>
+      <c r="M11" s="258"/>
+      <c r="N11" s="256"/>
+      <c r="O11" s="256"/>
+      <c r="P11" s="256"/>
+      <c r="Q11" s="256"/>
+      <c r="R11" s="257"/>
+      <c r="S11" s="251"/>
+      <c r="T11" s="251"/>
+      <c r="U11" s="251"/>
+      <c r="V11" s="252"/>
+      <c r="W11" s="264"/>
+      <c r="X11" s="264"/>
+      <c r="Y11" s="264"/>
+      <c r="Z11" s="264"/>
+      <c r="AA11" s="264"/>
+      <c r="AB11" s="264"/>
+      <c r="AC11" s="264"/>
+      <c r="AD11" s="264"/>
+      <c r="AE11" s="264"/>
+      <c r="AF11" s="264"/>
+      <c r="AG11" s="264"/>
+      <c r="AH11" s="264"/>
+      <c r="AI11" s="264"/>
+      <c r="AJ11" s="264"/>
+      <c r="AK11" s="264"/>
+      <c r="AL11" s="264"/>
+      <c r="AM11" s="265"/>
+      <c r="AN11" s="251"/>
+      <c r="AO11" s="251"/>
+      <c r="AP11" s="251"/>
+      <c r="AQ11" s="251"/>
+      <c r="AR11" s="251"/>
+      <c r="AS11" s="251"/>
+      <c r="AT11" s="251"/>
+      <c r="AU11" s="251"/>
+      <c r="AV11" s="251"/>
+      <c r="AW11" s="251"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="56"/>
-      <c r="B12" s="257"/>
-      <c r="C12" s="258"/>
-      <c r="D12" s="259"/>
-      <c r="E12" s="249"/>
-      <c r="F12" s="249"/>
-      <c r="G12" s="249"/>
-      <c r="H12" s="249"/>
-      <c r="I12" s="249"/>
-      <c r="J12" s="250"/>
-      <c r="K12" s="251"/>
-      <c r="L12" s="252"/>
-      <c r="M12" s="260"/>
-      <c r="N12" s="261"/>
-      <c r="O12" s="261"/>
-      <c r="P12" s="261"/>
-      <c r="Q12" s="261"/>
-      <c r="R12" s="262"/>
-      <c r="S12" s="247"/>
-      <c r="T12" s="247"/>
-      <c r="U12" s="247"/>
-      <c r="V12" s="263"/>
-      <c r="W12" s="264"/>
-      <c r="X12" s="264"/>
-      <c r="Y12" s="264"/>
-      <c r="Z12" s="264"/>
-      <c r="AA12" s="264"/>
-      <c r="AB12" s="264"/>
-      <c r="AC12" s="264"/>
-      <c r="AD12" s="264"/>
-      <c r="AE12" s="264"/>
-      <c r="AF12" s="264"/>
-      <c r="AG12" s="264"/>
-      <c r="AH12" s="264"/>
-      <c r="AI12" s="264"/>
-      <c r="AJ12" s="264"/>
-      <c r="AK12" s="264"/>
-      <c r="AL12" s="264"/>
-      <c r="AM12" s="265"/>
-      <c r="AN12" s="266"/>
-      <c r="AO12" s="267"/>
-      <c r="AP12" s="267"/>
-      <c r="AQ12" s="267"/>
-      <c r="AR12" s="268"/>
-      <c r="AS12" s="266"/>
-      <c r="AT12" s="267"/>
-      <c r="AU12" s="267"/>
-      <c r="AV12" s="267"/>
-      <c r="AW12" s="268"/>
+      <c r="B12" s="241"/>
+      <c r="C12" s="242"/>
+      <c r="D12" s="243"/>
+      <c r="E12" s="244"/>
+      <c r="F12" s="244"/>
+      <c r="G12" s="244"/>
+      <c r="H12" s="244"/>
+      <c r="I12" s="244"/>
+      <c r="J12" s="245"/>
+      <c r="K12" s="246"/>
+      <c r="L12" s="247"/>
+      <c r="M12" s="258"/>
+      <c r="N12" s="256"/>
+      <c r="O12" s="256"/>
+      <c r="P12" s="256"/>
+      <c r="Q12" s="256"/>
+      <c r="R12" s="257"/>
+      <c r="S12" s="251"/>
+      <c r="T12" s="251"/>
+      <c r="U12" s="251"/>
+      <c r="V12" s="252"/>
+      <c r="W12" s="253"/>
+      <c r="X12" s="253"/>
+      <c r="Y12" s="253"/>
+      <c r="Z12" s="253"/>
+      <c r="AA12" s="253"/>
+      <c r="AB12" s="253"/>
+      <c r="AC12" s="253"/>
+      <c r="AD12" s="253"/>
+      <c r="AE12" s="253"/>
+      <c r="AF12" s="253"/>
+      <c r="AG12" s="253"/>
+      <c r="AH12" s="253"/>
+      <c r="AI12" s="253"/>
+      <c r="AJ12" s="253"/>
+      <c r="AK12" s="253"/>
+      <c r="AL12" s="253"/>
+      <c r="AM12" s="254"/>
+      <c r="AN12" s="238"/>
+      <c r="AO12" s="239"/>
+      <c r="AP12" s="239"/>
+      <c r="AQ12" s="239"/>
+      <c r="AR12" s="240"/>
+      <c r="AS12" s="238"/>
+      <c r="AT12" s="239"/>
+      <c r="AU12" s="239"/>
+      <c r="AV12" s="239"/>
+      <c r="AW12" s="240"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="56"/>
-      <c r="B13" s="257"/>
-      <c r="C13" s="258"/>
-      <c r="D13" s="259"/>
-      <c r="E13" s="249"/>
-      <c r="F13" s="249"/>
-      <c r="G13" s="249"/>
-      <c r="H13" s="249"/>
-      <c r="I13" s="249"/>
-      <c r="J13" s="250"/>
-      <c r="K13" s="251"/>
-      <c r="L13" s="252"/>
-      <c r="M13" s="271"/>
-      <c r="N13" s="261"/>
-      <c r="O13" s="261"/>
-      <c r="P13" s="261"/>
-      <c r="Q13" s="261"/>
-      <c r="R13" s="262"/>
-      <c r="S13" s="247"/>
-      <c r="T13" s="247"/>
-      <c r="U13" s="247"/>
-      <c r="V13" s="263"/>
-      <c r="W13" s="264"/>
-      <c r="X13" s="264"/>
-      <c r="Y13" s="264"/>
-      <c r="Z13" s="264"/>
-      <c r="AA13" s="264"/>
-      <c r="AB13" s="264"/>
-      <c r="AC13" s="264"/>
-      <c r="AD13" s="264"/>
-      <c r="AE13" s="264"/>
-      <c r="AF13" s="264"/>
-      <c r="AG13" s="264"/>
-      <c r="AH13" s="264"/>
-      <c r="AI13" s="264"/>
-      <c r="AJ13" s="264"/>
-      <c r="AK13" s="264"/>
-      <c r="AL13" s="264"/>
-      <c r="AM13" s="265"/>
-      <c r="AN13" s="266"/>
-      <c r="AO13" s="267"/>
-      <c r="AP13" s="267"/>
-      <c r="AQ13" s="267"/>
-      <c r="AR13" s="268"/>
-      <c r="AS13" s="266"/>
-      <c r="AT13" s="267"/>
-      <c r="AU13" s="267"/>
-      <c r="AV13" s="267"/>
-      <c r="AW13" s="268"/>
+      <c r="B13" s="241"/>
+      <c r="C13" s="242"/>
+      <c r="D13" s="243"/>
+      <c r="E13" s="244"/>
+      <c r="F13" s="244"/>
+      <c r="G13" s="244"/>
+      <c r="H13" s="244"/>
+      <c r="I13" s="244"/>
+      <c r="J13" s="245"/>
+      <c r="K13" s="246"/>
+      <c r="L13" s="247"/>
+      <c r="M13" s="255"/>
+      <c r="N13" s="256"/>
+      <c r="O13" s="256"/>
+      <c r="P13" s="256"/>
+      <c r="Q13" s="256"/>
+      <c r="R13" s="257"/>
+      <c r="S13" s="251"/>
+      <c r="T13" s="251"/>
+      <c r="U13" s="251"/>
+      <c r="V13" s="252"/>
+      <c r="W13" s="253"/>
+      <c r="X13" s="253"/>
+      <c r="Y13" s="253"/>
+      <c r="Z13" s="253"/>
+      <c r="AA13" s="253"/>
+      <c r="AB13" s="253"/>
+      <c r="AC13" s="253"/>
+      <c r="AD13" s="253"/>
+      <c r="AE13" s="253"/>
+      <c r="AF13" s="253"/>
+      <c r="AG13" s="253"/>
+      <c r="AH13" s="253"/>
+      <c r="AI13" s="253"/>
+      <c r="AJ13" s="253"/>
+      <c r="AK13" s="253"/>
+      <c r="AL13" s="253"/>
+      <c r="AM13" s="254"/>
+      <c r="AN13" s="238"/>
+      <c r="AO13" s="239"/>
+      <c r="AP13" s="239"/>
+      <c r="AQ13" s="239"/>
+      <c r="AR13" s="240"/>
+      <c r="AS13" s="238"/>
+      <c r="AT13" s="239"/>
+      <c r="AU13" s="239"/>
+      <c r="AV13" s="239"/>
+      <c r="AW13" s="240"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="56"/>
-      <c r="B14" s="257"/>
-      <c r="C14" s="258"/>
-      <c r="D14" s="259"/>
-      <c r="E14" s="249"/>
-      <c r="F14" s="249"/>
-      <c r="G14" s="249"/>
-      <c r="H14" s="249"/>
-      <c r="I14" s="249"/>
-      <c r="J14" s="250"/>
-      <c r="K14" s="251"/>
-      <c r="L14" s="252"/>
-      <c r="M14" s="271"/>
-      <c r="N14" s="261"/>
-      <c r="O14" s="261"/>
-      <c r="P14" s="261"/>
-      <c r="Q14" s="261"/>
-      <c r="R14" s="262"/>
-      <c r="S14" s="247"/>
-      <c r="T14" s="247"/>
-      <c r="U14" s="247"/>
-      <c r="V14" s="272"/>
-      <c r="W14" s="256"/>
-      <c r="X14" s="256"/>
-      <c r="Y14" s="256"/>
-      <c r="Z14" s="256"/>
-      <c r="AA14" s="256"/>
-      <c r="AB14" s="256"/>
-      <c r="AC14" s="256"/>
-      <c r="AD14" s="256"/>
-      <c r="AE14" s="256"/>
-      <c r="AF14" s="256"/>
-      <c r="AG14" s="256"/>
-      <c r="AH14" s="256"/>
-      <c r="AI14" s="256"/>
-      <c r="AJ14" s="256"/>
-      <c r="AK14" s="256"/>
-      <c r="AL14" s="256"/>
-      <c r="AM14" s="256"/>
-      <c r="AN14" s="247"/>
-      <c r="AO14" s="247"/>
-      <c r="AP14" s="247"/>
-      <c r="AQ14" s="247"/>
-      <c r="AR14" s="247"/>
-      <c r="AS14" s="266"/>
-      <c r="AT14" s="267"/>
-      <c r="AU14" s="267"/>
-      <c r="AV14" s="267"/>
-      <c r="AW14" s="268"/>
+      <c r="B14" s="241"/>
+      <c r="C14" s="242"/>
+      <c r="D14" s="243"/>
+      <c r="E14" s="244"/>
+      <c r="F14" s="244"/>
+      <c r="G14" s="244"/>
+      <c r="H14" s="244"/>
+      <c r="I14" s="244"/>
+      <c r="J14" s="245"/>
+      <c r="K14" s="246"/>
+      <c r="L14" s="247"/>
+      <c r="M14" s="255"/>
+      <c r="N14" s="256"/>
+      <c r="O14" s="256"/>
+      <c r="P14" s="256"/>
+      <c r="Q14" s="256"/>
+      <c r="R14" s="257"/>
+      <c r="S14" s="251"/>
+      <c r="T14" s="251"/>
+      <c r="U14" s="251"/>
+      <c r="V14" s="261"/>
+      <c r="W14" s="262"/>
+      <c r="X14" s="262"/>
+      <c r="Y14" s="262"/>
+      <c r="Z14" s="262"/>
+      <c r="AA14" s="262"/>
+      <c r="AB14" s="262"/>
+      <c r="AC14" s="262"/>
+      <c r="AD14" s="262"/>
+      <c r="AE14" s="262"/>
+      <c r="AF14" s="262"/>
+      <c r="AG14" s="262"/>
+      <c r="AH14" s="262"/>
+      <c r="AI14" s="262"/>
+      <c r="AJ14" s="262"/>
+      <c r="AK14" s="262"/>
+      <c r="AL14" s="262"/>
+      <c r="AM14" s="262"/>
+      <c r="AN14" s="251"/>
+      <c r="AO14" s="251"/>
+      <c r="AP14" s="251"/>
+      <c r="AQ14" s="251"/>
+      <c r="AR14" s="251"/>
+      <c r="AS14" s="238"/>
+      <c r="AT14" s="239"/>
+      <c r="AU14" s="239"/>
+      <c r="AV14" s="239"/>
+      <c r="AW14" s="240"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="56"/>
-      <c r="B15" s="257"/>
-      <c r="C15" s="258"/>
-      <c r="D15" s="259"/>
-      <c r="E15" s="249"/>
-      <c r="F15" s="249"/>
-      <c r="G15" s="249"/>
-      <c r="H15" s="249"/>
-      <c r="I15" s="249"/>
-      <c r="J15" s="250"/>
-      <c r="K15" s="251"/>
-      <c r="L15" s="252"/>
-      <c r="M15" s="260"/>
-      <c r="N15" s="261"/>
-      <c r="O15" s="261"/>
-      <c r="P15" s="261"/>
-      <c r="Q15" s="261"/>
-      <c r="R15" s="262"/>
-      <c r="S15" s="247"/>
-      <c r="T15" s="247"/>
-      <c r="U15" s="247"/>
-      <c r="V15" s="263"/>
-      <c r="W15" s="264"/>
-      <c r="X15" s="264"/>
-      <c r="Y15" s="264"/>
-      <c r="Z15" s="264"/>
-      <c r="AA15" s="264"/>
-      <c r="AB15" s="264"/>
-      <c r="AC15" s="264"/>
-      <c r="AD15" s="264"/>
-      <c r="AE15" s="264"/>
-      <c r="AF15" s="264"/>
-      <c r="AG15" s="264"/>
-      <c r="AH15" s="264"/>
-      <c r="AI15" s="264"/>
-      <c r="AJ15" s="264"/>
-      <c r="AK15" s="264"/>
-      <c r="AL15" s="264"/>
-      <c r="AM15" s="265"/>
-      <c r="AN15" s="266"/>
-      <c r="AO15" s="267"/>
-      <c r="AP15" s="267"/>
-      <c r="AQ15" s="267"/>
-      <c r="AR15" s="268"/>
-      <c r="AS15" s="266"/>
-      <c r="AT15" s="267"/>
-      <c r="AU15" s="267"/>
-      <c r="AV15" s="267"/>
-      <c r="AW15" s="268"/>
+      <c r="B15" s="241"/>
+      <c r="C15" s="242"/>
+      <c r="D15" s="243"/>
+      <c r="E15" s="244"/>
+      <c r="F15" s="244"/>
+      <c r="G15" s="244"/>
+      <c r="H15" s="244"/>
+      <c r="I15" s="244"/>
+      <c r="J15" s="245"/>
+      <c r="K15" s="246"/>
+      <c r="L15" s="247"/>
+      <c r="M15" s="258"/>
+      <c r="N15" s="256"/>
+      <c r="O15" s="256"/>
+      <c r="P15" s="256"/>
+      <c r="Q15" s="256"/>
+      <c r="R15" s="257"/>
+      <c r="S15" s="251"/>
+      <c r="T15" s="251"/>
+      <c r="U15" s="251"/>
+      <c r="V15" s="252"/>
+      <c r="W15" s="253"/>
+      <c r="X15" s="253"/>
+      <c r="Y15" s="253"/>
+      <c r="Z15" s="253"/>
+      <c r="AA15" s="253"/>
+      <c r="AB15" s="253"/>
+      <c r="AC15" s="253"/>
+      <c r="AD15" s="253"/>
+      <c r="AE15" s="253"/>
+      <c r="AF15" s="253"/>
+      <c r="AG15" s="253"/>
+      <c r="AH15" s="253"/>
+      <c r="AI15" s="253"/>
+      <c r="AJ15" s="253"/>
+      <c r="AK15" s="253"/>
+      <c r="AL15" s="253"/>
+      <c r="AM15" s="254"/>
+      <c r="AN15" s="238"/>
+      <c r="AO15" s="239"/>
+      <c r="AP15" s="239"/>
+      <c r="AQ15" s="239"/>
+      <c r="AR15" s="240"/>
+      <c r="AS15" s="238"/>
+      <c r="AT15" s="239"/>
+      <c r="AU15" s="239"/>
+      <c r="AV15" s="239"/>
+      <c r="AW15" s="240"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="56"/>
-      <c r="B16" s="257"/>
-      <c r="C16" s="258"/>
-      <c r="D16" s="259"/>
-      <c r="E16" s="249"/>
-      <c r="F16" s="249"/>
-      <c r="G16" s="249"/>
-      <c r="H16" s="249"/>
-      <c r="I16" s="249"/>
-      <c r="J16" s="250"/>
-      <c r="K16" s="251"/>
-      <c r="L16" s="252"/>
-      <c r="M16" s="260"/>
-      <c r="N16" s="261"/>
-      <c r="O16" s="261"/>
-      <c r="P16" s="261"/>
-      <c r="Q16" s="261"/>
-      <c r="R16" s="262"/>
-      <c r="S16" s="247"/>
-      <c r="T16" s="247"/>
-      <c r="U16" s="247"/>
-      <c r="V16" s="263"/>
-      <c r="W16" s="264"/>
-      <c r="X16" s="264"/>
-      <c r="Y16" s="264"/>
-      <c r="Z16" s="264"/>
-      <c r="AA16" s="264"/>
-      <c r="AB16" s="264"/>
-      <c r="AC16" s="264"/>
-      <c r="AD16" s="264"/>
-      <c r="AE16" s="264"/>
-      <c r="AF16" s="264"/>
-      <c r="AG16" s="264"/>
-      <c r="AH16" s="264"/>
-      <c r="AI16" s="264"/>
-      <c r="AJ16" s="264"/>
-      <c r="AK16" s="264"/>
-      <c r="AL16" s="264"/>
-      <c r="AM16" s="265"/>
-      <c r="AN16" s="266"/>
-      <c r="AO16" s="267"/>
-      <c r="AP16" s="267"/>
-      <c r="AQ16" s="267"/>
-      <c r="AR16" s="268"/>
-      <c r="AS16" s="266"/>
-      <c r="AT16" s="267"/>
-      <c r="AU16" s="267"/>
-      <c r="AV16" s="267"/>
-      <c r="AW16" s="268"/>
+      <c r="B16" s="241"/>
+      <c r="C16" s="242"/>
+      <c r="D16" s="243"/>
+      <c r="E16" s="244"/>
+      <c r="F16" s="244"/>
+      <c r="G16" s="244"/>
+      <c r="H16" s="244"/>
+      <c r="I16" s="244"/>
+      <c r="J16" s="245"/>
+      <c r="K16" s="246"/>
+      <c r="L16" s="247"/>
+      <c r="M16" s="258"/>
+      <c r="N16" s="256"/>
+      <c r="O16" s="256"/>
+      <c r="P16" s="256"/>
+      <c r="Q16" s="256"/>
+      <c r="R16" s="257"/>
+      <c r="S16" s="251"/>
+      <c r="T16" s="251"/>
+      <c r="U16" s="251"/>
+      <c r="V16" s="252"/>
+      <c r="W16" s="253"/>
+      <c r="X16" s="253"/>
+      <c r="Y16" s="253"/>
+      <c r="Z16" s="253"/>
+      <c r="AA16" s="253"/>
+      <c r="AB16" s="253"/>
+      <c r="AC16" s="253"/>
+      <c r="AD16" s="253"/>
+      <c r="AE16" s="253"/>
+      <c r="AF16" s="253"/>
+      <c r="AG16" s="253"/>
+      <c r="AH16" s="253"/>
+      <c r="AI16" s="253"/>
+      <c r="AJ16" s="253"/>
+      <c r="AK16" s="253"/>
+      <c r="AL16" s="253"/>
+      <c r="AM16" s="254"/>
+      <c r="AN16" s="238"/>
+      <c r="AO16" s="239"/>
+      <c r="AP16" s="239"/>
+      <c r="AQ16" s="239"/>
+      <c r="AR16" s="240"/>
+      <c r="AS16" s="238"/>
+      <c r="AT16" s="239"/>
+      <c r="AU16" s="239"/>
+      <c r="AV16" s="239"/>
+      <c r="AW16" s="240"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="56"/>
-      <c r="B17" s="257"/>
-      <c r="C17" s="258"/>
-      <c r="D17" s="259"/>
-      <c r="E17" s="249"/>
-      <c r="F17" s="249"/>
-      <c r="G17" s="249"/>
-      <c r="H17" s="249"/>
-      <c r="I17" s="249"/>
-      <c r="J17" s="250"/>
-      <c r="K17" s="251"/>
-      <c r="L17" s="252"/>
-      <c r="M17" s="260"/>
-      <c r="N17" s="261"/>
-      <c r="O17" s="261"/>
-      <c r="P17" s="261"/>
-      <c r="Q17" s="261"/>
-      <c r="R17" s="273"/>
-      <c r="S17" s="274"/>
-      <c r="T17" s="274"/>
-      <c r="U17" s="274"/>
-      <c r="V17" s="263"/>
-      <c r="W17" s="264"/>
-      <c r="X17" s="264"/>
-      <c r="Y17" s="264"/>
-      <c r="Z17" s="264"/>
-      <c r="AA17" s="264"/>
-      <c r="AB17" s="264"/>
-      <c r="AC17" s="264"/>
-      <c r="AD17" s="264"/>
-      <c r="AE17" s="264"/>
-      <c r="AF17" s="264"/>
-      <c r="AG17" s="264"/>
-      <c r="AH17" s="264"/>
-      <c r="AI17" s="264"/>
-      <c r="AJ17" s="264"/>
-      <c r="AK17" s="264"/>
-      <c r="AL17" s="264"/>
-      <c r="AM17" s="265"/>
-      <c r="AN17" s="266"/>
-      <c r="AO17" s="267"/>
-      <c r="AP17" s="267"/>
-      <c r="AQ17" s="267"/>
-      <c r="AR17" s="268"/>
-      <c r="AS17" s="266"/>
-      <c r="AT17" s="267"/>
-      <c r="AU17" s="267"/>
-      <c r="AV17" s="267"/>
-      <c r="AW17" s="268"/>
+      <c r="B17" s="241"/>
+      <c r="C17" s="242"/>
+      <c r="D17" s="243"/>
+      <c r="E17" s="244"/>
+      <c r="F17" s="244"/>
+      <c r="G17" s="244"/>
+      <c r="H17" s="244"/>
+      <c r="I17" s="244"/>
+      <c r="J17" s="245"/>
+      <c r="K17" s="246"/>
+      <c r="L17" s="247"/>
+      <c r="M17" s="258"/>
+      <c r="N17" s="256"/>
+      <c r="O17" s="256"/>
+      <c r="P17" s="256"/>
+      <c r="Q17" s="256"/>
+      <c r="R17" s="259"/>
+      <c r="S17" s="260"/>
+      <c r="T17" s="260"/>
+      <c r="U17" s="260"/>
+      <c r="V17" s="252"/>
+      <c r="W17" s="253"/>
+      <c r="X17" s="253"/>
+      <c r="Y17" s="253"/>
+      <c r="Z17" s="253"/>
+      <c r="AA17" s="253"/>
+      <c r="AB17" s="253"/>
+      <c r="AC17" s="253"/>
+      <c r="AD17" s="253"/>
+      <c r="AE17" s="253"/>
+      <c r="AF17" s="253"/>
+      <c r="AG17" s="253"/>
+      <c r="AH17" s="253"/>
+      <c r="AI17" s="253"/>
+      <c r="AJ17" s="253"/>
+      <c r="AK17" s="253"/>
+      <c r="AL17" s="253"/>
+      <c r="AM17" s="254"/>
+      <c r="AN17" s="238"/>
+      <c r="AO17" s="239"/>
+      <c r="AP17" s="239"/>
+      <c r="AQ17" s="239"/>
+      <c r="AR17" s="240"/>
+      <c r="AS17" s="238"/>
+      <c r="AT17" s="239"/>
+      <c r="AU17" s="239"/>
+      <c r="AV17" s="239"/>
+      <c r="AW17" s="240"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
-      <c r="B18" s="257"/>
-      <c r="C18" s="258"/>
-      <c r="D18" s="259"/>
-      <c r="E18" s="249"/>
-      <c r="F18" s="249"/>
-      <c r="G18" s="249"/>
-      <c r="H18" s="249"/>
-      <c r="I18" s="249"/>
-      <c r="J18" s="250"/>
-      <c r="K18" s="251"/>
-      <c r="L18" s="252"/>
-      <c r="M18" s="271"/>
-      <c r="N18" s="261"/>
-      <c r="O18" s="261"/>
-      <c r="P18" s="261"/>
-      <c r="Q18" s="261"/>
-      <c r="R18" s="262"/>
-      <c r="S18" s="247"/>
-      <c r="T18" s="247"/>
-      <c r="U18" s="247"/>
-      <c r="V18" s="263"/>
-      <c r="W18" s="264"/>
-      <c r="X18" s="264"/>
-      <c r="Y18" s="264"/>
-      <c r="Z18" s="264"/>
-      <c r="AA18" s="264"/>
-      <c r="AB18" s="264"/>
-      <c r="AC18" s="264"/>
-      <c r="AD18" s="264"/>
-      <c r="AE18" s="264"/>
-      <c r="AF18" s="264"/>
-      <c r="AG18" s="264"/>
-      <c r="AH18" s="264"/>
-      <c r="AI18" s="264"/>
-      <c r="AJ18" s="264"/>
-      <c r="AK18" s="264"/>
-      <c r="AL18" s="264"/>
-      <c r="AM18" s="265"/>
-      <c r="AN18" s="266"/>
-      <c r="AO18" s="267"/>
-      <c r="AP18" s="267"/>
-      <c r="AQ18" s="267"/>
-      <c r="AR18" s="268"/>
-      <c r="AS18" s="266"/>
-      <c r="AT18" s="267"/>
-      <c r="AU18" s="267"/>
-      <c r="AV18" s="267"/>
-      <c r="AW18" s="268"/>
+      <c r="B18" s="241"/>
+      <c r="C18" s="242"/>
+      <c r="D18" s="243"/>
+      <c r="E18" s="244"/>
+      <c r="F18" s="244"/>
+      <c r="G18" s="244"/>
+      <c r="H18" s="244"/>
+      <c r="I18" s="244"/>
+      <c r="J18" s="245"/>
+      <c r="K18" s="246"/>
+      <c r="L18" s="247"/>
+      <c r="M18" s="255"/>
+      <c r="N18" s="256"/>
+      <c r="O18" s="256"/>
+      <c r="P18" s="256"/>
+      <c r="Q18" s="256"/>
+      <c r="R18" s="257"/>
+      <c r="S18" s="251"/>
+      <c r="T18" s="251"/>
+      <c r="U18" s="251"/>
+      <c r="V18" s="252"/>
+      <c r="W18" s="253"/>
+      <c r="X18" s="253"/>
+      <c r="Y18" s="253"/>
+      <c r="Z18" s="253"/>
+      <c r="AA18" s="253"/>
+      <c r="AB18" s="253"/>
+      <c r="AC18" s="253"/>
+      <c r="AD18" s="253"/>
+      <c r="AE18" s="253"/>
+      <c r="AF18" s="253"/>
+      <c r="AG18" s="253"/>
+      <c r="AH18" s="253"/>
+      <c r="AI18" s="253"/>
+      <c r="AJ18" s="253"/>
+      <c r="AK18" s="253"/>
+      <c r="AL18" s="253"/>
+      <c r="AM18" s="254"/>
+      <c r="AN18" s="238"/>
+      <c r="AO18" s="239"/>
+      <c r="AP18" s="239"/>
+      <c r="AQ18" s="239"/>
+      <c r="AR18" s="240"/>
+      <c r="AS18" s="238"/>
+      <c r="AT18" s="239"/>
+      <c r="AU18" s="239"/>
+      <c r="AV18" s="239"/>
+      <c r="AW18" s="240"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="56"/>
-      <c r="B19" s="257"/>
-      <c r="C19" s="258"/>
-      <c r="D19" s="259"/>
-      <c r="E19" s="249"/>
-      <c r="F19" s="249"/>
-      <c r="G19" s="249"/>
-      <c r="H19" s="249"/>
-      <c r="I19" s="249"/>
-      <c r="J19" s="250"/>
-      <c r="K19" s="251"/>
-      <c r="L19" s="252"/>
-      <c r="M19" s="260"/>
-      <c r="N19" s="261"/>
-      <c r="O19" s="261"/>
-      <c r="P19" s="261"/>
-      <c r="Q19" s="261"/>
-      <c r="R19" s="262"/>
-      <c r="S19" s="247"/>
-      <c r="T19" s="247"/>
-      <c r="U19" s="247"/>
-      <c r="V19" s="263"/>
-      <c r="W19" s="264"/>
-      <c r="X19" s="264"/>
-      <c r="Y19" s="264"/>
-      <c r="Z19" s="264"/>
-      <c r="AA19" s="264"/>
-      <c r="AB19" s="264"/>
-      <c r="AC19" s="264"/>
-      <c r="AD19" s="264"/>
-      <c r="AE19" s="264"/>
-      <c r="AF19" s="264"/>
-      <c r="AG19" s="264"/>
-      <c r="AH19" s="264"/>
-      <c r="AI19" s="264"/>
-      <c r="AJ19" s="264"/>
-      <c r="AK19" s="264"/>
-      <c r="AL19" s="264"/>
-      <c r="AM19" s="265"/>
-      <c r="AN19" s="247"/>
-      <c r="AO19" s="247"/>
-      <c r="AP19" s="247"/>
-      <c r="AQ19" s="247"/>
-      <c r="AR19" s="247"/>
-      <c r="AS19" s="266"/>
-      <c r="AT19" s="267"/>
-      <c r="AU19" s="267"/>
-      <c r="AV19" s="267"/>
-      <c r="AW19" s="268"/>
+      <c r="B19" s="241"/>
+      <c r="C19" s="242"/>
+      <c r="D19" s="243"/>
+      <c r="E19" s="244"/>
+      <c r="F19" s="244"/>
+      <c r="G19" s="244"/>
+      <c r="H19" s="244"/>
+      <c r="I19" s="244"/>
+      <c r="J19" s="245"/>
+      <c r="K19" s="246"/>
+      <c r="L19" s="247"/>
+      <c r="M19" s="258"/>
+      <c r="N19" s="256"/>
+      <c r="O19" s="256"/>
+      <c r="P19" s="256"/>
+      <c r="Q19" s="256"/>
+      <c r="R19" s="257"/>
+      <c r="S19" s="251"/>
+      <c r="T19" s="251"/>
+      <c r="U19" s="251"/>
+      <c r="V19" s="252"/>
+      <c r="W19" s="253"/>
+      <c r="X19" s="253"/>
+      <c r="Y19" s="253"/>
+      <c r="Z19" s="253"/>
+      <c r="AA19" s="253"/>
+      <c r="AB19" s="253"/>
+      <c r="AC19" s="253"/>
+      <c r="AD19" s="253"/>
+      <c r="AE19" s="253"/>
+      <c r="AF19" s="253"/>
+      <c r="AG19" s="253"/>
+      <c r="AH19" s="253"/>
+      <c r="AI19" s="253"/>
+      <c r="AJ19" s="253"/>
+      <c r="AK19" s="253"/>
+      <c r="AL19" s="253"/>
+      <c r="AM19" s="254"/>
+      <c r="AN19" s="251"/>
+      <c r="AO19" s="251"/>
+      <c r="AP19" s="251"/>
+      <c r="AQ19" s="251"/>
+      <c r="AR19" s="251"/>
+      <c r="AS19" s="238"/>
+      <c r="AT19" s="239"/>
+      <c r="AU19" s="239"/>
+      <c r="AV19" s="239"/>
+      <c r="AW19" s="240"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="56"/>
-      <c r="B20" s="257"/>
-      <c r="C20" s="258"/>
-      <c r="D20" s="259"/>
-      <c r="E20" s="249"/>
-      <c r="F20" s="249"/>
-      <c r="G20" s="249"/>
-      <c r="H20" s="249"/>
-      <c r="I20" s="249"/>
-      <c r="J20" s="250"/>
-      <c r="K20" s="251"/>
-      <c r="L20" s="252"/>
-      <c r="M20" s="260"/>
-      <c r="N20" s="261"/>
-      <c r="O20" s="261"/>
-      <c r="P20" s="261"/>
-      <c r="Q20" s="261"/>
-      <c r="R20" s="262"/>
-      <c r="S20" s="266"/>
-      <c r="T20" s="267"/>
-      <c r="U20" s="268"/>
-      <c r="V20" s="263"/>
-      <c r="W20" s="264"/>
-      <c r="X20" s="264"/>
-      <c r="Y20" s="264"/>
-      <c r="Z20" s="264"/>
-      <c r="AA20" s="264"/>
-      <c r="AB20" s="264"/>
-      <c r="AC20" s="264"/>
-      <c r="AD20" s="264"/>
-      <c r="AE20" s="264"/>
-      <c r="AF20" s="264"/>
-      <c r="AG20" s="264"/>
-      <c r="AH20" s="264"/>
-      <c r="AI20" s="264"/>
-      <c r="AJ20" s="264"/>
-      <c r="AK20" s="264"/>
-      <c r="AL20" s="264"/>
-      <c r="AM20" s="265"/>
-      <c r="AN20" s="266"/>
-      <c r="AO20" s="267"/>
-      <c r="AP20" s="267"/>
-      <c r="AQ20" s="267"/>
-      <c r="AR20" s="268"/>
-      <c r="AS20" s="266"/>
-      <c r="AT20" s="267"/>
-      <c r="AU20" s="267"/>
-      <c r="AV20" s="267"/>
-      <c r="AW20" s="268"/>
+      <c r="B20" s="241"/>
+      <c r="C20" s="242"/>
+      <c r="D20" s="243"/>
+      <c r="E20" s="244"/>
+      <c r="F20" s="244"/>
+      <c r="G20" s="244"/>
+      <c r="H20" s="244"/>
+      <c r="I20" s="244"/>
+      <c r="J20" s="245"/>
+      <c r="K20" s="246"/>
+      <c r="L20" s="247"/>
+      <c r="M20" s="258"/>
+      <c r="N20" s="256"/>
+      <c r="O20" s="256"/>
+      <c r="P20" s="256"/>
+      <c r="Q20" s="256"/>
+      <c r="R20" s="257"/>
+      <c r="S20" s="238"/>
+      <c r="T20" s="239"/>
+      <c r="U20" s="240"/>
+      <c r="V20" s="252"/>
+      <c r="W20" s="253"/>
+      <c r="X20" s="253"/>
+      <c r="Y20" s="253"/>
+      <c r="Z20" s="253"/>
+      <c r="AA20" s="253"/>
+      <c r="AB20" s="253"/>
+      <c r="AC20" s="253"/>
+      <c r="AD20" s="253"/>
+      <c r="AE20" s="253"/>
+      <c r="AF20" s="253"/>
+      <c r="AG20" s="253"/>
+      <c r="AH20" s="253"/>
+      <c r="AI20" s="253"/>
+      <c r="AJ20" s="253"/>
+      <c r="AK20" s="253"/>
+      <c r="AL20" s="253"/>
+      <c r="AM20" s="254"/>
+      <c r="AN20" s="238"/>
+      <c r="AO20" s="239"/>
+      <c r="AP20" s="239"/>
+      <c r="AQ20" s="239"/>
+      <c r="AR20" s="240"/>
+      <c r="AS20" s="238"/>
+      <c r="AT20" s="239"/>
+      <c r="AU20" s="239"/>
+      <c r="AV20" s="239"/>
+      <c r="AW20" s="240"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="56"/>
-      <c r="B21" s="257"/>
-      <c r="C21" s="258"/>
-      <c r="D21" s="259"/>
-      <c r="E21" s="249"/>
-      <c r="F21" s="249"/>
-      <c r="G21" s="249"/>
-      <c r="H21" s="249"/>
-      <c r="I21" s="249"/>
-      <c r="J21" s="250"/>
-      <c r="K21" s="251"/>
-      <c r="L21" s="252"/>
-      <c r="M21" s="260"/>
-      <c r="N21" s="261"/>
-      <c r="O21" s="261"/>
-      <c r="P21" s="261"/>
-      <c r="Q21" s="261"/>
-      <c r="R21" s="262"/>
-      <c r="S21" s="247"/>
-      <c r="T21" s="247"/>
-      <c r="U21" s="247"/>
-      <c r="V21" s="263"/>
-      <c r="W21" s="264"/>
-      <c r="X21" s="264"/>
-      <c r="Y21" s="264"/>
-      <c r="Z21" s="264"/>
-      <c r="AA21" s="264"/>
-      <c r="AB21" s="264"/>
-      <c r="AC21" s="264"/>
-      <c r="AD21" s="264"/>
-      <c r="AE21" s="264"/>
-      <c r="AF21" s="264"/>
-      <c r="AG21" s="264"/>
-      <c r="AH21" s="264"/>
-      <c r="AI21" s="264"/>
-      <c r="AJ21" s="264"/>
-      <c r="AK21" s="264"/>
-      <c r="AL21" s="264"/>
-      <c r="AM21" s="265"/>
-      <c r="AN21" s="266"/>
-      <c r="AO21" s="267"/>
-      <c r="AP21" s="267"/>
-      <c r="AQ21" s="267"/>
-      <c r="AR21" s="268"/>
-      <c r="AS21" s="266"/>
-      <c r="AT21" s="267"/>
-      <c r="AU21" s="267"/>
-      <c r="AV21" s="267"/>
-      <c r="AW21" s="268"/>
+      <c r="B21" s="241"/>
+      <c r="C21" s="242"/>
+      <c r="D21" s="243"/>
+      <c r="E21" s="244"/>
+      <c r="F21" s="244"/>
+      <c r="G21" s="244"/>
+      <c r="H21" s="244"/>
+      <c r="I21" s="244"/>
+      <c r="J21" s="245"/>
+      <c r="K21" s="246"/>
+      <c r="L21" s="247"/>
+      <c r="M21" s="258"/>
+      <c r="N21" s="256"/>
+      <c r="O21" s="256"/>
+      <c r="P21" s="256"/>
+      <c r="Q21" s="256"/>
+      <c r="R21" s="257"/>
+      <c r="S21" s="251"/>
+      <c r="T21" s="251"/>
+      <c r="U21" s="251"/>
+      <c r="V21" s="252"/>
+      <c r="W21" s="253"/>
+      <c r="X21" s="253"/>
+      <c r="Y21" s="253"/>
+      <c r="Z21" s="253"/>
+      <c r="AA21" s="253"/>
+      <c r="AB21" s="253"/>
+      <c r="AC21" s="253"/>
+      <c r="AD21" s="253"/>
+      <c r="AE21" s="253"/>
+      <c r="AF21" s="253"/>
+      <c r="AG21" s="253"/>
+      <c r="AH21" s="253"/>
+      <c r="AI21" s="253"/>
+      <c r="AJ21" s="253"/>
+      <c r="AK21" s="253"/>
+      <c r="AL21" s="253"/>
+      <c r="AM21" s="254"/>
+      <c r="AN21" s="238"/>
+      <c r="AO21" s="239"/>
+      <c r="AP21" s="239"/>
+      <c r="AQ21" s="239"/>
+      <c r="AR21" s="240"/>
+      <c r="AS21" s="238"/>
+      <c r="AT21" s="239"/>
+      <c r="AU21" s="239"/>
+      <c r="AV21" s="239"/>
+      <c r="AW21" s="240"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="56"/>
-      <c r="B22" s="257"/>
-      <c r="C22" s="258"/>
-      <c r="D22" s="259"/>
-      <c r="E22" s="249"/>
-      <c r="F22" s="249"/>
-      <c r="G22" s="249"/>
-      <c r="H22" s="249"/>
-      <c r="I22" s="249"/>
-      <c r="J22" s="250"/>
-      <c r="K22" s="251"/>
-      <c r="L22" s="252"/>
-      <c r="M22" s="260"/>
-      <c r="N22" s="261"/>
-      <c r="O22" s="261"/>
-      <c r="P22" s="261"/>
-      <c r="Q22" s="261"/>
-      <c r="R22" s="262"/>
-      <c r="S22" s="247"/>
-      <c r="T22" s="247"/>
-      <c r="U22" s="247"/>
-      <c r="V22" s="263"/>
-      <c r="W22" s="264"/>
-      <c r="X22" s="264"/>
-      <c r="Y22" s="264"/>
-      <c r="Z22" s="264"/>
-      <c r="AA22" s="264"/>
-      <c r="AB22" s="264"/>
-      <c r="AC22" s="264"/>
-      <c r="AD22" s="264"/>
-      <c r="AE22" s="264"/>
-      <c r="AF22" s="264"/>
-      <c r="AG22" s="264"/>
-      <c r="AH22" s="264"/>
-      <c r="AI22" s="264"/>
-      <c r="AJ22" s="264"/>
-      <c r="AK22" s="264"/>
-      <c r="AL22" s="264"/>
-      <c r="AM22" s="265"/>
-      <c r="AN22" s="266"/>
-      <c r="AO22" s="267"/>
-      <c r="AP22" s="267"/>
-      <c r="AQ22" s="267"/>
-      <c r="AR22" s="268"/>
-      <c r="AS22" s="266"/>
-      <c r="AT22" s="267"/>
-      <c r="AU22" s="267"/>
-      <c r="AV22" s="267"/>
-      <c r="AW22" s="268"/>
+      <c r="B22" s="241"/>
+      <c r="C22" s="242"/>
+      <c r="D22" s="243"/>
+      <c r="E22" s="244"/>
+      <c r="F22" s="244"/>
+      <c r="G22" s="244"/>
+      <c r="H22" s="244"/>
+      <c r="I22" s="244"/>
+      <c r="J22" s="245"/>
+      <c r="K22" s="246"/>
+      <c r="L22" s="247"/>
+      <c r="M22" s="258"/>
+      <c r="N22" s="256"/>
+      <c r="O22" s="256"/>
+      <c r="P22" s="256"/>
+      <c r="Q22" s="256"/>
+      <c r="R22" s="257"/>
+      <c r="S22" s="251"/>
+      <c r="T22" s="251"/>
+      <c r="U22" s="251"/>
+      <c r="V22" s="252"/>
+      <c r="W22" s="253"/>
+      <c r="X22" s="253"/>
+      <c r="Y22" s="253"/>
+      <c r="Z22" s="253"/>
+      <c r="AA22" s="253"/>
+      <c r="AB22" s="253"/>
+      <c r="AC22" s="253"/>
+      <c r="AD22" s="253"/>
+      <c r="AE22" s="253"/>
+      <c r="AF22" s="253"/>
+      <c r="AG22" s="253"/>
+      <c r="AH22" s="253"/>
+      <c r="AI22" s="253"/>
+      <c r="AJ22" s="253"/>
+      <c r="AK22" s="253"/>
+      <c r="AL22" s="253"/>
+      <c r="AM22" s="254"/>
+      <c r="AN22" s="238"/>
+      <c r="AO22" s="239"/>
+      <c r="AP22" s="239"/>
+      <c r="AQ22" s="239"/>
+      <c r="AR22" s="240"/>
+      <c r="AS22" s="238"/>
+      <c r="AT22" s="239"/>
+      <c r="AU22" s="239"/>
+      <c r="AV22" s="239"/>
+      <c r="AW22" s="240"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="54"/>
-      <c r="B23" s="257"/>
-      <c r="C23" s="258"/>
-      <c r="D23" s="259"/>
-      <c r="E23" s="249"/>
-      <c r="F23" s="249"/>
-      <c r="G23" s="249"/>
-      <c r="H23" s="249"/>
-      <c r="I23" s="249"/>
-      <c r="J23" s="250"/>
-      <c r="K23" s="251"/>
-      <c r="L23" s="252"/>
-      <c r="M23" s="260"/>
-      <c r="N23" s="261"/>
-      <c r="O23" s="261"/>
-      <c r="P23" s="261"/>
-      <c r="Q23" s="261"/>
-      <c r="R23" s="262"/>
-      <c r="S23" s="247"/>
-      <c r="T23" s="247"/>
-      <c r="U23" s="247"/>
-      <c r="V23" s="263"/>
-      <c r="W23" s="264"/>
-      <c r="X23" s="264"/>
-      <c r="Y23" s="264"/>
-      <c r="Z23" s="264"/>
-      <c r="AA23" s="264"/>
-      <c r="AB23" s="264"/>
-      <c r="AC23" s="264"/>
-      <c r="AD23" s="264"/>
-      <c r="AE23" s="264"/>
-      <c r="AF23" s="264"/>
-      <c r="AG23" s="264"/>
-      <c r="AH23" s="264"/>
-      <c r="AI23" s="264"/>
-      <c r="AJ23" s="264"/>
-      <c r="AK23" s="264"/>
-      <c r="AL23" s="264"/>
-      <c r="AM23" s="265"/>
-      <c r="AN23" s="266"/>
-      <c r="AO23" s="267"/>
-      <c r="AP23" s="267"/>
-      <c r="AQ23" s="267"/>
-      <c r="AR23" s="268"/>
-      <c r="AS23" s="266"/>
-      <c r="AT23" s="267"/>
-      <c r="AU23" s="267"/>
-      <c r="AV23" s="267"/>
-      <c r="AW23" s="268"/>
+      <c r="B23" s="241"/>
+      <c r="C23" s="242"/>
+      <c r="D23" s="243"/>
+      <c r="E23" s="244"/>
+      <c r="F23" s="244"/>
+      <c r="G23" s="244"/>
+      <c r="H23" s="244"/>
+      <c r="I23" s="244"/>
+      <c r="J23" s="245"/>
+      <c r="K23" s="246"/>
+      <c r="L23" s="247"/>
+      <c r="M23" s="258"/>
+      <c r="N23" s="256"/>
+      <c r="O23" s="256"/>
+      <c r="P23" s="256"/>
+      <c r="Q23" s="256"/>
+      <c r="R23" s="257"/>
+      <c r="S23" s="251"/>
+      <c r="T23" s="251"/>
+      <c r="U23" s="251"/>
+      <c r="V23" s="252"/>
+      <c r="W23" s="253"/>
+      <c r="X23" s="253"/>
+      <c r="Y23" s="253"/>
+      <c r="Z23" s="253"/>
+      <c r="AA23" s="253"/>
+      <c r="AB23" s="253"/>
+      <c r="AC23" s="253"/>
+      <c r="AD23" s="253"/>
+      <c r="AE23" s="253"/>
+      <c r="AF23" s="253"/>
+      <c r="AG23" s="253"/>
+      <c r="AH23" s="253"/>
+      <c r="AI23" s="253"/>
+      <c r="AJ23" s="253"/>
+      <c r="AK23" s="253"/>
+      <c r="AL23" s="253"/>
+      <c r="AM23" s="254"/>
+      <c r="AN23" s="238"/>
+      <c r="AO23" s="239"/>
+      <c r="AP23" s="239"/>
+      <c r="AQ23" s="239"/>
+      <c r="AR23" s="240"/>
+      <c r="AS23" s="238"/>
+      <c r="AT23" s="239"/>
+      <c r="AU23" s="239"/>
+      <c r="AV23" s="239"/>
+      <c r="AW23" s="240"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="54"/>
-      <c r="B24" s="257"/>
-      <c r="C24" s="258"/>
-      <c r="D24" s="259"/>
-      <c r="E24" s="249"/>
-      <c r="F24" s="249"/>
-      <c r="G24" s="249"/>
-      <c r="H24" s="249"/>
-      <c r="I24" s="249"/>
-      <c r="J24" s="250"/>
-      <c r="K24" s="251"/>
-      <c r="L24" s="252"/>
-      <c r="M24" s="260"/>
-      <c r="N24" s="261"/>
-      <c r="O24" s="261"/>
-      <c r="P24" s="261"/>
-      <c r="Q24" s="261"/>
-      <c r="R24" s="262"/>
-      <c r="S24" s="247"/>
-      <c r="T24" s="247"/>
-      <c r="U24" s="247"/>
-      <c r="V24" s="263"/>
-      <c r="W24" s="264"/>
-      <c r="X24" s="264"/>
-      <c r="Y24" s="264"/>
-      <c r="Z24" s="264"/>
-      <c r="AA24" s="264"/>
-      <c r="AB24" s="264"/>
-      <c r="AC24" s="264"/>
-      <c r="AD24" s="264"/>
-      <c r="AE24" s="264"/>
-      <c r="AF24" s="264"/>
-      <c r="AG24" s="264"/>
-      <c r="AH24" s="264"/>
-      <c r="AI24" s="264"/>
-      <c r="AJ24" s="264"/>
-      <c r="AK24" s="264"/>
-      <c r="AL24" s="264"/>
-      <c r="AM24" s="265"/>
-      <c r="AN24" s="266"/>
-      <c r="AO24" s="267"/>
-      <c r="AP24" s="267"/>
-      <c r="AQ24" s="267"/>
-      <c r="AR24" s="268"/>
-      <c r="AS24" s="266"/>
-      <c r="AT24" s="267"/>
-      <c r="AU24" s="267"/>
-      <c r="AV24" s="267"/>
-      <c r="AW24" s="268"/>
+      <c r="B24" s="241"/>
+      <c r="C24" s="242"/>
+      <c r="D24" s="243"/>
+      <c r="E24" s="244"/>
+      <c r="F24" s="244"/>
+      <c r="G24" s="244"/>
+      <c r="H24" s="244"/>
+      <c r="I24" s="244"/>
+      <c r="J24" s="245"/>
+      <c r="K24" s="246"/>
+      <c r="L24" s="247"/>
+      <c r="M24" s="258"/>
+      <c r="N24" s="256"/>
+      <c r="O24" s="256"/>
+      <c r="P24" s="256"/>
+      <c r="Q24" s="256"/>
+      <c r="R24" s="257"/>
+      <c r="S24" s="251"/>
+      <c r="T24" s="251"/>
+      <c r="U24" s="251"/>
+      <c r="V24" s="252"/>
+      <c r="W24" s="253"/>
+      <c r="X24" s="253"/>
+      <c r="Y24" s="253"/>
+      <c r="Z24" s="253"/>
+      <c r="AA24" s="253"/>
+      <c r="AB24" s="253"/>
+      <c r="AC24" s="253"/>
+      <c r="AD24" s="253"/>
+      <c r="AE24" s="253"/>
+      <c r="AF24" s="253"/>
+      <c r="AG24" s="253"/>
+      <c r="AH24" s="253"/>
+      <c r="AI24" s="253"/>
+      <c r="AJ24" s="253"/>
+      <c r="AK24" s="253"/>
+      <c r="AL24" s="253"/>
+      <c r="AM24" s="254"/>
+      <c r="AN24" s="238"/>
+      <c r="AO24" s="239"/>
+      <c r="AP24" s="239"/>
+      <c r="AQ24" s="239"/>
+      <c r="AR24" s="240"/>
+      <c r="AS24" s="238"/>
+      <c r="AT24" s="239"/>
+      <c r="AU24" s="239"/>
+      <c r="AV24" s="239"/>
+      <c r="AW24" s="240"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="54"/>
-      <c r="B25" s="257"/>
-      <c r="C25" s="258"/>
-      <c r="D25" s="259"/>
-      <c r="E25" s="249"/>
-      <c r="F25" s="249"/>
-      <c r="G25" s="249"/>
-      <c r="H25" s="249"/>
-      <c r="I25" s="249"/>
-      <c r="J25" s="250"/>
-      <c r="K25" s="251"/>
-      <c r="L25" s="252"/>
-      <c r="M25" s="271"/>
-      <c r="N25" s="261"/>
-      <c r="O25" s="261"/>
-      <c r="P25" s="261"/>
-      <c r="Q25" s="261"/>
-      <c r="R25" s="262"/>
-      <c r="S25" s="247"/>
-      <c r="T25" s="247"/>
-      <c r="U25" s="247"/>
-      <c r="V25" s="263"/>
-      <c r="W25" s="264"/>
-      <c r="X25" s="264"/>
-      <c r="Y25" s="264"/>
-      <c r="Z25" s="264"/>
-      <c r="AA25" s="264"/>
-      <c r="AB25" s="264"/>
-      <c r="AC25" s="264"/>
-      <c r="AD25" s="264"/>
-      <c r="AE25" s="264"/>
-      <c r="AF25" s="264"/>
-      <c r="AG25" s="264"/>
-      <c r="AH25" s="264"/>
-      <c r="AI25" s="264"/>
-      <c r="AJ25" s="264"/>
-      <c r="AK25" s="264"/>
-      <c r="AL25" s="264"/>
-      <c r="AM25" s="265"/>
-      <c r="AN25" s="266"/>
-      <c r="AO25" s="267"/>
-      <c r="AP25" s="267"/>
-      <c r="AQ25" s="267"/>
-      <c r="AR25" s="268"/>
-      <c r="AS25" s="266"/>
-      <c r="AT25" s="267"/>
-      <c r="AU25" s="267"/>
-      <c r="AV25" s="267"/>
-      <c r="AW25" s="268"/>
+      <c r="B25" s="241"/>
+      <c r="C25" s="242"/>
+      <c r="D25" s="243"/>
+      <c r="E25" s="244"/>
+      <c r="F25" s="244"/>
+      <c r="G25" s="244"/>
+      <c r="H25" s="244"/>
+      <c r="I25" s="244"/>
+      <c r="J25" s="245"/>
+      <c r="K25" s="246"/>
+      <c r="L25" s="247"/>
+      <c r="M25" s="255"/>
+      <c r="N25" s="256"/>
+      <c r="O25" s="256"/>
+      <c r="P25" s="256"/>
+      <c r="Q25" s="256"/>
+      <c r="R25" s="257"/>
+      <c r="S25" s="251"/>
+      <c r="T25" s="251"/>
+      <c r="U25" s="251"/>
+      <c r="V25" s="252"/>
+      <c r="W25" s="253"/>
+      <c r="X25" s="253"/>
+      <c r="Y25" s="253"/>
+      <c r="Z25" s="253"/>
+      <c r="AA25" s="253"/>
+      <c r="AB25" s="253"/>
+      <c r="AC25" s="253"/>
+      <c r="AD25" s="253"/>
+      <c r="AE25" s="253"/>
+      <c r="AF25" s="253"/>
+      <c r="AG25" s="253"/>
+      <c r="AH25" s="253"/>
+      <c r="AI25" s="253"/>
+      <c r="AJ25" s="253"/>
+      <c r="AK25" s="253"/>
+      <c r="AL25" s="253"/>
+      <c r="AM25" s="254"/>
+      <c r="AN25" s="238"/>
+      <c r="AO25" s="239"/>
+      <c r="AP25" s="239"/>
+      <c r="AQ25" s="239"/>
+      <c r="AR25" s="240"/>
+      <c r="AS25" s="238"/>
+      <c r="AT25" s="239"/>
+      <c r="AU25" s="239"/>
+      <c r="AV25" s="239"/>
+      <c r="AW25" s="240"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="54"/>
-      <c r="B26" s="257"/>
-      <c r="C26" s="258"/>
-      <c r="D26" s="259"/>
-      <c r="E26" s="249"/>
-      <c r="F26" s="249"/>
-      <c r="G26" s="249"/>
-      <c r="H26" s="249"/>
-      <c r="I26" s="249"/>
-      <c r="J26" s="250"/>
-      <c r="K26" s="251"/>
-      <c r="L26" s="252"/>
-      <c r="M26" s="271"/>
-      <c r="N26" s="261"/>
-      <c r="O26" s="261"/>
-      <c r="P26" s="261"/>
-      <c r="Q26" s="261"/>
-      <c r="R26" s="262"/>
-      <c r="S26" s="247"/>
-      <c r="T26" s="247"/>
-      <c r="U26" s="247"/>
-      <c r="V26" s="263"/>
-      <c r="W26" s="264"/>
-      <c r="X26" s="264"/>
-      <c r="Y26" s="264"/>
-      <c r="Z26" s="264"/>
-      <c r="AA26" s="264"/>
-      <c r="AB26" s="264"/>
-      <c r="AC26" s="264"/>
-      <c r="AD26" s="264"/>
-      <c r="AE26" s="264"/>
-      <c r="AF26" s="264"/>
-      <c r="AG26" s="264"/>
-      <c r="AH26" s="264"/>
-      <c r="AI26" s="264"/>
-      <c r="AJ26" s="264"/>
-      <c r="AK26" s="264"/>
-      <c r="AL26" s="264"/>
-      <c r="AM26" s="265"/>
-      <c r="AN26" s="266"/>
-      <c r="AO26" s="267"/>
-      <c r="AP26" s="267"/>
-      <c r="AQ26" s="267"/>
-      <c r="AR26" s="268"/>
-      <c r="AS26" s="266"/>
-      <c r="AT26" s="267"/>
-      <c r="AU26" s="267"/>
-      <c r="AV26" s="267"/>
-      <c r="AW26" s="268"/>
+      <c r="B26" s="241"/>
+      <c r="C26" s="242"/>
+      <c r="D26" s="243"/>
+      <c r="E26" s="244"/>
+      <c r="F26" s="244"/>
+      <c r="G26" s="244"/>
+      <c r="H26" s="244"/>
+      <c r="I26" s="244"/>
+      <c r="J26" s="245"/>
+      <c r="K26" s="246"/>
+      <c r="L26" s="247"/>
+      <c r="M26" s="255"/>
+      <c r="N26" s="256"/>
+      <c r="O26" s="256"/>
+      <c r="P26" s="256"/>
+      <c r="Q26" s="256"/>
+      <c r="R26" s="257"/>
+      <c r="S26" s="251"/>
+      <c r="T26" s="251"/>
+      <c r="U26" s="251"/>
+      <c r="V26" s="252"/>
+      <c r="W26" s="253"/>
+      <c r="X26" s="253"/>
+      <c r="Y26" s="253"/>
+      <c r="Z26" s="253"/>
+      <c r="AA26" s="253"/>
+      <c r="AB26" s="253"/>
+      <c r="AC26" s="253"/>
+      <c r="AD26" s="253"/>
+      <c r="AE26" s="253"/>
+      <c r="AF26" s="253"/>
+      <c r="AG26" s="253"/>
+      <c r="AH26" s="253"/>
+      <c r="AI26" s="253"/>
+      <c r="AJ26" s="253"/>
+      <c r="AK26" s="253"/>
+      <c r="AL26" s="253"/>
+      <c r="AM26" s="254"/>
+      <c r="AN26" s="238"/>
+      <c r="AO26" s="239"/>
+      <c r="AP26" s="239"/>
+      <c r="AQ26" s="239"/>
+      <c r="AR26" s="240"/>
+      <c r="AS26" s="238"/>
+      <c r="AT26" s="239"/>
+      <c r="AU26" s="239"/>
+      <c r="AV26" s="239"/>
+      <c r="AW26" s="240"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="54"/>
-      <c r="B27" s="257"/>
-      <c r="C27" s="258"/>
-      <c r="D27" s="259"/>
-      <c r="E27" s="249"/>
-      <c r="F27" s="249"/>
-      <c r="G27" s="249"/>
-      <c r="H27" s="249"/>
-      <c r="I27" s="249"/>
-      <c r="J27" s="250"/>
-      <c r="K27" s="251"/>
-      <c r="L27" s="252"/>
-      <c r="M27" s="271"/>
-      <c r="N27" s="261"/>
-      <c r="O27" s="261"/>
-      <c r="P27" s="261"/>
-      <c r="Q27" s="261"/>
-      <c r="R27" s="262"/>
-      <c r="S27" s="247"/>
-      <c r="T27" s="247"/>
-      <c r="U27" s="247"/>
-      <c r="V27" s="263"/>
-      <c r="W27" s="264"/>
-      <c r="X27" s="264"/>
-      <c r="Y27" s="264"/>
-      <c r="Z27" s="264"/>
-      <c r="AA27" s="264"/>
-      <c r="AB27" s="264"/>
-      <c r="AC27" s="264"/>
-      <c r="AD27" s="264"/>
-      <c r="AE27" s="264"/>
-      <c r="AF27" s="264"/>
-      <c r="AG27" s="264"/>
-      <c r="AH27" s="264"/>
-      <c r="AI27" s="264"/>
-      <c r="AJ27" s="264"/>
-      <c r="AK27" s="264"/>
-      <c r="AL27" s="264"/>
-      <c r="AM27" s="265"/>
-      <c r="AN27" s="266"/>
-      <c r="AO27" s="267"/>
-      <c r="AP27" s="267"/>
-      <c r="AQ27" s="267"/>
-      <c r="AR27" s="268"/>
-      <c r="AS27" s="266"/>
-      <c r="AT27" s="267"/>
-      <c r="AU27" s="267"/>
-      <c r="AV27" s="267"/>
-      <c r="AW27" s="268"/>
+      <c r="B27" s="241"/>
+      <c r="C27" s="242"/>
+      <c r="D27" s="243"/>
+      <c r="E27" s="244"/>
+      <c r="F27" s="244"/>
+      <c r="G27" s="244"/>
+      <c r="H27" s="244"/>
+      <c r="I27" s="244"/>
+      <c r="J27" s="245"/>
+      <c r="K27" s="246"/>
+      <c r="L27" s="247"/>
+      <c r="M27" s="255"/>
+      <c r="N27" s="256"/>
+      <c r="O27" s="256"/>
+      <c r="P27" s="256"/>
+      <c r="Q27" s="256"/>
+      <c r="R27" s="257"/>
+      <c r="S27" s="251"/>
+      <c r="T27" s="251"/>
+      <c r="U27" s="251"/>
+      <c r="V27" s="252"/>
+      <c r="W27" s="253"/>
+      <c r="X27" s="253"/>
+      <c r="Y27" s="253"/>
+      <c r="Z27" s="253"/>
+      <c r="AA27" s="253"/>
+      <c r="AB27" s="253"/>
+      <c r="AC27" s="253"/>
+      <c r="AD27" s="253"/>
+      <c r="AE27" s="253"/>
+      <c r="AF27" s="253"/>
+      <c r="AG27" s="253"/>
+      <c r="AH27" s="253"/>
+      <c r="AI27" s="253"/>
+      <c r="AJ27" s="253"/>
+      <c r="AK27" s="253"/>
+      <c r="AL27" s="253"/>
+      <c r="AM27" s="254"/>
+      <c r="AN27" s="238"/>
+      <c r="AO27" s="239"/>
+      <c r="AP27" s="239"/>
+      <c r="AQ27" s="239"/>
+      <c r="AR27" s="240"/>
+      <c r="AS27" s="238"/>
+      <c r="AT27" s="239"/>
+      <c r="AU27" s="239"/>
+      <c r="AV27" s="239"/>
+      <c r="AW27" s="240"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="54"/>
-      <c r="B28" s="257"/>
-      <c r="C28" s="258"/>
-      <c r="D28" s="259"/>
-      <c r="E28" s="249"/>
-      <c r="F28" s="249"/>
-      <c r="G28" s="249"/>
-      <c r="H28" s="249"/>
-      <c r="I28" s="249"/>
-      <c r="J28" s="250"/>
-      <c r="K28" s="251"/>
-      <c r="L28" s="252"/>
-      <c r="M28" s="260"/>
-      <c r="N28" s="261"/>
-      <c r="O28" s="261"/>
-      <c r="P28" s="261"/>
-      <c r="Q28" s="261"/>
-      <c r="R28" s="262"/>
-      <c r="S28" s="247"/>
-      <c r="T28" s="247"/>
-      <c r="U28" s="247"/>
-      <c r="V28" s="263"/>
-      <c r="W28" s="264"/>
-      <c r="X28" s="264"/>
-      <c r="Y28" s="264"/>
-      <c r="Z28" s="264"/>
-      <c r="AA28" s="264"/>
-      <c r="AB28" s="264"/>
-      <c r="AC28" s="264"/>
-      <c r="AD28" s="264"/>
-      <c r="AE28" s="264"/>
-      <c r="AF28" s="264"/>
-      <c r="AG28" s="264"/>
-      <c r="AH28" s="264"/>
-      <c r="AI28" s="264"/>
-      <c r="AJ28" s="264"/>
-      <c r="AK28" s="264"/>
-      <c r="AL28" s="264"/>
-      <c r="AM28" s="265"/>
-      <c r="AN28" s="266"/>
-      <c r="AO28" s="267"/>
-      <c r="AP28" s="267"/>
-      <c r="AQ28" s="267"/>
-      <c r="AR28" s="268"/>
-      <c r="AS28" s="266"/>
-      <c r="AT28" s="267"/>
-      <c r="AU28" s="267"/>
-      <c r="AV28" s="267"/>
-      <c r="AW28" s="268"/>
+      <c r="B28" s="241"/>
+      <c r="C28" s="242"/>
+      <c r="D28" s="243"/>
+      <c r="E28" s="244"/>
+      <c r="F28" s="244"/>
+      <c r="G28" s="244"/>
+      <c r="H28" s="244"/>
+      <c r="I28" s="244"/>
+      <c r="J28" s="245"/>
+      <c r="K28" s="246"/>
+      <c r="L28" s="247"/>
+      <c r="M28" s="258"/>
+      <c r="N28" s="256"/>
+      <c r="O28" s="256"/>
+      <c r="P28" s="256"/>
+      <c r="Q28" s="256"/>
+      <c r="R28" s="257"/>
+      <c r="S28" s="251"/>
+      <c r="T28" s="251"/>
+      <c r="U28" s="251"/>
+      <c r="V28" s="252"/>
+      <c r="W28" s="253"/>
+      <c r="X28" s="253"/>
+      <c r="Y28" s="253"/>
+      <c r="Z28" s="253"/>
+      <c r="AA28" s="253"/>
+      <c r="AB28" s="253"/>
+      <c r="AC28" s="253"/>
+      <c r="AD28" s="253"/>
+      <c r="AE28" s="253"/>
+      <c r="AF28" s="253"/>
+      <c r="AG28" s="253"/>
+      <c r="AH28" s="253"/>
+      <c r="AI28" s="253"/>
+      <c r="AJ28" s="253"/>
+      <c r="AK28" s="253"/>
+      <c r="AL28" s="253"/>
+      <c r="AM28" s="254"/>
+      <c r="AN28" s="238"/>
+      <c r="AO28" s="239"/>
+      <c r="AP28" s="239"/>
+      <c r="AQ28" s="239"/>
+      <c r="AR28" s="240"/>
+      <c r="AS28" s="238"/>
+      <c r="AT28" s="239"/>
+      <c r="AU28" s="239"/>
+      <c r="AV28" s="239"/>
+      <c r="AW28" s="240"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="54"/>
-      <c r="B29" s="257"/>
-      <c r="C29" s="258"/>
-      <c r="D29" s="259"/>
-      <c r="E29" s="249"/>
-      <c r="F29" s="249"/>
-      <c r="G29" s="249"/>
-      <c r="H29" s="249"/>
-      <c r="I29" s="249"/>
-      <c r="J29" s="250"/>
-      <c r="K29" s="251"/>
-      <c r="L29" s="252"/>
-      <c r="M29" s="260"/>
-      <c r="N29" s="261"/>
-      <c r="O29" s="261"/>
-      <c r="P29" s="261"/>
-      <c r="Q29" s="261"/>
-      <c r="R29" s="262"/>
-      <c r="S29" s="247"/>
-      <c r="T29" s="247"/>
-      <c r="U29" s="247"/>
-      <c r="V29" s="263"/>
-      <c r="W29" s="264"/>
-      <c r="X29" s="264"/>
-      <c r="Y29" s="264"/>
-      <c r="Z29" s="264"/>
-      <c r="AA29" s="264"/>
-      <c r="AB29" s="264"/>
-      <c r="AC29" s="264"/>
-      <c r="AD29" s="264"/>
-      <c r="AE29" s="264"/>
-      <c r="AF29" s="264"/>
-      <c r="AG29" s="264"/>
-      <c r="AH29" s="264"/>
-      <c r="AI29" s="264"/>
-      <c r="AJ29" s="264"/>
-      <c r="AK29" s="264"/>
-      <c r="AL29" s="264"/>
-      <c r="AM29" s="265"/>
-      <c r="AN29" s="266"/>
-      <c r="AO29" s="267"/>
-      <c r="AP29" s="267"/>
-      <c r="AQ29" s="267"/>
-      <c r="AR29" s="268"/>
-      <c r="AS29" s="266"/>
-      <c r="AT29" s="267"/>
-      <c r="AU29" s="267"/>
-      <c r="AV29" s="267"/>
-      <c r="AW29" s="268"/>
+      <c r="B29" s="241"/>
+      <c r="C29" s="242"/>
+      <c r="D29" s="243"/>
+      <c r="E29" s="244"/>
+      <c r="F29" s="244"/>
+      <c r="G29" s="244"/>
+      <c r="H29" s="244"/>
+      <c r="I29" s="244"/>
+      <c r="J29" s="245"/>
+      <c r="K29" s="246"/>
+      <c r="L29" s="247"/>
+      <c r="M29" s="258"/>
+      <c r="N29" s="256"/>
+      <c r="O29" s="256"/>
+      <c r="P29" s="256"/>
+      <c r="Q29" s="256"/>
+      <c r="R29" s="257"/>
+      <c r="S29" s="251"/>
+      <c r="T29" s="251"/>
+      <c r="U29" s="251"/>
+      <c r="V29" s="252"/>
+      <c r="W29" s="253"/>
+      <c r="X29" s="253"/>
+      <c r="Y29" s="253"/>
+      <c r="Z29" s="253"/>
+      <c r="AA29" s="253"/>
+      <c r="AB29" s="253"/>
+      <c r="AC29" s="253"/>
+      <c r="AD29" s="253"/>
+      <c r="AE29" s="253"/>
+      <c r="AF29" s="253"/>
+      <c r="AG29" s="253"/>
+      <c r="AH29" s="253"/>
+      <c r="AI29" s="253"/>
+      <c r="AJ29" s="253"/>
+      <c r="AK29" s="253"/>
+      <c r="AL29" s="253"/>
+      <c r="AM29" s="254"/>
+      <c r="AN29" s="238"/>
+      <c r="AO29" s="239"/>
+      <c r="AP29" s="239"/>
+      <c r="AQ29" s="239"/>
+      <c r="AR29" s="240"/>
+      <c r="AS29" s="238"/>
+      <c r="AT29" s="239"/>
+      <c r="AU29" s="239"/>
+      <c r="AV29" s="239"/>
+      <c r="AW29" s="240"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="54"/>
-      <c r="B30" s="257"/>
-      <c r="C30" s="258"/>
-      <c r="D30" s="259"/>
-      <c r="E30" s="249"/>
-      <c r="F30" s="249"/>
-      <c r="G30" s="249"/>
-      <c r="H30" s="249"/>
-      <c r="I30" s="249"/>
-      <c r="J30" s="250"/>
-      <c r="K30" s="251"/>
-      <c r="L30" s="252"/>
-      <c r="M30" s="271"/>
-      <c r="N30" s="261"/>
-      <c r="O30" s="261"/>
-      <c r="P30" s="261"/>
-      <c r="Q30" s="261"/>
-      <c r="R30" s="262"/>
-      <c r="S30" s="247"/>
-      <c r="T30" s="247"/>
-      <c r="U30" s="247"/>
-      <c r="V30" s="263"/>
-      <c r="W30" s="264"/>
-      <c r="X30" s="264"/>
-      <c r="Y30" s="264"/>
-      <c r="Z30" s="264"/>
-      <c r="AA30" s="264"/>
-      <c r="AB30" s="264"/>
-      <c r="AC30" s="264"/>
-      <c r="AD30" s="264"/>
-      <c r="AE30" s="264"/>
-      <c r="AF30" s="264"/>
-      <c r="AG30" s="264"/>
-      <c r="AH30" s="264"/>
-      <c r="AI30" s="264"/>
-      <c r="AJ30" s="264"/>
-      <c r="AK30" s="264"/>
-      <c r="AL30" s="264"/>
-      <c r="AM30" s="265"/>
-      <c r="AN30" s="266"/>
-      <c r="AO30" s="267"/>
-      <c r="AP30" s="267"/>
-      <c r="AQ30" s="267"/>
-      <c r="AR30" s="268"/>
-      <c r="AS30" s="266"/>
-      <c r="AT30" s="267"/>
-      <c r="AU30" s="267"/>
-      <c r="AV30" s="267"/>
-      <c r="AW30" s="268"/>
+      <c r="B30" s="241"/>
+      <c r="C30" s="242"/>
+      <c r="D30" s="243"/>
+      <c r="E30" s="244"/>
+      <c r="F30" s="244"/>
+      <c r="G30" s="244"/>
+      <c r="H30" s="244"/>
+      <c r="I30" s="244"/>
+      <c r="J30" s="245"/>
+      <c r="K30" s="246"/>
+      <c r="L30" s="247"/>
+      <c r="M30" s="255"/>
+      <c r="N30" s="256"/>
+      <c r="O30" s="256"/>
+      <c r="P30" s="256"/>
+      <c r="Q30" s="256"/>
+      <c r="R30" s="257"/>
+      <c r="S30" s="251"/>
+      <c r="T30" s="251"/>
+      <c r="U30" s="251"/>
+      <c r="V30" s="252"/>
+      <c r="W30" s="253"/>
+      <c r="X30" s="253"/>
+      <c r="Y30" s="253"/>
+      <c r="Z30" s="253"/>
+      <c r="AA30" s="253"/>
+      <c r="AB30" s="253"/>
+      <c r="AC30" s="253"/>
+      <c r="AD30" s="253"/>
+      <c r="AE30" s="253"/>
+      <c r="AF30" s="253"/>
+      <c r="AG30" s="253"/>
+      <c r="AH30" s="253"/>
+      <c r="AI30" s="253"/>
+      <c r="AJ30" s="253"/>
+      <c r="AK30" s="253"/>
+      <c r="AL30" s="253"/>
+      <c r="AM30" s="254"/>
+      <c r="AN30" s="238"/>
+      <c r="AO30" s="239"/>
+      <c r="AP30" s="239"/>
+      <c r="AQ30" s="239"/>
+      <c r="AR30" s="240"/>
+      <c r="AS30" s="238"/>
+      <c r="AT30" s="239"/>
+      <c r="AU30" s="239"/>
+      <c r="AV30" s="239"/>
+      <c r="AW30" s="240"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="54"/>
-      <c r="B31" s="257"/>
-      <c r="C31" s="258"/>
-      <c r="D31" s="259"/>
-      <c r="E31" s="249"/>
-      <c r="F31" s="249"/>
-      <c r="G31" s="249"/>
-      <c r="H31" s="249"/>
-      <c r="I31" s="249"/>
-      <c r="J31" s="250"/>
-      <c r="K31" s="251"/>
-      <c r="L31" s="252"/>
-      <c r="M31" s="271"/>
-      <c r="N31" s="261"/>
-      <c r="O31" s="261"/>
-      <c r="P31" s="261"/>
-      <c r="Q31" s="261"/>
-      <c r="R31" s="262"/>
-      <c r="S31" s="247"/>
-      <c r="T31" s="247"/>
-      <c r="U31" s="247"/>
-      <c r="V31" s="263"/>
-      <c r="W31" s="264"/>
-      <c r="X31" s="264"/>
-      <c r="Y31" s="264"/>
-      <c r="Z31" s="264"/>
-      <c r="AA31" s="264"/>
-      <c r="AB31" s="264"/>
-      <c r="AC31" s="264"/>
-      <c r="AD31" s="264"/>
-      <c r="AE31" s="264"/>
-      <c r="AF31" s="264"/>
-      <c r="AG31" s="264"/>
-      <c r="AH31" s="264"/>
-      <c r="AI31" s="264"/>
-      <c r="AJ31" s="264"/>
-      <c r="AK31" s="264"/>
-      <c r="AL31" s="264"/>
-      <c r="AM31" s="265"/>
-      <c r="AN31" s="266"/>
-      <c r="AO31" s="267"/>
-      <c r="AP31" s="267"/>
-      <c r="AQ31" s="267"/>
-      <c r="AR31" s="268"/>
-      <c r="AS31" s="266"/>
-      <c r="AT31" s="267"/>
-      <c r="AU31" s="267"/>
-      <c r="AV31" s="267"/>
-      <c r="AW31" s="268"/>
+      <c r="B31" s="241"/>
+      <c r="C31" s="242"/>
+      <c r="D31" s="243"/>
+      <c r="E31" s="244"/>
+      <c r="F31" s="244"/>
+      <c r="G31" s="244"/>
+      <c r="H31" s="244"/>
+      <c r="I31" s="244"/>
+      <c r="J31" s="245"/>
+      <c r="K31" s="246"/>
+      <c r="L31" s="247"/>
+      <c r="M31" s="255"/>
+      <c r="N31" s="256"/>
+      <c r="O31" s="256"/>
+      <c r="P31" s="256"/>
+      <c r="Q31" s="256"/>
+      <c r="R31" s="257"/>
+      <c r="S31" s="251"/>
+      <c r="T31" s="251"/>
+      <c r="U31" s="251"/>
+      <c r="V31" s="252"/>
+      <c r="W31" s="253"/>
+      <c r="X31" s="253"/>
+      <c r="Y31" s="253"/>
+      <c r="Z31" s="253"/>
+      <c r="AA31" s="253"/>
+      <c r="AB31" s="253"/>
+      <c r="AC31" s="253"/>
+      <c r="AD31" s="253"/>
+      <c r="AE31" s="253"/>
+      <c r="AF31" s="253"/>
+      <c r="AG31" s="253"/>
+      <c r="AH31" s="253"/>
+      <c r="AI31" s="253"/>
+      <c r="AJ31" s="253"/>
+      <c r="AK31" s="253"/>
+      <c r="AL31" s="253"/>
+      <c r="AM31" s="254"/>
+      <c r="AN31" s="238"/>
+      <c r="AO31" s="239"/>
+      <c r="AP31" s="239"/>
+      <c r="AQ31" s="239"/>
+      <c r="AR31" s="240"/>
+      <c r="AS31" s="238"/>
+      <c r="AT31" s="239"/>
+      <c r="AU31" s="239"/>
+      <c r="AV31" s="239"/>
+      <c r="AW31" s="240"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="54"/>
-      <c r="B32" s="257"/>
-      <c r="C32" s="258"/>
-      <c r="D32" s="259"/>
-      <c r="E32" s="249"/>
-      <c r="F32" s="249"/>
-      <c r="G32" s="249"/>
-      <c r="H32" s="249"/>
-      <c r="I32" s="249"/>
-      <c r="J32" s="250"/>
-      <c r="K32" s="251"/>
-      <c r="L32" s="252"/>
-      <c r="M32" s="271"/>
-      <c r="N32" s="261"/>
-      <c r="O32" s="261"/>
-      <c r="P32" s="261"/>
-      <c r="Q32" s="261"/>
-      <c r="R32" s="262"/>
-      <c r="S32" s="247"/>
-      <c r="T32" s="247"/>
-      <c r="U32" s="247"/>
-      <c r="V32" s="263"/>
-      <c r="W32" s="264"/>
-      <c r="X32" s="264"/>
-      <c r="Y32" s="264"/>
-      <c r="Z32" s="264"/>
-      <c r="AA32" s="264"/>
-      <c r="AB32" s="264"/>
-      <c r="AC32" s="264"/>
-      <c r="AD32" s="264"/>
-      <c r="AE32" s="264"/>
-      <c r="AF32" s="264"/>
-      <c r="AG32" s="264"/>
-      <c r="AH32" s="264"/>
-      <c r="AI32" s="264"/>
-      <c r="AJ32" s="264"/>
-      <c r="AK32" s="264"/>
-      <c r="AL32" s="264"/>
-      <c r="AM32" s="265"/>
-      <c r="AN32" s="266"/>
-      <c r="AO32" s="267"/>
-      <c r="AP32" s="267"/>
-      <c r="AQ32" s="267"/>
-      <c r="AR32" s="268"/>
-      <c r="AS32" s="266"/>
-      <c r="AT32" s="267"/>
-      <c r="AU32" s="267"/>
-      <c r="AV32" s="267"/>
-      <c r="AW32" s="268"/>
+      <c r="B32" s="241"/>
+      <c r="C32" s="242"/>
+      <c r="D32" s="243"/>
+      <c r="E32" s="244"/>
+      <c r="F32" s="244"/>
+      <c r="G32" s="244"/>
+      <c r="H32" s="244"/>
+      <c r="I32" s="244"/>
+      <c r="J32" s="245"/>
+      <c r="K32" s="246"/>
+      <c r="L32" s="247"/>
+      <c r="M32" s="255"/>
+      <c r="N32" s="256"/>
+      <c r="O32" s="256"/>
+      <c r="P32" s="256"/>
+      <c r="Q32" s="256"/>
+      <c r="R32" s="257"/>
+      <c r="S32" s="251"/>
+      <c r="T32" s="251"/>
+      <c r="U32" s="251"/>
+      <c r="V32" s="252"/>
+      <c r="W32" s="253"/>
+      <c r="X32" s="253"/>
+      <c r="Y32" s="253"/>
+      <c r="Z32" s="253"/>
+      <c r="AA32" s="253"/>
+      <c r="AB32" s="253"/>
+      <c r="AC32" s="253"/>
+      <c r="AD32" s="253"/>
+      <c r="AE32" s="253"/>
+      <c r="AF32" s="253"/>
+      <c r="AG32" s="253"/>
+      <c r="AH32" s="253"/>
+      <c r="AI32" s="253"/>
+      <c r="AJ32" s="253"/>
+      <c r="AK32" s="253"/>
+      <c r="AL32" s="253"/>
+      <c r="AM32" s="254"/>
+      <c r="AN32" s="238"/>
+      <c r="AO32" s="239"/>
+      <c r="AP32" s="239"/>
+      <c r="AQ32" s="239"/>
+      <c r="AR32" s="240"/>
+      <c r="AS32" s="238"/>
+      <c r="AT32" s="239"/>
+      <c r="AU32" s="239"/>
+      <c r="AV32" s="239"/>
+      <c r="AW32" s="240"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="257"/>
-      <c r="C33" s="258"/>
-      <c r="D33" s="259"/>
-      <c r="E33" s="249"/>
-      <c r="F33" s="249"/>
-      <c r="G33" s="249"/>
-      <c r="H33" s="249"/>
-      <c r="I33" s="249"/>
-      <c r="J33" s="250"/>
-      <c r="K33" s="251"/>
-      <c r="L33" s="252"/>
-      <c r="M33" s="271"/>
-      <c r="N33" s="261"/>
-      <c r="O33" s="261"/>
-      <c r="P33" s="261"/>
-      <c r="Q33" s="261"/>
-      <c r="R33" s="262"/>
-      <c r="S33" s="247"/>
-      <c r="T33" s="247"/>
-      <c r="U33" s="247"/>
-      <c r="V33" s="263"/>
-      <c r="W33" s="264"/>
-      <c r="X33" s="264"/>
-      <c r="Y33" s="264"/>
-      <c r="Z33" s="264"/>
-      <c r="AA33" s="264"/>
-      <c r="AB33" s="264"/>
-      <c r="AC33" s="264"/>
-      <c r="AD33" s="264"/>
-      <c r="AE33" s="264"/>
-      <c r="AF33" s="264"/>
-      <c r="AG33" s="264"/>
-      <c r="AH33" s="264"/>
-      <c r="AI33" s="264"/>
-      <c r="AJ33" s="264"/>
-      <c r="AK33" s="264"/>
-      <c r="AL33" s="264"/>
-      <c r="AM33" s="265"/>
-      <c r="AN33" s="266"/>
-      <c r="AO33" s="267"/>
-      <c r="AP33" s="267"/>
-      <c r="AQ33" s="267"/>
-      <c r="AR33" s="268"/>
-      <c r="AS33" s="266"/>
-      <c r="AT33" s="267"/>
-      <c r="AU33" s="267"/>
-      <c r="AV33" s="267"/>
-      <c r="AW33" s="268"/>
+      <c r="B33" s="241"/>
+      <c r="C33" s="242"/>
+      <c r="D33" s="243"/>
+      <c r="E33" s="244"/>
+      <c r="F33" s="244"/>
+      <c r="G33" s="244"/>
+      <c r="H33" s="244"/>
+      <c r="I33" s="244"/>
+      <c r="J33" s="245"/>
+      <c r="K33" s="246"/>
+      <c r="L33" s="247"/>
+      <c r="M33" s="255"/>
+      <c r="N33" s="256"/>
+      <c r="O33" s="256"/>
+      <c r="P33" s="256"/>
+      <c r="Q33" s="256"/>
+      <c r="R33" s="257"/>
+      <c r="S33" s="251"/>
+      <c r="T33" s="251"/>
+      <c r="U33" s="251"/>
+      <c r="V33" s="252"/>
+      <c r="W33" s="253"/>
+      <c r="X33" s="253"/>
+      <c r="Y33" s="253"/>
+      <c r="Z33" s="253"/>
+      <c r="AA33" s="253"/>
+      <c r="AB33" s="253"/>
+      <c r="AC33" s="253"/>
+      <c r="AD33" s="253"/>
+      <c r="AE33" s="253"/>
+      <c r="AF33" s="253"/>
+      <c r="AG33" s="253"/>
+      <c r="AH33" s="253"/>
+      <c r="AI33" s="253"/>
+      <c r="AJ33" s="253"/>
+      <c r="AK33" s="253"/>
+      <c r="AL33" s="253"/>
+      <c r="AM33" s="254"/>
+      <c r="AN33" s="238"/>
+      <c r="AO33" s="239"/>
+      <c r="AP33" s="239"/>
+      <c r="AQ33" s="239"/>
+      <c r="AR33" s="240"/>
+      <c r="AS33" s="238"/>
+      <c r="AT33" s="239"/>
+      <c r="AU33" s="239"/>
+      <c r="AV33" s="239"/>
+      <c r="AW33" s="240"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="257"/>
-      <c r="C34" s="258"/>
-      <c r="D34" s="259"/>
-      <c r="E34" s="249"/>
-      <c r="F34" s="249"/>
-      <c r="G34" s="249"/>
-      <c r="H34" s="249"/>
-      <c r="I34" s="249"/>
-      <c r="J34" s="250"/>
-      <c r="K34" s="251"/>
-      <c r="L34" s="252"/>
-      <c r="M34" s="275"/>
-      <c r="N34" s="276"/>
-      <c r="O34" s="276"/>
-      <c r="P34" s="276"/>
-      <c r="Q34" s="276"/>
-      <c r="R34" s="277"/>
-      <c r="S34" s="247"/>
-      <c r="T34" s="247"/>
-      <c r="U34" s="247"/>
-      <c r="V34" s="263"/>
-      <c r="W34" s="264"/>
-      <c r="X34" s="264"/>
-      <c r="Y34" s="264"/>
-      <c r="Z34" s="264"/>
-      <c r="AA34" s="264"/>
-      <c r="AB34" s="264"/>
-      <c r="AC34" s="264"/>
-      <c r="AD34" s="264"/>
-      <c r="AE34" s="264"/>
-      <c r="AF34" s="264"/>
-      <c r="AG34" s="264"/>
-      <c r="AH34" s="264"/>
-      <c r="AI34" s="264"/>
-      <c r="AJ34" s="264"/>
-      <c r="AK34" s="264"/>
-      <c r="AL34" s="264"/>
-      <c r="AM34" s="265"/>
-      <c r="AN34" s="266"/>
-      <c r="AO34" s="267"/>
-      <c r="AP34" s="267"/>
-      <c r="AQ34" s="267"/>
-      <c r="AR34" s="268"/>
-      <c r="AS34" s="266"/>
-      <c r="AT34" s="267"/>
-      <c r="AU34" s="267"/>
-      <c r="AV34" s="267"/>
-      <c r="AW34" s="268"/>
+      <c r="B34" s="241"/>
+      <c r="C34" s="242"/>
+      <c r="D34" s="243"/>
+      <c r="E34" s="244"/>
+      <c r="F34" s="244"/>
+      <c r="G34" s="244"/>
+      <c r="H34" s="244"/>
+      <c r="I34" s="244"/>
+      <c r="J34" s="245"/>
+      <c r="K34" s="246"/>
+      <c r="L34" s="247"/>
+      <c r="M34" s="248"/>
+      <c r="N34" s="249"/>
+      <c r="O34" s="249"/>
+      <c r="P34" s="249"/>
+      <c r="Q34" s="249"/>
+      <c r="R34" s="250"/>
+      <c r="S34" s="251"/>
+      <c r="T34" s="251"/>
+      <c r="U34" s="251"/>
+      <c r="V34" s="252"/>
+      <c r="W34" s="253"/>
+      <c r="X34" s="253"/>
+      <c r="Y34" s="253"/>
+      <c r="Z34" s="253"/>
+      <c r="AA34" s="253"/>
+      <c r="AB34" s="253"/>
+      <c r="AC34" s="253"/>
+      <c r="AD34" s="253"/>
+      <c r="AE34" s="253"/>
+      <c r="AF34" s="253"/>
+      <c r="AG34" s="253"/>
+      <c r="AH34" s="253"/>
+      <c r="AI34" s="253"/>
+      <c r="AJ34" s="253"/>
+      <c r="AK34" s="253"/>
+      <c r="AL34" s="253"/>
+      <c r="AM34" s="254"/>
+      <c r="AN34" s="238"/>
+      <c r="AO34" s="239"/>
+      <c r="AP34" s="239"/>
+      <c r="AQ34" s="239"/>
+      <c r="AR34" s="240"/>
+      <c r="AS34" s="238"/>
+      <c r="AT34" s="239"/>
+      <c r="AU34" s="239"/>
+      <c r="AV34" s="239"/>
+      <c r="AW34" s="240"/>
     </row>
   </sheetData>
   <mergeCells count="249">
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN5:AR5"/>
+    <mergeCell ref="AS5:AW5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:AM6"/>
+    <mergeCell ref="AN6:AR6"/>
+    <mergeCell ref="AS6:AW6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:AM5"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
     <mergeCell ref="AN33:AR33"/>
     <mergeCell ref="AS33:AW33"/>
     <mergeCell ref="B34:D34"/>
@@ -10076,239 +10354,6 @@
     <mergeCell ref="M33:R33"/>
     <mergeCell ref="S33:U33"/>
     <mergeCell ref="V33:AM33"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN5:AR5"/>
-    <mergeCell ref="AS5:AW5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:AM6"/>
-    <mergeCell ref="AN6:AR6"/>
-    <mergeCell ref="AS6:AW6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10440,14 +10485,14 @@
       <c r="P2" s="38"/>
       <c r="Q2" s="39"/>
       <c r="R2" s="90" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="S2" s="91"/>
       <c r="T2" s="91"/>
       <c r="U2" s="91"/>
       <c r="V2" s="92"/>
       <c r="W2" s="37" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="X2" s="40"/>
       <c r="Y2" s="40"/>
@@ -12406,7 +12451,7 @@
       </c>
       <c r="C52" s="279"/>
       <c r="D52" s="213" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E52" s="214"/>
       <c r="F52" s="214"/>
@@ -12987,22 +13032,22 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="240" t="s">
+      <c r="C6" s="271" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="240" t="s">
+      <c r="D6" s="271" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="240" t="s">
+      <c r="E6" s="271" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="240" t="s">
+      <c r="F6" s="271" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="240" t="s">
+      <c r="G6" s="271" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="240" t="s">
+      <c r="H6" s="271" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="299" t="s">
@@ -13011,13 +13056,13 @@
       <c r="J6" s="299" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="240" t="s">
+      <c r="K6" s="271" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="240" t="s">
+      <c r="L6" s="271" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="240" t="s">
+      <c r="M6" s="271" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="65" t="s">
@@ -13032,17 +13077,17 @@
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="240"/>
-      <c r="D7" s="240"/>
-      <c r="E7" s="240"/>
-      <c r="F7" s="240"/>
-      <c r="G7" s="240"/>
-      <c r="H7" s="240"/>
+      <c r="C7" s="271"/>
+      <c r="D7" s="271"/>
+      <c r="E7" s="271"/>
+      <c r="F7" s="271"/>
+      <c r="G7" s="271"/>
+      <c r="H7" s="271"/>
       <c r="I7" s="299"/>
       <c r="J7" s="299"/>
-      <c r="K7" s="240"/>
-      <c r="L7" s="240"/>
-      <c r="M7" s="240"/>
+      <c r="K7" s="271"/>
+      <c r="L7" s="271"/>
+      <c r="M7" s="271"/>
       <c r="N7" s="43" t="s">
         <v>77</v>
       </c>
@@ -13199,7 +13244,7 @@
         <v>250</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>122</v>
@@ -13296,22 +13341,22 @@
     <row r="15" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
-      <c r="C15" s="240" t="s">
+      <c r="C15" s="271" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="240" t="s">
+      <c r="D15" s="271" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="240" t="s">
+      <c r="E15" s="271" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="240" t="s">
+      <c r="F15" s="271" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="240" t="s">
+      <c r="G15" s="271" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="240" t="s">
+      <c r="H15" s="271" t="s">
         <v>29</v>
       </c>
       <c r="I15" s="300" t="s">
@@ -13320,13 +13365,13 @@
       <c r="J15" s="299" t="s">
         <v>48</v>
       </c>
-      <c r="K15" s="240" t="s">
+      <c r="K15" s="271" t="s">
         <v>31</v>
       </c>
-      <c r="L15" s="240" t="s">
+      <c r="L15" s="271" t="s">
         <v>30</v>
       </c>
-      <c r="M15" s="240" t="s">
+      <c r="M15" s="271" t="s">
         <v>33</v>
       </c>
       <c r="N15" s="65" t="s">
@@ -13341,17 +13386,17 @@
     <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
-      <c r="C16" s="240"/>
-      <c r="D16" s="240"/>
-      <c r="E16" s="240"/>
-      <c r="F16" s="240"/>
-      <c r="G16" s="240"/>
-      <c r="H16" s="240"/>
+      <c r="C16" s="271"/>
+      <c r="D16" s="271"/>
+      <c r="E16" s="271"/>
+      <c r="F16" s="271"/>
+      <c r="G16" s="271"/>
+      <c r="H16" s="271"/>
       <c r="I16" s="301"/>
       <c r="J16" s="299"/>
-      <c r="K16" s="240"/>
-      <c r="L16" s="240"/>
-      <c r="M16" s="240"/>
+      <c r="K16" s="271"/>
+      <c r="L16" s="271"/>
+      <c r="M16" s="271"/>
       <c r="N16" s="43" t="s">
         <v>77</v>
       </c>
@@ -13714,22 +13759,22 @@
     </row>
     <row r="26" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="95"/>
-      <c r="C26" s="240" t="s">
+      <c r="C26" s="271" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="240" t="s">
+      <c r="D26" s="271" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="240" t="s">
+      <c r="E26" s="271" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="240" t="s">
+      <c r="F26" s="271" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="240" t="s">
+      <c r="G26" s="271" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="240" t="s">
+      <c r="H26" s="271" t="s">
         <v>29</v>
       </c>
       <c r="I26" s="299" t="s">
@@ -13738,13 +13783,13 @@
       <c r="J26" s="299" t="s">
         <v>48</v>
       </c>
-      <c r="K26" s="240" t="s">
+      <c r="K26" s="271" t="s">
         <v>31</v>
       </c>
-      <c r="L26" s="240" t="s">
+      <c r="L26" s="271" t="s">
         <v>30</v>
       </c>
-      <c r="M26" s="240" t="s">
+      <c r="M26" s="271" t="s">
         <v>33</v>
       </c>
       <c r="N26" s="65" t="s">
@@ -13758,17 +13803,17 @@
     </row>
     <row r="27" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B27" s="95"/>
-      <c r="C27" s="240"/>
-      <c r="D27" s="240"/>
-      <c r="E27" s="240"/>
-      <c r="F27" s="240"/>
-      <c r="G27" s="240"/>
-      <c r="H27" s="240"/>
+      <c r="C27" s="271"/>
+      <c r="D27" s="271"/>
+      <c r="E27" s="271"/>
+      <c r="F27" s="271"/>
+      <c r="G27" s="271"/>
+      <c r="H27" s="271"/>
       <c r="I27" s="299"/>
       <c r="J27" s="299"/>
-      <c r="K27" s="240"/>
-      <c r="L27" s="240"/>
-      <c r="M27" s="240"/>
+      <c r="K27" s="271"/>
+      <c r="L27" s="271"/>
+      <c r="M27" s="271"/>
       <c r="N27" s="93" t="s">
         <v>77</v>
       </c>
@@ -13921,13 +13966,13 @@
         <v>4</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G31" s="44" t="s">
         <v>51</v>
@@ -13942,7 +13987,7 @@
         <v>35</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>35</v>
@@ -13957,7 +14002,7 @@
         <v>35</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q31" s="8"/>
     </row>
@@ -14001,7 +14046,7 @@
         <v>35</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="Q32" s="8"/>
     </row>
@@ -14014,10 +14059,10 @@
         <v>200</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G33" s="44" t="s">
         <v>51</v>
@@ -14032,7 +14077,7 @@
         <v>35</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>35</v>
@@ -14047,7 +14092,7 @@
         <v>35</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="Q33" s="8"/>
     </row>
@@ -14060,10 +14105,10 @@
         <v>201</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G34" s="44" t="s">
         <v>51</v>
@@ -14078,7 +14123,7 @@
         <v>35</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>35</v>
@@ -14093,7 +14138,7 @@
         <v>35</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="Q34" s="8"/>
     </row>
@@ -14106,10 +14151,10 @@
         <v>202</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G35" s="44" t="s">
         <v>51</v>
@@ -14137,7 +14182,7 @@
         <v>35</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="Q35" s="8"/>
     </row>
@@ -14168,7 +14213,7 @@
         <v>35</v>
       </c>
       <c r="K36" s="219" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>35</v>
@@ -14193,7 +14238,7 @@
         <v>10</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>276</v>
@@ -14214,7 +14259,7 @@
         <v>35</v>
       </c>
       <c r="K37" s="219" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>35</v>
@@ -14239,7 +14284,7 @@
         <v>11</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E38" s="16" t="s">
         <v>277</v>
@@ -14260,7 +14305,7 @@
         <v>35</v>
       </c>
       <c r="K38" s="219" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>35</v>
@@ -14285,7 +14330,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E39" s="16" t="s">
         <v>278</v>
@@ -14306,7 +14351,7 @@
         <v>35</v>
       </c>
       <c r="K39" s="219" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="L39" s="7" t="s">
         <v>35</v>
@@ -14331,7 +14376,7 @@
         <v>13</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E40" s="16" t="s">
         <v>279</v>
@@ -14352,7 +14397,7 @@
         <v>35</v>
       </c>
       <c r="K40" s="219" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="L40" s="7" t="s">
         <v>35</v>
@@ -14361,16 +14406,16 @@
         <v>34</v>
       </c>
       <c r="N40" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="O40" s="7" t="s">
         <v>35</v>
       </c>
       <c r="P40" s="220" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="Q40" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -14379,7 +14424,7 @@
         <v>14</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E41" s="16" t="s">
         <v>280</v>
@@ -14400,7 +14445,7 @@
         <v>35</v>
       </c>
       <c r="K41" s="219" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="L41" s="7" t="s">
         <v>35</v>
@@ -14409,16 +14454,16 @@
         <v>34</v>
       </c>
       <c r="N41" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="O41" s="7" t="s">
         <v>34</v>
       </c>
       <c r="P41" s="220" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q41" s="8" t="s">
         <v>341</v>
-      </c>
-      <c r="Q41" s="8" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -14427,7 +14472,7 @@
         <v>15</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E42" s="16" t="s">
         <v>281</v>
@@ -14448,7 +14493,7 @@
         <v>35</v>
       </c>
       <c r="K42" s="219" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="L42" s="7" t="s">
         <v>35</v>
@@ -14457,16 +14502,16 @@
         <v>34</v>
       </c>
       <c r="N42" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="O42" s="7" t="s">
         <v>34</v>
       </c>
       <c r="P42" s="220" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="Q42" s="8" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -14475,7 +14520,7 @@
         <v>16</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E43" s="16" t="s">
         <v>282</v>
@@ -14496,7 +14541,7 @@
         <v>35</v>
       </c>
       <c r="K43" s="219" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="L43" s="7" t="s">
         <v>35</v>
@@ -14564,16 +14609,24 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="I15:I16"/>
     <mergeCell ref="J15:J16"/>
     <mergeCell ref="C15:C16"/>
@@ -14582,24 +14635,16 @@
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="H15:H16"/>
     <mergeCell ref="D15:D16"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -15221,7 +15266,7 @@
       <c r="L13" s="98"/>
       <c r="M13" s="69"/>
       <c r="N13" s="69" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="O13" s="69"/>
       <c r="P13" s="69"/>
@@ -15272,7 +15317,7 @@
       <c r="L14" s="98"/>
       <c r="M14" s="69"/>
       <c r="N14" s="229" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="O14" s="69"/>
       <c r="P14" s="69"/>
@@ -15323,7 +15368,7 @@
       <c r="L15" s="98"/>
       <c r="M15" s="69"/>
       <c r="N15" s="69" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="O15" s="69"/>
       <c r="P15" s="69"/>
@@ -15374,7 +15419,7 @@
       <c r="L16" s="98"/>
       <c r="M16" s="69"/>
       <c r="N16" s="69" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="O16" s="69"/>
       <c r="P16" s="69"/>
@@ -15425,7 +15470,7 @@
       <c r="L17" s="98"/>
       <c r="M17" s="69"/>
       <c r="N17" s="69" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="O17" s="69"/>
       <c r="P17" s="69"/>
@@ -15476,7 +15521,7 @@
       <c r="L18" s="98"/>
       <c r="M18" s="69"/>
       <c r="N18" s="69" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="O18" s="69"/>
       <c r="P18" s="69"/>
@@ -15527,7 +15572,7 @@
       <c r="L19" s="98"/>
       <c r="M19" s="69"/>
       <c r="N19" s="69" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="O19" s="69"/>
       <c r="P19" s="69"/>
@@ -15578,7 +15623,7 @@
       <c r="L20" s="98"/>
       <c r="M20" s="69"/>
       <c r="N20" s="69" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="O20" s="69"/>
       <c r="P20" s="69"/>
@@ -15629,7 +15674,7 @@
       <c r="L21" s="98"/>
       <c r="M21" s="69"/>
       <c r="N21" s="69" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="O21" s="69"/>
       <c r="P21" s="69"/>
@@ -15680,7 +15725,7 @@
       <c r="L22" s="98"/>
       <c r="M22" s="69"/>
       <c r="N22" s="69" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="O22" s="69"/>
       <c r="P22" s="69"/>
@@ -15731,7 +15776,7 @@
       <c r="L23" s="98"/>
       <c r="M23" s="69"/>
       <c r="N23" s="69" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="O23" s="69"/>
       <c r="P23" s="69"/>
@@ -15884,7 +15929,7 @@
       <c r="L26" s="98"/>
       <c r="M26" s="69"/>
       <c r="N26" s="69" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="O26" s="69"/>
       <c r="P26" s="69"/>
@@ -15928,13 +15973,13 @@
       <c r="G27" s="227"/>
       <c r="K27" s="228"/>
       <c r="N27" s="226" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="AA27" s="226" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AB27" s="226" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="AV27" s="228"/>
     </row>
@@ -15945,13 +15990,13 @@
       <c r="G28" s="227"/>
       <c r="K28" s="228"/>
       <c r="N28" s="226" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="AA28" s="226" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AB28" s="226" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="AV28" s="228"/>
     </row>
@@ -15962,13 +16007,13 @@
       <c r="G29" s="227"/>
       <c r="K29" s="228"/>
       <c r="N29" s="226" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AA29" s="226" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AB29" s="226" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="AV29" s="228"/>
     </row>
@@ -15979,13 +16024,13 @@
       <c r="G30" s="227"/>
       <c r="K30" s="228"/>
       <c r="N30" s="226" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="AA30" s="226" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AB30" s="226" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="AV30" s="228"/>
     </row>
@@ -15996,13 +16041,13 @@
       <c r="G31" s="227"/>
       <c r="K31" s="228"/>
       <c r="N31" s="226" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AA31" s="226" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AB31" s="226" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="AV31" s="228"/>
     </row>
@@ -16013,7 +16058,7 @@
       <c r="G32" s="227"/>
       <c r="K32" s="228"/>
       <c r="N32" s="226" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AV32" s="228"/>
     </row>
@@ -16024,13 +16069,13 @@
       <c r="G33" s="227"/>
       <c r="K33" s="228"/>
       <c r="N33" s="226" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="AA33" s="226" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AB33" s="226" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AV33" s="228"/>
     </row>
@@ -16041,13 +16086,13 @@
       <c r="G34" s="227"/>
       <c r="K34" s="228"/>
       <c r="N34" s="226" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="AA34" s="226" t="s">
+        <v>392</v>
+      </c>
+      <c r="AB34" s="226" t="s">
         <v>394</v>
-      </c>
-      <c r="AB34" s="226" t="s">
-        <v>396</v>
       </c>
       <c r="AV34" s="228"/>
     </row>
@@ -16058,13 +16103,13 @@
       <c r="G35" s="227"/>
       <c r="K35" s="228"/>
       <c r="N35" s="226" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AA35" s="226" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AB35" s="226" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AV35" s="228"/>
     </row>
@@ -16075,13 +16120,13 @@
       <c r="G36" s="227"/>
       <c r="K36" s="228"/>
       <c r="N36" s="226" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="AA36" s="226" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AB36" s="226" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AV36" s="228"/>
     </row>
@@ -16092,13 +16137,13 @@
       <c r="G37" s="227"/>
       <c r="K37" s="228"/>
       <c r="N37" s="226" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AA37" s="226" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AB37" s="226" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="AV37" s="228"/>
     </row>
@@ -16116,7 +16161,7 @@
       <c r="L38" s="98"/>
       <c r="M38" s="69"/>
       <c r="N38" s="69" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="O38" s="69"/>
       <c r="P38" s="69"/>
@@ -16167,7 +16212,7 @@
       <c r="L39" s="98"/>
       <c r="M39" s="69"/>
       <c r="N39" s="98" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="O39" s="98"/>
       <c r="P39" s="98"/>
@@ -16185,7 +16230,7 @@
         <v>38</v>
       </c>
       <c r="AB39" s="98" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AC39" s="98"/>
       <c r="AD39" s="98"/>
@@ -16222,7 +16267,7 @@
       <c r="L40" s="98"/>
       <c r="M40" s="69"/>
       <c r="N40" s="223" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="O40" s="223"/>
       <c r="P40" s="223"/>
@@ -16240,7 +16285,7 @@
         <v>38</v>
       </c>
       <c r="AB40" s="223" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AC40" s="223"/>
       <c r="AD40" s="223"/>
@@ -16277,7 +16322,7 @@
       <c r="L41" s="98"/>
       <c r="M41" s="69"/>
       <c r="N41" s="98" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="O41" s="98"/>
       <c r="P41" s="98"/>
@@ -16295,7 +16340,7 @@
         <v>38</v>
       </c>
       <c r="AB41" s="98" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AC41" s="98"/>
       <c r="AD41" s="98"/>
@@ -16332,7 +16377,7 @@
       <c r="L42" s="98"/>
       <c r="M42" s="69"/>
       <c r="N42" s="98" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="O42" s="98"/>
       <c r="P42" s="98"/>
@@ -16350,7 +16395,7 @@
         <v>38</v>
       </c>
       <c r="AB42" s="98" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="AC42" s="98"/>
       <c r="AD42" s="98"/>
@@ -16380,13 +16425,13 @@
       <c r="G43" s="227"/>
       <c r="K43" s="228"/>
       <c r="N43" s="226" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AA43" s="226" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AB43" s="226" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AV43" s="228"/>
     </row>
@@ -16404,7 +16449,7 @@
       <c r="L44" s="98"/>
       <c r="M44" s="69"/>
       <c r="N44" s="230" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="O44" s="230"/>
       <c r="P44" s="230"/>
@@ -16422,7 +16467,7 @@
         <v>38</v>
       </c>
       <c r="AB44" s="96" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="AC44" s="98"/>
       <c r="AD44" s="98"/>
@@ -16459,7 +16504,7 @@
       <c r="L45" s="98"/>
       <c r="M45" s="69"/>
       <c r="N45" s="69" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="O45" s="69"/>
       <c r="P45" s="69"/>
@@ -16510,7 +16555,7 @@
       <c r="L46" s="98"/>
       <c r="M46" s="69"/>
       <c r="N46" s="98" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="O46" s="98"/>
       <c r="P46" s="98"/>
@@ -16528,7 +16573,7 @@
         <v>38</v>
       </c>
       <c r="AB46" s="98" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AC46" s="98"/>
       <c r="AD46" s="98"/>
@@ -16565,7 +16610,7 @@
       <c r="L47" s="98"/>
       <c r="M47" s="69"/>
       <c r="N47" s="223" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="O47" s="223"/>
       <c r="P47" s="223"/>
@@ -16583,7 +16628,7 @@
         <v>38</v>
       </c>
       <c r="AB47" s="223" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AC47" s="223"/>
       <c r="AD47" s="223"/>
@@ -16620,7 +16665,7 @@
       <c r="L48" s="98"/>
       <c r="M48" s="69"/>
       <c r="N48" s="98" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="O48" s="98"/>
       <c r="P48" s="98"/>
@@ -16638,7 +16683,7 @@
         <v>38</v>
       </c>
       <c r="AB48" s="98" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AC48" s="98"/>
       <c r="AD48" s="98"/>
@@ -16675,7 +16720,7 @@
       <c r="L49" s="98"/>
       <c r="M49" s="69"/>
       <c r="N49" s="98" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="O49" s="98"/>
       <c r="P49" s="98"/>
@@ -16693,7 +16738,7 @@
         <v>38</v>
       </c>
       <c r="AB49" s="98" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AC49" s="98"/>
       <c r="AD49" s="98"/>
@@ -16723,13 +16768,13 @@
       <c r="G50" s="227"/>
       <c r="K50" s="228"/>
       <c r="N50" s="226" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AA50" s="226" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AB50" s="226" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AV50" s="228"/>
     </row>
@@ -16747,7 +16792,7 @@
       <c r="L51" s="98"/>
       <c r="M51" s="69"/>
       <c r="N51" s="230" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="O51" s="230"/>
       <c r="P51" s="230"/>
@@ -16765,7 +16810,7 @@
         <v>38</v>
       </c>
       <c r="AB51" s="96" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AC51" s="98"/>
       <c r="AD51" s="98"/>
@@ -16802,7 +16847,7 @@
       <c r="L52" s="98"/>
       <c r="M52" s="69"/>
       <c r="N52" s="69" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="O52" s="69"/>
       <c r="P52" s="69"/>
@@ -16853,7 +16898,7 @@
       <c r="L53" s="98"/>
       <c r="M53" s="69"/>
       <c r="N53" s="98" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="O53" s="98"/>
       <c r="P53" s="98"/>
@@ -16871,7 +16916,7 @@
         <v>38</v>
       </c>
       <c r="AB53" s="98" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="AC53" s="98"/>
       <c r="AD53" s="98"/>
@@ -16908,7 +16953,7 @@
       <c r="L54" s="98"/>
       <c r="M54" s="69"/>
       <c r="N54" s="223" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="O54" s="223"/>
       <c r="P54" s="223"/>
@@ -16926,7 +16971,7 @@
         <v>38</v>
       </c>
       <c r="AB54" s="223" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AC54" s="223"/>
       <c r="AD54" s="223"/>
@@ -16963,7 +17008,7 @@
       <c r="L55" s="98"/>
       <c r="M55" s="69"/>
       <c r="N55" s="98" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="O55" s="98"/>
       <c r="P55" s="98"/>
@@ -16981,7 +17026,7 @@
         <v>38</v>
       </c>
       <c r="AB55" s="98" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AC55" s="98"/>
       <c r="AD55" s="98"/>
@@ -17018,7 +17063,7 @@
       <c r="L56" s="98"/>
       <c r="M56" s="69"/>
       <c r="N56" s="98" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="O56" s="98"/>
       <c r="P56" s="98"/>
@@ -17036,7 +17081,7 @@
         <v>38</v>
       </c>
       <c r="AB56" s="98" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AC56" s="98"/>
       <c r="AD56" s="98"/>
@@ -17066,13 +17111,13 @@
       <c r="G57" s="227"/>
       <c r="K57" s="228"/>
       <c r="N57" s="226" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AA57" s="226" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AB57" s="226" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AV57" s="228"/>
     </row>
@@ -17090,7 +17135,7 @@
       <c r="L58" s="98"/>
       <c r="M58" s="69"/>
       <c r="N58" s="230" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="O58" s="230"/>
       <c r="P58" s="230"/>
@@ -17108,7 +17153,7 @@
         <v>38</v>
       </c>
       <c r="AB58" s="96" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="AC58" s="98"/>
       <c r="AD58" s="98"/>
@@ -17145,7 +17190,7 @@
       <c r="L59" s="98"/>
       <c r="M59" s="69"/>
       <c r="N59" s="69" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="O59" s="69"/>
       <c r="P59" s="69"/>
@@ -17196,7 +17241,7 @@
       <c r="L60" s="98"/>
       <c r="M60" s="69"/>
       <c r="N60" s="98" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="O60" s="98"/>
       <c r="P60" s="98"/>
@@ -17214,7 +17259,7 @@
         <v>38</v>
       </c>
       <c r="AB60" s="98" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AC60" s="98"/>
       <c r="AD60" s="98"/>
@@ -17251,7 +17296,7 @@
       <c r="L61" s="98"/>
       <c r="M61" s="69"/>
       <c r="N61" s="223" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="O61" s="223"/>
       <c r="P61" s="223"/>
@@ -17269,7 +17314,7 @@
         <v>38</v>
       </c>
       <c r="AB61" s="223" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AC61" s="223"/>
       <c r="AD61" s="223"/>
@@ -17306,7 +17351,7 @@
       <c r="L62" s="98"/>
       <c r="M62" s="69"/>
       <c r="N62" s="98" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="O62" s="98"/>
       <c r="P62" s="98"/>
@@ -17324,7 +17369,7 @@
         <v>38</v>
       </c>
       <c r="AB62" s="98" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AC62" s="98"/>
       <c r="AD62" s="98"/>
@@ -17361,7 +17406,7 @@
       <c r="L63" s="98"/>
       <c r="M63" s="69"/>
       <c r="N63" s="98" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="O63" s="98"/>
       <c r="P63" s="98"/>
@@ -17379,7 +17424,7 @@
         <v>38</v>
       </c>
       <c r="AB63" s="98" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="AC63" s="98"/>
       <c r="AD63" s="98"/>
@@ -17409,13 +17454,13 @@
       <c r="G64" s="227"/>
       <c r="K64" s="228"/>
       <c r="N64" s="226" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AA64" s="226" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AB64" s="226" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AV64" s="228"/>
     </row>
@@ -17433,7 +17478,7 @@
       <c r="L65" s="98"/>
       <c r="M65" s="69"/>
       <c r="N65" s="230" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O65" s="230"/>
       <c r="P65" s="230"/>
@@ -17451,7 +17496,7 @@
         <v>38</v>
       </c>
       <c r="AB65" s="96" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AC65" s="98"/>
       <c r="AD65" s="98"/>
@@ -17539,7 +17584,7 @@
       <c r="L67" s="98"/>
       <c r="M67" s="69"/>
       <c r="N67" s="98" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="O67" s="98"/>
       <c r="P67" s="98"/>
@@ -17557,7 +17602,7 @@
         <v>38</v>
       </c>
       <c r="AB67" s="96" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AC67" s="98"/>
       <c r="AD67" s="98"/>
@@ -17596,7 +17641,7 @@
       <c r="L68" s="98"/>
       <c r="M68" s="69"/>
       <c r="N68" s="98" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="O68" s="98"/>
       <c r="P68" s="98"/>
@@ -17614,7 +17659,7 @@
         <v>38</v>
       </c>
       <c r="AB68" s="96" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AC68" s="98"/>
       <c r="AD68" s="98"/>
@@ -17653,7 +17698,7 @@
       <c r="L69" s="98"/>
       <c r="M69" s="69"/>
       <c r="N69" s="98" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="O69" s="98"/>
       <c r="P69" s="98"/>
@@ -17671,7 +17716,7 @@
         <v>38</v>
       </c>
       <c r="AB69" s="96" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AC69" s="98"/>
       <c r="AD69" s="98"/>
@@ -17710,7 +17755,7 @@
       <c r="L70" s="98"/>
       <c r="M70" s="69"/>
       <c r="N70" s="98" t="s">
-        <v>305</v>
+        <v>430</v>
       </c>
       <c r="O70" s="98"/>
       <c r="P70" s="98"/>
@@ -17767,7 +17812,7 @@
       <c r="L71" s="98"/>
       <c r="M71" s="69"/>
       <c r="N71" s="98" t="s">
-        <v>306</v>
+        <v>431</v>
       </c>
       <c r="O71" s="98"/>
       <c r="P71" s="98"/>
@@ -17824,7 +17869,7 @@
       <c r="L72" s="98"/>
       <c r="M72" s="69"/>
       <c r="N72" s="98" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="O72" s="98"/>
       <c r="P72" s="98"/>
@@ -17839,7 +17884,7 @@
       <c r="Y72" s="98"/>
       <c r="Z72" s="98"/>
       <c r="AA72" s="69" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AB72" s="96"/>
       <c r="AC72" s="98"/>
@@ -17879,7 +17924,7 @@
       <c r="L73" s="98"/>
       <c r="M73" s="69"/>
       <c r="N73" s="17" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="O73" s="98"/>
       <c r="P73" s="98"/>
@@ -17931,7 +17976,7 @@
       <c r="M74" s="69"/>
       <c r="N74" s="69"/>
       <c r="O74" s="98" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="P74" s="98"/>
       <c r="Q74" s="98"/>
@@ -17947,10 +17992,10 @@
       <c r="AA74" s="69"/>
       <c r="AB74" s="96"/>
       <c r="AC74" s="69" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AD74" s="98" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AE74" s="98"/>
       <c r="AF74" s="98"/>
@@ -17986,7 +18031,7 @@
       <c r="M75" s="69"/>
       <c r="N75" s="98"/>
       <c r="O75" s="98" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="P75" s="98"/>
       <c r="Q75" s="98"/>
@@ -18002,10 +18047,10 @@
       <c r="AA75" s="69"/>
       <c r="AB75" s="96"/>
       <c r="AC75" s="69" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AD75" s="98" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AE75" s="98"/>
       <c r="AF75" s="98"/>
@@ -18041,7 +18086,7 @@
       <c r="M76" s="69"/>
       <c r="N76" s="98"/>
       <c r="O76" s="98" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="P76" s="98"/>
       <c r="Q76" s="98"/>
@@ -18057,10 +18102,10 @@
       <c r="AA76" s="69"/>
       <c r="AB76" s="96"/>
       <c r="AC76" s="69" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AD76" s="98" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AE76" s="98"/>
       <c r="AF76" s="98"/>
@@ -18096,7 +18141,7 @@
       <c r="M77" s="69"/>
       <c r="N77" s="98"/>
       <c r="O77" s="98" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="P77" s="98"/>
       <c r="Q77" s="98"/>
@@ -18112,10 +18157,10 @@
       <c r="AA77" s="69"/>
       <c r="AB77" s="96"/>
       <c r="AC77" s="69" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AD77" s="98" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AE77" s="98"/>
       <c r="AF77" s="98"/>
@@ -18151,7 +18196,7 @@
       <c r="M78" s="69"/>
       <c r="N78" s="98"/>
       <c r="O78" s="98" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="P78" s="98"/>
       <c r="Q78" s="98"/>
@@ -18167,10 +18212,10 @@
       <c r="AA78" s="69"/>
       <c r="AB78" s="96"/>
       <c r="AC78" s="69" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AD78" s="98" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AE78" s="98"/>
       <c r="AF78" s="98"/>
@@ -18206,7 +18251,7 @@
       <c r="M79" s="69"/>
       <c r="N79" s="98"/>
       <c r="O79" s="98" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="P79" s="98"/>
       <c r="Q79" s="98"/>
@@ -18222,10 +18267,10 @@
       <c r="AA79" s="69"/>
       <c r="AB79" s="96"/>
       <c r="AC79" s="69" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AD79" s="98" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AE79" s="98"/>
       <c r="AF79" s="98"/>
@@ -18261,7 +18306,7 @@
       <c r="M80" s="69"/>
       <c r="N80" s="98"/>
       <c r="O80" s="98" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="P80" s="98"/>
       <c r="Q80" s="98"/>
@@ -18277,10 +18322,10 @@
       <c r="AA80" s="69"/>
       <c r="AB80" s="96"/>
       <c r="AC80" s="69" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AD80" s="98" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AE80" s="98"/>
       <c r="AF80" s="98"/>
@@ -18316,7 +18361,7 @@
       <c r="M81" s="69"/>
       <c r="N81" s="98"/>
       <c r="O81" s="98" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="P81" s="98"/>
       <c r="Q81" s="98"/>
@@ -18332,10 +18377,10 @@
       <c r="AA81" s="69"/>
       <c r="AB81" s="96"/>
       <c r="AC81" s="69" t="s">
+        <v>382</v>
+      </c>
+      <c r="AD81" s="98" t="s">
         <v>384</v>
-      </c>
-      <c r="AD81" s="98" t="s">
-        <v>386</v>
       </c>
       <c r="AE81" s="98"/>
       <c r="AF81" s="98"/>
@@ -18370,7 +18415,7 @@
       <c r="L82" s="98"/>
       <c r="M82" s="69"/>
       <c r="N82" s="98" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="O82" s="98"/>
       <c r="P82" s="98"/>
@@ -18422,7 +18467,7 @@
       <c r="M83" s="69"/>
       <c r="N83" s="98"/>
       <c r="O83" s="98" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="P83" s="98"/>
       <c r="Q83" s="98"/>
@@ -18465,7 +18510,7 @@
       <c r="G84" s="67"/>
       <c r="K84" s="68"/>
       <c r="M84" s="224" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AA84" s="224"/>
       <c r="AB84" s="225"/>
@@ -18486,7 +18531,7 @@
       <c r="L85" s="230"/>
       <c r="M85" s="229"/>
       <c r="N85" s="229" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="O85" s="229"/>
       <c r="P85" s="229"/>
@@ -18537,7 +18582,7 @@
       <c r="L86" s="230"/>
       <c r="M86" s="229"/>
       <c r="N86" s="229" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="O86" s="229"/>
       <c r="P86" s="229"/>
@@ -18588,7 +18633,7 @@
       <c r="L87" s="230"/>
       <c r="M87" s="229"/>
       <c r="N87" s="229" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="O87" s="229"/>
       <c r="P87" s="229"/>
@@ -18638,7 +18683,7 @@
       <c r="K88" s="99"/>
       <c r="L88" s="98"/>
       <c r="M88" s="224" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="N88" s="98"/>
       <c r="O88" s="98"/>
@@ -18690,7 +18735,7 @@
       <c r="L89" s="230"/>
       <c r="M89" s="229"/>
       <c r="N89" s="229" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="O89" s="229"/>
       <c r="P89" s="229"/>
@@ -18741,7 +18786,7 @@
       <c r="L90" s="230"/>
       <c r="M90" s="229"/>
       <c r="N90" s="229" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="O90" s="229"/>
       <c r="P90" s="229"/>
@@ -18792,7 +18837,7 @@
       <c r="L91" s="230"/>
       <c r="M91" s="229"/>
       <c r="N91" s="229" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="O91" s="229"/>
       <c r="P91" s="229"/>
@@ -19079,13 +19124,13 @@
         <v>5</v>
       </c>
       <c r="C99" s="21" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D99" s="22"/>
       <c r="E99" s="22"/>
       <c r="F99" s="23"/>
       <c r="G99" s="21" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H99" s="22"/>
       <c r="I99" s="22"/>
@@ -19354,7 +19399,7 @@
         <v>7</v>
       </c>
       <c r="C105" s="21" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D105" s="22"/>
       <c r="E105" s="22"/>
@@ -27196,7 +27241,7 @@
       <c r="AB9" s="22"/>
       <c r="AC9" s="22"/>
       <c r="AD9" s="207" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AE9" s="208"/>
       <c r="AF9" s="208"/>
@@ -27587,7 +27632,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
@@ -32284,7 +32329,7 @@
       <c r="A7" s="51"/>
       <c r="B7" s="51"/>
       <c r="C7" s="51" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D7" s="51"/>
       <c r="E7" s="51"/>
@@ -49324,9 +49369,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -49488,26 +49536,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -49531,9 +49568,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/01_基本設計書/20200220リリース/SC-Z01_在庫照会.xlsx
+++ b/01_基本設計書/20200220リリース/SC-Z01_在庫照会.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD4C52A-1A38-4008-9BA6-B86BC744A7A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C51012-02BE-4EED-AD97-FB2671581482}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="437">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -3433,6 +3433,32 @@
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>シート名：在庫照会</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショウカイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ファイル名：在庫照会.xlsx</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショウカイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -4143,7 +4169,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="317">
+  <cellXfs count="318">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3"/>
@@ -4832,6 +4858,21 @@
     <xf numFmtId="0" fontId="22" fillId="7" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4841,6 +4882,91 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4868,90 +4994,11 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4976,12 +5023,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5052,19 +5093,7 @@
     <xf numFmtId="0" fontId="37" fillId="9" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5900,6 +5929,131 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>204711</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>90055</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="フローチャート: 書類 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{785638E9-B041-4778-89E7-F82900E4B7BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5276850" y="6305550"/>
+          <a:ext cx="880986" cy="547255"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDocument">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>EXCEL</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>2343</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>8725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>3791</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B95B961-9E34-4BEE-82AC-2CAFCE57FB43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="91" idx="2"/>
+          <a:endCxn id="11" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5717343" y="5704675"/>
+          <a:ext cx="1448" cy="600875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5933,7 +6087,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$47" spid="_x0000_s3542"/>
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$47" spid="_x0000_s3544"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6593,10 +6747,10 @@
             </xdr:nvGrpSpPr>
             <xdr:grpSpPr>
               <a:xfrm>
-                <a:off x="1823232" y="2648494"/>
-                <a:ext cx="777645" cy="485675"/>
-                <a:chOff x="191656" y="3012339"/>
-                <a:chExt cx="777645" cy="479486"/>
+                <a:off x="1823232" y="2648501"/>
+                <a:ext cx="777645" cy="485661"/>
+                <a:chOff x="191656" y="3012345"/>
+                <a:chExt cx="777645" cy="479472"/>
               </a:xfrm>
             </xdr:grpSpPr>
             <xdr:sp macro="" textlink="">
@@ -6615,7 +6769,7 @@
               </xdr:nvSpPr>
               <xdr:spPr bwMode="auto">
                 <a:xfrm>
-                  <a:off x="191656" y="3012339"/>
+                  <a:off x="191656" y="3012345"/>
                   <a:ext cx="777645" cy="164478"/>
                 </a:xfrm>
                 <a:prstGeom prst="rect">
@@ -6681,7 +6835,7 @@
               </xdr:nvSpPr>
               <xdr:spPr bwMode="auto">
                 <a:xfrm>
-                  <a:off x="196808" y="3340345"/>
+                  <a:off x="196808" y="3340337"/>
                   <a:ext cx="763862" cy="151480"/>
                 </a:xfrm>
                 <a:prstGeom prst="rect">
@@ -8068,108 +8222,108 @@
       <c r="AG31" s="3"/>
     </row>
     <row r="32" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="236" t="s">
+      <c r="A32" s="241" t="s">
         <v>205</v>
       </c>
-      <c r="B32" s="236"/>
-      <c r="C32" s="236"/>
-      <c r="D32" s="236"/>
-      <c r="E32" s="236"/>
-      <c r="F32" s="236"/>
-      <c r="G32" s="236"/>
-      <c r="H32" s="236"/>
-      <c r="I32" s="236"/>
-      <c r="J32" s="236"/>
-      <c r="K32" s="236"/>
-      <c r="L32" s="236"/>
-      <c r="M32" s="236"/>
-      <c r="N32" s="236"/>
-      <c r="O32" s="236"/>
-      <c r="P32" s="236"/>
-      <c r="Q32" s="236"/>
-      <c r="R32" s="236"/>
-      <c r="S32" s="236"/>
-      <c r="T32" s="236"/>
-      <c r="U32" s="236"/>
-      <c r="V32" s="236"/>
-      <c r="W32" s="236"/>
-      <c r="X32" s="236"/>
-      <c r="Y32" s="236"/>
-      <c r="Z32" s="236"/>
-      <c r="AA32" s="236"/>
-      <c r="AB32" s="236"/>
-      <c r="AC32" s="236"/>
-      <c r="AD32" s="236"/>
-      <c r="AE32" s="236"/>
-      <c r="AF32" s="236"/>
-      <c r="AG32" s="236"/>
-      <c r="AH32" s="236"/>
-      <c r="AI32" s="236"/>
-      <c r="AJ32" s="236"/>
-      <c r="AK32" s="236"/>
-      <c r="AL32" s="236"/>
-      <c r="AM32" s="236"/>
-      <c r="AN32" s="236"/>
-      <c r="AO32" s="236"/>
-      <c r="AP32" s="236"/>
-      <c r="AQ32" s="236"/>
-      <c r="AR32" s="236"/>
-      <c r="AS32" s="236"/>
-      <c r="AT32" s="236"/>
-      <c r="AU32" s="236"/>
-      <c r="AV32" s="236"/>
-      <c r="AW32" s="236"/>
+      <c r="B32" s="241"/>
+      <c r="C32" s="241"/>
+      <c r="D32" s="241"/>
+      <c r="E32" s="241"/>
+      <c r="F32" s="241"/>
+      <c r="G32" s="241"/>
+      <c r="H32" s="241"/>
+      <c r="I32" s="241"/>
+      <c r="J32" s="241"/>
+      <c r="K32" s="241"/>
+      <c r="L32" s="241"/>
+      <c r="M32" s="241"/>
+      <c r="N32" s="241"/>
+      <c r="O32" s="241"/>
+      <c r="P32" s="241"/>
+      <c r="Q32" s="241"/>
+      <c r="R32" s="241"/>
+      <c r="S32" s="241"/>
+      <c r="T32" s="241"/>
+      <c r="U32" s="241"/>
+      <c r="V32" s="241"/>
+      <c r="W32" s="241"/>
+      <c r="X32" s="241"/>
+      <c r="Y32" s="241"/>
+      <c r="Z32" s="241"/>
+      <c r="AA32" s="241"/>
+      <c r="AB32" s="241"/>
+      <c r="AC32" s="241"/>
+      <c r="AD32" s="241"/>
+      <c r="AE32" s="241"/>
+      <c r="AF32" s="241"/>
+      <c r="AG32" s="241"/>
+      <c r="AH32" s="241"/>
+      <c r="AI32" s="241"/>
+      <c r="AJ32" s="241"/>
+      <c r="AK32" s="241"/>
+      <c r="AL32" s="241"/>
+      <c r="AM32" s="241"/>
+      <c r="AN32" s="241"/>
+      <c r="AO32" s="241"/>
+      <c r="AP32" s="241"/>
+      <c r="AQ32" s="241"/>
+      <c r="AR32" s="241"/>
+      <c r="AS32" s="241"/>
+      <c r="AT32" s="241"/>
+      <c r="AU32" s="241"/>
+      <c r="AV32" s="241"/>
+      <c r="AW32" s="241"/>
     </row>
     <row r="33" spans="1:49" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A33" s="237"/>
-      <c r="B33" s="237"/>
-      <c r="C33" s="237"/>
-      <c r="D33" s="237"/>
-      <c r="E33" s="237"/>
-      <c r="F33" s="237"/>
-      <c r="G33" s="237"/>
-      <c r="H33" s="237"/>
-      <c r="I33" s="237"/>
-      <c r="J33" s="237"/>
-      <c r="K33" s="237"/>
-      <c r="L33" s="237"/>
-      <c r="M33" s="237"/>
-      <c r="N33" s="237"/>
-      <c r="O33" s="237"/>
-      <c r="P33" s="237"/>
-      <c r="Q33" s="237"/>
-      <c r="R33" s="237"/>
-      <c r="S33" s="237"/>
-      <c r="T33" s="237"/>
-      <c r="U33" s="237"/>
-      <c r="V33" s="237"/>
-      <c r="W33" s="237"/>
-      <c r="X33" s="237"/>
-      <c r="Y33" s="237"/>
-      <c r="Z33" s="237"/>
-      <c r="AA33" s="237"/>
-      <c r="AB33" s="237"/>
-      <c r="AC33" s="237"/>
-      <c r="AD33" s="237"/>
-      <c r="AE33" s="237"/>
-      <c r="AF33" s="237"/>
-      <c r="AG33" s="237"/>
-      <c r="AH33" s="237"/>
-      <c r="AI33" s="237"/>
-      <c r="AJ33" s="237"/>
-      <c r="AK33" s="237"/>
-      <c r="AL33" s="237"/>
-      <c r="AM33" s="237"/>
-      <c r="AN33" s="237"/>
-      <c r="AO33" s="237"/>
-      <c r="AP33" s="237"/>
-      <c r="AQ33" s="237"/>
-      <c r="AR33" s="237"/>
-      <c r="AS33" s="237"/>
-      <c r="AT33" s="237"/>
-      <c r="AU33" s="237"/>
-      <c r="AV33" s="237"/>
-      <c r="AW33" s="237"/>
+      <c r="A33" s="242"/>
+      <c r="B33" s="242"/>
+      <c r="C33" s="242"/>
+      <c r="D33" s="242"/>
+      <c r="E33" s="242"/>
+      <c r="F33" s="242"/>
+      <c r="G33" s="242"/>
+      <c r="H33" s="242"/>
+      <c r="I33" s="242"/>
+      <c r="J33" s="242"/>
+      <c r="K33" s="242"/>
+      <c r="L33" s="242"/>
+      <c r="M33" s="242"/>
+      <c r="N33" s="242"/>
+      <c r="O33" s="242"/>
+      <c r="P33" s="242"/>
+      <c r="Q33" s="242"/>
+      <c r="R33" s="242"/>
+      <c r="S33" s="242"/>
+      <c r="T33" s="242"/>
+      <c r="U33" s="242"/>
+      <c r="V33" s="242"/>
+      <c r="W33" s="242"/>
+      <c r="X33" s="242"/>
+      <c r="Y33" s="242"/>
+      <c r="Z33" s="242"/>
+      <c r="AA33" s="242"/>
+      <c r="AB33" s="242"/>
+      <c r="AC33" s="242"/>
+      <c r="AD33" s="242"/>
+      <c r="AE33" s="242"/>
+      <c r="AF33" s="242"/>
+      <c r="AG33" s="242"/>
+      <c r="AH33" s="242"/>
+      <c r="AI33" s="242"/>
+      <c r="AJ33" s="242"/>
+      <c r="AK33" s="242"/>
+      <c r="AL33" s="242"/>
+      <c r="AM33" s="242"/>
+      <c r="AN33" s="242"/>
+      <c r="AO33" s="242"/>
+      <c r="AP33" s="242"/>
+      <c r="AQ33" s="242"/>
+      <c r="AR33" s="242"/>
+      <c r="AS33" s="242"/>
+      <c r="AT33" s="242"/>
+      <c r="AU33" s="242"/>
+      <c r="AV33" s="242"/>
+      <c r="AW33" s="242"/>
     </row>
     <row r="34" spans="1:49" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
@@ -8207,55 +8361,55 @@
       <c r="AG34" s="4"/>
     </row>
     <row r="35" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="238"/>
-      <c r="B35" s="238"/>
-      <c r="C35" s="238"/>
-      <c r="D35" s="238"/>
-      <c r="E35" s="238"/>
-      <c r="F35" s="238"/>
-      <c r="G35" s="238"/>
-      <c r="H35" s="238"/>
-      <c r="I35" s="238"/>
-      <c r="J35" s="238"/>
-      <c r="K35" s="238"/>
-      <c r="L35" s="238"/>
-      <c r="M35" s="238"/>
-      <c r="N35" s="238"/>
-      <c r="O35" s="238"/>
-      <c r="P35" s="238"/>
-      <c r="Q35" s="238"/>
-      <c r="R35" s="238"/>
-      <c r="S35" s="238"/>
-      <c r="T35" s="238"/>
-      <c r="U35" s="238"/>
-      <c r="V35" s="238"/>
-      <c r="W35" s="238"/>
-      <c r="X35" s="238"/>
-      <c r="Y35" s="238"/>
-      <c r="Z35" s="238"/>
-      <c r="AA35" s="238"/>
-      <c r="AB35" s="238"/>
-      <c r="AC35" s="238"/>
-      <c r="AD35" s="238"/>
-      <c r="AE35" s="238"/>
-      <c r="AF35" s="238"/>
-      <c r="AG35" s="238"/>
-      <c r="AH35" s="238"/>
-      <c r="AI35" s="238"/>
-      <c r="AJ35" s="238"/>
-      <c r="AK35" s="238"/>
-      <c r="AL35" s="238"/>
-      <c r="AM35" s="238"/>
-      <c r="AN35" s="238"/>
-      <c r="AO35" s="238"/>
-      <c r="AP35" s="238"/>
-      <c r="AQ35" s="238"/>
-      <c r="AR35" s="238"/>
-      <c r="AS35" s="238"/>
-      <c r="AT35" s="238"/>
-      <c r="AU35" s="238"/>
-      <c r="AV35" s="238"/>
-      <c r="AW35" s="238"/>
+      <c r="A35" s="243"/>
+      <c r="B35" s="243"/>
+      <c r="C35" s="243"/>
+      <c r="D35" s="243"/>
+      <c r="E35" s="243"/>
+      <c r="F35" s="243"/>
+      <c r="G35" s="243"/>
+      <c r="H35" s="243"/>
+      <c r="I35" s="243"/>
+      <c r="J35" s="243"/>
+      <c r="K35" s="243"/>
+      <c r="L35" s="243"/>
+      <c r="M35" s="243"/>
+      <c r="N35" s="243"/>
+      <c r="O35" s="243"/>
+      <c r="P35" s="243"/>
+      <c r="Q35" s="243"/>
+      <c r="R35" s="243"/>
+      <c r="S35" s="243"/>
+      <c r="T35" s="243"/>
+      <c r="U35" s="243"/>
+      <c r="V35" s="243"/>
+      <c r="W35" s="243"/>
+      <c r="X35" s="243"/>
+      <c r="Y35" s="243"/>
+      <c r="Z35" s="243"/>
+      <c r="AA35" s="243"/>
+      <c r="AB35" s="243"/>
+      <c r="AC35" s="243"/>
+      <c r="AD35" s="243"/>
+      <c r="AE35" s="243"/>
+      <c r="AF35" s="243"/>
+      <c r="AG35" s="243"/>
+      <c r="AH35" s="243"/>
+      <c r="AI35" s="243"/>
+      <c r="AJ35" s="243"/>
+      <c r="AK35" s="243"/>
+      <c r="AL35" s="243"/>
+      <c r="AM35" s="243"/>
+      <c r="AN35" s="243"/>
+      <c r="AO35" s="243"/>
+      <c r="AP35" s="243"/>
+      <c r="AQ35" s="243"/>
+      <c r="AR35" s="243"/>
+      <c r="AS35" s="243"/>
+      <c r="AT35" s="243"/>
+      <c r="AU35" s="243"/>
+      <c r="AV35" s="243"/>
+      <c r="AW35" s="243"/>
     </row>
     <row r="42" spans="1:49" x14ac:dyDescent="0.15">
       <c r="P42" s="3" t="s">
@@ -8290,233 +8444,233 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="54"/>
-      <c r="B1" s="239" t="s">
+      <c r="B1" s="275" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
-      <c r="E1" s="239"/>
-      <c r="F1" s="239"/>
-      <c r="G1" s="239"/>
-      <c r="H1" s="239"/>
-      <c r="I1" s="239"/>
-      <c r="J1" s="239"/>
-      <c r="K1" s="239"/>
-      <c r="L1" s="239"/>
-      <c r="M1" s="239"/>
-      <c r="N1" s="239"/>
-      <c r="O1" s="239"/>
-      <c r="P1" s="239"/>
-      <c r="Q1" s="239"/>
-      <c r="R1" s="239"/>
-      <c r="S1" s="239"/>
-      <c r="T1" s="239"/>
-      <c r="U1" s="239"/>
-      <c r="V1" s="239"/>
-      <c r="W1" s="239"/>
-      <c r="X1" s="239"/>
-      <c r="Y1" s="239"/>
-      <c r="Z1" s="239"/>
-      <c r="AA1" s="239"/>
-      <c r="AB1" s="239"/>
-      <c r="AC1" s="239"/>
-      <c r="AD1" s="239"/>
-      <c r="AE1" s="239"/>
-      <c r="AF1" s="239"/>
-      <c r="AG1" s="239"/>
-      <c r="AH1" s="239"/>
-      <c r="AI1" s="239"/>
-      <c r="AJ1" s="239"/>
-      <c r="AK1" s="239"/>
-      <c r="AL1" s="239"/>
-      <c r="AM1" s="239"/>
-      <c r="AN1" s="239"/>
-      <c r="AO1" s="239"/>
-      <c r="AP1" s="239"/>
-      <c r="AQ1" s="239"/>
-      <c r="AR1" s="239"/>
-      <c r="AS1" s="239"/>
-      <c r="AT1" s="239"/>
-      <c r="AU1" s="239"/>
-      <c r="AV1" s="239"/>
-      <c r="AW1" s="239"/>
+      <c r="C1" s="275"/>
+      <c r="D1" s="275"/>
+      <c r="E1" s="275"/>
+      <c r="F1" s="275"/>
+      <c r="G1" s="275"/>
+      <c r="H1" s="275"/>
+      <c r="I1" s="275"/>
+      <c r="J1" s="275"/>
+      <c r="K1" s="275"/>
+      <c r="L1" s="275"/>
+      <c r="M1" s="275"/>
+      <c r="N1" s="275"/>
+      <c r="O1" s="275"/>
+      <c r="P1" s="275"/>
+      <c r="Q1" s="275"/>
+      <c r="R1" s="275"/>
+      <c r="S1" s="275"/>
+      <c r="T1" s="275"/>
+      <c r="U1" s="275"/>
+      <c r="V1" s="275"/>
+      <c r="W1" s="275"/>
+      <c r="X1" s="275"/>
+      <c r="Y1" s="275"/>
+      <c r="Z1" s="275"/>
+      <c r="AA1" s="275"/>
+      <c r="AB1" s="275"/>
+      <c r="AC1" s="275"/>
+      <c r="AD1" s="275"/>
+      <c r="AE1" s="275"/>
+      <c r="AF1" s="275"/>
+      <c r="AG1" s="275"/>
+      <c r="AH1" s="275"/>
+      <c r="AI1" s="275"/>
+      <c r="AJ1" s="275"/>
+      <c r="AK1" s="275"/>
+      <c r="AL1" s="275"/>
+      <c r="AM1" s="275"/>
+      <c r="AN1" s="275"/>
+      <c r="AO1" s="275"/>
+      <c r="AP1" s="275"/>
+      <c r="AQ1" s="275"/>
+      <c r="AR1" s="275"/>
+      <c r="AS1" s="275"/>
+      <c r="AT1" s="275"/>
+      <c r="AU1" s="275"/>
+      <c r="AV1" s="275"/>
+      <c r="AW1" s="275"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="54"/>
-      <c r="B2" s="240"/>
-      <c r="C2" s="240"/>
-      <c r="D2" s="240"/>
-      <c r="E2" s="240"/>
-      <c r="F2" s="240"/>
-      <c r="G2" s="240"/>
-      <c r="H2" s="240"/>
-      <c r="I2" s="240"/>
-      <c r="J2" s="240"/>
-      <c r="K2" s="240"/>
-      <c r="L2" s="240"/>
-      <c r="M2" s="240"/>
-      <c r="N2" s="240"/>
-      <c r="O2" s="240"/>
-      <c r="P2" s="240"/>
-      <c r="Q2" s="240"/>
-      <c r="R2" s="240"/>
-      <c r="S2" s="240"/>
-      <c r="T2" s="240"/>
-      <c r="U2" s="240"/>
-      <c r="V2" s="240"/>
-      <c r="W2" s="240"/>
-      <c r="X2" s="240"/>
-      <c r="Y2" s="240"/>
-      <c r="Z2" s="240"/>
-      <c r="AA2" s="240"/>
-      <c r="AB2" s="240"/>
-      <c r="AC2" s="240"/>
-      <c r="AD2" s="240"/>
-      <c r="AE2" s="240"/>
-      <c r="AF2" s="240"/>
-      <c r="AG2" s="240"/>
-      <c r="AH2" s="240"/>
-      <c r="AI2" s="240"/>
-      <c r="AJ2" s="240"/>
-      <c r="AK2" s="240"/>
-      <c r="AL2" s="240"/>
-      <c r="AM2" s="240"/>
-      <c r="AN2" s="240"/>
-      <c r="AO2" s="240"/>
-      <c r="AP2" s="240"/>
-      <c r="AQ2" s="240"/>
-      <c r="AR2" s="240"/>
-      <c r="AS2" s="240"/>
-      <c r="AT2" s="240"/>
-      <c r="AU2" s="240"/>
-      <c r="AV2" s="240"/>
-      <c r="AW2" s="240"/>
+      <c r="B2" s="276"/>
+      <c r="C2" s="276"/>
+      <c r="D2" s="276"/>
+      <c r="E2" s="276"/>
+      <c r="F2" s="276"/>
+      <c r="G2" s="276"/>
+      <c r="H2" s="276"/>
+      <c r="I2" s="276"/>
+      <c r="J2" s="276"/>
+      <c r="K2" s="276"/>
+      <c r="L2" s="276"/>
+      <c r="M2" s="276"/>
+      <c r="N2" s="276"/>
+      <c r="O2" s="276"/>
+      <c r="P2" s="276"/>
+      <c r="Q2" s="276"/>
+      <c r="R2" s="276"/>
+      <c r="S2" s="276"/>
+      <c r="T2" s="276"/>
+      <c r="U2" s="276"/>
+      <c r="V2" s="276"/>
+      <c r="W2" s="276"/>
+      <c r="X2" s="276"/>
+      <c r="Y2" s="276"/>
+      <c r="Z2" s="276"/>
+      <c r="AA2" s="276"/>
+      <c r="AB2" s="276"/>
+      <c r="AC2" s="276"/>
+      <c r="AD2" s="276"/>
+      <c r="AE2" s="276"/>
+      <c r="AF2" s="276"/>
+      <c r="AG2" s="276"/>
+      <c r="AH2" s="276"/>
+      <c r="AI2" s="276"/>
+      <c r="AJ2" s="276"/>
+      <c r="AK2" s="276"/>
+      <c r="AL2" s="276"/>
+      <c r="AM2" s="276"/>
+      <c r="AN2" s="276"/>
+      <c r="AO2" s="276"/>
+      <c r="AP2" s="276"/>
+      <c r="AQ2" s="276"/>
+      <c r="AR2" s="276"/>
+      <c r="AS2" s="276"/>
+      <c r="AT2" s="276"/>
+      <c r="AU2" s="276"/>
+      <c r="AV2" s="276"/>
+      <c r="AW2" s="276"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="54"/>
-      <c r="B3" s="241" t="s">
+      <c r="B3" s="277" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="241"/>
-      <c r="D3" s="241"/>
-      <c r="E3" s="241" t="s">
+      <c r="C3" s="277"/>
+      <c r="D3" s="277"/>
+      <c r="E3" s="277" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="241"/>
-      <c r="G3" s="241"/>
-      <c r="H3" s="241"/>
-      <c r="I3" s="241"/>
-      <c r="J3" s="242" t="s">
+      <c r="F3" s="277"/>
+      <c r="G3" s="277"/>
+      <c r="H3" s="277"/>
+      <c r="I3" s="277"/>
+      <c r="J3" s="278" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="243"/>
-      <c r="L3" s="244"/>
-      <c r="M3" s="242" t="s">
+      <c r="K3" s="279"/>
+      <c r="L3" s="280"/>
+      <c r="M3" s="278" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="243"/>
-      <c r="O3" s="243"/>
-      <c r="P3" s="243"/>
-      <c r="Q3" s="243"/>
-      <c r="R3" s="244"/>
-      <c r="S3" s="241" t="s">
+      <c r="N3" s="279"/>
+      <c r="O3" s="279"/>
+      <c r="P3" s="279"/>
+      <c r="Q3" s="279"/>
+      <c r="R3" s="280"/>
+      <c r="S3" s="277" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="241"/>
-      <c r="U3" s="241"/>
-      <c r="V3" s="241" t="s">
+      <c r="T3" s="277"/>
+      <c r="U3" s="277"/>
+      <c r="V3" s="277" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="241"/>
-      <c r="X3" s="241"/>
-      <c r="Y3" s="241"/>
-      <c r="Z3" s="241"/>
-      <c r="AA3" s="241"/>
-      <c r="AB3" s="241"/>
-      <c r="AC3" s="241"/>
-      <c r="AD3" s="241"/>
-      <c r="AE3" s="241"/>
-      <c r="AF3" s="241"/>
-      <c r="AG3" s="241"/>
-      <c r="AH3" s="241"/>
-      <c r="AI3" s="241"/>
-      <c r="AJ3" s="241"/>
-      <c r="AK3" s="241"/>
-      <c r="AL3" s="241"/>
-      <c r="AM3" s="241"/>
-      <c r="AN3" s="241" t="s">
+      <c r="W3" s="277"/>
+      <c r="X3" s="277"/>
+      <c r="Y3" s="277"/>
+      <c r="Z3" s="277"/>
+      <c r="AA3" s="277"/>
+      <c r="AB3" s="277"/>
+      <c r="AC3" s="277"/>
+      <c r="AD3" s="277"/>
+      <c r="AE3" s="277"/>
+      <c r="AF3" s="277"/>
+      <c r="AG3" s="277"/>
+      <c r="AH3" s="277"/>
+      <c r="AI3" s="277"/>
+      <c r="AJ3" s="277"/>
+      <c r="AK3" s="277"/>
+      <c r="AL3" s="277"/>
+      <c r="AM3" s="277"/>
+      <c r="AN3" s="277" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="241"/>
-      <c r="AP3" s="241"/>
-      <c r="AQ3" s="241"/>
-      <c r="AR3" s="241"/>
-      <c r="AS3" s="241" t="s">
+      <c r="AO3" s="277"/>
+      <c r="AP3" s="277"/>
+      <c r="AQ3" s="277"/>
+      <c r="AR3" s="277"/>
+      <c r="AS3" s="277" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="241"/>
-      <c r="AU3" s="241"/>
-      <c r="AV3" s="241"/>
-      <c r="AW3" s="241"/>
+      <c r="AT3" s="277"/>
+      <c r="AU3" s="277"/>
+      <c r="AV3" s="277"/>
+      <c r="AW3" s="277"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="54"/>
-      <c r="B4" s="241"/>
-      <c r="C4" s="241"/>
-      <c r="D4" s="241"/>
-      <c r="E4" s="241"/>
-      <c r="F4" s="241"/>
-      <c r="G4" s="241"/>
-      <c r="H4" s="241"/>
-      <c r="I4" s="241"/>
-      <c r="J4" s="245"/>
-      <c r="K4" s="246"/>
-      <c r="L4" s="247"/>
-      <c r="M4" s="245"/>
-      <c r="N4" s="246"/>
-      <c r="O4" s="246"/>
-      <c r="P4" s="246"/>
-      <c r="Q4" s="246"/>
-      <c r="R4" s="247"/>
-      <c r="S4" s="241"/>
-      <c r="T4" s="241"/>
-      <c r="U4" s="241"/>
-      <c r="V4" s="241"/>
-      <c r="W4" s="241"/>
-      <c r="X4" s="241"/>
-      <c r="Y4" s="241"/>
-      <c r="Z4" s="241"/>
-      <c r="AA4" s="241"/>
-      <c r="AB4" s="241"/>
-      <c r="AC4" s="241"/>
-      <c r="AD4" s="241"/>
-      <c r="AE4" s="241"/>
-      <c r="AF4" s="241"/>
-      <c r="AG4" s="241"/>
-      <c r="AH4" s="241"/>
-      <c r="AI4" s="241"/>
-      <c r="AJ4" s="241"/>
-      <c r="AK4" s="241"/>
-      <c r="AL4" s="241"/>
-      <c r="AM4" s="241"/>
-      <c r="AN4" s="241"/>
-      <c r="AO4" s="241"/>
-      <c r="AP4" s="241"/>
-      <c r="AQ4" s="241"/>
-      <c r="AR4" s="241"/>
-      <c r="AS4" s="241"/>
-      <c r="AT4" s="241"/>
-      <c r="AU4" s="241"/>
-      <c r="AV4" s="241"/>
-      <c r="AW4" s="241"/>
+      <c r="B4" s="277"/>
+      <c r="C4" s="277"/>
+      <c r="D4" s="277"/>
+      <c r="E4" s="277"/>
+      <c r="F4" s="277"/>
+      <c r="G4" s="277"/>
+      <c r="H4" s="277"/>
+      <c r="I4" s="277"/>
+      <c r="J4" s="281"/>
+      <c r="K4" s="282"/>
+      <c r="L4" s="283"/>
+      <c r="M4" s="281"/>
+      <c r="N4" s="282"/>
+      <c r="O4" s="282"/>
+      <c r="P4" s="282"/>
+      <c r="Q4" s="282"/>
+      <c r="R4" s="283"/>
+      <c r="S4" s="277"/>
+      <c r="T4" s="277"/>
+      <c r="U4" s="277"/>
+      <c r="V4" s="277"/>
+      <c r="W4" s="277"/>
+      <c r="X4" s="277"/>
+      <c r="Y4" s="277"/>
+      <c r="Z4" s="277"/>
+      <c r="AA4" s="277"/>
+      <c r="AB4" s="277"/>
+      <c r="AC4" s="277"/>
+      <c r="AD4" s="277"/>
+      <c r="AE4" s="277"/>
+      <c r="AF4" s="277"/>
+      <c r="AG4" s="277"/>
+      <c r="AH4" s="277"/>
+      <c r="AI4" s="277"/>
+      <c r="AJ4" s="277"/>
+      <c r="AK4" s="277"/>
+      <c r="AL4" s="277"/>
+      <c r="AM4" s="277"/>
+      <c r="AN4" s="277"/>
+      <c r="AO4" s="277"/>
+      <c r="AP4" s="277"/>
+      <c r="AQ4" s="277"/>
+      <c r="AR4" s="277"/>
+      <c r="AS4" s="277"/>
+      <c r="AT4" s="277"/>
+      <c r="AU4" s="277"/>
+      <c r="AV4" s="277"/>
+      <c r="AW4" s="277"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="56"/>
-      <c r="B5" s="249">
+      <c r="B5" s="269">
         <v>1</v>
       </c>
-      <c r="C5" s="249"/>
-      <c r="D5" s="249"/>
+      <c r="C5" s="269"/>
+      <c r="D5" s="269"/>
       <c r="E5" s="250">
         <v>43734</v>
       </c>
@@ -8537,49 +8691,49 @@
       <c r="P5" s="252"/>
       <c r="Q5" s="252"/>
       <c r="R5" s="253"/>
-      <c r="S5" s="248" t="s">
+      <c r="S5" s="257" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="248"/>
-      <c r="U5" s="248"/>
-      <c r="V5" s="257" t="s">
+      <c r="T5" s="257"/>
+      <c r="U5" s="257"/>
+      <c r="V5" s="268" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="257"/>
-      <c r="X5" s="257"/>
-      <c r="Y5" s="257"/>
-      <c r="Z5" s="257"/>
-      <c r="AA5" s="257"/>
-      <c r="AB5" s="257"/>
-      <c r="AC5" s="257"/>
-      <c r="AD5" s="257"/>
-      <c r="AE5" s="257"/>
-      <c r="AF5" s="257"/>
-      <c r="AG5" s="257"/>
-      <c r="AH5" s="257"/>
-      <c r="AI5" s="257"/>
-      <c r="AJ5" s="257"/>
-      <c r="AK5" s="257"/>
-      <c r="AL5" s="257"/>
-      <c r="AM5" s="257"/>
-      <c r="AN5" s="248" t="s">
+      <c r="W5" s="268"/>
+      <c r="X5" s="268"/>
+      <c r="Y5" s="268"/>
+      <c r="Z5" s="268"/>
+      <c r="AA5" s="268"/>
+      <c r="AB5" s="268"/>
+      <c r="AC5" s="268"/>
+      <c r="AD5" s="268"/>
+      <c r="AE5" s="268"/>
+      <c r="AF5" s="268"/>
+      <c r="AG5" s="268"/>
+      <c r="AH5" s="268"/>
+      <c r="AI5" s="268"/>
+      <c r="AJ5" s="268"/>
+      <c r="AK5" s="268"/>
+      <c r="AL5" s="268"/>
+      <c r="AM5" s="268"/>
+      <c r="AN5" s="257" t="s">
         <v>189</v>
       </c>
-      <c r="AO5" s="248"/>
-      <c r="AP5" s="248"/>
-      <c r="AQ5" s="248"/>
-      <c r="AR5" s="248"/>
-      <c r="AS5" s="248"/>
-      <c r="AT5" s="248"/>
-      <c r="AU5" s="248"/>
-      <c r="AV5" s="248"/>
-      <c r="AW5" s="248"/>
+      <c r="AO5" s="257"/>
+      <c r="AP5" s="257"/>
+      <c r="AQ5" s="257"/>
+      <c r="AR5" s="257"/>
+      <c r="AS5" s="257"/>
+      <c r="AT5" s="257"/>
+      <c r="AU5" s="257"/>
+      <c r="AV5" s="257"/>
+      <c r="AW5" s="257"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="56"/>
-      <c r="B6" s="249"/>
-      <c r="C6" s="249"/>
-      <c r="D6" s="249"/>
+      <c r="B6" s="269"/>
+      <c r="C6" s="269"/>
+      <c r="D6" s="269"/>
       <c r="E6" s="250"/>
       <c r="F6" s="250"/>
       <c r="G6" s="250"/>
@@ -8588,49 +8742,49 @@
       <c r="J6" s="251"/>
       <c r="K6" s="252"/>
       <c r="L6" s="253"/>
-      <c r="M6" s="254"/>
-      <c r="N6" s="255"/>
-      <c r="O6" s="255"/>
-      <c r="P6" s="255"/>
-      <c r="Q6" s="255"/>
-      <c r="R6" s="256"/>
-      <c r="S6" s="248"/>
-      <c r="T6" s="248"/>
-      <c r="U6" s="248"/>
-      <c r="V6" s="257"/>
-      <c r="W6" s="257"/>
-      <c r="X6" s="257"/>
-      <c r="Y6" s="257"/>
-      <c r="Z6" s="257"/>
-      <c r="AA6" s="257"/>
-      <c r="AB6" s="257"/>
-      <c r="AC6" s="257"/>
-      <c r="AD6" s="257"/>
-      <c r="AE6" s="257"/>
-      <c r="AF6" s="257"/>
-      <c r="AG6" s="257"/>
-      <c r="AH6" s="257"/>
-      <c r="AI6" s="257"/>
-      <c r="AJ6" s="257"/>
-      <c r="AK6" s="257"/>
-      <c r="AL6" s="257"/>
-      <c r="AM6" s="257"/>
-      <c r="AN6" s="248"/>
-      <c r="AO6" s="248"/>
-      <c r="AP6" s="248"/>
-      <c r="AQ6" s="248"/>
-      <c r="AR6" s="248"/>
-      <c r="AS6" s="248"/>
-      <c r="AT6" s="248"/>
-      <c r="AU6" s="248"/>
-      <c r="AV6" s="248"/>
-      <c r="AW6" s="248"/>
+      <c r="M6" s="272"/>
+      <c r="N6" s="273"/>
+      <c r="O6" s="273"/>
+      <c r="P6" s="273"/>
+      <c r="Q6" s="273"/>
+      <c r="R6" s="274"/>
+      <c r="S6" s="257"/>
+      <c r="T6" s="257"/>
+      <c r="U6" s="257"/>
+      <c r="V6" s="268"/>
+      <c r="W6" s="268"/>
+      <c r="X6" s="268"/>
+      <c r="Y6" s="268"/>
+      <c r="Z6" s="268"/>
+      <c r="AA6" s="268"/>
+      <c r="AB6" s="268"/>
+      <c r="AC6" s="268"/>
+      <c r="AD6" s="268"/>
+      <c r="AE6" s="268"/>
+      <c r="AF6" s="268"/>
+      <c r="AG6" s="268"/>
+      <c r="AH6" s="268"/>
+      <c r="AI6" s="268"/>
+      <c r="AJ6" s="268"/>
+      <c r="AK6" s="268"/>
+      <c r="AL6" s="268"/>
+      <c r="AM6" s="268"/>
+      <c r="AN6" s="257"/>
+      <c r="AO6" s="257"/>
+      <c r="AP6" s="257"/>
+      <c r="AQ6" s="257"/>
+      <c r="AR6" s="257"/>
+      <c r="AS6" s="257"/>
+      <c r="AT6" s="257"/>
+      <c r="AU6" s="257"/>
+      <c r="AV6" s="257"/>
+      <c r="AW6" s="257"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="56"/>
-      <c r="B7" s="249"/>
-      <c r="C7" s="249"/>
-      <c r="D7" s="249"/>
+      <c r="B7" s="269"/>
+      <c r="C7" s="269"/>
+      <c r="D7" s="269"/>
       <c r="E7" s="250"/>
       <c r="F7" s="250"/>
       <c r="G7" s="250"/>
@@ -8639,49 +8793,49 @@
       <c r="J7" s="251"/>
       <c r="K7" s="252"/>
       <c r="L7" s="253"/>
-      <c r="M7" s="254"/>
-      <c r="N7" s="255"/>
-      <c r="O7" s="255"/>
-      <c r="P7" s="255"/>
-      <c r="Q7" s="255"/>
-      <c r="R7" s="256"/>
-      <c r="S7" s="248"/>
-      <c r="T7" s="248"/>
-      <c r="U7" s="248"/>
-      <c r="V7" s="257"/>
-      <c r="W7" s="257"/>
-      <c r="X7" s="257"/>
-      <c r="Y7" s="257"/>
-      <c r="Z7" s="257"/>
-      <c r="AA7" s="257"/>
-      <c r="AB7" s="257"/>
-      <c r="AC7" s="257"/>
-      <c r="AD7" s="257"/>
-      <c r="AE7" s="257"/>
-      <c r="AF7" s="257"/>
-      <c r="AG7" s="257"/>
-      <c r="AH7" s="257"/>
-      <c r="AI7" s="257"/>
-      <c r="AJ7" s="257"/>
-      <c r="AK7" s="257"/>
-      <c r="AL7" s="257"/>
-      <c r="AM7" s="257"/>
-      <c r="AN7" s="248"/>
-      <c r="AO7" s="248"/>
-      <c r="AP7" s="248"/>
-      <c r="AQ7" s="248"/>
-      <c r="AR7" s="248"/>
-      <c r="AS7" s="248"/>
-      <c r="AT7" s="248"/>
-      <c r="AU7" s="248"/>
-      <c r="AV7" s="248"/>
-      <c r="AW7" s="248"/>
+      <c r="M7" s="272"/>
+      <c r="N7" s="273"/>
+      <c r="O7" s="273"/>
+      <c r="P7" s="273"/>
+      <c r="Q7" s="273"/>
+      <c r="R7" s="274"/>
+      <c r="S7" s="257"/>
+      <c r="T7" s="257"/>
+      <c r="U7" s="257"/>
+      <c r="V7" s="268"/>
+      <c r="W7" s="268"/>
+      <c r="X7" s="268"/>
+      <c r="Y7" s="268"/>
+      <c r="Z7" s="268"/>
+      <c r="AA7" s="268"/>
+      <c r="AB7" s="268"/>
+      <c r="AC7" s="268"/>
+      <c r="AD7" s="268"/>
+      <c r="AE7" s="268"/>
+      <c r="AF7" s="268"/>
+      <c r="AG7" s="268"/>
+      <c r="AH7" s="268"/>
+      <c r="AI7" s="268"/>
+      <c r="AJ7" s="268"/>
+      <c r="AK7" s="268"/>
+      <c r="AL7" s="268"/>
+      <c r="AM7" s="268"/>
+      <c r="AN7" s="257"/>
+      <c r="AO7" s="257"/>
+      <c r="AP7" s="257"/>
+      <c r="AQ7" s="257"/>
+      <c r="AR7" s="257"/>
+      <c r="AS7" s="257"/>
+      <c r="AT7" s="257"/>
+      <c r="AU7" s="257"/>
+      <c r="AV7" s="257"/>
+      <c r="AW7" s="257"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="56"/>
-      <c r="B8" s="249"/>
-      <c r="C8" s="249"/>
-      <c r="D8" s="249"/>
+      <c r="B8" s="269"/>
+      <c r="C8" s="269"/>
+      <c r="D8" s="269"/>
       <c r="E8" s="250"/>
       <c r="F8" s="250"/>
       <c r="G8" s="250"/>
@@ -8690,49 +8844,49 @@
       <c r="J8" s="251"/>
       <c r="K8" s="252"/>
       <c r="L8" s="253"/>
-      <c r="M8" s="254"/>
-      <c r="N8" s="255"/>
-      <c r="O8" s="255"/>
-      <c r="P8" s="255"/>
-      <c r="Q8" s="255"/>
-      <c r="R8" s="256"/>
-      <c r="S8" s="248"/>
-      <c r="T8" s="248"/>
-      <c r="U8" s="248"/>
-      <c r="V8" s="257"/>
-      <c r="W8" s="257"/>
-      <c r="X8" s="257"/>
-      <c r="Y8" s="257"/>
-      <c r="Z8" s="257"/>
-      <c r="AA8" s="257"/>
-      <c r="AB8" s="257"/>
-      <c r="AC8" s="257"/>
-      <c r="AD8" s="257"/>
-      <c r="AE8" s="257"/>
-      <c r="AF8" s="257"/>
-      <c r="AG8" s="257"/>
-      <c r="AH8" s="257"/>
-      <c r="AI8" s="257"/>
-      <c r="AJ8" s="257"/>
-      <c r="AK8" s="257"/>
-      <c r="AL8" s="257"/>
-      <c r="AM8" s="257"/>
-      <c r="AN8" s="248"/>
-      <c r="AO8" s="248"/>
-      <c r="AP8" s="248"/>
-      <c r="AQ8" s="248"/>
-      <c r="AR8" s="248"/>
-      <c r="AS8" s="248"/>
-      <c r="AT8" s="248"/>
-      <c r="AU8" s="248"/>
-      <c r="AV8" s="248"/>
-      <c r="AW8" s="248"/>
+      <c r="M8" s="272"/>
+      <c r="N8" s="273"/>
+      <c r="O8" s="273"/>
+      <c r="P8" s="273"/>
+      <c r="Q8" s="273"/>
+      <c r="R8" s="274"/>
+      <c r="S8" s="257"/>
+      <c r="T8" s="257"/>
+      <c r="U8" s="257"/>
+      <c r="V8" s="268"/>
+      <c r="W8" s="268"/>
+      <c r="X8" s="268"/>
+      <c r="Y8" s="268"/>
+      <c r="Z8" s="268"/>
+      <c r="AA8" s="268"/>
+      <c r="AB8" s="268"/>
+      <c r="AC8" s="268"/>
+      <c r="AD8" s="268"/>
+      <c r="AE8" s="268"/>
+      <c r="AF8" s="268"/>
+      <c r="AG8" s="268"/>
+      <c r="AH8" s="268"/>
+      <c r="AI8" s="268"/>
+      <c r="AJ8" s="268"/>
+      <c r="AK8" s="268"/>
+      <c r="AL8" s="268"/>
+      <c r="AM8" s="268"/>
+      <c r="AN8" s="257"/>
+      <c r="AO8" s="257"/>
+      <c r="AP8" s="257"/>
+      <c r="AQ8" s="257"/>
+      <c r="AR8" s="257"/>
+      <c r="AS8" s="257"/>
+      <c r="AT8" s="257"/>
+      <c r="AU8" s="257"/>
+      <c r="AV8" s="257"/>
+      <c r="AW8" s="257"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="56"/>
-      <c r="B9" s="249"/>
-      <c r="C9" s="249"/>
-      <c r="D9" s="249"/>
+      <c r="B9" s="269"/>
+      <c r="C9" s="269"/>
+      <c r="D9" s="269"/>
       <c r="E9" s="250"/>
       <c r="F9" s="250"/>
       <c r="G9" s="250"/>
@@ -8741,49 +8895,49 @@
       <c r="J9" s="251"/>
       <c r="K9" s="252"/>
       <c r="L9" s="253"/>
-      <c r="M9" s="254"/>
-      <c r="N9" s="255"/>
-      <c r="O9" s="255"/>
-      <c r="P9" s="255"/>
-      <c r="Q9" s="255"/>
-      <c r="R9" s="256"/>
-      <c r="S9" s="248"/>
-      <c r="T9" s="248"/>
-      <c r="U9" s="248"/>
-      <c r="V9" s="257"/>
-      <c r="W9" s="257"/>
-      <c r="X9" s="257"/>
-      <c r="Y9" s="257"/>
-      <c r="Z9" s="257"/>
-      <c r="AA9" s="257"/>
-      <c r="AB9" s="257"/>
-      <c r="AC9" s="257"/>
-      <c r="AD9" s="257"/>
-      <c r="AE9" s="257"/>
-      <c r="AF9" s="257"/>
-      <c r="AG9" s="257"/>
-      <c r="AH9" s="257"/>
-      <c r="AI9" s="257"/>
-      <c r="AJ9" s="257"/>
-      <c r="AK9" s="257"/>
-      <c r="AL9" s="257"/>
-      <c r="AM9" s="257"/>
-      <c r="AN9" s="248"/>
-      <c r="AO9" s="248"/>
-      <c r="AP9" s="248"/>
-      <c r="AQ9" s="248"/>
-      <c r="AR9" s="248"/>
-      <c r="AS9" s="248"/>
-      <c r="AT9" s="248"/>
-      <c r="AU9" s="248"/>
-      <c r="AV9" s="248"/>
-      <c r="AW9" s="248"/>
+      <c r="M9" s="272"/>
+      <c r="N9" s="273"/>
+      <c r="O9" s="273"/>
+      <c r="P9" s="273"/>
+      <c r="Q9" s="273"/>
+      <c r="R9" s="274"/>
+      <c r="S9" s="257"/>
+      <c r="T9" s="257"/>
+      <c r="U9" s="257"/>
+      <c r="V9" s="268"/>
+      <c r="W9" s="268"/>
+      <c r="X9" s="268"/>
+      <c r="Y9" s="268"/>
+      <c r="Z9" s="268"/>
+      <c r="AA9" s="268"/>
+      <c r="AB9" s="268"/>
+      <c r="AC9" s="268"/>
+      <c r="AD9" s="268"/>
+      <c r="AE9" s="268"/>
+      <c r="AF9" s="268"/>
+      <c r="AG9" s="268"/>
+      <c r="AH9" s="268"/>
+      <c r="AI9" s="268"/>
+      <c r="AJ9" s="268"/>
+      <c r="AK9" s="268"/>
+      <c r="AL9" s="268"/>
+      <c r="AM9" s="268"/>
+      <c r="AN9" s="257"/>
+      <c r="AO9" s="257"/>
+      <c r="AP9" s="257"/>
+      <c r="AQ9" s="257"/>
+      <c r="AR9" s="257"/>
+      <c r="AS9" s="257"/>
+      <c r="AT9" s="257"/>
+      <c r="AU9" s="257"/>
+      <c r="AV9" s="257"/>
+      <c r="AW9" s="257"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="56"/>
-      <c r="B10" s="249"/>
-      <c r="C10" s="249"/>
-      <c r="D10" s="249"/>
+      <c r="B10" s="269"/>
+      <c r="C10" s="269"/>
+      <c r="D10" s="269"/>
       <c r="E10" s="250"/>
       <c r="F10" s="250"/>
       <c r="G10" s="250"/>
@@ -8792,49 +8946,49 @@
       <c r="J10" s="251"/>
       <c r="K10" s="252"/>
       <c r="L10" s="253"/>
-      <c r="M10" s="254"/>
-      <c r="N10" s="255"/>
-      <c r="O10" s="255"/>
-      <c r="P10" s="255"/>
-      <c r="Q10" s="255"/>
-      <c r="R10" s="256"/>
-      <c r="S10" s="248"/>
-      <c r="T10" s="248"/>
-      <c r="U10" s="248"/>
-      <c r="V10" s="257"/>
-      <c r="W10" s="257"/>
-      <c r="X10" s="257"/>
-      <c r="Y10" s="257"/>
-      <c r="Z10" s="257"/>
-      <c r="AA10" s="257"/>
-      <c r="AB10" s="257"/>
-      <c r="AC10" s="257"/>
-      <c r="AD10" s="257"/>
-      <c r="AE10" s="257"/>
-      <c r="AF10" s="257"/>
-      <c r="AG10" s="257"/>
-      <c r="AH10" s="257"/>
-      <c r="AI10" s="257"/>
-      <c r="AJ10" s="257"/>
-      <c r="AK10" s="257"/>
-      <c r="AL10" s="257"/>
-      <c r="AM10" s="257"/>
-      <c r="AN10" s="248"/>
-      <c r="AO10" s="248"/>
-      <c r="AP10" s="248"/>
-      <c r="AQ10" s="248"/>
-      <c r="AR10" s="248"/>
-      <c r="AS10" s="248"/>
-      <c r="AT10" s="248"/>
-      <c r="AU10" s="248"/>
-      <c r="AV10" s="248"/>
-      <c r="AW10" s="248"/>
+      <c r="M10" s="272"/>
+      <c r="N10" s="273"/>
+      <c r="O10" s="273"/>
+      <c r="P10" s="273"/>
+      <c r="Q10" s="273"/>
+      <c r="R10" s="274"/>
+      <c r="S10" s="257"/>
+      <c r="T10" s="257"/>
+      <c r="U10" s="257"/>
+      <c r="V10" s="268"/>
+      <c r="W10" s="268"/>
+      <c r="X10" s="268"/>
+      <c r="Y10" s="268"/>
+      <c r="Z10" s="268"/>
+      <c r="AA10" s="268"/>
+      <c r="AB10" s="268"/>
+      <c r="AC10" s="268"/>
+      <c r="AD10" s="268"/>
+      <c r="AE10" s="268"/>
+      <c r="AF10" s="268"/>
+      <c r="AG10" s="268"/>
+      <c r="AH10" s="268"/>
+      <c r="AI10" s="268"/>
+      <c r="AJ10" s="268"/>
+      <c r="AK10" s="268"/>
+      <c r="AL10" s="268"/>
+      <c r="AM10" s="268"/>
+      <c r="AN10" s="257"/>
+      <c r="AO10" s="257"/>
+      <c r="AP10" s="257"/>
+      <c r="AQ10" s="257"/>
+      <c r="AR10" s="257"/>
+      <c r="AS10" s="257"/>
+      <c r="AT10" s="257"/>
+      <c r="AU10" s="257"/>
+      <c r="AV10" s="257"/>
+      <c r="AW10" s="257"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="56"/>
-      <c r="B11" s="249"/>
-      <c r="C11" s="249"/>
-      <c r="D11" s="249"/>
+      <c r="B11" s="269"/>
+      <c r="C11" s="269"/>
+      <c r="D11" s="269"/>
       <c r="E11" s="250"/>
       <c r="F11" s="250"/>
       <c r="G11" s="250"/>
@@ -8843,16 +8997,16 @@
       <c r="J11" s="251"/>
       <c r="K11" s="252"/>
       <c r="L11" s="253"/>
-      <c r="M11" s="261"/>
+      <c r="M11" s="264"/>
       <c r="N11" s="262"/>
       <c r="O11" s="262"/>
       <c r="P11" s="262"/>
       <c r="Q11" s="262"/>
       <c r="R11" s="263"/>
-      <c r="S11" s="248"/>
-      <c r="T11" s="248"/>
-      <c r="U11" s="248"/>
-      <c r="V11" s="264"/>
+      <c r="S11" s="257"/>
+      <c r="T11" s="257"/>
+      <c r="U11" s="257"/>
+      <c r="V11" s="258"/>
       <c r="W11" s="270"/>
       <c r="X11" s="270"/>
       <c r="Y11" s="270"/>
@@ -8870,22 +9024,22 @@
       <c r="AK11" s="270"/>
       <c r="AL11" s="270"/>
       <c r="AM11" s="271"/>
-      <c r="AN11" s="248"/>
-      <c r="AO11" s="248"/>
-      <c r="AP11" s="248"/>
-      <c r="AQ11" s="248"/>
-      <c r="AR11" s="248"/>
-      <c r="AS11" s="248"/>
-      <c r="AT11" s="248"/>
-      <c r="AU11" s="248"/>
-      <c r="AV11" s="248"/>
-      <c r="AW11" s="248"/>
+      <c r="AN11" s="257"/>
+      <c r="AO11" s="257"/>
+      <c r="AP11" s="257"/>
+      <c r="AQ11" s="257"/>
+      <c r="AR11" s="257"/>
+      <c r="AS11" s="257"/>
+      <c r="AT11" s="257"/>
+      <c r="AU11" s="257"/>
+      <c r="AV11" s="257"/>
+      <c r="AW11" s="257"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="56"/>
-      <c r="B12" s="258"/>
-      <c r="C12" s="259"/>
-      <c r="D12" s="260"/>
+      <c r="B12" s="247"/>
+      <c r="C12" s="248"/>
+      <c r="D12" s="249"/>
       <c r="E12" s="250"/>
       <c r="F12" s="250"/>
       <c r="G12" s="250"/>
@@ -8894,49 +9048,49 @@
       <c r="J12" s="251"/>
       <c r="K12" s="252"/>
       <c r="L12" s="253"/>
-      <c r="M12" s="261"/>
+      <c r="M12" s="264"/>
       <c r="N12" s="262"/>
       <c r="O12" s="262"/>
       <c r="P12" s="262"/>
       <c r="Q12" s="262"/>
       <c r="R12" s="263"/>
-      <c r="S12" s="248"/>
-      <c r="T12" s="248"/>
-      <c r="U12" s="248"/>
-      <c r="V12" s="264"/>
-      <c r="W12" s="265"/>
-      <c r="X12" s="265"/>
-      <c r="Y12" s="265"/>
-      <c r="Z12" s="265"/>
-      <c r="AA12" s="265"/>
-      <c r="AB12" s="265"/>
-      <c r="AC12" s="265"/>
-      <c r="AD12" s="265"/>
-      <c r="AE12" s="265"/>
-      <c r="AF12" s="265"/>
-      <c r="AG12" s="265"/>
-      <c r="AH12" s="265"/>
-      <c r="AI12" s="265"/>
-      <c r="AJ12" s="265"/>
-      <c r="AK12" s="265"/>
-      <c r="AL12" s="265"/>
-      <c r="AM12" s="266"/>
-      <c r="AN12" s="267"/>
-      <c r="AO12" s="268"/>
-      <c r="AP12" s="268"/>
-      <c r="AQ12" s="268"/>
-      <c r="AR12" s="269"/>
-      <c r="AS12" s="267"/>
-      <c r="AT12" s="268"/>
-      <c r="AU12" s="268"/>
-      <c r="AV12" s="268"/>
-      <c r="AW12" s="269"/>
+      <c r="S12" s="257"/>
+      <c r="T12" s="257"/>
+      <c r="U12" s="257"/>
+      <c r="V12" s="258"/>
+      <c r="W12" s="259"/>
+      <c r="X12" s="259"/>
+      <c r="Y12" s="259"/>
+      <c r="Z12" s="259"/>
+      <c r="AA12" s="259"/>
+      <c r="AB12" s="259"/>
+      <c r="AC12" s="259"/>
+      <c r="AD12" s="259"/>
+      <c r="AE12" s="259"/>
+      <c r="AF12" s="259"/>
+      <c r="AG12" s="259"/>
+      <c r="AH12" s="259"/>
+      <c r="AI12" s="259"/>
+      <c r="AJ12" s="259"/>
+      <c r="AK12" s="259"/>
+      <c r="AL12" s="259"/>
+      <c r="AM12" s="260"/>
+      <c r="AN12" s="244"/>
+      <c r="AO12" s="245"/>
+      <c r="AP12" s="245"/>
+      <c r="AQ12" s="245"/>
+      <c r="AR12" s="246"/>
+      <c r="AS12" s="244"/>
+      <c r="AT12" s="245"/>
+      <c r="AU12" s="245"/>
+      <c r="AV12" s="245"/>
+      <c r="AW12" s="246"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="56"/>
-      <c r="B13" s="258"/>
-      <c r="C13" s="259"/>
-      <c r="D13" s="260"/>
+      <c r="B13" s="247"/>
+      <c r="C13" s="248"/>
+      <c r="D13" s="249"/>
       <c r="E13" s="250"/>
       <c r="F13" s="250"/>
       <c r="G13" s="250"/>
@@ -8945,49 +9099,49 @@
       <c r="J13" s="251"/>
       <c r="K13" s="252"/>
       <c r="L13" s="253"/>
-      <c r="M13" s="272"/>
+      <c r="M13" s="261"/>
       <c r="N13" s="262"/>
       <c r="O13" s="262"/>
       <c r="P13" s="262"/>
       <c r="Q13" s="262"/>
       <c r="R13" s="263"/>
-      <c r="S13" s="248"/>
-      <c r="T13" s="248"/>
-      <c r="U13" s="248"/>
-      <c r="V13" s="264"/>
-      <c r="W13" s="265"/>
-      <c r="X13" s="265"/>
-      <c r="Y13" s="265"/>
-      <c r="Z13" s="265"/>
-      <c r="AA13" s="265"/>
-      <c r="AB13" s="265"/>
-      <c r="AC13" s="265"/>
-      <c r="AD13" s="265"/>
-      <c r="AE13" s="265"/>
-      <c r="AF13" s="265"/>
-      <c r="AG13" s="265"/>
-      <c r="AH13" s="265"/>
-      <c r="AI13" s="265"/>
-      <c r="AJ13" s="265"/>
-      <c r="AK13" s="265"/>
-      <c r="AL13" s="265"/>
-      <c r="AM13" s="266"/>
-      <c r="AN13" s="267"/>
-      <c r="AO13" s="268"/>
-      <c r="AP13" s="268"/>
-      <c r="AQ13" s="268"/>
-      <c r="AR13" s="269"/>
-      <c r="AS13" s="267"/>
-      <c r="AT13" s="268"/>
-      <c r="AU13" s="268"/>
-      <c r="AV13" s="268"/>
-      <c r="AW13" s="269"/>
+      <c r="S13" s="257"/>
+      <c r="T13" s="257"/>
+      <c r="U13" s="257"/>
+      <c r="V13" s="258"/>
+      <c r="W13" s="259"/>
+      <c r="X13" s="259"/>
+      <c r="Y13" s="259"/>
+      <c r="Z13" s="259"/>
+      <c r="AA13" s="259"/>
+      <c r="AB13" s="259"/>
+      <c r="AC13" s="259"/>
+      <c r="AD13" s="259"/>
+      <c r="AE13" s="259"/>
+      <c r="AF13" s="259"/>
+      <c r="AG13" s="259"/>
+      <c r="AH13" s="259"/>
+      <c r="AI13" s="259"/>
+      <c r="AJ13" s="259"/>
+      <c r="AK13" s="259"/>
+      <c r="AL13" s="259"/>
+      <c r="AM13" s="260"/>
+      <c r="AN13" s="244"/>
+      <c r="AO13" s="245"/>
+      <c r="AP13" s="245"/>
+      <c r="AQ13" s="245"/>
+      <c r="AR13" s="246"/>
+      <c r="AS13" s="244"/>
+      <c r="AT13" s="245"/>
+      <c r="AU13" s="245"/>
+      <c r="AV13" s="245"/>
+      <c r="AW13" s="246"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="56"/>
-      <c r="B14" s="258"/>
-      <c r="C14" s="259"/>
-      <c r="D14" s="260"/>
+      <c r="B14" s="247"/>
+      <c r="C14" s="248"/>
+      <c r="D14" s="249"/>
       <c r="E14" s="250"/>
       <c r="F14" s="250"/>
       <c r="G14" s="250"/>
@@ -8996,49 +9150,49 @@
       <c r="J14" s="251"/>
       <c r="K14" s="252"/>
       <c r="L14" s="253"/>
-      <c r="M14" s="272"/>
+      <c r="M14" s="261"/>
       <c r="N14" s="262"/>
       <c r="O14" s="262"/>
       <c r="P14" s="262"/>
       <c r="Q14" s="262"/>
       <c r="R14" s="263"/>
-      <c r="S14" s="248"/>
-      <c r="T14" s="248"/>
-      <c r="U14" s="248"/>
-      <c r="V14" s="273"/>
-      <c r="W14" s="257"/>
-      <c r="X14" s="257"/>
-      <c r="Y14" s="257"/>
-      <c r="Z14" s="257"/>
-      <c r="AA14" s="257"/>
-      <c r="AB14" s="257"/>
-      <c r="AC14" s="257"/>
-      <c r="AD14" s="257"/>
-      <c r="AE14" s="257"/>
-      <c r="AF14" s="257"/>
-      <c r="AG14" s="257"/>
-      <c r="AH14" s="257"/>
-      <c r="AI14" s="257"/>
-      <c r="AJ14" s="257"/>
-      <c r="AK14" s="257"/>
-      <c r="AL14" s="257"/>
-      <c r="AM14" s="257"/>
-      <c r="AN14" s="248"/>
-      <c r="AO14" s="248"/>
-      <c r="AP14" s="248"/>
-      <c r="AQ14" s="248"/>
-      <c r="AR14" s="248"/>
-      <c r="AS14" s="267"/>
-      <c r="AT14" s="268"/>
-      <c r="AU14" s="268"/>
-      <c r="AV14" s="268"/>
-      <c r="AW14" s="269"/>
+      <c r="S14" s="257"/>
+      <c r="T14" s="257"/>
+      <c r="U14" s="257"/>
+      <c r="V14" s="267"/>
+      <c r="W14" s="268"/>
+      <c r="X14" s="268"/>
+      <c r="Y14" s="268"/>
+      <c r="Z14" s="268"/>
+      <c r="AA14" s="268"/>
+      <c r="AB14" s="268"/>
+      <c r="AC14" s="268"/>
+      <c r="AD14" s="268"/>
+      <c r="AE14" s="268"/>
+      <c r="AF14" s="268"/>
+      <c r="AG14" s="268"/>
+      <c r="AH14" s="268"/>
+      <c r="AI14" s="268"/>
+      <c r="AJ14" s="268"/>
+      <c r="AK14" s="268"/>
+      <c r="AL14" s="268"/>
+      <c r="AM14" s="268"/>
+      <c r="AN14" s="257"/>
+      <c r="AO14" s="257"/>
+      <c r="AP14" s="257"/>
+      <c r="AQ14" s="257"/>
+      <c r="AR14" s="257"/>
+      <c r="AS14" s="244"/>
+      <c r="AT14" s="245"/>
+      <c r="AU14" s="245"/>
+      <c r="AV14" s="245"/>
+      <c r="AW14" s="246"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="56"/>
-      <c r="B15" s="258"/>
-      <c r="C15" s="259"/>
-      <c r="D15" s="260"/>
+      <c r="B15" s="247"/>
+      <c r="C15" s="248"/>
+      <c r="D15" s="249"/>
       <c r="E15" s="250"/>
       <c r="F15" s="250"/>
       <c r="G15" s="250"/>
@@ -9047,49 +9201,49 @@
       <c r="J15" s="251"/>
       <c r="K15" s="252"/>
       <c r="L15" s="253"/>
-      <c r="M15" s="261"/>
+      <c r="M15" s="264"/>
       <c r="N15" s="262"/>
       <c r="O15" s="262"/>
       <c r="P15" s="262"/>
       <c r="Q15" s="262"/>
       <c r="R15" s="263"/>
-      <c r="S15" s="248"/>
-      <c r="T15" s="248"/>
-      <c r="U15" s="248"/>
-      <c r="V15" s="264"/>
-      <c r="W15" s="265"/>
-      <c r="X15" s="265"/>
-      <c r="Y15" s="265"/>
-      <c r="Z15" s="265"/>
-      <c r="AA15" s="265"/>
-      <c r="AB15" s="265"/>
-      <c r="AC15" s="265"/>
-      <c r="AD15" s="265"/>
-      <c r="AE15" s="265"/>
-      <c r="AF15" s="265"/>
-      <c r="AG15" s="265"/>
-      <c r="AH15" s="265"/>
-      <c r="AI15" s="265"/>
-      <c r="AJ15" s="265"/>
-      <c r="AK15" s="265"/>
-      <c r="AL15" s="265"/>
-      <c r="AM15" s="266"/>
-      <c r="AN15" s="267"/>
-      <c r="AO15" s="268"/>
-      <c r="AP15" s="268"/>
-      <c r="AQ15" s="268"/>
-      <c r="AR15" s="269"/>
-      <c r="AS15" s="267"/>
-      <c r="AT15" s="268"/>
-      <c r="AU15" s="268"/>
-      <c r="AV15" s="268"/>
-      <c r="AW15" s="269"/>
+      <c r="S15" s="257"/>
+      <c r="T15" s="257"/>
+      <c r="U15" s="257"/>
+      <c r="V15" s="258"/>
+      <c r="W15" s="259"/>
+      <c r="X15" s="259"/>
+      <c r="Y15" s="259"/>
+      <c r="Z15" s="259"/>
+      <c r="AA15" s="259"/>
+      <c r="AB15" s="259"/>
+      <c r="AC15" s="259"/>
+      <c r="AD15" s="259"/>
+      <c r="AE15" s="259"/>
+      <c r="AF15" s="259"/>
+      <c r="AG15" s="259"/>
+      <c r="AH15" s="259"/>
+      <c r="AI15" s="259"/>
+      <c r="AJ15" s="259"/>
+      <c r="AK15" s="259"/>
+      <c r="AL15" s="259"/>
+      <c r="AM15" s="260"/>
+      <c r="AN15" s="244"/>
+      <c r="AO15" s="245"/>
+      <c r="AP15" s="245"/>
+      <c r="AQ15" s="245"/>
+      <c r="AR15" s="246"/>
+      <c r="AS15" s="244"/>
+      <c r="AT15" s="245"/>
+      <c r="AU15" s="245"/>
+      <c r="AV15" s="245"/>
+      <c r="AW15" s="246"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="56"/>
-      <c r="B16" s="258"/>
-      <c r="C16" s="259"/>
-      <c r="D16" s="260"/>
+      <c r="B16" s="247"/>
+      <c r="C16" s="248"/>
+      <c r="D16" s="249"/>
       <c r="E16" s="250"/>
       <c r="F16" s="250"/>
       <c r="G16" s="250"/>
@@ -9098,49 +9252,49 @@
       <c r="J16" s="251"/>
       <c r="K16" s="252"/>
       <c r="L16" s="253"/>
-      <c r="M16" s="261"/>
+      <c r="M16" s="264"/>
       <c r="N16" s="262"/>
       <c r="O16" s="262"/>
       <c r="P16" s="262"/>
       <c r="Q16" s="262"/>
       <c r="R16" s="263"/>
-      <c r="S16" s="248"/>
-      <c r="T16" s="248"/>
-      <c r="U16" s="248"/>
-      <c r="V16" s="264"/>
-      <c r="W16" s="265"/>
-      <c r="X16" s="265"/>
-      <c r="Y16" s="265"/>
-      <c r="Z16" s="265"/>
-      <c r="AA16" s="265"/>
-      <c r="AB16" s="265"/>
-      <c r="AC16" s="265"/>
-      <c r="AD16" s="265"/>
-      <c r="AE16" s="265"/>
-      <c r="AF16" s="265"/>
-      <c r="AG16" s="265"/>
-      <c r="AH16" s="265"/>
-      <c r="AI16" s="265"/>
-      <c r="AJ16" s="265"/>
-      <c r="AK16" s="265"/>
-      <c r="AL16" s="265"/>
-      <c r="AM16" s="266"/>
-      <c r="AN16" s="267"/>
-      <c r="AO16" s="268"/>
-      <c r="AP16" s="268"/>
-      <c r="AQ16" s="268"/>
-      <c r="AR16" s="269"/>
-      <c r="AS16" s="267"/>
-      <c r="AT16" s="268"/>
-      <c r="AU16" s="268"/>
-      <c r="AV16" s="268"/>
-      <c r="AW16" s="269"/>
+      <c r="S16" s="257"/>
+      <c r="T16" s="257"/>
+      <c r="U16" s="257"/>
+      <c r="V16" s="258"/>
+      <c r="W16" s="259"/>
+      <c r="X16" s="259"/>
+      <c r="Y16" s="259"/>
+      <c r="Z16" s="259"/>
+      <c r="AA16" s="259"/>
+      <c r="AB16" s="259"/>
+      <c r="AC16" s="259"/>
+      <c r="AD16" s="259"/>
+      <c r="AE16" s="259"/>
+      <c r="AF16" s="259"/>
+      <c r="AG16" s="259"/>
+      <c r="AH16" s="259"/>
+      <c r="AI16" s="259"/>
+      <c r="AJ16" s="259"/>
+      <c r="AK16" s="259"/>
+      <c r="AL16" s="259"/>
+      <c r="AM16" s="260"/>
+      <c r="AN16" s="244"/>
+      <c r="AO16" s="245"/>
+      <c r="AP16" s="245"/>
+      <c r="AQ16" s="245"/>
+      <c r="AR16" s="246"/>
+      <c r="AS16" s="244"/>
+      <c r="AT16" s="245"/>
+      <c r="AU16" s="245"/>
+      <c r="AV16" s="245"/>
+      <c r="AW16" s="246"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="56"/>
-      <c r="B17" s="258"/>
-      <c r="C17" s="259"/>
-      <c r="D17" s="260"/>
+      <c r="B17" s="247"/>
+      <c r="C17" s="248"/>
+      <c r="D17" s="249"/>
       <c r="E17" s="250"/>
       <c r="F17" s="250"/>
       <c r="G17" s="250"/>
@@ -9149,49 +9303,49 @@
       <c r="J17" s="251"/>
       <c r="K17" s="252"/>
       <c r="L17" s="253"/>
-      <c r="M17" s="261"/>
+      <c r="M17" s="264"/>
       <c r="N17" s="262"/>
       <c r="O17" s="262"/>
       <c r="P17" s="262"/>
       <c r="Q17" s="262"/>
-      <c r="R17" s="274"/>
-      <c r="S17" s="275"/>
-      <c r="T17" s="275"/>
-      <c r="U17" s="275"/>
-      <c r="V17" s="264"/>
-      <c r="W17" s="265"/>
-      <c r="X17" s="265"/>
-      <c r="Y17" s="265"/>
-      <c r="Z17" s="265"/>
-      <c r="AA17" s="265"/>
-      <c r="AB17" s="265"/>
-      <c r="AC17" s="265"/>
-      <c r="AD17" s="265"/>
-      <c r="AE17" s="265"/>
-      <c r="AF17" s="265"/>
-      <c r="AG17" s="265"/>
-      <c r="AH17" s="265"/>
-      <c r="AI17" s="265"/>
-      <c r="AJ17" s="265"/>
-      <c r="AK17" s="265"/>
-      <c r="AL17" s="265"/>
-      <c r="AM17" s="266"/>
-      <c r="AN17" s="267"/>
-      <c r="AO17" s="268"/>
-      <c r="AP17" s="268"/>
-      <c r="AQ17" s="268"/>
-      <c r="AR17" s="269"/>
-      <c r="AS17" s="267"/>
-      <c r="AT17" s="268"/>
-      <c r="AU17" s="268"/>
-      <c r="AV17" s="268"/>
-      <c r="AW17" s="269"/>
+      <c r="R17" s="265"/>
+      <c r="S17" s="266"/>
+      <c r="T17" s="266"/>
+      <c r="U17" s="266"/>
+      <c r="V17" s="258"/>
+      <c r="W17" s="259"/>
+      <c r="X17" s="259"/>
+      <c r="Y17" s="259"/>
+      <c r="Z17" s="259"/>
+      <c r="AA17" s="259"/>
+      <c r="AB17" s="259"/>
+      <c r="AC17" s="259"/>
+      <c r="AD17" s="259"/>
+      <c r="AE17" s="259"/>
+      <c r="AF17" s="259"/>
+      <c r="AG17" s="259"/>
+      <c r="AH17" s="259"/>
+      <c r="AI17" s="259"/>
+      <c r="AJ17" s="259"/>
+      <c r="AK17" s="259"/>
+      <c r="AL17" s="259"/>
+      <c r="AM17" s="260"/>
+      <c r="AN17" s="244"/>
+      <c r="AO17" s="245"/>
+      <c r="AP17" s="245"/>
+      <c r="AQ17" s="245"/>
+      <c r="AR17" s="246"/>
+      <c r="AS17" s="244"/>
+      <c r="AT17" s="245"/>
+      <c r="AU17" s="245"/>
+      <c r="AV17" s="245"/>
+      <c r="AW17" s="246"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
-      <c r="B18" s="258"/>
-      <c r="C18" s="259"/>
-      <c r="D18" s="260"/>
+      <c r="B18" s="247"/>
+      <c r="C18" s="248"/>
+      <c r="D18" s="249"/>
       <c r="E18" s="250"/>
       <c r="F18" s="250"/>
       <c r="G18" s="250"/>
@@ -9200,49 +9354,49 @@
       <c r="J18" s="251"/>
       <c r="K18" s="252"/>
       <c r="L18" s="253"/>
-      <c r="M18" s="272"/>
+      <c r="M18" s="261"/>
       <c r="N18" s="262"/>
       <c r="O18" s="262"/>
       <c r="P18" s="262"/>
       <c r="Q18" s="262"/>
       <c r="R18" s="263"/>
-      <c r="S18" s="248"/>
-      <c r="T18" s="248"/>
-      <c r="U18" s="248"/>
-      <c r="V18" s="264"/>
-      <c r="W18" s="265"/>
-      <c r="X18" s="265"/>
-      <c r="Y18" s="265"/>
-      <c r="Z18" s="265"/>
-      <c r="AA18" s="265"/>
-      <c r="AB18" s="265"/>
-      <c r="AC18" s="265"/>
-      <c r="AD18" s="265"/>
-      <c r="AE18" s="265"/>
-      <c r="AF18" s="265"/>
-      <c r="AG18" s="265"/>
-      <c r="AH18" s="265"/>
-      <c r="AI18" s="265"/>
-      <c r="AJ18" s="265"/>
-      <c r="AK18" s="265"/>
-      <c r="AL18" s="265"/>
-      <c r="AM18" s="266"/>
-      <c r="AN18" s="267"/>
-      <c r="AO18" s="268"/>
-      <c r="AP18" s="268"/>
-      <c r="AQ18" s="268"/>
-      <c r="AR18" s="269"/>
-      <c r="AS18" s="267"/>
-      <c r="AT18" s="268"/>
-      <c r="AU18" s="268"/>
-      <c r="AV18" s="268"/>
-      <c r="AW18" s="269"/>
+      <c r="S18" s="257"/>
+      <c r="T18" s="257"/>
+      <c r="U18" s="257"/>
+      <c r="V18" s="258"/>
+      <c r="W18" s="259"/>
+      <c r="X18" s="259"/>
+      <c r="Y18" s="259"/>
+      <c r="Z18" s="259"/>
+      <c r="AA18" s="259"/>
+      <c r="AB18" s="259"/>
+      <c r="AC18" s="259"/>
+      <c r="AD18" s="259"/>
+      <c r="AE18" s="259"/>
+      <c r="AF18" s="259"/>
+      <c r="AG18" s="259"/>
+      <c r="AH18" s="259"/>
+      <c r="AI18" s="259"/>
+      <c r="AJ18" s="259"/>
+      <c r="AK18" s="259"/>
+      <c r="AL18" s="259"/>
+      <c r="AM18" s="260"/>
+      <c r="AN18" s="244"/>
+      <c r="AO18" s="245"/>
+      <c r="AP18" s="245"/>
+      <c r="AQ18" s="245"/>
+      <c r="AR18" s="246"/>
+      <c r="AS18" s="244"/>
+      <c r="AT18" s="245"/>
+      <c r="AU18" s="245"/>
+      <c r="AV18" s="245"/>
+      <c r="AW18" s="246"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="56"/>
-      <c r="B19" s="258"/>
-      <c r="C19" s="259"/>
-      <c r="D19" s="260"/>
+      <c r="B19" s="247"/>
+      <c r="C19" s="248"/>
+      <c r="D19" s="249"/>
       <c r="E19" s="250"/>
       <c r="F19" s="250"/>
       <c r="G19" s="250"/>
@@ -9251,49 +9405,49 @@
       <c r="J19" s="251"/>
       <c r="K19" s="252"/>
       <c r="L19" s="253"/>
-      <c r="M19" s="261"/>
+      <c r="M19" s="264"/>
       <c r="N19" s="262"/>
       <c r="O19" s="262"/>
       <c r="P19" s="262"/>
       <c r="Q19" s="262"/>
       <c r="R19" s="263"/>
-      <c r="S19" s="248"/>
-      <c r="T19" s="248"/>
-      <c r="U19" s="248"/>
-      <c r="V19" s="264"/>
-      <c r="W19" s="265"/>
-      <c r="X19" s="265"/>
-      <c r="Y19" s="265"/>
-      <c r="Z19" s="265"/>
-      <c r="AA19" s="265"/>
-      <c r="AB19" s="265"/>
-      <c r="AC19" s="265"/>
-      <c r="AD19" s="265"/>
-      <c r="AE19" s="265"/>
-      <c r="AF19" s="265"/>
-      <c r="AG19" s="265"/>
-      <c r="AH19" s="265"/>
-      <c r="AI19" s="265"/>
-      <c r="AJ19" s="265"/>
-      <c r="AK19" s="265"/>
-      <c r="AL19" s="265"/>
-      <c r="AM19" s="266"/>
-      <c r="AN19" s="248"/>
-      <c r="AO19" s="248"/>
-      <c r="AP19" s="248"/>
-      <c r="AQ19" s="248"/>
-      <c r="AR19" s="248"/>
-      <c r="AS19" s="267"/>
-      <c r="AT19" s="268"/>
-      <c r="AU19" s="268"/>
-      <c r="AV19" s="268"/>
-      <c r="AW19" s="269"/>
+      <c r="S19" s="257"/>
+      <c r="T19" s="257"/>
+      <c r="U19" s="257"/>
+      <c r="V19" s="258"/>
+      <c r="W19" s="259"/>
+      <c r="X19" s="259"/>
+      <c r="Y19" s="259"/>
+      <c r="Z19" s="259"/>
+      <c r="AA19" s="259"/>
+      <c r="AB19" s="259"/>
+      <c r="AC19" s="259"/>
+      <c r="AD19" s="259"/>
+      <c r="AE19" s="259"/>
+      <c r="AF19" s="259"/>
+      <c r="AG19" s="259"/>
+      <c r="AH19" s="259"/>
+      <c r="AI19" s="259"/>
+      <c r="AJ19" s="259"/>
+      <c r="AK19" s="259"/>
+      <c r="AL19" s="259"/>
+      <c r="AM19" s="260"/>
+      <c r="AN19" s="257"/>
+      <c r="AO19" s="257"/>
+      <c r="AP19" s="257"/>
+      <c r="AQ19" s="257"/>
+      <c r="AR19" s="257"/>
+      <c r="AS19" s="244"/>
+      <c r="AT19" s="245"/>
+      <c r="AU19" s="245"/>
+      <c r="AV19" s="245"/>
+      <c r="AW19" s="246"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="56"/>
-      <c r="B20" s="258"/>
-      <c r="C20" s="259"/>
-      <c r="D20" s="260"/>
+      <c r="B20" s="247"/>
+      <c r="C20" s="248"/>
+      <c r="D20" s="249"/>
       <c r="E20" s="250"/>
       <c r="F20" s="250"/>
       <c r="G20" s="250"/>
@@ -9302,49 +9456,49 @@
       <c r="J20" s="251"/>
       <c r="K20" s="252"/>
       <c r="L20" s="253"/>
-      <c r="M20" s="261"/>
+      <c r="M20" s="264"/>
       <c r="N20" s="262"/>
       <c r="O20" s="262"/>
       <c r="P20" s="262"/>
       <c r="Q20" s="262"/>
       <c r="R20" s="263"/>
-      <c r="S20" s="267"/>
-      <c r="T20" s="268"/>
-      <c r="U20" s="269"/>
-      <c r="V20" s="264"/>
-      <c r="W20" s="265"/>
-      <c r="X20" s="265"/>
-      <c r="Y20" s="265"/>
-      <c r="Z20" s="265"/>
-      <c r="AA20" s="265"/>
-      <c r="AB20" s="265"/>
-      <c r="AC20" s="265"/>
-      <c r="AD20" s="265"/>
-      <c r="AE20" s="265"/>
-      <c r="AF20" s="265"/>
-      <c r="AG20" s="265"/>
-      <c r="AH20" s="265"/>
-      <c r="AI20" s="265"/>
-      <c r="AJ20" s="265"/>
-      <c r="AK20" s="265"/>
-      <c r="AL20" s="265"/>
-      <c r="AM20" s="266"/>
-      <c r="AN20" s="267"/>
-      <c r="AO20" s="268"/>
-      <c r="AP20" s="268"/>
-      <c r="AQ20" s="268"/>
-      <c r="AR20" s="269"/>
-      <c r="AS20" s="267"/>
-      <c r="AT20" s="268"/>
-      <c r="AU20" s="268"/>
-      <c r="AV20" s="268"/>
-      <c r="AW20" s="269"/>
+      <c r="S20" s="244"/>
+      <c r="T20" s="245"/>
+      <c r="U20" s="246"/>
+      <c r="V20" s="258"/>
+      <c r="W20" s="259"/>
+      <c r="X20" s="259"/>
+      <c r="Y20" s="259"/>
+      <c r="Z20" s="259"/>
+      <c r="AA20" s="259"/>
+      <c r="AB20" s="259"/>
+      <c r="AC20" s="259"/>
+      <c r="AD20" s="259"/>
+      <c r="AE20" s="259"/>
+      <c r="AF20" s="259"/>
+      <c r="AG20" s="259"/>
+      <c r="AH20" s="259"/>
+      <c r="AI20" s="259"/>
+      <c r="AJ20" s="259"/>
+      <c r="AK20" s="259"/>
+      <c r="AL20" s="259"/>
+      <c r="AM20" s="260"/>
+      <c r="AN20" s="244"/>
+      <c r="AO20" s="245"/>
+      <c r="AP20" s="245"/>
+      <c r="AQ20" s="245"/>
+      <c r="AR20" s="246"/>
+      <c r="AS20" s="244"/>
+      <c r="AT20" s="245"/>
+      <c r="AU20" s="245"/>
+      <c r="AV20" s="245"/>
+      <c r="AW20" s="246"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="56"/>
-      <c r="B21" s="258"/>
-      <c r="C21" s="259"/>
-      <c r="D21" s="260"/>
+      <c r="B21" s="247"/>
+      <c r="C21" s="248"/>
+      <c r="D21" s="249"/>
       <c r="E21" s="250"/>
       <c r="F21" s="250"/>
       <c r="G21" s="250"/>
@@ -9353,49 +9507,49 @@
       <c r="J21" s="251"/>
       <c r="K21" s="252"/>
       <c r="L21" s="253"/>
-      <c r="M21" s="261"/>
+      <c r="M21" s="264"/>
       <c r="N21" s="262"/>
       <c r="O21" s="262"/>
       <c r="P21" s="262"/>
       <c r="Q21" s="262"/>
       <c r="R21" s="263"/>
-      <c r="S21" s="248"/>
-      <c r="T21" s="248"/>
-      <c r="U21" s="248"/>
-      <c r="V21" s="264"/>
-      <c r="W21" s="265"/>
-      <c r="X21" s="265"/>
-      <c r="Y21" s="265"/>
-      <c r="Z21" s="265"/>
-      <c r="AA21" s="265"/>
-      <c r="AB21" s="265"/>
-      <c r="AC21" s="265"/>
-      <c r="AD21" s="265"/>
-      <c r="AE21" s="265"/>
-      <c r="AF21" s="265"/>
-      <c r="AG21" s="265"/>
-      <c r="AH21" s="265"/>
-      <c r="AI21" s="265"/>
-      <c r="AJ21" s="265"/>
-      <c r="AK21" s="265"/>
-      <c r="AL21" s="265"/>
-      <c r="AM21" s="266"/>
-      <c r="AN21" s="267"/>
-      <c r="AO21" s="268"/>
-      <c r="AP21" s="268"/>
-      <c r="AQ21" s="268"/>
-      <c r="AR21" s="269"/>
-      <c r="AS21" s="267"/>
-      <c r="AT21" s="268"/>
-      <c r="AU21" s="268"/>
-      <c r="AV21" s="268"/>
-      <c r="AW21" s="269"/>
+      <c r="S21" s="257"/>
+      <c r="T21" s="257"/>
+      <c r="U21" s="257"/>
+      <c r="V21" s="258"/>
+      <c r="W21" s="259"/>
+      <c r="X21" s="259"/>
+      <c r="Y21" s="259"/>
+      <c r="Z21" s="259"/>
+      <c r="AA21" s="259"/>
+      <c r="AB21" s="259"/>
+      <c r="AC21" s="259"/>
+      <c r="AD21" s="259"/>
+      <c r="AE21" s="259"/>
+      <c r="AF21" s="259"/>
+      <c r="AG21" s="259"/>
+      <c r="AH21" s="259"/>
+      <c r="AI21" s="259"/>
+      <c r="AJ21" s="259"/>
+      <c r="AK21" s="259"/>
+      <c r="AL21" s="259"/>
+      <c r="AM21" s="260"/>
+      <c r="AN21" s="244"/>
+      <c r="AO21" s="245"/>
+      <c r="AP21" s="245"/>
+      <c r="AQ21" s="245"/>
+      <c r="AR21" s="246"/>
+      <c r="AS21" s="244"/>
+      <c r="AT21" s="245"/>
+      <c r="AU21" s="245"/>
+      <c r="AV21" s="245"/>
+      <c r="AW21" s="246"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="56"/>
-      <c r="B22" s="258"/>
-      <c r="C22" s="259"/>
-      <c r="D22" s="260"/>
+      <c r="B22" s="247"/>
+      <c r="C22" s="248"/>
+      <c r="D22" s="249"/>
       <c r="E22" s="250"/>
       <c r="F22" s="250"/>
       <c r="G22" s="250"/>
@@ -9404,49 +9558,49 @@
       <c r="J22" s="251"/>
       <c r="K22" s="252"/>
       <c r="L22" s="253"/>
-      <c r="M22" s="261"/>
+      <c r="M22" s="264"/>
       <c r="N22" s="262"/>
       <c r="O22" s="262"/>
       <c r="P22" s="262"/>
       <c r="Q22" s="262"/>
       <c r="R22" s="263"/>
-      <c r="S22" s="248"/>
-      <c r="T22" s="248"/>
-      <c r="U22" s="248"/>
-      <c r="V22" s="264"/>
-      <c r="W22" s="265"/>
-      <c r="X22" s="265"/>
-      <c r="Y22" s="265"/>
-      <c r="Z22" s="265"/>
-      <c r="AA22" s="265"/>
-      <c r="AB22" s="265"/>
-      <c r="AC22" s="265"/>
-      <c r="AD22" s="265"/>
-      <c r="AE22" s="265"/>
-      <c r="AF22" s="265"/>
-      <c r="AG22" s="265"/>
-      <c r="AH22" s="265"/>
-      <c r="AI22" s="265"/>
-      <c r="AJ22" s="265"/>
-      <c r="AK22" s="265"/>
-      <c r="AL22" s="265"/>
-      <c r="AM22" s="266"/>
-      <c r="AN22" s="267"/>
-      <c r="AO22" s="268"/>
-      <c r="AP22" s="268"/>
-      <c r="AQ22" s="268"/>
-      <c r="AR22" s="269"/>
-      <c r="AS22" s="267"/>
-      <c r="AT22" s="268"/>
-      <c r="AU22" s="268"/>
-      <c r="AV22" s="268"/>
-      <c r="AW22" s="269"/>
+      <c r="S22" s="257"/>
+      <c r="T22" s="257"/>
+      <c r="U22" s="257"/>
+      <c r="V22" s="258"/>
+      <c r="W22" s="259"/>
+      <c r="X22" s="259"/>
+      <c r="Y22" s="259"/>
+      <c r="Z22" s="259"/>
+      <c r="AA22" s="259"/>
+      <c r="AB22" s="259"/>
+      <c r="AC22" s="259"/>
+      <c r="AD22" s="259"/>
+      <c r="AE22" s="259"/>
+      <c r="AF22" s="259"/>
+      <c r="AG22" s="259"/>
+      <c r="AH22" s="259"/>
+      <c r="AI22" s="259"/>
+      <c r="AJ22" s="259"/>
+      <c r="AK22" s="259"/>
+      <c r="AL22" s="259"/>
+      <c r="AM22" s="260"/>
+      <c r="AN22" s="244"/>
+      <c r="AO22" s="245"/>
+      <c r="AP22" s="245"/>
+      <c r="AQ22" s="245"/>
+      <c r="AR22" s="246"/>
+      <c r="AS22" s="244"/>
+      <c r="AT22" s="245"/>
+      <c r="AU22" s="245"/>
+      <c r="AV22" s="245"/>
+      <c r="AW22" s="246"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="54"/>
-      <c r="B23" s="258"/>
-      <c r="C23" s="259"/>
-      <c r="D23" s="260"/>
+      <c r="B23" s="247"/>
+      <c r="C23" s="248"/>
+      <c r="D23" s="249"/>
       <c r="E23" s="250"/>
       <c r="F23" s="250"/>
       <c r="G23" s="250"/>
@@ -9455,49 +9609,49 @@
       <c r="J23" s="251"/>
       <c r="K23" s="252"/>
       <c r="L23" s="253"/>
-      <c r="M23" s="261"/>
+      <c r="M23" s="264"/>
       <c r="N23" s="262"/>
       <c r="O23" s="262"/>
       <c r="P23" s="262"/>
       <c r="Q23" s="262"/>
       <c r="R23" s="263"/>
-      <c r="S23" s="248"/>
-      <c r="T23" s="248"/>
-      <c r="U23" s="248"/>
-      <c r="V23" s="264"/>
-      <c r="W23" s="265"/>
-      <c r="X23" s="265"/>
-      <c r="Y23" s="265"/>
-      <c r="Z23" s="265"/>
-      <c r="AA23" s="265"/>
-      <c r="AB23" s="265"/>
-      <c r="AC23" s="265"/>
-      <c r="AD23" s="265"/>
-      <c r="AE23" s="265"/>
-      <c r="AF23" s="265"/>
-      <c r="AG23" s="265"/>
-      <c r="AH23" s="265"/>
-      <c r="AI23" s="265"/>
-      <c r="AJ23" s="265"/>
-      <c r="AK23" s="265"/>
-      <c r="AL23" s="265"/>
-      <c r="AM23" s="266"/>
-      <c r="AN23" s="267"/>
-      <c r="AO23" s="268"/>
-      <c r="AP23" s="268"/>
-      <c r="AQ23" s="268"/>
-      <c r="AR23" s="269"/>
-      <c r="AS23" s="267"/>
-      <c r="AT23" s="268"/>
-      <c r="AU23" s="268"/>
-      <c r="AV23" s="268"/>
-      <c r="AW23" s="269"/>
+      <c r="S23" s="257"/>
+      <c r="T23" s="257"/>
+      <c r="U23" s="257"/>
+      <c r="V23" s="258"/>
+      <c r="W23" s="259"/>
+      <c r="X23" s="259"/>
+      <c r="Y23" s="259"/>
+      <c r="Z23" s="259"/>
+      <c r="AA23" s="259"/>
+      <c r="AB23" s="259"/>
+      <c r="AC23" s="259"/>
+      <c r="AD23" s="259"/>
+      <c r="AE23" s="259"/>
+      <c r="AF23" s="259"/>
+      <c r="AG23" s="259"/>
+      <c r="AH23" s="259"/>
+      <c r="AI23" s="259"/>
+      <c r="AJ23" s="259"/>
+      <c r="AK23" s="259"/>
+      <c r="AL23" s="259"/>
+      <c r="AM23" s="260"/>
+      <c r="AN23" s="244"/>
+      <c r="AO23" s="245"/>
+      <c r="AP23" s="245"/>
+      <c r="AQ23" s="245"/>
+      <c r="AR23" s="246"/>
+      <c r="AS23" s="244"/>
+      <c r="AT23" s="245"/>
+      <c r="AU23" s="245"/>
+      <c r="AV23" s="245"/>
+      <c r="AW23" s="246"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="54"/>
-      <c r="B24" s="258"/>
-      <c r="C24" s="259"/>
-      <c r="D24" s="260"/>
+      <c r="B24" s="247"/>
+      <c r="C24" s="248"/>
+      <c r="D24" s="249"/>
       <c r="E24" s="250"/>
       <c r="F24" s="250"/>
       <c r="G24" s="250"/>
@@ -9506,49 +9660,49 @@
       <c r="J24" s="251"/>
       <c r="K24" s="252"/>
       <c r="L24" s="253"/>
-      <c r="M24" s="261"/>
+      <c r="M24" s="264"/>
       <c r="N24" s="262"/>
       <c r="O24" s="262"/>
       <c r="P24" s="262"/>
       <c r="Q24" s="262"/>
       <c r="R24" s="263"/>
-      <c r="S24" s="248"/>
-      <c r="T24" s="248"/>
-      <c r="U24" s="248"/>
-      <c r="V24" s="264"/>
-      <c r="W24" s="265"/>
-      <c r="X24" s="265"/>
-      <c r="Y24" s="265"/>
-      <c r="Z24" s="265"/>
-      <c r="AA24" s="265"/>
-      <c r="AB24" s="265"/>
-      <c r="AC24" s="265"/>
-      <c r="AD24" s="265"/>
-      <c r="AE24" s="265"/>
-      <c r="AF24" s="265"/>
-      <c r="AG24" s="265"/>
-      <c r="AH24" s="265"/>
-      <c r="AI24" s="265"/>
-      <c r="AJ24" s="265"/>
-      <c r="AK24" s="265"/>
-      <c r="AL24" s="265"/>
-      <c r="AM24" s="266"/>
-      <c r="AN24" s="267"/>
-      <c r="AO24" s="268"/>
-      <c r="AP24" s="268"/>
-      <c r="AQ24" s="268"/>
-      <c r="AR24" s="269"/>
-      <c r="AS24" s="267"/>
-      <c r="AT24" s="268"/>
-      <c r="AU24" s="268"/>
-      <c r="AV24" s="268"/>
-      <c r="AW24" s="269"/>
+      <c r="S24" s="257"/>
+      <c r="T24" s="257"/>
+      <c r="U24" s="257"/>
+      <c r="V24" s="258"/>
+      <c r="W24" s="259"/>
+      <c r="X24" s="259"/>
+      <c r="Y24" s="259"/>
+      <c r="Z24" s="259"/>
+      <c r="AA24" s="259"/>
+      <c r="AB24" s="259"/>
+      <c r="AC24" s="259"/>
+      <c r="AD24" s="259"/>
+      <c r="AE24" s="259"/>
+      <c r="AF24" s="259"/>
+      <c r="AG24" s="259"/>
+      <c r="AH24" s="259"/>
+      <c r="AI24" s="259"/>
+      <c r="AJ24" s="259"/>
+      <c r="AK24" s="259"/>
+      <c r="AL24" s="259"/>
+      <c r="AM24" s="260"/>
+      <c r="AN24" s="244"/>
+      <c r="AO24" s="245"/>
+      <c r="AP24" s="245"/>
+      <c r="AQ24" s="245"/>
+      <c r="AR24" s="246"/>
+      <c r="AS24" s="244"/>
+      <c r="AT24" s="245"/>
+      <c r="AU24" s="245"/>
+      <c r="AV24" s="245"/>
+      <c r="AW24" s="246"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="54"/>
-      <c r="B25" s="258"/>
-      <c r="C25" s="259"/>
-      <c r="D25" s="260"/>
+      <c r="B25" s="247"/>
+      <c r="C25" s="248"/>
+      <c r="D25" s="249"/>
       <c r="E25" s="250"/>
       <c r="F25" s="250"/>
       <c r="G25" s="250"/>
@@ -9557,49 +9711,49 @@
       <c r="J25" s="251"/>
       <c r="K25" s="252"/>
       <c r="L25" s="253"/>
-      <c r="M25" s="272"/>
+      <c r="M25" s="261"/>
       <c r="N25" s="262"/>
       <c r="O25" s="262"/>
       <c r="P25" s="262"/>
       <c r="Q25" s="262"/>
       <c r="R25" s="263"/>
-      <c r="S25" s="248"/>
-      <c r="T25" s="248"/>
-      <c r="U25" s="248"/>
-      <c r="V25" s="264"/>
-      <c r="W25" s="265"/>
-      <c r="X25" s="265"/>
-      <c r="Y25" s="265"/>
-      <c r="Z25" s="265"/>
-      <c r="AA25" s="265"/>
-      <c r="AB25" s="265"/>
-      <c r="AC25" s="265"/>
-      <c r="AD25" s="265"/>
-      <c r="AE25" s="265"/>
-      <c r="AF25" s="265"/>
-      <c r="AG25" s="265"/>
-      <c r="AH25" s="265"/>
-      <c r="AI25" s="265"/>
-      <c r="AJ25" s="265"/>
-      <c r="AK25" s="265"/>
-      <c r="AL25" s="265"/>
-      <c r="AM25" s="266"/>
-      <c r="AN25" s="267"/>
-      <c r="AO25" s="268"/>
-      <c r="AP25" s="268"/>
-      <c r="AQ25" s="268"/>
-      <c r="AR25" s="269"/>
-      <c r="AS25" s="267"/>
-      <c r="AT25" s="268"/>
-      <c r="AU25" s="268"/>
-      <c r="AV25" s="268"/>
-      <c r="AW25" s="269"/>
+      <c r="S25" s="257"/>
+      <c r="T25" s="257"/>
+      <c r="U25" s="257"/>
+      <c r="V25" s="258"/>
+      <c r="W25" s="259"/>
+      <c r="X25" s="259"/>
+      <c r="Y25" s="259"/>
+      <c r="Z25" s="259"/>
+      <c r="AA25" s="259"/>
+      <c r="AB25" s="259"/>
+      <c r="AC25" s="259"/>
+      <c r="AD25" s="259"/>
+      <c r="AE25" s="259"/>
+      <c r="AF25" s="259"/>
+      <c r="AG25" s="259"/>
+      <c r="AH25" s="259"/>
+      <c r="AI25" s="259"/>
+      <c r="AJ25" s="259"/>
+      <c r="AK25" s="259"/>
+      <c r="AL25" s="259"/>
+      <c r="AM25" s="260"/>
+      <c r="AN25" s="244"/>
+      <c r="AO25" s="245"/>
+      <c r="AP25" s="245"/>
+      <c r="AQ25" s="245"/>
+      <c r="AR25" s="246"/>
+      <c r="AS25" s="244"/>
+      <c r="AT25" s="245"/>
+      <c r="AU25" s="245"/>
+      <c r="AV25" s="245"/>
+      <c r="AW25" s="246"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="54"/>
-      <c r="B26" s="258"/>
-      <c r="C26" s="259"/>
-      <c r="D26" s="260"/>
+      <c r="B26" s="247"/>
+      <c r="C26" s="248"/>
+      <c r="D26" s="249"/>
       <c r="E26" s="250"/>
       <c r="F26" s="250"/>
       <c r="G26" s="250"/>
@@ -9608,49 +9762,49 @@
       <c r="J26" s="251"/>
       <c r="K26" s="252"/>
       <c r="L26" s="253"/>
-      <c r="M26" s="272"/>
+      <c r="M26" s="261"/>
       <c r="N26" s="262"/>
       <c r="O26" s="262"/>
       <c r="P26" s="262"/>
       <c r="Q26" s="262"/>
       <c r="R26" s="263"/>
-      <c r="S26" s="248"/>
-      <c r="T26" s="248"/>
-      <c r="U26" s="248"/>
-      <c r="V26" s="264"/>
-      <c r="W26" s="265"/>
-      <c r="X26" s="265"/>
-      <c r="Y26" s="265"/>
-      <c r="Z26" s="265"/>
-      <c r="AA26" s="265"/>
-      <c r="AB26" s="265"/>
-      <c r="AC26" s="265"/>
-      <c r="AD26" s="265"/>
-      <c r="AE26" s="265"/>
-      <c r="AF26" s="265"/>
-      <c r="AG26" s="265"/>
-      <c r="AH26" s="265"/>
-      <c r="AI26" s="265"/>
-      <c r="AJ26" s="265"/>
-      <c r="AK26" s="265"/>
-      <c r="AL26" s="265"/>
-      <c r="AM26" s="266"/>
-      <c r="AN26" s="267"/>
-      <c r="AO26" s="268"/>
-      <c r="AP26" s="268"/>
-      <c r="AQ26" s="268"/>
-      <c r="AR26" s="269"/>
-      <c r="AS26" s="267"/>
-      <c r="AT26" s="268"/>
-      <c r="AU26" s="268"/>
-      <c r="AV26" s="268"/>
-      <c r="AW26" s="269"/>
+      <c r="S26" s="257"/>
+      <c r="T26" s="257"/>
+      <c r="U26" s="257"/>
+      <c r="V26" s="258"/>
+      <c r="W26" s="259"/>
+      <c r="X26" s="259"/>
+      <c r="Y26" s="259"/>
+      <c r="Z26" s="259"/>
+      <c r="AA26" s="259"/>
+      <c r="AB26" s="259"/>
+      <c r="AC26" s="259"/>
+      <c r="AD26" s="259"/>
+      <c r="AE26" s="259"/>
+      <c r="AF26" s="259"/>
+      <c r="AG26" s="259"/>
+      <c r="AH26" s="259"/>
+      <c r="AI26" s="259"/>
+      <c r="AJ26" s="259"/>
+      <c r="AK26" s="259"/>
+      <c r="AL26" s="259"/>
+      <c r="AM26" s="260"/>
+      <c r="AN26" s="244"/>
+      <c r="AO26" s="245"/>
+      <c r="AP26" s="245"/>
+      <c r="AQ26" s="245"/>
+      <c r="AR26" s="246"/>
+      <c r="AS26" s="244"/>
+      <c r="AT26" s="245"/>
+      <c r="AU26" s="245"/>
+      <c r="AV26" s="245"/>
+      <c r="AW26" s="246"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="54"/>
-      <c r="B27" s="258"/>
-      <c r="C27" s="259"/>
-      <c r="D27" s="260"/>
+      <c r="B27" s="247"/>
+      <c r="C27" s="248"/>
+      <c r="D27" s="249"/>
       <c r="E27" s="250"/>
       <c r="F27" s="250"/>
       <c r="G27" s="250"/>
@@ -9659,49 +9813,49 @@
       <c r="J27" s="251"/>
       <c r="K27" s="252"/>
       <c r="L27" s="253"/>
-      <c r="M27" s="272"/>
+      <c r="M27" s="261"/>
       <c r="N27" s="262"/>
       <c r="O27" s="262"/>
       <c r="P27" s="262"/>
       <c r="Q27" s="262"/>
       <c r="R27" s="263"/>
-      <c r="S27" s="248"/>
-      <c r="T27" s="248"/>
-      <c r="U27" s="248"/>
-      <c r="V27" s="264"/>
-      <c r="W27" s="265"/>
-      <c r="X27" s="265"/>
-      <c r="Y27" s="265"/>
-      <c r="Z27" s="265"/>
-      <c r="AA27" s="265"/>
-      <c r="AB27" s="265"/>
-      <c r="AC27" s="265"/>
-      <c r="AD27" s="265"/>
-      <c r="AE27" s="265"/>
-      <c r="AF27" s="265"/>
-      <c r="AG27" s="265"/>
-      <c r="AH27" s="265"/>
-      <c r="AI27" s="265"/>
-      <c r="AJ27" s="265"/>
-      <c r="AK27" s="265"/>
-      <c r="AL27" s="265"/>
-      <c r="AM27" s="266"/>
-      <c r="AN27" s="267"/>
-      <c r="AO27" s="268"/>
-      <c r="AP27" s="268"/>
-      <c r="AQ27" s="268"/>
-      <c r="AR27" s="269"/>
-      <c r="AS27" s="267"/>
-      <c r="AT27" s="268"/>
-      <c r="AU27" s="268"/>
-      <c r="AV27" s="268"/>
-      <c r="AW27" s="269"/>
+      <c r="S27" s="257"/>
+      <c r="T27" s="257"/>
+      <c r="U27" s="257"/>
+      <c r="V27" s="258"/>
+      <c r="W27" s="259"/>
+      <c r="X27" s="259"/>
+      <c r="Y27" s="259"/>
+      <c r="Z27" s="259"/>
+      <c r="AA27" s="259"/>
+      <c r="AB27" s="259"/>
+      <c r="AC27" s="259"/>
+      <c r="AD27" s="259"/>
+      <c r="AE27" s="259"/>
+      <c r="AF27" s="259"/>
+      <c r="AG27" s="259"/>
+      <c r="AH27" s="259"/>
+      <c r="AI27" s="259"/>
+      <c r="AJ27" s="259"/>
+      <c r="AK27" s="259"/>
+      <c r="AL27" s="259"/>
+      <c r="AM27" s="260"/>
+      <c r="AN27" s="244"/>
+      <c r="AO27" s="245"/>
+      <c r="AP27" s="245"/>
+      <c r="AQ27" s="245"/>
+      <c r="AR27" s="246"/>
+      <c r="AS27" s="244"/>
+      <c r="AT27" s="245"/>
+      <c r="AU27" s="245"/>
+      <c r="AV27" s="245"/>
+      <c r="AW27" s="246"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="54"/>
-      <c r="B28" s="258"/>
-      <c r="C28" s="259"/>
-      <c r="D28" s="260"/>
+      <c r="B28" s="247"/>
+      <c r="C28" s="248"/>
+      <c r="D28" s="249"/>
       <c r="E28" s="250"/>
       <c r="F28" s="250"/>
       <c r="G28" s="250"/>
@@ -9710,49 +9864,49 @@
       <c r="J28" s="251"/>
       <c r="K28" s="252"/>
       <c r="L28" s="253"/>
-      <c r="M28" s="261"/>
+      <c r="M28" s="264"/>
       <c r="N28" s="262"/>
       <c r="O28" s="262"/>
       <c r="P28" s="262"/>
       <c r="Q28" s="262"/>
       <c r="R28" s="263"/>
-      <c r="S28" s="248"/>
-      <c r="T28" s="248"/>
-      <c r="U28" s="248"/>
-      <c r="V28" s="264"/>
-      <c r="W28" s="265"/>
-      <c r="X28" s="265"/>
-      <c r="Y28" s="265"/>
-      <c r="Z28" s="265"/>
-      <c r="AA28" s="265"/>
-      <c r="AB28" s="265"/>
-      <c r="AC28" s="265"/>
-      <c r="AD28" s="265"/>
-      <c r="AE28" s="265"/>
-      <c r="AF28" s="265"/>
-      <c r="AG28" s="265"/>
-      <c r="AH28" s="265"/>
-      <c r="AI28" s="265"/>
-      <c r="AJ28" s="265"/>
-      <c r="AK28" s="265"/>
-      <c r="AL28" s="265"/>
-      <c r="AM28" s="266"/>
-      <c r="AN28" s="267"/>
-      <c r="AO28" s="268"/>
-      <c r="AP28" s="268"/>
-      <c r="AQ28" s="268"/>
-      <c r="AR28" s="269"/>
-      <c r="AS28" s="267"/>
-      <c r="AT28" s="268"/>
-      <c r="AU28" s="268"/>
-      <c r="AV28" s="268"/>
-      <c r="AW28" s="269"/>
+      <c r="S28" s="257"/>
+      <c r="T28" s="257"/>
+      <c r="U28" s="257"/>
+      <c r="V28" s="258"/>
+      <c r="W28" s="259"/>
+      <c r="X28" s="259"/>
+      <c r="Y28" s="259"/>
+      <c r="Z28" s="259"/>
+      <c r="AA28" s="259"/>
+      <c r="AB28" s="259"/>
+      <c r="AC28" s="259"/>
+      <c r="AD28" s="259"/>
+      <c r="AE28" s="259"/>
+      <c r="AF28" s="259"/>
+      <c r="AG28" s="259"/>
+      <c r="AH28" s="259"/>
+      <c r="AI28" s="259"/>
+      <c r="AJ28" s="259"/>
+      <c r="AK28" s="259"/>
+      <c r="AL28" s="259"/>
+      <c r="AM28" s="260"/>
+      <c r="AN28" s="244"/>
+      <c r="AO28" s="245"/>
+      <c r="AP28" s="245"/>
+      <c r="AQ28" s="245"/>
+      <c r="AR28" s="246"/>
+      <c r="AS28" s="244"/>
+      <c r="AT28" s="245"/>
+      <c r="AU28" s="245"/>
+      <c r="AV28" s="245"/>
+      <c r="AW28" s="246"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="54"/>
-      <c r="B29" s="258"/>
-      <c r="C29" s="259"/>
-      <c r="D29" s="260"/>
+      <c r="B29" s="247"/>
+      <c r="C29" s="248"/>
+      <c r="D29" s="249"/>
       <c r="E29" s="250"/>
       <c r="F29" s="250"/>
       <c r="G29" s="250"/>
@@ -9761,49 +9915,49 @@
       <c r="J29" s="251"/>
       <c r="K29" s="252"/>
       <c r="L29" s="253"/>
-      <c r="M29" s="261"/>
+      <c r="M29" s="264"/>
       <c r="N29" s="262"/>
       <c r="O29" s="262"/>
       <c r="P29" s="262"/>
       <c r="Q29" s="262"/>
       <c r="R29" s="263"/>
-      <c r="S29" s="248"/>
-      <c r="T29" s="248"/>
-      <c r="U29" s="248"/>
-      <c r="V29" s="264"/>
-      <c r="W29" s="265"/>
-      <c r="X29" s="265"/>
-      <c r="Y29" s="265"/>
-      <c r="Z29" s="265"/>
-      <c r="AA29" s="265"/>
-      <c r="AB29" s="265"/>
-      <c r="AC29" s="265"/>
-      <c r="AD29" s="265"/>
-      <c r="AE29" s="265"/>
-      <c r="AF29" s="265"/>
-      <c r="AG29" s="265"/>
-      <c r="AH29" s="265"/>
-      <c r="AI29" s="265"/>
-      <c r="AJ29" s="265"/>
-      <c r="AK29" s="265"/>
-      <c r="AL29" s="265"/>
-      <c r="AM29" s="266"/>
-      <c r="AN29" s="267"/>
-      <c r="AO29" s="268"/>
-      <c r="AP29" s="268"/>
-      <c r="AQ29" s="268"/>
-      <c r="AR29" s="269"/>
-      <c r="AS29" s="267"/>
-      <c r="AT29" s="268"/>
-      <c r="AU29" s="268"/>
-      <c r="AV29" s="268"/>
-      <c r="AW29" s="269"/>
+      <c r="S29" s="257"/>
+      <c r="T29" s="257"/>
+      <c r="U29" s="257"/>
+      <c r="V29" s="258"/>
+      <c r="W29" s="259"/>
+      <c r="X29" s="259"/>
+      <c r="Y29" s="259"/>
+      <c r="Z29" s="259"/>
+      <c r="AA29" s="259"/>
+      <c r="AB29" s="259"/>
+      <c r="AC29" s="259"/>
+      <c r="AD29" s="259"/>
+      <c r="AE29" s="259"/>
+      <c r="AF29" s="259"/>
+      <c r="AG29" s="259"/>
+      <c r="AH29" s="259"/>
+      <c r="AI29" s="259"/>
+      <c r="AJ29" s="259"/>
+      <c r="AK29" s="259"/>
+      <c r="AL29" s="259"/>
+      <c r="AM29" s="260"/>
+      <c r="AN29" s="244"/>
+      <c r="AO29" s="245"/>
+      <c r="AP29" s="245"/>
+      <c r="AQ29" s="245"/>
+      <c r="AR29" s="246"/>
+      <c r="AS29" s="244"/>
+      <c r="AT29" s="245"/>
+      <c r="AU29" s="245"/>
+      <c r="AV29" s="245"/>
+      <c r="AW29" s="246"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="54"/>
-      <c r="B30" s="258"/>
-      <c r="C30" s="259"/>
-      <c r="D30" s="260"/>
+      <c r="B30" s="247"/>
+      <c r="C30" s="248"/>
+      <c r="D30" s="249"/>
       <c r="E30" s="250"/>
       <c r="F30" s="250"/>
       <c r="G30" s="250"/>
@@ -9812,49 +9966,49 @@
       <c r="J30" s="251"/>
       <c r="K30" s="252"/>
       <c r="L30" s="253"/>
-      <c r="M30" s="272"/>
+      <c r="M30" s="261"/>
       <c r="N30" s="262"/>
       <c r="O30" s="262"/>
       <c r="P30" s="262"/>
       <c r="Q30" s="262"/>
       <c r="R30" s="263"/>
-      <c r="S30" s="248"/>
-      <c r="T30" s="248"/>
-      <c r="U30" s="248"/>
-      <c r="V30" s="264"/>
-      <c r="W30" s="265"/>
-      <c r="X30" s="265"/>
-      <c r="Y30" s="265"/>
-      <c r="Z30" s="265"/>
-      <c r="AA30" s="265"/>
-      <c r="AB30" s="265"/>
-      <c r="AC30" s="265"/>
-      <c r="AD30" s="265"/>
-      <c r="AE30" s="265"/>
-      <c r="AF30" s="265"/>
-      <c r="AG30" s="265"/>
-      <c r="AH30" s="265"/>
-      <c r="AI30" s="265"/>
-      <c r="AJ30" s="265"/>
-      <c r="AK30" s="265"/>
-      <c r="AL30" s="265"/>
-      <c r="AM30" s="266"/>
-      <c r="AN30" s="267"/>
-      <c r="AO30" s="268"/>
-      <c r="AP30" s="268"/>
-      <c r="AQ30" s="268"/>
-      <c r="AR30" s="269"/>
-      <c r="AS30" s="267"/>
-      <c r="AT30" s="268"/>
-      <c r="AU30" s="268"/>
-      <c r="AV30" s="268"/>
-      <c r="AW30" s="269"/>
+      <c r="S30" s="257"/>
+      <c r="T30" s="257"/>
+      <c r="U30" s="257"/>
+      <c r="V30" s="258"/>
+      <c r="W30" s="259"/>
+      <c r="X30" s="259"/>
+      <c r="Y30" s="259"/>
+      <c r="Z30" s="259"/>
+      <c r="AA30" s="259"/>
+      <c r="AB30" s="259"/>
+      <c r="AC30" s="259"/>
+      <c r="AD30" s="259"/>
+      <c r="AE30" s="259"/>
+      <c r="AF30" s="259"/>
+      <c r="AG30" s="259"/>
+      <c r="AH30" s="259"/>
+      <c r="AI30" s="259"/>
+      <c r="AJ30" s="259"/>
+      <c r="AK30" s="259"/>
+      <c r="AL30" s="259"/>
+      <c r="AM30" s="260"/>
+      <c r="AN30" s="244"/>
+      <c r="AO30" s="245"/>
+      <c r="AP30" s="245"/>
+      <c r="AQ30" s="245"/>
+      <c r="AR30" s="246"/>
+      <c r="AS30" s="244"/>
+      <c r="AT30" s="245"/>
+      <c r="AU30" s="245"/>
+      <c r="AV30" s="245"/>
+      <c r="AW30" s="246"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="54"/>
-      <c r="B31" s="258"/>
-      <c r="C31" s="259"/>
-      <c r="D31" s="260"/>
+      <c r="B31" s="247"/>
+      <c r="C31" s="248"/>
+      <c r="D31" s="249"/>
       <c r="E31" s="250"/>
       <c r="F31" s="250"/>
       <c r="G31" s="250"/>
@@ -9863,49 +10017,49 @@
       <c r="J31" s="251"/>
       <c r="K31" s="252"/>
       <c r="L31" s="253"/>
-      <c r="M31" s="272"/>
+      <c r="M31" s="261"/>
       <c r="N31" s="262"/>
       <c r="O31" s="262"/>
       <c r="P31" s="262"/>
       <c r="Q31" s="262"/>
       <c r="R31" s="263"/>
-      <c r="S31" s="248"/>
-      <c r="T31" s="248"/>
-      <c r="U31" s="248"/>
-      <c r="V31" s="264"/>
-      <c r="W31" s="265"/>
-      <c r="X31" s="265"/>
-      <c r="Y31" s="265"/>
-      <c r="Z31" s="265"/>
-      <c r="AA31" s="265"/>
-      <c r="AB31" s="265"/>
-      <c r="AC31" s="265"/>
-      <c r="AD31" s="265"/>
-      <c r="AE31" s="265"/>
-      <c r="AF31" s="265"/>
-      <c r="AG31" s="265"/>
-      <c r="AH31" s="265"/>
-      <c r="AI31" s="265"/>
-      <c r="AJ31" s="265"/>
-      <c r="AK31" s="265"/>
-      <c r="AL31" s="265"/>
-      <c r="AM31" s="266"/>
-      <c r="AN31" s="267"/>
-      <c r="AO31" s="268"/>
-      <c r="AP31" s="268"/>
-      <c r="AQ31" s="268"/>
-      <c r="AR31" s="269"/>
-      <c r="AS31" s="267"/>
-      <c r="AT31" s="268"/>
-      <c r="AU31" s="268"/>
-      <c r="AV31" s="268"/>
-      <c r="AW31" s="269"/>
+      <c r="S31" s="257"/>
+      <c r="T31" s="257"/>
+      <c r="U31" s="257"/>
+      <c r="V31" s="258"/>
+      <c r="W31" s="259"/>
+      <c r="X31" s="259"/>
+      <c r="Y31" s="259"/>
+      <c r="Z31" s="259"/>
+      <c r="AA31" s="259"/>
+      <c r="AB31" s="259"/>
+      <c r="AC31" s="259"/>
+      <c r="AD31" s="259"/>
+      <c r="AE31" s="259"/>
+      <c r="AF31" s="259"/>
+      <c r="AG31" s="259"/>
+      <c r="AH31" s="259"/>
+      <c r="AI31" s="259"/>
+      <c r="AJ31" s="259"/>
+      <c r="AK31" s="259"/>
+      <c r="AL31" s="259"/>
+      <c r="AM31" s="260"/>
+      <c r="AN31" s="244"/>
+      <c r="AO31" s="245"/>
+      <c r="AP31" s="245"/>
+      <c r="AQ31" s="245"/>
+      <c r="AR31" s="246"/>
+      <c r="AS31" s="244"/>
+      <c r="AT31" s="245"/>
+      <c r="AU31" s="245"/>
+      <c r="AV31" s="245"/>
+      <c r="AW31" s="246"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="54"/>
-      <c r="B32" s="258"/>
-      <c r="C32" s="259"/>
-      <c r="D32" s="260"/>
+      <c r="B32" s="247"/>
+      <c r="C32" s="248"/>
+      <c r="D32" s="249"/>
       <c r="E32" s="250"/>
       <c r="F32" s="250"/>
       <c r="G32" s="250"/>
@@ -9914,48 +10068,48 @@
       <c r="J32" s="251"/>
       <c r="K32" s="252"/>
       <c r="L32" s="253"/>
-      <c r="M32" s="272"/>
+      <c r="M32" s="261"/>
       <c r="N32" s="262"/>
       <c r="O32" s="262"/>
       <c r="P32" s="262"/>
       <c r="Q32" s="262"/>
       <c r="R32" s="263"/>
-      <c r="S32" s="248"/>
-      <c r="T32" s="248"/>
-      <c r="U32" s="248"/>
-      <c r="V32" s="264"/>
-      <c r="W32" s="265"/>
-      <c r="X32" s="265"/>
-      <c r="Y32" s="265"/>
-      <c r="Z32" s="265"/>
-      <c r="AA32" s="265"/>
-      <c r="AB32" s="265"/>
-      <c r="AC32" s="265"/>
-      <c r="AD32" s="265"/>
-      <c r="AE32" s="265"/>
-      <c r="AF32" s="265"/>
-      <c r="AG32" s="265"/>
-      <c r="AH32" s="265"/>
-      <c r="AI32" s="265"/>
-      <c r="AJ32" s="265"/>
-      <c r="AK32" s="265"/>
-      <c r="AL32" s="265"/>
-      <c r="AM32" s="266"/>
-      <c r="AN32" s="267"/>
-      <c r="AO32" s="268"/>
-      <c r="AP32" s="268"/>
-      <c r="AQ32" s="268"/>
-      <c r="AR32" s="269"/>
-      <c r="AS32" s="267"/>
-      <c r="AT32" s="268"/>
-      <c r="AU32" s="268"/>
-      <c r="AV32" s="268"/>
-      <c r="AW32" s="269"/>
+      <c r="S32" s="257"/>
+      <c r="T32" s="257"/>
+      <c r="U32" s="257"/>
+      <c r="V32" s="258"/>
+      <c r="W32" s="259"/>
+      <c r="X32" s="259"/>
+      <c r="Y32" s="259"/>
+      <c r="Z32" s="259"/>
+      <c r="AA32" s="259"/>
+      <c r="AB32" s="259"/>
+      <c r="AC32" s="259"/>
+      <c r="AD32" s="259"/>
+      <c r="AE32" s="259"/>
+      <c r="AF32" s="259"/>
+      <c r="AG32" s="259"/>
+      <c r="AH32" s="259"/>
+      <c r="AI32" s="259"/>
+      <c r="AJ32" s="259"/>
+      <c r="AK32" s="259"/>
+      <c r="AL32" s="259"/>
+      <c r="AM32" s="260"/>
+      <c r="AN32" s="244"/>
+      <c r="AO32" s="245"/>
+      <c r="AP32" s="245"/>
+      <c r="AQ32" s="245"/>
+      <c r="AR32" s="246"/>
+      <c r="AS32" s="244"/>
+      <c r="AT32" s="245"/>
+      <c r="AU32" s="245"/>
+      <c r="AV32" s="245"/>
+      <c r="AW32" s="246"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="258"/>
-      <c r="C33" s="259"/>
-      <c r="D33" s="260"/>
+      <c r="B33" s="247"/>
+      <c r="C33" s="248"/>
+      <c r="D33" s="249"/>
       <c r="E33" s="250"/>
       <c r="F33" s="250"/>
       <c r="G33" s="250"/>
@@ -9964,48 +10118,48 @@
       <c r="J33" s="251"/>
       <c r="K33" s="252"/>
       <c r="L33" s="253"/>
-      <c r="M33" s="272"/>
+      <c r="M33" s="261"/>
       <c r="N33" s="262"/>
       <c r="O33" s="262"/>
       <c r="P33" s="262"/>
       <c r="Q33" s="262"/>
       <c r="R33" s="263"/>
-      <c r="S33" s="248"/>
-      <c r="T33" s="248"/>
-      <c r="U33" s="248"/>
-      <c r="V33" s="264"/>
-      <c r="W33" s="265"/>
-      <c r="X33" s="265"/>
-      <c r="Y33" s="265"/>
-      <c r="Z33" s="265"/>
-      <c r="AA33" s="265"/>
-      <c r="AB33" s="265"/>
-      <c r="AC33" s="265"/>
-      <c r="AD33" s="265"/>
-      <c r="AE33" s="265"/>
-      <c r="AF33" s="265"/>
-      <c r="AG33" s="265"/>
-      <c r="AH33" s="265"/>
-      <c r="AI33" s="265"/>
-      <c r="AJ33" s="265"/>
-      <c r="AK33" s="265"/>
-      <c r="AL33" s="265"/>
-      <c r="AM33" s="266"/>
-      <c r="AN33" s="267"/>
-      <c r="AO33" s="268"/>
-      <c r="AP33" s="268"/>
-      <c r="AQ33" s="268"/>
-      <c r="AR33" s="269"/>
-      <c r="AS33" s="267"/>
-      <c r="AT33" s="268"/>
-      <c r="AU33" s="268"/>
-      <c r="AV33" s="268"/>
-      <c r="AW33" s="269"/>
+      <c r="S33" s="257"/>
+      <c r="T33" s="257"/>
+      <c r="U33" s="257"/>
+      <c r="V33" s="258"/>
+      <c r="W33" s="259"/>
+      <c r="X33" s="259"/>
+      <c r="Y33" s="259"/>
+      <c r="Z33" s="259"/>
+      <c r="AA33" s="259"/>
+      <c r="AB33" s="259"/>
+      <c r="AC33" s="259"/>
+      <c r="AD33" s="259"/>
+      <c r="AE33" s="259"/>
+      <c r="AF33" s="259"/>
+      <c r="AG33" s="259"/>
+      <c r="AH33" s="259"/>
+      <c r="AI33" s="259"/>
+      <c r="AJ33" s="259"/>
+      <c r="AK33" s="259"/>
+      <c r="AL33" s="259"/>
+      <c r="AM33" s="260"/>
+      <c r="AN33" s="244"/>
+      <c r="AO33" s="245"/>
+      <c r="AP33" s="245"/>
+      <c r="AQ33" s="245"/>
+      <c r="AR33" s="246"/>
+      <c r="AS33" s="244"/>
+      <c r="AT33" s="245"/>
+      <c r="AU33" s="245"/>
+      <c r="AV33" s="245"/>
+      <c r="AW33" s="246"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="258"/>
-      <c r="C34" s="259"/>
-      <c r="D34" s="260"/>
+      <c r="B34" s="247"/>
+      <c r="C34" s="248"/>
+      <c r="D34" s="249"/>
       <c r="E34" s="250"/>
       <c r="F34" s="250"/>
       <c r="G34" s="250"/>
@@ -10014,46 +10168,279 @@
       <c r="J34" s="251"/>
       <c r="K34" s="252"/>
       <c r="L34" s="253"/>
-      <c r="M34" s="276"/>
-      <c r="N34" s="277"/>
-      <c r="O34" s="277"/>
-      <c r="P34" s="277"/>
-      <c r="Q34" s="277"/>
-      <c r="R34" s="278"/>
-      <c r="S34" s="248"/>
-      <c r="T34" s="248"/>
-      <c r="U34" s="248"/>
-      <c r="V34" s="264"/>
-      <c r="W34" s="265"/>
-      <c r="X34" s="265"/>
-      <c r="Y34" s="265"/>
-      <c r="Z34" s="265"/>
-      <c r="AA34" s="265"/>
-      <c r="AB34" s="265"/>
-      <c r="AC34" s="265"/>
-      <c r="AD34" s="265"/>
-      <c r="AE34" s="265"/>
-      <c r="AF34" s="265"/>
-      <c r="AG34" s="265"/>
-      <c r="AH34" s="265"/>
-      <c r="AI34" s="265"/>
-      <c r="AJ34" s="265"/>
-      <c r="AK34" s="265"/>
-      <c r="AL34" s="265"/>
-      <c r="AM34" s="266"/>
-      <c r="AN34" s="267"/>
-      <c r="AO34" s="268"/>
-      <c r="AP34" s="268"/>
-      <c r="AQ34" s="268"/>
-      <c r="AR34" s="269"/>
-      <c r="AS34" s="267"/>
-      <c r="AT34" s="268"/>
-      <c r="AU34" s="268"/>
-      <c r="AV34" s="268"/>
-      <c r="AW34" s="269"/>
+      <c r="M34" s="254"/>
+      <c r="N34" s="255"/>
+      <c r="O34" s="255"/>
+      <c r="P34" s="255"/>
+      <c r="Q34" s="255"/>
+      <c r="R34" s="256"/>
+      <c r="S34" s="257"/>
+      <c r="T34" s="257"/>
+      <c r="U34" s="257"/>
+      <c r="V34" s="258"/>
+      <c r="W34" s="259"/>
+      <c r="X34" s="259"/>
+      <c r="Y34" s="259"/>
+      <c r="Z34" s="259"/>
+      <c r="AA34" s="259"/>
+      <c r="AB34" s="259"/>
+      <c r="AC34" s="259"/>
+      <c r="AD34" s="259"/>
+      <c r="AE34" s="259"/>
+      <c r="AF34" s="259"/>
+      <c r="AG34" s="259"/>
+      <c r="AH34" s="259"/>
+      <c r="AI34" s="259"/>
+      <c r="AJ34" s="259"/>
+      <c r="AK34" s="259"/>
+      <c r="AL34" s="259"/>
+      <c r="AM34" s="260"/>
+      <c r="AN34" s="244"/>
+      <c r="AO34" s="245"/>
+      <c r="AP34" s="245"/>
+      <c r="AQ34" s="245"/>
+      <c r="AR34" s="246"/>
+      <c r="AS34" s="244"/>
+      <c r="AT34" s="245"/>
+      <c r="AU34" s="245"/>
+      <c r="AV34" s="245"/>
+      <c r="AW34" s="246"/>
     </row>
   </sheetData>
   <mergeCells count="249">
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN5:AR5"/>
+    <mergeCell ref="AS5:AW5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:AM6"/>
+    <mergeCell ref="AN6:AR6"/>
+    <mergeCell ref="AS6:AW6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:AM5"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
     <mergeCell ref="AN33:AR33"/>
     <mergeCell ref="AS33:AW33"/>
     <mergeCell ref="B34:D34"/>
@@ -10070,239 +10457,6 @@
     <mergeCell ref="M33:R33"/>
     <mergeCell ref="S33:U33"/>
     <mergeCell ref="V33:AM33"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN5:AR5"/>
-    <mergeCell ref="AS5:AW5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:AM6"/>
-    <mergeCell ref="AN6:AR6"/>
-    <mergeCell ref="AS6:AW6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10462,11 +10616,11 @@
       <c r="AL2" s="35"/>
       <c r="AM2" s="35"/>
       <c r="AN2" s="36"/>
-      <c r="AO2" s="281"/>
-      <c r="AP2" s="282"/>
-      <c r="AQ2" s="282"/>
-      <c r="AR2" s="282"/>
-      <c r="AS2" s="283"/>
+      <c r="AO2" s="288"/>
+      <c r="AP2" s="289"/>
+      <c r="AQ2" s="289"/>
+      <c r="AR2" s="289"/>
+      <c r="AS2" s="290"/>
       <c r="AT2" s="34" t="s">
         <v>26</v>
       </c>
@@ -10475,14 +10629,14 @@
       <c r="AW2" s="35"/>
       <c r="AX2" s="35"/>
       <c r="AY2" s="36"/>
-      <c r="AZ2" s="284"/>
-      <c r="BA2" s="285"/>
-      <c r="BB2" s="285"/>
-      <c r="BC2" s="285"/>
-      <c r="BD2" s="285"/>
-      <c r="BE2" s="285"/>
-      <c r="BF2" s="285"/>
-      <c r="BG2" s="286"/>
+      <c r="AZ2" s="291"/>
+      <c r="BA2" s="292"/>
+      <c r="BB2" s="292"/>
+      <c r="BC2" s="292"/>
+      <c r="BD2" s="292"/>
+      <c r="BE2" s="292"/>
+      <c r="BF2" s="292"/>
+      <c r="BG2" s="293"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="33"/>
@@ -12231,10 +12385,10 @@
     </row>
     <row r="50" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A50" s="29"/>
-      <c r="B50" s="289" t="s">
+      <c r="B50" s="294" t="s">
         <v>99</v>
       </c>
-      <c r="C50" s="290"/>
+      <c r="C50" s="295"/>
       <c r="D50" s="72" t="s">
         <v>98</v>
       </c>
@@ -12317,10 +12471,10 @@
     </row>
     <row r="51" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A51" s="29"/>
-      <c r="B51" s="279">
+      <c r="B51" s="286">
         <v>1</v>
       </c>
-      <c r="C51" s="280"/>
+      <c r="C51" s="287"/>
       <c r="D51" s="213" t="s">
         <v>119</v>
       </c>
@@ -12352,10 +12506,10 @@
       <c r="AB51" s="214"/>
       <c r="AC51" s="214"/>
       <c r="AD51" s="215"/>
-      <c r="AE51" s="287" t="s">
+      <c r="AE51" s="284" t="s">
         <v>107</v>
       </c>
-      <c r="AF51" s="288"/>
+      <c r="AF51" s="285"/>
       <c r="AG51" s="234"/>
       <c r="AH51" s="235"/>
       <c r="AI51" s="234"/>
@@ -12395,10 +12549,10 @@
     </row>
     <row r="52" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A52" s="29"/>
-      <c r="B52" s="279">
+      <c r="B52" s="286">
         <v>2</v>
       </c>
-      <c r="C52" s="280"/>
+      <c r="C52" s="287"/>
       <c r="D52" s="213" t="s">
         <v>119</v>
       </c>
@@ -12430,10 +12584,10 @@
       <c r="AB52" s="214"/>
       <c r="AC52" s="214"/>
       <c r="AD52" s="215"/>
-      <c r="AE52" s="287" t="s">
+      <c r="AE52" s="284" t="s">
         <v>107</v>
       </c>
-      <c r="AF52" s="288"/>
+      <c r="AF52" s="285"/>
       <c r="AG52" s="234"/>
       <c r="AH52" s="235"/>
       <c r="AI52" s="234"/>
@@ -12473,10 +12627,10 @@
     </row>
     <row r="53" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A53" s="29"/>
-      <c r="B53" s="279">
+      <c r="B53" s="286">
         <v>3</v>
       </c>
-      <c r="C53" s="280"/>
+      <c r="C53" s="287"/>
       <c r="D53" s="213" t="s">
         <v>317</v>
       </c>
@@ -12508,10 +12662,10 @@
       <c r="AB53" s="214"/>
       <c r="AC53" s="214"/>
       <c r="AD53" s="215"/>
-      <c r="AE53" s="287" t="s">
+      <c r="AE53" s="284" t="s">
         <v>107</v>
       </c>
-      <c r="AF53" s="288"/>
+      <c r="AF53" s="285"/>
       <c r="AG53" s="217"/>
       <c r="AH53" s="218"/>
       <c r="AI53" s="217"/>
@@ -12688,20 +12842,20 @@
       <c r="CA1" s="35"/>
       <c r="CB1" s="35"/>
       <c r="CC1" s="36"/>
-      <c r="CD1" s="293">
+      <c r="CD1" s="298">
         <f>変更履歴!E5</f>
         <v>43734</v>
       </c>
-      <c r="CE1" s="294"/>
-      <c r="CF1" s="294"/>
-      <c r="CG1" s="294"/>
-      <c r="CH1" s="294"/>
-      <c r="CI1" s="294"/>
-      <c r="CJ1" s="294"/>
-      <c r="CK1" s="294"/>
-      <c r="CL1" s="294"/>
-      <c r="CM1" s="294"/>
-      <c r="CN1" s="295"/>
+      <c r="CE1" s="299"/>
+      <c r="CF1" s="299"/>
+      <c r="CG1" s="299"/>
+      <c r="CH1" s="299"/>
+      <c r="CI1" s="299"/>
+      <c r="CJ1" s="299"/>
+      <c r="CK1" s="299"/>
+      <c r="CL1" s="299"/>
+      <c r="CM1" s="299"/>
+      <c r="CN1" s="300"/>
       <c r="CO1" s="34" t="s">
         <v>25</v>
       </c>
@@ -12710,23 +12864,23 @@
       <c r="CR1" s="35"/>
       <c r="CS1" s="35"/>
       <c r="CT1" s="36"/>
-      <c r="CU1" s="284" t="str">
+      <c r="CU1" s="291" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
-      <c r="CV1" s="291"/>
-      <c r="CW1" s="291"/>
-      <c r="CX1" s="291"/>
-      <c r="CY1" s="291"/>
-      <c r="CZ1" s="291"/>
-      <c r="DA1" s="291"/>
-      <c r="DB1" s="291"/>
-      <c r="DC1" s="291"/>
-      <c r="DD1" s="291"/>
-      <c r="DE1" s="291"/>
-      <c r="DF1" s="291"/>
-      <c r="DG1" s="291"/>
-      <c r="DH1" s="292"/>
+      <c r="CV1" s="296"/>
+      <c r="CW1" s="296"/>
+      <c r="CX1" s="296"/>
+      <c r="CY1" s="296"/>
+      <c r="CZ1" s="296"/>
+      <c r="DA1" s="296"/>
+      <c r="DB1" s="296"/>
+      <c r="DC1" s="296"/>
+      <c r="DD1" s="296"/>
+      <c r="DE1" s="296"/>
+      <c r="DF1" s="296"/>
+      <c r="DG1" s="296"/>
+      <c r="DH1" s="297"/>
     </row>
     <row r="2" spans="1:113" s="48" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
@@ -12781,39 +12935,39 @@
       <c r="AQ2" s="78"/>
       <c r="AR2" s="78"/>
       <c r="AS2" s="79"/>
-      <c r="AT2" s="297" t="str">
+      <c r="AT2" s="302" t="str">
         <f>'１．機能概要'!W2</f>
         <v>在庫照会</v>
       </c>
-      <c r="AU2" s="298"/>
-      <c r="AV2" s="298"/>
-      <c r="AW2" s="298"/>
-      <c r="AX2" s="298"/>
-      <c r="AY2" s="298"/>
-      <c r="AZ2" s="298"/>
-      <c r="BA2" s="298"/>
-      <c r="BB2" s="298"/>
-      <c r="BC2" s="298"/>
-      <c r="BD2" s="298"/>
-      <c r="BE2" s="298"/>
-      <c r="BF2" s="298"/>
-      <c r="BG2" s="298"/>
-      <c r="BH2" s="298"/>
-      <c r="BI2" s="298"/>
-      <c r="BJ2" s="298"/>
-      <c r="BK2" s="298"/>
-      <c r="BL2" s="298"/>
-      <c r="BM2" s="298"/>
-      <c r="BN2" s="298"/>
-      <c r="BO2" s="298"/>
-      <c r="BP2" s="298"/>
-      <c r="BQ2" s="298"/>
-      <c r="BR2" s="298"/>
-      <c r="BS2" s="298"/>
-      <c r="BT2" s="298"/>
-      <c r="BU2" s="298"/>
-      <c r="BV2" s="298"/>
-      <c r="BW2" s="299"/>
+      <c r="AU2" s="303"/>
+      <c r="AV2" s="303"/>
+      <c r="AW2" s="303"/>
+      <c r="AX2" s="303"/>
+      <c r="AY2" s="303"/>
+      <c r="AZ2" s="303"/>
+      <c r="BA2" s="303"/>
+      <c r="BB2" s="303"/>
+      <c r="BC2" s="303"/>
+      <c r="BD2" s="303"/>
+      <c r="BE2" s="303"/>
+      <c r="BF2" s="303"/>
+      <c r="BG2" s="303"/>
+      <c r="BH2" s="303"/>
+      <c r="BI2" s="303"/>
+      <c r="BJ2" s="303"/>
+      <c r="BK2" s="303"/>
+      <c r="BL2" s="303"/>
+      <c r="BM2" s="303"/>
+      <c r="BN2" s="303"/>
+      <c r="BO2" s="303"/>
+      <c r="BP2" s="303"/>
+      <c r="BQ2" s="303"/>
+      <c r="BR2" s="303"/>
+      <c r="BS2" s="303"/>
+      <c r="BT2" s="303"/>
+      <c r="BU2" s="303"/>
+      <c r="BV2" s="303"/>
+      <c r="BW2" s="304"/>
       <c r="BX2" s="34" t="s">
         <v>24</v>
       </c>
@@ -12822,17 +12976,17 @@
       <c r="CA2" s="35"/>
       <c r="CB2" s="35"/>
       <c r="CC2" s="36"/>
-      <c r="CD2" s="296"/>
-      <c r="CE2" s="291"/>
-      <c r="CF2" s="291"/>
-      <c r="CG2" s="291"/>
-      <c r="CH2" s="291"/>
-      <c r="CI2" s="291"/>
-      <c r="CJ2" s="291"/>
-      <c r="CK2" s="291"/>
-      <c r="CL2" s="291"/>
-      <c r="CM2" s="291"/>
-      <c r="CN2" s="292"/>
+      <c r="CD2" s="301"/>
+      <c r="CE2" s="296"/>
+      <c r="CF2" s="296"/>
+      <c r="CG2" s="296"/>
+      <c r="CH2" s="296"/>
+      <c r="CI2" s="296"/>
+      <c r="CJ2" s="296"/>
+      <c r="CK2" s="296"/>
+      <c r="CL2" s="296"/>
+      <c r="CM2" s="296"/>
+      <c r="CN2" s="297"/>
       <c r="CO2" s="34" t="s">
         <v>26</v>
       </c>
@@ -12841,20 +12995,20 @@
       <c r="CR2" s="35"/>
       <c r="CS2" s="35"/>
       <c r="CT2" s="36"/>
-      <c r="CU2" s="284"/>
-      <c r="CV2" s="291"/>
-      <c r="CW2" s="291"/>
-      <c r="CX2" s="291"/>
-      <c r="CY2" s="291"/>
-      <c r="CZ2" s="291"/>
-      <c r="DA2" s="291"/>
-      <c r="DB2" s="291"/>
-      <c r="DC2" s="291"/>
-      <c r="DD2" s="291"/>
-      <c r="DE2" s="291"/>
-      <c r="DF2" s="291"/>
-      <c r="DG2" s="291"/>
-      <c r="DH2" s="292"/>
+      <c r="CU2" s="291"/>
+      <c r="CV2" s="296"/>
+      <c r="CW2" s="296"/>
+      <c r="CX2" s="296"/>
+      <c r="CY2" s="296"/>
+      <c r="CZ2" s="296"/>
+      <c r="DA2" s="296"/>
+      <c r="DB2" s="296"/>
+      <c r="DC2" s="296"/>
+      <c r="DD2" s="296"/>
+      <c r="DE2" s="296"/>
+      <c r="DF2" s="296"/>
+      <c r="DG2" s="296"/>
+      <c r="DH2" s="297"/>
     </row>
     <row r="3" spans="1:113" x14ac:dyDescent="0.25">
       <c r="AU3" s="50"/>
@@ -13058,37 +13212,37 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="241" t="s">
+      <c r="C6" s="277" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="241" t="s">
+      <c r="D6" s="277" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="241" t="s">
+      <c r="E6" s="277" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="241" t="s">
+      <c r="F6" s="277" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="241" t="s">
+      <c r="G6" s="277" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="241" t="s">
+      <c r="H6" s="277" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="300" t="s">
+      <c r="I6" s="305" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="300" t="s">
+      <c r="J6" s="305" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="241" t="s">
+      <c r="K6" s="277" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="241" t="s">
+      <c r="L6" s="277" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="241" t="s">
+      <c r="M6" s="277" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="65" t="s">
@@ -13096,24 +13250,24 @@
       </c>
       <c r="O6" s="65"/>
       <c r="P6" s="65"/>
-      <c r="Q6" s="300" t="s">
+      <c r="Q6" s="305" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="241"/>
-      <c r="D7" s="241"/>
-      <c r="E7" s="241"/>
-      <c r="F7" s="241"/>
-      <c r="G7" s="241"/>
-      <c r="H7" s="241"/>
-      <c r="I7" s="300"/>
-      <c r="J7" s="300"/>
-      <c r="K7" s="241"/>
-      <c r="L7" s="241"/>
-      <c r="M7" s="241"/>
+      <c r="C7" s="277"/>
+      <c r="D7" s="277"/>
+      <c r="E7" s="277"/>
+      <c r="F7" s="277"/>
+      <c r="G7" s="277"/>
+      <c r="H7" s="277"/>
+      <c r="I7" s="305"/>
+      <c r="J7" s="305"/>
+      <c r="K7" s="277"/>
+      <c r="L7" s="277"/>
+      <c r="M7" s="277"/>
       <c r="N7" s="43" t="s">
         <v>77</v>
       </c>
@@ -13123,7 +13277,7 @@
       <c r="P7" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="Q7" s="300"/>
+      <c r="Q7" s="305"/>
     </row>
     <row r="8" spans="1:18" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
@@ -13367,37 +13521,37 @@
     <row r="15" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
-      <c r="C15" s="241" t="s">
+      <c r="C15" s="277" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="241" t="s">
+      <c r="D15" s="277" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="241" t="s">
+      <c r="E15" s="277" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="241" t="s">
+      <c r="F15" s="277" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="241" t="s">
+      <c r="G15" s="277" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="241" t="s">
+      <c r="H15" s="277" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="301" t="s">
+      <c r="I15" s="306" t="s">
         <v>47</v>
       </c>
-      <c r="J15" s="300" t="s">
+      <c r="J15" s="305" t="s">
         <v>48</v>
       </c>
-      <c r="K15" s="241" t="s">
+      <c r="K15" s="277" t="s">
         <v>31</v>
       </c>
-      <c r="L15" s="241" t="s">
+      <c r="L15" s="277" t="s">
         <v>30</v>
       </c>
-      <c r="M15" s="241" t="s">
+      <c r="M15" s="277" t="s">
         <v>33</v>
       </c>
       <c r="N15" s="65" t="s">
@@ -13405,24 +13559,24 @@
       </c>
       <c r="O15" s="65"/>
       <c r="P15" s="65"/>
-      <c r="Q15" s="301" t="s">
+      <c r="Q15" s="306" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
-      <c r="C16" s="241"/>
-      <c r="D16" s="241"/>
-      <c r="E16" s="241"/>
-      <c r="F16" s="241"/>
-      <c r="G16" s="241"/>
-      <c r="H16" s="241"/>
-      <c r="I16" s="302"/>
-      <c r="J16" s="300"/>
-      <c r="K16" s="241"/>
-      <c r="L16" s="241"/>
-      <c r="M16" s="241"/>
+      <c r="C16" s="277"/>
+      <c r="D16" s="277"/>
+      <c r="E16" s="277"/>
+      <c r="F16" s="277"/>
+      <c r="G16" s="277"/>
+      <c r="H16" s="277"/>
+      <c r="I16" s="307"/>
+      <c r="J16" s="305"/>
+      <c r="K16" s="277"/>
+      <c r="L16" s="277"/>
+      <c r="M16" s="277"/>
       <c r="N16" s="43" t="s">
         <v>77</v>
       </c>
@@ -13432,7 +13586,7 @@
       <c r="P16" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="Q16" s="302"/>
+      <c r="Q16" s="307"/>
     </row>
     <row r="17" spans="1:17" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
@@ -13785,37 +13939,37 @@
     </row>
     <row r="26" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="95"/>
-      <c r="C26" s="241" t="s">
+      <c r="C26" s="277" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="241" t="s">
+      <c r="D26" s="277" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="241" t="s">
+      <c r="E26" s="277" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="241" t="s">
+      <c r="F26" s="277" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="241" t="s">
+      <c r="G26" s="277" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="241" t="s">
+      <c r="H26" s="277" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="300" t="s">
+      <c r="I26" s="305" t="s">
         <v>47</v>
       </c>
-      <c r="J26" s="300" t="s">
+      <c r="J26" s="305" t="s">
         <v>48</v>
       </c>
-      <c r="K26" s="241" t="s">
+      <c r="K26" s="277" t="s">
         <v>31</v>
       </c>
-      <c r="L26" s="241" t="s">
+      <c r="L26" s="277" t="s">
         <v>30</v>
       </c>
-      <c r="M26" s="241" t="s">
+      <c r="M26" s="277" t="s">
         <v>33</v>
       </c>
       <c r="N26" s="65" t="s">
@@ -13823,23 +13977,23 @@
       </c>
       <c r="O26" s="65"/>
       <c r="P26" s="65"/>
-      <c r="Q26" s="300" t="s">
+      <c r="Q26" s="305" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B27" s="95"/>
-      <c r="C27" s="241"/>
-      <c r="D27" s="241"/>
-      <c r="E27" s="241"/>
-      <c r="F27" s="241"/>
-      <c r="G27" s="241"/>
-      <c r="H27" s="241"/>
-      <c r="I27" s="300"/>
-      <c r="J27" s="300"/>
-      <c r="K27" s="241"/>
-      <c r="L27" s="241"/>
-      <c r="M27" s="241"/>
+      <c r="C27" s="277"/>
+      <c r="D27" s="277"/>
+      <c r="E27" s="277"/>
+      <c r="F27" s="277"/>
+      <c r="G27" s="277"/>
+      <c r="H27" s="277"/>
+      <c r="I27" s="305"/>
+      <c r="J27" s="305"/>
+      <c r="K27" s="277"/>
+      <c r="L27" s="277"/>
+      <c r="M27" s="277"/>
       <c r="N27" s="93" t="s">
         <v>77</v>
       </c>
@@ -13849,7 +14003,7 @@
       <c r="P27" s="93" t="s">
         <v>82</v>
       </c>
-      <c r="Q27" s="300"/>
+      <c r="Q27" s="305"/>
     </row>
     <row r="28" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
@@ -14635,16 +14789,24 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="I15:I16"/>
     <mergeCell ref="J15:J16"/>
     <mergeCell ref="C15:C16"/>
@@ -14653,24 +14815,16 @@
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="H15:H16"/>
     <mergeCell ref="D15:D16"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -14686,7 +14840,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AZ243"/>
+  <dimension ref="A1:AZ244"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -14742,14 +14896,14 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="281">
+      <c r="AI1" s="288">
         <f>変更履歴!E5</f>
         <v>43734</v>
       </c>
-      <c r="AJ1" s="298"/>
-      <c r="AK1" s="298"/>
-      <c r="AL1" s="298"/>
-      <c r="AM1" s="299"/>
+      <c r="AJ1" s="303"/>
+      <c r="AK1" s="303"/>
+      <c r="AL1" s="303"/>
+      <c r="AM1" s="304"/>
       <c r="AN1" s="34" t="s">
         <v>25</v>
       </c>
@@ -14758,16 +14912,16 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="284" t="str">
+      <c r="AT1" s="291" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
-      <c r="AU1" s="291"/>
-      <c r="AV1" s="291"/>
-      <c r="AW1" s="291"/>
-      <c r="AX1" s="291"/>
-      <c r="AY1" s="291"/>
-      <c r="AZ1" s="292"/>
+      <c r="AU1" s="296"/>
+      <c r="AV1" s="296"/>
+      <c r="AW1" s="296"/>
+      <c r="AX1" s="296"/>
+      <c r="AY1" s="296"/>
+      <c r="AZ1" s="297"/>
     </row>
     <row r="2" spans="1:52" s="48" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
@@ -14795,32 +14949,32 @@
       <c r="P2" s="38"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="39"/>
-      <c r="S2" s="297" t="str">
+      <c r="S2" s="302" t="str">
         <f>'１．機能概要'!W2</f>
         <v>在庫照会</v>
       </c>
-      <c r="T2" s="298"/>
-      <c r="U2" s="298"/>
-      <c r="V2" s="298"/>
-      <c r="W2" s="298"/>
-      <c r="X2" s="298"/>
-      <c r="Y2" s="298"/>
-      <c r="Z2" s="298"/>
-      <c r="AA2" s="298"/>
-      <c r="AB2" s="298"/>
-      <c r="AC2" s="298"/>
-      <c r="AD2" s="299"/>
+      <c r="T2" s="303"/>
+      <c r="U2" s="303"/>
+      <c r="V2" s="303"/>
+      <c r="W2" s="303"/>
+      <c r="X2" s="303"/>
+      <c r="Y2" s="303"/>
+      <c r="Z2" s="303"/>
+      <c r="AA2" s="303"/>
+      <c r="AB2" s="303"/>
+      <c r="AC2" s="303"/>
+      <c r="AD2" s="304"/>
       <c r="AE2" s="34" t="s">
         <v>24</v>
       </c>
       <c r="AF2" s="35"/>
       <c r="AG2" s="35"/>
       <c r="AH2" s="36"/>
-      <c r="AI2" s="296"/>
-      <c r="AJ2" s="291"/>
-      <c r="AK2" s="291"/>
-      <c r="AL2" s="291"/>
-      <c r="AM2" s="292"/>
+      <c r="AI2" s="301"/>
+      <c r="AJ2" s="296"/>
+      <c r="AK2" s="296"/>
+      <c r="AL2" s="296"/>
+      <c r="AM2" s="297"/>
       <c r="AN2" s="34" t="s">
         <v>26</v>
       </c>
@@ -14829,13 +14983,13 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="284"/>
-      <c r="AU2" s="291"/>
-      <c r="AV2" s="291"/>
-      <c r="AW2" s="291"/>
-      <c r="AX2" s="291"/>
-      <c r="AY2" s="291"/>
-      <c r="AZ2" s="292"/>
+      <c r="AT2" s="291"/>
+      <c r="AU2" s="296"/>
+      <c r="AV2" s="296"/>
+      <c r="AW2" s="296"/>
+      <c r="AX2" s="296"/>
+      <c r="AY2" s="296"/>
+      <c r="AZ2" s="297"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="57"/>
@@ -16279,60 +16433,60 @@
       <c r="AU39" s="98"/>
       <c r="AV39" s="99"/>
     </row>
-    <row r="40" spans="2:48" s="316" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B40" s="312"/>
-      <c r="C40" s="312"/>
-      <c r="D40" s="313"/>
-      <c r="E40" s="313"/>
-      <c r="F40" s="314"/>
-      <c r="G40" s="312"/>
-      <c r="H40" s="313"/>
-      <c r="I40" s="313"/>
-      <c r="J40" s="313"/>
-      <c r="K40" s="314"/>
-      <c r="L40" s="313"/>
-      <c r="M40" s="315"/>
-      <c r="N40" s="313" t="s">
+    <row r="40" spans="2:48" s="240" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B40" s="236"/>
+      <c r="C40" s="236"/>
+      <c r="D40" s="237"/>
+      <c r="E40" s="237"/>
+      <c r="F40" s="238"/>
+      <c r="G40" s="236"/>
+      <c r="H40" s="237"/>
+      <c r="I40" s="237"/>
+      <c r="J40" s="237"/>
+      <c r="K40" s="238"/>
+      <c r="L40" s="237"/>
+      <c r="M40" s="239"/>
+      <c r="N40" s="237" t="s">
         <v>367</v>
       </c>
-      <c r="O40" s="313"/>
-      <c r="P40" s="313"/>
-      <c r="Q40" s="313"/>
-      <c r="R40" s="313"/>
-      <c r="S40" s="313"/>
-      <c r="T40" s="313"/>
-      <c r="U40" s="313"/>
-      <c r="V40" s="313"/>
-      <c r="W40" s="313"/>
-      <c r="X40" s="313"/>
-      <c r="Y40" s="313"/>
-      <c r="Z40" s="313"/>
-      <c r="AA40" s="313" t="s">
+      <c r="O40" s="237"/>
+      <c r="P40" s="237"/>
+      <c r="Q40" s="237"/>
+      <c r="R40" s="237"/>
+      <c r="S40" s="237"/>
+      <c r="T40" s="237"/>
+      <c r="U40" s="237"/>
+      <c r="V40" s="237"/>
+      <c r="W40" s="237"/>
+      <c r="X40" s="237"/>
+      <c r="Y40" s="237"/>
+      <c r="Z40" s="237"/>
+      <c r="AA40" s="237" t="s">
         <v>38</v>
       </c>
-      <c r="AB40" s="313" t="s">
+      <c r="AB40" s="237" t="s">
         <v>368</v>
       </c>
-      <c r="AC40" s="313"/>
-      <c r="AD40" s="313"/>
-      <c r="AE40" s="313"/>
-      <c r="AF40" s="313"/>
-      <c r="AG40" s="315"/>
-      <c r="AH40" s="313"/>
-      <c r="AI40" s="313"/>
-      <c r="AJ40" s="313"/>
-      <c r="AK40" s="313"/>
-      <c r="AL40" s="313"/>
-      <c r="AM40" s="313"/>
-      <c r="AN40" s="313"/>
-      <c r="AO40" s="313"/>
-      <c r="AP40" s="313"/>
-      <c r="AQ40" s="313"/>
-      <c r="AR40" s="313"/>
-      <c r="AS40" s="313"/>
-      <c r="AT40" s="313"/>
-      <c r="AU40" s="313"/>
-      <c r="AV40" s="314"/>
+      <c r="AC40" s="237"/>
+      <c r="AD40" s="237"/>
+      <c r="AE40" s="237"/>
+      <c r="AF40" s="237"/>
+      <c r="AG40" s="239"/>
+      <c r="AH40" s="237"/>
+      <c r="AI40" s="237"/>
+      <c r="AJ40" s="237"/>
+      <c r="AK40" s="237"/>
+      <c r="AL40" s="237"/>
+      <c r="AM40" s="237"/>
+      <c r="AN40" s="237"/>
+      <c r="AO40" s="237"/>
+      <c r="AP40" s="237"/>
+      <c r="AQ40" s="237"/>
+      <c r="AR40" s="237"/>
+      <c r="AS40" s="237"/>
+      <c r="AT40" s="237"/>
+      <c r="AU40" s="237"/>
+      <c r="AV40" s="238"/>
     </row>
     <row r="41" spans="2:48" s="100" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B41" s="97"/>
@@ -16622,60 +16776,60 @@
       <c r="AU46" s="98"/>
       <c r="AV46" s="99"/>
     </row>
-    <row r="47" spans="2:48" s="316" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B47" s="312"/>
-      <c r="C47" s="312"/>
-      <c r="D47" s="313"/>
-      <c r="E47" s="313"/>
-      <c r="F47" s="314"/>
-      <c r="G47" s="312"/>
-      <c r="H47" s="313"/>
-      <c r="I47" s="313"/>
-      <c r="J47" s="313"/>
-      <c r="K47" s="314"/>
-      <c r="L47" s="313"/>
-      <c r="M47" s="315"/>
-      <c r="N47" s="313" t="s">
+    <row r="47" spans="2:48" s="240" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B47" s="236"/>
+      <c r="C47" s="236"/>
+      <c r="D47" s="237"/>
+      <c r="E47" s="237"/>
+      <c r="F47" s="238"/>
+      <c r="G47" s="236"/>
+      <c r="H47" s="237"/>
+      <c r="I47" s="237"/>
+      <c r="J47" s="237"/>
+      <c r="K47" s="238"/>
+      <c r="L47" s="237"/>
+      <c r="M47" s="239"/>
+      <c r="N47" s="237" t="s">
         <v>367</v>
       </c>
-      <c r="O47" s="313"/>
-      <c r="P47" s="313"/>
-      <c r="Q47" s="313"/>
-      <c r="R47" s="313"/>
-      <c r="S47" s="313"/>
-      <c r="T47" s="313"/>
-      <c r="U47" s="313"/>
-      <c r="V47" s="313"/>
-      <c r="W47" s="313"/>
-      <c r="X47" s="313"/>
-      <c r="Y47" s="313"/>
-      <c r="Z47" s="313"/>
-      <c r="AA47" s="313" t="s">
+      <c r="O47" s="237"/>
+      <c r="P47" s="237"/>
+      <c r="Q47" s="237"/>
+      <c r="R47" s="237"/>
+      <c r="S47" s="237"/>
+      <c r="T47" s="237"/>
+      <c r="U47" s="237"/>
+      <c r="V47" s="237"/>
+      <c r="W47" s="237"/>
+      <c r="X47" s="237"/>
+      <c r="Y47" s="237"/>
+      <c r="Z47" s="237"/>
+      <c r="AA47" s="237" t="s">
         <v>38</v>
       </c>
-      <c r="AB47" s="313" t="s">
+      <c r="AB47" s="237" t="s">
         <v>369</v>
       </c>
-      <c r="AC47" s="313"/>
-      <c r="AD47" s="313"/>
-      <c r="AE47" s="313"/>
-      <c r="AF47" s="313"/>
-      <c r="AG47" s="315"/>
-      <c r="AH47" s="313"/>
-      <c r="AI47" s="313"/>
-      <c r="AJ47" s="313"/>
-      <c r="AK47" s="313"/>
-      <c r="AL47" s="313"/>
-      <c r="AM47" s="313"/>
-      <c r="AN47" s="313"/>
-      <c r="AO47" s="313"/>
-      <c r="AP47" s="313"/>
-      <c r="AQ47" s="313"/>
-      <c r="AR47" s="313"/>
-      <c r="AS47" s="313"/>
-      <c r="AT47" s="313"/>
-      <c r="AU47" s="313"/>
-      <c r="AV47" s="314"/>
+      <c r="AC47" s="237"/>
+      <c r="AD47" s="237"/>
+      <c r="AE47" s="237"/>
+      <c r="AF47" s="237"/>
+      <c r="AG47" s="239"/>
+      <c r="AH47" s="237"/>
+      <c r="AI47" s="237"/>
+      <c r="AJ47" s="237"/>
+      <c r="AK47" s="237"/>
+      <c r="AL47" s="237"/>
+      <c r="AM47" s="237"/>
+      <c r="AN47" s="237"/>
+      <c r="AO47" s="237"/>
+      <c r="AP47" s="237"/>
+      <c r="AQ47" s="237"/>
+      <c r="AR47" s="237"/>
+      <c r="AS47" s="237"/>
+      <c r="AT47" s="237"/>
+      <c r="AU47" s="237"/>
+      <c r="AV47" s="238"/>
     </row>
     <row r="48" spans="2:48" s="100" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B48" s="97"/>
@@ -16965,60 +17119,60 @@
       <c r="AU53" s="98"/>
       <c r="AV53" s="99"/>
     </row>
-    <row r="54" spans="2:48" s="316" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B54" s="312"/>
-      <c r="C54" s="312"/>
-      <c r="D54" s="313"/>
-      <c r="E54" s="313"/>
-      <c r="F54" s="314"/>
-      <c r="G54" s="312"/>
-      <c r="H54" s="313"/>
-      <c r="I54" s="313"/>
-      <c r="J54" s="313"/>
-      <c r="K54" s="314"/>
-      <c r="L54" s="313"/>
-      <c r="M54" s="315"/>
-      <c r="N54" s="313" t="s">
+    <row r="54" spans="2:48" s="240" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B54" s="236"/>
+      <c r="C54" s="236"/>
+      <c r="D54" s="237"/>
+      <c r="E54" s="237"/>
+      <c r="F54" s="238"/>
+      <c r="G54" s="236"/>
+      <c r="H54" s="237"/>
+      <c r="I54" s="237"/>
+      <c r="J54" s="237"/>
+      <c r="K54" s="238"/>
+      <c r="L54" s="237"/>
+      <c r="M54" s="239"/>
+      <c r="N54" s="237" t="s">
         <v>367</v>
       </c>
-      <c r="O54" s="313"/>
-      <c r="P54" s="313"/>
-      <c r="Q54" s="313"/>
-      <c r="R54" s="313"/>
-      <c r="S54" s="313"/>
-      <c r="T54" s="313"/>
-      <c r="U54" s="313"/>
-      <c r="V54" s="313"/>
-      <c r="W54" s="313"/>
-      <c r="X54" s="313"/>
-      <c r="Y54" s="313"/>
-      <c r="Z54" s="313"/>
-      <c r="AA54" s="313" t="s">
+      <c r="O54" s="237"/>
+      <c r="P54" s="237"/>
+      <c r="Q54" s="237"/>
+      <c r="R54" s="237"/>
+      <c r="S54" s="237"/>
+      <c r="T54" s="237"/>
+      <c r="U54" s="237"/>
+      <c r="V54" s="237"/>
+      <c r="W54" s="237"/>
+      <c r="X54" s="237"/>
+      <c r="Y54" s="237"/>
+      <c r="Z54" s="237"/>
+      <c r="AA54" s="237" t="s">
         <v>38</v>
       </c>
-      <c r="AB54" s="313" t="s">
+      <c r="AB54" s="237" t="s">
         <v>370</v>
       </c>
-      <c r="AC54" s="313"/>
-      <c r="AD54" s="313"/>
-      <c r="AE54" s="313"/>
-      <c r="AF54" s="313"/>
-      <c r="AG54" s="315"/>
-      <c r="AH54" s="313"/>
-      <c r="AI54" s="313"/>
-      <c r="AJ54" s="313"/>
-      <c r="AK54" s="313"/>
-      <c r="AL54" s="313"/>
-      <c r="AM54" s="313"/>
-      <c r="AN54" s="313"/>
-      <c r="AO54" s="313"/>
-      <c r="AP54" s="313"/>
-      <c r="AQ54" s="313"/>
-      <c r="AR54" s="313"/>
-      <c r="AS54" s="313"/>
-      <c r="AT54" s="313"/>
-      <c r="AU54" s="313"/>
-      <c r="AV54" s="314"/>
+      <c r="AC54" s="237"/>
+      <c r="AD54" s="237"/>
+      <c r="AE54" s="237"/>
+      <c r="AF54" s="237"/>
+      <c r="AG54" s="239"/>
+      <c r="AH54" s="237"/>
+      <c r="AI54" s="237"/>
+      <c r="AJ54" s="237"/>
+      <c r="AK54" s="237"/>
+      <c r="AL54" s="237"/>
+      <c r="AM54" s="237"/>
+      <c r="AN54" s="237"/>
+      <c r="AO54" s="237"/>
+      <c r="AP54" s="237"/>
+      <c r="AQ54" s="237"/>
+      <c r="AR54" s="237"/>
+      <c r="AS54" s="237"/>
+      <c r="AT54" s="237"/>
+      <c r="AU54" s="237"/>
+      <c r="AV54" s="238"/>
     </row>
     <row r="55" spans="2:48" s="100" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B55" s="97"/>
@@ -17308,60 +17462,60 @@
       <c r="AU60" s="98"/>
       <c r="AV60" s="99"/>
     </row>
-    <row r="61" spans="2:48" s="316" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B61" s="312"/>
-      <c r="C61" s="312"/>
-      <c r="D61" s="313"/>
-      <c r="E61" s="313"/>
-      <c r="F61" s="314"/>
-      <c r="G61" s="312"/>
-      <c r="H61" s="313"/>
-      <c r="I61" s="313"/>
-      <c r="J61" s="313"/>
-      <c r="K61" s="314"/>
-      <c r="L61" s="313"/>
-      <c r="M61" s="315"/>
-      <c r="N61" s="313" t="s">
+    <row r="61" spans="2:48" s="240" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B61" s="236"/>
+      <c r="C61" s="236"/>
+      <c r="D61" s="237"/>
+      <c r="E61" s="237"/>
+      <c r="F61" s="238"/>
+      <c r="G61" s="236"/>
+      <c r="H61" s="237"/>
+      <c r="I61" s="237"/>
+      <c r="J61" s="237"/>
+      <c r="K61" s="238"/>
+      <c r="L61" s="237"/>
+      <c r="M61" s="239"/>
+      <c r="N61" s="237" t="s">
         <v>367</v>
       </c>
-      <c r="O61" s="313"/>
-      <c r="P61" s="313"/>
-      <c r="Q61" s="313"/>
-      <c r="R61" s="313"/>
-      <c r="S61" s="313"/>
-      <c r="T61" s="313"/>
-      <c r="U61" s="313"/>
-      <c r="V61" s="313"/>
-      <c r="W61" s="313"/>
-      <c r="X61" s="313"/>
-      <c r="Y61" s="313"/>
-      <c r="Z61" s="313"/>
-      <c r="AA61" s="313" t="s">
+      <c r="O61" s="237"/>
+      <c r="P61" s="237"/>
+      <c r="Q61" s="237"/>
+      <c r="R61" s="237"/>
+      <c r="S61" s="237"/>
+      <c r="T61" s="237"/>
+      <c r="U61" s="237"/>
+      <c r="V61" s="237"/>
+      <c r="W61" s="237"/>
+      <c r="X61" s="237"/>
+      <c r="Y61" s="237"/>
+      <c r="Z61" s="237"/>
+      <c r="AA61" s="237" t="s">
         <v>38</v>
       </c>
-      <c r="AB61" s="313" t="s">
+      <c r="AB61" s="237" t="s">
         <v>375</v>
       </c>
-      <c r="AC61" s="313"/>
-      <c r="AD61" s="313"/>
-      <c r="AE61" s="313"/>
-      <c r="AF61" s="313"/>
-      <c r="AG61" s="315"/>
-      <c r="AH61" s="313"/>
-      <c r="AI61" s="313"/>
-      <c r="AJ61" s="313"/>
-      <c r="AK61" s="313"/>
-      <c r="AL61" s="313"/>
-      <c r="AM61" s="313"/>
-      <c r="AN61" s="313"/>
-      <c r="AO61" s="313"/>
-      <c r="AP61" s="313"/>
-      <c r="AQ61" s="313"/>
-      <c r="AR61" s="313"/>
-      <c r="AS61" s="313"/>
-      <c r="AT61" s="313"/>
-      <c r="AU61" s="313"/>
-      <c r="AV61" s="314"/>
+      <c r="AC61" s="237"/>
+      <c r="AD61" s="237"/>
+      <c r="AE61" s="237"/>
+      <c r="AF61" s="237"/>
+      <c r="AG61" s="239"/>
+      <c r="AH61" s="237"/>
+      <c r="AI61" s="237"/>
+      <c r="AJ61" s="237"/>
+      <c r="AK61" s="237"/>
+      <c r="AL61" s="237"/>
+      <c r="AM61" s="237"/>
+      <c r="AN61" s="237"/>
+      <c r="AO61" s="237"/>
+      <c r="AP61" s="237"/>
+      <c r="AQ61" s="237"/>
+      <c r="AR61" s="237"/>
+      <c r="AS61" s="237"/>
+      <c r="AT61" s="237"/>
+      <c r="AU61" s="237"/>
+      <c r="AV61" s="238"/>
     </row>
     <row r="62" spans="2:48" s="100" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B62" s="97"/>
@@ -19210,389 +19364,349 @@
         <v>96</v>
       </c>
       <c r="K100" s="68"/>
+      <c r="L100" s="317" t="s">
+        <v>436</v>
+      </c>
       <c r="AV100" s="68"/>
     </row>
     <row r="101" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B101" s="25"/>
-      <c r="C101" s="25"/>
-      <c r="D101" s="26"/>
-      <c r="E101" s="26"/>
-      <c r="F101" s="27"/>
-      <c r="G101" s="25"/>
-      <c r="H101" s="26"/>
-      <c r="I101" s="26"/>
-      <c r="J101" s="26"/>
-      <c r="K101" s="27"/>
-      <c r="L101" s="26"/>
-      <c r="M101" s="26"/>
-      <c r="N101" s="26"/>
-      <c r="O101" s="26"/>
-      <c r="P101" s="26"/>
-      <c r="Q101" s="26"/>
-      <c r="R101" s="26"/>
-      <c r="S101" s="26"/>
-      <c r="T101" s="26"/>
-      <c r="U101" s="26"/>
-      <c r="V101" s="26"/>
-      <c r="W101" s="26"/>
-      <c r="X101" s="26"/>
-      <c r="Y101" s="26"/>
-      <c r="Z101" s="26"/>
-      <c r="AA101" s="26"/>
-      <c r="AB101" s="26"/>
-      <c r="AC101" s="26"/>
-      <c r="AD101" s="26"/>
-      <c r="AE101" s="26"/>
-      <c r="AF101" s="26"/>
-      <c r="AG101" s="26"/>
-      <c r="AH101" s="26"/>
-      <c r="AI101" s="26"/>
-      <c r="AJ101" s="26"/>
-      <c r="AK101" s="26"/>
-      <c r="AL101" s="26"/>
-      <c r="AM101" s="26"/>
-      <c r="AN101" s="26"/>
-      <c r="AO101" s="26"/>
-      <c r="AP101" s="26"/>
-      <c r="AQ101" s="26"/>
-      <c r="AR101" s="26"/>
-      <c r="AS101" s="26"/>
-      <c r="AT101" s="26"/>
-      <c r="AU101" s="26"/>
-      <c r="AV101" s="27"/>
+      <c r="B101" s="67"/>
+      <c r="C101" s="67"/>
+      <c r="F101" s="68"/>
+      <c r="G101" s="67"/>
+      <c r="K101" s="68"/>
+      <c r="L101" s="317" t="s">
+        <v>435</v>
+      </c>
+      <c r="AV101" s="68"/>
     </row>
     <row r="102" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B102" s="21">
+      <c r="B102" s="25"/>
+      <c r="C102" s="25"/>
+      <c r="D102" s="26"/>
+      <c r="E102" s="26"/>
+      <c r="F102" s="27"/>
+      <c r="G102" s="25"/>
+      <c r="H102" s="26"/>
+      <c r="I102" s="26"/>
+      <c r="J102" s="26"/>
+      <c r="K102" s="27"/>
+      <c r="L102" s="26"/>
+      <c r="M102" s="26"/>
+      <c r="N102" s="26"/>
+      <c r="O102" s="26"/>
+      <c r="P102" s="26"/>
+      <c r="Q102" s="26"/>
+      <c r="R102" s="26"/>
+      <c r="S102" s="26"/>
+      <c r="T102" s="26"/>
+      <c r="U102" s="26"/>
+      <c r="V102" s="26"/>
+      <c r="W102" s="26"/>
+      <c r="X102" s="26"/>
+      <c r="Y102" s="26"/>
+      <c r="Z102" s="26"/>
+      <c r="AA102" s="26"/>
+      <c r="AB102" s="26"/>
+      <c r="AC102" s="26"/>
+      <c r="AD102" s="26"/>
+      <c r="AE102" s="26"/>
+      <c r="AF102" s="26"/>
+      <c r="AG102" s="26"/>
+      <c r="AH102" s="26"/>
+      <c r="AI102" s="26"/>
+      <c r="AJ102" s="26"/>
+      <c r="AK102" s="26"/>
+      <c r="AL102" s="26"/>
+      <c r="AM102" s="26"/>
+      <c r="AN102" s="26"/>
+      <c r="AO102" s="26"/>
+      <c r="AP102" s="26"/>
+      <c r="AQ102" s="26"/>
+      <c r="AR102" s="26"/>
+      <c r="AS102" s="26"/>
+      <c r="AT102" s="26"/>
+      <c r="AU102" s="26"/>
+      <c r="AV102" s="27"/>
+    </row>
+    <row r="103" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B103" s="21">
         <v>6</v>
       </c>
-      <c r="C102" s="21" t="s">
+      <c r="C103" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D102" s="22"/>
-      <c r="E102" s="22"/>
-      <c r="F102" s="23"/>
-      <c r="G102" s="21" t="s">
+      <c r="D103" s="22"/>
+      <c r="E103" s="22"/>
+      <c r="F103" s="23"/>
+      <c r="G103" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="H102" s="22"/>
-      <c r="I102" s="22"/>
-      <c r="J102" s="22"/>
-      <c r="K102" s="23"/>
-      <c r="L102" s="24" t="s">
+      <c r="H103" s="22"/>
+      <c r="I103" s="22"/>
+      <c r="J103" s="22"/>
+      <c r="K103" s="23"/>
+      <c r="L103" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="M102" s="22"/>
-      <c r="N102" s="22"/>
-      <c r="O102" s="22"/>
-      <c r="P102" s="22"/>
-      <c r="Q102" s="22"/>
-      <c r="R102" s="22"/>
-      <c r="S102" s="22"/>
-      <c r="T102" s="22"/>
-      <c r="U102" s="22"/>
-      <c r="V102" s="22"/>
-      <c r="W102" s="22"/>
-      <c r="X102" s="22"/>
-      <c r="Y102" s="22"/>
-      <c r="Z102" s="22"/>
-      <c r="AA102" s="22"/>
-      <c r="AB102" s="22"/>
-      <c r="AC102" s="22"/>
-      <c r="AD102" s="22"/>
-      <c r="AE102" s="22"/>
-      <c r="AF102" s="22"/>
-      <c r="AG102" s="22"/>
-      <c r="AH102" s="22"/>
-      <c r="AI102" s="22"/>
-      <c r="AJ102" s="22"/>
-      <c r="AK102" s="22"/>
-      <c r="AL102" s="22"/>
-      <c r="AM102" s="22"/>
-      <c r="AN102" s="22"/>
-      <c r="AO102" s="22"/>
-      <c r="AP102" s="22"/>
-      <c r="AQ102" s="22"/>
-      <c r="AR102" s="22"/>
-      <c r="AS102" s="22"/>
-      <c r="AT102" s="22"/>
-      <c r="AU102" s="22"/>
-      <c r="AV102" s="23"/>
-    </row>
-    <row r="103" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B103" s="67"/>
-      <c r="C103" s="67"/>
-      <c r="D103" s="24"/>
-      <c r="E103" s="24"/>
-      <c r="F103" s="68"/>
-      <c r="G103" s="67" t="s">
+      <c r="M103" s="22"/>
+      <c r="N103" s="22"/>
+      <c r="O103" s="22"/>
+      <c r="P103" s="22"/>
+      <c r="Q103" s="22"/>
+      <c r="R103" s="22"/>
+      <c r="S103" s="22"/>
+      <c r="T103" s="22"/>
+      <c r="U103" s="22"/>
+      <c r="V103" s="22"/>
+      <c r="W103" s="22"/>
+      <c r="X103" s="22"/>
+      <c r="Y103" s="22"/>
+      <c r="Z103" s="22"/>
+      <c r="AA103" s="22"/>
+      <c r="AB103" s="22"/>
+      <c r="AC103" s="22"/>
+      <c r="AD103" s="22"/>
+      <c r="AE103" s="22"/>
+      <c r="AF103" s="22"/>
+      <c r="AG103" s="22"/>
+      <c r="AH103" s="22"/>
+      <c r="AI103" s="22"/>
+      <c r="AJ103" s="22"/>
+      <c r="AK103" s="22"/>
+      <c r="AL103" s="22"/>
+      <c r="AM103" s="22"/>
+      <c r="AN103" s="22"/>
+      <c r="AO103" s="22"/>
+      <c r="AP103" s="22"/>
+      <c r="AQ103" s="22"/>
+      <c r="AR103" s="22"/>
+      <c r="AS103" s="22"/>
+      <c r="AT103" s="22"/>
+      <c r="AU103" s="22"/>
+      <c r="AV103" s="23"/>
+    </row>
+    <row r="104" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B104" s="67"/>
+      <c r="C104" s="67"/>
+      <c r="D104" s="24"/>
+      <c r="E104" s="24"/>
+      <c r="F104" s="68"/>
+      <c r="G104" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="H103" s="24"/>
-      <c r="I103" s="24"/>
-      <c r="J103" s="24"/>
-      <c r="K103" s="68"/>
-      <c r="L103" s="24" t="s">
+      <c r="H104" s="24"/>
+      <c r="I104" s="24"/>
+      <c r="J104" s="24"/>
+      <c r="K104" s="68"/>
+      <c r="L104" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="M103" s="24"/>
-      <c r="N103" s="24"/>
-      <c r="O103" s="24"/>
-      <c r="P103" s="24"/>
-      <c r="Q103" s="24"/>
-      <c r="R103" s="24"/>
-      <c r="S103" s="24"/>
-      <c r="T103" s="24"/>
-      <c r="U103" s="24"/>
-      <c r="V103" s="24"/>
-      <c r="W103" s="24"/>
-      <c r="X103" s="24"/>
-      <c r="Y103" s="24"/>
-      <c r="Z103" s="24"/>
-      <c r="AA103" s="24"/>
-      <c r="AB103" s="24"/>
-      <c r="AC103" s="24"/>
-      <c r="AD103" s="24"/>
-      <c r="AE103" s="24"/>
-      <c r="AF103" s="24"/>
-      <c r="AG103" s="24"/>
-      <c r="AH103" s="24"/>
-      <c r="AI103" s="24"/>
-      <c r="AJ103" s="24"/>
-      <c r="AK103" s="24"/>
-      <c r="AL103" s="24"/>
-      <c r="AM103" s="24"/>
-      <c r="AN103" s="24"/>
-      <c r="AO103" s="24"/>
-      <c r="AP103" s="24"/>
-      <c r="AQ103" s="24"/>
-      <c r="AR103" s="24"/>
-      <c r="AS103" s="24"/>
-      <c r="AT103" s="24"/>
-      <c r="AU103" s="24"/>
-      <c r="AV103" s="68"/>
-    </row>
-    <row r="104" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B104" s="25"/>
-      <c r="C104" s="25"/>
-      <c r="D104" s="26"/>
-      <c r="E104" s="26"/>
-      <c r="F104" s="27"/>
-      <c r="G104" s="25"/>
-      <c r="H104" s="26"/>
-      <c r="I104" s="26"/>
-      <c r="J104" s="26"/>
-      <c r="K104" s="27"/>
-      <c r="L104" s="26"/>
-      <c r="M104" s="26"/>
-      <c r="N104" s="26"/>
-      <c r="O104" s="26"/>
-      <c r="P104" s="26"/>
-      <c r="Q104" s="26"/>
-      <c r="R104" s="26"/>
-      <c r="S104" s="26"/>
-      <c r="T104" s="26"/>
-      <c r="U104" s="26"/>
-      <c r="V104" s="26"/>
-      <c r="W104" s="26"/>
-      <c r="X104" s="26"/>
-      <c r="Y104" s="26"/>
-      <c r="Z104" s="26"/>
-      <c r="AA104" s="26"/>
-      <c r="AB104" s="26"/>
-      <c r="AC104" s="26"/>
-      <c r="AD104" s="26"/>
-      <c r="AE104" s="26"/>
-      <c r="AF104" s="26"/>
-      <c r="AG104" s="26"/>
-      <c r="AH104" s="26"/>
-      <c r="AI104" s="26"/>
-      <c r="AJ104" s="26"/>
-      <c r="AK104" s="26"/>
-      <c r="AL104" s="26"/>
-      <c r="AM104" s="26"/>
-      <c r="AN104" s="26"/>
-      <c r="AO104" s="26"/>
-      <c r="AP104" s="26"/>
-      <c r="AQ104" s="26"/>
-      <c r="AR104" s="26"/>
-      <c r="AS104" s="26"/>
-      <c r="AT104" s="26"/>
-      <c r="AU104" s="26"/>
-      <c r="AV104" s="27"/>
+      <c r="M104" s="24"/>
+      <c r="N104" s="24"/>
+      <c r="O104" s="24"/>
+      <c r="P104" s="24"/>
+      <c r="Q104" s="24"/>
+      <c r="R104" s="24"/>
+      <c r="S104" s="24"/>
+      <c r="T104" s="24"/>
+      <c r="U104" s="24"/>
+      <c r="V104" s="24"/>
+      <c r="W104" s="24"/>
+      <c r="X104" s="24"/>
+      <c r="Y104" s="24"/>
+      <c r="Z104" s="24"/>
+      <c r="AA104" s="24"/>
+      <c r="AB104" s="24"/>
+      <c r="AC104" s="24"/>
+      <c r="AD104" s="24"/>
+      <c r="AE104" s="24"/>
+      <c r="AF104" s="24"/>
+      <c r="AG104" s="24"/>
+      <c r="AH104" s="24"/>
+      <c r="AI104" s="24"/>
+      <c r="AJ104" s="24"/>
+      <c r="AK104" s="24"/>
+      <c r="AL104" s="24"/>
+      <c r="AM104" s="24"/>
+      <c r="AN104" s="24"/>
+      <c r="AO104" s="24"/>
+      <c r="AP104" s="24"/>
+      <c r="AQ104" s="24"/>
+      <c r="AR104" s="24"/>
+      <c r="AS104" s="24"/>
+      <c r="AT104" s="24"/>
+      <c r="AU104" s="24"/>
+      <c r="AV104" s="68"/>
     </row>
     <row r="105" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B105" s="21">
+      <c r="B105" s="25"/>
+      <c r="C105" s="25"/>
+      <c r="D105" s="26"/>
+      <c r="E105" s="26"/>
+      <c r="F105" s="27"/>
+      <c r="G105" s="25"/>
+      <c r="H105" s="26"/>
+      <c r="I105" s="26"/>
+      <c r="J105" s="26"/>
+      <c r="K105" s="27"/>
+      <c r="L105" s="26"/>
+      <c r="M105" s="26"/>
+      <c r="N105" s="26"/>
+      <c r="O105" s="26"/>
+      <c r="P105" s="26"/>
+      <c r="Q105" s="26"/>
+      <c r="R105" s="26"/>
+      <c r="S105" s="26"/>
+      <c r="T105" s="26"/>
+      <c r="U105" s="26"/>
+      <c r="V105" s="26"/>
+      <c r="W105" s="26"/>
+      <c r="X105" s="26"/>
+      <c r="Y105" s="26"/>
+      <c r="Z105" s="26"/>
+      <c r="AA105" s="26"/>
+      <c r="AB105" s="26"/>
+      <c r="AC105" s="26"/>
+      <c r="AD105" s="26"/>
+      <c r="AE105" s="26"/>
+      <c r="AF105" s="26"/>
+      <c r="AG105" s="26"/>
+      <c r="AH105" s="26"/>
+      <c r="AI105" s="26"/>
+      <c r="AJ105" s="26"/>
+      <c r="AK105" s="26"/>
+      <c r="AL105" s="26"/>
+      <c r="AM105" s="26"/>
+      <c r="AN105" s="26"/>
+      <c r="AO105" s="26"/>
+      <c r="AP105" s="26"/>
+      <c r="AQ105" s="26"/>
+      <c r="AR105" s="26"/>
+      <c r="AS105" s="26"/>
+      <c r="AT105" s="26"/>
+      <c r="AU105" s="26"/>
+      <c r="AV105" s="27"/>
+    </row>
+    <row r="106" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B106" s="21">
         <v>7</v>
       </c>
-      <c r="C105" s="21" t="s">
+      <c r="C106" s="21" t="s">
         <v>356</v>
       </c>
-      <c r="D105" s="22"/>
-      <c r="E105" s="22"/>
-      <c r="F105" s="23"/>
-      <c r="G105" s="21" t="s">
+      <c r="D106" s="22"/>
+      <c r="E106" s="22"/>
+      <c r="F106" s="23"/>
+      <c r="G106" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="H105" s="22"/>
-      <c r="I105" s="22"/>
-      <c r="J105" s="22"/>
-      <c r="K105" s="23"/>
-      <c r="L105" s="17" t="s">
+      <c r="H106" s="22"/>
+      <c r="I106" s="22"/>
+      <c r="J106" s="22"/>
+      <c r="K106" s="23"/>
+      <c r="L106" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="M105" s="22"/>
-      <c r="N105" s="22"/>
-      <c r="O105" s="22"/>
-      <c r="P105" s="22"/>
-      <c r="Q105" s="22"/>
-      <c r="R105" s="22"/>
-      <c r="S105" s="22"/>
-      <c r="T105" s="22"/>
-      <c r="U105" s="22"/>
-      <c r="V105" s="22"/>
-      <c r="W105" s="22"/>
-      <c r="X105" s="22"/>
-      <c r="Y105" s="22"/>
-      <c r="Z105" s="22"/>
-      <c r="AA105" s="22"/>
-      <c r="AB105" s="22"/>
-      <c r="AC105" s="22"/>
-      <c r="AD105" s="22"/>
-      <c r="AE105" s="22"/>
-      <c r="AF105" s="22"/>
-      <c r="AG105" s="22"/>
-      <c r="AH105" s="22"/>
-      <c r="AI105" s="22"/>
-      <c r="AJ105" s="22"/>
-      <c r="AK105" s="22"/>
-      <c r="AL105" s="22"/>
-      <c r="AM105" s="22"/>
-      <c r="AN105" s="22"/>
-      <c r="AO105" s="22"/>
-      <c r="AP105" s="22"/>
-      <c r="AQ105" s="22"/>
-      <c r="AR105" s="22"/>
-      <c r="AS105" s="22"/>
-      <c r="AT105" s="22"/>
-      <c r="AU105" s="22"/>
-      <c r="AV105" s="23"/>
-    </row>
-    <row r="106" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B106" s="67"/>
-      <c r="C106" s="67"/>
-      <c r="F106" s="68"/>
-      <c r="G106" s="67" t="s">
+      <c r="M106" s="22"/>
+      <c r="N106" s="22"/>
+      <c r="O106" s="22"/>
+      <c r="P106" s="22"/>
+      <c r="Q106" s="22"/>
+      <c r="R106" s="22"/>
+      <c r="S106" s="22"/>
+      <c r="T106" s="22"/>
+      <c r="U106" s="22"/>
+      <c r="V106" s="22"/>
+      <c r="W106" s="22"/>
+      <c r="X106" s="22"/>
+      <c r="Y106" s="22"/>
+      <c r="Z106" s="22"/>
+      <c r="AA106" s="22"/>
+      <c r="AB106" s="22"/>
+      <c r="AC106" s="22"/>
+      <c r="AD106" s="22"/>
+      <c r="AE106" s="22"/>
+      <c r="AF106" s="22"/>
+      <c r="AG106" s="22"/>
+      <c r="AH106" s="22"/>
+      <c r="AI106" s="22"/>
+      <c r="AJ106" s="22"/>
+      <c r="AK106" s="22"/>
+      <c r="AL106" s="22"/>
+      <c r="AM106" s="22"/>
+      <c r="AN106" s="22"/>
+      <c r="AO106" s="22"/>
+      <c r="AP106" s="22"/>
+      <c r="AQ106" s="22"/>
+      <c r="AR106" s="22"/>
+      <c r="AS106" s="22"/>
+      <c r="AT106" s="22"/>
+      <c r="AU106" s="22"/>
+      <c r="AV106" s="23"/>
+    </row>
+    <row r="107" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B107" s="67"/>
+      <c r="C107" s="67"/>
+      <c r="F107" s="68"/>
+      <c r="G107" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="K106" s="68"/>
-      <c r="AV106" s="68"/>
-    </row>
-    <row r="107" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B107" s="25"/>
-      <c r="C107" s="25"/>
-      <c r="D107" s="26"/>
-      <c r="E107" s="26"/>
-      <c r="F107" s="27"/>
-      <c r="G107" s="25"/>
-      <c r="H107" s="26"/>
-      <c r="I107" s="26"/>
-      <c r="J107" s="26"/>
-      <c r="K107" s="27"/>
-      <c r="L107" s="26"/>
-      <c r="M107" s="26"/>
-      <c r="N107" s="26"/>
-      <c r="O107" s="26"/>
-      <c r="P107" s="26"/>
-      <c r="Q107" s="26"/>
-      <c r="R107" s="26"/>
-      <c r="S107" s="26"/>
-      <c r="T107" s="26"/>
-      <c r="U107" s="26"/>
-      <c r="V107" s="26"/>
-      <c r="W107" s="26"/>
-      <c r="X107" s="26"/>
-      <c r="Y107" s="26"/>
-      <c r="Z107" s="26"/>
-      <c r="AA107" s="26"/>
-      <c r="AB107" s="26"/>
-      <c r="AC107" s="26"/>
-      <c r="AD107" s="26"/>
-      <c r="AE107" s="26"/>
-      <c r="AF107" s="26"/>
-      <c r="AG107" s="26"/>
-      <c r="AH107" s="26"/>
-      <c r="AI107" s="26"/>
-      <c r="AJ107" s="26"/>
-      <c r="AK107" s="26"/>
-      <c r="AL107" s="26"/>
-      <c r="AM107" s="26"/>
-      <c r="AN107" s="26"/>
-      <c r="AO107" s="26"/>
-      <c r="AP107" s="26"/>
-      <c r="AQ107" s="26"/>
-      <c r="AR107" s="26"/>
-      <c r="AS107" s="26"/>
-      <c r="AT107" s="26"/>
-      <c r="AU107" s="26"/>
-      <c r="AV107" s="27"/>
-    </row>
-    <row r="108" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15"/>
+      <c r="K107" s="68"/>
+      <c r="AV107" s="68"/>
+    </row>
+    <row r="108" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B108" s="25"/>
+      <c r="C108" s="25"/>
+      <c r="D108" s="26"/>
+      <c r="E108" s="26"/>
+      <c r="F108" s="27"/>
+      <c r="G108" s="25"/>
+      <c r="H108" s="26"/>
+      <c r="I108" s="26"/>
+      <c r="J108" s="26"/>
+      <c r="K108" s="27"/>
+      <c r="L108" s="26"/>
+      <c r="M108" s="26"/>
+      <c r="N108" s="26"/>
+      <c r="O108" s="26"/>
+      <c r="P108" s="26"/>
+      <c r="Q108" s="26"/>
+      <c r="R108" s="26"/>
+      <c r="S108" s="26"/>
+      <c r="T108" s="26"/>
+      <c r="U108" s="26"/>
+      <c r="V108" s="26"/>
+      <c r="W108" s="26"/>
+      <c r="X108" s="26"/>
+      <c r="Y108" s="26"/>
+      <c r="Z108" s="26"/>
+      <c r="AA108" s="26"/>
+      <c r="AB108" s="26"/>
+      <c r="AC108" s="26"/>
+      <c r="AD108" s="26"/>
+      <c r="AE108" s="26"/>
+      <c r="AF108" s="26"/>
+      <c r="AG108" s="26"/>
+      <c r="AH108" s="26"/>
+      <c r="AI108" s="26"/>
+      <c r="AJ108" s="26"/>
+      <c r="AK108" s="26"/>
+      <c r="AL108" s="26"/>
+      <c r="AM108" s="26"/>
+      <c r="AN108" s="26"/>
+      <c r="AO108" s="26"/>
+      <c r="AP108" s="26"/>
+      <c r="AQ108" s="26"/>
+      <c r="AR108" s="26"/>
+      <c r="AS108" s="26"/>
+      <c r="AT108" s="26"/>
+      <c r="AU108" s="26"/>
+      <c r="AV108" s="27"/>
+    </row>
     <row r="109" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15"/>
     <row r="110" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15"/>
-    <row r="111" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A111" s="51"/>
-      <c r="B111" s="51"/>
-      <c r="C111" s="51"/>
-      <c r="D111" s="51"/>
-      <c r="E111" s="51"/>
-      <c r="F111" s="51"/>
-      <c r="G111" s="51"/>
-      <c r="H111" s="51"/>
-      <c r="I111" s="51"/>
-      <c r="J111" s="51"/>
-      <c r="K111" s="51"/>
-      <c r="L111" s="51"/>
-      <c r="M111" s="51"/>
-      <c r="N111" s="51"/>
-      <c r="O111" s="51"/>
-      <c r="P111" s="51"/>
-      <c r="Q111" s="51"/>
-      <c r="R111" s="51"/>
-      <c r="S111" s="51"/>
-      <c r="T111" s="51"/>
-      <c r="U111" s="51"/>
-      <c r="V111" s="51"/>
-      <c r="W111" s="51"/>
-      <c r="X111" s="51"/>
-      <c r="Y111" s="51"/>
-      <c r="Z111" s="51"/>
-      <c r="AA111" s="51"/>
-      <c r="AB111" s="51"/>
-      <c r="AC111" s="51"/>
-      <c r="AD111" s="51"/>
-      <c r="AE111" s="51"/>
-      <c r="AF111" s="51"/>
-      <c r="AG111" s="51"/>
-      <c r="AH111" s="51"/>
-      <c r="AI111" s="51"/>
-      <c r="AJ111" s="51"/>
-      <c r="AK111" s="51"/>
-      <c r="AL111" s="51"/>
-      <c r="AM111" s="51"/>
-      <c r="AN111" s="51"/>
-      <c r="AO111" s="51"/>
-      <c r="AP111" s="51"/>
-      <c r="AQ111" s="51"/>
-      <c r="AR111" s="51"/>
-      <c r="AS111" s="51"/>
-      <c r="AT111" s="51"/>
-      <c r="AU111" s="51"/>
-      <c r="AV111" s="51"/>
-      <c r="AW111" s="51"/>
-      <c r="AX111" s="51"/>
-      <c r="AY111" s="51"/>
-      <c r="AZ111" s="51"/>
-    </row>
+    <row r="111" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15"/>
     <row r="112" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A112" s="51"/>
       <c r="B112" s="51"/>
@@ -26721,6 +26835,60 @@
       <c r="AY243" s="51"/>
       <c r="AZ243" s="51"/>
     </row>
+    <row r="244" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A244" s="51"/>
+      <c r="B244" s="51"/>
+      <c r="C244" s="51"/>
+      <c r="D244" s="51"/>
+      <c r="E244" s="51"/>
+      <c r="F244" s="51"/>
+      <c r="G244" s="51"/>
+      <c r="H244" s="51"/>
+      <c r="I244" s="51"/>
+      <c r="J244" s="51"/>
+      <c r="K244" s="51"/>
+      <c r="L244" s="51"/>
+      <c r="M244" s="51"/>
+      <c r="N244" s="51"/>
+      <c r="O244" s="51"/>
+      <c r="P244" s="51"/>
+      <c r="Q244" s="51"/>
+      <c r="R244" s="51"/>
+      <c r="S244" s="51"/>
+      <c r="T244" s="51"/>
+      <c r="U244" s="51"/>
+      <c r="V244" s="51"/>
+      <c r="W244" s="51"/>
+      <c r="X244" s="51"/>
+      <c r="Y244" s="51"/>
+      <c r="Z244" s="51"/>
+      <c r="AA244" s="51"/>
+      <c r="AB244" s="51"/>
+      <c r="AC244" s="51"/>
+      <c r="AD244" s="51"/>
+      <c r="AE244" s="51"/>
+      <c r="AF244" s="51"/>
+      <c r="AG244" s="51"/>
+      <c r="AH244" s="51"/>
+      <c r="AI244" s="51"/>
+      <c r="AJ244" s="51"/>
+      <c r="AK244" s="51"/>
+      <c r="AL244" s="51"/>
+      <c r="AM244" s="51"/>
+      <c r="AN244" s="51"/>
+      <c r="AO244" s="51"/>
+      <c r="AP244" s="51"/>
+      <c r="AQ244" s="51"/>
+      <c r="AR244" s="51"/>
+      <c r="AS244" s="51"/>
+      <c r="AT244" s="51"/>
+      <c r="AU244" s="51"/>
+      <c r="AV244" s="51"/>
+      <c r="AW244" s="51"/>
+      <c r="AX244" s="51"/>
+      <c r="AY244" s="51"/>
+      <c r="AZ244" s="51"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="AI1:AM1"/>
@@ -26801,14 +26969,14 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="281">
+      <c r="AI1" s="288">
         <f>変更履歴!E5</f>
         <v>43734</v>
       </c>
-      <c r="AJ1" s="298"/>
-      <c r="AK1" s="298"/>
-      <c r="AL1" s="298"/>
-      <c r="AM1" s="299"/>
+      <c r="AJ1" s="303"/>
+      <c r="AK1" s="303"/>
+      <c r="AL1" s="303"/>
+      <c r="AM1" s="304"/>
       <c r="AN1" s="34" t="s">
         <v>25</v>
       </c>
@@ -26817,16 +26985,16 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="284" t="str">
+      <c r="AT1" s="291" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
-      <c r="AU1" s="291"/>
-      <c r="AV1" s="291"/>
-      <c r="AW1" s="291"/>
-      <c r="AX1" s="291"/>
-      <c r="AY1" s="291"/>
-      <c r="AZ1" s="292"/>
+      <c r="AU1" s="296"/>
+      <c r="AV1" s="296"/>
+      <c r="AW1" s="296"/>
+      <c r="AX1" s="296"/>
+      <c r="AY1" s="296"/>
+      <c r="AZ1" s="297"/>
     </row>
     <row r="2" spans="1:52" s="48" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
@@ -26854,32 +27022,32 @@
       <c r="P2" s="38"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="39"/>
-      <c r="S2" s="297" t="str">
+      <c r="S2" s="302" t="str">
         <f>'１．機能概要'!W2</f>
         <v>在庫照会</v>
       </c>
-      <c r="T2" s="298"/>
-      <c r="U2" s="298"/>
-      <c r="V2" s="298"/>
-      <c r="W2" s="298"/>
-      <c r="X2" s="298"/>
-      <c r="Y2" s="298"/>
-      <c r="Z2" s="298"/>
-      <c r="AA2" s="298"/>
-      <c r="AB2" s="298"/>
-      <c r="AC2" s="298"/>
-      <c r="AD2" s="299"/>
+      <c r="T2" s="303"/>
+      <c r="U2" s="303"/>
+      <c r="V2" s="303"/>
+      <c r="W2" s="303"/>
+      <c r="X2" s="303"/>
+      <c r="Y2" s="303"/>
+      <c r="Z2" s="303"/>
+      <c r="AA2" s="303"/>
+      <c r="AB2" s="303"/>
+      <c r="AC2" s="303"/>
+      <c r="AD2" s="304"/>
       <c r="AE2" s="34" t="s">
         <v>24</v>
       </c>
       <c r="AF2" s="35"/>
       <c r="AG2" s="35"/>
       <c r="AH2" s="36"/>
-      <c r="AI2" s="296"/>
-      <c r="AJ2" s="291"/>
-      <c r="AK2" s="291"/>
-      <c r="AL2" s="291"/>
-      <c r="AM2" s="292"/>
+      <c r="AI2" s="301"/>
+      <c r="AJ2" s="296"/>
+      <c r="AK2" s="296"/>
+      <c r="AL2" s="296"/>
+      <c r="AM2" s="297"/>
       <c r="AN2" s="34" t="s">
         <v>26</v>
       </c>
@@ -26888,13 +27056,13 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="284"/>
-      <c r="AU2" s="291"/>
-      <c r="AV2" s="291"/>
-      <c r="AW2" s="291"/>
-      <c r="AX2" s="291"/>
-      <c r="AY2" s="291"/>
-      <c r="AZ2" s="292"/>
+      <c r="AT2" s="291"/>
+      <c r="AU2" s="296"/>
+      <c r="AV2" s="296"/>
+      <c r="AW2" s="296"/>
+      <c r="AX2" s="296"/>
+      <c r="AY2" s="296"/>
+      <c r="AZ2" s="297"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="57"/>
@@ -27123,7 +27291,7 @@
       <c r="AW6" s="20"/>
     </row>
     <row r="7" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B7" s="303">
+      <c r="B7" s="308">
         <v>1</v>
       </c>
       <c r="C7" s="21" t="s">
@@ -27177,7 +27345,7 @@
       <c r="AW7" s="23"/>
     </row>
     <row r="8" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B8" s="304"/>
+      <c r="B8" s="309"/>
       <c r="C8" s="25"/>
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
@@ -27227,7 +27395,7 @@
       <c r="AW8" s="27"/>
     </row>
     <row r="9" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B9" s="303">
+      <c r="B9" s="308">
         <v>2</v>
       </c>
       <c r="C9" s="21" t="s">
@@ -27289,7 +27457,7 @@
       <c r="AW9" s="23"/>
     </row>
     <row r="10" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B10" s="305"/>
+      <c r="B10" s="310"/>
       <c r="C10" s="67"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
@@ -27339,7 +27507,7 @@
       <c r="AW10" s="27"/>
     </row>
     <row r="11" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B11" s="305"/>
+      <c r="B11" s="310"/>
       <c r="C11" s="67"/>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
@@ -27395,7 +27563,7 @@
       <c r="AW11" s="68"/>
     </row>
     <row r="12" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B12" s="304"/>
+      <c r="B12" s="309"/>
       <c r="C12" s="25"/>
       <c r="D12" s="26"/>
       <c r="E12" s="26"/>
@@ -27445,7 +27613,7 @@
       <c r="AW12" s="27"/>
     </row>
     <row r="13" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B13" s="303">
+      <c r="B13" s="308">
         <v>3</v>
       </c>
       <c r="C13" s="21" t="s">
@@ -27499,7 +27667,7 @@
       <c r="AW13" s="23"/>
     </row>
     <row r="14" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B14" s="304"/>
+      <c r="B14" s="309"/>
       <c r="C14" s="25"/>
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
@@ -27549,7 +27717,7 @@
       <c r="AW14" s="27"/>
     </row>
     <row r="15" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B15" s="303">
+      <c r="B15" s="308">
         <v>4</v>
       </c>
       <c r="C15" s="21" t="s">
@@ -27603,7 +27771,7 @@
       <c r="AW15" s="23"/>
     </row>
     <row r="16" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B16" s="304"/>
+      <c r="B16" s="309"/>
       <c r="C16" s="25"/>
       <c r="D16" s="26"/>
       <c r="E16" s="26"/>
@@ -27653,7 +27821,7 @@
       <c r="AW16" s="27"/>
     </row>
     <row r="17" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B17" s="303">
+      <c r="B17" s="308">
         <v>5</v>
       </c>
       <c r="C17" s="21" t="s">
@@ -27713,7 +27881,7 @@
       <c r="AW17" s="23"/>
     </row>
     <row r="18" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B18" s="304"/>
+      <c r="B18" s="309"/>
       <c r="C18" s="25"/>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
@@ -27763,7 +27931,7 @@
       <c r="AW18" s="27"/>
     </row>
     <row r="19" spans="1:52" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="303">
+      <c r="B19" s="308">
         <v>6</v>
       </c>
       <c r="C19" s="21" t="s">
@@ -27821,7 +27989,7 @@
       <c r="AW19" s="23"/>
     </row>
     <row r="20" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B20" s="304"/>
+      <c r="B20" s="309"/>
       <c r="C20" s="67"/>
       <c r="I20" s="68"/>
       <c r="J20" s="67"/>
@@ -27861,7 +28029,7 @@
       <c r="AW20" s="27"/>
     </row>
     <row r="21" spans="1:52" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="303">
+      <c r="B21" s="308">
         <v>7</v>
       </c>
       <c r="C21" s="21" t="s">
@@ -27915,7 +28083,7 @@
       <c r="AW21" s="23"/>
     </row>
     <row r="22" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B22" s="304"/>
+      <c r="B22" s="309"/>
       <c r="C22" s="67"/>
       <c r="I22" s="68"/>
       <c r="J22" s="67"/>
@@ -32037,14 +32205,14 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="281">
+      <c r="AI1" s="288">
         <f>変更履歴!E5</f>
         <v>43734</v>
       </c>
-      <c r="AJ1" s="298"/>
-      <c r="AK1" s="298"/>
-      <c r="AL1" s="298"/>
-      <c r="AM1" s="299"/>
+      <c r="AJ1" s="303"/>
+      <c r="AK1" s="303"/>
+      <c r="AL1" s="303"/>
+      <c r="AM1" s="304"/>
       <c r="AN1" s="34" t="s">
         <v>25</v>
       </c>
@@ -32053,16 +32221,16 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="284" t="str">
+      <c r="AT1" s="291" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
-      <c r="AU1" s="291"/>
-      <c r="AV1" s="291"/>
-      <c r="AW1" s="291"/>
-      <c r="AX1" s="291"/>
-      <c r="AY1" s="291"/>
-      <c r="AZ1" s="292"/>
+      <c r="AU1" s="296"/>
+      <c r="AV1" s="296"/>
+      <c r="AW1" s="296"/>
+      <c r="AX1" s="296"/>
+      <c r="AY1" s="296"/>
+      <c r="AZ1" s="297"/>
     </row>
     <row r="2" spans="1:63" s="48" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
@@ -32090,32 +32258,32 @@
       <c r="P2" s="38"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="39"/>
-      <c r="S2" s="297" t="str">
+      <c r="S2" s="302" t="str">
         <f>'１．機能概要'!W2</f>
         <v>在庫照会</v>
       </c>
-      <c r="T2" s="298"/>
-      <c r="U2" s="298"/>
-      <c r="V2" s="298"/>
-      <c r="W2" s="298"/>
-      <c r="X2" s="298"/>
-      <c r="Y2" s="298"/>
-      <c r="Z2" s="298"/>
-      <c r="AA2" s="298"/>
-      <c r="AB2" s="298"/>
-      <c r="AC2" s="298"/>
-      <c r="AD2" s="299"/>
+      <c r="T2" s="303"/>
+      <c r="U2" s="303"/>
+      <c r="V2" s="303"/>
+      <c r="W2" s="303"/>
+      <c r="X2" s="303"/>
+      <c r="Y2" s="303"/>
+      <c r="Z2" s="303"/>
+      <c r="AA2" s="303"/>
+      <c r="AB2" s="303"/>
+      <c r="AC2" s="303"/>
+      <c r="AD2" s="304"/>
       <c r="AE2" s="34" t="s">
         <v>24</v>
       </c>
       <c r="AF2" s="35"/>
       <c r="AG2" s="35"/>
       <c r="AH2" s="36"/>
-      <c r="AI2" s="296"/>
-      <c r="AJ2" s="291"/>
-      <c r="AK2" s="291"/>
-      <c r="AL2" s="291"/>
-      <c r="AM2" s="292"/>
+      <c r="AI2" s="301"/>
+      <c r="AJ2" s="296"/>
+      <c r="AK2" s="296"/>
+      <c r="AL2" s="296"/>
+      <c r="AM2" s="297"/>
       <c r="AN2" s="34" t="s">
         <v>26</v>
       </c>
@@ -32124,13 +32292,13 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="284"/>
-      <c r="AU2" s="291"/>
-      <c r="AV2" s="291"/>
-      <c r="AW2" s="291"/>
-      <c r="AX2" s="291"/>
-      <c r="AY2" s="291"/>
-      <c r="AZ2" s="292"/>
+      <c r="AT2" s="291"/>
+      <c r="AU2" s="296"/>
+      <c r="AV2" s="296"/>
+      <c r="AW2" s="296"/>
+      <c r="AX2" s="296"/>
+      <c r="AY2" s="296"/>
+      <c r="AZ2" s="297"/>
     </row>
     <row r="3" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A3" s="57"/>
@@ -44337,89 +44505,89 @@
       <c r="CX2" s="108"/>
     </row>
     <row r="3" spans="2:102" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="306" t="s">
+      <c r="B3" s="311" t="s">
         <v>207</v>
       </c>
-      <c r="C3" s="307"/>
-      <c r="D3" s="307"/>
-      <c r="E3" s="307"/>
-      <c r="F3" s="307"/>
-      <c r="G3" s="307"/>
-      <c r="H3" s="307"/>
-      <c r="I3" s="307"/>
-      <c r="J3" s="307"/>
-      <c r="K3" s="307"/>
-      <c r="L3" s="307"/>
-      <c r="M3" s="307"/>
-      <c r="N3" s="307"/>
-      <c r="O3" s="307"/>
-      <c r="P3" s="307"/>
-      <c r="Q3" s="307"/>
-      <c r="R3" s="307"/>
-      <c r="S3" s="307"/>
-      <c r="T3" s="307"/>
-      <c r="U3" s="307"/>
-      <c r="V3" s="307"/>
-      <c r="W3" s="307"/>
-      <c r="X3" s="307"/>
-      <c r="Y3" s="307"/>
-      <c r="Z3" s="307"/>
-      <c r="AA3" s="307"/>
-      <c r="AB3" s="307"/>
-      <c r="AC3" s="307"/>
-      <c r="AD3" s="307"/>
-      <c r="AE3" s="307"/>
-      <c r="AF3" s="307"/>
-      <c r="AG3" s="307"/>
-      <c r="AH3" s="307"/>
-      <c r="AI3" s="307"/>
-      <c r="AJ3" s="307"/>
-      <c r="AK3" s="307"/>
-      <c r="AL3" s="307"/>
-      <c r="AM3" s="307"/>
-      <c r="AN3" s="307"/>
-      <c r="AO3" s="307"/>
-      <c r="AP3" s="307"/>
-      <c r="AQ3" s="307"/>
-      <c r="AR3" s="307"/>
-      <c r="AS3" s="307"/>
-      <c r="AT3" s="307"/>
-      <c r="AU3" s="307"/>
-      <c r="AV3" s="307"/>
-      <c r="AW3" s="307"/>
-      <c r="AX3" s="307"/>
-      <c r="AY3" s="307"/>
-      <c r="AZ3" s="307"/>
-      <c r="BA3" s="307"/>
-      <c r="BB3" s="307"/>
-      <c r="BC3" s="307"/>
-      <c r="BD3" s="307"/>
-      <c r="BE3" s="307"/>
-      <c r="BF3" s="307"/>
-      <c r="BG3" s="307"/>
-      <c r="BH3" s="307"/>
-      <c r="BI3" s="307"/>
-      <c r="BJ3" s="307"/>
-      <c r="BK3" s="307"/>
-      <c r="BL3" s="307"/>
-      <c r="BM3" s="307"/>
-      <c r="BN3" s="307"/>
-      <c r="BO3" s="307"/>
-      <c r="BP3" s="307"/>
-      <c r="BQ3" s="307"/>
-      <c r="BR3" s="307"/>
-      <c r="BS3" s="307"/>
-      <c r="BT3" s="307"/>
-      <c r="BU3" s="307"/>
-      <c r="BV3" s="307"/>
-      <c r="BW3" s="307"/>
-      <c r="BX3" s="307"/>
-      <c r="BY3" s="307"/>
-      <c r="BZ3" s="307"/>
-      <c r="CA3" s="307"/>
-      <c r="CB3" s="307"/>
-      <c r="CC3" s="307"/>
-      <c r="CD3" s="308"/>
+      <c r="C3" s="312"/>
+      <c r="D3" s="312"/>
+      <c r="E3" s="312"/>
+      <c r="F3" s="312"/>
+      <c r="G3" s="312"/>
+      <c r="H3" s="312"/>
+      <c r="I3" s="312"/>
+      <c r="J3" s="312"/>
+      <c r="K3" s="312"/>
+      <c r="L3" s="312"/>
+      <c r="M3" s="312"/>
+      <c r="N3" s="312"/>
+      <c r="O3" s="312"/>
+      <c r="P3" s="312"/>
+      <c r="Q3" s="312"/>
+      <c r="R3" s="312"/>
+      <c r="S3" s="312"/>
+      <c r="T3" s="312"/>
+      <c r="U3" s="312"/>
+      <c r="V3" s="312"/>
+      <c r="W3" s="312"/>
+      <c r="X3" s="312"/>
+      <c r="Y3" s="312"/>
+      <c r="Z3" s="312"/>
+      <c r="AA3" s="312"/>
+      <c r="AB3" s="312"/>
+      <c r="AC3" s="312"/>
+      <c r="AD3" s="312"/>
+      <c r="AE3" s="312"/>
+      <c r="AF3" s="312"/>
+      <c r="AG3" s="312"/>
+      <c r="AH3" s="312"/>
+      <c r="AI3" s="312"/>
+      <c r="AJ3" s="312"/>
+      <c r="AK3" s="312"/>
+      <c r="AL3" s="312"/>
+      <c r="AM3" s="312"/>
+      <c r="AN3" s="312"/>
+      <c r="AO3" s="312"/>
+      <c r="AP3" s="312"/>
+      <c r="AQ3" s="312"/>
+      <c r="AR3" s="312"/>
+      <c r="AS3" s="312"/>
+      <c r="AT3" s="312"/>
+      <c r="AU3" s="312"/>
+      <c r="AV3" s="312"/>
+      <c r="AW3" s="312"/>
+      <c r="AX3" s="312"/>
+      <c r="AY3" s="312"/>
+      <c r="AZ3" s="312"/>
+      <c r="BA3" s="312"/>
+      <c r="BB3" s="312"/>
+      <c r="BC3" s="312"/>
+      <c r="BD3" s="312"/>
+      <c r="BE3" s="312"/>
+      <c r="BF3" s="312"/>
+      <c r="BG3" s="312"/>
+      <c r="BH3" s="312"/>
+      <c r="BI3" s="312"/>
+      <c r="BJ3" s="312"/>
+      <c r="BK3" s="312"/>
+      <c r="BL3" s="312"/>
+      <c r="BM3" s="312"/>
+      <c r="BN3" s="312"/>
+      <c r="BO3" s="312"/>
+      <c r="BP3" s="312"/>
+      <c r="BQ3" s="312"/>
+      <c r="BR3" s="312"/>
+      <c r="BS3" s="312"/>
+      <c r="BT3" s="312"/>
+      <c r="BU3" s="312"/>
+      <c r="BV3" s="312"/>
+      <c r="BW3" s="312"/>
+      <c r="BX3" s="312"/>
+      <c r="BY3" s="312"/>
+      <c r="BZ3" s="312"/>
+      <c r="CA3" s="312"/>
+      <c r="CB3" s="312"/>
+      <c r="CC3" s="312"/>
+      <c r="CD3" s="313"/>
       <c r="CE3" s="109" t="s">
         <v>151</v>
       </c>
@@ -44446,87 +44614,87 @@
       <c r="CX3" s="114"/>
     </row>
     <row r="4" spans="2:102" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="309"/>
-      <c r="C4" s="310"/>
-      <c r="D4" s="310"/>
-      <c r="E4" s="310"/>
-      <c r="F4" s="310"/>
-      <c r="G4" s="310"/>
-      <c r="H4" s="310"/>
-      <c r="I4" s="310"/>
-      <c r="J4" s="310"/>
-      <c r="K4" s="310"/>
-      <c r="L4" s="310"/>
-      <c r="M4" s="310"/>
-      <c r="N4" s="310"/>
-      <c r="O4" s="310"/>
-      <c r="P4" s="310"/>
-      <c r="Q4" s="310"/>
-      <c r="R4" s="310"/>
-      <c r="S4" s="310"/>
-      <c r="T4" s="310"/>
-      <c r="U4" s="310"/>
-      <c r="V4" s="310"/>
-      <c r="W4" s="310"/>
-      <c r="X4" s="310"/>
-      <c r="Y4" s="310"/>
-      <c r="Z4" s="310"/>
-      <c r="AA4" s="310"/>
-      <c r="AB4" s="310"/>
-      <c r="AC4" s="310"/>
-      <c r="AD4" s="310"/>
-      <c r="AE4" s="310"/>
-      <c r="AF4" s="310"/>
-      <c r="AG4" s="310"/>
-      <c r="AH4" s="310"/>
-      <c r="AI4" s="310"/>
-      <c r="AJ4" s="310"/>
-      <c r="AK4" s="310"/>
-      <c r="AL4" s="310"/>
-      <c r="AM4" s="310"/>
-      <c r="AN4" s="310"/>
-      <c r="AO4" s="310"/>
-      <c r="AP4" s="310"/>
-      <c r="AQ4" s="310"/>
-      <c r="AR4" s="310"/>
-      <c r="AS4" s="310"/>
-      <c r="AT4" s="310"/>
-      <c r="AU4" s="310"/>
-      <c r="AV4" s="310"/>
-      <c r="AW4" s="310"/>
-      <c r="AX4" s="310"/>
-      <c r="AY4" s="310"/>
-      <c r="AZ4" s="310"/>
-      <c r="BA4" s="310"/>
-      <c r="BB4" s="310"/>
-      <c r="BC4" s="310"/>
-      <c r="BD4" s="310"/>
-      <c r="BE4" s="310"/>
-      <c r="BF4" s="310"/>
-      <c r="BG4" s="310"/>
-      <c r="BH4" s="310"/>
-      <c r="BI4" s="310"/>
-      <c r="BJ4" s="310"/>
-      <c r="BK4" s="310"/>
-      <c r="BL4" s="310"/>
-      <c r="BM4" s="310"/>
-      <c r="BN4" s="310"/>
-      <c r="BO4" s="310"/>
-      <c r="BP4" s="310"/>
-      <c r="BQ4" s="310"/>
-      <c r="BR4" s="310"/>
-      <c r="BS4" s="310"/>
-      <c r="BT4" s="310"/>
-      <c r="BU4" s="310"/>
-      <c r="BV4" s="310"/>
-      <c r="BW4" s="310"/>
-      <c r="BX4" s="310"/>
-      <c r="BY4" s="310"/>
-      <c r="BZ4" s="310"/>
-      <c r="CA4" s="310"/>
-      <c r="CB4" s="310"/>
-      <c r="CC4" s="310"/>
-      <c r="CD4" s="311"/>
+      <c r="B4" s="314"/>
+      <c r="C4" s="315"/>
+      <c r="D4" s="315"/>
+      <c r="E4" s="315"/>
+      <c r="F4" s="315"/>
+      <c r="G4" s="315"/>
+      <c r="H4" s="315"/>
+      <c r="I4" s="315"/>
+      <c r="J4" s="315"/>
+      <c r="K4" s="315"/>
+      <c r="L4" s="315"/>
+      <c r="M4" s="315"/>
+      <c r="N4" s="315"/>
+      <c r="O4" s="315"/>
+      <c r="P4" s="315"/>
+      <c r="Q4" s="315"/>
+      <c r="R4" s="315"/>
+      <c r="S4" s="315"/>
+      <c r="T4" s="315"/>
+      <c r="U4" s="315"/>
+      <c r="V4" s="315"/>
+      <c r="W4" s="315"/>
+      <c r="X4" s="315"/>
+      <c r="Y4" s="315"/>
+      <c r="Z4" s="315"/>
+      <c r="AA4" s="315"/>
+      <c r="AB4" s="315"/>
+      <c r="AC4" s="315"/>
+      <c r="AD4" s="315"/>
+      <c r="AE4" s="315"/>
+      <c r="AF4" s="315"/>
+      <c r="AG4" s="315"/>
+      <c r="AH4" s="315"/>
+      <c r="AI4" s="315"/>
+      <c r="AJ4" s="315"/>
+      <c r="AK4" s="315"/>
+      <c r="AL4" s="315"/>
+      <c r="AM4" s="315"/>
+      <c r="AN4" s="315"/>
+      <c r="AO4" s="315"/>
+      <c r="AP4" s="315"/>
+      <c r="AQ4" s="315"/>
+      <c r="AR4" s="315"/>
+      <c r="AS4" s="315"/>
+      <c r="AT4" s="315"/>
+      <c r="AU4" s="315"/>
+      <c r="AV4" s="315"/>
+      <c r="AW4" s="315"/>
+      <c r="AX4" s="315"/>
+      <c r="AY4" s="315"/>
+      <c r="AZ4" s="315"/>
+      <c r="BA4" s="315"/>
+      <c r="BB4" s="315"/>
+      <c r="BC4" s="315"/>
+      <c r="BD4" s="315"/>
+      <c r="BE4" s="315"/>
+      <c r="BF4" s="315"/>
+      <c r="BG4" s="315"/>
+      <c r="BH4" s="315"/>
+      <c r="BI4" s="315"/>
+      <c r="BJ4" s="315"/>
+      <c r="BK4" s="315"/>
+      <c r="BL4" s="315"/>
+      <c r="BM4" s="315"/>
+      <c r="BN4" s="315"/>
+      <c r="BO4" s="315"/>
+      <c r="BP4" s="315"/>
+      <c r="BQ4" s="315"/>
+      <c r="BR4" s="315"/>
+      <c r="BS4" s="315"/>
+      <c r="BT4" s="315"/>
+      <c r="BU4" s="315"/>
+      <c r="BV4" s="315"/>
+      <c r="BW4" s="315"/>
+      <c r="BX4" s="315"/>
+      <c r="BY4" s="315"/>
+      <c r="BZ4" s="315"/>
+      <c r="CA4" s="315"/>
+      <c r="CB4" s="315"/>
+      <c r="CC4" s="315"/>
+      <c r="CD4" s="316"/>
       <c r="CE4" s="115" t="s">
         <v>153</v>
       </c>
@@ -49400,6 +49568,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -49557,15 +49734,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
   <ds:schemaRefs>
@@ -49583,6 +49751,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -49598,12 +49774,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/01_基本設計書/20200220リリース/SC-Z01_在庫照会.xlsx
+++ b/01_基本設計書/20200220リリース/SC-Z01_在庫照会.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C51012-02BE-4EED-AD97-FB2671581482}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6F71C8-60C1-4C8B-9F43-FEC32C725EC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4873,6 +4873,9 @@
     <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4882,91 +4885,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4993,6 +4911,91 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="7" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5092,9 +5095,6 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="9" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -5947,7 +5947,7 @@
         <xdr:cNvPr id="11" name="フローチャート: 書類 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{785638E9-B041-4778-89E7-F82900E4B7BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6015,7 +6015,7 @@
         <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B95B961-9E34-4BEE-82AC-2CAFCE57FB43}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6087,7 +6087,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$47" spid="_x0000_s3544"/>
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$47" spid="_x0000_s3547"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6747,10 +6747,10 @@
             </xdr:nvGrpSpPr>
             <xdr:grpSpPr>
               <a:xfrm>
-                <a:off x="1823232" y="2648501"/>
-                <a:ext cx="777645" cy="485661"/>
-                <a:chOff x="191656" y="3012345"/>
-                <a:chExt cx="777645" cy="479472"/>
+                <a:off x="1823232" y="2648508"/>
+                <a:ext cx="777645" cy="485649"/>
+                <a:chOff x="191656" y="3012352"/>
+                <a:chExt cx="777645" cy="479460"/>
               </a:xfrm>
             </xdr:grpSpPr>
             <xdr:sp macro="" textlink="">
@@ -6769,7 +6769,7 @@
               </xdr:nvSpPr>
               <xdr:spPr bwMode="auto">
                 <a:xfrm>
-                  <a:off x="191656" y="3012345"/>
+                  <a:off x="191656" y="3012352"/>
                   <a:ext cx="777645" cy="164478"/>
                 </a:xfrm>
                 <a:prstGeom prst="rect">
@@ -6835,7 +6835,7 @@
               </xdr:nvSpPr>
               <xdr:spPr bwMode="auto">
                 <a:xfrm>
-                  <a:off x="196808" y="3340337"/>
+                  <a:off x="196808" y="3340332"/>
                   <a:ext cx="763862" cy="151480"/>
                 </a:xfrm>
                 <a:prstGeom prst="rect">
@@ -8222,108 +8222,108 @@
       <c r="AG31" s="3"/>
     </row>
     <row r="32" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="241" t="s">
+      <c r="A32" s="242" t="s">
         <v>205</v>
       </c>
-      <c r="B32" s="241"/>
-      <c r="C32" s="241"/>
-      <c r="D32" s="241"/>
-      <c r="E32" s="241"/>
-      <c r="F32" s="241"/>
-      <c r="G32" s="241"/>
-      <c r="H32" s="241"/>
-      <c r="I32" s="241"/>
-      <c r="J32" s="241"/>
-      <c r="K32" s="241"/>
-      <c r="L32" s="241"/>
-      <c r="M32" s="241"/>
-      <c r="N32" s="241"/>
-      <c r="O32" s="241"/>
-      <c r="P32" s="241"/>
-      <c r="Q32" s="241"/>
-      <c r="R32" s="241"/>
-      <c r="S32" s="241"/>
-      <c r="T32" s="241"/>
-      <c r="U32" s="241"/>
-      <c r="V32" s="241"/>
-      <c r="W32" s="241"/>
-      <c r="X32" s="241"/>
-      <c r="Y32" s="241"/>
-      <c r="Z32" s="241"/>
-      <c r="AA32" s="241"/>
-      <c r="AB32" s="241"/>
-      <c r="AC32" s="241"/>
-      <c r="AD32" s="241"/>
-      <c r="AE32" s="241"/>
-      <c r="AF32" s="241"/>
-      <c r="AG32" s="241"/>
-      <c r="AH32" s="241"/>
-      <c r="AI32" s="241"/>
-      <c r="AJ32" s="241"/>
-      <c r="AK32" s="241"/>
-      <c r="AL32" s="241"/>
-      <c r="AM32" s="241"/>
-      <c r="AN32" s="241"/>
-      <c r="AO32" s="241"/>
-      <c r="AP32" s="241"/>
-      <c r="AQ32" s="241"/>
-      <c r="AR32" s="241"/>
-      <c r="AS32" s="241"/>
-      <c r="AT32" s="241"/>
-      <c r="AU32" s="241"/>
-      <c r="AV32" s="241"/>
-      <c r="AW32" s="241"/>
+      <c r="B32" s="242"/>
+      <c r="C32" s="242"/>
+      <c r="D32" s="242"/>
+      <c r="E32" s="242"/>
+      <c r="F32" s="242"/>
+      <c r="G32" s="242"/>
+      <c r="H32" s="242"/>
+      <c r="I32" s="242"/>
+      <c r="J32" s="242"/>
+      <c r="K32" s="242"/>
+      <c r="L32" s="242"/>
+      <c r="M32" s="242"/>
+      <c r="N32" s="242"/>
+      <c r="O32" s="242"/>
+      <c r="P32" s="242"/>
+      <c r="Q32" s="242"/>
+      <c r="R32" s="242"/>
+      <c r="S32" s="242"/>
+      <c r="T32" s="242"/>
+      <c r="U32" s="242"/>
+      <c r="V32" s="242"/>
+      <c r="W32" s="242"/>
+      <c r="X32" s="242"/>
+      <c r="Y32" s="242"/>
+      <c r="Z32" s="242"/>
+      <c r="AA32" s="242"/>
+      <c r="AB32" s="242"/>
+      <c r="AC32" s="242"/>
+      <c r="AD32" s="242"/>
+      <c r="AE32" s="242"/>
+      <c r="AF32" s="242"/>
+      <c r="AG32" s="242"/>
+      <c r="AH32" s="242"/>
+      <c r="AI32" s="242"/>
+      <c r="AJ32" s="242"/>
+      <c r="AK32" s="242"/>
+      <c r="AL32" s="242"/>
+      <c r="AM32" s="242"/>
+      <c r="AN32" s="242"/>
+      <c r="AO32" s="242"/>
+      <c r="AP32" s="242"/>
+      <c r="AQ32" s="242"/>
+      <c r="AR32" s="242"/>
+      <c r="AS32" s="242"/>
+      <c r="AT32" s="242"/>
+      <c r="AU32" s="242"/>
+      <c r="AV32" s="242"/>
+      <c r="AW32" s="242"/>
     </row>
     <row r="33" spans="1:49" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A33" s="242"/>
-      <c r="B33" s="242"/>
-      <c r="C33" s="242"/>
-      <c r="D33" s="242"/>
-      <c r="E33" s="242"/>
-      <c r="F33" s="242"/>
-      <c r="G33" s="242"/>
-      <c r="H33" s="242"/>
-      <c r="I33" s="242"/>
-      <c r="J33" s="242"/>
-      <c r="K33" s="242"/>
-      <c r="L33" s="242"/>
-      <c r="M33" s="242"/>
-      <c r="N33" s="242"/>
-      <c r="O33" s="242"/>
-      <c r="P33" s="242"/>
-      <c r="Q33" s="242"/>
-      <c r="R33" s="242"/>
-      <c r="S33" s="242"/>
-      <c r="T33" s="242"/>
-      <c r="U33" s="242"/>
-      <c r="V33" s="242"/>
-      <c r="W33" s="242"/>
-      <c r="X33" s="242"/>
-      <c r="Y33" s="242"/>
-      <c r="Z33" s="242"/>
-      <c r="AA33" s="242"/>
-      <c r="AB33" s="242"/>
-      <c r="AC33" s="242"/>
-      <c r="AD33" s="242"/>
-      <c r="AE33" s="242"/>
-      <c r="AF33" s="242"/>
-      <c r="AG33" s="242"/>
-      <c r="AH33" s="242"/>
-      <c r="AI33" s="242"/>
-      <c r="AJ33" s="242"/>
-      <c r="AK33" s="242"/>
-      <c r="AL33" s="242"/>
-      <c r="AM33" s="242"/>
-      <c r="AN33" s="242"/>
-      <c r="AO33" s="242"/>
-      <c r="AP33" s="242"/>
-      <c r="AQ33" s="242"/>
-      <c r="AR33" s="242"/>
-      <c r="AS33" s="242"/>
-      <c r="AT33" s="242"/>
-      <c r="AU33" s="242"/>
-      <c r="AV33" s="242"/>
-      <c r="AW33" s="242"/>
+      <c r="A33" s="243"/>
+      <c r="B33" s="243"/>
+      <c r="C33" s="243"/>
+      <c r="D33" s="243"/>
+      <c r="E33" s="243"/>
+      <c r="F33" s="243"/>
+      <c r="G33" s="243"/>
+      <c r="H33" s="243"/>
+      <c r="I33" s="243"/>
+      <c r="J33" s="243"/>
+      <c r="K33" s="243"/>
+      <c r="L33" s="243"/>
+      <c r="M33" s="243"/>
+      <c r="N33" s="243"/>
+      <c r="O33" s="243"/>
+      <c r="P33" s="243"/>
+      <c r="Q33" s="243"/>
+      <c r="R33" s="243"/>
+      <c r="S33" s="243"/>
+      <c r="T33" s="243"/>
+      <c r="U33" s="243"/>
+      <c r="V33" s="243"/>
+      <c r="W33" s="243"/>
+      <c r="X33" s="243"/>
+      <c r="Y33" s="243"/>
+      <c r="Z33" s="243"/>
+      <c r="AA33" s="243"/>
+      <c r="AB33" s="243"/>
+      <c r="AC33" s="243"/>
+      <c r="AD33" s="243"/>
+      <c r="AE33" s="243"/>
+      <c r="AF33" s="243"/>
+      <c r="AG33" s="243"/>
+      <c r="AH33" s="243"/>
+      <c r="AI33" s="243"/>
+      <c r="AJ33" s="243"/>
+      <c r="AK33" s="243"/>
+      <c r="AL33" s="243"/>
+      <c r="AM33" s="243"/>
+      <c r="AN33" s="243"/>
+      <c r="AO33" s="243"/>
+      <c r="AP33" s="243"/>
+      <c r="AQ33" s="243"/>
+      <c r="AR33" s="243"/>
+      <c r="AS33" s="243"/>
+      <c r="AT33" s="243"/>
+      <c r="AU33" s="243"/>
+      <c r="AV33" s="243"/>
+      <c r="AW33" s="243"/>
     </row>
     <row r="34" spans="1:49" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
@@ -8361,55 +8361,55 @@
       <c r="AG34" s="4"/>
     </row>
     <row r="35" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="243"/>
-      <c r="B35" s="243"/>
-      <c r="C35" s="243"/>
-      <c r="D35" s="243"/>
-      <c r="E35" s="243"/>
-      <c r="F35" s="243"/>
-      <c r="G35" s="243"/>
-      <c r="H35" s="243"/>
-      <c r="I35" s="243"/>
-      <c r="J35" s="243"/>
-      <c r="K35" s="243"/>
-      <c r="L35" s="243"/>
-      <c r="M35" s="243"/>
-      <c r="N35" s="243"/>
-      <c r="O35" s="243"/>
-      <c r="P35" s="243"/>
-      <c r="Q35" s="243"/>
-      <c r="R35" s="243"/>
-      <c r="S35" s="243"/>
-      <c r="T35" s="243"/>
-      <c r="U35" s="243"/>
-      <c r="V35" s="243"/>
-      <c r="W35" s="243"/>
-      <c r="X35" s="243"/>
-      <c r="Y35" s="243"/>
-      <c r="Z35" s="243"/>
-      <c r="AA35" s="243"/>
-      <c r="AB35" s="243"/>
-      <c r="AC35" s="243"/>
-      <c r="AD35" s="243"/>
-      <c r="AE35" s="243"/>
-      <c r="AF35" s="243"/>
-      <c r="AG35" s="243"/>
-      <c r="AH35" s="243"/>
-      <c r="AI35" s="243"/>
-      <c r="AJ35" s="243"/>
-      <c r="AK35" s="243"/>
-      <c r="AL35" s="243"/>
-      <c r="AM35" s="243"/>
-      <c r="AN35" s="243"/>
-      <c r="AO35" s="243"/>
-      <c r="AP35" s="243"/>
-      <c r="AQ35" s="243"/>
-      <c r="AR35" s="243"/>
-      <c r="AS35" s="243"/>
-      <c r="AT35" s="243"/>
-      <c r="AU35" s="243"/>
-      <c r="AV35" s="243"/>
-      <c r="AW35" s="243"/>
+      <c r="A35" s="244"/>
+      <c r="B35" s="244"/>
+      <c r="C35" s="244"/>
+      <c r="D35" s="244"/>
+      <c r="E35" s="244"/>
+      <c r="F35" s="244"/>
+      <c r="G35" s="244"/>
+      <c r="H35" s="244"/>
+      <c r="I35" s="244"/>
+      <c r="J35" s="244"/>
+      <c r="K35" s="244"/>
+      <c r="L35" s="244"/>
+      <c r="M35" s="244"/>
+      <c r="N35" s="244"/>
+      <c r="O35" s="244"/>
+      <c r="P35" s="244"/>
+      <c r="Q35" s="244"/>
+      <c r="R35" s="244"/>
+      <c r="S35" s="244"/>
+      <c r="T35" s="244"/>
+      <c r="U35" s="244"/>
+      <c r="V35" s="244"/>
+      <c r="W35" s="244"/>
+      <c r="X35" s="244"/>
+      <c r="Y35" s="244"/>
+      <c r="Z35" s="244"/>
+      <c r="AA35" s="244"/>
+      <c r="AB35" s="244"/>
+      <c r="AC35" s="244"/>
+      <c r="AD35" s="244"/>
+      <c r="AE35" s="244"/>
+      <c r="AF35" s="244"/>
+      <c r="AG35" s="244"/>
+      <c r="AH35" s="244"/>
+      <c r="AI35" s="244"/>
+      <c r="AJ35" s="244"/>
+      <c r="AK35" s="244"/>
+      <c r="AL35" s="244"/>
+      <c r="AM35" s="244"/>
+      <c r="AN35" s="244"/>
+      <c r="AO35" s="244"/>
+      <c r="AP35" s="244"/>
+      <c r="AQ35" s="244"/>
+      <c r="AR35" s="244"/>
+      <c r="AS35" s="244"/>
+      <c r="AT35" s="244"/>
+      <c r="AU35" s="244"/>
+      <c r="AV35" s="244"/>
+      <c r="AW35" s="244"/>
     </row>
     <row r="42" spans="1:49" x14ac:dyDescent="0.15">
       <c r="P42" s="3" t="s">
@@ -8444,1779 +8444,1994 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="54"/>
-      <c r="B1" s="275" t="s">
+      <c r="B1" s="245" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="275"/>
-      <c r="D1" s="275"/>
-      <c r="E1" s="275"/>
-      <c r="F1" s="275"/>
-      <c r="G1" s="275"/>
-      <c r="H1" s="275"/>
-      <c r="I1" s="275"/>
-      <c r="J1" s="275"/>
-      <c r="K1" s="275"/>
-      <c r="L1" s="275"/>
-      <c r="M1" s="275"/>
-      <c r="N1" s="275"/>
-      <c r="O1" s="275"/>
-      <c r="P1" s="275"/>
-      <c r="Q1" s="275"/>
-      <c r="R1" s="275"/>
-      <c r="S1" s="275"/>
-      <c r="T1" s="275"/>
-      <c r="U1" s="275"/>
-      <c r="V1" s="275"/>
-      <c r="W1" s="275"/>
-      <c r="X1" s="275"/>
-      <c r="Y1" s="275"/>
-      <c r="Z1" s="275"/>
-      <c r="AA1" s="275"/>
-      <c r="AB1" s="275"/>
-      <c r="AC1" s="275"/>
-      <c r="AD1" s="275"/>
-      <c r="AE1" s="275"/>
-      <c r="AF1" s="275"/>
-      <c r="AG1" s="275"/>
-      <c r="AH1" s="275"/>
-      <c r="AI1" s="275"/>
-      <c r="AJ1" s="275"/>
-      <c r="AK1" s="275"/>
-      <c r="AL1" s="275"/>
-      <c r="AM1" s="275"/>
-      <c r="AN1" s="275"/>
-      <c r="AO1" s="275"/>
-      <c r="AP1" s="275"/>
-      <c r="AQ1" s="275"/>
-      <c r="AR1" s="275"/>
-      <c r="AS1" s="275"/>
-      <c r="AT1" s="275"/>
-      <c r="AU1" s="275"/>
-      <c r="AV1" s="275"/>
-      <c r="AW1" s="275"/>
+      <c r="C1" s="245"/>
+      <c r="D1" s="245"/>
+      <c r="E1" s="245"/>
+      <c r="F1" s="245"/>
+      <c r="G1" s="245"/>
+      <c r="H1" s="245"/>
+      <c r="I1" s="245"/>
+      <c r="J1" s="245"/>
+      <c r="K1" s="245"/>
+      <c r="L1" s="245"/>
+      <c r="M1" s="245"/>
+      <c r="N1" s="245"/>
+      <c r="O1" s="245"/>
+      <c r="P1" s="245"/>
+      <c r="Q1" s="245"/>
+      <c r="R1" s="245"/>
+      <c r="S1" s="245"/>
+      <c r="T1" s="245"/>
+      <c r="U1" s="245"/>
+      <c r="V1" s="245"/>
+      <c r="W1" s="245"/>
+      <c r="X1" s="245"/>
+      <c r="Y1" s="245"/>
+      <c r="Z1" s="245"/>
+      <c r="AA1" s="245"/>
+      <c r="AB1" s="245"/>
+      <c r="AC1" s="245"/>
+      <c r="AD1" s="245"/>
+      <c r="AE1" s="245"/>
+      <c r="AF1" s="245"/>
+      <c r="AG1" s="245"/>
+      <c r="AH1" s="245"/>
+      <c r="AI1" s="245"/>
+      <c r="AJ1" s="245"/>
+      <c r="AK1" s="245"/>
+      <c r="AL1" s="245"/>
+      <c r="AM1" s="245"/>
+      <c r="AN1" s="245"/>
+      <c r="AO1" s="245"/>
+      <c r="AP1" s="245"/>
+      <c r="AQ1" s="245"/>
+      <c r="AR1" s="245"/>
+      <c r="AS1" s="245"/>
+      <c r="AT1" s="245"/>
+      <c r="AU1" s="245"/>
+      <c r="AV1" s="245"/>
+      <c r="AW1" s="245"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="54"/>
-      <c r="B2" s="276"/>
-      <c r="C2" s="276"/>
-      <c r="D2" s="276"/>
-      <c r="E2" s="276"/>
-      <c r="F2" s="276"/>
-      <c r="G2" s="276"/>
-      <c r="H2" s="276"/>
-      <c r="I2" s="276"/>
-      <c r="J2" s="276"/>
-      <c r="K2" s="276"/>
-      <c r="L2" s="276"/>
-      <c r="M2" s="276"/>
-      <c r="N2" s="276"/>
-      <c r="O2" s="276"/>
-      <c r="P2" s="276"/>
-      <c r="Q2" s="276"/>
-      <c r="R2" s="276"/>
-      <c r="S2" s="276"/>
-      <c r="T2" s="276"/>
-      <c r="U2" s="276"/>
-      <c r="V2" s="276"/>
-      <c r="W2" s="276"/>
-      <c r="X2" s="276"/>
-      <c r="Y2" s="276"/>
-      <c r="Z2" s="276"/>
-      <c r="AA2" s="276"/>
-      <c r="AB2" s="276"/>
-      <c r="AC2" s="276"/>
-      <c r="AD2" s="276"/>
-      <c r="AE2" s="276"/>
-      <c r="AF2" s="276"/>
-      <c r="AG2" s="276"/>
-      <c r="AH2" s="276"/>
-      <c r="AI2" s="276"/>
-      <c r="AJ2" s="276"/>
-      <c r="AK2" s="276"/>
-      <c r="AL2" s="276"/>
-      <c r="AM2" s="276"/>
-      <c r="AN2" s="276"/>
-      <c r="AO2" s="276"/>
-      <c r="AP2" s="276"/>
-      <c r="AQ2" s="276"/>
-      <c r="AR2" s="276"/>
-      <c r="AS2" s="276"/>
-      <c r="AT2" s="276"/>
-      <c r="AU2" s="276"/>
-      <c r="AV2" s="276"/>
-      <c r="AW2" s="276"/>
+      <c r="B2" s="246"/>
+      <c r="C2" s="246"/>
+      <c r="D2" s="246"/>
+      <c r="E2" s="246"/>
+      <c r="F2" s="246"/>
+      <c r="G2" s="246"/>
+      <c r="H2" s="246"/>
+      <c r="I2" s="246"/>
+      <c r="J2" s="246"/>
+      <c r="K2" s="246"/>
+      <c r="L2" s="246"/>
+      <c r="M2" s="246"/>
+      <c r="N2" s="246"/>
+      <c r="O2" s="246"/>
+      <c r="P2" s="246"/>
+      <c r="Q2" s="246"/>
+      <c r="R2" s="246"/>
+      <c r="S2" s="246"/>
+      <c r="T2" s="246"/>
+      <c r="U2" s="246"/>
+      <c r="V2" s="246"/>
+      <c r="W2" s="246"/>
+      <c r="X2" s="246"/>
+      <c r="Y2" s="246"/>
+      <c r="Z2" s="246"/>
+      <c r="AA2" s="246"/>
+      <c r="AB2" s="246"/>
+      <c r="AC2" s="246"/>
+      <c r="AD2" s="246"/>
+      <c r="AE2" s="246"/>
+      <c r="AF2" s="246"/>
+      <c r="AG2" s="246"/>
+      <c r="AH2" s="246"/>
+      <c r="AI2" s="246"/>
+      <c r="AJ2" s="246"/>
+      <c r="AK2" s="246"/>
+      <c r="AL2" s="246"/>
+      <c r="AM2" s="246"/>
+      <c r="AN2" s="246"/>
+      <c r="AO2" s="246"/>
+      <c r="AP2" s="246"/>
+      <c r="AQ2" s="246"/>
+      <c r="AR2" s="246"/>
+      <c r="AS2" s="246"/>
+      <c r="AT2" s="246"/>
+      <c r="AU2" s="246"/>
+      <c r="AV2" s="246"/>
+      <c r="AW2" s="246"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="54"/>
-      <c r="B3" s="277" t="s">
+      <c r="B3" s="247" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="277"/>
-      <c r="D3" s="277"/>
-      <c r="E3" s="277" t="s">
+      <c r="C3" s="247"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="277"/>
-      <c r="G3" s="277"/>
-      <c r="H3" s="277"/>
-      <c r="I3" s="277"/>
-      <c r="J3" s="278" t="s">
+      <c r="F3" s="247"/>
+      <c r="G3" s="247"/>
+      <c r="H3" s="247"/>
+      <c r="I3" s="247"/>
+      <c r="J3" s="248" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="279"/>
-      <c r="L3" s="280"/>
-      <c r="M3" s="278" t="s">
+      <c r="K3" s="249"/>
+      <c r="L3" s="250"/>
+      <c r="M3" s="248" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="279"/>
-      <c r="O3" s="279"/>
-      <c r="P3" s="279"/>
-      <c r="Q3" s="279"/>
-      <c r="R3" s="280"/>
-      <c r="S3" s="277" t="s">
+      <c r="N3" s="249"/>
+      <c r="O3" s="249"/>
+      <c r="P3" s="249"/>
+      <c r="Q3" s="249"/>
+      <c r="R3" s="250"/>
+      <c r="S3" s="247" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="277"/>
-      <c r="U3" s="277"/>
-      <c r="V3" s="277" t="s">
+      <c r="T3" s="247"/>
+      <c r="U3" s="247"/>
+      <c r="V3" s="247" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="277"/>
-      <c r="X3" s="277"/>
-      <c r="Y3" s="277"/>
-      <c r="Z3" s="277"/>
-      <c r="AA3" s="277"/>
-      <c r="AB3" s="277"/>
-      <c r="AC3" s="277"/>
-      <c r="AD3" s="277"/>
-      <c r="AE3" s="277"/>
-      <c r="AF3" s="277"/>
-      <c r="AG3" s="277"/>
-      <c r="AH3" s="277"/>
-      <c r="AI3" s="277"/>
-      <c r="AJ3" s="277"/>
-      <c r="AK3" s="277"/>
-      <c r="AL3" s="277"/>
-      <c r="AM3" s="277"/>
-      <c r="AN3" s="277" t="s">
+      <c r="W3" s="247"/>
+      <c r="X3" s="247"/>
+      <c r="Y3" s="247"/>
+      <c r="Z3" s="247"/>
+      <c r="AA3" s="247"/>
+      <c r="AB3" s="247"/>
+      <c r="AC3" s="247"/>
+      <c r="AD3" s="247"/>
+      <c r="AE3" s="247"/>
+      <c r="AF3" s="247"/>
+      <c r="AG3" s="247"/>
+      <c r="AH3" s="247"/>
+      <c r="AI3" s="247"/>
+      <c r="AJ3" s="247"/>
+      <c r="AK3" s="247"/>
+      <c r="AL3" s="247"/>
+      <c r="AM3" s="247"/>
+      <c r="AN3" s="247" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="277"/>
-      <c r="AP3" s="277"/>
-      <c r="AQ3" s="277"/>
-      <c r="AR3" s="277"/>
-      <c r="AS3" s="277" t="s">
+      <c r="AO3" s="247"/>
+      <c r="AP3" s="247"/>
+      <c r="AQ3" s="247"/>
+      <c r="AR3" s="247"/>
+      <c r="AS3" s="247" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="277"/>
-      <c r="AU3" s="277"/>
-      <c r="AV3" s="277"/>
-      <c r="AW3" s="277"/>
+      <c r="AT3" s="247"/>
+      <c r="AU3" s="247"/>
+      <c r="AV3" s="247"/>
+      <c r="AW3" s="247"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="54"/>
-      <c r="B4" s="277"/>
-      <c r="C4" s="277"/>
-      <c r="D4" s="277"/>
-      <c r="E4" s="277"/>
-      <c r="F4" s="277"/>
-      <c r="G4" s="277"/>
-      <c r="H4" s="277"/>
-      <c r="I4" s="277"/>
-      <c r="J4" s="281"/>
-      <c r="K4" s="282"/>
-      <c r="L4" s="283"/>
-      <c r="M4" s="281"/>
-      <c r="N4" s="282"/>
-      <c r="O4" s="282"/>
-      <c r="P4" s="282"/>
-      <c r="Q4" s="282"/>
-      <c r="R4" s="283"/>
-      <c r="S4" s="277"/>
-      <c r="T4" s="277"/>
-      <c r="U4" s="277"/>
-      <c r="V4" s="277"/>
-      <c r="W4" s="277"/>
-      <c r="X4" s="277"/>
-      <c r="Y4" s="277"/>
-      <c r="Z4" s="277"/>
-      <c r="AA4" s="277"/>
-      <c r="AB4" s="277"/>
-      <c r="AC4" s="277"/>
-      <c r="AD4" s="277"/>
-      <c r="AE4" s="277"/>
-      <c r="AF4" s="277"/>
-      <c r="AG4" s="277"/>
-      <c r="AH4" s="277"/>
-      <c r="AI4" s="277"/>
-      <c r="AJ4" s="277"/>
-      <c r="AK4" s="277"/>
-      <c r="AL4" s="277"/>
-      <c r="AM4" s="277"/>
-      <c r="AN4" s="277"/>
-      <c r="AO4" s="277"/>
-      <c r="AP4" s="277"/>
-      <c r="AQ4" s="277"/>
-      <c r="AR4" s="277"/>
-      <c r="AS4" s="277"/>
-      <c r="AT4" s="277"/>
-      <c r="AU4" s="277"/>
-      <c r="AV4" s="277"/>
-      <c r="AW4" s="277"/>
+      <c r="B4" s="247"/>
+      <c r="C4" s="247"/>
+      <c r="D4" s="247"/>
+      <c r="E4" s="247"/>
+      <c r="F4" s="247"/>
+      <c r="G4" s="247"/>
+      <c r="H4" s="247"/>
+      <c r="I4" s="247"/>
+      <c r="J4" s="251"/>
+      <c r="K4" s="252"/>
+      <c r="L4" s="253"/>
+      <c r="M4" s="251"/>
+      <c r="N4" s="252"/>
+      <c r="O4" s="252"/>
+      <c r="P4" s="252"/>
+      <c r="Q4" s="252"/>
+      <c r="R4" s="253"/>
+      <c r="S4" s="247"/>
+      <c r="T4" s="247"/>
+      <c r="U4" s="247"/>
+      <c r="V4" s="247"/>
+      <c r="W4" s="247"/>
+      <c r="X4" s="247"/>
+      <c r="Y4" s="247"/>
+      <c r="Z4" s="247"/>
+      <c r="AA4" s="247"/>
+      <c r="AB4" s="247"/>
+      <c r="AC4" s="247"/>
+      <c r="AD4" s="247"/>
+      <c r="AE4" s="247"/>
+      <c r="AF4" s="247"/>
+      <c r="AG4" s="247"/>
+      <c r="AH4" s="247"/>
+      <c r="AI4" s="247"/>
+      <c r="AJ4" s="247"/>
+      <c r="AK4" s="247"/>
+      <c r="AL4" s="247"/>
+      <c r="AM4" s="247"/>
+      <c r="AN4" s="247"/>
+      <c r="AO4" s="247"/>
+      <c r="AP4" s="247"/>
+      <c r="AQ4" s="247"/>
+      <c r="AR4" s="247"/>
+      <c r="AS4" s="247"/>
+      <c r="AT4" s="247"/>
+      <c r="AU4" s="247"/>
+      <c r="AV4" s="247"/>
+      <c r="AW4" s="247"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="56"/>
-      <c r="B5" s="269">
+      <c r="B5" s="255">
         <v>1</v>
       </c>
-      <c r="C5" s="269"/>
-      <c r="D5" s="269"/>
-      <c r="E5" s="250">
+      <c r="C5" s="255"/>
+      <c r="D5" s="255"/>
+      <c r="E5" s="256">
         <v>43734</v>
       </c>
-      <c r="F5" s="250"/>
-      <c r="G5" s="250"/>
-      <c r="H5" s="250"/>
-      <c r="I5" s="250"/>
-      <c r="J5" s="251" t="s">
+      <c r="F5" s="256"/>
+      <c r="G5" s="256"/>
+      <c r="H5" s="256"/>
+      <c r="I5" s="256"/>
+      <c r="J5" s="257" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="252"/>
-      <c r="L5" s="253"/>
-      <c r="M5" s="251" t="s">
+      <c r="K5" s="258"/>
+      <c r="L5" s="259"/>
+      <c r="M5" s="257" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="252"/>
-      <c r="O5" s="252"/>
-      <c r="P5" s="252"/>
-      <c r="Q5" s="252"/>
-      <c r="R5" s="253"/>
-      <c r="S5" s="257" t="s">
+      <c r="N5" s="258"/>
+      <c r="O5" s="258"/>
+      <c r="P5" s="258"/>
+      <c r="Q5" s="258"/>
+      <c r="R5" s="259"/>
+      <c r="S5" s="254" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="257"/>
-      <c r="U5" s="257"/>
-      <c r="V5" s="268" t="s">
+      <c r="T5" s="254"/>
+      <c r="U5" s="254"/>
+      <c r="V5" s="263" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="268"/>
-      <c r="X5" s="268"/>
-      <c r="Y5" s="268"/>
-      <c r="Z5" s="268"/>
-      <c r="AA5" s="268"/>
-      <c r="AB5" s="268"/>
-      <c r="AC5" s="268"/>
-      <c r="AD5" s="268"/>
-      <c r="AE5" s="268"/>
-      <c r="AF5" s="268"/>
-      <c r="AG5" s="268"/>
-      <c r="AH5" s="268"/>
-      <c r="AI5" s="268"/>
-      <c r="AJ5" s="268"/>
-      <c r="AK5" s="268"/>
-      <c r="AL5" s="268"/>
-      <c r="AM5" s="268"/>
-      <c r="AN5" s="257" t="s">
+      <c r="W5" s="263"/>
+      <c r="X5" s="263"/>
+      <c r="Y5" s="263"/>
+      <c r="Z5" s="263"/>
+      <c r="AA5" s="263"/>
+      <c r="AB5" s="263"/>
+      <c r="AC5" s="263"/>
+      <c r="AD5" s="263"/>
+      <c r="AE5" s="263"/>
+      <c r="AF5" s="263"/>
+      <c r="AG5" s="263"/>
+      <c r="AH5" s="263"/>
+      <c r="AI5" s="263"/>
+      <c r="AJ5" s="263"/>
+      <c r="AK5" s="263"/>
+      <c r="AL5" s="263"/>
+      <c r="AM5" s="263"/>
+      <c r="AN5" s="254" t="s">
         <v>189</v>
       </c>
-      <c r="AO5" s="257"/>
-      <c r="AP5" s="257"/>
-      <c r="AQ5" s="257"/>
-      <c r="AR5" s="257"/>
-      <c r="AS5" s="257"/>
-      <c r="AT5" s="257"/>
-      <c r="AU5" s="257"/>
-      <c r="AV5" s="257"/>
-      <c r="AW5" s="257"/>
+      <c r="AO5" s="254"/>
+      <c r="AP5" s="254"/>
+      <c r="AQ5" s="254"/>
+      <c r="AR5" s="254"/>
+      <c r="AS5" s="254"/>
+      <c r="AT5" s="254"/>
+      <c r="AU5" s="254"/>
+      <c r="AV5" s="254"/>
+      <c r="AW5" s="254"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="56"/>
-      <c r="B6" s="269"/>
-      <c r="C6" s="269"/>
-      <c r="D6" s="269"/>
-      <c r="E6" s="250"/>
-      <c r="F6" s="250"/>
-      <c r="G6" s="250"/>
-      <c r="H6" s="250"/>
-      <c r="I6" s="250"/>
-      <c r="J6" s="251"/>
-      <c r="K6" s="252"/>
-      <c r="L6" s="253"/>
-      <c r="M6" s="272"/>
-      <c r="N6" s="273"/>
-      <c r="O6" s="273"/>
-      <c r="P6" s="273"/>
-      <c r="Q6" s="273"/>
-      <c r="R6" s="274"/>
-      <c r="S6" s="257"/>
-      <c r="T6" s="257"/>
-      <c r="U6" s="257"/>
-      <c r="V6" s="268"/>
-      <c r="W6" s="268"/>
-      <c r="X6" s="268"/>
-      <c r="Y6" s="268"/>
-      <c r="Z6" s="268"/>
-      <c r="AA6" s="268"/>
-      <c r="AB6" s="268"/>
-      <c r="AC6" s="268"/>
-      <c r="AD6" s="268"/>
-      <c r="AE6" s="268"/>
-      <c r="AF6" s="268"/>
-      <c r="AG6" s="268"/>
-      <c r="AH6" s="268"/>
-      <c r="AI6" s="268"/>
-      <c r="AJ6" s="268"/>
-      <c r="AK6" s="268"/>
-      <c r="AL6" s="268"/>
-      <c r="AM6" s="268"/>
-      <c r="AN6" s="257"/>
-      <c r="AO6" s="257"/>
-      <c r="AP6" s="257"/>
-      <c r="AQ6" s="257"/>
-      <c r="AR6" s="257"/>
-      <c r="AS6" s="257"/>
-      <c r="AT6" s="257"/>
-      <c r="AU6" s="257"/>
-      <c r="AV6" s="257"/>
-      <c r="AW6" s="257"/>
+      <c r="B6" s="255"/>
+      <c r="C6" s="255"/>
+      <c r="D6" s="255"/>
+      <c r="E6" s="256"/>
+      <c r="F6" s="256"/>
+      <c r="G6" s="256"/>
+      <c r="H6" s="256"/>
+      <c r="I6" s="256"/>
+      <c r="J6" s="257"/>
+      <c r="K6" s="258"/>
+      <c r="L6" s="259"/>
+      <c r="M6" s="260"/>
+      <c r="N6" s="261"/>
+      <c r="O6" s="261"/>
+      <c r="P6" s="261"/>
+      <c r="Q6" s="261"/>
+      <c r="R6" s="262"/>
+      <c r="S6" s="254"/>
+      <c r="T6" s="254"/>
+      <c r="U6" s="254"/>
+      <c r="V6" s="263"/>
+      <c r="W6" s="263"/>
+      <c r="X6" s="263"/>
+      <c r="Y6" s="263"/>
+      <c r="Z6" s="263"/>
+      <c r="AA6" s="263"/>
+      <c r="AB6" s="263"/>
+      <c r="AC6" s="263"/>
+      <c r="AD6" s="263"/>
+      <c r="AE6" s="263"/>
+      <c r="AF6" s="263"/>
+      <c r="AG6" s="263"/>
+      <c r="AH6" s="263"/>
+      <c r="AI6" s="263"/>
+      <c r="AJ6" s="263"/>
+      <c r="AK6" s="263"/>
+      <c r="AL6" s="263"/>
+      <c r="AM6" s="263"/>
+      <c r="AN6" s="254"/>
+      <c r="AO6" s="254"/>
+      <c r="AP6" s="254"/>
+      <c r="AQ6" s="254"/>
+      <c r="AR6" s="254"/>
+      <c r="AS6" s="254"/>
+      <c r="AT6" s="254"/>
+      <c r="AU6" s="254"/>
+      <c r="AV6" s="254"/>
+      <c r="AW6" s="254"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="56"/>
-      <c r="B7" s="269"/>
-      <c r="C7" s="269"/>
-      <c r="D7" s="269"/>
-      <c r="E7" s="250"/>
-      <c r="F7" s="250"/>
-      <c r="G7" s="250"/>
-      <c r="H7" s="250"/>
-      <c r="I7" s="250"/>
-      <c r="J7" s="251"/>
-      <c r="K7" s="252"/>
-      <c r="L7" s="253"/>
-      <c r="M7" s="272"/>
-      <c r="N7" s="273"/>
-      <c r="O7" s="273"/>
-      <c r="P7" s="273"/>
-      <c r="Q7" s="273"/>
-      <c r="R7" s="274"/>
-      <c r="S7" s="257"/>
-      <c r="T7" s="257"/>
-      <c r="U7" s="257"/>
-      <c r="V7" s="268"/>
-      <c r="W7" s="268"/>
-      <c r="X7" s="268"/>
-      <c r="Y7" s="268"/>
-      <c r="Z7" s="268"/>
-      <c r="AA7" s="268"/>
-      <c r="AB7" s="268"/>
-      <c r="AC7" s="268"/>
-      <c r="AD7" s="268"/>
-      <c r="AE7" s="268"/>
-      <c r="AF7" s="268"/>
-      <c r="AG7" s="268"/>
-      <c r="AH7" s="268"/>
-      <c r="AI7" s="268"/>
-      <c r="AJ7" s="268"/>
-      <c r="AK7" s="268"/>
-      <c r="AL7" s="268"/>
-      <c r="AM7" s="268"/>
-      <c r="AN7" s="257"/>
-      <c r="AO7" s="257"/>
-      <c r="AP7" s="257"/>
-      <c r="AQ7" s="257"/>
-      <c r="AR7" s="257"/>
-      <c r="AS7" s="257"/>
-      <c r="AT7" s="257"/>
-      <c r="AU7" s="257"/>
-      <c r="AV7" s="257"/>
-      <c r="AW7" s="257"/>
+      <c r="B7" s="255"/>
+      <c r="C7" s="255"/>
+      <c r="D7" s="255"/>
+      <c r="E7" s="256"/>
+      <c r="F7" s="256"/>
+      <c r="G7" s="256"/>
+      <c r="H7" s="256"/>
+      <c r="I7" s="256"/>
+      <c r="J7" s="257"/>
+      <c r="K7" s="258"/>
+      <c r="L7" s="259"/>
+      <c r="M7" s="260"/>
+      <c r="N7" s="261"/>
+      <c r="O7" s="261"/>
+      <c r="P7" s="261"/>
+      <c r="Q7" s="261"/>
+      <c r="R7" s="262"/>
+      <c r="S7" s="254"/>
+      <c r="T7" s="254"/>
+      <c r="U7" s="254"/>
+      <c r="V7" s="263"/>
+      <c r="W7" s="263"/>
+      <c r="X7" s="263"/>
+      <c r="Y7" s="263"/>
+      <c r="Z7" s="263"/>
+      <c r="AA7" s="263"/>
+      <c r="AB7" s="263"/>
+      <c r="AC7" s="263"/>
+      <c r="AD7" s="263"/>
+      <c r="AE7" s="263"/>
+      <c r="AF7" s="263"/>
+      <c r="AG7" s="263"/>
+      <c r="AH7" s="263"/>
+      <c r="AI7" s="263"/>
+      <c r="AJ7" s="263"/>
+      <c r="AK7" s="263"/>
+      <c r="AL7" s="263"/>
+      <c r="AM7" s="263"/>
+      <c r="AN7" s="254"/>
+      <c r="AO7" s="254"/>
+      <c r="AP7" s="254"/>
+      <c r="AQ7" s="254"/>
+      <c r="AR7" s="254"/>
+      <c r="AS7" s="254"/>
+      <c r="AT7" s="254"/>
+      <c r="AU7" s="254"/>
+      <c r="AV7" s="254"/>
+      <c r="AW7" s="254"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="56"/>
-      <c r="B8" s="269"/>
-      <c r="C8" s="269"/>
-      <c r="D8" s="269"/>
-      <c r="E8" s="250"/>
-      <c r="F8" s="250"/>
-      <c r="G8" s="250"/>
-      <c r="H8" s="250"/>
-      <c r="I8" s="250"/>
-      <c r="J8" s="251"/>
-      <c r="K8" s="252"/>
-      <c r="L8" s="253"/>
-      <c r="M8" s="272"/>
-      <c r="N8" s="273"/>
-      <c r="O8" s="273"/>
-      <c r="P8" s="273"/>
-      <c r="Q8" s="273"/>
-      <c r="R8" s="274"/>
-      <c r="S8" s="257"/>
-      <c r="T8" s="257"/>
-      <c r="U8" s="257"/>
-      <c r="V8" s="268"/>
-      <c r="W8" s="268"/>
-      <c r="X8" s="268"/>
-      <c r="Y8" s="268"/>
-      <c r="Z8" s="268"/>
-      <c r="AA8" s="268"/>
-      <c r="AB8" s="268"/>
-      <c r="AC8" s="268"/>
-      <c r="AD8" s="268"/>
-      <c r="AE8" s="268"/>
-      <c r="AF8" s="268"/>
-      <c r="AG8" s="268"/>
-      <c r="AH8" s="268"/>
-      <c r="AI8" s="268"/>
-      <c r="AJ8" s="268"/>
-      <c r="AK8" s="268"/>
-      <c r="AL8" s="268"/>
-      <c r="AM8" s="268"/>
-      <c r="AN8" s="257"/>
-      <c r="AO8" s="257"/>
-      <c r="AP8" s="257"/>
-      <c r="AQ8" s="257"/>
-      <c r="AR8" s="257"/>
-      <c r="AS8" s="257"/>
-      <c r="AT8" s="257"/>
-      <c r="AU8" s="257"/>
-      <c r="AV8" s="257"/>
-      <c r="AW8" s="257"/>
+      <c r="B8" s="255"/>
+      <c r="C8" s="255"/>
+      <c r="D8" s="255"/>
+      <c r="E8" s="256"/>
+      <c r="F8" s="256"/>
+      <c r="G8" s="256"/>
+      <c r="H8" s="256"/>
+      <c r="I8" s="256"/>
+      <c r="J8" s="257"/>
+      <c r="K8" s="258"/>
+      <c r="L8" s="259"/>
+      <c r="M8" s="260"/>
+      <c r="N8" s="261"/>
+      <c r="O8" s="261"/>
+      <c r="P8" s="261"/>
+      <c r="Q8" s="261"/>
+      <c r="R8" s="262"/>
+      <c r="S8" s="254"/>
+      <c r="T8" s="254"/>
+      <c r="U8" s="254"/>
+      <c r="V8" s="263"/>
+      <c r="W8" s="263"/>
+      <c r="X8" s="263"/>
+      <c r="Y8" s="263"/>
+      <c r="Z8" s="263"/>
+      <c r="AA8" s="263"/>
+      <c r="AB8" s="263"/>
+      <c r="AC8" s="263"/>
+      <c r="AD8" s="263"/>
+      <c r="AE8" s="263"/>
+      <c r="AF8" s="263"/>
+      <c r="AG8" s="263"/>
+      <c r="AH8" s="263"/>
+      <c r="AI8" s="263"/>
+      <c r="AJ8" s="263"/>
+      <c r="AK8" s="263"/>
+      <c r="AL8" s="263"/>
+      <c r="AM8" s="263"/>
+      <c r="AN8" s="254"/>
+      <c r="AO8" s="254"/>
+      <c r="AP8" s="254"/>
+      <c r="AQ8" s="254"/>
+      <c r="AR8" s="254"/>
+      <c r="AS8" s="254"/>
+      <c r="AT8" s="254"/>
+      <c r="AU8" s="254"/>
+      <c r="AV8" s="254"/>
+      <c r="AW8" s="254"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="56"/>
-      <c r="B9" s="269"/>
-      <c r="C9" s="269"/>
-      <c r="D9" s="269"/>
-      <c r="E9" s="250"/>
-      <c r="F9" s="250"/>
-      <c r="G9" s="250"/>
-      <c r="H9" s="250"/>
-      <c r="I9" s="250"/>
-      <c r="J9" s="251"/>
-      <c r="K9" s="252"/>
-      <c r="L9" s="253"/>
-      <c r="M9" s="272"/>
-      <c r="N9" s="273"/>
-      <c r="O9" s="273"/>
-      <c r="P9" s="273"/>
-      <c r="Q9" s="273"/>
-      <c r="R9" s="274"/>
-      <c r="S9" s="257"/>
-      <c r="T9" s="257"/>
-      <c r="U9" s="257"/>
-      <c r="V9" s="268"/>
-      <c r="W9" s="268"/>
-      <c r="X9" s="268"/>
-      <c r="Y9" s="268"/>
-      <c r="Z9" s="268"/>
-      <c r="AA9" s="268"/>
-      <c r="AB9" s="268"/>
-      <c r="AC9" s="268"/>
-      <c r="AD9" s="268"/>
-      <c r="AE9" s="268"/>
-      <c r="AF9" s="268"/>
-      <c r="AG9" s="268"/>
-      <c r="AH9" s="268"/>
-      <c r="AI9" s="268"/>
-      <c r="AJ9" s="268"/>
-      <c r="AK9" s="268"/>
-      <c r="AL9" s="268"/>
-      <c r="AM9" s="268"/>
-      <c r="AN9" s="257"/>
-      <c r="AO9" s="257"/>
-      <c r="AP9" s="257"/>
-      <c r="AQ9" s="257"/>
-      <c r="AR9" s="257"/>
-      <c r="AS9" s="257"/>
-      <c r="AT9" s="257"/>
-      <c r="AU9" s="257"/>
-      <c r="AV9" s="257"/>
-      <c r="AW9" s="257"/>
+      <c r="B9" s="255"/>
+      <c r="C9" s="255"/>
+      <c r="D9" s="255"/>
+      <c r="E9" s="256"/>
+      <c r="F9" s="256"/>
+      <c r="G9" s="256"/>
+      <c r="H9" s="256"/>
+      <c r="I9" s="256"/>
+      <c r="J9" s="257"/>
+      <c r="K9" s="258"/>
+      <c r="L9" s="259"/>
+      <c r="M9" s="260"/>
+      <c r="N9" s="261"/>
+      <c r="O9" s="261"/>
+      <c r="P9" s="261"/>
+      <c r="Q9" s="261"/>
+      <c r="R9" s="262"/>
+      <c r="S9" s="254"/>
+      <c r="T9" s="254"/>
+      <c r="U9" s="254"/>
+      <c r="V9" s="263"/>
+      <c r="W9" s="263"/>
+      <c r="X9" s="263"/>
+      <c r="Y9" s="263"/>
+      <c r="Z9" s="263"/>
+      <c r="AA9" s="263"/>
+      <c r="AB9" s="263"/>
+      <c r="AC9" s="263"/>
+      <c r="AD9" s="263"/>
+      <c r="AE9" s="263"/>
+      <c r="AF9" s="263"/>
+      <c r="AG9" s="263"/>
+      <c r="AH9" s="263"/>
+      <c r="AI9" s="263"/>
+      <c r="AJ9" s="263"/>
+      <c r="AK9" s="263"/>
+      <c r="AL9" s="263"/>
+      <c r="AM9" s="263"/>
+      <c r="AN9" s="254"/>
+      <c r="AO9" s="254"/>
+      <c r="AP9" s="254"/>
+      <c r="AQ9" s="254"/>
+      <c r="AR9" s="254"/>
+      <c r="AS9" s="254"/>
+      <c r="AT9" s="254"/>
+      <c r="AU9" s="254"/>
+      <c r="AV9" s="254"/>
+      <c r="AW9" s="254"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="56"/>
-      <c r="B10" s="269"/>
-      <c r="C10" s="269"/>
-      <c r="D10" s="269"/>
-      <c r="E10" s="250"/>
-      <c r="F10" s="250"/>
-      <c r="G10" s="250"/>
-      <c r="H10" s="250"/>
-      <c r="I10" s="250"/>
-      <c r="J10" s="251"/>
-      <c r="K10" s="252"/>
-      <c r="L10" s="253"/>
-      <c r="M10" s="272"/>
-      <c r="N10" s="273"/>
-      <c r="O10" s="273"/>
-      <c r="P10" s="273"/>
-      <c r="Q10" s="273"/>
-      <c r="R10" s="274"/>
-      <c r="S10" s="257"/>
-      <c r="T10" s="257"/>
-      <c r="U10" s="257"/>
-      <c r="V10" s="268"/>
-      <c r="W10" s="268"/>
-      <c r="X10" s="268"/>
-      <c r="Y10" s="268"/>
-      <c r="Z10" s="268"/>
-      <c r="AA10" s="268"/>
-      <c r="AB10" s="268"/>
-      <c r="AC10" s="268"/>
-      <c r="AD10" s="268"/>
-      <c r="AE10" s="268"/>
-      <c r="AF10" s="268"/>
-      <c r="AG10" s="268"/>
-      <c r="AH10" s="268"/>
-      <c r="AI10" s="268"/>
-      <c r="AJ10" s="268"/>
-      <c r="AK10" s="268"/>
-      <c r="AL10" s="268"/>
-      <c r="AM10" s="268"/>
-      <c r="AN10" s="257"/>
-      <c r="AO10" s="257"/>
-      <c r="AP10" s="257"/>
-      <c r="AQ10" s="257"/>
-      <c r="AR10" s="257"/>
-      <c r="AS10" s="257"/>
-      <c r="AT10" s="257"/>
-      <c r="AU10" s="257"/>
-      <c r="AV10" s="257"/>
-      <c r="AW10" s="257"/>
+      <c r="B10" s="255"/>
+      <c r="C10" s="255"/>
+      <c r="D10" s="255"/>
+      <c r="E10" s="256"/>
+      <c r="F10" s="256"/>
+      <c r="G10" s="256"/>
+      <c r="H10" s="256"/>
+      <c r="I10" s="256"/>
+      <c r="J10" s="257"/>
+      <c r="K10" s="258"/>
+      <c r="L10" s="259"/>
+      <c r="M10" s="260"/>
+      <c r="N10" s="261"/>
+      <c r="O10" s="261"/>
+      <c r="P10" s="261"/>
+      <c r="Q10" s="261"/>
+      <c r="R10" s="262"/>
+      <c r="S10" s="254"/>
+      <c r="T10" s="254"/>
+      <c r="U10" s="254"/>
+      <c r="V10" s="263"/>
+      <c r="W10" s="263"/>
+      <c r="X10" s="263"/>
+      <c r="Y10" s="263"/>
+      <c r="Z10" s="263"/>
+      <c r="AA10" s="263"/>
+      <c r="AB10" s="263"/>
+      <c r="AC10" s="263"/>
+      <c r="AD10" s="263"/>
+      <c r="AE10" s="263"/>
+      <c r="AF10" s="263"/>
+      <c r="AG10" s="263"/>
+      <c r="AH10" s="263"/>
+      <c r="AI10" s="263"/>
+      <c r="AJ10" s="263"/>
+      <c r="AK10" s="263"/>
+      <c r="AL10" s="263"/>
+      <c r="AM10" s="263"/>
+      <c r="AN10" s="254"/>
+      <c r="AO10" s="254"/>
+      <c r="AP10" s="254"/>
+      <c r="AQ10" s="254"/>
+      <c r="AR10" s="254"/>
+      <c r="AS10" s="254"/>
+      <c r="AT10" s="254"/>
+      <c r="AU10" s="254"/>
+      <c r="AV10" s="254"/>
+      <c r="AW10" s="254"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="56"/>
-      <c r="B11" s="269"/>
-      <c r="C11" s="269"/>
-      <c r="D11" s="269"/>
-      <c r="E11" s="250"/>
-      <c r="F11" s="250"/>
-      <c r="G11" s="250"/>
-      <c r="H11" s="250"/>
-      <c r="I11" s="250"/>
-      <c r="J11" s="251"/>
-      <c r="K11" s="252"/>
-      <c r="L11" s="253"/>
-      <c r="M11" s="264"/>
-      <c r="N11" s="262"/>
-      <c r="O11" s="262"/>
-      <c r="P11" s="262"/>
-      <c r="Q11" s="262"/>
-      <c r="R11" s="263"/>
-      <c r="S11" s="257"/>
-      <c r="T11" s="257"/>
-      <c r="U11" s="257"/>
-      <c r="V11" s="258"/>
-      <c r="W11" s="270"/>
-      <c r="X11" s="270"/>
-      <c r="Y11" s="270"/>
-      <c r="Z11" s="270"/>
-      <c r="AA11" s="270"/>
-      <c r="AB11" s="270"/>
-      <c r="AC11" s="270"/>
-      <c r="AD11" s="270"/>
-      <c r="AE11" s="270"/>
-      <c r="AF11" s="270"/>
-      <c r="AG11" s="270"/>
-      <c r="AH11" s="270"/>
-      <c r="AI11" s="270"/>
-      <c r="AJ11" s="270"/>
-      <c r="AK11" s="270"/>
-      <c r="AL11" s="270"/>
-      <c r="AM11" s="271"/>
-      <c r="AN11" s="257"/>
-      <c r="AO11" s="257"/>
-      <c r="AP11" s="257"/>
-      <c r="AQ11" s="257"/>
-      <c r="AR11" s="257"/>
-      <c r="AS11" s="257"/>
-      <c r="AT11" s="257"/>
-      <c r="AU11" s="257"/>
-      <c r="AV11" s="257"/>
-      <c r="AW11" s="257"/>
+      <c r="B11" s="255"/>
+      <c r="C11" s="255"/>
+      <c r="D11" s="255"/>
+      <c r="E11" s="256"/>
+      <c r="F11" s="256"/>
+      <c r="G11" s="256"/>
+      <c r="H11" s="256"/>
+      <c r="I11" s="256"/>
+      <c r="J11" s="257"/>
+      <c r="K11" s="258"/>
+      <c r="L11" s="259"/>
+      <c r="M11" s="267"/>
+      <c r="N11" s="268"/>
+      <c r="O11" s="268"/>
+      <c r="P11" s="268"/>
+      <c r="Q11" s="268"/>
+      <c r="R11" s="269"/>
+      <c r="S11" s="254"/>
+      <c r="T11" s="254"/>
+      <c r="U11" s="254"/>
+      <c r="V11" s="270"/>
+      <c r="W11" s="276"/>
+      <c r="X11" s="276"/>
+      <c r="Y11" s="276"/>
+      <c r="Z11" s="276"/>
+      <c r="AA11" s="276"/>
+      <c r="AB11" s="276"/>
+      <c r="AC11" s="276"/>
+      <c r="AD11" s="276"/>
+      <c r="AE11" s="276"/>
+      <c r="AF11" s="276"/>
+      <c r="AG11" s="276"/>
+      <c r="AH11" s="276"/>
+      <c r="AI11" s="276"/>
+      <c r="AJ11" s="276"/>
+      <c r="AK11" s="276"/>
+      <c r="AL11" s="276"/>
+      <c r="AM11" s="277"/>
+      <c r="AN11" s="254"/>
+      <c r="AO11" s="254"/>
+      <c r="AP11" s="254"/>
+      <c r="AQ11" s="254"/>
+      <c r="AR11" s="254"/>
+      <c r="AS11" s="254"/>
+      <c r="AT11" s="254"/>
+      <c r="AU11" s="254"/>
+      <c r="AV11" s="254"/>
+      <c r="AW11" s="254"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="56"/>
-      <c r="B12" s="247"/>
-      <c r="C12" s="248"/>
-      <c r="D12" s="249"/>
-      <c r="E12" s="250"/>
-      <c r="F12" s="250"/>
-      <c r="G12" s="250"/>
-      <c r="H12" s="250"/>
-      <c r="I12" s="250"/>
-      <c r="J12" s="251"/>
-      <c r="K12" s="252"/>
-      <c r="L12" s="253"/>
-      <c r="M12" s="264"/>
-      <c r="N12" s="262"/>
-      <c r="O12" s="262"/>
-      <c r="P12" s="262"/>
-      <c r="Q12" s="262"/>
-      <c r="R12" s="263"/>
-      <c r="S12" s="257"/>
-      <c r="T12" s="257"/>
-      <c r="U12" s="257"/>
-      <c r="V12" s="258"/>
-      <c r="W12" s="259"/>
-      <c r="X12" s="259"/>
-      <c r="Y12" s="259"/>
-      <c r="Z12" s="259"/>
-      <c r="AA12" s="259"/>
-      <c r="AB12" s="259"/>
-      <c r="AC12" s="259"/>
-      <c r="AD12" s="259"/>
-      <c r="AE12" s="259"/>
-      <c r="AF12" s="259"/>
-      <c r="AG12" s="259"/>
-      <c r="AH12" s="259"/>
-      <c r="AI12" s="259"/>
-      <c r="AJ12" s="259"/>
-      <c r="AK12" s="259"/>
-      <c r="AL12" s="259"/>
-      <c r="AM12" s="260"/>
-      <c r="AN12" s="244"/>
-      <c r="AO12" s="245"/>
-      <c r="AP12" s="245"/>
-      <c r="AQ12" s="245"/>
-      <c r="AR12" s="246"/>
-      <c r="AS12" s="244"/>
-      <c r="AT12" s="245"/>
-      <c r="AU12" s="245"/>
-      <c r="AV12" s="245"/>
-      <c r="AW12" s="246"/>
+      <c r="B12" s="264"/>
+      <c r="C12" s="265"/>
+      <c r="D12" s="266"/>
+      <c r="E12" s="256"/>
+      <c r="F12" s="256"/>
+      <c r="G12" s="256"/>
+      <c r="H12" s="256"/>
+      <c r="I12" s="256"/>
+      <c r="J12" s="257"/>
+      <c r="K12" s="258"/>
+      <c r="L12" s="259"/>
+      <c r="M12" s="267"/>
+      <c r="N12" s="268"/>
+      <c r="O12" s="268"/>
+      <c r="P12" s="268"/>
+      <c r="Q12" s="268"/>
+      <c r="R12" s="269"/>
+      <c r="S12" s="254"/>
+      <c r="T12" s="254"/>
+      <c r="U12" s="254"/>
+      <c r="V12" s="270"/>
+      <c r="W12" s="271"/>
+      <c r="X12" s="271"/>
+      <c r="Y12" s="271"/>
+      <c r="Z12" s="271"/>
+      <c r="AA12" s="271"/>
+      <c r="AB12" s="271"/>
+      <c r="AC12" s="271"/>
+      <c r="AD12" s="271"/>
+      <c r="AE12" s="271"/>
+      <c r="AF12" s="271"/>
+      <c r="AG12" s="271"/>
+      <c r="AH12" s="271"/>
+      <c r="AI12" s="271"/>
+      <c r="AJ12" s="271"/>
+      <c r="AK12" s="271"/>
+      <c r="AL12" s="271"/>
+      <c r="AM12" s="272"/>
+      <c r="AN12" s="273"/>
+      <c r="AO12" s="274"/>
+      <c r="AP12" s="274"/>
+      <c r="AQ12" s="274"/>
+      <c r="AR12" s="275"/>
+      <c r="AS12" s="273"/>
+      <c r="AT12" s="274"/>
+      <c r="AU12" s="274"/>
+      <c r="AV12" s="274"/>
+      <c r="AW12" s="275"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="56"/>
-      <c r="B13" s="247"/>
-      <c r="C13" s="248"/>
-      <c r="D13" s="249"/>
-      <c r="E13" s="250"/>
-      <c r="F13" s="250"/>
-      <c r="G13" s="250"/>
-      <c r="H13" s="250"/>
-      <c r="I13" s="250"/>
-      <c r="J13" s="251"/>
-      <c r="K13" s="252"/>
-      <c r="L13" s="253"/>
-      <c r="M13" s="261"/>
-      <c r="N13" s="262"/>
-      <c r="O13" s="262"/>
-      <c r="P13" s="262"/>
-      <c r="Q13" s="262"/>
-      <c r="R13" s="263"/>
-      <c r="S13" s="257"/>
-      <c r="T13" s="257"/>
-      <c r="U13" s="257"/>
-      <c r="V13" s="258"/>
-      <c r="W13" s="259"/>
-      <c r="X13" s="259"/>
-      <c r="Y13" s="259"/>
-      <c r="Z13" s="259"/>
-      <c r="AA13" s="259"/>
-      <c r="AB13" s="259"/>
-      <c r="AC13" s="259"/>
-      <c r="AD13" s="259"/>
-      <c r="AE13" s="259"/>
-      <c r="AF13" s="259"/>
-      <c r="AG13" s="259"/>
-      <c r="AH13" s="259"/>
-      <c r="AI13" s="259"/>
-      <c r="AJ13" s="259"/>
-      <c r="AK13" s="259"/>
-      <c r="AL13" s="259"/>
-      <c r="AM13" s="260"/>
-      <c r="AN13" s="244"/>
-      <c r="AO13" s="245"/>
-      <c r="AP13" s="245"/>
-      <c r="AQ13" s="245"/>
-      <c r="AR13" s="246"/>
-      <c r="AS13" s="244"/>
-      <c r="AT13" s="245"/>
-      <c r="AU13" s="245"/>
-      <c r="AV13" s="245"/>
-      <c r="AW13" s="246"/>
+      <c r="B13" s="264"/>
+      <c r="C13" s="265"/>
+      <c r="D13" s="266"/>
+      <c r="E13" s="256"/>
+      <c r="F13" s="256"/>
+      <c r="G13" s="256"/>
+      <c r="H13" s="256"/>
+      <c r="I13" s="256"/>
+      <c r="J13" s="257"/>
+      <c r="K13" s="258"/>
+      <c r="L13" s="259"/>
+      <c r="M13" s="278"/>
+      <c r="N13" s="268"/>
+      <c r="O13" s="268"/>
+      <c r="P13" s="268"/>
+      <c r="Q13" s="268"/>
+      <c r="R13" s="269"/>
+      <c r="S13" s="254"/>
+      <c r="T13" s="254"/>
+      <c r="U13" s="254"/>
+      <c r="V13" s="270"/>
+      <c r="W13" s="271"/>
+      <c r="X13" s="271"/>
+      <c r="Y13" s="271"/>
+      <c r="Z13" s="271"/>
+      <c r="AA13" s="271"/>
+      <c r="AB13" s="271"/>
+      <c r="AC13" s="271"/>
+      <c r="AD13" s="271"/>
+      <c r="AE13" s="271"/>
+      <c r="AF13" s="271"/>
+      <c r="AG13" s="271"/>
+      <c r="AH13" s="271"/>
+      <c r="AI13" s="271"/>
+      <c r="AJ13" s="271"/>
+      <c r="AK13" s="271"/>
+      <c r="AL13" s="271"/>
+      <c r="AM13" s="272"/>
+      <c r="AN13" s="273"/>
+      <c r="AO13" s="274"/>
+      <c r="AP13" s="274"/>
+      <c r="AQ13" s="274"/>
+      <c r="AR13" s="275"/>
+      <c r="AS13" s="273"/>
+      <c r="AT13" s="274"/>
+      <c r="AU13" s="274"/>
+      <c r="AV13" s="274"/>
+      <c r="AW13" s="275"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="56"/>
-      <c r="B14" s="247"/>
-      <c r="C14" s="248"/>
-      <c r="D14" s="249"/>
-      <c r="E14" s="250"/>
-      <c r="F14" s="250"/>
-      <c r="G14" s="250"/>
-      <c r="H14" s="250"/>
-      <c r="I14" s="250"/>
-      <c r="J14" s="251"/>
-      <c r="K14" s="252"/>
-      <c r="L14" s="253"/>
-      <c r="M14" s="261"/>
-      <c r="N14" s="262"/>
-      <c r="O14" s="262"/>
-      <c r="P14" s="262"/>
-      <c r="Q14" s="262"/>
-      <c r="R14" s="263"/>
-      <c r="S14" s="257"/>
-      <c r="T14" s="257"/>
-      <c r="U14" s="257"/>
-      <c r="V14" s="267"/>
-      <c r="W14" s="268"/>
-      <c r="X14" s="268"/>
-      <c r="Y14" s="268"/>
-      <c r="Z14" s="268"/>
-      <c r="AA14" s="268"/>
-      <c r="AB14" s="268"/>
-      <c r="AC14" s="268"/>
-      <c r="AD14" s="268"/>
-      <c r="AE14" s="268"/>
-      <c r="AF14" s="268"/>
-      <c r="AG14" s="268"/>
-      <c r="AH14" s="268"/>
-      <c r="AI14" s="268"/>
-      <c r="AJ14" s="268"/>
-      <c r="AK14" s="268"/>
-      <c r="AL14" s="268"/>
-      <c r="AM14" s="268"/>
-      <c r="AN14" s="257"/>
-      <c r="AO14" s="257"/>
-      <c r="AP14" s="257"/>
-      <c r="AQ14" s="257"/>
-      <c r="AR14" s="257"/>
-      <c r="AS14" s="244"/>
-      <c r="AT14" s="245"/>
-      <c r="AU14" s="245"/>
-      <c r="AV14" s="245"/>
-      <c r="AW14" s="246"/>
+      <c r="B14" s="264"/>
+      <c r="C14" s="265"/>
+      <c r="D14" s="266"/>
+      <c r="E14" s="256"/>
+      <c r="F14" s="256"/>
+      <c r="G14" s="256"/>
+      <c r="H14" s="256"/>
+      <c r="I14" s="256"/>
+      <c r="J14" s="257"/>
+      <c r="K14" s="258"/>
+      <c r="L14" s="259"/>
+      <c r="M14" s="278"/>
+      <c r="N14" s="268"/>
+      <c r="O14" s="268"/>
+      <c r="P14" s="268"/>
+      <c r="Q14" s="268"/>
+      <c r="R14" s="269"/>
+      <c r="S14" s="254"/>
+      <c r="T14" s="254"/>
+      <c r="U14" s="254"/>
+      <c r="V14" s="279"/>
+      <c r="W14" s="263"/>
+      <c r="X14" s="263"/>
+      <c r="Y14" s="263"/>
+      <c r="Z14" s="263"/>
+      <c r="AA14" s="263"/>
+      <c r="AB14" s="263"/>
+      <c r="AC14" s="263"/>
+      <c r="AD14" s="263"/>
+      <c r="AE14" s="263"/>
+      <c r="AF14" s="263"/>
+      <c r="AG14" s="263"/>
+      <c r="AH14" s="263"/>
+      <c r="AI14" s="263"/>
+      <c r="AJ14" s="263"/>
+      <c r="AK14" s="263"/>
+      <c r="AL14" s="263"/>
+      <c r="AM14" s="263"/>
+      <c r="AN14" s="254"/>
+      <c r="AO14" s="254"/>
+      <c r="AP14" s="254"/>
+      <c r="AQ14" s="254"/>
+      <c r="AR14" s="254"/>
+      <c r="AS14" s="273"/>
+      <c r="AT14" s="274"/>
+      <c r="AU14" s="274"/>
+      <c r="AV14" s="274"/>
+      <c r="AW14" s="275"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="56"/>
-      <c r="B15" s="247"/>
-      <c r="C15" s="248"/>
-      <c r="D15" s="249"/>
-      <c r="E15" s="250"/>
-      <c r="F15" s="250"/>
-      <c r="G15" s="250"/>
-      <c r="H15" s="250"/>
-      <c r="I15" s="250"/>
-      <c r="J15" s="251"/>
-      <c r="K15" s="252"/>
-      <c r="L15" s="253"/>
-      <c r="M15" s="264"/>
-      <c r="N15" s="262"/>
-      <c r="O15" s="262"/>
-      <c r="P15" s="262"/>
-      <c r="Q15" s="262"/>
-      <c r="R15" s="263"/>
-      <c r="S15" s="257"/>
-      <c r="T15" s="257"/>
-      <c r="U15" s="257"/>
-      <c r="V15" s="258"/>
-      <c r="W15" s="259"/>
-      <c r="X15" s="259"/>
-      <c r="Y15" s="259"/>
-      <c r="Z15" s="259"/>
-      <c r="AA15" s="259"/>
-      <c r="AB15" s="259"/>
-      <c r="AC15" s="259"/>
-      <c r="AD15" s="259"/>
-      <c r="AE15" s="259"/>
-      <c r="AF15" s="259"/>
-      <c r="AG15" s="259"/>
-      <c r="AH15" s="259"/>
-      <c r="AI15" s="259"/>
-      <c r="AJ15" s="259"/>
-      <c r="AK15" s="259"/>
-      <c r="AL15" s="259"/>
-      <c r="AM15" s="260"/>
-      <c r="AN15" s="244"/>
-      <c r="AO15" s="245"/>
-      <c r="AP15" s="245"/>
-      <c r="AQ15" s="245"/>
-      <c r="AR15" s="246"/>
-      <c r="AS15" s="244"/>
-      <c r="AT15" s="245"/>
-      <c r="AU15" s="245"/>
-      <c r="AV15" s="245"/>
-      <c r="AW15" s="246"/>
+      <c r="B15" s="264"/>
+      <c r="C15" s="265"/>
+      <c r="D15" s="266"/>
+      <c r="E15" s="256"/>
+      <c r="F15" s="256"/>
+      <c r="G15" s="256"/>
+      <c r="H15" s="256"/>
+      <c r="I15" s="256"/>
+      <c r="J15" s="257"/>
+      <c r="K15" s="258"/>
+      <c r="L15" s="259"/>
+      <c r="M15" s="267"/>
+      <c r="N15" s="268"/>
+      <c r="O15" s="268"/>
+      <c r="P15" s="268"/>
+      <c r="Q15" s="268"/>
+      <c r="R15" s="269"/>
+      <c r="S15" s="254"/>
+      <c r="T15" s="254"/>
+      <c r="U15" s="254"/>
+      <c r="V15" s="270"/>
+      <c r="W15" s="271"/>
+      <c r="X15" s="271"/>
+      <c r="Y15" s="271"/>
+      <c r="Z15" s="271"/>
+      <c r="AA15" s="271"/>
+      <c r="AB15" s="271"/>
+      <c r="AC15" s="271"/>
+      <c r="AD15" s="271"/>
+      <c r="AE15" s="271"/>
+      <c r="AF15" s="271"/>
+      <c r="AG15" s="271"/>
+      <c r="AH15" s="271"/>
+      <c r="AI15" s="271"/>
+      <c r="AJ15" s="271"/>
+      <c r="AK15" s="271"/>
+      <c r="AL15" s="271"/>
+      <c r="AM15" s="272"/>
+      <c r="AN15" s="273"/>
+      <c r="AO15" s="274"/>
+      <c r="AP15" s="274"/>
+      <c r="AQ15" s="274"/>
+      <c r="AR15" s="275"/>
+      <c r="AS15" s="273"/>
+      <c r="AT15" s="274"/>
+      <c r="AU15" s="274"/>
+      <c r="AV15" s="274"/>
+      <c r="AW15" s="275"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="56"/>
-      <c r="B16" s="247"/>
-      <c r="C16" s="248"/>
-      <c r="D16" s="249"/>
-      <c r="E16" s="250"/>
-      <c r="F16" s="250"/>
-      <c r="G16" s="250"/>
-      <c r="H16" s="250"/>
-      <c r="I16" s="250"/>
-      <c r="J16" s="251"/>
-      <c r="K16" s="252"/>
-      <c r="L16" s="253"/>
-      <c r="M16" s="264"/>
-      <c r="N16" s="262"/>
-      <c r="O16" s="262"/>
-      <c r="P16" s="262"/>
-      <c r="Q16" s="262"/>
-      <c r="R16" s="263"/>
-      <c r="S16" s="257"/>
-      <c r="T16" s="257"/>
-      <c r="U16" s="257"/>
-      <c r="V16" s="258"/>
-      <c r="W16" s="259"/>
-      <c r="X16" s="259"/>
-      <c r="Y16" s="259"/>
-      <c r="Z16" s="259"/>
-      <c r="AA16" s="259"/>
-      <c r="AB16" s="259"/>
-      <c r="AC16" s="259"/>
-      <c r="AD16" s="259"/>
-      <c r="AE16" s="259"/>
-      <c r="AF16" s="259"/>
-      <c r="AG16" s="259"/>
-      <c r="AH16" s="259"/>
-      <c r="AI16" s="259"/>
-      <c r="AJ16" s="259"/>
-      <c r="AK16" s="259"/>
-      <c r="AL16" s="259"/>
-      <c r="AM16" s="260"/>
-      <c r="AN16" s="244"/>
-      <c r="AO16" s="245"/>
-      <c r="AP16" s="245"/>
-      <c r="AQ16" s="245"/>
-      <c r="AR16" s="246"/>
-      <c r="AS16" s="244"/>
-      <c r="AT16" s="245"/>
-      <c r="AU16" s="245"/>
-      <c r="AV16" s="245"/>
-      <c r="AW16" s="246"/>
+      <c r="B16" s="264"/>
+      <c r="C16" s="265"/>
+      <c r="D16" s="266"/>
+      <c r="E16" s="256"/>
+      <c r="F16" s="256"/>
+      <c r="G16" s="256"/>
+      <c r="H16" s="256"/>
+      <c r="I16" s="256"/>
+      <c r="J16" s="257"/>
+      <c r="K16" s="258"/>
+      <c r="L16" s="259"/>
+      <c r="M16" s="267"/>
+      <c r="N16" s="268"/>
+      <c r="O16" s="268"/>
+      <c r="P16" s="268"/>
+      <c r="Q16" s="268"/>
+      <c r="R16" s="269"/>
+      <c r="S16" s="254"/>
+      <c r="T16" s="254"/>
+      <c r="U16" s="254"/>
+      <c r="V16" s="270"/>
+      <c r="W16" s="271"/>
+      <c r="X16" s="271"/>
+      <c r="Y16" s="271"/>
+      <c r="Z16" s="271"/>
+      <c r="AA16" s="271"/>
+      <c r="AB16" s="271"/>
+      <c r="AC16" s="271"/>
+      <c r="AD16" s="271"/>
+      <c r="AE16" s="271"/>
+      <c r="AF16" s="271"/>
+      <c r="AG16" s="271"/>
+      <c r="AH16" s="271"/>
+      <c r="AI16" s="271"/>
+      <c r="AJ16" s="271"/>
+      <c r="AK16" s="271"/>
+      <c r="AL16" s="271"/>
+      <c r="AM16" s="272"/>
+      <c r="AN16" s="273"/>
+      <c r="AO16" s="274"/>
+      <c r="AP16" s="274"/>
+      <c r="AQ16" s="274"/>
+      <c r="AR16" s="275"/>
+      <c r="AS16" s="273"/>
+      <c r="AT16" s="274"/>
+      <c r="AU16" s="274"/>
+      <c r="AV16" s="274"/>
+      <c r="AW16" s="275"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="56"/>
-      <c r="B17" s="247"/>
-      <c r="C17" s="248"/>
-      <c r="D17" s="249"/>
-      <c r="E17" s="250"/>
-      <c r="F17" s="250"/>
-      <c r="G17" s="250"/>
-      <c r="H17" s="250"/>
-      <c r="I17" s="250"/>
-      <c r="J17" s="251"/>
-      <c r="K17" s="252"/>
-      <c r="L17" s="253"/>
-      <c r="M17" s="264"/>
-      <c r="N17" s="262"/>
-      <c r="O17" s="262"/>
-      <c r="P17" s="262"/>
-      <c r="Q17" s="262"/>
-      <c r="R17" s="265"/>
-      <c r="S17" s="266"/>
-      <c r="T17" s="266"/>
-      <c r="U17" s="266"/>
-      <c r="V17" s="258"/>
-      <c r="W17" s="259"/>
-      <c r="X17" s="259"/>
-      <c r="Y17" s="259"/>
-      <c r="Z17" s="259"/>
-      <c r="AA17" s="259"/>
-      <c r="AB17" s="259"/>
-      <c r="AC17" s="259"/>
-      <c r="AD17" s="259"/>
-      <c r="AE17" s="259"/>
-      <c r="AF17" s="259"/>
-      <c r="AG17" s="259"/>
-      <c r="AH17" s="259"/>
-      <c r="AI17" s="259"/>
-      <c r="AJ17" s="259"/>
-      <c r="AK17" s="259"/>
-      <c r="AL17" s="259"/>
-      <c r="AM17" s="260"/>
-      <c r="AN17" s="244"/>
-      <c r="AO17" s="245"/>
-      <c r="AP17" s="245"/>
-      <c r="AQ17" s="245"/>
-      <c r="AR17" s="246"/>
-      <c r="AS17" s="244"/>
-      <c r="AT17" s="245"/>
-      <c r="AU17" s="245"/>
-      <c r="AV17" s="245"/>
-      <c r="AW17" s="246"/>
+      <c r="B17" s="264"/>
+      <c r="C17" s="265"/>
+      <c r="D17" s="266"/>
+      <c r="E17" s="256"/>
+      <c r="F17" s="256"/>
+      <c r="G17" s="256"/>
+      <c r="H17" s="256"/>
+      <c r="I17" s="256"/>
+      <c r="J17" s="257"/>
+      <c r="K17" s="258"/>
+      <c r="L17" s="259"/>
+      <c r="M17" s="267"/>
+      <c r="N17" s="268"/>
+      <c r="O17" s="268"/>
+      <c r="P17" s="268"/>
+      <c r="Q17" s="268"/>
+      <c r="R17" s="280"/>
+      <c r="S17" s="281"/>
+      <c r="T17" s="281"/>
+      <c r="U17" s="281"/>
+      <c r="V17" s="270"/>
+      <c r="W17" s="271"/>
+      <c r="X17" s="271"/>
+      <c r="Y17" s="271"/>
+      <c r="Z17" s="271"/>
+      <c r="AA17" s="271"/>
+      <c r="AB17" s="271"/>
+      <c r="AC17" s="271"/>
+      <c r="AD17" s="271"/>
+      <c r="AE17" s="271"/>
+      <c r="AF17" s="271"/>
+      <c r="AG17" s="271"/>
+      <c r="AH17" s="271"/>
+      <c r="AI17" s="271"/>
+      <c r="AJ17" s="271"/>
+      <c r="AK17" s="271"/>
+      <c r="AL17" s="271"/>
+      <c r="AM17" s="272"/>
+      <c r="AN17" s="273"/>
+      <c r="AO17" s="274"/>
+      <c r="AP17" s="274"/>
+      <c r="AQ17" s="274"/>
+      <c r="AR17" s="275"/>
+      <c r="AS17" s="273"/>
+      <c r="AT17" s="274"/>
+      <c r="AU17" s="274"/>
+      <c r="AV17" s="274"/>
+      <c r="AW17" s="275"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
-      <c r="B18" s="247"/>
-      <c r="C18" s="248"/>
-      <c r="D18" s="249"/>
-      <c r="E18" s="250"/>
-      <c r="F18" s="250"/>
-      <c r="G18" s="250"/>
-      <c r="H18" s="250"/>
-      <c r="I18" s="250"/>
-      <c r="J18" s="251"/>
-      <c r="K18" s="252"/>
-      <c r="L18" s="253"/>
-      <c r="M18" s="261"/>
-      <c r="N18" s="262"/>
-      <c r="O18" s="262"/>
-      <c r="P18" s="262"/>
-      <c r="Q18" s="262"/>
-      <c r="R18" s="263"/>
-      <c r="S18" s="257"/>
-      <c r="T18" s="257"/>
-      <c r="U18" s="257"/>
-      <c r="V18" s="258"/>
-      <c r="W18" s="259"/>
-      <c r="X18" s="259"/>
-      <c r="Y18" s="259"/>
-      <c r="Z18" s="259"/>
-      <c r="AA18" s="259"/>
-      <c r="AB18" s="259"/>
-      <c r="AC18" s="259"/>
-      <c r="AD18" s="259"/>
-      <c r="AE18" s="259"/>
-      <c r="AF18" s="259"/>
-      <c r="AG18" s="259"/>
-      <c r="AH18" s="259"/>
-      <c r="AI18" s="259"/>
-      <c r="AJ18" s="259"/>
-      <c r="AK18" s="259"/>
-      <c r="AL18" s="259"/>
-      <c r="AM18" s="260"/>
-      <c r="AN18" s="244"/>
-      <c r="AO18" s="245"/>
-      <c r="AP18" s="245"/>
-      <c r="AQ18" s="245"/>
-      <c r="AR18" s="246"/>
-      <c r="AS18" s="244"/>
-      <c r="AT18" s="245"/>
-      <c r="AU18" s="245"/>
-      <c r="AV18" s="245"/>
-      <c r="AW18" s="246"/>
+      <c r="B18" s="264"/>
+      <c r="C18" s="265"/>
+      <c r="D18" s="266"/>
+      <c r="E18" s="256"/>
+      <c r="F18" s="256"/>
+      <c r="G18" s="256"/>
+      <c r="H18" s="256"/>
+      <c r="I18" s="256"/>
+      <c r="J18" s="257"/>
+      <c r="K18" s="258"/>
+      <c r="L18" s="259"/>
+      <c r="M18" s="278"/>
+      <c r="N18" s="268"/>
+      <c r="O18" s="268"/>
+      <c r="P18" s="268"/>
+      <c r="Q18" s="268"/>
+      <c r="R18" s="269"/>
+      <c r="S18" s="254"/>
+      <c r="T18" s="254"/>
+      <c r="U18" s="254"/>
+      <c r="V18" s="270"/>
+      <c r="W18" s="271"/>
+      <c r="X18" s="271"/>
+      <c r="Y18" s="271"/>
+      <c r="Z18" s="271"/>
+      <c r="AA18" s="271"/>
+      <c r="AB18" s="271"/>
+      <c r="AC18" s="271"/>
+      <c r="AD18" s="271"/>
+      <c r="AE18" s="271"/>
+      <c r="AF18" s="271"/>
+      <c r="AG18" s="271"/>
+      <c r="AH18" s="271"/>
+      <c r="AI18" s="271"/>
+      <c r="AJ18" s="271"/>
+      <c r="AK18" s="271"/>
+      <c r="AL18" s="271"/>
+      <c r="AM18" s="272"/>
+      <c r="AN18" s="273"/>
+      <c r="AO18" s="274"/>
+      <c r="AP18" s="274"/>
+      <c r="AQ18" s="274"/>
+      <c r="AR18" s="275"/>
+      <c r="AS18" s="273"/>
+      <c r="AT18" s="274"/>
+      <c r="AU18" s="274"/>
+      <c r="AV18" s="274"/>
+      <c r="AW18" s="275"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="56"/>
-      <c r="B19" s="247"/>
-      <c r="C19" s="248"/>
-      <c r="D19" s="249"/>
-      <c r="E19" s="250"/>
-      <c r="F19" s="250"/>
-      <c r="G19" s="250"/>
-      <c r="H19" s="250"/>
-      <c r="I19" s="250"/>
-      <c r="J19" s="251"/>
-      <c r="K19" s="252"/>
-      <c r="L19" s="253"/>
-      <c r="M19" s="264"/>
-      <c r="N19" s="262"/>
-      <c r="O19" s="262"/>
-      <c r="P19" s="262"/>
-      <c r="Q19" s="262"/>
-      <c r="R19" s="263"/>
-      <c r="S19" s="257"/>
-      <c r="T19" s="257"/>
-      <c r="U19" s="257"/>
-      <c r="V19" s="258"/>
-      <c r="W19" s="259"/>
-      <c r="X19" s="259"/>
-      <c r="Y19" s="259"/>
-      <c r="Z19" s="259"/>
-      <c r="AA19" s="259"/>
-      <c r="AB19" s="259"/>
-      <c r="AC19" s="259"/>
-      <c r="AD19" s="259"/>
-      <c r="AE19" s="259"/>
-      <c r="AF19" s="259"/>
-      <c r="AG19" s="259"/>
-      <c r="AH19" s="259"/>
-      <c r="AI19" s="259"/>
-      <c r="AJ19" s="259"/>
-      <c r="AK19" s="259"/>
-      <c r="AL19" s="259"/>
-      <c r="AM19" s="260"/>
-      <c r="AN19" s="257"/>
-      <c r="AO19" s="257"/>
-      <c r="AP19" s="257"/>
-      <c r="AQ19" s="257"/>
-      <c r="AR19" s="257"/>
-      <c r="AS19" s="244"/>
-      <c r="AT19" s="245"/>
-      <c r="AU19" s="245"/>
-      <c r="AV19" s="245"/>
-      <c r="AW19" s="246"/>
+      <c r="B19" s="264"/>
+      <c r="C19" s="265"/>
+      <c r="D19" s="266"/>
+      <c r="E19" s="256"/>
+      <c r="F19" s="256"/>
+      <c r="G19" s="256"/>
+      <c r="H19" s="256"/>
+      <c r="I19" s="256"/>
+      <c r="J19" s="257"/>
+      <c r="K19" s="258"/>
+      <c r="L19" s="259"/>
+      <c r="M19" s="267"/>
+      <c r="N19" s="268"/>
+      <c r="O19" s="268"/>
+      <c r="P19" s="268"/>
+      <c r="Q19" s="268"/>
+      <c r="R19" s="269"/>
+      <c r="S19" s="254"/>
+      <c r="T19" s="254"/>
+      <c r="U19" s="254"/>
+      <c r="V19" s="270"/>
+      <c r="W19" s="271"/>
+      <c r="X19" s="271"/>
+      <c r="Y19" s="271"/>
+      <c r="Z19" s="271"/>
+      <c r="AA19" s="271"/>
+      <c r="AB19" s="271"/>
+      <c r="AC19" s="271"/>
+      <c r="AD19" s="271"/>
+      <c r="AE19" s="271"/>
+      <c r="AF19" s="271"/>
+      <c r="AG19" s="271"/>
+      <c r="AH19" s="271"/>
+      <c r="AI19" s="271"/>
+      <c r="AJ19" s="271"/>
+      <c r="AK19" s="271"/>
+      <c r="AL19" s="271"/>
+      <c r="AM19" s="272"/>
+      <c r="AN19" s="254"/>
+      <c r="AO19" s="254"/>
+      <c r="AP19" s="254"/>
+      <c r="AQ19" s="254"/>
+      <c r="AR19" s="254"/>
+      <c r="AS19" s="273"/>
+      <c r="AT19" s="274"/>
+      <c r="AU19" s="274"/>
+      <c r="AV19" s="274"/>
+      <c r="AW19" s="275"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="56"/>
-      <c r="B20" s="247"/>
-      <c r="C20" s="248"/>
-      <c r="D20" s="249"/>
-      <c r="E20" s="250"/>
-      <c r="F20" s="250"/>
-      <c r="G20" s="250"/>
-      <c r="H20" s="250"/>
-      <c r="I20" s="250"/>
-      <c r="J20" s="251"/>
-      <c r="K20" s="252"/>
-      <c r="L20" s="253"/>
-      <c r="M20" s="264"/>
-      <c r="N20" s="262"/>
-      <c r="O20" s="262"/>
-      <c r="P20" s="262"/>
-      <c r="Q20" s="262"/>
-      <c r="R20" s="263"/>
-      <c r="S20" s="244"/>
-      <c r="T20" s="245"/>
-      <c r="U20" s="246"/>
-      <c r="V20" s="258"/>
-      <c r="W20" s="259"/>
-      <c r="X20" s="259"/>
-      <c r="Y20" s="259"/>
-      <c r="Z20" s="259"/>
-      <c r="AA20" s="259"/>
-      <c r="AB20" s="259"/>
-      <c r="AC20" s="259"/>
-      <c r="AD20" s="259"/>
-      <c r="AE20" s="259"/>
-      <c r="AF20" s="259"/>
-      <c r="AG20" s="259"/>
-      <c r="AH20" s="259"/>
-      <c r="AI20" s="259"/>
-      <c r="AJ20" s="259"/>
-      <c r="AK20" s="259"/>
-      <c r="AL20" s="259"/>
-      <c r="AM20" s="260"/>
-      <c r="AN20" s="244"/>
-      <c r="AO20" s="245"/>
-      <c r="AP20" s="245"/>
-      <c r="AQ20" s="245"/>
-      <c r="AR20" s="246"/>
-      <c r="AS20" s="244"/>
-      <c r="AT20" s="245"/>
-      <c r="AU20" s="245"/>
-      <c r="AV20" s="245"/>
-      <c r="AW20" s="246"/>
+      <c r="B20" s="264"/>
+      <c r="C20" s="265"/>
+      <c r="D20" s="266"/>
+      <c r="E20" s="256"/>
+      <c r="F20" s="256"/>
+      <c r="G20" s="256"/>
+      <c r="H20" s="256"/>
+      <c r="I20" s="256"/>
+      <c r="J20" s="257"/>
+      <c r="K20" s="258"/>
+      <c r="L20" s="259"/>
+      <c r="M20" s="267"/>
+      <c r="N20" s="268"/>
+      <c r="O20" s="268"/>
+      <c r="P20" s="268"/>
+      <c r="Q20" s="268"/>
+      <c r="R20" s="269"/>
+      <c r="S20" s="273"/>
+      <c r="T20" s="274"/>
+      <c r="U20" s="275"/>
+      <c r="V20" s="270"/>
+      <c r="W20" s="271"/>
+      <c r="X20" s="271"/>
+      <c r="Y20" s="271"/>
+      <c r="Z20" s="271"/>
+      <c r="AA20" s="271"/>
+      <c r="AB20" s="271"/>
+      <c r="AC20" s="271"/>
+      <c r="AD20" s="271"/>
+      <c r="AE20" s="271"/>
+      <c r="AF20" s="271"/>
+      <c r="AG20" s="271"/>
+      <c r="AH20" s="271"/>
+      <c r="AI20" s="271"/>
+      <c r="AJ20" s="271"/>
+      <c r="AK20" s="271"/>
+      <c r="AL20" s="271"/>
+      <c r="AM20" s="272"/>
+      <c r="AN20" s="273"/>
+      <c r="AO20" s="274"/>
+      <c r="AP20" s="274"/>
+      <c r="AQ20" s="274"/>
+      <c r="AR20" s="275"/>
+      <c r="AS20" s="273"/>
+      <c r="AT20" s="274"/>
+      <c r="AU20" s="274"/>
+      <c r="AV20" s="274"/>
+      <c r="AW20" s="275"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="56"/>
-      <c r="B21" s="247"/>
-      <c r="C21" s="248"/>
-      <c r="D21" s="249"/>
-      <c r="E21" s="250"/>
-      <c r="F21" s="250"/>
-      <c r="G21" s="250"/>
-      <c r="H21" s="250"/>
-      <c r="I21" s="250"/>
-      <c r="J21" s="251"/>
-      <c r="K21" s="252"/>
-      <c r="L21" s="253"/>
-      <c r="M21" s="264"/>
-      <c r="N21" s="262"/>
-      <c r="O21" s="262"/>
-      <c r="P21" s="262"/>
-      <c r="Q21" s="262"/>
-      <c r="R21" s="263"/>
-      <c r="S21" s="257"/>
-      <c r="T21" s="257"/>
-      <c r="U21" s="257"/>
-      <c r="V21" s="258"/>
-      <c r="W21" s="259"/>
-      <c r="X21" s="259"/>
-      <c r="Y21" s="259"/>
-      <c r="Z21" s="259"/>
-      <c r="AA21" s="259"/>
-      <c r="AB21" s="259"/>
-      <c r="AC21" s="259"/>
-      <c r="AD21" s="259"/>
-      <c r="AE21" s="259"/>
-      <c r="AF21" s="259"/>
-      <c r="AG21" s="259"/>
-      <c r="AH21" s="259"/>
-      <c r="AI21" s="259"/>
-      <c r="AJ21" s="259"/>
-      <c r="AK21" s="259"/>
-      <c r="AL21" s="259"/>
-      <c r="AM21" s="260"/>
-      <c r="AN21" s="244"/>
-      <c r="AO21" s="245"/>
-      <c r="AP21" s="245"/>
-      <c r="AQ21" s="245"/>
-      <c r="AR21" s="246"/>
-      <c r="AS21" s="244"/>
-      <c r="AT21" s="245"/>
-      <c r="AU21" s="245"/>
-      <c r="AV21" s="245"/>
-      <c r="AW21" s="246"/>
+      <c r="B21" s="264"/>
+      <c r="C21" s="265"/>
+      <c r="D21" s="266"/>
+      <c r="E21" s="256"/>
+      <c r="F21" s="256"/>
+      <c r="G21" s="256"/>
+      <c r="H21" s="256"/>
+      <c r="I21" s="256"/>
+      <c r="J21" s="257"/>
+      <c r="K21" s="258"/>
+      <c r="L21" s="259"/>
+      <c r="M21" s="267"/>
+      <c r="N21" s="268"/>
+      <c r="O21" s="268"/>
+      <c r="P21" s="268"/>
+      <c r="Q21" s="268"/>
+      <c r="R21" s="269"/>
+      <c r="S21" s="254"/>
+      <c r="T21" s="254"/>
+      <c r="U21" s="254"/>
+      <c r="V21" s="270"/>
+      <c r="W21" s="271"/>
+      <c r="X21" s="271"/>
+      <c r="Y21" s="271"/>
+      <c r="Z21" s="271"/>
+      <c r="AA21" s="271"/>
+      <c r="AB21" s="271"/>
+      <c r="AC21" s="271"/>
+      <c r="AD21" s="271"/>
+      <c r="AE21" s="271"/>
+      <c r="AF21" s="271"/>
+      <c r="AG21" s="271"/>
+      <c r="AH21" s="271"/>
+      <c r="AI21" s="271"/>
+      <c r="AJ21" s="271"/>
+      <c r="AK21" s="271"/>
+      <c r="AL21" s="271"/>
+      <c r="AM21" s="272"/>
+      <c r="AN21" s="273"/>
+      <c r="AO21" s="274"/>
+      <c r="AP21" s="274"/>
+      <c r="AQ21" s="274"/>
+      <c r="AR21" s="275"/>
+      <c r="AS21" s="273"/>
+      <c r="AT21" s="274"/>
+      <c r="AU21" s="274"/>
+      <c r="AV21" s="274"/>
+      <c r="AW21" s="275"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="56"/>
-      <c r="B22" s="247"/>
-      <c r="C22" s="248"/>
-      <c r="D22" s="249"/>
-      <c r="E22" s="250"/>
-      <c r="F22" s="250"/>
-      <c r="G22" s="250"/>
-      <c r="H22" s="250"/>
-      <c r="I22" s="250"/>
-      <c r="J22" s="251"/>
-      <c r="K22" s="252"/>
-      <c r="L22" s="253"/>
-      <c r="M22" s="264"/>
-      <c r="N22" s="262"/>
-      <c r="O22" s="262"/>
-      <c r="P22" s="262"/>
-      <c r="Q22" s="262"/>
-      <c r="R22" s="263"/>
-      <c r="S22" s="257"/>
-      <c r="T22" s="257"/>
-      <c r="U22" s="257"/>
-      <c r="V22" s="258"/>
-      <c r="W22" s="259"/>
-      <c r="X22" s="259"/>
-      <c r="Y22" s="259"/>
-      <c r="Z22" s="259"/>
-      <c r="AA22" s="259"/>
-      <c r="AB22" s="259"/>
-      <c r="AC22" s="259"/>
-      <c r="AD22" s="259"/>
-      <c r="AE22" s="259"/>
-      <c r="AF22" s="259"/>
-      <c r="AG22" s="259"/>
-      <c r="AH22" s="259"/>
-      <c r="AI22" s="259"/>
-      <c r="AJ22" s="259"/>
-      <c r="AK22" s="259"/>
-      <c r="AL22" s="259"/>
-      <c r="AM22" s="260"/>
-      <c r="AN22" s="244"/>
-      <c r="AO22" s="245"/>
-      <c r="AP22" s="245"/>
-      <c r="AQ22" s="245"/>
-      <c r="AR22" s="246"/>
-      <c r="AS22" s="244"/>
-      <c r="AT22" s="245"/>
-      <c r="AU22" s="245"/>
-      <c r="AV22" s="245"/>
-      <c r="AW22" s="246"/>
+      <c r="B22" s="264"/>
+      <c r="C22" s="265"/>
+      <c r="D22" s="266"/>
+      <c r="E22" s="256"/>
+      <c r="F22" s="256"/>
+      <c r="G22" s="256"/>
+      <c r="H22" s="256"/>
+      <c r="I22" s="256"/>
+      <c r="J22" s="257"/>
+      <c r="K22" s="258"/>
+      <c r="L22" s="259"/>
+      <c r="M22" s="267"/>
+      <c r="N22" s="268"/>
+      <c r="O22" s="268"/>
+      <c r="P22" s="268"/>
+      <c r="Q22" s="268"/>
+      <c r="R22" s="269"/>
+      <c r="S22" s="254"/>
+      <c r="T22" s="254"/>
+      <c r="U22" s="254"/>
+      <c r="V22" s="270"/>
+      <c r="W22" s="271"/>
+      <c r="X22" s="271"/>
+      <c r="Y22" s="271"/>
+      <c r="Z22" s="271"/>
+      <c r="AA22" s="271"/>
+      <c r="AB22" s="271"/>
+      <c r="AC22" s="271"/>
+      <c r="AD22" s="271"/>
+      <c r="AE22" s="271"/>
+      <c r="AF22" s="271"/>
+      <c r="AG22" s="271"/>
+      <c r="AH22" s="271"/>
+      <c r="AI22" s="271"/>
+      <c r="AJ22" s="271"/>
+      <c r="AK22" s="271"/>
+      <c r="AL22" s="271"/>
+      <c r="AM22" s="272"/>
+      <c r="AN22" s="273"/>
+      <c r="AO22" s="274"/>
+      <c r="AP22" s="274"/>
+      <c r="AQ22" s="274"/>
+      <c r="AR22" s="275"/>
+      <c r="AS22" s="273"/>
+      <c r="AT22" s="274"/>
+      <c r="AU22" s="274"/>
+      <c r="AV22" s="274"/>
+      <c r="AW22" s="275"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="54"/>
-      <c r="B23" s="247"/>
-      <c r="C23" s="248"/>
-      <c r="D23" s="249"/>
-      <c r="E23" s="250"/>
-      <c r="F23" s="250"/>
-      <c r="G23" s="250"/>
-      <c r="H23" s="250"/>
-      <c r="I23" s="250"/>
-      <c r="J23" s="251"/>
-      <c r="K23" s="252"/>
-      <c r="L23" s="253"/>
-      <c r="M23" s="264"/>
-      <c r="N23" s="262"/>
-      <c r="O23" s="262"/>
-      <c r="P23" s="262"/>
-      <c r="Q23" s="262"/>
-      <c r="R23" s="263"/>
-      <c r="S23" s="257"/>
-      <c r="T23" s="257"/>
-      <c r="U23" s="257"/>
-      <c r="V23" s="258"/>
-      <c r="W23" s="259"/>
-      <c r="X23" s="259"/>
-      <c r="Y23" s="259"/>
-      <c r="Z23" s="259"/>
-      <c r="AA23" s="259"/>
-      <c r="AB23" s="259"/>
-      <c r="AC23" s="259"/>
-      <c r="AD23" s="259"/>
-      <c r="AE23" s="259"/>
-      <c r="AF23" s="259"/>
-      <c r="AG23" s="259"/>
-      <c r="AH23" s="259"/>
-      <c r="AI23" s="259"/>
-      <c r="AJ23" s="259"/>
-      <c r="AK23" s="259"/>
-      <c r="AL23" s="259"/>
-      <c r="AM23" s="260"/>
-      <c r="AN23" s="244"/>
-      <c r="AO23" s="245"/>
-      <c r="AP23" s="245"/>
-      <c r="AQ23" s="245"/>
-      <c r="AR23" s="246"/>
-      <c r="AS23" s="244"/>
-      <c r="AT23" s="245"/>
-      <c r="AU23" s="245"/>
-      <c r="AV23" s="245"/>
-      <c r="AW23" s="246"/>
+      <c r="B23" s="264"/>
+      <c r="C23" s="265"/>
+      <c r="D23" s="266"/>
+      <c r="E23" s="256"/>
+      <c r="F23" s="256"/>
+      <c r="G23" s="256"/>
+      <c r="H23" s="256"/>
+      <c r="I23" s="256"/>
+      <c r="J23" s="257"/>
+      <c r="K23" s="258"/>
+      <c r="L23" s="259"/>
+      <c r="M23" s="267"/>
+      <c r="N23" s="268"/>
+      <c r="O23" s="268"/>
+      <c r="P23" s="268"/>
+      <c r="Q23" s="268"/>
+      <c r="R23" s="269"/>
+      <c r="S23" s="254"/>
+      <c r="T23" s="254"/>
+      <c r="U23" s="254"/>
+      <c r="V23" s="270"/>
+      <c r="W23" s="271"/>
+      <c r="X23" s="271"/>
+      <c r="Y23" s="271"/>
+      <c r="Z23" s="271"/>
+      <c r="AA23" s="271"/>
+      <c r="AB23" s="271"/>
+      <c r="AC23" s="271"/>
+      <c r="AD23" s="271"/>
+      <c r="AE23" s="271"/>
+      <c r="AF23" s="271"/>
+      <c r="AG23" s="271"/>
+      <c r="AH23" s="271"/>
+      <c r="AI23" s="271"/>
+      <c r="AJ23" s="271"/>
+      <c r="AK23" s="271"/>
+      <c r="AL23" s="271"/>
+      <c r="AM23" s="272"/>
+      <c r="AN23" s="273"/>
+      <c r="AO23" s="274"/>
+      <c r="AP23" s="274"/>
+      <c r="AQ23" s="274"/>
+      <c r="AR23" s="275"/>
+      <c r="AS23" s="273"/>
+      <c r="AT23" s="274"/>
+      <c r="AU23" s="274"/>
+      <c r="AV23" s="274"/>
+      <c r="AW23" s="275"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="54"/>
-      <c r="B24" s="247"/>
-      <c r="C24" s="248"/>
-      <c r="D24" s="249"/>
-      <c r="E24" s="250"/>
-      <c r="F24" s="250"/>
-      <c r="G24" s="250"/>
-      <c r="H24" s="250"/>
-      <c r="I24" s="250"/>
-      <c r="J24" s="251"/>
-      <c r="K24" s="252"/>
-      <c r="L24" s="253"/>
-      <c r="M24" s="264"/>
-      <c r="N24" s="262"/>
-      <c r="O24" s="262"/>
-      <c r="P24" s="262"/>
-      <c r="Q24" s="262"/>
-      <c r="R24" s="263"/>
-      <c r="S24" s="257"/>
-      <c r="T24" s="257"/>
-      <c r="U24" s="257"/>
-      <c r="V24" s="258"/>
-      <c r="W24" s="259"/>
-      <c r="X24" s="259"/>
-      <c r="Y24" s="259"/>
-      <c r="Z24" s="259"/>
-      <c r="AA24" s="259"/>
-      <c r="AB24" s="259"/>
-      <c r="AC24" s="259"/>
-      <c r="AD24" s="259"/>
-      <c r="AE24" s="259"/>
-      <c r="AF24" s="259"/>
-      <c r="AG24" s="259"/>
-      <c r="AH24" s="259"/>
-      <c r="AI24" s="259"/>
-      <c r="AJ24" s="259"/>
-      <c r="AK24" s="259"/>
-      <c r="AL24" s="259"/>
-      <c r="AM24" s="260"/>
-      <c r="AN24" s="244"/>
-      <c r="AO24" s="245"/>
-      <c r="AP24" s="245"/>
-      <c r="AQ24" s="245"/>
-      <c r="AR24" s="246"/>
-      <c r="AS24" s="244"/>
-      <c r="AT24" s="245"/>
-      <c r="AU24" s="245"/>
-      <c r="AV24" s="245"/>
-      <c r="AW24" s="246"/>
+      <c r="B24" s="264"/>
+      <c r="C24" s="265"/>
+      <c r="D24" s="266"/>
+      <c r="E24" s="256"/>
+      <c r="F24" s="256"/>
+      <c r="G24" s="256"/>
+      <c r="H24" s="256"/>
+      <c r="I24" s="256"/>
+      <c r="J24" s="257"/>
+      <c r="K24" s="258"/>
+      <c r="L24" s="259"/>
+      <c r="M24" s="267"/>
+      <c r="N24" s="268"/>
+      <c r="O24" s="268"/>
+      <c r="P24" s="268"/>
+      <c r="Q24" s="268"/>
+      <c r="R24" s="269"/>
+      <c r="S24" s="254"/>
+      <c r="T24" s="254"/>
+      <c r="U24" s="254"/>
+      <c r="V24" s="270"/>
+      <c r="W24" s="271"/>
+      <c r="X24" s="271"/>
+      <c r="Y24" s="271"/>
+      <c r="Z24" s="271"/>
+      <c r="AA24" s="271"/>
+      <c r="AB24" s="271"/>
+      <c r="AC24" s="271"/>
+      <c r="AD24" s="271"/>
+      <c r="AE24" s="271"/>
+      <c r="AF24" s="271"/>
+      <c r="AG24" s="271"/>
+      <c r="AH24" s="271"/>
+      <c r="AI24" s="271"/>
+      <c r="AJ24" s="271"/>
+      <c r="AK24" s="271"/>
+      <c r="AL24" s="271"/>
+      <c r="AM24" s="272"/>
+      <c r="AN24" s="273"/>
+      <c r="AO24" s="274"/>
+      <c r="AP24" s="274"/>
+      <c r="AQ24" s="274"/>
+      <c r="AR24" s="275"/>
+      <c r="AS24" s="273"/>
+      <c r="AT24" s="274"/>
+      <c r="AU24" s="274"/>
+      <c r="AV24" s="274"/>
+      <c r="AW24" s="275"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="54"/>
-      <c r="B25" s="247"/>
-      <c r="C25" s="248"/>
-      <c r="D25" s="249"/>
-      <c r="E25" s="250"/>
-      <c r="F25" s="250"/>
-      <c r="G25" s="250"/>
-      <c r="H25" s="250"/>
-      <c r="I25" s="250"/>
-      <c r="J25" s="251"/>
-      <c r="K25" s="252"/>
-      <c r="L25" s="253"/>
-      <c r="M25" s="261"/>
-      <c r="N25" s="262"/>
-      <c r="O25" s="262"/>
-      <c r="P25" s="262"/>
-      <c r="Q25" s="262"/>
-      <c r="R25" s="263"/>
-      <c r="S25" s="257"/>
-      <c r="T25" s="257"/>
-      <c r="U25" s="257"/>
-      <c r="V25" s="258"/>
-      <c r="W25" s="259"/>
-      <c r="X25" s="259"/>
-      <c r="Y25" s="259"/>
-      <c r="Z25" s="259"/>
-      <c r="AA25" s="259"/>
-      <c r="AB25" s="259"/>
-      <c r="AC25" s="259"/>
-      <c r="AD25" s="259"/>
-      <c r="AE25" s="259"/>
-      <c r="AF25" s="259"/>
-      <c r="AG25" s="259"/>
-      <c r="AH25" s="259"/>
-      <c r="AI25" s="259"/>
-      <c r="AJ25" s="259"/>
-      <c r="AK25" s="259"/>
-      <c r="AL25" s="259"/>
-      <c r="AM25" s="260"/>
-      <c r="AN25" s="244"/>
-      <c r="AO25" s="245"/>
-      <c r="AP25" s="245"/>
-      <c r="AQ25" s="245"/>
-      <c r="AR25" s="246"/>
-      <c r="AS25" s="244"/>
-      <c r="AT25" s="245"/>
-      <c r="AU25" s="245"/>
-      <c r="AV25" s="245"/>
-      <c r="AW25" s="246"/>
+      <c r="B25" s="264"/>
+      <c r="C25" s="265"/>
+      <c r="D25" s="266"/>
+      <c r="E25" s="256"/>
+      <c r="F25" s="256"/>
+      <c r="G25" s="256"/>
+      <c r="H25" s="256"/>
+      <c r="I25" s="256"/>
+      <c r="J25" s="257"/>
+      <c r="K25" s="258"/>
+      <c r="L25" s="259"/>
+      <c r="M25" s="278"/>
+      <c r="N25" s="268"/>
+      <c r="O25" s="268"/>
+      <c r="P25" s="268"/>
+      <c r="Q25" s="268"/>
+      <c r="R25" s="269"/>
+      <c r="S25" s="254"/>
+      <c r="T25" s="254"/>
+      <c r="U25" s="254"/>
+      <c r="V25" s="270"/>
+      <c r="W25" s="271"/>
+      <c r="X25" s="271"/>
+      <c r="Y25" s="271"/>
+      <c r="Z25" s="271"/>
+      <c r="AA25" s="271"/>
+      <c r="AB25" s="271"/>
+      <c r="AC25" s="271"/>
+      <c r="AD25" s="271"/>
+      <c r="AE25" s="271"/>
+      <c r="AF25" s="271"/>
+      <c r="AG25" s="271"/>
+      <c r="AH25" s="271"/>
+      <c r="AI25" s="271"/>
+      <c r="AJ25" s="271"/>
+      <c r="AK25" s="271"/>
+      <c r="AL25" s="271"/>
+      <c r="AM25" s="272"/>
+      <c r="AN25" s="273"/>
+      <c r="AO25" s="274"/>
+      <c r="AP25" s="274"/>
+      <c r="AQ25" s="274"/>
+      <c r="AR25" s="275"/>
+      <c r="AS25" s="273"/>
+      <c r="AT25" s="274"/>
+      <c r="AU25" s="274"/>
+      <c r="AV25" s="274"/>
+      <c r="AW25" s="275"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="54"/>
-      <c r="B26" s="247"/>
-      <c r="C26" s="248"/>
-      <c r="D26" s="249"/>
-      <c r="E26" s="250"/>
-      <c r="F26" s="250"/>
-      <c r="G26" s="250"/>
-      <c r="H26" s="250"/>
-      <c r="I26" s="250"/>
-      <c r="J26" s="251"/>
-      <c r="K26" s="252"/>
-      <c r="L26" s="253"/>
-      <c r="M26" s="261"/>
-      <c r="N26" s="262"/>
-      <c r="O26" s="262"/>
-      <c r="P26" s="262"/>
-      <c r="Q26" s="262"/>
-      <c r="R26" s="263"/>
-      <c r="S26" s="257"/>
-      <c r="T26" s="257"/>
-      <c r="U26" s="257"/>
-      <c r="V26" s="258"/>
-      <c r="W26" s="259"/>
-      <c r="X26" s="259"/>
-      <c r="Y26" s="259"/>
-      <c r="Z26" s="259"/>
-      <c r="AA26" s="259"/>
-      <c r="AB26" s="259"/>
-      <c r="AC26" s="259"/>
-      <c r="AD26" s="259"/>
-      <c r="AE26" s="259"/>
-      <c r="AF26" s="259"/>
-      <c r="AG26" s="259"/>
-      <c r="AH26" s="259"/>
-      <c r="AI26" s="259"/>
-      <c r="AJ26" s="259"/>
-      <c r="AK26" s="259"/>
-      <c r="AL26" s="259"/>
-      <c r="AM26" s="260"/>
-      <c r="AN26" s="244"/>
-      <c r="AO26" s="245"/>
-      <c r="AP26" s="245"/>
-      <c r="AQ26" s="245"/>
-      <c r="AR26" s="246"/>
-      <c r="AS26" s="244"/>
-      <c r="AT26" s="245"/>
-      <c r="AU26" s="245"/>
-      <c r="AV26" s="245"/>
-      <c r="AW26" s="246"/>
+      <c r="B26" s="264"/>
+      <c r="C26" s="265"/>
+      <c r="D26" s="266"/>
+      <c r="E26" s="256"/>
+      <c r="F26" s="256"/>
+      <c r="G26" s="256"/>
+      <c r="H26" s="256"/>
+      <c r="I26" s="256"/>
+      <c r="J26" s="257"/>
+      <c r="K26" s="258"/>
+      <c r="L26" s="259"/>
+      <c r="M26" s="278"/>
+      <c r="N26" s="268"/>
+      <c r="O26" s="268"/>
+      <c r="P26" s="268"/>
+      <c r="Q26" s="268"/>
+      <c r="R26" s="269"/>
+      <c r="S26" s="254"/>
+      <c r="T26" s="254"/>
+      <c r="U26" s="254"/>
+      <c r="V26" s="270"/>
+      <c r="W26" s="271"/>
+      <c r="X26" s="271"/>
+      <c r="Y26" s="271"/>
+      <c r="Z26" s="271"/>
+      <c r="AA26" s="271"/>
+      <c r="AB26" s="271"/>
+      <c r="AC26" s="271"/>
+      <c r="AD26" s="271"/>
+      <c r="AE26" s="271"/>
+      <c r="AF26" s="271"/>
+      <c r="AG26" s="271"/>
+      <c r="AH26" s="271"/>
+      <c r="AI26" s="271"/>
+      <c r="AJ26" s="271"/>
+      <c r="AK26" s="271"/>
+      <c r="AL26" s="271"/>
+      <c r="AM26" s="272"/>
+      <c r="AN26" s="273"/>
+      <c r="AO26" s="274"/>
+      <c r="AP26" s="274"/>
+      <c r="AQ26" s="274"/>
+      <c r="AR26" s="275"/>
+      <c r="AS26" s="273"/>
+      <c r="AT26" s="274"/>
+      <c r="AU26" s="274"/>
+      <c r="AV26" s="274"/>
+      <c r="AW26" s="275"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="54"/>
-      <c r="B27" s="247"/>
-      <c r="C27" s="248"/>
-      <c r="D27" s="249"/>
-      <c r="E27" s="250"/>
-      <c r="F27" s="250"/>
-      <c r="G27" s="250"/>
-      <c r="H27" s="250"/>
-      <c r="I27" s="250"/>
-      <c r="J27" s="251"/>
-      <c r="K27" s="252"/>
-      <c r="L27" s="253"/>
-      <c r="M27" s="261"/>
-      <c r="N27" s="262"/>
-      <c r="O27" s="262"/>
-      <c r="P27" s="262"/>
-      <c r="Q27" s="262"/>
-      <c r="R27" s="263"/>
-      <c r="S27" s="257"/>
-      <c r="T27" s="257"/>
-      <c r="U27" s="257"/>
-      <c r="V27" s="258"/>
-      <c r="W27" s="259"/>
-      <c r="X27" s="259"/>
-      <c r="Y27" s="259"/>
-      <c r="Z27" s="259"/>
-      <c r="AA27" s="259"/>
-      <c r="AB27" s="259"/>
-      <c r="AC27" s="259"/>
-      <c r="AD27" s="259"/>
-      <c r="AE27" s="259"/>
-      <c r="AF27" s="259"/>
-      <c r="AG27" s="259"/>
-      <c r="AH27" s="259"/>
-      <c r="AI27" s="259"/>
-      <c r="AJ27" s="259"/>
-      <c r="AK27" s="259"/>
-      <c r="AL27" s="259"/>
-      <c r="AM27" s="260"/>
-      <c r="AN27" s="244"/>
-      <c r="AO27" s="245"/>
-      <c r="AP27" s="245"/>
-      <c r="AQ27" s="245"/>
-      <c r="AR27" s="246"/>
-      <c r="AS27" s="244"/>
-      <c r="AT27" s="245"/>
-      <c r="AU27" s="245"/>
-      <c r="AV27" s="245"/>
-      <c r="AW27" s="246"/>
+      <c r="B27" s="264"/>
+      <c r="C27" s="265"/>
+      <c r="D27" s="266"/>
+      <c r="E27" s="256"/>
+      <c r="F27" s="256"/>
+      <c r="G27" s="256"/>
+      <c r="H27" s="256"/>
+      <c r="I27" s="256"/>
+      <c r="J27" s="257"/>
+      <c r="K27" s="258"/>
+      <c r="L27" s="259"/>
+      <c r="M27" s="278"/>
+      <c r="N27" s="268"/>
+      <c r="O27" s="268"/>
+      <c r="P27" s="268"/>
+      <c r="Q27" s="268"/>
+      <c r="R27" s="269"/>
+      <c r="S27" s="254"/>
+      <c r="T27" s="254"/>
+      <c r="U27" s="254"/>
+      <c r="V27" s="270"/>
+      <c r="W27" s="271"/>
+      <c r="X27" s="271"/>
+      <c r="Y27" s="271"/>
+      <c r="Z27" s="271"/>
+      <c r="AA27" s="271"/>
+      <c r="AB27" s="271"/>
+      <c r="AC27" s="271"/>
+      <c r="AD27" s="271"/>
+      <c r="AE27" s="271"/>
+      <c r="AF27" s="271"/>
+      <c r="AG27" s="271"/>
+      <c r="AH27" s="271"/>
+      <c r="AI27" s="271"/>
+      <c r="AJ27" s="271"/>
+      <c r="AK27" s="271"/>
+      <c r="AL27" s="271"/>
+      <c r="AM27" s="272"/>
+      <c r="AN27" s="273"/>
+      <c r="AO27" s="274"/>
+      <c r="AP27" s="274"/>
+      <c r="AQ27" s="274"/>
+      <c r="AR27" s="275"/>
+      <c r="AS27" s="273"/>
+      <c r="AT27" s="274"/>
+      <c r="AU27" s="274"/>
+      <c r="AV27" s="274"/>
+      <c r="AW27" s="275"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="54"/>
-      <c r="B28" s="247"/>
-      <c r="C28" s="248"/>
-      <c r="D28" s="249"/>
-      <c r="E28" s="250"/>
-      <c r="F28" s="250"/>
-      <c r="G28" s="250"/>
-      <c r="H28" s="250"/>
-      <c r="I28" s="250"/>
-      <c r="J28" s="251"/>
-      <c r="K28" s="252"/>
-      <c r="L28" s="253"/>
-      <c r="M28" s="264"/>
-      <c r="N28" s="262"/>
-      <c r="O28" s="262"/>
-      <c r="P28" s="262"/>
-      <c r="Q28" s="262"/>
-      <c r="R28" s="263"/>
-      <c r="S28" s="257"/>
-      <c r="T28" s="257"/>
-      <c r="U28" s="257"/>
-      <c r="V28" s="258"/>
-      <c r="W28" s="259"/>
-      <c r="X28" s="259"/>
-      <c r="Y28" s="259"/>
-      <c r="Z28" s="259"/>
-      <c r="AA28" s="259"/>
-      <c r="AB28" s="259"/>
-      <c r="AC28" s="259"/>
-      <c r="AD28" s="259"/>
-      <c r="AE28" s="259"/>
-      <c r="AF28" s="259"/>
-      <c r="AG28" s="259"/>
-      <c r="AH28" s="259"/>
-      <c r="AI28" s="259"/>
-      <c r="AJ28" s="259"/>
-      <c r="AK28" s="259"/>
-      <c r="AL28" s="259"/>
-      <c r="AM28" s="260"/>
-      <c r="AN28" s="244"/>
-      <c r="AO28" s="245"/>
-      <c r="AP28" s="245"/>
-      <c r="AQ28" s="245"/>
-      <c r="AR28" s="246"/>
-      <c r="AS28" s="244"/>
-      <c r="AT28" s="245"/>
-      <c r="AU28" s="245"/>
-      <c r="AV28" s="245"/>
-      <c r="AW28" s="246"/>
+      <c r="B28" s="264"/>
+      <c r="C28" s="265"/>
+      <c r="D28" s="266"/>
+      <c r="E28" s="256"/>
+      <c r="F28" s="256"/>
+      <c r="G28" s="256"/>
+      <c r="H28" s="256"/>
+      <c r="I28" s="256"/>
+      <c r="J28" s="257"/>
+      <c r="K28" s="258"/>
+      <c r="L28" s="259"/>
+      <c r="M28" s="267"/>
+      <c r="N28" s="268"/>
+      <c r="O28" s="268"/>
+      <c r="P28" s="268"/>
+      <c r="Q28" s="268"/>
+      <c r="R28" s="269"/>
+      <c r="S28" s="254"/>
+      <c r="T28" s="254"/>
+      <c r="U28" s="254"/>
+      <c r="V28" s="270"/>
+      <c r="W28" s="271"/>
+      <c r="X28" s="271"/>
+      <c r="Y28" s="271"/>
+      <c r="Z28" s="271"/>
+      <c r="AA28" s="271"/>
+      <c r="AB28" s="271"/>
+      <c r="AC28" s="271"/>
+      <c r="AD28" s="271"/>
+      <c r="AE28" s="271"/>
+      <c r="AF28" s="271"/>
+      <c r="AG28" s="271"/>
+      <c r="AH28" s="271"/>
+      <c r="AI28" s="271"/>
+      <c r="AJ28" s="271"/>
+      <c r="AK28" s="271"/>
+      <c r="AL28" s="271"/>
+      <c r="AM28" s="272"/>
+      <c r="AN28" s="273"/>
+      <c r="AO28" s="274"/>
+      <c r="AP28" s="274"/>
+      <c r="AQ28" s="274"/>
+      <c r="AR28" s="275"/>
+      <c r="AS28" s="273"/>
+      <c r="AT28" s="274"/>
+      <c r="AU28" s="274"/>
+      <c r="AV28" s="274"/>
+      <c r="AW28" s="275"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="54"/>
-      <c r="B29" s="247"/>
-      <c r="C29" s="248"/>
-      <c r="D29" s="249"/>
-      <c r="E29" s="250"/>
-      <c r="F29" s="250"/>
-      <c r="G29" s="250"/>
-      <c r="H29" s="250"/>
-      <c r="I29" s="250"/>
-      <c r="J29" s="251"/>
-      <c r="K29" s="252"/>
-      <c r="L29" s="253"/>
-      <c r="M29" s="264"/>
-      <c r="N29" s="262"/>
-      <c r="O29" s="262"/>
-      <c r="P29" s="262"/>
-      <c r="Q29" s="262"/>
-      <c r="R29" s="263"/>
-      <c r="S29" s="257"/>
-      <c r="T29" s="257"/>
-      <c r="U29" s="257"/>
-      <c r="V29" s="258"/>
-      <c r="W29" s="259"/>
-      <c r="X29" s="259"/>
-      <c r="Y29" s="259"/>
-      <c r="Z29" s="259"/>
-      <c r="AA29" s="259"/>
-      <c r="AB29" s="259"/>
-      <c r="AC29" s="259"/>
-      <c r="AD29" s="259"/>
-      <c r="AE29" s="259"/>
-      <c r="AF29" s="259"/>
-      <c r="AG29" s="259"/>
-      <c r="AH29" s="259"/>
-      <c r="AI29" s="259"/>
-      <c r="AJ29" s="259"/>
-      <c r="AK29" s="259"/>
-      <c r="AL29" s="259"/>
-      <c r="AM29" s="260"/>
-      <c r="AN29" s="244"/>
-      <c r="AO29" s="245"/>
-      <c r="AP29" s="245"/>
-      <c r="AQ29" s="245"/>
-      <c r="AR29" s="246"/>
-      <c r="AS29" s="244"/>
-      <c r="AT29" s="245"/>
-      <c r="AU29" s="245"/>
-      <c r="AV29" s="245"/>
-      <c r="AW29" s="246"/>
+      <c r="B29" s="264"/>
+      <c r="C29" s="265"/>
+      <c r="D29" s="266"/>
+      <c r="E29" s="256"/>
+      <c r="F29" s="256"/>
+      <c r="G29" s="256"/>
+      <c r="H29" s="256"/>
+      <c r="I29" s="256"/>
+      <c r="J29" s="257"/>
+      <c r="K29" s="258"/>
+      <c r="L29" s="259"/>
+      <c r="M29" s="267"/>
+      <c r="N29" s="268"/>
+      <c r="O29" s="268"/>
+      <c r="P29" s="268"/>
+      <c r="Q29" s="268"/>
+      <c r="R29" s="269"/>
+      <c r="S29" s="254"/>
+      <c r="T29" s="254"/>
+      <c r="U29" s="254"/>
+      <c r="V29" s="270"/>
+      <c r="W29" s="271"/>
+      <c r="X29" s="271"/>
+      <c r="Y29" s="271"/>
+      <c r="Z29" s="271"/>
+      <c r="AA29" s="271"/>
+      <c r="AB29" s="271"/>
+      <c r="AC29" s="271"/>
+      <c r="AD29" s="271"/>
+      <c r="AE29" s="271"/>
+      <c r="AF29" s="271"/>
+      <c r="AG29" s="271"/>
+      <c r="AH29" s="271"/>
+      <c r="AI29" s="271"/>
+      <c r="AJ29" s="271"/>
+      <c r="AK29" s="271"/>
+      <c r="AL29" s="271"/>
+      <c r="AM29" s="272"/>
+      <c r="AN29" s="273"/>
+      <c r="AO29" s="274"/>
+      <c r="AP29" s="274"/>
+      <c r="AQ29" s="274"/>
+      <c r="AR29" s="275"/>
+      <c r="AS29" s="273"/>
+      <c r="AT29" s="274"/>
+      <c r="AU29" s="274"/>
+      <c r="AV29" s="274"/>
+      <c r="AW29" s="275"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="54"/>
-      <c r="B30" s="247"/>
-      <c r="C30" s="248"/>
-      <c r="D30" s="249"/>
-      <c r="E30" s="250"/>
-      <c r="F30" s="250"/>
-      <c r="G30" s="250"/>
-      <c r="H30" s="250"/>
-      <c r="I30" s="250"/>
-      <c r="J30" s="251"/>
-      <c r="K30" s="252"/>
-      <c r="L30" s="253"/>
-      <c r="M30" s="261"/>
-      <c r="N30" s="262"/>
-      <c r="O30" s="262"/>
-      <c r="P30" s="262"/>
-      <c r="Q30" s="262"/>
-      <c r="R30" s="263"/>
-      <c r="S30" s="257"/>
-      <c r="T30" s="257"/>
-      <c r="U30" s="257"/>
-      <c r="V30" s="258"/>
-      <c r="W30" s="259"/>
-      <c r="X30" s="259"/>
-      <c r="Y30" s="259"/>
-      <c r="Z30" s="259"/>
-      <c r="AA30" s="259"/>
-      <c r="AB30" s="259"/>
-      <c r="AC30" s="259"/>
-      <c r="AD30" s="259"/>
-      <c r="AE30" s="259"/>
-      <c r="AF30" s="259"/>
-      <c r="AG30" s="259"/>
-      <c r="AH30" s="259"/>
-      <c r="AI30" s="259"/>
-      <c r="AJ30" s="259"/>
-      <c r="AK30" s="259"/>
-      <c r="AL30" s="259"/>
-      <c r="AM30" s="260"/>
-      <c r="AN30" s="244"/>
-      <c r="AO30" s="245"/>
-      <c r="AP30" s="245"/>
-      <c r="AQ30" s="245"/>
-      <c r="AR30" s="246"/>
-      <c r="AS30" s="244"/>
-      <c r="AT30" s="245"/>
-      <c r="AU30" s="245"/>
-      <c r="AV30" s="245"/>
-      <c r="AW30" s="246"/>
+      <c r="B30" s="264"/>
+      <c r="C30" s="265"/>
+      <c r="D30" s="266"/>
+      <c r="E30" s="256"/>
+      <c r="F30" s="256"/>
+      <c r="G30" s="256"/>
+      <c r="H30" s="256"/>
+      <c r="I30" s="256"/>
+      <c r="J30" s="257"/>
+      <c r="K30" s="258"/>
+      <c r="L30" s="259"/>
+      <c r="M30" s="278"/>
+      <c r="N30" s="268"/>
+      <c r="O30" s="268"/>
+      <c r="P30" s="268"/>
+      <c r="Q30" s="268"/>
+      <c r="R30" s="269"/>
+      <c r="S30" s="254"/>
+      <c r="T30" s="254"/>
+      <c r="U30" s="254"/>
+      <c r="V30" s="270"/>
+      <c r="W30" s="271"/>
+      <c r="X30" s="271"/>
+      <c r="Y30" s="271"/>
+      <c r="Z30" s="271"/>
+      <c r="AA30" s="271"/>
+      <c r="AB30" s="271"/>
+      <c r="AC30" s="271"/>
+      <c r="AD30" s="271"/>
+      <c r="AE30" s="271"/>
+      <c r="AF30" s="271"/>
+      <c r="AG30" s="271"/>
+      <c r="AH30" s="271"/>
+      <c r="AI30" s="271"/>
+      <c r="AJ30" s="271"/>
+      <c r="AK30" s="271"/>
+      <c r="AL30" s="271"/>
+      <c r="AM30" s="272"/>
+      <c r="AN30" s="273"/>
+      <c r="AO30" s="274"/>
+      <c r="AP30" s="274"/>
+      <c r="AQ30" s="274"/>
+      <c r="AR30" s="275"/>
+      <c r="AS30" s="273"/>
+      <c r="AT30" s="274"/>
+      <c r="AU30" s="274"/>
+      <c r="AV30" s="274"/>
+      <c r="AW30" s="275"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="54"/>
-      <c r="B31" s="247"/>
-      <c r="C31" s="248"/>
-      <c r="D31" s="249"/>
-      <c r="E31" s="250"/>
-      <c r="F31" s="250"/>
-      <c r="G31" s="250"/>
-      <c r="H31" s="250"/>
-      <c r="I31" s="250"/>
-      <c r="J31" s="251"/>
-      <c r="K31" s="252"/>
-      <c r="L31" s="253"/>
-      <c r="M31" s="261"/>
-      <c r="N31" s="262"/>
-      <c r="O31" s="262"/>
-      <c r="P31" s="262"/>
-      <c r="Q31" s="262"/>
-      <c r="R31" s="263"/>
-      <c r="S31" s="257"/>
-      <c r="T31" s="257"/>
-      <c r="U31" s="257"/>
-      <c r="V31" s="258"/>
-      <c r="W31" s="259"/>
-      <c r="X31" s="259"/>
-      <c r="Y31" s="259"/>
-      <c r="Z31" s="259"/>
-      <c r="AA31" s="259"/>
-      <c r="AB31" s="259"/>
-      <c r="AC31" s="259"/>
-      <c r="AD31" s="259"/>
-      <c r="AE31" s="259"/>
-      <c r="AF31" s="259"/>
-      <c r="AG31" s="259"/>
-      <c r="AH31" s="259"/>
-      <c r="AI31" s="259"/>
-      <c r="AJ31" s="259"/>
-      <c r="AK31" s="259"/>
-      <c r="AL31" s="259"/>
-      <c r="AM31" s="260"/>
-      <c r="AN31" s="244"/>
-      <c r="AO31" s="245"/>
-      <c r="AP31" s="245"/>
-      <c r="AQ31" s="245"/>
-      <c r="AR31" s="246"/>
-      <c r="AS31" s="244"/>
-      <c r="AT31" s="245"/>
-      <c r="AU31" s="245"/>
-      <c r="AV31" s="245"/>
-      <c r="AW31" s="246"/>
+      <c r="B31" s="264"/>
+      <c r="C31" s="265"/>
+      <c r="D31" s="266"/>
+      <c r="E31" s="256"/>
+      <c r="F31" s="256"/>
+      <c r="G31" s="256"/>
+      <c r="H31" s="256"/>
+      <c r="I31" s="256"/>
+      <c r="J31" s="257"/>
+      <c r="K31" s="258"/>
+      <c r="L31" s="259"/>
+      <c r="M31" s="278"/>
+      <c r="N31" s="268"/>
+      <c r="O31" s="268"/>
+      <c r="P31" s="268"/>
+      <c r="Q31" s="268"/>
+      <c r="R31" s="269"/>
+      <c r="S31" s="254"/>
+      <c r="T31" s="254"/>
+      <c r="U31" s="254"/>
+      <c r="V31" s="270"/>
+      <c r="W31" s="271"/>
+      <c r="X31" s="271"/>
+      <c r="Y31" s="271"/>
+      <c r="Z31" s="271"/>
+      <c r="AA31" s="271"/>
+      <c r="AB31" s="271"/>
+      <c r="AC31" s="271"/>
+      <c r="AD31" s="271"/>
+      <c r="AE31" s="271"/>
+      <c r="AF31" s="271"/>
+      <c r="AG31" s="271"/>
+      <c r="AH31" s="271"/>
+      <c r="AI31" s="271"/>
+      <c r="AJ31" s="271"/>
+      <c r="AK31" s="271"/>
+      <c r="AL31" s="271"/>
+      <c r="AM31" s="272"/>
+      <c r="AN31" s="273"/>
+      <c r="AO31" s="274"/>
+      <c r="AP31" s="274"/>
+      <c r="AQ31" s="274"/>
+      <c r="AR31" s="275"/>
+      <c r="AS31" s="273"/>
+      <c r="AT31" s="274"/>
+      <c r="AU31" s="274"/>
+      <c r="AV31" s="274"/>
+      <c r="AW31" s="275"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="54"/>
-      <c r="B32" s="247"/>
-      <c r="C32" s="248"/>
-      <c r="D32" s="249"/>
-      <c r="E32" s="250"/>
-      <c r="F32" s="250"/>
-      <c r="G32" s="250"/>
-      <c r="H32" s="250"/>
-      <c r="I32" s="250"/>
-      <c r="J32" s="251"/>
-      <c r="K32" s="252"/>
-      <c r="L32" s="253"/>
-      <c r="M32" s="261"/>
-      <c r="N32" s="262"/>
-      <c r="O32" s="262"/>
-      <c r="P32" s="262"/>
-      <c r="Q32" s="262"/>
-      <c r="R32" s="263"/>
-      <c r="S32" s="257"/>
-      <c r="T32" s="257"/>
-      <c r="U32" s="257"/>
-      <c r="V32" s="258"/>
-      <c r="W32" s="259"/>
-      <c r="X32" s="259"/>
-      <c r="Y32" s="259"/>
-      <c r="Z32" s="259"/>
-      <c r="AA32" s="259"/>
-      <c r="AB32" s="259"/>
-      <c r="AC32" s="259"/>
-      <c r="AD32" s="259"/>
-      <c r="AE32" s="259"/>
-      <c r="AF32" s="259"/>
-      <c r="AG32" s="259"/>
-      <c r="AH32" s="259"/>
-      <c r="AI32" s="259"/>
-      <c r="AJ32" s="259"/>
-      <c r="AK32" s="259"/>
-      <c r="AL32" s="259"/>
-      <c r="AM32" s="260"/>
-      <c r="AN32" s="244"/>
-      <c r="AO32" s="245"/>
-      <c r="AP32" s="245"/>
-      <c r="AQ32" s="245"/>
-      <c r="AR32" s="246"/>
-      <c r="AS32" s="244"/>
-      <c r="AT32" s="245"/>
-      <c r="AU32" s="245"/>
-      <c r="AV32" s="245"/>
-      <c r="AW32" s="246"/>
+      <c r="B32" s="264"/>
+      <c r="C32" s="265"/>
+      <c r="D32" s="266"/>
+      <c r="E32" s="256"/>
+      <c r="F32" s="256"/>
+      <c r="G32" s="256"/>
+      <c r="H32" s="256"/>
+      <c r="I32" s="256"/>
+      <c r="J32" s="257"/>
+      <c r="K32" s="258"/>
+      <c r="L32" s="259"/>
+      <c r="M32" s="278"/>
+      <c r="N32" s="268"/>
+      <c r="O32" s="268"/>
+      <c r="P32" s="268"/>
+      <c r="Q32" s="268"/>
+      <c r="R32" s="269"/>
+      <c r="S32" s="254"/>
+      <c r="T32" s="254"/>
+      <c r="U32" s="254"/>
+      <c r="V32" s="270"/>
+      <c r="W32" s="271"/>
+      <c r="X32" s="271"/>
+      <c r="Y32" s="271"/>
+      <c r="Z32" s="271"/>
+      <c r="AA32" s="271"/>
+      <c r="AB32" s="271"/>
+      <c r="AC32" s="271"/>
+      <c r="AD32" s="271"/>
+      <c r="AE32" s="271"/>
+      <c r="AF32" s="271"/>
+      <c r="AG32" s="271"/>
+      <c r="AH32" s="271"/>
+      <c r="AI32" s="271"/>
+      <c r="AJ32" s="271"/>
+      <c r="AK32" s="271"/>
+      <c r="AL32" s="271"/>
+      <c r="AM32" s="272"/>
+      <c r="AN32" s="273"/>
+      <c r="AO32" s="274"/>
+      <c r="AP32" s="274"/>
+      <c r="AQ32" s="274"/>
+      <c r="AR32" s="275"/>
+      <c r="AS32" s="273"/>
+      <c r="AT32" s="274"/>
+      <c r="AU32" s="274"/>
+      <c r="AV32" s="274"/>
+      <c r="AW32" s="275"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="247"/>
-      <c r="C33" s="248"/>
-      <c r="D33" s="249"/>
-      <c r="E33" s="250"/>
-      <c r="F33" s="250"/>
-      <c r="G33" s="250"/>
-      <c r="H33" s="250"/>
-      <c r="I33" s="250"/>
-      <c r="J33" s="251"/>
-      <c r="K33" s="252"/>
-      <c r="L33" s="253"/>
-      <c r="M33" s="261"/>
-      <c r="N33" s="262"/>
-      <c r="O33" s="262"/>
-      <c r="P33" s="262"/>
-      <c r="Q33" s="262"/>
-      <c r="R33" s="263"/>
-      <c r="S33" s="257"/>
-      <c r="T33" s="257"/>
-      <c r="U33" s="257"/>
-      <c r="V33" s="258"/>
-      <c r="W33" s="259"/>
-      <c r="X33" s="259"/>
-      <c r="Y33" s="259"/>
-      <c r="Z33" s="259"/>
-      <c r="AA33" s="259"/>
-      <c r="AB33" s="259"/>
-      <c r="AC33" s="259"/>
-      <c r="AD33" s="259"/>
-      <c r="AE33" s="259"/>
-      <c r="AF33" s="259"/>
-      <c r="AG33" s="259"/>
-      <c r="AH33" s="259"/>
-      <c r="AI33" s="259"/>
-      <c r="AJ33" s="259"/>
-      <c r="AK33" s="259"/>
-      <c r="AL33" s="259"/>
-      <c r="AM33" s="260"/>
-      <c r="AN33" s="244"/>
-      <c r="AO33" s="245"/>
-      <c r="AP33" s="245"/>
-      <c r="AQ33" s="245"/>
-      <c r="AR33" s="246"/>
-      <c r="AS33" s="244"/>
-      <c r="AT33" s="245"/>
-      <c r="AU33" s="245"/>
-      <c r="AV33" s="245"/>
-      <c r="AW33" s="246"/>
+      <c r="B33" s="264"/>
+      <c r="C33" s="265"/>
+      <c r="D33" s="266"/>
+      <c r="E33" s="256"/>
+      <c r="F33" s="256"/>
+      <c r="G33" s="256"/>
+      <c r="H33" s="256"/>
+      <c r="I33" s="256"/>
+      <c r="J33" s="257"/>
+      <c r="K33" s="258"/>
+      <c r="L33" s="259"/>
+      <c r="M33" s="278"/>
+      <c r="N33" s="268"/>
+      <c r="O33" s="268"/>
+      <c r="P33" s="268"/>
+      <c r="Q33" s="268"/>
+      <c r="R33" s="269"/>
+      <c r="S33" s="254"/>
+      <c r="T33" s="254"/>
+      <c r="U33" s="254"/>
+      <c r="V33" s="270"/>
+      <c r="W33" s="271"/>
+      <c r="X33" s="271"/>
+      <c r="Y33" s="271"/>
+      <c r="Z33" s="271"/>
+      <c r="AA33" s="271"/>
+      <c r="AB33" s="271"/>
+      <c r="AC33" s="271"/>
+      <c r="AD33" s="271"/>
+      <c r="AE33" s="271"/>
+      <c r="AF33" s="271"/>
+      <c r="AG33" s="271"/>
+      <c r="AH33" s="271"/>
+      <c r="AI33" s="271"/>
+      <c r="AJ33" s="271"/>
+      <c r="AK33" s="271"/>
+      <c r="AL33" s="271"/>
+      <c r="AM33" s="272"/>
+      <c r="AN33" s="273"/>
+      <c r="AO33" s="274"/>
+      <c r="AP33" s="274"/>
+      <c r="AQ33" s="274"/>
+      <c r="AR33" s="275"/>
+      <c r="AS33" s="273"/>
+      <c r="AT33" s="274"/>
+      <c r="AU33" s="274"/>
+      <c r="AV33" s="274"/>
+      <c r="AW33" s="275"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="247"/>
-      <c r="C34" s="248"/>
-      <c r="D34" s="249"/>
-      <c r="E34" s="250"/>
-      <c r="F34" s="250"/>
-      <c r="G34" s="250"/>
-      <c r="H34" s="250"/>
-      <c r="I34" s="250"/>
-      <c r="J34" s="251"/>
-      <c r="K34" s="252"/>
-      <c r="L34" s="253"/>
-      <c r="M34" s="254"/>
-      <c r="N34" s="255"/>
-      <c r="O34" s="255"/>
-      <c r="P34" s="255"/>
-      <c r="Q34" s="255"/>
-      <c r="R34" s="256"/>
-      <c r="S34" s="257"/>
-      <c r="T34" s="257"/>
-      <c r="U34" s="257"/>
-      <c r="V34" s="258"/>
-      <c r="W34" s="259"/>
-      <c r="X34" s="259"/>
-      <c r="Y34" s="259"/>
-      <c r="Z34" s="259"/>
-      <c r="AA34" s="259"/>
-      <c r="AB34" s="259"/>
-      <c r="AC34" s="259"/>
-      <c r="AD34" s="259"/>
-      <c r="AE34" s="259"/>
-      <c r="AF34" s="259"/>
-      <c r="AG34" s="259"/>
-      <c r="AH34" s="259"/>
-      <c r="AI34" s="259"/>
-      <c r="AJ34" s="259"/>
-      <c r="AK34" s="259"/>
-      <c r="AL34" s="259"/>
-      <c r="AM34" s="260"/>
-      <c r="AN34" s="244"/>
-      <c r="AO34" s="245"/>
-      <c r="AP34" s="245"/>
-      <c r="AQ34" s="245"/>
-      <c r="AR34" s="246"/>
-      <c r="AS34" s="244"/>
-      <c r="AT34" s="245"/>
-      <c r="AU34" s="245"/>
-      <c r="AV34" s="245"/>
-      <c r="AW34" s="246"/>
+      <c r="B34" s="264"/>
+      <c r="C34" s="265"/>
+      <c r="D34" s="266"/>
+      <c r="E34" s="256"/>
+      <c r="F34" s="256"/>
+      <c r="G34" s="256"/>
+      <c r="H34" s="256"/>
+      <c r="I34" s="256"/>
+      <c r="J34" s="257"/>
+      <c r="K34" s="258"/>
+      <c r="L34" s="259"/>
+      <c r="M34" s="282"/>
+      <c r="N34" s="283"/>
+      <c r="O34" s="283"/>
+      <c r="P34" s="283"/>
+      <c r="Q34" s="283"/>
+      <c r="R34" s="284"/>
+      <c r="S34" s="254"/>
+      <c r="T34" s="254"/>
+      <c r="U34" s="254"/>
+      <c r="V34" s="270"/>
+      <c r="W34" s="271"/>
+      <c r="X34" s="271"/>
+      <c r="Y34" s="271"/>
+      <c r="Z34" s="271"/>
+      <c r="AA34" s="271"/>
+      <c r="AB34" s="271"/>
+      <c r="AC34" s="271"/>
+      <c r="AD34" s="271"/>
+      <c r="AE34" s="271"/>
+      <c r="AF34" s="271"/>
+      <c r="AG34" s="271"/>
+      <c r="AH34" s="271"/>
+      <c r="AI34" s="271"/>
+      <c r="AJ34" s="271"/>
+      <c r="AK34" s="271"/>
+      <c r="AL34" s="271"/>
+      <c r="AM34" s="272"/>
+      <c r="AN34" s="273"/>
+      <c r="AO34" s="274"/>
+      <c r="AP34" s="274"/>
+      <c r="AQ34" s="274"/>
+      <c r="AR34" s="275"/>
+      <c r="AS34" s="273"/>
+      <c r="AT34" s="274"/>
+      <c r="AU34" s="274"/>
+      <c r="AV34" s="274"/>
+      <c r="AW34" s="275"/>
     </row>
   </sheetData>
   <mergeCells count="249">
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN33:AR33"/>
+    <mergeCell ref="AS33:AW33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:AM34"/>
+    <mergeCell ref="AN34:AR34"/>
+    <mergeCell ref="AS34:AW34"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
     <mergeCell ref="AN5:AR5"/>
     <mergeCell ref="AS5:AW5"/>
     <mergeCell ref="B6:D6"/>
@@ -10233,230 +10448,15 @@
     <mergeCell ref="M5:R5"/>
     <mergeCell ref="S5:U5"/>
     <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN33:AR33"/>
-    <mergeCell ref="AS33:AW33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:AM34"/>
-    <mergeCell ref="AN34:AR34"/>
-    <mergeCell ref="AS34:AW34"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10616,11 +10616,11 @@
       <c r="AL2" s="35"/>
       <c r="AM2" s="35"/>
       <c r="AN2" s="36"/>
-      <c r="AO2" s="288"/>
-      <c r="AP2" s="289"/>
-      <c r="AQ2" s="289"/>
-      <c r="AR2" s="289"/>
-      <c r="AS2" s="290"/>
+      <c r="AO2" s="289"/>
+      <c r="AP2" s="290"/>
+      <c r="AQ2" s="290"/>
+      <c r="AR2" s="290"/>
+      <c r="AS2" s="291"/>
       <c r="AT2" s="34" t="s">
         <v>26</v>
       </c>
@@ -10629,14 +10629,14 @@
       <c r="AW2" s="35"/>
       <c r="AX2" s="35"/>
       <c r="AY2" s="36"/>
-      <c r="AZ2" s="291"/>
-      <c r="BA2" s="292"/>
-      <c r="BB2" s="292"/>
-      <c r="BC2" s="292"/>
-      <c r="BD2" s="292"/>
-      <c r="BE2" s="292"/>
-      <c r="BF2" s="292"/>
-      <c r="BG2" s="293"/>
+      <c r="AZ2" s="292"/>
+      <c r="BA2" s="293"/>
+      <c r="BB2" s="293"/>
+      <c r="BC2" s="293"/>
+      <c r="BD2" s="293"/>
+      <c r="BE2" s="293"/>
+      <c r="BF2" s="293"/>
+      <c r="BG2" s="294"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="33"/>
@@ -12385,10 +12385,10 @@
     </row>
     <row r="50" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A50" s="29"/>
-      <c r="B50" s="294" t="s">
+      <c r="B50" s="295" t="s">
         <v>99</v>
       </c>
-      <c r="C50" s="295"/>
+      <c r="C50" s="296"/>
       <c r="D50" s="72" t="s">
         <v>98</v>
       </c>
@@ -12471,10 +12471,10 @@
     </row>
     <row r="51" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A51" s="29"/>
-      <c r="B51" s="286">
+      <c r="B51" s="287">
         <v>1</v>
       </c>
-      <c r="C51" s="287"/>
+      <c r="C51" s="288"/>
       <c r="D51" s="213" t="s">
         <v>119</v>
       </c>
@@ -12506,10 +12506,10 @@
       <c r="AB51" s="214"/>
       <c r="AC51" s="214"/>
       <c r="AD51" s="215"/>
-      <c r="AE51" s="284" t="s">
+      <c r="AE51" s="285" t="s">
         <v>107</v>
       </c>
-      <c r="AF51" s="285"/>
+      <c r="AF51" s="286"/>
       <c r="AG51" s="234"/>
       <c r="AH51" s="235"/>
       <c r="AI51" s="234"/>
@@ -12549,10 +12549,10 @@
     </row>
     <row r="52" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A52" s="29"/>
-      <c r="B52" s="286">
+      <c r="B52" s="287">
         <v>2</v>
       </c>
-      <c r="C52" s="287"/>
+      <c r="C52" s="288"/>
       <c r="D52" s="213" t="s">
         <v>119</v>
       </c>
@@ -12584,10 +12584,10 @@
       <c r="AB52" s="214"/>
       <c r="AC52" s="214"/>
       <c r="AD52" s="215"/>
-      <c r="AE52" s="284" t="s">
+      <c r="AE52" s="285" t="s">
         <v>107</v>
       </c>
-      <c r="AF52" s="285"/>
+      <c r="AF52" s="286"/>
       <c r="AG52" s="234"/>
       <c r="AH52" s="235"/>
       <c r="AI52" s="234"/>
@@ -12627,10 +12627,10 @@
     </row>
     <row r="53" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A53" s="29"/>
-      <c r="B53" s="286">
+      <c r="B53" s="287">
         <v>3</v>
       </c>
-      <c r="C53" s="287"/>
+      <c r="C53" s="288"/>
       <c r="D53" s="213" t="s">
         <v>317</v>
       </c>
@@ -12662,10 +12662,10 @@
       <c r="AB53" s="214"/>
       <c r="AC53" s="214"/>
       <c r="AD53" s="215"/>
-      <c r="AE53" s="284" t="s">
+      <c r="AE53" s="285" t="s">
         <v>107</v>
       </c>
-      <c r="AF53" s="285"/>
+      <c r="AF53" s="286"/>
       <c r="AG53" s="217"/>
       <c r="AH53" s="218"/>
       <c r="AI53" s="217"/>
@@ -12842,20 +12842,20 @@
       <c r="CA1" s="35"/>
       <c r="CB1" s="35"/>
       <c r="CC1" s="36"/>
-      <c r="CD1" s="298">
+      <c r="CD1" s="299">
         <f>変更履歴!E5</f>
         <v>43734</v>
       </c>
-      <c r="CE1" s="299"/>
-      <c r="CF1" s="299"/>
-      <c r="CG1" s="299"/>
-      <c r="CH1" s="299"/>
-      <c r="CI1" s="299"/>
-      <c r="CJ1" s="299"/>
-      <c r="CK1" s="299"/>
-      <c r="CL1" s="299"/>
-      <c r="CM1" s="299"/>
-      <c r="CN1" s="300"/>
+      <c r="CE1" s="300"/>
+      <c r="CF1" s="300"/>
+      <c r="CG1" s="300"/>
+      <c r="CH1" s="300"/>
+      <c r="CI1" s="300"/>
+      <c r="CJ1" s="300"/>
+      <c r="CK1" s="300"/>
+      <c r="CL1" s="300"/>
+      <c r="CM1" s="300"/>
+      <c r="CN1" s="301"/>
       <c r="CO1" s="34" t="s">
         <v>25</v>
       </c>
@@ -12864,23 +12864,23 @@
       <c r="CR1" s="35"/>
       <c r="CS1" s="35"/>
       <c r="CT1" s="36"/>
-      <c r="CU1" s="291" t="str">
+      <c r="CU1" s="292" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
-      <c r="CV1" s="296"/>
-      <c r="CW1" s="296"/>
-      <c r="CX1" s="296"/>
-      <c r="CY1" s="296"/>
-      <c r="CZ1" s="296"/>
-      <c r="DA1" s="296"/>
-      <c r="DB1" s="296"/>
-      <c r="DC1" s="296"/>
-      <c r="DD1" s="296"/>
-      <c r="DE1" s="296"/>
-      <c r="DF1" s="296"/>
-      <c r="DG1" s="296"/>
-      <c r="DH1" s="297"/>
+      <c r="CV1" s="297"/>
+      <c r="CW1" s="297"/>
+      <c r="CX1" s="297"/>
+      <c r="CY1" s="297"/>
+      <c r="CZ1" s="297"/>
+      <c r="DA1" s="297"/>
+      <c r="DB1" s="297"/>
+      <c r="DC1" s="297"/>
+      <c r="DD1" s="297"/>
+      <c r="DE1" s="297"/>
+      <c r="DF1" s="297"/>
+      <c r="DG1" s="297"/>
+      <c r="DH1" s="298"/>
     </row>
     <row r="2" spans="1:113" s="48" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
@@ -12935,39 +12935,39 @@
       <c r="AQ2" s="78"/>
       <c r="AR2" s="78"/>
       <c r="AS2" s="79"/>
-      <c r="AT2" s="302" t="str">
+      <c r="AT2" s="303" t="str">
         <f>'１．機能概要'!W2</f>
         <v>在庫照会</v>
       </c>
-      <c r="AU2" s="303"/>
-      <c r="AV2" s="303"/>
-      <c r="AW2" s="303"/>
-      <c r="AX2" s="303"/>
-      <c r="AY2" s="303"/>
-      <c r="AZ2" s="303"/>
-      <c r="BA2" s="303"/>
-      <c r="BB2" s="303"/>
-      <c r="BC2" s="303"/>
-      <c r="BD2" s="303"/>
-      <c r="BE2" s="303"/>
-      <c r="BF2" s="303"/>
-      <c r="BG2" s="303"/>
-      <c r="BH2" s="303"/>
-      <c r="BI2" s="303"/>
-      <c r="BJ2" s="303"/>
-      <c r="BK2" s="303"/>
-      <c r="BL2" s="303"/>
-      <c r="BM2" s="303"/>
-      <c r="BN2" s="303"/>
-      <c r="BO2" s="303"/>
-      <c r="BP2" s="303"/>
-      <c r="BQ2" s="303"/>
-      <c r="BR2" s="303"/>
-      <c r="BS2" s="303"/>
-      <c r="BT2" s="303"/>
-      <c r="BU2" s="303"/>
-      <c r="BV2" s="303"/>
-      <c r="BW2" s="304"/>
+      <c r="AU2" s="304"/>
+      <c r="AV2" s="304"/>
+      <c r="AW2" s="304"/>
+      <c r="AX2" s="304"/>
+      <c r="AY2" s="304"/>
+      <c r="AZ2" s="304"/>
+      <c r="BA2" s="304"/>
+      <c r="BB2" s="304"/>
+      <c r="BC2" s="304"/>
+      <c r="BD2" s="304"/>
+      <c r="BE2" s="304"/>
+      <c r="BF2" s="304"/>
+      <c r="BG2" s="304"/>
+      <c r="BH2" s="304"/>
+      <c r="BI2" s="304"/>
+      <c r="BJ2" s="304"/>
+      <c r="BK2" s="304"/>
+      <c r="BL2" s="304"/>
+      <c r="BM2" s="304"/>
+      <c r="BN2" s="304"/>
+      <c r="BO2" s="304"/>
+      <c r="BP2" s="304"/>
+      <c r="BQ2" s="304"/>
+      <c r="BR2" s="304"/>
+      <c r="BS2" s="304"/>
+      <c r="BT2" s="304"/>
+      <c r="BU2" s="304"/>
+      <c r="BV2" s="304"/>
+      <c r="BW2" s="305"/>
       <c r="BX2" s="34" t="s">
         <v>24</v>
       </c>
@@ -12976,17 +12976,17 @@
       <c r="CA2" s="35"/>
       <c r="CB2" s="35"/>
       <c r="CC2" s="36"/>
-      <c r="CD2" s="301"/>
-      <c r="CE2" s="296"/>
-      <c r="CF2" s="296"/>
-      <c r="CG2" s="296"/>
-      <c r="CH2" s="296"/>
-      <c r="CI2" s="296"/>
-      <c r="CJ2" s="296"/>
-      <c r="CK2" s="296"/>
-      <c r="CL2" s="296"/>
-      <c r="CM2" s="296"/>
-      <c r="CN2" s="297"/>
+      <c r="CD2" s="302"/>
+      <c r="CE2" s="297"/>
+      <c r="CF2" s="297"/>
+      <c r="CG2" s="297"/>
+      <c r="CH2" s="297"/>
+      <c r="CI2" s="297"/>
+      <c r="CJ2" s="297"/>
+      <c r="CK2" s="297"/>
+      <c r="CL2" s="297"/>
+      <c r="CM2" s="297"/>
+      <c r="CN2" s="298"/>
       <c r="CO2" s="34" t="s">
         <v>26</v>
       </c>
@@ -12995,20 +12995,20 @@
       <c r="CR2" s="35"/>
       <c r="CS2" s="35"/>
       <c r="CT2" s="36"/>
-      <c r="CU2" s="291"/>
-      <c r="CV2" s="296"/>
-      <c r="CW2" s="296"/>
-      <c r="CX2" s="296"/>
-      <c r="CY2" s="296"/>
-      <c r="CZ2" s="296"/>
-      <c r="DA2" s="296"/>
-      <c r="DB2" s="296"/>
-      <c r="DC2" s="296"/>
-      <c r="DD2" s="296"/>
-      <c r="DE2" s="296"/>
-      <c r="DF2" s="296"/>
-      <c r="DG2" s="296"/>
-      <c r="DH2" s="297"/>
+      <c r="CU2" s="292"/>
+      <c r="CV2" s="297"/>
+      <c r="CW2" s="297"/>
+      <c r="CX2" s="297"/>
+      <c r="CY2" s="297"/>
+      <c r="CZ2" s="297"/>
+      <c r="DA2" s="297"/>
+      <c r="DB2" s="297"/>
+      <c r="DC2" s="297"/>
+      <c r="DD2" s="297"/>
+      <c r="DE2" s="297"/>
+      <c r="DF2" s="297"/>
+      <c r="DG2" s="297"/>
+      <c r="DH2" s="298"/>
     </row>
     <row r="3" spans="1:113" x14ac:dyDescent="0.25">
       <c r="AU3" s="50"/>
@@ -13212,37 +13212,37 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="277" t="s">
+      <c r="C6" s="247" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="277" t="s">
+      <c r="D6" s="247" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="277" t="s">
+      <c r="E6" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="277" t="s">
+      <c r="F6" s="247" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="277" t="s">
+      <c r="G6" s="247" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="277" t="s">
+      <c r="H6" s="247" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="305" t="s">
+      <c r="I6" s="306" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="305" t="s">
+      <c r="J6" s="306" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="277" t="s">
+      <c r="K6" s="247" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="277" t="s">
+      <c r="L6" s="247" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="277" t="s">
+      <c r="M6" s="247" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="65" t="s">
@@ -13250,24 +13250,24 @@
       </c>
       <c r="O6" s="65"/>
       <c r="P6" s="65"/>
-      <c r="Q6" s="305" t="s">
+      <c r="Q6" s="306" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="277"/>
-      <c r="D7" s="277"/>
-      <c r="E7" s="277"/>
-      <c r="F7" s="277"/>
-      <c r="G7" s="277"/>
-      <c r="H7" s="277"/>
-      <c r="I7" s="305"/>
-      <c r="J7" s="305"/>
-      <c r="K7" s="277"/>
-      <c r="L7" s="277"/>
-      <c r="M7" s="277"/>
+      <c r="C7" s="247"/>
+      <c r="D7" s="247"/>
+      <c r="E7" s="247"/>
+      <c r="F7" s="247"/>
+      <c r="G7" s="247"/>
+      <c r="H7" s="247"/>
+      <c r="I7" s="306"/>
+      <c r="J7" s="306"/>
+      <c r="K7" s="247"/>
+      <c r="L7" s="247"/>
+      <c r="M7" s="247"/>
       <c r="N7" s="43" t="s">
         <v>77</v>
       </c>
@@ -13277,7 +13277,7 @@
       <c r="P7" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="Q7" s="305"/>
+      <c r="Q7" s="306"/>
     </row>
     <row r="8" spans="1:18" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
@@ -13521,37 +13521,37 @@
     <row r="15" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
-      <c r="C15" s="277" t="s">
+      <c r="C15" s="247" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="277" t="s">
+      <c r="D15" s="247" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="277" t="s">
+      <c r="E15" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="277" t="s">
+      <c r="F15" s="247" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="277" t="s">
+      <c r="G15" s="247" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="277" t="s">
+      <c r="H15" s="247" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="306" t="s">
+      <c r="I15" s="307" t="s">
         <v>47</v>
       </c>
-      <c r="J15" s="305" t="s">
+      <c r="J15" s="306" t="s">
         <v>48</v>
       </c>
-      <c r="K15" s="277" t="s">
+      <c r="K15" s="247" t="s">
         <v>31</v>
       </c>
-      <c r="L15" s="277" t="s">
+      <c r="L15" s="247" t="s">
         <v>30</v>
       </c>
-      <c r="M15" s="277" t="s">
+      <c r="M15" s="247" t="s">
         <v>33</v>
       </c>
       <c r="N15" s="65" t="s">
@@ -13559,24 +13559,24 @@
       </c>
       <c r="O15" s="65"/>
       <c r="P15" s="65"/>
-      <c r="Q15" s="306" t="s">
+      <c r="Q15" s="307" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
-      <c r="C16" s="277"/>
-      <c r="D16" s="277"/>
-      <c r="E16" s="277"/>
-      <c r="F16" s="277"/>
-      <c r="G16" s="277"/>
-      <c r="H16" s="277"/>
-      <c r="I16" s="307"/>
-      <c r="J16" s="305"/>
-      <c r="K16" s="277"/>
-      <c r="L16" s="277"/>
-      <c r="M16" s="277"/>
+      <c r="C16" s="247"/>
+      <c r="D16" s="247"/>
+      <c r="E16" s="247"/>
+      <c r="F16" s="247"/>
+      <c r="G16" s="247"/>
+      <c r="H16" s="247"/>
+      <c r="I16" s="308"/>
+      <c r="J16" s="306"/>
+      <c r="K16" s="247"/>
+      <c r="L16" s="247"/>
+      <c r="M16" s="247"/>
       <c r="N16" s="43" t="s">
         <v>77</v>
       </c>
@@ -13586,7 +13586,7 @@
       <c r="P16" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="Q16" s="307"/>
+      <c r="Q16" s="308"/>
     </row>
     <row r="17" spans="1:17" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
@@ -13939,37 +13939,37 @@
     </row>
     <row r="26" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="95"/>
-      <c r="C26" s="277" t="s">
+      <c r="C26" s="247" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="277" t="s">
+      <c r="D26" s="247" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="277" t="s">
+      <c r="E26" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="277" t="s">
+      <c r="F26" s="247" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="277" t="s">
+      <c r="G26" s="247" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="277" t="s">
+      <c r="H26" s="247" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="305" t="s">
+      <c r="I26" s="306" t="s">
         <v>47</v>
       </c>
-      <c r="J26" s="305" t="s">
+      <c r="J26" s="306" t="s">
         <v>48</v>
       </c>
-      <c r="K26" s="277" t="s">
+      <c r="K26" s="247" t="s">
         <v>31</v>
       </c>
-      <c r="L26" s="277" t="s">
+      <c r="L26" s="247" t="s">
         <v>30</v>
       </c>
-      <c r="M26" s="277" t="s">
+      <c r="M26" s="247" t="s">
         <v>33</v>
       </c>
       <c r="N26" s="65" t="s">
@@ -13977,23 +13977,23 @@
       </c>
       <c r="O26" s="65"/>
       <c r="P26" s="65"/>
-      <c r="Q26" s="305" t="s">
+      <c r="Q26" s="306" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B27" s="95"/>
-      <c r="C27" s="277"/>
-      <c r="D27" s="277"/>
-      <c r="E27" s="277"/>
-      <c r="F27" s="277"/>
-      <c r="G27" s="277"/>
-      <c r="H27" s="277"/>
-      <c r="I27" s="305"/>
-      <c r="J27" s="305"/>
-      <c r="K27" s="277"/>
-      <c r="L27" s="277"/>
-      <c r="M27" s="277"/>
+      <c r="C27" s="247"/>
+      <c r="D27" s="247"/>
+      <c r="E27" s="247"/>
+      <c r="F27" s="247"/>
+      <c r="G27" s="247"/>
+      <c r="H27" s="247"/>
+      <c r="I27" s="306"/>
+      <c r="J27" s="306"/>
+      <c r="K27" s="247"/>
+      <c r="L27" s="247"/>
+      <c r="M27" s="247"/>
       <c r="N27" s="93" t="s">
         <v>77</v>
       </c>
@@ -14003,7 +14003,7 @@
       <c r="P27" s="93" t="s">
         <v>82</v>
       </c>
-      <c r="Q27" s="305"/>
+      <c r="Q27" s="306"/>
     </row>
     <row r="28" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
@@ -14789,6 +14789,34 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
     <mergeCell ref="K15:K16"/>
     <mergeCell ref="M26:M27"/>
     <mergeCell ref="Q26:Q27"/>
@@ -14797,34 +14825,6 @@
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="M15:M16"/>
     <mergeCell ref="L15:L16"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -14896,14 +14896,14 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="288">
+      <c r="AI1" s="289">
         <f>変更履歴!E5</f>
         <v>43734</v>
       </c>
-      <c r="AJ1" s="303"/>
-      <c r="AK1" s="303"/>
-      <c r="AL1" s="303"/>
-      <c r="AM1" s="304"/>
+      <c r="AJ1" s="304"/>
+      <c r="AK1" s="304"/>
+      <c r="AL1" s="304"/>
+      <c r="AM1" s="305"/>
       <c r="AN1" s="34" t="s">
         <v>25</v>
       </c>
@@ -14912,16 +14912,16 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="291" t="str">
+      <c r="AT1" s="292" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
-      <c r="AU1" s="296"/>
-      <c r="AV1" s="296"/>
-      <c r="AW1" s="296"/>
-      <c r="AX1" s="296"/>
-      <c r="AY1" s="296"/>
-      <c r="AZ1" s="297"/>
+      <c r="AU1" s="297"/>
+      <c r="AV1" s="297"/>
+      <c r="AW1" s="297"/>
+      <c r="AX1" s="297"/>
+      <c r="AY1" s="297"/>
+      <c r="AZ1" s="298"/>
     </row>
     <row r="2" spans="1:52" s="48" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
@@ -14949,32 +14949,32 @@
       <c r="P2" s="38"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="39"/>
-      <c r="S2" s="302" t="str">
+      <c r="S2" s="303" t="str">
         <f>'１．機能概要'!W2</f>
         <v>在庫照会</v>
       </c>
-      <c r="T2" s="303"/>
-      <c r="U2" s="303"/>
-      <c r="V2" s="303"/>
-      <c r="W2" s="303"/>
-      <c r="X2" s="303"/>
-      <c r="Y2" s="303"/>
-      <c r="Z2" s="303"/>
-      <c r="AA2" s="303"/>
-      <c r="AB2" s="303"/>
-      <c r="AC2" s="303"/>
-      <c r="AD2" s="304"/>
+      <c r="T2" s="304"/>
+      <c r="U2" s="304"/>
+      <c r="V2" s="304"/>
+      <c r="W2" s="304"/>
+      <c r="X2" s="304"/>
+      <c r="Y2" s="304"/>
+      <c r="Z2" s="304"/>
+      <c r="AA2" s="304"/>
+      <c r="AB2" s="304"/>
+      <c r="AC2" s="304"/>
+      <c r="AD2" s="305"/>
       <c r="AE2" s="34" t="s">
         <v>24</v>
       </c>
       <c r="AF2" s="35"/>
       <c r="AG2" s="35"/>
       <c r="AH2" s="36"/>
-      <c r="AI2" s="301"/>
-      <c r="AJ2" s="296"/>
-      <c r="AK2" s="296"/>
-      <c r="AL2" s="296"/>
-      <c r="AM2" s="297"/>
+      <c r="AI2" s="302"/>
+      <c r="AJ2" s="297"/>
+      <c r="AK2" s="297"/>
+      <c r="AL2" s="297"/>
+      <c r="AM2" s="298"/>
       <c r="AN2" s="34" t="s">
         <v>26</v>
       </c>
@@ -14983,13 +14983,13 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="291"/>
-      <c r="AU2" s="296"/>
-      <c r="AV2" s="296"/>
-      <c r="AW2" s="296"/>
-      <c r="AX2" s="296"/>
-      <c r="AY2" s="296"/>
-      <c r="AZ2" s="297"/>
+      <c r="AT2" s="292"/>
+      <c r="AU2" s="297"/>
+      <c r="AV2" s="297"/>
+      <c r="AW2" s="297"/>
+      <c r="AX2" s="297"/>
+      <c r="AY2" s="297"/>
+      <c r="AZ2" s="298"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="57"/>
@@ -16152,7 +16152,7 @@
       <c r="F27" s="227"/>
       <c r="G27" s="226"/>
       <c r="K27" s="227"/>
-      <c r="N27" s="225" t="s">
+      <c r="O27" s="225" t="s">
         <v>422</v>
       </c>
       <c r="AA27" s="225" t="s">
@@ -16169,7 +16169,7 @@
       <c r="F28" s="227"/>
       <c r="G28" s="226"/>
       <c r="K28" s="227"/>
-      <c r="N28" s="225" t="s">
+      <c r="O28" s="225" t="s">
         <v>423</v>
       </c>
       <c r="AA28" s="225" t="s">
@@ -16186,7 +16186,7 @@
       <c r="F29" s="227"/>
       <c r="G29" s="226"/>
       <c r="K29" s="227"/>
-      <c r="N29" s="225" t="s">
+      <c r="O29" s="225" t="s">
         <v>424</v>
       </c>
       <c r="AA29" s="225" t="s">
@@ -16203,7 +16203,7 @@
       <c r="F30" s="227"/>
       <c r="G30" s="226"/>
       <c r="K30" s="227"/>
-      <c r="N30" s="225" t="s">
+      <c r="O30" s="225" t="s">
         <v>425</v>
       </c>
       <c r="AA30" s="225" t="s">
@@ -16220,7 +16220,7 @@
       <c r="F31" s="227"/>
       <c r="G31" s="226"/>
       <c r="K31" s="227"/>
-      <c r="N31" s="225" t="s">
+      <c r="O31" s="225" t="s">
         <v>426</v>
       </c>
       <c r="AA31" s="225" t="s">
@@ -16248,7 +16248,7 @@
       <c r="F33" s="227"/>
       <c r="G33" s="226"/>
       <c r="K33" s="227"/>
-      <c r="N33" s="225" t="s">
+      <c r="O33" s="225" t="s">
         <v>422</v>
       </c>
       <c r="AA33" s="225" t="s">
@@ -16265,7 +16265,7 @@
       <c r="F34" s="227"/>
       <c r="G34" s="226"/>
       <c r="K34" s="227"/>
-      <c r="N34" s="225" t="s">
+      <c r="O34" s="225" t="s">
         <v>423</v>
       </c>
       <c r="AA34" s="225" t="s">
@@ -16282,7 +16282,7 @@
       <c r="F35" s="227"/>
       <c r="G35" s="226"/>
       <c r="K35" s="227"/>
-      <c r="N35" s="225" t="s">
+      <c r="O35" s="225" t="s">
         <v>424</v>
       </c>
       <c r="AA35" s="225" t="s">
@@ -16299,7 +16299,7 @@
       <c r="F36" s="227"/>
       <c r="G36" s="226"/>
       <c r="K36" s="227"/>
-      <c r="N36" s="225" t="s">
+      <c r="O36" s="225" t="s">
         <v>425</v>
       </c>
       <c r="AA36" s="225" t="s">
@@ -16316,7 +16316,7 @@
       <c r="F37" s="227"/>
       <c r="G37" s="226"/>
       <c r="K37" s="227"/>
-      <c r="N37" s="225" t="s">
+      <c r="O37" s="225" t="s">
         <v>426</v>
       </c>
       <c r="AA37" s="225" t="s">
@@ -16391,10 +16391,10 @@
       <c r="K39" s="99"/>
       <c r="L39" s="98"/>
       <c r="M39" s="69"/>
-      <c r="N39" s="98" t="s">
+      <c r="N39" s="69"/>
+      <c r="O39" s="98" t="s">
         <v>399</v>
       </c>
-      <c r="O39" s="98"/>
       <c r="P39" s="98"/>
       <c r="Q39" s="98"/>
       <c r="R39" s="98"/>
@@ -16446,10 +16446,10 @@
       <c r="K40" s="238"/>
       <c r="L40" s="237"/>
       <c r="M40" s="239"/>
-      <c r="N40" s="237" t="s">
+      <c r="N40" s="239"/>
+      <c r="O40" s="237" t="s">
         <v>367</v>
       </c>
-      <c r="O40" s="237"/>
       <c r="P40" s="237"/>
       <c r="Q40" s="237"/>
       <c r="R40" s="237"/>
@@ -16501,10 +16501,10 @@
       <c r="K41" s="99"/>
       <c r="L41" s="98"/>
       <c r="M41" s="69"/>
-      <c r="N41" s="98" t="s">
+      <c r="N41" s="69"/>
+      <c r="O41" s="98" t="s">
         <v>360</v>
       </c>
-      <c r="O41" s="98"/>
       <c r="P41" s="98"/>
       <c r="Q41" s="98"/>
       <c r="R41" s="98"/>
@@ -16556,10 +16556,10 @@
       <c r="K42" s="99"/>
       <c r="L42" s="98"/>
       <c r="M42" s="69"/>
-      <c r="N42" s="98" t="s">
+      <c r="N42" s="69"/>
+      <c r="O42" s="98" t="s">
         <v>361</v>
       </c>
-      <c r="O42" s="98"/>
       <c r="P42" s="98"/>
       <c r="Q42" s="98"/>
       <c r="R42" s="98"/>
@@ -16604,7 +16604,7 @@
       <c r="F43" s="227"/>
       <c r="G43" s="226"/>
       <c r="K43" s="227"/>
-      <c r="N43" s="225" t="s">
+      <c r="O43" s="225" t="s">
         <v>396</v>
       </c>
       <c r="AA43" s="225" t="s">
@@ -16628,10 +16628,10 @@
       <c r="K44" s="99"/>
       <c r="L44" s="98"/>
       <c r="M44" s="69"/>
-      <c r="N44" s="229" t="s">
+      <c r="N44" s="69"/>
+      <c r="O44" s="229" t="s">
         <v>400</v>
       </c>
-      <c r="O44" s="229"/>
       <c r="P44" s="229"/>
       <c r="Q44" s="229"/>
       <c r="R44" s="229"/>
@@ -16734,10 +16734,10 @@
       <c r="K46" s="99"/>
       <c r="L46" s="98"/>
       <c r="M46" s="69"/>
-      <c r="N46" s="98" t="s">
+      <c r="N46" s="69"/>
+      <c r="O46" s="98" t="s">
         <v>399</v>
       </c>
-      <c r="O46" s="98"/>
       <c r="P46" s="98"/>
       <c r="Q46" s="98"/>
       <c r="R46" s="98"/>
@@ -16789,10 +16789,10 @@
       <c r="K47" s="238"/>
       <c r="L47" s="237"/>
       <c r="M47" s="239"/>
-      <c r="N47" s="237" t="s">
+      <c r="N47" s="239"/>
+      <c r="O47" s="237" t="s">
         <v>367</v>
       </c>
-      <c r="O47" s="237"/>
       <c r="P47" s="237"/>
       <c r="Q47" s="237"/>
       <c r="R47" s="237"/>
@@ -16844,10 +16844,10 @@
       <c r="K48" s="99"/>
       <c r="L48" s="98"/>
       <c r="M48" s="69"/>
-      <c r="N48" s="98" t="s">
+      <c r="N48" s="69"/>
+      <c r="O48" s="98" t="s">
         <v>360</v>
       </c>
-      <c r="O48" s="98"/>
       <c r="P48" s="98"/>
       <c r="Q48" s="98"/>
       <c r="R48" s="98"/>
@@ -16899,10 +16899,10 @@
       <c r="K49" s="99"/>
       <c r="L49" s="98"/>
       <c r="M49" s="69"/>
-      <c r="N49" s="98" t="s">
+      <c r="N49" s="69"/>
+      <c r="O49" s="98" t="s">
         <v>361</v>
       </c>
-      <c r="O49" s="98"/>
       <c r="P49" s="98"/>
       <c r="Q49" s="98"/>
       <c r="R49" s="98"/>
@@ -16947,7 +16947,7 @@
       <c r="F50" s="227"/>
       <c r="G50" s="226"/>
       <c r="K50" s="227"/>
-      <c r="N50" s="225" t="s">
+      <c r="O50" s="225" t="s">
         <v>396</v>
       </c>
       <c r="AA50" s="225" t="s">
@@ -16971,10 +16971,10 @@
       <c r="K51" s="99"/>
       <c r="L51" s="98"/>
       <c r="M51" s="69"/>
-      <c r="N51" s="229" t="s">
+      <c r="N51" s="69"/>
+      <c r="O51" s="229" t="s">
         <v>401</v>
       </c>
-      <c r="O51" s="229"/>
       <c r="P51" s="229"/>
       <c r="Q51" s="229"/>
       <c r="R51" s="229"/>
@@ -17077,10 +17077,10 @@
       <c r="K53" s="99"/>
       <c r="L53" s="98"/>
       <c r="M53" s="69"/>
-      <c r="N53" s="98" t="s">
+      <c r="N53" s="69"/>
+      <c r="O53" s="98" t="s">
         <v>399</v>
       </c>
-      <c r="O53" s="98"/>
       <c r="P53" s="98"/>
       <c r="Q53" s="98"/>
       <c r="R53" s="98"/>
@@ -17132,10 +17132,10 @@
       <c r="K54" s="238"/>
       <c r="L54" s="237"/>
       <c r="M54" s="239"/>
-      <c r="N54" s="237" t="s">
+      <c r="N54" s="239"/>
+      <c r="O54" s="237" t="s">
         <v>367</v>
       </c>
-      <c r="O54" s="237"/>
       <c r="P54" s="237"/>
       <c r="Q54" s="237"/>
       <c r="R54" s="237"/>
@@ -17187,10 +17187,10 @@
       <c r="K55" s="99"/>
       <c r="L55" s="98"/>
       <c r="M55" s="69"/>
-      <c r="N55" s="98" t="s">
+      <c r="N55" s="69"/>
+      <c r="O55" s="98" t="s">
         <v>360</v>
       </c>
-      <c r="O55" s="98"/>
       <c r="P55" s="98"/>
       <c r="Q55" s="98"/>
       <c r="R55" s="98"/>
@@ -17242,10 +17242,10 @@
       <c r="K56" s="99"/>
       <c r="L56" s="98"/>
       <c r="M56" s="69"/>
-      <c r="N56" s="98" t="s">
+      <c r="N56" s="69"/>
+      <c r="O56" s="98" t="s">
         <v>361</v>
       </c>
-      <c r="O56" s="98"/>
       <c r="P56" s="98"/>
       <c r="Q56" s="98"/>
       <c r="R56" s="98"/>
@@ -17290,7 +17290,7 @@
       <c r="F57" s="227"/>
       <c r="G57" s="226"/>
       <c r="K57" s="227"/>
-      <c r="N57" s="225" t="s">
+      <c r="O57" s="225" t="s">
         <v>396</v>
       </c>
       <c r="AA57" s="225" t="s">
@@ -17314,10 +17314,10 @@
       <c r="K58" s="99"/>
       <c r="L58" s="98"/>
       <c r="M58" s="69"/>
-      <c r="N58" s="229" t="s">
+      <c r="N58" s="69"/>
+      <c r="O58" s="229" t="s">
         <v>402</v>
       </c>
-      <c r="O58" s="229"/>
       <c r="P58" s="229"/>
       <c r="Q58" s="229"/>
       <c r="R58" s="229"/>
@@ -17420,10 +17420,10 @@
       <c r="K60" s="99"/>
       <c r="L60" s="98"/>
       <c r="M60" s="69"/>
-      <c r="N60" s="98" t="s">
+      <c r="N60" s="69"/>
+      <c r="O60" s="98" t="s">
         <v>399</v>
       </c>
-      <c r="O60" s="98"/>
       <c r="P60" s="98"/>
       <c r="Q60" s="98"/>
       <c r="R60" s="98"/>
@@ -17475,10 +17475,10 @@
       <c r="K61" s="238"/>
       <c r="L61" s="237"/>
       <c r="M61" s="239"/>
-      <c r="N61" s="237" t="s">
+      <c r="N61" s="239"/>
+      <c r="O61" s="237" t="s">
         <v>367</v>
       </c>
-      <c r="O61" s="237"/>
       <c r="P61" s="237"/>
       <c r="Q61" s="237"/>
       <c r="R61" s="237"/>
@@ -17530,10 +17530,10 @@
       <c r="K62" s="99"/>
       <c r="L62" s="98"/>
       <c r="M62" s="69"/>
-      <c r="N62" s="98" t="s">
+      <c r="N62" s="69"/>
+      <c r="O62" s="98" t="s">
         <v>360</v>
       </c>
-      <c r="O62" s="98"/>
       <c r="P62" s="98"/>
       <c r="Q62" s="98"/>
       <c r="R62" s="98"/>
@@ -17585,10 +17585,10 @@
       <c r="K63" s="99"/>
       <c r="L63" s="98"/>
       <c r="M63" s="69"/>
-      <c r="N63" s="98" t="s">
+      <c r="N63" s="69"/>
+      <c r="O63" s="98" t="s">
         <v>361</v>
       </c>
-      <c r="O63" s="98"/>
       <c r="P63" s="98"/>
       <c r="Q63" s="98"/>
       <c r="R63" s="98"/>
@@ -17633,7 +17633,7 @@
       <c r="F64" s="227"/>
       <c r="G64" s="226"/>
       <c r="K64" s="227"/>
-      <c r="N64" s="225" t="s">
+      <c r="O64" s="225" t="s">
         <v>396</v>
       </c>
       <c r="AA64" s="225" t="s">
@@ -17657,10 +17657,10 @@
       <c r="K65" s="99"/>
       <c r="L65" s="98"/>
       <c r="M65" s="69"/>
-      <c r="N65" s="229" t="s">
+      <c r="N65" s="69"/>
+      <c r="O65" s="229" t="s">
         <v>403</v>
       </c>
-      <c r="O65" s="229"/>
       <c r="P65" s="229"/>
       <c r="Q65" s="229"/>
       <c r="R65" s="229"/>
@@ -19364,7 +19364,7 @@
         <v>96</v>
       </c>
       <c r="K100" s="68"/>
-      <c r="L100" s="317" t="s">
+      <c r="L100" s="241" t="s">
         <v>436</v>
       </c>
       <c r="AV100" s="68"/>
@@ -19375,7 +19375,7 @@
       <c r="F101" s="68"/>
       <c r="G101" s="67"/>
       <c r="K101" s="68"/>
-      <c r="L101" s="317" t="s">
+      <c r="L101" s="241" t="s">
         <v>435</v>
       </c>
       <c r="AV101" s="68"/>
@@ -26969,14 +26969,14 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="288">
+      <c r="AI1" s="289">
         <f>変更履歴!E5</f>
         <v>43734</v>
       </c>
-      <c r="AJ1" s="303"/>
-      <c r="AK1" s="303"/>
-      <c r="AL1" s="303"/>
-      <c r="AM1" s="304"/>
+      <c r="AJ1" s="304"/>
+      <c r="AK1" s="304"/>
+      <c r="AL1" s="304"/>
+      <c r="AM1" s="305"/>
       <c r="AN1" s="34" t="s">
         <v>25</v>
       </c>
@@ -26985,16 +26985,16 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="291" t="str">
+      <c r="AT1" s="292" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
-      <c r="AU1" s="296"/>
-      <c r="AV1" s="296"/>
-      <c r="AW1" s="296"/>
-      <c r="AX1" s="296"/>
-      <c r="AY1" s="296"/>
-      <c r="AZ1" s="297"/>
+      <c r="AU1" s="297"/>
+      <c r="AV1" s="297"/>
+      <c r="AW1" s="297"/>
+      <c r="AX1" s="297"/>
+      <c r="AY1" s="297"/>
+      <c r="AZ1" s="298"/>
     </row>
     <row r="2" spans="1:52" s="48" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
@@ -27022,32 +27022,32 @@
       <c r="P2" s="38"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="39"/>
-      <c r="S2" s="302" t="str">
+      <c r="S2" s="303" t="str">
         <f>'１．機能概要'!W2</f>
         <v>在庫照会</v>
       </c>
-      <c r="T2" s="303"/>
-      <c r="U2" s="303"/>
-      <c r="V2" s="303"/>
-      <c r="W2" s="303"/>
-      <c r="X2" s="303"/>
-      <c r="Y2" s="303"/>
-      <c r="Z2" s="303"/>
-      <c r="AA2" s="303"/>
-      <c r="AB2" s="303"/>
-      <c r="AC2" s="303"/>
-      <c r="AD2" s="304"/>
+      <c r="T2" s="304"/>
+      <c r="U2" s="304"/>
+      <c r="V2" s="304"/>
+      <c r="W2" s="304"/>
+      <c r="X2" s="304"/>
+      <c r="Y2" s="304"/>
+      <c r="Z2" s="304"/>
+      <c r="AA2" s="304"/>
+      <c r="AB2" s="304"/>
+      <c r="AC2" s="304"/>
+      <c r="AD2" s="305"/>
       <c r="AE2" s="34" t="s">
         <v>24</v>
       </c>
       <c r="AF2" s="35"/>
       <c r="AG2" s="35"/>
       <c r="AH2" s="36"/>
-      <c r="AI2" s="301"/>
-      <c r="AJ2" s="296"/>
-      <c r="AK2" s="296"/>
-      <c r="AL2" s="296"/>
-      <c r="AM2" s="297"/>
+      <c r="AI2" s="302"/>
+      <c r="AJ2" s="297"/>
+      <c r="AK2" s="297"/>
+      <c r="AL2" s="297"/>
+      <c r="AM2" s="298"/>
       <c r="AN2" s="34" t="s">
         <v>26</v>
       </c>
@@ -27056,13 +27056,13 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="291"/>
-      <c r="AU2" s="296"/>
-      <c r="AV2" s="296"/>
-      <c r="AW2" s="296"/>
-      <c r="AX2" s="296"/>
-      <c r="AY2" s="296"/>
-      <c r="AZ2" s="297"/>
+      <c r="AT2" s="292"/>
+      <c r="AU2" s="297"/>
+      <c r="AV2" s="297"/>
+      <c r="AW2" s="297"/>
+      <c r="AX2" s="297"/>
+      <c r="AY2" s="297"/>
+      <c r="AZ2" s="298"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="57"/>
@@ -27291,7 +27291,7 @@
       <c r="AW6" s="20"/>
     </row>
     <row r="7" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B7" s="308">
+      <c r="B7" s="309">
         <v>1</v>
       </c>
       <c r="C7" s="21" t="s">
@@ -27345,7 +27345,7 @@
       <c r="AW7" s="23"/>
     </row>
     <row r="8" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B8" s="309"/>
+      <c r="B8" s="310"/>
       <c r="C8" s="25"/>
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
@@ -27395,7 +27395,7 @@
       <c r="AW8" s="27"/>
     </row>
     <row r="9" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B9" s="308">
+      <c r="B9" s="309">
         <v>2</v>
       </c>
       <c r="C9" s="21" t="s">
@@ -27457,7 +27457,7 @@
       <c r="AW9" s="23"/>
     </row>
     <row r="10" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B10" s="310"/>
+      <c r="B10" s="311"/>
       <c r="C10" s="67"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
@@ -27507,7 +27507,7 @@
       <c r="AW10" s="27"/>
     </row>
     <row r="11" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B11" s="310"/>
+      <c r="B11" s="311"/>
       <c r="C11" s="67"/>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
@@ -27563,7 +27563,7 @@
       <c r="AW11" s="68"/>
     </row>
     <row r="12" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B12" s="309"/>
+      <c r="B12" s="310"/>
       <c r="C12" s="25"/>
       <c r="D12" s="26"/>
       <c r="E12" s="26"/>
@@ -27613,7 +27613,7 @@
       <c r="AW12" s="27"/>
     </row>
     <row r="13" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B13" s="308">
+      <c r="B13" s="309">
         <v>3</v>
       </c>
       <c r="C13" s="21" t="s">
@@ -27667,7 +27667,7 @@
       <c r="AW13" s="23"/>
     </row>
     <row r="14" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B14" s="309"/>
+      <c r="B14" s="310"/>
       <c r="C14" s="25"/>
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
@@ -27717,7 +27717,7 @@
       <c r="AW14" s="27"/>
     </row>
     <row r="15" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B15" s="308">
+      <c r="B15" s="309">
         <v>4</v>
       </c>
       <c r="C15" s="21" t="s">
@@ -27771,7 +27771,7 @@
       <c r="AW15" s="23"/>
     </row>
     <row r="16" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B16" s="309"/>
+      <c r="B16" s="310"/>
       <c r="C16" s="25"/>
       <c r="D16" s="26"/>
       <c r="E16" s="26"/>
@@ -27821,7 +27821,7 @@
       <c r="AW16" s="27"/>
     </row>
     <row r="17" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B17" s="308">
+      <c r="B17" s="309">
         <v>5</v>
       </c>
       <c r="C17" s="21" t="s">
@@ -27881,7 +27881,7 @@
       <c r="AW17" s="23"/>
     </row>
     <row r="18" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B18" s="309"/>
+      <c r="B18" s="310"/>
       <c r="C18" s="25"/>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
@@ -27931,7 +27931,7 @@
       <c r="AW18" s="27"/>
     </row>
     <row r="19" spans="1:52" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="308">
+      <c r="B19" s="309">
         <v>6</v>
       </c>
       <c r="C19" s="21" t="s">
@@ -27989,7 +27989,7 @@
       <c r="AW19" s="23"/>
     </row>
     <row r="20" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B20" s="309"/>
+      <c r="B20" s="310"/>
       <c r="C20" s="67"/>
       <c r="I20" s="68"/>
       <c r="J20" s="67"/>
@@ -28029,7 +28029,7 @@
       <c r="AW20" s="27"/>
     </row>
     <row r="21" spans="1:52" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="308">
+      <c r="B21" s="309">
         <v>7</v>
       </c>
       <c r="C21" s="21" t="s">
@@ -28083,7 +28083,7 @@
       <c r="AW21" s="23"/>
     </row>
     <row r="22" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B22" s="309"/>
+      <c r="B22" s="310"/>
       <c r="C22" s="67"/>
       <c r="I22" s="68"/>
       <c r="J22" s="67"/>
@@ -32205,14 +32205,14 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="288">
+      <c r="AI1" s="289">
         <f>変更履歴!E5</f>
         <v>43734</v>
       </c>
-      <c r="AJ1" s="303"/>
-      <c r="AK1" s="303"/>
-      <c r="AL1" s="303"/>
-      <c r="AM1" s="304"/>
+      <c r="AJ1" s="304"/>
+      <c r="AK1" s="304"/>
+      <c r="AL1" s="304"/>
+      <c r="AM1" s="305"/>
       <c r="AN1" s="34" t="s">
         <v>25</v>
       </c>
@@ -32221,16 +32221,16 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="291" t="str">
+      <c r="AT1" s="292" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
-      <c r="AU1" s="296"/>
-      <c r="AV1" s="296"/>
-      <c r="AW1" s="296"/>
-      <c r="AX1" s="296"/>
-      <c r="AY1" s="296"/>
-      <c r="AZ1" s="297"/>
+      <c r="AU1" s="297"/>
+      <c r="AV1" s="297"/>
+      <c r="AW1" s="297"/>
+      <c r="AX1" s="297"/>
+      <c r="AY1" s="297"/>
+      <c r="AZ1" s="298"/>
     </row>
     <row r="2" spans="1:63" s="48" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
@@ -32258,32 +32258,32 @@
       <c r="P2" s="38"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="39"/>
-      <c r="S2" s="302" t="str">
+      <c r="S2" s="303" t="str">
         <f>'１．機能概要'!W2</f>
         <v>在庫照会</v>
       </c>
-      <c r="T2" s="303"/>
-      <c r="U2" s="303"/>
-      <c r="V2" s="303"/>
-      <c r="W2" s="303"/>
-      <c r="X2" s="303"/>
-      <c r="Y2" s="303"/>
-      <c r="Z2" s="303"/>
-      <c r="AA2" s="303"/>
-      <c r="AB2" s="303"/>
-      <c r="AC2" s="303"/>
-      <c r="AD2" s="304"/>
+      <c r="T2" s="304"/>
+      <c r="U2" s="304"/>
+      <c r="V2" s="304"/>
+      <c r="W2" s="304"/>
+      <c r="X2" s="304"/>
+      <c r="Y2" s="304"/>
+      <c r="Z2" s="304"/>
+      <c r="AA2" s="304"/>
+      <c r="AB2" s="304"/>
+      <c r="AC2" s="304"/>
+      <c r="AD2" s="305"/>
       <c r="AE2" s="34" t="s">
         <v>24</v>
       </c>
       <c r="AF2" s="35"/>
       <c r="AG2" s="35"/>
       <c r="AH2" s="36"/>
-      <c r="AI2" s="301"/>
-      <c r="AJ2" s="296"/>
-      <c r="AK2" s="296"/>
-      <c r="AL2" s="296"/>
-      <c r="AM2" s="297"/>
+      <c r="AI2" s="302"/>
+      <c r="AJ2" s="297"/>
+      <c r="AK2" s="297"/>
+      <c r="AL2" s="297"/>
+      <c r="AM2" s="298"/>
       <c r="AN2" s="34" t="s">
         <v>26</v>
       </c>
@@ -32292,13 +32292,13 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="291"/>
-      <c r="AU2" s="296"/>
-      <c r="AV2" s="296"/>
-      <c r="AW2" s="296"/>
-      <c r="AX2" s="296"/>
-      <c r="AY2" s="296"/>
-      <c r="AZ2" s="297"/>
+      <c r="AT2" s="292"/>
+      <c r="AU2" s="297"/>
+      <c r="AV2" s="297"/>
+      <c r="AW2" s="297"/>
+      <c r="AX2" s="297"/>
+      <c r="AY2" s="297"/>
+      <c r="AZ2" s="298"/>
     </row>
     <row r="3" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A3" s="57"/>
@@ -44505,89 +44505,89 @@
       <c r="CX2" s="108"/>
     </row>
     <row r="3" spans="2:102" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="311" t="s">
+      <c r="B3" s="312" t="s">
         <v>207</v>
       </c>
-      <c r="C3" s="312"/>
-      <c r="D3" s="312"/>
-      <c r="E3" s="312"/>
-      <c r="F3" s="312"/>
-      <c r="G3" s="312"/>
-      <c r="H3" s="312"/>
-      <c r="I3" s="312"/>
-      <c r="J3" s="312"/>
-      <c r="K3" s="312"/>
-      <c r="L3" s="312"/>
-      <c r="M3" s="312"/>
-      <c r="N3" s="312"/>
-      <c r="O3" s="312"/>
-      <c r="P3" s="312"/>
-      <c r="Q3" s="312"/>
-      <c r="R3" s="312"/>
-      <c r="S3" s="312"/>
-      <c r="T3" s="312"/>
-      <c r="U3" s="312"/>
-      <c r="V3" s="312"/>
-      <c r="W3" s="312"/>
-      <c r="X3" s="312"/>
-      <c r="Y3" s="312"/>
-      <c r="Z3" s="312"/>
-      <c r="AA3" s="312"/>
-      <c r="AB3" s="312"/>
-      <c r="AC3" s="312"/>
-      <c r="AD3" s="312"/>
-      <c r="AE3" s="312"/>
-      <c r="AF3" s="312"/>
-      <c r="AG3" s="312"/>
-      <c r="AH3" s="312"/>
-      <c r="AI3" s="312"/>
-      <c r="AJ3" s="312"/>
-      <c r="AK3" s="312"/>
-      <c r="AL3" s="312"/>
-      <c r="AM3" s="312"/>
-      <c r="AN3" s="312"/>
-      <c r="AO3" s="312"/>
-      <c r="AP3" s="312"/>
-      <c r="AQ3" s="312"/>
-      <c r="AR3" s="312"/>
-      <c r="AS3" s="312"/>
-      <c r="AT3" s="312"/>
-      <c r="AU3" s="312"/>
-      <c r="AV3" s="312"/>
-      <c r="AW3" s="312"/>
-      <c r="AX3" s="312"/>
-      <c r="AY3" s="312"/>
-      <c r="AZ3" s="312"/>
-      <c r="BA3" s="312"/>
-      <c r="BB3" s="312"/>
-      <c r="BC3" s="312"/>
-      <c r="BD3" s="312"/>
-      <c r="BE3" s="312"/>
-      <c r="BF3" s="312"/>
-      <c r="BG3" s="312"/>
-      <c r="BH3" s="312"/>
-      <c r="BI3" s="312"/>
-      <c r="BJ3" s="312"/>
-      <c r="BK3" s="312"/>
-      <c r="BL3" s="312"/>
-      <c r="BM3" s="312"/>
-      <c r="BN3" s="312"/>
-      <c r="BO3" s="312"/>
-      <c r="BP3" s="312"/>
-      <c r="BQ3" s="312"/>
-      <c r="BR3" s="312"/>
-      <c r="BS3" s="312"/>
-      <c r="BT3" s="312"/>
-      <c r="BU3" s="312"/>
-      <c r="BV3" s="312"/>
-      <c r="BW3" s="312"/>
-      <c r="BX3" s="312"/>
-      <c r="BY3" s="312"/>
-      <c r="BZ3" s="312"/>
-      <c r="CA3" s="312"/>
-      <c r="CB3" s="312"/>
-      <c r="CC3" s="312"/>
-      <c r="CD3" s="313"/>
+      <c r="C3" s="313"/>
+      <c r="D3" s="313"/>
+      <c r="E3" s="313"/>
+      <c r="F3" s="313"/>
+      <c r="G3" s="313"/>
+      <c r="H3" s="313"/>
+      <c r="I3" s="313"/>
+      <c r="J3" s="313"/>
+      <c r="K3" s="313"/>
+      <c r="L3" s="313"/>
+      <c r="M3" s="313"/>
+      <c r="N3" s="313"/>
+      <c r="O3" s="313"/>
+      <c r="P3" s="313"/>
+      <c r="Q3" s="313"/>
+      <c r="R3" s="313"/>
+      <c r="S3" s="313"/>
+      <c r="T3" s="313"/>
+      <c r="U3" s="313"/>
+      <c r="V3" s="313"/>
+      <c r="W3" s="313"/>
+      <c r="X3" s="313"/>
+      <c r="Y3" s="313"/>
+      <c r="Z3" s="313"/>
+      <c r="AA3" s="313"/>
+      <c r="AB3" s="313"/>
+      <c r="AC3" s="313"/>
+      <c r="AD3" s="313"/>
+      <c r="AE3" s="313"/>
+      <c r="AF3" s="313"/>
+      <c r="AG3" s="313"/>
+      <c r="AH3" s="313"/>
+      <c r="AI3" s="313"/>
+      <c r="AJ3" s="313"/>
+      <c r="AK3" s="313"/>
+      <c r="AL3" s="313"/>
+      <c r="AM3" s="313"/>
+      <c r="AN3" s="313"/>
+      <c r="AO3" s="313"/>
+      <c r="AP3" s="313"/>
+      <c r="AQ3" s="313"/>
+      <c r="AR3" s="313"/>
+      <c r="AS3" s="313"/>
+      <c r="AT3" s="313"/>
+      <c r="AU3" s="313"/>
+      <c r="AV3" s="313"/>
+      <c r="AW3" s="313"/>
+      <c r="AX3" s="313"/>
+      <c r="AY3" s="313"/>
+      <c r="AZ3" s="313"/>
+      <c r="BA3" s="313"/>
+      <c r="BB3" s="313"/>
+      <c r="BC3" s="313"/>
+      <c r="BD3" s="313"/>
+      <c r="BE3" s="313"/>
+      <c r="BF3" s="313"/>
+      <c r="BG3" s="313"/>
+      <c r="BH3" s="313"/>
+      <c r="BI3" s="313"/>
+      <c r="BJ3" s="313"/>
+      <c r="BK3" s="313"/>
+      <c r="BL3" s="313"/>
+      <c r="BM3" s="313"/>
+      <c r="BN3" s="313"/>
+      <c r="BO3" s="313"/>
+      <c r="BP3" s="313"/>
+      <c r="BQ3" s="313"/>
+      <c r="BR3" s="313"/>
+      <c r="BS3" s="313"/>
+      <c r="BT3" s="313"/>
+      <c r="BU3" s="313"/>
+      <c r="BV3" s="313"/>
+      <c r="BW3" s="313"/>
+      <c r="BX3" s="313"/>
+      <c r="BY3" s="313"/>
+      <c r="BZ3" s="313"/>
+      <c r="CA3" s="313"/>
+      <c r="CB3" s="313"/>
+      <c r="CC3" s="313"/>
+      <c r="CD3" s="314"/>
       <c r="CE3" s="109" t="s">
         <v>151</v>
       </c>
@@ -44614,87 +44614,87 @@
       <c r="CX3" s="114"/>
     </row>
     <row r="4" spans="2:102" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="314"/>
-      <c r="C4" s="315"/>
-      <c r="D4" s="315"/>
-      <c r="E4" s="315"/>
-      <c r="F4" s="315"/>
-      <c r="G4" s="315"/>
-      <c r="H4" s="315"/>
-      <c r="I4" s="315"/>
-      <c r="J4" s="315"/>
-      <c r="K4" s="315"/>
-      <c r="L4" s="315"/>
-      <c r="M4" s="315"/>
-      <c r="N4" s="315"/>
-      <c r="O4" s="315"/>
-      <c r="P4" s="315"/>
-      <c r="Q4" s="315"/>
-      <c r="R4" s="315"/>
-      <c r="S4" s="315"/>
-      <c r="T4" s="315"/>
-      <c r="U4" s="315"/>
-      <c r="V4" s="315"/>
-      <c r="W4" s="315"/>
-      <c r="X4" s="315"/>
-      <c r="Y4" s="315"/>
-      <c r="Z4" s="315"/>
-      <c r="AA4" s="315"/>
-      <c r="AB4" s="315"/>
-      <c r="AC4" s="315"/>
-      <c r="AD4" s="315"/>
-      <c r="AE4" s="315"/>
-      <c r="AF4" s="315"/>
-      <c r="AG4" s="315"/>
-      <c r="AH4" s="315"/>
-      <c r="AI4" s="315"/>
-      <c r="AJ4" s="315"/>
-      <c r="AK4" s="315"/>
-      <c r="AL4" s="315"/>
-      <c r="AM4" s="315"/>
-      <c r="AN4" s="315"/>
-      <c r="AO4" s="315"/>
-      <c r="AP4" s="315"/>
-      <c r="AQ4" s="315"/>
-      <c r="AR4" s="315"/>
-      <c r="AS4" s="315"/>
-      <c r="AT4" s="315"/>
-      <c r="AU4" s="315"/>
-      <c r="AV4" s="315"/>
-      <c r="AW4" s="315"/>
-      <c r="AX4" s="315"/>
-      <c r="AY4" s="315"/>
-      <c r="AZ4" s="315"/>
-      <c r="BA4" s="315"/>
-      <c r="BB4" s="315"/>
-      <c r="BC4" s="315"/>
-      <c r="BD4" s="315"/>
-      <c r="BE4" s="315"/>
-      <c r="BF4" s="315"/>
-      <c r="BG4" s="315"/>
-      <c r="BH4" s="315"/>
-      <c r="BI4" s="315"/>
-      <c r="BJ4" s="315"/>
-      <c r="BK4" s="315"/>
-      <c r="BL4" s="315"/>
-      <c r="BM4" s="315"/>
-      <c r="BN4" s="315"/>
-      <c r="BO4" s="315"/>
-      <c r="BP4" s="315"/>
-      <c r="BQ4" s="315"/>
-      <c r="BR4" s="315"/>
-      <c r="BS4" s="315"/>
-      <c r="BT4" s="315"/>
-      <c r="BU4" s="315"/>
-      <c r="BV4" s="315"/>
-      <c r="BW4" s="315"/>
-      <c r="BX4" s="315"/>
-      <c r="BY4" s="315"/>
-      <c r="BZ4" s="315"/>
-      <c r="CA4" s="315"/>
-      <c r="CB4" s="315"/>
-      <c r="CC4" s="315"/>
-      <c r="CD4" s="316"/>
+      <c r="B4" s="315"/>
+      <c r="C4" s="316"/>
+      <c r="D4" s="316"/>
+      <c r="E4" s="316"/>
+      <c r="F4" s="316"/>
+      <c r="G4" s="316"/>
+      <c r="H4" s="316"/>
+      <c r="I4" s="316"/>
+      <c r="J4" s="316"/>
+      <c r="K4" s="316"/>
+      <c r="L4" s="316"/>
+      <c r="M4" s="316"/>
+      <c r="N4" s="316"/>
+      <c r="O4" s="316"/>
+      <c r="P4" s="316"/>
+      <c r="Q4" s="316"/>
+      <c r="R4" s="316"/>
+      <c r="S4" s="316"/>
+      <c r="T4" s="316"/>
+      <c r="U4" s="316"/>
+      <c r="V4" s="316"/>
+      <c r="W4" s="316"/>
+      <c r="X4" s="316"/>
+      <c r="Y4" s="316"/>
+      <c r="Z4" s="316"/>
+      <c r="AA4" s="316"/>
+      <c r="AB4" s="316"/>
+      <c r="AC4" s="316"/>
+      <c r="AD4" s="316"/>
+      <c r="AE4" s="316"/>
+      <c r="AF4" s="316"/>
+      <c r="AG4" s="316"/>
+      <c r="AH4" s="316"/>
+      <c r="AI4" s="316"/>
+      <c r="AJ4" s="316"/>
+      <c r="AK4" s="316"/>
+      <c r="AL4" s="316"/>
+      <c r="AM4" s="316"/>
+      <c r="AN4" s="316"/>
+      <c r="AO4" s="316"/>
+      <c r="AP4" s="316"/>
+      <c r="AQ4" s="316"/>
+      <c r="AR4" s="316"/>
+      <c r="AS4" s="316"/>
+      <c r="AT4" s="316"/>
+      <c r="AU4" s="316"/>
+      <c r="AV4" s="316"/>
+      <c r="AW4" s="316"/>
+      <c r="AX4" s="316"/>
+      <c r="AY4" s="316"/>
+      <c r="AZ4" s="316"/>
+      <c r="BA4" s="316"/>
+      <c r="BB4" s="316"/>
+      <c r="BC4" s="316"/>
+      <c r="BD4" s="316"/>
+      <c r="BE4" s="316"/>
+      <c r="BF4" s="316"/>
+      <c r="BG4" s="316"/>
+      <c r="BH4" s="316"/>
+      <c r="BI4" s="316"/>
+      <c r="BJ4" s="316"/>
+      <c r="BK4" s="316"/>
+      <c r="BL4" s="316"/>
+      <c r="BM4" s="316"/>
+      <c r="BN4" s="316"/>
+      <c r="BO4" s="316"/>
+      <c r="BP4" s="316"/>
+      <c r="BQ4" s="316"/>
+      <c r="BR4" s="316"/>
+      <c r="BS4" s="316"/>
+      <c r="BT4" s="316"/>
+      <c r="BU4" s="316"/>
+      <c r="BV4" s="316"/>
+      <c r="BW4" s="316"/>
+      <c r="BX4" s="316"/>
+      <c r="BY4" s="316"/>
+      <c r="BZ4" s="316"/>
+      <c r="CA4" s="316"/>
+      <c r="CB4" s="316"/>
+      <c r="CC4" s="316"/>
+      <c r="CD4" s="317"/>
       <c r="CE4" s="115" t="s">
         <v>153</v>
       </c>
@@ -49562,21 +49562,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -49734,31 +49719,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -49774,4 +49750,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/01_基本設計書/20200220リリース/SC-Z01_在庫照会.xlsx
+++ b/01_基本設計書/20200220リリース/SC-Z01_在庫照会.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6F71C8-60C1-4C8B-9F43-FEC32C725EC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7040449D-8A25-455D-BEB0-A9B09B02C326}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1150,10 +1150,6 @@
     <rPh sb="3" eb="5">
       <t>カンキョウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Search condition</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -3459,6 +3455,23 @@
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Search </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>criteria</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -3468,7 +3481,7 @@
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="55" x14ac:knownFonts="1">
+  <fonts count="56" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3841,6 +3854,14 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="MS UI Gothic"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -4885,6 +4906,91 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4911,91 +5017,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="7" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6087,7 +6108,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$47" spid="_x0000_s3547"/>
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$47" spid="_x0000_s3549"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6730,8 +6751,8 @@
             <a:xfrm>
               <a:off x="426449" y="2130359"/>
               <a:ext cx="1803076" cy="1150735"/>
-              <a:chOff x="1787559" y="2316183"/>
-              <a:chExt cx="1341120" cy="969079"/>
+              <a:chOff x="1787559" y="2316181"/>
+              <a:chExt cx="1341120" cy="969078"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:grpSp>
@@ -6747,10 +6768,10 @@
             </xdr:nvGrpSpPr>
             <xdr:grpSpPr>
               <a:xfrm>
-                <a:off x="1823232" y="2648508"/>
-                <a:ext cx="777645" cy="485649"/>
-                <a:chOff x="191656" y="3012352"/>
-                <a:chExt cx="777645" cy="479460"/>
+                <a:off x="1823232" y="2648509"/>
+                <a:ext cx="777645" cy="485636"/>
+                <a:chOff x="191656" y="3012359"/>
+                <a:chExt cx="777645" cy="479448"/>
               </a:xfrm>
             </xdr:grpSpPr>
             <xdr:sp macro="" textlink="">
@@ -6769,7 +6790,7 @@
               </xdr:nvSpPr>
               <xdr:spPr bwMode="auto">
                 <a:xfrm>
-                  <a:off x="191656" y="3012352"/>
+                  <a:off x="191656" y="3012359"/>
                   <a:ext cx="777645" cy="164478"/>
                 </a:xfrm>
                 <a:prstGeom prst="rect">
@@ -6835,7 +6856,7 @@
               </xdr:nvSpPr>
               <xdr:spPr bwMode="auto">
                 <a:xfrm>
-                  <a:off x="196808" y="3340332"/>
+                  <a:off x="196808" y="3340327"/>
                   <a:ext cx="763862" cy="151480"/>
                 </a:xfrm>
                 <a:prstGeom prst="rect">
@@ -6902,8 +6923,8 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="1787559" y="2316183"/>
-                <a:ext cx="1341120" cy="969079"/>
+                <a:off x="1787559" y="2316181"/>
+                <a:ext cx="1341120" cy="969078"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -8223,7 +8244,7 @@
     </row>
     <row r="32" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A32" s="242" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B32" s="242"/>
       <c r="C32" s="242"/>
@@ -8444,1770 +8465,2003 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="54"/>
-      <c r="B1" s="245" t="s">
+      <c r="B1" s="276" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="245"/>
-      <c r="D1" s="245"/>
-      <c r="E1" s="245"/>
-      <c r="F1" s="245"/>
-      <c r="G1" s="245"/>
-      <c r="H1" s="245"/>
-      <c r="I1" s="245"/>
-      <c r="J1" s="245"/>
-      <c r="K1" s="245"/>
-      <c r="L1" s="245"/>
-      <c r="M1" s="245"/>
-      <c r="N1" s="245"/>
-      <c r="O1" s="245"/>
-      <c r="P1" s="245"/>
-      <c r="Q1" s="245"/>
-      <c r="R1" s="245"/>
-      <c r="S1" s="245"/>
-      <c r="T1" s="245"/>
-      <c r="U1" s="245"/>
-      <c r="V1" s="245"/>
-      <c r="W1" s="245"/>
-      <c r="X1" s="245"/>
-      <c r="Y1" s="245"/>
-      <c r="Z1" s="245"/>
-      <c r="AA1" s="245"/>
-      <c r="AB1" s="245"/>
-      <c r="AC1" s="245"/>
-      <c r="AD1" s="245"/>
-      <c r="AE1" s="245"/>
-      <c r="AF1" s="245"/>
-      <c r="AG1" s="245"/>
-      <c r="AH1" s="245"/>
-      <c r="AI1" s="245"/>
-      <c r="AJ1" s="245"/>
-      <c r="AK1" s="245"/>
-      <c r="AL1" s="245"/>
-      <c r="AM1" s="245"/>
-      <c r="AN1" s="245"/>
-      <c r="AO1" s="245"/>
-      <c r="AP1" s="245"/>
-      <c r="AQ1" s="245"/>
-      <c r="AR1" s="245"/>
-      <c r="AS1" s="245"/>
-      <c r="AT1" s="245"/>
-      <c r="AU1" s="245"/>
-      <c r="AV1" s="245"/>
-      <c r="AW1" s="245"/>
+      <c r="C1" s="276"/>
+      <c r="D1" s="276"/>
+      <c r="E1" s="276"/>
+      <c r="F1" s="276"/>
+      <c r="G1" s="276"/>
+      <c r="H1" s="276"/>
+      <c r="I1" s="276"/>
+      <c r="J1" s="276"/>
+      <c r="K1" s="276"/>
+      <c r="L1" s="276"/>
+      <c r="M1" s="276"/>
+      <c r="N1" s="276"/>
+      <c r="O1" s="276"/>
+      <c r="P1" s="276"/>
+      <c r="Q1" s="276"/>
+      <c r="R1" s="276"/>
+      <c r="S1" s="276"/>
+      <c r="T1" s="276"/>
+      <c r="U1" s="276"/>
+      <c r="V1" s="276"/>
+      <c r="W1" s="276"/>
+      <c r="X1" s="276"/>
+      <c r="Y1" s="276"/>
+      <c r="Z1" s="276"/>
+      <c r="AA1" s="276"/>
+      <c r="AB1" s="276"/>
+      <c r="AC1" s="276"/>
+      <c r="AD1" s="276"/>
+      <c r="AE1" s="276"/>
+      <c r="AF1" s="276"/>
+      <c r="AG1" s="276"/>
+      <c r="AH1" s="276"/>
+      <c r="AI1" s="276"/>
+      <c r="AJ1" s="276"/>
+      <c r="AK1" s="276"/>
+      <c r="AL1" s="276"/>
+      <c r="AM1" s="276"/>
+      <c r="AN1" s="276"/>
+      <c r="AO1" s="276"/>
+      <c r="AP1" s="276"/>
+      <c r="AQ1" s="276"/>
+      <c r="AR1" s="276"/>
+      <c r="AS1" s="276"/>
+      <c r="AT1" s="276"/>
+      <c r="AU1" s="276"/>
+      <c r="AV1" s="276"/>
+      <c r="AW1" s="276"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="54"/>
-      <c r="B2" s="246"/>
-      <c r="C2" s="246"/>
-      <c r="D2" s="246"/>
-      <c r="E2" s="246"/>
-      <c r="F2" s="246"/>
-      <c r="G2" s="246"/>
-      <c r="H2" s="246"/>
-      <c r="I2" s="246"/>
-      <c r="J2" s="246"/>
-      <c r="K2" s="246"/>
-      <c r="L2" s="246"/>
-      <c r="M2" s="246"/>
-      <c r="N2" s="246"/>
-      <c r="O2" s="246"/>
-      <c r="P2" s="246"/>
-      <c r="Q2" s="246"/>
-      <c r="R2" s="246"/>
-      <c r="S2" s="246"/>
-      <c r="T2" s="246"/>
-      <c r="U2" s="246"/>
-      <c r="V2" s="246"/>
-      <c r="W2" s="246"/>
-      <c r="X2" s="246"/>
-      <c r="Y2" s="246"/>
-      <c r="Z2" s="246"/>
-      <c r="AA2" s="246"/>
-      <c r="AB2" s="246"/>
-      <c r="AC2" s="246"/>
-      <c r="AD2" s="246"/>
-      <c r="AE2" s="246"/>
-      <c r="AF2" s="246"/>
-      <c r="AG2" s="246"/>
-      <c r="AH2" s="246"/>
-      <c r="AI2" s="246"/>
-      <c r="AJ2" s="246"/>
-      <c r="AK2" s="246"/>
-      <c r="AL2" s="246"/>
-      <c r="AM2" s="246"/>
-      <c r="AN2" s="246"/>
-      <c r="AO2" s="246"/>
-      <c r="AP2" s="246"/>
-      <c r="AQ2" s="246"/>
-      <c r="AR2" s="246"/>
-      <c r="AS2" s="246"/>
-      <c r="AT2" s="246"/>
-      <c r="AU2" s="246"/>
-      <c r="AV2" s="246"/>
-      <c r="AW2" s="246"/>
+      <c r="B2" s="277"/>
+      <c r="C2" s="277"/>
+      <c r="D2" s="277"/>
+      <c r="E2" s="277"/>
+      <c r="F2" s="277"/>
+      <c r="G2" s="277"/>
+      <c r="H2" s="277"/>
+      <c r="I2" s="277"/>
+      <c r="J2" s="277"/>
+      <c r="K2" s="277"/>
+      <c r="L2" s="277"/>
+      <c r="M2" s="277"/>
+      <c r="N2" s="277"/>
+      <c r="O2" s="277"/>
+      <c r="P2" s="277"/>
+      <c r="Q2" s="277"/>
+      <c r="R2" s="277"/>
+      <c r="S2" s="277"/>
+      <c r="T2" s="277"/>
+      <c r="U2" s="277"/>
+      <c r="V2" s="277"/>
+      <c r="W2" s="277"/>
+      <c r="X2" s="277"/>
+      <c r="Y2" s="277"/>
+      <c r="Z2" s="277"/>
+      <c r="AA2" s="277"/>
+      <c r="AB2" s="277"/>
+      <c r="AC2" s="277"/>
+      <c r="AD2" s="277"/>
+      <c r="AE2" s="277"/>
+      <c r="AF2" s="277"/>
+      <c r="AG2" s="277"/>
+      <c r="AH2" s="277"/>
+      <c r="AI2" s="277"/>
+      <c r="AJ2" s="277"/>
+      <c r="AK2" s="277"/>
+      <c r="AL2" s="277"/>
+      <c r="AM2" s="277"/>
+      <c r="AN2" s="277"/>
+      <c r="AO2" s="277"/>
+      <c r="AP2" s="277"/>
+      <c r="AQ2" s="277"/>
+      <c r="AR2" s="277"/>
+      <c r="AS2" s="277"/>
+      <c r="AT2" s="277"/>
+      <c r="AU2" s="277"/>
+      <c r="AV2" s="277"/>
+      <c r="AW2" s="277"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="54"/>
-      <c r="B3" s="247" t="s">
+      <c r="B3" s="278" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="247"/>
-      <c r="D3" s="247"/>
-      <c r="E3" s="247" t="s">
+      <c r="C3" s="278"/>
+      <c r="D3" s="278"/>
+      <c r="E3" s="278" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="247"/>
-      <c r="G3" s="247"/>
-      <c r="H3" s="247"/>
-      <c r="I3" s="247"/>
-      <c r="J3" s="248" t="s">
+      <c r="F3" s="278"/>
+      <c r="G3" s="278"/>
+      <c r="H3" s="278"/>
+      <c r="I3" s="278"/>
+      <c r="J3" s="279" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="249"/>
-      <c r="L3" s="250"/>
-      <c r="M3" s="248" t="s">
+      <c r="K3" s="280"/>
+      <c r="L3" s="281"/>
+      <c r="M3" s="279" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="249"/>
-      <c r="O3" s="249"/>
-      <c r="P3" s="249"/>
-      <c r="Q3" s="249"/>
-      <c r="R3" s="250"/>
-      <c r="S3" s="247" t="s">
+      <c r="N3" s="280"/>
+      <c r="O3" s="280"/>
+      <c r="P3" s="280"/>
+      <c r="Q3" s="280"/>
+      <c r="R3" s="281"/>
+      <c r="S3" s="278" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="247"/>
-      <c r="U3" s="247"/>
-      <c r="V3" s="247" t="s">
+      <c r="T3" s="278"/>
+      <c r="U3" s="278"/>
+      <c r="V3" s="278" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="247"/>
-      <c r="X3" s="247"/>
-      <c r="Y3" s="247"/>
-      <c r="Z3" s="247"/>
-      <c r="AA3" s="247"/>
-      <c r="AB3" s="247"/>
-      <c r="AC3" s="247"/>
-      <c r="AD3" s="247"/>
-      <c r="AE3" s="247"/>
-      <c r="AF3" s="247"/>
-      <c r="AG3" s="247"/>
-      <c r="AH3" s="247"/>
-      <c r="AI3" s="247"/>
-      <c r="AJ3" s="247"/>
-      <c r="AK3" s="247"/>
-      <c r="AL3" s="247"/>
-      <c r="AM3" s="247"/>
-      <c r="AN3" s="247" t="s">
+      <c r="W3" s="278"/>
+      <c r="X3" s="278"/>
+      <c r="Y3" s="278"/>
+      <c r="Z3" s="278"/>
+      <c r="AA3" s="278"/>
+      <c r="AB3" s="278"/>
+      <c r="AC3" s="278"/>
+      <c r="AD3" s="278"/>
+      <c r="AE3" s="278"/>
+      <c r="AF3" s="278"/>
+      <c r="AG3" s="278"/>
+      <c r="AH3" s="278"/>
+      <c r="AI3" s="278"/>
+      <c r="AJ3" s="278"/>
+      <c r="AK3" s="278"/>
+      <c r="AL3" s="278"/>
+      <c r="AM3" s="278"/>
+      <c r="AN3" s="278" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="247"/>
-      <c r="AP3" s="247"/>
-      <c r="AQ3" s="247"/>
-      <c r="AR3" s="247"/>
-      <c r="AS3" s="247" t="s">
+      <c r="AO3" s="278"/>
+      <c r="AP3" s="278"/>
+      <c r="AQ3" s="278"/>
+      <c r="AR3" s="278"/>
+      <c r="AS3" s="278" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="247"/>
-      <c r="AU3" s="247"/>
-      <c r="AV3" s="247"/>
-      <c r="AW3" s="247"/>
+      <c r="AT3" s="278"/>
+      <c r="AU3" s="278"/>
+      <c r="AV3" s="278"/>
+      <c r="AW3" s="278"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="54"/>
-      <c r="B4" s="247"/>
-      <c r="C4" s="247"/>
-      <c r="D4" s="247"/>
-      <c r="E4" s="247"/>
-      <c r="F4" s="247"/>
-      <c r="G4" s="247"/>
-      <c r="H4" s="247"/>
-      <c r="I4" s="247"/>
-      <c r="J4" s="251"/>
-      <c r="K4" s="252"/>
-      <c r="L4" s="253"/>
-      <c r="M4" s="251"/>
-      <c r="N4" s="252"/>
-      <c r="O4" s="252"/>
-      <c r="P4" s="252"/>
-      <c r="Q4" s="252"/>
-      <c r="R4" s="253"/>
-      <c r="S4" s="247"/>
-      <c r="T4" s="247"/>
-      <c r="U4" s="247"/>
-      <c r="V4" s="247"/>
-      <c r="W4" s="247"/>
-      <c r="X4" s="247"/>
-      <c r="Y4" s="247"/>
-      <c r="Z4" s="247"/>
-      <c r="AA4" s="247"/>
-      <c r="AB4" s="247"/>
-      <c r="AC4" s="247"/>
-      <c r="AD4" s="247"/>
-      <c r="AE4" s="247"/>
-      <c r="AF4" s="247"/>
-      <c r="AG4" s="247"/>
-      <c r="AH4" s="247"/>
-      <c r="AI4" s="247"/>
-      <c r="AJ4" s="247"/>
-      <c r="AK4" s="247"/>
-      <c r="AL4" s="247"/>
-      <c r="AM4" s="247"/>
-      <c r="AN4" s="247"/>
-      <c r="AO4" s="247"/>
-      <c r="AP4" s="247"/>
-      <c r="AQ4" s="247"/>
-      <c r="AR4" s="247"/>
-      <c r="AS4" s="247"/>
-      <c r="AT4" s="247"/>
-      <c r="AU4" s="247"/>
-      <c r="AV4" s="247"/>
-      <c r="AW4" s="247"/>
+      <c r="B4" s="278"/>
+      <c r="C4" s="278"/>
+      <c r="D4" s="278"/>
+      <c r="E4" s="278"/>
+      <c r="F4" s="278"/>
+      <c r="G4" s="278"/>
+      <c r="H4" s="278"/>
+      <c r="I4" s="278"/>
+      <c r="J4" s="282"/>
+      <c r="K4" s="283"/>
+      <c r="L4" s="284"/>
+      <c r="M4" s="282"/>
+      <c r="N4" s="283"/>
+      <c r="O4" s="283"/>
+      <c r="P4" s="283"/>
+      <c r="Q4" s="283"/>
+      <c r="R4" s="284"/>
+      <c r="S4" s="278"/>
+      <c r="T4" s="278"/>
+      <c r="U4" s="278"/>
+      <c r="V4" s="278"/>
+      <c r="W4" s="278"/>
+      <c r="X4" s="278"/>
+      <c r="Y4" s="278"/>
+      <c r="Z4" s="278"/>
+      <c r="AA4" s="278"/>
+      <c r="AB4" s="278"/>
+      <c r="AC4" s="278"/>
+      <c r="AD4" s="278"/>
+      <c r="AE4" s="278"/>
+      <c r="AF4" s="278"/>
+      <c r="AG4" s="278"/>
+      <c r="AH4" s="278"/>
+      <c r="AI4" s="278"/>
+      <c r="AJ4" s="278"/>
+      <c r="AK4" s="278"/>
+      <c r="AL4" s="278"/>
+      <c r="AM4" s="278"/>
+      <c r="AN4" s="278"/>
+      <c r="AO4" s="278"/>
+      <c r="AP4" s="278"/>
+      <c r="AQ4" s="278"/>
+      <c r="AR4" s="278"/>
+      <c r="AS4" s="278"/>
+      <c r="AT4" s="278"/>
+      <c r="AU4" s="278"/>
+      <c r="AV4" s="278"/>
+      <c r="AW4" s="278"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="56"/>
-      <c r="B5" s="255">
+      <c r="B5" s="270">
         <v>1</v>
       </c>
-      <c r="C5" s="255"/>
-      <c r="D5" s="255"/>
-      <c r="E5" s="256">
+      <c r="C5" s="270"/>
+      <c r="D5" s="270"/>
+      <c r="E5" s="251">
         <v>43734</v>
       </c>
-      <c r="F5" s="256"/>
-      <c r="G5" s="256"/>
-      <c r="H5" s="256"/>
-      <c r="I5" s="256"/>
-      <c r="J5" s="257" t="s">
+      <c r="F5" s="251"/>
+      <c r="G5" s="251"/>
+      <c r="H5" s="251"/>
+      <c r="I5" s="251"/>
+      <c r="J5" s="252" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="258"/>
-      <c r="L5" s="259"/>
-      <c r="M5" s="257" t="s">
+      <c r="K5" s="253"/>
+      <c r="L5" s="254"/>
+      <c r="M5" s="252" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="258"/>
-      <c r="O5" s="258"/>
-      <c r="P5" s="258"/>
-      <c r="Q5" s="258"/>
-      <c r="R5" s="259"/>
-      <c r="S5" s="254" t="s">
+      <c r="N5" s="253"/>
+      <c r="O5" s="253"/>
+      <c r="P5" s="253"/>
+      <c r="Q5" s="253"/>
+      <c r="R5" s="254"/>
+      <c r="S5" s="258" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="254"/>
-      <c r="U5" s="254"/>
-      <c r="V5" s="263" t="s">
+      <c r="T5" s="258"/>
+      <c r="U5" s="258"/>
+      <c r="V5" s="269" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="263"/>
-      <c r="X5" s="263"/>
-      <c r="Y5" s="263"/>
-      <c r="Z5" s="263"/>
-      <c r="AA5" s="263"/>
-      <c r="AB5" s="263"/>
-      <c r="AC5" s="263"/>
-      <c r="AD5" s="263"/>
-      <c r="AE5" s="263"/>
-      <c r="AF5" s="263"/>
-      <c r="AG5" s="263"/>
-      <c r="AH5" s="263"/>
-      <c r="AI5" s="263"/>
-      <c r="AJ5" s="263"/>
-      <c r="AK5" s="263"/>
-      <c r="AL5" s="263"/>
-      <c r="AM5" s="263"/>
-      <c r="AN5" s="254" t="s">
-        <v>189</v>
-      </c>
-      <c r="AO5" s="254"/>
-      <c r="AP5" s="254"/>
-      <c r="AQ5" s="254"/>
-      <c r="AR5" s="254"/>
-      <c r="AS5" s="254"/>
-      <c r="AT5" s="254"/>
-      <c r="AU5" s="254"/>
-      <c r="AV5" s="254"/>
-      <c r="AW5" s="254"/>
+      <c r="W5" s="269"/>
+      <c r="X5" s="269"/>
+      <c r="Y5" s="269"/>
+      <c r="Z5" s="269"/>
+      <c r="AA5" s="269"/>
+      <c r="AB5" s="269"/>
+      <c r="AC5" s="269"/>
+      <c r="AD5" s="269"/>
+      <c r="AE5" s="269"/>
+      <c r="AF5" s="269"/>
+      <c r="AG5" s="269"/>
+      <c r="AH5" s="269"/>
+      <c r="AI5" s="269"/>
+      <c r="AJ5" s="269"/>
+      <c r="AK5" s="269"/>
+      <c r="AL5" s="269"/>
+      <c r="AM5" s="269"/>
+      <c r="AN5" s="258" t="s">
+        <v>188</v>
+      </c>
+      <c r="AO5" s="258"/>
+      <c r="AP5" s="258"/>
+      <c r="AQ5" s="258"/>
+      <c r="AR5" s="258"/>
+      <c r="AS5" s="258"/>
+      <c r="AT5" s="258"/>
+      <c r="AU5" s="258"/>
+      <c r="AV5" s="258"/>
+      <c r="AW5" s="258"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="56"/>
-      <c r="B6" s="255"/>
-      <c r="C6" s="255"/>
-      <c r="D6" s="255"/>
-      <c r="E6" s="256"/>
-      <c r="F6" s="256"/>
-      <c r="G6" s="256"/>
-      <c r="H6" s="256"/>
-      <c r="I6" s="256"/>
-      <c r="J6" s="257"/>
-      <c r="K6" s="258"/>
-      <c r="L6" s="259"/>
-      <c r="M6" s="260"/>
-      <c r="N6" s="261"/>
-      <c r="O6" s="261"/>
-      <c r="P6" s="261"/>
-      <c r="Q6" s="261"/>
-      <c r="R6" s="262"/>
-      <c r="S6" s="254"/>
-      <c r="T6" s="254"/>
-      <c r="U6" s="254"/>
-      <c r="V6" s="263"/>
-      <c r="W6" s="263"/>
-      <c r="X6" s="263"/>
-      <c r="Y6" s="263"/>
-      <c r="Z6" s="263"/>
-      <c r="AA6" s="263"/>
-      <c r="AB6" s="263"/>
-      <c r="AC6" s="263"/>
-      <c r="AD6" s="263"/>
-      <c r="AE6" s="263"/>
-      <c r="AF6" s="263"/>
-      <c r="AG6" s="263"/>
-      <c r="AH6" s="263"/>
-      <c r="AI6" s="263"/>
-      <c r="AJ6" s="263"/>
-      <c r="AK6" s="263"/>
-      <c r="AL6" s="263"/>
-      <c r="AM6" s="263"/>
-      <c r="AN6" s="254"/>
-      <c r="AO6" s="254"/>
-      <c r="AP6" s="254"/>
-      <c r="AQ6" s="254"/>
-      <c r="AR6" s="254"/>
-      <c r="AS6" s="254"/>
-      <c r="AT6" s="254"/>
-      <c r="AU6" s="254"/>
-      <c r="AV6" s="254"/>
-      <c r="AW6" s="254"/>
+      <c r="B6" s="270"/>
+      <c r="C6" s="270"/>
+      <c r="D6" s="270"/>
+      <c r="E6" s="251"/>
+      <c r="F6" s="251"/>
+      <c r="G6" s="251"/>
+      <c r="H6" s="251"/>
+      <c r="I6" s="251"/>
+      <c r="J6" s="252"/>
+      <c r="K6" s="253"/>
+      <c r="L6" s="254"/>
+      <c r="M6" s="273"/>
+      <c r="N6" s="274"/>
+      <c r="O6" s="274"/>
+      <c r="P6" s="274"/>
+      <c r="Q6" s="274"/>
+      <c r="R6" s="275"/>
+      <c r="S6" s="258"/>
+      <c r="T6" s="258"/>
+      <c r="U6" s="258"/>
+      <c r="V6" s="269"/>
+      <c r="W6" s="269"/>
+      <c r="X6" s="269"/>
+      <c r="Y6" s="269"/>
+      <c r="Z6" s="269"/>
+      <c r="AA6" s="269"/>
+      <c r="AB6" s="269"/>
+      <c r="AC6" s="269"/>
+      <c r="AD6" s="269"/>
+      <c r="AE6" s="269"/>
+      <c r="AF6" s="269"/>
+      <c r="AG6" s="269"/>
+      <c r="AH6" s="269"/>
+      <c r="AI6" s="269"/>
+      <c r="AJ6" s="269"/>
+      <c r="AK6" s="269"/>
+      <c r="AL6" s="269"/>
+      <c r="AM6" s="269"/>
+      <c r="AN6" s="258"/>
+      <c r="AO6" s="258"/>
+      <c r="AP6" s="258"/>
+      <c r="AQ6" s="258"/>
+      <c r="AR6" s="258"/>
+      <c r="AS6" s="258"/>
+      <c r="AT6" s="258"/>
+      <c r="AU6" s="258"/>
+      <c r="AV6" s="258"/>
+      <c r="AW6" s="258"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="56"/>
-      <c r="B7" s="255"/>
-      <c r="C7" s="255"/>
-      <c r="D7" s="255"/>
-      <c r="E7" s="256"/>
-      <c r="F7" s="256"/>
-      <c r="G7" s="256"/>
-      <c r="H7" s="256"/>
-      <c r="I7" s="256"/>
-      <c r="J7" s="257"/>
-      <c r="K7" s="258"/>
-      <c r="L7" s="259"/>
-      <c r="M7" s="260"/>
-      <c r="N7" s="261"/>
-      <c r="O7" s="261"/>
-      <c r="P7" s="261"/>
-      <c r="Q7" s="261"/>
-      <c r="R7" s="262"/>
-      <c r="S7" s="254"/>
-      <c r="T7" s="254"/>
-      <c r="U7" s="254"/>
-      <c r="V7" s="263"/>
-      <c r="W7" s="263"/>
-      <c r="X7" s="263"/>
-      <c r="Y7" s="263"/>
-      <c r="Z7" s="263"/>
-      <c r="AA7" s="263"/>
-      <c r="AB7" s="263"/>
-      <c r="AC7" s="263"/>
-      <c r="AD7" s="263"/>
-      <c r="AE7" s="263"/>
-      <c r="AF7" s="263"/>
-      <c r="AG7" s="263"/>
-      <c r="AH7" s="263"/>
-      <c r="AI7" s="263"/>
-      <c r="AJ7" s="263"/>
-      <c r="AK7" s="263"/>
-      <c r="AL7" s="263"/>
-      <c r="AM7" s="263"/>
-      <c r="AN7" s="254"/>
-      <c r="AO7" s="254"/>
-      <c r="AP7" s="254"/>
-      <c r="AQ7" s="254"/>
-      <c r="AR7" s="254"/>
-      <c r="AS7" s="254"/>
-      <c r="AT7" s="254"/>
-      <c r="AU7" s="254"/>
-      <c r="AV7" s="254"/>
-      <c r="AW7" s="254"/>
+      <c r="B7" s="270"/>
+      <c r="C7" s="270"/>
+      <c r="D7" s="270"/>
+      <c r="E7" s="251"/>
+      <c r="F7" s="251"/>
+      <c r="G7" s="251"/>
+      <c r="H7" s="251"/>
+      <c r="I7" s="251"/>
+      <c r="J7" s="252"/>
+      <c r="K7" s="253"/>
+      <c r="L7" s="254"/>
+      <c r="M7" s="273"/>
+      <c r="N7" s="274"/>
+      <c r="O7" s="274"/>
+      <c r="P7" s="274"/>
+      <c r="Q7" s="274"/>
+      <c r="R7" s="275"/>
+      <c r="S7" s="258"/>
+      <c r="T7" s="258"/>
+      <c r="U7" s="258"/>
+      <c r="V7" s="269"/>
+      <c r="W7" s="269"/>
+      <c r="X7" s="269"/>
+      <c r="Y7" s="269"/>
+      <c r="Z7" s="269"/>
+      <c r="AA7" s="269"/>
+      <c r="AB7" s="269"/>
+      <c r="AC7" s="269"/>
+      <c r="AD7" s="269"/>
+      <c r="AE7" s="269"/>
+      <c r="AF7" s="269"/>
+      <c r="AG7" s="269"/>
+      <c r="AH7" s="269"/>
+      <c r="AI7" s="269"/>
+      <c r="AJ7" s="269"/>
+      <c r="AK7" s="269"/>
+      <c r="AL7" s="269"/>
+      <c r="AM7" s="269"/>
+      <c r="AN7" s="258"/>
+      <c r="AO7" s="258"/>
+      <c r="AP7" s="258"/>
+      <c r="AQ7" s="258"/>
+      <c r="AR7" s="258"/>
+      <c r="AS7" s="258"/>
+      <c r="AT7" s="258"/>
+      <c r="AU7" s="258"/>
+      <c r="AV7" s="258"/>
+      <c r="AW7" s="258"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="56"/>
-      <c r="B8" s="255"/>
-      <c r="C8" s="255"/>
-      <c r="D8" s="255"/>
-      <c r="E8" s="256"/>
-      <c r="F8" s="256"/>
-      <c r="G8" s="256"/>
-      <c r="H8" s="256"/>
-      <c r="I8" s="256"/>
-      <c r="J8" s="257"/>
-      <c r="K8" s="258"/>
-      <c r="L8" s="259"/>
-      <c r="M8" s="260"/>
-      <c r="N8" s="261"/>
-      <c r="O8" s="261"/>
-      <c r="P8" s="261"/>
-      <c r="Q8" s="261"/>
-      <c r="R8" s="262"/>
-      <c r="S8" s="254"/>
-      <c r="T8" s="254"/>
-      <c r="U8" s="254"/>
-      <c r="V8" s="263"/>
-      <c r="W8" s="263"/>
-      <c r="X8" s="263"/>
-      <c r="Y8" s="263"/>
-      <c r="Z8" s="263"/>
-      <c r="AA8" s="263"/>
-      <c r="AB8" s="263"/>
-      <c r="AC8" s="263"/>
-      <c r="AD8" s="263"/>
-      <c r="AE8" s="263"/>
-      <c r="AF8" s="263"/>
-      <c r="AG8" s="263"/>
-      <c r="AH8" s="263"/>
-      <c r="AI8" s="263"/>
-      <c r="AJ8" s="263"/>
-      <c r="AK8" s="263"/>
-      <c r="AL8" s="263"/>
-      <c r="AM8" s="263"/>
-      <c r="AN8" s="254"/>
-      <c r="AO8" s="254"/>
-      <c r="AP8" s="254"/>
-      <c r="AQ8" s="254"/>
-      <c r="AR8" s="254"/>
-      <c r="AS8" s="254"/>
-      <c r="AT8" s="254"/>
-      <c r="AU8" s="254"/>
-      <c r="AV8" s="254"/>
-      <c r="AW8" s="254"/>
+      <c r="B8" s="270"/>
+      <c r="C8" s="270"/>
+      <c r="D8" s="270"/>
+      <c r="E8" s="251"/>
+      <c r="F8" s="251"/>
+      <c r="G8" s="251"/>
+      <c r="H8" s="251"/>
+      <c r="I8" s="251"/>
+      <c r="J8" s="252"/>
+      <c r="K8" s="253"/>
+      <c r="L8" s="254"/>
+      <c r="M8" s="273"/>
+      <c r="N8" s="274"/>
+      <c r="O8" s="274"/>
+      <c r="P8" s="274"/>
+      <c r="Q8" s="274"/>
+      <c r="R8" s="275"/>
+      <c r="S8" s="258"/>
+      <c r="T8" s="258"/>
+      <c r="U8" s="258"/>
+      <c r="V8" s="269"/>
+      <c r="W8" s="269"/>
+      <c r="X8" s="269"/>
+      <c r="Y8" s="269"/>
+      <c r="Z8" s="269"/>
+      <c r="AA8" s="269"/>
+      <c r="AB8" s="269"/>
+      <c r="AC8" s="269"/>
+      <c r="AD8" s="269"/>
+      <c r="AE8" s="269"/>
+      <c r="AF8" s="269"/>
+      <c r="AG8" s="269"/>
+      <c r="AH8" s="269"/>
+      <c r="AI8" s="269"/>
+      <c r="AJ8" s="269"/>
+      <c r="AK8" s="269"/>
+      <c r="AL8" s="269"/>
+      <c r="AM8" s="269"/>
+      <c r="AN8" s="258"/>
+      <c r="AO8" s="258"/>
+      <c r="AP8" s="258"/>
+      <c r="AQ8" s="258"/>
+      <c r="AR8" s="258"/>
+      <c r="AS8" s="258"/>
+      <c r="AT8" s="258"/>
+      <c r="AU8" s="258"/>
+      <c r="AV8" s="258"/>
+      <c r="AW8" s="258"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="56"/>
-      <c r="B9" s="255"/>
-      <c r="C9" s="255"/>
-      <c r="D9" s="255"/>
-      <c r="E9" s="256"/>
-      <c r="F9" s="256"/>
-      <c r="G9" s="256"/>
-      <c r="H9" s="256"/>
-      <c r="I9" s="256"/>
-      <c r="J9" s="257"/>
-      <c r="K9" s="258"/>
-      <c r="L9" s="259"/>
-      <c r="M9" s="260"/>
-      <c r="N9" s="261"/>
-      <c r="O9" s="261"/>
-      <c r="P9" s="261"/>
-      <c r="Q9" s="261"/>
-      <c r="R9" s="262"/>
-      <c r="S9" s="254"/>
-      <c r="T9" s="254"/>
-      <c r="U9" s="254"/>
-      <c r="V9" s="263"/>
-      <c r="W9" s="263"/>
-      <c r="X9" s="263"/>
-      <c r="Y9" s="263"/>
-      <c r="Z9" s="263"/>
-      <c r="AA9" s="263"/>
-      <c r="AB9" s="263"/>
-      <c r="AC9" s="263"/>
-      <c r="AD9" s="263"/>
-      <c r="AE9" s="263"/>
-      <c r="AF9" s="263"/>
-      <c r="AG9" s="263"/>
-      <c r="AH9" s="263"/>
-      <c r="AI9" s="263"/>
-      <c r="AJ9" s="263"/>
-      <c r="AK9" s="263"/>
-      <c r="AL9" s="263"/>
-      <c r="AM9" s="263"/>
-      <c r="AN9" s="254"/>
-      <c r="AO9" s="254"/>
-      <c r="AP9" s="254"/>
-      <c r="AQ9" s="254"/>
-      <c r="AR9" s="254"/>
-      <c r="AS9" s="254"/>
-      <c r="AT9" s="254"/>
-      <c r="AU9" s="254"/>
-      <c r="AV9" s="254"/>
-      <c r="AW9" s="254"/>
+      <c r="B9" s="270"/>
+      <c r="C9" s="270"/>
+      <c r="D9" s="270"/>
+      <c r="E9" s="251"/>
+      <c r="F9" s="251"/>
+      <c r="G9" s="251"/>
+      <c r="H9" s="251"/>
+      <c r="I9" s="251"/>
+      <c r="J9" s="252"/>
+      <c r="K9" s="253"/>
+      <c r="L9" s="254"/>
+      <c r="M9" s="273"/>
+      <c r="N9" s="274"/>
+      <c r="O9" s="274"/>
+      <c r="P9" s="274"/>
+      <c r="Q9" s="274"/>
+      <c r="R9" s="275"/>
+      <c r="S9" s="258"/>
+      <c r="T9" s="258"/>
+      <c r="U9" s="258"/>
+      <c r="V9" s="269"/>
+      <c r="W9" s="269"/>
+      <c r="X9" s="269"/>
+      <c r="Y9" s="269"/>
+      <c r="Z9" s="269"/>
+      <c r="AA9" s="269"/>
+      <c r="AB9" s="269"/>
+      <c r="AC9" s="269"/>
+      <c r="AD9" s="269"/>
+      <c r="AE9" s="269"/>
+      <c r="AF9" s="269"/>
+      <c r="AG9" s="269"/>
+      <c r="AH9" s="269"/>
+      <c r="AI9" s="269"/>
+      <c r="AJ9" s="269"/>
+      <c r="AK9" s="269"/>
+      <c r="AL9" s="269"/>
+      <c r="AM9" s="269"/>
+      <c r="AN9" s="258"/>
+      <c r="AO9" s="258"/>
+      <c r="AP9" s="258"/>
+      <c r="AQ9" s="258"/>
+      <c r="AR9" s="258"/>
+      <c r="AS9" s="258"/>
+      <c r="AT9" s="258"/>
+      <c r="AU9" s="258"/>
+      <c r="AV9" s="258"/>
+      <c r="AW9" s="258"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="56"/>
-      <c r="B10" s="255"/>
-      <c r="C10" s="255"/>
-      <c r="D10" s="255"/>
-      <c r="E10" s="256"/>
-      <c r="F10" s="256"/>
-      <c r="G10" s="256"/>
-      <c r="H10" s="256"/>
-      <c r="I10" s="256"/>
-      <c r="J10" s="257"/>
-      <c r="K10" s="258"/>
-      <c r="L10" s="259"/>
-      <c r="M10" s="260"/>
-      <c r="N10" s="261"/>
-      <c r="O10" s="261"/>
-      <c r="P10" s="261"/>
-      <c r="Q10" s="261"/>
-      <c r="R10" s="262"/>
-      <c r="S10" s="254"/>
-      <c r="T10" s="254"/>
-      <c r="U10" s="254"/>
-      <c r="V10" s="263"/>
-      <c r="W10" s="263"/>
-      <c r="X10" s="263"/>
-      <c r="Y10" s="263"/>
-      <c r="Z10" s="263"/>
-      <c r="AA10" s="263"/>
-      <c r="AB10" s="263"/>
-      <c r="AC10" s="263"/>
-      <c r="AD10" s="263"/>
-      <c r="AE10" s="263"/>
-      <c r="AF10" s="263"/>
-      <c r="AG10" s="263"/>
-      <c r="AH10" s="263"/>
-      <c r="AI10" s="263"/>
-      <c r="AJ10" s="263"/>
-      <c r="AK10" s="263"/>
-      <c r="AL10" s="263"/>
-      <c r="AM10" s="263"/>
-      <c r="AN10" s="254"/>
-      <c r="AO10" s="254"/>
-      <c r="AP10" s="254"/>
-      <c r="AQ10" s="254"/>
-      <c r="AR10" s="254"/>
-      <c r="AS10" s="254"/>
-      <c r="AT10" s="254"/>
-      <c r="AU10" s="254"/>
-      <c r="AV10" s="254"/>
-      <c r="AW10" s="254"/>
+      <c r="B10" s="270"/>
+      <c r="C10" s="270"/>
+      <c r="D10" s="270"/>
+      <c r="E10" s="251"/>
+      <c r="F10" s="251"/>
+      <c r="G10" s="251"/>
+      <c r="H10" s="251"/>
+      <c r="I10" s="251"/>
+      <c r="J10" s="252"/>
+      <c r="K10" s="253"/>
+      <c r="L10" s="254"/>
+      <c r="M10" s="273"/>
+      <c r="N10" s="274"/>
+      <c r="O10" s="274"/>
+      <c r="P10" s="274"/>
+      <c r="Q10" s="274"/>
+      <c r="R10" s="275"/>
+      <c r="S10" s="258"/>
+      <c r="T10" s="258"/>
+      <c r="U10" s="258"/>
+      <c r="V10" s="269"/>
+      <c r="W10" s="269"/>
+      <c r="X10" s="269"/>
+      <c r="Y10" s="269"/>
+      <c r="Z10" s="269"/>
+      <c r="AA10" s="269"/>
+      <c r="AB10" s="269"/>
+      <c r="AC10" s="269"/>
+      <c r="AD10" s="269"/>
+      <c r="AE10" s="269"/>
+      <c r="AF10" s="269"/>
+      <c r="AG10" s="269"/>
+      <c r="AH10" s="269"/>
+      <c r="AI10" s="269"/>
+      <c r="AJ10" s="269"/>
+      <c r="AK10" s="269"/>
+      <c r="AL10" s="269"/>
+      <c r="AM10" s="269"/>
+      <c r="AN10" s="258"/>
+      <c r="AO10" s="258"/>
+      <c r="AP10" s="258"/>
+      <c r="AQ10" s="258"/>
+      <c r="AR10" s="258"/>
+      <c r="AS10" s="258"/>
+      <c r="AT10" s="258"/>
+      <c r="AU10" s="258"/>
+      <c r="AV10" s="258"/>
+      <c r="AW10" s="258"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="56"/>
-      <c r="B11" s="255"/>
-      <c r="C11" s="255"/>
-      <c r="D11" s="255"/>
-      <c r="E11" s="256"/>
-      <c r="F11" s="256"/>
-      <c r="G11" s="256"/>
-      <c r="H11" s="256"/>
-      <c r="I11" s="256"/>
-      <c r="J11" s="257"/>
-      <c r="K11" s="258"/>
-      <c r="L11" s="259"/>
-      <c r="M11" s="267"/>
-      <c r="N11" s="268"/>
-      <c r="O11" s="268"/>
-      <c r="P11" s="268"/>
-      <c r="Q11" s="268"/>
-      <c r="R11" s="269"/>
-      <c r="S11" s="254"/>
-      <c r="T11" s="254"/>
-      <c r="U11" s="254"/>
-      <c r="V11" s="270"/>
-      <c r="W11" s="276"/>
-      <c r="X11" s="276"/>
-      <c r="Y11" s="276"/>
-      <c r="Z11" s="276"/>
-      <c r="AA11" s="276"/>
-      <c r="AB11" s="276"/>
-      <c r="AC11" s="276"/>
-      <c r="AD11" s="276"/>
-      <c r="AE11" s="276"/>
-      <c r="AF11" s="276"/>
-      <c r="AG11" s="276"/>
-      <c r="AH11" s="276"/>
-      <c r="AI11" s="276"/>
-      <c r="AJ11" s="276"/>
-      <c r="AK11" s="276"/>
-      <c r="AL11" s="276"/>
-      <c r="AM11" s="277"/>
-      <c r="AN11" s="254"/>
-      <c r="AO11" s="254"/>
-      <c r="AP11" s="254"/>
-      <c r="AQ11" s="254"/>
-      <c r="AR11" s="254"/>
-      <c r="AS11" s="254"/>
-      <c r="AT11" s="254"/>
-      <c r="AU11" s="254"/>
-      <c r="AV11" s="254"/>
-      <c r="AW11" s="254"/>
+      <c r="B11" s="270"/>
+      <c r="C11" s="270"/>
+      <c r="D11" s="270"/>
+      <c r="E11" s="251"/>
+      <c r="F11" s="251"/>
+      <c r="G11" s="251"/>
+      <c r="H11" s="251"/>
+      <c r="I11" s="251"/>
+      <c r="J11" s="252"/>
+      <c r="K11" s="253"/>
+      <c r="L11" s="254"/>
+      <c r="M11" s="265"/>
+      <c r="N11" s="263"/>
+      <c r="O11" s="263"/>
+      <c r="P11" s="263"/>
+      <c r="Q11" s="263"/>
+      <c r="R11" s="264"/>
+      <c r="S11" s="258"/>
+      <c r="T11" s="258"/>
+      <c r="U11" s="258"/>
+      <c r="V11" s="259"/>
+      <c r="W11" s="271"/>
+      <c r="X11" s="271"/>
+      <c r="Y11" s="271"/>
+      <c r="Z11" s="271"/>
+      <c r="AA11" s="271"/>
+      <c r="AB11" s="271"/>
+      <c r="AC11" s="271"/>
+      <c r="AD11" s="271"/>
+      <c r="AE11" s="271"/>
+      <c r="AF11" s="271"/>
+      <c r="AG11" s="271"/>
+      <c r="AH11" s="271"/>
+      <c r="AI11" s="271"/>
+      <c r="AJ11" s="271"/>
+      <c r="AK11" s="271"/>
+      <c r="AL11" s="271"/>
+      <c r="AM11" s="272"/>
+      <c r="AN11" s="258"/>
+      <c r="AO11" s="258"/>
+      <c r="AP11" s="258"/>
+      <c r="AQ11" s="258"/>
+      <c r="AR11" s="258"/>
+      <c r="AS11" s="258"/>
+      <c r="AT11" s="258"/>
+      <c r="AU11" s="258"/>
+      <c r="AV11" s="258"/>
+      <c r="AW11" s="258"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="56"/>
-      <c r="B12" s="264"/>
-      <c r="C12" s="265"/>
-      <c r="D12" s="266"/>
-      <c r="E12" s="256"/>
-      <c r="F12" s="256"/>
-      <c r="G12" s="256"/>
-      <c r="H12" s="256"/>
-      <c r="I12" s="256"/>
-      <c r="J12" s="257"/>
-      <c r="K12" s="258"/>
-      <c r="L12" s="259"/>
-      <c r="M12" s="267"/>
-      <c r="N12" s="268"/>
-      <c r="O12" s="268"/>
-      <c r="P12" s="268"/>
-      <c r="Q12" s="268"/>
-      <c r="R12" s="269"/>
-      <c r="S12" s="254"/>
-      <c r="T12" s="254"/>
-      <c r="U12" s="254"/>
-      <c r="V12" s="270"/>
-      <c r="W12" s="271"/>
-      <c r="X12" s="271"/>
-      <c r="Y12" s="271"/>
-      <c r="Z12" s="271"/>
-      <c r="AA12" s="271"/>
-      <c r="AB12" s="271"/>
-      <c r="AC12" s="271"/>
-      <c r="AD12" s="271"/>
-      <c r="AE12" s="271"/>
-      <c r="AF12" s="271"/>
-      <c r="AG12" s="271"/>
-      <c r="AH12" s="271"/>
-      <c r="AI12" s="271"/>
-      <c r="AJ12" s="271"/>
-      <c r="AK12" s="271"/>
-      <c r="AL12" s="271"/>
-      <c r="AM12" s="272"/>
-      <c r="AN12" s="273"/>
-      <c r="AO12" s="274"/>
-      <c r="AP12" s="274"/>
-      <c r="AQ12" s="274"/>
-      <c r="AR12" s="275"/>
-      <c r="AS12" s="273"/>
-      <c r="AT12" s="274"/>
-      <c r="AU12" s="274"/>
-      <c r="AV12" s="274"/>
-      <c r="AW12" s="275"/>
+      <c r="B12" s="248"/>
+      <c r="C12" s="249"/>
+      <c r="D12" s="250"/>
+      <c r="E12" s="251"/>
+      <c r="F12" s="251"/>
+      <c r="G12" s="251"/>
+      <c r="H12" s="251"/>
+      <c r="I12" s="251"/>
+      <c r="J12" s="252"/>
+      <c r="K12" s="253"/>
+      <c r="L12" s="254"/>
+      <c r="M12" s="265"/>
+      <c r="N12" s="263"/>
+      <c r="O12" s="263"/>
+      <c r="P12" s="263"/>
+      <c r="Q12" s="263"/>
+      <c r="R12" s="264"/>
+      <c r="S12" s="258"/>
+      <c r="T12" s="258"/>
+      <c r="U12" s="258"/>
+      <c r="V12" s="259"/>
+      <c r="W12" s="260"/>
+      <c r="X12" s="260"/>
+      <c r="Y12" s="260"/>
+      <c r="Z12" s="260"/>
+      <c r="AA12" s="260"/>
+      <c r="AB12" s="260"/>
+      <c r="AC12" s="260"/>
+      <c r="AD12" s="260"/>
+      <c r="AE12" s="260"/>
+      <c r="AF12" s="260"/>
+      <c r="AG12" s="260"/>
+      <c r="AH12" s="260"/>
+      <c r="AI12" s="260"/>
+      <c r="AJ12" s="260"/>
+      <c r="AK12" s="260"/>
+      <c r="AL12" s="260"/>
+      <c r="AM12" s="261"/>
+      <c r="AN12" s="245"/>
+      <c r="AO12" s="246"/>
+      <c r="AP12" s="246"/>
+      <c r="AQ12" s="246"/>
+      <c r="AR12" s="247"/>
+      <c r="AS12" s="245"/>
+      <c r="AT12" s="246"/>
+      <c r="AU12" s="246"/>
+      <c r="AV12" s="246"/>
+      <c r="AW12" s="247"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="56"/>
-      <c r="B13" s="264"/>
-      <c r="C13" s="265"/>
-      <c r="D13" s="266"/>
-      <c r="E13" s="256"/>
-      <c r="F13" s="256"/>
-      <c r="G13" s="256"/>
-      <c r="H13" s="256"/>
-      <c r="I13" s="256"/>
-      <c r="J13" s="257"/>
-      <c r="K13" s="258"/>
-      <c r="L13" s="259"/>
-      <c r="M13" s="278"/>
-      <c r="N13" s="268"/>
-      <c r="O13" s="268"/>
-      <c r="P13" s="268"/>
-      <c r="Q13" s="268"/>
-      <c r="R13" s="269"/>
-      <c r="S13" s="254"/>
-      <c r="T13" s="254"/>
-      <c r="U13" s="254"/>
-      <c r="V13" s="270"/>
-      <c r="W13" s="271"/>
-      <c r="X13" s="271"/>
-      <c r="Y13" s="271"/>
-      <c r="Z13" s="271"/>
-      <c r="AA13" s="271"/>
-      <c r="AB13" s="271"/>
-      <c r="AC13" s="271"/>
-      <c r="AD13" s="271"/>
-      <c r="AE13" s="271"/>
-      <c r="AF13" s="271"/>
-      <c r="AG13" s="271"/>
-      <c r="AH13" s="271"/>
-      <c r="AI13" s="271"/>
-      <c r="AJ13" s="271"/>
-      <c r="AK13" s="271"/>
-      <c r="AL13" s="271"/>
-      <c r="AM13" s="272"/>
-      <c r="AN13" s="273"/>
-      <c r="AO13" s="274"/>
-      <c r="AP13" s="274"/>
-      <c r="AQ13" s="274"/>
-      <c r="AR13" s="275"/>
-      <c r="AS13" s="273"/>
-      <c r="AT13" s="274"/>
-      <c r="AU13" s="274"/>
-      <c r="AV13" s="274"/>
-      <c r="AW13" s="275"/>
+      <c r="B13" s="248"/>
+      <c r="C13" s="249"/>
+      <c r="D13" s="250"/>
+      <c r="E13" s="251"/>
+      <c r="F13" s="251"/>
+      <c r="G13" s="251"/>
+      <c r="H13" s="251"/>
+      <c r="I13" s="251"/>
+      <c r="J13" s="252"/>
+      <c r="K13" s="253"/>
+      <c r="L13" s="254"/>
+      <c r="M13" s="262"/>
+      <c r="N13" s="263"/>
+      <c r="O13" s="263"/>
+      <c r="P13" s="263"/>
+      <c r="Q13" s="263"/>
+      <c r="R13" s="264"/>
+      <c r="S13" s="258"/>
+      <c r="T13" s="258"/>
+      <c r="U13" s="258"/>
+      <c r="V13" s="259"/>
+      <c r="W13" s="260"/>
+      <c r="X13" s="260"/>
+      <c r="Y13" s="260"/>
+      <c r="Z13" s="260"/>
+      <c r="AA13" s="260"/>
+      <c r="AB13" s="260"/>
+      <c r="AC13" s="260"/>
+      <c r="AD13" s="260"/>
+      <c r="AE13" s="260"/>
+      <c r="AF13" s="260"/>
+      <c r="AG13" s="260"/>
+      <c r="AH13" s="260"/>
+      <c r="AI13" s="260"/>
+      <c r="AJ13" s="260"/>
+      <c r="AK13" s="260"/>
+      <c r="AL13" s="260"/>
+      <c r="AM13" s="261"/>
+      <c r="AN13" s="245"/>
+      <c r="AO13" s="246"/>
+      <c r="AP13" s="246"/>
+      <c r="AQ13" s="246"/>
+      <c r="AR13" s="247"/>
+      <c r="AS13" s="245"/>
+      <c r="AT13" s="246"/>
+      <c r="AU13" s="246"/>
+      <c r="AV13" s="246"/>
+      <c r="AW13" s="247"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="56"/>
-      <c r="B14" s="264"/>
-      <c r="C14" s="265"/>
-      <c r="D14" s="266"/>
-      <c r="E14" s="256"/>
-      <c r="F14" s="256"/>
-      <c r="G14" s="256"/>
-      <c r="H14" s="256"/>
-      <c r="I14" s="256"/>
-      <c r="J14" s="257"/>
-      <c r="K14" s="258"/>
-      <c r="L14" s="259"/>
-      <c r="M14" s="278"/>
-      <c r="N14" s="268"/>
-      <c r="O14" s="268"/>
-      <c r="P14" s="268"/>
-      <c r="Q14" s="268"/>
-      <c r="R14" s="269"/>
-      <c r="S14" s="254"/>
-      <c r="T14" s="254"/>
-      <c r="U14" s="254"/>
-      <c r="V14" s="279"/>
-      <c r="W14" s="263"/>
-      <c r="X14" s="263"/>
-      <c r="Y14" s="263"/>
-      <c r="Z14" s="263"/>
-      <c r="AA14" s="263"/>
-      <c r="AB14" s="263"/>
-      <c r="AC14" s="263"/>
-      <c r="AD14" s="263"/>
-      <c r="AE14" s="263"/>
-      <c r="AF14" s="263"/>
-      <c r="AG14" s="263"/>
-      <c r="AH14" s="263"/>
-      <c r="AI14" s="263"/>
-      <c r="AJ14" s="263"/>
-      <c r="AK14" s="263"/>
-      <c r="AL14" s="263"/>
-      <c r="AM14" s="263"/>
-      <c r="AN14" s="254"/>
-      <c r="AO14" s="254"/>
-      <c r="AP14" s="254"/>
-      <c r="AQ14" s="254"/>
-      <c r="AR14" s="254"/>
-      <c r="AS14" s="273"/>
-      <c r="AT14" s="274"/>
-      <c r="AU14" s="274"/>
-      <c r="AV14" s="274"/>
-      <c r="AW14" s="275"/>
+      <c r="B14" s="248"/>
+      <c r="C14" s="249"/>
+      <c r="D14" s="250"/>
+      <c r="E14" s="251"/>
+      <c r="F14" s="251"/>
+      <c r="G14" s="251"/>
+      <c r="H14" s="251"/>
+      <c r="I14" s="251"/>
+      <c r="J14" s="252"/>
+      <c r="K14" s="253"/>
+      <c r="L14" s="254"/>
+      <c r="M14" s="262"/>
+      <c r="N14" s="263"/>
+      <c r="O14" s="263"/>
+      <c r="P14" s="263"/>
+      <c r="Q14" s="263"/>
+      <c r="R14" s="264"/>
+      <c r="S14" s="258"/>
+      <c r="T14" s="258"/>
+      <c r="U14" s="258"/>
+      <c r="V14" s="268"/>
+      <c r="W14" s="269"/>
+      <c r="X14" s="269"/>
+      <c r="Y14" s="269"/>
+      <c r="Z14" s="269"/>
+      <c r="AA14" s="269"/>
+      <c r="AB14" s="269"/>
+      <c r="AC14" s="269"/>
+      <c r="AD14" s="269"/>
+      <c r="AE14" s="269"/>
+      <c r="AF14" s="269"/>
+      <c r="AG14" s="269"/>
+      <c r="AH14" s="269"/>
+      <c r="AI14" s="269"/>
+      <c r="AJ14" s="269"/>
+      <c r="AK14" s="269"/>
+      <c r="AL14" s="269"/>
+      <c r="AM14" s="269"/>
+      <c r="AN14" s="258"/>
+      <c r="AO14" s="258"/>
+      <c r="AP14" s="258"/>
+      <c r="AQ14" s="258"/>
+      <c r="AR14" s="258"/>
+      <c r="AS14" s="245"/>
+      <c r="AT14" s="246"/>
+      <c r="AU14" s="246"/>
+      <c r="AV14" s="246"/>
+      <c r="AW14" s="247"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="56"/>
-      <c r="B15" s="264"/>
-      <c r="C15" s="265"/>
-      <c r="D15" s="266"/>
-      <c r="E15" s="256"/>
-      <c r="F15" s="256"/>
-      <c r="G15" s="256"/>
-      <c r="H15" s="256"/>
-      <c r="I15" s="256"/>
-      <c r="J15" s="257"/>
-      <c r="K15" s="258"/>
-      <c r="L15" s="259"/>
-      <c r="M15" s="267"/>
-      <c r="N15" s="268"/>
-      <c r="O15" s="268"/>
-      <c r="P15" s="268"/>
-      <c r="Q15" s="268"/>
-      <c r="R15" s="269"/>
-      <c r="S15" s="254"/>
-      <c r="T15" s="254"/>
-      <c r="U15" s="254"/>
-      <c r="V15" s="270"/>
-      <c r="W15" s="271"/>
-      <c r="X15" s="271"/>
-      <c r="Y15" s="271"/>
-      <c r="Z15" s="271"/>
-      <c r="AA15" s="271"/>
-      <c r="AB15" s="271"/>
-      <c r="AC15" s="271"/>
-      <c r="AD15" s="271"/>
-      <c r="AE15" s="271"/>
-      <c r="AF15" s="271"/>
-      <c r="AG15" s="271"/>
-      <c r="AH15" s="271"/>
-      <c r="AI15" s="271"/>
-      <c r="AJ15" s="271"/>
-      <c r="AK15" s="271"/>
-      <c r="AL15" s="271"/>
-      <c r="AM15" s="272"/>
-      <c r="AN15" s="273"/>
-      <c r="AO15" s="274"/>
-      <c r="AP15" s="274"/>
-      <c r="AQ15" s="274"/>
-      <c r="AR15" s="275"/>
-      <c r="AS15" s="273"/>
-      <c r="AT15" s="274"/>
-      <c r="AU15" s="274"/>
-      <c r="AV15" s="274"/>
-      <c r="AW15" s="275"/>
+      <c r="B15" s="248"/>
+      <c r="C15" s="249"/>
+      <c r="D15" s="250"/>
+      <c r="E15" s="251"/>
+      <c r="F15" s="251"/>
+      <c r="G15" s="251"/>
+      <c r="H15" s="251"/>
+      <c r="I15" s="251"/>
+      <c r="J15" s="252"/>
+      <c r="K15" s="253"/>
+      <c r="L15" s="254"/>
+      <c r="M15" s="265"/>
+      <c r="N15" s="263"/>
+      <c r="O15" s="263"/>
+      <c r="P15" s="263"/>
+      <c r="Q15" s="263"/>
+      <c r="R15" s="264"/>
+      <c r="S15" s="258"/>
+      <c r="T15" s="258"/>
+      <c r="U15" s="258"/>
+      <c r="V15" s="259"/>
+      <c r="W15" s="260"/>
+      <c r="X15" s="260"/>
+      <c r="Y15" s="260"/>
+      <c r="Z15" s="260"/>
+      <c r="AA15" s="260"/>
+      <c r="AB15" s="260"/>
+      <c r="AC15" s="260"/>
+      <c r="AD15" s="260"/>
+      <c r="AE15" s="260"/>
+      <c r="AF15" s="260"/>
+      <c r="AG15" s="260"/>
+      <c r="AH15" s="260"/>
+      <c r="AI15" s="260"/>
+      <c r="AJ15" s="260"/>
+      <c r="AK15" s="260"/>
+      <c r="AL15" s="260"/>
+      <c r="AM15" s="261"/>
+      <c r="AN15" s="245"/>
+      <c r="AO15" s="246"/>
+      <c r="AP15" s="246"/>
+      <c r="AQ15" s="246"/>
+      <c r="AR15" s="247"/>
+      <c r="AS15" s="245"/>
+      <c r="AT15" s="246"/>
+      <c r="AU15" s="246"/>
+      <c r="AV15" s="246"/>
+      <c r="AW15" s="247"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="56"/>
-      <c r="B16" s="264"/>
-      <c r="C16" s="265"/>
-      <c r="D16" s="266"/>
-      <c r="E16" s="256"/>
-      <c r="F16" s="256"/>
-      <c r="G16" s="256"/>
-      <c r="H16" s="256"/>
-      <c r="I16" s="256"/>
-      <c r="J16" s="257"/>
-      <c r="K16" s="258"/>
-      <c r="L16" s="259"/>
-      <c r="M16" s="267"/>
-      <c r="N16" s="268"/>
-      <c r="O16" s="268"/>
-      <c r="P16" s="268"/>
-      <c r="Q16" s="268"/>
-      <c r="R16" s="269"/>
-      <c r="S16" s="254"/>
-      <c r="T16" s="254"/>
-      <c r="U16" s="254"/>
-      <c r="V16" s="270"/>
-      <c r="W16" s="271"/>
-      <c r="X16" s="271"/>
-      <c r="Y16" s="271"/>
-      <c r="Z16" s="271"/>
-      <c r="AA16" s="271"/>
-      <c r="AB16" s="271"/>
-      <c r="AC16" s="271"/>
-      <c r="AD16" s="271"/>
-      <c r="AE16" s="271"/>
-      <c r="AF16" s="271"/>
-      <c r="AG16" s="271"/>
-      <c r="AH16" s="271"/>
-      <c r="AI16" s="271"/>
-      <c r="AJ16" s="271"/>
-      <c r="AK16" s="271"/>
-      <c r="AL16" s="271"/>
-      <c r="AM16" s="272"/>
-      <c r="AN16" s="273"/>
-      <c r="AO16" s="274"/>
-      <c r="AP16" s="274"/>
-      <c r="AQ16" s="274"/>
-      <c r="AR16" s="275"/>
-      <c r="AS16" s="273"/>
-      <c r="AT16" s="274"/>
-      <c r="AU16" s="274"/>
-      <c r="AV16" s="274"/>
-      <c r="AW16" s="275"/>
+      <c r="B16" s="248"/>
+      <c r="C16" s="249"/>
+      <c r="D16" s="250"/>
+      <c r="E16" s="251"/>
+      <c r="F16" s="251"/>
+      <c r="G16" s="251"/>
+      <c r="H16" s="251"/>
+      <c r="I16" s="251"/>
+      <c r="J16" s="252"/>
+      <c r="K16" s="253"/>
+      <c r="L16" s="254"/>
+      <c r="M16" s="265"/>
+      <c r="N16" s="263"/>
+      <c r="O16" s="263"/>
+      <c r="P16" s="263"/>
+      <c r="Q16" s="263"/>
+      <c r="R16" s="264"/>
+      <c r="S16" s="258"/>
+      <c r="T16" s="258"/>
+      <c r="U16" s="258"/>
+      <c r="V16" s="259"/>
+      <c r="W16" s="260"/>
+      <c r="X16" s="260"/>
+      <c r="Y16" s="260"/>
+      <c r="Z16" s="260"/>
+      <c r="AA16" s="260"/>
+      <c r="AB16" s="260"/>
+      <c r="AC16" s="260"/>
+      <c r="AD16" s="260"/>
+      <c r="AE16" s="260"/>
+      <c r="AF16" s="260"/>
+      <c r="AG16" s="260"/>
+      <c r="AH16" s="260"/>
+      <c r="AI16" s="260"/>
+      <c r="AJ16" s="260"/>
+      <c r="AK16" s="260"/>
+      <c r="AL16" s="260"/>
+      <c r="AM16" s="261"/>
+      <c r="AN16" s="245"/>
+      <c r="AO16" s="246"/>
+      <c r="AP16" s="246"/>
+      <c r="AQ16" s="246"/>
+      <c r="AR16" s="247"/>
+      <c r="AS16" s="245"/>
+      <c r="AT16" s="246"/>
+      <c r="AU16" s="246"/>
+      <c r="AV16" s="246"/>
+      <c r="AW16" s="247"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="56"/>
-      <c r="B17" s="264"/>
-      <c r="C17" s="265"/>
-      <c r="D17" s="266"/>
-      <c r="E17" s="256"/>
-      <c r="F17" s="256"/>
-      <c r="G17" s="256"/>
-      <c r="H17" s="256"/>
-      <c r="I17" s="256"/>
-      <c r="J17" s="257"/>
-      <c r="K17" s="258"/>
-      <c r="L17" s="259"/>
-      <c r="M17" s="267"/>
-      <c r="N17" s="268"/>
-      <c r="O17" s="268"/>
-      <c r="P17" s="268"/>
-      <c r="Q17" s="268"/>
-      <c r="R17" s="280"/>
-      <c r="S17" s="281"/>
-      <c r="T17" s="281"/>
-      <c r="U17" s="281"/>
-      <c r="V17" s="270"/>
-      <c r="W17" s="271"/>
-      <c r="X17" s="271"/>
-      <c r="Y17" s="271"/>
-      <c r="Z17" s="271"/>
-      <c r="AA17" s="271"/>
-      <c r="AB17" s="271"/>
-      <c r="AC17" s="271"/>
-      <c r="AD17" s="271"/>
-      <c r="AE17" s="271"/>
-      <c r="AF17" s="271"/>
-      <c r="AG17" s="271"/>
-      <c r="AH17" s="271"/>
-      <c r="AI17" s="271"/>
-      <c r="AJ17" s="271"/>
-      <c r="AK17" s="271"/>
-      <c r="AL17" s="271"/>
-      <c r="AM17" s="272"/>
-      <c r="AN17" s="273"/>
-      <c r="AO17" s="274"/>
-      <c r="AP17" s="274"/>
-      <c r="AQ17" s="274"/>
-      <c r="AR17" s="275"/>
-      <c r="AS17" s="273"/>
-      <c r="AT17" s="274"/>
-      <c r="AU17" s="274"/>
-      <c r="AV17" s="274"/>
-      <c r="AW17" s="275"/>
+      <c r="B17" s="248"/>
+      <c r="C17" s="249"/>
+      <c r="D17" s="250"/>
+      <c r="E17" s="251"/>
+      <c r="F17" s="251"/>
+      <c r="G17" s="251"/>
+      <c r="H17" s="251"/>
+      <c r="I17" s="251"/>
+      <c r="J17" s="252"/>
+      <c r="K17" s="253"/>
+      <c r="L17" s="254"/>
+      <c r="M17" s="265"/>
+      <c r="N17" s="263"/>
+      <c r="O17" s="263"/>
+      <c r="P17" s="263"/>
+      <c r="Q17" s="263"/>
+      <c r="R17" s="266"/>
+      <c r="S17" s="267"/>
+      <c r="T17" s="267"/>
+      <c r="U17" s="267"/>
+      <c r="V17" s="259"/>
+      <c r="W17" s="260"/>
+      <c r="X17" s="260"/>
+      <c r="Y17" s="260"/>
+      <c r="Z17" s="260"/>
+      <c r="AA17" s="260"/>
+      <c r="AB17" s="260"/>
+      <c r="AC17" s="260"/>
+      <c r="AD17" s="260"/>
+      <c r="AE17" s="260"/>
+      <c r="AF17" s="260"/>
+      <c r="AG17" s="260"/>
+      <c r="AH17" s="260"/>
+      <c r="AI17" s="260"/>
+      <c r="AJ17" s="260"/>
+      <c r="AK17" s="260"/>
+      <c r="AL17" s="260"/>
+      <c r="AM17" s="261"/>
+      <c r="AN17" s="245"/>
+      <c r="AO17" s="246"/>
+      <c r="AP17" s="246"/>
+      <c r="AQ17" s="246"/>
+      <c r="AR17" s="247"/>
+      <c r="AS17" s="245"/>
+      <c r="AT17" s="246"/>
+      <c r="AU17" s="246"/>
+      <c r="AV17" s="246"/>
+      <c r="AW17" s="247"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
-      <c r="B18" s="264"/>
-      <c r="C18" s="265"/>
-      <c r="D18" s="266"/>
-      <c r="E18" s="256"/>
-      <c r="F18" s="256"/>
-      <c r="G18" s="256"/>
-      <c r="H18" s="256"/>
-      <c r="I18" s="256"/>
-      <c r="J18" s="257"/>
-      <c r="K18" s="258"/>
-      <c r="L18" s="259"/>
-      <c r="M18" s="278"/>
-      <c r="N18" s="268"/>
-      <c r="O18" s="268"/>
-      <c r="P18" s="268"/>
-      <c r="Q18" s="268"/>
-      <c r="R18" s="269"/>
-      <c r="S18" s="254"/>
-      <c r="T18" s="254"/>
-      <c r="U18" s="254"/>
-      <c r="V18" s="270"/>
-      <c r="W18" s="271"/>
-      <c r="X18" s="271"/>
-      <c r="Y18" s="271"/>
-      <c r="Z18" s="271"/>
-      <c r="AA18" s="271"/>
-      <c r="AB18" s="271"/>
-      <c r="AC18" s="271"/>
-      <c r="AD18" s="271"/>
-      <c r="AE18" s="271"/>
-      <c r="AF18" s="271"/>
-      <c r="AG18" s="271"/>
-      <c r="AH18" s="271"/>
-      <c r="AI18" s="271"/>
-      <c r="AJ18" s="271"/>
-      <c r="AK18" s="271"/>
-      <c r="AL18" s="271"/>
-      <c r="AM18" s="272"/>
-      <c r="AN18" s="273"/>
-      <c r="AO18" s="274"/>
-      <c r="AP18" s="274"/>
-      <c r="AQ18" s="274"/>
-      <c r="AR18" s="275"/>
-      <c r="AS18" s="273"/>
-      <c r="AT18" s="274"/>
-      <c r="AU18" s="274"/>
-      <c r="AV18" s="274"/>
-      <c r="AW18" s="275"/>
+      <c r="B18" s="248"/>
+      <c r="C18" s="249"/>
+      <c r="D18" s="250"/>
+      <c r="E18" s="251"/>
+      <c r="F18" s="251"/>
+      <c r="G18" s="251"/>
+      <c r="H18" s="251"/>
+      <c r="I18" s="251"/>
+      <c r="J18" s="252"/>
+      <c r="K18" s="253"/>
+      <c r="L18" s="254"/>
+      <c r="M18" s="262"/>
+      <c r="N18" s="263"/>
+      <c r="O18" s="263"/>
+      <c r="P18" s="263"/>
+      <c r="Q18" s="263"/>
+      <c r="R18" s="264"/>
+      <c r="S18" s="258"/>
+      <c r="T18" s="258"/>
+      <c r="U18" s="258"/>
+      <c r="V18" s="259"/>
+      <c r="W18" s="260"/>
+      <c r="X18" s="260"/>
+      <c r="Y18" s="260"/>
+      <c r="Z18" s="260"/>
+      <c r="AA18" s="260"/>
+      <c r="AB18" s="260"/>
+      <c r="AC18" s="260"/>
+      <c r="AD18" s="260"/>
+      <c r="AE18" s="260"/>
+      <c r="AF18" s="260"/>
+      <c r="AG18" s="260"/>
+      <c r="AH18" s="260"/>
+      <c r="AI18" s="260"/>
+      <c r="AJ18" s="260"/>
+      <c r="AK18" s="260"/>
+      <c r="AL18" s="260"/>
+      <c r="AM18" s="261"/>
+      <c r="AN18" s="245"/>
+      <c r="AO18" s="246"/>
+      <c r="AP18" s="246"/>
+      <c r="AQ18" s="246"/>
+      <c r="AR18" s="247"/>
+      <c r="AS18" s="245"/>
+      <c r="AT18" s="246"/>
+      <c r="AU18" s="246"/>
+      <c r="AV18" s="246"/>
+      <c r="AW18" s="247"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="56"/>
-      <c r="B19" s="264"/>
-      <c r="C19" s="265"/>
-      <c r="D19" s="266"/>
-      <c r="E19" s="256"/>
-      <c r="F19" s="256"/>
-      <c r="G19" s="256"/>
-      <c r="H19" s="256"/>
-      <c r="I19" s="256"/>
-      <c r="J19" s="257"/>
-      <c r="K19" s="258"/>
-      <c r="L19" s="259"/>
-      <c r="M19" s="267"/>
-      <c r="N19" s="268"/>
-      <c r="O19" s="268"/>
-      <c r="P19" s="268"/>
-      <c r="Q19" s="268"/>
-      <c r="R19" s="269"/>
-      <c r="S19" s="254"/>
-      <c r="T19" s="254"/>
-      <c r="U19" s="254"/>
-      <c r="V19" s="270"/>
-      <c r="W19" s="271"/>
-      <c r="X19" s="271"/>
-      <c r="Y19" s="271"/>
-      <c r="Z19" s="271"/>
-      <c r="AA19" s="271"/>
-      <c r="AB19" s="271"/>
-      <c r="AC19" s="271"/>
-      <c r="AD19" s="271"/>
-      <c r="AE19" s="271"/>
-      <c r="AF19" s="271"/>
-      <c r="AG19" s="271"/>
-      <c r="AH19" s="271"/>
-      <c r="AI19" s="271"/>
-      <c r="AJ19" s="271"/>
-      <c r="AK19" s="271"/>
-      <c r="AL19" s="271"/>
-      <c r="AM19" s="272"/>
-      <c r="AN19" s="254"/>
-      <c r="AO19" s="254"/>
-      <c r="AP19" s="254"/>
-      <c r="AQ19" s="254"/>
-      <c r="AR19" s="254"/>
-      <c r="AS19" s="273"/>
-      <c r="AT19" s="274"/>
-      <c r="AU19" s="274"/>
-      <c r="AV19" s="274"/>
-      <c r="AW19" s="275"/>
+      <c r="B19" s="248"/>
+      <c r="C19" s="249"/>
+      <c r="D19" s="250"/>
+      <c r="E19" s="251"/>
+      <c r="F19" s="251"/>
+      <c r="G19" s="251"/>
+      <c r="H19" s="251"/>
+      <c r="I19" s="251"/>
+      <c r="J19" s="252"/>
+      <c r="K19" s="253"/>
+      <c r="L19" s="254"/>
+      <c r="M19" s="265"/>
+      <c r="N19" s="263"/>
+      <c r="O19" s="263"/>
+      <c r="P19" s="263"/>
+      <c r="Q19" s="263"/>
+      <c r="R19" s="264"/>
+      <c r="S19" s="258"/>
+      <c r="T19" s="258"/>
+      <c r="U19" s="258"/>
+      <c r="V19" s="259"/>
+      <c r="W19" s="260"/>
+      <c r="X19" s="260"/>
+      <c r="Y19" s="260"/>
+      <c r="Z19" s="260"/>
+      <c r="AA19" s="260"/>
+      <c r="AB19" s="260"/>
+      <c r="AC19" s="260"/>
+      <c r="AD19" s="260"/>
+      <c r="AE19" s="260"/>
+      <c r="AF19" s="260"/>
+      <c r="AG19" s="260"/>
+      <c r="AH19" s="260"/>
+      <c r="AI19" s="260"/>
+      <c r="AJ19" s="260"/>
+      <c r="AK19" s="260"/>
+      <c r="AL19" s="260"/>
+      <c r="AM19" s="261"/>
+      <c r="AN19" s="258"/>
+      <c r="AO19" s="258"/>
+      <c r="AP19" s="258"/>
+      <c r="AQ19" s="258"/>
+      <c r="AR19" s="258"/>
+      <c r="AS19" s="245"/>
+      <c r="AT19" s="246"/>
+      <c r="AU19" s="246"/>
+      <c r="AV19" s="246"/>
+      <c r="AW19" s="247"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="56"/>
-      <c r="B20" s="264"/>
-      <c r="C20" s="265"/>
-      <c r="D20" s="266"/>
-      <c r="E20" s="256"/>
-      <c r="F20" s="256"/>
-      <c r="G20" s="256"/>
-      <c r="H20" s="256"/>
-      <c r="I20" s="256"/>
-      <c r="J20" s="257"/>
-      <c r="K20" s="258"/>
-      <c r="L20" s="259"/>
-      <c r="M20" s="267"/>
-      <c r="N20" s="268"/>
-      <c r="O20" s="268"/>
-      <c r="P20" s="268"/>
-      <c r="Q20" s="268"/>
-      <c r="R20" s="269"/>
-      <c r="S20" s="273"/>
-      <c r="T20" s="274"/>
-      <c r="U20" s="275"/>
-      <c r="V20" s="270"/>
-      <c r="W20" s="271"/>
-      <c r="X20" s="271"/>
-      <c r="Y20" s="271"/>
-      <c r="Z20" s="271"/>
-      <c r="AA20" s="271"/>
-      <c r="AB20" s="271"/>
-      <c r="AC20" s="271"/>
-      <c r="AD20" s="271"/>
-      <c r="AE20" s="271"/>
-      <c r="AF20" s="271"/>
-      <c r="AG20" s="271"/>
-      <c r="AH20" s="271"/>
-      <c r="AI20" s="271"/>
-      <c r="AJ20" s="271"/>
-      <c r="AK20" s="271"/>
-      <c r="AL20" s="271"/>
-      <c r="AM20" s="272"/>
-      <c r="AN20" s="273"/>
-      <c r="AO20" s="274"/>
-      <c r="AP20" s="274"/>
-      <c r="AQ20" s="274"/>
-      <c r="AR20" s="275"/>
-      <c r="AS20" s="273"/>
-      <c r="AT20" s="274"/>
-      <c r="AU20" s="274"/>
-      <c r="AV20" s="274"/>
-      <c r="AW20" s="275"/>
+      <c r="B20" s="248"/>
+      <c r="C20" s="249"/>
+      <c r="D20" s="250"/>
+      <c r="E20" s="251"/>
+      <c r="F20" s="251"/>
+      <c r="G20" s="251"/>
+      <c r="H20" s="251"/>
+      <c r="I20" s="251"/>
+      <c r="J20" s="252"/>
+      <c r="K20" s="253"/>
+      <c r="L20" s="254"/>
+      <c r="M20" s="265"/>
+      <c r="N20" s="263"/>
+      <c r="O20" s="263"/>
+      <c r="P20" s="263"/>
+      <c r="Q20" s="263"/>
+      <c r="R20" s="264"/>
+      <c r="S20" s="245"/>
+      <c r="T20" s="246"/>
+      <c r="U20" s="247"/>
+      <c r="V20" s="259"/>
+      <c r="W20" s="260"/>
+      <c r="X20" s="260"/>
+      <c r="Y20" s="260"/>
+      <c r="Z20" s="260"/>
+      <c r="AA20" s="260"/>
+      <c r="AB20" s="260"/>
+      <c r="AC20" s="260"/>
+      <c r="AD20" s="260"/>
+      <c r="AE20" s="260"/>
+      <c r="AF20" s="260"/>
+      <c r="AG20" s="260"/>
+      <c r="AH20" s="260"/>
+      <c r="AI20" s="260"/>
+      <c r="AJ20" s="260"/>
+      <c r="AK20" s="260"/>
+      <c r="AL20" s="260"/>
+      <c r="AM20" s="261"/>
+      <c r="AN20" s="245"/>
+      <c r="AO20" s="246"/>
+      <c r="AP20" s="246"/>
+      <c r="AQ20" s="246"/>
+      <c r="AR20" s="247"/>
+      <c r="AS20" s="245"/>
+      <c r="AT20" s="246"/>
+      <c r="AU20" s="246"/>
+      <c r="AV20" s="246"/>
+      <c r="AW20" s="247"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="56"/>
-      <c r="B21" s="264"/>
-      <c r="C21" s="265"/>
-      <c r="D21" s="266"/>
-      <c r="E21" s="256"/>
-      <c r="F21" s="256"/>
-      <c r="G21" s="256"/>
-      <c r="H21" s="256"/>
-      <c r="I21" s="256"/>
-      <c r="J21" s="257"/>
-      <c r="K21" s="258"/>
-      <c r="L21" s="259"/>
-      <c r="M21" s="267"/>
-      <c r="N21" s="268"/>
-      <c r="O21" s="268"/>
-      <c r="P21" s="268"/>
-      <c r="Q21" s="268"/>
-      <c r="R21" s="269"/>
-      <c r="S21" s="254"/>
-      <c r="T21" s="254"/>
-      <c r="U21" s="254"/>
-      <c r="V21" s="270"/>
-      <c r="W21" s="271"/>
-      <c r="X21" s="271"/>
-      <c r="Y21" s="271"/>
-      <c r="Z21" s="271"/>
-      <c r="AA21" s="271"/>
-      <c r="AB21" s="271"/>
-      <c r="AC21" s="271"/>
-      <c r="AD21" s="271"/>
-      <c r="AE21" s="271"/>
-      <c r="AF21" s="271"/>
-      <c r="AG21" s="271"/>
-      <c r="AH21" s="271"/>
-      <c r="AI21" s="271"/>
-      <c r="AJ21" s="271"/>
-      <c r="AK21" s="271"/>
-      <c r="AL21" s="271"/>
-      <c r="AM21" s="272"/>
-      <c r="AN21" s="273"/>
-      <c r="AO21" s="274"/>
-      <c r="AP21" s="274"/>
-      <c r="AQ21" s="274"/>
-      <c r="AR21" s="275"/>
-      <c r="AS21" s="273"/>
-      <c r="AT21" s="274"/>
-      <c r="AU21" s="274"/>
-      <c r="AV21" s="274"/>
-      <c r="AW21" s="275"/>
+      <c r="B21" s="248"/>
+      <c r="C21" s="249"/>
+      <c r="D21" s="250"/>
+      <c r="E21" s="251"/>
+      <c r="F21" s="251"/>
+      <c r="G21" s="251"/>
+      <c r="H21" s="251"/>
+      <c r="I21" s="251"/>
+      <c r="J21" s="252"/>
+      <c r="K21" s="253"/>
+      <c r="L21" s="254"/>
+      <c r="M21" s="265"/>
+      <c r="N21" s="263"/>
+      <c r="O21" s="263"/>
+      <c r="P21" s="263"/>
+      <c r="Q21" s="263"/>
+      <c r="R21" s="264"/>
+      <c r="S21" s="258"/>
+      <c r="T21" s="258"/>
+      <c r="U21" s="258"/>
+      <c r="V21" s="259"/>
+      <c r="W21" s="260"/>
+      <c r="X21" s="260"/>
+      <c r="Y21" s="260"/>
+      <c r="Z21" s="260"/>
+      <c r="AA21" s="260"/>
+      <c r="AB21" s="260"/>
+      <c r="AC21" s="260"/>
+      <c r="AD21" s="260"/>
+      <c r="AE21" s="260"/>
+      <c r="AF21" s="260"/>
+      <c r="AG21" s="260"/>
+      <c r="AH21" s="260"/>
+      <c r="AI21" s="260"/>
+      <c r="AJ21" s="260"/>
+      <c r="AK21" s="260"/>
+      <c r="AL21" s="260"/>
+      <c r="AM21" s="261"/>
+      <c r="AN21" s="245"/>
+      <c r="AO21" s="246"/>
+      <c r="AP21" s="246"/>
+      <c r="AQ21" s="246"/>
+      <c r="AR21" s="247"/>
+      <c r="AS21" s="245"/>
+      <c r="AT21" s="246"/>
+      <c r="AU21" s="246"/>
+      <c r="AV21" s="246"/>
+      <c r="AW21" s="247"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="56"/>
-      <c r="B22" s="264"/>
-      <c r="C22" s="265"/>
-      <c r="D22" s="266"/>
-      <c r="E22" s="256"/>
-      <c r="F22" s="256"/>
-      <c r="G22" s="256"/>
-      <c r="H22" s="256"/>
-      <c r="I22" s="256"/>
-      <c r="J22" s="257"/>
-      <c r="K22" s="258"/>
-      <c r="L22" s="259"/>
-      <c r="M22" s="267"/>
-      <c r="N22" s="268"/>
-      <c r="O22" s="268"/>
-      <c r="P22" s="268"/>
-      <c r="Q22" s="268"/>
-      <c r="R22" s="269"/>
-      <c r="S22" s="254"/>
-      <c r="T22" s="254"/>
-      <c r="U22" s="254"/>
-      <c r="V22" s="270"/>
-      <c r="W22" s="271"/>
-      <c r="X22" s="271"/>
-      <c r="Y22" s="271"/>
-      <c r="Z22" s="271"/>
-      <c r="AA22" s="271"/>
-      <c r="AB22" s="271"/>
-      <c r="AC22" s="271"/>
-      <c r="AD22" s="271"/>
-      <c r="AE22" s="271"/>
-      <c r="AF22" s="271"/>
-      <c r="AG22" s="271"/>
-      <c r="AH22" s="271"/>
-      <c r="AI22" s="271"/>
-      <c r="AJ22" s="271"/>
-      <c r="AK22" s="271"/>
-      <c r="AL22" s="271"/>
-      <c r="AM22" s="272"/>
-      <c r="AN22" s="273"/>
-      <c r="AO22" s="274"/>
-      <c r="AP22" s="274"/>
-      <c r="AQ22" s="274"/>
-      <c r="AR22" s="275"/>
-      <c r="AS22" s="273"/>
-      <c r="AT22" s="274"/>
-      <c r="AU22" s="274"/>
-      <c r="AV22" s="274"/>
-      <c r="AW22" s="275"/>
+      <c r="B22" s="248"/>
+      <c r="C22" s="249"/>
+      <c r="D22" s="250"/>
+      <c r="E22" s="251"/>
+      <c r="F22" s="251"/>
+      <c r="G22" s="251"/>
+      <c r="H22" s="251"/>
+      <c r="I22" s="251"/>
+      <c r="J22" s="252"/>
+      <c r="K22" s="253"/>
+      <c r="L22" s="254"/>
+      <c r="M22" s="265"/>
+      <c r="N22" s="263"/>
+      <c r="O22" s="263"/>
+      <c r="P22" s="263"/>
+      <c r="Q22" s="263"/>
+      <c r="R22" s="264"/>
+      <c r="S22" s="258"/>
+      <c r="T22" s="258"/>
+      <c r="U22" s="258"/>
+      <c r="V22" s="259"/>
+      <c r="W22" s="260"/>
+      <c r="X22" s="260"/>
+      <c r="Y22" s="260"/>
+      <c r="Z22" s="260"/>
+      <c r="AA22" s="260"/>
+      <c r="AB22" s="260"/>
+      <c r="AC22" s="260"/>
+      <c r="AD22" s="260"/>
+      <c r="AE22" s="260"/>
+      <c r="AF22" s="260"/>
+      <c r="AG22" s="260"/>
+      <c r="AH22" s="260"/>
+      <c r="AI22" s="260"/>
+      <c r="AJ22" s="260"/>
+      <c r="AK22" s="260"/>
+      <c r="AL22" s="260"/>
+      <c r="AM22" s="261"/>
+      <c r="AN22" s="245"/>
+      <c r="AO22" s="246"/>
+      <c r="AP22" s="246"/>
+      <c r="AQ22" s="246"/>
+      <c r="AR22" s="247"/>
+      <c r="AS22" s="245"/>
+      <c r="AT22" s="246"/>
+      <c r="AU22" s="246"/>
+      <c r="AV22" s="246"/>
+      <c r="AW22" s="247"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="54"/>
-      <c r="B23" s="264"/>
-      <c r="C23" s="265"/>
-      <c r="D23" s="266"/>
-      <c r="E23" s="256"/>
-      <c r="F23" s="256"/>
-      <c r="G23" s="256"/>
-      <c r="H23" s="256"/>
-      <c r="I23" s="256"/>
-      <c r="J23" s="257"/>
-      <c r="K23" s="258"/>
-      <c r="L23" s="259"/>
-      <c r="M23" s="267"/>
-      <c r="N23" s="268"/>
-      <c r="O23" s="268"/>
-      <c r="P23" s="268"/>
-      <c r="Q23" s="268"/>
-      <c r="R23" s="269"/>
-      <c r="S23" s="254"/>
-      <c r="T23" s="254"/>
-      <c r="U23" s="254"/>
-      <c r="V23" s="270"/>
-      <c r="W23" s="271"/>
-      <c r="X23" s="271"/>
-      <c r="Y23" s="271"/>
-      <c r="Z23" s="271"/>
-      <c r="AA23" s="271"/>
-      <c r="AB23" s="271"/>
-      <c r="AC23" s="271"/>
-      <c r="AD23" s="271"/>
-      <c r="AE23" s="271"/>
-      <c r="AF23" s="271"/>
-      <c r="AG23" s="271"/>
-      <c r="AH23" s="271"/>
-      <c r="AI23" s="271"/>
-      <c r="AJ23" s="271"/>
-      <c r="AK23" s="271"/>
-      <c r="AL23" s="271"/>
-      <c r="AM23" s="272"/>
-      <c r="AN23" s="273"/>
-      <c r="AO23" s="274"/>
-      <c r="AP23" s="274"/>
-      <c r="AQ23" s="274"/>
-      <c r="AR23" s="275"/>
-      <c r="AS23" s="273"/>
-      <c r="AT23" s="274"/>
-      <c r="AU23" s="274"/>
-      <c r="AV23" s="274"/>
-      <c r="AW23" s="275"/>
+      <c r="B23" s="248"/>
+      <c r="C23" s="249"/>
+      <c r="D23" s="250"/>
+      <c r="E23" s="251"/>
+      <c r="F23" s="251"/>
+      <c r="G23" s="251"/>
+      <c r="H23" s="251"/>
+      <c r="I23" s="251"/>
+      <c r="J23" s="252"/>
+      <c r="K23" s="253"/>
+      <c r="L23" s="254"/>
+      <c r="M23" s="265"/>
+      <c r="N23" s="263"/>
+      <c r="O23" s="263"/>
+      <c r="P23" s="263"/>
+      <c r="Q23" s="263"/>
+      <c r="R23" s="264"/>
+      <c r="S23" s="258"/>
+      <c r="T23" s="258"/>
+      <c r="U23" s="258"/>
+      <c r="V23" s="259"/>
+      <c r="W23" s="260"/>
+      <c r="X23" s="260"/>
+      <c r="Y23" s="260"/>
+      <c r="Z23" s="260"/>
+      <c r="AA23" s="260"/>
+      <c r="AB23" s="260"/>
+      <c r="AC23" s="260"/>
+      <c r="AD23" s="260"/>
+      <c r="AE23" s="260"/>
+      <c r="AF23" s="260"/>
+      <c r="AG23" s="260"/>
+      <c r="AH23" s="260"/>
+      <c r="AI23" s="260"/>
+      <c r="AJ23" s="260"/>
+      <c r="AK23" s="260"/>
+      <c r="AL23" s="260"/>
+      <c r="AM23" s="261"/>
+      <c r="AN23" s="245"/>
+      <c r="AO23" s="246"/>
+      <c r="AP23" s="246"/>
+      <c r="AQ23" s="246"/>
+      <c r="AR23" s="247"/>
+      <c r="AS23" s="245"/>
+      <c r="AT23" s="246"/>
+      <c r="AU23" s="246"/>
+      <c r="AV23" s="246"/>
+      <c r="AW23" s="247"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="54"/>
-      <c r="B24" s="264"/>
-      <c r="C24" s="265"/>
-      <c r="D24" s="266"/>
-      <c r="E24" s="256"/>
-      <c r="F24" s="256"/>
-      <c r="G24" s="256"/>
-      <c r="H24" s="256"/>
-      <c r="I24" s="256"/>
-      <c r="J24" s="257"/>
-      <c r="K24" s="258"/>
-      <c r="L24" s="259"/>
-      <c r="M24" s="267"/>
-      <c r="N24" s="268"/>
-      <c r="O24" s="268"/>
-      <c r="P24" s="268"/>
-      <c r="Q24" s="268"/>
-      <c r="R24" s="269"/>
-      <c r="S24" s="254"/>
-      <c r="T24" s="254"/>
-      <c r="U24" s="254"/>
-      <c r="V24" s="270"/>
-      <c r="W24" s="271"/>
-      <c r="X24" s="271"/>
-      <c r="Y24" s="271"/>
-      <c r="Z24" s="271"/>
-      <c r="AA24" s="271"/>
-      <c r="AB24" s="271"/>
-      <c r="AC24" s="271"/>
-      <c r="AD24" s="271"/>
-      <c r="AE24" s="271"/>
-      <c r="AF24" s="271"/>
-      <c r="AG24" s="271"/>
-      <c r="AH24" s="271"/>
-      <c r="AI24" s="271"/>
-      <c r="AJ24" s="271"/>
-      <c r="AK24" s="271"/>
-      <c r="AL24" s="271"/>
-      <c r="AM24" s="272"/>
-      <c r="AN24" s="273"/>
-      <c r="AO24" s="274"/>
-      <c r="AP24" s="274"/>
-      <c r="AQ24" s="274"/>
-      <c r="AR24" s="275"/>
-      <c r="AS24" s="273"/>
-      <c r="AT24" s="274"/>
-      <c r="AU24" s="274"/>
-      <c r="AV24" s="274"/>
-      <c r="AW24" s="275"/>
+      <c r="B24" s="248"/>
+      <c r="C24" s="249"/>
+      <c r="D24" s="250"/>
+      <c r="E24" s="251"/>
+      <c r="F24" s="251"/>
+      <c r="G24" s="251"/>
+      <c r="H24" s="251"/>
+      <c r="I24" s="251"/>
+      <c r="J24" s="252"/>
+      <c r="K24" s="253"/>
+      <c r="L24" s="254"/>
+      <c r="M24" s="265"/>
+      <c r="N24" s="263"/>
+      <c r="O24" s="263"/>
+      <c r="P24" s="263"/>
+      <c r="Q24" s="263"/>
+      <c r="R24" s="264"/>
+      <c r="S24" s="258"/>
+      <c r="T24" s="258"/>
+      <c r="U24" s="258"/>
+      <c r="V24" s="259"/>
+      <c r="W24" s="260"/>
+      <c r="X24" s="260"/>
+      <c r="Y24" s="260"/>
+      <c r="Z24" s="260"/>
+      <c r="AA24" s="260"/>
+      <c r="AB24" s="260"/>
+      <c r="AC24" s="260"/>
+      <c r="AD24" s="260"/>
+      <c r="AE24" s="260"/>
+      <c r="AF24" s="260"/>
+      <c r="AG24" s="260"/>
+      <c r="AH24" s="260"/>
+      <c r="AI24" s="260"/>
+      <c r="AJ24" s="260"/>
+      <c r="AK24" s="260"/>
+      <c r="AL24" s="260"/>
+      <c r="AM24" s="261"/>
+      <c r="AN24" s="245"/>
+      <c r="AO24" s="246"/>
+      <c r="AP24" s="246"/>
+      <c r="AQ24" s="246"/>
+      <c r="AR24" s="247"/>
+      <c r="AS24" s="245"/>
+      <c r="AT24" s="246"/>
+      <c r="AU24" s="246"/>
+      <c r="AV24" s="246"/>
+      <c r="AW24" s="247"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="54"/>
-      <c r="B25" s="264"/>
-      <c r="C25" s="265"/>
-      <c r="D25" s="266"/>
-      <c r="E25" s="256"/>
-      <c r="F25" s="256"/>
-      <c r="G25" s="256"/>
-      <c r="H25" s="256"/>
-      <c r="I25" s="256"/>
-      <c r="J25" s="257"/>
-      <c r="K25" s="258"/>
-      <c r="L25" s="259"/>
-      <c r="M25" s="278"/>
-      <c r="N25" s="268"/>
-      <c r="O25" s="268"/>
-      <c r="P25" s="268"/>
-      <c r="Q25" s="268"/>
-      <c r="R25" s="269"/>
-      <c r="S25" s="254"/>
-      <c r="T25" s="254"/>
-      <c r="U25" s="254"/>
-      <c r="V25" s="270"/>
-      <c r="W25" s="271"/>
-      <c r="X25" s="271"/>
-      <c r="Y25" s="271"/>
-      <c r="Z25" s="271"/>
-      <c r="AA25" s="271"/>
-      <c r="AB25" s="271"/>
-      <c r="AC25" s="271"/>
-      <c r="AD25" s="271"/>
-      <c r="AE25" s="271"/>
-      <c r="AF25" s="271"/>
-      <c r="AG25" s="271"/>
-      <c r="AH25" s="271"/>
-      <c r="AI25" s="271"/>
-      <c r="AJ25" s="271"/>
-      <c r="AK25" s="271"/>
-      <c r="AL25" s="271"/>
-      <c r="AM25" s="272"/>
-      <c r="AN25" s="273"/>
-      <c r="AO25" s="274"/>
-      <c r="AP25" s="274"/>
-      <c r="AQ25" s="274"/>
-      <c r="AR25" s="275"/>
-      <c r="AS25" s="273"/>
-      <c r="AT25" s="274"/>
-      <c r="AU25" s="274"/>
-      <c r="AV25" s="274"/>
-      <c r="AW25" s="275"/>
+      <c r="B25" s="248"/>
+      <c r="C25" s="249"/>
+      <c r="D25" s="250"/>
+      <c r="E25" s="251"/>
+      <c r="F25" s="251"/>
+      <c r="G25" s="251"/>
+      <c r="H25" s="251"/>
+      <c r="I25" s="251"/>
+      <c r="J25" s="252"/>
+      <c r="K25" s="253"/>
+      <c r="L25" s="254"/>
+      <c r="M25" s="262"/>
+      <c r="N25" s="263"/>
+      <c r="O25" s="263"/>
+      <c r="P25" s="263"/>
+      <c r="Q25" s="263"/>
+      <c r="R25" s="264"/>
+      <c r="S25" s="258"/>
+      <c r="T25" s="258"/>
+      <c r="U25" s="258"/>
+      <c r="V25" s="259"/>
+      <c r="W25" s="260"/>
+      <c r="X25" s="260"/>
+      <c r="Y25" s="260"/>
+      <c r="Z25" s="260"/>
+      <c r="AA25" s="260"/>
+      <c r="AB25" s="260"/>
+      <c r="AC25" s="260"/>
+      <c r="AD25" s="260"/>
+      <c r="AE25" s="260"/>
+      <c r="AF25" s="260"/>
+      <c r="AG25" s="260"/>
+      <c r="AH25" s="260"/>
+      <c r="AI25" s="260"/>
+      <c r="AJ25" s="260"/>
+      <c r="AK25" s="260"/>
+      <c r="AL25" s="260"/>
+      <c r="AM25" s="261"/>
+      <c r="AN25" s="245"/>
+      <c r="AO25" s="246"/>
+      <c r="AP25" s="246"/>
+      <c r="AQ25" s="246"/>
+      <c r="AR25" s="247"/>
+      <c r="AS25" s="245"/>
+      <c r="AT25" s="246"/>
+      <c r="AU25" s="246"/>
+      <c r="AV25" s="246"/>
+      <c r="AW25" s="247"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="54"/>
-      <c r="B26" s="264"/>
-      <c r="C26" s="265"/>
-      <c r="D26" s="266"/>
-      <c r="E26" s="256"/>
-      <c r="F26" s="256"/>
-      <c r="G26" s="256"/>
-      <c r="H26" s="256"/>
-      <c r="I26" s="256"/>
-      <c r="J26" s="257"/>
-      <c r="K26" s="258"/>
-      <c r="L26" s="259"/>
-      <c r="M26" s="278"/>
-      <c r="N26" s="268"/>
-      <c r="O26" s="268"/>
-      <c r="P26" s="268"/>
-      <c r="Q26" s="268"/>
-      <c r="R26" s="269"/>
-      <c r="S26" s="254"/>
-      <c r="T26" s="254"/>
-      <c r="U26" s="254"/>
-      <c r="V26" s="270"/>
-      <c r="W26" s="271"/>
-      <c r="X26" s="271"/>
-      <c r="Y26" s="271"/>
-      <c r="Z26" s="271"/>
-      <c r="AA26" s="271"/>
-      <c r="AB26" s="271"/>
-      <c r="AC26" s="271"/>
-      <c r="AD26" s="271"/>
-      <c r="AE26" s="271"/>
-      <c r="AF26" s="271"/>
-      <c r="AG26" s="271"/>
-      <c r="AH26" s="271"/>
-      <c r="AI26" s="271"/>
-      <c r="AJ26" s="271"/>
-      <c r="AK26" s="271"/>
-      <c r="AL26" s="271"/>
-      <c r="AM26" s="272"/>
-      <c r="AN26" s="273"/>
-      <c r="AO26" s="274"/>
-      <c r="AP26" s="274"/>
-      <c r="AQ26" s="274"/>
-      <c r="AR26" s="275"/>
-      <c r="AS26" s="273"/>
-      <c r="AT26" s="274"/>
-      <c r="AU26" s="274"/>
-      <c r="AV26" s="274"/>
-      <c r="AW26" s="275"/>
+      <c r="B26" s="248"/>
+      <c r="C26" s="249"/>
+      <c r="D26" s="250"/>
+      <c r="E26" s="251"/>
+      <c r="F26" s="251"/>
+      <c r="G26" s="251"/>
+      <c r="H26" s="251"/>
+      <c r="I26" s="251"/>
+      <c r="J26" s="252"/>
+      <c r="K26" s="253"/>
+      <c r="L26" s="254"/>
+      <c r="M26" s="262"/>
+      <c r="N26" s="263"/>
+      <c r="O26" s="263"/>
+      <c r="P26" s="263"/>
+      <c r="Q26" s="263"/>
+      <c r="R26" s="264"/>
+      <c r="S26" s="258"/>
+      <c r="T26" s="258"/>
+      <c r="U26" s="258"/>
+      <c r="V26" s="259"/>
+      <c r="W26" s="260"/>
+      <c r="X26" s="260"/>
+      <c r="Y26" s="260"/>
+      <c r="Z26" s="260"/>
+      <c r="AA26" s="260"/>
+      <c r="AB26" s="260"/>
+      <c r="AC26" s="260"/>
+      <c r="AD26" s="260"/>
+      <c r="AE26" s="260"/>
+      <c r="AF26" s="260"/>
+      <c r="AG26" s="260"/>
+      <c r="AH26" s="260"/>
+      <c r="AI26" s="260"/>
+      <c r="AJ26" s="260"/>
+      <c r="AK26" s="260"/>
+      <c r="AL26" s="260"/>
+      <c r="AM26" s="261"/>
+      <c r="AN26" s="245"/>
+      <c r="AO26" s="246"/>
+      <c r="AP26" s="246"/>
+      <c r="AQ26" s="246"/>
+      <c r="AR26" s="247"/>
+      <c r="AS26" s="245"/>
+      <c r="AT26" s="246"/>
+      <c r="AU26" s="246"/>
+      <c r="AV26" s="246"/>
+      <c r="AW26" s="247"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="54"/>
-      <c r="B27" s="264"/>
-      <c r="C27" s="265"/>
-      <c r="D27" s="266"/>
-      <c r="E27" s="256"/>
-      <c r="F27" s="256"/>
-      <c r="G27" s="256"/>
-      <c r="H27" s="256"/>
-      <c r="I27" s="256"/>
-      <c r="J27" s="257"/>
-      <c r="K27" s="258"/>
-      <c r="L27" s="259"/>
-      <c r="M27" s="278"/>
-      <c r="N27" s="268"/>
-      <c r="O27" s="268"/>
-      <c r="P27" s="268"/>
-      <c r="Q27" s="268"/>
-      <c r="R27" s="269"/>
-      <c r="S27" s="254"/>
-      <c r="T27" s="254"/>
-      <c r="U27" s="254"/>
-      <c r="V27" s="270"/>
-      <c r="W27" s="271"/>
-      <c r="X27" s="271"/>
-      <c r="Y27" s="271"/>
-      <c r="Z27" s="271"/>
-      <c r="AA27" s="271"/>
-      <c r="AB27" s="271"/>
-      <c r="AC27" s="271"/>
-      <c r="AD27" s="271"/>
-      <c r="AE27" s="271"/>
-      <c r="AF27" s="271"/>
-      <c r="AG27" s="271"/>
-      <c r="AH27" s="271"/>
-      <c r="AI27" s="271"/>
-      <c r="AJ27" s="271"/>
-      <c r="AK27" s="271"/>
-      <c r="AL27" s="271"/>
-      <c r="AM27" s="272"/>
-      <c r="AN27" s="273"/>
-      <c r="AO27" s="274"/>
-      <c r="AP27" s="274"/>
-      <c r="AQ27" s="274"/>
-      <c r="AR27" s="275"/>
-      <c r="AS27" s="273"/>
-      <c r="AT27" s="274"/>
-      <c r="AU27" s="274"/>
-      <c r="AV27" s="274"/>
-      <c r="AW27" s="275"/>
+      <c r="B27" s="248"/>
+      <c r="C27" s="249"/>
+      <c r="D27" s="250"/>
+      <c r="E27" s="251"/>
+      <c r="F27" s="251"/>
+      <c r="G27" s="251"/>
+      <c r="H27" s="251"/>
+      <c r="I27" s="251"/>
+      <c r="J27" s="252"/>
+      <c r="K27" s="253"/>
+      <c r="L27" s="254"/>
+      <c r="M27" s="262"/>
+      <c r="N27" s="263"/>
+      <c r="O27" s="263"/>
+      <c r="P27" s="263"/>
+      <c r="Q27" s="263"/>
+      <c r="R27" s="264"/>
+      <c r="S27" s="258"/>
+      <c r="T27" s="258"/>
+      <c r="U27" s="258"/>
+      <c r="V27" s="259"/>
+      <c r="W27" s="260"/>
+      <c r="X27" s="260"/>
+      <c r="Y27" s="260"/>
+      <c r="Z27" s="260"/>
+      <c r="AA27" s="260"/>
+      <c r="AB27" s="260"/>
+      <c r="AC27" s="260"/>
+      <c r="AD27" s="260"/>
+      <c r="AE27" s="260"/>
+      <c r="AF27" s="260"/>
+      <c r="AG27" s="260"/>
+      <c r="AH27" s="260"/>
+      <c r="AI27" s="260"/>
+      <c r="AJ27" s="260"/>
+      <c r="AK27" s="260"/>
+      <c r="AL27" s="260"/>
+      <c r="AM27" s="261"/>
+      <c r="AN27" s="245"/>
+      <c r="AO27" s="246"/>
+      <c r="AP27" s="246"/>
+      <c r="AQ27" s="246"/>
+      <c r="AR27" s="247"/>
+      <c r="AS27" s="245"/>
+      <c r="AT27" s="246"/>
+      <c r="AU27" s="246"/>
+      <c r="AV27" s="246"/>
+      <c r="AW27" s="247"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="54"/>
-      <c r="B28" s="264"/>
-      <c r="C28" s="265"/>
-      <c r="D28" s="266"/>
-      <c r="E28" s="256"/>
-      <c r="F28" s="256"/>
-      <c r="G28" s="256"/>
-      <c r="H28" s="256"/>
-      <c r="I28" s="256"/>
-      <c r="J28" s="257"/>
-      <c r="K28" s="258"/>
-      <c r="L28" s="259"/>
-      <c r="M28" s="267"/>
-      <c r="N28" s="268"/>
-      <c r="O28" s="268"/>
-      <c r="P28" s="268"/>
-      <c r="Q28" s="268"/>
-      <c r="R28" s="269"/>
-      <c r="S28" s="254"/>
-      <c r="T28" s="254"/>
-      <c r="U28" s="254"/>
-      <c r="V28" s="270"/>
-      <c r="W28" s="271"/>
-      <c r="X28" s="271"/>
-      <c r="Y28" s="271"/>
-      <c r="Z28" s="271"/>
-      <c r="AA28" s="271"/>
-      <c r="AB28" s="271"/>
-      <c r="AC28" s="271"/>
-      <c r="AD28" s="271"/>
-      <c r="AE28" s="271"/>
-      <c r="AF28" s="271"/>
-      <c r="AG28" s="271"/>
-      <c r="AH28" s="271"/>
-      <c r="AI28" s="271"/>
-      <c r="AJ28" s="271"/>
-      <c r="AK28" s="271"/>
-      <c r="AL28" s="271"/>
-      <c r="AM28" s="272"/>
-      <c r="AN28" s="273"/>
-      <c r="AO28" s="274"/>
-      <c r="AP28" s="274"/>
-      <c r="AQ28" s="274"/>
-      <c r="AR28" s="275"/>
-      <c r="AS28" s="273"/>
-      <c r="AT28" s="274"/>
-      <c r="AU28" s="274"/>
-      <c r="AV28" s="274"/>
-      <c r="AW28" s="275"/>
+      <c r="B28" s="248"/>
+      <c r="C28" s="249"/>
+      <c r="D28" s="250"/>
+      <c r="E28" s="251"/>
+      <c r="F28" s="251"/>
+      <c r="G28" s="251"/>
+      <c r="H28" s="251"/>
+      <c r="I28" s="251"/>
+      <c r="J28" s="252"/>
+      <c r="K28" s="253"/>
+      <c r="L28" s="254"/>
+      <c r="M28" s="265"/>
+      <c r="N28" s="263"/>
+      <c r="O28" s="263"/>
+      <c r="P28" s="263"/>
+      <c r="Q28" s="263"/>
+      <c r="R28" s="264"/>
+      <c r="S28" s="258"/>
+      <c r="T28" s="258"/>
+      <c r="U28" s="258"/>
+      <c r="V28" s="259"/>
+      <c r="W28" s="260"/>
+      <c r="X28" s="260"/>
+      <c r="Y28" s="260"/>
+      <c r="Z28" s="260"/>
+      <c r="AA28" s="260"/>
+      <c r="AB28" s="260"/>
+      <c r="AC28" s="260"/>
+      <c r="AD28" s="260"/>
+      <c r="AE28" s="260"/>
+      <c r="AF28" s="260"/>
+      <c r="AG28" s="260"/>
+      <c r="AH28" s="260"/>
+      <c r="AI28" s="260"/>
+      <c r="AJ28" s="260"/>
+      <c r="AK28" s="260"/>
+      <c r="AL28" s="260"/>
+      <c r="AM28" s="261"/>
+      <c r="AN28" s="245"/>
+      <c r="AO28" s="246"/>
+      <c r="AP28" s="246"/>
+      <c r="AQ28" s="246"/>
+      <c r="AR28" s="247"/>
+      <c r="AS28" s="245"/>
+      <c r="AT28" s="246"/>
+      <c r="AU28" s="246"/>
+      <c r="AV28" s="246"/>
+      <c r="AW28" s="247"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="54"/>
-      <c r="B29" s="264"/>
-      <c r="C29" s="265"/>
-      <c r="D29" s="266"/>
-      <c r="E29" s="256"/>
-      <c r="F29" s="256"/>
-      <c r="G29" s="256"/>
-      <c r="H29" s="256"/>
-      <c r="I29" s="256"/>
-      <c r="J29" s="257"/>
-      <c r="K29" s="258"/>
-      <c r="L29" s="259"/>
-      <c r="M29" s="267"/>
-      <c r="N29" s="268"/>
-      <c r="O29" s="268"/>
-      <c r="P29" s="268"/>
-      <c r="Q29" s="268"/>
-      <c r="R29" s="269"/>
-      <c r="S29" s="254"/>
-      <c r="T29" s="254"/>
-      <c r="U29" s="254"/>
-      <c r="V29" s="270"/>
-      <c r="W29" s="271"/>
-      <c r="X29" s="271"/>
-      <c r="Y29" s="271"/>
-      <c r="Z29" s="271"/>
-      <c r="AA29" s="271"/>
-      <c r="AB29" s="271"/>
-      <c r="AC29" s="271"/>
-      <c r="AD29" s="271"/>
-      <c r="AE29" s="271"/>
-      <c r="AF29" s="271"/>
-      <c r="AG29" s="271"/>
-      <c r="AH29" s="271"/>
-      <c r="AI29" s="271"/>
-      <c r="AJ29" s="271"/>
-      <c r="AK29" s="271"/>
-      <c r="AL29" s="271"/>
-      <c r="AM29" s="272"/>
-      <c r="AN29" s="273"/>
-      <c r="AO29" s="274"/>
-      <c r="AP29" s="274"/>
-      <c r="AQ29" s="274"/>
-      <c r="AR29" s="275"/>
-      <c r="AS29" s="273"/>
-      <c r="AT29" s="274"/>
-      <c r="AU29" s="274"/>
-      <c r="AV29" s="274"/>
-      <c r="AW29" s="275"/>
+      <c r="B29" s="248"/>
+      <c r="C29" s="249"/>
+      <c r="D29" s="250"/>
+      <c r="E29" s="251"/>
+      <c r="F29" s="251"/>
+      <c r="G29" s="251"/>
+      <c r="H29" s="251"/>
+      <c r="I29" s="251"/>
+      <c r="J29" s="252"/>
+      <c r="K29" s="253"/>
+      <c r="L29" s="254"/>
+      <c r="M29" s="265"/>
+      <c r="N29" s="263"/>
+      <c r="O29" s="263"/>
+      <c r="P29" s="263"/>
+      <c r="Q29" s="263"/>
+      <c r="R29" s="264"/>
+      <c r="S29" s="258"/>
+      <c r="T29" s="258"/>
+      <c r="U29" s="258"/>
+      <c r="V29" s="259"/>
+      <c r="W29" s="260"/>
+      <c r="X29" s="260"/>
+      <c r="Y29" s="260"/>
+      <c r="Z29" s="260"/>
+      <c r="AA29" s="260"/>
+      <c r="AB29" s="260"/>
+      <c r="AC29" s="260"/>
+      <c r="AD29" s="260"/>
+      <c r="AE29" s="260"/>
+      <c r="AF29" s="260"/>
+      <c r="AG29" s="260"/>
+      <c r="AH29" s="260"/>
+      <c r="AI29" s="260"/>
+      <c r="AJ29" s="260"/>
+      <c r="AK29" s="260"/>
+      <c r="AL29" s="260"/>
+      <c r="AM29" s="261"/>
+      <c r="AN29" s="245"/>
+      <c r="AO29" s="246"/>
+      <c r="AP29" s="246"/>
+      <c r="AQ29" s="246"/>
+      <c r="AR29" s="247"/>
+      <c r="AS29" s="245"/>
+      <c r="AT29" s="246"/>
+      <c r="AU29" s="246"/>
+      <c r="AV29" s="246"/>
+      <c r="AW29" s="247"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="54"/>
-      <c r="B30" s="264"/>
-      <c r="C30" s="265"/>
-      <c r="D30" s="266"/>
-      <c r="E30" s="256"/>
-      <c r="F30" s="256"/>
-      <c r="G30" s="256"/>
-      <c r="H30" s="256"/>
-      <c r="I30" s="256"/>
-      <c r="J30" s="257"/>
-      <c r="K30" s="258"/>
-      <c r="L30" s="259"/>
-      <c r="M30" s="278"/>
-      <c r="N30" s="268"/>
-      <c r="O30" s="268"/>
-      <c r="P30" s="268"/>
-      <c r="Q30" s="268"/>
-      <c r="R30" s="269"/>
-      <c r="S30" s="254"/>
-      <c r="T30" s="254"/>
-      <c r="U30" s="254"/>
-      <c r="V30" s="270"/>
-      <c r="W30" s="271"/>
-      <c r="X30" s="271"/>
-      <c r="Y30" s="271"/>
-      <c r="Z30" s="271"/>
-      <c r="AA30" s="271"/>
-      <c r="AB30" s="271"/>
-      <c r="AC30" s="271"/>
-      <c r="AD30" s="271"/>
-      <c r="AE30" s="271"/>
-      <c r="AF30" s="271"/>
-      <c r="AG30" s="271"/>
-      <c r="AH30" s="271"/>
-      <c r="AI30" s="271"/>
-      <c r="AJ30" s="271"/>
-      <c r="AK30" s="271"/>
-      <c r="AL30" s="271"/>
-      <c r="AM30" s="272"/>
-      <c r="AN30" s="273"/>
-      <c r="AO30" s="274"/>
-      <c r="AP30" s="274"/>
-      <c r="AQ30" s="274"/>
-      <c r="AR30" s="275"/>
-      <c r="AS30" s="273"/>
-      <c r="AT30" s="274"/>
-      <c r="AU30" s="274"/>
-      <c r="AV30" s="274"/>
-      <c r="AW30" s="275"/>
+      <c r="B30" s="248"/>
+      <c r="C30" s="249"/>
+      <c r="D30" s="250"/>
+      <c r="E30" s="251"/>
+      <c r="F30" s="251"/>
+      <c r="G30" s="251"/>
+      <c r="H30" s="251"/>
+      <c r="I30" s="251"/>
+      <c r="J30" s="252"/>
+      <c r="K30" s="253"/>
+      <c r="L30" s="254"/>
+      <c r="M30" s="262"/>
+      <c r="N30" s="263"/>
+      <c r="O30" s="263"/>
+      <c r="P30" s="263"/>
+      <c r="Q30" s="263"/>
+      <c r="R30" s="264"/>
+      <c r="S30" s="258"/>
+      <c r="T30" s="258"/>
+      <c r="U30" s="258"/>
+      <c r="V30" s="259"/>
+      <c r="W30" s="260"/>
+      <c r="X30" s="260"/>
+      <c r="Y30" s="260"/>
+      <c r="Z30" s="260"/>
+      <c r="AA30" s="260"/>
+      <c r="AB30" s="260"/>
+      <c r="AC30" s="260"/>
+      <c r="AD30" s="260"/>
+      <c r="AE30" s="260"/>
+      <c r="AF30" s="260"/>
+      <c r="AG30" s="260"/>
+      <c r="AH30" s="260"/>
+      <c r="AI30" s="260"/>
+      <c r="AJ30" s="260"/>
+      <c r="AK30" s="260"/>
+      <c r="AL30" s="260"/>
+      <c r="AM30" s="261"/>
+      <c r="AN30" s="245"/>
+      <c r="AO30" s="246"/>
+      <c r="AP30" s="246"/>
+      <c r="AQ30" s="246"/>
+      <c r="AR30" s="247"/>
+      <c r="AS30" s="245"/>
+      <c r="AT30" s="246"/>
+      <c r="AU30" s="246"/>
+      <c r="AV30" s="246"/>
+      <c r="AW30" s="247"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="54"/>
-      <c r="B31" s="264"/>
-      <c r="C31" s="265"/>
-      <c r="D31" s="266"/>
-      <c r="E31" s="256"/>
-      <c r="F31" s="256"/>
-      <c r="G31" s="256"/>
-      <c r="H31" s="256"/>
-      <c r="I31" s="256"/>
-      <c r="J31" s="257"/>
-      <c r="K31" s="258"/>
-      <c r="L31" s="259"/>
-      <c r="M31" s="278"/>
-      <c r="N31" s="268"/>
-      <c r="O31" s="268"/>
-      <c r="P31" s="268"/>
-      <c r="Q31" s="268"/>
-      <c r="R31" s="269"/>
-      <c r="S31" s="254"/>
-      <c r="T31" s="254"/>
-      <c r="U31" s="254"/>
-      <c r="V31" s="270"/>
-      <c r="W31" s="271"/>
-      <c r="X31" s="271"/>
-      <c r="Y31" s="271"/>
-      <c r="Z31" s="271"/>
-      <c r="AA31" s="271"/>
-      <c r="AB31" s="271"/>
-      <c r="AC31" s="271"/>
-      <c r="AD31" s="271"/>
-      <c r="AE31" s="271"/>
-      <c r="AF31" s="271"/>
-      <c r="AG31" s="271"/>
-      <c r="AH31" s="271"/>
-      <c r="AI31" s="271"/>
-      <c r="AJ31" s="271"/>
-      <c r="AK31" s="271"/>
-      <c r="AL31" s="271"/>
-      <c r="AM31" s="272"/>
-      <c r="AN31" s="273"/>
-      <c r="AO31" s="274"/>
-      <c r="AP31" s="274"/>
-      <c r="AQ31" s="274"/>
-      <c r="AR31" s="275"/>
-      <c r="AS31" s="273"/>
-      <c r="AT31" s="274"/>
-      <c r="AU31" s="274"/>
-      <c r="AV31" s="274"/>
-      <c r="AW31" s="275"/>
+      <c r="B31" s="248"/>
+      <c r="C31" s="249"/>
+      <c r="D31" s="250"/>
+      <c r="E31" s="251"/>
+      <c r="F31" s="251"/>
+      <c r="G31" s="251"/>
+      <c r="H31" s="251"/>
+      <c r="I31" s="251"/>
+      <c r="J31" s="252"/>
+      <c r="K31" s="253"/>
+      <c r="L31" s="254"/>
+      <c r="M31" s="262"/>
+      <c r="N31" s="263"/>
+      <c r="O31" s="263"/>
+      <c r="P31" s="263"/>
+      <c r="Q31" s="263"/>
+      <c r="R31" s="264"/>
+      <c r="S31" s="258"/>
+      <c r="T31" s="258"/>
+      <c r="U31" s="258"/>
+      <c r="V31" s="259"/>
+      <c r="W31" s="260"/>
+      <c r="X31" s="260"/>
+      <c r="Y31" s="260"/>
+      <c r="Z31" s="260"/>
+      <c r="AA31" s="260"/>
+      <c r="AB31" s="260"/>
+      <c r="AC31" s="260"/>
+      <c r="AD31" s="260"/>
+      <c r="AE31" s="260"/>
+      <c r="AF31" s="260"/>
+      <c r="AG31" s="260"/>
+      <c r="AH31" s="260"/>
+      <c r="AI31" s="260"/>
+      <c r="AJ31" s="260"/>
+      <c r="AK31" s="260"/>
+      <c r="AL31" s="260"/>
+      <c r="AM31" s="261"/>
+      <c r="AN31" s="245"/>
+      <c r="AO31" s="246"/>
+      <c r="AP31" s="246"/>
+      <c r="AQ31" s="246"/>
+      <c r="AR31" s="247"/>
+      <c r="AS31" s="245"/>
+      <c r="AT31" s="246"/>
+      <c r="AU31" s="246"/>
+      <c r="AV31" s="246"/>
+      <c r="AW31" s="247"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="54"/>
-      <c r="B32" s="264"/>
-      <c r="C32" s="265"/>
-      <c r="D32" s="266"/>
-      <c r="E32" s="256"/>
-      <c r="F32" s="256"/>
-      <c r="G32" s="256"/>
-      <c r="H32" s="256"/>
-      <c r="I32" s="256"/>
-      <c r="J32" s="257"/>
-      <c r="K32" s="258"/>
-      <c r="L32" s="259"/>
-      <c r="M32" s="278"/>
-      <c r="N32" s="268"/>
-      <c r="O32" s="268"/>
-      <c r="P32" s="268"/>
-      <c r="Q32" s="268"/>
-      <c r="R32" s="269"/>
-      <c r="S32" s="254"/>
-      <c r="T32" s="254"/>
-      <c r="U32" s="254"/>
-      <c r="V32" s="270"/>
-      <c r="W32" s="271"/>
-      <c r="X32" s="271"/>
-      <c r="Y32" s="271"/>
-      <c r="Z32" s="271"/>
-      <c r="AA32" s="271"/>
-      <c r="AB32" s="271"/>
-      <c r="AC32" s="271"/>
-      <c r="AD32" s="271"/>
-      <c r="AE32" s="271"/>
-      <c r="AF32" s="271"/>
-      <c r="AG32" s="271"/>
-      <c r="AH32" s="271"/>
-      <c r="AI32" s="271"/>
-      <c r="AJ32" s="271"/>
-      <c r="AK32" s="271"/>
-      <c r="AL32" s="271"/>
-      <c r="AM32" s="272"/>
-      <c r="AN32" s="273"/>
-      <c r="AO32" s="274"/>
-      <c r="AP32" s="274"/>
-      <c r="AQ32" s="274"/>
-      <c r="AR32" s="275"/>
-      <c r="AS32" s="273"/>
-      <c r="AT32" s="274"/>
-      <c r="AU32" s="274"/>
-      <c r="AV32" s="274"/>
-      <c r="AW32" s="275"/>
+      <c r="B32" s="248"/>
+      <c r="C32" s="249"/>
+      <c r="D32" s="250"/>
+      <c r="E32" s="251"/>
+      <c r="F32" s="251"/>
+      <c r="G32" s="251"/>
+      <c r="H32" s="251"/>
+      <c r="I32" s="251"/>
+      <c r="J32" s="252"/>
+      <c r="K32" s="253"/>
+      <c r="L32" s="254"/>
+      <c r="M32" s="262"/>
+      <c r="N32" s="263"/>
+      <c r="O32" s="263"/>
+      <c r="P32" s="263"/>
+      <c r="Q32" s="263"/>
+      <c r="R32" s="264"/>
+      <c r="S32" s="258"/>
+      <c r="T32" s="258"/>
+      <c r="U32" s="258"/>
+      <c r="V32" s="259"/>
+      <c r="W32" s="260"/>
+      <c r="X32" s="260"/>
+      <c r="Y32" s="260"/>
+      <c r="Z32" s="260"/>
+      <c r="AA32" s="260"/>
+      <c r="AB32" s="260"/>
+      <c r="AC32" s="260"/>
+      <c r="AD32" s="260"/>
+      <c r="AE32" s="260"/>
+      <c r="AF32" s="260"/>
+      <c r="AG32" s="260"/>
+      <c r="AH32" s="260"/>
+      <c r="AI32" s="260"/>
+      <c r="AJ32" s="260"/>
+      <c r="AK32" s="260"/>
+      <c r="AL32" s="260"/>
+      <c r="AM32" s="261"/>
+      <c r="AN32" s="245"/>
+      <c r="AO32" s="246"/>
+      <c r="AP32" s="246"/>
+      <c r="AQ32" s="246"/>
+      <c r="AR32" s="247"/>
+      <c r="AS32" s="245"/>
+      <c r="AT32" s="246"/>
+      <c r="AU32" s="246"/>
+      <c r="AV32" s="246"/>
+      <c r="AW32" s="247"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="264"/>
-      <c r="C33" s="265"/>
-      <c r="D33" s="266"/>
-      <c r="E33" s="256"/>
-      <c r="F33" s="256"/>
-      <c r="G33" s="256"/>
-      <c r="H33" s="256"/>
-      <c r="I33" s="256"/>
-      <c r="J33" s="257"/>
-      <c r="K33" s="258"/>
-      <c r="L33" s="259"/>
-      <c r="M33" s="278"/>
-      <c r="N33" s="268"/>
-      <c r="O33" s="268"/>
-      <c r="P33" s="268"/>
-      <c r="Q33" s="268"/>
-      <c r="R33" s="269"/>
-      <c r="S33" s="254"/>
-      <c r="T33" s="254"/>
-      <c r="U33" s="254"/>
-      <c r="V33" s="270"/>
-      <c r="W33" s="271"/>
-      <c r="X33" s="271"/>
-      <c r="Y33" s="271"/>
-      <c r="Z33" s="271"/>
-      <c r="AA33" s="271"/>
-      <c r="AB33" s="271"/>
-      <c r="AC33" s="271"/>
-      <c r="AD33" s="271"/>
-      <c r="AE33" s="271"/>
-      <c r="AF33" s="271"/>
-      <c r="AG33" s="271"/>
-      <c r="AH33" s="271"/>
-      <c r="AI33" s="271"/>
-      <c r="AJ33" s="271"/>
-      <c r="AK33" s="271"/>
-      <c r="AL33" s="271"/>
-      <c r="AM33" s="272"/>
-      <c r="AN33" s="273"/>
-      <c r="AO33" s="274"/>
-      <c r="AP33" s="274"/>
-      <c r="AQ33" s="274"/>
-      <c r="AR33" s="275"/>
-      <c r="AS33" s="273"/>
-      <c r="AT33" s="274"/>
-      <c r="AU33" s="274"/>
-      <c r="AV33" s="274"/>
-      <c r="AW33" s="275"/>
+      <c r="B33" s="248"/>
+      <c r="C33" s="249"/>
+      <c r="D33" s="250"/>
+      <c r="E33" s="251"/>
+      <c r="F33" s="251"/>
+      <c r="G33" s="251"/>
+      <c r="H33" s="251"/>
+      <c r="I33" s="251"/>
+      <c r="J33" s="252"/>
+      <c r="K33" s="253"/>
+      <c r="L33" s="254"/>
+      <c r="M33" s="262"/>
+      <c r="N33" s="263"/>
+      <c r="O33" s="263"/>
+      <c r="P33" s="263"/>
+      <c r="Q33" s="263"/>
+      <c r="R33" s="264"/>
+      <c r="S33" s="258"/>
+      <c r="T33" s="258"/>
+      <c r="U33" s="258"/>
+      <c r="V33" s="259"/>
+      <c r="W33" s="260"/>
+      <c r="X33" s="260"/>
+      <c r="Y33" s="260"/>
+      <c r="Z33" s="260"/>
+      <c r="AA33" s="260"/>
+      <c r="AB33" s="260"/>
+      <c r="AC33" s="260"/>
+      <c r="AD33" s="260"/>
+      <c r="AE33" s="260"/>
+      <c r="AF33" s="260"/>
+      <c r="AG33" s="260"/>
+      <c r="AH33" s="260"/>
+      <c r="AI33" s="260"/>
+      <c r="AJ33" s="260"/>
+      <c r="AK33" s="260"/>
+      <c r="AL33" s="260"/>
+      <c r="AM33" s="261"/>
+      <c r="AN33" s="245"/>
+      <c r="AO33" s="246"/>
+      <c r="AP33" s="246"/>
+      <c r="AQ33" s="246"/>
+      <c r="AR33" s="247"/>
+      <c r="AS33" s="245"/>
+      <c r="AT33" s="246"/>
+      <c r="AU33" s="246"/>
+      <c r="AV33" s="246"/>
+      <c r="AW33" s="247"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="264"/>
-      <c r="C34" s="265"/>
-      <c r="D34" s="266"/>
-      <c r="E34" s="256"/>
-      <c r="F34" s="256"/>
-      <c r="G34" s="256"/>
-      <c r="H34" s="256"/>
-      <c r="I34" s="256"/>
-      <c r="J34" s="257"/>
-      <c r="K34" s="258"/>
-      <c r="L34" s="259"/>
-      <c r="M34" s="282"/>
-      <c r="N34" s="283"/>
-      <c r="O34" s="283"/>
-      <c r="P34" s="283"/>
-      <c r="Q34" s="283"/>
-      <c r="R34" s="284"/>
-      <c r="S34" s="254"/>
-      <c r="T34" s="254"/>
-      <c r="U34" s="254"/>
-      <c r="V34" s="270"/>
-      <c r="W34" s="271"/>
-      <c r="X34" s="271"/>
-      <c r="Y34" s="271"/>
-      <c r="Z34" s="271"/>
-      <c r="AA34" s="271"/>
-      <c r="AB34" s="271"/>
-      <c r="AC34" s="271"/>
-      <c r="AD34" s="271"/>
-      <c r="AE34" s="271"/>
-      <c r="AF34" s="271"/>
-      <c r="AG34" s="271"/>
-      <c r="AH34" s="271"/>
-      <c r="AI34" s="271"/>
-      <c r="AJ34" s="271"/>
-      <c r="AK34" s="271"/>
-      <c r="AL34" s="271"/>
-      <c r="AM34" s="272"/>
-      <c r="AN34" s="273"/>
-      <c r="AO34" s="274"/>
-      <c r="AP34" s="274"/>
-      <c r="AQ34" s="274"/>
-      <c r="AR34" s="275"/>
-      <c r="AS34" s="273"/>
-      <c r="AT34" s="274"/>
-      <c r="AU34" s="274"/>
-      <c r="AV34" s="274"/>
-      <c r="AW34" s="275"/>
+      <c r="B34" s="248"/>
+      <c r="C34" s="249"/>
+      <c r="D34" s="250"/>
+      <c r="E34" s="251"/>
+      <c r="F34" s="251"/>
+      <c r="G34" s="251"/>
+      <c r="H34" s="251"/>
+      <c r="I34" s="251"/>
+      <c r="J34" s="252"/>
+      <c r="K34" s="253"/>
+      <c r="L34" s="254"/>
+      <c r="M34" s="255"/>
+      <c r="N34" s="256"/>
+      <c r="O34" s="256"/>
+      <c r="P34" s="256"/>
+      <c r="Q34" s="256"/>
+      <c r="R34" s="257"/>
+      <c r="S34" s="258"/>
+      <c r="T34" s="258"/>
+      <c r="U34" s="258"/>
+      <c r="V34" s="259"/>
+      <c r="W34" s="260"/>
+      <c r="X34" s="260"/>
+      <c r="Y34" s="260"/>
+      <c r="Z34" s="260"/>
+      <c r="AA34" s="260"/>
+      <c r="AB34" s="260"/>
+      <c r="AC34" s="260"/>
+      <c r="AD34" s="260"/>
+      <c r="AE34" s="260"/>
+      <c r="AF34" s="260"/>
+      <c r="AG34" s="260"/>
+      <c r="AH34" s="260"/>
+      <c r="AI34" s="260"/>
+      <c r="AJ34" s="260"/>
+      <c r="AK34" s="260"/>
+      <c r="AL34" s="260"/>
+      <c r="AM34" s="261"/>
+      <c r="AN34" s="245"/>
+      <c r="AO34" s="246"/>
+      <c r="AP34" s="246"/>
+      <c r="AQ34" s="246"/>
+      <c r="AR34" s="247"/>
+      <c r="AS34" s="245"/>
+      <c r="AT34" s="246"/>
+      <c r="AU34" s="246"/>
+      <c r="AV34" s="246"/>
+      <c r="AW34" s="247"/>
     </row>
   </sheetData>
   <mergeCells count="249">
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN5:AR5"/>
+    <mergeCell ref="AS5:AW5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:AM6"/>
+    <mergeCell ref="AN6:AR6"/>
+    <mergeCell ref="AS6:AW6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:AM5"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
     <mergeCell ref="AN33:AR33"/>
     <mergeCell ref="AS33:AW33"/>
     <mergeCell ref="B34:D34"/>
@@ -10224,239 +10478,6 @@
     <mergeCell ref="M33:R33"/>
     <mergeCell ref="S33:U33"/>
     <mergeCell ref="V33:AM33"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN5:AR5"/>
-    <mergeCell ref="AS5:AW5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:AM6"/>
-    <mergeCell ref="AN6:AR6"/>
-    <mergeCell ref="AS6:AW6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10588,14 +10609,14 @@
       <c r="P2" s="38"/>
       <c r="Q2" s="39"/>
       <c r="R2" s="90" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S2" s="91"/>
       <c r="T2" s="91"/>
       <c r="U2" s="91"/>
       <c r="V2" s="92"/>
       <c r="W2" s="37" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="X2" s="40"/>
       <c r="Y2" s="40"/>
@@ -10717,7 +10738,7 @@
     </row>
     <row r="8" spans="1:59" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B8" s="94" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C8" s="70"/>
       <c r="D8" s="70"/>
@@ -12485,7 +12506,7 @@
       <c r="I51" s="214"/>
       <c r="J51" s="215"/>
       <c r="K51" s="213" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="L51" s="214"/>
       <c r="M51" s="214"/>
@@ -12517,7 +12538,7 @@
       <c r="AK51" s="234"/>
       <c r="AL51" s="235"/>
       <c r="AM51" s="216" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AN51" s="190"/>
       <c r="AO51" s="190"/>
@@ -12563,7 +12584,7 @@
       <c r="I52" s="214"/>
       <c r="J52" s="215"/>
       <c r="K52" s="213" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="L52" s="214"/>
       <c r="M52" s="214"/>
@@ -12632,7 +12653,7 @@
       </c>
       <c r="C53" s="288"/>
       <c r="D53" s="213" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E53" s="214"/>
       <c r="F53" s="214"/>
@@ -12641,7 +12662,7 @@
       <c r="I53" s="214"/>
       <c r="J53" s="215"/>
       <c r="K53" s="213" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L53" s="214"/>
       <c r="M53" s="214"/>
@@ -12673,7 +12694,7 @@
       <c r="AK53" s="217"/>
       <c r="AL53" s="218"/>
       <c r="AM53" s="216" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AN53" s="190"/>
       <c r="AO53" s="190"/>
@@ -13212,22 +13233,22 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="247" t="s">
+      <c r="C6" s="278" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="247" t="s">
+      <c r="D6" s="278" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="247" t="s">
+      <c r="E6" s="278" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="247" t="s">
+      <c r="F6" s="278" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="247" t="s">
+      <c r="G6" s="278" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="247" t="s">
+      <c r="H6" s="278" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="306" t="s">
@@ -13236,13 +13257,13 @@
       <c r="J6" s="306" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="247" t="s">
+      <c r="K6" s="278" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="247" t="s">
+      <c r="L6" s="278" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="247" t="s">
+      <c r="M6" s="278" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="65" t="s">
@@ -13257,17 +13278,17 @@
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="247"/>
-      <c r="D7" s="247"/>
-      <c r="E7" s="247"/>
-      <c r="F7" s="247"/>
-      <c r="G7" s="247"/>
-      <c r="H7" s="247"/>
+      <c r="C7" s="278"/>
+      <c r="D7" s="278"/>
+      <c r="E7" s="278"/>
+      <c r="F7" s="278"/>
+      <c r="G7" s="278"/>
+      <c r="H7" s="278"/>
       <c r="I7" s="306"/>
       <c r="J7" s="306"/>
-      <c r="K7" s="247"/>
-      <c r="L7" s="247"/>
-      <c r="M7" s="247"/>
+      <c r="K7" s="278"/>
+      <c r="L7" s="278"/>
+      <c r="M7" s="278"/>
       <c r="N7" s="43" t="s">
         <v>77</v>
       </c>
@@ -13334,10 +13355,10 @@
         <v>58</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>43</v>
@@ -13368,7 +13389,7 @@
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="28.5" x14ac:dyDescent="0.15">
@@ -13379,10 +13400,10 @@
         <v>59</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="G10" s="16" t="s">
         <v>43</v>
@@ -13413,7 +13434,7 @@
       </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="28.5" x14ac:dyDescent="0.15">
@@ -13421,10 +13442,10 @@
         <v>4</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>121</v>
@@ -13468,13 +13489,13 @@
         <v>5</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>45</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G12" s="16" t="s">
         <v>43</v>
@@ -13521,22 +13542,22 @@
     <row r="15" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
-      <c r="C15" s="247" t="s">
+      <c r="C15" s="278" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="247" t="s">
+      <c r="D15" s="278" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="247" t="s">
+      <c r="E15" s="278" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="247" t="s">
+      <c r="F15" s="278" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="247" t="s">
+      <c r="G15" s="278" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="247" t="s">
+      <c r="H15" s="278" t="s">
         <v>29</v>
       </c>
       <c r="I15" s="307" t="s">
@@ -13545,13 +13566,13 @@
       <c r="J15" s="306" t="s">
         <v>48</v>
       </c>
-      <c r="K15" s="247" t="s">
+      <c r="K15" s="278" t="s">
         <v>31</v>
       </c>
-      <c r="L15" s="247" t="s">
+      <c r="L15" s="278" t="s">
         <v>30</v>
       </c>
-      <c r="M15" s="247" t="s">
+      <c r="M15" s="278" t="s">
         <v>33</v>
       </c>
       <c r="N15" s="65" t="s">
@@ -13566,17 +13587,17 @@
     <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
-      <c r="C16" s="247"/>
-      <c r="D16" s="247"/>
-      <c r="E16" s="247"/>
-      <c r="F16" s="247"/>
-      <c r="G16" s="247"/>
-      <c r="H16" s="247"/>
+      <c r="C16" s="278"/>
+      <c r="D16" s="278"/>
+      <c r="E16" s="278"/>
+      <c r="F16" s="278"/>
+      <c r="G16" s="278"/>
+      <c r="H16" s="278"/>
       <c r="I16" s="308"/>
       <c r="J16" s="306"/>
-      <c r="K16" s="247"/>
-      <c r="L16" s="247"/>
-      <c r="M16" s="247"/>
+      <c r="K16" s="278"/>
+      <c r="L16" s="278"/>
+      <c r="M16" s="278"/>
       <c r="N16" s="43" t="s">
         <v>77</v>
       </c>
@@ -13601,10 +13622,10 @@
         <v>126</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G17" s="44" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>50</v>
@@ -13619,13 +13640,13 @@
         <v>78</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M17" s="7" t="s">
         <v>34</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>34</v>
@@ -13634,7 +13655,7 @@
         <v>34</v>
       </c>
       <c r="Q17" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
@@ -13647,10 +13668,10 @@
         <v>115</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G18" s="16" t="s">
         <v>109</v>
@@ -13683,7 +13704,7 @@
         <v>135</v>
       </c>
       <c r="Q18" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
@@ -13732,7 +13753,7 @@
         <v>134</v>
       </c>
       <c r="Q19" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
@@ -13778,10 +13799,10 @@
         <v>34</v>
       </c>
       <c r="P20" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q20" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
@@ -13827,10 +13848,10 @@
         <v>34</v>
       </c>
       <c r="P21" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q21" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
@@ -13843,13 +13864,13 @@
         <v>131</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G22" s="44" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>50</v>
@@ -13864,7 +13885,7 @@
         <v>78</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M22" s="7" t="s">
         <v>34</v>
@@ -13877,7 +13898,7 @@
         <v>34</v>
       </c>
       <c r="Q22" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="57" x14ac:dyDescent="0.15">
@@ -13887,16 +13908,16 @@
         <v>7</v>
       </c>
       <c r="D23" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G23" s="44" t="s">
         <v>195</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="G23" s="44" t="s">
-        <v>196</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>50</v>
@@ -13911,13 +13932,13 @@
         <v>78</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M23" s="7" t="s">
         <v>34</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>34</v>
@@ -13939,22 +13960,22 @@
     </row>
     <row r="26" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="95"/>
-      <c r="C26" s="247" t="s">
+      <c r="C26" s="278" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="247" t="s">
+      <c r="D26" s="278" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="247" t="s">
+      <c r="E26" s="278" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="247" t="s">
+      <c r="F26" s="278" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="247" t="s">
+      <c r="G26" s="278" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="247" t="s">
+      <c r="H26" s="278" t="s">
         <v>29</v>
       </c>
       <c r="I26" s="306" t="s">
@@ -13963,13 +13984,13 @@
       <c r="J26" s="306" t="s">
         <v>48</v>
       </c>
-      <c r="K26" s="247" t="s">
+      <c r="K26" s="278" t="s">
         <v>31</v>
       </c>
-      <c r="L26" s="247" t="s">
+      <c r="L26" s="278" t="s">
         <v>30</v>
       </c>
-      <c r="M26" s="247" t="s">
+      <c r="M26" s="278" t="s">
         <v>33</v>
       </c>
       <c r="N26" s="65" t="s">
@@ -13983,17 +14004,17 @@
     </row>
     <row r="27" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B27" s="95"/>
-      <c r="C27" s="247"/>
-      <c r="D27" s="247"/>
-      <c r="E27" s="247"/>
-      <c r="F27" s="247"/>
-      <c r="G27" s="247"/>
-      <c r="H27" s="247"/>
+      <c r="C27" s="278"/>
+      <c r="D27" s="278"/>
+      <c r="E27" s="278"/>
+      <c r="F27" s="278"/>
+      <c r="G27" s="278"/>
+      <c r="H27" s="278"/>
       <c r="I27" s="306"/>
       <c r="J27" s="306"/>
-      <c r="K27" s="247"/>
-      <c r="L27" s="247"/>
-      <c r="M27" s="247"/>
+      <c r="K27" s="278"/>
+      <c r="L27" s="278"/>
+      <c r="M27" s="278"/>
       <c r="N27" s="93" t="s">
         <v>77</v>
       </c>
@@ -14018,7 +14039,7 @@
         <v>46</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G28" s="44" t="s">
         <v>51</v>
@@ -14061,13 +14082,13 @@
         <v>62</v>
       </c>
       <c r="E29" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="44" t="s">
         <v>266</v>
-      </c>
-      <c r="G29" s="44" t="s">
-        <v>267</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>35</v>
@@ -14080,7 +14101,7 @@
       </c>
       <c r="K29" s="7"/>
       <c r="L29" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M29" s="7" t="s">
         <v>34</v>
@@ -14105,7 +14126,7 @@
         <v>63</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>132</v>
@@ -14136,7 +14157,7 @@
         <v>35</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q30" s="8"/>
     </row>
@@ -14146,13 +14167,13 @@
         <v>4</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G31" s="44" t="s">
         <v>51</v>
@@ -14167,7 +14188,7 @@
         <v>35</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>35</v>
@@ -14182,7 +14203,7 @@
         <v>35</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="Q31" s="8"/>
     </row>
@@ -14195,10 +14216,10 @@
         <v>136</v>
       </c>
       <c r="E32" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="G32" s="44" t="s">
         <v>51</v>
@@ -14226,7 +14247,7 @@
         <v>35</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="Q32" s="8"/>
     </row>
@@ -14236,13 +14257,13 @@
         <v>6</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G33" s="44" t="s">
         <v>51</v>
@@ -14257,7 +14278,7 @@
         <v>35</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>35</v>
@@ -14272,7 +14293,7 @@
         <v>35</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Q33" s="8"/>
     </row>
@@ -14282,13 +14303,13 @@
         <v>7</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G34" s="44" t="s">
         <v>51</v>
@@ -14303,7 +14324,7 @@
         <v>35</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>35</v>
@@ -14318,7 +14339,7 @@
         <v>35</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Q34" s="8"/>
     </row>
@@ -14328,13 +14349,13 @@
         <v>8</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E35" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="G35" s="44" t="s">
         <v>51</v>
@@ -14362,7 +14383,7 @@
         <v>35</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Q35" s="8"/>
     </row>
@@ -14372,13 +14393,13 @@
         <v>9</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G36" s="44" t="s">
         <v>51</v>
@@ -14393,7 +14414,7 @@
         <v>35</v>
       </c>
       <c r="K36" s="219" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>35</v>
@@ -14408,7 +14429,7 @@
         <v>35</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Q36" s="8"/>
     </row>
@@ -14418,13 +14439,13 @@
         <v>10</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G37" s="44" t="s">
         <v>51</v>
@@ -14439,7 +14460,7 @@
         <v>35</v>
       </c>
       <c r="K37" s="219" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>35</v>
@@ -14454,7 +14475,7 @@
         <v>35</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Q37" s="8"/>
     </row>
@@ -14464,13 +14485,13 @@
         <v>11</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G38" s="44" t="s">
         <v>51</v>
@@ -14485,7 +14506,7 @@
         <v>35</v>
       </c>
       <c r="K38" s="219" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>35</v>
@@ -14500,7 +14521,7 @@
         <v>34</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Q38" s="8"/>
     </row>
@@ -14510,13 +14531,13 @@
         <v>12</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G39" s="44" t="s">
         <v>51</v>
@@ -14531,7 +14552,7 @@
         <v>35</v>
       </c>
       <c r="K39" s="219" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L39" s="7" t="s">
         <v>35</v>
@@ -14546,7 +14567,7 @@
         <v>34</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Q39" s="8"/>
     </row>
@@ -14556,13 +14577,13 @@
         <v>13</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G40" s="44" t="s">
         <v>51</v>
@@ -14577,7 +14598,7 @@
         <v>35</v>
       </c>
       <c r="K40" s="219" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L40" s="7" t="s">
         <v>35</v>
@@ -14586,16 +14607,16 @@
         <v>34</v>
       </c>
       <c r="N40" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O40" s="7" t="s">
         <v>35</v>
       </c>
       <c r="P40" s="220" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q40" s="8" t="s">
         <v>337</v>
-      </c>
-      <c r="Q40" s="8" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -14604,13 +14625,13 @@
         <v>14</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G41" s="44" t="s">
         <v>51</v>
@@ -14625,7 +14646,7 @@
         <v>35</v>
       </c>
       <c r="K41" s="219" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L41" s="7" t="s">
         <v>35</v>
@@ -14634,16 +14655,16 @@
         <v>34</v>
       </c>
       <c r="N41" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O41" s="7" t="s">
         <v>34</v>
       </c>
       <c r="P41" s="220" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="Q41" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -14652,13 +14673,13 @@
         <v>15</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G42" s="44" t="s">
         <v>51</v>
@@ -14673,7 +14694,7 @@
         <v>35</v>
       </c>
       <c r="K42" s="219" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L42" s="7" t="s">
         <v>35</v>
@@ -14682,16 +14703,16 @@
         <v>34</v>
       </c>
       <c r="N42" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O42" s="7" t="s">
         <v>34</v>
       </c>
       <c r="P42" s="220" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="Q42" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -14700,13 +14721,13 @@
         <v>16</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G43" s="44" t="s">
         <v>51</v>
@@ -14721,7 +14742,7 @@
         <v>35</v>
       </c>
       <c r="K43" s="219" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L43" s="7" t="s">
         <v>35</v>
@@ -14736,7 +14757,7 @@
         <v>35</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Q43" s="8"/>
     </row>
@@ -14789,16 +14810,24 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="I15:I16"/>
     <mergeCell ref="J15:J16"/>
     <mergeCell ref="C15:C16"/>
@@ -14807,24 +14836,16 @@
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="H15:H16"/>
     <mergeCell ref="D15:D16"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -15446,7 +15467,7 @@
       <c r="L13" s="98"/>
       <c r="M13" s="69"/>
       <c r="N13" s="69" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="O13" s="69"/>
       <c r="P13" s="69"/>
@@ -15497,7 +15518,7 @@
       <c r="L14" s="98"/>
       <c r="M14" s="69"/>
       <c r="N14" s="228" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="O14" s="69"/>
       <c r="P14" s="69"/>
@@ -15548,7 +15569,7 @@
       <c r="L15" s="98"/>
       <c r="M15" s="69"/>
       <c r="N15" s="69" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O15" s="69"/>
       <c r="P15" s="69"/>
@@ -15599,7 +15620,7 @@
       <c r="L16" s="98"/>
       <c r="M16" s="69"/>
       <c r="N16" s="69" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O16" s="69"/>
       <c r="P16" s="69"/>
@@ -15650,7 +15671,7 @@
       <c r="L17" s="98"/>
       <c r="M17" s="69"/>
       <c r="N17" s="69" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O17" s="69"/>
       <c r="P17" s="69"/>
@@ -15701,7 +15722,7 @@
       <c r="L18" s="98"/>
       <c r="M18" s="69"/>
       <c r="N18" s="69" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O18" s="69"/>
       <c r="P18" s="69"/>
@@ -15752,7 +15773,7 @@
       <c r="L19" s="98"/>
       <c r="M19" s="69"/>
       <c r="N19" s="69" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O19" s="69"/>
       <c r="P19" s="69"/>
@@ -15803,7 +15824,7 @@
       <c r="L20" s="98"/>
       <c r="M20" s="69"/>
       <c r="N20" s="69" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O20" s="69"/>
       <c r="P20" s="69"/>
@@ -15854,7 +15875,7 @@
       <c r="L21" s="98"/>
       <c r="M21" s="69"/>
       <c r="N21" s="69" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O21" s="69"/>
       <c r="P21" s="69"/>
@@ -15905,7 +15926,7 @@
       <c r="L22" s="98"/>
       <c r="M22" s="69"/>
       <c r="N22" s="69" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O22" s="69"/>
       <c r="P22" s="69"/>
@@ -15956,7 +15977,7 @@
       <c r="L23" s="98"/>
       <c r="M23" s="69"/>
       <c r="N23" s="69" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O23" s="69"/>
       <c r="P23" s="69"/>
@@ -16058,7 +16079,7 @@
       <c r="L25" s="98"/>
       <c r="M25" s="69"/>
       <c r="N25" s="69" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O25" s="69"/>
       <c r="P25" s="69"/>
@@ -16109,7 +16130,7 @@
       <c r="L26" s="98"/>
       <c r="M26" s="69"/>
       <c r="N26" s="69" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O26" s="69"/>
       <c r="P26" s="69"/>
@@ -16153,13 +16174,13 @@
       <c r="G27" s="226"/>
       <c r="K27" s="227"/>
       <c r="O27" s="225" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AA27" s="225" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AB27" s="225" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AV27" s="227"/>
     </row>
@@ -16170,13 +16191,13 @@
       <c r="G28" s="226"/>
       <c r="K28" s="227"/>
       <c r="O28" s="225" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AA28" s="225" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AB28" s="225" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AV28" s="227"/>
     </row>
@@ -16187,13 +16208,13 @@
       <c r="G29" s="226"/>
       <c r="K29" s="227"/>
       <c r="O29" s="225" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AA29" s="225" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AB29" s="225" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AV29" s="227"/>
     </row>
@@ -16204,13 +16225,13 @@
       <c r="G30" s="226"/>
       <c r="K30" s="227"/>
       <c r="O30" s="225" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AA30" s="225" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AB30" s="225" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AV30" s="227"/>
     </row>
@@ -16221,13 +16242,13 @@
       <c r="G31" s="226"/>
       <c r="K31" s="227"/>
       <c r="O31" s="225" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AA31" s="225" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AB31" s="225" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AV31" s="227"/>
     </row>
@@ -16238,7 +16259,7 @@
       <c r="G32" s="226"/>
       <c r="K32" s="227"/>
       <c r="N32" s="225" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AV32" s="227"/>
     </row>
@@ -16249,13 +16270,13 @@
       <c r="G33" s="226"/>
       <c r="K33" s="227"/>
       <c r="O33" s="225" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AA33" s="225" t="s">
+        <v>389</v>
+      </c>
+      <c r="AB33" s="225" t="s">
         <v>390</v>
-      </c>
-      <c r="AB33" s="225" t="s">
-        <v>391</v>
       </c>
       <c r="AV33" s="227"/>
     </row>
@@ -16266,13 +16287,13 @@
       <c r="G34" s="226"/>
       <c r="K34" s="227"/>
       <c r="O34" s="225" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AA34" s="225" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AB34" s="225" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AV34" s="227"/>
     </row>
@@ -16283,13 +16304,13 @@
       <c r="G35" s="226"/>
       <c r="K35" s="227"/>
       <c r="O35" s="225" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AA35" s="225" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AB35" s="225" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AV35" s="227"/>
     </row>
@@ -16300,13 +16321,13 @@
       <c r="G36" s="226"/>
       <c r="K36" s="227"/>
       <c r="O36" s="225" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AA36" s="225" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AB36" s="225" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AV36" s="227"/>
     </row>
@@ -16317,13 +16338,13 @@
       <c r="G37" s="226"/>
       <c r="K37" s="227"/>
       <c r="O37" s="225" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AA37" s="225" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AB37" s="225" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AV37" s="227"/>
     </row>
@@ -16341,7 +16362,7 @@
       <c r="L38" s="98"/>
       <c r="M38" s="69"/>
       <c r="N38" s="69" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="O38" s="69"/>
       <c r="P38" s="69"/>
@@ -16393,7 +16414,7 @@
       <c r="M39" s="69"/>
       <c r="N39" s="69"/>
       <c r="O39" s="98" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="P39" s="98"/>
       <c r="Q39" s="98"/>
@@ -16410,7 +16431,7 @@
         <v>38</v>
       </c>
       <c r="AB39" s="98" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AC39" s="98"/>
       <c r="AD39" s="98"/>
@@ -16448,7 +16469,7 @@
       <c r="M40" s="239"/>
       <c r="N40" s="239"/>
       <c r="O40" s="237" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P40" s="237"/>
       <c r="Q40" s="237"/>
@@ -16465,7 +16486,7 @@
         <v>38</v>
       </c>
       <c r="AB40" s="237" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AC40" s="237"/>
       <c r="AD40" s="237"/>
@@ -16503,7 +16524,7 @@
       <c r="M41" s="69"/>
       <c r="N41" s="69"/>
       <c r="O41" s="98" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="P41" s="98"/>
       <c r="Q41" s="98"/>
@@ -16520,7 +16541,7 @@
         <v>38</v>
       </c>
       <c r="AB41" s="98" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AC41" s="98"/>
       <c r="AD41" s="98"/>
@@ -16558,7 +16579,7 @@
       <c r="M42" s="69"/>
       <c r="N42" s="69"/>
       <c r="O42" s="98" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="P42" s="98"/>
       <c r="Q42" s="98"/>
@@ -16575,7 +16596,7 @@
         <v>38</v>
       </c>
       <c r="AB42" s="98" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AC42" s="98"/>
       <c r="AD42" s="98"/>
@@ -16605,13 +16626,13 @@
       <c r="G43" s="226"/>
       <c r="K43" s="227"/>
       <c r="O43" s="225" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AA43" s="225" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AB43" s="225" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AV43" s="227"/>
     </row>
@@ -16630,7 +16651,7 @@
       <c r="M44" s="69"/>
       <c r="N44" s="69"/>
       <c r="O44" s="229" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="P44" s="229"/>
       <c r="Q44" s="229"/>
@@ -16647,7 +16668,7 @@
         <v>38</v>
       </c>
       <c r="AB44" s="96" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AC44" s="98"/>
       <c r="AD44" s="98"/>
@@ -16684,7 +16705,7 @@
       <c r="L45" s="98"/>
       <c r="M45" s="69"/>
       <c r="N45" s="69" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="O45" s="69"/>
       <c r="P45" s="69"/>
@@ -16736,7 +16757,7 @@
       <c r="M46" s="69"/>
       <c r="N46" s="69"/>
       <c r="O46" s="98" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="P46" s="98"/>
       <c r="Q46" s="98"/>
@@ -16753,7 +16774,7 @@
         <v>38</v>
       </c>
       <c r="AB46" s="98" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AC46" s="98"/>
       <c r="AD46" s="98"/>
@@ -16791,7 +16812,7 @@
       <c r="M47" s="239"/>
       <c r="N47" s="239"/>
       <c r="O47" s="237" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P47" s="237"/>
       <c r="Q47" s="237"/>
@@ -16808,7 +16829,7 @@
         <v>38</v>
       </c>
       <c r="AB47" s="237" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AC47" s="237"/>
       <c r="AD47" s="237"/>
@@ -16846,7 +16867,7 @@
       <c r="M48" s="69"/>
       <c r="N48" s="69"/>
       <c r="O48" s="98" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="P48" s="98"/>
       <c r="Q48" s="98"/>
@@ -16863,7 +16884,7 @@
         <v>38</v>
       </c>
       <c r="AB48" s="98" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AC48" s="98"/>
       <c r="AD48" s="98"/>
@@ -16901,7 +16922,7 @@
       <c r="M49" s="69"/>
       <c r="N49" s="69"/>
       <c r="O49" s="98" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="P49" s="98"/>
       <c r="Q49" s="98"/>
@@ -16918,7 +16939,7 @@
         <v>38</v>
       </c>
       <c r="AB49" s="98" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AC49" s="98"/>
       <c r="AD49" s="98"/>
@@ -16948,13 +16969,13 @@
       <c r="G50" s="226"/>
       <c r="K50" s="227"/>
       <c r="O50" s="225" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AA50" s="225" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AB50" s="225" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AV50" s="227"/>
     </row>
@@ -16973,7 +16994,7 @@
       <c r="M51" s="69"/>
       <c r="N51" s="69"/>
       <c r="O51" s="229" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="P51" s="229"/>
       <c r="Q51" s="229"/>
@@ -16990,7 +17011,7 @@
         <v>38</v>
       </c>
       <c r="AB51" s="96" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AC51" s="98"/>
       <c r="AD51" s="98"/>
@@ -17027,7 +17048,7 @@
       <c r="L52" s="98"/>
       <c r="M52" s="69"/>
       <c r="N52" s="69" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="O52" s="69"/>
       <c r="P52" s="69"/>
@@ -17079,7 +17100,7 @@
       <c r="M53" s="69"/>
       <c r="N53" s="69"/>
       <c r="O53" s="98" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="P53" s="98"/>
       <c r="Q53" s="98"/>
@@ -17096,7 +17117,7 @@
         <v>38</v>
       </c>
       <c r="AB53" s="98" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AC53" s="98"/>
       <c r="AD53" s="98"/>
@@ -17134,7 +17155,7 @@
       <c r="M54" s="239"/>
       <c r="N54" s="239"/>
       <c r="O54" s="237" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P54" s="237"/>
       <c r="Q54" s="237"/>
@@ -17151,7 +17172,7 @@
         <v>38</v>
       </c>
       <c r="AB54" s="237" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AC54" s="237"/>
       <c r="AD54" s="237"/>
@@ -17189,7 +17210,7 @@
       <c r="M55" s="69"/>
       <c r="N55" s="69"/>
       <c r="O55" s="98" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="P55" s="98"/>
       <c r="Q55" s="98"/>
@@ -17206,7 +17227,7 @@
         <v>38</v>
       </c>
       <c r="AB55" s="98" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AC55" s="98"/>
       <c r="AD55" s="98"/>
@@ -17244,7 +17265,7 @@
       <c r="M56" s="69"/>
       <c r="N56" s="69"/>
       <c r="O56" s="98" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="P56" s="98"/>
       <c r="Q56" s="98"/>
@@ -17261,7 +17282,7 @@
         <v>38</v>
       </c>
       <c r="AB56" s="98" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AC56" s="98"/>
       <c r="AD56" s="98"/>
@@ -17291,13 +17312,13 @@
       <c r="G57" s="226"/>
       <c r="K57" s="227"/>
       <c r="O57" s="225" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AA57" s="225" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AB57" s="225" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AV57" s="227"/>
     </row>
@@ -17316,7 +17337,7 @@
       <c r="M58" s="69"/>
       <c r="N58" s="69"/>
       <c r="O58" s="229" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="P58" s="229"/>
       <c r="Q58" s="229"/>
@@ -17333,7 +17354,7 @@
         <v>38</v>
       </c>
       <c r="AB58" s="96" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AC58" s="98"/>
       <c r="AD58" s="98"/>
@@ -17370,7 +17391,7 @@
       <c r="L59" s="98"/>
       <c r="M59" s="69"/>
       <c r="N59" s="69" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="O59" s="69"/>
       <c r="P59" s="69"/>
@@ -17422,7 +17443,7 @@
       <c r="M60" s="69"/>
       <c r="N60" s="69"/>
       <c r="O60" s="98" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="P60" s="98"/>
       <c r="Q60" s="98"/>
@@ -17439,7 +17460,7 @@
         <v>38</v>
       </c>
       <c r="AB60" s="98" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AC60" s="98"/>
       <c r="AD60" s="98"/>
@@ -17477,7 +17498,7 @@
       <c r="M61" s="239"/>
       <c r="N61" s="239"/>
       <c r="O61" s="237" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P61" s="237"/>
       <c r="Q61" s="237"/>
@@ -17494,7 +17515,7 @@
         <v>38</v>
       </c>
       <c r="AB61" s="237" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AC61" s="237"/>
       <c r="AD61" s="237"/>
@@ -17532,7 +17553,7 @@
       <c r="M62" s="69"/>
       <c r="N62" s="69"/>
       <c r="O62" s="98" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="P62" s="98"/>
       <c r="Q62" s="98"/>
@@ -17549,7 +17570,7 @@
         <v>38</v>
       </c>
       <c r="AB62" s="98" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AC62" s="98"/>
       <c r="AD62" s="98"/>
@@ -17587,7 +17608,7 @@
       <c r="M63" s="69"/>
       <c r="N63" s="69"/>
       <c r="O63" s="98" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="P63" s="98"/>
       <c r="Q63" s="98"/>
@@ -17604,7 +17625,7 @@
         <v>38</v>
       </c>
       <c r="AB63" s="98" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AC63" s="98"/>
       <c r="AD63" s="98"/>
@@ -17634,13 +17655,13 @@
       <c r="G64" s="226"/>
       <c r="K64" s="227"/>
       <c r="O64" s="225" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AA64" s="225" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AB64" s="225" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AV64" s="227"/>
     </row>
@@ -17659,7 +17680,7 @@
       <c r="M65" s="69"/>
       <c r="N65" s="69"/>
       <c r="O65" s="229" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="P65" s="229"/>
       <c r="Q65" s="229"/>
@@ -17676,7 +17697,7 @@
         <v>38</v>
       </c>
       <c r="AB65" s="96" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AC65" s="98"/>
       <c r="AD65" s="98"/>
@@ -17764,7 +17785,7 @@
       <c r="L67" s="98"/>
       <c r="M67" s="69"/>
       <c r="N67" s="98" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O67" s="98"/>
       <c r="P67" s="98"/>
@@ -17782,7 +17803,7 @@
         <v>38</v>
       </c>
       <c r="AB67" s="96" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AC67" s="98"/>
       <c r="AD67" s="98"/>
@@ -17821,7 +17842,7 @@
       <c r="L68" s="98"/>
       <c r="M68" s="69"/>
       <c r="N68" s="98" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O68" s="98"/>
       <c r="P68" s="98"/>
@@ -17839,7 +17860,7 @@
         <v>38</v>
       </c>
       <c r="AB68" s="96" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AC68" s="98"/>
       <c r="AD68" s="98"/>
@@ -17878,7 +17899,7 @@
       <c r="L69" s="98"/>
       <c r="M69" s="69"/>
       <c r="N69" s="98" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="O69" s="98"/>
       <c r="P69" s="98"/>
@@ -17896,7 +17917,7 @@
         <v>38</v>
       </c>
       <c r="AB69" s="96" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AC69" s="98"/>
       <c r="AD69" s="98"/>
@@ -17935,7 +17956,7 @@
       <c r="L70" s="98"/>
       <c r="M70" s="69"/>
       <c r="N70" s="98" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="O70" s="98"/>
       <c r="P70" s="98"/>
@@ -17992,7 +18013,7 @@
       <c r="L71" s="98"/>
       <c r="M71" s="69"/>
       <c r="N71" s="98" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="O71" s="98"/>
       <c r="P71" s="98"/>
@@ -18049,7 +18070,7 @@
       <c r="L72" s="98"/>
       <c r="M72" s="69"/>
       <c r="N72" s="98" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O72" s="98"/>
       <c r="P72" s="98"/>
@@ -18064,7 +18085,7 @@
       <c r="Y72" s="98"/>
       <c r="Z72" s="98"/>
       <c r="AA72" s="69" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AB72" s="96"/>
       <c r="AC72" s="98"/>
@@ -18104,7 +18125,7 @@
       <c r="L73" s="98"/>
       <c r="M73" s="69"/>
       <c r="N73" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O73" s="98"/>
       <c r="P73" s="98"/>
@@ -18156,7 +18177,7 @@
       <c r="M74" s="69"/>
       <c r="N74" s="69"/>
       <c r="O74" s="98" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="P74" s="98"/>
       <c r="Q74" s="98"/>
@@ -18172,10 +18193,10 @@
       <c r="AA74" s="69"/>
       <c r="AB74" s="96"/>
       <c r="AC74" s="69" t="s">
+        <v>379</v>
+      </c>
+      <c r="AD74" s="98" t="s">
         <v>380</v>
-      </c>
-      <c r="AD74" s="98" t="s">
-        <v>381</v>
       </c>
       <c r="AE74" s="98"/>
       <c r="AF74" s="98"/>
@@ -18211,7 +18232,7 @@
       <c r="M75" s="69"/>
       <c r="N75" s="98"/>
       <c r="O75" s="98" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="P75" s="98"/>
       <c r="Q75" s="98"/>
@@ -18227,10 +18248,10 @@
       <c r="AA75" s="69"/>
       <c r="AB75" s="96"/>
       <c r="AC75" s="69" t="s">
+        <v>379</v>
+      </c>
+      <c r="AD75" s="98" t="s">
         <v>380</v>
-      </c>
-      <c r="AD75" s="98" t="s">
-        <v>381</v>
       </c>
       <c r="AE75" s="98"/>
       <c r="AF75" s="98"/>
@@ -18266,7 +18287,7 @@
       <c r="M76" s="69"/>
       <c r="N76" s="98"/>
       <c r="O76" s="98" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P76" s="98"/>
       <c r="Q76" s="98"/>
@@ -18282,10 +18303,10 @@
       <c r="AA76" s="69"/>
       <c r="AB76" s="96"/>
       <c r="AC76" s="69" t="s">
+        <v>379</v>
+      </c>
+      <c r="AD76" s="98" t="s">
         <v>380</v>
-      </c>
-      <c r="AD76" s="98" t="s">
-        <v>381</v>
       </c>
       <c r="AE76" s="98"/>
       <c r="AF76" s="98"/>
@@ -18321,7 +18342,7 @@
       <c r="M77" s="69"/>
       <c r="N77" s="98"/>
       <c r="O77" s="98" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P77" s="98"/>
       <c r="Q77" s="98"/>
@@ -18337,10 +18358,10 @@
       <c r="AA77" s="69"/>
       <c r="AB77" s="96"/>
       <c r="AC77" s="69" t="s">
+        <v>379</v>
+      </c>
+      <c r="AD77" s="98" t="s">
         <v>380</v>
-      </c>
-      <c r="AD77" s="98" t="s">
-        <v>381</v>
       </c>
       <c r="AE77" s="98"/>
       <c r="AF77" s="98"/>
@@ -18376,7 +18397,7 @@
       <c r="M78" s="69"/>
       <c r="N78" s="98"/>
       <c r="O78" s="98" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="P78" s="98"/>
       <c r="Q78" s="98"/>
@@ -18392,10 +18413,10 @@
       <c r="AA78" s="69"/>
       <c r="AB78" s="96"/>
       <c r="AC78" s="69" t="s">
+        <v>379</v>
+      </c>
+      <c r="AD78" s="98" t="s">
         <v>380</v>
-      </c>
-      <c r="AD78" s="98" t="s">
-        <v>381</v>
       </c>
       <c r="AE78" s="98"/>
       <c r="AF78" s="98"/>
@@ -18431,7 +18452,7 @@
       <c r="M79" s="69"/>
       <c r="N79" s="98"/>
       <c r="O79" s="98" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="P79" s="98"/>
       <c r="Q79" s="98"/>
@@ -18447,10 +18468,10 @@
       <c r="AA79" s="69"/>
       <c r="AB79" s="96"/>
       <c r="AC79" s="69" t="s">
+        <v>379</v>
+      </c>
+      <c r="AD79" s="98" t="s">
         <v>380</v>
-      </c>
-      <c r="AD79" s="98" t="s">
-        <v>381</v>
       </c>
       <c r="AE79" s="98"/>
       <c r="AF79" s="98"/>
@@ -18486,7 +18507,7 @@
       <c r="M80" s="69"/>
       <c r="N80" s="98"/>
       <c r="O80" s="98" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P80" s="98"/>
       <c r="Q80" s="98"/>
@@ -18502,10 +18523,10 @@
       <c r="AA80" s="69"/>
       <c r="AB80" s="96"/>
       <c r="AC80" s="69" t="s">
+        <v>379</v>
+      </c>
+      <c r="AD80" s="98" t="s">
         <v>380</v>
-      </c>
-      <c r="AD80" s="98" t="s">
-        <v>381</v>
       </c>
       <c r="AE80" s="98"/>
       <c r="AF80" s="98"/>
@@ -18541,7 +18562,7 @@
       <c r="M81" s="69"/>
       <c r="N81" s="98"/>
       <c r="O81" s="98" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P81" s="98"/>
       <c r="Q81" s="98"/>
@@ -18557,10 +18578,10 @@
       <c r="AA81" s="69"/>
       <c r="AB81" s="96"/>
       <c r="AC81" s="69" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AD81" s="98" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AE81" s="98"/>
       <c r="AF81" s="98"/>
@@ -18595,7 +18616,7 @@
       <c r="L82" s="98"/>
       <c r="M82" s="69"/>
       <c r="N82" s="98" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O82" s="98"/>
       <c r="P82" s="98"/>
@@ -18647,7 +18668,7 @@
       <c r="M83" s="69"/>
       <c r="N83" s="98"/>
       <c r="O83" s="98" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="P83" s="98"/>
       <c r="Q83" s="98"/>
@@ -18690,7 +18711,7 @@
       <c r="G84" s="67"/>
       <c r="K84" s="68"/>
       <c r="M84" s="223" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AA84" s="223"/>
       <c r="AB84" s="224"/>
@@ -18711,7 +18732,7 @@
       <c r="L85" s="229"/>
       <c r="M85" s="228"/>
       <c r="N85" s="228" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="O85" s="228"/>
       <c r="P85" s="228"/>
@@ -18762,7 +18783,7 @@
       <c r="L86" s="229"/>
       <c r="M86" s="228"/>
       <c r="N86" s="228" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="O86" s="228"/>
       <c r="P86" s="228"/>
@@ -18813,7 +18834,7 @@
       <c r="L87" s="229"/>
       <c r="M87" s="228"/>
       <c r="N87" s="228" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="O87" s="228"/>
       <c r="P87" s="228"/>
@@ -18863,7 +18884,7 @@
       <c r="K88" s="99"/>
       <c r="L88" s="98"/>
       <c r="M88" s="223" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N88" s="98"/>
       <c r="O88" s="98"/>
@@ -18915,7 +18936,7 @@
       <c r="L89" s="229"/>
       <c r="M89" s="228"/>
       <c r="N89" s="228" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="O89" s="228"/>
       <c r="P89" s="228"/>
@@ -18966,7 +18987,7 @@
       <c r="L90" s="229"/>
       <c r="M90" s="228"/>
       <c r="N90" s="228" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="O90" s="228"/>
       <c r="P90" s="228"/>
@@ -19017,7 +19038,7 @@
       <c r="L91" s="229"/>
       <c r="M91" s="228"/>
       <c r="N91" s="228" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="O91" s="228"/>
       <c r="P91" s="228"/>
@@ -19108,20 +19129,20 @@
         <v>3</v>
       </c>
       <c r="C93" s="21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D93" s="22"/>
       <c r="E93" s="22"/>
       <c r="F93" s="23"/>
       <c r="G93" s="21" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H93" s="22"/>
       <c r="I93" s="22"/>
       <c r="J93" s="22"/>
       <c r="K93" s="23"/>
       <c r="L93" s="22" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M93" s="22"/>
       <c r="N93" s="22"/>
@@ -19224,20 +19245,20 @@
         <v>4</v>
       </c>
       <c r="C96" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D96" s="22"/>
       <c r="E96" s="22"/>
       <c r="F96" s="23"/>
       <c r="G96" s="21" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H96" s="22"/>
       <c r="I96" s="22"/>
       <c r="J96" s="22"/>
       <c r="K96" s="23"/>
       <c r="L96" s="22" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M96" s="22"/>
       <c r="N96" s="22"/>
@@ -19304,13 +19325,13 @@
         <v>5</v>
       </c>
       <c r="C99" s="21" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D99" s="22"/>
       <c r="E99" s="22"/>
       <c r="F99" s="23"/>
       <c r="G99" s="21" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H99" s="22"/>
       <c r="I99" s="22"/>
@@ -19365,7 +19386,7 @@
       </c>
       <c r="K100" s="68"/>
       <c r="L100" s="241" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AV100" s="68"/>
     </row>
@@ -19376,7 +19397,7 @@
       <c r="G101" s="67"/>
       <c r="K101" s="68"/>
       <c r="L101" s="241" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AV101" s="68"/>
     </row>
@@ -19593,20 +19614,20 @@
         <v>7</v>
       </c>
       <c r="C106" s="21" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D106" s="22"/>
       <c r="E106" s="22"/>
       <c r="F106" s="23"/>
       <c r="G106" s="21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H106" s="22"/>
       <c r="I106" s="22"/>
       <c r="J106" s="22"/>
       <c r="K106" s="23"/>
       <c r="L106" s="17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M106" s="22"/>
       <c r="N106" s="22"/>
@@ -27434,7 +27455,7 @@
       <c r="AB9" s="22"/>
       <c r="AC9" s="22"/>
       <c r="AD9" s="207" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AE9" s="208"/>
       <c r="AF9" s="208"/>
@@ -27617,7 +27638,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
@@ -27721,7 +27742,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
@@ -27825,7 +27846,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
@@ -28033,7 +28054,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
@@ -32522,7 +32543,7 @@
       <c r="A7" s="51"/>
       <c r="B7" s="51"/>
       <c r="C7" s="51" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D7" s="51"/>
       <c r="E7" s="51"/>
@@ -44506,7 +44527,7 @@
     </row>
     <row r="3" spans="2:102" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="312" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C3" s="313"/>
       <c r="D3" s="313"/>
@@ -45439,7 +45460,7 @@
     </row>
     <row r="12" spans="2:102" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="125" t="s">
-        <v>155</v>
+        <v>436</v>
       </c>
       <c r="C12" s="123"/>
       <c r="D12" s="123"/>
@@ -45544,7 +45565,7 @@
     </row>
     <row r="13" spans="2:102" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="127" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C13" s="123"/>
       <c r="D13" s="123"/>
@@ -45672,7 +45693,7 @@
       <c r="W14" s="123"/>
       <c r="X14" s="123"/>
       <c r="Y14" s="128" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Z14" s="129"/>
       <c r="AA14" s="129"/>
@@ -45691,7 +45712,7 @@
       <c r="AN14" s="129"/>
       <c r="AO14" s="123"/>
       <c r="AP14" s="128" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AQ14" s="129"/>
       <c r="AR14" s="129"/>
@@ -45783,7 +45804,7 @@
       <c r="W15" s="123"/>
       <c r="X15" s="123"/>
       <c r="Y15" s="129" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Z15" s="129"/>
       <c r="AA15" s="129"/>
@@ -45802,7 +45823,7 @@
       <c r="AN15" s="129"/>
       <c r="AO15" s="123"/>
       <c r="AP15" s="129" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AQ15" s="129"/>
       <c r="AR15" s="129"/>
@@ -45821,7 +45842,7 @@
       <c r="BE15" s="129"/>
       <c r="BF15" s="129"/>
       <c r="BG15" s="129" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="BH15" s="129"/>
       <c r="BI15" s="129"/>
@@ -45840,7 +45861,7 @@
       <c r="BV15" s="129"/>
       <c r="BW15" s="140"/>
       <c r="BX15" s="129" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BY15" s="129"/>
       <c r="BZ15" s="129"/>
@@ -45874,7 +45895,7 @@
       <c r="C16" s="183"/>
       <c r="D16" s="183"/>
       <c r="E16" s="128" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F16" s="128"/>
       <c r="G16" s="128"/>
@@ -45896,7 +45917,7 @@
       <c r="W16" s="123"/>
       <c r="X16" s="123"/>
       <c r="Y16" s="130" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Z16" s="131"/>
       <c r="AA16" s="131"/>
@@ -45910,14 +45931,14 @@
       <c r="AI16" s="131"/>
       <c r="AJ16" s="132"/>
       <c r="AK16" s="133" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AL16" s="134"/>
       <c r="AM16" s="123"/>
       <c r="AN16" s="123"/>
       <c r="AO16" s="123"/>
       <c r="AP16" s="135" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AQ16" s="136"/>
       <c r="AR16" s="136"/>
@@ -45931,14 +45952,14 @@
       <c r="AZ16" s="136"/>
       <c r="BA16" s="137"/>
       <c r="BB16" s="138" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="BC16" s="139"/>
       <c r="BD16" s="129"/>
       <c r="BE16" s="129"/>
       <c r="BF16" s="129"/>
       <c r="BG16" s="135" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="BH16" s="136"/>
       <c r="BI16" s="136"/>
@@ -45952,14 +45973,14 @@
       <c r="BQ16" s="136"/>
       <c r="BR16" s="137"/>
       <c r="BS16" s="138" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="BT16" s="139"/>
       <c r="BU16" s="129"/>
       <c r="BV16" s="129"/>
       <c r="BW16" s="140"/>
       <c r="BX16" s="135" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="BY16" s="136"/>
       <c r="BZ16" s="136"/>
@@ -45972,7 +45993,7 @@
       <c r="CG16" s="136"/>
       <c r="CH16" s="137"/>
       <c r="CI16" s="138" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="CJ16" s="139"/>
       <c r="CK16" s="123"/>
@@ -46098,7 +46119,7 @@
       <c r="C18" s="183"/>
       <c r="D18" s="182"/>
       <c r="E18" s="128" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F18" s="182"/>
       <c r="G18" s="182"/>
@@ -46121,7 +46142,7 @@
       <c r="X18" s="140"/>
       <c r="Y18" s="140"/>
       <c r="Z18" s="128" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AA18" s="172"/>
       <c r="AB18" s="172"/>
@@ -46245,7 +46266,7 @@
       <c r="AQ19" s="140"/>
       <c r="AR19" s="140"/>
       <c r="AS19" s="128" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AT19" s="171"/>
       <c r="AU19" s="171"/>
@@ -46254,7 +46275,7 @@
       <c r="AX19" s="171"/>
       <c r="AY19" s="171"/>
       <c r="AZ19" s="128" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="BA19" s="140"/>
       <c r="BB19" s="140"/>
@@ -46266,7 +46287,7 @@
       <c r="BH19" s="140"/>
       <c r="BI19" s="140"/>
       <c r="BJ19" s="128" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="BK19" s="140"/>
       <c r="BL19" s="140"/>
@@ -46517,7 +46538,7 @@
     </row>
     <row r="22" spans="2:102" s="172" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="125" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C22" s="123"/>
       <c r="D22" s="123"/>
@@ -46622,7 +46643,7 @@
     </row>
     <row r="23" spans="2:102" s="172" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="127" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C23" s="128"/>
       <c r="D23" s="123"/>
@@ -46694,7 +46715,7 @@
       <c r="BR23" s="140"/>
       <c r="BS23" s="140"/>
       <c r="BT23" s="128" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="BU23" s="140"/>
       <c r="BV23" s="140"/>
@@ -46704,11 +46725,11 @@
       <c r="BZ23" s="140"/>
       <c r="CE23" s="140"/>
       <c r="CF23" s="140" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="CG23" s="140"/>
       <c r="CH23" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="CI23" s="140"/>
       <c r="CJ23" s="140"/>
@@ -46799,7 +46820,7 @@
       <c r="BR24" s="123"/>
       <c r="BS24" s="123"/>
       <c r="BT24" s="129" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="BU24" s="123"/>
       <c r="BV24" s="123"/>
@@ -46833,24 +46854,24 @@
       <c r="C25" s="123"/>
       <c r="D25" s="166"/>
       <c r="E25" s="146" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F25" s="147"/>
       <c r="G25" s="146" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H25" s="146"/>
       <c r="I25" s="146"/>
       <c r="J25" s="146"/>
       <c r="K25" s="145" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L25" s="146"/>
       <c r="M25" s="146"/>
       <c r="N25" s="146"/>
       <c r="O25" s="147"/>
       <c r="P25" s="145" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q25" s="146"/>
       <c r="R25" s="146"/>
@@ -46868,7 +46889,7 @@
       <c r="AD25" s="146"/>
       <c r="AE25" s="147"/>
       <c r="AF25" s="145" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AG25" s="146"/>
       <c r="AH25" s="146"/>
@@ -46878,7 +46899,7 @@
       <c r="AL25" s="146"/>
       <c r="AM25" s="147"/>
       <c r="AN25" s="145" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AO25" s="146"/>
       <c r="AP25" s="146"/>
@@ -46887,7 +46908,7 @@
       <c r="AS25" s="146"/>
       <c r="AT25" s="147"/>
       <c r="AU25" s="145" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AV25" s="146"/>
       <c r="AW25" s="146"/>
@@ -46910,7 +46931,7 @@
       <c r="BN25" s="146"/>
       <c r="BO25" s="146"/>
       <c r="BP25" s="145" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="BQ25" s="146"/>
       <c r="BR25" s="146"/>
@@ -46933,7 +46954,7 @@
       <c r="CI25" s="146"/>
       <c r="CJ25" s="146"/>
       <c r="CK25" s="145" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="CL25" s="146"/>
       <c r="CM25" s="146"/>
@@ -46956,20 +46977,20 @@
       <c r="E26" s="192"/>
       <c r="F26" s="162"/>
       <c r="G26" s="192" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H26" s="192"/>
       <c r="I26" s="192"/>
       <c r="J26" s="192"/>
       <c r="K26" s="164" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L26" s="192"/>
       <c r="M26" s="192"/>
       <c r="N26" s="192"/>
       <c r="O26" s="162"/>
       <c r="P26" s="164" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q26" s="192"/>
       <c r="R26" s="192"/>
@@ -46987,7 +47008,7 @@
       <c r="AD26" s="192"/>
       <c r="AE26" s="162"/>
       <c r="AF26" s="164" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AG26" s="192"/>
       <c r="AH26" s="192"/>
@@ -46997,7 +47018,7 @@
       <c r="AL26" s="192"/>
       <c r="AM26" s="162"/>
       <c r="AN26" s="164" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AO26" s="192"/>
       <c r="AP26" s="192"/>
@@ -47006,7 +47027,7 @@
       <c r="AS26" s="192"/>
       <c r="AT26" s="162"/>
       <c r="AU26" s="164" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AV26" s="192"/>
       <c r="AW26" s="192"/>
@@ -47029,7 +47050,7 @@
       <c r="BN26" s="163"/>
       <c r="BO26" s="163"/>
       <c r="BP26" s="164" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="BQ26" s="192"/>
       <c r="BR26" s="192"/>
@@ -47052,7 +47073,7 @@
       <c r="CI26" s="163"/>
       <c r="CJ26" s="163"/>
       <c r="CK26" s="164" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="CL26" s="192"/>
       <c r="CM26" s="192"/>
@@ -47108,7 +47129,7 @@
       <c r="AL27" s="192"/>
       <c r="AM27" s="162"/>
       <c r="AN27" s="164" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AO27" s="192"/>
       <c r="AP27" s="192"/>
@@ -47117,7 +47138,7 @@
       <c r="AS27" s="192"/>
       <c r="AT27" s="162"/>
       <c r="AU27" s="145" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AV27" s="146"/>
       <c r="AW27" s="146"/>
@@ -47126,7 +47147,7 @@
       <c r="AZ27" s="146"/>
       <c r="BA27" s="147"/>
       <c r="BB27" s="200" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="BC27" s="198"/>
       <c r="BD27" s="198"/>
@@ -47135,7 +47156,7 @@
       <c r="BG27" s="146"/>
       <c r="BH27" s="147"/>
       <c r="BI27" s="145" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BJ27" s="146"/>
       <c r="BK27" s="146"/>
@@ -47144,7 +47165,7 @@
       <c r="BN27" s="146"/>
       <c r="BO27" s="147"/>
       <c r="BP27" s="145" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BQ27" s="146"/>
       <c r="BR27" s="146"/>
@@ -47153,7 +47174,7 @@
       <c r="BU27" s="146"/>
       <c r="BV27" s="147"/>
       <c r="BW27" s="200" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="BX27" s="198"/>
       <c r="BY27" s="198"/>
@@ -47162,7 +47183,7 @@
       <c r="CB27" s="146"/>
       <c r="CC27" s="147"/>
       <c r="CD27" s="145" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="CE27" s="146"/>
       <c r="CF27" s="146"/>
@@ -47225,7 +47246,7 @@
       <c r="AL28" s="163"/>
       <c r="AM28" s="162"/>
       <c r="AN28" s="164" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AO28" s="163"/>
       <c r="AP28" s="163"/>
@@ -47234,7 +47255,7 @@
       <c r="AS28" s="163"/>
       <c r="AT28" s="162"/>
       <c r="AU28" s="201" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AV28" s="203"/>
       <c r="AW28" s="203"/>
@@ -47243,7 +47264,7 @@
       <c r="AZ28" s="193"/>
       <c r="BA28" s="202"/>
       <c r="BB28" s="201" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="BC28" s="203"/>
       <c r="BD28" s="203"/>
@@ -47252,7 +47273,7 @@
       <c r="BG28" s="193"/>
       <c r="BH28" s="202"/>
       <c r="BI28" s="201" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BJ28" s="203"/>
       <c r="BK28" s="203"/>
@@ -47261,7 +47282,7 @@
       <c r="BN28" s="193"/>
       <c r="BO28" s="202"/>
       <c r="BP28" s="201" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="BQ28" s="203"/>
       <c r="BR28" s="203"/>
@@ -47270,7 +47291,7 @@
       <c r="BU28" s="193"/>
       <c r="BV28" s="202"/>
       <c r="BW28" s="201" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="BX28" s="203"/>
       <c r="BY28" s="203"/>
@@ -47279,7 +47300,7 @@
       <c r="CB28" s="193"/>
       <c r="CC28" s="202"/>
       <c r="CD28" s="201" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="CE28" s="203"/>
       <c r="CF28" s="203"/>
@@ -47308,16 +47329,16 @@
       <c r="D29" s="135"/>
       <c r="E29" s="113"/>
       <c r="F29" s="148" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G29" s="194" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H29" s="195"/>
       <c r="I29" s="195"/>
       <c r="J29" s="196"/>
       <c r="K29" s="205" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L29" s="206"/>
       <c r="M29" s="206"/>
@@ -47405,7 +47426,7 @@
       <c r="CQ29" s="113"/>
       <c r="CR29" s="113"/>
       <c r="CS29" s="138" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="CT29" s="139"/>
       <c r="CU29" s="221"/>
@@ -47419,16 +47440,16 @@
       <c r="D30" s="135"/>
       <c r="E30" s="113"/>
       <c r="F30" s="148" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G30" s="194" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H30" s="195"/>
       <c r="I30" s="195"/>
       <c r="J30" s="196"/>
       <c r="K30" s="205" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L30" s="206"/>
       <c r="M30" s="206"/>
@@ -47528,16 +47549,16 @@
       <c r="D31" s="135"/>
       <c r="E31" s="113"/>
       <c r="F31" s="148" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G31" s="194" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H31" s="195"/>
       <c r="I31" s="195"/>
       <c r="J31" s="196"/>
       <c r="K31" s="205" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L31" s="206"/>
       <c r="M31" s="206"/>
@@ -47637,16 +47658,16 @@
       <c r="D32" s="135"/>
       <c r="E32" s="113"/>
       <c r="F32" s="148" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G32" s="194" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H32" s="195"/>
       <c r="I32" s="195"/>
       <c r="J32" s="196"/>
       <c r="K32" s="205" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L32" s="206"/>
       <c r="M32" s="206"/>
@@ -47746,16 +47767,16 @@
       <c r="D33" s="135"/>
       <c r="E33" s="113"/>
       <c r="F33" s="148" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G33" s="194" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H33" s="195"/>
       <c r="I33" s="195"/>
       <c r="J33" s="196"/>
       <c r="K33" s="205" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L33" s="206"/>
       <c r="M33" s="206"/>
@@ -47855,16 +47876,16 @@
       <c r="D34" s="135"/>
       <c r="E34" s="113"/>
       <c r="F34" s="148" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G34" s="194" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H34" s="195"/>
       <c r="I34" s="195"/>
       <c r="J34" s="196"/>
       <c r="K34" s="205" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L34" s="206"/>
       <c r="M34" s="206"/>
@@ -47964,16 +47985,16 @@
       <c r="D35" s="135"/>
       <c r="E35" s="113"/>
       <c r="F35" s="148" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G35" s="194" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H35" s="195"/>
       <c r="I35" s="195"/>
       <c r="J35" s="196"/>
       <c r="K35" s="205" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L35" s="206"/>
       <c r="M35" s="206"/>
@@ -48073,16 +48094,16 @@
       <c r="D36" s="135"/>
       <c r="E36" s="113"/>
       <c r="F36" s="148" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G36" s="194" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H36" s="195"/>
       <c r="I36" s="195"/>
       <c r="J36" s="196"/>
       <c r="K36" s="205" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L36" s="206"/>
       <c r="M36" s="206"/>
@@ -48182,16 +48203,16 @@
       <c r="D37" s="135"/>
       <c r="E37" s="113"/>
       <c r="F37" s="148" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G37" s="194" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H37" s="195"/>
       <c r="I37" s="195"/>
       <c r="J37" s="196"/>
       <c r="K37" s="205" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L37" s="206"/>
       <c r="M37" s="206"/>
@@ -48291,16 +48312,16 @@
       <c r="D38" s="135"/>
       <c r="E38" s="113"/>
       <c r="F38" s="148" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G38" s="194" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H38" s="195"/>
       <c r="I38" s="195"/>
       <c r="J38" s="196"/>
       <c r="K38" s="205" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L38" s="206"/>
       <c r="M38" s="206"/>
@@ -48400,16 +48421,16 @@
       <c r="D39" s="135"/>
       <c r="E39" s="113"/>
       <c r="F39" s="148" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G39" s="194" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H39" s="195"/>
       <c r="I39" s="195"/>
       <c r="J39" s="196"/>
       <c r="K39" s="205" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L39" s="206"/>
       <c r="M39" s="206"/>
@@ -48509,16 +48530,16 @@
       <c r="D40" s="135"/>
       <c r="E40" s="113"/>
       <c r="F40" s="148" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G40" s="194" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H40" s="195"/>
       <c r="I40" s="195"/>
       <c r="J40" s="196"/>
       <c r="K40" s="205" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L40" s="206"/>
       <c r="M40" s="206"/>
@@ -48618,16 +48639,16 @@
       <c r="D41" s="135"/>
       <c r="E41" s="113"/>
       <c r="F41" s="148" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G41" s="194" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H41" s="195"/>
       <c r="I41" s="195"/>
       <c r="J41" s="196"/>
       <c r="K41" s="205" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L41" s="206"/>
       <c r="M41" s="206"/>
@@ -48727,16 +48748,16 @@
       <c r="D42" s="135"/>
       <c r="E42" s="113"/>
       <c r="F42" s="148" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G42" s="194" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H42" s="195"/>
       <c r="I42" s="195"/>
       <c r="J42" s="196"/>
       <c r="K42" s="205" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L42" s="206"/>
       <c r="M42" s="206"/>
@@ -48836,16 +48857,16 @@
       <c r="D43" s="135"/>
       <c r="E43" s="113"/>
       <c r="F43" s="148" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G43" s="194" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H43" s="195"/>
       <c r="I43" s="195"/>
       <c r="J43" s="196"/>
       <c r="K43" s="205" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L43" s="206"/>
       <c r="M43" s="206"/>
@@ -48945,16 +48966,16 @@
       <c r="D44" s="135"/>
       <c r="E44" s="113"/>
       <c r="F44" s="148" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G44" s="194" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H44" s="195"/>
       <c r="I44" s="195"/>
       <c r="J44" s="196"/>
       <c r="K44" s="205" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L44" s="206"/>
       <c r="M44" s="206"/>
@@ -49042,7 +49063,7 @@
       <c r="CQ44" s="113"/>
       <c r="CR44" s="113"/>
       <c r="CS44" s="138" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="CT44" s="139"/>
       <c r="CU44" s="221"/>
@@ -49054,7 +49075,7 @@
       <c r="B45" s="122"/>
       <c r="C45" s="183"/>
       <c r="D45" s="180" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E45" s="181"/>
       <c r="F45" s="175"/>
@@ -49148,7 +49169,7 @@
       <c r="CP45" s="136"/>
       <c r="CQ45" s="178"/>
       <c r="CR45" s="179" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="CS45" s="188"/>
       <c r="CT45" s="189"/>
@@ -49358,10 +49379,10 @@
       <c r="CR47" s="159"/>
       <c r="CS47" s="159"/>
       <c r="CT47" s="160" t="s">
+        <v>180</v>
+      </c>
+      <c r="CU47" s="158" t="s">
         <v>181</v>
-      </c>
-      <c r="CU47" s="158" t="s">
-        <v>182</v>
       </c>
       <c r="CV47" s="159"/>
       <c r="CW47" s="159"/>
@@ -49562,6 +49583,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -49719,22 +49755,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -49750,28 +49795,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/01_基本設計書/20200220リリース/SC-Z01_在庫照会.xlsx
+++ b/01_基本設計書/20200220リリース/SC-Z01_在庫照会.xlsx
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7040449D-8A25-455D-BEB0-A9B09B02C326}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F91D019-8A18-47D2-9320-B756483DA2EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="438">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -3472,6 +3472,10 @@
     </r>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>複数列選択時は左から順に並び替えの優先度が高い。</t>
+    <phoneticPr fontId="17"/>
+  </si>
 </sst>
 </file>
 
@@ -4906,91 +4910,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5017,6 +4936,91 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="7" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6108,7 +6112,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$47" spid="_x0000_s3549"/>
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$47" spid="_x0000_s3551"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6768,10 +6772,10 @@
             </xdr:nvGrpSpPr>
             <xdr:grpSpPr>
               <a:xfrm>
-                <a:off x="1823232" y="2648509"/>
-                <a:ext cx="777645" cy="485636"/>
-                <a:chOff x="191656" y="3012359"/>
-                <a:chExt cx="777645" cy="479448"/>
+                <a:off x="1823232" y="2648511"/>
+                <a:ext cx="777645" cy="485630"/>
+                <a:chOff x="191656" y="3012361"/>
+                <a:chExt cx="777645" cy="479442"/>
               </a:xfrm>
             </xdr:grpSpPr>
             <xdr:sp macro="" textlink="">
@@ -6790,7 +6794,7 @@
               </xdr:nvSpPr>
               <xdr:spPr bwMode="auto">
                 <a:xfrm>
-                  <a:off x="191656" y="3012359"/>
+                  <a:off x="191656" y="3012361"/>
                   <a:ext cx="777645" cy="164478"/>
                 </a:xfrm>
                 <a:prstGeom prst="rect">
@@ -6856,7 +6860,7 @@
               </xdr:nvSpPr>
               <xdr:spPr bwMode="auto">
                 <a:xfrm>
-                  <a:off x="196808" y="3340327"/>
+                  <a:off x="196808" y="3340323"/>
                   <a:ext cx="763862" cy="151480"/>
                 </a:xfrm>
                 <a:prstGeom prst="rect">
@@ -8465,1779 +8469,1994 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="54"/>
-      <c r="B1" s="276" t="s">
+      <c r="B1" s="245" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="276"/>
-      <c r="D1" s="276"/>
-      <c r="E1" s="276"/>
-      <c r="F1" s="276"/>
-      <c r="G1" s="276"/>
-      <c r="H1" s="276"/>
-      <c r="I1" s="276"/>
-      <c r="J1" s="276"/>
-      <c r="K1" s="276"/>
-      <c r="L1" s="276"/>
-      <c r="M1" s="276"/>
-      <c r="N1" s="276"/>
-      <c r="O1" s="276"/>
-      <c r="P1" s="276"/>
-      <c r="Q1" s="276"/>
-      <c r="R1" s="276"/>
-      <c r="S1" s="276"/>
-      <c r="T1" s="276"/>
-      <c r="U1" s="276"/>
-      <c r="V1" s="276"/>
-      <c r="W1" s="276"/>
-      <c r="X1" s="276"/>
-      <c r="Y1" s="276"/>
-      <c r="Z1" s="276"/>
-      <c r="AA1" s="276"/>
-      <c r="AB1" s="276"/>
-      <c r="AC1" s="276"/>
-      <c r="AD1" s="276"/>
-      <c r="AE1" s="276"/>
-      <c r="AF1" s="276"/>
-      <c r="AG1" s="276"/>
-      <c r="AH1" s="276"/>
-      <c r="AI1" s="276"/>
-      <c r="AJ1" s="276"/>
-      <c r="AK1" s="276"/>
-      <c r="AL1" s="276"/>
-      <c r="AM1" s="276"/>
-      <c r="AN1" s="276"/>
-      <c r="AO1" s="276"/>
-      <c r="AP1" s="276"/>
-      <c r="AQ1" s="276"/>
-      <c r="AR1" s="276"/>
-      <c r="AS1" s="276"/>
-      <c r="AT1" s="276"/>
-      <c r="AU1" s="276"/>
-      <c r="AV1" s="276"/>
-      <c r="AW1" s="276"/>
+      <c r="C1" s="245"/>
+      <c r="D1" s="245"/>
+      <c r="E1" s="245"/>
+      <c r="F1" s="245"/>
+      <c r="G1" s="245"/>
+      <c r="H1" s="245"/>
+      <c r="I1" s="245"/>
+      <c r="J1" s="245"/>
+      <c r="K1" s="245"/>
+      <c r="L1" s="245"/>
+      <c r="M1" s="245"/>
+      <c r="N1" s="245"/>
+      <c r="O1" s="245"/>
+      <c r="P1" s="245"/>
+      <c r="Q1" s="245"/>
+      <c r="R1" s="245"/>
+      <c r="S1" s="245"/>
+      <c r="T1" s="245"/>
+      <c r="U1" s="245"/>
+      <c r="V1" s="245"/>
+      <c r="W1" s="245"/>
+      <c r="X1" s="245"/>
+      <c r="Y1" s="245"/>
+      <c r="Z1" s="245"/>
+      <c r="AA1" s="245"/>
+      <c r="AB1" s="245"/>
+      <c r="AC1" s="245"/>
+      <c r="AD1" s="245"/>
+      <c r="AE1" s="245"/>
+      <c r="AF1" s="245"/>
+      <c r="AG1" s="245"/>
+      <c r="AH1" s="245"/>
+      <c r="AI1" s="245"/>
+      <c r="AJ1" s="245"/>
+      <c r="AK1" s="245"/>
+      <c r="AL1" s="245"/>
+      <c r="AM1" s="245"/>
+      <c r="AN1" s="245"/>
+      <c r="AO1" s="245"/>
+      <c r="AP1" s="245"/>
+      <c r="AQ1" s="245"/>
+      <c r="AR1" s="245"/>
+      <c r="AS1" s="245"/>
+      <c r="AT1" s="245"/>
+      <c r="AU1" s="245"/>
+      <c r="AV1" s="245"/>
+      <c r="AW1" s="245"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="54"/>
-      <c r="B2" s="277"/>
-      <c r="C2" s="277"/>
-      <c r="D2" s="277"/>
-      <c r="E2" s="277"/>
-      <c r="F2" s="277"/>
-      <c r="G2" s="277"/>
-      <c r="H2" s="277"/>
-      <c r="I2" s="277"/>
-      <c r="J2" s="277"/>
-      <c r="K2" s="277"/>
-      <c r="L2" s="277"/>
-      <c r="M2" s="277"/>
-      <c r="N2" s="277"/>
-      <c r="O2" s="277"/>
-      <c r="P2" s="277"/>
-      <c r="Q2" s="277"/>
-      <c r="R2" s="277"/>
-      <c r="S2" s="277"/>
-      <c r="T2" s="277"/>
-      <c r="U2" s="277"/>
-      <c r="V2" s="277"/>
-      <c r="W2" s="277"/>
-      <c r="X2" s="277"/>
-      <c r="Y2" s="277"/>
-      <c r="Z2" s="277"/>
-      <c r="AA2" s="277"/>
-      <c r="AB2" s="277"/>
-      <c r="AC2" s="277"/>
-      <c r="AD2" s="277"/>
-      <c r="AE2" s="277"/>
-      <c r="AF2" s="277"/>
-      <c r="AG2" s="277"/>
-      <c r="AH2" s="277"/>
-      <c r="AI2" s="277"/>
-      <c r="AJ2" s="277"/>
-      <c r="AK2" s="277"/>
-      <c r="AL2" s="277"/>
-      <c r="AM2" s="277"/>
-      <c r="AN2" s="277"/>
-      <c r="AO2" s="277"/>
-      <c r="AP2" s="277"/>
-      <c r="AQ2" s="277"/>
-      <c r="AR2" s="277"/>
-      <c r="AS2" s="277"/>
-      <c r="AT2" s="277"/>
-      <c r="AU2" s="277"/>
-      <c r="AV2" s="277"/>
-      <c r="AW2" s="277"/>
+      <c r="B2" s="246"/>
+      <c r="C2" s="246"/>
+      <c r="D2" s="246"/>
+      <c r="E2" s="246"/>
+      <c r="F2" s="246"/>
+      <c r="G2" s="246"/>
+      <c r="H2" s="246"/>
+      <c r="I2" s="246"/>
+      <c r="J2" s="246"/>
+      <c r="K2" s="246"/>
+      <c r="L2" s="246"/>
+      <c r="M2" s="246"/>
+      <c r="N2" s="246"/>
+      <c r="O2" s="246"/>
+      <c r="P2" s="246"/>
+      <c r="Q2" s="246"/>
+      <c r="R2" s="246"/>
+      <c r="S2" s="246"/>
+      <c r="T2" s="246"/>
+      <c r="U2" s="246"/>
+      <c r="V2" s="246"/>
+      <c r="W2" s="246"/>
+      <c r="X2" s="246"/>
+      <c r="Y2" s="246"/>
+      <c r="Z2" s="246"/>
+      <c r="AA2" s="246"/>
+      <c r="AB2" s="246"/>
+      <c r="AC2" s="246"/>
+      <c r="AD2" s="246"/>
+      <c r="AE2" s="246"/>
+      <c r="AF2" s="246"/>
+      <c r="AG2" s="246"/>
+      <c r="AH2" s="246"/>
+      <c r="AI2" s="246"/>
+      <c r="AJ2" s="246"/>
+      <c r="AK2" s="246"/>
+      <c r="AL2" s="246"/>
+      <c r="AM2" s="246"/>
+      <c r="AN2" s="246"/>
+      <c r="AO2" s="246"/>
+      <c r="AP2" s="246"/>
+      <c r="AQ2" s="246"/>
+      <c r="AR2" s="246"/>
+      <c r="AS2" s="246"/>
+      <c r="AT2" s="246"/>
+      <c r="AU2" s="246"/>
+      <c r="AV2" s="246"/>
+      <c r="AW2" s="246"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="54"/>
-      <c r="B3" s="278" t="s">
+      <c r="B3" s="247" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="278"/>
-      <c r="D3" s="278"/>
-      <c r="E3" s="278" t="s">
+      <c r="C3" s="247"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="278"/>
-      <c r="G3" s="278"/>
-      <c r="H3" s="278"/>
-      <c r="I3" s="278"/>
-      <c r="J3" s="279" t="s">
+      <c r="F3" s="247"/>
+      <c r="G3" s="247"/>
+      <c r="H3" s="247"/>
+      <c r="I3" s="247"/>
+      <c r="J3" s="248" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="280"/>
-      <c r="L3" s="281"/>
-      <c r="M3" s="279" t="s">
+      <c r="K3" s="249"/>
+      <c r="L3" s="250"/>
+      <c r="M3" s="248" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="280"/>
-      <c r="O3" s="280"/>
-      <c r="P3" s="280"/>
-      <c r="Q3" s="280"/>
-      <c r="R3" s="281"/>
-      <c r="S3" s="278" t="s">
+      <c r="N3" s="249"/>
+      <c r="O3" s="249"/>
+      <c r="P3" s="249"/>
+      <c r="Q3" s="249"/>
+      <c r="R3" s="250"/>
+      <c r="S3" s="247" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="278"/>
-      <c r="U3" s="278"/>
-      <c r="V3" s="278" t="s">
+      <c r="T3" s="247"/>
+      <c r="U3" s="247"/>
+      <c r="V3" s="247" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="278"/>
-      <c r="X3" s="278"/>
-      <c r="Y3" s="278"/>
-      <c r="Z3" s="278"/>
-      <c r="AA3" s="278"/>
-      <c r="AB3" s="278"/>
-      <c r="AC3" s="278"/>
-      <c r="AD3" s="278"/>
-      <c r="AE3" s="278"/>
-      <c r="AF3" s="278"/>
-      <c r="AG3" s="278"/>
-      <c r="AH3" s="278"/>
-      <c r="AI3" s="278"/>
-      <c r="AJ3" s="278"/>
-      <c r="AK3" s="278"/>
-      <c r="AL3" s="278"/>
-      <c r="AM3" s="278"/>
-      <c r="AN3" s="278" t="s">
+      <c r="W3" s="247"/>
+      <c r="X3" s="247"/>
+      <c r="Y3" s="247"/>
+      <c r="Z3" s="247"/>
+      <c r="AA3" s="247"/>
+      <c r="AB3" s="247"/>
+      <c r="AC3" s="247"/>
+      <c r="AD3" s="247"/>
+      <c r="AE3" s="247"/>
+      <c r="AF3" s="247"/>
+      <c r="AG3" s="247"/>
+      <c r="AH3" s="247"/>
+      <c r="AI3" s="247"/>
+      <c r="AJ3" s="247"/>
+      <c r="AK3" s="247"/>
+      <c r="AL3" s="247"/>
+      <c r="AM3" s="247"/>
+      <c r="AN3" s="247" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="278"/>
-      <c r="AP3" s="278"/>
-      <c r="AQ3" s="278"/>
-      <c r="AR3" s="278"/>
-      <c r="AS3" s="278" t="s">
+      <c r="AO3" s="247"/>
+      <c r="AP3" s="247"/>
+      <c r="AQ3" s="247"/>
+      <c r="AR3" s="247"/>
+      <c r="AS3" s="247" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="278"/>
-      <c r="AU3" s="278"/>
-      <c r="AV3" s="278"/>
-      <c r="AW3" s="278"/>
+      <c r="AT3" s="247"/>
+      <c r="AU3" s="247"/>
+      <c r="AV3" s="247"/>
+      <c r="AW3" s="247"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="54"/>
-      <c r="B4" s="278"/>
-      <c r="C4" s="278"/>
-      <c r="D4" s="278"/>
-      <c r="E4" s="278"/>
-      <c r="F4" s="278"/>
-      <c r="G4" s="278"/>
-      <c r="H4" s="278"/>
-      <c r="I4" s="278"/>
-      <c r="J4" s="282"/>
-      <c r="K4" s="283"/>
-      <c r="L4" s="284"/>
-      <c r="M4" s="282"/>
-      <c r="N4" s="283"/>
-      <c r="O4" s="283"/>
-      <c r="P4" s="283"/>
-      <c r="Q4" s="283"/>
-      <c r="R4" s="284"/>
-      <c r="S4" s="278"/>
-      <c r="T4" s="278"/>
-      <c r="U4" s="278"/>
-      <c r="V4" s="278"/>
-      <c r="W4" s="278"/>
-      <c r="X4" s="278"/>
-      <c r="Y4" s="278"/>
-      <c r="Z4" s="278"/>
-      <c r="AA4" s="278"/>
-      <c r="AB4" s="278"/>
-      <c r="AC4" s="278"/>
-      <c r="AD4" s="278"/>
-      <c r="AE4" s="278"/>
-      <c r="AF4" s="278"/>
-      <c r="AG4" s="278"/>
-      <c r="AH4" s="278"/>
-      <c r="AI4" s="278"/>
-      <c r="AJ4" s="278"/>
-      <c r="AK4" s="278"/>
-      <c r="AL4" s="278"/>
-      <c r="AM4" s="278"/>
-      <c r="AN4" s="278"/>
-      <c r="AO4" s="278"/>
-      <c r="AP4" s="278"/>
-      <c r="AQ4" s="278"/>
-      <c r="AR4" s="278"/>
-      <c r="AS4" s="278"/>
-      <c r="AT4" s="278"/>
-      <c r="AU4" s="278"/>
-      <c r="AV4" s="278"/>
-      <c r="AW4" s="278"/>
+      <c r="B4" s="247"/>
+      <c r="C4" s="247"/>
+      <c r="D4" s="247"/>
+      <c r="E4" s="247"/>
+      <c r="F4" s="247"/>
+      <c r="G4" s="247"/>
+      <c r="H4" s="247"/>
+      <c r="I4" s="247"/>
+      <c r="J4" s="251"/>
+      <c r="K4" s="252"/>
+      <c r="L4" s="253"/>
+      <c r="M4" s="251"/>
+      <c r="N4" s="252"/>
+      <c r="O4" s="252"/>
+      <c r="P4" s="252"/>
+      <c r="Q4" s="252"/>
+      <c r="R4" s="253"/>
+      <c r="S4" s="247"/>
+      <c r="T4" s="247"/>
+      <c r="U4" s="247"/>
+      <c r="V4" s="247"/>
+      <c r="W4" s="247"/>
+      <c r="X4" s="247"/>
+      <c r="Y4" s="247"/>
+      <c r="Z4" s="247"/>
+      <c r="AA4" s="247"/>
+      <c r="AB4" s="247"/>
+      <c r="AC4" s="247"/>
+      <c r="AD4" s="247"/>
+      <c r="AE4" s="247"/>
+      <c r="AF4" s="247"/>
+      <c r="AG4" s="247"/>
+      <c r="AH4" s="247"/>
+      <c r="AI4" s="247"/>
+      <c r="AJ4" s="247"/>
+      <c r="AK4" s="247"/>
+      <c r="AL4" s="247"/>
+      <c r="AM4" s="247"/>
+      <c r="AN4" s="247"/>
+      <c r="AO4" s="247"/>
+      <c r="AP4" s="247"/>
+      <c r="AQ4" s="247"/>
+      <c r="AR4" s="247"/>
+      <c r="AS4" s="247"/>
+      <c r="AT4" s="247"/>
+      <c r="AU4" s="247"/>
+      <c r="AV4" s="247"/>
+      <c r="AW4" s="247"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="56"/>
-      <c r="B5" s="270">
+      <c r="B5" s="255">
         <v>1</v>
       </c>
-      <c r="C5" s="270"/>
-      <c r="D5" s="270"/>
-      <c r="E5" s="251">
+      <c r="C5" s="255"/>
+      <c r="D5" s="255"/>
+      <c r="E5" s="256">
         <v>43734</v>
       </c>
-      <c r="F5" s="251"/>
-      <c r="G5" s="251"/>
-      <c r="H5" s="251"/>
-      <c r="I5" s="251"/>
-      <c r="J5" s="252" t="s">
+      <c r="F5" s="256"/>
+      <c r="G5" s="256"/>
+      <c r="H5" s="256"/>
+      <c r="I5" s="256"/>
+      <c r="J5" s="257" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="253"/>
-      <c r="L5" s="254"/>
-      <c r="M5" s="252" t="s">
+      <c r="K5" s="258"/>
+      <c r="L5" s="259"/>
+      <c r="M5" s="257" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="253"/>
-      <c r="O5" s="253"/>
-      <c r="P5" s="253"/>
-      <c r="Q5" s="253"/>
-      <c r="R5" s="254"/>
-      <c r="S5" s="258" t="s">
+      <c r="N5" s="258"/>
+      <c r="O5" s="258"/>
+      <c r="P5" s="258"/>
+      <c r="Q5" s="258"/>
+      <c r="R5" s="259"/>
+      <c r="S5" s="254" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="258"/>
-      <c r="U5" s="258"/>
-      <c r="V5" s="269" t="s">
+      <c r="T5" s="254"/>
+      <c r="U5" s="254"/>
+      <c r="V5" s="263" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="269"/>
-      <c r="X5" s="269"/>
-      <c r="Y5" s="269"/>
-      <c r="Z5" s="269"/>
-      <c r="AA5" s="269"/>
-      <c r="AB5" s="269"/>
-      <c r="AC5" s="269"/>
-      <c r="AD5" s="269"/>
-      <c r="AE5" s="269"/>
-      <c r="AF5" s="269"/>
-      <c r="AG5" s="269"/>
-      <c r="AH5" s="269"/>
-      <c r="AI5" s="269"/>
-      <c r="AJ5" s="269"/>
-      <c r="AK5" s="269"/>
-      <c r="AL5" s="269"/>
-      <c r="AM5" s="269"/>
-      <c r="AN5" s="258" t="s">
+      <c r="W5" s="263"/>
+      <c r="X5" s="263"/>
+      <c r="Y5" s="263"/>
+      <c r="Z5" s="263"/>
+      <c r="AA5" s="263"/>
+      <c r="AB5" s="263"/>
+      <c r="AC5" s="263"/>
+      <c r="AD5" s="263"/>
+      <c r="AE5" s="263"/>
+      <c r="AF5" s="263"/>
+      <c r="AG5" s="263"/>
+      <c r="AH5" s="263"/>
+      <c r="AI5" s="263"/>
+      <c r="AJ5" s="263"/>
+      <c r="AK5" s="263"/>
+      <c r="AL5" s="263"/>
+      <c r="AM5" s="263"/>
+      <c r="AN5" s="254" t="s">
         <v>188</v>
       </c>
-      <c r="AO5" s="258"/>
-      <c r="AP5" s="258"/>
-      <c r="AQ5" s="258"/>
-      <c r="AR5" s="258"/>
-      <c r="AS5" s="258"/>
-      <c r="AT5" s="258"/>
-      <c r="AU5" s="258"/>
-      <c r="AV5" s="258"/>
-      <c r="AW5" s="258"/>
+      <c r="AO5" s="254"/>
+      <c r="AP5" s="254"/>
+      <c r="AQ5" s="254"/>
+      <c r="AR5" s="254"/>
+      <c r="AS5" s="254"/>
+      <c r="AT5" s="254"/>
+      <c r="AU5" s="254"/>
+      <c r="AV5" s="254"/>
+      <c r="AW5" s="254"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="56"/>
-      <c r="B6" s="270"/>
-      <c r="C6" s="270"/>
-      <c r="D6" s="270"/>
-      <c r="E6" s="251"/>
-      <c r="F6" s="251"/>
-      <c r="G6" s="251"/>
-      <c r="H6" s="251"/>
-      <c r="I6" s="251"/>
-      <c r="J6" s="252"/>
-      <c r="K6" s="253"/>
-      <c r="L6" s="254"/>
-      <c r="M6" s="273"/>
-      <c r="N6" s="274"/>
-      <c r="O6" s="274"/>
-      <c r="P6" s="274"/>
-      <c r="Q6" s="274"/>
-      <c r="R6" s="275"/>
-      <c r="S6" s="258"/>
-      <c r="T6" s="258"/>
-      <c r="U6" s="258"/>
-      <c r="V6" s="269"/>
-      <c r="W6" s="269"/>
-      <c r="X6" s="269"/>
-      <c r="Y6" s="269"/>
-      <c r="Z6" s="269"/>
-      <c r="AA6" s="269"/>
-      <c r="AB6" s="269"/>
-      <c r="AC6" s="269"/>
-      <c r="AD6" s="269"/>
-      <c r="AE6" s="269"/>
-      <c r="AF6" s="269"/>
-      <c r="AG6" s="269"/>
-      <c r="AH6" s="269"/>
-      <c r="AI6" s="269"/>
-      <c r="AJ6" s="269"/>
-      <c r="AK6" s="269"/>
-      <c r="AL6" s="269"/>
-      <c r="AM6" s="269"/>
-      <c r="AN6" s="258"/>
-      <c r="AO6" s="258"/>
-      <c r="AP6" s="258"/>
-      <c r="AQ6" s="258"/>
-      <c r="AR6" s="258"/>
-      <c r="AS6" s="258"/>
-      <c r="AT6" s="258"/>
-      <c r="AU6" s="258"/>
-      <c r="AV6" s="258"/>
-      <c r="AW6" s="258"/>
+      <c r="B6" s="255"/>
+      <c r="C6" s="255"/>
+      <c r="D6" s="255"/>
+      <c r="E6" s="256"/>
+      <c r="F6" s="256"/>
+      <c r="G6" s="256"/>
+      <c r="H6" s="256"/>
+      <c r="I6" s="256"/>
+      <c r="J6" s="257"/>
+      <c r="K6" s="258"/>
+      <c r="L6" s="259"/>
+      <c r="M6" s="260"/>
+      <c r="N6" s="261"/>
+      <c r="O6" s="261"/>
+      <c r="P6" s="261"/>
+      <c r="Q6" s="261"/>
+      <c r="R6" s="262"/>
+      <c r="S6" s="254"/>
+      <c r="T6" s="254"/>
+      <c r="U6" s="254"/>
+      <c r="V6" s="263"/>
+      <c r="W6" s="263"/>
+      <c r="X6" s="263"/>
+      <c r="Y6" s="263"/>
+      <c r="Z6" s="263"/>
+      <c r="AA6" s="263"/>
+      <c r="AB6" s="263"/>
+      <c r="AC6" s="263"/>
+      <c r="AD6" s="263"/>
+      <c r="AE6" s="263"/>
+      <c r="AF6" s="263"/>
+      <c r="AG6" s="263"/>
+      <c r="AH6" s="263"/>
+      <c r="AI6" s="263"/>
+      <c r="AJ6" s="263"/>
+      <c r="AK6" s="263"/>
+      <c r="AL6" s="263"/>
+      <c r="AM6" s="263"/>
+      <c r="AN6" s="254"/>
+      <c r="AO6" s="254"/>
+      <c r="AP6" s="254"/>
+      <c r="AQ6" s="254"/>
+      <c r="AR6" s="254"/>
+      <c r="AS6" s="254"/>
+      <c r="AT6" s="254"/>
+      <c r="AU6" s="254"/>
+      <c r="AV6" s="254"/>
+      <c r="AW6" s="254"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="56"/>
-      <c r="B7" s="270"/>
-      <c r="C7" s="270"/>
-      <c r="D7" s="270"/>
-      <c r="E7" s="251"/>
-      <c r="F7" s="251"/>
-      <c r="G7" s="251"/>
-      <c r="H7" s="251"/>
-      <c r="I7" s="251"/>
-      <c r="J7" s="252"/>
-      <c r="K7" s="253"/>
-      <c r="L7" s="254"/>
-      <c r="M7" s="273"/>
-      <c r="N7" s="274"/>
-      <c r="O7" s="274"/>
-      <c r="P7" s="274"/>
-      <c r="Q7" s="274"/>
-      <c r="R7" s="275"/>
-      <c r="S7" s="258"/>
-      <c r="T7" s="258"/>
-      <c r="U7" s="258"/>
-      <c r="V7" s="269"/>
-      <c r="W7" s="269"/>
-      <c r="X7" s="269"/>
-      <c r="Y7" s="269"/>
-      <c r="Z7" s="269"/>
-      <c r="AA7" s="269"/>
-      <c r="AB7" s="269"/>
-      <c r="AC7" s="269"/>
-      <c r="AD7" s="269"/>
-      <c r="AE7" s="269"/>
-      <c r="AF7" s="269"/>
-      <c r="AG7" s="269"/>
-      <c r="AH7" s="269"/>
-      <c r="AI7" s="269"/>
-      <c r="AJ7" s="269"/>
-      <c r="AK7" s="269"/>
-      <c r="AL7" s="269"/>
-      <c r="AM7" s="269"/>
-      <c r="AN7" s="258"/>
-      <c r="AO7" s="258"/>
-      <c r="AP7" s="258"/>
-      <c r="AQ7" s="258"/>
-      <c r="AR7" s="258"/>
-      <c r="AS7" s="258"/>
-      <c r="AT7" s="258"/>
-      <c r="AU7" s="258"/>
-      <c r="AV7" s="258"/>
-      <c r="AW7" s="258"/>
+      <c r="B7" s="255"/>
+      <c r="C7" s="255"/>
+      <c r="D7" s="255"/>
+      <c r="E7" s="256"/>
+      <c r="F7" s="256"/>
+      <c r="G7" s="256"/>
+      <c r="H7" s="256"/>
+      <c r="I7" s="256"/>
+      <c r="J7" s="257"/>
+      <c r="K7" s="258"/>
+      <c r="L7" s="259"/>
+      <c r="M7" s="260"/>
+      <c r="N7" s="261"/>
+      <c r="O7" s="261"/>
+      <c r="P7" s="261"/>
+      <c r="Q7" s="261"/>
+      <c r="R7" s="262"/>
+      <c r="S7" s="254"/>
+      <c r="T7" s="254"/>
+      <c r="U7" s="254"/>
+      <c r="V7" s="263"/>
+      <c r="W7" s="263"/>
+      <c r="X7" s="263"/>
+      <c r="Y7" s="263"/>
+      <c r="Z7" s="263"/>
+      <c r="AA7" s="263"/>
+      <c r="AB7" s="263"/>
+      <c r="AC7" s="263"/>
+      <c r="AD7" s="263"/>
+      <c r="AE7" s="263"/>
+      <c r="AF7" s="263"/>
+      <c r="AG7" s="263"/>
+      <c r="AH7" s="263"/>
+      <c r="AI7" s="263"/>
+      <c r="AJ7" s="263"/>
+      <c r="AK7" s="263"/>
+      <c r="AL7" s="263"/>
+      <c r="AM7" s="263"/>
+      <c r="AN7" s="254"/>
+      <c r="AO7" s="254"/>
+      <c r="AP7" s="254"/>
+      <c r="AQ7" s="254"/>
+      <c r="AR7" s="254"/>
+      <c r="AS7" s="254"/>
+      <c r="AT7" s="254"/>
+      <c r="AU7" s="254"/>
+      <c r="AV7" s="254"/>
+      <c r="AW7" s="254"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="56"/>
-      <c r="B8" s="270"/>
-      <c r="C8" s="270"/>
-      <c r="D8" s="270"/>
-      <c r="E8" s="251"/>
-      <c r="F8" s="251"/>
-      <c r="G8" s="251"/>
-      <c r="H8" s="251"/>
-      <c r="I8" s="251"/>
-      <c r="J8" s="252"/>
-      <c r="K8" s="253"/>
-      <c r="L8" s="254"/>
-      <c r="M8" s="273"/>
-      <c r="N8" s="274"/>
-      <c r="O8" s="274"/>
-      <c r="P8" s="274"/>
-      <c r="Q8" s="274"/>
-      <c r="R8" s="275"/>
-      <c r="S8" s="258"/>
-      <c r="T8" s="258"/>
-      <c r="U8" s="258"/>
-      <c r="V8" s="269"/>
-      <c r="W8" s="269"/>
-      <c r="X8" s="269"/>
-      <c r="Y8" s="269"/>
-      <c r="Z8" s="269"/>
-      <c r="AA8" s="269"/>
-      <c r="AB8" s="269"/>
-      <c r="AC8" s="269"/>
-      <c r="AD8" s="269"/>
-      <c r="AE8" s="269"/>
-      <c r="AF8" s="269"/>
-      <c r="AG8" s="269"/>
-      <c r="AH8" s="269"/>
-      <c r="AI8" s="269"/>
-      <c r="AJ8" s="269"/>
-      <c r="AK8" s="269"/>
-      <c r="AL8" s="269"/>
-      <c r="AM8" s="269"/>
-      <c r="AN8" s="258"/>
-      <c r="AO8" s="258"/>
-      <c r="AP8" s="258"/>
-      <c r="AQ8" s="258"/>
-      <c r="AR8" s="258"/>
-      <c r="AS8" s="258"/>
-      <c r="AT8" s="258"/>
-      <c r="AU8" s="258"/>
-      <c r="AV8" s="258"/>
-      <c r="AW8" s="258"/>
+      <c r="B8" s="255"/>
+      <c r="C8" s="255"/>
+      <c r="D8" s="255"/>
+      <c r="E8" s="256"/>
+      <c r="F8" s="256"/>
+      <c r="G8" s="256"/>
+      <c r="H8" s="256"/>
+      <c r="I8" s="256"/>
+      <c r="J8" s="257"/>
+      <c r="K8" s="258"/>
+      <c r="L8" s="259"/>
+      <c r="M8" s="260"/>
+      <c r="N8" s="261"/>
+      <c r="O8" s="261"/>
+      <c r="P8" s="261"/>
+      <c r="Q8" s="261"/>
+      <c r="R8" s="262"/>
+      <c r="S8" s="254"/>
+      <c r="T8" s="254"/>
+      <c r="U8" s="254"/>
+      <c r="V8" s="263"/>
+      <c r="W8" s="263"/>
+      <c r="X8" s="263"/>
+      <c r="Y8" s="263"/>
+      <c r="Z8" s="263"/>
+      <c r="AA8" s="263"/>
+      <c r="AB8" s="263"/>
+      <c r="AC8" s="263"/>
+      <c r="AD8" s="263"/>
+      <c r="AE8" s="263"/>
+      <c r="AF8" s="263"/>
+      <c r="AG8" s="263"/>
+      <c r="AH8" s="263"/>
+      <c r="AI8" s="263"/>
+      <c r="AJ8" s="263"/>
+      <c r="AK8" s="263"/>
+      <c r="AL8" s="263"/>
+      <c r="AM8" s="263"/>
+      <c r="AN8" s="254"/>
+      <c r="AO8" s="254"/>
+      <c r="AP8" s="254"/>
+      <c r="AQ8" s="254"/>
+      <c r="AR8" s="254"/>
+      <c r="AS8" s="254"/>
+      <c r="AT8" s="254"/>
+      <c r="AU8" s="254"/>
+      <c r="AV8" s="254"/>
+      <c r="AW8" s="254"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="56"/>
-      <c r="B9" s="270"/>
-      <c r="C9" s="270"/>
-      <c r="D9" s="270"/>
-      <c r="E9" s="251"/>
-      <c r="F9" s="251"/>
-      <c r="G9" s="251"/>
-      <c r="H9" s="251"/>
-      <c r="I9" s="251"/>
-      <c r="J9" s="252"/>
-      <c r="K9" s="253"/>
-      <c r="L9" s="254"/>
-      <c r="M9" s="273"/>
-      <c r="N9" s="274"/>
-      <c r="O9" s="274"/>
-      <c r="P9" s="274"/>
-      <c r="Q9" s="274"/>
-      <c r="R9" s="275"/>
-      <c r="S9" s="258"/>
-      <c r="T9" s="258"/>
-      <c r="U9" s="258"/>
-      <c r="V9" s="269"/>
-      <c r="W9" s="269"/>
-      <c r="X9" s="269"/>
-      <c r="Y9" s="269"/>
-      <c r="Z9" s="269"/>
-      <c r="AA9" s="269"/>
-      <c r="AB9" s="269"/>
-      <c r="AC9" s="269"/>
-      <c r="AD9" s="269"/>
-      <c r="AE9" s="269"/>
-      <c r="AF9" s="269"/>
-      <c r="AG9" s="269"/>
-      <c r="AH9" s="269"/>
-      <c r="AI9" s="269"/>
-      <c r="AJ9" s="269"/>
-      <c r="AK9" s="269"/>
-      <c r="AL9" s="269"/>
-      <c r="AM9" s="269"/>
-      <c r="AN9" s="258"/>
-      <c r="AO9" s="258"/>
-      <c r="AP9" s="258"/>
-      <c r="AQ9" s="258"/>
-      <c r="AR9" s="258"/>
-      <c r="AS9" s="258"/>
-      <c r="AT9" s="258"/>
-      <c r="AU9" s="258"/>
-      <c r="AV9" s="258"/>
-      <c r="AW9" s="258"/>
+      <c r="B9" s="255"/>
+      <c r="C9" s="255"/>
+      <c r="D9" s="255"/>
+      <c r="E9" s="256"/>
+      <c r="F9" s="256"/>
+      <c r="G9" s="256"/>
+      <c r="H9" s="256"/>
+      <c r="I9" s="256"/>
+      <c r="J9" s="257"/>
+      <c r="K9" s="258"/>
+      <c r="L9" s="259"/>
+      <c r="M9" s="260"/>
+      <c r="N9" s="261"/>
+      <c r="O9" s="261"/>
+      <c r="P9" s="261"/>
+      <c r="Q9" s="261"/>
+      <c r="R9" s="262"/>
+      <c r="S9" s="254"/>
+      <c r="T9" s="254"/>
+      <c r="U9" s="254"/>
+      <c r="V9" s="263"/>
+      <c r="W9" s="263"/>
+      <c r="X9" s="263"/>
+      <c r="Y9" s="263"/>
+      <c r="Z9" s="263"/>
+      <c r="AA9" s="263"/>
+      <c r="AB9" s="263"/>
+      <c r="AC9" s="263"/>
+      <c r="AD9" s="263"/>
+      <c r="AE9" s="263"/>
+      <c r="AF9" s="263"/>
+      <c r="AG9" s="263"/>
+      <c r="AH9" s="263"/>
+      <c r="AI9" s="263"/>
+      <c r="AJ9" s="263"/>
+      <c r="AK9" s="263"/>
+      <c r="AL9" s="263"/>
+      <c r="AM9" s="263"/>
+      <c r="AN9" s="254"/>
+      <c r="AO9" s="254"/>
+      <c r="AP9" s="254"/>
+      <c r="AQ9" s="254"/>
+      <c r="AR9" s="254"/>
+      <c r="AS9" s="254"/>
+      <c r="AT9" s="254"/>
+      <c r="AU9" s="254"/>
+      <c r="AV9" s="254"/>
+      <c r="AW9" s="254"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="56"/>
-      <c r="B10" s="270"/>
-      <c r="C10" s="270"/>
-      <c r="D10" s="270"/>
-      <c r="E10" s="251"/>
-      <c r="F10" s="251"/>
-      <c r="G10" s="251"/>
-      <c r="H10" s="251"/>
-      <c r="I10" s="251"/>
-      <c r="J10" s="252"/>
-      <c r="K10" s="253"/>
-      <c r="L10" s="254"/>
-      <c r="M10" s="273"/>
-      <c r="N10" s="274"/>
-      <c r="O10" s="274"/>
-      <c r="P10" s="274"/>
-      <c r="Q10" s="274"/>
-      <c r="R10" s="275"/>
-      <c r="S10" s="258"/>
-      <c r="T10" s="258"/>
-      <c r="U10" s="258"/>
-      <c r="V10" s="269"/>
-      <c r="W10" s="269"/>
-      <c r="X10" s="269"/>
-      <c r="Y10" s="269"/>
-      <c r="Z10" s="269"/>
-      <c r="AA10" s="269"/>
-      <c r="AB10" s="269"/>
-      <c r="AC10" s="269"/>
-      <c r="AD10" s="269"/>
-      <c r="AE10" s="269"/>
-      <c r="AF10" s="269"/>
-      <c r="AG10" s="269"/>
-      <c r="AH10" s="269"/>
-      <c r="AI10" s="269"/>
-      <c r="AJ10" s="269"/>
-      <c r="AK10" s="269"/>
-      <c r="AL10" s="269"/>
-      <c r="AM10" s="269"/>
-      <c r="AN10" s="258"/>
-      <c r="AO10" s="258"/>
-      <c r="AP10" s="258"/>
-      <c r="AQ10" s="258"/>
-      <c r="AR10" s="258"/>
-      <c r="AS10" s="258"/>
-      <c r="AT10" s="258"/>
-      <c r="AU10" s="258"/>
-      <c r="AV10" s="258"/>
-      <c r="AW10" s="258"/>
+      <c r="B10" s="255"/>
+      <c r="C10" s="255"/>
+      <c r="D10" s="255"/>
+      <c r="E10" s="256"/>
+      <c r="F10" s="256"/>
+      <c r="G10" s="256"/>
+      <c r="H10" s="256"/>
+      <c r="I10" s="256"/>
+      <c r="J10" s="257"/>
+      <c r="K10" s="258"/>
+      <c r="L10" s="259"/>
+      <c r="M10" s="260"/>
+      <c r="N10" s="261"/>
+      <c r="O10" s="261"/>
+      <c r="P10" s="261"/>
+      <c r="Q10" s="261"/>
+      <c r="R10" s="262"/>
+      <c r="S10" s="254"/>
+      <c r="T10" s="254"/>
+      <c r="U10" s="254"/>
+      <c r="V10" s="263"/>
+      <c r="W10" s="263"/>
+      <c r="X10" s="263"/>
+      <c r="Y10" s="263"/>
+      <c r="Z10" s="263"/>
+      <c r="AA10" s="263"/>
+      <c r="AB10" s="263"/>
+      <c r="AC10" s="263"/>
+      <c r="AD10" s="263"/>
+      <c r="AE10" s="263"/>
+      <c r="AF10" s="263"/>
+      <c r="AG10" s="263"/>
+      <c r="AH10" s="263"/>
+      <c r="AI10" s="263"/>
+      <c r="AJ10" s="263"/>
+      <c r="AK10" s="263"/>
+      <c r="AL10" s="263"/>
+      <c r="AM10" s="263"/>
+      <c r="AN10" s="254"/>
+      <c r="AO10" s="254"/>
+      <c r="AP10" s="254"/>
+      <c r="AQ10" s="254"/>
+      <c r="AR10" s="254"/>
+      <c r="AS10" s="254"/>
+      <c r="AT10" s="254"/>
+      <c r="AU10" s="254"/>
+      <c r="AV10" s="254"/>
+      <c r="AW10" s="254"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="56"/>
-      <c r="B11" s="270"/>
-      <c r="C11" s="270"/>
-      <c r="D11" s="270"/>
-      <c r="E11" s="251"/>
-      <c r="F11" s="251"/>
-      <c r="G11" s="251"/>
-      <c r="H11" s="251"/>
-      <c r="I11" s="251"/>
-      <c r="J11" s="252"/>
-      <c r="K11" s="253"/>
-      <c r="L11" s="254"/>
-      <c r="M11" s="265"/>
-      <c r="N11" s="263"/>
-      <c r="O11" s="263"/>
-      <c r="P11" s="263"/>
-      <c r="Q11" s="263"/>
-      <c r="R11" s="264"/>
-      <c r="S11" s="258"/>
-      <c r="T11" s="258"/>
-      <c r="U11" s="258"/>
-      <c r="V11" s="259"/>
-      <c r="W11" s="271"/>
-      <c r="X11" s="271"/>
-      <c r="Y11" s="271"/>
-      <c r="Z11" s="271"/>
-      <c r="AA11" s="271"/>
-      <c r="AB11" s="271"/>
-      <c r="AC11" s="271"/>
-      <c r="AD11" s="271"/>
-      <c r="AE11" s="271"/>
-      <c r="AF11" s="271"/>
-      <c r="AG11" s="271"/>
-      <c r="AH11" s="271"/>
-      <c r="AI11" s="271"/>
-      <c r="AJ11" s="271"/>
-      <c r="AK11" s="271"/>
-      <c r="AL11" s="271"/>
-      <c r="AM11" s="272"/>
-      <c r="AN11" s="258"/>
-      <c r="AO11" s="258"/>
-      <c r="AP11" s="258"/>
-      <c r="AQ11" s="258"/>
-      <c r="AR11" s="258"/>
-      <c r="AS11" s="258"/>
-      <c r="AT11" s="258"/>
-      <c r="AU11" s="258"/>
-      <c r="AV11" s="258"/>
-      <c r="AW11" s="258"/>
+      <c r="B11" s="255"/>
+      <c r="C11" s="255"/>
+      <c r="D11" s="255"/>
+      <c r="E11" s="256"/>
+      <c r="F11" s="256"/>
+      <c r="G11" s="256"/>
+      <c r="H11" s="256"/>
+      <c r="I11" s="256"/>
+      <c r="J11" s="257"/>
+      <c r="K11" s="258"/>
+      <c r="L11" s="259"/>
+      <c r="M11" s="267"/>
+      <c r="N11" s="268"/>
+      <c r="O11" s="268"/>
+      <c r="P11" s="268"/>
+      <c r="Q11" s="268"/>
+      <c r="R11" s="269"/>
+      <c r="S11" s="254"/>
+      <c r="T11" s="254"/>
+      <c r="U11" s="254"/>
+      <c r="V11" s="270"/>
+      <c r="W11" s="276"/>
+      <c r="X11" s="276"/>
+      <c r="Y11" s="276"/>
+      <c r="Z11" s="276"/>
+      <c r="AA11" s="276"/>
+      <c r="AB11" s="276"/>
+      <c r="AC11" s="276"/>
+      <c r="AD11" s="276"/>
+      <c r="AE11" s="276"/>
+      <c r="AF11" s="276"/>
+      <c r="AG11" s="276"/>
+      <c r="AH11" s="276"/>
+      <c r="AI11" s="276"/>
+      <c r="AJ11" s="276"/>
+      <c r="AK11" s="276"/>
+      <c r="AL11" s="276"/>
+      <c r="AM11" s="277"/>
+      <c r="AN11" s="254"/>
+      <c r="AO11" s="254"/>
+      <c r="AP11" s="254"/>
+      <c r="AQ11" s="254"/>
+      <c r="AR11" s="254"/>
+      <c r="AS11" s="254"/>
+      <c r="AT11" s="254"/>
+      <c r="AU11" s="254"/>
+      <c r="AV11" s="254"/>
+      <c r="AW11" s="254"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="56"/>
-      <c r="B12" s="248"/>
-      <c r="C12" s="249"/>
-      <c r="D12" s="250"/>
-      <c r="E12" s="251"/>
-      <c r="F12" s="251"/>
-      <c r="G12" s="251"/>
-      <c r="H12" s="251"/>
-      <c r="I12" s="251"/>
-      <c r="J12" s="252"/>
-      <c r="K12" s="253"/>
-      <c r="L12" s="254"/>
-      <c r="M12" s="265"/>
-      <c r="N12" s="263"/>
-      <c r="O12" s="263"/>
-      <c r="P12" s="263"/>
-      <c r="Q12" s="263"/>
-      <c r="R12" s="264"/>
-      <c r="S12" s="258"/>
-      <c r="T12" s="258"/>
-      <c r="U12" s="258"/>
-      <c r="V12" s="259"/>
-      <c r="W12" s="260"/>
-      <c r="X12" s="260"/>
-      <c r="Y12" s="260"/>
-      <c r="Z12" s="260"/>
-      <c r="AA12" s="260"/>
-      <c r="AB12" s="260"/>
-      <c r="AC12" s="260"/>
-      <c r="AD12" s="260"/>
-      <c r="AE12" s="260"/>
-      <c r="AF12" s="260"/>
-      <c r="AG12" s="260"/>
-      <c r="AH12" s="260"/>
-      <c r="AI12" s="260"/>
-      <c r="AJ12" s="260"/>
-      <c r="AK12" s="260"/>
-      <c r="AL12" s="260"/>
-      <c r="AM12" s="261"/>
-      <c r="AN12" s="245"/>
-      <c r="AO12" s="246"/>
-      <c r="AP12" s="246"/>
-      <c r="AQ12" s="246"/>
-      <c r="AR12" s="247"/>
-      <c r="AS12" s="245"/>
-      <c r="AT12" s="246"/>
-      <c r="AU12" s="246"/>
-      <c r="AV12" s="246"/>
-      <c r="AW12" s="247"/>
+      <c r="B12" s="264"/>
+      <c r="C12" s="265"/>
+      <c r="D12" s="266"/>
+      <c r="E12" s="256"/>
+      <c r="F12" s="256"/>
+      <c r="G12" s="256"/>
+      <c r="H12" s="256"/>
+      <c r="I12" s="256"/>
+      <c r="J12" s="257"/>
+      <c r="K12" s="258"/>
+      <c r="L12" s="259"/>
+      <c r="M12" s="267"/>
+      <c r="N12" s="268"/>
+      <c r="O12" s="268"/>
+      <c r="P12" s="268"/>
+      <c r="Q12" s="268"/>
+      <c r="R12" s="269"/>
+      <c r="S12" s="254"/>
+      <c r="T12" s="254"/>
+      <c r="U12" s="254"/>
+      <c r="V12" s="270"/>
+      <c r="W12" s="271"/>
+      <c r="X12" s="271"/>
+      <c r="Y12" s="271"/>
+      <c r="Z12" s="271"/>
+      <c r="AA12" s="271"/>
+      <c r="AB12" s="271"/>
+      <c r="AC12" s="271"/>
+      <c r="AD12" s="271"/>
+      <c r="AE12" s="271"/>
+      <c r="AF12" s="271"/>
+      <c r="AG12" s="271"/>
+      <c r="AH12" s="271"/>
+      <c r="AI12" s="271"/>
+      <c r="AJ12" s="271"/>
+      <c r="AK12" s="271"/>
+      <c r="AL12" s="271"/>
+      <c r="AM12" s="272"/>
+      <c r="AN12" s="273"/>
+      <c r="AO12" s="274"/>
+      <c r="AP12" s="274"/>
+      <c r="AQ12" s="274"/>
+      <c r="AR12" s="275"/>
+      <c r="AS12" s="273"/>
+      <c r="AT12" s="274"/>
+      <c r="AU12" s="274"/>
+      <c r="AV12" s="274"/>
+      <c r="AW12" s="275"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="56"/>
-      <c r="B13" s="248"/>
-      <c r="C13" s="249"/>
-      <c r="D13" s="250"/>
-      <c r="E13" s="251"/>
-      <c r="F13" s="251"/>
-      <c r="G13" s="251"/>
-      <c r="H13" s="251"/>
-      <c r="I13" s="251"/>
-      <c r="J13" s="252"/>
-      <c r="K13" s="253"/>
-      <c r="L13" s="254"/>
-      <c r="M13" s="262"/>
-      <c r="N13" s="263"/>
-      <c r="O13" s="263"/>
-      <c r="P13" s="263"/>
-      <c r="Q13" s="263"/>
-      <c r="R13" s="264"/>
-      <c r="S13" s="258"/>
-      <c r="T13" s="258"/>
-      <c r="U13" s="258"/>
-      <c r="V13" s="259"/>
-      <c r="W13" s="260"/>
-      <c r="X13" s="260"/>
-      <c r="Y13" s="260"/>
-      <c r="Z13" s="260"/>
-      <c r="AA13" s="260"/>
-      <c r="AB13" s="260"/>
-      <c r="AC13" s="260"/>
-      <c r="AD13" s="260"/>
-      <c r="AE13" s="260"/>
-      <c r="AF13" s="260"/>
-      <c r="AG13" s="260"/>
-      <c r="AH13" s="260"/>
-      <c r="AI13" s="260"/>
-      <c r="AJ13" s="260"/>
-      <c r="AK13" s="260"/>
-      <c r="AL13" s="260"/>
-      <c r="AM13" s="261"/>
-      <c r="AN13" s="245"/>
-      <c r="AO13" s="246"/>
-      <c r="AP13" s="246"/>
-      <c r="AQ13" s="246"/>
-      <c r="AR13" s="247"/>
-      <c r="AS13" s="245"/>
-      <c r="AT13" s="246"/>
-      <c r="AU13" s="246"/>
-      <c r="AV13" s="246"/>
-      <c r="AW13" s="247"/>
+      <c r="B13" s="264"/>
+      <c r="C13" s="265"/>
+      <c r="D13" s="266"/>
+      <c r="E13" s="256"/>
+      <c r="F13" s="256"/>
+      <c r="G13" s="256"/>
+      <c r="H13" s="256"/>
+      <c r="I13" s="256"/>
+      <c r="J13" s="257"/>
+      <c r="K13" s="258"/>
+      <c r="L13" s="259"/>
+      <c r="M13" s="278"/>
+      <c r="N13" s="268"/>
+      <c r="O13" s="268"/>
+      <c r="P13" s="268"/>
+      <c r="Q13" s="268"/>
+      <c r="R13" s="269"/>
+      <c r="S13" s="254"/>
+      <c r="T13" s="254"/>
+      <c r="U13" s="254"/>
+      <c r="V13" s="270"/>
+      <c r="W13" s="271"/>
+      <c r="X13" s="271"/>
+      <c r="Y13" s="271"/>
+      <c r="Z13" s="271"/>
+      <c r="AA13" s="271"/>
+      <c r="AB13" s="271"/>
+      <c r="AC13" s="271"/>
+      <c r="AD13" s="271"/>
+      <c r="AE13" s="271"/>
+      <c r="AF13" s="271"/>
+      <c r="AG13" s="271"/>
+      <c r="AH13" s="271"/>
+      <c r="AI13" s="271"/>
+      <c r="AJ13" s="271"/>
+      <c r="AK13" s="271"/>
+      <c r="AL13" s="271"/>
+      <c r="AM13" s="272"/>
+      <c r="AN13" s="273"/>
+      <c r="AO13" s="274"/>
+      <c r="AP13" s="274"/>
+      <c r="AQ13" s="274"/>
+      <c r="AR13" s="275"/>
+      <c r="AS13" s="273"/>
+      <c r="AT13" s="274"/>
+      <c r="AU13" s="274"/>
+      <c r="AV13" s="274"/>
+      <c r="AW13" s="275"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="56"/>
-      <c r="B14" s="248"/>
-      <c r="C14" s="249"/>
-      <c r="D14" s="250"/>
-      <c r="E14" s="251"/>
-      <c r="F14" s="251"/>
-      <c r="G14" s="251"/>
-      <c r="H14" s="251"/>
-      <c r="I14" s="251"/>
-      <c r="J14" s="252"/>
-      <c r="K14" s="253"/>
-      <c r="L14" s="254"/>
-      <c r="M14" s="262"/>
-      <c r="N14" s="263"/>
-      <c r="O14" s="263"/>
-      <c r="P14" s="263"/>
-      <c r="Q14" s="263"/>
-      <c r="R14" s="264"/>
-      <c r="S14" s="258"/>
-      <c r="T14" s="258"/>
-      <c r="U14" s="258"/>
-      <c r="V14" s="268"/>
-      <c r="W14" s="269"/>
-      <c r="X14" s="269"/>
-      <c r="Y14" s="269"/>
-      <c r="Z14" s="269"/>
-      <c r="AA14" s="269"/>
-      <c r="AB14" s="269"/>
-      <c r="AC14" s="269"/>
-      <c r="AD14" s="269"/>
-      <c r="AE14" s="269"/>
-      <c r="AF14" s="269"/>
-      <c r="AG14" s="269"/>
-      <c r="AH14" s="269"/>
-      <c r="AI14" s="269"/>
-      <c r="AJ14" s="269"/>
-      <c r="AK14" s="269"/>
-      <c r="AL14" s="269"/>
-      <c r="AM14" s="269"/>
-      <c r="AN14" s="258"/>
-      <c r="AO14" s="258"/>
-      <c r="AP14" s="258"/>
-      <c r="AQ14" s="258"/>
-      <c r="AR14" s="258"/>
-      <c r="AS14" s="245"/>
-      <c r="AT14" s="246"/>
-      <c r="AU14" s="246"/>
-      <c r="AV14" s="246"/>
-      <c r="AW14" s="247"/>
+      <c r="B14" s="264"/>
+      <c r="C14" s="265"/>
+      <c r="D14" s="266"/>
+      <c r="E14" s="256"/>
+      <c r="F14" s="256"/>
+      <c r="G14" s="256"/>
+      <c r="H14" s="256"/>
+      <c r="I14" s="256"/>
+      <c r="J14" s="257"/>
+      <c r="K14" s="258"/>
+      <c r="L14" s="259"/>
+      <c r="M14" s="278"/>
+      <c r="N14" s="268"/>
+      <c r="O14" s="268"/>
+      <c r="P14" s="268"/>
+      <c r="Q14" s="268"/>
+      <c r="R14" s="269"/>
+      <c r="S14" s="254"/>
+      <c r="T14" s="254"/>
+      <c r="U14" s="254"/>
+      <c r="V14" s="279"/>
+      <c r="W14" s="263"/>
+      <c r="X14" s="263"/>
+      <c r="Y14" s="263"/>
+      <c r="Z14" s="263"/>
+      <c r="AA14" s="263"/>
+      <c r="AB14" s="263"/>
+      <c r="AC14" s="263"/>
+      <c r="AD14" s="263"/>
+      <c r="AE14" s="263"/>
+      <c r="AF14" s="263"/>
+      <c r="AG14" s="263"/>
+      <c r="AH14" s="263"/>
+      <c r="AI14" s="263"/>
+      <c r="AJ14" s="263"/>
+      <c r="AK14" s="263"/>
+      <c r="AL14" s="263"/>
+      <c r="AM14" s="263"/>
+      <c r="AN14" s="254"/>
+      <c r="AO14" s="254"/>
+      <c r="AP14" s="254"/>
+      <c r="AQ14" s="254"/>
+      <c r="AR14" s="254"/>
+      <c r="AS14" s="273"/>
+      <c r="AT14" s="274"/>
+      <c r="AU14" s="274"/>
+      <c r="AV14" s="274"/>
+      <c r="AW14" s="275"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="56"/>
-      <c r="B15" s="248"/>
-      <c r="C15" s="249"/>
-      <c r="D15" s="250"/>
-      <c r="E15" s="251"/>
-      <c r="F15" s="251"/>
-      <c r="G15" s="251"/>
-      <c r="H15" s="251"/>
-      <c r="I15" s="251"/>
-      <c r="J15" s="252"/>
-      <c r="K15" s="253"/>
-      <c r="L15" s="254"/>
-      <c r="M15" s="265"/>
-      <c r="N15" s="263"/>
-      <c r="O15" s="263"/>
-      <c r="P15" s="263"/>
-      <c r="Q15" s="263"/>
-      <c r="R15" s="264"/>
-      <c r="S15" s="258"/>
-      <c r="T15" s="258"/>
-      <c r="U15" s="258"/>
-      <c r="V15" s="259"/>
-      <c r="W15" s="260"/>
-      <c r="X15" s="260"/>
-      <c r="Y15" s="260"/>
-      <c r="Z15" s="260"/>
-      <c r="AA15" s="260"/>
-      <c r="AB15" s="260"/>
-      <c r="AC15" s="260"/>
-      <c r="AD15" s="260"/>
-      <c r="AE15" s="260"/>
-      <c r="AF15" s="260"/>
-      <c r="AG15" s="260"/>
-      <c r="AH15" s="260"/>
-      <c r="AI15" s="260"/>
-      <c r="AJ15" s="260"/>
-      <c r="AK15" s="260"/>
-      <c r="AL15" s="260"/>
-      <c r="AM15" s="261"/>
-      <c r="AN15" s="245"/>
-      <c r="AO15" s="246"/>
-      <c r="AP15" s="246"/>
-      <c r="AQ15" s="246"/>
-      <c r="AR15" s="247"/>
-      <c r="AS15" s="245"/>
-      <c r="AT15" s="246"/>
-      <c r="AU15" s="246"/>
-      <c r="AV15" s="246"/>
-      <c r="AW15" s="247"/>
+      <c r="B15" s="264"/>
+      <c r="C15" s="265"/>
+      <c r="D15" s="266"/>
+      <c r="E15" s="256"/>
+      <c r="F15" s="256"/>
+      <c r="G15" s="256"/>
+      <c r="H15" s="256"/>
+      <c r="I15" s="256"/>
+      <c r="J15" s="257"/>
+      <c r="K15" s="258"/>
+      <c r="L15" s="259"/>
+      <c r="M15" s="267"/>
+      <c r="N15" s="268"/>
+      <c r="O15" s="268"/>
+      <c r="P15" s="268"/>
+      <c r="Q15" s="268"/>
+      <c r="R15" s="269"/>
+      <c r="S15" s="254"/>
+      <c r="T15" s="254"/>
+      <c r="U15" s="254"/>
+      <c r="V15" s="270"/>
+      <c r="W15" s="271"/>
+      <c r="X15" s="271"/>
+      <c r="Y15" s="271"/>
+      <c r="Z15" s="271"/>
+      <c r="AA15" s="271"/>
+      <c r="AB15" s="271"/>
+      <c r="AC15" s="271"/>
+      <c r="AD15" s="271"/>
+      <c r="AE15" s="271"/>
+      <c r="AF15" s="271"/>
+      <c r="AG15" s="271"/>
+      <c r="AH15" s="271"/>
+      <c r="AI15" s="271"/>
+      <c r="AJ15" s="271"/>
+      <c r="AK15" s="271"/>
+      <c r="AL15" s="271"/>
+      <c r="AM15" s="272"/>
+      <c r="AN15" s="273"/>
+      <c r="AO15" s="274"/>
+      <c r="AP15" s="274"/>
+      <c r="AQ15" s="274"/>
+      <c r="AR15" s="275"/>
+      <c r="AS15" s="273"/>
+      <c r="AT15" s="274"/>
+      <c r="AU15" s="274"/>
+      <c r="AV15" s="274"/>
+      <c r="AW15" s="275"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="56"/>
-      <c r="B16" s="248"/>
-      <c r="C16" s="249"/>
-      <c r="D16" s="250"/>
-      <c r="E16" s="251"/>
-      <c r="F16" s="251"/>
-      <c r="G16" s="251"/>
-      <c r="H16" s="251"/>
-      <c r="I16" s="251"/>
-      <c r="J16" s="252"/>
-      <c r="K16" s="253"/>
-      <c r="L16" s="254"/>
-      <c r="M16" s="265"/>
-      <c r="N16" s="263"/>
-      <c r="O16" s="263"/>
-      <c r="P16" s="263"/>
-      <c r="Q16" s="263"/>
-      <c r="R16" s="264"/>
-      <c r="S16" s="258"/>
-      <c r="T16" s="258"/>
-      <c r="U16" s="258"/>
-      <c r="V16" s="259"/>
-      <c r="W16" s="260"/>
-      <c r="X16" s="260"/>
-      <c r="Y16" s="260"/>
-      <c r="Z16" s="260"/>
-      <c r="AA16" s="260"/>
-      <c r="AB16" s="260"/>
-      <c r="AC16" s="260"/>
-      <c r="AD16" s="260"/>
-      <c r="AE16" s="260"/>
-      <c r="AF16" s="260"/>
-      <c r="AG16" s="260"/>
-      <c r="AH16" s="260"/>
-      <c r="AI16" s="260"/>
-      <c r="AJ16" s="260"/>
-      <c r="AK16" s="260"/>
-      <c r="AL16" s="260"/>
-      <c r="AM16" s="261"/>
-      <c r="AN16" s="245"/>
-      <c r="AO16" s="246"/>
-      <c r="AP16" s="246"/>
-      <c r="AQ16" s="246"/>
-      <c r="AR16" s="247"/>
-      <c r="AS16" s="245"/>
-      <c r="AT16" s="246"/>
-      <c r="AU16" s="246"/>
-      <c r="AV16" s="246"/>
-      <c r="AW16" s="247"/>
+      <c r="B16" s="264"/>
+      <c r="C16" s="265"/>
+      <c r="D16" s="266"/>
+      <c r="E16" s="256"/>
+      <c r="F16" s="256"/>
+      <c r="G16" s="256"/>
+      <c r="H16" s="256"/>
+      <c r="I16" s="256"/>
+      <c r="J16" s="257"/>
+      <c r="K16" s="258"/>
+      <c r="L16" s="259"/>
+      <c r="M16" s="267"/>
+      <c r="N16" s="268"/>
+      <c r="O16" s="268"/>
+      <c r="P16" s="268"/>
+      <c r="Q16" s="268"/>
+      <c r="R16" s="269"/>
+      <c r="S16" s="254"/>
+      <c r="T16" s="254"/>
+      <c r="U16" s="254"/>
+      <c r="V16" s="270"/>
+      <c r="W16" s="271"/>
+      <c r="X16" s="271"/>
+      <c r="Y16" s="271"/>
+      <c r="Z16" s="271"/>
+      <c r="AA16" s="271"/>
+      <c r="AB16" s="271"/>
+      <c r="AC16" s="271"/>
+      <c r="AD16" s="271"/>
+      <c r="AE16" s="271"/>
+      <c r="AF16" s="271"/>
+      <c r="AG16" s="271"/>
+      <c r="AH16" s="271"/>
+      <c r="AI16" s="271"/>
+      <c r="AJ16" s="271"/>
+      <c r="AK16" s="271"/>
+      <c r="AL16" s="271"/>
+      <c r="AM16" s="272"/>
+      <c r="AN16" s="273"/>
+      <c r="AO16" s="274"/>
+      <c r="AP16" s="274"/>
+      <c r="AQ16" s="274"/>
+      <c r="AR16" s="275"/>
+      <c r="AS16" s="273"/>
+      <c r="AT16" s="274"/>
+      <c r="AU16" s="274"/>
+      <c r="AV16" s="274"/>
+      <c r="AW16" s="275"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="56"/>
-      <c r="B17" s="248"/>
-      <c r="C17" s="249"/>
-      <c r="D17" s="250"/>
-      <c r="E17" s="251"/>
-      <c r="F17" s="251"/>
-      <c r="G17" s="251"/>
-      <c r="H17" s="251"/>
-      <c r="I17" s="251"/>
-      <c r="J17" s="252"/>
-      <c r="K17" s="253"/>
-      <c r="L17" s="254"/>
-      <c r="M17" s="265"/>
-      <c r="N17" s="263"/>
-      <c r="O17" s="263"/>
-      <c r="P17" s="263"/>
-      <c r="Q17" s="263"/>
-      <c r="R17" s="266"/>
-      <c r="S17" s="267"/>
-      <c r="T17" s="267"/>
-      <c r="U17" s="267"/>
-      <c r="V17" s="259"/>
-      <c r="W17" s="260"/>
-      <c r="X17" s="260"/>
-      <c r="Y17" s="260"/>
-      <c r="Z17" s="260"/>
-      <c r="AA17" s="260"/>
-      <c r="AB17" s="260"/>
-      <c r="AC17" s="260"/>
-      <c r="AD17" s="260"/>
-      <c r="AE17" s="260"/>
-      <c r="AF17" s="260"/>
-      <c r="AG17" s="260"/>
-      <c r="AH17" s="260"/>
-      <c r="AI17" s="260"/>
-      <c r="AJ17" s="260"/>
-      <c r="AK17" s="260"/>
-      <c r="AL17" s="260"/>
-      <c r="AM17" s="261"/>
-      <c r="AN17" s="245"/>
-      <c r="AO17" s="246"/>
-      <c r="AP17" s="246"/>
-      <c r="AQ17" s="246"/>
-      <c r="AR17" s="247"/>
-      <c r="AS17" s="245"/>
-      <c r="AT17" s="246"/>
-      <c r="AU17" s="246"/>
-      <c r="AV17" s="246"/>
-      <c r="AW17" s="247"/>
+      <c r="B17" s="264"/>
+      <c r="C17" s="265"/>
+      <c r="D17" s="266"/>
+      <c r="E17" s="256"/>
+      <c r="F17" s="256"/>
+      <c r="G17" s="256"/>
+      <c r="H17" s="256"/>
+      <c r="I17" s="256"/>
+      <c r="J17" s="257"/>
+      <c r="K17" s="258"/>
+      <c r="L17" s="259"/>
+      <c r="M17" s="267"/>
+      <c r="N17" s="268"/>
+      <c r="O17" s="268"/>
+      <c r="P17" s="268"/>
+      <c r="Q17" s="268"/>
+      <c r="R17" s="280"/>
+      <c r="S17" s="281"/>
+      <c r="T17" s="281"/>
+      <c r="U17" s="281"/>
+      <c r="V17" s="270"/>
+      <c r="W17" s="271"/>
+      <c r="X17" s="271"/>
+      <c r="Y17" s="271"/>
+      <c r="Z17" s="271"/>
+      <c r="AA17" s="271"/>
+      <c r="AB17" s="271"/>
+      <c r="AC17" s="271"/>
+      <c r="AD17" s="271"/>
+      <c r="AE17" s="271"/>
+      <c r="AF17" s="271"/>
+      <c r="AG17" s="271"/>
+      <c r="AH17" s="271"/>
+      <c r="AI17" s="271"/>
+      <c r="AJ17" s="271"/>
+      <c r="AK17" s="271"/>
+      <c r="AL17" s="271"/>
+      <c r="AM17" s="272"/>
+      <c r="AN17" s="273"/>
+      <c r="AO17" s="274"/>
+      <c r="AP17" s="274"/>
+      <c r="AQ17" s="274"/>
+      <c r="AR17" s="275"/>
+      <c r="AS17" s="273"/>
+      <c r="AT17" s="274"/>
+      <c r="AU17" s="274"/>
+      <c r="AV17" s="274"/>
+      <c r="AW17" s="275"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
-      <c r="B18" s="248"/>
-      <c r="C18" s="249"/>
-      <c r="D18" s="250"/>
-      <c r="E18" s="251"/>
-      <c r="F18" s="251"/>
-      <c r="G18" s="251"/>
-      <c r="H18" s="251"/>
-      <c r="I18" s="251"/>
-      <c r="J18" s="252"/>
-      <c r="K18" s="253"/>
-      <c r="L18" s="254"/>
-      <c r="M18" s="262"/>
-      <c r="N18" s="263"/>
-      <c r="O18" s="263"/>
-      <c r="P18" s="263"/>
-      <c r="Q18" s="263"/>
-      <c r="R18" s="264"/>
-      <c r="S18" s="258"/>
-      <c r="T18" s="258"/>
-      <c r="U18" s="258"/>
-      <c r="V18" s="259"/>
-      <c r="W18" s="260"/>
-      <c r="X18" s="260"/>
-      <c r="Y18" s="260"/>
-      <c r="Z18" s="260"/>
-      <c r="AA18" s="260"/>
-      <c r="AB18" s="260"/>
-      <c r="AC18" s="260"/>
-      <c r="AD18" s="260"/>
-      <c r="AE18" s="260"/>
-      <c r="AF18" s="260"/>
-      <c r="AG18" s="260"/>
-      <c r="AH18" s="260"/>
-      <c r="AI18" s="260"/>
-      <c r="AJ18" s="260"/>
-      <c r="AK18" s="260"/>
-      <c r="AL18" s="260"/>
-      <c r="AM18" s="261"/>
-      <c r="AN18" s="245"/>
-      <c r="AO18" s="246"/>
-      <c r="AP18" s="246"/>
-      <c r="AQ18" s="246"/>
-      <c r="AR18" s="247"/>
-      <c r="AS18" s="245"/>
-      <c r="AT18" s="246"/>
-      <c r="AU18" s="246"/>
-      <c r="AV18" s="246"/>
-      <c r="AW18" s="247"/>
+      <c r="B18" s="264"/>
+      <c r="C18" s="265"/>
+      <c r="D18" s="266"/>
+      <c r="E18" s="256"/>
+      <c r="F18" s="256"/>
+      <c r="G18" s="256"/>
+      <c r="H18" s="256"/>
+      <c r="I18" s="256"/>
+      <c r="J18" s="257"/>
+      <c r="K18" s="258"/>
+      <c r="L18" s="259"/>
+      <c r="M18" s="278"/>
+      <c r="N18" s="268"/>
+      <c r="O18" s="268"/>
+      <c r="P18" s="268"/>
+      <c r="Q18" s="268"/>
+      <c r="R18" s="269"/>
+      <c r="S18" s="254"/>
+      <c r="T18" s="254"/>
+      <c r="U18" s="254"/>
+      <c r="V18" s="270"/>
+      <c r="W18" s="271"/>
+      <c r="X18" s="271"/>
+      <c r="Y18" s="271"/>
+      <c r="Z18" s="271"/>
+      <c r="AA18" s="271"/>
+      <c r="AB18" s="271"/>
+      <c r="AC18" s="271"/>
+      <c r="AD18" s="271"/>
+      <c r="AE18" s="271"/>
+      <c r="AF18" s="271"/>
+      <c r="AG18" s="271"/>
+      <c r="AH18" s="271"/>
+      <c r="AI18" s="271"/>
+      <c r="AJ18" s="271"/>
+      <c r="AK18" s="271"/>
+      <c r="AL18" s="271"/>
+      <c r="AM18" s="272"/>
+      <c r="AN18" s="273"/>
+      <c r="AO18" s="274"/>
+      <c r="AP18" s="274"/>
+      <c r="AQ18" s="274"/>
+      <c r="AR18" s="275"/>
+      <c r="AS18" s="273"/>
+      <c r="AT18" s="274"/>
+      <c r="AU18" s="274"/>
+      <c r="AV18" s="274"/>
+      <c r="AW18" s="275"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="56"/>
-      <c r="B19" s="248"/>
-      <c r="C19" s="249"/>
-      <c r="D19" s="250"/>
-      <c r="E19" s="251"/>
-      <c r="F19" s="251"/>
-      <c r="G19" s="251"/>
-      <c r="H19" s="251"/>
-      <c r="I19" s="251"/>
-      <c r="J19" s="252"/>
-      <c r="K19" s="253"/>
-      <c r="L19" s="254"/>
-      <c r="M19" s="265"/>
-      <c r="N19" s="263"/>
-      <c r="O19" s="263"/>
-      <c r="P19" s="263"/>
-      <c r="Q19" s="263"/>
-      <c r="R19" s="264"/>
-      <c r="S19" s="258"/>
-      <c r="T19" s="258"/>
-      <c r="U19" s="258"/>
-      <c r="V19" s="259"/>
-      <c r="W19" s="260"/>
-      <c r="X19" s="260"/>
-      <c r="Y19" s="260"/>
-      <c r="Z19" s="260"/>
-      <c r="AA19" s="260"/>
-      <c r="AB19" s="260"/>
-      <c r="AC19" s="260"/>
-      <c r="AD19" s="260"/>
-      <c r="AE19" s="260"/>
-      <c r="AF19" s="260"/>
-      <c r="AG19" s="260"/>
-      <c r="AH19" s="260"/>
-      <c r="AI19" s="260"/>
-      <c r="AJ19" s="260"/>
-      <c r="AK19" s="260"/>
-      <c r="AL19" s="260"/>
-      <c r="AM19" s="261"/>
-      <c r="AN19" s="258"/>
-      <c r="AO19" s="258"/>
-      <c r="AP19" s="258"/>
-      <c r="AQ19" s="258"/>
-      <c r="AR19" s="258"/>
-      <c r="AS19" s="245"/>
-      <c r="AT19" s="246"/>
-      <c r="AU19" s="246"/>
-      <c r="AV19" s="246"/>
-      <c r="AW19" s="247"/>
+      <c r="B19" s="264"/>
+      <c r="C19" s="265"/>
+      <c r="D19" s="266"/>
+      <c r="E19" s="256"/>
+      <c r="F19" s="256"/>
+      <c r="G19" s="256"/>
+      <c r="H19" s="256"/>
+      <c r="I19" s="256"/>
+      <c r="J19" s="257"/>
+      <c r="K19" s="258"/>
+      <c r="L19" s="259"/>
+      <c r="M19" s="267"/>
+      <c r="N19" s="268"/>
+      <c r="O19" s="268"/>
+      <c r="P19" s="268"/>
+      <c r="Q19" s="268"/>
+      <c r="R19" s="269"/>
+      <c r="S19" s="254"/>
+      <c r="T19" s="254"/>
+      <c r="U19" s="254"/>
+      <c r="V19" s="270"/>
+      <c r="W19" s="271"/>
+      <c r="X19" s="271"/>
+      <c r="Y19" s="271"/>
+      <c r="Z19" s="271"/>
+      <c r="AA19" s="271"/>
+      <c r="AB19" s="271"/>
+      <c r="AC19" s="271"/>
+      <c r="AD19" s="271"/>
+      <c r="AE19" s="271"/>
+      <c r="AF19" s="271"/>
+      <c r="AG19" s="271"/>
+      <c r="AH19" s="271"/>
+      <c r="AI19" s="271"/>
+      <c r="AJ19" s="271"/>
+      <c r="AK19" s="271"/>
+      <c r="AL19" s="271"/>
+      <c r="AM19" s="272"/>
+      <c r="AN19" s="254"/>
+      <c r="AO19" s="254"/>
+      <c r="AP19" s="254"/>
+      <c r="AQ19" s="254"/>
+      <c r="AR19" s="254"/>
+      <c r="AS19" s="273"/>
+      <c r="AT19" s="274"/>
+      <c r="AU19" s="274"/>
+      <c r="AV19" s="274"/>
+      <c r="AW19" s="275"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="56"/>
-      <c r="B20" s="248"/>
-      <c r="C20" s="249"/>
-      <c r="D20" s="250"/>
-      <c r="E20" s="251"/>
-      <c r="F20" s="251"/>
-      <c r="G20" s="251"/>
-      <c r="H20" s="251"/>
-      <c r="I20" s="251"/>
-      <c r="J20" s="252"/>
-      <c r="K20" s="253"/>
-      <c r="L20" s="254"/>
-      <c r="M20" s="265"/>
-      <c r="N20" s="263"/>
-      <c r="O20" s="263"/>
-      <c r="P20" s="263"/>
-      <c r="Q20" s="263"/>
-      <c r="R20" s="264"/>
-      <c r="S20" s="245"/>
-      <c r="T20" s="246"/>
-      <c r="U20" s="247"/>
-      <c r="V20" s="259"/>
-      <c r="W20" s="260"/>
-      <c r="X20" s="260"/>
-      <c r="Y20" s="260"/>
-      <c r="Z20" s="260"/>
-      <c r="AA20" s="260"/>
-      <c r="AB20" s="260"/>
-      <c r="AC20" s="260"/>
-      <c r="AD20" s="260"/>
-      <c r="AE20" s="260"/>
-      <c r="AF20" s="260"/>
-      <c r="AG20" s="260"/>
-      <c r="AH20" s="260"/>
-      <c r="AI20" s="260"/>
-      <c r="AJ20" s="260"/>
-      <c r="AK20" s="260"/>
-      <c r="AL20" s="260"/>
-      <c r="AM20" s="261"/>
-      <c r="AN20" s="245"/>
-      <c r="AO20" s="246"/>
-      <c r="AP20" s="246"/>
-      <c r="AQ20" s="246"/>
-      <c r="AR20" s="247"/>
-      <c r="AS20" s="245"/>
-      <c r="AT20" s="246"/>
-      <c r="AU20" s="246"/>
-      <c r="AV20" s="246"/>
-      <c r="AW20" s="247"/>
+      <c r="B20" s="264"/>
+      <c r="C20" s="265"/>
+      <c r="D20" s="266"/>
+      <c r="E20" s="256"/>
+      <c r="F20" s="256"/>
+      <c r="G20" s="256"/>
+      <c r="H20" s="256"/>
+      <c r="I20" s="256"/>
+      <c r="J20" s="257"/>
+      <c r="K20" s="258"/>
+      <c r="L20" s="259"/>
+      <c r="M20" s="267"/>
+      <c r="N20" s="268"/>
+      <c r="O20" s="268"/>
+      <c r="P20" s="268"/>
+      <c r="Q20" s="268"/>
+      <c r="R20" s="269"/>
+      <c r="S20" s="273"/>
+      <c r="T20" s="274"/>
+      <c r="U20" s="275"/>
+      <c r="V20" s="270"/>
+      <c r="W20" s="271"/>
+      <c r="X20" s="271"/>
+      <c r="Y20" s="271"/>
+      <c r="Z20" s="271"/>
+      <c r="AA20" s="271"/>
+      <c r="AB20" s="271"/>
+      <c r="AC20" s="271"/>
+      <c r="AD20" s="271"/>
+      <c r="AE20" s="271"/>
+      <c r="AF20" s="271"/>
+      <c r="AG20" s="271"/>
+      <c r="AH20" s="271"/>
+      <c r="AI20" s="271"/>
+      <c r="AJ20" s="271"/>
+      <c r="AK20" s="271"/>
+      <c r="AL20" s="271"/>
+      <c r="AM20" s="272"/>
+      <c r="AN20" s="273"/>
+      <c r="AO20" s="274"/>
+      <c r="AP20" s="274"/>
+      <c r="AQ20" s="274"/>
+      <c r="AR20" s="275"/>
+      <c r="AS20" s="273"/>
+      <c r="AT20" s="274"/>
+      <c r="AU20" s="274"/>
+      <c r="AV20" s="274"/>
+      <c r="AW20" s="275"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="56"/>
-      <c r="B21" s="248"/>
-      <c r="C21" s="249"/>
-      <c r="D21" s="250"/>
-      <c r="E21" s="251"/>
-      <c r="F21" s="251"/>
-      <c r="G21" s="251"/>
-      <c r="H21" s="251"/>
-      <c r="I21" s="251"/>
-      <c r="J21" s="252"/>
-      <c r="K21" s="253"/>
-      <c r="L21" s="254"/>
-      <c r="M21" s="265"/>
-      <c r="N21" s="263"/>
-      <c r="O21" s="263"/>
-      <c r="P21" s="263"/>
-      <c r="Q21" s="263"/>
-      <c r="R21" s="264"/>
-      <c r="S21" s="258"/>
-      <c r="T21" s="258"/>
-      <c r="U21" s="258"/>
-      <c r="V21" s="259"/>
-      <c r="W21" s="260"/>
-      <c r="X21" s="260"/>
-      <c r="Y21" s="260"/>
-      <c r="Z21" s="260"/>
-      <c r="AA21" s="260"/>
-      <c r="AB21" s="260"/>
-      <c r="AC21" s="260"/>
-      <c r="AD21" s="260"/>
-      <c r="AE21" s="260"/>
-      <c r="AF21" s="260"/>
-      <c r="AG21" s="260"/>
-      <c r="AH21" s="260"/>
-      <c r="AI21" s="260"/>
-      <c r="AJ21" s="260"/>
-      <c r="AK21" s="260"/>
-      <c r="AL21" s="260"/>
-      <c r="AM21" s="261"/>
-      <c r="AN21" s="245"/>
-      <c r="AO21" s="246"/>
-      <c r="AP21" s="246"/>
-      <c r="AQ21" s="246"/>
-      <c r="AR21" s="247"/>
-      <c r="AS21" s="245"/>
-      <c r="AT21" s="246"/>
-      <c r="AU21" s="246"/>
-      <c r="AV21" s="246"/>
-      <c r="AW21" s="247"/>
+      <c r="B21" s="264"/>
+      <c r="C21" s="265"/>
+      <c r="D21" s="266"/>
+      <c r="E21" s="256"/>
+      <c r="F21" s="256"/>
+      <c r="G21" s="256"/>
+      <c r="H21" s="256"/>
+      <c r="I21" s="256"/>
+      <c r="J21" s="257"/>
+      <c r="K21" s="258"/>
+      <c r="L21" s="259"/>
+      <c r="M21" s="267"/>
+      <c r="N21" s="268"/>
+      <c r="O21" s="268"/>
+      <c r="P21" s="268"/>
+      <c r="Q21" s="268"/>
+      <c r="R21" s="269"/>
+      <c r="S21" s="254"/>
+      <c r="T21" s="254"/>
+      <c r="U21" s="254"/>
+      <c r="V21" s="270"/>
+      <c r="W21" s="271"/>
+      <c r="X21" s="271"/>
+      <c r="Y21" s="271"/>
+      <c r="Z21" s="271"/>
+      <c r="AA21" s="271"/>
+      <c r="AB21" s="271"/>
+      <c r="AC21" s="271"/>
+      <c r="AD21" s="271"/>
+      <c r="AE21" s="271"/>
+      <c r="AF21" s="271"/>
+      <c r="AG21" s="271"/>
+      <c r="AH21" s="271"/>
+      <c r="AI21" s="271"/>
+      <c r="AJ21" s="271"/>
+      <c r="AK21" s="271"/>
+      <c r="AL21" s="271"/>
+      <c r="AM21" s="272"/>
+      <c r="AN21" s="273"/>
+      <c r="AO21" s="274"/>
+      <c r="AP21" s="274"/>
+      <c r="AQ21" s="274"/>
+      <c r="AR21" s="275"/>
+      <c r="AS21" s="273"/>
+      <c r="AT21" s="274"/>
+      <c r="AU21" s="274"/>
+      <c r="AV21" s="274"/>
+      <c r="AW21" s="275"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="56"/>
-      <c r="B22" s="248"/>
-      <c r="C22" s="249"/>
-      <c r="D22" s="250"/>
-      <c r="E22" s="251"/>
-      <c r="F22" s="251"/>
-      <c r="G22" s="251"/>
-      <c r="H22" s="251"/>
-      <c r="I22" s="251"/>
-      <c r="J22" s="252"/>
-      <c r="K22" s="253"/>
-      <c r="L22" s="254"/>
-      <c r="M22" s="265"/>
-      <c r="N22" s="263"/>
-      <c r="O22" s="263"/>
-      <c r="P22" s="263"/>
-      <c r="Q22" s="263"/>
-      <c r="R22" s="264"/>
-      <c r="S22" s="258"/>
-      <c r="T22" s="258"/>
-      <c r="U22" s="258"/>
-      <c r="V22" s="259"/>
-      <c r="W22" s="260"/>
-      <c r="X22" s="260"/>
-      <c r="Y22" s="260"/>
-      <c r="Z22" s="260"/>
-      <c r="AA22" s="260"/>
-      <c r="AB22" s="260"/>
-      <c r="AC22" s="260"/>
-      <c r="AD22" s="260"/>
-      <c r="AE22" s="260"/>
-      <c r="AF22" s="260"/>
-      <c r="AG22" s="260"/>
-      <c r="AH22" s="260"/>
-      <c r="AI22" s="260"/>
-      <c r="AJ22" s="260"/>
-      <c r="AK22" s="260"/>
-      <c r="AL22" s="260"/>
-      <c r="AM22" s="261"/>
-      <c r="AN22" s="245"/>
-      <c r="AO22" s="246"/>
-      <c r="AP22" s="246"/>
-      <c r="AQ22" s="246"/>
-      <c r="AR22" s="247"/>
-      <c r="AS22" s="245"/>
-      <c r="AT22" s="246"/>
-      <c r="AU22" s="246"/>
-      <c r="AV22" s="246"/>
-      <c r="AW22" s="247"/>
+      <c r="B22" s="264"/>
+      <c r="C22" s="265"/>
+      <c r="D22" s="266"/>
+      <c r="E22" s="256"/>
+      <c r="F22" s="256"/>
+      <c r="G22" s="256"/>
+      <c r="H22" s="256"/>
+      <c r="I22" s="256"/>
+      <c r="J22" s="257"/>
+      <c r="K22" s="258"/>
+      <c r="L22" s="259"/>
+      <c r="M22" s="267"/>
+      <c r="N22" s="268"/>
+      <c r="O22" s="268"/>
+      <c r="P22" s="268"/>
+      <c r="Q22" s="268"/>
+      <c r="R22" s="269"/>
+      <c r="S22" s="254"/>
+      <c r="T22" s="254"/>
+      <c r="U22" s="254"/>
+      <c r="V22" s="270"/>
+      <c r="W22" s="271"/>
+      <c r="X22" s="271"/>
+      <c r="Y22" s="271"/>
+      <c r="Z22" s="271"/>
+      <c r="AA22" s="271"/>
+      <c r="AB22" s="271"/>
+      <c r="AC22" s="271"/>
+      <c r="AD22" s="271"/>
+      <c r="AE22" s="271"/>
+      <c r="AF22" s="271"/>
+      <c r="AG22" s="271"/>
+      <c r="AH22" s="271"/>
+      <c r="AI22" s="271"/>
+      <c r="AJ22" s="271"/>
+      <c r="AK22" s="271"/>
+      <c r="AL22" s="271"/>
+      <c r="AM22" s="272"/>
+      <c r="AN22" s="273"/>
+      <c r="AO22" s="274"/>
+      <c r="AP22" s="274"/>
+      <c r="AQ22" s="274"/>
+      <c r="AR22" s="275"/>
+      <c r="AS22" s="273"/>
+      <c r="AT22" s="274"/>
+      <c r="AU22" s="274"/>
+      <c r="AV22" s="274"/>
+      <c r="AW22" s="275"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="54"/>
-      <c r="B23" s="248"/>
-      <c r="C23" s="249"/>
-      <c r="D23" s="250"/>
-      <c r="E23" s="251"/>
-      <c r="F23" s="251"/>
-      <c r="G23" s="251"/>
-      <c r="H23" s="251"/>
-      <c r="I23" s="251"/>
-      <c r="J23" s="252"/>
-      <c r="K23" s="253"/>
-      <c r="L23" s="254"/>
-      <c r="M23" s="265"/>
-      <c r="N23" s="263"/>
-      <c r="O23" s="263"/>
-      <c r="P23" s="263"/>
-      <c r="Q23" s="263"/>
-      <c r="R23" s="264"/>
-      <c r="S23" s="258"/>
-      <c r="T23" s="258"/>
-      <c r="U23" s="258"/>
-      <c r="V23" s="259"/>
-      <c r="W23" s="260"/>
-      <c r="X23" s="260"/>
-      <c r="Y23" s="260"/>
-      <c r="Z23" s="260"/>
-      <c r="AA23" s="260"/>
-      <c r="AB23" s="260"/>
-      <c r="AC23" s="260"/>
-      <c r="AD23" s="260"/>
-      <c r="AE23" s="260"/>
-      <c r="AF23" s="260"/>
-      <c r="AG23" s="260"/>
-      <c r="AH23" s="260"/>
-      <c r="AI23" s="260"/>
-      <c r="AJ23" s="260"/>
-      <c r="AK23" s="260"/>
-      <c r="AL23" s="260"/>
-      <c r="AM23" s="261"/>
-      <c r="AN23" s="245"/>
-      <c r="AO23" s="246"/>
-      <c r="AP23" s="246"/>
-      <c r="AQ23" s="246"/>
-      <c r="AR23" s="247"/>
-      <c r="AS23" s="245"/>
-      <c r="AT23" s="246"/>
-      <c r="AU23" s="246"/>
-      <c r="AV23" s="246"/>
-      <c r="AW23" s="247"/>
+      <c r="B23" s="264"/>
+      <c r="C23" s="265"/>
+      <c r="D23" s="266"/>
+      <c r="E23" s="256"/>
+      <c r="F23" s="256"/>
+      <c r="G23" s="256"/>
+      <c r="H23" s="256"/>
+      <c r="I23" s="256"/>
+      <c r="J23" s="257"/>
+      <c r="K23" s="258"/>
+      <c r="L23" s="259"/>
+      <c r="M23" s="267"/>
+      <c r="N23" s="268"/>
+      <c r="O23" s="268"/>
+      <c r="P23" s="268"/>
+      <c r="Q23" s="268"/>
+      <c r="R23" s="269"/>
+      <c r="S23" s="254"/>
+      <c r="T23" s="254"/>
+      <c r="U23" s="254"/>
+      <c r="V23" s="270"/>
+      <c r="W23" s="271"/>
+      <c r="X23" s="271"/>
+      <c r="Y23" s="271"/>
+      <c r="Z23" s="271"/>
+      <c r="AA23" s="271"/>
+      <c r="AB23" s="271"/>
+      <c r="AC23" s="271"/>
+      <c r="AD23" s="271"/>
+      <c r="AE23" s="271"/>
+      <c r="AF23" s="271"/>
+      <c r="AG23" s="271"/>
+      <c r="AH23" s="271"/>
+      <c r="AI23" s="271"/>
+      <c r="AJ23" s="271"/>
+      <c r="AK23" s="271"/>
+      <c r="AL23" s="271"/>
+      <c r="AM23" s="272"/>
+      <c r="AN23" s="273"/>
+      <c r="AO23" s="274"/>
+      <c r="AP23" s="274"/>
+      <c r="AQ23" s="274"/>
+      <c r="AR23" s="275"/>
+      <c r="AS23" s="273"/>
+      <c r="AT23" s="274"/>
+      <c r="AU23" s="274"/>
+      <c r="AV23" s="274"/>
+      <c r="AW23" s="275"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="54"/>
-      <c r="B24" s="248"/>
-      <c r="C24" s="249"/>
-      <c r="D24" s="250"/>
-      <c r="E24" s="251"/>
-      <c r="F24" s="251"/>
-      <c r="G24" s="251"/>
-      <c r="H24" s="251"/>
-      <c r="I24" s="251"/>
-      <c r="J24" s="252"/>
-      <c r="K24" s="253"/>
-      <c r="L24" s="254"/>
-      <c r="M24" s="265"/>
-      <c r="N24" s="263"/>
-      <c r="O24" s="263"/>
-      <c r="P24" s="263"/>
-      <c r="Q24" s="263"/>
-      <c r="R24" s="264"/>
-      <c r="S24" s="258"/>
-      <c r="T24" s="258"/>
-      <c r="U24" s="258"/>
-      <c r="V24" s="259"/>
-      <c r="W24" s="260"/>
-      <c r="X24" s="260"/>
-      <c r="Y24" s="260"/>
-      <c r="Z24" s="260"/>
-      <c r="AA24" s="260"/>
-      <c r="AB24" s="260"/>
-      <c r="AC24" s="260"/>
-      <c r="AD24" s="260"/>
-      <c r="AE24" s="260"/>
-      <c r="AF24" s="260"/>
-      <c r="AG24" s="260"/>
-      <c r="AH24" s="260"/>
-      <c r="AI24" s="260"/>
-      <c r="AJ24" s="260"/>
-      <c r="AK24" s="260"/>
-      <c r="AL24" s="260"/>
-      <c r="AM24" s="261"/>
-      <c r="AN24" s="245"/>
-      <c r="AO24" s="246"/>
-      <c r="AP24" s="246"/>
-      <c r="AQ24" s="246"/>
-      <c r="AR24" s="247"/>
-      <c r="AS24" s="245"/>
-      <c r="AT24" s="246"/>
-      <c r="AU24" s="246"/>
-      <c r="AV24" s="246"/>
-      <c r="AW24" s="247"/>
+      <c r="B24" s="264"/>
+      <c r="C24" s="265"/>
+      <c r="D24" s="266"/>
+      <c r="E24" s="256"/>
+      <c r="F24" s="256"/>
+      <c r="G24" s="256"/>
+      <c r="H24" s="256"/>
+      <c r="I24" s="256"/>
+      <c r="J24" s="257"/>
+      <c r="K24" s="258"/>
+      <c r="L24" s="259"/>
+      <c r="M24" s="267"/>
+      <c r="N24" s="268"/>
+      <c r="O24" s="268"/>
+      <c r="P24" s="268"/>
+      <c r="Q24" s="268"/>
+      <c r="R24" s="269"/>
+      <c r="S24" s="254"/>
+      <c r="T24" s="254"/>
+      <c r="U24" s="254"/>
+      <c r="V24" s="270"/>
+      <c r="W24" s="271"/>
+      <c r="X24" s="271"/>
+      <c r="Y24" s="271"/>
+      <c r="Z24" s="271"/>
+      <c r="AA24" s="271"/>
+      <c r="AB24" s="271"/>
+      <c r="AC24" s="271"/>
+      <c r="AD24" s="271"/>
+      <c r="AE24" s="271"/>
+      <c r="AF24" s="271"/>
+      <c r="AG24" s="271"/>
+      <c r="AH24" s="271"/>
+      <c r="AI24" s="271"/>
+      <c r="AJ24" s="271"/>
+      <c r="AK24" s="271"/>
+      <c r="AL24" s="271"/>
+      <c r="AM24" s="272"/>
+      <c r="AN24" s="273"/>
+      <c r="AO24" s="274"/>
+      <c r="AP24" s="274"/>
+      <c r="AQ24" s="274"/>
+      <c r="AR24" s="275"/>
+      <c r="AS24" s="273"/>
+      <c r="AT24" s="274"/>
+      <c r="AU24" s="274"/>
+      <c r="AV24" s="274"/>
+      <c r="AW24" s="275"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="54"/>
-      <c r="B25" s="248"/>
-      <c r="C25" s="249"/>
-      <c r="D25" s="250"/>
-      <c r="E25" s="251"/>
-      <c r="F25" s="251"/>
-      <c r="G25" s="251"/>
-      <c r="H25" s="251"/>
-      <c r="I25" s="251"/>
-      <c r="J25" s="252"/>
-      <c r="K25" s="253"/>
-      <c r="L25" s="254"/>
-      <c r="M25" s="262"/>
-      <c r="N25" s="263"/>
-      <c r="O25" s="263"/>
-      <c r="P25" s="263"/>
-      <c r="Q25" s="263"/>
-      <c r="R25" s="264"/>
-      <c r="S25" s="258"/>
-      <c r="T25" s="258"/>
-      <c r="U25" s="258"/>
-      <c r="V25" s="259"/>
-      <c r="W25" s="260"/>
-      <c r="X25" s="260"/>
-      <c r="Y25" s="260"/>
-      <c r="Z25" s="260"/>
-      <c r="AA25" s="260"/>
-      <c r="AB25" s="260"/>
-      <c r="AC25" s="260"/>
-      <c r="AD25" s="260"/>
-      <c r="AE25" s="260"/>
-      <c r="AF25" s="260"/>
-      <c r="AG25" s="260"/>
-      <c r="AH25" s="260"/>
-      <c r="AI25" s="260"/>
-      <c r="AJ25" s="260"/>
-      <c r="AK25" s="260"/>
-      <c r="AL25" s="260"/>
-      <c r="AM25" s="261"/>
-      <c r="AN25" s="245"/>
-      <c r="AO25" s="246"/>
-      <c r="AP25" s="246"/>
-      <c r="AQ25" s="246"/>
-      <c r="AR25" s="247"/>
-      <c r="AS25" s="245"/>
-      <c r="AT25" s="246"/>
-      <c r="AU25" s="246"/>
-      <c r="AV25" s="246"/>
-      <c r="AW25" s="247"/>
+      <c r="B25" s="264"/>
+      <c r="C25" s="265"/>
+      <c r="D25" s="266"/>
+      <c r="E25" s="256"/>
+      <c r="F25" s="256"/>
+      <c r="G25" s="256"/>
+      <c r="H25" s="256"/>
+      <c r="I25" s="256"/>
+      <c r="J25" s="257"/>
+      <c r="K25" s="258"/>
+      <c r="L25" s="259"/>
+      <c r="M25" s="278"/>
+      <c r="N25" s="268"/>
+      <c r="O25" s="268"/>
+      <c r="P25" s="268"/>
+      <c r="Q25" s="268"/>
+      <c r="R25" s="269"/>
+      <c r="S25" s="254"/>
+      <c r="T25" s="254"/>
+      <c r="U25" s="254"/>
+      <c r="V25" s="270"/>
+      <c r="W25" s="271"/>
+      <c r="X25" s="271"/>
+      <c r="Y25" s="271"/>
+      <c r="Z25" s="271"/>
+      <c r="AA25" s="271"/>
+      <c r="AB25" s="271"/>
+      <c r="AC25" s="271"/>
+      <c r="AD25" s="271"/>
+      <c r="AE25" s="271"/>
+      <c r="AF25" s="271"/>
+      <c r="AG25" s="271"/>
+      <c r="AH25" s="271"/>
+      <c r="AI25" s="271"/>
+      <c r="AJ25" s="271"/>
+      <c r="AK25" s="271"/>
+      <c r="AL25" s="271"/>
+      <c r="AM25" s="272"/>
+      <c r="AN25" s="273"/>
+      <c r="AO25" s="274"/>
+      <c r="AP25" s="274"/>
+      <c r="AQ25" s="274"/>
+      <c r="AR25" s="275"/>
+      <c r="AS25" s="273"/>
+      <c r="AT25" s="274"/>
+      <c r="AU25" s="274"/>
+      <c r="AV25" s="274"/>
+      <c r="AW25" s="275"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="54"/>
-      <c r="B26" s="248"/>
-      <c r="C26" s="249"/>
-      <c r="D26" s="250"/>
-      <c r="E26" s="251"/>
-      <c r="F26" s="251"/>
-      <c r="G26" s="251"/>
-      <c r="H26" s="251"/>
-      <c r="I26" s="251"/>
-      <c r="J26" s="252"/>
-      <c r="K26" s="253"/>
-      <c r="L26" s="254"/>
-      <c r="M26" s="262"/>
-      <c r="N26" s="263"/>
-      <c r="O26" s="263"/>
-      <c r="P26" s="263"/>
-      <c r="Q26" s="263"/>
-      <c r="R26" s="264"/>
-      <c r="S26" s="258"/>
-      <c r="T26" s="258"/>
-      <c r="U26" s="258"/>
-      <c r="V26" s="259"/>
-      <c r="W26" s="260"/>
-      <c r="X26" s="260"/>
-      <c r="Y26" s="260"/>
-      <c r="Z26" s="260"/>
-      <c r="AA26" s="260"/>
-      <c r="AB26" s="260"/>
-      <c r="AC26" s="260"/>
-      <c r="AD26" s="260"/>
-      <c r="AE26" s="260"/>
-      <c r="AF26" s="260"/>
-      <c r="AG26" s="260"/>
-      <c r="AH26" s="260"/>
-      <c r="AI26" s="260"/>
-      <c r="AJ26" s="260"/>
-      <c r="AK26" s="260"/>
-      <c r="AL26" s="260"/>
-      <c r="AM26" s="261"/>
-      <c r="AN26" s="245"/>
-      <c r="AO26" s="246"/>
-      <c r="AP26" s="246"/>
-      <c r="AQ26" s="246"/>
-      <c r="AR26" s="247"/>
-      <c r="AS26" s="245"/>
-      <c r="AT26" s="246"/>
-      <c r="AU26" s="246"/>
-      <c r="AV26" s="246"/>
-      <c r="AW26" s="247"/>
+      <c r="B26" s="264"/>
+      <c r="C26" s="265"/>
+      <c r="D26" s="266"/>
+      <c r="E26" s="256"/>
+      <c r="F26" s="256"/>
+      <c r="G26" s="256"/>
+      <c r="H26" s="256"/>
+      <c r="I26" s="256"/>
+      <c r="J26" s="257"/>
+      <c r="K26" s="258"/>
+      <c r="L26" s="259"/>
+      <c r="M26" s="278"/>
+      <c r="N26" s="268"/>
+      <c r="O26" s="268"/>
+      <c r="P26" s="268"/>
+      <c r="Q26" s="268"/>
+      <c r="R26" s="269"/>
+      <c r="S26" s="254"/>
+      <c r="T26" s="254"/>
+      <c r="U26" s="254"/>
+      <c r="V26" s="270"/>
+      <c r="W26" s="271"/>
+      <c r="X26" s="271"/>
+      <c r="Y26" s="271"/>
+      <c r="Z26" s="271"/>
+      <c r="AA26" s="271"/>
+      <c r="AB26" s="271"/>
+      <c r="AC26" s="271"/>
+      <c r="AD26" s="271"/>
+      <c r="AE26" s="271"/>
+      <c r="AF26" s="271"/>
+      <c r="AG26" s="271"/>
+      <c r="AH26" s="271"/>
+      <c r="AI26" s="271"/>
+      <c r="AJ26" s="271"/>
+      <c r="AK26" s="271"/>
+      <c r="AL26" s="271"/>
+      <c r="AM26" s="272"/>
+      <c r="AN26" s="273"/>
+      <c r="AO26" s="274"/>
+      <c r="AP26" s="274"/>
+      <c r="AQ26" s="274"/>
+      <c r="AR26" s="275"/>
+      <c r="AS26" s="273"/>
+      <c r="AT26" s="274"/>
+      <c r="AU26" s="274"/>
+      <c r="AV26" s="274"/>
+      <c r="AW26" s="275"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="54"/>
-      <c r="B27" s="248"/>
-      <c r="C27" s="249"/>
-      <c r="D27" s="250"/>
-      <c r="E27" s="251"/>
-      <c r="F27" s="251"/>
-      <c r="G27" s="251"/>
-      <c r="H27" s="251"/>
-      <c r="I27" s="251"/>
-      <c r="J27" s="252"/>
-      <c r="K27" s="253"/>
-      <c r="L27" s="254"/>
-      <c r="M27" s="262"/>
-      <c r="N27" s="263"/>
-      <c r="O27" s="263"/>
-      <c r="P27" s="263"/>
-      <c r="Q27" s="263"/>
-      <c r="R27" s="264"/>
-      <c r="S27" s="258"/>
-      <c r="T27" s="258"/>
-      <c r="U27" s="258"/>
-      <c r="V27" s="259"/>
-      <c r="W27" s="260"/>
-      <c r="X27" s="260"/>
-      <c r="Y27" s="260"/>
-      <c r="Z27" s="260"/>
-      <c r="AA27" s="260"/>
-      <c r="AB27" s="260"/>
-      <c r="AC27" s="260"/>
-      <c r="AD27" s="260"/>
-      <c r="AE27" s="260"/>
-      <c r="AF27" s="260"/>
-      <c r="AG27" s="260"/>
-      <c r="AH27" s="260"/>
-      <c r="AI27" s="260"/>
-      <c r="AJ27" s="260"/>
-      <c r="AK27" s="260"/>
-      <c r="AL27" s="260"/>
-      <c r="AM27" s="261"/>
-      <c r="AN27" s="245"/>
-      <c r="AO27" s="246"/>
-      <c r="AP27" s="246"/>
-      <c r="AQ27" s="246"/>
-      <c r="AR27" s="247"/>
-      <c r="AS27" s="245"/>
-      <c r="AT27" s="246"/>
-      <c r="AU27" s="246"/>
-      <c r="AV27" s="246"/>
-      <c r="AW27" s="247"/>
+      <c r="B27" s="264"/>
+      <c r="C27" s="265"/>
+      <c r="D27" s="266"/>
+      <c r="E27" s="256"/>
+      <c r="F27" s="256"/>
+      <c r="G27" s="256"/>
+      <c r="H27" s="256"/>
+      <c r="I27" s="256"/>
+      <c r="J27" s="257"/>
+      <c r="K27" s="258"/>
+      <c r="L27" s="259"/>
+      <c r="M27" s="278"/>
+      <c r="N27" s="268"/>
+      <c r="O27" s="268"/>
+      <c r="P27" s="268"/>
+      <c r="Q27" s="268"/>
+      <c r="R27" s="269"/>
+      <c r="S27" s="254"/>
+      <c r="T27" s="254"/>
+      <c r="U27" s="254"/>
+      <c r="V27" s="270"/>
+      <c r="W27" s="271"/>
+      <c r="X27" s="271"/>
+      <c r="Y27" s="271"/>
+      <c r="Z27" s="271"/>
+      <c r="AA27" s="271"/>
+      <c r="AB27" s="271"/>
+      <c r="AC27" s="271"/>
+      <c r="AD27" s="271"/>
+      <c r="AE27" s="271"/>
+      <c r="AF27" s="271"/>
+      <c r="AG27" s="271"/>
+      <c r="AH27" s="271"/>
+      <c r="AI27" s="271"/>
+      <c r="AJ27" s="271"/>
+      <c r="AK27" s="271"/>
+      <c r="AL27" s="271"/>
+      <c r="AM27" s="272"/>
+      <c r="AN27" s="273"/>
+      <c r="AO27" s="274"/>
+      <c r="AP27" s="274"/>
+      <c r="AQ27" s="274"/>
+      <c r="AR27" s="275"/>
+      <c r="AS27" s="273"/>
+      <c r="AT27" s="274"/>
+      <c r="AU27" s="274"/>
+      <c r="AV27" s="274"/>
+      <c r="AW27" s="275"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="54"/>
-      <c r="B28" s="248"/>
-      <c r="C28" s="249"/>
-      <c r="D28" s="250"/>
-      <c r="E28" s="251"/>
-      <c r="F28" s="251"/>
-      <c r="G28" s="251"/>
-      <c r="H28" s="251"/>
-      <c r="I28" s="251"/>
-      <c r="J28" s="252"/>
-      <c r="K28" s="253"/>
-      <c r="L28" s="254"/>
-      <c r="M28" s="265"/>
-      <c r="N28" s="263"/>
-      <c r="O28" s="263"/>
-      <c r="P28" s="263"/>
-      <c r="Q28" s="263"/>
-      <c r="R28" s="264"/>
-      <c r="S28" s="258"/>
-      <c r="T28" s="258"/>
-      <c r="U28" s="258"/>
-      <c r="V28" s="259"/>
-      <c r="W28" s="260"/>
-      <c r="X28" s="260"/>
-      <c r="Y28" s="260"/>
-      <c r="Z28" s="260"/>
-      <c r="AA28" s="260"/>
-      <c r="AB28" s="260"/>
-      <c r="AC28" s="260"/>
-      <c r="AD28" s="260"/>
-      <c r="AE28" s="260"/>
-      <c r="AF28" s="260"/>
-      <c r="AG28" s="260"/>
-      <c r="AH28" s="260"/>
-      <c r="AI28" s="260"/>
-      <c r="AJ28" s="260"/>
-      <c r="AK28" s="260"/>
-      <c r="AL28" s="260"/>
-      <c r="AM28" s="261"/>
-      <c r="AN28" s="245"/>
-      <c r="AO28" s="246"/>
-      <c r="AP28" s="246"/>
-      <c r="AQ28" s="246"/>
-      <c r="AR28" s="247"/>
-      <c r="AS28" s="245"/>
-      <c r="AT28" s="246"/>
-      <c r="AU28" s="246"/>
-      <c r="AV28" s="246"/>
-      <c r="AW28" s="247"/>
+      <c r="B28" s="264"/>
+      <c r="C28" s="265"/>
+      <c r="D28" s="266"/>
+      <c r="E28" s="256"/>
+      <c r="F28" s="256"/>
+      <c r="G28" s="256"/>
+      <c r="H28" s="256"/>
+      <c r="I28" s="256"/>
+      <c r="J28" s="257"/>
+      <c r="K28" s="258"/>
+      <c r="L28" s="259"/>
+      <c r="M28" s="267"/>
+      <c r="N28" s="268"/>
+      <c r="O28" s="268"/>
+      <c r="P28" s="268"/>
+      <c r="Q28" s="268"/>
+      <c r="R28" s="269"/>
+      <c r="S28" s="254"/>
+      <c r="T28" s="254"/>
+      <c r="U28" s="254"/>
+      <c r="V28" s="270"/>
+      <c r="W28" s="271"/>
+      <c r="X28" s="271"/>
+      <c r="Y28" s="271"/>
+      <c r="Z28" s="271"/>
+      <c r="AA28" s="271"/>
+      <c r="AB28" s="271"/>
+      <c r="AC28" s="271"/>
+      <c r="AD28" s="271"/>
+      <c r="AE28" s="271"/>
+      <c r="AF28" s="271"/>
+      <c r="AG28" s="271"/>
+      <c r="AH28" s="271"/>
+      <c r="AI28" s="271"/>
+      <c r="AJ28" s="271"/>
+      <c r="AK28" s="271"/>
+      <c r="AL28" s="271"/>
+      <c r="AM28" s="272"/>
+      <c r="AN28" s="273"/>
+      <c r="AO28" s="274"/>
+      <c r="AP28" s="274"/>
+      <c r="AQ28" s="274"/>
+      <c r="AR28" s="275"/>
+      <c r="AS28" s="273"/>
+      <c r="AT28" s="274"/>
+      <c r="AU28" s="274"/>
+      <c r="AV28" s="274"/>
+      <c r="AW28" s="275"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="54"/>
-      <c r="B29" s="248"/>
-      <c r="C29" s="249"/>
-      <c r="D29" s="250"/>
-      <c r="E29" s="251"/>
-      <c r="F29" s="251"/>
-      <c r="G29" s="251"/>
-      <c r="H29" s="251"/>
-      <c r="I29" s="251"/>
-      <c r="J29" s="252"/>
-      <c r="K29" s="253"/>
-      <c r="L29" s="254"/>
-      <c r="M29" s="265"/>
-      <c r="N29" s="263"/>
-      <c r="O29" s="263"/>
-      <c r="P29" s="263"/>
-      <c r="Q29" s="263"/>
-      <c r="R29" s="264"/>
-      <c r="S29" s="258"/>
-      <c r="T29" s="258"/>
-      <c r="U29" s="258"/>
-      <c r="V29" s="259"/>
-      <c r="W29" s="260"/>
-      <c r="X29" s="260"/>
-      <c r="Y29" s="260"/>
-      <c r="Z29" s="260"/>
-      <c r="AA29" s="260"/>
-      <c r="AB29" s="260"/>
-      <c r="AC29" s="260"/>
-      <c r="AD29" s="260"/>
-      <c r="AE29" s="260"/>
-      <c r="AF29" s="260"/>
-      <c r="AG29" s="260"/>
-      <c r="AH29" s="260"/>
-      <c r="AI29" s="260"/>
-      <c r="AJ29" s="260"/>
-      <c r="AK29" s="260"/>
-      <c r="AL29" s="260"/>
-      <c r="AM29" s="261"/>
-      <c r="AN29" s="245"/>
-      <c r="AO29" s="246"/>
-      <c r="AP29" s="246"/>
-      <c r="AQ29" s="246"/>
-      <c r="AR29" s="247"/>
-      <c r="AS29" s="245"/>
-      <c r="AT29" s="246"/>
-      <c r="AU29" s="246"/>
-      <c r="AV29" s="246"/>
-      <c r="AW29" s="247"/>
+      <c r="B29" s="264"/>
+      <c r="C29" s="265"/>
+      <c r="D29" s="266"/>
+      <c r="E29" s="256"/>
+      <c r="F29" s="256"/>
+      <c r="G29" s="256"/>
+      <c r="H29" s="256"/>
+      <c r="I29" s="256"/>
+      <c r="J29" s="257"/>
+      <c r="K29" s="258"/>
+      <c r="L29" s="259"/>
+      <c r="M29" s="267"/>
+      <c r="N29" s="268"/>
+      <c r="O29" s="268"/>
+      <c r="P29" s="268"/>
+      <c r="Q29" s="268"/>
+      <c r="R29" s="269"/>
+      <c r="S29" s="254"/>
+      <c r="T29" s="254"/>
+      <c r="U29" s="254"/>
+      <c r="V29" s="270"/>
+      <c r="W29" s="271"/>
+      <c r="X29" s="271"/>
+      <c r="Y29" s="271"/>
+      <c r="Z29" s="271"/>
+      <c r="AA29" s="271"/>
+      <c r="AB29" s="271"/>
+      <c r="AC29" s="271"/>
+      <c r="AD29" s="271"/>
+      <c r="AE29" s="271"/>
+      <c r="AF29" s="271"/>
+      <c r="AG29" s="271"/>
+      <c r="AH29" s="271"/>
+      <c r="AI29" s="271"/>
+      <c r="AJ29" s="271"/>
+      <c r="AK29" s="271"/>
+      <c r="AL29" s="271"/>
+      <c r="AM29" s="272"/>
+      <c r="AN29" s="273"/>
+      <c r="AO29" s="274"/>
+      <c r="AP29" s="274"/>
+      <c r="AQ29" s="274"/>
+      <c r="AR29" s="275"/>
+      <c r="AS29" s="273"/>
+      <c r="AT29" s="274"/>
+      <c r="AU29" s="274"/>
+      <c r="AV29" s="274"/>
+      <c r="AW29" s="275"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="54"/>
-      <c r="B30" s="248"/>
-      <c r="C30" s="249"/>
-      <c r="D30" s="250"/>
-      <c r="E30" s="251"/>
-      <c r="F30" s="251"/>
-      <c r="G30" s="251"/>
-      <c r="H30" s="251"/>
-      <c r="I30" s="251"/>
-      <c r="J30" s="252"/>
-      <c r="K30" s="253"/>
-      <c r="L30" s="254"/>
-      <c r="M30" s="262"/>
-      <c r="N30" s="263"/>
-      <c r="O30" s="263"/>
-      <c r="P30" s="263"/>
-      <c r="Q30" s="263"/>
-      <c r="R30" s="264"/>
-      <c r="S30" s="258"/>
-      <c r="T30" s="258"/>
-      <c r="U30" s="258"/>
-      <c r="V30" s="259"/>
-      <c r="W30" s="260"/>
-      <c r="X30" s="260"/>
-      <c r="Y30" s="260"/>
-      <c r="Z30" s="260"/>
-      <c r="AA30" s="260"/>
-      <c r="AB30" s="260"/>
-      <c r="AC30" s="260"/>
-      <c r="AD30" s="260"/>
-      <c r="AE30" s="260"/>
-      <c r="AF30" s="260"/>
-      <c r="AG30" s="260"/>
-      <c r="AH30" s="260"/>
-      <c r="AI30" s="260"/>
-      <c r="AJ30" s="260"/>
-      <c r="AK30" s="260"/>
-      <c r="AL30" s="260"/>
-      <c r="AM30" s="261"/>
-      <c r="AN30" s="245"/>
-      <c r="AO30" s="246"/>
-      <c r="AP30" s="246"/>
-      <c r="AQ30" s="246"/>
-      <c r="AR30" s="247"/>
-      <c r="AS30" s="245"/>
-      <c r="AT30" s="246"/>
-      <c r="AU30" s="246"/>
-      <c r="AV30" s="246"/>
-      <c r="AW30" s="247"/>
+      <c r="B30" s="264"/>
+      <c r="C30" s="265"/>
+      <c r="D30" s="266"/>
+      <c r="E30" s="256"/>
+      <c r="F30" s="256"/>
+      <c r="G30" s="256"/>
+      <c r="H30" s="256"/>
+      <c r="I30" s="256"/>
+      <c r="J30" s="257"/>
+      <c r="K30" s="258"/>
+      <c r="L30" s="259"/>
+      <c r="M30" s="278"/>
+      <c r="N30" s="268"/>
+      <c r="O30" s="268"/>
+      <c r="P30" s="268"/>
+      <c r="Q30" s="268"/>
+      <c r="R30" s="269"/>
+      <c r="S30" s="254"/>
+      <c r="T30" s="254"/>
+      <c r="U30" s="254"/>
+      <c r="V30" s="270"/>
+      <c r="W30" s="271"/>
+      <c r="X30" s="271"/>
+      <c r="Y30" s="271"/>
+      <c r="Z30" s="271"/>
+      <c r="AA30" s="271"/>
+      <c r="AB30" s="271"/>
+      <c r="AC30" s="271"/>
+      <c r="AD30" s="271"/>
+      <c r="AE30" s="271"/>
+      <c r="AF30" s="271"/>
+      <c r="AG30" s="271"/>
+      <c r="AH30" s="271"/>
+      <c r="AI30" s="271"/>
+      <c r="AJ30" s="271"/>
+      <c r="AK30" s="271"/>
+      <c r="AL30" s="271"/>
+      <c r="AM30" s="272"/>
+      <c r="AN30" s="273"/>
+      <c r="AO30" s="274"/>
+      <c r="AP30" s="274"/>
+      <c r="AQ30" s="274"/>
+      <c r="AR30" s="275"/>
+      <c r="AS30" s="273"/>
+      <c r="AT30" s="274"/>
+      <c r="AU30" s="274"/>
+      <c r="AV30" s="274"/>
+      <c r="AW30" s="275"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="54"/>
-      <c r="B31" s="248"/>
-      <c r="C31" s="249"/>
-      <c r="D31" s="250"/>
-      <c r="E31" s="251"/>
-      <c r="F31" s="251"/>
-      <c r="G31" s="251"/>
-      <c r="H31" s="251"/>
-      <c r="I31" s="251"/>
-      <c r="J31" s="252"/>
-      <c r="K31" s="253"/>
-      <c r="L31" s="254"/>
-      <c r="M31" s="262"/>
-      <c r="N31" s="263"/>
-      <c r="O31" s="263"/>
-      <c r="P31" s="263"/>
-      <c r="Q31" s="263"/>
-      <c r="R31" s="264"/>
-      <c r="S31" s="258"/>
-      <c r="T31" s="258"/>
-      <c r="U31" s="258"/>
-      <c r="V31" s="259"/>
-      <c r="W31" s="260"/>
-      <c r="X31" s="260"/>
-      <c r="Y31" s="260"/>
-      <c r="Z31" s="260"/>
-      <c r="AA31" s="260"/>
-      <c r="AB31" s="260"/>
-      <c r="AC31" s="260"/>
-      <c r="AD31" s="260"/>
-      <c r="AE31" s="260"/>
-      <c r="AF31" s="260"/>
-      <c r="AG31" s="260"/>
-      <c r="AH31" s="260"/>
-      <c r="AI31" s="260"/>
-      <c r="AJ31" s="260"/>
-      <c r="AK31" s="260"/>
-      <c r="AL31" s="260"/>
-      <c r="AM31" s="261"/>
-      <c r="AN31" s="245"/>
-      <c r="AO31" s="246"/>
-      <c r="AP31" s="246"/>
-      <c r="AQ31" s="246"/>
-      <c r="AR31" s="247"/>
-      <c r="AS31" s="245"/>
-      <c r="AT31" s="246"/>
-      <c r="AU31" s="246"/>
-      <c r="AV31" s="246"/>
-      <c r="AW31" s="247"/>
+      <c r="B31" s="264"/>
+      <c r="C31" s="265"/>
+      <c r="D31" s="266"/>
+      <c r="E31" s="256"/>
+      <c r="F31" s="256"/>
+      <c r="G31" s="256"/>
+      <c r="H31" s="256"/>
+      <c r="I31" s="256"/>
+      <c r="J31" s="257"/>
+      <c r="K31" s="258"/>
+      <c r="L31" s="259"/>
+      <c r="M31" s="278"/>
+      <c r="N31" s="268"/>
+      <c r="O31" s="268"/>
+      <c r="P31" s="268"/>
+      <c r="Q31" s="268"/>
+      <c r="R31" s="269"/>
+      <c r="S31" s="254"/>
+      <c r="T31" s="254"/>
+      <c r="U31" s="254"/>
+      <c r="V31" s="270"/>
+      <c r="W31" s="271"/>
+      <c r="X31" s="271"/>
+      <c r="Y31" s="271"/>
+      <c r="Z31" s="271"/>
+      <c r="AA31" s="271"/>
+      <c r="AB31" s="271"/>
+      <c r="AC31" s="271"/>
+      <c r="AD31" s="271"/>
+      <c r="AE31" s="271"/>
+      <c r="AF31" s="271"/>
+      <c r="AG31" s="271"/>
+      <c r="AH31" s="271"/>
+      <c r="AI31" s="271"/>
+      <c r="AJ31" s="271"/>
+      <c r="AK31" s="271"/>
+      <c r="AL31" s="271"/>
+      <c r="AM31" s="272"/>
+      <c r="AN31" s="273"/>
+      <c r="AO31" s="274"/>
+      <c r="AP31" s="274"/>
+      <c r="AQ31" s="274"/>
+      <c r="AR31" s="275"/>
+      <c r="AS31" s="273"/>
+      <c r="AT31" s="274"/>
+      <c r="AU31" s="274"/>
+      <c r="AV31" s="274"/>
+      <c r="AW31" s="275"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="54"/>
-      <c r="B32" s="248"/>
-      <c r="C32" s="249"/>
-      <c r="D32" s="250"/>
-      <c r="E32" s="251"/>
-      <c r="F32" s="251"/>
-      <c r="G32" s="251"/>
-      <c r="H32" s="251"/>
-      <c r="I32" s="251"/>
-      <c r="J32" s="252"/>
-      <c r="K32" s="253"/>
-      <c r="L32" s="254"/>
-      <c r="M32" s="262"/>
-      <c r="N32" s="263"/>
-      <c r="O32" s="263"/>
-      <c r="P32" s="263"/>
-      <c r="Q32" s="263"/>
-      <c r="R32" s="264"/>
-      <c r="S32" s="258"/>
-      <c r="T32" s="258"/>
-      <c r="U32" s="258"/>
-      <c r="V32" s="259"/>
-      <c r="W32" s="260"/>
-      <c r="X32" s="260"/>
-      <c r="Y32" s="260"/>
-      <c r="Z32" s="260"/>
-      <c r="AA32" s="260"/>
-      <c r="AB32" s="260"/>
-      <c r="AC32" s="260"/>
-      <c r="AD32" s="260"/>
-      <c r="AE32" s="260"/>
-      <c r="AF32" s="260"/>
-      <c r="AG32" s="260"/>
-      <c r="AH32" s="260"/>
-      <c r="AI32" s="260"/>
-      <c r="AJ32" s="260"/>
-      <c r="AK32" s="260"/>
-      <c r="AL32" s="260"/>
-      <c r="AM32" s="261"/>
-      <c r="AN32" s="245"/>
-      <c r="AO32" s="246"/>
-      <c r="AP32" s="246"/>
-      <c r="AQ32" s="246"/>
-      <c r="AR32" s="247"/>
-      <c r="AS32" s="245"/>
-      <c r="AT32" s="246"/>
-      <c r="AU32" s="246"/>
-      <c r="AV32" s="246"/>
-      <c r="AW32" s="247"/>
+      <c r="B32" s="264"/>
+      <c r="C32" s="265"/>
+      <c r="D32" s="266"/>
+      <c r="E32" s="256"/>
+      <c r="F32" s="256"/>
+      <c r="G32" s="256"/>
+      <c r="H32" s="256"/>
+      <c r="I32" s="256"/>
+      <c r="J32" s="257"/>
+      <c r="K32" s="258"/>
+      <c r="L32" s="259"/>
+      <c r="M32" s="278"/>
+      <c r="N32" s="268"/>
+      <c r="O32" s="268"/>
+      <c r="P32" s="268"/>
+      <c r="Q32" s="268"/>
+      <c r="R32" s="269"/>
+      <c r="S32" s="254"/>
+      <c r="T32" s="254"/>
+      <c r="U32" s="254"/>
+      <c r="V32" s="270"/>
+      <c r="W32" s="271"/>
+      <c r="X32" s="271"/>
+      <c r="Y32" s="271"/>
+      <c r="Z32" s="271"/>
+      <c r="AA32" s="271"/>
+      <c r="AB32" s="271"/>
+      <c r="AC32" s="271"/>
+      <c r="AD32" s="271"/>
+      <c r="AE32" s="271"/>
+      <c r="AF32" s="271"/>
+      <c r="AG32" s="271"/>
+      <c r="AH32" s="271"/>
+      <c r="AI32" s="271"/>
+      <c r="AJ32" s="271"/>
+      <c r="AK32" s="271"/>
+      <c r="AL32" s="271"/>
+      <c r="AM32" s="272"/>
+      <c r="AN32" s="273"/>
+      <c r="AO32" s="274"/>
+      <c r="AP32" s="274"/>
+      <c r="AQ32" s="274"/>
+      <c r="AR32" s="275"/>
+      <c r="AS32" s="273"/>
+      <c r="AT32" s="274"/>
+      <c r="AU32" s="274"/>
+      <c r="AV32" s="274"/>
+      <c r="AW32" s="275"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="248"/>
-      <c r="C33" s="249"/>
-      <c r="D33" s="250"/>
-      <c r="E33" s="251"/>
-      <c r="F33" s="251"/>
-      <c r="G33" s="251"/>
-      <c r="H33" s="251"/>
-      <c r="I33" s="251"/>
-      <c r="J33" s="252"/>
-      <c r="K33" s="253"/>
-      <c r="L33" s="254"/>
-      <c r="M33" s="262"/>
-      <c r="N33" s="263"/>
-      <c r="O33" s="263"/>
-      <c r="P33" s="263"/>
-      <c r="Q33" s="263"/>
-      <c r="R33" s="264"/>
-      <c r="S33" s="258"/>
-      <c r="T33" s="258"/>
-      <c r="U33" s="258"/>
-      <c r="V33" s="259"/>
-      <c r="W33" s="260"/>
-      <c r="X33" s="260"/>
-      <c r="Y33" s="260"/>
-      <c r="Z33" s="260"/>
-      <c r="AA33" s="260"/>
-      <c r="AB33" s="260"/>
-      <c r="AC33" s="260"/>
-      <c r="AD33" s="260"/>
-      <c r="AE33" s="260"/>
-      <c r="AF33" s="260"/>
-      <c r="AG33" s="260"/>
-      <c r="AH33" s="260"/>
-      <c r="AI33" s="260"/>
-      <c r="AJ33" s="260"/>
-      <c r="AK33" s="260"/>
-      <c r="AL33" s="260"/>
-      <c r="AM33" s="261"/>
-      <c r="AN33" s="245"/>
-      <c r="AO33" s="246"/>
-      <c r="AP33" s="246"/>
-      <c r="AQ33" s="246"/>
-      <c r="AR33" s="247"/>
-      <c r="AS33" s="245"/>
-      <c r="AT33" s="246"/>
-      <c r="AU33" s="246"/>
-      <c r="AV33" s="246"/>
-      <c r="AW33" s="247"/>
+      <c r="B33" s="264"/>
+      <c r="C33" s="265"/>
+      <c r="D33" s="266"/>
+      <c r="E33" s="256"/>
+      <c r="F33" s="256"/>
+      <c r="G33" s="256"/>
+      <c r="H33" s="256"/>
+      <c r="I33" s="256"/>
+      <c r="J33" s="257"/>
+      <c r="K33" s="258"/>
+      <c r="L33" s="259"/>
+      <c r="M33" s="278"/>
+      <c r="N33" s="268"/>
+      <c r="O33" s="268"/>
+      <c r="P33" s="268"/>
+      <c r="Q33" s="268"/>
+      <c r="R33" s="269"/>
+      <c r="S33" s="254"/>
+      <c r="T33" s="254"/>
+      <c r="U33" s="254"/>
+      <c r="V33" s="270"/>
+      <c r="W33" s="271"/>
+      <c r="X33" s="271"/>
+      <c r="Y33" s="271"/>
+      <c r="Z33" s="271"/>
+      <c r="AA33" s="271"/>
+      <c r="AB33" s="271"/>
+      <c r="AC33" s="271"/>
+      <c r="AD33" s="271"/>
+      <c r="AE33" s="271"/>
+      <c r="AF33" s="271"/>
+      <c r="AG33" s="271"/>
+      <c r="AH33" s="271"/>
+      <c r="AI33" s="271"/>
+      <c r="AJ33" s="271"/>
+      <c r="AK33" s="271"/>
+      <c r="AL33" s="271"/>
+      <c r="AM33" s="272"/>
+      <c r="AN33" s="273"/>
+      <c r="AO33" s="274"/>
+      <c r="AP33" s="274"/>
+      <c r="AQ33" s="274"/>
+      <c r="AR33" s="275"/>
+      <c r="AS33" s="273"/>
+      <c r="AT33" s="274"/>
+      <c r="AU33" s="274"/>
+      <c r="AV33" s="274"/>
+      <c r="AW33" s="275"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="248"/>
-      <c r="C34" s="249"/>
-      <c r="D34" s="250"/>
-      <c r="E34" s="251"/>
-      <c r="F34" s="251"/>
-      <c r="G34" s="251"/>
-      <c r="H34" s="251"/>
-      <c r="I34" s="251"/>
-      <c r="J34" s="252"/>
-      <c r="K34" s="253"/>
-      <c r="L34" s="254"/>
-      <c r="M34" s="255"/>
-      <c r="N34" s="256"/>
-      <c r="O34" s="256"/>
-      <c r="P34" s="256"/>
-      <c r="Q34" s="256"/>
-      <c r="R34" s="257"/>
-      <c r="S34" s="258"/>
-      <c r="T34" s="258"/>
-      <c r="U34" s="258"/>
-      <c r="V34" s="259"/>
-      <c r="W34" s="260"/>
-      <c r="X34" s="260"/>
-      <c r="Y34" s="260"/>
-      <c r="Z34" s="260"/>
-      <c r="AA34" s="260"/>
-      <c r="AB34" s="260"/>
-      <c r="AC34" s="260"/>
-      <c r="AD34" s="260"/>
-      <c r="AE34" s="260"/>
-      <c r="AF34" s="260"/>
-      <c r="AG34" s="260"/>
-      <c r="AH34" s="260"/>
-      <c r="AI34" s="260"/>
-      <c r="AJ34" s="260"/>
-      <c r="AK34" s="260"/>
-      <c r="AL34" s="260"/>
-      <c r="AM34" s="261"/>
-      <c r="AN34" s="245"/>
-      <c r="AO34" s="246"/>
-      <c r="AP34" s="246"/>
-      <c r="AQ34" s="246"/>
-      <c r="AR34" s="247"/>
-      <c r="AS34" s="245"/>
-      <c r="AT34" s="246"/>
-      <c r="AU34" s="246"/>
-      <c r="AV34" s="246"/>
-      <c r="AW34" s="247"/>
+      <c r="B34" s="264"/>
+      <c r="C34" s="265"/>
+      <c r="D34" s="266"/>
+      <c r="E34" s="256"/>
+      <c r="F34" s="256"/>
+      <c r="G34" s="256"/>
+      <c r="H34" s="256"/>
+      <c r="I34" s="256"/>
+      <c r="J34" s="257"/>
+      <c r="K34" s="258"/>
+      <c r="L34" s="259"/>
+      <c r="M34" s="282"/>
+      <c r="N34" s="283"/>
+      <c r="O34" s="283"/>
+      <c r="P34" s="283"/>
+      <c r="Q34" s="283"/>
+      <c r="R34" s="284"/>
+      <c r="S34" s="254"/>
+      <c r="T34" s="254"/>
+      <c r="U34" s="254"/>
+      <c r="V34" s="270"/>
+      <c r="W34" s="271"/>
+      <c r="X34" s="271"/>
+      <c r="Y34" s="271"/>
+      <c r="Z34" s="271"/>
+      <c r="AA34" s="271"/>
+      <c r="AB34" s="271"/>
+      <c r="AC34" s="271"/>
+      <c r="AD34" s="271"/>
+      <c r="AE34" s="271"/>
+      <c r="AF34" s="271"/>
+      <c r="AG34" s="271"/>
+      <c r="AH34" s="271"/>
+      <c r="AI34" s="271"/>
+      <c r="AJ34" s="271"/>
+      <c r="AK34" s="271"/>
+      <c r="AL34" s="271"/>
+      <c r="AM34" s="272"/>
+      <c r="AN34" s="273"/>
+      <c r="AO34" s="274"/>
+      <c r="AP34" s="274"/>
+      <c r="AQ34" s="274"/>
+      <c r="AR34" s="275"/>
+      <c r="AS34" s="273"/>
+      <c r="AT34" s="274"/>
+      <c r="AU34" s="274"/>
+      <c r="AV34" s="274"/>
+      <c r="AW34" s="275"/>
     </row>
   </sheetData>
   <mergeCells count="249">
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN33:AR33"/>
+    <mergeCell ref="AS33:AW33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:AM34"/>
+    <mergeCell ref="AN34:AR34"/>
+    <mergeCell ref="AS34:AW34"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
     <mergeCell ref="AN5:AR5"/>
     <mergeCell ref="AS5:AW5"/>
     <mergeCell ref="B6:D6"/>
@@ -10254,230 +10473,15 @@
     <mergeCell ref="M5:R5"/>
     <mergeCell ref="S5:U5"/>
     <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN33:AR33"/>
-    <mergeCell ref="AS33:AW33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:AM34"/>
-    <mergeCell ref="AN34:AR34"/>
-    <mergeCell ref="AS34:AW34"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13233,22 +13237,22 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="278" t="s">
+      <c r="C6" s="247" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="278" t="s">
+      <c r="D6" s="247" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="278" t="s">
+      <c r="E6" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="278" t="s">
+      <c r="F6" s="247" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="278" t="s">
+      <c r="G6" s="247" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="278" t="s">
+      <c r="H6" s="247" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="306" t="s">
@@ -13257,13 +13261,13 @@
       <c r="J6" s="306" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="278" t="s">
+      <c r="K6" s="247" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="278" t="s">
+      <c r="L6" s="247" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="278" t="s">
+      <c r="M6" s="247" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="65" t="s">
@@ -13278,17 +13282,17 @@
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="278"/>
-      <c r="D7" s="278"/>
-      <c r="E7" s="278"/>
-      <c r="F7" s="278"/>
-      <c r="G7" s="278"/>
-      <c r="H7" s="278"/>
+      <c r="C7" s="247"/>
+      <c r="D7" s="247"/>
+      <c r="E7" s="247"/>
+      <c r="F7" s="247"/>
+      <c r="G7" s="247"/>
+      <c r="H7" s="247"/>
       <c r="I7" s="306"/>
       <c r="J7" s="306"/>
-      <c r="K7" s="278"/>
-      <c r="L7" s="278"/>
-      <c r="M7" s="278"/>
+      <c r="K7" s="247"/>
+      <c r="L7" s="247"/>
+      <c r="M7" s="247"/>
       <c r="N7" s="43" t="s">
         <v>77</v>
       </c>
@@ -13542,22 +13546,22 @@
     <row r="15" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
-      <c r="C15" s="278" t="s">
+      <c r="C15" s="247" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="278" t="s">
+      <c r="D15" s="247" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="278" t="s">
+      <c r="E15" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="278" t="s">
+      <c r="F15" s="247" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="278" t="s">
+      <c r="G15" s="247" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="278" t="s">
+      <c r="H15" s="247" t="s">
         <v>29</v>
       </c>
       <c r="I15" s="307" t="s">
@@ -13566,13 +13570,13 @@
       <c r="J15" s="306" t="s">
         <v>48</v>
       </c>
-      <c r="K15" s="278" t="s">
+      <c r="K15" s="247" t="s">
         <v>31</v>
       </c>
-      <c r="L15" s="278" t="s">
+      <c r="L15" s="247" t="s">
         <v>30</v>
       </c>
-      <c r="M15" s="278" t="s">
+      <c r="M15" s="247" t="s">
         <v>33</v>
       </c>
       <c r="N15" s="65" t="s">
@@ -13587,17 +13591,17 @@
     <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
-      <c r="C16" s="278"/>
-      <c r="D16" s="278"/>
-      <c r="E16" s="278"/>
-      <c r="F16" s="278"/>
-      <c r="G16" s="278"/>
-      <c r="H16" s="278"/>
+      <c r="C16" s="247"/>
+      <c r="D16" s="247"/>
+      <c r="E16" s="247"/>
+      <c r="F16" s="247"/>
+      <c r="G16" s="247"/>
+      <c r="H16" s="247"/>
       <c r="I16" s="308"/>
       <c r="J16" s="306"/>
-      <c r="K16" s="278"/>
-      <c r="L16" s="278"/>
-      <c r="M16" s="278"/>
+      <c r="K16" s="247"/>
+      <c r="L16" s="247"/>
+      <c r="M16" s="247"/>
       <c r="N16" s="43" t="s">
         <v>77</v>
       </c>
@@ -13960,22 +13964,22 @@
     </row>
     <row r="26" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="95"/>
-      <c r="C26" s="278" t="s">
+      <c r="C26" s="247" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="278" t="s">
+      <c r="D26" s="247" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="278" t="s">
+      <c r="E26" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="278" t="s">
+      <c r="F26" s="247" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="278" t="s">
+      <c r="G26" s="247" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="278" t="s">
+      <c r="H26" s="247" t="s">
         <v>29</v>
       </c>
       <c r="I26" s="306" t="s">
@@ -13984,13 +13988,13 @@
       <c r="J26" s="306" t="s">
         <v>48</v>
       </c>
-      <c r="K26" s="278" t="s">
+      <c r="K26" s="247" t="s">
         <v>31</v>
       </c>
-      <c r="L26" s="278" t="s">
+      <c r="L26" s="247" t="s">
         <v>30</v>
       </c>
-      <c r="M26" s="278" t="s">
+      <c r="M26" s="247" t="s">
         <v>33</v>
       </c>
       <c r="N26" s="65" t="s">
@@ -14004,17 +14008,17 @@
     </row>
     <row r="27" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B27" s="95"/>
-      <c r="C27" s="278"/>
-      <c r="D27" s="278"/>
-      <c r="E27" s="278"/>
-      <c r="F27" s="278"/>
-      <c r="G27" s="278"/>
-      <c r="H27" s="278"/>
+      <c r="C27" s="247"/>
+      <c r="D27" s="247"/>
+      <c r="E27" s="247"/>
+      <c r="F27" s="247"/>
+      <c r="G27" s="247"/>
+      <c r="H27" s="247"/>
       <c r="I27" s="306"/>
       <c r="J27" s="306"/>
-      <c r="K27" s="278"/>
-      <c r="L27" s="278"/>
-      <c r="M27" s="278"/>
+      <c r="K27" s="247"/>
+      <c r="L27" s="247"/>
+      <c r="M27" s="247"/>
       <c r="N27" s="93" t="s">
         <v>77</v>
       </c>
@@ -14810,6 +14814,34 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
     <mergeCell ref="K15:K16"/>
     <mergeCell ref="M26:M27"/>
     <mergeCell ref="Q26:Q27"/>
@@ -14818,34 +14850,6 @@
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="M15:M16"/>
     <mergeCell ref="L15:L16"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -19189,6 +19193,9 @@
         <v>96</v>
       </c>
       <c r="K94" s="68"/>
+      <c r="L94" s="241" t="s">
+        <v>437</v>
+      </c>
       <c r="AV94" s="68"/>
     </row>
     <row r="95" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -19305,6 +19312,9 @@
         <v>96</v>
       </c>
       <c r="K97" s="68"/>
+      <c r="L97" s="241" t="s">
+        <v>437</v>
+      </c>
       <c r="AV97" s="68"/>
     </row>
     <row r="98" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -49589,15 +49599,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -49755,6 +49756,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
   <ds:schemaRefs>
@@ -49772,14 +49782,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -49795,4 +49797,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/01_基本設計書/20200220リリース/SC-Z01_在庫照会.xlsx
+++ b/01_基本設計書/20200220リリース/SC-Z01_在庫照会.xlsx
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F91D019-8A18-47D2-9320-B756483DA2EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE16F192-2213-4A96-9E8A-B45CEBD87590}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="443">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1347,13 +1347,6 @@
     <t>RSLT-DTL1-008</t>
   </si>
   <si>
-    <t>JAS：JP組立</t>
-    <rPh sb="6" eb="8">
-      <t>クミタテ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>RSLT-DTL1-009</t>
   </si>
   <si>
@@ -1459,10 +1452,6 @@
       <t>コウテイ</t>
     </rPh>
     <phoneticPr fontId="50"/>
-  </si>
-  <si>
-    <t>JAS</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>部品番号</t>
@@ -2171,22 +2160,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>製品マスタ.客先部品番号</t>
-    <rPh sb="0" eb="2">
-      <t>セイヒン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キャクサキ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ブヒン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>「W0007」ｘｘを選択してください。</t>
     <rPh sb="10" eb="12">
       <t>センタク</t>
@@ -2456,102 +2429,6 @@
     </rPh>
     <rPh sb="16" eb="18">
       <t>コタイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>非表示</t>
-    <rPh sb="0" eb="3">
-      <t>ヒヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>事業所コード(非表示)</t>
-    <rPh sb="0" eb="3">
-      <t>ジギョウショ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>ヒヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>在庫データ.品名略称</t>
-    <rPh sb="0" eb="2">
-      <t>ザイコ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒンメイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>リャクショウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>在庫データ.事業所コード</t>
-    <rPh sb="0" eb="2">
-      <t>ザイコ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>ジギョウショ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>納入先コード(非表示)</t>
-    <rPh sb="0" eb="2">
-      <t>ノウニュウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>ヒヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>納入区分(非表示)</t>
-    <rPh sb="0" eb="2">
-      <t>ノウニュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>クブン</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>ヒヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>在庫データ.納入先コード</t>
-    <rPh sb="0" eb="2">
-      <t>ザイコ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ノウニュウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>サキ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>在庫データ.納入区分</t>
-    <rPh sb="0" eb="2">
-      <t>ザイコ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ノウニュウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>クブン</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -3476,6 +3353,124 @@
     <t>複数列選択時は左から順に並び替えの優先度が高い。</t>
     <phoneticPr fontId="17"/>
   </si>
+  <si>
+    <t>40：組立</t>
+    <rPh sb="3" eb="5">
+      <t>クミタテ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>生産</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>製品マスタ.客先部品番号</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キャクサキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ブヒン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>生産品名マスタ.品名略称</t>
+    <rPh sb="0" eb="2">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒンメイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒンメイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>リャクショウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>品名事業所コード(非表示)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>実績管理データ.品名事業所コード</t>
+  </si>
+  <si>
+    <t>パック品名(非表示)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>実績管理データ.パック品名略称</t>
+  </si>
+  <si>
+    <t>納入先コード(非表示)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>実績管理データ.納入先コード</t>
+  </si>
+  <si>
+    <t>納入区分(非表示)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>実績管理データ.納入区分</t>
+  </si>
+  <si>
+    <t>製品半製品区分(非表示)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>実績管理データ.製品半製品区分</t>
+  </si>
+  <si>
+    <t>RSLT-DTL1-017</t>
+  </si>
+  <si>
+    <t>RSLT-DTL1-018</t>
+  </si>
+  <si>
+    <t>・在庫データ.事業所コード</t>
+  </si>
+  <si>
+    <t>環境変数.事業所コード</t>
+    <rPh sb="0" eb="2">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ジギョウショ</t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
 </sst>
 </file>
 
@@ -3485,7 +3480,7 @@
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="56" x14ac:knownFonts="1">
+  <fonts count="59" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3869,6 +3864,27 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -4194,7 +4210,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="318">
+  <cellXfs count="327">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3"/>
@@ -4910,6 +4926,91 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4936,91 +5037,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="7" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5120,6 +5136,33 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="9" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="57" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -6112,7 +6155,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$47" spid="_x0000_s3551"/>
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$47" spid="_x0000_s3555"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6755,7 +6798,7 @@
             <a:xfrm>
               <a:off x="426449" y="2130359"/>
               <a:ext cx="1803076" cy="1150735"/>
-              <a:chOff x="1787559" y="2316181"/>
+              <a:chOff x="1787559" y="2316182"/>
               <a:chExt cx="1341120" cy="969078"/>
             </a:xfrm>
           </xdr:grpSpPr>
@@ -6772,10 +6815,10 @@
             </xdr:nvGrpSpPr>
             <xdr:grpSpPr>
               <a:xfrm>
-                <a:off x="1823232" y="2648511"/>
-                <a:ext cx="777645" cy="485630"/>
-                <a:chOff x="191656" y="3012361"/>
-                <a:chExt cx="777645" cy="479442"/>
+                <a:off x="1823232" y="2648514"/>
+                <a:ext cx="777645" cy="485626"/>
+                <a:chOff x="191656" y="3012363"/>
+                <a:chExt cx="777645" cy="479438"/>
               </a:xfrm>
             </xdr:grpSpPr>
             <xdr:sp macro="" textlink="">
@@ -6794,7 +6837,7 @@
               </xdr:nvSpPr>
               <xdr:spPr bwMode="auto">
                 <a:xfrm>
-                  <a:off x="191656" y="3012361"/>
+                  <a:off x="191656" y="3012363"/>
                   <a:ext cx="777645" cy="164478"/>
                 </a:xfrm>
                 <a:prstGeom prst="rect">
@@ -6860,7 +6903,7 @@
               </xdr:nvSpPr>
               <xdr:spPr bwMode="auto">
                 <a:xfrm>
-                  <a:off x="196808" y="3340323"/>
+                  <a:off x="196808" y="3340321"/>
                   <a:ext cx="763862" cy="151480"/>
                 </a:xfrm>
                 <a:prstGeom prst="rect">
@@ -6927,7 +6970,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="1787559" y="2316181"/>
+                <a:off x="1787559" y="2316182"/>
                 <a:ext cx="1341120" cy="969078"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -8248,7 +8291,7 @@
     </row>
     <row r="32" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A32" s="242" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B32" s="242"/>
       <c r="C32" s="242"/>
@@ -8469,1770 +8512,2003 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="54"/>
-      <c r="B1" s="245" t="s">
+      <c r="B1" s="276" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="245"/>
-      <c r="D1" s="245"/>
-      <c r="E1" s="245"/>
-      <c r="F1" s="245"/>
-      <c r="G1" s="245"/>
-      <c r="H1" s="245"/>
-      <c r="I1" s="245"/>
-      <c r="J1" s="245"/>
-      <c r="K1" s="245"/>
-      <c r="L1" s="245"/>
-      <c r="M1" s="245"/>
-      <c r="N1" s="245"/>
-      <c r="O1" s="245"/>
-      <c r="P1" s="245"/>
-      <c r="Q1" s="245"/>
-      <c r="R1" s="245"/>
-      <c r="S1" s="245"/>
-      <c r="T1" s="245"/>
-      <c r="U1" s="245"/>
-      <c r="V1" s="245"/>
-      <c r="W1" s="245"/>
-      <c r="X1" s="245"/>
-      <c r="Y1" s="245"/>
-      <c r="Z1" s="245"/>
-      <c r="AA1" s="245"/>
-      <c r="AB1" s="245"/>
-      <c r="AC1" s="245"/>
-      <c r="AD1" s="245"/>
-      <c r="AE1" s="245"/>
-      <c r="AF1" s="245"/>
-      <c r="AG1" s="245"/>
-      <c r="AH1" s="245"/>
-      <c r="AI1" s="245"/>
-      <c r="AJ1" s="245"/>
-      <c r="AK1" s="245"/>
-      <c r="AL1" s="245"/>
-      <c r="AM1" s="245"/>
-      <c r="AN1" s="245"/>
-      <c r="AO1" s="245"/>
-      <c r="AP1" s="245"/>
-      <c r="AQ1" s="245"/>
-      <c r="AR1" s="245"/>
-      <c r="AS1" s="245"/>
-      <c r="AT1" s="245"/>
-      <c r="AU1" s="245"/>
-      <c r="AV1" s="245"/>
-      <c r="AW1" s="245"/>
+      <c r="C1" s="276"/>
+      <c r="D1" s="276"/>
+      <c r="E1" s="276"/>
+      <c r="F1" s="276"/>
+      <c r="G1" s="276"/>
+      <c r="H1" s="276"/>
+      <c r="I1" s="276"/>
+      <c r="J1" s="276"/>
+      <c r="K1" s="276"/>
+      <c r="L1" s="276"/>
+      <c r="M1" s="276"/>
+      <c r="N1" s="276"/>
+      <c r="O1" s="276"/>
+      <c r="P1" s="276"/>
+      <c r="Q1" s="276"/>
+      <c r="R1" s="276"/>
+      <c r="S1" s="276"/>
+      <c r="T1" s="276"/>
+      <c r="U1" s="276"/>
+      <c r="V1" s="276"/>
+      <c r="W1" s="276"/>
+      <c r="X1" s="276"/>
+      <c r="Y1" s="276"/>
+      <c r="Z1" s="276"/>
+      <c r="AA1" s="276"/>
+      <c r="AB1" s="276"/>
+      <c r="AC1" s="276"/>
+      <c r="AD1" s="276"/>
+      <c r="AE1" s="276"/>
+      <c r="AF1" s="276"/>
+      <c r="AG1" s="276"/>
+      <c r="AH1" s="276"/>
+      <c r="AI1" s="276"/>
+      <c r="AJ1" s="276"/>
+      <c r="AK1" s="276"/>
+      <c r="AL1" s="276"/>
+      <c r="AM1" s="276"/>
+      <c r="AN1" s="276"/>
+      <c r="AO1" s="276"/>
+      <c r="AP1" s="276"/>
+      <c r="AQ1" s="276"/>
+      <c r="AR1" s="276"/>
+      <c r="AS1" s="276"/>
+      <c r="AT1" s="276"/>
+      <c r="AU1" s="276"/>
+      <c r="AV1" s="276"/>
+      <c r="AW1" s="276"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="54"/>
-      <c r="B2" s="246"/>
-      <c r="C2" s="246"/>
-      <c r="D2" s="246"/>
-      <c r="E2" s="246"/>
-      <c r="F2" s="246"/>
-      <c r="G2" s="246"/>
-      <c r="H2" s="246"/>
-      <c r="I2" s="246"/>
-      <c r="J2" s="246"/>
-      <c r="K2" s="246"/>
-      <c r="L2" s="246"/>
-      <c r="M2" s="246"/>
-      <c r="N2" s="246"/>
-      <c r="O2" s="246"/>
-      <c r="P2" s="246"/>
-      <c r="Q2" s="246"/>
-      <c r="R2" s="246"/>
-      <c r="S2" s="246"/>
-      <c r="T2" s="246"/>
-      <c r="U2" s="246"/>
-      <c r="V2" s="246"/>
-      <c r="W2" s="246"/>
-      <c r="X2" s="246"/>
-      <c r="Y2" s="246"/>
-      <c r="Z2" s="246"/>
-      <c r="AA2" s="246"/>
-      <c r="AB2" s="246"/>
-      <c r="AC2" s="246"/>
-      <c r="AD2" s="246"/>
-      <c r="AE2" s="246"/>
-      <c r="AF2" s="246"/>
-      <c r="AG2" s="246"/>
-      <c r="AH2" s="246"/>
-      <c r="AI2" s="246"/>
-      <c r="AJ2" s="246"/>
-      <c r="AK2" s="246"/>
-      <c r="AL2" s="246"/>
-      <c r="AM2" s="246"/>
-      <c r="AN2" s="246"/>
-      <c r="AO2" s="246"/>
-      <c r="AP2" s="246"/>
-      <c r="AQ2" s="246"/>
-      <c r="AR2" s="246"/>
-      <c r="AS2" s="246"/>
-      <c r="AT2" s="246"/>
-      <c r="AU2" s="246"/>
-      <c r="AV2" s="246"/>
-      <c r="AW2" s="246"/>
+      <c r="B2" s="277"/>
+      <c r="C2" s="277"/>
+      <c r="D2" s="277"/>
+      <c r="E2" s="277"/>
+      <c r="F2" s="277"/>
+      <c r="G2" s="277"/>
+      <c r="H2" s="277"/>
+      <c r="I2" s="277"/>
+      <c r="J2" s="277"/>
+      <c r="K2" s="277"/>
+      <c r="L2" s="277"/>
+      <c r="M2" s="277"/>
+      <c r="N2" s="277"/>
+      <c r="O2" s="277"/>
+      <c r="P2" s="277"/>
+      <c r="Q2" s="277"/>
+      <c r="R2" s="277"/>
+      <c r="S2" s="277"/>
+      <c r="T2" s="277"/>
+      <c r="U2" s="277"/>
+      <c r="V2" s="277"/>
+      <c r="W2" s="277"/>
+      <c r="X2" s="277"/>
+      <c r="Y2" s="277"/>
+      <c r="Z2" s="277"/>
+      <c r="AA2" s="277"/>
+      <c r="AB2" s="277"/>
+      <c r="AC2" s="277"/>
+      <c r="AD2" s="277"/>
+      <c r="AE2" s="277"/>
+      <c r="AF2" s="277"/>
+      <c r="AG2" s="277"/>
+      <c r="AH2" s="277"/>
+      <c r="AI2" s="277"/>
+      <c r="AJ2" s="277"/>
+      <c r="AK2" s="277"/>
+      <c r="AL2" s="277"/>
+      <c r="AM2" s="277"/>
+      <c r="AN2" s="277"/>
+      <c r="AO2" s="277"/>
+      <c r="AP2" s="277"/>
+      <c r="AQ2" s="277"/>
+      <c r="AR2" s="277"/>
+      <c r="AS2" s="277"/>
+      <c r="AT2" s="277"/>
+      <c r="AU2" s="277"/>
+      <c r="AV2" s="277"/>
+      <c r="AW2" s="277"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="54"/>
-      <c r="B3" s="247" t="s">
+      <c r="B3" s="278" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="247"/>
-      <c r="D3" s="247"/>
-      <c r="E3" s="247" t="s">
+      <c r="C3" s="278"/>
+      <c r="D3" s="278"/>
+      <c r="E3" s="278" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="247"/>
-      <c r="G3" s="247"/>
-      <c r="H3" s="247"/>
-      <c r="I3" s="247"/>
-      <c r="J3" s="248" t="s">
+      <c r="F3" s="278"/>
+      <c r="G3" s="278"/>
+      <c r="H3" s="278"/>
+      <c r="I3" s="278"/>
+      <c r="J3" s="279" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="249"/>
-      <c r="L3" s="250"/>
-      <c r="M3" s="248" t="s">
+      <c r="K3" s="280"/>
+      <c r="L3" s="281"/>
+      <c r="M3" s="279" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="249"/>
-      <c r="O3" s="249"/>
-      <c r="P3" s="249"/>
-      <c r="Q3" s="249"/>
-      <c r="R3" s="250"/>
-      <c r="S3" s="247" t="s">
+      <c r="N3" s="280"/>
+      <c r="O3" s="280"/>
+      <c r="P3" s="280"/>
+      <c r="Q3" s="280"/>
+      <c r="R3" s="281"/>
+      <c r="S3" s="278" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="247"/>
-      <c r="U3" s="247"/>
-      <c r="V3" s="247" t="s">
+      <c r="T3" s="278"/>
+      <c r="U3" s="278"/>
+      <c r="V3" s="278" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="247"/>
-      <c r="X3" s="247"/>
-      <c r="Y3" s="247"/>
-      <c r="Z3" s="247"/>
-      <c r="AA3" s="247"/>
-      <c r="AB3" s="247"/>
-      <c r="AC3" s="247"/>
-      <c r="AD3" s="247"/>
-      <c r="AE3" s="247"/>
-      <c r="AF3" s="247"/>
-      <c r="AG3" s="247"/>
-      <c r="AH3" s="247"/>
-      <c r="AI3" s="247"/>
-      <c r="AJ3" s="247"/>
-      <c r="AK3" s="247"/>
-      <c r="AL3" s="247"/>
-      <c r="AM3" s="247"/>
-      <c r="AN3" s="247" t="s">
+      <c r="W3" s="278"/>
+      <c r="X3" s="278"/>
+      <c r="Y3" s="278"/>
+      <c r="Z3" s="278"/>
+      <c r="AA3" s="278"/>
+      <c r="AB3" s="278"/>
+      <c r="AC3" s="278"/>
+      <c r="AD3" s="278"/>
+      <c r="AE3" s="278"/>
+      <c r="AF3" s="278"/>
+      <c r="AG3" s="278"/>
+      <c r="AH3" s="278"/>
+      <c r="AI3" s="278"/>
+      <c r="AJ3" s="278"/>
+      <c r="AK3" s="278"/>
+      <c r="AL3" s="278"/>
+      <c r="AM3" s="278"/>
+      <c r="AN3" s="278" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="247"/>
-      <c r="AP3" s="247"/>
-      <c r="AQ3" s="247"/>
-      <c r="AR3" s="247"/>
-      <c r="AS3" s="247" t="s">
+      <c r="AO3" s="278"/>
+      <c r="AP3" s="278"/>
+      <c r="AQ3" s="278"/>
+      <c r="AR3" s="278"/>
+      <c r="AS3" s="278" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="247"/>
-      <c r="AU3" s="247"/>
-      <c r="AV3" s="247"/>
-      <c r="AW3" s="247"/>
+      <c r="AT3" s="278"/>
+      <c r="AU3" s="278"/>
+      <c r="AV3" s="278"/>
+      <c r="AW3" s="278"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="54"/>
-      <c r="B4" s="247"/>
-      <c r="C4" s="247"/>
-      <c r="D4" s="247"/>
-      <c r="E4" s="247"/>
-      <c r="F4" s="247"/>
-      <c r="G4" s="247"/>
-      <c r="H4" s="247"/>
-      <c r="I4" s="247"/>
-      <c r="J4" s="251"/>
-      <c r="K4" s="252"/>
-      <c r="L4" s="253"/>
-      <c r="M4" s="251"/>
-      <c r="N4" s="252"/>
-      <c r="O4" s="252"/>
-      <c r="P4" s="252"/>
-      <c r="Q4" s="252"/>
-      <c r="R4" s="253"/>
-      <c r="S4" s="247"/>
-      <c r="T4" s="247"/>
-      <c r="U4" s="247"/>
-      <c r="V4" s="247"/>
-      <c r="W4" s="247"/>
-      <c r="X4" s="247"/>
-      <c r="Y4" s="247"/>
-      <c r="Z4" s="247"/>
-      <c r="AA4" s="247"/>
-      <c r="AB4" s="247"/>
-      <c r="AC4" s="247"/>
-      <c r="AD4" s="247"/>
-      <c r="AE4" s="247"/>
-      <c r="AF4" s="247"/>
-      <c r="AG4" s="247"/>
-      <c r="AH4" s="247"/>
-      <c r="AI4" s="247"/>
-      <c r="AJ4" s="247"/>
-      <c r="AK4" s="247"/>
-      <c r="AL4" s="247"/>
-      <c r="AM4" s="247"/>
-      <c r="AN4" s="247"/>
-      <c r="AO4" s="247"/>
-      <c r="AP4" s="247"/>
-      <c r="AQ4" s="247"/>
-      <c r="AR4" s="247"/>
-      <c r="AS4" s="247"/>
-      <c r="AT4" s="247"/>
-      <c r="AU4" s="247"/>
-      <c r="AV4" s="247"/>
-      <c r="AW4" s="247"/>
+      <c r="B4" s="278"/>
+      <c r="C4" s="278"/>
+      <c r="D4" s="278"/>
+      <c r="E4" s="278"/>
+      <c r="F4" s="278"/>
+      <c r="G4" s="278"/>
+      <c r="H4" s="278"/>
+      <c r="I4" s="278"/>
+      <c r="J4" s="282"/>
+      <c r="K4" s="283"/>
+      <c r="L4" s="284"/>
+      <c r="M4" s="282"/>
+      <c r="N4" s="283"/>
+      <c r="O4" s="283"/>
+      <c r="P4" s="283"/>
+      <c r="Q4" s="283"/>
+      <c r="R4" s="284"/>
+      <c r="S4" s="278"/>
+      <c r="T4" s="278"/>
+      <c r="U4" s="278"/>
+      <c r="V4" s="278"/>
+      <c r="W4" s="278"/>
+      <c r="X4" s="278"/>
+      <c r="Y4" s="278"/>
+      <c r="Z4" s="278"/>
+      <c r="AA4" s="278"/>
+      <c r="AB4" s="278"/>
+      <c r="AC4" s="278"/>
+      <c r="AD4" s="278"/>
+      <c r="AE4" s="278"/>
+      <c r="AF4" s="278"/>
+      <c r="AG4" s="278"/>
+      <c r="AH4" s="278"/>
+      <c r="AI4" s="278"/>
+      <c r="AJ4" s="278"/>
+      <c r="AK4" s="278"/>
+      <c r="AL4" s="278"/>
+      <c r="AM4" s="278"/>
+      <c r="AN4" s="278"/>
+      <c r="AO4" s="278"/>
+      <c r="AP4" s="278"/>
+      <c r="AQ4" s="278"/>
+      <c r="AR4" s="278"/>
+      <c r="AS4" s="278"/>
+      <c r="AT4" s="278"/>
+      <c r="AU4" s="278"/>
+      <c r="AV4" s="278"/>
+      <c r="AW4" s="278"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="56"/>
-      <c r="B5" s="255">
+      <c r="B5" s="270">
         <v>1</v>
       </c>
-      <c r="C5" s="255"/>
-      <c r="D5" s="255"/>
-      <c r="E5" s="256">
+      <c r="C5" s="270"/>
+      <c r="D5" s="270"/>
+      <c r="E5" s="251">
         <v>43734</v>
       </c>
-      <c r="F5" s="256"/>
-      <c r="G5" s="256"/>
-      <c r="H5" s="256"/>
-      <c r="I5" s="256"/>
-      <c r="J5" s="257" t="s">
+      <c r="F5" s="251"/>
+      <c r="G5" s="251"/>
+      <c r="H5" s="251"/>
+      <c r="I5" s="251"/>
+      <c r="J5" s="252" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="258"/>
-      <c r="L5" s="259"/>
-      <c r="M5" s="257" t="s">
+      <c r="K5" s="253"/>
+      <c r="L5" s="254"/>
+      <c r="M5" s="252" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="258"/>
-      <c r="O5" s="258"/>
-      <c r="P5" s="258"/>
-      <c r="Q5" s="258"/>
-      <c r="R5" s="259"/>
-      <c r="S5" s="254" t="s">
+      <c r="N5" s="253"/>
+      <c r="O5" s="253"/>
+      <c r="P5" s="253"/>
+      <c r="Q5" s="253"/>
+      <c r="R5" s="254"/>
+      <c r="S5" s="258" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="254"/>
-      <c r="U5" s="254"/>
-      <c r="V5" s="263" t="s">
+      <c r="T5" s="258"/>
+      <c r="U5" s="258"/>
+      <c r="V5" s="269" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="263"/>
-      <c r="X5" s="263"/>
-      <c r="Y5" s="263"/>
-      <c r="Z5" s="263"/>
-      <c r="AA5" s="263"/>
-      <c r="AB5" s="263"/>
-      <c r="AC5" s="263"/>
-      <c r="AD5" s="263"/>
-      <c r="AE5" s="263"/>
-      <c r="AF5" s="263"/>
-      <c r="AG5" s="263"/>
-      <c r="AH5" s="263"/>
-      <c r="AI5" s="263"/>
-      <c r="AJ5" s="263"/>
-      <c r="AK5" s="263"/>
-      <c r="AL5" s="263"/>
-      <c r="AM5" s="263"/>
-      <c r="AN5" s="254" t="s">
+      <c r="W5" s="269"/>
+      <c r="X5" s="269"/>
+      <c r="Y5" s="269"/>
+      <c r="Z5" s="269"/>
+      <c r="AA5" s="269"/>
+      <c r="AB5" s="269"/>
+      <c r="AC5" s="269"/>
+      <c r="AD5" s="269"/>
+      <c r="AE5" s="269"/>
+      <c r="AF5" s="269"/>
+      <c r="AG5" s="269"/>
+      <c r="AH5" s="269"/>
+      <c r="AI5" s="269"/>
+      <c r="AJ5" s="269"/>
+      <c r="AK5" s="269"/>
+      <c r="AL5" s="269"/>
+      <c r="AM5" s="269"/>
+      <c r="AN5" s="258" t="s">
         <v>188</v>
       </c>
-      <c r="AO5" s="254"/>
-      <c r="AP5" s="254"/>
-      <c r="AQ5" s="254"/>
-      <c r="AR5" s="254"/>
-      <c r="AS5" s="254"/>
-      <c r="AT5" s="254"/>
-      <c r="AU5" s="254"/>
-      <c r="AV5" s="254"/>
-      <c r="AW5" s="254"/>
+      <c r="AO5" s="258"/>
+      <c r="AP5" s="258"/>
+      <c r="AQ5" s="258"/>
+      <c r="AR5" s="258"/>
+      <c r="AS5" s="258"/>
+      <c r="AT5" s="258"/>
+      <c r="AU5" s="258"/>
+      <c r="AV5" s="258"/>
+      <c r="AW5" s="258"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="56"/>
-      <c r="B6" s="255"/>
-      <c r="C6" s="255"/>
-      <c r="D6" s="255"/>
-      <c r="E6" s="256"/>
-      <c r="F6" s="256"/>
-      <c r="G6" s="256"/>
-      <c r="H6" s="256"/>
-      <c r="I6" s="256"/>
-      <c r="J6" s="257"/>
-      <c r="K6" s="258"/>
-      <c r="L6" s="259"/>
-      <c r="M6" s="260"/>
-      <c r="N6" s="261"/>
-      <c r="O6" s="261"/>
-      <c r="P6" s="261"/>
-      <c r="Q6" s="261"/>
-      <c r="R6" s="262"/>
-      <c r="S6" s="254"/>
-      <c r="T6" s="254"/>
-      <c r="U6" s="254"/>
-      <c r="V6" s="263"/>
-      <c r="W6" s="263"/>
-      <c r="X6" s="263"/>
-      <c r="Y6" s="263"/>
-      <c r="Z6" s="263"/>
-      <c r="AA6" s="263"/>
-      <c r="AB6" s="263"/>
-      <c r="AC6" s="263"/>
-      <c r="AD6" s="263"/>
-      <c r="AE6" s="263"/>
-      <c r="AF6" s="263"/>
-      <c r="AG6" s="263"/>
-      <c r="AH6" s="263"/>
-      <c r="AI6" s="263"/>
-      <c r="AJ6" s="263"/>
-      <c r="AK6" s="263"/>
-      <c r="AL6" s="263"/>
-      <c r="AM6" s="263"/>
-      <c r="AN6" s="254"/>
-      <c r="AO6" s="254"/>
-      <c r="AP6" s="254"/>
-      <c r="AQ6" s="254"/>
-      <c r="AR6" s="254"/>
-      <c r="AS6" s="254"/>
-      <c r="AT6" s="254"/>
-      <c r="AU6" s="254"/>
-      <c r="AV6" s="254"/>
-      <c r="AW6" s="254"/>
+      <c r="B6" s="270"/>
+      <c r="C6" s="270"/>
+      <c r="D6" s="270"/>
+      <c r="E6" s="251"/>
+      <c r="F6" s="251"/>
+      <c r="G6" s="251"/>
+      <c r="H6" s="251"/>
+      <c r="I6" s="251"/>
+      <c r="J6" s="252"/>
+      <c r="K6" s="253"/>
+      <c r="L6" s="254"/>
+      <c r="M6" s="273"/>
+      <c r="N6" s="274"/>
+      <c r="O6" s="274"/>
+      <c r="P6" s="274"/>
+      <c r="Q6" s="274"/>
+      <c r="R6" s="275"/>
+      <c r="S6" s="258"/>
+      <c r="T6" s="258"/>
+      <c r="U6" s="258"/>
+      <c r="V6" s="269"/>
+      <c r="W6" s="269"/>
+      <c r="X6" s="269"/>
+      <c r="Y6" s="269"/>
+      <c r="Z6" s="269"/>
+      <c r="AA6" s="269"/>
+      <c r="AB6" s="269"/>
+      <c r="AC6" s="269"/>
+      <c r="AD6" s="269"/>
+      <c r="AE6" s="269"/>
+      <c r="AF6" s="269"/>
+      <c r="AG6" s="269"/>
+      <c r="AH6" s="269"/>
+      <c r="AI6" s="269"/>
+      <c r="AJ6" s="269"/>
+      <c r="AK6" s="269"/>
+      <c r="AL6" s="269"/>
+      <c r="AM6" s="269"/>
+      <c r="AN6" s="258"/>
+      <c r="AO6" s="258"/>
+      <c r="AP6" s="258"/>
+      <c r="AQ6" s="258"/>
+      <c r="AR6" s="258"/>
+      <c r="AS6" s="258"/>
+      <c r="AT6" s="258"/>
+      <c r="AU6" s="258"/>
+      <c r="AV6" s="258"/>
+      <c r="AW6" s="258"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="56"/>
-      <c r="B7" s="255"/>
-      <c r="C7" s="255"/>
-      <c r="D7" s="255"/>
-      <c r="E7" s="256"/>
-      <c r="F7" s="256"/>
-      <c r="G7" s="256"/>
-      <c r="H7" s="256"/>
-      <c r="I7" s="256"/>
-      <c r="J7" s="257"/>
-      <c r="K7" s="258"/>
-      <c r="L7" s="259"/>
-      <c r="M7" s="260"/>
-      <c r="N7" s="261"/>
-      <c r="O7" s="261"/>
-      <c r="P7" s="261"/>
-      <c r="Q7" s="261"/>
-      <c r="R7" s="262"/>
-      <c r="S7" s="254"/>
-      <c r="T7" s="254"/>
-      <c r="U7" s="254"/>
-      <c r="V7" s="263"/>
-      <c r="W7" s="263"/>
-      <c r="X7" s="263"/>
-      <c r="Y7" s="263"/>
-      <c r="Z7" s="263"/>
-      <c r="AA7" s="263"/>
-      <c r="AB7" s="263"/>
-      <c r="AC7" s="263"/>
-      <c r="AD7" s="263"/>
-      <c r="AE7" s="263"/>
-      <c r="AF7" s="263"/>
-      <c r="AG7" s="263"/>
-      <c r="AH7" s="263"/>
-      <c r="AI7" s="263"/>
-      <c r="AJ7" s="263"/>
-      <c r="AK7" s="263"/>
-      <c r="AL7" s="263"/>
-      <c r="AM7" s="263"/>
-      <c r="AN7" s="254"/>
-      <c r="AO7" s="254"/>
-      <c r="AP7" s="254"/>
-      <c r="AQ7" s="254"/>
-      <c r="AR7" s="254"/>
-      <c r="AS7" s="254"/>
-      <c r="AT7" s="254"/>
-      <c r="AU7" s="254"/>
-      <c r="AV7" s="254"/>
-      <c r="AW7" s="254"/>
+      <c r="B7" s="270"/>
+      <c r="C7" s="270"/>
+      <c r="D7" s="270"/>
+      <c r="E7" s="251"/>
+      <c r="F7" s="251"/>
+      <c r="G7" s="251"/>
+      <c r="H7" s="251"/>
+      <c r="I7" s="251"/>
+      <c r="J7" s="252"/>
+      <c r="K7" s="253"/>
+      <c r="L7" s="254"/>
+      <c r="M7" s="273"/>
+      <c r="N7" s="274"/>
+      <c r="O7" s="274"/>
+      <c r="P7" s="274"/>
+      <c r="Q7" s="274"/>
+      <c r="R7" s="275"/>
+      <c r="S7" s="258"/>
+      <c r="T7" s="258"/>
+      <c r="U7" s="258"/>
+      <c r="V7" s="269"/>
+      <c r="W7" s="269"/>
+      <c r="X7" s="269"/>
+      <c r="Y7" s="269"/>
+      <c r="Z7" s="269"/>
+      <c r="AA7" s="269"/>
+      <c r="AB7" s="269"/>
+      <c r="AC7" s="269"/>
+      <c r="AD7" s="269"/>
+      <c r="AE7" s="269"/>
+      <c r="AF7" s="269"/>
+      <c r="AG7" s="269"/>
+      <c r="AH7" s="269"/>
+      <c r="AI7" s="269"/>
+      <c r="AJ7" s="269"/>
+      <c r="AK7" s="269"/>
+      <c r="AL7" s="269"/>
+      <c r="AM7" s="269"/>
+      <c r="AN7" s="258"/>
+      <c r="AO7" s="258"/>
+      <c r="AP7" s="258"/>
+      <c r="AQ7" s="258"/>
+      <c r="AR7" s="258"/>
+      <c r="AS7" s="258"/>
+      <c r="AT7" s="258"/>
+      <c r="AU7" s="258"/>
+      <c r="AV7" s="258"/>
+      <c r="AW7" s="258"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="56"/>
-      <c r="B8" s="255"/>
-      <c r="C8" s="255"/>
-      <c r="D8" s="255"/>
-      <c r="E8" s="256"/>
-      <c r="F8" s="256"/>
-      <c r="G8" s="256"/>
-      <c r="H8" s="256"/>
-      <c r="I8" s="256"/>
-      <c r="J8" s="257"/>
-      <c r="K8" s="258"/>
-      <c r="L8" s="259"/>
-      <c r="M8" s="260"/>
-      <c r="N8" s="261"/>
-      <c r="O8" s="261"/>
-      <c r="P8" s="261"/>
-      <c r="Q8" s="261"/>
-      <c r="R8" s="262"/>
-      <c r="S8" s="254"/>
-      <c r="T8" s="254"/>
-      <c r="U8" s="254"/>
-      <c r="V8" s="263"/>
-      <c r="W8" s="263"/>
-      <c r="X8" s="263"/>
-      <c r="Y8" s="263"/>
-      <c r="Z8" s="263"/>
-      <c r="AA8" s="263"/>
-      <c r="AB8" s="263"/>
-      <c r="AC8" s="263"/>
-      <c r="AD8" s="263"/>
-      <c r="AE8" s="263"/>
-      <c r="AF8" s="263"/>
-      <c r="AG8" s="263"/>
-      <c r="AH8" s="263"/>
-      <c r="AI8" s="263"/>
-      <c r="AJ8" s="263"/>
-      <c r="AK8" s="263"/>
-      <c r="AL8" s="263"/>
-      <c r="AM8" s="263"/>
-      <c r="AN8" s="254"/>
-      <c r="AO8" s="254"/>
-      <c r="AP8" s="254"/>
-      <c r="AQ8" s="254"/>
-      <c r="AR8" s="254"/>
-      <c r="AS8" s="254"/>
-      <c r="AT8" s="254"/>
-      <c r="AU8" s="254"/>
-      <c r="AV8" s="254"/>
-      <c r="AW8" s="254"/>
+      <c r="B8" s="270"/>
+      <c r="C8" s="270"/>
+      <c r="D8" s="270"/>
+      <c r="E8" s="251"/>
+      <c r="F8" s="251"/>
+      <c r="G8" s="251"/>
+      <c r="H8" s="251"/>
+      <c r="I8" s="251"/>
+      <c r="J8" s="252"/>
+      <c r="K8" s="253"/>
+      <c r="L8" s="254"/>
+      <c r="M8" s="273"/>
+      <c r="N8" s="274"/>
+      <c r="O8" s="274"/>
+      <c r="P8" s="274"/>
+      <c r="Q8" s="274"/>
+      <c r="R8" s="275"/>
+      <c r="S8" s="258"/>
+      <c r="T8" s="258"/>
+      <c r="U8" s="258"/>
+      <c r="V8" s="269"/>
+      <c r="W8" s="269"/>
+      <c r="X8" s="269"/>
+      <c r="Y8" s="269"/>
+      <c r="Z8" s="269"/>
+      <c r="AA8" s="269"/>
+      <c r="AB8" s="269"/>
+      <c r="AC8" s="269"/>
+      <c r="AD8" s="269"/>
+      <c r="AE8" s="269"/>
+      <c r="AF8" s="269"/>
+      <c r="AG8" s="269"/>
+      <c r="AH8" s="269"/>
+      <c r="AI8" s="269"/>
+      <c r="AJ8" s="269"/>
+      <c r="AK8" s="269"/>
+      <c r="AL8" s="269"/>
+      <c r="AM8" s="269"/>
+      <c r="AN8" s="258"/>
+      <c r="AO8" s="258"/>
+      <c r="AP8" s="258"/>
+      <c r="AQ8" s="258"/>
+      <c r="AR8" s="258"/>
+      <c r="AS8" s="258"/>
+      <c r="AT8" s="258"/>
+      <c r="AU8" s="258"/>
+      <c r="AV8" s="258"/>
+      <c r="AW8" s="258"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="56"/>
-      <c r="B9" s="255"/>
-      <c r="C9" s="255"/>
-      <c r="D9" s="255"/>
-      <c r="E9" s="256"/>
-      <c r="F9" s="256"/>
-      <c r="G9" s="256"/>
-      <c r="H9" s="256"/>
-      <c r="I9" s="256"/>
-      <c r="J9" s="257"/>
-      <c r="K9" s="258"/>
-      <c r="L9" s="259"/>
-      <c r="M9" s="260"/>
-      <c r="N9" s="261"/>
-      <c r="O9" s="261"/>
-      <c r="P9" s="261"/>
-      <c r="Q9" s="261"/>
-      <c r="R9" s="262"/>
-      <c r="S9" s="254"/>
-      <c r="T9" s="254"/>
-      <c r="U9" s="254"/>
-      <c r="V9" s="263"/>
-      <c r="W9" s="263"/>
-      <c r="X9" s="263"/>
-      <c r="Y9" s="263"/>
-      <c r="Z9" s="263"/>
-      <c r="AA9" s="263"/>
-      <c r="AB9" s="263"/>
-      <c r="AC9" s="263"/>
-      <c r="AD9" s="263"/>
-      <c r="AE9" s="263"/>
-      <c r="AF9" s="263"/>
-      <c r="AG9" s="263"/>
-      <c r="AH9" s="263"/>
-      <c r="AI9" s="263"/>
-      <c r="AJ9" s="263"/>
-      <c r="AK9" s="263"/>
-      <c r="AL9" s="263"/>
-      <c r="AM9" s="263"/>
-      <c r="AN9" s="254"/>
-      <c r="AO9" s="254"/>
-      <c r="AP9" s="254"/>
-      <c r="AQ9" s="254"/>
-      <c r="AR9" s="254"/>
-      <c r="AS9" s="254"/>
-      <c r="AT9" s="254"/>
-      <c r="AU9" s="254"/>
-      <c r="AV9" s="254"/>
-      <c r="AW9" s="254"/>
+      <c r="B9" s="270"/>
+      <c r="C9" s="270"/>
+      <c r="D9" s="270"/>
+      <c r="E9" s="251"/>
+      <c r="F9" s="251"/>
+      <c r="G9" s="251"/>
+      <c r="H9" s="251"/>
+      <c r="I9" s="251"/>
+      <c r="J9" s="252"/>
+      <c r="K9" s="253"/>
+      <c r="L9" s="254"/>
+      <c r="M9" s="273"/>
+      <c r="N9" s="274"/>
+      <c r="O9" s="274"/>
+      <c r="P9" s="274"/>
+      <c r="Q9" s="274"/>
+      <c r="R9" s="275"/>
+      <c r="S9" s="258"/>
+      <c r="T9" s="258"/>
+      <c r="U9" s="258"/>
+      <c r="V9" s="269"/>
+      <c r="W9" s="269"/>
+      <c r="X9" s="269"/>
+      <c r="Y9" s="269"/>
+      <c r="Z9" s="269"/>
+      <c r="AA9" s="269"/>
+      <c r="AB9" s="269"/>
+      <c r="AC9" s="269"/>
+      <c r="AD9" s="269"/>
+      <c r="AE9" s="269"/>
+      <c r="AF9" s="269"/>
+      <c r="AG9" s="269"/>
+      <c r="AH9" s="269"/>
+      <c r="AI9" s="269"/>
+      <c r="AJ9" s="269"/>
+      <c r="AK9" s="269"/>
+      <c r="AL9" s="269"/>
+      <c r="AM9" s="269"/>
+      <c r="AN9" s="258"/>
+      <c r="AO9" s="258"/>
+      <c r="AP9" s="258"/>
+      <c r="AQ9" s="258"/>
+      <c r="AR9" s="258"/>
+      <c r="AS9" s="258"/>
+      <c r="AT9" s="258"/>
+      <c r="AU9" s="258"/>
+      <c r="AV9" s="258"/>
+      <c r="AW9" s="258"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="56"/>
-      <c r="B10" s="255"/>
-      <c r="C10" s="255"/>
-      <c r="D10" s="255"/>
-      <c r="E10" s="256"/>
-      <c r="F10" s="256"/>
-      <c r="G10" s="256"/>
-      <c r="H10" s="256"/>
-      <c r="I10" s="256"/>
-      <c r="J10" s="257"/>
-      <c r="K10" s="258"/>
-      <c r="L10" s="259"/>
-      <c r="M10" s="260"/>
-      <c r="N10" s="261"/>
-      <c r="O10" s="261"/>
-      <c r="P10" s="261"/>
-      <c r="Q10" s="261"/>
-      <c r="R10" s="262"/>
-      <c r="S10" s="254"/>
-      <c r="T10" s="254"/>
-      <c r="U10" s="254"/>
-      <c r="V10" s="263"/>
-      <c r="W10" s="263"/>
-      <c r="X10" s="263"/>
-      <c r="Y10" s="263"/>
-      <c r="Z10" s="263"/>
-      <c r="AA10" s="263"/>
-      <c r="AB10" s="263"/>
-      <c r="AC10" s="263"/>
-      <c r="AD10" s="263"/>
-      <c r="AE10" s="263"/>
-      <c r="AF10" s="263"/>
-      <c r="AG10" s="263"/>
-      <c r="AH10" s="263"/>
-      <c r="AI10" s="263"/>
-      <c r="AJ10" s="263"/>
-      <c r="AK10" s="263"/>
-      <c r="AL10" s="263"/>
-      <c r="AM10" s="263"/>
-      <c r="AN10" s="254"/>
-      <c r="AO10" s="254"/>
-      <c r="AP10" s="254"/>
-      <c r="AQ10" s="254"/>
-      <c r="AR10" s="254"/>
-      <c r="AS10" s="254"/>
-      <c r="AT10" s="254"/>
-      <c r="AU10" s="254"/>
-      <c r="AV10" s="254"/>
-      <c r="AW10" s="254"/>
+      <c r="B10" s="270"/>
+      <c r="C10" s="270"/>
+      <c r="D10" s="270"/>
+      <c r="E10" s="251"/>
+      <c r="F10" s="251"/>
+      <c r="G10" s="251"/>
+      <c r="H10" s="251"/>
+      <c r="I10" s="251"/>
+      <c r="J10" s="252"/>
+      <c r="K10" s="253"/>
+      <c r="L10" s="254"/>
+      <c r="M10" s="273"/>
+      <c r="N10" s="274"/>
+      <c r="O10" s="274"/>
+      <c r="P10" s="274"/>
+      <c r="Q10" s="274"/>
+      <c r="R10" s="275"/>
+      <c r="S10" s="258"/>
+      <c r="T10" s="258"/>
+      <c r="U10" s="258"/>
+      <c r="V10" s="269"/>
+      <c r="W10" s="269"/>
+      <c r="X10" s="269"/>
+      <c r="Y10" s="269"/>
+      <c r="Z10" s="269"/>
+      <c r="AA10" s="269"/>
+      <c r="AB10" s="269"/>
+      <c r="AC10" s="269"/>
+      <c r="AD10" s="269"/>
+      <c r="AE10" s="269"/>
+      <c r="AF10" s="269"/>
+      <c r="AG10" s="269"/>
+      <c r="AH10" s="269"/>
+      <c r="AI10" s="269"/>
+      <c r="AJ10" s="269"/>
+      <c r="AK10" s="269"/>
+      <c r="AL10" s="269"/>
+      <c r="AM10" s="269"/>
+      <c r="AN10" s="258"/>
+      <c r="AO10" s="258"/>
+      <c r="AP10" s="258"/>
+      <c r="AQ10" s="258"/>
+      <c r="AR10" s="258"/>
+      <c r="AS10" s="258"/>
+      <c r="AT10" s="258"/>
+      <c r="AU10" s="258"/>
+      <c r="AV10" s="258"/>
+      <c r="AW10" s="258"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="56"/>
-      <c r="B11" s="255"/>
-      <c r="C11" s="255"/>
-      <c r="D11" s="255"/>
-      <c r="E11" s="256"/>
-      <c r="F11" s="256"/>
-      <c r="G11" s="256"/>
-      <c r="H11" s="256"/>
-      <c r="I11" s="256"/>
-      <c r="J11" s="257"/>
-      <c r="K11" s="258"/>
-      <c r="L11" s="259"/>
-      <c r="M11" s="267"/>
-      <c r="N11" s="268"/>
-      <c r="O11" s="268"/>
-      <c r="P11" s="268"/>
-      <c r="Q11" s="268"/>
-      <c r="R11" s="269"/>
-      <c r="S11" s="254"/>
-      <c r="T11" s="254"/>
-      <c r="U11" s="254"/>
-      <c r="V11" s="270"/>
-      <c r="W11" s="276"/>
-      <c r="X11" s="276"/>
-      <c r="Y11" s="276"/>
-      <c r="Z11" s="276"/>
-      <c r="AA11" s="276"/>
-      <c r="AB11" s="276"/>
-      <c r="AC11" s="276"/>
-      <c r="AD11" s="276"/>
-      <c r="AE11" s="276"/>
-      <c r="AF11" s="276"/>
-      <c r="AG11" s="276"/>
-      <c r="AH11" s="276"/>
-      <c r="AI11" s="276"/>
-      <c r="AJ11" s="276"/>
-      <c r="AK11" s="276"/>
-      <c r="AL11" s="276"/>
-      <c r="AM11" s="277"/>
-      <c r="AN11" s="254"/>
-      <c r="AO11" s="254"/>
-      <c r="AP11" s="254"/>
-      <c r="AQ11" s="254"/>
-      <c r="AR11" s="254"/>
-      <c r="AS11" s="254"/>
-      <c r="AT11" s="254"/>
-      <c r="AU11" s="254"/>
-      <c r="AV11" s="254"/>
-      <c r="AW11" s="254"/>
+      <c r="B11" s="270"/>
+      <c r="C11" s="270"/>
+      <c r="D11" s="270"/>
+      <c r="E11" s="251"/>
+      <c r="F11" s="251"/>
+      <c r="G11" s="251"/>
+      <c r="H11" s="251"/>
+      <c r="I11" s="251"/>
+      <c r="J11" s="252"/>
+      <c r="K11" s="253"/>
+      <c r="L11" s="254"/>
+      <c r="M11" s="265"/>
+      <c r="N11" s="263"/>
+      <c r="O11" s="263"/>
+      <c r="P11" s="263"/>
+      <c r="Q11" s="263"/>
+      <c r="R11" s="264"/>
+      <c r="S11" s="258"/>
+      <c r="T11" s="258"/>
+      <c r="U11" s="258"/>
+      <c r="V11" s="259"/>
+      <c r="W11" s="271"/>
+      <c r="X11" s="271"/>
+      <c r="Y11" s="271"/>
+      <c r="Z11" s="271"/>
+      <c r="AA11" s="271"/>
+      <c r="AB11" s="271"/>
+      <c r="AC11" s="271"/>
+      <c r="AD11" s="271"/>
+      <c r="AE11" s="271"/>
+      <c r="AF11" s="271"/>
+      <c r="AG11" s="271"/>
+      <c r="AH11" s="271"/>
+      <c r="AI11" s="271"/>
+      <c r="AJ11" s="271"/>
+      <c r="AK11" s="271"/>
+      <c r="AL11" s="271"/>
+      <c r="AM11" s="272"/>
+      <c r="AN11" s="258"/>
+      <c r="AO11" s="258"/>
+      <c r="AP11" s="258"/>
+      <c r="AQ11" s="258"/>
+      <c r="AR11" s="258"/>
+      <c r="AS11" s="258"/>
+      <c r="AT11" s="258"/>
+      <c r="AU11" s="258"/>
+      <c r="AV11" s="258"/>
+      <c r="AW11" s="258"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="56"/>
-      <c r="B12" s="264"/>
-      <c r="C12" s="265"/>
-      <c r="D12" s="266"/>
-      <c r="E12" s="256"/>
-      <c r="F12" s="256"/>
-      <c r="G12" s="256"/>
-      <c r="H12" s="256"/>
-      <c r="I12" s="256"/>
-      <c r="J12" s="257"/>
-      <c r="K12" s="258"/>
-      <c r="L12" s="259"/>
-      <c r="M12" s="267"/>
-      <c r="N12" s="268"/>
-      <c r="O12" s="268"/>
-      <c r="P12" s="268"/>
-      <c r="Q12" s="268"/>
-      <c r="R12" s="269"/>
-      <c r="S12" s="254"/>
-      <c r="T12" s="254"/>
-      <c r="U12" s="254"/>
-      <c r="V12" s="270"/>
-      <c r="W12" s="271"/>
-      <c r="X12" s="271"/>
-      <c r="Y12" s="271"/>
-      <c r="Z12" s="271"/>
-      <c r="AA12" s="271"/>
-      <c r="AB12" s="271"/>
-      <c r="AC12" s="271"/>
-      <c r="AD12" s="271"/>
-      <c r="AE12" s="271"/>
-      <c r="AF12" s="271"/>
-      <c r="AG12" s="271"/>
-      <c r="AH12" s="271"/>
-      <c r="AI12" s="271"/>
-      <c r="AJ12" s="271"/>
-      <c r="AK12" s="271"/>
-      <c r="AL12" s="271"/>
-      <c r="AM12" s="272"/>
-      <c r="AN12" s="273"/>
-      <c r="AO12" s="274"/>
-      <c r="AP12" s="274"/>
-      <c r="AQ12" s="274"/>
-      <c r="AR12" s="275"/>
-      <c r="AS12" s="273"/>
-      <c r="AT12" s="274"/>
-      <c r="AU12" s="274"/>
-      <c r="AV12" s="274"/>
-      <c r="AW12" s="275"/>
+      <c r="B12" s="248"/>
+      <c r="C12" s="249"/>
+      <c r="D12" s="250"/>
+      <c r="E12" s="251"/>
+      <c r="F12" s="251"/>
+      <c r="G12" s="251"/>
+      <c r="H12" s="251"/>
+      <c r="I12" s="251"/>
+      <c r="J12" s="252"/>
+      <c r="K12" s="253"/>
+      <c r="L12" s="254"/>
+      <c r="M12" s="265"/>
+      <c r="N12" s="263"/>
+      <c r="O12" s="263"/>
+      <c r="P12" s="263"/>
+      <c r="Q12" s="263"/>
+      <c r="R12" s="264"/>
+      <c r="S12" s="258"/>
+      <c r="T12" s="258"/>
+      <c r="U12" s="258"/>
+      <c r="V12" s="259"/>
+      <c r="W12" s="260"/>
+      <c r="X12" s="260"/>
+      <c r="Y12" s="260"/>
+      <c r="Z12" s="260"/>
+      <c r="AA12" s="260"/>
+      <c r="AB12" s="260"/>
+      <c r="AC12" s="260"/>
+      <c r="AD12" s="260"/>
+      <c r="AE12" s="260"/>
+      <c r="AF12" s="260"/>
+      <c r="AG12" s="260"/>
+      <c r="AH12" s="260"/>
+      <c r="AI12" s="260"/>
+      <c r="AJ12" s="260"/>
+      <c r="AK12" s="260"/>
+      <c r="AL12" s="260"/>
+      <c r="AM12" s="261"/>
+      <c r="AN12" s="245"/>
+      <c r="AO12" s="246"/>
+      <c r="AP12" s="246"/>
+      <c r="AQ12" s="246"/>
+      <c r="AR12" s="247"/>
+      <c r="AS12" s="245"/>
+      <c r="AT12" s="246"/>
+      <c r="AU12" s="246"/>
+      <c r="AV12" s="246"/>
+      <c r="AW12" s="247"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="56"/>
-      <c r="B13" s="264"/>
-      <c r="C13" s="265"/>
-      <c r="D13" s="266"/>
-      <c r="E13" s="256"/>
-      <c r="F13" s="256"/>
-      <c r="G13" s="256"/>
-      <c r="H13" s="256"/>
-      <c r="I13" s="256"/>
-      <c r="J13" s="257"/>
-      <c r="K13" s="258"/>
-      <c r="L13" s="259"/>
-      <c r="M13" s="278"/>
-      <c r="N13" s="268"/>
-      <c r="O13" s="268"/>
-      <c r="P13" s="268"/>
-      <c r="Q13" s="268"/>
-      <c r="R13" s="269"/>
-      <c r="S13" s="254"/>
-      <c r="T13" s="254"/>
-      <c r="U13" s="254"/>
-      <c r="V13" s="270"/>
-      <c r="W13" s="271"/>
-      <c r="X13" s="271"/>
-      <c r="Y13" s="271"/>
-      <c r="Z13" s="271"/>
-      <c r="AA13" s="271"/>
-      <c r="AB13" s="271"/>
-      <c r="AC13" s="271"/>
-      <c r="AD13" s="271"/>
-      <c r="AE13" s="271"/>
-      <c r="AF13" s="271"/>
-      <c r="AG13" s="271"/>
-      <c r="AH13" s="271"/>
-      <c r="AI13" s="271"/>
-      <c r="AJ13" s="271"/>
-      <c r="AK13" s="271"/>
-      <c r="AL13" s="271"/>
-      <c r="AM13" s="272"/>
-      <c r="AN13" s="273"/>
-      <c r="AO13" s="274"/>
-      <c r="AP13" s="274"/>
-      <c r="AQ13" s="274"/>
-      <c r="AR13" s="275"/>
-      <c r="AS13" s="273"/>
-      <c r="AT13" s="274"/>
-      <c r="AU13" s="274"/>
-      <c r="AV13" s="274"/>
-      <c r="AW13" s="275"/>
+      <c r="B13" s="248"/>
+      <c r="C13" s="249"/>
+      <c r="D13" s="250"/>
+      <c r="E13" s="251"/>
+      <c r="F13" s="251"/>
+      <c r="G13" s="251"/>
+      <c r="H13" s="251"/>
+      <c r="I13" s="251"/>
+      <c r="J13" s="252"/>
+      <c r="K13" s="253"/>
+      <c r="L13" s="254"/>
+      <c r="M13" s="262"/>
+      <c r="N13" s="263"/>
+      <c r="O13" s="263"/>
+      <c r="P13" s="263"/>
+      <c r="Q13" s="263"/>
+      <c r="R13" s="264"/>
+      <c r="S13" s="258"/>
+      <c r="T13" s="258"/>
+      <c r="U13" s="258"/>
+      <c r="V13" s="259"/>
+      <c r="W13" s="260"/>
+      <c r="X13" s="260"/>
+      <c r="Y13" s="260"/>
+      <c r="Z13" s="260"/>
+      <c r="AA13" s="260"/>
+      <c r="AB13" s="260"/>
+      <c r="AC13" s="260"/>
+      <c r="AD13" s="260"/>
+      <c r="AE13" s="260"/>
+      <c r="AF13" s="260"/>
+      <c r="AG13" s="260"/>
+      <c r="AH13" s="260"/>
+      <c r="AI13" s="260"/>
+      <c r="AJ13" s="260"/>
+      <c r="AK13" s="260"/>
+      <c r="AL13" s="260"/>
+      <c r="AM13" s="261"/>
+      <c r="AN13" s="245"/>
+      <c r="AO13" s="246"/>
+      <c r="AP13" s="246"/>
+      <c r="AQ13" s="246"/>
+      <c r="AR13" s="247"/>
+      <c r="AS13" s="245"/>
+      <c r="AT13" s="246"/>
+      <c r="AU13" s="246"/>
+      <c r="AV13" s="246"/>
+      <c r="AW13" s="247"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="56"/>
-      <c r="B14" s="264"/>
-      <c r="C14" s="265"/>
-      <c r="D14" s="266"/>
-      <c r="E14" s="256"/>
-      <c r="F14" s="256"/>
-      <c r="G14" s="256"/>
-      <c r="H14" s="256"/>
-      <c r="I14" s="256"/>
-      <c r="J14" s="257"/>
-      <c r="K14" s="258"/>
-      <c r="L14" s="259"/>
-      <c r="M14" s="278"/>
-      <c r="N14" s="268"/>
-      <c r="O14" s="268"/>
-      <c r="P14" s="268"/>
-      <c r="Q14" s="268"/>
-      <c r="R14" s="269"/>
-      <c r="S14" s="254"/>
-      <c r="T14" s="254"/>
-      <c r="U14" s="254"/>
-      <c r="V14" s="279"/>
-      <c r="W14" s="263"/>
-      <c r="X14" s="263"/>
-      <c r="Y14" s="263"/>
-      <c r="Z14" s="263"/>
-      <c r="AA14" s="263"/>
-      <c r="AB14" s="263"/>
-      <c r="AC14" s="263"/>
-      <c r="AD14" s="263"/>
-      <c r="AE14" s="263"/>
-      <c r="AF14" s="263"/>
-      <c r="AG14" s="263"/>
-      <c r="AH14" s="263"/>
-      <c r="AI14" s="263"/>
-      <c r="AJ14" s="263"/>
-      <c r="AK14" s="263"/>
-      <c r="AL14" s="263"/>
-      <c r="AM14" s="263"/>
-      <c r="AN14" s="254"/>
-      <c r="AO14" s="254"/>
-      <c r="AP14" s="254"/>
-      <c r="AQ14" s="254"/>
-      <c r="AR14" s="254"/>
-      <c r="AS14" s="273"/>
-      <c r="AT14" s="274"/>
-      <c r="AU14" s="274"/>
-      <c r="AV14" s="274"/>
-      <c r="AW14" s="275"/>
+      <c r="B14" s="248"/>
+      <c r="C14" s="249"/>
+      <c r="D14" s="250"/>
+      <c r="E14" s="251"/>
+      <c r="F14" s="251"/>
+      <c r="G14" s="251"/>
+      <c r="H14" s="251"/>
+      <c r="I14" s="251"/>
+      <c r="J14" s="252"/>
+      <c r="K14" s="253"/>
+      <c r="L14" s="254"/>
+      <c r="M14" s="262"/>
+      <c r="N14" s="263"/>
+      <c r="O14" s="263"/>
+      <c r="P14" s="263"/>
+      <c r="Q14" s="263"/>
+      <c r="R14" s="264"/>
+      <c r="S14" s="258"/>
+      <c r="T14" s="258"/>
+      <c r="U14" s="258"/>
+      <c r="V14" s="268"/>
+      <c r="W14" s="269"/>
+      <c r="X14" s="269"/>
+      <c r="Y14" s="269"/>
+      <c r="Z14" s="269"/>
+      <c r="AA14" s="269"/>
+      <c r="AB14" s="269"/>
+      <c r="AC14" s="269"/>
+      <c r="AD14" s="269"/>
+      <c r="AE14" s="269"/>
+      <c r="AF14" s="269"/>
+      <c r="AG14" s="269"/>
+      <c r="AH14" s="269"/>
+      <c r="AI14" s="269"/>
+      <c r="AJ14" s="269"/>
+      <c r="AK14" s="269"/>
+      <c r="AL14" s="269"/>
+      <c r="AM14" s="269"/>
+      <c r="AN14" s="258"/>
+      <c r="AO14" s="258"/>
+      <c r="AP14" s="258"/>
+      <c r="AQ14" s="258"/>
+      <c r="AR14" s="258"/>
+      <c r="AS14" s="245"/>
+      <c r="AT14" s="246"/>
+      <c r="AU14" s="246"/>
+      <c r="AV14" s="246"/>
+      <c r="AW14" s="247"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="56"/>
-      <c r="B15" s="264"/>
-      <c r="C15" s="265"/>
-      <c r="D15" s="266"/>
-      <c r="E15" s="256"/>
-      <c r="F15" s="256"/>
-      <c r="G15" s="256"/>
-      <c r="H15" s="256"/>
-      <c r="I15" s="256"/>
-      <c r="J15" s="257"/>
-      <c r="K15" s="258"/>
-      <c r="L15" s="259"/>
-      <c r="M15" s="267"/>
-      <c r="N15" s="268"/>
-      <c r="O15" s="268"/>
-      <c r="P15" s="268"/>
-      <c r="Q15" s="268"/>
-      <c r="R15" s="269"/>
-      <c r="S15" s="254"/>
-      <c r="T15" s="254"/>
-      <c r="U15" s="254"/>
-      <c r="V15" s="270"/>
-      <c r="W15" s="271"/>
-      <c r="X15" s="271"/>
-      <c r="Y15" s="271"/>
-      <c r="Z15" s="271"/>
-      <c r="AA15" s="271"/>
-      <c r="AB15" s="271"/>
-      <c r="AC15" s="271"/>
-      <c r="AD15" s="271"/>
-      <c r="AE15" s="271"/>
-      <c r="AF15" s="271"/>
-      <c r="AG15" s="271"/>
-      <c r="AH15" s="271"/>
-      <c r="AI15" s="271"/>
-      <c r="AJ15" s="271"/>
-      <c r="AK15" s="271"/>
-      <c r="AL15" s="271"/>
-      <c r="AM15" s="272"/>
-      <c r="AN15" s="273"/>
-      <c r="AO15" s="274"/>
-      <c r="AP15" s="274"/>
-      <c r="AQ15" s="274"/>
-      <c r="AR15" s="275"/>
-      <c r="AS15" s="273"/>
-      <c r="AT15" s="274"/>
-      <c r="AU15" s="274"/>
-      <c r="AV15" s="274"/>
-      <c r="AW15" s="275"/>
+      <c r="B15" s="248"/>
+      <c r="C15" s="249"/>
+      <c r="D15" s="250"/>
+      <c r="E15" s="251"/>
+      <c r="F15" s="251"/>
+      <c r="G15" s="251"/>
+      <c r="H15" s="251"/>
+      <c r="I15" s="251"/>
+      <c r="J15" s="252"/>
+      <c r="K15" s="253"/>
+      <c r="L15" s="254"/>
+      <c r="M15" s="265"/>
+      <c r="N15" s="263"/>
+      <c r="O15" s="263"/>
+      <c r="P15" s="263"/>
+      <c r="Q15" s="263"/>
+      <c r="R15" s="264"/>
+      <c r="S15" s="258"/>
+      <c r="T15" s="258"/>
+      <c r="U15" s="258"/>
+      <c r="V15" s="259"/>
+      <c r="W15" s="260"/>
+      <c r="X15" s="260"/>
+      <c r="Y15" s="260"/>
+      <c r="Z15" s="260"/>
+      <c r="AA15" s="260"/>
+      <c r="AB15" s="260"/>
+      <c r="AC15" s="260"/>
+      <c r="AD15" s="260"/>
+      <c r="AE15" s="260"/>
+      <c r="AF15" s="260"/>
+      <c r="AG15" s="260"/>
+      <c r="AH15" s="260"/>
+      <c r="AI15" s="260"/>
+      <c r="AJ15" s="260"/>
+      <c r="AK15" s="260"/>
+      <c r="AL15" s="260"/>
+      <c r="AM15" s="261"/>
+      <c r="AN15" s="245"/>
+      <c r="AO15" s="246"/>
+      <c r="AP15" s="246"/>
+      <c r="AQ15" s="246"/>
+      <c r="AR15" s="247"/>
+      <c r="AS15" s="245"/>
+      <c r="AT15" s="246"/>
+      <c r="AU15" s="246"/>
+      <c r="AV15" s="246"/>
+      <c r="AW15" s="247"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="56"/>
-      <c r="B16" s="264"/>
-      <c r="C16" s="265"/>
-      <c r="D16" s="266"/>
-      <c r="E16" s="256"/>
-      <c r="F16" s="256"/>
-      <c r="G16" s="256"/>
-      <c r="H16" s="256"/>
-      <c r="I16" s="256"/>
-      <c r="J16" s="257"/>
-      <c r="K16" s="258"/>
-      <c r="L16" s="259"/>
-      <c r="M16" s="267"/>
-      <c r="N16" s="268"/>
-      <c r="O16" s="268"/>
-      <c r="P16" s="268"/>
-      <c r="Q16" s="268"/>
-      <c r="R16" s="269"/>
-      <c r="S16" s="254"/>
-      <c r="T16" s="254"/>
-      <c r="U16" s="254"/>
-      <c r="V16" s="270"/>
-      <c r="W16" s="271"/>
-      <c r="X16" s="271"/>
-      <c r="Y16" s="271"/>
-      <c r="Z16" s="271"/>
-      <c r="AA16" s="271"/>
-      <c r="AB16" s="271"/>
-      <c r="AC16" s="271"/>
-      <c r="AD16" s="271"/>
-      <c r="AE16" s="271"/>
-      <c r="AF16" s="271"/>
-      <c r="AG16" s="271"/>
-      <c r="AH16" s="271"/>
-      <c r="AI16" s="271"/>
-      <c r="AJ16" s="271"/>
-      <c r="AK16" s="271"/>
-      <c r="AL16" s="271"/>
-      <c r="AM16" s="272"/>
-      <c r="AN16" s="273"/>
-      <c r="AO16" s="274"/>
-      <c r="AP16" s="274"/>
-      <c r="AQ16" s="274"/>
-      <c r="AR16" s="275"/>
-      <c r="AS16" s="273"/>
-      <c r="AT16" s="274"/>
-      <c r="AU16" s="274"/>
-      <c r="AV16" s="274"/>
-      <c r="AW16" s="275"/>
+      <c r="B16" s="248"/>
+      <c r="C16" s="249"/>
+      <c r="D16" s="250"/>
+      <c r="E16" s="251"/>
+      <c r="F16" s="251"/>
+      <c r="G16" s="251"/>
+      <c r="H16" s="251"/>
+      <c r="I16" s="251"/>
+      <c r="J16" s="252"/>
+      <c r="K16" s="253"/>
+      <c r="L16" s="254"/>
+      <c r="M16" s="265"/>
+      <c r="N16" s="263"/>
+      <c r="O16" s="263"/>
+      <c r="P16" s="263"/>
+      <c r="Q16" s="263"/>
+      <c r="R16" s="264"/>
+      <c r="S16" s="258"/>
+      <c r="T16" s="258"/>
+      <c r="U16" s="258"/>
+      <c r="V16" s="259"/>
+      <c r="W16" s="260"/>
+      <c r="X16" s="260"/>
+      <c r="Y16" s="260"/>
+      <c r="Z16" s="260"/>
+      <c r="AA16" s="260"/>
+      <c r="AB16" s="260"/>
+      <c r="AC16" s="260"/>
+      <c r="AD16" s="260"/>
+      <c r="AE16" s="260"/>
+      <c r="AF16" s="260"/>
+      <c r="AG16" s="260"/>
+      <c r="AH16" s="260"/>
+      <c r="AI16" s="260"/>
+      <c r="AJ16" s="260"/>
+      <c r="AK16" s="260"/>
+      <c r="AL16" s="260"/>
+      <c r="AM16" s="261"/>
+      <c r="AN16" s="245"/>
+      <c r="AO16" s="246"/>
+      <c r="AP16" s="246"/>
+      <c r="AQ16" s="246"/>
+      <c r="AR16" s="247"/>
+      <c r="AS16" s="245"/>
+      <c r="AT16" s="246"/>
+      <c r="AU16" s="246"/>
+      <c r="AV16" s="246"/>
+      <c r="AW16" s="247"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="56"/>
-      <c r="B17" s="264"/>
-      <c r="C17" s="265"/>
-      <c r="D17" s="266"/>
-      <c r="E17" s="256"/>
-      <c r="F17" s="256"/>
-      <c r="G17" s="256"/>
-      <c r="H17" s="256"/>
-      <c r="I17" s="256"/>
-      <c r="J17" s="257"/>
-      <c r="K17" s="258"/>
-      <c r="L17" s="259"/>
-      <c r="M17" s="267"/>
-      <c r="N17" s="268"/>
-      <c r="O17" s="268"/>
-      <c r="P17" s="268"/>
-      <c r="Q17" s="268"/>
-      <c r="R17" s="280"/>
-      <c r="S17" s="281"/>
-      <c r="T17" s="281"/>
-      <c r="U17" s="281"/>
-      <c r="V17" s="270"/>
-      <c r="W17" s="271"/>
-      <c r="X17" s="271"/>
-      <c r="Y17" s="271"/>
-      <c r="Z17" s="271"/>
-      <c r="AA17" s="271"/>
-      <c r="AB17" s="271"/>
-      <c r="AC17" s="271"/>
-      <c r="AD17" s="271"/>
-      <c r="AE17" s="271"/>
-      <c r="AF17" s="271"/>
-      <c r="AG17" s="271"/>
-      <c r="AH17" s="271"/>
-      <c r="AI17" s="271"/>
-      <c r="AJ17" s="271"/>
-      <c r="AK17" s="271"/>
-      <c r="AL17" s="271"/>
-      <c r="AM17" s="272"/>
-      <c r="AN17" s="273"/>
-      <c r="AO17" s="274"/>
-      <c r="AP17" s="274"/>
-      <c r="AQ17" s="274"/>
-      <c r="AR17" s="275"/>
-      <c r="AS17" s="273"/>
-      <c r="AT17" s="274"/>
-      <c r="AU17" s="274"/>
-      <c r="AV17" s="274"/>
-      <c r="AW17" s="275"/>
+      <c r="B17" s="248"/>
+      <c r="C17" s="249"/>
+      <c r="D17" s="250"/>
+      <c r="E17" s="251"/>
+      <c r="F17" s="251"/>
+      <c r="G17" s="251"/>
+      <c r="H17" s="251"/>
+      <c r="I17" s="251"/>
+      <c r="J17" s="252"/>
+      <c r="K17" s="253"/>
+      <c r="L17" s="254"/>
+      <c r="M17" s="265"/>
+      <c r="N17" s="263"/>
+      <c r="O17" s="263"/>
+      <c r="P17" s="263"/>
+      <c r="Q17" s="263"/>
+      <c r="R17" s="266"/>
+      <c r="S17" s="267"/>
+      <c r="T17" s="267"/>
+      <c r="U17" s="267"/>
+      <c r="V17" s="259"/>
+      <c r="W17" s="260"/>
+      <c r="X17" s="260"/>
+      <c r="Y17" s="260"/>
+      <c r="Z17" s="260"/>
+      <c r="AA17" s="260"/>
+      <c r="AB17" s="260"/>
+      <c r="AC17" s="260"/>
+      <c r="AD17" s="260"/>
+      <c r="AE17" s="260"/>
+      <c r="AF17" s="260"/>
+      <c r="AG17" s="260"/>
+      <c r="AH17" s="260"/>
+      <c r="AI17" s="260"/>
+      <c r="AJ17" s="260"/>
+      <c r="AK17" s="260"/>
+      <c r="AL17" s="260"/>
+      <c r="AM17" s="261"/>
+      <c r="AN17" s="245"/>
+      <c r="AO17" s="246"/>
+      <c r="AP17" s="246"/>
+      <c r="AQ17" s="246"/>
+      <c r="AR17" s="247"/>
+      <c r="AS17" s="245"/>
+      <c r="AT17" s="246"/>
+      <c r="AU17" s="246"/>
+      <c r="AV17" s="246"/>
+      <c r="AW17" s="247"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
-      <c r="B18" s="264"/>
-      <c r="C18" s="265"/>
-      <c r="D18" s="266"/>
-      <c r="E18" s="256"/>
-      <c r="F18" s="256"/>
-      <c r="G18" s="256"/>
-      <c r="H18" s="256"/>
-      <c r="I18" s="256"/>
-      <c r="J18" s="257"/>
-      <c r="K18" s="258"/>
-      <c r="L18" s="259"/>
-      <c r="M18" s="278"/>
-      <c r="N18" s="268"/>
-      <c r="O18" s="268"/>
-      <c r="P18" s="268"/>
-      <c r="Q18" s="268"/>
-      <c r="R18" s="269"/>
-      <c r="S18" s="254"/>
-      <c r="T18" s="254"/>
-      <c r="U18" s="254"/>
-      <c r="V18" s="270"/>
-      <c r="W18" s="271"/>
-      <c r="X18" s="271"/>
-      <c r="Y18" s="271"/>
-      <c r="Z18" s="271"/>
-      <c r="AA18" s="271"/>
-      <c r="AB18" s="271"/>
-      <c r="AC18" s="271"/>
-      <c r="AD18" s="271"/>
-      <c r="AE18" s="271"/>
-      <c r="AF18" s="271"/>
-      <c r="AG18" s="271"/>
-      <c r="AH18" s="271"/>
-      <c r="AI18" s="271"/>
-      <c r="AJ18" s="271"/>
-      <c r="AK18" s="271"/>
-      <c r="AL18" s="271"/>
-      <c r="AM18" s="272"/>
-      <c r="AN18" s="273"/>
-      <c r="AO18" s="274"/>
-      <c r="AP18" s="274"/>
-      <c r="AQ18" s="274"/>
-      <c r="AR18" s="275"/>
-      <c r="AS18" s="273"/>
-      <c r="AT18" s="274"/>
-      <c r="AU18" s="274"/>
-      <c r="AV18" s="274"/>
-      <c r="AW18" s="275"/>
+      <c r="B18" s="248"/>
+      <c r="C18" s="249"/>
+      <c r="D18" s="250"/>
+      <c r="E18" s="251"/>
+      <c r="F18" s="251"/>
+      <c r="G18" s="251"/>
+      <c r="H18" s="251"/>
+      <c r="I18" s="251"/>
+      <c r="J18" s="252"/>
+      <c r="K18" s="253"/>
+      <c r="L18" s="254"/>
+      <c r="M18" s="262"/>
+      <c r="N18" s="263"/>
+      <c r="O18" s="263"/>
+      <c r="P18" s="263"/>
+      <c r="Q18" s="263"/>
+      <c r="R18" s="264"/>
+      <c r="S18" s="258"/>
+      <c r="T18" s="258"/>
+      <c r="U18" s="258"/>
+      <c r="V18" s="259"/>
+      <c r="W18" s="260"/>
+      <c r="X18" s="260"/>
+      <c r="Y18" s="260"/>
+      <c r="Z18" s="260"/>
+      <c r="AA18" s="260"/>
+      <c r="AB18" s="260"/>
+      <c r="AC18" s="260"/>
+      <c r="AD18" s="260"/>
+      <c r="AE18" s="260"/>
+      <c r="AF18" s="260"/>
+      <c r="AG18" s="260"/>
+      <c r="AH18" s="260"/>
+      <c r="AI18" s="260"/>
+      <c r="AJ18" s="260"/>
+      <c r="AK18" s="260"/>
+      <c r="AL18" s="260"/>
+      <c r="AM18" s="261"/>
+      <c r="AN18" s="245"/>
+      <c r="AO18" s="246"/>
+      <c r="AP18" s="246"/>
+      <c r="AQ18" s="246"/>
+      <c r="AR18" s="247"/>
+      <c r="AS18" s="245"/>
+      <c r="AT18" s="246"/>
+      <c r="AU18" s="246"/>
+      <c r="AV18" s="246"/>
+      <c r="AW18" s="247"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="56"/>
-      <c r="B19" s="264"/>
-      <c r="C19" s="265"/>
-      <c r="D19" s="266"/>
-      <c r="E19" s="256"/>
-      <c r="F19" s="256"/>
-      <c r="G19" s="256"/>
-      <c r="H19" s="256"/>
-      <c r="I19" s="256"/>
-      <c r="J19" s="257"/>
-      <c r="K19" s="258"/>
-      <c r="L19" s="259"/>
-      <c r="M19" s="267"/>
-      <c r="N19" s="268"/>
-      <c r="O19" s="268"/>
-      <c r="P19" s="268"/>
-      <c r="Q19" s="268"/>
-      <c r="R19" s="269"/>
-      <c r="S19" s="254"/>
-      <c r="T19" s="254"/>
-      <c r="U19" s="254"/>
-      <c r="V19" s="270"/>
-      <c r="W19" s="271"/>
-      <c r="X19" s="271"/>
-      <c r="Y19" s="271"/>
-      <c r="Z19" s="271"/>
-      <c r="AA19" s="271"/>
-      <c r="AB19" s="271"/>
-      <c r="AC19" s="271"/>
-      <c r="AD19" s="271"/>
-      <c r="AE19" s="271"/>
-      <c r="AF19" s="271"/>
-      <c r="AG19" s="271"/>
-      <c r="AH19" s="271"/>
-      <c r="AI19" s="271"/>
-      <c r="AJ19" s="271"/>
-      <c r="AK19" s="271"/>
-      <c r="AL19" s="271"/>
-      <c r="AM19" s="272"/>
-      <c r="AN19" s="254"/>
-      <c r="AO19" s="254"/>
-      <c r="AP19" s="254"/>
-      <c r="AQ19" s="254"/>
-      <c r="AR19" s="254"/>
-      <c r="AS19" s="273"/>
-      <c r="AT19" s="274"/>
-      <c r="AU19" s="274"/>
-      <c r="AV19" s="274"/>
-      <c r="AW19" s="275"/>
+      <c r="B19" s="248"/>
+      <c r="C19" s="249"/>
+      <c r="D19" s="250"/>
+      <c r="E19" s="251"/>
+      <c r="F19" s="251"/>
+      <c r="G19" s="251"/>
+      <c r="H19" s="251"/>
+      <c r="I19" s="251"/>
+      <c r="J19" s="252"/>
+      <c r="K19" s="253"/>
+      <c r="L19" s="254"/>
+      <c r="M19" s="265"/>
+      <c r="N19" s="263"/>
+      <c r="O19" s="263"/>
+      <c r="P19" s="263"/>
+      <c r="Q19" s="263"/>
+      <c r="R19" s="264"/>
+      <c r="S19" s="258"/>
+      <c r="T19" s="258"/>
+      <c r="U19" s="258"/>
+      <c r="V19" s="259"/>
+      <c r="W19" s="260"/>
+      <c r="X19" s="260"/>
+      <c r="Y19" s="260"/>
+      <c r="Z19" s="260"/>
+      <c r="AA19" s="260"/>
+      <c r="AB19" s="260"/>
+      <c r="AC19" s="260"/>
+      <c r="AD19" s="260"/>
+      <c r="AE19" s="260"/>
+      <c r="AF19" s="260"/>
+      <c r="AG19" s="260"/>
+      <c r="AH19" s="260"/>
+      <c r="AI19" s="260"/>
+      <c r="AJ19" s="260"/>
+      <c r="AK19" s="260"/>
+      <c r="AL19" s="260"/>
+      <c r="AM19" s="261"/>
+      <c r="AN19" s="258"/>
+      <c r="AO19" s="258"/>
+      <c r="AP19" s="258"/>
+      <c r="AQ19" s="258"/>
+      <c r="AR19" s="258"/>
+      <c r="AS19" s="245"/>
+      <c r="AT19" s="246"/>
+      <c r="AU19" s="246"/>
+      <c r="AV19" s="246"/>
+      <c r="AW19" s="247"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="56"/>
-      <c r="B20" s="264"/>
-      <c r="C20" s="265"/>
-      <c r="D20" s="266"/>
-      <c r="E20" s="256"/>
-      <c r="F20" s="256"/>
-      <c r="G20" s="256"/>
-      <c r="H20" s="256"/>
-      <c r="I20" s="256"/>
-      <c r="J20" s="257"/>
-      <c r="K20" s="258"/>
-      <c r="L20" s="259"/>
-      <c r="M20" s="267"/>
-      <c r="N20" s="268"/>
-      <c r="O20" s="268"/>
-      <c r="P20" s="268"/>
-      <c r="Q20" s="268"/>
-      <c r="R20" s="269"/>
-      <c r="S20" s="273"/>
-      <c r="T20" s="274"/>
-      <c r="U20" s="275"/>
-      <c r="V20" s="270"/>
-      <c r="W20" s="271"/>
-      <c r="X20" s="271"/>
-      <c r="Y20" s="271"/>
-      <c r="Z20" s="271"/>
-      <c r="AA20" s="271"/>
-      <c r="AB20" s="271"/>
-      <c r="AC20" s="271"/>
-      <c r="AD20" s="271"/>
-      <c r="AE20" s="271"/>
-      <c r="AF20" s="271"/>
-      <c r="AG20" s="271"/>
-      <c r="AH20" s="271"/>
-      <c r="AI20" s="271"/>
-      <c r="AJ20" s="271"/>
-      <c r="AK20" s="271"/>
-      <c r="AL20" s="271"/>
-      <c r="AM20" s="272"/>
-      <c r="AN20" s="273"/>
-      <c r="AO20" s="274"/>
-      <c r="AP20" s="274"/>
-      <c r="AQ20" s="274"/>
-      <c r="AR20" s="275"/>
-      <c r="AS20" s="273"/>
-      <c r="AT20" s="274"/>
-      <c r="AU20" s="274"/>
-      <c r="AV20" s="274"/>
-      <c r="AW20" s="275"/>
+      <c r="B20" s="248"/>
+      <c r="C20" s="249"/>
+      <c r="D20" s="250"/>
+      <c r="E20" s="251"/>
+      <c r="F20" s="251"/>
+      <c r="G20" s="251"/>
+      <c r="H20" s="251"/>
+      <c r="I20" s="251"/>
+      <c r="J20" s="252"/>
+      <c r="K20" s="253"/>
+      <c r="L20" s="254"/>
+      <c r="M20" s="265"/>
+      <c r="N20" s="263"/>
+      <c r="O20" s="263"/>
+      <c r="P20" s="263"/>
+      <c r="Q20" s="263"/>
+      <c r="R20" s="264"/>
+      <c r="S20" s="245"/>
+      <c r="T20" s="246"/>
+      <c r="U20" s="247"/>
+      <c r="V20" s="259"/>
+      <c r="W20" s="260"/>
+      <c r="X20" s="260"/>
+      <c r="Y20" s="260"/>
+      <c r="Z20" s="260"/>
+      <c r="AA20" s="260"/>
+      <c r="AB20" s="260"/>
+      <c r="AC20" s="260"/>
+      <c r="AD20" s="260"/>
+      <c r="AE20" s="260"/>
+      <c r="AF20" s="260"/>
+      <c r="AG20" s="260"/>
+      <c r="AH20" s="260"/>
+      <c r="AI20" s="260"/>
+      <c r="AJ20" s="260"/>
+      <c r="AK20" s="260"/>
+      <c r="AL20" s="260"/>
+      <c r="AM20" s="261"/>
+      <c r="AN20" s="245"/>
+      <c r="AO20" s="246"/>
+      <c r="AP20" s="246"/>
+      <c r="AQ20" s="246"/>
+      <c r="AR20" s="247"/>
+      <c r="AS20" s="245"/>
+      <c r="AT20" s="246"/>
+      <c r="AU20" s="246"/>
+      <c r="AV20" s="246"/>
+      <c r="AW20" s="247"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="56"/>
-      <c r="B21" s="264"/>
-      <c r="C21" s="265"/>
-      <c r="D21" s="266"/>
-      <c r="E21" s="256"/>
-      <c r="F21" s="256"/>
-      <c r="G21" s="256"/>
-      <c r="H21" s="256"/>
-      <c r="I21" s="256"/>
-      <c r="J21" s="257"/>
-      <c r="K21" s="258"/>
-      <c r="L21" s="259"/>
-      <c r="M21" s="267"/>
-      <c r="N21" s="268"/>
-      <c r="O21" s="268"/>
-      <c r="P21" s="268"/>
-      <c r="Q21" s="268"/>
-      <c r="R21" s="269"/>
-      <c r="S21" s="254"/>
-      <c r="T21" s="254"/>
-      <c r="U21" s="254"/>
-      <c r="V21" s="270"/>
-      <c r="W21" s="271"/>
-      <c r="X21" s="271"/>
-      <c r="Y21" s="271"/>
-      <c r="Z21" s="271"/>
-      <c r="AA21" s="271"/>
-      <c r="AB21" s="271"/>
-      <c r="AC21" s="271"/>
-      <c r="AD21" s="271"/>
-      <c r="AE21" s="271"/>
-      <c r="AF21" s="271"/>
-      <c r="AG21" s="271"/>
-      <c r="AH21" s="271"/>
-      <c r="AI21" s="271"/>
-      <c r="AJ21" s="271"/>
-      <c r="AK21" s="271"/>
-      <c r="AL21" s="271"/>
-      <c r="AM21" s="272"/>
-      <c r="AN21" s="273"/>
-      <c r="AO21" s="274"/>
-      <c r="AP21" s="274"/>
-      <c r="AQ21" s="274"/>
-      <c r="AR21" s="275"/>
-      <c r="AS21" s="273"/>
-      <c r="AT21" s="274"/>
-      <c r="AU21" s="274"/>
-      <c r="AV21" s="274"/>
-      <c r="AW21" s="275"/>
+      <c r="B21" s="248"/>
+      <c r="C21" s="249"/>
+      <c r="D21" s="250"/>
+      <c r="E21" s="251"/>
+      <c r="F21" s="251"/>
+      <c r="G21" s="251"/>
+      <c r="H21" s="251"/>
+      <c r="I21" s="251"/>
+      <c r="J21" s="252"/>
+      <c r="K21" s="253"/>
+      <c r="L21" s="254"/>
+      <c r="M21" s="265"/>
+      <c r="N21" s="263"/>
+      <c r="O21" s="263"/>
+      <c r="P21" s="263"/>
+      <c r="Q21" s="263"/>
+      <c r="R21" s="264"/>
+      <c r="S21" s="258"/>
+      <c r="T21" s="258"/>
+      <c r="U21" s="258"/>
+      <c r="V21" s="259"/>
+      <c r="W21" s="260"/>
+      <c r="X21" s="260"/>
+      <c r="Y21" s="260"/>
+      <c r="Z21" s="260"/>
+      <c r="AA21" s="260"/>
+      <c r="AB21" s="260"/>
+      <c r="AC21" s="260"/>
+      <c r="AD21" s="260"/>
+      <c r="AE21" s="260"/>
+      <c r="AF21" s="260"/>
+      <c r="AG21" s="260"/>
+      <c r="AH21" s="260"/>
+      <c r="AI21" s="260"/>
+      <c r="AJ21" s="260"/>
+      <c r="AK21" s="260"/>
+      <c r="AL21" s="260"/>
+      <c r="AM21" s="261"/>
+      <c r="AN21" s="245"/>
+      <c r="AO21" s="246"/>
+      <c r="AP21" s="246"/>
+      <c r="AQ21" s="246"/>
+      <c r="AR21" s="247"/>
+      <c r="AS21" s="245"/>
+      <c r="AT21" s="246"/>
+      <c r="AU21" s="246"/>
+      <c r="AV21" s="246"/>
+      <c r="AW21" s="247"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="56"/>
-      <c r="B22" s="264"/>
-      <c r="C22" s="265"/>
-      <c r="D22" s="266"/>
-      <c r="E22" s="256"/>
-      <c r="F22" s="256"/>
-      <c r="G22" s="256"/>
-      <c r="H22" s="256"/>
-      <c r="I22" s="256"/>
-      <c r="J22" s="257"/>
-      <c r="K22" s="258"/>
-      <c r="L22" s="259"/>
-      <c r="M22" s="267"/>
-      <c r="N22" s="268"/>
-      <c r="O22" s="268"/>
-      <c r="P22" s="268"/>
-      <c r="Q22" s="268"/>
-      <c r="R22" s="269"/>
-      <c r="S22" s="254"/>
-      <c r="T22" s="254"/>
-      <c r="U22" s="254"/>
-      <c r="V22" s="270"/>
-      <c r="W22" s="271"/>
-      <c r="X22" s="271"/>
-      <c r="Y22" s="271"/>
-      <c r="Z22" s="271"/>
-      <c r="AA22" s="271"/>
-      <c r="AB22" s="271"/>
-      <c r="AC22" s="271"/>
-      <c r="AD22" s="271"/>
-      <c r="AE22" s="271"/>
-      <c r="AF22" s="271"/>
-      <c r="AG22" s="271"/>
-      <c r="AH22" s="271"/>
-      <c r="AI22" s="271"/>
-      <c r="AJ22" s="271"/>
-      <c r="AK22" s="271"/>
-      <c r="AL22" s="271"/>
-      <c r="AM22" s="272"/>
-      <c r="AN22" s="273"/>
-      <c r="AO22" s="274"/>
-      <c r="AP22" s="274"/>
-      <c r="AQ22" s="274"/>
-      <c r="AR22" s="275"/>
-      <c r="AS22" s="273"/>
-      <c r="AT22" s="274"/>
-      <c r="AU22" s="274"/>
-      <c r="AV22" s="274"/>
-      <c r="AW22" s="275"/>
+      <c r="B22" s="248"/>
+      <c r="C22" s="249"/>
+      <c r="D22" s="250"/>
+      <c r="E22" s="251"/>
+      <c r="F22" s="251"/>
+      <c r="G22" s="251"/>
+      <c r="H22" s="251"/>
+      <c r="I22" s="251"/>
+      <c r="J22" s="252"/>
+      <c r="K22" s="253"/>
+      <c r="L22" s="254"/>
+      <c r="M22" s="265"/>
+      <c r="N22" s="263"/>
+      <c r="O22" s="263"/>
+      <c r="P22" s="263"/>
+      <c r="Q22" s="263"/>
+      <c r="R22" s="264"/>
+      <c r="S22" s="258"/>
+      <c r="T22" s="258"/>
+      <c r="U22" s="258"/>
+      <c r="V22" s="259"/>
+      <c r="W22" s="260"/>
+      <c r="X22" s="260"/>
+      <c r="Y22" s="260"/>
+      <c r="Z22" s="260"/>
+      <c r="AA22" s="260"/>
+      <c r="AB22" s="260"/>
+      <c r="AC22" s="260"/>
+      <c r="AD22" s="260"/>
+      <c r="AE22" s="260"/>
+      <c r="AF22" s="260"/>
+      <c r="AG22" s="260"/>
+      <c r="AH22" s="260"/>
+      <c r="AI22" s="260"/>
+      <c r="AJ22" s="260"/>
+      <c r="AK22" s="260"/>
+      <c r="AL22" s="260"/>
+      <c r="AM22" s="261"/>
+      <c r="AN22" s="245"/>
+      <c r="AO22" s="246"/>
+      <c r="AP22" s="246"/>
+      <c r="AQ22" s="246"/>
+      <c r="AR22" s="247"/>
+      <c r="AS22" s="245"/>
+      <c r="AT22" s="246"/>
+      <c r="AU22" s="246"/>
+      <c r="AV22" s="246"/>
+      <c r="AW22" s="247"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="54"/>
-      <c r="B23" s="264"/>
-      <c r="C23" s="265"/>
-      <c r="D23" s="266"/>
-      <c r="E23" s="256"/>
-      <c r="F23" s="256"/>
-      <c r="G23" s="256"/>
-      <c r="H23" s="256"/>
-      <c r="I23" s="256"/>
-      <c r="J23" s="257"/>
-      <c r="K23" s="258"/>
-      <c r="L23" s="259"/>
-      <c r="M23" s="267"/>
-      <c r="N23" s="268"/>
-      <c r="O23" s="268"/>
-      <c r="P23" s="268"/>
-      <c r="Q23" s="268"/>
-      <c r="R23" s="269"/>
-      <c r="S23" s="254"/>
-      <c r="T23" s="254"/>
-      <c r="U23" s="254"/>
-      <c r="V23" s="270"/>
-      <c r="W23" s="271"/>
-      <c r="X23" s="271"/>
-      <c r="Y23" s="271"/>
-      <c r="Z23" s="271"/>
-      <c r="AA23" s="271"/>
-      <c r="AB23" s="271"/>
-      <c r="AC23" s="271"/>
-      <c r="AD23" s="271"/>
-      <c r="AE23" s="271"/>
-      <c r="AF23" s="271"/>
-      <c r="AG23" s="271"/>
-      <c r="AH23" s="271"/>
-      <c r="AI23" s="271"/>
-      <c r="AJ23" s="271"/>
-      <c r="AK23" s="271"/>
-      <c r="AL23" s="271"/>
-      <c r="AM23" s="272"/>
-      <c r="AN23" s="273"/>
-      <c r="AO23" s="274"/>
-      <c r="AP23" s="274"/>
-      <c r="AQ23" s="274"/>
-      <c r="AR23" s="275"/>
-      <c r="AS23" s="273"/>
-      <c r="AT23" s="274"/>
-      <c r="AU23" s="274"/>
-      <c r="AV23" s="274"/>
-      <c r="AW23" s="275"/>
+      <c r="B23" s="248"/>
+      <c r="C23" s="249"/>
+      <c r="D23" s="250"/>
+      <c r="E23" s="251"/>
+      <c r="F23" s="251"/>
+      <c r="G23" s="251"/>
+      <c r="H23" s="251"/>
+      <c r="I23" s="251"/>
+      <c r="J23" s="252"/>
+      <c r="K23" s="253"/>
+      <c r="L23" s="254"/>
+      <c r="M23" s="265"/>
+      <c r="N23" s="263"/>
+      <c r="O23" s="263"/>
+      <c r="P23" s="263"/>
+      <c r="Q23" s="263"/>
+      <c r="R23" s="264"/>
+      <c r="S23" s="258"/>
+      <c r="T23" s="258"/>
+      <c r="U23" s="258"/>
+      <c r="V23" s="259"/>
+      <c r="W23" s="260"/>
+      <c r="X23" s="260"/>
+      <c r="Y23" s="260"/>
+      <c r="Z23" s="260"/>
+      <c r="AA23" s="260"/>
+      <c r="AB23" s="260"/>
+      <c r="AC23" s="260"/>
+      <c r="AD23" s="260"/>
+      <c r="AE23" s="260"/>
+      <c r="AF23" s="260"/>
+      <c r="AG23" s="260"/>
+      <c r="AH23" s="260"/>
+      <c r="AI23" s="260"/>
+      <c r="AJ23" s="260"/>
+      <c r="AK23" s="260"/>
+      <c r="AL23" s="260"/>
+      <c r="AM23" s="261"/>
+      <c r="AN23" s="245"/>
+      <c r="AO23" s="246"/>
+      <c r="AP23" s="246"/>
+      <c r="AQ23" s="246"/>
+      <c r="AR23" s="247"/>
+      <c r="AS23" s="245"/>
+      <c r="AT23" s="246"/>
+      <c r="AU23" s="246"/>
+      <c r="AV23" s="246"/>
+      <c r="AW23" s="247"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="54"/>
-      <c r="B24" s="264"/>
-      <c r="C24" s="265"/>
-      <c r="D24" s="266"/>
-      <c r="E24" s="256"/>
-      <c r="F24" s="256"/>
-      <c r="G24" s="256"/>
-      <c r="H24" s="256"/>
-      <c r="I24" s="256"/>
-      <c r="J24" s="257"/>
-      <c r="K24" s="258"/>
-      <c r="L24" s="259"/>
-      <c r="M24" s="267"/>
-      <c r="N24" s="268"/>
-      <c r="O24" s="268"/>
-      <c r="P24" s="268"/>
-      <c r="Q24" s="268"/>
-      <c r="R24" s="269"/>
-      <c r="S24" s="254"/>
-      <c r="T24" s="254"/>
-      <c r="U24" s="254"/>
-      <c r="V24" s="270"/>
-      <c r="W24" s="271"/>
-      <c r="X24" s="271"/>
-      <c r="Y24" s="271"/>
-      <c r="Z24" s="271"/>
-      <c r="AA24" s="271"/>
-      <c r="AB24" s="271"/>
-      <c r="AC24" s="271"/>
-      <c r="AD24" s="271"/>
-      <c r="AE24" s="271"/>
-      <c r="AF24" s="271"/>
-      <c r="AG24" s="271"/>
-      <c r="AH24" s="271"/>
-      <c r="AI24" s="271"/>
-      <c r="AJ24" s="271"/>
-      <c r="AK24" s="271"/>
-      <c r="AL24" s="271"/>
-      <c r="AM24" s="272"/>
-      <c r="AN24" s="273"/>
-      <c r="AO24" s="274"/>
-      <c r="AP24" s="274"/>
-      <c r="AQ24" s="274"/>
-      <c r="AR24" s="275"/>
-      <c r="AS24" s="273"/>
-      <c r="AT24" s="274"/>
-      <c r="AU24" s="274"/>
-      <c r="AV24" s="274"/>
-      <c r="AW24" s="275"/>
+      <c r="B24" s="248"/>
+      <c r="C24" s="249"/>
+      <c r="D24" s="250"/>
+      <c r="E24" s="251"/>
+      <c r="F24" s="251"/>
+      <c r="G24" s="251"/>
+      <c r="H24" s="251"/>
+      <c r="I24" s="251"/>
+      <c r="J24" s="252"/>
+      <c r="K24" s="253"/>
+      <c r="L24" s="254"/>
+      <c r="M24" s="265"/>
+      <c r="N24" s="263"/>
+      <c r="O24" s="263"/>
+      <c r="P24" s="263"/>
+      <c r="Q24" s="263"/>
+      <c r="R24" s="264"/>
+      <c r="S24" s="258"/>
+      <c r="T24" s="258"/>
+      <c r="U24" s="258"/>
+      <c r="V24" s="259"/>
+      <c r="W24" s="260"/>
+      <c r="X24" s="260"/>
+      <c r="Y24" s="260"/>
+      <c r="Z24" s="260"/>
+      <c r="AA24" s="260"/>
+      <c r="AB24" s="260"/>
+      <c r="AC24" s="260"/>
+      <c r="AD24" s="260"/>
+      <c r="AE24" s="260"/>
+      <c r="AF24" s="260"/>
+      <c r="AG24" s="260"/>
+      <c r="AH24" s="260"/>
+      <c r="AI24" s="260"/>
+      <c r="AJ24" s="260"/>
+      <c r="AK24" s="260"/>
+      <c r="AL24" s="260"/>
+      <c r="AM24" s="261"/>
+      <c r="AN24" s="245"/>
+      <c r="AO24" s="246"/>
+      <c r="AP24" s="246"/>
+      <c r="AQ24" s="246"/>
+      <c r="AR24" s="247"/>
+      <c r="AS24" s="245"/>
+      <c r="AT24" s="246"/>
+      <c r="AU24" s="246"/>
+      <c r="AV24" s="246"/>
+      <c r="AW24" s="247"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="54"/>
-      <c r="B25" s="264"/>
-      <c r="C25" s="265"/>
-      <c r="D25" s="266"/>
-      <c r="E25" s="256"/>
-      <c r="F25" s="256"/>
-      <c r="G25" s="256"/>
-      <c r="H25" s="256"/>
-      <c r="I25" s="256"/>
-      <c r="J25" s="257"/>
-      <c r="K25" s="258"/>
-      <c r="L25" s="259"/>
-      <c r="M25" s="278"/>
-      <c r="N25" s="268"/>
-      <c r="O25" s="268"/>
-      <c r="P25" s="268"/>
-      <c r="Q25" s="268"/>
-      <c r="R25" s="269"/>
-      <c r="S25" s="254"/>
-      <c r="T25" s="254"/>
-      <c r="U25" s="254"/>
-      <c r="V25" s="270"/>
-      <c r="W25" s="271"/>
-      <c r="X25" s="271"/>
-      <c r="Y25" s="271"/>
-      <c r="Z25" s="271"/>
-      <c r="AA25" s="271"/>
-      <c r="AB25" s="271"/>
-      <c r="AC25" s="271"/>
-      <c r="AD25" s="271"/>
-      <c r="AE25" s="271"/>
-      <c r="AF25" s="271"/>
-      <c r="AG25" s="271"/>
-      <c r="AH25" s="271"/>
-      <c r="AI25" s="271"/>
-      <c r="AJ25" s="271"/>
-      <c r="AK25" s="271"/>
-      <c r="AL25" s="271"/>
-      <c r="AM25" s="272"/>
-      <c r="AN25" s="273"/>
-      <c r="AO25" s="274"/>
-      <c r="AP25" s="274"/>
-      <c r="AQ25" s="274"/>
-      <c r="AR25" s="275"/>
-      <c r="AS25" s="273"/>
-      <c r="AT25" s="274"/>
-      <c r="AU25" s="274"/>
-      <c r="AV25" s="274"/>
-      <c r="AW25" s="275"/>
+      <c r="B25" s="248"/>
+      <c r="C25" s="249"/>
+      <c r="D25" s="250"/>
+      <c r="E25" s="251"/>
+      <c r="F25" s="251"/>
+      <c r="G25" s="251"/>
+      <c r="H25" s="251"/>
+      <c r="I25" s="251"/>
+      <c r="J25" s="252"/>
+      <c r="K25" s="253"/>
+      <c r="L25" s="254"/>
+      <c r="M25" s="262"/>
+      <c r="N25" s="263"/>
+      <c r="O25" s="263"/>
+      <c r="P25" s="263"/>
+      <c r="Q25" s="263"/>
+      <c r="R25" s="264"/>
+      <c r="S25" s="258"/>
+      <c r="T25" s="258"/>
+      <c r="U25" s="258"/>
+      <c r="V25" s="259"/>
+      <c r="W25" s="260"/>
+      <c r="X25" s="260"/>
+      <c r="Y25" s="260"/>
+      <c r="Z25" s="260"/>
+      <c r="AA25" s="260"/>
+      <c r="AB25" s="260"/>
+      <c r="AC25" s="260"/>
+      <c r="AD25" s="260"/>
+      <c r="AE25" s="260"/>
+      <c r="AF25" s="260"/>
+      <c r="AG25" s="260"/>
+      <c r="AH25" s="260"/>
+      <c r="AI25" s="260"/>
+      <c r="AJ25" s="260"/>
+      <c r="AK25" s="260"/>
+      <c r="AL25" s="260"/>
+      <c r="AM25" s="261"/>
+      <c r="AN25" s="245"/>
+      <c r="AO25" s="246"/>
+      <c r="AP25" s="246"/>
+      <c r="AQ25" s="246"/>
+      <c r="AR25" s="247"/>
+      <c r="AS25" s="245"/>
+      <c r="AT25" s="246"/>
+      <c r="AU25" s="246"/>
+      <c r="AV25" s="246"/>
+      <c r="AW25" s="247"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="54"/>
-      <c r="B26" s="264"/>
-      <c r="C26" s="265"/>
-      <c r="D26" s="266"/>
-      <c r="E26" s="256"/>
-      <c r="F26" s="256"/>
-      <c r="G26" s="256"/>
-      <c r="H26" s="256"/>
-      <c r="I26" s="256"/>
-      <c r="J26" s="257"/>
-      <c r="K26" s="258"/>
-      <c r="L26" s="259"/>
-      <c r="M26" s="278"/>
-      <c r="N26" s="268"/>
-      <c r="O26" s="268"/>
-      <c r="P26" s="268"/>
-      <c r="Q26" s="268"/>
-      <c r="R26" s="269"/>
-      <c r="S26" s="254"/>
-      <c r="T26" s="254"/>
-      <c r="U26" s="254"/>
-      <c r="V26" s="270"/>
-      <c r="W26" s="271"/>
-      <c r="X26" s="271"/>
-      <c r="Y26" s="271"/>
-      <c r="Z26" s="271"/>
-      <c r="AA26" s="271"/>
-      <c r="AB26" s="271"/>
-      <c r="AC26" s="271"/>
-      <c r="AD26" s="271"/>
-      <c r="AE26" s="271"/>
-      <c r="AF26" s="271"/>
-      <c r="AG26" s="271"/>
-      <c r="AH26" s="271"/>
-      <c r="AI26" s="271"/>
-      <c r="AJ26" s="271"/>
-      <c r="AK26" s="271"/>
-      <c r="AL26" s="271"/>
-      <c r="AM26" s="272"/>
-      <c r="AN26" s="273"/>
-      <c r="AO26" s="274"/>
-      <c r="AP26" s="274"/>
-      <c r="AQ26" s="274"/>
-      <c r="AR26" s="275"/>
-      <c r="AS26" s="273"/>
-      <c r="AT26" s="274"/>
-      <c r="AU26" s="274"/>
-      <c r="AV26" s="274"/>
-      <c r="AW26" s="275"/>
+      <c r="B26" s="248"/>
+      <c r="C26" s="249"/>
+      <c r="D26" s="250"/>
+      <c r="E26" s="251"/>
+      <c r="F26" s="251"/>
+      <c r="G26" s="251"/>
+      <c r="H26" s="251"/>
+      <c r="I26" s="251"/>
+      <c r="J26" s="252"/>
+      <c r="K26" s="253"/>
+      <c r="L26" s="254"/>
+      <c r="M26" s="262"/>
+      <c r="N26" s="263"/>
+      <c r="O26" s="263"/>
+      <c r="P26" s="263"/>
+      <c r="Q26" s="263"/>
+      <c r="R26" s="264"/>
+      <c r="S26" s="258"/>
+      <c r="T26" s="258"/>
+      <c r="U26" s="258"/>
+      <c r="V26" s="259"/>
+      <c r="W26" s="260"/>
+      <c r="X26" s="260"/>
+      <c r="Y26" s="260"/>
+      <c r="Z26" s="260"/>
+      <c r="AA26" s="260"/>
+      <c r="AB26" s="260"/>
+      <c r="AC26" s="260"/>
+      <c r="AD26" s="260"/>
+      <c r="AE26" s="260"/>
+      <c r="AF26" s="260"/>
+      <c r="AG26" s="260"/>
+      <c r="AH26" s="260"/>
+      <c r="AI26" s="260"/>
+      <c r="AJ26" s="260"/>
+      <c r="AK26" s="260"/>
+      <c r="AL26" s="260"/>
+      <c r="AM26" s="261"/>
+      <c r="AN26" s="245"/>
+      <c r="AO26" s="246"/>
+      <c r="AP26" s="246"/>
+      <c r="AQ26" s="246"/>
+      <c r="AR26" s="247"/>
+      <c r="AS26" s="245"/>
+      <c r="AT26" s="246"/>
+      <c r="AU26" s="246"/>
+      <c r="AV26" s="246"/>
+      <c r="AW26" s="247"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="54"/>
-      <c r="B27" s="264"/>
-      <c r="C27" s="265"/>
-      <c r="D27" s="266"/>
-      <c r="E27" s="256"/>
-      <c r="F27" s="256"/>
-      <c r="G27" s="256"/>
-      <c r="H27" s="256"/>
-      <c r="I27" s="256"/>
-      <c r="J27" s="257"/>
-      <c r="K27" s="258"/>
-      <c r="L27" s="259"/>
-      <c r="M27" s="278"/>
-      <c r="N27" s="268"/>
-      <c r="O27" s="268"/>
-      <c r="P27" s="268"/>
-      <c r="Q27" s="268"/>
-      <c r="R27" s="269"/>
-      <c r="S27" s="254"/>
-      <c r="T27" s="254"/>
-      <c r="U27" s="254"/>
-      <c r="V27" s="270"/>
-      <c r="W27" s="271"/>
-      <c r="X27" s="271"/>
-      <c r="Y27" s="271"/>
-      <c r="Z27" s="271"/>
-      <c r="AA27" s="271"/>
-      <c r="AB27" s="271"/>
-      <c r="AC27" s="271"/>
-      <c r="AD27" s="271"/>
-      <c r="AE27" s="271"/>
-      <c r="AF27" s="271"/>
-      <c r="AG27" s="271"/>
-      <c r="AH27" s="271"/>
-      <c r="AI27" s="271"/>
-      <c r="AJ27" s="271"/>
-      <c r="AK27" s="271"/>
-      <c r="AL27" s="271"/>
-      <c r="AM27" s="272"/>
-      <c r="AN27" s="273"/>
-      <c r="AO27" s="274"/>
-      <c r="AP27" s="274"/>
-      <c r="AQ27" s="274"/>
-      <c r="AR27" s="275"/>
-      <c r="AS27" s="273"/>
-      <c r="AT27" s="274"/>
-      <c r="AU27" s="274"/>
-      <c r="AV27" s="274"/>
-      <c r="AW27" s="275"/>
+      <c r="B27" s="248"/>
+      <c r="C27" s="249"/>
+      <c r="D27" s="250"/>
+      <c r="E27" s="251"/>
+      <c r="F27" s="251"/>
+      <c r="G27" s="251"/>
+      <c r="H27" s="251"/>
+      <c r="I27" s="251"/>
+      <c r="J27" s="252"/>
+      <c r="K27" s="253"/>
+      <c r="L27" s="254"/>
+      <c r="M27" s="262"/>
+      <c r="N27" s="263"/>
+      <c r="O27" s="263"/>
+      <c r="P27" s="263"/>
+      <c r="Q27" s="263"/>
+      <c r="R27" s="264"/>
+      <c r="S27" s="258"/>
+      <c r="T27" s="258"/>
+      <c r="U27" s="258"/>
+      <c r="V27" s="259"/>
+      <c r="W27" s="260"/>
+      <c r="X27" s="260"/>
+      <c r="Y27" s="260"/>
+      <c r="Z27" s="260"/>
+      <c r="AA27" s="260"/>
+      <c r="AB27" s="260"/>
+      <c r="AC27" s="260"/>
+      <c r="AD27" s="260"/>
+      <c r="AE27" s="260"/>
+      <c r="AF27" s="260"/>
+      <c r="AG27" s="260"/>
+      <c r="AH27" s="260"/>
+      <c r="AI27" s="260"/>
+      <c r="AJ27" s="260"/>
+      <c r="AK27" s="260"/>
+      <c r="AL27" s="260"/>
+      <c r="AM27" s="261"/>
+      <c r="AN27" s="245"/>
+      <c r="AO27" s="246"/>
+      <c r="AP27" s="246"/>
+      <c r="AQ27" s="246"/>
+      <c r="AR27" s="247"/>
+      <c r="AS27" s="245"/>
+      <c r="AT27" s="246"/>
+      <c r="AU27" s="246"/>
+      <c r="AV27" s="246"/>
+      <c r="AW27" s="247"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="54"/>
-      <c r="B28" s="264"/>
-      <c r="C28" s="265"/>
-      <c r="D28" s="266"/>
-      <c r="E28" s="256"/>
-      <c r="F28" s="256"/>
-      <c r="G28" s="256"/>
-      <c r="H28" s="256"/>
-      <c r="I28" s="256"/>
-      <c r="J28" s="257"/>
-      <c r="K28" s="258"/>
-      <c r="L28" s="259"/>
-      <c r="M28" s="267"/>
-      <c r="N28" s="268"/>
-      <c r="O28" s="268"/>
-      <c r="P28" s="268"/>
-      <c r="Q28" s="268"/>
-      <c r="R28" s="269"/>
-      <c r="S28" s="254"/>
-      <c r="T28" s="254"/>
-      <c r="U28" s="254"/>
-      <c r="V28" s="270"/>
-      <c r="W28" s="271"/>
-      <c r="X28" s="271"/>
-      <c r="Y28" s="271"/>
-      <c r="Z28" s="271"/>
-      <c r="AA28" s="271"/>
-      <c r="AB28" s="271"/>
-      <c r="AC28" s="271"/>
-      <c r="AD28" s="271"/>
-      <c r="AE28" s="271"/>
-      <c r="AF28" s="271"/>
-      <c r="AG28" s="271"/>
-      <c r="AH28" s="271"/>
-      <c r="AI28" s="271"/>
-      <c r="AJ28" s="271"/>
-      <c r="AK28" s="271"/>
-      <c r="AL28" s="271"/>
-      <c r="AM28" s="272"/>
-      <c r="AN28" s="273"/>
-      <c r="AO28" s="274"/>
-      <c r="AP28" s="274"/>
-      <c r="AQ28" s="274"/>
-      <c r="AR28" s="275"/>
-      <c r="AS28" s="273"/>
-      <c r="AT28" s="274"/>
-      <c r="AU28" s="274"/>
-      <c r="AV28" s="274"/>
-      <c r="AW28" s="275"/>
+      <c r="B28" s="248"/>
+      <c r="C28" s="249"/>
+      <c r="D28" s="250"/>
+      <c r="E28" s="251"/>
+      <c r="F28" s="251"/>
+      <c r="G28" s="251"/>
+      <c r="H28" s="251"/>
+      <c r="I28" s="251"/>
+      <c r="J28" s="252"/>
+      <c r="K28" s="253"/>
+      <c r="L28" s="254"/>
+      <c r="M28" s="265"/>
+      <c r="N28" s="263"/>
+      <c r="O28" s="263"/>
+      <c r="P28" s="263"/>
+      <c r="Q28" s="263"/>
+      <c r="R28" s="264"/>
+      <c r="S28" s="258"/>
+      <c r="T28" s="258"/>
+      <c r="U28" s="258"/>
+      <c r="V28" s="259"/>
+      <c r="W28" s="260"/>
+      <c r="X28" s="260"/>
+      <c r="Y28" s="260"/>
+      <c r="Z28" s="260"/>
+      <c r="AA28" s="260"/>
+      <c r="AB28" s="260"/>
+      <c r="AC28" s="260"/>
+      <c r="AD28" s="260"/>
+      <c r="AE28" s="260"/>
+      <c r="AF28" s="260"/>
+      <c r="AG28" s="260"/>
+      <c r="AH28" s="260"/>
+      <c r="AI28" s="260"/>
+      <c r="AJ28" s="260"/>
+      <c r="AK28" s="260"/>
+      <c r="AL28" s="260"/>
+      <c r="AM28" s="261"/>
+      <c r="AN28" s="245"/>
+      <c r="AO28" s="246"/>
+      <c r="AP28" s="246"/>
+      <c r="AQ28" s="246"/>
+      <c r="AR28" s="247"/>
+      <c r="AS28" s="245"/>
+      <c r="AT28" s="246"/>
+      <c r="AU28" s="246"/>
+      <c r="AV28" s="246"/>
+      <c r="AW28" s="247"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="54"/>
-      <c r="B29" s="264"/>
-      <c r="C29" s="265"/>
-      <c r="D29" s="266"/>
-      <c r="E29" s="256"/>
-      <c r="F29" s="256"/>
-      <c r="G29" s="256"/>
-      <c r="H29" s="256"/>
-      <c r="I29" s="256"/>
-      <c r="J29" s="257"/>
-      <c r="K29" s="258"/>
-      <c r="L29" s="259"/>
-      <c r="M29" s="267"/>
-      <c r="N29" s="268"/>
-      <c r="O29" s="268"/>
-      <c r="P29" s="268"/>
-      <c r="Q29" s="268"/>
-      <c r="R29" s="269"/>
-      <c r="S29" s="254"/>
-      <c r="T29" s="254"/>
-      <c r="U29" s="254"/>
-      <c r="V29" s="270"/>
-      <c r="W29" s="271"/>
-      <c r="X29" s="271"/>
-      <c r="Y29" s="271"/>
-      <c r="Z29" s="271"/>
-      <c r="AA29" s="271"/>
-      <c r="AB29" s="271"/>
-      <c r="AC29" s="271"/>
-      <c r="AD29" s="271"/>
-      <c r="AE29" s="271"/>
-      <c r="AF29" s="271"/>
-      <c r="AG29" s="271"/>
-      <c r="AH29" s="271"/>
-      <c r="AI29" s="271"/>
-      <c r="AJ29" s="271"/>
-      <c r="AK29" s="271"/>
-      <c r="AL29" s="271"/>
-      <c r="AM29" s="272"/>
-      <c r="AN29" s="273"/>
-      <c r="AO29" s="274"/>
-      <c r="AP29" s="274"/>
-      <c r="AQ29" s="274"/>
-      <c r="AR29" s="275"/>
-      <c r="AS29" s="273"/>
-      <c r="AT29" s="274"/>
-      <c r="AU29" s="274"/>
-      <c r="AV29" s="274"/>
-      <c r="AW29" s="275"/>
+      <c r="B29" s="248"/>
+      <c r="C29" s="249"/>
+      <c r="D29" s="250"/>
+      <c r="E29" s="251"/>
+      <c r="F29" s="251"/>
+      <c r="G29" s="251"/>
+      <c r="H29" s="251"/>
+      <c r="I29" s="251"/>
+      <c r="J29" s="252"/>
+      <c r="K29" s="253"/>
+      <c r="L29" s="254"/>
+      <c r="M29" s="265"/>
+      <c r="N29" s="263"/>
+      <c r="O29" s="263"/>
+      <c r="P29" s="263"/>
+      <c r="Q29" s="263"/>
+      <c r="R29" s="264"/>
+      <c r="S29" s="258"/>
+      <c r="T29" s="258"/>
+      <c r="U29" s="258"/>
+      <c r="V29" s="259"/>
+      <c r="W29" s="260"/>
+      <c r="X29" s="260"/>
+      <c r="Y29" s="260"/>
+      <c r="Z29" s="260"/>
+      <c r="AA29" s="260"/>
+      <c r="AB29" s="260"/>
+      <c r="AC29" s="260"/>
+      <c r="AD29" s="260"/>
+      <c r="AE29" s="260"/>
+      <c r="AF29" s="260"/>
+      <c r="AG29" s="260"/>
+      <c r="AH29" s="260"/>
+      <c r="AI29" s="260"/>
+      <c r="AJ29" s="260"/>
+      <c r="AK29" s="260"/>
+      <c r="AL29" s="260"/>
+      <c r="AM29" s="261"/>
+      <c r="AN29" s="245"/>
+      <c r="AO29" s="246"/>
+      <c r="AP29" s="246"/>
+      <c r="AQ29" s="246"/>
+      <c r="AR29" s="247"/>
+      <c r="AS29" s="245"/>
+      <c r="AT29" s="246"/>
+      <c r="AU29" s="246"/>
+      <c r="AV29" s="246"/>
+      <c r="AW29" s="247"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="54"/>
-      <c r="B30" s="264"/>
-      <c r="C30" s="265"/>
-      <c r="D30" s="266"/>
-      <c r="E30" s="256"/>
-      <c r="F30" s="256"/>
-      <c r="G30" s="256"/>
-      <c r="H30" s="256"/>
-      <c r="I30" s="256"/>
-      <c r="J30" s="257"/>
-      <c r="K30" s="258"/>
-      <c r="L30" s="259"/>
-      <c r="M30" s="278"/>
-      <c r="N30" s="268"/>
-      <c r="O30" s="268"/>
-      <c r="P30" s="268"/>
-      <c r="Q30" s="268"/>
-      <c r="R30" s="269"/>
-      <c r="S30" s="254"/>
-      <c r="T30" s="254"/>
-      <c r="U30" s="254"/>
-      <c r="V30" s="270"/>
-      <c r="W30" s="271"/>
-      <c r="X30" s="271"/>
-      <c r="Y30" s="271"/>
-      <c r="Z30" s="271"/>
-      <c r="AA30" s="271"/>
-      <c r="AB30" s="271"/>
-      <c r="AC30" s="271"/>
-      <c r="AD30" s="271"/>
-      <c r="AE30" s="271"/>
-      <c r="AF30" s="271"/>
-      <c r="AG30" s="271"/>
-      <c r="AH30" s="271"/>
-      <c r="AI30" s="271"/>
-      <c r="AJ30" s="271"/>
-      <c r="AK30" s="271"/>
-      <c r="AL30" s="271"/>
-      <c r="AM30" s="272"/>
-      <c r="AN30" s="273"/>
-      <c r="AO30" s="274"/>
-      <c r="AP30" s="274"/>
-      <c r="AQ30" s="274"/>
-      <c r="AR30" s="275"/>
-      <c r="AS30" s="273"/>
-      <c r="AT30" s="274"/>
-      <c r="AU30" s="274"/>
-      <c r="AV30" s="274"/>
-      <c r="AW30" s="275"/>
+      <c r="B30" s="248"/>
+      <c r="C30" s="249"/>
+      <c r="D30" s="250"/>
+      <c r="E30" s="251"/>
+      <c r="F30" s="251"/>
+      <c r="G30" s="251"/>
+      <c r="H30" s="251"/>
+      <c r="I30" s="251"/>
+      <c r="J30" s="252"/>
+      <c r="K30" s="253"/>
+      <c r="L30" s="254"/>
+      <c r="M30" s="262"/>
+      <c r="N30" s="263"/>
+      <c r="O30" s="263"/>
+      <c r="P30" s="263"/>
+      <c r="Q30" s="263"/>
+      <c r="R30" s="264"/>
+      <c r="S30" s="258"/>
+      <c r="T30" s="258"/>
+      <c r="U30" s="258"/>
+      <c r="V30" s="259"/>
+      <c r="W30" s="260"/>
+      <c r="X30" s="260"/>
+      <c r="Y30" s="260"/>
+      <c r="Z30" s="260"/>
+      <c r="AA30" s="260"/>
+      <c r="AB30" s="260"/>
+      <c r="AC30" s="260"/>
+      <c r="AD30" s="260"/>
+      <c r="AE30" s="260"/>
+      <c r="AF30" s="260"/>
+      <c r="AG30" s="260"/>
+      <c r="AH30" s="260"/>
+      <c r="AI30" s="260"/>
+      <c r="AJ30" s="260"/>
+      <c r="AK30" s="260"/>
+      <c r="AL30" s="260"/>
+      <c r="AM30" s="261"/>
+      <c r="AN30" s="245"/>
+      <c r="AO30" s="246"/>
+      <c r="AP30" s="246"/>
+      <c r="AQ30" s="246"/>
+      <c r="AR30" s="247"/>
+      <c r="AS30" s="245"/>
+      <c r="AT30" s="246"/>
+      <c r="AU30" s="246"/>
+      <c r="AV30" s="246"/>
+      <c r="AW30" s="247"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="54"/>
-      <c r="B31" s="264"/>
-      <c r="C31" s="265"/>
-      <c r="D31" s="266"/>
-      <c r="E31" s="256"/>
-      <c r="F31" s="256"/>
-      <c r="G31" s="256"/>
-      <c r="H31" s="256"/>
-      <c r="I31" s="256"/>
-      <c r="J31" s="257"/>
-      <c r="K31" s="258"/>
-      <c r="L31" s="259"/>
-      <c r="M31" s="278"/>
-      <c r="N31" s="268"/>
-      <c r="O31" s="268"/>
-      <c r="P31" s="268"/>
-      <c r="Q31" s="268"/>
-      <c r="R31" s="269"/>
-      <c r="S31" s="254"/>
-      <c r="T31" s="254"/>
-      <c r="U31" s="254"/>
-      <c r="V31" s="270"/>
-      <c r="W31" s="271"/>
-      <c r="X31" s="271"/>
-      <c r="Y31" s="271"/>
-      <c r="Z31" s="271"/>
-      <c r="AA31" s="271"/>
-      <c r="AB31" s="271"/>
-      <c r="AC31" s="271"/>
-      <c r="AD31" s="271"/>
-      <c r="AE31" s="271"/>
-      <c r="AF31" s="271"/>
-      <c r="AG31" s="271"/>
-      <c r="AH31" s="271"/>
-      <c r="AI31" s="271"/>
-      <c r="AJ31" s="271"/>
-      <c r="AK31" s="271"/>
-      <c r="AL31" s="271"/>
-      <c r="AM31" s="272"/>
-      <c r="AN31" s="273"/>
-      <c r="AO31" s="274"/>
-      <c r="AP31" s="274"/>
-      <c r="AQ31" s="274"/>
-      <c r="AR31" s="275"/>
-      <c r="AS31" s="273"/>
-      <c r="AT31" s="274"/>
-      <c r="AU31" s="274"/>
-      <c r="AV31" s="274"/>
-      <c r="AW31" s="275"/>
+      <c r="B31" s="248"/>
+      <c r="C31" s="249"/>
+      <c r="D31" s="250"/>
+      <c r="E31" s="251"/>
+      <c r="F31" s="251"/>
+      <c r="G31" s="251"/>
+      <c r="H31" s="251"/>
+      <c r="I31" s="251"/>
+      <c r="J31" s="252"/>
+      <c r="K31" s="253"/>
+      <c r="L31" s="254"/>
+      <c r="M31" s="262"/>
+      <c r="N31" s="263"/>
+      <c r="O31" s="263"/>
+      <c r="P31" s="263"/>
+      <c r="Q31" s="263"/>
+      <c r="R31" s="264"/>
+      <c r="S31" s="258"/>
+      <c r="T31" s="258"/>
+      <c r="U31" s="258"/>
+      <c r="V31" s="259"/>
+      <c r="W31" s="260"/>
+      <c r="X31" s="260"/>
+      <c r="Y31" s="260"/>
+      <c r="Z31" s="260"/>
+      <c r="AA31" s="260"/>
+      <c r="AB31" s="260"/>
+      <c r="AC31" s="260"/>
+      <c r="AD31" s="260"/>
+      <c r="AE31" s="260"/>
+      <c r="AF31" s="260"/>
+      <c r="AG31" s="260"/>
+      <c r="AH31" s="260"/>
+      <c r="AI31" s="260"/>
+      <c r="AJ31" s="260"/>
+      <c r="AK31" s="260"/>
+      <c r="AL31" s="260"/>
+      <c r="AM31" s="261"/>
+      <c r="AN31" s="245"/>
+      <c r="AO31" s="246"/>
+      <c r="AP31" s="246"/>
+      <c r="AQ31" s="246"/>
+      <c r="AR31" s="247"/>
+      <c r="AS31" s="245"/>
+      <c r="AT31" s="246"/>
+      <c r="AU31" s="246"/>
+      <c r="AV31" s="246"/>
+      <c r="AW31" s="247"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="54"/>
-      <c r="B32" s="264"/>
-      <c r="C32" s="265"/>
-      <c r="D32" s="266"/>
-      <c r="E32" s="256"/>
-      <c r="F32" s="256"/>
-      <c r="G32" s="256"/>
-      <c r="H32" s="256"/>
-      <c r="I32" s="256"/>
-      <c r="J32" s="257"/>
-      <c r="K32" s="258"/>
-      <c r="L32" s="259"/>
-      <c r="M32" s="278"/>
-      <c r="N32" s="268"/>
-      <c r="O32" s="268"/>
-      <c r="P32" s="268"/>
-      <c r="Q32" s="268"/>
-      <c r="R32" s="269"/>
-      <c r="S32" s="254"/>
-      <c r="T32" s="254"/>
-      <c r="U32" s="254"/>
-      <c r="V32" s="270"/>
-      <c r="W32" s="271"/>
-      <c r="X32" s="271"/>
-      <c r="Y32" s="271"/>
-      <c r="Z32" s="271"/>
-      <c r="AA32" s="271"/>
-      <c r="AB32" s="271"/>
-      <c r="AC32" s="271"/>
-      <c r="AD32" s="271"/>
-      <c r="AE32" s="271"/>
-      <c r="AF32" s="271"/>
-      <c r="AG32" s="271"/>
-      <c r="AH32" s="271"/>
-      <c r="AI32" s="271"/>
-      <c r="AJ32" s="271"/>
-      <c r="AK32" s="271"/>
-      <c r="AL32" s="271"/>
-      <c r="AM32" s="272"/>
-      <c r="AN32" s="273"/>
-      <c r="AO32" s="274"/>
-      <c r="AP32" s="274"/>
-      <c r="AQ32" s="274"/>
-      <c r="AR32" s="275"/>
-      <c r="AS32" s="273"/>
-      <c r="AT32" s="274"/>
-      <c r="AU32" s="274"/>
-      <c r="AV32" s="274"/>
-      <c r="AW32" s="275"/>
+      <c r="B32" s="248"/>
+      <c r="C32" s="249"/>
+      <c r="D32" s="250"/>
+      <c r="E32" s="251"/>
+      <c r="F32" s="251"/>
+      <c r="G32" s="251"/>
+      <c r="H32" s="251"/>
+      <c r="I32" s="251"/>
+      <c r="J32" s="252"/>
+      <c r="K32" s="253"/>
+      <c r="L32" s="254"/>
+      <c r="M32" s="262"/>
+      <c r="N32" s="263"/>
+      <c r="O32" s="263"/>
+      <c r="P32" s="263"/>
+      <c r="Q32" s="263"/>
+      <c r="R32" s="264"/>
+      <c r="S32" s="258"/>
+      <c r="T32" s="258"/>
+      <c r="U32" s="258"/>
+      <c r="V32" s="259"/>
+      <c r="W32" s="260"/>
+      <c r="X32" s="260"/>
+      <c r="Y32" s="260"/>
+      <c r="Z32" s="260"/>
+      <c r="AA32" s="260"/>
+      <c r="AB32" s="260"/>
+      <c r="AC32" s="260"/>
+      <c r="AD32" s="260"/>
+      <c r="AE32" s="260"/>
+      <c r="AF32" s="260"/>
+      <c r="AG32" s="260"/>
+      <c r="AH32" s="260"/>
+      <c r="AI32" s="260"/>
+      <c r="AJ32" s="260"/>
+      <c r="AK32" s="260"/>
+      <c r="AL32" s="260"/>
+      <c r="AM32" s="261"/>
+      <c r="AN32" s="245"/>
+      <c r="AO32" s="246"/>
+      <c r="AP32" s="246"/>
+      <c r="AQ32" s="246"/>
+      <c r="AR32" s="247"/>
+      <c r="AS32" s="245"/>
+      <c r="AT32" s="246"/>
+      <c r="AU32" s="246"/>
+      <c r="AV32" s="246"/>
+      <c r="AW32" s="247"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="264"/>
-      <c r="C33" s="265"/>
-      <c r="D33" s="266"/>
-      <c r="E33" s="256"/>
-      <c r="F33" s="256"/>
-      <c r="G33" s="256"/>
-      <c r="H33" s="256"/>
-      <c r="I33" s="256"/>
-      <c r="J33" s="257"/>
-      <c r="K33" s="258"/>
-      <c r="L33" s="259"/>
-      <c r="M33" s="278"/>
-      <c r="N33" s="268"/>
-      <c r="O33" s="268"/>
-      <c r="P33" s="268"/>
-      <c r="Q33" s="268"/>
-      <c r="R33" s="269"/>
-      <c r="S33" s="254"/>
-      <c r="T33" s="254"/>
-      <c r="U33" s="254"/>
-      <c r="V33" s="270"/>
-      <c r="W33" s="271"/>
-      <c r="X33" s="271"/>
-      <c r="Y33" s="271"/>
-      <c r="Z33" s="271"/>
-      <c r="AA33" s="271"/>
-      <c r="AB33" s="271"/>
-      <c r="AC33" s="271"/>
-      <c r="AD33" s="271"/>
-      <c r="AE33" s="271"/>
-      <c r="AF33" s="271"/>
-      <c r="AG33" s="271"/>
-      <c r="AH33" s="271"/>
-      <c r="AI33" s="271"/>
-      <c r="AJ33" s="271"/>
-      <c r="AK33" s="271"/>
-      <c r="AL33" s="271"/>
-      <c r="AM33" s="272"/>
-      <c r="AN33" s="273"/>
-      <c r="AO33" s="274"/>
-      <c r="AP33" s="274"/>
-      <c r="AQ33" s="274"/>
-      <c r="AR33" s="275"/>
-      <c r="AS33" s="273"/>
-      <c r="AT33" s="274"/>
-      <c r="AU33" s="274"/>
-      <c r="AV33" s="274"/>
-      <c r="AW33" s="275"/>
+      <c r="B33" s="248"/>
+      <c r="C33" s="249"/>
+      <c r="D33" s="250"/>
+      <c r="E33" s="251"/>
+      <c r="F33" s="251"/>
+      <c r="G33" s="251"/>
+      <c r="H33" s="251"/>
+      <c r="I33" s="251"/>
+      <c r="J33" s="252"/>
+      <c r="K33" s="253"/>
+      <c r="L33" s="254"/>
+      <c r="M33" s="262"/>
+      <c r="N33" s="263"/>
+      <c r="O33" s="263"/>
+      <c r="P33" s="263"/>
+      <c r="Q33" s="263"/>
+      <c r="R33" s="264"/>
+      <c r="S33" s="258"/>
+      <c r="T33" s="258"/>
+      <c r="U33" s="258"/>
+      <c r="V33" s="259"/>
+      <c r="W33" s="260"/>
+      <c r="X33" s="260"/>
+      <c r="Y33" s="260"/>
+      <c r="Z33" s="260"/>
+      <c r="AA33" s="260"/>
+      <c r="AB33" s="260"/>
+      <c r="AC33" s="260"/>
+      <c r="AD33" s="260"/>
+      <c r="AE33" s="260"/>
+      <c r="AF33" s="260"/>
+      <c r="AG33" s="260"/>
+      <c r="AH33" s="260"/>
+      <c r="AI33" s="260"/>
+      <c r="AJ33" s="260"/>
+      <c r="AK33" s="260"/>
+      <c r="AL33" s="260"/>
+      <c r="AM33" s="261"/>
+      <c r="AN33" s="245"/>
+      <c r="AO33" s="246"/>
+      <c r="AP33" s="246"/>
+      <c r="AQ33" s="246"/>
+      <c r="AR33" s="247"/>
+      <c r="AS33" s="245"/>
+      <c r="AT33" s="246"/>
+      <c r="AU33" s="246"/>
+      <c r="AV33" s="246"/>
+      <c r="AW33" s="247"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="264"/>
-      <c r="C34" s="265"/>
-      <c r="D34" s="266"/>
-      <c r="E34" s="256"/>
-      <c r="F34" s="256"/>
-      <c r="G34" s="256"/>
-      <c r="H34" s="256"/>
-      <c r="I34" s="256"/>
-      <c r="J34" s="257"/>
-      <c r="K34" s="258"/>
-      <c r="L34" s="259"/>
-      <c r="M34" s="282"/>
-      <c r="N34" s="283"/>
-      <c r="O34" s="283"/>
-      <c r="P34" s="283"/>
-      <c r="Q34" s="283"/>
-      <c r="R34" s="284"/>
-      <c r="S34" s="254"/>
-      <c r="T34" s="254"/>
-      <c r="U34" s="254"/>
-      <c r="V34" s="270"/>
-      <c r="W34" s="271"/>
-      <c r="X34" s="271"/>
-      <c r="Y34" s="271"/>
-      <c r="Z34" s="271"/>
-      <c r="AA34" s="271"/>
-      <c r="AB34" s="271"/>
-      <c r="AC34" s="271"/>
-      <c r="AD34" s="271"/>
-      <c r="AE34" s="271"/>
-      <c r="AF34" s="271"/>
-      <c r="AG34" s="271"/>
-      <c r="AH34" s="271"/>
-      <c r="AI34" s="271"/>
-      <c r="AJ34" s="271"/>
-      <c r="AK34" s="271"/>
-      <c r="AL34" s="271"/>
-      <c r="AM34" s="272"/>
-      <c r="AN34" s="273"/>
-      <c r="AO34" s="274"/>
-      <c r="AP34" s="274"/>
-      <c r="AQ34" s="274"/>
-      <c r="AR34" s="275"/>
-      <c r="AS34" s="273"/>
-      <c r="AT34" s="274"/>
-      <c r="AU34" s="274"/>
-      <c r="AV34" s="274"/>
-      <c r="AW34" s="275"/>
+      <c r="B34" s="248"/>
+      <c r="C34" s="249"/>
+      <c r="D34" s="250"/>
+      <c r="E34" s="251"/>
+      <c r="F34" s="251"/>
+      <c r="G34" s="251"/>
+      <c r="H34" s="251"/>
+      <c r="I34" s="251"/>
+      <c r="J34" s="252"/>
+      <c r="K34" s="253"/>
+      <c r="L34" s="254"/>
+      <c r="M34" s="255"/>
+      <c r="N34" s="256"/>
+      <c r="O34" s="256"/>
+      <c r="P34" s="256"/>
+      <c r="Q34" s="256"/>
+      <c r="R34" s="257"/>
+      <c r="S34" s="258"/>
+      <c r="T34" s="258"/>
+      <c r="U34" s="258"/>
+      <c r="V34" s="259"/>
+      <c r="W34" s="260"/>
+      <c r="X34" s="260"/>
+      <c r="Y34" s="260"/>
+      <c r="Z34" s="260"/>
+      <c r="AA34" s="260"/>
+      <c r="AB34" s="260"/>
+      <c r="AC34" s="260"/>
+      <c r="AD34" s="260"/>
+      <c r="AE34" s="260"/>
+      <c r="AF34" s="260"/>
+      <c r="AG34" s="260"/>
+      <c r="AH34" s="260"/>
+      <c r="AI34" s="260"/>
+      <c r="AJ34" s="260"/>
+      <c r="AK34" s="260"/>
+      <c r="AL34" s="260"/>
+      <c r="AM34" s="261"/>
+      <c r="AN34" s="245"/>
+      <c r="AO34" s="246"/>
+      <c r="AP34" s="246"/>
+      <c r="AQ34" s="246"/>
+      <c r="AR34" s="247"/>
+      <c r="AS34" s="245"/>
+      <c r="AT34" s="246"/>
+      <c r="AU34" s="246"/>
+      <c r="AV34" s="246"/>
+      <c r="AW34" s="247"/>
     </row>
   </sheetData>
   <mergeCells count="249">
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN5:AR5"/>
+    <mergeCell ref="AS5:AW5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:AM6"/>
+    <mergeCell ref="AN6:AR6"/>
+    <mergeCell ref="AS6:AW6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:AM5"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
     <mergeCell ref="AN33:AR33"/>
     <mergeCell ref="AS33:AW33"/>
     <mergeCell ref="B34:D34"/>
@@ -10249,239 +10525,6 @@
     <mergeCell ref="M33:R33"/>
     <mergeCell ref="S33:U33"/>
     <mergeCell ref="V33:AM33"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN5:AR5"/>
-    <mergeCell ref="AS5:AW5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:AM6"/>
-    <mergeCell ref="AN6:AR6"/>
-    <mergeCell ref="AS6:AW6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10613,14 +10656,14 @@
       <c r="P2" s="38"/>
       <c r="Q2" s="39"/>
       <c r="R2" s="90" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="S2" s="91"/>
       <c r="T2" s="91"/>
       <c r="U2" s="91"/>
       <c r="V2" s="92"/>
       <c r="W2" s="37" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="X2" s="40"/>
       <c r="Y2" s="40"/>
@@ -10742,7 +10785,7 @@
     </row>
     <row r="8" spans="1:59" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B8" s="94" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C8" s="70"/>
       <c r="D8" s="70"/>
@@ -12510,7 +12553,7 @@
       <c r="I51" s="214"/>
       <c r="J51" s="215"/>
       <c r="K51" s="213" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="L51" s="214"/>
       <c r="M51" s="214"/>
@@ -12542,7 +12585,7 @@
       <c r="AK51" s="234"/>
       <c r="AL51" s="235"/>
       <c r="AM51" s="216" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="AN51" s="190"/>
       <c r="AO51" s="190"/>
@@ -12588,7 +12631,7 @@
       <c r="I52" s="214"/>
       <c r="J52" s="215"/>
       <c r="K52" s="213" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="L52" s="214"/>
       <c r="M52" s="214"/>
@@ -12657,7 +12700,7 @@
       </c>
       <c r="C53" s="288"/>
       <c r="D53" s="213" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E53" s="214"/>
       <c r="F53" s="214"/>
@@ -12666,7 +12709,7 @@
       <c r="I53" s="214"/>
       <c r="J53" s="215"/>
       <c r="K53" s="213" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="L53" s="214"/>
       <c r="M53" s="214"/>
@@ -12698,7 +12741,7 @@
       <c r="AK53" s="217"/>
       <c r="AL53" s="218"/>
       <c r="AM53" s="216" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="AN53" s="190"/>
       <c r="AO53" s="190"/>
@@ -13114,7 +13157,7 @@
   <sheetPr codeName="Sheet7">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R49"/>
+  <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
@@ -13237,22 +13280,22 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="247" t="s">
+      <c r="C6" s="278" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="247" t="s">
+      <c r="D6" s="278" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="247" t="s">
+      <c r="E6" s="278" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="247" t="s">
+      <c r="F6" s="278" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="247" t="s">
+      <c r="G6" s="278" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="247" t="s">
+      <c r="H6" s="278" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="306" t="s">
@@ -13261,13 +13304,13 @@
       <c r="J6" s="306" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="247" t="s">
+      <c r="K6" s="278" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="247" t="s">
+      <c r="L6" s="278" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="247" t="s">
+      <c r="M6" s="278" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="65" t="s">
@@ -13282,17 +13325,17 @@
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="247"/>
-      <c r="D7" s="247"/>
-      <c r="E7" s="247"/>
-      <c r="F7" s="247"/>
-      <c r="G7" s="247"/>
-      <c r="H7" s="247"/>
+      <c r="C7" s="278"/>
+      <c r="D7" s="278"/>
+      <c r="E7" s="278"/>
+      <c r="F7" s="278"/>
+      <c r="G7" s="278"/>
+      <c r="H7" s="278"/>
       <c r="I7" s="306"/>
       <c r="J7" s="306"/>
-      <c r="K7" s="247"/>
-      <c r="L7" s="247"/>
-      <c r="M7" s="247"/>
+      <c r="K7" s="278"/>
+      <c r="L7" s="278"/>
+      <c r="M7" s="278"/>
       <c r="N7" s="43" t="s">
         <v>77</v>
       </c>
@@ -13359,10 +13402,10 @@
         <v>58</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>43</v>
@@ -13393,7 +13436,7 @@
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="28.5" x14ac:dyDescent="0.15">
@@ -13404,10 +13447,10 @@
         <v>59</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G10" s="16" t="s">
         <v>43</v>
@@ -13438,7 +13481,7 @@
       </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="28.5" x14ac:dyDescent="0.15">
@@ -13446,10 +13489,10 @@
         <v>4</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>121</v>
@@ -13493,7 +13536,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>45</v>
@@ -13546,22 +13589,22 @@
     <row r="15" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
-      <c r="C15" s="247" t="s">
+      <c r="C15" s="278" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="247" t="s">
+      <c r="D15" s="278" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="247" t="s">
+      <c r="E15" s="278" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="247" t="s">
+      <c r="F15" s="278" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="247" t="s">
+      <c r="G15" s="278" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="247" t="s">
+      <c r="H15" s="278" t="s">
         <v>29</v>
       </c>
       <c r="I15" s="307" t="s">
@@ -13570,13 +13613,13 @@
       <c r="J15" s="306" t="s">
         <v>48</v>
       </c>
-      <c r="K15" s="247" t="s">
+      <c r="K15" s="278" t="s">
         <v>31</v>
       </c>
-      <c r="L15" s="247" t="s">
+      <c r="L15" s="278" t="s">
         <v>30</v>
       </c>
-      <c r="M15" s="247" t="s">
+      <c r="M15" s="278" t="s">
         <v>33</v>
       </c>
       <c r="N15" s="65" t="s">
@@ -13591,17 +13634,17 @@
     <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
-      <c r="C16" s="247"/>
-      <c r="D16" s="247"/>
-      <c r="E16" s="247"/>
-      <c r="F16" s="247"/>
-      <c r="G16" s="247"/>
-      <c r="H16" s="247"/>
+      <c r="C16" s="278"/>
+      <c r="D16" s="278"/>
+      <c r="E16" s="278"/>
+      <c r="F16" s="278"/>
+      <c r="G16" s="278"/>
+      <c r="H16" s="278"/>
       <c r="I16" s="308"/>
       <c r="J16" s="306"/>
-      <c r="K16" s="247"/>
-      <c r="L16" s="247"/>
-      <c r="M16" s="247"/>
+      <c r="K16" s="278"/>
+      <c r="L16" s="278"/>
+      <c r="M16" s="278"/>
       <c r="N16" s="43" t="s">
         <v>77</v>
       </c>
@@ -13629,7 +13672,7 @@
         <v>158</v>
       </c>
       <c r="G17" s="44" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>50</v>
@@ -13644,13 +13687,13 @@
         <v>78</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M17" s="7" t="s">
         <v>34</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>34</v>
@@ -13659,7 +13702,7 @@
         <v>34</v>
       </c>
       <c r="Q17" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
@@ -13672,10 +13715,10 @@
         <v>115</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G18" s="16" t="s">
         <v>109</v>
@@ -13708,7 +13751,7 @@
         <v>135</v>
       </c>
       <c r="Q18" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
@@ -13757,7 +13800,7 @@
         <v>134</v>
       </c>
       <c r="Q19" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
@@ -13803,10 +13846,10 @@
         <v>34</v>
       </c>
       <c r="P20" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="Q20" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
@@ -13852,10 +13895,10 @@
         <v>34</v>
       </c>
       <c r="P21" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="Q21" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
@@ -13868,10 +13911,10 @@
         <v>131</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G22" s="44" t="s">
         <v>195</v>
@@ -13889,7 +13932,7 @@
         <v>78</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="M22" s="7" t="s">
         <v>34</v>
@@ -13902,7 +13945,7 @@
         <v>34</v>
       </c>
       <c r="Q22" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="57" x14ac:dyDescent="0.15">
@@ -13915,10 +13958,10 @@
         <v>194</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G23" s="44" t="s">
         <v>195</v>
@@ -13936,13 +13979,13 @@
         <v>78</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M23" s="7" t="s">
         <v>34</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>34</v>
@@ -13964,22 +14007,22 @@
     </row>
     <row r="26" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="95"/>
-      <c r="C26" s="247" t="s">
+      <c r="C26" s="278" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="247" t="s">
+      <c r="D26" s="278" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="247" t="s">
+      <c r="E26" s="278" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="247" t="s">
+      <c r="F26" s="278" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="247" t="s">
+      <c r="G26" s="278" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="247" t="s">
+      <c r="H26" s="278" t="s">
         <v>29</v>
       </c>
       <c r="I26" s="306" t="s">
@@ -13988,13 +14031,13 @@
       <c r="J26" s="306" t="s">
         <v>48</v>
       </c>
-      <c r="K26" s="247" t="s">
+      <c r="K26" s="278" t="s">
         <v>31</v>
       </c>
-      <c r="L26" s="247" t="s">
+      <c r="L26" s="278" t="s">
         <v>30</v>
       </c>
-      <c r="M26" s="247" t="s">
+      <c r="M26" s="278" t="s">
         <v>33</v>
       </c>
       <c r="N26" s="65" t="s">
@@ -14008,17 +14051,17 @@
     </row>
     <row r="27" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B27" s="95"/>
-      <c r="C27" s="247"/>
-      <c r="D27" s="247"/>
-      <c r="E27" s="247"/>
-      <c r="F27" s="247"/>
-      <c r="G27" s="247"/>
-      <c r="H27" s="247"/>
+      <c r="C27" s="278"/>
+      <c r="D27" s="278"/>
+      <c r="E27" s="278"/>
+      <c r="F27" s="278"/>
+      <c r="G27" s="278"/>
+      <c r="H27" s="278"/>
       <c r="I27" s="306"/>
       <c r="J27" s="306"/>
-      <c r="K27" s="247"/>
-      <c r="L27" s="247"/>
-      <c r="M27" s="247"/>
+      <c r="K27" s="278"/>
+      <c r="L27" s="278"/>
+      <c r="M27" s="278"/>
       <c r="N27" s="93" t="s">
         <v>77</v>
       </c>
@@ -14086,13 +14129,13 @@
         <v>62</v>
       </c>
       <c r="E29" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G29" s="44" t="s">
         <v>264</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G29" s="44" t="s">
-        <v>266</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>35</v>
@@ -14105,7 +14148,7 @@
       </c>
       <c r="K29" s="7"/>
       <c r="L29" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="M29" s="7" t="s">
         <v>34</v>
@@ -14130,7 +14173,7 @@
         <v>63</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>132</v>
@@ -14161,235 +14204,239 @@
         <v>35</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q30" s="8"/>
     </row>
-    <row r="31" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B31" s="95"/>
-      <c r="C31" s="7">
+    <row r="31" spans="1:17" s="322" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B31" s="323"/>
+      <c r="C31" s="324">
         <v>4</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="G31" s="44" t="s">
+      <c r="D31" s="324" t="s">
+        <v>326</v>
+      </c>
+      <c r="E31" s="325" t="s">
+        <v>429</v>
+      </c>
+      <c r="F31" s="324" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" s="324" t="s">
         <v>51</v>
       </c>
-      <c r="H31" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I31" s="7" t="s">
+      <c r="H31" s="324" t="s">
         <v>35</v>
       </c>
-      <c r="J31" s="7" t="s">
+      <c r="I31" s="324" t="s">
         <v>35</v>
       </c>
-      <c r="K31" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="L31" s="7" t="s">
+      <c r="J31" s="324" t="s">
         <v>35</v>
       </c>
-      <c r="M31" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N31" s="7" t="s">
+      <c r="K31" s="324" t="s">
         <v>35</v>
       </c>
-      <c r="O31" s="7" t="s">
+      <c r="L31" s="324" t="s">
         <v>35</v>
       </c>
-      <c r="P31" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q31" s="8"/>
-    </row>
-    <row r="32" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B32" s="95"/>
-      <c r="C32" s="7">
+      <c r="M31" s="324" t="s">
+        <v>35</v>
+      </c>
+      <c r="N31" s="324" t="s">
+        <v>35</v>
+      </c>
+      <c r="O31" s="324" t="s">
+        <v>35</v>
+      </c>
+      <c r="P31" s="326" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q31" s="326"/>
+    </row>
+    <row r="32" spans="1:17" s="322" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B32" s="323"/>
+      <c r="C32" s="324">
         <v>5</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="324" t="s">
         <v>136</v>
       </c>
-      <c r="E32" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G32" s="44" t="s">
+      <c r="E32" s="325" t="s">
+        <v>431</v>
+      </c>
+      <c r="F32" s="324" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" s="324" t="s">
         <v>51</v>
       </c>
-      <c r="H32" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I32" s="7" t="s">
+      <c r="H32" s="324" t="s">
         <v>35</v>
       </c>
-      <c r="J32" s="7" t="s">
+      <c r="I32" s="324" t="s">
         <v>35</v>
       </c>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7" t="s">
+      <c r="J32" s="324" t="s">
         <v>35</v>
       </c>
-      <c r="M32" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N32" s="7" t="s">
+      <c r="K32" s="324" t="s">
         <v>35</v>
       </c>
-      <c r="O32" s="7" t="s">
+      <c r="L32" s="324" t="s">
         <v>35</v>
       </c>
-      <c r="P32" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q32" s="8"/>
-    </row>
-    <row r="33" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B33" s="95"/>
-      <c r="C33" s="7">
+      <c r="M32" s="324" t="s">
+        <v>35</v>
+      </c>
+      <c r="N32" s="324" t="s">
+        <v>35</v>
+      </c>
+      <c r="O32" s="324" t="s">
+        <v>35</v>
+      </c>
+      <c r="P32" s="326" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q32" s="326"/>
+    </row>
+    <row r="33" spans="1:17" s="322" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B33" s="323"/>
+      <c r="C33" s="324">
         <v>6</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="324" t="s">
         <v>198</v>
       </c>
-      <c r="E33" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="G33" s="44" t="s">
+      <c r="E33" s="325" t="s">
+        <v>433</v>
+      </c>
+      <c r="F33" s="324" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" s="324" t="s">
         <v>51</v>
       </c>
-      <c r="H33" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I33" s="7" t="s">
+      <c r="H33" s="324" t="s">
         <v>35</v>
       </c>
-      <c r="J33" s="7" t="s">
+      <c r="I33" s="324" t="s">
         <v>35</v>
       </c>
-      <c r="K33" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="L33" s="7" t="s">
+      <c r="J33" s="324" t="s">
         <v>35</v>
       </c>
-      <c r="M33" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N33" s="7" t="s">
+      <c r="K33" s="324" t="s">
         <v>35</v>
       </c>
-      <c r="O33" s="7" t="s">
+      <c r="L33" s="324" t="s">
         <v>35</v>
       </c>
-      <c r="P33" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q33" s="8"/>
-    </row>
-    <row r="34" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B34" s="95"/>
-      <c r="C34" s="7">
+      <c r="M33" s="324" t="s">
+        <v>35</v>
+      </c>
+      <c r="N33" s="324" t="s">
+        <v>35</v>
+      </c>
+      <c r="O33" s="324" t="s">
+        <v>35</v>
+      </c>
+      <c r="P33" s="326" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q33" s="326"/>
+    </row>
+    <row r="34" spans="1:17" s="322" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B34" s="323"/>
+      <c r="C34" s="324">
         <v>7</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="324" t="s">
         <v>199</v>
       </c>
-      <c r="E34" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="G34" s="44" t="s">
+      <c r="E34" s="325" t="s">
+        <v>435</v>
+      </c>
+      <c r="F34" s="324" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" s="324" t="s">
         <v>51</v>
       </c>
-      <c r="H34" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I34" s="7" t="s">
+      <c r="H34" s="324" t="s">
         <v>35</v>
       </c>
-      <c r="J34" s="7" t="s">
+      <c r="I34" s="324" t="s">
         <v>35</v>
       </c>
-      <c r="K34" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="L34" s="7" t="s">
+      <c r="J34" s="324" t="s">
         <v>35</v>
       </c>
-      <c r="M34" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N34" s="7" t="s">
+      <c r="K34" s="324" t="s">
         <v>35</v>
       </c>
-      <c r="O34" s="7" t="s">
+      <c r="L34" s="324" t="s">
         <v>35</v>
       </c>
-      <c r="P34" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q34" s="8"/>
-    </row>
-    <row r="35" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B35" s="95"/>
-      <c r="C35" s="7">
+      <c r="M34" s="324" t="s">
+        <v>35</v>
+      </c>
+      <c r="N34" s="324" t="s">
+        <v>35</v>
+      </c>
+      <c r="O34" s="324" t="s">
+        <v>35</v>
+      </c>
+      <c r="P34" s="326" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q34" s="326"/>
+    </row>
+    <row r="35" spans="1:17" s="322" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B35" s="323"/>
+      <c r="C35" s="324">
         <v>8</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="324" t="s">
         <v>200</v>
       </c>
-      <c r="E35" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="G35" s="44" t="s">
+      <c r="E35" s="325" t="s">
+        <v>437</v>
+      </c>
+      <c r="F35" s="324" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" s="324" t="s">
         <v>51</v>
       </c>
-      <c r="H35" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I35" s="7" t="s">
+      <c r="H35" s="324" t="s">
         <v>35</v>
       </c>
-      <c r="J35" s="7" t="s">
+      <c r="I35" s="324" t="s">
         <v>35</v>
       </c>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7" t="s">
+      <c r="J35" s="324" t="s">
         <v>35</v>
       </c>
-      <c r="M35" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N35" s="7" t="s">
+      <c r="K35" s="324" t="s">
         <v>35</v>
       </c>
-      <c r="O35" s="7" t="s">
+      <c r="L35" s="324" t="s">
         <v>35</v>
       </c>
-      <c r="P35" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q35" s="8"/>
+      <c r="M35" s="324" t="s">
+        <v>35</v>
+      </c>
+      <c r="N35" s="324" t="s">
+        <v>35</v>
+      </c>
+      <c r="O35" s="324" t="s">
+        <v>35</v>
+      </c>
+      <c r="P35" s="326" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q35" s="326"/>
     </row>
     <row r="36" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B36" s="95"/>
@@ -14397,13 +14444,13 @@
         <v>9</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>272</v>
+        <v>196</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="G36" s="44" t="s">
         <v>51</v>
@@ -14417,9 +14464,7 @@
       <c r="J36" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K36" s="219" t="s">
-        <v>334</v>
-      </c>
+      <c r="K36" s="7"/>
       <c r="L36" s="7" t="s">
         <v>35</v>
       </c>
@@ -14432,8 +14477,8 @@
       <c r="O36" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="P36" s="7" t="s">
-        <v>287</v>
+      <c r="P36" s="318" t="s">
+        <v>428</v>
       </c>
       <c r="Q36" s="8"/>
     </row>
@@ -14443,13 +14488,13 @@
         <v>10</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>273</v>
+        <v>324</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>280</v>
+        <v>325</v>
       </c>
       <c r="G37" s="44" t="s">
         <v>51</v>
@@ -14463,9 +14508,7 @@
       <c r="J37" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K37" s="219" t="s">
-        <v>334</v>
-      </c>
+      <c r="K37" s="7"/>
       <c r="L37" s="7" t="s">
         <v>35</v>
       </c>
@@ -14479,7 +14522,7 @@
         <v>35</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>288</v>
+        <v>427</v>
       </c>
       <c r="Q37" s="8"/>
     </row>
@@ -14489,13 +14532,13 @@
         <v>11</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>281</v>
+        <v>222</v>
       </c>
       <c r="G38" s="44" t="s">
         <v>51</v>
@@ -14510,7 +14553,7 @@
         <v>35</v>
       </c>
       <c r="K38" s="219" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>35</v>
@@ -14522,10 +14565,10 @@
         <v>35</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q38" s="8"/>
     </row>
@@ -14535,13 +14578,13 @@
         <v>12</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G39" s="44" t="s">
         <v>51</v>
@@ -14556,7 +14599,7 @@
         <v>35</v>
       </c>
       <c r="K39" s="219" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L39" s="7" t="s">
         <v>35</v>
@@ -14568,10 +14611,10 @@
         <v>35</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="Q39" s="8"/>
     </row>
@@ -14581,13 +14624,13 @@
         <v>13</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G40" s="44" t="s">
         <v>51</v>
@@ -14602,7 +14645,7 @@
         <v>35</v>
       </c>
       <c r="K40" s="219" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L40" s="7" t="s">
         <v>35</v>
@@ -14611,17 +14654,15 @@
         <v>34</v>
       </c>
       <c r="N40" s="7" t="s">
-        <v>335</v>
+        <v>35</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="P40" s="220" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q40" s="8" t="s">
-        <v>337</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q40" s="8"/>
     </row>
     <row r="41" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B41" s="95"/>
@@ -14629,13 +14670,13 @@
         <v>14</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G41" s="44" t="s">
         <v>51</v>
@@ -14650,7 +14691,7 @@
         <v>35</v>
       </c>
       <c r="K41" s="219" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L41" s="7" t="s">
         <v>35</v>
@@ -14659,17 +14700,15 @@
         <v>34</v>
       </c>
       <c r="N41" s="7" t="s">
-        <v>335</v>
+        <v>35</v>
       </c>
       <c r="O41" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="P41" s="220" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q41" s="8" t="s">
-        <v>338</v>
-      </c>
+      <c r="P41" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q41" s="8"/>
     </row>
     <row r="42" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B42" s="95"/>
@@ -14677,13 +14716,13 @@
         <v>15</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G42" s="44" t="s">
         <v>51</v>
@@ -14698,7 +14737,7 @@
         <v>35</v>
       </c>
       <c r="K42" s="219" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L42" s="7" t="s">
         <v>35</v>
@@ -14707,16 +14746,16 @@
         <v>34</v>
       </c>
       <c r="N42" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P42" s="220" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="Q42" s="8" t="s">
-        <v>406</v>
+        <v>334</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -14725,13 +14764,13 @@
         <v>16</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G43" s="44" t="s">
         <v>51</v>
@@ -14746,7 +14785,7 @@
         <v>35</v>
       </c>
       <c r="K43" s="219" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L43" s="7" t="s">
         <v>35</v>
@@ -14755,75 +14794,179 @@
         <v>34</v>
       </c>
       <c r="N43" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P43" s="220" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q43" s="8" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B44" s="95"/>
+      <c r="C44" s="7">
+        <v>17</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G44" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I44" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="O43" s="7" t="s">
+      <c r="J44" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="P43" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q43" s="8"/>
-    </row>
-    <row r="44" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A44" s="15"/>
-      <c r="B44" s="58"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="86"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="88"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="15"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="15"/>
-      <c r="N44" s="87"/>
-      <c r="O44" s="87"/>
-      <c r="P44" s="89"/>
-      <c r="Q44" s="87"/>
+      <c r="K44" s="219" t="s">
+        <v>331</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M44" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N44" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="O44" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P44" s="220" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q44" s="8" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="45" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B45" s="95"/>
+      <c r="C45" s="7">
+        <v>18</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G45" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K45" s="219" t="s">
+        <v>331</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M45" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N45" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q45" s="8"/>
     </row>
     <row r="46" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="15"/>
       <c r="B46" s="58"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="86"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="88"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="87"/>
+      <c r="O46" s="87"/>
+      <c r="P46" s="89"/>
+      <c r="Q46" s="87"/>
     </row>
     <row r="47" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A47" s="15"/>
-      <c r="B47" s="58"/>
-      <c r="C47" s="71"/>
-      <c r="D47" s="71"/>
-      <c r="E47" s="71"/>
-      <c r="F47" s="71"/>
+      <c r="B47" s="95"/>
     </row>
     <row r="48" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="15"/>
       <c r="B48" s="58"/>
     </row>
-    <row r="49" spans="2:17" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B49" s="59"/>
+    <row r="49" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A49" s="15"/>
+      <c r="B49" s="58"/>
       <c r="C49" s="71"/>
       <c r="D49" s="71"/>
       <c r="E49" s="71"/>
       <c r="F49" s="71"/>
-      <c r="M49" s="47"/>
-      <c r="Q49" s="47"/>
+    </row>
+    <row r="50" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A50" s="15"/>
+      <c r="B50" s="58"/>
+    </row>
+    <row r="51" spans="1:17" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B51" s="59"/>
+      <c r="C51" s="71"/>
+      <c r="D51" s="71"/>
+      <c r="E51" s="71"/>
+      <c r="F51" s="71"/>
+      <c r="M51" s="47"/>
+      <c r="Q51" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="I15:I16"/>
     <mergeCell ref="J15:J16"/>
     <mergeCell ref="C15:C16"/>
@@ -14832,24 +14975,16 @@
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="H15:H16"/>
     <mergeCell ref="D15:D16"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -14865,7 +15000,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AZ244"/>
+  <dimension ref="A1:AZ245"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -15471,7 +15606,7 @@
       <c r="L13" s="98"/>
       <c r="M13" s="69"/>
       <c r="N13" s="69" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="O13" s="69"/>
       <c r="P13" s="69"/>
@@ -15522,7 +15657,7 @@
       <c r="L14" s="98"/>
       <c r="M14" s="69"/>
       <c r="N14" s="228" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="O14" s="69"/>
       <c r="P14" s="69"/>
@@ -15573,7 +15708,7 @@
       <c r="L15" s="98"/>
       <c r="M15" s="69"/>
       <c r="N15" s="69" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="O15" s="69"/>
       <c r="P15" s="69"/>
@@ -15624,7 +15759,7 @@
       <c r="L16" s="98"/>
       <c r="M16" s="69"/>
       <c r="N16" s="69" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="O16" s="69"/>
       <c r="P16" s="69"/>
@@ -15675,7 +15810,7 @@
       <c r="L17" s="98"/>
       <c r="M17" s="69"/>
       <c r="N17" s="69" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O17" s="69"/>
       <c r="P17" s="69"/>
@@ -15726,7 +15861,7 @@
       <c r="L18" s="98"/>
       <c r="M18" s="69"/>
       <c r="N18" s="69" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="O18" s="69"/>
       <c r="P18" s="69"/>
@@ -15777,7 +15912,7 @@
       <c r="L19" s="98"/>
       <c r="M19" s="69"/>
       <c r="N19" s="69" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O19" s="69"/>
       <c r="P19" s="69"/>
@@ -15828,7 +15963,7 @@
       <c r="L20" s="98"/>
       <c r="M20" s="69"/>
       <c r="N20" s="69" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="O20" s="69"/>
       <c r="P20" s="69"/>
@@ -15879,7 +16014,7 @@
       <c r="L21" s="98"/>
       <c r="M21" s="69"/>
       <c r="N21" s="69" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="O21" s="69"/>
       <c r="P21" s="69"/>
@@ -15930,7 +16065,7 @@
       <c r="L22" s="98"/>
       <c r="M22" s="69"/>
       <c r="N22" s="69" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="O22" s="69"/>
       <c r="P22" s="69"/>
@@ -15981,7 +16116,7 @@
       <c r="L23" s="98"/>
       <c r="M23" s="69"/>
       <c r="N23" s="69" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="O23" s="69"/>
       <c r="P23" s="69"/>
@@ -16083,7 +16218,7 @@
       <c r="L25" s="98"/>
       <c r="M25" s="69"/>
       <c r="N25" s="69" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="O25" s="69"/>
       <c r="P25" s="69"/>
@@ -16134,7 +16269,7 @@
       <c r="L26" s="98"/>
       <c r="M26" s="69"/>
       <c r="N26" s="69" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="O26" s="69"/>
       <c r="P26" s="69"/>
@@ -16178,13 +16313,13 @@
       <c r="G27" s="226"/>
       <c r="K27" s="227"/>
       <c r="O27" s="225" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="AA27" s="225" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="AB27" s="225" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="AV27" s="227"/>
     </row>
@@ -16195,13 +16330,13 @@
       <c r="G28" s="226"/>
       <c r="K28" s="227"/>
       <c r="O28" s="225" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="AA28" s="225" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="AB28" s="225" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="AV28" s="227"/>
     </row>
@@ -16212,13 +16347,13 @@
       <c r="G29" s="226"/>
       <c r="K29" s="227"/>
       <c r="O29" s="225" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="AA29" s="225" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="AB29" s="225" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="AV29" s="227"/>
     </row>
@@ -16229,13 +16364,13 @@
       <c r="G30" s="226"/>
       <c r="K30" s="227"/>
       <c r="O30" s="225" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="AA30" s="225" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="AB30" s="225" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="AV30" s="227"/>
     </row>
@@ -16246,13 +16381,13 @@
       <c r="G31" s="226"/>
       <c r="K31" s="227"/>
       <c r="O31" s="225" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="AA31" s="225" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="AB31" s="225" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="AV31" s="227"/>
     </row>
@@ -16263,7 +16398,7 @@
       <c r="G32" s="226"/>
       <c r="K32" s="227"/>
       <c r="N32" s="225" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="AV32" s="227"/>
     </row>
@@ -16274,13 +16409,13 @@
       <c r="G33" s="226"/>
       <c r="K33" s="227"/>
       <c r="O33" s="225" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="AA33" s="225" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="AB33" s="225" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="AV33" s="227"/>
     </row>
@@ -16291,13 +16426,13 @@
       <c r="G34" s="226"/>
       <c r="K34" s="227"/>
       <c r="O34" s="225" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="AA34" s="225" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="AB34" s="225" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="AV34" s="227"/>
     </row>
@@ -16308,13 +16443,13 @@
       <c r="G35" s="226"/>
       <c r="K35" s="227"/>
       <c r="O35" s="225" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="AA35" s="225" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="AB35" s="225" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="AV35" s="227"/>
     </row>
@@ -16325,13 +16460,13 @@
       <c r="G36" s="226"/>
       <c r="K36" s="227"/>
       <c r="O36" s="225" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="AA36" s="225" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="AB36" s="225" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="AV36" s="227"/>
     </row>
@@ -16342,13 +16477,13 @@
       <c r="G37" s="226"/>
       <c r="K37" s="227"/>
       <c r="O37" s="225" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="AA37" s="225" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="AB37" s="225" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="AV37" s="227"/>
     </row>
@@ -16366,7 +16501,7 @@
       <c r="L38" s="98"/>
       <c r="M38" s="69"/>
       <c r="N38" s="69" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="O38" s="69"/>
       <c r="P38" s="69"/>
@@ -16418,7 +16553,7 @@
       <c r="M39" s="69"/>
       <c r="N39" s="69"/>
       <c r="O39" s="98" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="P39" s="98"/>
       <c r="Q39" s="98"/>
@@ -16435,7 +16570,7 @@
         <v>38</v>
       </c>
       <c r="AB39" s="98" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="AC39" s="98"/>
       <c r="AD39" s="98"/>
@@ -16473,7 +16608,7 @@
       <c r="M40" s="239"/>
       <c r="N40" s="239"/>
       <c r="O40" s="237" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="P40" s="237"/>
       <c r="Q40" s="237"/>
@@ -16490,7 +16625,7 @@
         <v>38</v>
       </c>
       <c r="AB40" s="237" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="AC40" s="237"/>
       <c r="AD40" s="237"/>
@@ -16528,7 +16663,7 @@
       <c r="M41" s="69"/>
       <c r="N41" s="69"/>
       <c r="O41" s="98" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="P41" s="98"/>
       <c r="Q41" s="98"/>
@@ -16545,7 +16680,7 @@
         <v>38</v>
       </c>
       <c r="AB41" s="98" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="AC41" s="98"/>
       <c r="AD41" s="98"/>
@@ -16583,7 +16718,7 @@
       <c r="M42" s="69"/>
       <c r="N42" s="69"/>
       <c r="O42" s="98" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="P42" s="98"/>
       <c r="Q42" s="98"/>
@@ -16600,7 +16735,7 @@
         <v>38</v>
       </c>
       <c r="AB42" s="98" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="AC42" s="98"/>
       <c r="AD42" s="98"/>
@@ -16630,13 +16765,13 @@
       <c r="G43" s="226"/>
       <c r="K43" s="227"/>
       <c r="O43" s="225" t="s">
+        <v>383</v>
+      </c>
+      <c r="AA43" s="225" t="s">
+        <v>377</v>
+      </c>
+      <c r="AB43" s="225" t="s">
         <v>395</v>
-      </c>
-      <c r="AA43" s="225" t="s">
-        <v>389</v>
-      </c>
-      <c r="AB43" s="225" t="s">
-        <v>407</v>
       </c>
       <c r="AV43" s="227"/>
     </row>
@@ -16655,7 +16790,7 @@
       <c r="M44" s="69"/>
       <c r="N44" s="69"/>
       <c r="O44" s="229" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="P44" s="229"/>
       <c r="Q44" s="229"/>
@@ -16672,7 +16807,7 @@
         <v>38</v>
       </c>
       <c r="AB44" s="96" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="AC44" s="98"/>
       <c r="AD44" s="98"/>
@@ -16709,7 +16844,7 @@
       <c r="L45" s="98"/>
       <c r="M45" s="69"/>
       <c r="N45" s="69" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="O45" s="69"/>
       <c r="P45" s="69"/>
@@ -16761,7 +16896,7 @@
       <c r="M46" s="69"/>
       <c r="N46" s="69"/>
       <c r="O46" s="98" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="P46" s="98"/>
       <c r="Q46" s="98"/>
@@ -16778,7 +16913,7 @@
         <v>38</v>
       </c>
       <c r="AB46" s="98" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="AC46" s="98"/>
       <c r="AD46" s="98"/>
@@ -16816,7 +16951,7 @@
       <c r="M47" s="239"/>
       <c r="N47" s="239"/>
       <c r="O47" s="237" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="P47" s="237"/>
       <c r="Q47" s="237"/>
@@ -16833,7 +16968,7 @@
         <v>38</v>
       </c>
       <c r="AB47" s="237" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="AC47" s="237"/>
       <c r="AD47" s="237"/>
@@ -16871,7 +17006,7 @@
       <c r="M48" s="69"/>
       <c r="N48" s="69"/>
       <c r="O48" s="98" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="P48" s="98"/>
       <c r="Q48" s="98"/>
@@ -16888,7 +17023,7 @@
         <v>38</v>
       </c>
       <c r="AB48" s="98" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="AC48" s="98"/>
       <c r="AD48" s="98"/>
@@ -16926,7 +17061,7 @@
       <c r="M49" s="69"/>
       <c r="N49" s="69"/>
       <c r="O49" s="98" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="P49" s="98"/>
       <c r="Q49" s="98"/>
@@ -16943,7 +17078,7 @@
         <v>38</v>
       </c>
       <c r="AB49" s="98" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="AC49" s="98"/>
       <c r="AD49" s="98"/>
@@ -16973,13 +17108,13 @@
       <c r="G50" s="226"/>
       <c r="K50" s="227"/>
       <c r="O50" s="225" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="AA50" s="225" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="AB50" s="225" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="AV50" s="227"/>
     </row>
@@ -16998,7 +17133,7 @@
       <c r="M51" s="69"/>
       <c r="N51" s="69"/>
       <c r="O51" s="229" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="P51" s="229"/>
       <c r="Q51" s="229"/>
@@ -17015,7 +17150,7 @@
         <v>38</v>
       </c>
       <c r="AB51" s="96" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="AC51" s="98"/>
       <c r="AD51" s="98"/>
@@ -17052,7 +17187,7 @@
       <c r="L52" s="98"/>
       <c r="M52" s="69"/>
       <c r="N52" s="69" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="O52" s="69"/>
       <c r="P52" s="69"/>
@@ -17104,7 +17239,7 @@
       <c r="M53" s="69"/>
       <c r="N53" s="69"/>
       <c r="O53" s="98" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="P53" s="98"/>
       <c r="Q53" s="98"/>
@@ -17121,7 +17256,7 @@
         <v>38</v>
       </c>
       <c r="AB53" s="98" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="AC53" s="98"/>
       <c r="AD53" s="98"/>
@@ -17159,7 +17294,7 @@
       <c r="M54" s="239"/>
       <c r="N54" s="239"/>
       <c r="O54" s="237" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="P54" s="237"/>
       <c r="Q54" s="237"/>
@@ -17176,7 +17311,7 @@
         <v>38</v>
       </c>
       <c r="AB54" s="237" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="AC54" s="237"/>
       <c r="AD54" s="237"/>
@@ -17214,7 +17349,7 @@
       <c r="M55" s="69"/>
       <c r="N55" s="69"/>
       <c r="O55" s="98" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="P55" s="98"/>
       <c r="Q55" s="98"/>
@@ -17231,7 +17366,7 @@
         <v>38</v>
       </c>
       <c r="AB55" s="98" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="AC55" s="98"/>
       <c r="AD55" s="98"/>
@@ -17269,7 +17404,7 @@
       <c r="M56" s="69"/>
       <c r="N56" s="69"/>
       <c r="O56" s="98" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="P56" s="98"/>
       <c r="Q56" s="98"/>
@@ -17286,7 +17421,7 @@
         <v>38</v>
       </c>
       <c r="AB56" s="98" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="AC56" s="98"/>
       <c r="AD56" s="98"/>
@@ -17316,13 +17451,13 @@
       <c r="G57" s="226"/>
       <c r="K57" s="227"/>
       <c r="O57" s="225" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="AA57" s="225" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="AB57" s="225" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="AV57" s="227"/>
     </row>
@@ -17341,7 +17476,7 @@
       <c r="M58" s="69"/>
       <c r="N58" s="69"/>
       <c r="O58" s="229" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="P58" s="229"/>
       <c r="Q58" s="229"/>
@@ -17358,7 +17493,7 @@
         <v>38</v>
       </c>
       <c r="AB58" s="96" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="AC58" s="98"/>
       <c r="AD58" s="98"/>
@@ -17395,7 +17530,7 @@
       <c r="L59" s="98"/>
       <c r="M59" s="69"/>
       <c r="N59" s="69" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="O59" s="69"/>
       <c r="P59" s="69"/>
@@ -17447,7 +17582,7 @@
       <c r="M60" s="69"/>
       <c r="N60" s="69"/>
       <c r="O60" s="98" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="P60" s="98"/>
       <c r="Q60" s="98"/>
@@ -17464,7 +17599,7 @@
         <v>38</v>
       </c>
       <c r="AB60" s="98" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="AC60" s="98"/>
       <c r="AD60" s="98"/>
@@ -17502,7 +17637,7 @@
       <c r="M61" s="239"/>
       <c r="N61" s="239"/>
       <c r="O61" s="237" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="P61" s="237"/>
       <c r="Q61" s="237"/>
@@ -17519,7 +17654,7 @@
         <v>38</v>
       </c>
       <c r="AB61" s="237" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="AC61" s="237"/>
       <c r="AD61" s="237"/>
@@ -17557,7 +17692,7 @@
       <c r="M62" s="69"/>
       <c r="N62" s="69"/>
       <c r="O62" s="98" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="P62" s="98"/>
       <c r="Q62" s="98"/>
@@ -17574,7 +17709,7 @@
         <v>38</v>
       </c>
       <c r="AB62" s="98" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="AC62" s="98"/>
       <c r="AD62" s="98"/>
@@ -17612,7 +17747,7 @@
       <c r="M63" s="69"/>
       <c r="N63" s="69"/>
       <c r="O63" s="98" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="P63" s="98"/>
       <c r="Q63" s="98"/>
@@ -17629,7 +17764,7 @@
         <v>38</v>
       </c>
       <c r="AB63" s="98" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="AC63" s="98"/>
       <c r="AD63" s="98"/>
@@ -17659,13 +17794,13 @@
       <c r="G64" s="226"/>
       <c r="K64" s="227"/>
       <c r="O64" s="225" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="AA64" s="225" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="AB64" s="225" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="AV64" s="227"/>
     </row>
@@ -17684,7 +17819,7 @@
       <c r="M65" s="69"/>
       <c r="N65" s="69"/>
       <c r="O65" s="229" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="P65" s="229"/>
       <c r="Q65" s="229"/>
@@ -17701,7 +17836,7 @@
         <v>38</v>
       </c>
       <c r="AB65" s="96" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="AC65" s="98"/>
       <c r="AD65" s="98"/>
@@ -17775,62 +17910,22 @@
       <c r="AU66" s="98"/>
       <c r="AV66" s="99"/>
     </row>
-    <row r="67" spans="2:48" s="100" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B67" s="97"/>
-      <c r="C67" s="97"/>
-      <c r="D67" s="98"/>
-      <c r="E67" s="98"/>
-      <c r="F67" s="99"/>
-      <c r="G67" s="97"/>
-      <c r="H67" s="98"/>
-      <c r="I67" s="98"/>
-      <c r="J67" s="98"/>
-      <c r="K67" s="99"/>
-      <c r="L67" s="98"/>
-      <c r="M67" s="69"/>
-      <c r="N67" s="98" t="s">
-        <v>306</v>
-      </c>
-      <c r="O67" s="98"/>
-      <c r="P67" s="98"/>
-      <c r="Q67" s="98"/>
-      <c r="R67" s="98"/>
-      <c r="S67" s="98"/>
-      <c r="T67" s="98"/>
-      <c r="U67" s="98"/>
-      <c r="V67" s="98"/>
-      <c r="W67" s="98"/>
-      <c r="X67" s="98"/>
-      <c r="Y67" s="98"/>
-      <c r="Z67" s="98"/>
-      <c r="AA67" s="69" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB67" s="96" t="s">
-        <v>307</v>
-      </c>
-      <c r="AC67" s="98"/>
-      <c r="AD67" s="98"/>
-      <c r="AE67" s="98"/>
-      <c r="AF67" s="98"/>
-      <c r="AG67" s="69" t="s">
-        <v>137</v>
-      </c>
-      <c r="AH67" s="98"/>
-      <c r="AI67" s="98"/>
-      <c r="AJ67" s="98"/>
-      <c r="AK67" s="98"/>
-      <c r="AL67" s="98"/>
-      <c r="AM67" s="98"/>
-      <c r="AN67" s="98"/>
-      <c r="AO67" s="98"/>
-      <c r="AP67" s="98"/>
-      <c r="AQ67" s="98"/>
-      <c r="AR67" s="98"/>
-      <c r="AS67" s="98"/>
-      <c r="AT67" s="98"/>
-      <c r="AU67" s="98"/>
-      <c r="AV67" s="99"/>
+    <row r="67" spans="2:48" s="319" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B67" s="320"/>
+      <c r="C67" s="320"/>
+      <c r="F67" s="321"/>
+      <c r="G67" s="320"/>
+      <c r="K67" s="321"/>
+      <c r="N67" s="319" t="s">
+        <v>441</v>
+      </c>
+      <c r="AA67" s="319" t="s">
+        <v>377</v>
+      </c>
+      <c r="AB67" s="319" t="s">
+        <v>442</v>
+      </c>
+      <c r="AV67" s="321"/>
     </row>
     <row r="68" spans="2:48" s="100" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B68" s="97"/>
@@ -17846,7 +17941,7 @@
       <c r="L68" s="98"/>
       <c r="M68" s="69"/>
       <c r="N68" s="98" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="O68" s="98"/>
       <c r="P68" s="98"/>
@@ -17864,7 +17959,7 @@
         <v>38</v>
       </c>
       <c r="AB68" s="96" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AC68" s="98"/>
       <c r="AD68" s="98"/>
@@ -17903,7 +17998,7 @@
       <c r="L69" s="98"/>
       <c r="M69" s="69"/>
       <c r="N69" s="98" t="s">
-        <v>414</v>
+        <v>306</v>
       </c>
       <c r="O69" s="98"/>
       <c r="P69" s="98"/>
@@ -17921,14 +18016,14 @@
         <v>38</v>
       </c>
       <c r="AB69" s="96" t="s">
-        <v>415</v>
+        <v>307</v>
       </c>
       <c r="AC69" s="98"/>
       <c r="AD69" s="98"/>
       <c r="AE69" s="98"/>
       <c r="AF69" s="98"/>
       <c r="AG69" s="69" t="s">
-        <v>39</v>
+        <v>137</v>
       </c>
       <c r="AH69" s="98"/>
       <c r="AI69" s="98"/>
@@ -17960,7 +18055,7 @@
       <c r="L70" s="98"/>
       <c r="M70" s="69"/>
       <c r="N70" s="98" t="s">
-        <v>427</v>
+        <v>402</v>
       </c>
       <c r="O70" s="98"/>
       <c r="P70" s="98"/>
@@ -17978,7 +18073,7 @@
         <v>38</v>
       </c>
       <c r="AB70" s="96" t="s">
-        <v>138</v>
+        <v>403</v>
       </c>
       <c r="AC70" s="98"/>
       <c r="AD70" s="98"/>
@@ -18017,7 +18112,7 @@
       <c r="L71" s="98"/>
       <c r="M71" s="69"/>
       <c r="N71" s="98" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="O71" s="98"/>
       <c r="P71" s="98"/>
@@ -18035,7 +18130,7 @@
         <v>38</v>
       </c>
       <c r="AB71" s="96" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AC71" s="98"/>
       <c r="AD71" s="98"/>
@@ -18074,7 +18169,7 @@
       <c r="L72" s="98"/>
       <c r="M72" s="69"/>
       <c r="N72" s="98" t="s">
-        <v>310</v>
+        <v>416</v>
       </c>
       <c r="O72" s="98"/>
       <c r="P72" s="98"/>
@@ -18089,9 +18184,11 @@
       <c r="Y72" s="98"/>
       <c r="Z72" s="98"/>
       <c r="AA72" s="69" t="s">
-        <v>311</v>
-      </c>
-      <c r="AB72" s="96"/>
+        <v>38</v>
+      </c>
+      <c r="AB72" s="96" t="s">
+        <v>139</v>
+      </c>
       <c r="AC72" s="98"/>
       <c r="AD72" s="98"/>
       <c r="AE72" s="98"/>
@@ -18128,8 +18225,8 @@
       <c r="K73" s="99"/>
       <c r="L73" s="98"/>
       <c r="M73" s="69"/>
-      <c r="N73" s="17" t="s">
-        <v>317</v>
+      <c r="N73" s="98" t="s">
+        <v>308</v>
       </c>
       <c r="O73" s="98"/>
       <c r="P73" s="98"/>
@@ -18143,13 +18240,17 @@
       <c r="X73" s="98"/>
       <c r="Y73" s="98"/>
       <c r="Z73" s="98"/>
-      <c r="AA73" s="69"/>
+      <c r="AA73" s="69" t="s">
+        <v>309</v>
+      </c>
       <c r="AB73" s="96"/>
       <c r="AC73" s="98"/>
       <c r="AD73" s="98"/>
       <c r="AE73" s="98"/>
       <c r="AF73" s="98"/>
-      <c r="AG73" s="69"/>
+      <c r="AG73" s="69" t="s">
+        <v>39</v>
+      </c>
       <c r="AH73" s="98"/>
       <c r="AI73" s="98"/>
       <c r="AJ73" s="98"/>
@@ -18179,10 +18280,10 @@
       <c r="K74" s="99"/>
       <c r="L74" s="98"/>
       <c r="M74" s="69"/>
-      <c r="N74" s="69"/>
-      <c r="O74" s="98" t="s">
-        <v>325</v>
-      </c>
+      <c r="N74" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="O74" s="98"/>
       <c r="P74" s="98"/>
       <c r="Q74" s="98"/>
       <c r="R74" s="98"/>
@@ -18196,15 +18297,11 @@
       <c r="Z74" s="98"/>
       <c r="AA74" s="69"/>
       <c r="AB74" s="96"/>
-      <c r="AC74" s="69" t="s">
-        <v>379</v>
-      </c>
-      <c r="AD74" s="98" t="s">
-        <v>380</v>
-      </c>
+      <c r="AC74" s="98"/>
+      <c r="AD74" s="98"/>
       <c r="AE74" s="98"/>
       <c r="AF74" s="98"/>
-      <c r="AG74" s="98"/>
+      <c r="AG74" s="69"/>
       <c r="AH74" s="98"/>
       <c r="AI74" s="98"/>
       <c r="AJ74" s="98"/>
@@ -18234,9 +18331,9 @@
       <c r="K75" s="99"/>
       <c r="L75" s="98"/>
       <c r="M75" s="69"/>
-      <c r="N75" s="98"/>
+      <c r="N75" s="69"/>
       <c r="O75" s="98" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P75" s="98"/>
       <c r="Q75" s="98"/>
@@ -18252,10 +18349,10 @@
       <c r="AA75" s="69"/>
       <c r="AB75" s="96"/>
       <c r="AC75" s="69" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="AD75" s="98" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="AE75" s="98"/>
       <c r="AF75" s="98"/>
@@ -18291,7 +18388,7 @@
       <c r="M76" s="69"/>
       <c r="N76" s="98"/>
       <c r="O76" s="98" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="P76" s="98"/>
       <c r="Q76" s="98"/>
@@ -18307,10 +18404,10 @@
       <c r="AA76" s="69"/>
       <c r="AB76" s="96"/>
       <c r="AC76" s="69" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="AD76" s="98" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="AE76" s="98"/>
       <c r="AF76" s="98"/>
@@ -18346,7 +18443,7 @@
       <c r="M77" s="69"/>
       <c r="N77" s="98"/>
       <c r="O77" s="98" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="P77" s="98"/>
       <c r="Q77" s="98"/>
@@ -18362,10 +18459,10 @@
       <c r="AA77" s="69"/>
       <c r="AB77" s="96"/>
       <c r="AC77" s="69" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="AD77" s="98" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="AE77" s="98"/>
       <c r="AF77" s="98"/>
@@ -18401,7 +18498,7 @@
       <c r="M78" s="69"/>
       <c r="N78" s="98"/>
       <c r="O78" s="98" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="P78" s="98"/>
       <c r="Q78" s="98"/>
@@ -18417,10 +18514,10 @@
       <c r="AA78" s="69"/>
       <c r="AB78" s="96"/>
       <c r="AC78" s="69" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="AD78" s="98" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="AE78" s="98"/>
       <c r="AF78" s="98"/>
@@ -18456,7 +18553,7 @@
       <c r="M79" s="69"/>
       <c r="N79" s="98"/>
       <c r="O79" s="98" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="P79" s="98"/>
       <c r="Q79" s="98"/>
@@ -18472,10 +18569,10 @@
       <c r="AA79" s="69"/>
       <c r="AB79" s="96"/>
       <c r="AC79" s="69" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="AD79" s="98" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="AE79" s="98"/>
       <c r="AF79" s="98"/>
@@ -18511,7 +18608,7 @@
       <c r="M80" s="69"/>
       <c r="N80" s="98"/>
       <c r="O80" s="98" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="P80" s="98"/>
       <c r="Q80" s="98"/>
@@ -18527,10 +18624,10 @@
       <c r="AA80" s="69"/>
       <c r="AB80" s="96"/>
       <c r="AC80" s="69" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="AD80" s="98" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="AE80" s="98"/>
       <c r="AF80" s="98"/>
@@ -18566,7 +18663,7 @@
       <c r="M81" s="69"/>
       <c r="N81" s="98"/>
       <c r="O81" s="98" t="s">
-        <v>324</v>
+        <v>366</v>
       </c>
       <c r="P81" s="98"/>
       <c r="Q81" s="98"/>
@@ -18582,10 +18679,10 @@
       <c r="AA81" s="69"/>
       <c r="AB81" s="96"/>
       <c r="AC81" s="69" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="AD81" s="98" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="AE81" s="98"/>
       <c r="AF81" s="98"/>
@@ -18619,10 +18716,10 @@
       <c r="K82" s="99"/>
       <c r="L82" s="98"/>
       <c r="M82" s="69"/>
-      <c r="N82" s="98" t="s">
-        <v>319</v>
-      </c>
-      <c r="O82" s="98"/>
+      <c r="N82" s="98"/>
+      <c r="O82" s="98" t="s">
+        <v>321</v>
+      </c>
       <c r="P82" s="98"/>
       <c r="Q82" s="98"/>
       <c r="R82" s="98"/>
@@ -18636,11 +18733,15 @@
       <c r="Z82" s="98"/>
       <c r="AA82" s="69"/>
       <c r="AB82" s="96"/>
-      <c r="AC82" s="98"/>
-      <c r="AD82" s="98"/>
+      <c r="AC82" s="69" t="s">
+        <v>367</v>
+      </c>
+      <c r="AD82" s="98" t="s">
+        <v>369</v>
+      </c>
       <c r="AE82" s="98"/>
       <c r="AF82" s="98"/>
-      <c r="AG82" s="69"/>
+      <c r="AG82" s="98"/>
       <c r="AH82" s="98"/>
       <c r="AI82" s="98"/>
       <c r="AJ82" s="98"/>
@@ -18670,10 +18771,10 @@
       <c r="K83" s="99"/>
       <c r="L83" s="98"/>
       <c r="M83" s="69"/>
-      <c r="N83" s="98"/>
-      <c r="O83" s="98" t="s">
-        <v>320</v>
-      </c>
+      <c r="N83" s="98" t="s">
+        <v>316</v>
+      </c>
+      <c r="O83" s="98"/>
       <c r="P83" s="98"/>
       <c r="Q83" s="98"/>
       <c r="R83" s="98"/>
@@ -18708,70 +18809,70 @@
       <c r="AU83" s="98"/>
       <c r="AV83" s="99"/>
     </row>
-    <row r="84" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B84" s="67"/>
-      <c r="C84" s="67"/>
-      <c r="F84" s="68"/>
-      <c r="G84" s="67"/>
-      <c r="K84" s="68"/>
-      <c r="M84" s="223" t="s">
-        <v>356</v>
-      </c>
-      <c r="AA84" s="223"/>
-      <c r="AB84" s="224"/>
-      <c r="AG84" s="223"/>
-      <c r="AV84" s="68"/>
-    </row>
-    <row r="85" spans="2:48" s="230" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B85" s="231"/>
-      <c r="C85" s="231"/>
-      <c r="D85" s="229"/>
-      <c r="E85" s="229"/>
-      <c r="F85" s="232"/>
-      <c r="G85" s="231"/>
-      <c r="H85" s="229"/>
-      <c r="I85" s="229"/>
-      <c r="J85" s="229"/>
-      <c r="K85" s="232"/>
-      <c r="L85" s="229"/>
-      <c r="M85" s="228"/>
-      <c r="N85" s="228" t="s">
-        <v>404</v>
-      </c>
-      <c r="O85" s="228"/>
-      <c r="P85" s="228"/>
-      <c r="Q85" s="228"/>
-      <c r="R85" s="228"/>
-      <c r="S85" s="228"/>
-      <c r="T85" s="228"/>
-      <c r="U85" s="228"/>
-      <c r="V85" s="228"/>
-      <c r="W85" s="228"/>
-      <c r="X85" s="228"/>
-      <c r="Y85" s="228"/>
-      <c r="Z85" s="228"/>
-      <c r="AA85" s="228"/>
-      <c r="AB85" s="228"/>
-      <c r="AC85" s="228"/>
-      <c r="AD85" s="228"/>
-      <c r="AE85" s="228"/>
-      <c r="AF85" s="228"/>
-      <c r="AG85" s="228"/>
-      <c r="AH85" s="228"/>
-      <c r="AI85" s="229"/>
-      <c r="AJ85" s="229"/>
-      <c r="AK85" s="233"/>
-      <c r="AL85" s="233"/>
-      <c r="AM85" s="228"/>
-      <c r="AN85" s="233"/>
-      <c r="AO85" s="233"/>
-      <c r="AP85" s="233"/>
-      <c r="AQ85" s="229"/>
-      <c r="AR85" s="229"/>
-      <c r="AS85" s="229"/>
-      <c r="AT85" s="229"/>
-      <c r="AU85" s="229"/>
-      <c r="AV85" s="232"/>
+    <row r="84" spans="2:48" s="100" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B84" s="97"/>
+      <c r="C84" s="97"/>
+      <c r="D84" s="98"/>
+      <c r="E84" s="98"/>
+      <c r="F84" s="99"/>
+      <c r="G84" s="97"/>
+      <c r="H84" s="98"/>
+      <c r="I84" s="98"/>
+      <c r="J84" s="98"/>
+      <c r="K84" s="99"/>
+      <c r="L84" s="98"/>
+      <c r="M84" s="69"/>
+      <c r="N84" s="98"/>
+      <c r="O84" s="98" t="s">
+        <v>317</v>
+      </c>
+      <c r="P84" s="98"/>
+      <c r="Q84" s="98"/>
+      <c r="R84" s="98"/>
+      <c r="S84" s="98"/>
+      <c r="T84" s="98"/>
+      <c r="U84" s="98"/>
+      <c r="V84" s="98"/>
+      <c r="W84" s="98"/>
+      <c r="X84" s="98"/>
+      <c r="Y84" s="98"/>
+      <c r="Z84" s="98"/>
+      <c r="AA84" s="69"/>
+      <c r="AB84" s="96"/>
+      <c r="AC84" s="98"/>
+      <c r="AD84" s="98"/>
+      <c r="AE84" s="98"/>
+      <c r="AF84" s="98"/>
+      <c r="AG84" s="69"/>
+      <c r="AH84" s="98"/>
+      <c r="AI84" s="98"/>
+      <c r="AJ84" s="98"/>
+      <c r="AK84" s="98"/>
+      <c r="AL84" s="98"/>
+      <c r="AM84" s="98"/>
+      <c r="AN84" s="98"/>
+      <c r="AO84" s="98"/>
+      <c r="AP84" s="98"/>
+      <c r="AQ84" s="98"/>
+      <c r="AR84" s="98"/>
+      <c r="AS84" s="98"/>
+      <c r="AT84" s="98"/>
+      <c r="AU84" s="98"/>
+      <c r="AV84" s="99"/>
+    </row>
+    <row r="85" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B85" s="67"/>
+      <c r="C85" s="67"/>
+      <c r="F85" s="68"/>
+      <c r="G85" s="67"/>
+      <c r="K85" s="68"/>
+      <c r="M85" s="223" t="s">
+        <v>344</v>
+      </c>
+      <c r="AA85" s="223"/>
+      <c r="AB85" s="224"/>
+      <c r="AG85" s="223"/>
+      <c r="AV85" s="68"/>
     </row>
     <row r="86" spans="2:48" s="230" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B86" s="231"/>
@@ -18787,7 +18888,7 @@
       <c r="L86" s="229"/>
       <c r="M86" s="228"/>
       <c r="N86" s="228" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="O86" s="228"/>
       <c r="P86" s="228"/>
@@ -18838,7 +18939,7 @@
       <c r="L87" s="229"/>
       <c r="M87" s="228"/>
       <c r="N87" s="228" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="O87" s="228"/>
       <c r="P87" s="228"/>
@@ -18875,107 +18976,107 @@
       <c r="AU87" s="229"/>
       <c r="AV87" s="232"/>
     </row>
-    <row r="88" spans="2:48" s="100" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B88" s="97"/>
-      <c r="C88" s="97"/>
-      <c r="D88" s="98"/>
-      <c r="E88" s="98"/>
-      <c r="F88" s="99"/>
-      <c r="G88" s="97"/>
-      <c r="H88" s="98"/>
-      <c r="I88" s="98"/>
-      <c r="J88" s="98"/>
-      <c r="K88" s="99"/>
-      <c r="L88" s="98"/>
-      <c r="M88" s="223" t="s">
-        <v>357</v>
-      </c>
-      <c r="N88" s="98"/>
-      <c r="O88" s="98"/>
-      <c r="P88" s="98"/>
-      <c r="Q88" s="98"/>
-      <c r="R88" s="98"/>
-      <c r="S88" s="98"/>
-      <c r="T88" s="98"/>
-      <c r="U88" s="98"/>
-      <c r="V88" s="98"/>
-      <c r="W88" s="98"/>
-      <c r="X88" s="98"/>
-      <c r="Y88" s="98"/>
-      <c r="Z88" s="98"/>
-      <c r="AA88" s="98"/>
-      <c r="AB88" s="98"/>
-      <c r="AC88" s="98"/>
-      <c r="AD88" s="98"/>
-      <c r="AE88" s="98"/>
-      <c r="AF88" s="98"/>
-      <c r="AG88" s="98"/>
-      <c r="AH88" s="98"/>
-      <c r="AI88" s="98"/>
-      <c r="AJ88" s="98"/>
-      <c r="AK88" s="98"/>
-      <c r="AL88" s="98"/>
-      <c r="AM88" s="98"/>
-      <c r="AN88" s="98"/>
-      <c r="AO88" s="98"/>
-      <c r="AP88" s="98"/>
-      <c r="AQ88" s="98"/>
-      <c r="AR88" s="98"/>
-      <c r="AS88" s="98"/>
-      <c r="AT88" s="98"/>
-      <c r="AU88" s="98"/>
-      <c r="AV88" s="99"/>
-    </row>
-    <row r="89" spans="2:48" s="230" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B89" s="231"/>
-      <c r="C89" s="231"/>
-      <c r="D89" s="229"/>
-      <c r="E89" s="229"/>
-      <c r="F89" s="232"/>
-      <c r="G89" s="231"/>
-      <c r="H89" s="229"/>
-      <c r="I89" s="229"/>
-      <c r="J89" s="229"/>
-      <c r="K89" s="232"/>
-      <c r="L89" s="229"/>
-      <c r="M89" s="228"/>
-      <c r="N89" s="228" t="s">
-        <v>404</v>
-      </c>
-      <c r="O89" s="228"/>
-      <c r="P89" s="228"/>
-      <c r="Q89" s="228"/>
-      <c r="R89" s="228"/>
-      <c r="S89" s="228"/>
-      <c r="T89" s="228"/>
-      <c r="U89" s="228"/>
-      <c r="V89" s="228"/>
-      <c r="W89" s="228"/>
-      <c r="X89" s="228"/>
-      <c r="Y89" s="228"/>
-      <c r="Z89" s="228"/>
-      <c r="AA89" s="228"/>
-      <c r="AB89" s="228"/>
-      <c r="AC89" s="228"/>
-      <c r="AD89" s="228"/>
-      <c r="AE89" s="228"/>
-      <c r="AF89" s="228"/>
-      <c r="AG89" s="228"/>
-      <c r="AH89" s="228"/>
-      <c r="AI89" s="229"/>
-      <c r="AJ89" s="229"/>
-      <c r="AK89" s="233"/>
-      <c r="AL89" s="233"/>
-      <c r="AM89" s="228"/>
-      <c r="AN89" s="233"/>
-      <c r="AO89" s="233"/>
-      <c r="AP89" s="233"/>
-      <c r="AQ89" s="229"/>
-      <c r="AR89" s="229"/>
-      <c r="AS89" s="229"/>
-      <c r="AT89" s="229"/>
-      <c r="AU89" s="229"/>
-      <c r="AV89" s="232"/>
+    <row r="88" spans="2:48" s="230" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B88" s="231"/>
+      <c r="C88" s="231"/>
+      <c r="D88" s="229"/>
+      <c r="E88" s="229"/>
+      <c r="F88" s="232"/>
+      <c r="G88" s="231"/>
+      <c r="H88" s="229"/>
+      <c r="I88" s="229"/>
+      <c r="J88" s="229"/>
+      <c r="K88" s="232"/>
+      <c r="L88" s="229"/>
+      <c r="M88" s="228"/>
+      <c r="N88" s="228" t="s">
+        <v>393</v>
+      </c>
+      <c r="O88" s="228"/>
+      <c r="P88" s="228"/>
+      <c r="Q88" s="228"/>
+      <c r="R88" s="228"/>
+      <c r="S88" s="228"/>
+      <c r="T88" s="228"/>
+      <c r="U88" s="228"/>
+      <c r="V88" s="228"/>
+      <c r="W88" s="228"/>
+      <c r="X88" s="228"/>
+      <c r="Y88" s="228"/>
+      <c r="Z88" s="228"/>
+      <c r="AA88" s="228"/>
+      <c r="AB88" s="228"/>
+      <c r="AC88" s="228"/>
+      <c r="AD88" s="228"/>
+      <c r="AE88" s="228"/>
+      <c r="AF88" s="228"/>
+      <c r="AG88" s="228"/>
+      <c r="AH88" s="228"/>
+      <c r="AI88" s="229"/>
+      <c r="AJ88" s="229"/>
+      <c r="AK88" s="233"/>
+      <c r="AL88" s="233"/>
+      <c r="AM88" s="228"/>
+      <c r="AN88" s="233"/>
+      <c r="AO88" s="233"/>
+      <c r="AP88" s="233"/>
+      <c r="AQ88" s="229"/>
+      <c r="AR88" s="229"/>
+      <c r="AS88" s="229"/>
+      <c r="AT88" s="229"/>
+      <c r="AU88" s="229"/>
+      <c r="AV88" s="232"/>
+    </row>
+    <row r="89" spans="2:48" s="100" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B89" s="97"/>
+      <c r="C89" s="97"/>
+      <c r="D89" s="98"/>
+      <c r="E89" s="98"/>
+      <c r="F89" s="99"/>
+      <c r="G89" s="97"/>
+      <c r="H89" s="98"/>
+      <c r="I89" s="98"/>
+      <c r="J89" s="98"/>
+      <c r="K89" s="99"/>
+      <c r="L89" s="98"/>
+      <c r="M89" s="223" t="s">
+        <v>345</v>
+      </c>
+      <c r="N89" s="98"/>
+      <c r="O89" s="98"/>
+      <c r="P89" s="98"/>
+      <c r="Q89" s="98"/>
+      <c r="R89" s="98"/>
+      <c r="S89" s="98"/>
+      <c r="T89" s="98"/>
+      <c r="U89" s="98"/>
+      <c r="V89" s="98"/>
+      <c r="W89" s="98"/>
+      <c r="X89" s="98"/>
+      <c r="Y89" s="98"/>
+      <c r="Z89" s="98"/>
+      <c r="AA89" s="98"/>
+      <c r="AB89" s="98"/>
+      <c r="AC89" s="98"/>
+      <c r="AD89" s="98"/>
+      <c r="AE89" s="98"/>
+      <c r="AF89" s="98"/>
+      <c r="AG89" s="98"/>
+      <c r="AH89" s="98"/>
+      <c r="AI89" s="98"/>
+      <c r="AJ89" s="98"/>
+      <c r="AK89" s="98"/>
+      <c r="AL89" s="98"/>
+      <c r="AM89" s="98"/>
+      <c r="AN89" s="98"/>
+      <c r="AO89" s="98"/>
+      <c r="AP89" s="98"/>
+      <c r="AQ89" s="98"/>
+      <c r="AR89" s="98"/>
+      <c r="AS89" s="98"/>
+      <c r="AT89" s="98"/>
+      <c r="AU89" s="98"/>
+      <c r="AV89" s="99"/>
     </row>
     <row r="90" spans="2:48" s="230" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B90" s="231"/>
@@ -18991,7 +19092,7 @@
       <c r="L90" s="229"/>
       <c r="M90" s="228"/>
       <c r="N90" s="228" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="O90" s="228"/>
       <c r="P90" s="228"/>
@@ -19042,7 +19143,7 @@
       <c r="L91" s="229"/>
       <c r="M91" s="228"/>
       <c r="N91" s="228" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="O91" s="228"/>
       <c r="P91" s="228"/>
@@ -19079,719 +19180,716 @@
       <c r="AU91" s="229"/>
       <c r="AV91" s="232"/>
     </row>
-    <row r="92" spans="2:48" s="100" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B92" s="97"/>
-      <c r="C92" s="97"/>
-      <c r="D92" s="98"/>
-      <c r="E92" s="98"/>
-      <c r="F92" s="99"/>
-      <c r="G92" s="97"/>
-      <c r="H92" s="98"/>
-      <c r="I92" s="98"/>
-      <c r="J92" s="98"/>
-      <c r="K92" s="99"/>
-      <c r="L92" s="98"/>
-      <c r="M92" s="69"/>
-      <c r="N92" s="98"/>
-      <c r="O92" s="98"/>
-      <c r="P92" s="98"/>
-      <c r="Q92" s="98"/>
-      <c r="R92" s="98"/>
-      <c r="S92" s="98"/>
-      <c r="T92" s="98"/>
-      <c r="U92" s="98"/>
-      <c r="V92" s="98"/>
-      <c r="W92" s="98"/>
-      <c r="X92" s="98"/>
-      <c r="Y92" s="98"/>
-      <c r="Z92" s="98"/>
-      <c r="AA92" s="69"/>
-      <c r="AB92" s="96"/>
-      <c r="AC92" s="98"/>
-      <c r="AD92" s="98"/>
-      <c r="AE92" s="98"/>
-      <c r="AF92" s="98"/>
-      <c r="AG92" s="69"/>
-      <c r="AH92" s="98"/>
-      <c r="AI92" s="98"/>
-      <c r="AJ92" s="98"/>
-      <c r="AK92" s="98"/>
-      <c r="AL92" s="98"/>
-      <c r="AM92" s="98"/>
-      <c r="AN92" s="98"/>
-      <c r="AO92" s="98"/>
-      <c r="AP92" s="98"/>
-      <c r="AQ92" s="98"/>
-      <c r="AR92" s="98"/>
-      <c r="AS92" s="98"/>
-      <c r="AT92" s="98"/>
-      <c r="AU92" s="98"/>
-      <c r="AV92" s="99"/>
-    </row>
-    <row r="93" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B93" s="21">
+    <row r="92" spans="2:48" s="230" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B92" s="231"/>
+      <c r="C92" s="231"/>
+      <c r="D92" s="229"/>
+      <c r="E92" s="229"/>
+      <c r="F92" s="232"/>
+      <c r="G92" s="231"/>
+      <c r="H92" s="229"/>
+      <c r="I92" s="229"/>
+      <c r="J92" s="229"/>
+      <c r="K92" s="232"/>
+      <c r="L92" s="229"/>
+      <c r="M92" s="228"/>
+      <c r="N92" s="228" t="s">
+        <v>393</v>
+      </c>
+      <c r="O92" s="228"/>
+      <c r="P92" s="228"/>
+      <c r="Q92" s="228"/>
+      <c r="R92" s="228"/>
+      <c r="S92" s="228"/>
+      <c r="T92" s="228"/>
+      <c r="U92" s="228"/>
+      <c r="V92" s="228"/>
+      <c r="W92" s="228"/>
+      <c r="X92" s="228"/>
+      <c r="Y92" s="228"/>
+      <c r="Z92" s="228"/>
+      <c r="AA92" s="228"/>
+      <c r="AB92" s="228"/>
+      <c r="AC92" s="228"/>
+      <c r="AD92" s="228"/>
+      <c r="AE92" s="228"/>
+      <c r="AF92" s="228"/>
+      <c r="AG92" s="228"/>
+      <c r="AH92" s="228"/>
+      <c r="AI92" s="229"/>
+      <c r="AJ92" s="229"/>
+      <c r="AK92" s="233"/>
+      <c r="AL92" s="233"/>
+      <c r="AM92" s="228"/>
+      <c r="AN92" s="233"/>
+      <c r="AO92" s="233"/>
+      <c r="AP92" s="233"/>
+      <c r="AQ92" s="229"/>
+      <c r="AR92" s="229"/>
+      <c r="AS92" s="229"/>
+      <c r="AT92" s="229"/>
+      <c r="AU92" s="229"/>
+      <c r="AV92" s="232"/>
+    </row>
+    <row r="93" spans="2:48" s="100" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B93" s="97"/>
+      <c r="C93" s="97"/>
+      <c r="D93" s="98"/>
+      <c r="E93" s="98"/>
+      <c r="F93" s="99"/>
+      <c r="G93" s="97"/>
+      <c r="H93" s="98"/>
+      <c r="I93" s="98"/>
+      <c r="J93" s="98"/>
+      <c r="K93" s="99"/>
+      <c r="L93" s="98"/>
+      <c r="M93" s="69"/>
+      <c r="N93" s="98"/>
+      <c r="O93" s="98"/>
+      <c r="P93" s="98"/>
+      <c r="Q93" s="98"/>
+      <c r="R93" s="98"/>
+      <c r="S93" s="98"/>
+      <c r="T93" s="98"/>
+      <c r="U93" s="98"/>
+      <c r="V93" s="98"/>
+      <c r="W93" s="98"/>
+      <c r="X93" s="98"/>
+      <c r="Y93" s="98"/>
+      <c r="Z93" s="98"/>
+      <c r="AA93" s="69"/>
+      <c r="AB93" s="96"/>
+      <c r="AC93" s="98"/>
+      <c r="AD93" s="98"/>
+      <c r="AE93" s="98"/>
+      <c r="AF93" s="98"/>
+      <c r="AG93" s="69"/>
+      <c r="AH93" s="98"/>
+      <c r="AI93" s="98"/>
+      <c r="AJ93" s="98"/>
+      <c r="AK93" s="98"/>
+      <c r="AL93" s="98"/>
+      <c r="AM93" s="98"/>
+      <c r="AN93" s="98"/>
+      <c r="AO93" s="98"/>
+      <c r="AP93" s="98"/>
+      <c r="AQ93" s="98"/>
+      <c r="AR93" s="98"/>
+      <c r="AS93" s="98"/>
+      <c r="AT93" s="98"/>
+      <c r="AU93" s="98"/>
+      <c r="AV93" s="99"/>
+    </row>
+    <row r="94" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B94" s="21">
         <v>3</v>
       </c>
-      <c r="C93" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="D93" s="22"/>
-      <c r="E93" s="22"/>
-      <c r="F93" s="23"/>
-      <c r="G93" s="21" t="s">
+      <c r="C94" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="D94" s="22"/>
+      <c r="E94" s="22"/>
+      <c r="F94" s="23"/>
+      <c r="G94" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="H94" s="22"/>
+      <c r="I94" s="22"/>
+      <c r="J94" s="22"/>
+      <c r="K94" s="23"/>
+      <c r="L94" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="M94" s="22"/>
+      <c r="N94" s="22"/>
+      <c r="O94" s="22"/>
+      <c r="P94" s="22"/>
+      <c r="Q94" s="22"/>
+      <c r="R94" s="22"/>
+      <c r="S94" s="22"/>
+      <c r="T94" s="22"/>
+      <c r="U94" s="22"/>
+      <c r="V94" s="22"/>
+      <c r="W94" s="22"/>
+      <c r="X94" s="22"/>
+      <c r="Y94" s="22"/>
+      <c r="Z94" s="22"/>
+      <c r="AA94" s="22"/>
+      <c r="AB94" s="22"/>
+      <c r="AC94" s="22"/>
+      <c r="AD94" s="22"/>
+      <c r="AE94" s="22"/>
+      <c r="AF94" s="22"/>
+      <c r="AG94" s="22"/>
+      <c r="AH94" s="22"/>
+      <c r="AI94" s="22"/>
+      <c r="AJ94" s="22"/>
+      <c r="AK94" s="22"/>
+      <c r="AL94" s="22"/>
+      <c r="AM94" s="22"/>
+      <c r="AN94" s="22"/>
+      <c r="AO94" s="22"/>
+      <c r="AP94" s="22"/>
+      <c r="AQ94" s="22"/>
+      <c r="AR94" s="22"/>
+      <c r="AS94" s="22"/>
+      <c r="AT94" s="22"/>
+      <c r="AU94" s="22"/>
+      <c r="AV94" s="23"/>
+    </row>
+    <row r="95" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B95" s="67"/>
+      <c r="C95" s="67"/>
+      <c r="F95" s="68"/>
+      <c r="G95" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="K95" s="68"/>
+      <c r="L95" s="241" t="s">
+        <v>425</v>
+      </c>
+      <c r="AV95" s="68"/>
+    </row>
+    <row r="96" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B96" s="25"/>
+      <c r="C96" s="25"/>
+      <c r="D96" s="26"/>
+      <c r="E96" s="26"/>
+      <c r="F96" s="27"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="26"/>
+      <c r="I96" s="26"/>
+      <c r="J96" s="26"/>
+      <c r="K96" s="27"/>
+      <c r="L96" s="26"/>
+      <c r="M96" s="26"/>
+      <c r="N96" s="26"/>
+      <c r="O96" s="26"/>
+      <c r="P96" s="26"/>
+      <c r="Q96" s="26"/>
+      <c r="R96" s="26"/>
+      <c r="S96" s="26"/>
+      <c r="T96" s="26"/>
+      <c r="U96" s="26"/>
+      <c r="V96" s="26"/>
+      <c r="W96" s="26"/>
+      <c r="X96" s="26"/>
+      <c r="Y96" s="26"/>
+      <c r="Z96" s="26"/>
+      <c r="AA96" s="26"/>
+      <c r="AB96" s="26"/>
+      <c r="AC96" s="26"/>
+      <c r="AD96" s="26"/>
+      <c r="AE96" s="26"/>
+      <c r="AF96" s="26"/>
+      <c r="AG96" s="26"/>
+      <c r="AH96" s="26"/>
+      <c r="AI96" s="26"/>
+      <c r="AJ96" s="26"/>
+      <c r="AK96" s="26"/>
+      <c r="AL96" s="26"/>
+      <c r="AM96" s="26"/>
+      <c r="AN96" s="26"/>
+      <c r="AO96" s="26"/>
+      <c r="AP96" s="26"/>
+      <c r="AQ96" s="26"/>
+      <c r="AR96" s="26"/>
+      <c r="AS96" s="26"/>
+      <c r="AT96" s="26"/>
+      <c r="AU96" s="26"/>
+      <c r="AV96" s="27"/>
+    </row>
+    <row r="97" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B97" s="21">
+        <v>4</v>
+      </c>
+      <c r="C97" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D97" s="22"/>
+      <c r="E97" s="22"/>
+      <c r="F97" s="23"/>
+      <c r="G97" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="H93" s="22"/>
-      <c r="I93" s="22"/>
-      <c r="J93" s="22"/>
-      <c r="K93" s="23"/>
-      <c r="L93" s="22" t="s">
+      <c r="H97" s="22"/>
+      <c r="I97" s="22"/>
+      <c r="J97" s="22"/>
+      <c r="K97" s="23"/>
+      <c r="L97" s="22" t="s">
         <v>293</v>
       </c>
-      <c r="M93" s="22"/>
-      <c r="N93" s="22"/>
-      <c r="O93" s="22"/>
-      <c r="P93" s="22"/>
-      <c r="Q93" s="22"/>
-      <c r="R93" s="22"/>
-      <c r="S93" s="22"/>
-      <c r="T93" s="22"/>
-      <c r="U93" s="22"/>
-      <c r="V93" s="22"/>
-      <c r="W93" s="22"/>
-      <c r="X93" s="22"/>
-      <c r="Y93" s="22"/>
-      <c r="Z93" s="22"/>
-      <c r="AA93" s="22"/>
-      <c r="AB93" s="22"/>
-      <c r="AC93" s="22"/>
-      <c r="AD93" s="22"/>
-      <c r="AE93" s="22"/>
-      <c r="AF93" s="22"/>
-      <c r="AG93" s="22"/>
-      <c r="AH93" s="22"/>
-      <c r="AI93" s="22"/>
-      <c r="AJ93" s="22"/>
-      <c r="AK93" s="22"/>
-      <c r="AL93" s="22"/>
-      <c r="AM93" s="22"/>
-      <c r="AN93" s="22"/>
-      <c r="AO93" s="22"/>
-      <c r="AP93" s="22"/>
-      <c r="AQ93" s="22"/>
-      <c r="AR93" s="22"/>
-      <c r="AS93" s="22"/>
-      <c r="AT93" s="22"/>
-      <c r="AU93" s="22"/>
-      <c r="AV93" s="23"/>
-    </row>
-    <row r="94" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B94" s="67"/>
-      <c r="C94" s="67"/>
-      <c r="F94" s="68"/>
-      <c r="G94" s="67" t="s">
+      <c r="M97" s="22"/>
+      <c r="N97" s="22"/>
+      <c r="O97" s="22"/>
+      <c r="P97" s="22"/>
+      <c r="Q97" s="22"/>
+      <c r="R97" s="22"/>
+      <c r="S97" s="22"/>
+      <c r="T97" s="22"/>
+      <c r="U97" s="22"/>
+      <c r="V97" s="22"/>
+      <c r="W97" s="22"/>
+      <c r="X97" s="22"/>
+      <c r="Y97" s="22"/>
+      <c r="Z97" s="22"/>
+      <c r="AA97" s="22"/>
+      <c r="AB97" s="22"/>
+      <c r="AC97" s="22"/>
+      <c r="AD97" s="22"/>
+      <c r="AE97" s="22"/>
+      <c r="AF97" s="22"/>
+      <c r="AG97" s="22"/>
+      <c r="AH97" s="22"/>
+      <c r="AI97" s="22"/>
+      <c r="AJ97" s="22"/>
+      <c r="AK97" s="22"/>
+      <c r="AL97" s="22"/>
+      <c r="AM97" s="22"/>
+      <c r="AN97" s="22"/>
+      <c r="AO97" s="22"/>
+      <c r="AP97" s="22"/>
+      <c r="AQ97" s="22"/>
+      <c r="AR97" s="22"/>
+      <c r="AS97" s="22"/>
+      <c r="AT97" s="22"/>
+      <c r="AU97" s="22"/>
+      <c r="AV97" s="23"/>
+    </row>
+    <row r="98" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B98" s="67"/>
+      <c r="C98" s="67"/>
+      <c r="F98" s="68"/>
+      <c r="G98" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="K94" s="68"/>
-      <c r="L94" s="241" t="s">
-        <v>437</v>
-      </c>
-      <c r="AV94" s="68"/>
-    </row>
-    <row r="95" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B95" s="25"/>
-      <c r="C95" s="25"/>
-      <c r="D95" s="26"/>
-      <c r="E95" s="26"/>
-      <c r="F95" s="27"/>
-      <c r="G95" s="25"/>
-      <c r="H95" s="26"/>
-      <c r="I95" s="26"/>
-      <c r="J95" s="26"/>
-      <c r="K95" s="27"/>
-      <c r="L95" s="26"/>
-      <c r="M95" s="26"/>
-      <c r="N95" s="26"/>
-      <c r="O95" s="26"/>
-      <c r="P95" s="26"/>
-      <c r="Q95" s="26"/>
-      <c r="R95" s="26"/>
-      <c r="S95" s="26"/>
-      <c r="T95" s="26"/>
-      <c r="U95" s="26"/>
-      <c r="V95" s="26"/>
-      <c r="W95" s="26"/>
-      <c r="X95" s="26"/>
-      <c r="Y95" s="26"/>
-      <c r="Z95" s="26"/>
-      <c r="AA95" s="26"/>
-      <c r="AB95" s="26"/>
-      <c r="AC95" s="26"/>
-      <c r="AD95" s="26"/>
-      <c r="AE95" s="26"/>
-      <c r="AF95" s="26"/>
-      <c r="AG95" s="26"/>
-      <c r="AH95" s="26"/>
-      <c r="AI95" s="26"/>
-      <c r="AJ95" s="26"/>
-      <c r="AK95" s="26"/>
-      <c r="AL95" s="26"/>
-      <c r="AM95" s="26"/>
-      <c r="AN95" s="26"/>
-      <c r="AO95" s="26"/>
-      <c r="AP95" s="26"/>
-      <c r="AQ95" s="26"/>
-      <c r="AR95" s="26"/>
-      <c r="AS95" s="26"/>
-      <c r="AT95" s="26"/>
-      <c r="AU95" s="26"/>
-      <c r="AV95" s="27"/>
-    </row>
-    <row r="96" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B96" s="21">
-        <v>4</v>
-      </c>
-      <c r="C96" s="21" t="s">
-        <v>244</v>
-      </c>
-      <c r="D96" s="22"/>
-      <c r="E96" s="22"/>
-      <c r="F96" s="23"/>
-      <c r="G96" s="21" t="s">
-        <v>294</v>
-      </c>
-      <c r="H96" s="22"/>
-      <c r="I96" s="22"/>
-      <c r="J96" s="22"/>
-      <c r="K96" s="23"/>
-      <c r="L96" s="22" t="s">
-        <v>295</v>
-      </c>
-      <c r="M96" s="22"/>
-      <c r="N96" s="22"/>
-      <c r="O96" s="22"/>
-      <c r="P96" s="22"/>
-      <c r="Q96" s="22"/>
-      <c r="R96" s="22"/>
-      <c r="S96" s="22"/>
-      <c r="T96" s="22"/>
-      <c r="U96" s="22"/>
-      <c r="V96" s="22"/>
-      <c r="W96" s="22"/>
-      <c r="X96" s="22"/>
-      <c r="Y96" s="22"/>
-      <c r="Z96" s="22"/>
-      <c r="AA96" s="22"/>
-      <c r="AB96" s="22"/>
-      <c r="AC96" s="22"/>
-      <c r="AD96" s="22"/>
-      <c r="AE96" s="22"/>
-      <c r="AF96" s="22"/>
-      <c r="AG96" s="22"/>
-      <c r="AH96" s="22"/>
-      <c r="AI96" s="22"/>
-      <c r="AJ96" s="22"/>
-      <c r="AK96" s="22"/>
-      <c r="AL96" s="22"/>
-      <c r="AM96" s="22"/>
-      <c r="AN96" s="22"/>
-      <c r="AO96" s="22"/>
-      <c r="AP96" s="22"/>
-      <c r="AQ96" s="22"/>
-      <c r="AR96" s="22"/>
-      <c r="AS96" s="22"/>
-      <c r="AT96" s="22"/>
-      <c r="AU96" s="22"/>
-      <c r="AV96" s="23"/>
-    </row>
-    <row r="97" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B97" s="67"/>
-      <c r="C97" s="67"/>
-      <c r="F97" s="68"/>
-      <c r="G97" s="67" t="s">
-        <v>96</v>
-      </c>
-      <c r="K97" s="68"/>
-      <c r="L97" s="241" t="s">
-        <v>437</v>
-      </c>
-      <c r="AV97" s="68"/>
-    </row>
-    <row r="98" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B98" s="25"/>
-      <c r="C98" s="25"/>
-      <c r="D98" s="26"/>
-      <c r="E98" s="26"/>
-      <c r="F98" s="27"/>
-      <c r="G98" s="25"/>
-      <c r="H98" s="26"/>
-      <c r="I98" s="26"/>
-      <c r="J98" s="26"/>
-      <c r="K98" s="27"/>
+      <c r="K98" s="68"/>
+      <c r="L98" s="241" t="s">
+        <v>425</v>
+      </c>
       <c r="AV98" s="68"/>
     </row>
-    <row r="99" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B99" s="21">
+    <row r="99" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B99" s="25"/>
+      <c r="C99" s="25"/>
+      <c r="D99" s="26"/>
+      <c r="E99" s="26"/>
+      <c r="F99" s="27"/>
+      <c r="G99" s="25"/>
+      <c r="H99" s="26"/>
+      <c r="I99" s="26"/>
+      <c r="J99" s="26"/>
+      <c r="K99" s="27"/>
+      <c r="AV99" s="68"/>
+    </row>
+    <row r="100" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B100" s="21">
         <v>5</v>
       </c>
-      <c r="C99" s="21" t="s">
-        <v>358</v>
-      </c>
-      <c r="D99" s="22"/>
-      <c r="E99" s="22"/>
-      <c r="F99" s="23"/>
-      <c r="G99" s="21" t="s">
-        <v>358</v>
-      </c>
-      <c r="H99" s="22"/>
-      <c r="I99" s="22"/>
-      <c r="J99" s="22"/>
-      <c r="K99" s="23"/>
-      <c r="L99" s="22" t="s">
+      <c r="C100" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="D100" s="22"/>
+      <c r="E100" s="22"/>
+      <c r="F100" s="23"/>
+      <c r="G100" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="H100" s="22"/>
+      <c r="I100" s="22"/>
+      <c r="J100" s="22"/>
+      <c r="K100" s="23"/>
+      <c r="L100" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="M99" s="22"/>
-      <c r="N99" s="22"/>
-      <c r="O99" s="22"/>
-      <c r="P99" s="22"/>
-      <c r="Q99" s="22"/>
-      <c r="R99" s="22"/>
-      <c r="S99" s="22"/>
-      <c r="T99" s="22"/>
-      <c r="U99" s="22"/>
-      <c r="V99" s="22"/>
-      <c r="W99" s="22"/>
-      <c r="X99" s="22"/>
-      <c r="Y99" s="22"/>
-      <c r="Z99" s="22"/>
-      <c r="AA99" s="22"/>
-      <c r="AB99" s="22"/>
-      <c r="AC99" s="22"/>
-      <c r="AD99" s="22"/>
-      <c r="AE99" s="22"/>
-      <c r="AF99" s="22"/>
-      <c r="AG99" s="22"/>
-      <c r="AH99" s="22"/>
-      <c r="AI99" s="22"/>
-      <c r="AJ99" s="22"/>
-      <c r="AK99" s="22"/>
-      <c r="AL99" s="22"/>
-      <c r="AM99" s="22"/>
-      <c r="AN99" s="22"/>
-      <c r="AO99" s="22"/>
-      <c r="AP99" s="22"/>
-      <c r="AQ99" s="22"/>
-      <c r="AR99" s="22"/>
-      <c r="AS99" s="22"/>
-      <c r="AT99" s="22"/>
-      <c r="AU99" s="22"/>
-      <c r="AV99" s="23"/>
-    </row>
-    <row r="100" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B100" s="67"/>
-      <c r="C100" s="67"/>
-      <c r="F100" s="68"/>
-      <c r="G100" s="67" t="s">
-        <v>96</v>
-      </c>
-      <c r="K100" s="68"/>
-      <c r="L100" s="241" t="s">
-        <v>435</v>
-      </c>
-      <c r="AV100" s="68"/>
-    </row>
-    <row r="101" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="M100" s="22"/>
+      <c r="N100" s="22"/>
+      <c r="O100" s="22"/>
+      <c r="P100" s="22"/>
+      <c r="Q100" s="22"/>
+      <c r="R100" s="22"/>
+      <c r="S100" s="22"/>
+      <c r="T100" s="22"/>
+      <c r="U100" s="22"/>
+      <c r="V100" s="22"/>
+      <c r="W100" s="22"/>
+      <c r="X100" s="22"/>
+      <c r="Y100" s="22"/>
+      <c r="Z100" s="22"/>
+      <c r="AA100" s="22"/>
+      <c r="AB100" s="22"/>
+      <c r="AC100" s="22"/>
+      <c r="AD100" s="22"/>
+      <c r="AE100" s="22"/>
+      <c r="AF100" s="22"/>
+      <c r="AG100" s="22"/>
+      <c r="AH100" s="22"/>
+      <c r="AI100" s="22"/>
+      <c r="AJ100" s="22"/>
+      <c r="AK100" s="22"/>
+      <c r="AL100" s="22"/>
+      <c r="AM100" s="22"/>
+      <c r="AN100" s="22"/>
+      <c r="AO100" s="22"/>
+      <c r="AP100" s="22"/>
+      <c r="AQ100" s="22"/>
+      <c r="AR100" s="22"/>
+      <c r="AS100" s="22"/>
+      <c r="AT100" s="22"/>
+      <c r="AU100" s="22"/>
+      <c r="AV100" s="23"/>
+    </row>
+    <row r="101" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B101" s="67"/>
       <c r="C101" s="67"/>
       <c r="F101" s="68"/>
-      <c r="G101" s="67"/>
+      <c r="G101" s="67" t="s">
+        <v>96</v>
+      </c>
       <c r="K101" s="68"/>
       <c r="L101" s="241" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="AV101" s="68"/>
     </row>
-    <row r="102" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B102" s="25"/>
-      <c r="C102" s="25"/>
-      <c r="D102" s="26"/>
-      <c r="E102" s="26"/>
-      <c r="F102" s="27"/>
-      <c r="G102" s="25"/>
-      <c r="H102" s="26"/>
-      <c r="I102" s="26"/>
-      <c r="J102" s="26"/>
-      <c r="K102" s="27"/>
-      <c r="L102" s="26"/>
-      <c r="M102" s="26"/>
-      <c r="N102" s="26"/>
-      <c r="O102" s="26"/>
-      <c r="P102" s="26"/>
-      <c r="Q102" s="26"/>
-      <c r="R102" s="26"/>
-      <c r="S102" s="26"/>
-      <c r="T102" s="26"/>
-      <c r="U102" s="26"/>
-      <c r="V102" s="26"/>
-      <c r="W102" s="26"/>
-      <c r="X102" s="26"/>
-      <c r="Y102" s="26"/>
-      <c r="Z102" s="26"/>
-      <c r="AA102" s="26"/>
-      <c r="AB102" s="26"/>
-      <c r="AC102" s="26"/>
-      <c r="AD102" s="26"/>
-      <c r="AE102" s="26"/>
-      <c r="AF102" s="26"/>
-      <c r="AG102" s="26"/>
-      <c r="AH102" s="26"/>
-      <c r="AI102" s="26"/>
-      <c r="AJ102" s="26"/>
-      <c r="AK102" s="26"/>
-      <c r="AL102" s="26"/>
-      <c r="AM102" s="26"/>
-      <c r="AN102" s="26"/>
-      <c r="AO102" s="26"/>
-      <c r="AP102" s="26"/>
-      <c r="AQ102" s="26"/>
-      <c r="AR102" s="26"/>
-      <c r="AS102" s="26"/>
-      <c r="AT102" s="26"/>
-      <c r="AU102" s="26"/>
-      <c r="AV102" s="27"/>
-    </row>
-    <row r="103" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B103" s="21">
+    <row r="102" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B102" s="67"/>
+      <c r="C102" s="67"/>
+      <c r="F102" s="68"/>
+      <c r="G102" s="67"/>
+      <c r="K102" s="68"/>
+      <c r="L102" s="241" t="s">
+        <v>422</v>
+      </c>
+      <c r="AV102" s="68"/>
+    </row>
+    <row r="103" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B103" s="25"/>
+      <c r="C103" s="25"/>
+      <c r="D103" s="26"/>
+      <c r="E103" s="26"/>
+      <c r="F103" s="27"/>
+      <c r="G103" s="25"/>
+      <c r="H103" s="26"/>
+      <c r="I103" s="26"/>
+      <c r="J103" s="26"/>
+      <c r="K103" s="27"/>
+      <c r="L103" s="26"/>
+      <c r="M103" s="26"/>
+      <c r="N103" s="26"/>
+      <c r="O103" s="26"/>
+      <c r="P103" s="26"/>
+      <c r="Q103" s="26"/>
+      <c r="R103" s="26"/>
+      <c r="S103" s="26"/>
+      <c r="T103" s="26"/>
+      <c r="U103" s="26"/>
+      <c r="V103" s="26"/>
+      <c r="W103" s="26"/>
+      <c r="X103" s="26"/>
+      <c r="Y103" s="26"/>
+      <c r="Z103" s="26"/>
+      <c r="AA103" s="26"/>
+      <c r="AB103" s="26"/>
+      <c r="AC103" s="26"/>
+      <c r="AD103" s="26"/>
+      <c r="AE103" s="26"/>
+      <c r="AF103" s="26"/>
+      <c r="AG103" s="26"/>
+      <c r="AH103" s="26"/>
+      <c r="AI103" s="26"/>
+      <c r="AJ103" s="26"/>
+      <c r="AK103" s="26"/>
+      <c r="AL103" s="26"/>
+      <c r="AM103" s="26"/>
+      <c r="AN103" s="26"/>
+      <c r="AO103" s="26"/>
+      <c r="AP103" s="26"/>
+      <c r="AQ103" s="26"/>
+      <c r="AR103" s="26"/>
+      <c r="AS103" s="26"/>
+      <c r="AT103" s="26"/>
+      <c r="AU103" s="26"/>
+      <c r="AV103" s="27"/>
+    </row>
+    <row r="104" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B104" s="21">
         <v>6</v>
       </c>
-      <c r="C103" s="21" t="s">
+      <c r="C104" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D103" s="22"/>
-      <c r="E103" s="22"/>
-      <c r="F103" s="23"/>
-      <c r="G103" s="21" t="s">
+      <c r="D104" s="22"/>
+      <c r="E104" s="22"/>
+      <c r="F104" s="23"/>
+      <c r="G104" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="H103" s="22"/>
-      <c r="I103" s="22"/>
-      <c r="J103" s="22"/>
-      <c r="K103" s="23"/>
-      <c r="L103" s="24" t="s">
+      <c r="H104" s="22"/>
+      <c r="I104" s="22"/>
+      <c r="J104" s="22"/>
+      <c r="K104" s="23"/>
+      <c r="L104" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="M103" s="22"/>
-      <c r="N103" s="22"/>
-      <c r="O103" s="22"/>
-      <c r="P103" s="22"/>
-      <c r="Q103" s="22"/>
-      <c r="R103" s="22"/>
-      <c r="S103" s="22"/>
-      <c r="T103" s="22"/>
-      <c r="U103" s="22"/>
-      <c r="V103" s="22"/>
-      <c r="W103" s="22"/>
-      <c r="X103" s="22"/>
-      <c r="Y103" s="22"/>
-      <c r="Z103" s="22"/>
-      <c r="AA103" s="22"/>
-      <c r="AB103" s="22"/>
-      <c r="AC103" s="22"/>
-      <c r="AD103" s="22"/>
-      <c r="AE103" s="22"/>
-      <c r="AF103" s="22"/>
-      <c r="AG103" s="22"/>
-      <c r="AH103" s="22"/>
-      <c r="AI103" s="22"/>
-      <c r="AJ103" s="22"/>
-      <c r="AK103" s="22"/>
-      <c r="AL103" s="22"/>
-      <c r="AM103" s="22"/>
-      <c r="AN103" s="22"/>
-      <c r="AO103" s="22"/>
-      <c r="AP103" s="22"/>
-      <c r="AQ103" s="22"/>
-      <c r="AR103" s="22"/>
-      <c r="AS103" s="22"/>
-      <c r="AT103" s="22"/>
-      <c r="AU103" s="22"/>
-      <c r="AV103" s="23"/>
-    </row>
-    <row r="104" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B104" s="67"/>
-      <c r="C104" s="67"/>
-      <c r="D104" s="24"/>
-      <c r="E104" s="24"/>
-      <c r="F104" s="68"/>
-      <c r="G104" s="67" t="s">
+      <c r="M104" s="22"/>
+      <c r="N104" s="22"/>
+      <c r="O104" s="22"/>
+      <c r="P104" s="22"/>
+      <c r="Q104" s="22"/>
+      <c r="R104" s="22"/>
+      <c r="S104" s="22"/>
+      <c r="T104" s="22"/>
+      <c r="U104" s="22"/>
+      <c r="V104" s="22"/>
+      <c r="W104" s="22"/>
+      <c r="X104" s="22"/>
+      <c r="Y104" s="22"/>
+      <c r="Z104" s="22"/>
+      <c r="AA104" s="22"/>
+      <c r="AB104" s="22"/>
+      <c r="AC104" s="22"/>
+      <c r="AD104" s="22"/>
+      <c r="AE104" s="22"/>
+      <c r="AF104" s="22"/>
+      <c r="AG104" s="22"/>
+      <c r="AH104" s="22"/>
+      <c r="AI104" s="22"/>
+      <c r="AJ104" s="22"/>
+      <c r="AK104" s="22"/>
+      <c r="AL104" s="22"/>
+      <c r="AM104" s="22"/>
+      <c r="AN104" s="22"/>
+      <c r="AO104" s="22"/>
+      <c r="AP104" s="22"/>
+      <c r="AQ104" s="22"/>
+      <c r="AR104" s="22"/>
+      <c r="AS104" s="22"/>
+      <c r="AT104" s="22"/>
+      <c r="AU104" s="22"/>
+      <c r="AV104" s="23"/>
+    </row>
+    <row r="105" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B105" s="67"/>
+      <c r="C105" s="67"/>
+      <c r="D105" s="24"/>
+      <c r="E105" s="24"/>
+      <c r="F105" s="68"/>
+      <c r="G105" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="H104" s="24"/>
-      <c r="I104" s="24"/>
-      <c r="J104" s="24"/>
-      <c r="K104" s="68"/>
-      <c r="L104" s="24" t="s">
+      <c r="H105" s="24"/>
+      <c r="I105" s="24"/>
+      <c r="J105" s="24"/>
+      <c r="K105" s="68"/>
+      <c r="L105" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="M104" s="24"/>
-      <c r="N104" s="24"/>
-      <c r="O104" s="24"/>
-      <c r="P104" s="24"/>
-      <c r="Q104" s="24"/>
-      <c r="R104" s="24"/>
-      <c r="S104" s="24"/>
-      <c r="T104" s="24"/>
-      <c r="U104" s="24"/>
-      <c r="V104" s="24"/>
-      <c r="W104" s="24"/>
-      <c r="X104" s="24"/>
-      <c r="Y104" s="24"/>
-      <c r="Z104" s="24"/>
-      <c r="AA104" s="24"/>
-      <c r="AB104" s="24"/>
-      <c r="AC104" s="24"/>
-      <c r="AD104" s="24"/>
-      <c r="AE104" s="24"/>
-      <c r="AF104" s="24"/>
-      <c r="AG104" s="24"/>
-      <c r="AH104" s="24"/>
-      <c r="AI104" s="24"/>
-      <c r="AJ104" s="24"/>
-      <c r="AK104" s="24"/>
-      <c r="AL104" s="24"/>
-      <c r="AM104" s="24"/>
-      <c r="AN104" s="24"/>
-      <c r="AO104" s="24"/>
-      <c r="AP104" s="24"/>
-      <c r="AQ104" s="24"/>
-      <c r="AR104" s="24"/>
-      <c r="AS104" s="24"/>
-      <c r="AT104" s="24"/>
-      <c r="AU104" s="24"/>
-      <c r="AV104" s="68"/>
-    </row>
-    <row r="105" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B105" s="25"/>
-      <c r="C105" s="25"/>
-      <c r="D105" s="26"/>
-      <c r="E105" s="26"/>
-      <c r="F105" s="27"/>
-      <c r="G105" s="25"/>
-      <c r="H105" s="26"/>
-      <c r="I105" s="26"/>
-      <c r="J105" s="26"/>
-      <c r="K105" s="27"/>
-      <c r="L105" s="26"/>
-      <c r="M105" s="26"/>
-      <c r="N105" s="26"/>
-      <c r="O105" s="26"/>
-      <c r="P105" s="26"/>
-      <c r="Q105" s="26"/>
-      <c r="R105" s="26"/>
-      <c r="S105" s="26"/>
-      <c r="T105" s="26"/>
-      <c r="U105" s="26"/>
-      <c r="V105" s="26"/>
-      <c r="W105" s="26"/>
-      <c r="X105" s="26"/>
-      <c r="Y105" s="26"/>
-      <c r="Z105" s="26"/>
-      <c r="AA105" s="26"/>
-      <c r="AB105" s="26"/>
-      <c r="AC105" s="26"/>
-      <c r="AD105" s="26"/>
-      <c r="AE105" s="26"/>
-      <c r="AF105" s="26"/>
-      <c r="AG105" s="26"/>
-      <c r="AH105" s="26"/>
-      <c r="AI105" s="26"/>
-      <c r="AJ105" s="26"/>
-      <c r="AK105" s="26"/>
-      <c r="AL105" s="26"/>
-      <c r="AM105" s="26"/>
-      <c r="AN105" s="26"/>
-      <c r="AO105" s="26"/>
-      <c r="AP105" s="26"/>
-      <c r="AQ105" s="26"/>
-      <c r="AR105" s="26"/>
-      <c r="AS105" s="26"/>
-      <c r="AT105" s="26"/>
-      <c r="AU105" s="26"/>
-      <c r="AV105" s="27"/>
-    </row>
-    <row r="106" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B106" s="21">
+      <c r="M105" s="24"/>
+      <c r="N105" s="24"/>
+      <c r="O105" s="24"/>
+      <c r="P105" s="24"/>
+      <c r="Q105" s="24"/>
+      <c r="R105" s="24"/>
+      <c r="S105" s="24"/>
+      <c r="T105" s="24"/>
+      <c r="U105" s="24"/>
+      <c r="V105" s="24"/>
+      <c r="W105" s="24"/>
+      <c r="X105" s="24"/>
+      <c r="Y105" s="24"/>
+      <c r="Z105" s="24"/>
+      <c r="AA105" s="24"/>
+      <c r="AB105" s="24"/>
+      <c r="AC105" s="24"/>
+      <c r="AD105" s="24"/>
+      <c r="AE105" s="24"/>
+      <c r="AF105" s="24"/>
+      <c r="AG105" s="24"/>
+      <c r="AH105" s="24"/>
+      <c r="AI105" s="24"/>
+      <c r="AJ105" s="24"/>
+      <c r="AK105" s="24"/>
+      <c r="AL105" s="24"/>
+      <c r="AM105" s="24"/>
+      <c r="AN105" s="24"/>
+      <c r="AO105" s="24"/>
+      <c r="AP105" s="24"/>
+      <c r="AQ105" s="24"/>
+      <c r="AR105" s="24"/>
+      <c r="AS105" s="24"/>
+      <c r="AT105" s="24"/>
+      <c r="AU105" s="24"/>
+      <c r="AV105" s="68"/>
+    </row>
+    <row r="106" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B106" s="25"/>
+      <c r="C106" s="25"/>
+      <c r="D106" s="26"/>
+      <c r="E106" s="26"/>
+      <c r="F106" s="27"/>
+      <c r="G106" s="25"/>
+      <c r="H106" s="26"/>
+      <c r="I106" s="26"/>
+      <c r="J106" s="26"/>
+      <c r="K106" s="27"/>
+      <c r="L106" s="26"/>
+      <c r="M106" s="26"/>
+      <c r="N106" s="26"/>
+      <c r="O106" s="26"/>
+      <c r="P106" s="26"/>
+      <c r="Q106" s="26"/>
+      <c r="R106" s="26"/>
+      <c r="S106" s="26"/>
+      <c r="T106" s="26"/>
+      <c r="U106" s="26"/>
+      <c r="V106" s="26"/>
+      <c r="W106" s="26"/>
+      <c r="X106" s="26"/>
+      <c r="Y106" s="26"/>
+      <c r="Z106" s="26"/>
+      <c r="AA106" s="26"/>
+      <c r="AB106" s="26"/>
+      <c r="AC106" s="26"/>
+      <c r="AD106" s="26"/>
+      <c r="AE106" s="26"/>
+      <c r="AF106" s="26"/>
+      <c r="AG106" s="26"/>
+      <c r="AH106" s="26"/>
+      <c r="AI106" s="26"/>
+      <c r="AJ106" s="26"/>
+      <c r="AK106" s="26"/>
+      <c r="AL106" s="26"/>
+      <c r="AM106" s="26"/>
+      <c r="AN106" s="26"/>
+      <c r="AO106" s="26"/>
+      <c r="AP106" s="26"/>
+      <c r="AQ106" s="26"/>
+      <c r="AR106" s="26"/>
+      <c r="AS106" s="26"/>
+      <c r="AT106" s="26"/>
+      <c r="AU106" s="26"/>
+      <c r="AV106" s="27"/>
+    </row>
+    <row r="107" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B107" s="21">
         <v>7</v>
       </c>
-      <c r="C106" s="21" t="s">
-        <v>355</v>
-      </c>
-      <c r="D106" s="22"/>
-      <c r="E106" s="22"/>
-      <c r="F106" s="23"/>
-      <c r="G106" s="21" t="s">
-        <v>299</v>
-      </c>
-      <c r="H106" s="22"/>
-      <c r="I106" s="22"/>
-      <c r="J106" s="22"/>
-      <c r="K106" s="23"/>
-      <c r="L106" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="M106" s="22"/>
-      <c r="N106" s="22"/>
-      <c r="O106" s="22"/>
-      <c r="P106" s="22"/>
-      <c r="Q106" s="22"/>
-      <c r="R106" s="22"/>
-      <c r="S106" s="22"/>
-      <c r="T106" s="22"/>
-      <c r="U106" s="22"/>
-      <c r="V106" s="22"/>
-      <c r="W106" s="22"/>
-      <c r="X106" s="22"/>
-      <c r="Y106" s="22"/>
-      <c r="Z106" s="22"/>
-      <c r="AA106" s="22"/>
-      <c r="AB106" s="22"/>
-      <c r="AC106" s="22"/>
-      <c r="AD106" s="22"/>
-      <c r="AE106" s="22"/>
-      <c r="AF106" s="22"/>
-      <c r="AG106" s="22"/>
-      <c r="AH106" s="22"/>
-      <c r="AI106" s="22"/>
-      <c r="AJ106" s="22"/>
-      <c r="AK106" s="22"/>
-      <c r="AL106" s="22"/>
-      <c r="AM106" s="22"/>
-      <c r="AN106" s="22"/>
-      <c r="AO106" s="22"/>
-      <c r="AP106" s="22"/>
-      <c r="AQ106" s="22"/>
-      <c r="AR106" s="22"/>
-      <c r="AS106" s="22"/>
-      <c r="AT106" s="22"/>
-      <c r="AU106" s="22"/>
-      <c r="AV106" s="23"/>
-    </row>
-    <row r="107" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B107" s="67"/>
-      <c r="C107" s="67"/>
-      <c r="F107" s="68"/>
-      <c r="G107" s="67" t="s">
+      <c r="C107" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="D107" s="22"/>
+      <c r="E107" s="22"/>
+      <c r="F107" s="23"/>
+      <c r="G107" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="H107" s="22"/>
+      <c r="I107" s="22"/>
+      <c r="J107" s="22"/>
+      <c r="K107" s="23"/>
+      <c r="L107" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="M107" s="22"/>
+      <c r="N107" s="22"/>
+      <c r="O107" s="22"/>
+      <c r="P107" s="22"/>
+      <c r="Q107" s="22"/>
+      <c r="R107" s="22"/>
+      <c r="S107" s="22"/>
+      <c r="T107" s="22"/>
+      <c r="U107" s="22"/>
+      <c r="V107" s="22"/>
+      <c r="W107" s="22"/>
+      <c r="X107" s="22"/>
+      <c r="Y107" s="22"/>
+      <c r="Z107" s="22"/>
+      <c r="AA107" s="22"/>
+      <c r="AB107" s="22"/>
+      <c r="AC107" s="22"/>
+      <c r="AD107" s="22"/>
+      <c r="AE107" s="22"/>
+      <c r="AF107" s="22"/>
+      <c r="AG107" s="22"/>
+      <c r="AH107" s="22"/>
+      <c r="AI107" s="22"/>
+      <c r="AJ107" s="22"/>
+      <c r="AK107" s="22"/>
+      <c r="AL107" s="22"/>
+      <c r="AM107" s="22"/>
+      <c r="AN107" s="22"/>
+      <c r="AO107" s="22"/>
+      <c r="AP107" s="22"/>
+      <c r="AQ107" s="22"/>
+      <c r="AR107" s="22"/>
+      <c r="AS107" s="22"/>
+      <c r="AT107" s="22"/>
+      <c r="AU107" s="22"/>
+      <c r="AV107" s="23"/>
+    </row>
+    <row r="108" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B108" s="67"/>
+      <c r="C108" s="67"/>
+      <c r="F108" s="68"/>
+      <c r="G108" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="K107" s="68"/>
-      <c r="AV107" s="68"/>
-    </row>
-    <row r="108" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B108" s="25"/>
-      <c r="C108" s="25"/>
-      <c r="D108" s="26"/>
-      <c r="E108" s="26"/>
-      <c r="F108" s="27"/>
-      <c r="G108" s="25"/>
-      <c r="H108" s="26"/>
-      <c r="I108" s="26"/>
-      <c r="J108" s="26"/>
-      <c r="K108" s="27"/>
-      <c r="L108" s="26"/>
-      <c r="M108" s="26"/>
-      <c r="N108" s="26"/>
-      <c r="O108" s="26"/>
-      <c r="P108" s="26"/>
-      <c r="Q108" s="26"/>
-      <c r="R108" s="26"/>
-      <c r="S108" s="26"/>
-      <c r="T108" s="26"/>
-      <c r="U108" s="26"/>
-      <c r="V108" s="26"/>
-      <c r="W108" s="26"/>
-      <c r="X108" s="26"/>
-      <c r="Y108" s="26"/>
-      <c r="Z108" s="26"/>
-      <c r="AA108" s="26"/>
-      <c r="AB108" s="26"/>
-      <c r="AC108" s="26"/>
-      <c r="AD108" s="26"/>
-      <c r="AE108" s="26"/>
-      <c r="AF108" s="26"/>
-      <c r="AG108" s="26"/>
-      <c r="AH108" s="26"/>
-      <c r="AI108" s="26"/>
-      <c r="AJ108" s="26"/>
-      <c r="AK108" s="26"/>
-      <c r="AL108" s="26"/>
-      <c r="AM108" s="26"/>
-      <c r="AN108" s="26"/>
-      <c r="AO108" s="26"/>
-      <c r="AP108" s="26"/>
-      <c r="AQ108" s="26"/>
-      <c r="AR108" s="26"/>
-      <c r="AS108" s="26"/>
-      <c r="AT108" s="26"/>
-      <c r="AU108" s="26"/>
-      <c r="AV108" s="27"/>
-    </row>
-    <row r="109" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15"/>
-    <row r="110" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15"/>
-    <row r="111" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15"/>
-    <row r="112" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A112" s="51"/>
-      <c r="B112" s="51"/>
-      <c r="C112" s="51"/>
-      <c r="D112" s="51"/>
-      <c r="E112" s="51"/>
-      <c r="F112" s="51"/>
-      <c r="G112" s="51"/>
-      <c r="H112" s="51"/>
-      <c r="I112" s="51"/>
-      <c r="J112" s="51"/>
-      <c r="K112" s="51"/>
-      <c r="L112" s="51"/>
-      <c r="M112" s="51"/>
-      <c r="N112" s="51"/>
-      <c r="O112" s="51"/>
-      <c r="P112" s="51"/>
-      <c r="Q112" s="51"/>
-      <c r="R112" s="51"/>
-      <c r="S112" s="51"/>
-      <c r="T112" s="51"/>
-      <c r="U112" s="51"/>
-      <c r="V112" s="51"/>
-      <c r="W112" s="51"/>
-      <c r="X112" s="51"/>
-      <c r="Y112" s="51"/>
-      <c r="Z112" s="51"/>
-      <c r="AA112" s="51"/>
-      <c r="AB112" s="51"/>
-      <c r="AC112" s="51"/>
-      <c r="AD112" s="51"/>
-      <c r="AE112" s="51"/>
-      <c r="AF112" s="51"/>
-      <c r="AG112" s="51"/>
-      <c r="AH112" s="51"/>
-      <c r="AI112" s="51"/>
-      <c r="AJ112" s="51"/>
-      <c r="AK112" s="51"/>
-      <c r="AL112" s="51"/>
-      <c r="AM112" s="51"/>
-      <c r="AN112" s="51"/>
-      <c r="AO112" s="51"/>
-      <c r="AP112" s="51"/>
-      <c r="AQ112" s="51"/>
-      <c r="AR112" s="51"/>
-      <c r="AS112" s="51"/>
-      <c r="AT112" s="51"/>
-      <c r="AU112" s="51"/>
-      <c r="AV112" s="51"/>
-      <c r="AW112" s="51"/>
-      <c r="AX112" s="51"/>
-      <c r="AY112" s="51"/>
-      <c r="AZ112" s="51"/>
-    </row>
+      <c r="K108" s="68"/>
+      <c r="AV108" s="68"/>
+    </row>
+    <row r="109" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B109" s="25"/>
+      <c r="C109" s="25"/>
+      <c r="D109" s="26"/>
+      <c r="E109" s="26"/>
+      <c r="F109" s="27"/>
+      <c r="G109" s="25"/>
+      <c r="H109" s="26"/>
+      <c r="I109" s="26"/>
+      <c r="J109" s="26"/>
+      <c r="K109" s="27"/>
+      <c r="L109" s="26"/>
+      <c r="M109" s="26"/>
+      <c r="N109" s="26"/>
+      <c r="O109" s="26"/>
+      <c r="P109" s="26"/>
+      <c r="Q109" s="26"/>
+      <c r="R109" s="26"/>
+      <c r="S109" s="26"/>
+      <c r="T109" s="26"/>
+      <c r="U109" s="26"/>
+      <c r="V109" s="26"/>
+      <c r="W109" s="26"/>
+      <c r="X109" s="26"/>
+      <c r="Y109" s="26"/>
+      <c r="Z109" s="26"/>
+      <c r="AA109" s="26"/>
+      <c r="AB109" s="26"/>
+      <c r="AC109" s="26"/>
+      <c r="AD109" s="26"/>
+      <c r="AE109" s="26"/>
+      <c r="AF109" s="26"/>
+      <c r="AG109" s="26"/>
+      <c r="AH109" s="26"/>
+      <c r="AI109" s="26"/>
+      <c r="AJ109" s="26"/>
+      <c r="AK109" s="26"/>
+      <c r="AL109" s="26"/>
+      <c r="AM109" s="26"/>
+      <c r="AN109" s="26"/>
+      <c r="AO109" s="26"/>
+      <c r="AP109" s="26"/>
+      <c r="AQ109" s="26"/>
+      <c r="AR109" s="26"/>
+      <c r="AS109" s="26"/>
+      <c r="AT109" s="26"/>
+      <c r="AU109" s="26"/>
+      <c r="AV109" s="27"/>
+    </row>
+    <row r="110" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15"/>
+    <row r="111" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15"/>
+    <row r="112" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15"/>
     <row r="113" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A113" s="51"/>
       <c r="B113" s="51"/>
@@ -26920,6 +27018,60 @@
       <c r="AY244" s="51"/>
       <c r="AZ244" s="51"/>
     </row>
+    <row r="245" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A245" s="51"/>
+      <c r="B245" s="51"/>
+      <c r="C245" s="51"/>
+      <c r="D245" s="51"/>
+      <c r="E245" s="51"/>
+      <c r="F245" s="51"/>
+      <c r="G245" s="51"/>
+      <c r="H245" s="51"/>
+      <c r="I245" s="51"/>
+      <c r="J245" s="51"/>
+      <c r="K245" s="51"/>
+      <c r="L245" s="51"/>
+      <c r="M245" s="51"/>
+      <c r="N245" s="51"/>
+      <c r="O245" s="51"/>
+      <c r="P245" s="51"/>
+      <c r="Q245" s="51"/>
+      <c r="R245" s="51"/>
+      <c r="S245" s="51"/>
+      <c r="T245" s="51"/>
+      <c r="U245" s="51"/>
+      <c r="V245" s="51"/>
+      <c r="W245" s="51"/>
+      <c r="X245" s="51"/>
+      <c r="Y245" s="51"/>
+      <c r="Z245" s="51"/>
+      <c r="AA245" s="51"/>
+      <c r="AB245" s="51"/>
+      <c r="AC245" s="51"/>
+      <c r="AD245" s="51"/>
+      <c r="AE245" s="51"/>
+      <c r="AF245" s="51"/>
+      <c r="AG245" s="51"/>
+      <c r="AH245" s="51"/>
+      <c r="AI245" s="51"/>
+      <c r="AJ245" s="51"/>
+      <c r="AK245" s="51"/>
+      <c r="AL245" s="51"/>
+      <c r="AM245" s="51"/>
+      <c r="AN245" s="51"/>
+      <c r="AO245" s="51"/>
+      <c r="AP245" s="51"/>
+      <c r="AQ245" s="51"/>
+      <c r="AR245" s="51"/>
+      <c r="AS245" s="51"/>
+      <c r="AT245" s="51"/>
+      <c r="AU245" s="51"/>
+      <c r="AV245" s="51"/>
+      <c r="AW245" s="51"/>
+      <c r="AX245" s="51"/>
+      <c r="AY245" s="51"/>
+      <c r="AZ245" s="51"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="AI1:AM1"/>
@@ -27465,7 +27617,7 @@
       <c r="AB9" s="22"/>
       <c r="AC9" s="22"/>
       <c r="AD9" s="207" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="AE9" s="208"/>
       <c r="AF9" s="208"/>
@@ -27648,7 +27800,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
@@ -27752,7 +27904,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
@@ -27856,7 +28008,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
@@ -28064,7 +28216,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
@@ -32553,7 +32705,7 @@
       <c r="A7" s="51"/>
       <c r="B7" s="51"/>
       <c r="C7" s="51" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D7" s="51"/>
       <c r="E7" s="51"/>
@@ -44537,7 +44689,7 @@
     </row>
     <row r="3" spans="2:102" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="312" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C3" s="313"/>
       <c r="D3" s="313"/>
@@ -45470,7 +45622,7 @@
     </row>
     <row r="12" spans="2:102" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="125" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="C12" s="123"/>
       <c r="D12" s="123"/>
@@ -45703,7 +45855,7 @@
       <c r="W14" s="123"/>
       <c r="X14" s="123"/>
       <c r="Y14" s="128" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Z14" s="129"/>
       <c r="AA14" s="129"/>
@@ -45722,7 +45874,7 @@
       <c r="AN14" s="129"/>
       <c r="AO14" s="123"/>
       <c r="AP14" s="128" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AQ14" s="129"/>
       <c r="AR14" s="129"/>
@@ -45814,7 +45966,7 @@
       <c r="W15" s="123"/>
       <c r="X15" s="123"/>
       <c r="Y15" s="129" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Z15" s="129"/>
       <c r="AA15" s="129"/>
@@ -45905,7 +46057,7 @@
       <c r="C16" s="183"/>
       <c r="D16" s="183"/>
       <c r="E16" s="128" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F16" s="128"/>
       <c r="G16" s="128"/>
@@ -45927,7 +46079,7 @@
       <c r="W16" s="123"/>
       <c r="X16" s="123"/>
       <c r="Y16" s="130" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Z16" s="131"/>
       <c r="AA16" s="131"/>
@@ -45948,7 +46100,7 @@
       <c r="AN16" s="123"/>
       <c r="AO16" s="123"/>
       <c r="AP16" s="135" t="s">
-        <v>201</v>
+        <v>426</v>
       </c>
       <c r="AQ16" s="136"/>
       <c r="AR16" s="136"/>
@@ -45990,7 +46142,7 @@
       <c r="BV16" s="129"/>
       <c r="BW16" s="140"/>
       <c r="BX16" s="135" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BY16" s="136"/>
       <c r="BZ16" s="136"/>
@@ -46129,7 +46281,7 @@
       <c r="C18" s="183"/>
       <c r="D18" s="182"/>
       <c r="E18" s="128" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F18" s="182"/>
       <c r="G18" s="182"/>
@@ -46152,7 +46304,7 @@
       <c r="X18" s="140"/>
       <c r="Y18" s="140"/>
       <c r="Z18" s="128" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AA18" s="172"/>
       <c r="AB18" s="172"/>
@@ -46276,7 +46428,7 @@
       <c r="AQ19" s="140"/>
       <c r="AR19" s="140"/>
       <c r="AS19" s="128" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AT19" s="171"/>
       <c r="AU19" s="171"/>
@@ -46285,7 +46437,7 @@
       <c r="AX19" s="171"/>
       <c r="AY19" s="171"/>
       <c r="AZ19" s="128" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="BA19" s="140"/>
       <c r="BB19" s="140"/>
@@ -46297,7 +46449,7 @@
       <c r="BH19" s="140"/>
       <c r="BI19" s="140"/>
       <c r="BJ19" s="128" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="BK19" s="140"/>
       <c r="BL19" s="140"/>
@@ -46868,13 +47020,13 @@
       </c>
       <c r="F25" s="147"/>
       <c r="G25" s="146" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H25" s="146"/>
       <c r="I25" s="146"/>
       <c r="J25" s="146"/>
       <c r="K25" s="145" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L25" s="146"/>
       <c r="M25" s="146"/>
@@ -46899,7 +47051,7 @@
       <c r="AD25" s="146"/>
       <c r="AE25" s="147"/>
       <c r="AF25" s="145" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AG25" s="146"/>
       <c r="AH25" s="146"/>
@@ -46909,7 +47061,7 @@
       <c r="AL25" s="146"/>
       <c r="AM25" s="147"/>
       <c r="AN25" s="145" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AO25" s="146"/>
       <c r="AP25" s="146"/>
@@ -46918,7 +47070,7 @@
       <c r="AS25" s="146"/>
       <c r="AT25" s="147"/>
       <c r="AU25" s="145" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AV25" s="146"/>
       <c r="AW25" s="146"/>
@@ -46941,7 +47093,7 @@
       <c r="BN25" s="146"/>
       <c r="BO25" s="146"/>
       <c r="BP25" s="145" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="BQ25" s="146"/>
       <c r="BR25" s="146"/>
@@ -46964,7 +47116,7 @@
       <c r="CI25" s="146"/>
       <c r="CJ25" s="146"/>
       <c r="CK25" s="145" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="CL25" s="146"/>
       <c r="CM25" s="146"/>
@@ -46987,13 +47139,13 @@
       <c r="E26" s="192"/>
       <c r="F26" s="162"/>
       <c r="G26" s="192" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H26" s="192"/>
       <c r="I26" s="192"/>
       <c r="J26" s="192"/>
       <c r="K26" s="164" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L26" s="192"/>
       <c r="M26" s="192"/>
@@ -47018,7 +47170,7 @@
       <c r="AD26" s="192"/>
       <c r="AE26" s="162"/>
       <c r="AF26" s="164" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AG26" s="192"/>
       <c r="AH26" s="192"/>
@@ -47028,7 +47180,7 @@
       <c r="AL26" s="192"/>
       <c r="AM26" s="162"/>
       <c r="AN26" s="164" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AO26" s="192"/>
       <c r="AP26" s="192"/>
@@ -47037,7 +47189,7 @@
       <c r="AS26" s="192"/>
       <c r="AT26" s="162"/>
       <c r="AU26" s="164" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AV26" s="192"/>
       <c r="AW26" s="192"/>
@@ -47060,7 +47212,7 @@
       <c r="BN26" s="163"/>
       <c r="BO26" s="163"/>
       <c r="BP26" s="164" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="BQ26" s="192"/>
       <c r="BR26" s="192"/>
@@ -47083,7 +47235,7 @@
       <c r="CI26" s="163"/>
       <c r="CJ26" s="163"/>
       <c r="CK26" s="164" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="CL26" s="192"/>
       <c r="CM26" s="192"/>
@@ -47139,7 +47291,7 @@
       <c r="AL27" s="192"/>
       <c r="AM27" s="162"/>
       <c r="AN27" s="164" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AO27" s="192"/>
       <c r="AP27" s="192"/>
@@ -47148,7 +47300,7 @@
       <c r="AS27" s="192"/>
       <c r="AT27" s="162"/>
       <c r="AU27" s="145" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AV27" s="146"/>
       <c r="AW27" s="146"/>
@@ -47157,7 +47309,7 @@
       <c r="AZ27" s="146"/>
       <c r="BA27" s="147"/>
       <c r="BB27" s="200" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="BC27" s="198"/>
       <c r="BD27" s="198"/>
@@ -47166,7 +47318,7 @@
       <c r="BG27" s="146"/>
       <c r="BH27" s="147"/>
       <c r="BI27" s="145" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="BJ27" s="146"/>
       <c r="BK27" s="146"/>
@@ -47175,7 +47327,7 @@
       <c r="BN27" s="146"/>
       <c r="BO27" s="147"/>
       <c r="BP27" s="145" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="BQ27" s="146"/>
       <c r="BR27" s="146"/>
@@ -47184,7 +47336,7 @@
       <c r="BU27" s="146"/>
       <c r="BV27" s="147"/>
       <c r="BW27" s="200" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="BX27" s="198"/>
       <c r="BY27" s="198"/>
@@ -47193,7 +47345,7 @@
       <c r="CB27" s="146"/>
       <c r="CC27" s="147"/>
       <c r="CD27" s="145" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="CE27" s="146"/>
       <c r="CF27" s="146"/>
@@ -47256,7 +47408,7 @@
       <c r="AL28" s="163"/>
       <c r="AM28" s="162"/>
       <c r="AN28" s="164" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AO28" s="163"/>
       <c r="AP28" s="163"/>
@@ -47265,7 +47417,7 @@
       <c r="AS28" s="163"/>
       <c r="AT28" s="162"/>
       <c r="AU28" s="201" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AV28" s="203"/>
       <c r="AW28" s="203"/>
@@ -47274,7 +47426,7 @@
       <c r="AZ28" s="193"/>
       <c r="BA28" s="202"/>
       <c r="BB28" s="201" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="BC28" s="203"/>
       <c r="BD28" s="203"/>
@@ -47283,7 +47435,7 @@
       <c r="BG28" s="193"/>
       <c r="BH28" s="202"/>
       <c r="BI28" s="201" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="BJ28" s="203"/>
       <c r="BK28" s="203"/>
@@ -47292,7 +47444,7 @@
       <c r="BN28" s="193"/>
       <c r="BO28" s="202"/>
       <c r="BP28" s="201" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="BQ28" s="203"/>
       <c r="BR28" s="203"/>
@@ -47301,7 +47453,7 @@
       <c r="BU28" s="193"/>
       <c r="BV28" s="202"/>
       <c r="BW28" s="201" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="BX28" s="203"/>
       <c r="BY28" s="203"/>
@@ -47310,7 +47462,7 @@
       <c r="CB28" s="193"/>
       <c r="CC28" s="202"/>
       <c r="CD28" s="201" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="CE28" s="203"/>
       <c r="CF28" s="203"/>
@@ -47342,13 +47494,13 @@
         <v>165</v>
       </c>
       <c r="G29" s="194" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H29" s="195"/>
       <c r="I29" s="195"/>
       <c r="J29" s="196"/>
       <c r="K29" s="205" t="s">
-        <v>221</v>
+        <v>426</v>
       </c>
       <c r="L29" s="206"/>
       <c r="M29" s="206"/>
@@ -47453,13 +47605,13 @@
         <v>187</v>
       </c>
       <c r="G30" s="194" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H30" s="195"/>
       <c r="I30" s="195"/>
       <c r="J30" s="196"/>
       <c r="K30" s="205" t="s">
-        <v>221</v>
+        <v>426</v>
       </c>
       <c r="L30" s="206"/>
       <c r="M30" s="206"/>
@@ -47562,13 +47714,13 @@
         <v>167</v>
       </c>
       <c r="G31" s="194" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H31" s="195"/>
       <c r="I31" s="195"/>
       <c r="J31" s="196"/>
       <c r="K31" s="205" t="s">
-        <v>221</v>
+        <v>426</v>
       </c>
       <c r="L31" s="206"/>
       <c r="M31" s="206"/>
@@ -47671,13 +47823,13 @@
         <v>168</v>
       </c>
       <c r="G32" s="194" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H32" s="195"/>
       <c r="I32" s="195"/>
       <c r="J32" s="196"/>
       <c r="K32" s="205" t="s">
-        <v>221</v>
+        <v>426</v>
       </c>
       <c r="L32" s="206"/>
       <c r="M32" s="206"/>
@@ -47780,13 +47932,13 @@
         <v>169</v>
       </c>
       <c r="G33" s="194" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H33" s="195"/>
       <c r="I33" s="195"/>
       <c r="J33" s="196"/>
       <c r="K33" s="205" t="s">
-        <v>221</v>
+        <v>426</v>
       </c>
       <c r="L33" s="206"/>
       <c r="M33" s="206"/>
@@ -47889,13 +48041,13 @@
         <v>170</v>
       </c>
       <c r="G34" s="194" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H34" s="195"/>
       <c r="I34" s="195"/>
       <c r="J34" s="196"/>
       <c r="K34" s="205" t="s">
-        <v>221</v>
+        <v>426</v>
       </c>
       <c r="L34" s="206"/>
       <c r="M34" s="206"/>
@@ -47998,13 +48150,13 @@
         <v>171</v>
       </c>
       <c r="G35" s="194" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H35" s="195"/>
       <c r="I35" s="195"/>
       <c r="J35" s="196"/>
       <c r="K35" s="205" t="s">
-        <v>221</v>
+        <v>426</v>
       </c>
       <c r="L35" s="206"/>
       <c r="M35" s="206"/>
@@ -48107,13 +48259,13 @@
         <v>172</v>
       </c>
       <c r="G36" s="194" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H36" s="195"/>
       <c r="I36" s="195"/>
       <c r="J36" s="196"/>
       <c r="K36" s="205" t="s">
-        <v>221</v>
+        <v>426</v>
       </c>
       <c r="L36" s="206"/>
       <c r="M36" s="206"/>
@@ -48216,13 +48368,13 @@
         <v>173</v>
       </c>
       <c r="G37" s="194" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H37" s="195"/>
       <c r="I37" s="195"/>
       <c r="J37" s="196"/>
       <c r="K37" s="205" t="s">
-        <v>221</v>
+        <v>426</v>
       </c>
       <c r="L37" s="206"/>
       <c r="M37" s="206"/>
@@ -48325,13 +48477,13 @@
         <v>174</v>
       </c>
       <c r="G38" s="194" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H38" s="195"/>
       <c r="I38" s="195"/>
       <c r="J38" s="196"/>
       <c r="K38" s="205" t="s">
-        <v>221</v>
+        <v>426</v>
       </c>
       <c r="L38" s="206"/>
       <c r="M38" s="206"/>
@@ -48434,13 +48586,13 @@
         <v>175</v>
       </c>
       <c r="G39" s="194" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H39" s="195"/>
       <c r="I39" s="195"/>
       <c r="J39" s="196"/>
       <c r="K39" s="205" t="s">
-        <v>221</v>
+        <v>426</v>
       </c>
       <c r="L39" s="206"/>
       <c r="M39" s="206"/>
@@ -48543,13 +48695,13 @@
         <v>176</v>
       </c>
       <c r="G40" s="194" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H40" s="195"/>
       <c r="I40" s="195"/>
       <c r="J40" s="196"/>
       <c r="K40" s="205" t="s">
-        <v>221</v>
+        <v>426</v>
       </c>
       <c r="L40" s="206"/>
       <c r="M40" s="206"/>
@@ -48652,13 +48804,13 @@
         <v>177</v>
       </c>
       <c r="G41" s="194" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H41" s="195"/>
       <c r="I41" s="195"/>
       <c r="J41" s="196"/>
       <c r="K41" s="205" t="s">
-        <v>221</v>
+        <v>426</v>
       </c>
       <c r="L41" s="206"/>
       <c r="M41" s="206"/>
@@ -48761,13 +48913,13 @@
         <v>178</v>
       </c>
       <c r="G42" s="194" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H42" s="195"/>
       <c r="I42" s="195"/>
       <c r="J42" s="196"/>
       <c r="K42" s="205" t="s">
-        <v>221</v>
+        <v>426</v>
       </c>
       <c r="L42" s="206"/>
       <c r="M42" s="206"/>
@@ -48870,13 +49022,13 @@
         <v>179</v>
       </c>
       <c r="G43" s="194" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H43" s="195"/>
       <c r="I43" s="195"/>
       <c r="J43" s="196"/>
       <c r="K43" s="205" t="s">
-        <v>221</v>
+        <v>426</v>
       </c>
       <c r="L43" s="206"/>
       <c r="M43" s="206"/>
@@ -48976,16 +49128,16 @@
       <c r="D44" s="135"/>
       <c r="E44" s="113"/>
       <c r="F44" s="148" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G44" s="194" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H44" s="195"/>
       <c r="I44" s="195"/>
       <c r="J44" s="196"/>
       <c r="K44" s="205" t="s">
-        <v>221</v>
+        <v>426</v>
       </c>
       <c r="L44" s="206"/>
       <c r="M44" s="206"/>
@@ -49593,9 +49745,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -49757,26 +49912,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -49800,9 +49944,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/01_基本設計書/20200220リリース/SC-Z01_在庫照会.xlsx
+++ b/01_基本設計書/20200220リリース/SC-Z01_在庫照会.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE16F192-2213-4A96-9E8A-B45CEBD87590}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CE9E2E-13EE-4A30-A2FC-868DEAD0AD5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4917,6 +4917,33 @@
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="57" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="58" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4926,91 +4953,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5037,6 +4979,91 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="7" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5136,33 +5163,6 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="9" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="57" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -6155,7 +6155,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$47" spid="_x0000_s3555"/>
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$47" spid="_x0000_s3557"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6445,11 +6445,14 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Close</a:t>
+            <a:t>Finish</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6815,10 +6818,10 @@
             </xdr:nvGrpSpPr>
             <xdr:grpSpPr>
               <a:xfrm>
-                <a:off x="1823232" y="2648514"/>
-                <a:ext cx="777645" cy="485626"/>
-                <a:chOff x="191656" y="3012363"/>
-                <a:chExt cx="777645" cy="479438"/>
+                <a:off x="1823232" y="2648517"/>
+                <a:ext cx="777645" cy="485620"/>
+                <a:chOff x="191656" y="3012366"/>
+                <a:chExt cx="777645" cy="479432"/>
               </a:xfrm>
             </xdr:grpSpPr>
             <xdr:sp macro="" textlink="">
@@ -6837,7 +6840,7 @@
               </xdr:nvSpPr>
               <xdr:spPr bwMode="auto">
                 <a:xfrm>
-                  <a:off x="191656" y="3012363"/>
+                  <a:off x="191656" y="3012366"/>
                   <a:ext cx="777645" cy="164478"/>
                 </a:xfrm>
                 <a:prstGeom prst="rect">
@@ -6903,7 +6906,7 @@
               </xdr:nvSpPr>
               <xdr:spPr bwMode="auto">
                 <a:xfrm>
-                  <a:off x="196808" y="3340321"/>
+                  <a:off x="196808" y="3340318"/>
                   <a:ext cx="763862" cy="151480"/>
                 </a:xfrm>
                 <a:prstGeom prst="rect">
@@ -8290,108 +8293,108 @@
       <c r="AG31" s="3"/>
     </row>
     <row r="32" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="242" t="s">
+      <c r="A32" s="251" t="s">
         <v>203</v>
       </c>
-      <c r="B32" s="242"/>
-      <c r="C32" s="242"/>
-      <c r="D32" s="242"/>
-      <c r="E32" s="242"/>
-      <c r="F32" s="242"/>
-      <c r="G32" s="242"/>
-      <c r="H32" s="242"/>
-      <c r="I32" s="242"/>
-      <c r="J32" s="242"/>
-      <c r="K32" s="242"/>
-      <c r="L32" s="242"/>
-      <c r="M32" s="242"/>
-      <c r="N32" s="242"/>
-      <c r="O32" s="242"/>
-      <c r="P32" s="242"/>
-      <c r="Q32" s="242"/>
-      <c r="R32" s="242"/>
-      <c r="S32" s="242"/>
-      <c r="T32" s="242"/>
-      <c r="U32" s="242"/>
-      <c r="V32" s="242"/>
-      <c r="W32" s="242"/>
-      <c r="X32" s="242"/>
-      <c r="Y32" s="242"/>
-      <c r="Z32" s="242"/>
-      <c r="AA32" s="242"/>
-      <c r="AB32" s="242"/>
-      <c r="AC32" s="242"/>
-      <c r="AD32" s="242"/>
-      <c r="AE32" s="242"/>
-      <c r="AF32" s="242"/>
-      <c r="AG32" s="242"/>
-      <c r="AH32" s="242"/>
-      <c r="AI32" s="242"/>
-      <c r="AJ32" s="242"/>
-      <c r="AK32" s="242"/>
-      <c r="AL32" s="242"/>
-      <c r="AM32" s="242"/>
-      <c r="AN32" s="242"/>
-      <c r="AO32" s="242"/>
-      <c r="AP32" s="242"/>
-      <c r="AQ32" s="242"/>
-      <c r="AR32" s="242"/>
-      <c r="AS32" s="242"/>
-      <c r="AT32" s="242"/>
-      <c r="AU32" s="242"/>
-      <c r="AV32" s="242"/>
-      <c r="AW32" s="242"/>
+      <c r="B32" s="251"/>
+      <c r="C32" s="251"/>
+      <c r="D32" s="251"/>
+      <c r="E32" s="251"/>
+      <c r="F32" s="251"/>
+      <c r="G32" s="251"/>
+      <c r="H32" s="251"/>
+      <c r="I32" s="251"/>
+      <c r="J32" s="251"/>
+      <c r="K32" s="251"/>
+      <c r="L32" s="251"/>
+      <c r="M32" s="251"/>
+      <c r="N32" s="251"/>
+      <c r="O32" s="251"/>
+      <c r="P32" s="251"/>
+      <c r="Q32" s="251"/>
+      <c r="R32" s="251"/>
+      <c r="S32" s="251"/>
+      <c r="T32" s="251"/>
+      <c r="U32" s="251"/>
+      <c r="V32" s="251"/>
+      <c r="W32" s="251"/>
+      <c r="X32" s="251"/>
+      <c r="Y32" s="251"/>
+      <c r="Z32" s="251"/>
+      <c r="AA32" s="251"/>
+      <c r="AB32" s="251"/>
+      <c r="AC32" s="251"/>
+      <c r="AD32" s="251"/>
+      <c r="AE32" s="251"/>
+      <c r="AF32" s="251"/>
+      <c r="AG32" s="251"/>
+      <c r="AH32" s="251"/>
+      <c r="AI32" s="251"/>
+      <c r="AJ32" s="251"/>
+      <c r="AK32" s="251"/>
+      <c r="AL32" s="251"/>
+      <c r="AM32" s="251"/>
+      <c r="AN32" s="251"/>
+      <c r="AO32" s="251"/>
+      <c r="AP32" s="251"/>
+      <c r="AQ32" s="251"/>
+      <c r="AR32" s="251"/>
+      <c r="AS32" s="251"/>
+      <c r="AT32" s="251"/>
+      <c r="AU32" s="251"/>
+      <c r="AV32" s="251"/>
+      <c r="AW32" s="251"/>
     </row>
     <row r="33" spans="1:49" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A33" s="243"/>
-      <c r="B33" s="243"/>
-      <c r="C33" s="243"/>
-      <c r="D33" s="243"/>
-      <c r="E33" s="243"/>
-      <c r="F33" s="243"/>
-      <c r="G33" s="243"/>
-      <c r="H33" s="243"/>
-      <c r="I33" s="243"/>
-      <c r="J33" s="243"/>
-      <c r="K33" s="243"/>
-      <c r="L33" s="243"/>
-      <c r="M33" s="243"/>
-      <c r="N33" s="243"/>
-      <c r="O33" s="243"/>
-      <c r="P33" s="243"/>
-      <c r="Q33" s="243"/>
-      <c r="R33" s="243"/>
-      <c r="S33" s="243"/>
-      <c r="T33" s="243"/>
-      <c r="U33" s="243"/>
-      <c r="V33" s="243"/>
-      <c r="W33" s="243"/>
-      <c r="X33" s="243"/>
-      <c r="Y33" s="243"/>
-      <c r="Z33" s="243"/>
-      <c r="AA33" s="243"/>
-      <c r="AB33" s="243"/>
-      <c r="AC33" s="243"/>
-      <c r="AD33" s="243"/>
-      <c r="AE33" s="243"/>
-      <c r="AF33" s="243"/>
-      <c r="AG33" s="243"/>
-      <c r="AH33" s="243"/>
-      <c r="AI33" s="243"/>
-      <c r="AJ33" s="243"/>
-      <c r="AK33" s="243"/>
-      <c r="AL33" s="243"/>
-      <c r="AM33" s="243"/>
-      <c r="AN33" s="243"/>
-      <c r="AO33" s="243"/>
-      <c r="AP33" s="243"/>
-      <c r="AQ33" s="243"/>
-      <c r="AR33" s="243"/>
-      <c r="AS33" s="243"/>
-      <c r="AT33" s="243"/>
-      <c r="AU33" s="243"/>
-      <c r="AV33" s="243"/>
-      <c r="AW33" s="243"/>
+      <c r="A33" s="252"/>
+      <c r="B33" s="252"/>
+      <c r="C33" s="252"/>
+      <c r="D33" s="252"/>
+      <c r="E33" s="252"/>
+      <c r="F33" s="252"/>
+      <c r="G33" s="252"/>
+      <c r="H33" s="252"/>
+      <c r="I33" s="252"/>
+      <c r="J33" s="252"/>
+      <c r="K33" s="252"/>
+      <c r="L33" s="252"/>
+      <c r="M33" s="252"/>
+      <c r="N33" s="252"/>
+      <c r="O33" s="252"/>
+      <c r="P33" s="252"/>
+      <c r="Q33" s="252"/>
+      <c r="R33" s="252"/>
+      <c r="S33" s="252"/>
+      <c r="T33" s="252"/>
+      <c r="U33" s="252"/>
+      <c r="V33" s="252"/>
+      <c r="W33" s="252"/>
+      <c r="X33" s="252"/>
+      <c r="Y33" s="252"/>
+      <c r="Z33" s="252"/>
+      <c r="AA33" s="252"/>
+      <c r="AB33" s="252"/>
+      <c r="AC33" s="252"/>
+      <c r="AD33" s="252"/>
+      <c r="AE33" s="252"/>
+      <c r="AF33" s="252"/>
+      <c r="AG33" s="252"/>
+      <c r="AH33" s="252"/>
+      <c r="AI33" s="252"/>
+      <c r="AJ33" s="252"/>
+      <c r="AK33" s="252"/>
+      <c r="AL33" s="252"/>
+      <c r="AM33" s="252"/>
+      <c r="AN33" s="252"/>
+      <c r="AO33" s="252"/>
+      <c r="AP33" s="252"/>
+      <c r="AQ33" s="252"/>
+      <c r="AR33" s="252"/>
+      <c r="AS33" s="252"/>
+      <c r="AT33" s="252"/>
+      <c r="AU33" s="252"/>
+      <c r="AV33" s="252"/>
+      <c r="AW33" s="252"/>
     </row>
     <row r="34" spans="1:49" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
@@ -8429,55 +8432,55 @@
       <c r="AG34" s="4"/>
     </row>
     <row r="35" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="244"/>
-      <c r="B35" s="244"/>
-      <c r="C35" s="244"/>
-      <c r="D35" s="244"/>
-      <c r="E35" s="244"/>
-      <c r="F35" s="244"/>
-      <c r="G35" s="244"/>
-      <c r="H35" s="244"/>
-      <c r="I35" s="244"/>
-      <c r="J35" s="244"/>
-      <c r="K35" s="244"/>
-      <c r="L35" s="244"/>
-      <c r="M35" s="244"/>
-      <c r="N35" s="244"/>
-      <c r="O35" s="244"/>
-      <c r="P35" s="244"/>
-      <c r="Q35" s="244"/>
-      <c r="R35" s="244"/>
-      <c r="S35" s="244"/>
-      <c r="T35" s="244"/>
-      <c r="U35" s="244"/>
-      <c r="V35" s="244"/>
-      <c r="W35" s="244"/>
-      <c r="X35" s="244"/>
-      <c r="Y35" s="244"/>
-      <c r="Z35" s="244"/>
-      <c r="AA35" s="244"/>
-      <c r="AB35" s="244"/>
-      <c r="AC35" s="244"/>
-      <c r="AD35" s="244"/>
-      <c r="AE35" s="244"/>
-      <c r="AF35" s="244"/>
-      <c r="AG35" s="244"/>
-      <c r="AH35" s="244"/>
-      <c r="AI35" s="244"/>
-      <c r="AJ35" s="244"/>
-      <c r="AK35" s="244"/>
-      <c r="AL35" s="244"/>
-      <c r="AM35" s="244"/>
-      <c r="AN35" s="244"/>
-      <c r="AO35" s="244"/>
-      <c r="AP35" s="244"/>
-      <c r="AQ35" s="244"/>
-      <c r="AR35" s="244"/>
-      <c r="AS35" s="244"/>
-      <c r="AT35" s="244"/>
-      <c r="AU35" s="244"/>
-      <c r="AV35" s="244"/>
-      <c r="AW35" s="244"/>
+      <c r="A35" s="253"/>
+      <c r="B35" s="253"/>
+      <c r="C35" s="253"/>
+      <c r="D35" s="253"/>
+      <c r="E35" s="253"/>
+      <c r="F35" s="253"/>
+      <c r="G35" s="253"/>
+      <c r="H35" s="253"/>
+      <c r="I35" s="253"/>
+      <c r="J35" s="253"/>
+      <c r="K35" s="253"/>
+      <c r="L35" s="253"/>
+      <c r="M35" s="253"/>
+      <c r="N35" s="253"/>
+      <c r="O35" s="253"/>
+      <c r="P35" s="253"/>
+      <c r="Q35" s="253"/>
+      <c r="R35" s="253"/>
+      <c r="S35" s="253"/>
+      <c r="T35" s="253"/>
+      <c r="U35" s="253"/>
+      <c r="V35" s="253"/>
+      <c r="W35" s="253"/>
+      <c r="X35" s="253"/>
+      <c r="Y35" s="253"/>
+      <c r="Z35" s="253"/>
+      <c r="AA35" s="253"/>
+      <c r="AB35" s="253"/>
+      <c r="AC35" s="253"/>
+      <c r="AD35" s="253"/>
+      <c r="AE35" s="253"/>
+      <c r="AF35" s="253"/>
+      <c r="AG35" s="253"/>
+      <c r="AH35" s="253"/>
+      <c r="AI35" s="253"/>
+      <c r="AJ35" s="253"/>
+      <c r="AK35" s="253"/>
+      <c r="AL35" s="253"/>
+      <c r="AM35" s="253"/>
+      <c r="AN35" s="253"/>
+      <c r="AO35" s="253"/>
+      <c r="AP35" s="253"/>
+      <c r="AQ35" s="253"/>
+      <c r="AR35" s="253"/>
+      <c r="AS35" s="253"/>
+      <c r="AT35" s="253"/>
+      <c r="AU35" s="253"/>
+      <c r="AV35" s="253"/>
+      <c r="AW35" s="253"/>
     </row>
     <row r="42" spans="1:49" x14ac:dyDescent="0.15">
       <c r="P42" s="3" t="s">
@@ -8512,1779 +8515,1994 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="54"/>
-      <c r="B1" s="276" t="s">
+      <c r="B1" s="254" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="276"/>
-      <c r="D1" s="276"/>
-      <c r="E1" s="276"/>
-      <c r="F1" s="276"/>
-      <c r="G1" s="276"/>
-      <c r="H1" s="276"/>
-      <c r="I1" s="276"/>
-      <c r="J1" s="276"/>
-      <c r="K1" s="276"/>
-      <c r="L1" s="276"/>
-      <c r="M1" s="276"/>
-      <c r="N1" s="276"/>
-      <c r="O1" s="276"/>
-      <c r="P1" s="276"/>
-      <c r="Q1" s="276"/>
-      <c r="R1" s="276"/>
-      <c r="S1" s="276"/>
-      <c r="T1" s="276"/>
-      <c r="U1" s="276"/>
-      <c r="V1" s="276"/>
-      <c r="W1" s="276"/>
-      <c r="X1" s="276"/>
-      <c r="Y1" s="276"/>
-      <c r="Z1" s="276"/>
-      <c r="AA1" s="276"/>
-      <c r="AB1" s="276"/>
-      <c r="AC1" s="276"/>
-      <c r="AD1" s="276"/>
-      <c r="AE1" s="276"/>
-      <c r="AF1" s="276"/>
-      <c r="AG1" s="276"/>
-      <c r="AH1" s="276"/>
-      <c r="AI1" s="276"/>
-      <c r="AJ1" s="276"/>
-      <c r="AK1" s="276"/>
-      <c r="AL1" s="276"/>
-      <c r="AM1" s="276"/>
-      <c r="AN1" s="276"/>
-      <c r="AO1" s="276"/>
-      <c r="AP1" s="276"/>
-      <c r="AQ1" s="276"/>
-      <c r="AR1" s="276"/>
-      <c r="AS1" s="276"/>
-      <c r="AT1" s="276"/>
-      <c r="AU1" s="276"/>
-      <c r="AV1" s="276"/>
-      <c r="AW1" s="276"/>
+      <c r="C1" s="254"/>
+      <c r="D1" s="254"/>
+      <c r="E1" s="254"/>
+      <c r="F1" s="254"/>
+      <c r="G1" s="254"/>
+      <c r="H1" s="254"/>
+      <c r="I1" s="254"/>
+      <c r="J1" s="254"/>
+      <c r="K1" s="254"/>
+      <c r="L1" s="254"/>
+      <c r="M1" s="254"/>
+      <c r="N1" s="254"/>
+      <c r="O1" s="254"/>
+      <c r="P1" s="254"/>
+      <c r="Q1" s="254"/>
+      <c r="R1" s="254"/>
+      <c r="S1" s="254"/>
+      <c r="T1" s="254"/>
+      <c r="U1" s="254"/>
+      <c r="V1" s="254"/>
+      <c r="W1" s="254"/>
+      <c r="X1" s="254"/>
+      <c r="Y1" s="254"/>
+      <c r="Z1" s="254"/>
+      <c r="AA1" s="254"/>
+      <c r="AB1" s="254"/>
+      <c r="AC1" s="254"/>
+      <c r="AD1" s="254"/>
+      <c r="AE1" s="254"/>
+      <c r="AF1" s="254"/>
+      <c r="AG1" s="254"/>
+      <c r="AH1" s="254"/>
+      <c r="AI1" s="254"/>
+      <c r="AJ1" s="254"/>
+      <c r="AK1" s="254"/>
+      <c r="AL1" s="254"/>
+      <c r="AM1" s="254"/>
+      <c r="AN1" s="254"/>
+      <c r="AO1" s="254"/>
+      <c r="AP1" s="254"/>
+      <c r="AQ1" s="254"/>
+      <c r="AR1" s="254"/>
+      <c r="AS1" s="254"/>
+      <c r="AT1" s="254"/>
+      <c r="AU1" s="254"/>
+      <c r="AV1" s="254"/>
+      <c r="AW1" s="254"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="54"/>
-      <c r="B2" s="277"/>
-      <c r="C2" s="277"/>
-      <c r="D2" s="277"/>
-      <c r="E2" s="277"/>
-      <c r="F2" s="277"/>
-      <c r="G2" s="277"/>
-      <c r="H2" s="277"/>
-      <c r="I2" s="277"/>
-      <c r="J2" s="277"/>
-      <c r="K2" s="277"/>
-      <c r="L2" s="277"/>
-      <c r="M2" s="277"/>
-      <c r="N2" s="277"/>
-      <c r="O2" s="277"/>
-      <c r="P2" s="277"/>
-      <c r="Q2" s="277"/>
-      <c r="R2" s="277"/>
-      <c r="S2" s="277"/>
-      <c r="T2" s="277"/>
-      <c r="U2" s="277"/>
-      <c r="V2" s="277"/>
-      <c r="W2" s="277"/>
-      <c r="X2" s="277"/>
-      <c r="Y2" s="277"/>
-      <c r="Z2" s="277"/>
-      <c r="AA2" s="277"/>
-      <c r="AB2" s="277"/>
-      <c r="AC2" s="277"/>
-      <c r="AD2" s="277"/>
-      <c r="AE2" s="277"/>
-      <c r="AF2" s="277"/>
-      <c r="AG2" s="277"/>
-      <c r="AH2" s="277"/>
-      <c r="AI2" s="277"/>
-      <c r="AJ2" s="277"/>
-      <c r="AK2" s="277"/>
-      <c r="AL2" s="277"/>
-      <c r="AM2" s="277"/>
-      <c r="AN2" s="277"/>
-      <c r="AO2" s="277"/>
-      <c r="AP2" s="277"/>
-      <c r="AQ2" s="277"/>
-      <c r="AR2" s="277"/>
-      <c r="AS2" s="277"/>
-      <c r="AT2" s="277"/>
-      <c r="AU2" s="277"/>
-      <c r="AV2" s="277"/>
-      <c r="AW2" s="277"/>
+      <c r="B2" s="255"/>
+      <c r="C2" s="255"/>
+      <c r="D2" s="255"/>
+      <c r="E2" s="255"/>
+      <c r="F2" s="255"/>
+      <c r="G2" s="255"/>
+      <c r="H2" s="255"/>
+      <c r="I2" s="255"/>
+      <c r="J2" s="255"/>
+      <c r="K2" s="255"/>
+      <c r="L2" s="255"/>
+      <c r="M2" s="255"/>
+      <c r="N2" s="255"/>
+      <c r="O2" s="255"/>
+      <c r="P2" s="255"/>
+      <c r="Q2" s="255"/>
+      <c r="R2" s="255"/>
+      <c r="S2" s="255"/>
+      <c r="T2" s="255"/>
+      <c r="U2" s="255"/>
+      <c r="V2" s="255"/>
+      <c r="W2" s="255"/>
+      <c r="X2" s="255"/>
+      <c r="Y2" s="255"/>
+      <c r="Z2" s="255"/>
+      <c r="AA2" s="255"/>
+      <c r="AB2" s="255"/>
+      <c r="AC2" s="255"/>
+      <c r="AD2" s="255"/>
+      <c r="AE2" s="255"/>
+      <c r="AF2" s="255"/>
+      <c r="AG2" s="255"/>
+      <c r="AH2" s="255"/>
+      <c r="AI2" s="255"/>
+      <c r="AJ2" s="255"/>
+      <c r="AK2" s="255"/>
+      <c r="AL2" s="255"/>
+      <c r="AM2" s="255"/>
+      <c r="AN2" s="255"/>
+      <c r="AO2" s="255"/>
+      <c r="AP2" s="255"/>
+      <c r="AQ2" s="255"/>
+      <c r="AR2" s="255"/>
+      <c r="AS2" s="255"/>
+      <c r="AT2" s="255"/>
+      <c r="AU2" s="255"/>
+      <c r="AV2" s="255"/>
+      <c r="AW2" s="255"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="54"/>
-      <c r="B3" s="278" t="s">
+      <c r="B3" s="256" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="278"/>
-      <c r="D3" s="278"/>
-      <c r="E3" s="278" t="s">
+      <c r="C3" s="256"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="256" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="278"/>
-      <c r="G3" s="278"/>
-      <c r="H3" s="278"/>
-      <c r="I3" s="278"/>
-      <c r="J3" s="279" t="s">
+      <c r="F3" s="256"/>
+      <c r="G3" s="256"/>
+      <c r="H3" s="256"/>
+      <c r="I3" s="256"/>
+      <c r="J3" s="257" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="280"/>
-      <c r="L3" s="281"/>
-      <c r="M3" s="279" t="s">
+      <c r="K3" s="258"/>
+      <c r="L3" s="259"/>
+      <c r="M3" s="257" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="280"/>
-      <c r="O3" s="280"/>
-      <c r="P3" s="280"/>
-      <c r="Q3" s="280"/>
-      <c r="R3" s="281"/>
-      <c r="S3" s="278" t="s">
+      <c r="N3" s="258"/>
+      <c r="O3" s="258"/>
+      <c r="P3" s="258"/>
+      <c r="Q3" s="258"/>
+      <c r="R3" s="259"/>
+      <c r="S3" s="256" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="278"/>
-      <c r="U3" s="278"/>
-      <c r="V3" s="278" t="s">
+      <c r="T3" s="256"/>
+      <c r="U3" s="256"/>
+      <c r="V3" s="256" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="278"/>
-      <c r="X3" s="278"/>
-      <c r="Y3" s="278"/>
-      <c r="Z3" s="278"/>
-      <c r="AA3" s="278"/>
-      <c r="AB3" s="278"/>
-      <c r="AC3" s="278"/>
-      <c r="AD3" s="278"/>
-      <c r="AE3" s="278"/>
-      <c r="AF3" s="278"/>
-      <c r="AG3" s="278"/>
-      <c r="AH3" s="278"/>
-      <c r="AI3" s="278"/>
-      <c r="AJ3" s="278"/>
-      <c r="AK3" s="278"/>
-      <c r="AL3" s="278"/>
-      <c r="AM3" s="278"/>
-      <c r="AN3" s="278" t="s">
+      <c r="W3" s="256"/>
+      <c r="X3" s="256"/>
+      <c r="Y3" s="256"/>
+      <c r="Z3" s="256"/>
+      <c r="AA3" s="256"/>
+      <c r="AB3" s="256"/>
+      <c r="AC3" s="256"/>
+      <c r="AD3" s="256"/>
+      <c r="AE3" s="256"/>
+      <c r="AF3" s="256"/>
+      <c r="AG3" s="256"/>
+      <c r="AH3" s="256"/>
+      <c r="AI3" s="256"/>
+      <c r="AJ3" s="256"/>
+      <c r="AK3" s="256"/>
+      <c r="AL3" s="256"/>
+      <c r="AM3" s="256"/>
+      <c r="AN3" s="256" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="278"/>
-      <c r="AP3" s="278"/>
-      <c r="AQ3" s="278"/>
-      <c r="AR3" s="278"/>
-      <c r="AS3" s="278" t="s">
+      <c r="AO3" s="256"/>
+      <c r="AP3" s="256"/>
+      <c r="AQ3" s="256"/>
+      <c r="AR3" s="256"/>
+      <c r="AS3" s="256" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="278"/>
-      <c r="AU3" s="278"/>
-      <c r="AV3" s="278"/>
-      <c r="AW3" s="278"/>
+      <c r="AT3" s="256"/>
+      <c r="AU3" s="256"/>
+      <c r="AV3" s="256"/>
+      <c r="AW3" s="256"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="54"/>
-      <c r="B4" s="278"/>
-      <c r="C4" s="278"/>
-      <c r="D4" s="278"/>
-      <c r="E4" s="278"/>
-      <c r="F4" s="278"/>
-      <c r="G4" s="278"/>
-      <c r="H4" s="278"/>
-      <c r="I4" s="278"/>
-      <c r="J4" s="282"/>
-      <c r="K4" s="283"/>
-      <c r="L4" s="284"/>
-      <c r="M4" s="282"/>
-      <c r="N4" s="283"/>
-      <c r="O4" s="283"/>
-      <c r="P4" s="283"/>
-      <c r="Q4" s="283"/>
-      <c r="R4" s="284"/>
-      <c r="S4" s="278"/>
-      <c r="T4" s="278"/>
-      <c r="U4" s="278"/>
-      <c r="V4" s="278"/>
-      <c r="W4" s="278"/>
-      <c r="X4" s="278"/>
-      <c r="Y4" s="278"/>
-      <c r="Z4" s="278"/>
-      <c r="AA4" s="278"/>
-      <c r="AB4" s="278"/>
-      <c r="AC4" s="278"/>
-      <c r="AD4" s="278"/>
-      <c r="AE4" s="278"/>
-      <c r="AF4" s="278"/>
-      <c r="AG4" s="278"/>
-      <c r="AH4" s="278"/>
-      <c r="AI4" s="278"/>
-      <c r="AJ4" s="278"/>
-      <c r="AK4" s="278"/>
-      <c r="AL4" s="278"/>
-      <c r="AM4" s="278"/>
-      <c r="AN4" s="278"/>
-      <c r="AO4" s="278"/>
-      <c r="AP4" s="278"/>
-      <c r="AQ4" s="278"/>
-      <c r="AR4" s="278"/>
-      <c r="AS4" s="278"/>
-      <c r="AT4" s="278"/>
-      <c r="AU4" s="278"/>
-      <c r="AV4" s="278"/>
-      <c r="AW4" s="278"/>
+      <c r="B4" s="256"/>
+      <c r="C4" s="256"/>
+      <c r="D4" s="256"/>
+      <c r="E4" s="256"/>
+      <c r="F4" s="256"/>
+      <c r="G4" s="256"/>
+      <c r="H4" s="256"/>
+      <c r="I4" s="256"/>
+      <c r="J4" s="260"/>
+      <c r="K4" s="261"/>
+      <c r="L4" s="262"/>
+      <c r="M4" s="260"/>
+      <c r="N4" s="261"/>
+      <c r="O4" s="261"/>
+      <c r="P4" s="261"/>
+      <c r="Q4" s="261"/>
+      <c r="R4" s="262"/>
+      <c r="S4" s="256"/>
+      <c r="T4" s="256"/>
+      <c r="U4" s="256"/>
+      <c r="V4" s="256"/>
+      <c r="W4" s="256"/>
+      <c r="X4" s="256"/>
+      <c r="Y4" s="256"/>
+      <c r="Z4" s="256"/>
+      <c r="AA4" s="256"/>
+      <c r="AB4" s="256"/>
+      <c r="AC4" s="256"/>
+      <c r="AD4" s="256"/>
+      <c r="AE4" s="256"/>
+      <c r="AF4" s="256"/>
+      <c r="AG4" s="256"/>
+      <c r="AH4" s="256"/>
+      <c r="AI4" s="256"/>
+      <c r="AJ4" s="256"/>
+      <c r="AK4" s="256"/>
+      <c r="AL4" s="256"/>
+      <c r="AM4" s="256"/>
+      <c r="AN4" s="256"/>
+      <c r="AO4" s="256"/>
+      <c r="AP4" s="256"/>
+      <c r="AQ4" s="256"/>
+      <c r="AR4" s="256"/>
+      <c r="AS4" s="256"/>
+      <c r="AT4" s="256"/>
+      <c r="AU4" s="256"/>
+      <c r="AV4" s="256"/>
+      <c r="AW4" s="256"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="56"/>
-      <c r="B5" s="270">
+      <c r="B5" s="264">
         <v>1</v>
       </c>
-      <c r="C5" s="270"/>
-      <c r="D5" s="270"/>
-      <c r="E5" s="251">
+      <c r="C5" s="264"/>
+      <c r="D5" s="264"/>
+      <c r="E5" s="265">
         <v>43734</v>
       </c>
-      <c r="F5" s="251"/>
-      <c r="G5" s="251"/>
-      <c r="H5" s="251"/>
-      <c r="I5" s="251"/>
-      <c r="J5" s="252" t="s">
+      <c r="F5" s="265"/>
+      <c r="G5" s="265"/>
+      <c r="H5" s="265"/>
+      <c r="I5" s="265"/>
+      <c r="J5" s="266" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="253"/>
-      <c r="L5" s="254"/>
-      <c r="M5" s="252" t="s">
+      <c r="K5" s="267"/>
+      <c r="L5" s="268"/>
+      <c r="M5" s="266" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="253"/>
-      <c r="O5" s="253"/>
-      <c r="P5" s="253"/>
-      <c r="Q5" s="253"/>
-      <c r="R5" s="254"/>
-      <c r="S5" s="258" t="s">
+      <c r="N5" s="267"/>
+      <c r="O5" s="267"/>
+      <c r="P5" s="267"/>
+      <c r="Q5" s="267"/>
+      <c r="R5" s="268"/>
+      <c r="S5" s="263" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="258"/>
-      <c r="U5" s="258"/>
-      <c r="V5" s="269" t="s">
+      <c r="T5" s="263"/>
+      <c r="U5" s="263"/>
+      <c r="V5" s="272" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="269"/>
-      <c r="X5" s="269"/>
-      <c r="Y5" s="269"/>
-      <c r="Z5" s="269"/>
-      <c r="AA5" s="269"/>
-      <c r="AB5" s="269"/>
-      <c r="AC5" s="269"/>
-      <c r="AD5" s="269"/>
-      <c r="AE5" s="269"/>
-      <c r="AF5" s="269"/>
-      <c r="AG5" s="269"/>
-      <c r="AH5" s="269"/>
-      <c r="AI5" s="269"/>
-      <c r="AJ5" s="269"/>
-      <c r="AK5" s="269"/>
-      <c r="AL5" s="269"/>
-      <c r="AM5" s="269"/>
-      <c r="AN5" s="258" t="s">
+      <c r="W5" s="272"/>
+      <c r="X5" s="272"/>
+      <c r="Y5" s="272"/>
+      <c r="Z5" s="272"/>
+      <c r="AA5" s="272"/>
+      <c r="AB5" s="272"/>
+      <c r="AC5" s="272"/>
+      <c r="AD5" s="272"/>
+      <c r="AE5" s="272"/>
+      <c r="AF5" s="272"/>
+      <c r="AG5" s="272"/>
+      <c r="AH5" s="272"/>
+      <c r="AI5" s="272"/>
+      <c r="AJ5" s="272"/>
+      <c r="AK5" s="272"/>
+      <c r="AL5" s="272"/>
+      <c r="AM5" s="272"/>
+      <c r="AN5" s="263" t="s">
         <v>188</v>
       </c>
-      <c r="AO5" s="258"/>
-      <c r="AP5" s="258"/>
-      <c r="AQ5" s="258"/>
-      <c r="AR5" s="258"/>
-      <c r="AS5" s="258"/>
-      <c r="AT5" s="258"/>
-      <c r="AU5" s="258"/>
-      <c r="AV5" s="258"/>
-      <c r="AW5" s="258"/>
+      <c r="AO5" s="263"/>
+      <c r="AP5" s="263"/>
+      <c r="AQ5" s="263"/>
+      <c r="AR5" s="263"/>
+      <c r="AS5" s="263"/>
+      <c r="AT5" s="263"/>
+      <c r="AU5" s="263"/>
+      <c r="AV5" s="263"/>
+      <c r="AW5" s="263"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="56"/>
-      <c r="B6" s="270"/>
-      <c r="C6" s="270"/>
-      <c r="D6" s="270"/>
-      <c r="E6" s="251"/>
-      <c r="F6" s="251"/>
-      <c r="G6" s="251"/>
-      <c r="H6" s="251"/>
-      <c r="I6" s="251"/>
-      <c r="J6" s="252"/>
-      <c r="K6" s="253"/>
-      <c r="L6" s="254"/>
-      <c r="M6" s="273"/>
-      <c r="N6" s="274"/>
-      <c r="O6" s="274"/>
-      <c r="P6" s="274"/>
-      <c r="Q6" s="274"/>
-      <c r="R6" s="275"/>
-      <c r="S6" s="258"/>
-      <c r="T6" s="258"/>
-      <c r="U6" s="258"/>
-      <c r="V6" s="269"/>
-      <c r="W6" s="269"/>
-      <c r="X6" s="269"/>
-      <c r="Y6" s="269"/>
-      <c r="Z6" s="269"/>
-      <c r="AA6" s="269"/>
-      <c r="AB6" s="269"/>
-      <c r="AC6" s="269"/>
-      <c r="AD6" s="269"/>
-      <c r="AE6" s="269"/>
-      <c r="AF6" s="269"/>
-      <c r="AG6" s="269"/>
-      <c r="AH6" s="269"/>
-      <c r="AI6" s="269"/>
-      <c r="AJ6" s="269"/>
-      <c r="AK6" s="269"/>
-      <c r="AL6" s="269"/>
-      <c r="AM6" s="269"/>
-      <c r="AN6" s="258"/>
-      <c r="AO6" s="258"/>
-      <c r="AP6" s="258"/>
-      <c r="AQ6" s="258"/>
-      <c r="AR6" s="258"/>
-      <c r="AS6" s="258"/>
-      <c r="AT6" s="258"/>
-      <c r="AU6" s="258"/>
-      <c r="AV6" s="258"/>
-      <c r="AW6" s="258"/>
+      <c r="B6" s="264"/>
+      <c r="C6" s="264"/>
+      <c r="D6" s="264"/>
+      <c r="E6" s="265"/>
+      <c r="F6" s="265"/>
+      <c r="G6" s="265"/>
+      <c r="H6" s="265"/>
+      <c r="I6" s="265"/>
+      <c r="J6" s="266"/>
+      <c r="K6" s="267"/>
+      <c r="L6" s="268"/>
+      <c r="M6" s="269"/>
+      <c r="N6" s="270"/>
+      <c r="O6" s="270"/>
+      <c r="P6" s="270"/>
+      <c r="Q6" s="270"/>
+      <c r="R6" s="271"/>
+      <c r="S6" s="263"/>
+      <c r="T6" s="263"/>
+      <c r="U6" s="263"/>
+      <c r="V6" s="272"/>
+      <c r="W6" s="272"/>
+      <c r="X6" s="272"/>
+      <c r="Y6" s="272"/>
+      <c r="Z6" s="272"/>
+      <c r="AA6" s="272"/>
+      <c r="AB6" s="272"/>
+      <c r="AC6" s="272"/>
+      <c r="AD6" s="272"/>
+      <c r="AE6" s="272"/>
+      <c r="AF6" s="272"/>
+      <c r="AG6" s="272"/>
+      <c r="AH6" s="272"/>
+      <c r="AI6" s="272"/>
+      <c r="AJ6" s="272"/>
+      <c r="AK6" s="272"/>
+      <c r="AL6" s="272"/>
+      <c r="AM6" s="272"/>
+      <c r="AN6" s="263"/>
+      <c r="AO6" s="263"/>
+      <c r="AP6" s="263"/>
+      <c r="AQ6" s="263"/>
+      <c r="AR6" s="263"/>
+      <c r="AS6" s="263"/>
+      <c r="AT6" s="263"/>
+      <c r="AU6" s="263"/>
+      <c r="AV6" s="263"/>
+      <c r="AW6" s="263"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="56"/>
-      <c r="B7" s="270"/>
-      <c r="C7" s="270"/>
-      <c r="D7" s="270"/>
-      <c r="E7" s="251"/>
-      <c r="F7" s="251"/>
-      <c r="G7" s="251"/>
-      <c r="H7" s="251"/>
-      <c r="I7" s="251"/>
-      <c r="J7" s="252"/>
-      <c r="K7" s="253"/>
-      <c r="L7" s="254"/>
-      <c r="M7" s="273"/>
-      <c r="N7" s="274"/>
-      <c r="O7" s="274"/>
-      <c r="P7" s="274"/>
-      <c r="Q7" s="274"/>
-      <c r="R7" s="275"/>
-      <c r="S7" s="258"/>
-      <c r="T7" s="258"/>
-      <c r="U7" s="258"/>
-      <c r="V7" s="269"/>
-      <c r="W7" s="269"/>
-      <c r="X7" s="269"/>
-      <c r="Y7" s="269"/>
-      <c r="Z7" s="269"/>
-      <c r="AA7" s="269"/>
-      <c r="AB7" s="269"/>
-      <c r="AC7" s="269"/>
-      <c r="AD7" s="269"/>
-      <c r="AE7" s="269"/>
-      <c r="AF7" s="269"/>
-      <c r="AG7" s="269"/>
-      <c r="AH7" s="269"/>
-      <c r="AI7" s="269"/>
-      <c r="AJ7" s="269"/>
-      <c r="AK7" s="269"/>
-      <c r="AL7" s="269"/>
-      <c r="AM7" s="269"/>
-      <c r="AN7" s="258"/>
-      <c r="AO7" s="258"/>
-      <c r="AP7" s="258"/>
-      <c r="AQ7" s="258"/>
-      <c r="AR7" s="258"/>
-      <c r="AS7" s="258"/>
-      <c r="AT7" s="258"/>
-      <c r="AU7" s="258"/>
-      <c r="AV7" s="258"/>
-      <c r="AW7" s="258"/>
+      <c r="B7" s="264"/>
+      <c r="C7" s="264"/>
+      <c r="D7" s="264"/>
+      <c r="E7" s="265"/>
+      <c r="F7" s="265"/>
+      <c r="G7" s="265"/>
+      <c r="H7" s="265"/>
+      <c r="I7" s="265"/>
+      <c r="J7" s="266"/>
+      <c r="K7" s="267"/>
+      <c r="L7" s="268"/>
+      <c r="M7" s="269"/>
+      <c r="N7" s="270"/>
+      <c r="O7" s="270"/>
+      <c r="P7" s="270"/>
+      <c r="Q7" s="270"/>
+      <c r="R7" s="271"/>
+      <c r="S7" s="263"/>
+      <c r="T7" s="263"/>
+      <c r="U7" s="263"/>
+      <c r="V7" s="272"/>
+      <c r="W7" s="272"/>
+      <c r="X7" s="272"/>
+      <c r="Y7" s="272"/>
+      <c r="Z7" s="272"/>
+      <c r="AA7" s="272"/>
+      <c r="AB7" s="272"/>
+      <c r="AC7" s="272"/>
+      <c r="AD7" s="272"/>
+      <c r="AE7" s="272"/>
+      <c r="AF7" s="272"/>
+      <c r="AG7" s="272"/>
+      <c r="AH7" s="272"/>
+      <c r="AI7" s="272"/>
+      <c r="AJ7" s="272"/>
+      <c r="AK7" s="272"/>
+      <c r="AL7" s="272"/>
+      <c r="AM7" s="272"/>
+      <c r="AN7" s="263"/>
+      <c r="AO7" s="263"/>
+      <c r="AP7" s="263"/>
+      <c r="AQ7" s="263"/>
+      <c r="AR7" s="263"/>
+      <c r="AS7" s="263"/>
+      <c r="AT7" s="263"/>
+      <c r="AU7" s="263"/>
+      <c r="AV7" s="263"/>
+      <c r="AW7" s="263"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="56"/>
-      <c r="B8" s="270"/>
-      <c r="C8" s="270"/>
-      <c r="D8" s="270"/>
-      <c r="E8" s="251"/>
-      <c r="F8" s="251"/>
-      <c r="G8" s="251"/>
-      <c r="H8" s="251"/>
-      <c r="I8" s="251"/>
-      <c r="J8" s="252"/>
-      <c r="K8" s="253"/>
-      <c r="L8" s="254"/>
-      <c r="M8" s="273"/>
-      <c r="N8" s="274"/>
-      <c r="O8" s="274"/>
-      <c r="P8" s="274"/>
-      <c r="Q8" s="274"/>
-      <c r="R8" s="275"/>
-      <c r="S8" s="258"/>
-      <c r="T8" s="258"/>
-      <c r="U8" s="258"/>
-      <c r="V8" s="269"/>
-      <c r="W8" s="269"/>
-      <c r="X8" s="269"/>
-      <c r="Y8" s="269"/>
-      <c r="Z8" s="269"/>
-      <c r="AA8" s="269"/>
-      <c r="AB8" s="269"/>
-      <c r="AC8" s="269"/>
-      <c r="AD8" s="269"/>
-      <c r="AE8" s="269"/>
-      <c r="AF8" s="269"/>
-      <c r="AG8" s="269"/>
-      <c r="AH8" s="269"/>
-      <c r="AI8" s="269"/>
-      <c r="AJ8" s="269"/>
-      <c r="AK8" s="269"/>
-      <c r="AL8" s="269"/>
-      <c r="AM8" s="269"/>
-      <c r="AN8" s="258"/>
-      <c r="AO8" s="258"/>
-      <c r="AP8" s="258"/>
-      <c r="AQ8" s="258"/>
-      <c r="AR8" s="258"/>
-      <c r="AS8" s="258"/>
-      <c r="AT8" s="258"/>
-      <c r="AU8" s="258"/>
-      <c r="AV8" s="258"/>
-      <c r="AW8" s="258"/>
+      <c r="B8" s="264"/>
+      <c r="C8" s="264"/>
+      <c r="D8" s="264"/>
+      <c r="E8" s="265"/>
+      <c r="F8" s="265"/>
+      <c r="G8" s="265"/>
+      <c r="H8" s="265"/>
+      <c r="I8" s="265"/>
+      <c r="J8" s="266"/>
+      <c r="K8" s="267"/>
+      <c r="L8" s="268"/>
+      <c r="M8" s="269"/>
+      <c r="N8" s="270"/>
+      <c r="O8" s="270"/>
+      <c r="P8" s="270"/>
+      <c r="Q8" s="270"/>
+      <c r="R8" s="271"/>
+      <c r="S8" s="263"/>
+      <c r="T8" s="263"/>
+      <c r="U8" s="263"/>
+      <c r="V8" s="272"/>
+      <c r="W8" s="272"/>
+      <c r="X8" s="272"/>
+      <c r="Y8" s="272"/>
+      <c r="Z8" s="272"/>
+      <c r="AA8" s="272"/>
+      <c r="AB8" s="272"/>
+      <c r="AC8" s="272"/>
+      <c r="AD8" s="272"/>
+      <c r="AE8" s="272"/>
+      <c r="AF8" s="272"/>
+      <c r="AG8" s="272"/>
+      <c r="AH8" s="272"/>
+      <c r="AI8" s="272"/>
+      <c r="AJ8" s="272"/>
+      <c r="AK8" s="272"/>
+      <c r="AL8" s="272"/>
+      <c r="AM8" s="272"/>
+      <c r="AN8" s="263"/>
+      <c r="AO8" s="263"/>
+      <c r="AP8" s="263"/>
+      <c r="AQ8" s="263"/>
+      <c r="AR8" s="263"/>
+      <c r="AS8" s="263"/>
+      <c r="AT8" s="263"/>
+      <c r="AU8" s="263"/>
+      <c r="AV8" s="263"/>
+      <c r="AW8" s="263"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="56"/>
-      <c r="B9" s="270"/>
-      <c r="C9" s="270"/>
-      <c r="D9" s="270"/>
-      <c r="E9" s="251"/>
-      <c r="F9" s="251"/>
-      <c r="G9" s="251"/>
-      <c r="H9" s="251"/>
-      <c r="I9" s="251"/>
-      <c r="J9" s="252"/>
-      <c r="K9" s="253"/>
-      <c r="L9" s="254"/>
-      <c r="M9" s="273"/>
-      <c r="N9" s="274"/>
-      <c r="O9" s="274"/>
-      <c r="P9" s="274"/>
-      <c r="Q9" s="274"/>
-      <c r="R9" s="275"/>
-      <c r="S9" s="258"/>
-      <c r="T9" s="258"/>
-      <c r="U9" s="258"/>
-      <c r="V9" s="269"/>
-      <c r="W9" s="269"/>
-      <c r="X9" s="269"/>
-      <c r="Y9" s="269"/>
-      <c r="Z9" s="269"/>
-      <c r="AA9" s="269"/>
-      <c r="AB9" s="269"/>
-      <c r="AC9" s="269"/>
-      <c r="AD9" s="269"/>
-      <c r="AE9" s="269"/>
-      <c r="AF9" s="269"/>
-      <c r="AG9" s="269"/>
-      <c r="AH9" s="269"/>
-      <c r="AI9" s="269"/>
-      <c r="AJ9" s="269"/>
-      <c r="AK9" s="269"/>
-      <c r="AL9" s="269"/>
-      <c r="AM9" s="269"/>
-      <c r="AN9" s="258"/>
-      <c r="AO9" s="258"/>
-      <c r="AP9" s="258"/>
-      <c r="AQ9" s="258"/>
-      <c r="AR9" s="258"/>
-      <c r="AS9" s="258"/>
-      <c r="AT9" s="258"/>
-      <c r="AU9" s="258"/>
-      <c r="AV9" s="258"/>
-      <c r="AW9" s="258"/>
+      <c r="B9" s="264"/>
+      <c r="C9" s="264"/>
+      <c r="D9" s="264"/>
+      <c r="E9" s="265"/>
+      <c r="F9" s="265"/>
+      <c r="G9" s="265"/>
+      <c r="H9" s="265"/>
+      <c r="I9" s="265"/>
+      <c r="J9" s="266"/>
+      <c r="K9" s="267"/>
+      <c r="L9" s="268"/>
+      <c r="M9" s="269"/>
+      <c r="N9" s="270"/>
+      <c r="O9" s="270"/>
+      <c r="P9" s="270"/>
+      <c r="Q9" s="270"/>
+      <c r="R9" s="271"/>
+      <c r="S9" s="263"/>
+      <c r="T9" s="263"/>
+      <c r="U9" s="263"/>
+      <c r="V9" s="272"/>
+      <c r="W9" s="272"/>
+      <c r="X9" s="272"/>
+      <c r="Y9" s="272"/>
+      <c r="Z9" s="272"/>
+      <c r="AA9" s="272"/>
+      <c r="AB9" s="272"/>
+      <c r="AC9" s="272"/>
+      <c r="AD9" s="272"/>
+      <c r="AE9" s="272"/>
+      <c r="AF9" s="272"/>
+      <c r="AG9" s="272"/>
+      <c r="AH9" s="272"/>
+      <c r="AI9" s="272"/>
+      <c r="AJ9" s="272"/>
+      <c r="AK9" s="272"/>
+      <c r="AL9" s="272"/>
+      <c r="AM9" s="272"/>
+      <c r="AN9" s="263"/>
+      <c r="AO9" s="263"/>
+      <c r="AP9" s="263"/>
+      <c r="AQ9" s="263"/>
+      <c r="AR9" s="263"/>
+      <c r="AS9" s="263"/>
+      <c r="AT9" s="263"/>
+      <c r="AU9" s="263"/>
+      <c r="AV9" s="263"/>
+      <c r="AW9" s="263"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="56"/>
-      <c r="B10" s="270"/>
-      <c r="C10" s="270"/>
-      <c r="D10" s="270"/>
-      <c r="E10" s="251"/>
-      <c r="F10" s="251"/>
-      <c r="G10" s="251"/>
-      <c r="H10" s="251"/>
-      <c r="I10" s="251"/>
-      <c r="J10" s="252"/>
-      <c r="K10" s="253"/>
-      <c r="L10" s="254"/>
-      <c r="M10" s="273"/>
-      <c r="N10" s="274"/>
-      <c r="O10" s="274"/>
-      <c r="P10" s="274"/>
-      <c r="Q10" s="274"/>
-      <c r="R10" s="275"/>
-      <c r="S10" s="258"/>
-      <c r="T10" s="258"/>
-      <c r="U10" s="258"/>
-      <c r="V10" s="269"/>
-      <c r="W10" s="269"/>
-      <c r="X10" s="269"/>
-      <c r="Y10" s="269"/>
-      <c r="Z10" s="269"/>
-      <c r="AA10" s="269"/>
-      <c r="AB10" s="269"/>
-      <c r="AC10" s="269"/>
-      <c r="AD10" s="269"/>
-      <c r="AE10" s="269"/>
-      <c r="AF10" s="269"/>
-      <c r="AG10" s="269"/>
-      <c r="AH10" s="269"/>
-      <c r="AI10" s="269"/>
-      <c r="AJ10" s="269"/>
-      <c r="AK10" s="269"/>
-      <c r="AL10" s="269"/>
-      <c r="AM10" s="269"/>
-      <c r="AN10" s="258"/>
-      <c r="AO10" s="258"/>
-      <c r="AP10" s="258"/>
-      <c r="AQ10" s="258"/>
-      <c r="AR10" s="258"/>
-      <c r="AS10" s="258"/>
-      <c r="AT10" s="258"/>
-      <c r="AU10" s="258"/>
-      <c r="AV10" s="258"/>
-      <c r="AW10" s="258"/>
+      <c r="B10" s="264"/>
+      <c r="C10" s="264"/>
+      <c r="D10" s="264"/>
+      <c r="E10" s="265"/>
+      <c r="F10" s="265"/>
+      <c r="G10" s="265"/>
+      <c r="H10" s="265"/>
+      <c r="I10" s="265"/>
+      <c r="J10" s="266"/>
+      <c r="K10" s="267"/>
+      <c r="L10" s="268"/>
+      <c r="M10" s="269"/>
+      <c r="N10" s="270"/>
+      <c r="O10" s="270"/>
+      <c r="P10" s="270"/>
+      <c r="Q10" s="270"/>
+      <c r="R10" s="271"/>
+      <c r="S10" s="263"/>
+      <c r="T10" s="263"/>
+      <c r="U10" s="263"/>
+      <c r="V10" s="272"/>
+      <c r="W10" s="272"/>
+      <c r="X10" s="272"/>
+      <c r="Y10" s="272"/>
+      <c r="Z10" s="272"/>
+      <c r="AA10" s="272"/>
+      <c r="AB10" s="272"/>
+      <c r="AC10" s="272"/>
+      <c r="AD10" s="272"/>
+      <c r="AE10" s="272"/>
+      <c r="AF10" s="272"/>
+      <c r="AG10" s="272"/>
+      <c r="AH10" s="272"/>
+      <c r="AI10" s="272"/>
+      <c r="AJ10" s="272"/>
+      <c r="AK10" s="272"/>
+      <c r="AL10" s="272"/>
+      <c r="AM10" s="272"/>
+      <c r="AN10" s="263"/>
+      <c r="AO10" s="263"/>
+      <c r="AP10" s="263"/>
+      <c r="AQ10" s="263"/>
+      <c r="AR10" s="263"/>
+      <c r="AS10" s="263"/>
+      <c r="AT10" s="263"/>
+      <c r="AU10" s="263"/>
+      <c r="AV10" s="263"/>
+      <c r="AW10" s="263"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="56"/>
-      <c r="B11" s="270"/>
-      <c r="C11" s="270"/>
-      <c r="D11" s="270"/>
-      <c r="E11" s="251"/>
-      <c r="F11" s="251"/>
-      <c r="G11" s="251"/>
-      <c r="H11" s="251"/>
-      <c r="I11" s="251"/>
-      <c r="J11" s="252"/>
-      <c r="K11" s="253"/>
-      <c r="L11" s="254"/>
-      <c r="M11" s="265"/>
-      <c r="N11" s="263"/>
-      <c r="O11" s="263"/>
-      <c r="P11" s="263"/>
-      <c r="Q11" s="263"/>
-      <c r="R11" s="264"/>
-      <c r="S11" s="258"/>
-      <c r="T11" s="258"/>
-      <c r="U11" s="258"/>
-      <c r="V11" s="259"/>
-      <c r="W11" s="271"/>
-      <c r="X11" s="271"/>
-      <c r="Y11" s="271"/>
-      <c r="Z11" s="271"/>
-      <c r="AA11" s="271"/>
-      <c r="AB11" s="271"/>
-      <c r="AC11" s="271"/>
-      <c r="AD11" s="271"/>
-      <c r="AE11" s="271"/>
-      <c r="AF11" s="271"/>
-      <c r="AG11" s="271"/>
-      <c r="AH11" s="271"/>
-      <c r="AI11" s="271"/>
-      <c r="AJ11" s="271"/>
-      <c r="AK11" s="271"/>
-      <c r="AL11" s="271"/>
-      <c r="AM11" s="272"/>
-      <c r="AN11" s="258"/>
-      <c r="AO11" s="258"/>
-      <c r="AP11" s="258"/>
-      <c r="AQ11" s="258"/>
-      <c r="AR11" s="258"/>
-      <c r="AS11" s="258"/>
-      <c r="AT11" s="258"/>
-      <c r="AU11" s="258"/>
-      <c r="AV11" s="258"/>
-      <c r="AW11" s="258"/>
+      <c r="B11" s="264"/>
+      <c r="C11" s="264"/>
+      <c r="D11" s="264"/>
+      <c r="E11" s="265"/>
+      <c r="F11" s="265"/>
+      <c r="G11" s="265"/>
+      <c r="H11" s="265"/>
+      <c r="I11" s="265"/>
+      <c r="J11" s="266"/>
+      <c r="K11" s="267"/>
+      <c r="L11" s="268"/>
+      <c r="M11" s="276"/>
+      <c r="N11" s="277"/>
+      <c r="O11" s="277"/>
+      <c r="P11" s="277"/>
+      <c r="Q11" s="277"/>
+      <c r="R11" s="278"/>
+      <c r="S11" s="263"/>
+      <c r="T11" s="263"/>
+      <c r="U11" s="263"/>
+      <c r="V11" s="279"/>
+      <c r="W11" s="285"/>
+      <c r="X11" s="285"/>
+      <c r="Y11" s="285"/>
+      <c r="Z11" s="285"/>
+      <c r="AA11" s="285"/>
+      <c r="AB11" s="285"/>
+      <c r="AC11" s="285"/>
+      <c r="AD11" s="285"/>
+      <c r="AE11" s="285"/>
+      <c r="AF11" s="285"/>
+      <c r="AG11" s="285"/>
+      <c r="AH11" s="285"/>
+      <c r="AI11" s="285"/>
+      <c r="AJ11" s="285"/>
+      <c r="AK11" s="285"/>
+      <c r="AL11" s="285"/>
+      <c r="AM11" s="286"/>
+      <c r="AN11" s="263"/>
+      <c r="AO11" s="263"/>
+      <c r="AP11" s="263"/>
+      <c r="AQ11" s="263"/>
+      <c r="AR11" s="263"/>
+      <c r="AS11" s="263"/>
+      <c r="AT11" s="263"/>
+      <c r="AU11" s="263"/>
+      <c r="AV11" s="263"/>
+      <c r="AW11" s="263"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="56"/>
-      <c r="B12" s="248"/>
-      <c r="C12" s="249"/>
-      <c r="D12" s="250"/>
-      <c r="E12" s="251"/>
-      <c r="F12" s="251"/>
-      <c r="G12" s="251"/>
-      <c r="H12" s="251"/>
-      <c r="I12" s="251"/>
-      <c r="J12" s="252"/>
-      <c r="K12" s="253"/>
-      <c r="L12" s="254"/>
-      <c r="M12" s="265"/>
-      <c r="N12" s="263"/>
-      <c r="O12" s="263"/>
-      <c r="P12" s="263"/>
-      <c r="Q12" s="263"/>
-      <c r="R12" s="264"/>
-      <c r="S12" s="258"/>
-      <c r="T12" s="258"/>
-      <c r="U12" s="258"/>
-      <c r="V12" s="259"/>
-      <c r="W12" s="260"/>
-      <c r="X12" s="260"/>
-      <c r="Y12" s="260"/>
-      <c r="Z12" s="260"/>
-      <c r="AA12" s="260"/>
-      <c r="AB12" s="260"/>
-      <c r="AC12" s="260"/>
-      <c r="AD12" s="260"/>
-      <c r="AE12" s="260"/>
-      <c r="AF12" s="260"/>
-      <c r="AG12" s="260"/>
-      <c r="AH12" s="260"/>
-      <c r="AI12" s="260"/>
-      <c r="AJ12" s="260"/>
-      <c r="AK12" s="260"/>
-      <c r="AL12" s="260"/>
-      <c r="AM12" s="261"/>
-      <c r="AN12" s="245"/>
-      <c r="AO12" s="246"/>
-      <c r="AP12" s="246"/>
-      <c r="AQ12" s="246"/>
-      <c r="AR12" s="247"/>
-      <c r="AS12" s="245"/>
-      <c r="AT12" s="246"/>
-      <c r="AU12" s="246"/>
-      <c r="AV12" s="246"/>
-      <c r="AW12" s="247"/>
+      <c r="B12" s="273"/>
+      <c r="C12" s="274"/>
+      <c r="D12" s="275"/>
+      <c r="E12" s="265"/>
+      <c r="F12" s="265"/>
+      <c r="G12" s="265"/>
+      <c r="H12" s="265"/>
+      <c r="I12" s="265"/>
+      <c r="J12" s="266"/>
+      <c r="K12" s="267"/>
+      <c r="L12" s="268"/>
+      <c r="M12" s="276"/>
+      <c r="N12" s="277"/>
+      <c r="O12" s="277"/>
+      <c r="P12" s="277"/>
+      <c r="Q12" s="277"/>
+      <c r="R12" s="278"/>
+      <c r="S12" s="263"/>
+      <c r="T12" s="263"/>
+      <c r="U12" s="263"/>
+      <c r="V12" s="279"/>
+      <c r="W12" s="280"/>
+      <c r="X12" s="280"/>
+      <c r="Y12" s="280"/>
+      <c r="Z12" s="280"/>
+      <c r="AA12" s="280"/>
+      <c r="AB12" s="280"/>
+      <c r="AC12" s="280"/>
+      <c r="AD12" s="280"/>
+      <c r="AE12" s="280"/>
+      <c r="AF12" s="280"/>
+      <c r="AG12" s="280"/>
+      <c r="AH12" s="280"/>
+      <c r="AI12" s="280"/>
+      <c r="AJ12" s="280"/>
+      <c r="AK12" s="280"/>
+      <c r="AL12" s="280"/>
+      <c r="AM12" s="281"/>
+      <c r="AN12" s="282"/>
+      <c r="AO12" s="283"/>
+      <c r="AP12" s="283"/>
+      <c r="AQ12" s="283"/>
+      <c r="AR12" s="284"/>
+      <c r="AS12" s="282"/>
+      <c r="AT12" s="283"/>
+      <c r="AU12" s="283"/>
+      <c r="AV12" s="283"/>
+      <c r="AW12" s="284"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="56"/>
-      <c r="B13" s="248"/>
-      <c r="C13" s="249"/>
-      <c r="D13" s="250"/>
-      <c r="E13" s="251"/>
-      <c r="F13" s="251"/>
-      <c r="G13" s="251"/>
-      <c r="H13" s="251"/>
-      <c r="I13" s="251"/>
-      <c r="J13" s="252"/>
-      <c r="K13" s="253"/>
-      <c r="L13" s="254"/>
-      <c r="M13" s="262"/>
-      <c r="N13" s="263"/>
-      <c r="O13" s="263"/>
-      <c r="P13" s="263"/>
-      <c r="Q13" s="263"/>
-      <c r="R13" s="264"/>
-      <c r="S13" s="258"/>
-      <c r="T13" s="258"/>
-      <c r="U13" s="258"/>
-      <c r="V13" s="259"/>
-      <c r="W13" s="260"/>
-      <c r="X13" s="260"/>
-      <c r="Y13" s="260"/>
-      <c r="Z13" s="260"/>
-      <c r="AA13" s="260"/>
-      <c r="AB13" s="260"/>
-      <c r="AC13" s="260"/>
-      <c r="AD13" s="260"/>
-      <c r="AE13" s="260"/>
-      <c r="AF13" s="260"/>
-      <c r="AG13" s="260"/>
-      <c r="AH13" s="260"/>
-      <c r="AI13" s="260"/>
-      <c r="AJ13" s="260"/>
-      <c r="AK13" s="260"/>
-      <c r="AL13" s="260"/>
-      <c r="AM13" s="261"/>
-      <c r="AN13" s="245"/>
-      <c r="AO13" s="246"/>
-      <c r="AP13" s="246"/>
-      <c r="AQ13" s="246"/>
-      <c r="AR13" s="247"/>
-      <c r="AS13" s="245"/>
-      <c r="AT13" s="246"/>
-      <c r="AU13" s="246"/>
-      <c r="AV13" s="246"/>
-      <c r="AW13" s="247"/>
+      <c r="B13" s="273"/>
+      <c r="C13" s="274"/>
+      <c r="D13" s="275"/>
+      <c r="E13" s="265"/>
+      <c r="F13" s="265"/>
+      <c r="G13" s="265"/>
+      <c r="H13" s="265"/>
+      <c r="I13" s="265"/>
+      <c r="J13" s="266"/>
+      <c r="K13" s="267"/>
+      <c r="L13" s="268"/>
+      <c r="M13" s="287"/>
+      <c r="N13" s="277"/>
+      <c r="O13" s="277"/>
+      <c r="P13" s="277"/>
+      <c r="Q13" s="277"/>
+      <c r="R13" s="278"/>
+      <c r="S13" s="263"/>
+      <c r="T13" s="263"/>
+      <c r="U13" s="263"/>
+      <c r="V13" s="279"/>
+      <c r="W13" s="280"/>
+      <c r="X13" s="280"/>
+      <c r="Y13" s="280"/>
+      <c r="Z13" s="280"/>
+      <c r="AA13" s="280"/>
+      <c r="AB13" s="280"/>
+      <c r="AC13" s="280"/>
+      <c r="AD13" s="280"/>
+      <c r="AE13" s="280"/>
+      <c r="AF13" s="280"/>
+      <c r="AG13" s="280"/>
+      <c r="AH13" s="280"/>
+      <c r="AI13" s="280"/>
+      <c r="AJ13" s="280"/>
+      <c r="AK13" s="280"/>
+      <c r="AL13" s="280"/>
+      <c r="AM13" s="281"/>
+      <c r="AN13" s="282"/>
+      <c r="AO13" s="283"/>
+      <c r="AP13" s="283"/>
+      <c r="AQ13" s="283"/>
+      <c r="AR13" s="284"/>
+      <c r="AS13" s="282"/>
+      <c r="AT13" s="283"/>
+      <c r="AU13" s="283"/>
+      <c r="AV13" s="283"/>
+      <c r="AW13" s="284"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="56"/>
-      <c r="B14" s="248"/>
-      <c r="C14" s="249"/>
-      <c r="D14" s="250"/>
-      <c r="E14" s="251"/>
-      <c r="F14" s="251"/>
-      <c r="G14" s="251"/>
-      <c r="H14" s="251"/>
-      <c r="I14" s="251"/>
-      <c r="J14" s="252"/>
-      <c r="K14" s="253"/>
-      <c r="L14" s="254"/>
-      <c r="M14" s="262"/>
-      <c r="N14" s="263"/>
-      <c r="O14" s="263"/>
-      <c r="P14" s="263"/>
-      <c r="Q14" s="263"/>
-      <c r="R14" s="264"/>
-      <c r="S14" s="258"/>
-      <c r="T14" s="258"/>
-      <c r="U14" s="258"/>
-      <c r="V14" s="268"/>
-      <c r="W14" s="269"/>
-      <c r="X14" s="269"/>
-      <c r="Y14" s="269"/>
-      <c r="Z14" s="269"/>
-      <c r="AA14" s="269"/>
-      <c r="AB14" s="269"/>
-      <c r="AC14" s="269"/>
-      <c r="AD14" s="269"/>
-      <c r="AE14" s="269"/>
-      <c r="AF14" s="269"/>
-      <c r="AG14" s="269"/>
-      <c r="AH14" s="269"/>
-      <c r="AI14" s="269"/>
-      <c r="AJ14" s="269"/>
-      <c r="AK14" s="269"/>
-      <c r="AL14" s="269"/>
-      <c r="AM14" s="269"/>
-      <c r="AN14" s="258"/>
-      <c r="AO14" s="258"/>
-      <c r="AP14" s="258"/>
-      <c r="AQ14" s="258"/>
-      <c r="AR14" s="258"/>
-      <c r="AS14" s="245"/>
-      <c r="AT14" s="246"/>
-      <c r="AU14" s="246"/>
-      <c r="AV14" s="246"/>
-      <c r="AW14" s="247"/>
+      <c r="B14" s="273"/>
+      <c r="C14" s="274"/>
+      <c r="D14" s="275"/>
+      <c r="E14" s="265"/>
+      <c r="F14" s="265"/>
+      <c r="G14" s="265"/>
+      <c r="H14" s="265"/>
+      <c r="I14" s="265"/>
+      <c r="J14" s="266"/>
+      <c r="K14" s="267"/>
+      <c r="L14" s="268"/>
+      <c r="M14" s="287"/>
+      <c r="N14" s="277"/>
+      <c r="O14" s="277"/>
+      <c r="P14" s="277"/>
+      <c r="Q14" s="277"/>
+      <c r="R14" s="278"/>
+      <c r="S14" s="263"/>
+      <c r="T14" s="263"/>
+      <c r="U14" s="263"/>
+      <c r="V14" s="288"/>
+      <c r="W14" s="272"/>
+      <c r="X14" s="272"/>
+      <c r="Y14" s="272"/>
+      <c r="Z14" s="272"/>
+      <c r="AA14" s="272"/>
+      <c r="AB14" s="272"/>
+      <c r="AC14" s="272"/>
+      <c r="AD14" s="272"/>
+      <c r="AE14" s="272"/>
+      <c r="AF14" s="272"/>
+      <c r="AG14" s="272"/>
+      <c r="AH14" s="272"/>
+      <c r="AI14" s="272"/>
+      <c r="AJ14" s="272"/>
+      <c r="AK14" s="272"/>
+      <c r="AL14" s="272"/>
+      <c r="AM14" s="272"/>
+      <c r="AN14" s="263"/>
+      <c r="AO14" s="263"/>
+      <c r="AP14" s="263"/>
+      <c r="AQ14" s="263"/>
+      <c r="AR14" s="263"/>
+      <c r="AS14" s="282"/>
+      <c r="AT14" s="283"/>
+      <c r="AU14" s="283"/>
+      <c r="AV14" s="283"/>
+      <c r="AW14" s="284"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="56"/>
-      <c r="B15" s="248"/>
-      <c r="C15" s="249"/>
-      <c r="D15" s="250"/>
-      <c r="E15" s="251"/>
-      <c r="F15" s="251"/>
-      <c r="G15" s="251"/>
-      <c r="H15" s="251"/>
-      <c r="I15" s="251"/>
-      <c r="J15" s="252"/>
-      <c r="K15" s="253"/>
-      <c r="L15" s="254"/>
-      <c r="M15" s="265"/>
-      <c r="N15" s="263"/>
-      <c r="O15" s="263"/>
-      <c r="P15" s="263"/>
-      <c r="Q15" s="263"/>
-      <c r="R15" s="264"/>
-      <c r="S15" s="258"/>
-      <c r="T15" s="258"/>
-      <c r="U15" s="258"/>
-      <c r="V15" s="259"/>
-      <c r="W15" s="260"/>
-      <c r="X15" s="260"/>
-      <c r="Y15" s="260"/>
-      <c r="Z15" s="260"/>
-      <c r="AA15" s="260"/>
-      <c r="AB15" s="260"/>
-      <c r="AC15" s="260"/>
-      <c r="AD15" s="260"/>
-      <c r="AE15" s="260"/>
-      <c r="AF15" s="260"/>
-      <c r="AG15" s="260"/>
-      <c r="AH15" s="260"/>
-      <c r="AI15" s="260"/>
-      <c r="AJ15" s="260"/>
-      <c r="AK15" s="260"/>
-      <c r="AL15" s="260"/>
-      <c r="AM15" s="261"/>
-      <c r="AN15" s="245"/>
-      <c r="AO15" s="246"/>
-      <c r="AP15" s="246"/>
-      <c r="AQ15" s="246"/>
-      <c r="AR15" s="247"/>
-      <c r="AS15" s="245"/>
-      <c r="AT15" s="246"/>
-      <c r="AU15" s="246"/>
-      <c r="AV15" s="246"/>
-      <c r="AW15" s="247"/>
+      <c r="B15" s="273"/>
+      <c r="C15" s="274"/>
+      <c r="D15" s="275"/>
+      <c r="E15" s="265"/>
+      <c r="F15" s="265"/>
+      <c r="G15" s="265"/>
+      <c r="H15" s="265"/>
+      <c r="I15" s="265"/>
+      <c r="J15" s="266"/>
+      <c r="K15" s="267"/>
+      <c r="L15" s="268"/>
+      <c r="M15" s="276"/>
+      <c r="N15" s="277"/>
+      <c r="O15" s="277"/>
+      <c r="P15" s="277"/>
+      <c r="Q15" s="277"/>
+      <c r="R15" s="278"/>
+      <c r="S15" s="263"/>
+      <c r="T15" s="263"/>
+      <c r="U15" s="263"/>
+      <c r="V15" s="279"/>
+      <c r="W15" s="280"/>
+      <c r="X15" s="280"/>
+      <c r="Y15" s="280"/>
+      <c r="Z15" s="280"/>
+      <c r="AA15" s="280"/>
+      <c r="AB15" s="280"/>
+      <c r="AC15" s="280"/>
+      <c r="AD15" s="280"/>
+      <c r="AE15" s="280"/>
+      <c r="AF15" s="280"/>
+      <c r="AG15" s="280"/>
+      <c r="AH15" s="280"/>
+      <c r="AI15" s="280"/>
+      <c r="AJ15" s="280"/>
+      <c r="AK15" s="280"/>
+      <c r="AL15" s="280"/>
+      <c r="AM15" s="281"/>
+      <c r="AN15" s="282"/>
+      <c r="AO15" s="283"/>
+      <c r="AP15" s="283"/>
+      <c r="AQ15" s="283"/>
+      <c r="AR15" s="284"/>
+      <c r="AS15" s="282"/>
+      <c r="AT15" s="283"/>
+      <c r="AU15" s="283"/>
+      <c r="AV15" s="283"/>
+      <c r="AW15" s="284"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="56"/>
-      <c r="B16" s="248"/>
-      <c r="C16" s="249"/>
-      <c r="D16" s="250"/>
-      <c r="E16" s="251"/>
-      <c r="F16" s="251"/>
-      <c r="G16" s="251"/>
-      <c r="H16" s="251"/>
-      <c r="I16" s="251"/>
-      <c r="J16" s="252"/>
-      <c r="K16" s="253"/>
-      <c r="L16" s="254"/>
-      <c r="M16" s="265"/>
-      <c r="N16" s="263"/>
-      <c r="O16" s="263"/>
-      <c r="P16" s="263"/>
-      <c r="Q16" s="263"/>
-      <c r="R16" s="264"/>
-      <c r="S16" s="258"/>
-      <c r="T16" s="258"/>
-      <c r="U16" s="258"/>
-      <c r="V16" s="259"/>
-      <c r="W16" s="260"/>
-      <c r="X16" s="260"/>
-      <c r="Y16" s="260"/>
-      <c r="Z16" s="260"/>
-      <c r="AA16" s="260"/>
-      <c r="AB16" s="260"/>
-      <c r="AC16" s="260"/>
-      <c r="AD16" s="260"/>
-      <c r="AE16" s="260"/>
-      <c r="AF16" s="260"/>
-      <c r="AG16" s="260"/>
-      <c r="AH16" s="260"/>
-      <c r="AI16" s="260"/>
-      <c r="AJ16" s="260"/>
-      <c r="AK16" s="260"/>
-      <c r="AL16" s="260"/>
-      <c r="AM16" s="261"/>
-      <c r="AN16" s="245"/>
-      <c r="AO16" s="246"/>
-      <c r="AP16" s="246"/>
-      <c r="AQ16" s="246"/>
-      <c r="AR16" s="247"/>
-      <c r="AS16" s="245"/>
-      <c r="AT16" s="246"/>
-      <c r="AU16" s="246"/>
-      <c r="AV16" s="246"/>
-      <c r="AW16" s="247"/>
+      <c r="B16" s="273"/>
+      <c r="C16" s="274"/>
+      <c r="D16" s="275"/>
+      <c r="E16" s="265"/>
+      <c r="F16" s="265"/>
+      <c r="G16" s="265"/>
+      <c r="H16" s="265"/>
+      <c r="I16" s="265"/>
+      <c r="J16" s="266"/>
+      <c r="K16" s="267"/>
+      <c r="L16" s="268"/>
+      <c r="M16" s="276"/>
+      <c r="N16" s="277"/>
+      <c r="O16" s="277"/>
+      <c r="P16" s="277"/>
+      <c r="Q16" s="277"/>
+      <c r="R16" s="278"/>
+      <c r="S16" s="263"/>
+      <c r="T16" s="263"/>
+      <c r="U16" s="263"/>
+      <c r="V16" s="279"/>
+      <c r="W16" s="280"/>
+      <c r="X16" s="280"/>
+      <c r="Y16" s="280"/>
+      <c r="Z16" s="280"/>
+      <c r="AA16" s="280"/>
+      <c r="AB16" s="280"/>
+      <c r="AC16" s="280"/>
+      <c r="AD16" s="280"/>
+      <c r="AE16" s="280"/>
+      <c r="AF16" s="280"/>
+      <c r="AG16" s="280"/>
+      <c r="AH16" s="280"/>
+      <c r="AI16" s="280"/>
+      <c r="AJ16" s="280"/>
+      <c r="AK16" s="280"/>
+      <c r="AL16" s="280"/>
+      <c r="AM16" s="281"/>
+      <c r="AN16" s="282"/>
+      <c r="AO16" s="283"/>
+      <c r="AP16" s="283"/>
+      <c r="AQ16" s="283"/>
+      <c r="AR16" s="284"/>
+      <c r="AS16" s="282"/>
+      <c r="AT16" s="283"/>
+      <c r="AU16" s="283"/>
+      <c r="AV16" s="283"/>
+      <c r="AW16" s="284"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="56"/>
-      <c r="B17" s="248"/>
-      <c r="C17" s="249"/>
-      <c r="D17" s="250"/>
-      <c r="E17" s="251"/>
-      <c r="F17" s="251"/>
-      <c r="G17" s="251"/>
-      <c r="H17" s="251"/>
-      <c r="I17" s="251"/>
-      <c r="J17" s="252"/>
-      <c r="K17" s="253"/>
-      <c r="L17" s="254"/>
-      <c r="M17" s="265"/>
-      <c r="N17" s="263"/>
-      <c r="O17" s="263"/>
-      <c r="P17" s="263"/>
-      <c r="Q17" s="263"/>
-      <c r="R17" s="266"/>
-      <c r="S17" s="267"/>
-      <c r="T17" s="267"/>
-      <c r="U17" s="267"/>
-      <c r="V17" s="259"/>
-      <c r="W17" s="260"/>
-      <c r="X17" s="260"/>
-      <c r="Y17" s="260"/>
-      <c r="Z17" s="260"/>
-      <c r="AA17" s="260"/>
-      <c r="AB17" s="260"/>
-      <c r="AC17" s="260"/>
-      <c r="AD17" s="260"/>
-      <c r="AE17" s="260"/>
-      <c r="AF17" s="260"/>
-      <c r="AG17" s="260"/>
-      <c r="AH17" s="260"/>
-      <c r="AI17" s="260"/>
-      <c r="AJ17" s="260"/>
-      <c r="AK17" s="260"/>
-      <c r="AL17" s="260"/>
-      <c r="AM17" s="261"/>
-      <c r="AN17" s="245"/>
-      <c r="AO17" s="246"/>
-      <c r="AP17" s="246"/>
-      <c r="AQ17" s="246"/>
-      <c r="AR17" s="247"/>
-      <c r="AS17" s="245"/>
-      <c r="AT17" s="246"/>
-      <c r="AU17" s="246"/>
-      <c r="AV17" s="246"/>
-      <c r="AW17" s="247"/>
+      <c r="B17" s="273"/>
+      <c r="C17" s="274"/>
+      <c r="D17" s="275"/>
+      <c r="E17" s="265"/>
+      <c r="F17" s="265"/>
+      <c r="G17" s="265"/>
+      <c r="H17" s="265"/>
+      <c r="I17" s="265"/>
+      <c r="J17" s="266"/>
+      <c r="K17" s="267"/>
+      <c r="L17" s="268"/>
+      <c r="M17" s="276"/>
+      <c r="N17" s="277"/>
+      <c r="O17" s="277"/>
+      <c r="P17" s="277"/>
+      <c r="Q17" s="277"/>
+      <c r="R17" s="289"/>
+      <c r="S17" s="290"/>
+      <c r="T17" s="290"/>
+      <c r="U17" s="290"/>
+      <c r="V17" s="279"/>
+      <c r="W17" s="280"/>
+      <c r="X17" s="280"/>
+      <c r="Y17" s="280"/>
+      <c r="Z17" s="280"/>
+      <c r="AA17" s="280"/>
+      <c r="AB17" s="280"/>
+      <c r="AC17" s="280"/>
+      <c r="AD17" s="280"/>
+      <c r="AE17" s="280"/>
+      <c r="AF17" s="280"/>
+      <c r="AG17" s="280"/>
+      <c r="AH17" s="280"/>
+      <c r="AI17" s="280"/>
+      <c r="AJ17" s="280"/>
+      <c r="AK17" s="280"/>
+      <c r="AL17" s="280"/>
+      <c r="AM17" s="281"/>
+      <c r="AN17" s="282"/>
+      <c r="AO17" s="283"/>
+      <c r="AP17" s="283"/>
+      <c r="AQ17" s="283"/>
+      <c r="AR17" s="284"/>
+      <c r="AS17" s="282"/>
+      <c r="AT17" s="283"/>
+      <c r="AU17" s="283"/>
+      <c r="AV17" s="283"/>
+      <c r="AW17" s="284"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
-      <c r="B18" s="248"/>
-      <c r="C18" s="249"/>
-      <c r="D18" s="250"/>
-      <c r="E18" s="251"/>
-      <c r="F18" s="251"/>
-      <c r="G18" s="251"/>
-      <c r="H18" s="251"/>
-      <c r="I18" s="251"/>
-      <c r="J18" s="252"/>
-      <c r="K18" s="253"/>
-      <c r="L18" s="254"/>
-      <c r="M18" s="262"/>
-      <c r="N18" s="263"/>
-      <c r="O18" s="263"/>
-      <c r="P18" s="263"/>
-      <c r="Q18" s="263"/>
-      <c r="R18" s="264"/>
-      <c r="S18" s="258"/>
-      <c r="T18" s="258"/>
-      <c r="U18" s="258"/>
-      <c r="V18" s="259"/>
-      <c r="W18" s="260"/>
-      <c r="X18" s="260"/>
-      <c r="Y18" s="260"/>
-      <c r="Z18" s="260"/>
-      <c r="AA18" s="260"/>
-      <c r="AB18" s="260"/>
-      <c r="AC18" s="260"/>
-      <c r="AD18" s="260"/>
-      <c r="AE18" s="260"/>
-      <c r="AF18" s="260"/>
-      <c r="AG18" s="260"/>
-      <c r="AH18" s="260"/>
-      <c r="AI18" s="260"/>
-      <c r="AJ18" s="260"/>
-      <c r="AK18" s="260"/>
-      <c r="AL18" s="260"/>
-      <c r="AM18" s="261"/>
-      <c r="AN18" s="245"/>
-      <c r="AO18" s="246"/>
-      <c r="AP18" s="246"/>
-      <c r="AQ18" s="246"/>
-      <c r="AR18" s="247"/>
-      <c r="AS18" s="245"/>
-      <c r="AT18" s="246"/>
-      <c r="AU18" s="246"/>
-      <c r="AV18" s="246"/>
-      <c r="AW18" s="247"/>
+      <c r="B18" s="273"/>
+      <c r="C18" s="274"/>
+      <c r="D18" s="275"/>
+      <c r="E18" s="265"/>
+      <c r="F18" s="265"/>
+      <c r="G18" s="265"/>
+      <c r="H18" s="265"/>
+      <c r="I18" s="265"/>
+      <c r="J18" s="266"/>
+      <c r="K18" s="267"/>
+      <c r="L18" s="268"/>
+      <c r="M18" s="287"/>
+      <c r="N18" s="277"/>
+      <c r="O18" s="277"/>
+      <c r="P18" s="277"/>
+      <c r="Q18" s="277"/>
+      <c r="R18" s="278"/>
+      <c r="S18" s="263"/>
+      <c r="T18" s="263"/>
+      <c r="U18" s="263"/>
+      <c r="V18" s="279"/>
+      <c r="W18" s="280"/>
+      <c r="X18" s="280"/>
+      <c r="Y18" s="280"/>
+      <c r="Z18" s="280"/>
+      <c r="AA18" s="280"/>
+      <c r="AB18" s="280"/>
+      <c r="AC18" s="280"/>
+      <c r="AD18" s="280"/>
+      <c r="AE18" s="280"/>
+      <c r="AF18" s="280"/>
+      <c r="AG18" s="280"/>
+      <c r="AH18" s="280"/>
+      <c r="AI18" s="280"/>
+      <c r="AJ18" s="280"/>
+      <c r="AK18" s="280"/>
+      <c r="AL18" s="280"/>
+      <c r="AM18" s="281"/>
+      <c r="AN18" s="282"/>
+      <c r="AO18" s="283"/>
+      <c r="AP18" s="283"/>
+      <c r="AQ18" s="283"/>
+      <c r="AR18" s="284"/>
+      <c r="AS18" s="282"/>
+      <c r="AT18" s="283"/>
+      <c r="AU18" s="283"/>
+      <c r="AV18" s="283"/>
+      <c r="AW18" s="284"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="56"/>
-      <c r="B19" s="248"/>
-      <c r="C19" s="249"/>
-      <c r="D19" s="250"/>
-      <c r="E19" s="251"/>
-      <c r="F19" s="251"/>
-      <c r="G19" s="251"/>
-      <c r="H19" s="251"/>
-      <c r="I19" s="251"/>
-      <c r="J19" s="252"/>
-      <c r="K19" s="253"/>
-      <c r="L19" s="254"/>
-      <c r="M19" s="265"/>
-      <c r="N19" s="263"/>
-      <c r="O19" s="263"/>
-      <c r="P19" s="263"/>
-      <c r="Q19" s="263"/>
-      <c r="R19" s="264"/>
-      <c r="S19" s="258"/>
-      <c r="T19" s="258"/>
-      <c r="U19" s="258"/>
-      <c r="V19" s="259"/>
-      <c r="W19" s="260"/>
-      <c r="X19" s="260"/>
-      <c r="Y19" s="260"/>
-      <c r="Z19" s="260"/>
-      <c r="AA19" s="260"/>
-      <c r="AB19" s="260"/>
-      <c r="AC19" s="260"/>
-      <c r="AD19" s="260"/>
-      <c r="AE19" s="260"/>
-      <c r="AF19" s="260"/>
-      <c r="AG19" s="260"/>
-      <c r="AH19" s="260"/>
-      <c r="AI19" s="260"/>
-      <c r="AJ19" s="260"/>
-      <c r="AK19" s="260"/>
-      <c r="AL19" s="260"/>
-      <c r="AM19" s="261"/>
-      <c r="AN19" s="258"/>
-      <c r="AO19" s="258"/>
-      <c r="AP19" s="258"/>
-      <c r="AQ19" s="258"/>
-      <c r="AR19" s="258"/>
-      <c r="AS19" s="245"/>
-      <c r="AT19" s="246"/>
-      <c r="AU19" s="246"/>
-      <c r="AV19" s="246"/>
-      <c r="AW19" s="247"/>
+      <c r="B19" s="273"/>
+      <c r="C19" s="274"/>
+      <c r="D19" s="275"/>
+      <c r="E19" s="265"/>
+      <c r="F19" s="265"/>
+      <c r="G19" s="265"/>
+      <c r="H19" s="265"/>
+      <c r="I19" s="265"/>
+      <c r="J19" s="266"/>
+      <c r="K19" s="267"/>
+      <c r="L19" s="268"/>
+      <c r="M19" s="276"/>
+      <c r="N19" s="277"/>
+      <c r="O19" s="277"/>
+      <c r="P19" s="277"/>
+      <c r="Q19" s="277"/>
+      <c r="R19" s="278"/>
+      <c r="S19" s="263"/>
+      <c r="T19" s="263"/>
+      <c r="U19" s="263"/>
+      <c r="V19" s="279"/>
+      <c r="W19" s="280"/>
+      <c r="X19" s="280"/>
+      <c r="Y19" s="280"/>
+      <c r="Z19" s="280"/>
+      <c r="AA19" s="280"/>
+      <c r="AB19" s="280"/>
+      <c r="AC19" s="280"/>
+      <c r="AD19" s="280"/>
+      <c r="AE19" s="280"/>
+      <c r="AF19" s="280"/>
+      <c r="AG19" s="280"/>
+      <c r="AH19" s="280"/>
+      <c r="AI19" s="280"/>
+      <c r="AJ19" s="280"/>
+      <c r="AK19" s="280"/>
+      <c r="AL19" s="280"/>
+      <c r="AM19" s="281"/>
+      <c r="AN19" s="263"/>
+      <c r="AO19" s="263"/>
+      <c r="AP19" s="263"/>
+      <c r="AQ19" s="263"/>
+      <c r="AR19" s="263"/>
+      <c r="AS19" s="282"/>
+      <c r="AT19" s="283"/>
+      <c r="AU19" s="283"/>
+      <c r="AV19" s="283"/>
+      <c r="AW19" s="284"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="56"/>
-      <c r="B20" s="248"/>
-      <c r="C20" s="249"/>
-      <c r="D20" s="250"/>
-      <c r="E20" s="251"/>
-      <c r="F20" s="251"/>
-      <c r="G20" s="251"/>
-      <c r="H20" s="251"/>
-      <c r="I20" s="251"/>
-      <c r="J20" s="252"/>
-      <c r="K20" s="253"/>
-      <c r="L20" s="254"/>
-      <c r="M20" s="265"/>
-      <c r="N20" s="263"/>
-      <c r="O20" s="263"/>
-      <c r="P20" s="263"/>
-      <c r="Q20" s="263"/>
-      <c r="R20" s="264"/>
-      <c r="S20" s="245"/>
-      <c r="T20" s="246"/>
-      <c r="U20" s="247"/>
-      <c r="V20" s="259"/>
-      <c r="W20" s="260"/>
-      <c r="X20" s="260"/>
-      <c r="Y20" s="260"/>
-      <c r="Z20" s="260"/>
-      <c r="AA20" s="260"/>
-      <c r="AB20" s="260"/>
-      <c r="AC20" s="260"/>
-      <c r="AD20" s="260"/>
-      <c r="AE20" s="260"/>
-      <c r="AF20" s="260"/>
-      <c r="AG20" s="260"/>
-      <c r="AH20" s="260"/>
-      <c r="AI20" s="260"/>
-      <c r="AJ20" s="260"/>
-      <c r="AK20" s="260"/>
-      <c r="AL20" s="260"/>
-      <c r="AM20" s="261"/>
-      <c r="AN20" s="245"/>
-      <c r="AO20" s="246"/>
-      <c r="AP20" s="246"/>
-      <c r="AQ20" s="246"/>
-      <c r="AR20" s="247"/>
-      <c r="AS20" s="245"/>
-      <c r="AT20" s="246"/>
-      <c r="AU20" s="246"/>
-      <c r="AV20" s="246"/>
-      <c r="AW20" s="247"/>
+      <c r="B20" s="273"/>
+      <c r="C20" s="274"/>
+      <c r="D20" s="275"/>
+      <c r="E20" s="265"/>
+      <c r="F20" s="265"/>
+      <c r="G20" s="265"/>
+      <c r="H20" s="265"/>
+      <c r="I20" s="265"/>
+      <c r="J20" s="266"/>
+      <c r="K20" s="267"/>
+      <c r="L20" s="268"/>
+      <c r="M20" s="276"/>
+      <c r="N20" s="277"/>
+      <c r="O20" s="277"/>
+      <c r="P20" s="277"/>
+      <c r="Q20" s="277"/>
+      <c r="R20" s="278"/>
+      <c r="S20" s="282"/>
+      <c r="T20" s="283"/>
+      <c r="U20" s="284"/>
+      <c r="V20" s="279"/>
+      <c r="W20" s="280"/>
+      <c r="X20" s="280"/>
+      <c r="Y20" s="280"/>
+      <c r="Z20" s="280"/>
+      <c r="AA20" s="280"/>
+      <c r="AB20" s="280"/>
+      <c r="AC20" s="280"/>
+      <c r="AD20" s="280"/>
+      <c r="AE20" s="280"/>
+      <c r="AF20" s="280"/>
+      <c r="AG20" s="280"/>
+      <c r="AH20" s="280"/>
+      <c r="AI20" s="280"/>
+      <c r="AJ20" s="280"/>
+      <c r="AK20" s="280"/>
+      <c r="AL20" s="280"/>
+      <c r="AM20" s="281"/>
+      <c r="AN20" s="282"/>
+      <c r="AO20" s="283"/>
+      <c r="AP20" s="283"/>
+      <c r="AQ20" s="283"/>
+      <c r="AR20" s="284"/>
+      <c r="AS20" s="282"/>
+      <c r="AT20" s="283"/>
+      <c r="AU20" s="283"/>
+      <c r="AV20" s="283"/>
+      <c r="AW20" s="284"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="56"/>
-      <c r="B21" s="248"/>
-      <c r="C21" s="249"/>
-      <c r="D21" s="250"/>
-      <c r="E21" s="251"/>
-      <c r="F21" s="251"/>
-      <c r="G21" s="251"/>
-      <c r="H21" s="251"/>
-      <c r="I21" s="251"/>
-      <c r="J21" s="252"/>
-      <c r="K21" s="253"/>
-      <c r="L21" s="254"/>
-      <c r="M21" s="265"/>
-      <c r="N21" s="263"/>
-      <c r="O21" s="263"/>
-      <c r="P21" s="263"/>
-      <c r="Q21" s="263"/>
-      <c r="R21" s="264"/>
-      <c r="S21" s="258"/>
-      <c r="T21" s="258"/>
-      <c r="U21" s="258"/>
-      <c r="V21" s="259"/>
-      <c r="W21" s="260"/>
-      <c r="X21" s="260"/>
-      <c r="Y21" s="260"/>
-      <c r="Z21" s="260"/>
-      <c r="AA21" s="260"/>
-      <c r="AB21" s="260"/>
-      <c r="AC21" s="260"/>
-      <c r="AD21" s="260"/>
-      <c r="AE21" s="260"/>
-      <c r="AF21" s="260"/>
-      <c r="AG21" s="260"/>
-      <c r="AH21" s="260"/>
-      <c r="AI21" s="260"/>
-      <c r="AJ21" s="260"/>
-      <c r="AK21" s="260"/>
-      <c r="AL21" s="260"/>
-      <c r="AM21" s="261"/>
-      <c r="AN21" s="245"/>
-      <c r="AO21" s="246"/>
-      <c r="AP21" s="246"/>
-      <c r="AQ21" s="246"/>
-      <c r="AR21" s="247"/>
-      <c r="AS21" s="245"/>
-      <c r="AT21" s="246"/>
-      <c r="AU21" s="246"/>
-      <c r="AV21" s="246"/>
-      <c r="AW21" s="247"/>
+      <c r="B21" s="273"/>
+      <c r="C21" s="274"/>
+      <c r="D21" s="275"/>
+      <c r="E21" s="265"/>
+      <c r="F21" s="265"/>
+      <c r="G21" s="265"/>
+      <c r="H21" s="265"/>
+      <c r="I21" s="265"/>
+      <c r="J21" s="266"/>
+      <c r="K21" s="267"/>
+      <c r="L21" s="268"/>
+      <c r="M21" s="276"/>
+      <c r="N21" s="277"/>
+      <c r="O21" s="277"/>
+      <c r="P21" s="277"/>
+      <c r="Q21" s="277"/>
+      <c r="R21" s="278"/>
+      <c r="S21" s="263"/>
+      <c r="T21" s="263"/>
+      <c r="U21" s="263"/>
+      <c r="V21" s="279"/>
+      <c r="W21" s="280"/>
+      <c r="X21" s="280"/>
+      <c r="Y21" s="280"/>
+      <c r="Z21" s="280"/>
+      <c r="AA21" s="280"/>
+      <c r="AB21" s="280"/>
+      <c r="AC21" s="280"/>
+      <c r="AD21" s="280"/>
+      <c r="AE21" s="280"/>
+      <c r="AF21" s="280"/>
+      <c r="AG21" s="280"/>
+      <c r="AH21" s="280"/>
+      <c r="AI21" s="280"/>
+      <c r="AJ21" s="280"/>
+      <c r="AK21" s="280"/>
+      <c r="AL21" s="280"/>
+      <c r="AM21" s="281"/>
+      <c r="AN21" s="282"/>
+      <c r="AO21" s="283"/>
+      <c r="AP21" s="283"/>
+      <c r="AQ21" s="283"/>
+      <c r="AR21" s="284"/>
+      <c r="AS21" s="282"/>
+      <c r="AT21" s="283"/>
+      <c r="AU21" s="283"/>
+      <c r="AV21" s="283"/>
+      <c r="AW21" s="284"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="56"/>
-      <c r="B22" s="248"/>
-      <c r="C22" s="249"/>
-      <c r="D22" s="250"/>
-      <c r="E22" s="251"/>
-      <c r="F22" s="251"/>
-      <c r="G22" s="251"/>
-      <c r="H22" s="251"/>
-      <c r="I22" s="251"/>
-      <c r="J22" s="252"/>
-      <c r="K22" s="253"/>
-      <c r="L22" s="254"/>
-      <c r="M22" s="265"/>
-      <c r="N22" s="263"/>
-      <c r="O22" s="263"/>
-      <c r="P22" s="263"/>
-      <c r="Q22" s="263"/>
-      <c r="R22" s="264"/>
-      <c r="S22" s="258"/>
-      <c r="T22" s="258"/>
-      <c r="U22" s="258"/>
-      <c r="V22" s="259"/>
-      <c r="W22" s="260"/>
-      <c r="X22" s="260"/>
-      <c r="Y22" s="260"/>
-      <c r="Z22" s="260"/>
-      <c r="AA22" s="260"/>
-      <c r="AB22" s="260"/>
-      <c r="AC22" s="260"/>
-      <c r="AD22" s="260"/>
-      <c r="AE22" s="260"/>
-      <c r="AF22" s="260"/>
-      <c r="AG22" s="260"/>
-      <c r="AH22" s="260"/>
-      <c r="AI22" s="260"/>
-      <c r="AJ22" s="260"/>
-      <c r="AK22" s="260"/>
-      <c r="AL22" s="260"/>
-      <c r="AM22" s="261"/>
-      <c r="AN22" s="245"/>
-      <c r="AO22" s="246"/>
-      <c r="AP22" s="246"/>
-      <c r="AQ22" s="246"/>
-      <c r="AR22" s="247"/>
-      <c r="AS22" s="245"/>
-      <c r="AT22" s="246"/>
-      <c r="AU22" s="246"/>
-      <c r="AV22" s="246"/>
-      <c r="AW22" s="247"/>
+      <c r="B22" s="273"/>
+      <c r="C22" s="274"/>
+      <c r="D22" s="275"/>
+      <c r="E22" s="265"/>
+      <c r="F22" s="265"/>
+      <c r="G22" s="265"/>
+      <c r="H22" s="265"/>
+      <c r="I22" s="265"/>
+      <c r="J22" s="266"/>
+      <c r="K22" s="267"/>
+      <c r="L22" s="268"/>
+      <c r="M22" s="276"/>
+      <c r="N22" s="277"/>
+      <c r="O22" s="277"/>
+      <c r="P22" s="277"/>
+      <c r="Q22" s="277"/>
+      <c r="R22" s="278"/>
+      <c r="S22" s="263"/>
+      <c r="T22" s="263"/>
+      <c r="U22" s="263"/>
+      <c r="V22" s="279"/>
+      <c r="W22" s="280"/>
+      <c r="X22" s="280"/>
+      <c r="Y22" s="280"/>
+      <c r="Z22" s="280"/>
+      <c r="AA22" s="280"/>
+      <c r="AB22" s="280"/>
+      <c r="AC22" s="280"/>
+      <c r="AD22" s="280"/>
+      <c r="AE22" s="280"/>
+      <c r="AF22" s="280"/>
+      <c r="AG22" s="280"/>
+      <c r="AH22" s="280"/>
+      <c r="AI22" s="280"/>
+      <c r="AJ22" s="280"/>
+      <c r="AK22" s="280"/>
+      <c r="AL22" s="280"/>
+      <c r="AM22" s="281"/>
+      <c r="AN22" s="282"/>
+      <c r="AO22" s="283"/>
+      <c r="AP22" s="283"/>
+      <c r="AQ22" s="283"/>
+      <c r="AR22" s="284"/>
+      <c r="AS22" s="282"/>
+      <c r="AT22" s="283"/>
+      <c r="AU22" s="283"/>
+      <c r="AV22" s="283"/>
+      <c r="AW22" s="284"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="54"/>
-      <c r="B23" s="248"/>
-      <c r="C23" s="249"/>
-      <c r="D23" s="250"/>
-      <c r="E23" s="251"/>
-      <c r="F23" s="251"/>
-      <c r="G23" s="251"/>
-      <c r="H23" s="251"/>
-      <c r="I23" s="251"/>
-      <c r="J23" s="252"/>
-      <c r="K23" s="253"/>
-      <c r="L23" s="254"/>
-      <c r="M23" s="265"/>
-      <c r="N23" s="263"/>
-      <c r="O23" s="263"/>
-      <c r="P23" s="263"/>
-      <c r="Q23" s="263"/>
-      <c r="R23" s="264"/>
-      <c r="S23" s="258"/>
-      <c r="T23" s="258"/>
-      <c r="U23" s="258"/>
-      <c r="V23" s="259"/>
-      <c r="W23" s="260"/>
-      <c r="X23" s="260"/>
-      <c r="Y23" s="260"/>
-      <c r="Z23" s="260"/>
-      <c r="AA23" s="260"/>
-      <c r="AB23" s="260"/>
-      <c r="AC23" s="260"/>
-      <c r="AD23" s="260"/>
-      <c r="AE23" s="260"/>
-      <c r="AF23" s="260"/>
-      <c r="AG23" s="260"/>
-      <c r="AH23" s="260"/>
-      <c r="AI23" s="260"/>
-      <c r="AJ23" s="260"/>
-      <c r="AK23" s="260"/>
-      <c r="AL23" s="260"/>
-      <c r="AM23" s="261"/>
-      <c r="AN23" s="245"/>
-      <c r="AO23" s="246"/>
-      <c r="AP23" s="246"/>
-      <c r="AQ23" s="246"/>
-      <c r="AR23" s="247"/>
-      <c r="AS23" s="245"/>
-      <c r="AT23" s="246"/>
-      <c r="AU23" s="246"/>
-      <c r="AV23" s="246"/>
-      <c r="AW23" s="247"/>
+      <c r="B23" s="273"/>
+      <c r="C23" s="274"/>
+      <c r="D23" s="275"/>
+      <c r="E23" s="265"/>
+      <c r="F23" s="265"/>
+      <c r="G23" s="265"/>
+      <c r="H23" s="265"/>
+      <c r="I23" s="265"/>
+      <c r="J23" s="266"/>
+      <c r="K23" s="267"/>
+      <c r="L23" s="268"/>
+      <c r="M23" s="276"/>
+      <c r="N23" s="277"/>
+      <c r="O23" s="277"/>
+      <c r="P23" s="277"/>
+      <c r="Q23" s="277"/>
+      <c r="R23" s="278"/>
+      <c r="S23" s="263"/>
+      <c r="T23" s="263"/>
+      <c r="U23" s="263"/>
+      <c r="V23" s="279"/>
+      <c r="W23" s="280"/>
+      <c r="X23" s="280"/>
+      <c r="Y23" s="280"/>
+      <c r="Z23" s="280"/>
+      <c r="AA23" s="280"/>
+      <c r="AB23" s="280"/>
+      <c r="AC23" s="280"/>
+      <c r="AD23" s="280"/>
+      <c r="AE23" s="280"/>
+      <c r="AF23" s="280"/>
+      <c r="AG23" s="280"/>
+      <c r="AH23" s="280"/>
+      <c r="AI23" s="280"/>
+      <c r="AJ23" s="280"/>
+      <c r="AK23" s="280"/>
+      <c r="AL23" s="280"/>
+      <c r="AM23" s="281"/>
+      <c r="AN23" s="282"/>
+      <c r="AO23" s="283"/>
+      <c r="AP23" s="283"/>
+      <c r="AQ23" s="283"/>
+      <c r="AR23" s="284"/>
+      <c r="AS23" s="282"/>
+      <c r="AT23" s="283"/>
+      <c r="AU23" s="283"/>
+      <c r="AV23" s="283"/>
+      <c r="AW23" s="284"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="54"/>
-      <c r="B24" s="248"/>
-      <c r="C24" s="249"/>
-      <c r="D24" s="250"/>
-      <c r="E24" s="251"/>
-      <c r="F24" s="251"/>
-      <c r="G24" s="251"/>
-      <c r="H24" s="251"/>
-      <c r="I24" s="251"/>
-      <c r="J24" s="252"/>
-      <c r="K24" s="253"/>
-      <c r="L24" s="254"/>
-      <c r="M24" s="265"/>
-      <c r="N24" s="263"/>
-      <c r="O24" s="263"/>
-      <c r="P24" s="263"/>
-      <c r="Q24" s="263"/>
-      <c r="R24" s="264"/>
-      <c r="S24" s="258"/>
-      <c r="T24" s="258"/>
-      <c r="U24" s="258"/>
-      <c r="V24" s="259"/>
-      <c r="W24" s="260"/>
-      <c r="X24" s="260"/>
-      <c r="Y24" s="260"/>
-      <c r="Z24" s="260"/>
-      <c r="AA24" s="260"/>
-      <c r="AB24" s="260"/>
-      <c r="AC24" s="260"/>
-      <c r="AD24" s="260"/>
-      <c r="AE24" s="260"/>
-      <c r="AF24" s="260"/>
-      <c r="AG24" s="260"/>
-      <c r="AH24" s="260"/>
-      <c r="AI24" s="260"/>
-      <c r="AJ24" s="260"/>
-      <c r="AK24" s="260"/>
-      <c r="AL24" s="260"/>
-      <c r="AM24" s="261"/>
-      <c r="AN24" s="245"/>
-      <c r="AO24" s="246"/>
-      <c r="AP24" s="246"/>
-      <c r="AQ24" s="246"/>
-      <c r="AR24" s="247"/>
-      <c r="AS24" s="245"/>
-      <c r="AT24" s="246"/>
-      <c r="AU24" s="246"/>
-      <c r="AV24" s="246"/>
-      <c r="AW24" s="247"/>
+      <c r="B24" s="273"/>
+      <c r="C24" s="274"/>
+      <c r="D24" s="275"/>
+      <c r="E24" s="265"/>
+      <c r="F24" s="265"/>
+      <c r="G24" s="265"/>
+      <c r="H24" s="265"/>
+      <c r="I24" s="265"/>
+      <c r="J24" s="266"/>
+      <c r="K24" s="267"/>
+      <c r="L24" s="268"/>
+      <c r="M24" s="276"/>
+      <c r="N24" s="277"/>
+      <c r="O24" s="277"/>
+      <c r="P24" s="277"/>
+      <c r="Q24" s="277"/>
+      <c r="R24" s="278"/>
+      <c r="S24" s="263"/>
+      <c r="T24" s="263"/>
+      <c r="U24" s="263"/>
+      <c r="V24" s="279"/>
+      <c r="W24" s="280"/>
+      <c r="X24" s="280"/>
+      <c r="Y24" s="280"/>
+      <c r="Z24" s="280"/>
+      <c r="AA24" s="280"/>
+      <c r="AB24" s="280"/>
+      <c r="AC24" s="280"/>
+      <c r="AD24" s="280"/>
+      <c r="AE24" s="280"/>
+      <c r="AF24" s="280"/>
+      <c r="AG24" s="280"/>
+      <c r="AH24" s="280"/>
+      <c r="AI24" s="280"/>
+      <c r="AJ24" s="280"/>
+      <c r="AK24" s="280"/>
+      <c r="AL24" s="280"/>
+      <c r="AM24" s="281"/>
+      <c r="AN24" s="282"/>
+      <c r="AO24" s="283"/>
+      <c r="AP24" s="283"/>
+      <c r="AQ24" s="283"/>
+      <c r="AR24" s="284"/>
+      <c r="AS24" s="282"/>
+      <c r="AT24" s="283"/>
+      <c r="AU24" s="283"/>
+      <c r="AV24" s="283"/>
+      <c r="AW24" s="284"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="54"/>
-      <c r="B25" s="248"/>
-      <c r="C25" s="249"/>
-      <c r="D25" s="250"/>
-      <c r="E25" s="251"/>
-      <c r="F25" s="251"/>
-      <c r="G25" s="251"/>
-      <c r="H25" s="251"/>
-      <c r="I25" s="251"/>
-      <c r="J25" s="252"/>
-      <c r="K25" s="253"/>
-      <c r="L25" s="254"/>
-      <c r="M25" s="262"/>
-      <c r="N25" s="263"/>
-      <c r="O25" s="263"/>
-      <c r="P25" s="263"/>
-      <c r="Q25" s="263"/>
-      <c r="R25" s="264"/>
-      <c r="S25" s="258"/>
-      <c r="T25" s="258"/>
-      <c r="U25" s="258"/>
-      <c r="V25" s="259"/>
-      <c r="W25" s="260"/>
-      <c r="X25" s="260"/>
-      <c r="Y25" s="260"/>
-      <c r="Z25" s="260"/>
-      <c r="AA25" s="260"/>
-      <c r="AB25" s="260"/>
-      <c r="AC25" s="260"/>
-      <c r="AD25" s="260"/>
-      <c r="AE25" s="260"/>
-      <c r="AF25" s="260"/>
-      <c r="AG25" s="260"/>
-      <c r="AH25" s="260"/>
-      <c r="AI25" s="260"/>
-      <c r="AJ25" s="260"/>
-      <c r="AK25" s="260"/>
-      <c r="AL25" s="260"/>
-      <c r="AM25" s="261"/>
-      <c r="AN25" s="245"/>
-      <c r="AO25" s="246"/>
-      <c r="AP25" s="246"/>
-      <c r="AQ25" s="246"/>
-      <c r="AR25" s="247"/>
-      <c r="AS25" s="245"/>
-      <c r="AT25" s="246"/>
-      <c r="AU25" s="246"/>
-      <c r="AV25" s="246"/>
-      <c r="AW25" s="247"/>
+      <c r="B25" s="273"/>
+      <c r="C25" s="274"/>
+      <c r="D25" s="275"/>
+      <c r="E25" s="265"/>
+      <c r="F25" s="265"/>
+      <c r="G25" s="265"/>
+      <c r="H25" s="265"/>
+      <c r="I25" s="265"/>
+      <c r="J25" s="266"/>
+      <c r="K25" s="267"/>
+      <c r="L25" s="268"/>
+      <c r="M25" s="287"/>
+      <c r="N25" s="277"/>
+      <c r="O25" s="277"/>
+      <c r="P25" s="277"/>
+      <c r="Q25" s="277"/>
+      <c r="R25" s="278"/>
+      <c r="S25" s="263"/>
+      <c r="T25" s="263"/>
+      <c r="U25" s="263"/>
+      <c r="V25" s="279"/>
+      <c r="W25" s="280"/>
+      <c r="X25" s="280"/>
+      <c r="Y25" s="280"/>
+      <c r="Z25" s="280"/>
+      <c r="AA25" s="280"/>
+      <c r="AB25" s="280"/>
+      <c r="AC25" s="280"/>
+      <c r="AD25" s="280"/>
+      <c r="AE25" s="280"/>
+      <c r="AF25" s="280"/>
+      <c r="AG25" s="280"/>
+      <c r="AH25" s="280"/>
+      <c r="AI25" s="280"/>
+      <c r="AJ25" s="280"/>
+      <c r="AK25" s="280"/>
+      <c r="AL25" s="280"/>
+      <c r="AM25" s="281"/>
+      <c r="AN25" s="282"/>
+      <c r="AO25" s="283"/>
+      <c r="AP25" s="283"/>
+      <c r="AQ25" s="283"/>
+      <c r="AR25" s="284"/>
+      <c r="AS25" s="282"/>
+      <c r="AT25" s="283"/>
+      <c r="AU25" s="283"/>
+      <c r="AV25" s="283"/>
+      <c r="AW25" s="284"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="54"/>
-      <c r="B26" s="248"/>
-      <c r="C26" s="249"/>
-      <c r="D26" s="250"/>
-      <c r="E26" s="251"/>
-      <c r="F26" s="251"/>
-      <c r="G26" s="251"/>
-      <c r="H26" s="251"/>
-      <c r="I26" s="251"/>
-      <c r="J26" s="252"/>
-      <c r="K26" s="253"/>
-      <c r="L26" s="254"/>
-      <c r="M26" s="262"/>
-      <c r="N26" s="263"/>
-      <c r="O26" s="263"/>
-      <c r="P26" s="263"/>
-      <c r="Q26" s="263"/>
-      <c r="R26" s="264"/>
-      <c r="S26" s="258"/>
-      <c r="T26" s="258"/>
-      <c r="U26" s="258"/>
-      <c r="V26" s="259"/>
-      <c r="W26" s="260"/>
-      <c r="X26" s="260"/>
-      <c r="Y26" s="260"/>
-      <c r="Z26" s="260"/>
-      <c r="AA26" s="260"/>
-      <c r="AB26" s="260"/>
-      <c r="AC26" s="260"/>
-      <c r="AD26" s="260"/>
-      <c r="AE26" s="260"/>
-      <c r="AF26" s="260"/>
-      <c r="AG26" s="260"/>
-      <c r="AH26" s="260"/>
-      <c r="AI26" s="260"/>
-      <c r="AJ26" s="260"/>
-      <c r="AK26" s="260"/>
-      <c r="AL26" s="260"/>
-      <c r="AM26" s="261"/>
-      <c r="AN26" s="245"/>
-      <c r="AO26" s="246"/>
-      <c r="AP26" s="246"/>
-      <c r="AQ26" s="246"/>
-      <c r="AR26" s="247"/>
-      <c r="AS26" s="245"/>
-      <c r="AT26" s="246"/>
-      <c r="AU26" s="246"/>
-      <c r="AV26" s="246"/>
-      <c r="AW26" s="247"/>
+      <c r="B26" s="273"/>
+      <c r="C26" s="274"/>
+      <c r="D26" s="275"/>
+      <c r="E26" s="265"/>
+      <c r="F26" s="265"/>
+      <c r="G26" s="265"/>
+      <c r="H26" s="265"/>
+      <c r="I26" s="265"/>
+      <c r="J26" s="266"/>
+      <c r="K26" s="267"/>
+      <c r="L26" s="268"/>
+      <c r="M26" s="287"/>
+      <c r="N26" s="277"/>
+      <c r="O26" s="277"/>
+      <c r="P26" s="277"/>
+      <c r="Q26" s="277"/>
+      <c r="R26" s="278"/>
+      <c r="S26" s="263"/>
+      <c r="T26" s="263"/>
+      <c r="U26" s="263"/>
+      <c r="V26" s="279"/>
+      <c r="W26" s="280"/>
+      <c r="X26" s="280"/>
+      <c r="Y26" s="280"/>
+      <c r="Z26" s="280"/>
+      <c r="AA26" s="280"/>
+      <c r="AB26" s="280"/>
+      <c r="AC26" s="280"/>
+      <c r="AD26" s="280"/>
+      <c r="AE26" s="280"/>
+      <c r="AF26" s="280"/>
+      <c r="AG26" s="280"/>
+      <c r="AH26" s="280"/>
+      <c r="AI26" s="280"/>
+      <c r="AJ26" s="280"/>
+      <c r="AK26" s="280"/>
+      <c r="AL26" s="280"/>
+      <c r="AM26" s="281"/>
+      <c r="AN26" s="282"/>
+      <c r="AO26" s="283"/>
+      <c r="AP26" s="283"/>
+      <c r="AQ26" s="283"/>
+      <c r="AR26" s="284"/>
+      <c r="AS26" s="282"/>
+      <c r="AT26" s="283"/>
+      <c r="AU26" s="283"/>
+      <c r="AV26" s="283"/>
+      <c r="AW26" s="284"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="54"/>
-      <c r="B27" s="248"/>
-      <c r="C27" s="249"/>
-      <c r="D27" s="250"/>
-      <c r="E27" s="251"/>
-      <c r="F27" s="251"/>
-      <c r="G27" s="251"/>
-      <c r="H27" s="251"/>
-      <c r="I27" s="251"/>
-      <c r="J27" s="252"/>
-      <c r="K27" s="253"/>
-      <c r="L27" s="254"/>
-      <c r="M27" s="262"/>
-      <c r="N27" s="263"/>
-      <c r="O27" s="263"/>
-      <c r="P27" s="263"/>
-      <c r="Q27" s="263"/>
-      <c r="R27" s="264"/>
-      <c r="S27" s="258"/>
-      <c r="T27" s="258"/>
-      <c r="U27" s="258"/>
-      <c r="V27" s="259"/>
-      <c r="W27" s="260"/>
-      <c r="X27" s="260"/>
-      <c r="Y27" s="260"/>
-      <c r="Z27" s="260"/>
-      <c r="AA27" s="260"/>
-      <c r="AB27" s="260"/>
-      <c r="AC27" s="260"/>
-      <c r="AD27" s="260"/>
-      <c r="AE27" s="260"/>
-      <c r="AF27" s="260"/>
-      <c r="AG27" s="260"/>
-      <c r="AH27" s="260"/>
-      <c r="AI27" s="260"/>
-      <c r="AJ27" s="260"/>
-      <c r="AK27" s="260"/>
-      <c r="AL27" s="260"/>
-      <c r="AM27" s="261"/>
-      <c r="AN27" s="245"/>
-      <c r="AO27" s="246"/>
-      <c r="AP27" s="246"/>
-      <c r="AQ27" s="246"/>
-      <c r="AR27" s="247"/>
-      <c r="AS27" s="245"/>
-      <c r="AT27" s="246"/>
-      <c r="AU27" s="246"/>
-      <c r="AV27" s="246"/>
-      <c r="AW27" s="247"/>
+      <c r="B27" s="273"/>
+      <c r="C27" s="274"/>
+      <c r="D27" s="275"/>
+      <c r="E27" s="265"/>
+      <c r="F27" s="265"/>
+      <c r="G27" s="265"/>
+      <c r="H27" s="265"/>
+      <c r="I27" s="265"/>
+      <c r="J27" s="266"/>
+      <c r="K27" s="267"/>
+      <c r="L27" s="268"/>
+      <c r="M27" s="287"/>
+      <c r="N27" s="277"/>
+      <c r="O27" s="277"/>
+      <c r="P27" s="277"/>
+      <c r="Q27" s="277"/>
+      <c r="R27" s="278"/>
+      <c r="S27" s="263"/>
+      <c r="T27" s="263"/>
+      <c r="U27" s="263"/>
+      <c r="V27" s="279"/>
+      <c r="W27" s="280"/>
+      <c r="X27" s="280"/>
+      <c r="Y27" s="280"/>
+      <c r="Z27" s="280"/>
+      <c r="AA27" s="280"/>
+      <c r="AB27" s="280"/>
+      <c r="AC27" s="280"/>
+      <c r="AD27" s="280"/>
+      <c r="AE27" s="280"/>
+      <c r="AF27" s="280"/>
+      <c r="AG27" s="280"/>
+      <c r="AH27" s="280"/>
+      <c r="AI27" s="280"/>
+      <c r="AJ27" s="280"/>
+      <c r="AK27" s="280"/>
+      <c r="AL27" s="280"/>
+      <c r="AM27" s="281"/>
+      <c r="AN27" s="282"/>
+      <c r="AO27" s="283"/>
+      <c r="AP27" s="283"/>
+      <c r="AQ27" s="283"/>
+      <c r="AR27" s="284"/>
+      <c r="AS27" s="282"/>
+      <c r="AT27" s="283"/>
+      <c r="AU27" s="283"/>
+      <c r="AV27" s="283"/>
+      <c r="AW27" s="284"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="54"/>
-      <c r="B28" s="248"/>
-      <c r="C28" s="249"/>
-      <c r="D28" s="250"/>
-      <c r="E28" s="251"/>
-      <c r="F28" s="251"/>
-      <c r="G28" s="251"/>
-      <c r="H28" s="251"/>
-      <c r="I28" s="251"/>
-      <c r="J28" s="252"/>
-      <c r="K28" s="253"/>
-      <c r="L28" s="254"/>
-      <c r="M28" s="265"/>
-      <c r="N28" s="263"/>
-      <c r="O28" s="263"/>
-      <c r="P28" s="263"/>
-      <c r="Q28" s="263"/>
-      <c r="R28" s="264"/>
-      <c r="S28" s="258"/>
-      <c r="T28" s="258"/>
-      <c r="U28" s="258"/>
-      <c r="V28" s="259"/>
-      <c r="W28" s="260"/>
-      <c r="X28" s="260"/>
-      <c r="Y28" s="260"/>
-      <c r="Z28" s="260"/>
-      <c r="AA28" s="260"/>
-      <c r="AB28" s="260"/>
-      <c r="AC28" s="260"/>
-      <c r="AD28" s="260"/>
-      <c r="AE28" s="260"/>
-      <c r="AF28" s="260"/>
-      <c r="AG28" s="260"/>
-      <c r="AH28" s="260"/>
-      <c r="AI28" s="260"/>
-      <c r="AJ28" s="260"/>
-      <c r="AK28" s="260"/>
-      <c r="AL28" s="260"/>
-      <c r="AM28" s="261"/>
-      <c r="AN28" s="245"/>
-      <c r="AO28" s="246"/>
-      <c r="AP28" s="246"/>
-      <c r="AQ28" s="246"/>
-      <c r="AR28" s="247"/>
-      <c r="AS28" s="245"/>
-      <c r="AT28" s="246"/>
-      <c r="AU28" s="246"/>
-      <c r="AV28" s="246"/>
-      <c r="AW28" s="247"/>
+      <c r="B28" s="273"/>
+      <c r="C28" s="274"/>
+      <c r="D28" s="275"/>
+      <c r="E28" s="265"/>
+      <c r="F28" s="265"/>
+      <c r="G28" s="265"/>
+      <c r="H28" s="265"/>
+      <c r="I28" s="265"/>
+      <c r="J28" s="266"/>
+      <c r="K28" s="267"/>
+      <c r="L28" s="268"/>
+      <c r="M28" s="276"/>
+      <c r="N28" s="277"/>
+      <c r="O28" s="277"/>
+      <c r="P28" s="277"/>
+      <c r="Q28" s="277"/>
+      <c r="R28" s="278"/>
+      <c r="S28" s="263"/>
+      <c r="T28" s="263"/>
+      <c r="U28" s="263"/>
+      <c r="V28" s="279"/>
+      <c r="W28" s="280"/>
+      <c r="X28" s="280"/>
+      <c r="Y28" s="280"/>
+      <c r="Z28" s="280"/>
+      <c r="AA28" s="280"/>
+      <c r="AB28" s="280"/>
+      <c r="AC28" s="280"/>
+      <c r="AD28" s="280"/>
+      <c r="AE28" s="280"/>
+      <c r="AF28" s="280"/>
+      <c r="AG28" s="280"/>
+      <c r="AH28" s="280"/>
+      <c r="AI28" s="280"/>
+      <c r="AJ28" s="280"/>
+      <c r="AK28" s="280"/>
+      <c r="AL28" s="280"/>
+      <c r="AM28" s="281"/>
+      <c r="AN28" s="282"/>
+      <c r="AO28" s="283"/>
+      <c r="AP28" s="283"/>
+      <c r="AQ28" s="283"/>
+      <c r="AR28" s="284"/>
+      <c r="AS28" s="282"/>
+      <c r="AT28" s="283"/>
+      <c r="AU28" s="283"/>
+      <c r="AV28" s="283"/>
+      <c r="AW28" s="284"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="54"/>
-      <c r="B29" s="248"/>
-      <c r="C29" s="249"/>
-      <c r="D29" s="250"/>
-      <c r="E29" s="251"/>
-      <c r="F29" s="251"/>
-      <c r="G29" s="251"/>
-      <c r="H29" s="251"/>
-      <c r="I29" s="251"/>
-      <c r="J29" s="252"/>
-      <c r="K29" s="253"/>
-      <c r="L29" s="254"/>
-      <c r="M29" s="265"/>
-      <c r="N29" s="263"/>
-      <c r="O29" s="263"/>
-      <c r="P29" s="263"/>
-      <c r="Q29" s="263"/>
-      <c r="R29" s="264"/>
-      <c r="S29" s="258"/>
-      <c r="T29" s="258"/>
-      <c r="U29" s="258"/>
-      <c r="V29" s="259"/>
-      <c r="W29" s="260"/>
-      <c r="X29" s="260"/>
-      <c r="Y29" s="260"/>
-      <c r="Z29" s="260"/>
-      <c r="AA29" s="260"/>
-      <c r="AB29" s="260"/>
-      <c r="AC29" s="260"/>
-      <c r="AD29" s="260"/>
-      <c r="AE29" s="260"/>
-      <c r="AF29" s="260"/>
-      <c r="AG29" s="260"/>
-      <c r="AH29" s="260"/>
-      <c r="AI29" s="260"/>
-      <c r="AJ29" s="260"/>
-      <c r="AK29" s="260"/>
-      <c r="AL29" s="260"/>
-      <c r="AM29" s="261"/>
-      <c r="AN29" s="245"/>
-      <c r="AO29" s="246"/>
-      <c r="AP29" s="246"/>
-      <c r="AQ29" s="246"/>
-      <c r="AR29" s="247"/>
-      <c r="AS29" s="245"/>
-      <c r="AT29" s="246"/>
-      <c r="AU29" s="246"/>
-      <c r="AV29" s="246"/>
-      <c r="AW29" s="247"/>
+      <c r="B29" s="273"/>
+      <c r="C29" s="274"/>
+      <c r="D29" s="275"/>
+      <c r="E29" s="265"/>
+      <c r="F29" s="265"/>
+      <c r="G29" s="265"/>
+      <c r="H29" s="265"/>
+      <c r="I29" s="265"/>
+      <c r="J29" s="266"/>
+      <c r="K29" s="267"/>
+      <c r="L29" s="268"/>
+      <c r="M29" s="276"/>
+      <c r="N29" s="277"/>
+      <c r="O29" s="277"/>
+      <c r="P29" s="277"/>
+      <c r="Q29" s="277"/>
+      <c r="R29" s="278"/>
+      <c r="S29" s="263"/>
+      <c r="T29" s="263"/>
+      <c r="U29" s="263"/>
+      <c r="V29" s="279"/>
+      <c r="W29" s="280"/>
+      <c r="X29" s="280"/>
+      <c r="Y29" s="280"/>
+      <c r="Z29" s="280"/>
+      <c r="AA29" s="280"/>
+      <c r="AB29" s="280"/>
+      <c r="AC29" s="280"/>
+      <c r="AD29" s="280"/>
+      <c r="AE29" s="280"/>
+      <c r="AF29" s="280"/>
+      <c r="AG29" s="280"/>
+      <c r="AH29" s="280"/>
+      <c r="AI29" s="280"/>
+      <c r="AJ29" s="280"/>
+      <c r="AK29" s="280"/>
+      <c r="AL29" s="280"/>
+      <c r="AM29" s="281"/>
+      <c r="AN29" s="282"/>
+      <c r="AO29" s="283"/>
+      <c r="AP29" s="283"/>
+      <c r="AQ29" s="283"/>
+      <c r="AR29" s="284"/>
+      <c r="AS29" s="282"/>
+      <c r="AT29" s="283"/>
+      <c r="AU29" s="283"/>
+      <c r="AV29" s="283"/>
+      <c r="AW29" s="284"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="54"/>
-      <c r="B30" s="248"/>
-      <c r="C30" s="249"/>
-      <c r="D30" s="250"/>
-      <c r="E30" s="251"/>
-      <c r="F30" s="251"/>
-      <c r="G30" s="251"/>
-      <c r="H30" s="251"/>
-      <c r="I30" s="251"/>
-      <c r="J30" s="252"/>
-      <c r="K30" s="253"/>
-      <c r="L30" s="254"/>
-      <c r="M30" s="262"/>
-      <c r="N30" s="263"/>
-      <c r="O30" s="263"/>
-      <c r="P30" s="263"/>
-      <c r="Q30" s="263"/>
-      <c r="R30" s="264"/>
-      <c r="S30" s="258"/>
-      <c r="T30" s="258"/>
-      <c r="U30" s="258"/>
-      <c r="V30" s="259"/>
-      <c r="W30" s="260"/>
-      <c r="X30" s="260"/>
-      <c r="Y30" s="260"/>
-      <c r="Z30" s="260"/>
-      <c r="AA30" s="260"/>
-      <c r="AB30" s="260"/>
-      <c r="AC30" s="260"/>
-      <c r="AD30" s="260"/>
-      <c r="AE30" s="260"/>
-      <c r="AF30" s="260"/>
-      <c r="AG30" s="260"/>
-      <c r="AH30" s="260"/>
-      <c r="AI30" s="260"/>
-      <c r="AJ30" s="260"/>
-      <c r="AK30" s="260"/>
-      <c r="AL30" s="260"/>
-      <c r="AM30" s="261"/>
-      <c r="AN30" s="245"/>
-      <c r="AO30" s="246"/>
-      <c r="AP30" s="246"/>
-      <c r="AQ30" s="246"/>
-      <c r="AR30" s="247"/>
-      <c r="AS30" s="245"/>
-      <c r="AT30" s="246"/>
-      <c r="AU30" s="246"/>
-      <c r="AV30" s="246"/>
-      <c r="AW30" s="247"/>
+      <c r="B30" s="273"/>
+      <c r="C30" s="274"/>
+      <c r="D30" s="275"/>
+      <c r="E30" s="265"/>
+      <c r="F30" s="265"/>
+      <c r="G30" s="265"/>
+      <c r="H30" s="265"/>
+      <c r="I30" s="265"/>
+      <c r="J30" s="266"/>
+      <c r="K30" s="267"/>
+      <c r="L30" s="268"/>
+      <c r="M30" s="287"/>
+      <c r="N30" s="277"/>
+      <c r="O30" s="277"/>
+      <c r="P30" s="277"/>
+      <c r="Q30" s="277"/>
+      <c r="R30" s="278"/>
+      <c r="S30" s="263"/>
+      <c r="T30" s="263"/>
+      <c r="U30" s="263"/>
+      <c r="V30" s="279"/>
+      <c r="W30" s="280"/>
+      <c r="X30" s="280"/>
+      <c r="Y30" s="280"/>
+      <c r="Z30" s="280"/>
+      <c r="AA30" s="280"/>
+      <c r="AB30" s="280"/>
+      <c r="AC30" s="280"/>
+      <c r="AD30" s="280"/>
+      <c r="AE30" s="280"/>
+      <c r="AF30" s="280"/>
+      <c r="AG30" s="280"/>
+      <c r="AH30" s="280"/>
+      <c r="AI30" s="280"/>
+      <c r="AJ30" s="280"/>
+      <c r="AK30" s="280"/>
+      <c r="AL30" s="280"/>
+      <c r="AM30" s="281"/>
+      <c r="AN30" s="282"/>
+      <c r="AO30" s="283"/>
+      <c r="AP30" s="283"/>
+      <c r="AQ30" s="283"/>
+      <c r="AR30" s="284"/>
+      <c r="AS30" s="282"/>
+      <c r="AT30" s="283"/>
+      <c r="AU30" s="283"/>
+      <c r="AV30" s="283"/>
+      <c r="AW30" s="284"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="54"/>
-      <c r="B31" s="248"/>
-      <c r="C31" s="249"/>
-      <c r="D31" s="250"/>
-      <c r="E31" s="251"/>
-      <c r="F31" s="251"/>
-      <c r="G31" s="251"/>
-      <c r="H31" s="251"/>
-      <c r="I31" s="251"/>
-      <c r="J31" s="252"/>
-      <c r="K31" s="253"/>
-      <c r="L31" s="254"/>
-      <c r="M31" s="262"/>
-      <c r="N31" s="263"/>
-      <c r="O31" s="263"/>
-      <c r="P31" s="263"/>
-      <c r="Q31" s="263"/>
-      <c r="R31" s="264"/>
-      <c r="S31" s="258"/>
-      <c r="T31" s="258"/>
-      <c r="U31" s="258"/>
-      <c r="V31" s="259"/>
-      <c r="W31" s="260"/>
-      <c r="X31" s="260"/>
-      <c r="Y31" s="260"/>
-      <c r="Z31" s="260"/>
-      <c r="AA31" s="260"/>
-      <c r="AB31" s="260"/>
-      <c r="AC31" s="260"/>
-      <c r="AD31" s="260"/>
-      <c r="AE31" s="260"/>
-      <c r="AF31" s="260"/>
-      <c r="AG31" s="260"/>
-      <c r="AH31" s="260"/>
-      <c r="AI31" s="260"/>
-      <c r="AJ31" s="260"/>
-      <c r="AK31" s="260"/>
-      <c r="AL31" s="260"/>
-      <c r="AM31" s="261"/>
-      <c r="AN31" s="245"/>
-      <c r="AO31" s="246"/>
-      <c r="AP31" s="246"/>
-      <c r="AQ31" s="246"/>
-      <c r="AR31" s="247"/>
-      <c r="AS31" s="245"/>
-      <c r="AT31" s="246"/>
-      <c r="AU31" s="246"/>
-      <c r="AV31" s="246"/>
-      <c r="AW31" s="247"/>
+      <c r="B31" s="273"/>
+      <c r="C31" s="274"/>
+      <c r="D31" s="275"/>
+      <c r="E31" s="265"/>
+      <c r="F31" s="265"/>
+      <c r="G31" s="265"/>
+      <c r="H31" s="265"/>
+      <c r="I31" s="265"/>
+      <c r="J31" s="266"/>
+      <c r="K31" s="267"/>
+      <c r="L31" s="268"/>
+      <c r="M31" s="287"/>
+      <c r="N31" s="277"/>
+      <c r="O31" s="277"/>
+      <c r="P31" s="277"/>
+      <c r="Q31" s="277"/>
+      <c r="R31" s="278"/>
+      <c r="S31" s="263"/>
+      <c r="T31" s="263"/>
+      <c r="U31" s="263"/>
+      <c r="V31" s="279"/>
+      <c r="W31" s="280"/>
+      <c r="X31" s="280"/>
+      <c r="Y31" s="280"/>
+      <c r="Z31" s="280"/>
+      <c r="AA31" s="280"/>
+      <c r="AB31" s="280"/>
+      <c r="AC31" s="280"/>
+      <c r="AD31" s="280"/>
+      <c r="AE31" s="280"/>
+      <c r="AF31" s="280"/>
+      <c r="AG31" s="280"/>
+      <c r="AH31" s="280"/>
+      <c r="AI31" s="280"/>
+      <c r="AJ31" s="280"/>
+      <c r="AK31" s="280"/>
+      <c r="AL31" s="280"/>
+      <c r="AM31" s="281"/>
+      <c r="AN31" s="282"/>
+      <c r="AO31" s="283"/>
+      <c r="AP31" s="283"/>
+      <c r="AQ31" s="283"/>
+      <c r="AR31" s="284"/>
+      <c r="AS31" s="282"/>
+      <c r="AT31" s="283"/>
+      <c r="AU31" s="283"/>
+      <c r="AV31" s="283"/>
+      <c r="AW31" s="284"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="54"/>
-      <c r="B32" s="248"/>
-      <c r="C32" s="249"/>
-      <c r="D32" s="250"/>
-      <c r="E32" s="251"/>
-      <c r="F32" s="251"/>
-      <c r="G32" s="251"/>
-      <c r="H32" s="251"/>
-      <c r="I32" s="251"/>
-      <c r="J32" s="252"/>
-      <c r="K32" s="253"/>
-      <c r="L32" s="254"/>
-      <c r="M32" s="262"/>
-      <c r="N32" s="263"/>
-      <c r="O32" s="263"/>
-      <c r="P32" s="263"/>
-      <c r="Q32" s="263"/>
-      <c r="R32" s="264"/>
-      <c r="S32" s="258"/>
-      <c r="T32" s="258"/>
-      <c r="U32" s="258"/>
-      <c r="V32" s="259"/>
-      <c r="W32" s="260"/>
-      <c r="X32" s="260"/>
-      <c r="Y32" s="260"/>
-      <c r="Z32" s="260"/>
-      <c r="AA32" s="260"/>
-      <c r="AB32" s="260"/>
-      <c r="AC32" s="260"/>
-      <c r="AD32" s="260"/>
-      <c r="AE32" s="260"/>
-      <c r="AF32" s="260"/>
-      <c r="AG32" s="260"/>
-      <c r="AH32" s="260"/>
-      <c r="AI32" s="260"/>
-      <c r="AJ32" s="260"/>
-      <c r="AK32" s="260"/>
-      <c r="AL32" s="260"/>
-      <c r="AM32" s="261"/>
-      <c r="AN32" s="245"/>
-      <c r="AO32" s="246"/>
-      <c r="AP32" s="246"/>
-      <c r="AQ32" s="246"/>
-      <c r="AR32" s="247"/>
-      <c r="AS32" s="245"/>
-      <c r="AT32" s="246"/>
-      <c r="AU32" s="246"/>
-      <c r="AV32" s="246"/>
-      <c r="AW32" s="247"/>
+      <c r="B32" s="273"/>
+      <c r="C32" s="274"/>
+      <c r="D32" s="275"/>
+      <c r="E32" s="265"/>
+      <c r="F32" s="265"/>
+      <c r="G32" s="265"/>
+      <c r="H32" s="265"/>
+      <c r="I32" s="265"/>
+      <c r="J32" s="266"/>
+      <c r="K32" s="267"/>
+      <c r="L32" s="268"/>
+      <c r="M32" s="287"/>
+      <c r="N32" s="277"/>
+      <c r="O32" s="277"/>
+      <c r="P32" s="277"/>
+      <c r="Q32" s="277"/>
+      <c r="R32" s="278"/>
+      <c r="S32" s="263"/>
+      <c r="T32" s="263"/>
+      <c r="U32" s="263"/>
+      <c r="V32" s="279"/>
+      <c r="W32" s="280"/>
+      <c r="X32" s="280"/>
+      <c r="Y32" s="280"/>
+      <c r="Z32" s="280"/>
+      <c r="AA32" s="280"/>
+      <c r="AB32" s="280"/>
+      <c r="AC32" s="280"/>
+      <c r="AD32" s="280"/>
+      <c r="AE32" s="280"/>
+      <c r="AF32" s="280"/>
+      <c r="AG32" s="280"/>
+      <c r="AH32" s="280"/>
+      <c r="AI32" s="280"/>
+      <c r="AJ32" s="280"/>
+      <c r="AK32" s="280"/>
+      <c r="AL32" s="280"/>
+      <c r="AM32" s="281"/>
+      <c r="AN32" s="282"/>
+      <c r="AO32" s="283"/>
+      <c r="AP32" s="283"/>
+      <c r="AQ32" s="283"/>
+      <c r="AR32" s="284"/>
+      <c r="AS32" s="282"/>
+      <c r="AT32" s="283"/>
+      <c r="AU32" s="283"/>
+      <c r="AV32" s="283"/>
+      <c r="AW32" s="284"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="248"/>
-      <c r="C33" s="249"/>
-      <c r="D33" s="250"/>
-      <c r="E33" s="251"/>
-      <c r="F33" s="251"/>
-      <c r="G33" s="251"/>
-      <c r="H33" s="251"/>
-      <c r="I33" s="251"/>
-      <c r="J33" s="252"/>
-      <c r="K33" s="253"/>
-      <c r="L33" s="254"/>
-      <c r="M33" s="262"/>
-      <c r="N33" s="263"/>
-      <c r="O33" s="263"/>
-      <c r="P33" s="263"/>
-      <c r="Q33" s="263"/>
-      <c r="R33" s="264"/>
-      <c r="S33" s="258"/>
-      <c r="T33" s="258"/>
-      <c r="U33" s="258"/>
-      <c r="V33" s="259"/>
-      <c r="W33" s="260"/>
-      <c r="X33" s="260"/>
-      <c r="Y33" s="260"/>
-      <c r="Z33" s="260"/>
-      <c r="AA33" s="260"/>
-      <c r="AB33" s="260"/>
-      <c r="AC33" s="260"/>
-      <c r="AD33" s="260"/>
-      <c r="AE33" s="260"/>
-      <c r="AF33" s="260"/>
-      <c r="AG33" s="260"/>
-      <c r="AH33" s="260"/>
-      <c r="AI33" s="260"/>
-      <c r="AJ33" s="260"/>
-      <c r="AK33" s="260"/>
-      <c r="AL33" s="260"/>
-      <c r="AM33" s="261"/>
-      <c r="AN33" s="245"/>
-      <c r="AO33" s="246"/>
-      <c r="AP33" s="246"/>
-      <c r="AQ33" s="246"/>
-      <c r="AR33" s="247"/>
-      <c r="AS33" s="245"/>
-      <c r="AT33" s="246"/>
-      <c r="AU33" s="246"/>
-      <c r="AV33" s="246"/>
-      <c r="AW33" s="247"/>
+      <c r="B33" s="273"/>
+      <c r="C33" s="274"/>
+      <c r="D33" s="275"/>
+      <c r="E33" s="265"/>
+      <c r="F33" s="265"/>
+      <c r="G33" s="265"/>
+      <c r="H33" s="265"/>
+      <c r="I33" s="265"/>
+      <c r="J33" s="266"/>
+      <c r="K33" s="267"/>
+      <c r="L33" s="268"/>
+      <c r="M33" s="287"/>
+      <c r="N33" s="277"/>
+      <c r="O33" s="277"/>
+      <c r="P33" s="277"/>
+      <c r="Q33" s="277"/>
+      <c r="R33" s="278"/>
+      <c r="S33" s="263"/>
+      <c r="T33" s="263"/>
+      <c r="U33" s="263"/>
+      <c r="V33" s="279"/>
+      <c r="W33" s="280"/>
+      <c r="X33" s="280"/>
+      <c r="Y33" s="280"/>
+      <c r="Z33" s="280"/>
+      <c r="AA33" s="280"/>
+      <c r="AB33" s="280"/>
+      <c r="AC33" s="280"/>
+      <c r="AD33" s="280"/>
+      <c r="AE33" s="280"/>
+      <c r="AF33" s="280"/>
+      <c r="AG33" s="280"/>
+      <c r="AH33" s="280"/>
+      <c r="AI33" s="280"/>
+      <c r="AJ33" s="280"/>
+      <c r="AK33" s="280"/>
+      <c r="AL33" s="280"/>
+      <c r="AM33" s="281"/>
+      <c r="AN33" s="282"/>
+      <c r="AO33" s="283"/>
+      <c r="AP33" s="283"/>
+      <c r="AQ33" s="283"/>
+      <c r="AR33" s="284"/>
+      <c r="AS33" s="282"/>
+      <c r="AT33" s="283"/>
+      <c r="AU33" s="283"/>
+      <c r="AV33" s="283"/>
+      <c r="AW33" s="284"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="248"/>
-      <c r="C34" s="249"/>
-      <c r="D34" s="250"/>
-      <c r="E34" s="251"/>
-      <c r="F34" s="251"/>
-      <c r="G34" s="251"/>
-      <c r="H34" s="251"/>
-      <c r="I34" s="251"/>
-      <c r="J34" s="252"/>
-      <c r="K34" s="253"/>
-      <c r="L34" s="254"/>
-      <c r="M34" s="255"/>
-      <c r="N34" s="256"/>
-      <c r="O34" s="256"/>
-      <c r="P34" s="256"/>
-      <c r="Q34" s="256"/>
-      <c r="R34" s="257"/>
-      <c r="S34" s="258"/>
-      <c r="T34" s="258"/>
-      <c r="U34" s="258"/>
-      <c r="V34" s="259"/>
-      <c r="W34" s="260"/>
-      <c r="X34" s="260"/>
-      <c r="Y34" s="260"/>
-      <c r="Z34" s="260"/>
-      <c r="AA34" s="260"/>
-      <c r="AB34" s="260"/>
-      <c r="AC34" s="260"/>
-      <c r="AD34" s="260"/>
-      <c r="AE34" s="260"/>
-      <c r="AF34" s="260"/>
-      <c r="AG34" s="260"/>
-      <c r="AH34" s="260"/>
-      <c r="AI34" s="260"/>
-      <c r="AJ34" s="260"/>
-      <c r="AK34" s="260"/>
-      <c r="AL34" s="260"/>
-      <c r="AM34" s="261"/>
-      <c r="AN34" s="245"/>
-      <c r="AO34" s="246"/>
-      <c r="AP34" s="246"/>
-      <c r="AQ34" s="246"/>
-      <c r="AR34" s="247"/>
-      <c r="AS34" s="245"/>
-      <c r="AT34" s="246"/>
-      <c r="AU34" s="246"/>
-      <c r="AV34" s="246"/>
-      <c r="AW34" s="247"/>
+      <c r="B34" s="273"/>
+      <c r="C34" s="274"/>
+      <c r="D34" s="275"/>
+      <c r="E34" s="265"/>
+      <c r="F34" s="265"/>
+      <c r="G34" s="265"/>
+      <c r="H34" s="265"/>
+      <c r="I34" s="265"/>
+      <c r="J34" s="266"/>
+      <c r="K34" s="267"/>
+      <c r="L34" s="268"/>
+      <c r="M34" s="291"/>
+      <c r="N34" s="292"/>
+      <c r="O34" s="292"/>
+      <c r="P34" s="292"/>
+      <c r="Q34" s="292"/>
+      <c r="R34" s="293"/>
+      <c r="S34" s="263"/>
+      <c r="T34" s="263"/>
+      <c r="U34" s="263"/>
+      <c r="V34" s="279"/>
+      <c r="W34" s="280"/>
+      <c r="X34" s="280"/>
+      <c r="Y34" s="280"/>
+      <c r="Z34" s="280"/>
+      <c r="AA34" s="280"/>
+      <c r="AB34" s="280"/>
+      <c r="AC34" s="280"/>
+      <c r="AD34" s="280"/>
+      <c r="AE34" s="280"/>
+      <c r="AF34" s="280"/>
+      <c r="AG34" s="280"/>
+      <c r="AH34" s="280"/>
+      <c r="AI34" s="280"/>
+      <c r="AJ34" s="280"/>
+      <c r="AK34" s="280"/>
+      <c r="AL34" s="280"/>
+      <c r="AM34" s="281"/>
+      <c r="AN34" s="282"/>
+      <c r="AO34" s="283"/>
+      <c r="AP34" s="283"/>
+      <c r="AQ34" s="283"/>
+      <c r="AR34" s="284"/>
+      <c r="AS34" s="282"/>
+      <c r="AT34" s="283"/>
+      <c r="AU34" s="283"/>
+      <c r="AV34" s="283"/>
+      <c r="AW34" s="284"/>
     </row>
   </sheetData>
   <mergeCells count="249">
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN33:AR33"/>
+    <mergeCell ref="AS33:AW33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:AM34"/>
+    <mergeCell ref="AN34:AR34"/>
+    <mergeCell ref="AS34:AW34"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
     <mergeCell ref="AN5:AR5"/>
     <mergeCell ref="AS5:AW5"/>
     <mergeCell ref="B6:D6"/>
@@ -10301,230 +10519,15 @@
     <mergeCell ref="M5:R5"/>
     <mergeCell ref="S5:U5"/>
     <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN33:AR33"/>
-    <mergeCell ref="AS33:AW33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:AM34"/>
-    <mergeCell ref="AN34:AR34"/>
-    <mergeCell ref="AS34:AW34"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10684,11 +10687,11 @@
       <c r="AL2" s="35"/>
       <c r="AM2" s="35"/>
       <c r="AN2" s="36"/>
-      <c r="AO2" s="289"/>
-      <c r="AP2" s="290"/>
-      <c r="AQ2" s="290"/>
-      <c r="AR2" s="290"/>
-      <c r="AS2" s="291"/>
+      <c r="AO2" s="298"/>
+      <c r="AP2" s="299"/>
+      <c r="AQ2" s="299"/>
+      <c r="AR2" s="299"/>
+      <c r="AS2" s="300"/>
       <c r="AT2" s="34" t="s">
         <v>26</v>
       </c>
@@ -10697,14 +10700,14 @@
       <c r="AW2" s="35"/>
       <c r="AX2" s="35"/>
       <c r="AY2" s="36"/>
-      <c r="AZ2" s="292"/>
-      <c r="BA2" s="293"/>
-      <c r="BB2" s="293"/>
-      <c r="BC2" s="293"/>
-      <c r="BD2" s="293"/>
-      <c r="BE2" s="293"/>
-      <c r="BF2" s="293"/>
-      <c r="BG2" s="294"/>
+      <c r="AZ2" s="301"/>
+      <c r="BA2" s="302"/>
+      <c r="BB2" s="302"/>
+      <c r="BC2" s="302"/>
+      <c r="BD2" s="302"/>
+      <c r="BE2" s="302"/>
+      <c r="BF2" s="302"/>
+      <c r="BG2" s="303"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="33"/>
@@ -12453,10 +12456,10 @@
     </row>
     <row r="50" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A50" s="29"/>
-      <c r="B50" s="295" t="s">
+      <c r="B50" s="304" t="s">
         <v>99</v>
       </c>
-      <c r="C50" s="296"/>
+      <c r="C50" s="305"/>
       <c r="D50" s="72" t="s">
         <v>98</v>
       </c>
@@ -12539,10 +12542,10 @@
     </row>
     <row r="51" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A51" s="29"/>
-      <c r="B51" s="287">
+      <c r="B51" s="296">
         <v>1</v>
       </c>
-      <c r="C51" s="288"/>
+      <c r="C51" s="297"/>
       <c r="D51" s="213" t="s">
         <v>119</v>
       </c>
@@ -12574,10 +12577,10 @@
       <c r="AB51" s="214"/>
       <c r="AC51" s="214"/>
       <c r="AD51" s="215"/>
-      <c r="AE51" s="285" t="s">
+      <c r="AE51" s="294" t="s">
         <v>107</v>
       </c>
-      <c r="AF51" s="286"/>
+      <c r="AF51" s="295"/>
       <c r="AG51" s="234"/>
       <c r="AH51" s="235"/>
       <c r="AI51" s="234"/>
@@ -12617,10 +12620,10 @@
     </row>
     <row r="52" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A52" s="29"/>
-      <c r="B52" s="287">
+      <c r="B52" s="296">
         <v>2</v>
       </c>
-      <c r="C52" s="288"/>
+      <c r="C52" s="297"/>
       <c r="D52" s="213" t="s">
         <v>119</v>
       </c>
@@ -12652,10 +12655,10 @@
       <c r="AB52" s="214"/>
       <c r="AC52" s="214"/>
       <c r="AD52" s="215"/>
-      <c r="AE52" s="285" t="s">
+      <c r="AE52" s="294" t="s">
         <v>107</v>
       </c>
-      <c r="AF52" s="286"/>
+      <c r="AF52" s="295"/>
       <c r="AG52" s="234"/>
       <c r="AH52" s="235"/>
       <c r="AI52" s="234"/>
@@ -12695,10 +12698,10 @@
     </row>
     <row r="53" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A53" s="29"/>
-      <c r="B53" s="287">
+      <c r="B53" s="296">
         <v>3</v>
       </c>
-      <c r="C53" s="288"/>
+      <c r="C53" s="297"/>
       <c r="D53" s="213" t="s">
         <v>313</v>
       </c>
@@ -12730,10 +12733,10 @@
       <c r="AB53" s="214"/>
       <c r="AC53" s="214"/>
       <c r="AD53" s="215"/>
-      <c r="AE53" s="285" t="s">
+      <c r="AE53" s="294" t="s">
         <v>107</v>
       </c>
-      <c r="AF53" s="286"/>
+      <c r="AF53" s="295"/>
       <c r="AG53" s="217"/>
       <c r="AH53" s="218"/>
       <c r="AI53" s="217"/>
@@ -12910,20 +12913,20 @@
       <c r="CA1" s="35"/>
       <c r="CB1" s="35"/>
       <c r="CC1" s="36"/>
-      <c r="CD1" s="299">
+      <c r="CD1" s="308">
         <f>変更履歴!E5</f>
         <v>43734</v>
       </c>
-      <c r="CE1" s="300"/>
-      <c r="CF1" s="300"/>
-      <c r="CG1" s="300"/>
-      <c r="CH1" s="300"/>
-      <c r="CI1" s="300"/>
-      <c r="CJ1" s="300"/>
-      <c r="CK1" s="300"/>
-      <c r="CL1" s="300"/>
-      <c r="CM1" s="300"/>
-      <c r="CN1" s="301"/>
+      <c r="CE1" s="309"/>
+      <c r="CF1" s="309"/>
+      <c r="CG1" s="309"/>
+      <c r="CH1" s="309"/>
+      <c r="CI1" s="309"/>
+      <c r="CJ1" s="309"/>
+      <c r="CK1" s="309"/>
+      <c r="CL1" s="309"/>
+      <c r="CM1" s="309"/>
+      <c r="CN1" s="310"/>
       <c r="CO1" s="34" t="s">
         <v>25</v>
       </c>
@@ -12932,23 +12935,23 @@
       <c r="CR1" s="35"/>
       <c r="CS1" s="35"/>
       <c r="CT1" s="36"/>
-      <c r="CU1" s="292" t="str">
+      <c r="CU1" s="301" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
-      <c r="CV1" s="297"/>
-      <c r="CW1" s="297"/>
-      <c r="CX1" s="297"/>
-      <c r="CY1" s="297"/>
-      <c r="CZ1" s="297"/>
-      <c r="DA1" s="297"/>
-      <c r="DB1" s="297"/>
-      <c r="DC1" s="297"/>
-      <c r="DD1" s="297"/>
-      <c r="DE1" s="297"/>
-      <c r="DF1" s="297"/>
-      <c r="DG1" s="297"/>
-      <c r="DH1" s="298"/>
+      <c r="CV1" s="306"/>
+      <c r="CW1" s="306"/>
+      <c r="CX1" s="306"/>
+      <c r="CY1" s="306"/>
+      <c r="CZ1" s="306"/>
+      <c r="DA1" s="306"/>
+      <c r="DB1" s="306"/>
+      <c r="DC1" s="306"/>
+      <c r="DD1" s="306"/>
+      <c r="DE1" s="306"/>
+      <c r="DF1" s="306"/>
+      <c r="DG1" s="306"/>
+      <c r="DH1" s="307"/>
     </row>
     <row r="2" spans="1:113" s="48" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
@@ -13003,39 +13006,39 @@
       <c r="AQ2" s="78"/>
       <c r="AR2" s="78"/>
       <c r="AS2" s="79"/>
-      <c r="AT2" s="303" t="str">
+      <c r="AT2" s="312" t="str">
         <f>'１．機能概要'!W2</f>
         <v>在庫照会</v>
       </c>
-      <c r="AU2" s="304"/>
-      <c r="AV2" s="304"/>
-      <c r="AW2" s="304"/>
-      <c r="AX2" s="304"/>
-      <c r="AY2" s="304"/>
-      <c r="AZ2" s="304"/>
-      <c r="BA2" s="304"/>
-      <c r="BB2" s="304"/>
-      <c r="BC2" s="304"/>
-      <c r="BD2" s="304"/>
-      <c r="BE2" s="304"/>
-      <c r="BF2" s="304"/>
-      <c r="BG2" s="304"/>
-      <c r="BH2" s="304"/>
-      <c r="BI2" s="304"/>
-      <c r="BJ2" s="304"/>
-      <c r="BK2" s="304"/>
-      <c r="BL2" s="304"/>
-      <c r="BM2" s="304"/>
-      <c r="BN2" s="304"/>
-      <c r="BO2" s="304"/>
-      <c r="BP2" s="304"/>
-      <c r="BQ2" s="304"/>
-      <c r="BR2" s="304"/>
-      <c r="BS2" s="304"/>
-      <c r="BT2" s="304"/>
-      <c r="BU2" s="304"/>
-      <c r="BV2" s="304"/>
-      <c r="BW2" s="305"/>
+      <c r="AU2" s="313"/>
+      <c r="AV2" s="313"/>
+      <c r="AW2" s="313"/>
+      <c r="AX2" s="313"/>
+      <c r="AY2" s="313"/>
+      <c r="AZ2" s="313"/>
+      <c r="BA2" s="313"/>
+      <c r="BB2" s="313"/>
+      <c r="BC2" s="313"/>
+      <c r="BD2" s="313"/>
+      <c r="BE2" s="313"/>
+      <c r="BF2" s="313"/>
+      <c r="BG2" s="313"/>
+      <c r="BH2" s="313"/>
+      <c r="BI2" s="313"/>
+      <c r="BJ2" s="313"/>
+      <c r="BK2" s="313"/>
+      <c r="BL2" s="313"/>
+      <c r="BM2" s="313"/>
+      <c r="BN2" s="313"/>
+      <c r="BO2" s="313"/>
+      <c r="BP2" s="313"/>
+      <c r="BQ2" s="313"/>
+      <c r="BR2" s="313"/>
+      <c r="BS2" s="313"/>
+      <c r="BT2" s="313"/>
+      <c r="BU2" s="313"/>
+      <c r="BV2" s="313"/>
+      <c r="BW2" s="314"/>
       <c r="BX2" s="34" t="s">
         <v>24</v>
       </c>
@@ -13044,17 +13047,17 @@
       <c r="CA2" s="35"/>
       <c r="CB2" s="35"/>
       <c r="CC2" s="36"/>
-      <c r="CD2" s="302"/>
-      <c r="CE2" s="297"/>
-      <c r="CF2" s="297"/>
-      <c r="CG2" s="297"/>
-      <c r="CH2" s="297"/>
-      <c r="CI2" s="297"/>
-      <c r="CJ2" s="297"/>
-      <c r="CK2" s="297"/>
-      <c r="CL2" s="297"/>
-      <c r="CM2" s="297"/>
-      <c r="CN2" s="298"/>
+      <c r="CD2" s="311"/>
+      <c r="CE2" s="306"/>
+      <c r="CF2" s="306"/>
+      <c r="CG2" s="306"/>
+      <c r="CH2" s="306"/>
+      <c r="CI2" s="306"/>
+      <c r="CJ2" s="306"/>
+      <c r="CK2" s="306"/>
+      <c r="CL2" s="306"/>
+      <c r="CM2" s="306"/>
+      <c r="CN2" s="307"/>
       <c r="CO2" s="34" t="s">
         <v>26</v>
       </c>
@@ -13063,20 +13066,20 @@
       <c r="CR2" s="35"/>
       <c r="CS2" s="35"/>
       <c r="CT2" s="36"/>
-      <c r="CU2" s="292"/>
-      <c r="CV2" s="297"/>
-      <c r="CW2" s="297"/>
-      <c r="CX2" s="297"/>
-      <c r="CY2" s="297"/>
-      <c r="CZ2" s="297"/>
-      <c r="DA2" s="297"/>
-      <c r="DB2" s="297"/>
-      <c r="DC2" s="297"/>
-      <c r="DD2" s="297"/>
-      <c r="DE2" s="297"/>
-      <c r="DF2" s="297"/>
-      <c r="DG2" s="297"/>
-      <c r="DH2" s="298"/>
+      <c r="CU2" s="301"/>
+      <c r="CV2" s="306"/>
+      <c r="CW2" s="306"/>
+      <c r="CX2" s="306"/>
+      <c r="CY2" s="306"/>
+      <c r="CZ2" s="306"/>
+      <c r="DA2" s="306"/>
+      <c r="DB2" s="306"/>
+      <c r="DC2" s="306"/>
+      <c r="DD2" s="306"/>
+      <c r="DE2" s="306"/>
+      <c r="DF2" s="306"/>
+      <c r="DG2" s="306"/>
+      <c r="DH2" s="307"/>
     </row>
     <row r="3" spans="1:113" x14ac:dyDescent="0.25">
       <c r="AU3" s="50"/>
@@ -13280,37 +13283,37 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="278" t="s">
+      <c r="C6" s="256" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="278" t="s">
+      <c r="D6" s="256" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="278" t="s">
+      <c r="E6" s="256" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="278" t="s">
+      <c r="F6" s="256" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="278" t="s">
+      <c r="G6" s="256" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="278" t="s">
+      <c r="H6" s="256" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="306" t="s">
+      <c r="I6" s="315" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="306" t="s">
+      <c r="J6" s="315" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="278" t="s">
+      <c r="K6" s="256" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="278" t="s">
+      <c r="L6" s="256" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="278" t="s">
+      <c r="M6" s="256" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="65" t="s">
@@ -13318,24 +13321,24 @@
       </c>
       <c r="O6" s="65"/>
       <c r="P6" s="65"/>
-      <c r="Q6" s="306" t="s">
+      <c r="Q6" s="315" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="278"/>
-      <c r="D7" s="278"/>
-      <c r="E7" s="278"/>
-      <c r="F7" s="278"/>
-      <c r="G7" s="278"/>
-      <c r="H7" s="278"/>
-      <c r="I7" s="306"/>
-      <c r="J7" s="306"/>
-      <c r="K7" s="278"/>
-      <c r="L7" s="278"/>
-      <c r="M7" s="278"/>
+      <c r="C7" s="256"/>
+      <c r="D7" s="256"/>
+      <c r="E7" s="256"/>
+      <c r="F7" s="256"/>
+      <c r="G7" s="256"/>
+      <c r="H7" s="256"/>
+      <c r="I7" s="315"/>
+      <c r="J7" s="315"/>
+      <c r="K7" s="256"/>
+      <c r="L7" s="256"/>
+      <c r="M7" s="256"/>
       <c r="N7" s="43" t="s">
         <v>77</v>
       </c>
@@ -13345,7 +13348,7 @@
       <c r="P7" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="Q7" s="306"/>
+      <c r="Q7" s="315"/>
     </row>
     <row r="8" spans="1:18" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
@@ -13589,37 +13592,37 @@
     <row r="15" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
-      <c r="C15" s="278" t="s">
+      <c r="C15" s="256" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="278" t="s">
+      <c r="D15" s="256" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="278" t="s">
+      <c r="E15" s="256" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="278" t="s">
+      <c r="F15" s="256" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="278" t="s">
+      <c r="G15" s="256" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="278" t="s">
+      <c r="H15" s="256" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="307" t="s">
+      <c r="I15" s="316" t="s">
         <v>47</v>
       </c>
-      <c r="J15" s="306" t="s">
+      <c r="J15" s="315" t="s">
         <v>48</v>
       </c>
-      <c r="K15" s="278" t="s">
+      <c r="K15" s="256" t="s">
         <v>31</v>
       </c>
-      <c r="L15" s="278" t="s">
+      <c r="L15" s="256" t="s">
         <v>30</v>
       </c>
-      <c r="M15" s="278" t="s">
+      <c r="M15" s="256" t="s">
         <v>33</v>
       </c>
       <c r="N15" s="65" t="s">
@@ -13627,24 +13630,24 @@
       </c>
       <c r="O15" s="65"/>
       <c r="P15" s="65"/>
-      <c r="Q15" s="307" t="s">
+      <c r="Q15" s="316" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
-      <c r="C16" s="278"/>
-      <c r="D16" s="278"/>
-      <c r="E16" s="278"/>
-      <c r="F16" s="278"/>
-      <c r="G16" s="278"/>
-      <c r="H16" s="278"/>
-      <c r="I16" s="308"/>
-      <c r="J16" s="306"/>
-      <c r="K16" s="278"/>
-      <c r="L16" s="278"/>
-      <c r="M16" s="278"/>
+      <c r="C16" s="256"/>
+      <c r="D16" s="256"/>
+      <c r="E16" s="256"/>
+      <c r="F16" s="256"/>
+      <c r="G16" s="256"/>
+      <c r="H16" s="256"/>
+      <c r="I16" s="317"/>
+      <c r="J16" s="315"/>
+      <c r="K16" s="256"/>
+      <c r="L16" s="256"/>
+      <c r="M16" s="256"/>
       <c r="N16" s="43" t="s">
         <v>77</v>
       </c>
@@ -13654,7 +13657,7 @@
       <c r="P16" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="Q16" s="308"/>
+      <c r="Q16" s="317"/>
     </row>
     <row r="17" spans="1:17" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
@@ -14007,37 +14010,37 @@
     </row>
     <row r="26" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="95"/>
-      <c r="C26" s="278" t="s">
+      <c r="C26" s="256" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="278" t="s">
+      <c r="D26" s="256" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="278" t="s">
+      <c r="E26" s="256" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="278" t="s">
+      <c r="F26" s="256" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="278" t="s">
+      <c r="G26" s="256" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="278" t="s">
+      <c r="H26" s="256" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="306" t="s">
+      <c r="I26" s="315" t="s">
         <v>47</v>
       </c>
-      <c r="J26" s="306" t="s">
+      <c r="J26" s="315" t="s">
         <v>48</v>
       </c>
-      <c r="K26" s="278" t="s">
+      <c r="K26" s="256" t="s">
         <v>31</v>
       </c>
-      <c r="L26" s="278" t="s">
+      <c r="L26" s="256" t="s">
         <v>30</v>
       </c>
-      <c r="M26" s="278" t="s">
+      <c r="M26" s="256" t="s">
         <v>33</v>
       </c>
       <c r="N26" s="65" t="s">
@@ -14045,23 +14048,23 @@
       </c>
       <c r="O26" s="65"/>
       <c r="P26" s="65"/>
-      <c r="Q26" s="306" t="s">
+      <c r="Q26" s="315" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B27" s="95"/>
-      <c r="C27" s="278"/>
-      <c r="D27" s="278"/>
-      <c r="E27" s="278"/>
-      <c r="F27" s="278"/>
-      <c r="G27" s="278"/>
-      <c r="H27" s="278"/>
-      <c r="I27" s="306"/>
-      <c r="J27" s="306"/>
-      <c r="K27" s="278"/>
-      <c r="L27" s="278"/>
-      <c r="M27" s="278"/>
+      <c r="C27" s="256"/>
+      <c r="D27" s="256"/>
+      <c r="E27" s="256"/>
+      <c r="F27" s="256"/>
+      <c r="G27" s="256"/>
+      <c r="H27" s="256"/>
+      <c r="I27" s="315"/>
+      <c r="J27" s="315"/>
+      <c r="K27" s="256"/>
+      <c r="L27" s="256"/>
+      <c r="M27" s="256"/>
       <c r="N27" s="93" t="s">
         <v>77</v>
       </c>
@@ -14071,7 +14074,7 @@
       <c r="P27" s="93" t="s">
         <v>82</v>
       </c>
-      <c r="Q27" s="306"/>
+      <c r="Q27" s="315"/>
     </row>
     <row r="28" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
@@ -14208,235 +14211,235 @@
       </c>
       <c r="Q30" s="8"/>
     </row>
-    <row r="31" spans="1:17" s="322" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B31" s="323"/>
-      <c r="C31" s="324">
+    <row r="31" spans="1:17" s="246" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B31" s="247"/>
+      <c r="C31" s="248">
         <v>4</v>
       </c>
-      <c r="D31" s="324" t="s">
+      <c r="D31" s="248" t="s">
         <v>326</v>
       </c>
-      <c r="E31" s="325" t="s">
+      <c r="E31" s="249" t="s">
         <v>429</v>
       </c>
-      <c r="F31" s="324" t="s">
+      <c r="F31" s="248" t="s">
         <v>35</v>
       </c>
-      <c r="G31" s="324" t="s">
+      <c r="G31" s="248" t="s">
         <v>51</v>
       </c>
-      <c r="H31" s="324" t="s">
+      <c r="H31" s="248" t="s">
         <v>35</v>
       </c>
-      <c r="I31" s="324" t="s">
+      <c r="I31" s="248" t="s">
         <v>35</v>
       </c>
-      <c r="J31" s="324" t="s">
+      <c r="J31" s="248" t="s">
         <v>35</v>
       </c>
-      <c r="K31" s="324" t="s">
+      <c r="K31" s="248" t="s">
         <v>35</v>
       </c>
-      <c r="L31" s="324" t="s">
+      <c r="L31" s="248" t="s">
         <v>35</v>
       </c>
-      <c r="M31" s="324" t="s">
+      <c r="M31" s="248" t="s">
         <v>35</v>
       </c>
-      <c r="N31" s="324" t="s">
+      <c r="N31" s="248" t="s">
         <v>35</v>
       </c>
-      <c r="O31" s="324" t="s">
+      <c r="O31" s="248" t="s">
         <v>35</v>
       </c>
-      <c r="P31" s="326" t="s">
+      <c r="P31" s="250" t="s">
         <v>430</v>
       </c>
-      <c r="Q31" s="326"/>
-    </row>
-    <row r="32" spans="1:17" s="322" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B32" s="323"/>
-      <c r="C32" s="324">
+      <c r="Q31" s="250"/>
+    </row>
+    <row r="32" spans="1:17" s="246" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B32" s="247"/>
+      <c r="C32" s="248">
         <v>5</v>
       </c>
-      <c r="D32" s="324" t="s">
+      <c r="D32" s="248" t="s">
         <v>136</v>
       </c>
-      <c r="E32" s="325" t="s">
+      <c r="E32" s="249" t="s">
         <v>431</v>
       </c>
-      <c r="F32" s="324" t="s">
+      <c r="F32" s="248" t="s">
         <v>35</v>
       </c>
-      <c r="G32" s="324" t="s">
+      <c r="G32" s="248" t="s">
         <v>51</v>
       </c>
-      <c r="H32" s="324" t="s">
+      <c r="H32" s="248" t="s">
         <v>35</v>
       </c>
-      <c r="I32" s="324" t="s">
+      <c r="I32" s="248" t="s">
         <v>35</v>
       </c>
-      <c r="J32" s="324" t="s">
+      <c r="J32" s="248" t="s">
         <v>35</v>
       </c>
-      <c r="K32" s="324" t="s">
+      <c r="K32" s="248" t="s">
         <v>35</v>
       </c>
-      <c r="L32" s="324" t="s">
+      <c r="L32" s="248" t="s">
         <v>35</v>
       </c>
-      <c r="M32" s="324" t="s">
+      <c r="M32" s="248" t="s">
         <v>35</v>
       </c>
-      <c r="N32" s="324" t="s">
+      <c r="N32" s="248" t="s">
         <v>35</v>
       </c>
-      <c r="O32" s="324" t="s">
+      <c r="O32" s="248" t="s">
         <v>35</v>
       </c>
-      <c r="P32" s="326" t="s">
+      <c r="P32" s="250" t="s">
         <v>432</v>
       </c>
-      <c r="Q32" s="326"/>
-    </row>
-    <row r="33" spans="1:17" s="322" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B33" s="323"/>
-      <c r="C33" s="324">
+      <c r="Q32" s="250"/>
+    </row>
+    <row r="33" spans="1:17" s="246" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B33" s="247"/>
+      <c r="C33" s="248">
         <v>6</v>
       </c>
-      <c r="D33" s="324" t="s">
+      <c r="D33" s="248" t="s">
         <v>198</v>
       </c>
-      <c r="E33" s="325" t="s">
+      <c r="E33" s="249" t="s">
         <v>433</v>
       </c>
-      <c r="F33" s="324" t="s">
+      <c r="F33" s="248" t="s">
         <v>35</v>
       </c>
-      <c r="G33" s="324" t="s">
+      <c r="G33" s="248" t="s">
         <v>51</v>
       </c>
-      <c r="H33" s="324" t="s">
+      <c r="H33" s="248" t="s">
         <v>35</v>
       </c>
-      <c r="I33" s="324" t="s">
+      <c r="I33" s="248" t="s">
         <v>35</v>
       </c>
-      <c r="J33" s="324" t="s">
+      <c r="J33" s="248" t="s">
         <v>35</v>
       </c>
-      <c r="K33" s="324" t="s">
+      <c r="K33" s="248" t="s">
         <v>35</v>
       </c>
-      <c r="L33" s="324" t="s">
+      <c r="L33" s="248" t="s">
         <v>35</v>
       </c>
-      <c r="M33" s="324" t="s">
+      <c r="M33" s="248" t="s">
         <v>35</v>
       </c>
-      <c r="N33" s="324" t="s">
+      <c r="N33" s="248" t="s">
         <v>35</v>
       </c>
-      <c r="O33" s="324" t="s">
+      <c r="O33" s="248" t="s">
         <v>35</v>
       </c>
-      <c r="P33" s="326" t="s">
+      <c r="P33" s="250" t="s">
         <v>434</v>
       </c>
-      <c r="Q33" s="326"/>
-    </row>
-    <row r="34" spans="1:17" s="322" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B34" s="323"/>
-      <c r="C34" s="324">
+      <c r="Q33" s="250"/>
+    </row>
+    <row r="34" spans="1:17" s="246" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B34" s="247"/>
+      <c r="C34" s="248">
         <v>7</v>
       </c>
-      <c r="D34" s="324" t="s">
+      <c r="D34" s="248" t="s">
         <v>199</v>
       </c>
-      <c r="E34" s="325" t="s">
+      <c r="E34" s="249" t="s">
         <v>435</v>
       </c>
-      <c r="F34" s="324" t="s">
+      <c r="F34" s="248" t="s">
         <v>35</v>
       </c>
-      <c r="G34" s="324" t="s">
+      <c r="G34" s="248" t="s">
         <v>51</v>
       </c>
-      <c r="H34" s="324" t="s">
+      <c r="H34" s="248" t="s">
         <v>35</v>
       </c>
-      <c r="I34" s="324" t="s">
+      <c r="I34" s="248" t="s">
         <v>35</v>
       </c>
-      <c r="J34" s="324" t="s">
+      <c r="J34" s="248" t="s">
         <v>35</v>
       </c>
-      <c r="K34" s="324" t="s">
+      <c r="K34" s="248" t="s">
         <v>35</v>
       </c>
-      <c r="L34" s="324" t="s">
+      <c r="L34" s="248" t="s">
         <v>35</v>
       </c>
-      <c r="M34" s="324" t="s">
+      <c r="M34" s="248" t="s">
         <v>35</v>
       </c>
-      <c r="N34" s="324" t="s">
+      <c r="N34" s="248" t="s">
         <v>35</v>
       </c>
-      <c r="O34" s="324" t="s">
+      <c r="O34" s="248" t="s">
         <v>35</v>
       </c>
-      <c r="P34" s="326" t="s">
+      <c r="P34" s="250" t="s">
         <v>436</v>
       </c>
-      <c r="Q34" s="326"/>
-    </row>
-    <row r="35" spans="1:17" s="322" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B35" s="323"/>
-      <c r="C35" s="324">
+      <c r="Q34" s="250"/>
+    </row>
+    <row r="35" spans="1:17" s="246" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B35" s="247"/>
+      <c r="C35" s="248">
         <v>8</v>
       </c>
-      <c r="D35" s="324" t="s">
+      <c r="D35" s="248" t="s">
         <v>200</v>
       </c>
-      <c r="E35" s="325" t="s">
+      <c r="E35" s="249" t="s">
         <v>437</v>
       </c>
-      <c r="F35" s="324" t="s">
+      <c r="F35" s="248" t="s">
         <v>35</v>
       </c>
-      <c r="G35" s="324" t="s">
+      <c r="G35" s="248" t="s">
         <v>51</v>
       </c>
-      <c r="H35" s="324" t="s">
+      <c r="H35" s="248" t="s">
         <v>35</v>
       </c>
-      <c r="I35" s="324" t="s">
+      <c r="I35" s="248" t="s">
         <v>35</v>
       </c>
-      <c r="J35" s="324" t="s">
+      <c r="J35" s="248" t="s">
         <v>35</v>
       </c>
-      <c r="K35" s="324" t="s">
+      <c r="K35" s="248" t="s">
         <v>35</v>
       </c>
-      <c r="L35" s="324" t="s">
+      <c r="L35" s="248" t="s">
         <v>35</v>
       </c>
-      <c r="M35" s="324" t="s">
+      <c r="M35" s="248" t="s">
         <v>35</v>
       </c>
-      <c r="N35" s="324" t="s">
+      <c r="N35" s="248" t="s">
         <v>35</v>
       </c>
-      <c r="O35" s="324" t="s">
+      <c r="O35" s="248" t="s">
         <v>35</v>
       </c>
-      <c r="P35" s="326" t="s">
+      <c r="P35" s="250" t="s">
         <v>438</v>
       </c>
-      <c r="Q35" s="326"/>
+      <c r="Q35" s="250"/>
     </row>
     <row r="36" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B36" s="95"/>
@@ -14477,7 +14480,7 @@
       <c r="O36" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="P36" s="318" t="s">
+      <c r="P36" s="242" t="s">
         <v>428</v>
       </c>
       <c r="Q36" s="8"/>
@@ -14949,6 +14952,34 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
     <mergeCell ref="K15:K16"/>
     <mergeCell ref="M26:M27"/>
     <mergeCell ref="Q26:Q27"/>
@@ -14957,34 +14988,6 @@
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="M15:M16"/>
     <mergeCell ref="L15:L16"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -15056,14 +15059,14 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="289">
+      <c r="AI1" s="298">
         <f>変更履歴!E5</f>
         <v>43734</v>
       </c>
-      <c r="AJ1" s="304"/>
-      <c r="AK1" s="304"/>
-      <c r="AL1" s="304"/>
-      <c r="AM1" s="305"/>
+      <c r="AJ1" s="313"/>
+      <c r="AK1" s="313"/>
+      <c r="AL1" s="313"/>
+      <c r="AM1" s="314"/>
       <c r="AN1" s="34" t="s">
         <v>25</v>
       </c>
@@ -15072,16 +15075,16 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="292" t="str">
+      <c r="AT1" s="301" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
-      <c r="AU1" s="297"/>
-      <c r="AV1" s="297"/>
-      <c r="AW1" s="297"/>
-      <c r="AX1" s="297"/>
-      <c r="AY1" s="297"/>
-      <c r="AZ1" s="298"/>
+      <c r="AU1" s="306"/>
+      <c r="AV1" s="306"/>
+      <c r="AW1" s="306"/>
+      <c r="AX1" s="306"/>
+      <c r="AY1" s="306"/>
+      <c r="AZ1" s="307"/>
     </row>
     <row r="2" spans="1:52" s="48" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
@@ -15109,32 +15112,32 @@
       <c r="P2" s="38"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="39"/>
-      <c r="S2" s="303" t="str">
+      <c r="S2" s="312" t="str">
         <f>'１．機能概要'!W2</f>
         <v>在庫照会</v>
       </c>
-      <c r="T2" s="304"/>
-      <c r="U2" s="304"/>
-      <c r="V2" s="304"/>
-      <c r="W2" s="304"/>
-      <c r="X2" s="304"/>
-      <c r="Y2" s="304"/>
-      <c r="Z2" s="304"/>
-      <c r="AA2" s="304"/>
-      <c r="AB2" s="304"/>
-      <c r="AC2" s="304"/>
-      <c r="AD2" s="305"/>
+      <c r="T2" s="313"/>
+      <c r="U2" s="313"/>
+      <c r="V2" s="313"/>
+      <c r="W2" s="313"/>
+      <c r="X2" s="313"/>
+      <c r="Y2" s="313"/>
+      <c r="Z2" s="313"/>
+      <c r="AA2" s="313"/>
+      <c r="AB2" s="313"/>
+      <c r="AC2" s="313"/>
+      <c r="AD2" s="314"/>
       <c r="AE2" s="34" t="s">
         <v>24</v>
       </c>
       <c r="AF2" s="35"/>
       <c r="AG2" s="35"/>
       <c r="AH2" s="36"/>
-      <c r="AI2" s="302"/>
-      <c r="AJ2" s="297"/>
-      <c r="AK2" s="297"/>
-      <c r="AL2" s="297"/>
-      <c r="AM2" s="298"/>
+      <c r="AI2" s="311"/>
+      <c r="AJ2" s="306"/>
+      <c r="AK2" s="306"/>
+      <c r="AL2" s="306"/>
+      <c r="AM2" s="307"/>
       <c r="AN2" s="34" t="s">
         <v>26</v>
       </c>
@@ -15143,13 +15146,13 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="292"/>
-      <c r="AU2" s="297"/>
-      <c r="AV2" s="297"/>
-      <c r="AW2" s="297"/>
-      <c r="AX2" s="297"/>
-      <c r="AY2" s="297"/>
-      <c r="AZ2" s="298"/>
+      <c r="AT2" s="301"/>
+      <c r="AU2" s="306"/>
+      <c r="AV2" s="306"/>
+      <c r="AW2" s="306"/>
+      <c r="AX2" s="306"/>
+      <c r="AY2" s="306"/>
+      <c r="AZ2" s="307"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="57"/>
@@ -17910,22 +17913,22 @@
       <c r="AU66" s="98"/>
       <c r="AV66" s="99"/>
     </row>
-    <row r="67" spans="2:48" s="319" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B67" s="320"/>
-      <c r="C67" s="320"/>
-      <c r="F67" s="321"/>
-      <c r="G67" s="320"/>
-      <c r="K67" s="321"/>
-      <c r="N67" s="319" t="s">
+    <row r="67" spans="2:48" s="243" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B67" s="244"/>
+      <c r="C67" s="244"/>
+      <c r="F67" s="245"/>
+      <c r="G67" s="244"/>
+      <c r="K67" s="245"/>
+      <c r="N67" s="243" t="s">
         <v>441</v>
       </c>
-      <c r="AA67" s="319" t="s">
+      <c r="AA67" s="243" t="s">
         <v>377</v>
       </c>
-      <c r="AB67" s="319" t="s">
+      <c r="AB67" s="243" t="s">
         <v>442</v>
       </c>
-      <c r="AV67" s="321"/>
+      <c r="AV67" s="245"/>
     </row>
     <row r="68" spans="2:48" s="100" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B68" s="97"/>
@@ -27152,14 +27155,14 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="289">
+      <c r="AI1" s="298">
         <f>変更履歴!E5</f>
         <v>43734</v>
       </c>
-      <c r="AJ1" s="304"/>
-      <c r="AK1" s="304"/>
-      <c r="AL1" s="304"/>
-      <c r="AM1" s="305"/>
+      <c r="AJ1" s="313"/>
+      <c r="AK1" s="313"/>
+      <c r="AL1" s="313"/>
+      <c r="AM1" s="314"/>
       <c r="AN1" s="34" t="s">
         <v>25</v>
       </c>
@@ -27168,16 +27171,16 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="292" t="str">
+      <c r="AT1" s="301" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
-      <c r="AU1" s="297"/>
-      <c r="AV1" s="297"/>
-      <c r="AW1" s="297"/>
-      <c r="AX1" s="297"/>
-      <c r="AY1" s="297"/>
-      <c r="AZ1" s="298"/>
+      <c r="AU1" s="306"/>
+      <c r="AV1" s="306"/>
+      <c r="AW1" s="306"/>
+      <c r="AX1" s="306"/>
+      <c r="AY1" s="306"/>
+      <c r="AZ1" s="307"/>
     </row>
     <row r="2" spans="1:52" s="48" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
@@ -27205,32 +27208,32 @@
       <c r="P2" s="38"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="39"/>
-      <c r="S2" s="303" t="str">
+      <c r="S2" s="312" t="str">
         <f>'１．機能概要'!W2</f>
         <v>在庫照会</v>
       </c>
-      <c r="T2" s="304"/>
-      <c r="U2" s="304"/>
-      <c r="V2" s="304"/>
-      <c r="W2" s="304"/>
-      <c r="X2" s="304"/>
-      <c r="Y2" s="304"/>
-      <c r="Z2" s="304"/>
-      <c r="AA2" s="304"/>
-      <c r="AB2" s="304"/>
-      <c r="AC2" s="304"/>
-      <c r="AD2" s="305"/>
+      <c r="T2" s="313"/>
+      <c r="U2" s="313"/>
+      <c r="V2" s="313"/>
+      <c r="W2" s="313"/>
+      <c r="X2" s="313"/>
+      <c r="Y2" s="313"/>
+      <c r="Z2" s="313"/>
+      <c r="AA2" s="313"/>
+      <c r="AB2" s="313"/>
+      <c r="AC2" s="313"/>
+      <c r="AD2" s="314"/>
       <c r="AE2" s="34" t="s">
         <v>24</v>
       </c>
       <c r="AF2" s="35"/>
       <c r="AG2" s="35"/>
       <c r="AH2" s="36"/>
-      <c r="AI2" s="302"/>
-      <c r="AJ2" s="297"/>
-      <c r="AK2" s="297"/>
-      <c r="AL2" s="297"/>
-      <c r="AM2" s="298"/>
+      <c r="AI2" s="311"/>
+      <c r="AJ2" s="306"/>
+      <c r="AK2" s="306"/>
+      <c r="AL2" s="306"/>
+      <c r="AM2" s="307"/>
       <c r="AN2" s="34" t="s">
         <v>26</v>
       </c>
@@ -27239,13 +27242,13 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="292"/>
-      <c r="AU2" s="297"/>
-      <c r="AV2" s="297"/>
-      <c r="AW2" s="297"/>
-      <c r="AX2" s="297"/>
-      <c r="AY2" s="297"/>
-      <c r="AZ2" s="298"/>
+      <c r="AT2" s="301"/>
+      <c r="AU2" s="306"/>
+      <c r="AV2" s="306"/>
+      <c r="AW2" s="306"/>
+      <c r="AX2" s="306"/>
+      <c r="AY2" s="306"/>
+      <c r="AZ2" s="307"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="57"/>
@@ -27474,7 +27477,7 @@
       <c r="AW6" s="20"/>
     </row>
     <row r="7" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B7" s="309">
+      <c r="B7" s="318">
         <v>1</v>
       </c>
       <c r="C7" s="21" t="s">
@@ -27528,7 +27531,7 @@
       <c r="AW7" s="23"/>
     </row>
     <row r="8" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B8" s="310"/>
+      <c r="B8" s="319"/>
       <c r="C8" s="25"/>
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
@@ -27578,7 +27581,7 @@
       <c r="AW8" s="27"/>
     </row>
     <row r="9" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B9" s="309">
+      <c r="B9" s="318">
         <v>2</v>
       </c>
       <c r="C9" s="21" t="s">
@@ -27640,7 +27643,7 @@
       <c r="AW9" s="23"/>
     </row>
     <row r="10" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B10" s="311"/>
+      <c r="B10" s="320"/>
       <c r="C10" s="67"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
@@ -27690,7 +27693,7 @@
       <c r="AW10" s="27"/>
     </row>
     <row r="11" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B11" s="311"/>
+      <c r="B11" s="320"/>
       <c r="C11" s="67"/>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
@@ -27746,7 +27749,7 @@
       <c r="AW11" s="68"/>
     </row>
     <row r="12" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B12" s="310"/>
+      <c r="B12" s="319"/>
       <c r="C12" s="25"/>
       <c r="D12" s="26"/>
       <c r="E12" s="26"/>
@@ -27796,7 +27799,7 @@
       <c r="AW12" s="27"/>
     </row>
     <row r="13" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B13" s="309">
+      <c r="B13" s="318">
         <v>3</v>
       </c>
       <c r="C13" s="21" t="s">
@@ -27850,7 +27853,7 @@
       <c r="AW13" s="23"/>
     </row>
     <row r="14" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B14" s="310"/>
+      <c r="B14" s="319"/>
       <c r="C14" s="25"/>
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
@@ -27900,7 +27903,7 @@
       <c r="AW14" s="27"/>
     </row>
     <row r="15" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B15" s="309">
+      <c r="B15" s="318">
         <v>4</v>
       </c>
       <c r="C15" s="21" t="s">
@@ -27954,7 +27957,7 @@
       <c r="AW15" s="23"/>
     </row>
     <row r="16" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B16" s="310"/>
+      <c r="B16" s="319"/>
       <c r="C16" s="25"/>
       <c r="D16" s="26"/>
       <c r="E16" s="26"/>
@@ -28004,7 +28007,7 @@
       <c r="AW16" s="27"/>
     </row>
     <row r="17" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B17" s="309">
+      <c r="B17" s="318">
         <v>5</v>
       </c>
       <c r="C17" s="21" t="s">
@@ -28064,7 +28067,7 @@
       <c r="AW17" s="23"/>
     </row>
     <row r="18" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B18" s="310"/>
+      <c r="B18" s="319"/>
       <c r="C18" s="25"/>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
@@ -28114,7 +28117,7 @@
       <c r="AW18" s="27"/>
     </row>
     <row r="19" spans="1:52" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="309">
+      <c r="B19" s="318">
         <v>6</v>
       </c>
       <c r="C19" s="21" t="s">
@@ -28172,7 +28175,7 @@
       <c r="AW19" s="23"/>
     </row>
     <row r="20" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B20" s="310"/>
+      <c r="B20" s="319"/>
       <c r="C20" s="67"/>
       <c r="I20" s="68"/>
       <c r="J20" s="67"/>
@@ -28212,7 +28215,7 @@
       <c r="AW20" s="27"/>
     </row>
     <row r="21" spans="1:52" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="309">
+      <c r="B21" s="318">
         <v>7</v>
       </c>
       <c r="C21" s="21" t="s">
@@ -28266,7 +28269,7 @@
       <c r="AW21" s="23"/>
     </row>
     <row r="22" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B22" s="310"/>
+      <c r="B22" s="319"/>
       <c r="C22" s="67"/>
       <c r="I22" s="68"/>
       <c r="J22" s="67"/>
@@ -32388,14 +32391,14 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="289">
+      <c r="AI1" s="298">
         <f>変更履歴!E5</f>
         <v>43734</v>
       </c>
-      <c r="AJ1" s="304"/>
-      <c r="AK1" s="304"/>
-      <c r="AL1" s="304"/>
-      <c r="AM1" s="305"/>
+      <c r="AJ1" s="313"/>
+      <c r="AK1" s="313"/>
+      <c r="AL1" s="313"/>
+      <c r="AM1" s="314"/>
       <c r="AN1" s="34" t="s">
         <v>25</v>
       </c>
@@ -32404,16 +32407,16 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="292" t="str">
+      <c r="AT1" s="301" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
-      <c r="AU1" s="297"/>
-      <c r="AV1" s="297"/>
-      <c r="AW1" s="297"/>
-      <c r="AX1" s="297"/>
-      <c r="AY1" s="297"/>
-      <c r="AZ1" s="298"/>
+      <c r="AU1" s="306"/>
+      <c r="AV1" s="306"/>
+      <c r="AW1" s="306"/>
+      <c r="AX1" s="306"/>
+      <c r="AY1" s="306"/>
+      <c r="AZ1" s="307"/>
     </row>
     <row r="2" spans="1:63" s="48" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
@@ -32441,32 +32444,32 @@
       <c r="P2" s="38"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="39"/>
-      <c r="S2" s="303" t="str">
+      <c r="S2" s="312" t="str">
         <f>'１．機能概要'!W2</f>
         <v>在庫照会</v>
       </c>
-      <c r="T2" s="304"/>
-      <c r="U2" s="304"/>
-      <c r="V2" s="304"/>
-      <c r="W2" s="304"/>
-      <c r="X2" s="304"/>
-      <c r="Y2" s="304"/>
-      <c r="Z2" s="304"/>
-      <c r="AA2" s="304"/>
-      <c r="AB2" s="304"/>
-      <c r="AC2" s="304"/>
-      <c r="AD2" s="305"/>
+      <c r="T2" s="313"/>
+      <c r="U2" s="313"/>
+      <c r="V2" s="313"/>
+      <c r="W2" s="313"/>
+      <c r="X2" s="313"/>
+      <c r="Y2" s="313"/>
+      <c r="Z2" s="313"/>
+      <c r="AA2" s="313"/>
+      <c r="AB2" s="313"/>
+      <c r="AC2" s="313"/>
+      <c r="AD2" s="314"/>
       <c r="AE2" s="34" t="s">
         <v>24</v>
       </c>
       <c r="AF2" s="35"/>
       <c r="AG2" s="35"/>
       <c r="AH2" s="36"/>
-      <c r="AI2" s="302"/>
-      <c r="AJ2" s="297"/>
-      <c r="AK2" s="297"/>
-      <c r="AL2" s="297"/>
-      <c r="AM2" s="298"/>
+      <c r="AI2" s="311"/>
+      <c r="AJ2" s="306"/>
+      <c r="AK2" s="306"/>
+      <c r="AL2" s="306"/>
+      <c r="AM2" s="307"/>
       <c r="AN2" s="34" t="s">
         <v>26</v>
       </c>
@@ -32475,13 +32478,13 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="292"/>
-      <c r="AU2" s="297"/>
-      <c r="AV2" s="297"/>
-      <c r="AW2" s="297"/>
-      <c r="AX2" s="297"/>
-      <c r="AY2" s="297"/>
-      <c r="AZ2" s="298"/>
+      <c r="AT2" s="301"/>
+      <c r="AU2" s="306"/>
+      <c r="AV2" s="306"/>
+      <c r="AW2" s="306"/>
+      <c r="AX2" s="306"/>
+      <c r="AY2" s="306"/>
+      <c r="AZ2" s="307"/>
     </row>
     <row r="3" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A3" s="57"/>
@@ -44688,89 +44691,89 @@
       <c r="CX2" s="108"/>
     </row>
     <row r="3" spans="2:102" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="312" t="s">
+      <c r="B3" s="321" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="313"/>
-      <c r="D3" s="313"/>
-      <c r="E3" s="313"/>
-      <c r="F3" s="313"/>
-      <c r="G3" s="313"/>
-      <c r="H3" s="313"/>
-      <c r="I3" s="313"/>
-      <c r="J3" s="313"/>
-      <c r="K3" s="313"/>
-      <c r="L3" s="313"/>
-      <c r="M3" s="313"/>
-      <c r="N3" s="313"/>
-      <c r="O3" s="313"/>
-      <c r="P3" s="313"/>
-      <c r="Q3" s="313"/>
-      <c r="R3" s="313"/>
-      <c r="S3" s="313"/>
-      <c r="T3" s="313"/>
-      <c r="U3" s="313"/>
-      <c r="V3" s="313"/>
-      <c r="W3" s="313"/>
-      <c r="X3" s="313"/>
-      <c r="Y3" s="313"/>
-      <c r="Z3" s="313"/>
-      <c r="AA3" s="313"/>
-      <c r="AB3" s="313"/>
-      <c r="AC3" s="313"/>
-      <c r="AD3" s="313"/>
-      <c r="AE3" s="313"/>
-      <c r="AF3" s="313"/>
-      <c r="AG3" s="313"/>
-      <c r="AH3" s="313"/>
-      <c r="AI3" s="313"/>
-      <c r="AJ3" s="313"/>
-      <c r="AK3" s="313"/>
-      <c r="AL3" s="313"/>
-      <c r="AM3" s="313"/>
-      <c r="AN3" s="313"/>
-      <c r="AO3" s="313"/>
-      <c r="AP3" s="313"/>
-      <c r="AQ3" s="313"/>
-      <c r="AR3" s="313"/>
-      <c r="AS3" s="313"/>
-      <c r="AT3" s="313"/>
-      <c r="AU3" s="313"/>
-      <c r="AV3" s="313"/>
-      <c r="AW3" s="313"/>
-      <c r="AX3" s="313"/>
-      <c r="AY3" s="313"/>
-      <c r="AZ3" s="313"/>
-      <c r="BA3" s="313"/>
-      <c r="BB3" s="313"/>
-      <c r="BC3" s="313"/>
-      <c r="BD3" s="313"/>
-      <c r="BE3" s="313"/>
-      <c r="BF3" s="313"/>
-      <c r="BG3" s="313"/>
-      <c r="BH3" s="313"/>
-      <c r="BI3" s="313"/>
-      <c r="BJ3" s="313"/>
-      <c r="BK3" s="313"/>
-      <c r="BL3" s="313"/>
-      <c r="BM3" s="313"/>
-      <c r="BN3" s="313"/>
-      <c r="BO3" s="313"/>
-      <c r="BP3" s="313"/>
-      <c r="BQ3" s="313"/>
-      <c r="BR3" s="313"/>
-      <c r="BS3" s="313"/>
-      <c r="BT3" s="313"/>
-      <c r="BU3" s="313"/>
-      <c r="BV3" s="313"/>
-      <c r="BW3" s="313"/>
-      <c r="BX3" s="313"/>
-      <c r="BY3" s="313"/>
-      <c r="BZ3" s="313"/>
-      <c r="CA3" s="313"/>
-      <c r="CB3" s="313"/>
-      <c r="CC3" s="313"/>
-      <c r="CD3" s="314"/>
+      <c r="C3" s="322"/>
+      <c r="D3" s="322"/>
+      <c r="E3" s="322"/>
+      <c r="F3" s="322"/>
+      <c r="G3" s="322"/>
+      <c r="H3" s="322"/>
+      <c r="I3" s="322"/>
+      <c r="J3" s="322"/>
+      <c r="K3" s="322"/>
+      <c r="L3" s="322"/>
+      <c r="M3" s="322"/>
+      <c r="N3" s="322"/>
+      <c r="O3" s="322"/>
+      <c r="P3" s="322"/>
+      <c r="Q3" s="322"/>
+      <c r="R3" s="322"/>
+      <c r="S3" s="322"/>
+      <c r="T3" s="322"/>
+      <c r="U3" s="322"/>
+      <c r="V3" s="322"/>
+      <c r="W3" s="322"/>
+      <c r="X3" s="322"/>
+      <c r="Y3" s="322"/>
+      <c r="Z3" s="322"/>
+      <c r="AA3" s="322"/>
+      <c r="AB3" s="322"/>
+      <c r="AC3" s="322"/>
+      <c r="AD3" s="322"/>
+      <c r="AE3" s="322"/>
+      <c r="AF3" s="322"/>
+      <c r="AG3" s="322"/>
+      <c r="AH3" s="322"/>
+      <c r="AI3" s="322"/>
+      <c r="AJ3" s="322"/>
+      <c r="AK3" s="322"/>
+      <c r="AL3" s="322"/>
+      <c r="AM3" s="322"/>
+      <c r="AN3" s="322"/>
+      <c r="AO3" s="322"/>
+      <c r="AP3" s="322"/>
+      <c r="AQ3" s="322"/>
+      <c r="AR3" s="322"/>
+      <c r="AS3" s="322"/>
+      <c r="AT3" s="322"/>
+      <c r="AU3" s="322"/>
+      <c r="AV3" s="322"/>
+      <c r="AW3" s="322"/>
+      <c r="AX3" s="322"/>
+      <c r="AY3" s="322"/>
+      <c r="AZ3" s="322"/>
+      <c r="BA3" s="322"/>
+      <c r="BB3" s="322"/>
+      <c r="BC3" s="322"/>
+      <c r="BD3" s="322"/>
+      <c r="BE3" s="322"/>
+      <c r="BF3" s="322"/>
+      <c r="BG3" s="322"/>
+      <c r="BH3" s="322"/>
+      <c r="BI3" s="322"/>
+      <c r="BJ3" s="322"/>
+      <c r="BK3" s="322"/>
+      <c r="BL3" s="322"/>
+      <c r="BM3" s="322"/>
+      <c r="BN3" s="322"/>
+      <c r="BO3" s="322"/>
+      <c r="BP3" s="322"/>
+      <c r="BQ3" s="322"/>
+      <c r="BR3" s="322"/>
+      <c r="BS3" s="322"/>
+      <c r="BT3" s="322"/>
+      <c r="BU3" s="322"/>
+      <c r="BV3" s="322"/>
+      <c r="BW3" s="322"/>
+      <c r="BX3" s="322"/>
+      <c r="BY3" s="322"/>
+      <c r="BZ3" s="322"/>
+      <c r="CA3" s="322"/>
+      <c r="CB3" s="322"/>
+      <c r="CC3" s="322"/>
+      <c r="CD3" s="323"/>
       <c r="CE3" s="109" t="s">
         <v>151</v>
       </c>
@@ -44797,87 +44800,87 @@
       <c r="CX3" s="114"/>
     </row>
     <row r="4" spans="2:102" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="315"/>
-      <c r="C4" s="316"/>
-      <c r="D4" s="316"/>
-      <c r="E4" s="316"/>
-      <c r="F4" s="316"/>
-      <c r="G4" s="316"/>
-      <c r="H4" s="316"/>
-      <c r="I4" s="316"/>
-      <c r="J4" s="316"/>
-      <c r="K4" s="316"/>
-      <c r="L4" s="316"/>
-      <c r="M4" s="316"/>
-      <c r="N4" s="316"/>
-      <c r="O4" s="316"/>
-      <c r="P4" s="316"/>
-      <c r="Q4" s="316"/>
-      <c r="R4" s="316"/>
-      <c r="S4" s="316"/>
-      <c r="T4" s="316"/>
-      <c r="U4" s="316"/>
-      <c r="V4" s="316"/>
-      <c r="W4" s="316"/>
-      <c r="X4" s="316"/>
-      <c r="Y4" s="316"/>
-      <c r="Z4" s="316"/>
-      <c r="AA4" s="316"/>
-      <c r="AB4" s="316"/>
-      <c r="AC4" s="316"/>
-      <c r="AD4" s="316"/>
-      <c r="AE4" s="316"/>
-      <c r="AF4" s="316"/>
-      <c r="AG4" s="316"/>
-      <c r="AH4" s="316"/>
-      <c r="AI4" s="316"/>
-      <c r="AJ4" s="316"/>
-      <c r="AK4" s="316"/>
-      <c r="AL4" s="316"/>
-      <c r="AM4" s="316"/>
-      <c r="AN4" s="316"/>
-      <c r="AO4" s="316"/>
-      <c r="AP4" s="316"/>
-      <c r="AQ4" s="316"/>
-      <c r="AR4" s="316"/>
-      <c r="AS4" s="316"/>
-      <c r="AT4" s="316"/>
-      <c r="AU4" s="316"/>
-      <c r="AV4" s="316"/>
-      <c r="AW4" s="316"/>
-      <c r="AX4" s="316"/>
-      <c r="AY4" s="316"/>
-      <c r="AZ4" s="316"/>
-      <c r="BA4" s="316"/>
-      <c r="BB4" s="316"/>
-      <c r="BC4" s="316"/>
-      <c r="BD4" s="316"/>
-      <c r="BE4" s="316"/>
-      <c r="BF4" s="316"/>
-      <c r="BG4" s="316"/>
-      <c r="BH4" s="316"/>
-      <c r="BI4" s="316"/>
-      <c r="BJ4" s="316"/>
-      <c r="BK4" s="316"/>
-      <c r="BL4" s="316"/>
-      <c r="BM4" s="316"/>
-      <c r="BN4" s="316"/>
-      <c r="BO4" s="316"/>
-      <c r="BP4" s="316"/>
-      <c r="BQ4" s="316"/>
-      <c r="BR4" s="316"/>
-      <c r="BS4" s="316"/>
-      <c r="BT4" s="316"/>
-      <c r="BU4" s="316"/>
-      <c r="BV4" s="316"/>
-      <c r="BW4" s="316"/>
-      <c r="BX4" s="316"/>
-      <c r="BY4" s="316"/>
-      <c r="BZ4" s="316"/>
-      <c r="CA4" s="316"/>
-      <c r="CB4" s="316"/>
-      <c r="CC4" s="316"/>
-      <c r="CD4" s="317"/>
+      <c r="B4" s="324"/>
+      <c r="C4" s="325"/>
+      <c r="D4" s="325"/>
+      <c r="E4" s="325"/>
+      <c r="F4" s="325"/>
+      <c r="G4" s="325"/>
+      <c r="H4" s="325"/>
+      <c r="I4" s="325"/>
+      <c r="J4" s="325"/>
+      <c r="K4" s="325"/>
+      <c r="L4" s="325"/>
+      <c r="M4" s="325"/>
+      <c r="N4" s="325"/>
+      <c r="O4" s="325"/>
+      <c r="P4" s="325"/>
+      <c r="Q4" s="325"/>
+      <c r="R4" s="325"/>
+      <c r="S4" s="325"/>
+      <c r="T4" s="325"/>
+      <c r="U4" s="325"/>
+      <c r="V4" s="325"/>
+      <c r="W4" s="325"/>
+      <c r="X4" s="325"/>
+      <c r="Y4" s="325"/>
+      <c r="Z4" s="325"/>
+      <c r="AA4" s="325"/>
+      <c r="AB4" s="325"/>
+      <c r="AC4" s="325"/>
+      <c r="AD4" s="325"/>
+      <c r="AE4" s="325"/>
+      <c r="AF4" s="325"/>
+      <c r="AG4" s="325"/>
+      <c r="AH4" s="325"/>
+      <c r="AI4" s="325"/>
+      <c r="AJ4" s="325"/>
+      <c r="AK4" s="325"/>
+      <c r="AL4" s="325"/>
+      <c r="AM4" s="325"/>
+      <c r="AN4" s="325"/>
+      <c r="AO4" s="325"/>
+      <c r="AP4" s="325"/>
+      <c r="AQ4" s="325"/>
+      <c r="AR4" s="325"/>
+      <c r="AS4" s="325"/>
+      <c r="AT4" s="325"/>
+      <c r="AU4" s="325"/>
+      <c r="AV4" s="325"/>
+      <c r="AW4" s="325"/>
+      <c r="AX4" s="325"/>
+      <c r="AY4" s="325"/>
+      <c r="AZ4" s="325"/>
+      <c r="BA4" s="325"/>
+      <c r="BB4" s="325"/>
+      <c r="BC4" s="325"/>
+      <c r="BD4" s="325"/>
+      <c r="BE4" s="325"/>
+      <c r="BF4" s="325"/>
+      <c r="BG4" s="325"/>
+      <c r="BH4" s="325"/>
+      <c r="BI4" s="325"/>
+      <c r="BJ4" s="325"/>
+      <c r="BK4" s="325"/>
+      <c r="BL4" s="325"/>
+      <c r="BM4" s="325"/>
+      <c r="BN4" s="325"/>
+      <c r="BO4" s="325"/>
+      <c r="BP4" s="325"/>
+      <c r="BQ4" s="325"/>
+      <c r="BR4" s="325"/>
+      <c r="BS4" s="325"/>
+      <c r="BT4" s="325"/>
+      <c r="BU4" s="325"/>
+      <c r="BV4" s="325"/>
+      <c r="BW4" s="325"/>
+      <c r="BX4" s="325"/>
+      <c r="BY4" s="325"/>
+      <c r="BZ4" s="325"/>
+      <c r="CA4" s="325"/>
+      <c r="CB4" s="325"/>
+      <c r="CC4" s="325"/>
+      <c r="CD4" s="326"/>
       <c r="CE4" s="115" t="s">
         <v>153</v>
       </c>
@@ -49745,12 +49748,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -49912,15 +49912,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -49944,17 +49955,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/01_基本設計書/20200220リリース/SC-Z01_在庫照会.xlsx
+++ b/01_基本設計書/20200220リリース/SC-Z01_在庫照会.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\test\11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CE9E2E-13EE-4A30-A2FC-868DEAD0AD5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7B70672-96F6-4592-AEE3-07FFB2AC22AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -130,12 +130,14 @@
     <definedName name="振分けポリシー">#REF!</definedName>
     <definedName name="非営業日">[1]休日!$B$16:$C$27</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentManualCount="2"/>
+  <calcPr calcId="191029" concurrentManualCount="2"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2174,10 +2176,6 @@
     <phoneticPr fontId="17"/>
   </si>
   <si>
-    <t>SC-Z01</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>在庫管理関係</t>
     <rPh sb="0" eb="2">
       <t>ザイコ</t>
@@ -3470,6 +3468,10 @@
       <t>ジギョウショ</t>
     </rPh>
     <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>Z-01</t>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -4953,6 +4955,91 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4979,91 +5066,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="7" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6155,7 +6157,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$47" spid="_x0000_s3557"/>
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$47" spid="_x0000_s3558"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6801,8 +6803,8 @@
             <a:xfrm>
               <a:off x="426449" y="2130359"/>
               <a:ext cx="1803076" cy="1150735"/>
-              <a:chOff x="1787559" y="2316182"/>
-              <a:chExt cx="1341120" cy="969078"/>
+              <a:chOff x="1787559" y="2316183"/>
+              <a:chExt cx="1341120" cy="969079"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:grpSp>
@@ -6818,10 +6820,10 @@
             </xdr:nvGrpSpPr>
             <xdr:grpSpPr>
               <a:xfrm>
-                <a:off x="1823232" y="2648517"/>
-                <a:ext cx="777645" cy="485620"/>
-                <a:chOff x="191656" y="3012366"/>
-                <a:chExt cx="777645" cy="479432"/>
+                <a:off x="1823232" y="2648520"/>
+                <a:ext cx="777645" cy="485616"/>
+                <a:chOff x="191656" y="3012368"/>
+                <a:chExt cx="777645" cy="479428"/>
               </a:xfrm>
             </xdr:grpSpPr>
             <xdr:sp macro="" textlink="">
@@ -6840,7 +6842,7 @@
               </xdr:nvSpPr>
               <xdr:spPr bwMode="auto">
                 <a:xfrm>
-                  <a:off x="191656" y="3012366"/>
+                  <a:off x="191656" y="3012368"/>
                   <a:ext cx="777645" cy="164478"/>
                 </a:xfrm>
                 <a:prstGeom prst="rect">
@@ -6906,7 +6908,7 @@
               </xdr:nvSpPr>
               <xdr:spPr bwMode="auto">
                 <a:xfrm>
-                  <a:off x="196808" y="3340318"/>
+                  <a:off x="196808" y="3340316"/>
                   <a:ext cx="763862" cy="151480"/>
                 </a:xfrm>
                 <a:prstGeom prst="rect">
@@ -6973,8 +6975,8 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="1787559" y="2316182"/>
-                <a:ext cx="1341120" cy="969078"/>
+                <a:off x="1787559" y="2316183"/>
+                <a:ext cx="1341120" cy="969079"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -8515,1770 +8517,2003 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="54"/>
-      <c r="B1" s="254" t="s">
+      <c r="B1" s="285" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="254"/>
-      <c r="D1" s="254"/>
-      <c r="E1" s="254"/>
-      <c r="F1" s="254"/>
-      <c r="G1" s="254"/>
-      <c r="H1" s="254"/>
-      <c r="I1" s="254"/>
-      <c r="J1" s="254"/>
-      <c r="K1" s="254"/>
-      <c r="L1" s="254"/>
-      <c r="M1" s="254"/>
-      <c r="N1" s="254"/>
-      <c r="O1" s="254"/>
-      <c r="P1" s="254"/>
-      <c r="Q1" s="254"/>
-      <c r="R1" s="254"/>
-      <c r="S1" s="254"/>
-      <c r="T1" s="254"/>
-      <c r="U1" s="254"/>
-      <c r="V1" s="254"/>
-      <c r="W1" s="254"/>
-      <c r="X1" s="254"/>
-      <c r="Y1" s="254"/>
-      <c r="Z1" s="254"/>
-      <c r="AA1" s="254"/>
-      <c r="AB1" s="254"/>
-      <c r="AC1" s="254"/>
-      <c r="AD1" s="254"/>
-      <c r="AE1" s="254"/>
-      <c r="AF1" s="254"/>
-      <c r="AG1" s="254"/>
-      <c r="AH1" s="254"/>
-      <c r="AI1" s="254"/>
-      <c r="AJ1" s="254"/>
-      <c r="AK1" s="254"/>
-      <c r="AL1" s="254"/>
-      <c r="AM1" s="254"/>
-      <c r="AN1" s="254"/>
-      <c r="AO1" s="254"/>
-      <c r="AP1" s="254"/>
-      <c r="AQ1" s="254"/>
-      <c r="AR1" s="254"/>
-      <c r="AS1" s="254"/>
-      <c r="AT1" s="254"/>
-      <c r="AU1" s="254"/>
-      <c r="AV1" s="254"/>
-      <c r="AW1" s="254"/>
+      <c r="C1" s="285"/>
+      <c r="D1" s="285"/>
+      <c r="E1" s="285"/>
+      <c r="F1" s="285"/>
+      <c r="G1" s="285"/>
+      <c r="H1" s="285"/>
+      <c r="I1" s="285"/>
+      <c r="J1" s="285"/>
+      <c r="K1" s="285"/>
+      <c r="L1" s="285"/>
+      <c r="M1" s="285"/>
+      <c r="N1" s="285"/>
+      <c r="O1" s="285"/>
+      <c r="P1" s="285"/>
+      <c r="Q1" s="285"/>
+      <c r="R1" s="285"/>
+      <c r="S1" s="285"/>
+      <c r="T1" s="285"/>
+      <c r="U1" s="285"/>
+      <c r="V1" s="285"/>
+      <c r="W1" s="285"/>
+      <c r="X1" s="285"/>
+      <c r="Y1" s="285"/>
+      <c r="Z1" s="285"/>
+      <c r="AA1" s="285"/>
+      <c r="AB1" s="285"/>
+      <c r="AC1" s="285"/>
+      <c r="AD1" s="285"/>
+      <c r="AE1" s="285"/>
+      <c r="AF1" s="285"/>
+      <c r="AG1" s="285"/>
+      <c r="AH1" s="285"/>
+      <c r="AI1" s="285"/>
+      <c r="AJ1" s="285"/>
+      <c r="AK1" s="285"/>
+      <c r="AL1" s="285"/>
+      <c r="AM1" s="285"/>
+      <c r="AN1" s="285"/>
+      <c r="AO1" s="285"/>
+      <c r="AP1" s="285"/>
+      <c r="AQ1" s="285"/>
+      <c r="AR1" s="285"/>
+      <c r="AS1" s="285"/>
+      <c r="AT1" s="285"/>
+      <c r="AU1" s="285"/>
+      <c r="AV1" s="285"/>
+      <c r="AW1" s="285"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="54"/>
-      <c r="B2" s="255"/>
-      <c r="C2" s="255"/>
-      <c r="D2" s="255"/>
-      <c r="E2" s="255"/>
-      <c r="F2" s="255"/>
-      <c r="G2" s="255"/>
-      <c r="H2" s="255"/>
-      <c r="I2" s="255"/>
-      <c r="J2" s="255"/>
-      <c r="K2" s="255"/>
-      <c r="L2" s="255"/>
-      <c r="M2" s="255"/>
-      <c r="N2" s="255"/>
-      <c r="O2" s="255"/>
-      <c r="P2" s="255"/>
-      <c r="Q2" s="255"/>
-      <c r="R2" s="255"/>
-      <c r="S2" s="255"/>
-      <c r="T2" s="255"/>
-      <c r="U2" s="255"/>
-      <c r="V2" s="255"/>
-      <c r="W2" s="255"/>
-      <c r="X2" s="255"/>
-      <c r="Y2" s="255"/>
-      <c r="Z2" s="255"/>
-      <c r="AA2" s="255"/>
-      <c r="AB2" s="255"/>
-      <c r="AC2" s="255"/>
-      <c r="AD2" s="255"/>
-      <c r="AE2" s="255"/>
-      <c r="AF2" s="255"/>
-      <c r="AG2" s="255"/>
-      <c r="AH2" s="255"/>
-      <c r="AI2" s="255"/>
-      <c r="AJ2" s="255"/>
-      <c r="AK2" s="255"/>
-      <c r="AL2" s="255"/>
-      <c r="AM2" s="255"/>
-      <c r="AN2" s="255"/>
-      <c r="AO2" s="255"/>
-      <c r="AP2" s="255"/>
-      <c r="AQ2" s="255"/>
-      <c r="AR2" s="255"/>
-      <c r="AS2" s="255"/>
-      <c r="AT2" s="255"/>
-      <c r="AU2" s="255"/>
-      <c r="AV2" s="255"/>
-      <c r="AW2" s="255"/>
+      <c r="B2" s="286"/>
+      <c r="C2" s="286"/>
+      <c r="D2" s="286"/>
+      <c r="E2" s="286"/>
+      <c r="F2" s="286"/>
+      <c r="G2" s="286"/>
+      <c r="H2" s="286"/>
+      <c r="I2" s="286"/>
+      <c r="J2" s="286"/>
+      <c r="K2" s="286"/>
+      <c r="L2" s="286"/>
+      <c r="M2" s="286"/>
+      <c r="N2" s="286"/>
+      <c r="O2" s="286"/>
+      <c r="P2" s="286"/>
+      <c r="Q2" s="286"/>
+      <c r="R2" s="286"/>
+      <c r="S2" s="286"/>
+      <c r="T2" s="286"/>
+      <c r="U2" s="286"/>
+      <c r="V2" s="286"/>
+      <c r="W2" s="286"/>
+      <c r="X2" s="286"/>
+      <c r="Y2" s="286"/>
+      <c r="Z2" s="286"/>
+      <c r="AA2" s="286"/>
+      <c r="AB2" s="286"/>
+      <c r="AC2" s="286"/>
+      <c r="AD2" s="286"/>
+      <c r="AE2" s="286"/>
+      <c r="AF2" s="286"/>
+      <c r="AG2" s="286"/>
+      <c r="AH2" s="286"/>
+      <c r="AI2" s="286"/>
+      <c r="AJ2" s="286"/>
+      <c r="AK2" s="286"/>
+      <c r="AL2" s="286"/>
+      <c r="AM2" s="286"/>
+      <c r="AN2" s="286"/>
+      <c r="AO2" s="286"/>
+      <c r="AP2" s="286"/>
+      <c r="AQ2" s="286"/>
+      <c r="AR2" s="286"/>
+      <c r="AS2" s="286"/>
+      <c r="AT2" s="286"/>
+      <c r="AU2" s="286"/>
+      <c r="AV2" s="286"/>
+      <c r="AW2" s="286"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="54"/>
-      <c r="B3" s="256" t="s">
+      <c r="B3" s="287" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="256"/>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256" t="s">
+      <c r="C3" s="287"/>
+      <c r="D3" s="287"/>
+      <c r="E3" s="287" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="256"/>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="257" t="s">
+      <c r="F3" s="287"/>
+      <c r="G3" s="287"/>
+      <c r="H3" s="287"/>
+      <c r="I3" s="287"/>
+      <c r="J3" s="288" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="258"/>
-      <c r="L3" s="259"/>
-      <c r="M3" s="257" t="s">
+      <c r="K3" s="289"/>
+      <c r="L3" s="290"/>
+      <c r="M3" s="288" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="258"/>
-      <c r="O3" s="258"/>
-      <c r="P3" s="258"/>
-      <c r="Q3" s="258"/>
-      <c r="R3" s="259"/>
-      <c r="S3" s="256" t="s">
+      <c r="N3" s="289"/>
+      <c r="O3" s="289"/>
+      <c r="P3" s="289"/>
+      <c r="Q3" s="289"/>
+      <c r="R3" s="290"/>
+      <c r="S3" s="287" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="256"/>
-      <c r="U3" s="256"/>
-      <c r="V3" s="256" t="s">
+      <c r="T3" s="287"/>
+      <c r="U3" s="287"/>
+      <c r="V3" s="287" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="256"/>
-      <c r="X3" s="256"/>
-      <c r="Y3" s="256"/>
-      <c r="Z3" s="256"/>
-      <c r="AA3" s="256"/>
-      <c r="AB3" s="256"/>
-      <c r="AC3" s="256"/>
-      <c r="AD3" s="256"/>
-      <c r="AE3" s="256"/>
-      <c r="AF3" s="256"/>
-      <c r="AG3" s="256"/>
-      <c r="AH3" s="256"/>
-      <c r="AI3" s="256"/>
-      <c r="AJ3" s="256"/>
-      <c r="AK3" s="256"/>
-      <c r="AL3" s="256"/>
-      <c r="AM3" s="256"/>
-      <c r="AN3" s="256" t="s">
+      <c r="W3" s="287"/>
+      <c r="X3" s="287"/>
+      <c r="Y3" s="287"/>
+      <c r="Z3" s="287"/>
+      <c r="AA3" s="287"/>
+      <c r="AB3" s="287"/>
+      <c r="AC3" s="287"/>
+      <c r="AD3" s="287"/>
+      <c r="AE3" s="287"/>
+      <c r="AF3" s="287"/>
+      <c r="AG3" s="287"/>
+      <c r="AH3" s="287"/>
+      <c r="AI3" s="287"/>
+      <c r="AJ3" s="287"/>
+      <c r="AK3" s="287"/>
+      <c r="AL3" s="287"/>
+      <c r="AM3" s="287"/>
+      <c r="AN3" s="287" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="256"/>
-      <c r="AP3" s="256"/>
-      <c r="AQ3" s="256"/>
-      <c r="AR3" s="256"/>
-      <c r="AS3" s="256" t="s">
+      <c r="AO3" s="287"/>
+      <c r="AP3" s="287"/>
+      <c r="AQ3" s="287"/>
+      <c r="AR3" s="287"/>
+      <c r="AS3" s="287" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="256"/>
-      <c r="AU3" s="256"/>
-      <c r="AV3" s="256"/>
-      <c r="AW3" s="256"/>
+      <c r="AT3" s="287"/>
+      <c r="AU3" s="287"/>
+      <c r="AV3" s="287"/>
+      <c r="AW3" s="287"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="54"/>
-      <c r="B4" s="256"/>
-      <c r="C4" s="256"/>
-      <c r="D4" s="256"/>
-      <c r="E4" s="256"/>
-      <c r="F4" s="256"/>
-      <c r="G4" s="256"/>
-      <c r="H4" s="256"/>
-      <c r="I4" s="256"/>
-      <c r="J4" s="260"/>
-      <c r="K4" s="261"/>
-      <c r="L4" s="262"/>
-      <c r="M4" s="260"/>
-      <c r="N4" s="261"/>
-      <c r="O4" s="261"/>
-      <c r="P4" s="261"/>
-      <c r="Q4" s="261"/>
-      <c r="R4" s="262"/>
-      <c r="S4" s="256"/>
-      <c r="T4" s="256"/>
-      <c r="U4" s="256"/>
-      <c r="V4" s="256"/>
-      <c r="W4" s="256"/>
-      <c r="X4" s="256"/>
-      <c r="Y4" s="256"/>
-      <c r="Z4" s="256"/>
-      <c r="AA4" s="256"/>
-      <c r="AB4" s="256"/>
-      <c r="AC4" s="256"/>
-      <c r="AD4" s="256"/>
-      <c r="AE4" s="256"/>
-      <c r="AF4" s="256"/>
-      <c r="AG4" s="256"/>
-      <c r="AH4" s="256"/>
-      <c r="AI4" s="256"/>
-      <c r="AJ4" s="256"/>
-      <c r="AK4" s="256"/>
-      <c r="AL4" s="256"/>
-      <c r="AM4" s="256"/>
-      <c r="AN4" s="256"/>
-      <c r="AO4" s="256"/>
-      <c r="AP4" s="256"/>
-      <c r="AQ4" s="256"/>
-      <c r="AR4" s="256"/>
-      <c r="AS4" s="256"/>
-      <c r="AT4" s="256"/>
-      <c r="AU4" s="256"/>
-      <c r="AV4" s="256"/>
-      <c r="AW4" s="256"/>
+      <c r="B4" s="287"/>
+      <c r="C4" s="287"/>
+      <c r="D4" s="287"/>
+      <c r="E4" s="287"/>
+      <c r="F4" s="287"/>
+      <c r="G4" s="287"/>
+      <c r="H4" s="287"/>
+      <c r="I4" s="287"/>
+      <c r="J4" s="291"/>
+      <c r="K4" s="292"/>
+      <c r="L4" s="293"/>
+      <c r="M4" s="291"/>
+      <c r="N4" s="292"/>
+      <c r="O4" s="292"/>
+      <c r="P4" s="292"/>
+      <c r="Q4" s="292"/>
+      <c r="R4" s="293"/>
+      <c r="S4" s="287"/>
+      <c r="T4" s="287"/>
+      <c r="U4" s="287"/>
+      <c r="V4" s="287"/>
+      <c r="W4" s="287"/>
+      <c r="X4" s="287"/>
+      <c r="Y4" s="287"/>
+      <c r="Z4" s="287"/>
+      <c r="AA4" s="287"/>
+      <c r="AB4" s="287"/>
+      <c r="AC4" s="287"/>
+      <c r="AD4" s="287"/>
+      <c r="AE4" s="287"/>
+      <c r="AF4" s="287"/>
+      <c r="AG4" s="287"/>
+      <c r="AH4" s="287"/>
+      <c r="AI4" s="287"/>
+      <c r="AJ4" s="287"/>
+      <c r="AK4" s="287"/>
+      <c r="AL4" s="287"/>
+      <c r="AM4" s="287"/>
+      <c r="AN4" s="287"/>
+      <c r="AO4" s="287"/>
+      <c r="AP4" s="287"/>
+      <c r="AQ4" s="287"/>
+      <c r="AR4" s="287"/>
+      <c r="AS4" s="287"/>
+      <c r="AT4" s="287"/>
+      <c r="AU4" s="287"/>
+      <c r="AV4" s="287"/>
+      <c r="AW4" s="287"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="56"/>
-      <c r="B5" s="264">
+      <c r="B5" s="279">
         <v>1</v>
       </c>
-      <c r="C5" s="264"/>
-      <c r="D5" s="264"/>
-      <c r="E5" s="265">
+      <c r="C5" s="279"/>
+      <c r="D5" s="279"/>
+      <c r="E5" s="260">
         <v>43734</v>
       </c>
-      <c r="F5" s="265"/>
-      <c r="G5" s="265"/>
-      <c r="H5" s="265"/>
-      <c r="I5" s="265"/>
-      <c r="J5" s="266" t="s">
+      <c r="F5" s="260"/>
+      <c r="G5" s="260"/>
+      <c r="H5" s="260"/>
+      <c r="I5" s="260"/>
+      <c r="J5" s="261" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="267"/>
-      <c r="L5" s="268"/>
-      <c r="M5" s="266" t="s">
+      <c r="K5" s="262"/>
+      <c r="L5" s="263"/>
+      <c r="M5" s="261" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="267"/>
-      <c r="O5" s="267"/>
-      <c r="P5" s="267"/>
-      <c r="Q5" s="267"/>
-      <c r="R5" s="268"/>
-      <c r="S5" s="263" t="s">
+      <c r="N5" s="262"/>
+      <c r="O5" s="262"/>
+      <c r="P5" s="262"/>
+      <c r="Q5" s="262"/>
+      <c r="R5" s="263"/>
+      <c r="S5" s="267" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="263"/>
-      <c r="U5" s="263"/>
-      <c r="V5" s="272" t="s">
+      <c r="T5" s="267"/>
+      <c r="U5" s="267"/>
+      <c r="V5" s="278" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="272"/>
-      <c r="X5" s="272"/>
-      <c r="Y5" s="272"/>
-      <c r="Z5" s="272"/>
-      <c r="AA5" s="272"/>
-      <c r="AB5" s="272"/>
-      <c r="AC5" s="272"/>
-      <c r="AD5" s="272"/>
-      <c r="AE5" s="272"/>
-      <c r="AF5" s="272"/>
-      <c r="AG5" s="272"/>
-      <c r="AH5" s="272"/>
-      <c r="AI5" s="272"/>
-      <c r="AJ5" s="272"/>
-      <c r="AK5" s="272"/>
-      <c r="AL5" s="272"/>
-      <c r="AM5" s="272"/>
-      <c r="AN5" s="263" t="s">
+      <c r="W5" s="278"/>
+      <c r="X5" s="278"/>
+      <c r="Y5" s="278"/>
+      <c r="Z5" s="278"/>
+      <c r="AA5" s="278"/>
+      <c r="AB5" s="278"/>
+      <c r="AC5" s="278"/>
+      <c r="AD5" s="278"/>
+      <c r="AE5" s="278"/>
+      <c r="AF5" s="278"/>
+      <c r="AG5" s="278"/>
+      <c r="AH5" s="278"/>
+      <c r="AI5" s="278"/>
+      <c r="AJ5" s="278"/>
+      <c r="AK5" s="278"/>
+      <c r="AL5" s="278"/>
+      <c r="AM5" s="278"/>
+      <c r="AN5" s="267" t="s">
         <v>188</v>
       </c>
-      <c r="AO5" s="263"/>
-      <c r="AP5" s="263"/>
-      <c r="AQ5" s="263"/>
-      <c r="AR5" s="263"/>
-      <c r="AS5" s="263"/>
-      <c r="AT5" s="263"/>
-      <c r="AU5" s="263"/>
-      <c r="AV5" s="263"/>
-      <c r="AW5" s="263"/>
+      <c r="AO5" s="267"/>
+      <c r="AP5" s="267"/>
+      <c r="AQ5" s="267"/>
+      <c r="AR5" s="267"/>
+      <c r="AS5" s="267"/>
+      <c r="AT5" s="267"/>
+      <c r="AU5" s="267"/>
+      <c r="AV5" s="267"/>
+      <c r="AW5" s="267"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="56"/>
-      <c r="B6" s="264"/>
-      <c r="C6" s="264"/>
-      <c r="D6" s="264"/>
-      <c r="E6" s="265"/>
-      <c r="F6" s="265"/>
-      <c r="G6" s="265"/>
-      <c r="H6" s="265"/>
-      <c r="I6" s="265"/>
-      <c r="J6" s="266"/>
-      <c r="K6" s="267"/>
-      <c r="L6" s="268"/>
-      <c r="M6" s="269"/>
-      <c r="N6" s="270"/>
-      <c r="O6" s="270"/>
-      <c r="P6" s="270"/>
-      <c r="Q6" s="270"/>
-      <c r="R6" s="271"/>
-      <c r="S6" s="263"/>
-      <c r="T6" s="263"/>
-      <c r="U6" s="263"/>
-      <c r="V6" s="272"/>
-      <c r="W6" s="272"/>
-      <c r="X6" s="272"/>
-      <c r="Y6" s="272"/>
-      <c r="Z6" s="272"/>
-      <c r="AA6" s="272"/>
-      <c r="AB6" s="272"/>
-      <c r="AC6" s="272"/>
-      <c r="AD6" s="272"/>
-      <c r="AE6" s="272"/>
-      <c r="AF6" s="272"/>
-      <c r="AG6" s="272"/>
-      <c r="AH6" s="272"/>
-      <c r="AI6" s="272"/>
-      <c r="AJ6" s="272"/>
-      <c r="AK6" s="272"/>
-      <c r="AL6" s="272"/>
-      <c r="AM6" s="272"/>
-      <c r="AN6" s="263"/>
-      <c r="AO6" s="263"/>
-      <c r="AP6" s="263"/>
-      <c r="AQ6" s="263"/>
-      <c r="AR6" s="263"/>
-      <c r="AS6" s="263"/>
-      <c r="AT6" s="263"/>
-      <c r="AU6" s="263"/>
-      <c r="AV6" s="263"/>
-      <c r="AW6" s="263"/>
+      <c r="B6" s="279"/>
+      <c r="C6" s="279"/>
+      <c r="D6" s="279"/>
+      <c r="E6" s="260"/>
+      <c r="F6" s="260"/>
+      <c r="G6" s="260"/>
+      <c r="H6" s="260"/>
+      <c r="I6" s="260"/>
+      <c r="J6" s="261"/>
+      <c r="K6" s="262"/>
+      <c r="L6" s="263"/>
+      <c r="M6" s="282"/>
+      <c r="N6" s="283"/>
+      <c r="O6" s="283"/>
+      <c r="P6" s="283"/>
+      <c r="Q6" s="283"/>
+      <c r="R6" s="284"/>
+      <c r="S6" s="267"/>
+      <c r="T6" s="267"/>
+      <c r="U6" s="267"/>
+      <c r="V6" s="278"/>
+      <c r="W6" s="278"/>
+      <c r="X6" s="278"/>
+      <c r="Y6" s="278"/>
+      <c r="Z6" s="278"/>
+      <c r="AA6" s="278"/>
+      <c r="AB6" s="278"/>
+      <c r="AC6" s="278"/>
+      <c r="AD6" s="278"/>
+      <c r="AE6" s="278"/>
+      <c r="AF6" s="278"/>
+      <c r="AG6" s="278"/>
+      <c r="AH6" s="278"/>
+      <c r="AI6" s="278"/>
+      <c r="AJ6" s="278"/>
+      <c r="AK6" s="278"/>
+      <c r="AL6" s="278"/>
+      <c r="AM6" s="278"/>
+      <c r="AN6" s="267"/>
+      <c r="AO6" s="267"/>
+      <c r="AP6" s="267"/>
+      <c r="AQ6" s="267"/>
+      <c r="AR6" s="267"/>
+      <c r="AS6" s="267"/>
+      <c r="AT6" s="267"/>
+      <c r="AU6" s="267"/>
+      <c r="AV6" s="267"/>
+      <c r="AW6" s="267"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="56"/>
-      <c r="B7" s="264"/>
-      <c r="C7" s="264"/>
-      <c r="D7" s="264"/>
-      <c r="E7" s="265"/>
-      <c r="F7" s="265"/>
-      <c r="G7" s="265"/>
-      <c r="H7" s="265"/>
-      <c r="I7" s="265"/>
-      <c r="J7" s="266"/>
-      <c r="K7" s="267"/>
-      <c r="L7" s="268"/>
-      <c r="M7" s="269"/>
-      <c r="N7" s="270"/>
-      <c r="O7" s="270"/>
-      <c r="P7" s="270"/>
-      <c r="Q7" s="270"/>
-      <c r="R7" s="271"/>
-      <c r="S7" s="263"/>
-      <c r="T7" s="263"/>
-      <c r="U7" s="263"/>
-      <c r="V7" s="272"/>
-      <c r="W7" s="272"/>
-      <c r="X7" s="272"/>
-      <c r="Y7" s="272"/>
-      <c r="Z7" s="272"/>
-      <c r="AA7" s="272"/>
-      <c r="AB7" s="272"/>
-      <c r="AC7" s="272"/>
-      <c r="AD7" s="272"/>
-      <c r="AE7" s="272"/>
-      <c r="AF7" s="272"/>
-      <c r="AG7" s="272"/>
-      <c r="AH7" s="272"/>
-      <c r="AI7" s="272"/>
-      <c r="AJ7" s="272"/>
-      <c r="AK7" s="272"/>
-      <c r="AL7" s="272"/>
-      <c r="AM7" s="272"/>
-      <c r="AN7" s="263"/>
-      <c r="AO7" s="263"/>
-      <c r="AP7" s="263"/>
-      <c r="AQ7" s="263"/>
-      <c r="AR7" s="263"/>
-      <c r="AS7" s="263"/>
-      <c r="AT7" s="263"/>
-      <c r="AU7" s="263"/>
-      <c r="AV7" s="263"/>
-      <c r="AW7" s="263"/>
+      <c r="B7" s="279"/>
+      <c r="C7" s="279"/>
+      <c r="D7" s="279"/>
+      <c r="E7" s="260"/>
+      <c r="F7" s="260"/>
+      <c r="G7" s="260"/>
+      <c r="H7" s="260"/>
+      <c r="I7" s="260"/>
+      <c r="J7" s="261"/>
+      <c r="K7" s="262"/>
+      <c r="L7" s="263"/>
+      <c r="M7" s="282"/>
+      <c r="N7" s="283"/>
+      <c r="O7" s="283"/>
+      <c r="P7" s="283"/>
+      <c r="Q7" s="283"/>
+      <c r="R7" s="284"/>
+      <c r="S7" s="267"/>
+      <c r="T7" s="267"/>
+      <c r="U7" s="267"/>
+      <c r="V7" s="278"/>
+      <c r="W7" s="278"/>
+      <c r="X7" s="278"/>
+      <c r="Y7" s="278"/>
+      <c r="Z7" s="278"/>
+      <c r="AA7" s="278"/>
+      <c r="AB7" s="278"/>
+      <c r="AC7" s="278"/>
+      <c r="AD7" s="278"/>
+      <c r="AE7" s="278"/>
+      <c r="AF7" s="278"/>
+      <c r="AG7" s="278"/>
+      <c r="AH7" s="278"/>
+      <c r="AI7" s="278"/>
+      <c r="AJ7" s="278"/>
+      <c r="AK7" s="278"/>
+      <c r="AL7" s="278"/>
+      <c r="AM7" s="278"/>
+      <c r="AN7" s="267"/>
+      <c r="AO7" s="267"/>
+      <c r="AP7" s="267"/>
+      <c r="AQ7" s="267"/>
+      <c r="AR7" s="267"/>
+      <c r="AS7" s="267"/>
+      <c r="AT7" s="267"/>
+      <c r="AU7" s="267"/>
+      <c r="AV7" s="267"/>
+      <c r="AW7" s="267"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="56"/>
-      <c r="B8" s="264"/>
-      <c r="C8" s="264"/>
-      <c r="D8" s="264"/>
-      <c r="E8" s="265"/>
-      <c r="F8" s="265"/>
-      <c r="G8" s="265"/>
-      <c r="H8" s="265"/>
-      <c r="I8" s="265"/>
-      <c r="J8" s="266"/>
-      <c r="K8" s="267"/>
-      <c r="L8" s="268"/>
-      <c r="M8" s="269"/>
-      <c r="N8" s="270"/>
-      <c r="O8" s="270"/>
-      <c r="P8" s="270"/>
-      <c r="Q8" s="270"/>
-      <c r="R8" s="271"/>
-      <c r="S8" s="263"/>
-      <c r="T8" s="263"/>
-      <c r="U8" s="263"/>
-      <c r="V8" s="272"/>
-      <c r="W8" s="272"/>
-      <c r="X8" s="272"/>
-      <c r="Y8" s="272"/>
-      <c r="Z8" s="272"/>
-      <c r="AA8" s="272"/>
-      <c r="AB8" s="272"/>
-      <c r="AC8" s="272"/>
-      <c r="AD8" s="272"/>
-      <c r="AE8" s="272"/>
-      <c r="AF8" s="272"/>
-      <c r="AG8" s="272"/>
-      <c r="AH8" s="272"/>
-      <c r="AI8" s="272"/>
-      <c r="AJ8" s="272"/>
-      <c r="AK8" s="272"/>
-      <c r="AL8" s="272"/>
-      <c r="AM8" s="272"/>
-      <c r="AN8" s="263"/>
-      <c r="AO8" s="263"/>
-      <c r="AP8" s="263"/>
-      <c r="AQ8" s="263"/>
-      <c r="AR8" s="263"/>
-      <c r="AS8" s="263"/>
-      <c r="AT8" s="263"/>
-      <c r="AU8" s="263"/>
-      <c r="AV8" s="263"/>
-      <c r="AW8" s="263"/>
+      <c r="B8" s="279"/>
+      <c r="C8" s="279"/>
+      <c r="D8" s="279"/>
+      <c r="E8" s="260"/>
+      <c r="F8" s="260"/>
+      <c r="G8" s="260"/>
+      <c r="H8" s="260"/>
+      <c r="I8" s="260"/>
+      <c r="J8" s="261"/>
+      <c r="K8" s="262"/>
+      <c r="L8" s="263"/>
+      <c r="M8" s="282"/>
+      <c r="N8" s="283"/>
+      <c r="O8" s="283"/>
+      <c r="P8" s="283"/>
+      <c r="Q8" s="283"/>
+      <c r="R8" s="284"/>
+      <c r="S8" s="267"/>
+      <c r="T8" s="267"/>
+      <c r="U8" s="267"/>
+      <c r="V8" s="278"/>
+      <c r="W8" s="278"/>
+      <c r="X8" s="278"/>
+      <c r="Y8" s="278"/>
+      <c r="Z8" s="278"/>
+      <c r="AA8" s="278"/>
+      <c r="AB8" s="278"/>
+      <c r="AC8" s="278"/>
+      <c r="AD8" s="278"/>
+      <c r="AE8" s="278"/>
+      <c r="AF8" s="278"/>
+      <c r="AG8" s="278"/>
+      <c r="AH8" s="278"/>
+      <c r="AI8" s="278"/>
+      <c r="AJ8" s="278"/>
+      <c r="AK8" s="278"/>
+      <c r="AL8" s="278"/>
+      <c r="AM8" s="278"/>
+      <c r="AN8" s="267"/>
+      <c r="AO8" s="267"/>
+      <c r="AP8" s="267"/>
+      <c r="AQ8" s="267"/>
+      <c r="AR8" s="267"/>
+      <c r="AS8" s="267"/>
+      <c r="AT8" s="267"/>
+      <c r="AU8" s="267"/>
+      <c r="AV8" s="267"/>
+      <c r="AW8" s="267"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="56"/>
-      <c r="B9" s="264"/>
-      <c r="C9" s="264"/>
-      <c r="D9" s="264"/>
-      <c r="E9" s="265"/>
-      <c r="F9" s="265"/>
-      <c r="G9" s="265"/>
-      <c r="H9" s="265"/>
-      <c r="I9" s="265"/>
-      <c r="J9" s="266"/>
-      <c r="K9" s="267"/>
-      <c r="L9" s="268"/>
-      <c r="M9" s="269"/>
-      <c r="N9" s="270"/>
-      <c r="O9" s="270"/>
-      <c r="P9" s="270"/>
-      <c r="Q9" s="270"/>
-      <c r="R9" s="271"/>
-      <c r="S9" s="263"/>
-      <c r="T9" s="263"/>
-      <c r="U9" s="263"/>
-      <c r="V9" s="272"/>
-      <c r="W9" s="272"/>
-      <c r="X9" s="272"/>
-      <c r="Y9" s="272"/>
-      <c r="Z9" s="272"/>
-      <c r="AA9" s="272"/>
-      <c r="AB9" s="272"/>
-      <c r="AC9" s="272"/>
-      <c r="AD9" s="272"/>
-      <c r="AE9" s="272"/>
-      <c r="AF9" s="272"/>
-      <c r="AG9" s="272"/>
-      <c r="AH9" s="272"/>
-      <c r="AI9" s="272"/>
-      <c r="AJ9" s="272"/>
-      <c r="AK9" s="272"/>
-      <c r="AL9" s="272"/>
-      <c r="AM9" s="272"/>
-      <c r="AN9" s="263"/>
-      <c r="AO9" s="263"/>
-      <c r="AP9" s="263"/>
-      <c r="AQ9" s="263"/>
-      <c r="AR9" s="263"/>
-      <c r="AS9" s="263"/>
-      <c r="AT9" s="263"/>
-      <c r="AU9" s="263"/>
-      <c r="AV9" s="263"/>
-      <c r="AW9" s="263"/>
+      <c r="B9" s="279"/>
+      <c r="C9" s="279"/>
+      <c r="D9" s="279"/>
+      <c r="E9" s="260"/>
+      <c r="F9" s="260"/>
+      <c r="G9" s="260"/>
+      <c r="H9" s="260"/>
+      <c r="I9" s="260"/>
+      <c r="J9" s="261"/>
+      <c r="K9" s="262"/>
+      <c r="L9" s="263"/>
+      <c r="M9" s="282"/>
+      <c r="N9" s="283"/>
+      <c r="O9" s="283"/>
+      <c r="P9" s="283"/>
+      <c r="Q9" s="283"/>
+      <c r="R9" s="284"/>
+      <c r="S9" s="267"/>
+      <c r="T9" s="267"/>
+      <c r="U9" s="267"/>
+      <c r="V9" s="278"/>
+      <c r="W9" s="278"/>
+      <c r="X9" s="278"/>
+      <c r="Y9" s="278"/>
+      <c r="Z9" s="278"/>
+      <c r="AA9" s="278"/>
+      <c r="AB9" s="278"/>
+      <c r="AC9" s="278"/>
+      <c r="AD9" s="278"/>
+      <c r="AE9" s="278"/>
+      <c r="AF9" s="278"/>
+      <c r="AG9" s="278"/>
+      <c r="AH9" s="278"/>
+      <c r="AI9" s="278"/>
+      <c r="AJ9" s="278"/>
+      <c r="AK9" s="278"/>
+      <c r="AL9" s="278"/>
+      <c r="AM9" s="278"/>
+      <c r="AN9" s="267"/>
+      <c r="AO9" s="267"/>
+      <c r="AP9" s="267"/>
+      <c r="AQ9" s="267"/>
+      <c r="AR9" s="267"/>
+      <c r="AS9" s="267"/>
+      <c r="AT9" s="267"/>
+      <c r="AU9" s="267"/>
+      <c r="AV9" s="267"/>
+      <c r="AW9" s="267"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="56"/>
-      <c r="B10" s="264"/>
-      <c r="C10" s="264"/>
-      <c r="D10" s="264"/>
-      <c r="E10" s="265"/>
-      <c r="F10" s="265"/>
-      <c r="G10" s="265"/>
-      <c r="H10" s="265"/>
-      <c r="I10" s="265"/>
-      <c r="J10" s="266"/>
-      <c r="K10" s="267"/>
-      <c r="L10" s="268"/>
-      <c r="M10" s="269"/>
-      <c r="N10" s="270"/>
-      <c r="O10" s="270"/>
-      <c r="P10" s="270"/>
-      <c r="Q10" s="270"/>
-      <c r="R10" s="271"/>
-      <c r="S10" s="263"/>
-      <c r="T10" s="263"/>
-      <c r="U10" s="263"/>
-      <c r="V10" s="272"/>
-      <c r="W10" s="272"/>
-      <c r="X10" s="272"/>
-      <c r="Y10" s="272"/>
-      <c r="Z10" s="272"/>
-      <c r="AA10" s="272"/>
-      <c r="AB10" s="272"/>
-      <c r="AC10" s="272"/>
-      <c r="AD10" s="272"/>
-      <c r="AE10" s="272"/>
-      <c r="AF10" s="272"/>
-      <c r="AG10" s="272"/>
-      <c r="AH10" s="272"/>
-      <c r="AI10" s="272"/>
-      <c r="AJ10" s="272"/>
-      <c r="AK10" s="272"/>
-      <c r="AL10" s="272"/>
-      <c r="AM10" s="272"/>
-      <c r="AN10" s="263"/>
-      <c r="AO10" s="263"/>
-      <c r="AP10" s="263"/>
-      <c r="AQ10" s="263"/>
-      <c r="AR10" s="263"/>
-      <c r="AS10" s="263"/>
-      <c r="AT10" s="263"/>
-      <c r="AU10" s="263"/>
-      <c r="AV10" s="263"/>
-      <c r="AW10" s="263"/>
+      <c r="B10" s="279"/>
+      <c r="C10" s="279"/>
+      <c r="D10" s="279"/>
+      <c r="E10" s="260"/>
+      <c r="F10" s="260"/>
+      <c r="G10" s="260"/>
+      <c r="H10" s="260"/>
+      <c r="I10" s="260"/>
+      <c r="J10" s="261"/>
+      <c r="K10" s="262"/>
+      <c r="L10" s="263"/>
+      <c r="M10" s="282"/>
+      <c r="N10" s="283"/>
+      <c r="O10" s="283"/>
+      <c r="P10" s="283"/>
+      <c r="Q10" s="283"/>
+      <c r="R10" s="284"/>
+      <c r="S10" s="267"/>
+      <c r="T10" s="267"/>
+      <c r="U10" s="267"/>
+      <c r="V10" s="278"/>
+      <c r="W10" s="278"/>
+      <c r="X10" s="278"/>
+      <c r="Y10" s="278"/>
+      <c r="Z10" s="278"/>
+      <c r="AA10" s="278"/>
+      <c r="AB10" s="278"/>
+      <c r="AC10" s="278"/>
+      <c r="AD10" s="278"/>
+      <c r="AE10" s="278"/>
+      <c r="AF10" s="278"/>
+      <c r="AG10" s="278"/>
+      <c r="AH10" s="278"/>
+      <c r="AI10" s="278"/>
+      <c r="AJ10" s="278"/>
+      <c r="AK10" s="278"/>
+      <c r="AL10" s="278"/>
+      <c r="AM10" s="278"/>
+      <c r="AN10" s="267"/>
+      <c r="AO10" s="267"/>
+      <c r="AP10" s="267"/>
+      <c r="AQ10" s="267"/>
+      <c r="AR10" s="267"/>
+      <c r="AS10" s="267"/>
+      <c r="AT10" s="267"/>
+      <c r="AU10" s="267"/>
+      <c r="AV10" s="267"/>
+      <c r="AW10" s="267"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="56"/>
-      <c r="B11" s="264"/>
-      <c r="C11" s="264"/>
-      <c r="D11" s="264"/>
-      <c r="E11" s="265"/>
-      <c r="F11" s="265"/>
-      <c r="G11" s="265"/>
-      <c r="H11" s="265"/>
-      <c r="I11" s="265"/>
-      <c r="J11" s="266"/>
-      <c r="K11" s="267"/>
-      <c r="L11" s="268"/>
-      <c r="M11" s="276"/>
-      <c r="N11" s="277"/>
-      <c r="O11" s="277"/>
-      <c r="P11" s="277"/>
-      <c r="Q11" s="277"/>
-      <c r="R11" s="278"/>
-      <c r="S11" s="263"/>
-      <c r="T11" s="263"/>
-      <c r="U11" s="263"/>
-      <c r="V11" s="279"/>
-      <c r="W11" s="285"/>
-      <c r="X11" s="285"/>
-      <c r="Y11" s="285"/>
-      <c r="Z11" s="285"/>
-      <c r="AA11" s="285"/>
-      <c r="AB11" s="285"/>
-      <c r="AC11" s="285"/>
-      <c r="AD11" s="285"/>
-      <c r="AE11" s="285"/>
-      <c r="AF11" s="285"/>
-      <c r="AG11" s="285"/>
-      <c r="AH11" s="285"/>
-      <c r="AI11" s="285"/>
-      <c r="AJ11" s="285"/>
-      <c r="AK11" s="285"/>
-      <c r="AL11" s="285"/>
-      <c r="AM11" s="286"/>
-      <c r="AN11" s="263"/>
-      <c r="AO11" s="263"/>
-      <c r="AP11" s="263"/>
-      <c r="AQ11" s="263"/>
-      <c r="AR11" s="263"/>
-      <c r="AS11" s="263"/>
-      <c r="AT11" s="263"/>
-      <c r="AU11" s="263"/>
-      <c r="AV11" s="263"/>
-      <c r="AW11" s="263"/>
+      <c r="B11" s="279"/>
+      <c r="C11" s="279"/>
+      <c r="D11" s="279"/>
+      <c r="E11" s="260"/>
+      <c r="F11" s="260"/>
+      <c r="G11" s="260"/>
+      <c r="H11" s="260"/>
+      <c r="I11" s="260"/>
+      <c r="J11" s="261"/>
+      <c r="K11" s="262"/>
+      <c r="L11" s="263"/>
+      <c r="M11" s="274"/>
+      <c r="N11" s="272"/>
+      <c r="O11" s="272"/>
+      <c r="P11" s="272"/>
+      <c r="Q11" s="272"/>
+      <c r="R11" s="273"/>
+      <c r="S11" s="267"/>
+      <c r="T11" s="267"/>
+      <c r="U11" s="267"/>
+      <c r="V11" s="268"/>
+      <c r="W11" s="280"/>
+      <c r="X11" s="280"/>
+      <c r="Y11" s="280"/>
+      <c r="Z11" s="280"/>
+      <c r="AA11" s="280"/>
+      <c r="AB11" s="280"/>
+      <c r="AC11" s="280"/>
+      <c r="AD11" s="280"/>
+      <c r="AE11" s="280"/>
+      <c r="AF11" s="280"/>
+      <c r="AG11" s="280"/>
+      <c r="AH11" s="280"/>
+      <c r="AI11" s="280"/>
+      <c r="AJ11" s="280"/>
+      <c r="AK11" s="280"/>
+      <c r="AL11" s="280"/>
+      <c r="AM11" s="281"/>
+      <c r="AN11" s="267"/>
+      <c r="AO11" s="267"/>
+      <c r="AP11" s="267"/>
+      <c r="AQ11" s="267"/>
+      <c r="AR11" s="267"/>
+      <c r="AS11" s="267"/>
+      <c r="AT11" s="267"/>
+      <c r="AU11" s="267"/>
+      <c r="AV11" s="267"/>
+      <c r="AW11" s="267"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="56"/>
-      <c r="B12" s="273"/>
-      <c r="C12" s="274"/>
-      <c r="D12" s="275"/>
-      <c r="E12" s="265"/>
-      <c r="F12" s="265"/>
-      <c r="G12" s="265"/>
-      <c r="H12" s="265"/>
-      <c r="I12" s="265"/>
-      <c r="J12" s="266"/>
-      <c r="K12" s="267"/>
-      <c r="L12" s="268"/>
-      <c r="M12" s="276"/>
-      <c r="N12" s="277"/>
-      <c r="O12" s="277"/>
-      <c r="P12" s="277"/>
-      <c r="Q12" s="277"/>
-      <c r="R12" s="278"/>
-      <c r="S12" s="263"/>
-      <c r="T12" s="263"/>
-      <c r="U12" s="263"/>
-      <c r="V12" s="279"/>
-      <c r="W12" s="280"/>
-      <c r="X12" s="280"/>
-      <c r="Y12" s="280"/>
-      <c r="Z12" s="280"/>
-      <c r="AA12" s="280"/>
-      <c r="AB12" s="280"/>
-      <c r="AC12" s="280"/>
-      <c r="AD12" s="280"/>
-      <c r="AE12" s="280"/>
-      <c r="AF12" s="280"/>
-      <c r="AG12" s="280"/>
-      <c r="AH12" s="280"/>
-      <c r="AI12" s="280"/>
-      <c r="AJ12" s="280"/>
-      <c r="AK12" s="280"/>
-      <c r="AL12" s="280"/>
-      <c r="AM12" s="281"/>
-      <c r="AN12" s="282"/>
-      <c r="AO12" s="283"/>
-      <c r="AP12" s="283"/>
-      <c r="AQ12" s="283"/>
-      <c r="AR12" s="284"/>
-      <c r="AS12" s="282"/>
-      <c r="AT12" s="283"/>
-      <c r="AU12" s="283"/>
-      <c r="AV12" s="283"/>
-      <c r="AW12" s="284"/>
+      <c r="B12" s="257"/>
+      <c r="C12" s="258"/>
+      <c r="D12" s="259"/>
+      <c r="E12" s="260"/>
+      <c r="F12" s="260"/>
+      <c r="G12" s="260"/>
+      <c r="H12" s="260"/>
+      <c r="I12" s="260"/>
+      <c r="J12" s="261"/>
+      <c r="K12" s="262"/>
+      <c r="L12" s="263"/>
+      <c r="M12" s="274"/>
+      <c r="N12" s="272"/>
+      <c r="O12" s="272"/>
+      <c r="P12" s="272"/>
+      <c r="Q12" s="272"/>
+      <c r="R12" s="273"/>
+      <c r="S12" s="267"/>
+      <c r="T12" s="267"/>
+      <c r="U12" s="267"/>
+      <c r="V12" s="268"/>
+      <c r="W12" s="269"/>
+      <c r="X12" s="269"/>
+      <c r="Y12" s="269"/>
+      <c r="Z12" s="269"/>
+      <c r="AA12" s="269"/>
+      <c r="AB12" s="269"/>
+      <c r="AC12" s="269"/>
+      <c r="AD12" s="269"/>
+      <c r="AE12" s="269"/>
+      <c r="AF12" s="269"/>
+      <c r="AG12" s="269"/>
+      <c r="AH12" s="269"/>
+      <c r="AI12" s="269"/>
+      <c r="AJ12" s="269"/>
+      <c r="AK12" s="269"/>
+      <c r="AL12" s="269"/>
+      <c r="AM12" s="270"/>
+      <c r="AN12" s="254"/>
+      <c r="AO12" s="255"/>
+      <c r="AP12" s="255"/>
+      <c r="AQ12" s="255"/>
+      <c r="AR12" s="256"/>
+      <c r="AS12" s="254"/>
+      <c r="AT12" s="255"/>
+      <c r="AU12" s="255"/>
+      <c r="AV12" s="255"/>
+      <c r="AW12" s="256"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="56"/>
-      <c r="B13" s="273"/>
-      <c r="C13" s="274"/>
-      <c r="D13" s="275"/>
-      <c r="E13" s="265"/>
-      <c r="F13" s="265"/>
-      <c r="G13" s="265"/>
-      <c r="H13" s="265"/>
-      <c r="I13" s="265"/>
-      <c r="J13" s="266"/>
-      <c r="K13" s="267"/>
-      <c r="L13" s="268"/>
-      <c r="M13" s="287"/>
-      <c r="N13" s="277"/>
-      <c r="O13" s="277"/>
-      <c r="P13" s="277"/>
-      <c r="Q13" s="277"/>
-      <c r="R13" s="278"/>
-      <c r="S13" s="263"/>
-      <c r="T13" s="263"/>
-      <c r="U13" s="263"/>
-      <c r="V13" s="279"/>
-      <c r="W13" s="280"/>
-      <c r="X13" s="280"/>
-      <c r="Y13" s="280"/>
-      <c r="Z13" s="280"/>
-      <c r="AA13" s="280"/>
-      <c r="AB13" s="280"/>
-      <c r="AC13" s="280"/>
-      <c r="AD13" s="280"/>
-      <c r="AE13" s="280"/>
-      <c r="AF13" s="280"/>
-      <c r="AG13" s="280"/>
-      <c r="AH13" s="280"/>
-      <c r="AI13" s="280"/>
-      <c r="AJ13" s="280"/>
-      <c r="AK13" s="280"/>
-      <c r="AL13" s="280"/>
-      <c r="AM13" s="281"/>
-      <c r="AN13" s="282"/>
-      <c r="AO13" s="283"/>
-      <c r="AP13" s="283"/>
-      <c r="AQ13" s="283"/>
-      <c r="AR13" s="284"/>
-      <c r="AS13" s="282"/>
-      <c r="AT13" s="283"/>
-      <c r="AU13" s="283"/>
-      <c r="AV13" s="283"/>
-      <c r="AW13" s="284"/>
+      <c r="B13" s="257"/>
+      <c r="C13" s="258"/>
+      <c r="D13" s="259"/>
+      <c r="E13" s="260"/>
+      <c r="F13" s="260"/>
+      <c r="G13" s="260"/>
+      <c r="H13" s="260"/>
+      <c r="I13" s="260"/>
+      <c r="J13" s="261"/>
+      <c r="K13" s="262"/>
+      <c r="L13" s="263"/>
+      <c r="M13" s="271"/>
+      <c r="N13" s="272"/>
+      <c r="O13" s="272"/>
+      <c r="P13" s="272"/>
+      <c r="Q13" s="272"/>
+      <c r="R13" s="273"/>
+      <c r="S13" s="267"/>
+      <c r="T13" s="267"/>
+      <c r="U13" s="267"/>
+      <c r="V13" s="268"/>
+      <c r="W13" s="269"/>
+      <c r="X13" s="269"/>
+      <c r="Y13" s="269"/>
+      <c r="Z13" s="269"/>
+      <c r="AA13" s="269"/>
+      <c r="AB13" s="269"/>
+      <c r="AC13" s="269"/>
+      <c r="AD13" s="269"/>
+      <c r="AE13" s="269"/>
+      <c r="AF13" s="269"/>
+      <c r="AG13" s="269"/>
+      <c r="AH13" s="269"/>
+      <c r="AI13" s="269"/>
+      <c r="AJ13" s="269"/>
+      <c r="AK13" s="269"/>
+      <c r="AL13" s="269"/>
+      <c r="AM13" s="270"/>
+      <c r="AN13" s="254"/>
+      <c r="AO13" s="255"/>
+      <c r="AP13" s="255"/>
+      <c r="AQ13" s="255"/>
+      <c r="AR13" s="256"/>
+      <c r="AS13" s="254"/>
+      <c r="AT13" s="255"/>
+      <c r="AU13" s="255"/>
+      <c r="AV13" s="255"/>
+      <c r="AW13" s="256"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="56"/>
-      <c r="B14" s="273"/>
-      <c r="C14" s="274"/>
-      <c r="D14" s="275"/>
-      <c r="E14" s="265"/>
-      <c r="F14" s="265"/>
-      <c r="G14" s="265"/>
-      <c r="H14" s="265"/>
-      <c r="I14" s="265"/>
-      <c r="J14" s="266"/>
-      <c r="K14" s="267"/>
-      <c r="L14" s="268"/>
-      <c r="M14" s="287"/>
-      <c r="N14" s="277"/>
-      <c r="O14" s="277"/>
-      <c r="P14" s="277"/>
-      <c r="Q14" s="277"/>
-      <c r="R14" s="278"/>
-      <c r="S14" s="263"/>
-      <c r="T14" s="263"/>
-      <c r="U14" s="263"/>
-      <c r="V14" s="288"/>
-      <c r="W14" s="272"/>
-      <c r="X14" s="272"/>
-      <c r="Y14" s="272"/>
-      <c r="Z14" s="272"/>
-      <c r="AA14" s="272"/>
-      <c r="AB14" s="272"/>
-      <c r="AC14" s="272"/>
-      <c r="AD14" s="272"/>
-      <c r="AE14" s="272"/>
-      <c r="AF14" s="272"/>
-      <c r="AG14" s="272"/>
-      <c r="AH14" s="272"/>
-      <c r="AI14" s="272"/>
-      <c r="AJ14" s="272"/>
-      <c r="AK14" s="272"/>
-      <c r="AL14" s="272"/>
-      <c r="AM14" s="272"/>
-      <c r="AN14" s="263"/>
-      <c r="AO14" s="263"/>
-      <c r="AP14" s="263"/>
-      <c r="AQ14" s="263"/>
-      <c r="AR14" s="263"/>
-      <c r="AS14" s="282"/>
-      <c r="AT14" s="283"/>
-      <c r="AU14" s="283"/>
-      <c r="AV14" s="283"/>
-      <c r="AW14" s="284"/>
+      <c r="B14" s="257"/>
+      <c r="C14" s="258"/>
+      <c r="D14" s="259"/>
+      <c r="E14" s="260"/>
+      <c r="F14" s="260"/>
+      <c r="G14" s="260"/>
+      <c r="H14" s="260"/>
+      <c r="I14" s="260"/>
+      <c r="J14" s="261"/>
+      <c r="K14" s="262"/>
+      <c r="L14" s="263"/>
+      <c r="M14" s="271"/>
+      <c r="N14" s="272"/>
+      <c r="O14" s="272"/>
+      <c r="P14" s="272"/>
+      <c r="Q14" s="272"/>
+      <c r="R14" s="273"/>
+      <c r="S14" s="267"/>
+      <c r="T14" s="267"/>
+      <c r="U14" s="267"/>
+      <c r="V14" s="277"/>
+      <c r="W14" s="278"/>
+      <c r="X14" s="278"/>
+      <c r="Y14" s="278"/>
+      <c r="Z14" s="278"/>
+      <c r="AA14" s="278"/>
+      <c r="AB14" s="278"/>
+      <c r="AC14" s="278"/>
+      <c r="AD14" s="278"/>
+      <c r="AE14" s="278"/>
+      <c r="AF14" s="278"/>
+      <c r="AG14" s="278"/>
+      <c r="AH14" s="278"/>
+      <c r="AI14" s="278"/>
+      <c r="AJ14" s="278"/>
+      <c r="AK14" s="278"/>
+      <c r="AL14" s="278"/>
+      <c r="AM14" s="278"/>
+      <c r="AN14" s="267"/>
+      <c r="AO14" s="267"/>
+      <c r="AP14" s="267"/>
+      <c r="AQ14" s="267"/>
+      <c r="AR14" s="267"/>
+      <c r="AS14" s="254"/>
+      <c r="AT14" s="255"/>
+      <c r="AU14" s="255"/>
+      <c r="AV14" s="255"/>
+      <c r="AW14" s="256"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="56"/>
-      <c r="B15" s="273"/>
-      <c r="C15" s="274"/>
-      <c r="D15" s="275"/>
-      <c r="E15" s="265"/>
-      <c r="F15" s="265"/>
-      <c r="G15" s="265"/>
-      <c r="H15" s="265"/>
-      <c r="I15" s="265"/>
-      <c r="J15" s="266"/>
-      <c r="K15" s="267"/>
-      <c r="L15" s="268"/>
-      <c r="M15" s="276"/>
-      <c r="N15" s="277"/>
-      <c r="O15" s="277"/>
-      <c r="P15" s="277"/>
-      <c r="Q15" s="277"/>
-      <c r="R15" s="278"/>
-      <c r="S15" s="263"/>
-      <c r="T15" s="263"/>
-      <c r="U15" s="263"/>
-      <c r="V15" s="279"/>
-      <c r="W15" s="280"/>
-      <c r="X15" s="280"/>
-      <c r="Y15" s="280"/>
-      <c r="Z15" s="280"/>
-      <c r="AA15" s="280"/>
-      <c r="AB15" s="280"/>
-      <c r="AC15" s="280"/>
-      <c r="AD15" s="280"/>
-      <c r="AE15" s="280"/>
-      <c r="AF15" s="280"/>
-      <c r="AG15" s="280"/>
-      <c r="AH15" s="280"/>
-      <c r="AI15" s="280"/>
-      <c r="AJ15" s="280"/>
-      <c r="AK15" s="280"/>
-      <c r="AL15" s="280"/>
-      <c r="AM15" s="281"/>
-      <c r="AN15" s="282"/>
-      <c r="AO15" s="283"/>
-      <c r="AP15" s="283"/>
-      <c r="AQ15" s="283"/>
-      <c r="AR15" s="284"/>
-      <c r="AS15" s="282"/>
-      <c r="AT15" s="283"/>
-      <c r="AU15" s="283"/>
-      <c r="AV15" s="283"/>
-      <c r="AW15" s="284"/>
+      <c r="B15" s="257"/>
+      <c r="C15" s="258"/>
+      <c r="D15" s="259"/>
+      <c r="E15" s="260"/>
+      <c r="F15" s="260"/>
+      <c r="G15" s="260"/>
+      <c r="H15" s="260"/>
+      <c r="I15" s="260"/>
+      <c r="J15" s="261"/>
+      <c r="K15" s="262"/>
+      <c r="L15" s="263"/>
+      <c r="M15" s="274"/>
+      <c r="N15" s="272"/>
+      <c r="O15" s="272"/>
+      <c r="P15" s="272"/>
+      <c r="Q15" s="272"/>
+      <c r="R15" s="273"/>
+      <c r="S15" s="267"/>
+      <c r="T15" s="267"/>
+      <c r="U15" s="267"/>
+      <c r="V15" s="268"/>
+      <c r="W15" s="269"/>
+      <c r="X15" s="269"/>
+      <c r="Y15" s="269"/>
+      <c r="Z15" s="269"/>
+      <c r="AA15" s="269"/>
+      <c r="AB15" s="269"/>
+      <c r="AC15" s="269"/>
+      <c r="AD15" s="269"/>
+      <c r="AE15" s="269"/>
+      <c r="AF15" s="269"/>
+      <c r="AG15" s="269"/>
+      <c r="AH15" s="269"/>
+      <c r="AI15" s="269"/>
+      <c r="AJ15" s="269"/>
+      <c r="AK15" s="269"/>
+      <c r="AL15" s="269"/>
+      <c r="AM15" s="270"/>
+      <c r="AN15" s="254"/>
+      <c r="AO15" s="255"/>
+      <c r="AP15" s="255"/>
+      <c r="AQ15" s="255"/>
+      <c r="AR15" s="256"/>
+      <c r="AS15" s="254"/>
+      <c r="AT15" s="255"/>
+      <c r="AU15" s="255"/>
+      <c r="AV15" s="255"/>
+      <c r="AW15" s="256"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="56"/>
-      <c r="B16" s="273"/>
-      <c r="C16" s="274"/>
-      <c r="D16" s="275"/>
-      <c r="E16" s="265"/>
-      <c r="F16" s="265"/>
-      <c r="G16" s="265"/>
-      <c r="H16" s="265"/>
-      <c r="I16" s="265"/>
-      <c r="J16" s="266"/>
-      <c r="K16" s="267"/>
-      <c r="L16" s="268"/>
-      <c r="M16" s="276"/>
-      <c r="N16" s="277"/>
-      <c r="O16" s="277"/>
-      <c r="P16" s="277"/>
-      <c r="Q16" s="277"/>
-      <c r="R16" s="278"/>
-      <c r="S16" s="263"/>
-      <c r="T16" s="263"/>
-      <c r="U16" s="263"/>
-      <c r="V16" s="279"/>
-      <c r="W16" s="280"/>
-      <c r="X16" s="280"/>
-      <c r="Y16" s="280"/>
-      <c r="Z16" s="280"/>
-      <c r="AA16" s="280"/>
-      <c r="AB16" s="280"/>
-      <c r="AC16" s="280"/>
-      <c r="AD16" s="280"/>
-      <c r="AE16" s="280"/>
-      <c r="AF16" s="280"/>
-      <c r="AG16" s="280"/>
-      <c r="AH16" s="280"/>
-      <c r="AI16" s="280"/>
-      <c r="AJ16" s="280"/>
-      <c r="AK16" s="280"/>
-      <c r="AL16" s="280"/>
-      <c r="AM16" s="281"/>
-      <c r="AN16" s="282"/>
-      <c r="AO16" s="283"/>
-      <c r="AP16" s="283"/>
-      <c r="AQ16" s="283"/>
-      <c r="AR16" s="284"/>
-      <c r="AS16" s="282"/>
-      <c r="AT16" s="283"/>
-      <c r="AU16" s="283"/>
-      <c r="AV16" s="283"/>
-      <c r="AW16" s="284"/>
+      <c r="B16" s="257"/>
+      <c r="C16" s="258"/>
+      <c r="D16" s="259"/>
+      <c r="E16" s="260"/>
+      <c r="F16" s="260"/>
+      <c r="G16" s="260"/>
+      <c r="H16" s="260"/>
+      <c r="I16" s="260"/>
+      <c r="J16" s="261"/>
+      <c r="K16" s="262"/>
+      <c r="L16" s="263"/>
+      <c r="M16" s="274"/>
+      <c r="N16" s="272"/>
+      <c r="O16" s="272"/>
+      <c r="P16" s="272"/>
+      <c r="Q16" s="272"/>
+      <c r="R16" s="273"/>
+      <c r="S16" s="267"/>
+      <c r="T16" s="267"/>
+      <c r="U16" s="267"/>
+      <c r="V16" s="268"/>
+      <c r="W16" s="269"/>
+      <c r="X16" s="269"/>
+      <c r="Y16" s="269"/>
+      <c r="Z16" s="269"/>
+      <c r="AA16" s="269"/>
+      <c r="AB16" s="269"/>
+      <c r="AC16" s="269"/>
+      <c r="AD16" s="269"/>
+      <c r="AE16" s="269"/>
+      <c r="AF16" s="269"/>
+      <c r="AG16" s="269"/>
+      <c r="AH16" s="269"/>
+      <c r="AI16" s="269"/>
+      <c r="AJ16" s="269"/>
+      <c r="AK16" s="269"/>
+      <c r="AL16" s="269"/>
+      <c r="AM16" s="270"/>
+      <c r="AN16" s="254"/>
+      <c r="AO16" s="255"/>
+      <c r="AP16" s="255"/>
+      <c r="AQ16" s="255"/>
+      <c r="AR16" s="256"/>
+      <c r="AS16" s="254"/>
+      <c r="AT16" s="255"/>
+      <c r="AU16" s="255"/>
+      <c r="AV16" s="255"/>
+      <c r="AW16" s="256"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="56"/>
-      <c r="B17" s="273"/>
-      <c r="C17" s="274"/>
-      <c r="D17" s="275"/>
-      <c r="E17" s="265"/>
-      <c r="F17" s="265"/>
-      <c r="G17" s="265"/>
-      <c r="H17" s="265"/>
-      <c r="I17" s="265"/>
-      <c r="J17" s="266"/>
-      <c r="K17" s="267"/>
-      <c r="L17" s="268"/>
-      <c r="M17" s="276"/>
-      <c r="N17" s="277"/>
-      <c r="O17" s="277"/>
-      <c r="P17" s="277"/>
-      <c r="Q17" s="277"/>
-      <c r="R17" s="289"/>
-      <c r="S17" s="290"/>
-      <c r="T17" s="290"/>
-      <c r="U17" s="290"/>
-      <c r="V17" s="279"/>
-      <c r="W17" s="280"/>
-      <c r="X17" s="280"/>
-      <c r="Y17" s="280"/>
-      <c r="Z17" s="280"/>
-      <c r="AA17" s="280"/>
-      <c r="AB17" s="280"/>
-      <c r="AC17" s="280"/>
-      <c r="AD17" s="280"/>
-      <c r="AE17" s="280"/>
-      <c r="AF17" s="280"/>
-      <c r="AG17" s="280"/>
-      <c r="AH17" s="280"/>
-      <c r="AI17" s="280"/>
-      <c r="AJ17" s="280"/>
-      <c r="AK17" s="280"/>
-      <c r="AL17" s="280"/>
-      <c r="AM17" s="281"/>
-      <c r="AN17" s="282"/>
-      <c r="AO17" s="283"/>
-      <c r="AP17" s="283"/>
-      <c r="AQ17" s="283"/>
-      <c r="AR17" s="284"/>
-      <c r="AS17" s="282"/>
-      <c r="AT17" s="283"/>
-      <c r="AU17" s="283"/>
-      <c r="AV17" s="283"/>
-      <c r="AW17" s="284"/>
+      <c r="B17" s="257"/>
+      <c r="C17" s="258"/>
+      <c r="D17" s="259"/>
+      <c r="E17" s="260"/>
+      <c r="F17" s="260"/>
+      <c r="G17" s="260"/>
+      <c r="H17" s="260"/>
+      <c r="I17" s="260"/>
+      <c r="J17" s="261"/>
+      <c r="K17" s="262"/>
+      <c r="L17" s="263"/>
+      <c r="M17" s="274"/>
+      <c r="N17" s="272"/>
+      <c r="O17" s="272"/>
+      <c r="P17" s="272"/>
+      <c r="Q17" s="272"/>
+      <c r="R17" s="275"/>
+      <c r="S17" s="276"/>
+      <c r="T17" s="276"/>
+      <c r="U17" s="276"/>
+      <c r="V17" s="268"/>
+      <c r="W17" s="269"/>
+      <c r="X17" s="269"/>
+      <c r="Y17" s="269"/>
+      <c r="Z17" s="269"/>
+      <c r="AA17" s="269"/>
+      <c r="AB17" s="269"/>
+      <c r="AC17" s="269"/>
+      <c r="AD17" s="269"/>
+      <c r="AE17" s="269"/>
+      <c r="AF17" s="269"/>
+      <c r="AG17" s="269"/>
+      <c r="AH17" s="269"/>
+      <c r="AI17" s="269"/>
+      <c r="AJ17" s="269"/>
+      <c r="AK17" s="269"/>
+      <c r="AL17" s="269"/>
+      <c r="AM17" s="270"/>
+      <c r="AN17" s="254"/>
+      <c r="AO17" s="255"/>
+      <c r="AP17" s="255"/>
+      <c r="AQ17" s="255"/>
+      <c r="AR17" s="256"/>
+      <c r="AS17" s="254"/>
+      <c r="AT17" s="255"/>
+      <c r="AU17" s="255"/>
+      <c r="AV17" s="255"/>
+      <c r="AW17" s="256"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
-      <c r="B18" s="273"/>
-      <c r="C18" s="274"/>
-      <c r="D18" s="275"/>
-      <c r="E18" s="265"/>
-      <c r="F18" s="265"/>
-      <c r="G18" s="265"/>
-      <c r="H18" s="265"/>
-      <c r="I18" s="265"/>
-      <c r="J18" s="266"/>
-      <c r="K18" s="267"/>
-      <c r="L18" s="268"/>
-      <c r="M18" s="287"/>
-      <c r="N18" s="277"/>
-      <c r="O18" s="277"/>
-      <c r="P18" s="277"/>
-      <c r="Q18" s="277"/>
-      <c r="R18" s="278"/>
-      <c r="S18" s="263"/>
-      <c r="T18" s="263"/>
-      <c r="U18" s="263"/>
-      <c r="V18" s="279"/>
-      <c r="W18" s="280"/>
-      <c r="X18" s="280"/>
-      <c r="Y18" s="280"/>
-      <c r="Z18" s="280"/>
-      <c r="AA18" s="280"/>
-      <c r="AB18" s="280"/>
-      <c r="AC18" s="280"/>
-      <c r="AD18" s="280"/>
-      <c r="AE18" s="280"/>
-      <c r="AF18" s="280"/>
-      <c r="AG18" s="280"/>
-      <c r="AH18" s="280"/>
-      <c r="AI18" s="280"/>
-      <c r="AJ18" s="280"/>
-      <c r="AK18" s="280"/>
-      <c r="AL18" s="280"/>
-      <c r="AM18" s="281"/>
-      <c r="AN18" s="282"/>
-      <c r="AO18" s="283"/>
-      <c r="AP18" s="283"/>
-      <c r="AQ18" s="283"/>
-      <c r="AR18" s="284"/>
-      <c r="AS18" s="282"/>
-      <c r="AT18" s="283"/>
-      <c r="AU18" s="283"/>
-      <c r="AV18" s="283"/>
-      <c r="AW18" s="284"/>
+      <c r="B18" s="257"/>
+      <c r="C18" s="258"/>
+      <c r="D18" s="259"/>
+      <c r="E18" s="260"/>
+      <c r="F18" s="260"/>
+      <c r="G18" s="260"/>
+      <c r="H18" s="260"/>
+      <c r="I18" s="260"/>
+      <c r="J18" s="261"/>
+      <c r="K18" s="262"/>
+      <c r="L18" s="263"/>
+      <c r="M18" s="271"/>
+      <c r="N18" s="272"/>
+      <c r="O18" s="272"/>
+      <c r="P18" s="272"/>
+      <c r="Q18" s="272"/>
+      <c r="R18" s="273"/>
+      <c r="S18" s="267"/>
+      <c r="T18" s="267"/>
+      <c r="U18" s="267"/>
+      <c r="V18" s="268"/>
+      <c r="W18" s="269"/>
+      <c r="X18" s="269"/>
+      <c r="Y18" s="269"/>
+      <c r="Z18" s="269"/>
+      <c r="AA18" s="269"/>
+      <c r="AB18" s="269"/>
+      <c r="AC18" s="269"/>
+      <c r="AD18" s="269"/>
+      <c r="AE18" s="269"/>
+      <c r="AF18" s="269"/>
+      <c r="AG18" s="269"/>
+      <c r="AH18" s="269"/>
+      <c r="AI18" s="269"/>
+      <c r="AJ18" s="269"/>
+      <c r="AK18" s="269"/>
+      <c r="AL18" s="269"/>
+      <c r="AM18" s="270"/>
+      <c r="AN18" s="254"/>
+      <c r="AO18" s="255"/>
+      <c r="AP18" s="255"/>
+      <c r="AQ18" s="255"/>
+      <c r="AR18" s="256"/>
+      <c r="AS18" s="254"/>
+      <c r="AT18" s="255"/>
+      <c r="AU18" s="255"/>
+      <c r="AV18" s="255"/>
+      <c r="AW18" s="256"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="56"/>
-      <c r="B19" s="273"/>
-      <c r="C19" s="274"/>
-      <c r="D19" s="275"/>
-      <c r="E19" s="265"/>
-      <c r="F19" s="265"/>
-      <c r="G19" s="265"/>
-      <c r="H19" s="265"/>
-      <c r="I19" s="265"/>
-      <c r="J19" s="266"/>
-      <c r="K19" s="267"/>
-      <c r="L19" s="268"/>
-      <c r="M19" s="276"/>
-      <c r="N19" s="277"/>
-      <c r="O19" s="277"/>
-      <c r="P19" s="277"/>
-      <c r="Q19" s="277"/>
-      <c r="R19" s="278"/>
-      <c r="S19" s="263"/>
-      <c r="T19" s="263"/>
-      <c r="U19" s="263"/>
-      <c r="V19" s="279"/>
-      <c r="W19" s="280"/>
-      <c r="X19" s="280"/>
-      <c r="Y19" s="280"/>
-      <c r="Z19" s="280"/>
-      <c r="AA19" s="280"/>
-      <c r="AB19" s="280"/>
-      <c r="AC19" s="280"/>
-      <c r="AD19" s="280"/>
-      <c r="AE19" s="280"/>
-      <c r="AF19" s="280"/>
-      <c r="AG19" s="280"/>
-      <c r="AH19" s="280"/>
-      <c r="AI19" s="280"/>
-      <c r="AJ19" s="280"/>
-      <c r="AK19" s="280"/>
-      <c r="AL19" s="280"/>
-      <c r="AM19" s="281"/>
-      <c r="AN19" s="263"/>
-      <c r="AO19" s="263"/>
-      <c r="AP19" s="263"/>
-      <c r="AQ19" s="263"/>
-      <c r="AR19" s="263"/>
-      <c r="AS19" s="282"/>
-      <c r="AT19" s="283"/>
-      <c r="AU19" s="283"/>
-      <c r="AV19" s="283"/>
-      <c r="AW19" s="284"/>
+      <c r="B19" s="257"/>
+      <c r="C19" s="258"/>
+      <c r="D19" s="259"/>
+      <c r="E19" s="260"/>
+      <c r="F19" s="260"/>
+      <c r="G19" s="260"/>
+      <c r="H19" s="260"/>
+      <c r="I19" s="260"/>
+      <c r="J19" s="261"/>
+      <c r="K19" s="262"/>
+      <c r="L19" s="263"/>
+      <c r="M19" s="274"/>
+      <c r="N19" s="272"/>
+      <c r="O19" s="272"/>
+      <c r="P19" s="272"/>
+      <c r="Q19" s="272"/>
+      <c r="R19" s="273"/>
+      <c r="S19" s="267"/>
+      <c r="T19" s="267"/>
+      <c r="U19" s="267"/>
+      <c r="V19" s="268"/>
+      <c r="W19" s="269"/>
+      <c r="X19" s="269"/>
+      <c r="Y19" s="269"/>
+      <c r="Z19" s="269"/>
+      <c r="AA19" s="269"/>
+      <c r="AB19" s="269"/>
+      <c r="AC19" s="269"/>
+      <c r="AD19" s="269"/>
+      <c r="AE19" s="269"/>
+      <c r="AF19" s="269"/>
+      <c r="AG19" s="269"/>
+      <c r="AH19" s="269"/>
+      <c r="AI19" s="269"/>
+      <c r="AJ19" s="269"/>
+      <c r="AK19" s="269"/>
+      <c r="AL19" s="269"/>
+      <c r="AM19" s="270"/>
+      <c r="AN19" s="267"/>
+      <c r="AO19" s="267"/>
+      <c r="AP19" s="267"/>
+      <c r="AQ19" s="267"/>
+      <c r="AR19" s="267"/>
+      <c r="AS19" s="254"/>
+      <c r="AT19" s="255"/>
+      <c r="AU19" s="255"/>
+      <c r="AV19" s="255"/>
+      <c r="AW19" s="256"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="56"/>
-      <c r="B20" s="273"/>
-      <c r="C20" s="274"/>
-      <c r="D20" s="275"/>
-      <c r="E20" s="265"/>
-      <c r="F20" s="265"/>
-      <c r="G20" s="265"/>
-      <c r="H20" s="265"/>
-      <c r="I20" s="265"/>
-      <c r="J20" s="266"/>
-      <c r="K20" s="267"/>
-      <c r="L20" s="268"/>
-      <c r="M20" s="276"/>
-      <c r="N20" s="277"/>
-      <c r="O20" s="277"/>
-      <c r="P20" s="277"/>
-      <c r="Q20" s="277"/>
-      <c r="R20" s="278"/>
-      <c r="S20" s="282"/>
-      <c r="T20" s="283"/>
-      <c r="U20" s="284"/>
-      <c r="V20" s="279"/>
-      <c r="W20" s="280"/>
-      <c r="X20" s="280"/>
-      <c r="Y20" s="280"/>
-      <c r="Z20" s="280"/>
-      <c r="AA20" s="280"/>
-      <c r="AB20" s="280"/>
-      <c r="AC20" s="280"/>
-      <c r="AD20" s="280"/>
-      <c r="AE20" s="280"/>
-      <c r="AF20" s="280"/>
-      <c r="AG20" s="280"/>
-      <c r="AH20" s="280"/>
-      <c r="AI20" s="280"/>
-      <c r="AJ20" s="280"/>
-      <c r="AK20" s="280"/>
-      <c r="AL20" s="280"/>
-      <c r="AM20" s="281"/>
-      <c r="AN20" s="282"/>
-      <c r="AO20" s="283"/>
-      <c r="AP20" s="283"/>
-      <c r="AQ20" s="283"/>
-      <c r="AR20" s="284"/>
-      <c r="AS20" s="282"/>
-      <c r="AT20" s="283"/>
-      <c r="AU20" s="283"/>
-      <c r="AV20" s="283"/>
-      <c r="AW20" s="284"/>
+      <c r="B20" s="257"/>
+      <c r="C20" s="258"/>
+      <c r="D20" s="259"/>
+      <c r="E20" s="260"/>
+      <c r="F20" s="260"/>
+      <c r="G20" s="260"/>
+      <c r="H20" s="260"/>
+      <c r="I20" s="260"/>
+      <c r="J20" s="261"/>
+      <c r="K20" s="262"/>
+      <c r="L20" s="263"/>
+      <c r="M20" s="274"/>
+      <c r="N20" s="272"/>
+      <c r="O20" s="272"/>
+      <c r="P20" s="272"/>
+      <c r="Q20" s="272"/>
+      <c r="R20" s="273"/>
+      <c r="S20" s="254"/>
+      <c r="T20" s="255"/>
+      <c r="U20" s="256"/>
+      <c r="V20" s="268"/>
+      <c r="W20" s="269"/>
+      <c r="X20" s="269"/>
+      <c r="Y20" s="269"/>
+      <c r="Z20" s="269"/>
+      <c r="AA20" s="269"/>
+      <c r="AB20" s="269"/>
+      <c r="AC20" s="269"/>
+      <c r="AD20" s="269"/>
+      <c r="AE20" s="269"/>
+      <c r="AF20" s="269"/>
+      <c r="AG20" s="269"/>
+      <c r="AH20" s="269"/>
+      <c r="AI20" s="269"/>
+      <c r="AJ20" s="269"/>
+      <c r="AK20" s="269"/>
+      <c r="AL20" s="269"/>
+      <c r="AM20" s="270"/>
+      <c r="AN20" s="254"/>
+      <c r="AO20" s="255"/>
+      <c r="AP20" s="255"/>
+      <c r="AQ20" s="255"/>
+      <c r="AR20" s="256"/>
+      <c r="AS20" s="254"/>
+      <c r="AT20" s="255"/>
+      <c r="AU20" s="255"/>
+      <c r="AV20" s="255"/>
+      <c r="AW20" s="256"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="56"/>
-      <c r="B21" s="273"/>
-      <c r="C21" s="274"/>
-      <c r="D21" s="275"/>
-      <c r="E21" s="265"/>
-      <c r="F21" s="265"/>
-      <c r="G21" s="265"/>
-      <c r="H21" s="265"/>
-      <c r="I21" s="265"/>
-      <c r="J21" s="266"/>
-      <c r="K21" s="267"/>
-      <c r="L21" s="268"/>
-      <c r="M21" s="276"/>
-      <c r="N21" s="277"/>
-      <c r="O21" s="277"/>
-      <c r="P21" s="277"/>
-      <c r="Q21" s="277"/>
-      <c r="R21" s="278"/>
-      <c r="S21" s="263"/>
-      <c r="T21" s="263"/>
-      <c r="U21" s="263"/>
-      <c r="V21" s="279"/>
-      <c r="W21" s="280"/>
-      <c r="X21" s="280"/>
-      <c r="Y21" s="280"/>
-      <c r="Z21" s="280"/>
-      <c r="AA21" s="280"/>
-      <c r="AB21" s="280"/>
-      <c r="AC21" s="280"/>
-      <c r="AD21" s="280"/>
-      <c r="AE21" s="280"/>
-      <c r="AF21" s="280"/>
-      <c r="AG21" s="280"/>
-      <c r="AH21" s="280"/>
-      <c r="AI21" s="280"/>
-      <c r="AJ21" s="280"/>
-      <c r="AK21" s="280"/>
-      <c r="AL21" s="280"/>
-      <c r="AM21" s="281"/>
-      <c r="AN21" s="282"/>
-      <c r="AO21" s="283"/>
-      <c r="AP21" s="283"/>
-      <c r="AQ21" s="283"/>
-      <c r="AR21" s="284"/>
-      <c r="AS21" s="282"/>
-      <c r="AT21" s="283"/>
-      <c r="AU21" s="283"/>
-      <c r="AV21" s="283"/>
-      <c r="AW21" s="284"/>
+      <c r="B21" s="257"/>
+      <c r="C21" s="258"/>
+      <c r="D21" s="259"/>
+      <c r="E21" s="260"/>
+      <c r="F21" s="260"/>
+      <c r="G21" s="260"/>
+      <c r="H21" s="260"/>
+      <c r="I21" s="260"/>
+      <c r="J21" s="261"/>
+      <c r="K21" s="262"/>
+      <c r="L21" s="263"/>
+      <c r="M21" s="274"/>
+      <c r="N21" s="272"/>
+      <c r="O21" s="272"/>
+      <c r="P21" s="272"/>
+      <c r="Q21" s="272"/>
+      <c r="R21" s="273"/>
+      <c r="S21" s="267"/>
+      <c r="T21" s="267"/>
+      <c r="U21" s="267"/>
+      <c r="V21" s="268"/>
+      <c r="W21" s="269"/>
+      <c r="X21" s="269"/>
+      <c r="Y21" s="269"/>
+      <c r="Z21" s="269"/>
+      <c r="AA21" s="269"/>
+      <c r="AB21" s="269"/>
+      <c r="AC21" s="269"/>
+      <c r="AD21" s="269"/>
+      <c r="AE21" s="269"/>
+      <c r="AF21" s="269"/>
+      <c r="AG21" s="269"/>
+      <c r="AH21" s="269"/>
+      <c r="AI21" s="269"/>
+      <c r="AJ21" s="269"/>
+      <c r="AK21" s="269"/>
+      <c r="AL21" s="269"/>
+      <c r="AM21" s="270"/>
+      <c r="AN21" s="254"/>
+      <c r="AO21" s="255"/>
+      <c r="AP21" s="255"/>
+      <c r="AQ21" s="255"/>
+      <c r="AR21" s="256"/>
+      <c r="AS21" s="254"/>
+      <c r="AT21" s="255"/>
+      <c r="AU21" s="255"/>
+      <c r="AV21" s="255"/>
+      <c r="AW21" s="256"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="56"/>
-      <c r="B22" s="273"/>
-      <c r="C22" s="274"/>
-      <c r="D22" s="275"/>
-      <c r="E22" s="265"/>
-      <c r="F22" s="265"/>
-      <c r="G22" s="265"/>
-      <c r="H22" s="265"/>
-      <c r="I22" s="265"/>
-      <c r="J22" s="266"/>
-      <c r="K22" s="267"/>
-      <c r="L22" s="268"/>
-      <c r="M22" s="276"/>
-      <c r="N22" s="277"/>
-      <c r="O22" s="277"/>
-      <c r="P22" s="277"/>
-      <c r="Q22" s="277"/>
-      <c r="R22" s="278"/>
-      <c r="S22" s="263"/>
-      <c r="T22" s="263"/>
-      <c r="U22" s="263"/>
-      <c r="V22" s="279"/>
-      <c r="W22" s="280"/>
-      <c r="X22" s="280"/>
-      <c r="Y22" s="280"/>
-      <c r="Z22" s="280"/>
-      <c r="AA22" s="280"/>
-      <c r="AB22" s="280"/>
-      <c r="AC22" s="280"/>
-      <c r="AD22" s="280"/>
-      <c r="AE22" s="280"/>
-      <c r="AF22" s="280"/>
-      <c r="AG22" s="280"/>
-      <c r="AH22" s="280"/>
-      <c r="AI22" s="280"/>
-      <c r="AJ22" s="280"/>
-      <c r="AK22" s="280"/>
-      <c r="AL22" s="280"/>
-      <c r="AM22" s="281"/>
-      <c r="AN22" s="282"/>
-      <c r="AO22" s="283"/>
-      <c r="AP22" s="283"/>
-      <c r="AQ22" s="283"/>
-      <c r="AR22" s="284"/>
-      <c r="AS22" s="282"/>
-      <c r="AT22" s="283"/>
-      <c r="AU22" s="283"/>
-      <c r="AV22" s="283"/>
-      <c r="AW22" s="284"/>
+      <c r="B22" s="257"/>
+      <c r="C22" s="258"/>
+      <c r="D22" s="259"/>
+      <c r="E22" s="260"/>
+      <c r="F22" s="260"/>
+      <c r="G22" s="260"/>
+      <c r="H22" s="260"/>
+      <c r="I22" s="260"/>
+      <c r="J22" s="261"/>
+      <c r="K22" s="262"/>
+      <c r="L22" s="263"/>
+      <c r="M22" s="274"/>
+      <c r="N22" s="272"/>
+      <c r="O22" s="272"/>
+      <c r="P22" s="272"/>
+      <c r="Q22" s="272"/>
+      <c r="R22" s="273"/>
+      <c r="S22" s="267"/>
+      <c r="T22" s="267"/>
+      <c r="U22" s="267"/>
+      <c r="V22" s="268"/>
+      <c r="W22" s="269"/>
+      <c r="X22" s="269"/>
+      <c r="Y22" s="269"/>
+      <c r="Z22" s="269"/>
+      <c r="AA22" s="269"/>
+      <c r="AB22" s="269"/>
+      <c r="AC22" s="269"/>
+      <c r="AD22" s="269"/>
+      <c r="AE22" s="269"/>
+      <c r="AF22" s="269"/>
+      <c r="AG22" s="269"/>
+      <c r="AH22" s="269"/>
+      <c r="AI22" s="269"/>
+      <c r="AJ22" s="269"/>
+      <c r="AK22" s="269"/>
+      <c r="AL22" s="269"/>
+      <c r="AM22" s="270"/>
+      <c r="AN22" s="254"/>
+      <c r="AO22" s="255"/>
+      <c r="AP22" s="255"/>
+      <c r="AQ22" s="255"/>
+      <c r="AR22" s="256"/>
+      <c r="AS22" s="254"/>
+      <c r="AT22" s="255"/>
+      <c r="AU22" s="255"/>
+      <c r="AV22" s="255"/>
+      <c r="AW22" s="256"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="54"/>
-      <c r="B23" s="273"/>
-      <c r="C23" s="274"/>
-      <c r="D23" s="275"/>
-      <c r="E23" s="265"/>
-      <c r="F23" s="265"/>
-      <c r="G23" s="265"/>
-      <c r="H23" s="265"/>
-      <c r="I23" s="265"/>
-      <c r="J23" s="266"/>
-      <c r="K23" s="267"/>
-      <c r="L23" s="268"/>
-      <c r="M23" s="276"/>
-      <c r="N23" s="277"/>
-      <c r="O23" s="277"/>
-      <c r="P23" s="277"/>
-      <c r="Q23" s="277"/>
-      <c r="R23" s="278"/>
-      <c r="S23" s="263"/>
-      <c r="T23" s="263"/>
-      <c r="U23" s="263"/>
-      <c r="V23" s="279"/>
-      <c r="W23" s="280"/>
-      <c r="X23" s="280"/>
-      <c r="Y23" s="280"/>
-      <c r="Z23" s="280"/>
-      <c r="AA23" s="280"/>
-      <c r="AB23" s="280"/>
-      <c r="AC23" s="280"/>
-      <c r="AD23" s="280"/>
-      <c r="AE23" s="280"/>
-      <c r="AF23" s="280"/>
-      <c r="AG23" s="280"/>
-      <c r="AH23" s="280"/>
-      <c r="AI23" s="280"/>
-      <c r="AJ23" s="280"/>
-      <c r="AK23" s="280"/>
-      <c r="AL23" s="280"/>
-      <c r="AM23" s="281"/>
-      <c r="AN23" s="282"/>
-      <c r="AO23" s="283"/>
-      <c r="AP23" s="283"/>
-      <c r="AQ23" s="283"/>
-      <c r="AR23" s="284"/>
-      <c r="AS23" s="282"/>
-      <c r="AT23" s="283"/>
-      <c r="AU23" s="283"/>
-      <c r="AV23" s="283"/>
-      <c r="AW23" s="284"/>
+      <c r="B23" s="257"/>
+      <c r="C23" s="258"/>
+      <c r="D23" s="259"/>
+      <c r="E23" s="260"/>
+      <c r="F23" s="260"/>
+      <c r="G23" s="260"/>
+      <c r="H23" s="260"/>
+      <c r="I23" s="260"/>
+      <c r="J23" s="261"/>
+      <c r="K23" s="262"/>
+      <c r="L23" s="263"/>
+      <c r="M23" s="274"/>
+      <c r="N23" s="272"/>
+      <c r="O23" s="272"/>
+      <c r="P23" s="272"/>
+      <c r="Q23" s="272"/>
+      <c r="R23" s="273"/>
+      <c r="S23" s="267"/>
+      <c r="T23" s="267"/>
+      <c r="U23" s="267"/>
+      <c r="V23" s="268"/>
+      <c r="W23" s="269"/>
+      <c r="X23" s="269"/>
+      <c r="Y23" s="269"/>
+      <c r="Z23" s="269"/>
+      <c r="AA23" s="269"/>
+      <c r="AB23" s="269"/>
+      <c r="AC23" s="269"/>
+      <c r="AD23" s="269"/>
+      <c r="AE23" s="269"/>
+      <c r="AF23" s="269"/>
+      <c r="AG23" s="269"/>
+      <c r="AH23" s="269"/>
+      <c r="AI23" s="269"/>
+      <c r="AJ23" s="269"/>
+      <c r="AK23" s="269"/>
+      <c r="AL23" s="269"/>
+      <c r="AM23" s="270"/>
+      <c r="AN23" s="254"/>
+      <c r="AO23" s="255"/>
+      <c r="AP23" s="255"/>
+      <c r="AQ23" s="255"/>
+      <c r="AR23" s="256"/>
+      <c r="AS23" s="254"/>
+      <c r="AT23" s="255"/>
+      <c r="AU23" s="255"/>
+      <c r="AV23" s="255"/>
+      <c r="AW23" s="256"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="54"/>
-      <c r="B24" s="273"/>
-      <c r="C24" s="274"/>
-      <c r="D24" s="275"/>
-      <c r="E24" s="265"/>
-      <c r="F24" s="265"/>
-      <c r="G24" s="265"/>
-      <c r="H24" s="265"/>
-      <c r="I24" s="265"/>
-      <c r="J24" s="266"/>
-      <c r="K24" s="267"/>
-      <c r="L24" s="268"/>
-      <c r="M24" s="276"/>
-      <c r="N24" s="277"/>
-      <c r="O24" s="277"/>
-      <c r="P24" s="277"/>
-      <c r="Q24" s="277"/>
-      <c r="R24" s="278"/>
-      <c r="S24" s="263"/>
-      <c r="T24" s="263"/>
-      <c r="U24" s="263"/>
-      <c r="V24" s="279"/>
-      <c r="W24" s="280"/>
-      <c r="X24" s="280"/>
-      <c r="Y24" s="280"/>
-      <c r="Z24" s="280"/>
-      <c r="AA24" s="280"/>
-      <c r="AB24" s="280"/>
-      <c r="AC24" s="280"/>
-      <c r="AD24" s="280"/>
-      <c r="AE24" s="280"/>
-      <c r="AF24" s="280"/>
-      <c r="AG24" s="280"/>
-      <c r="AH24" s="280"/>
-      <c r="AI24" s="280"/>
-      <c r="AJ24" s="280"/>
-      <c r="AK24" s="280"/>
-      <c r="AL24" s="280"/>
-      <c r="AM24" s="281"/>
-      <c r="AN24" s="282"/>
-      <c r="AO24" s="283"/>
-      <c r="AP24" s="283"/>
-      <c r="AQ24" s="283"/>
-      <c r="AR24" s="284"/>
-      <c r="AS24" s="282"/>
-      <c r="AT24" s="283"/>
-      <c r="AU24" s="283"/>
-      <c r="AV24" s="283"/>
-      <c r="AW24" s="284"/>
+      <c r="B24" s="257"/>
+      <c r="C24" s="258"/>
+      <c r="D24" s="259"/>
+      <c r="E24" s="260"/>
+      <c r="F24" s="260"/>
+      <c r="G24" s="260"/>
+      <c r="H24" s="260"/>
+      <c r="I24" s="260"/>
+      <c r="J24" s="261"/>
+      <c r="K24" s="262"/>
+      <c r="L24" s="263"/>
+      <c r="M24" s="274"/>
+      <c r="N24" s="272"/>
+      <c r="O24" s="272"/>
+      <c r="P24" s="272"/>
+      <c r="Q24" s="272"/>
+      <c r="R24" s="273"/>
+      <c r="S24" s="267"/>
+      <c r="T24" s="267"/>
+      <c r="U24" s="267"/>
+      <c r="V24" s="268"/>
+      <c r="W24" s="269"/>
+      <c r="X24" s="269"/>
+      <c r="Y24" s="269"/>
+      <c r="Z24" s="269"/>
+      <c r="AA24" s="269"/>
+      <c r="AB24" s="269"/>
+      <c r="AC24" s="269"/>
+      <c r="AD24" s="269"/>
+      <c r="AE24" s="269"/>
+      <c r="AF24" s="269"/>
+      <c r="AG24" s="269"/>
+      <c r="AH24" s="269"/>
+      <c r="AI24" s="269"/>
+      <c r="AJ24" s="269"/>
+      <c r="AK24" s="269"/>
+      <c r="AL24" s="269"/>
+      <c r="AM24" s="270"/>
+      <c r="AN24" s="254"/>
+      <c r="AO24" s="255"/>
+      <c r="AP24" s="255"/>
+      <c r="AQ24" s="255"/>
+      <c r="AR24" s="256"/>
+      <c r="AS24" s="254"/>
+      <c r="AT24" s="255"/>
+      <c r="AU24" s="255"/>
+      <c r="AV24" s="255"/>
+      <c r="AW24" s="256"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="54"/>
-      <c r="B25" s="273"/>
-      <c r="C25" s="274"/>
-      <c r="D25" s="275"/>
-      <c r="E25" s="265"/>
-      <c r="F25" s="265"/>
-      <c r="G25" s="265"/>
-      <c r="H25" s="265"/>
-      <c r="I25" s="265"/>
-      <c r="J25" s="266"/>
-      <c r="K25" s="267"/>
-      <c r="L25" s="268"/>
-      <c r="M25" s="287"/>
-      <c r="N25" s="277"/>
-      <c r="O25" s="277"/>
-      <c r="P25" s="277"/>
-      <c r="Q25" s="277"/>
-      <c r="R25" s="278"/>
-      <c r="S25" s="263"/>
-      <c r="T25" s="263"/>
-      <c r="U25" s="263"/>
-      <c r="V25" s="279"/>
-      <c r="W25" s="280"/>
-      <c r="X25" s="280"/>
-      <c r="Y25" s="280"/>
-      <c r="Z25" s="280"/>
-      <c r="AA25" s="280"/>
-      <c r="AB25" s="280"/>
-      <c r="AC25" s="280"/>
-      <c r="AD25" s="280"/>
-      <c r="AE25" s="280"/>
-      <c r="AF25" s="280"/>
-      <c r="AG25" s="280"/>
-      <c r="AH25" s="280"/>
-      <c r="AI25" s="280"/>
-      <c r="AJ25" s="280"/>
-      <c r="AK25" s="280"/>
-      <c r="AL25" s="280"/>
-      <c r="AM25" s="281"/>
-      <c r="AN25" s="282"/>
-      <c r="AO25" s="283"/>
-      <c r="AP25" s="283"/>
-      <c r="AQ25" s="283"/>
-      <c r="AR25" s="284"/>
-      <c r="AS25" s="282"/>
-      <c r="AT25" s="283"/>
-      <c r="AU25" s="283"/>
-      <c r="AV25" s="283"/>
-      <c r="AW25" s="284"/>
+      <c r="B25" s="257"/>
+      <c r="C25" s="258"/>
+      <c r="D25" s="259"/>
+      <c r="E25" s="260"/>
+      <c r="F25" s="260"/>
+      <c r="G25" s="260"/>
+      <c r="H25" s="260"/>
+      <c r="I25" s="260"/>
+      <c r="J25" s="261"/>
+      <c r="K25" s="262"/>
+      <c r="L25" s="263"/>
+      <c r="M25" s="271"/>
+      <c r="N25" s="272"/>
+      <c r="O25" s="272"/>
+      <c r="P25" s="272"/>
+      <c r="Q25" s="272"/>
+      <c r="R25" s="273"/>
+      <c r="S25" s="267"/>
+      <c r="T25" s="267"/>
+      <c r="U25" s="267"/>
+      <c r="V25" s="268"/>
+      <c r="W25" s="269"/>
+      <c r="X25" s="269"/>
+      <c r="Y25" s="269"/>
+      <c r="Z25" s="269"/>
+      <c r="AA25" s="269"/>
+      <c r="AB25" s="269"/>
+      <c r="AC25" s="269"/>
+      <c r="AD25" s="269"/>
+      <c r="AE25" s="269"/>
+      <c r="AF25" s="269"/>
+      <c r="AG25" s="269"/>
+      <c r="AH25" s="269"/>
+      <c r="AI25" s="269"/>
+      <c r="AJ25" s="269"/>
+      <c r="AK25" s="269"/>
+      <c r="AL25" s="269"/>
+      <c r="AM25" s="270"/>
+      <c r="AN25" s="254"/>
+      <c r="AO25" s="255"/>
+      <c r="AP25" s="255"/>
+      <c r="AQ25" s="255"/>
+      <c r="AR25" s="256"/>
+      <c r="AS25" s="254"/>
+      <c r="AT25" s="255"/>
+      <c r="AU25" s="255"/>
+      <c r="AV25" s="255"/>
+      <c r="AW25" s="256"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="54"/>
-      <c r="B26" s="273"/>
-      <c r="C26" s="274"/>
-      <c r="D26" s="275"/>
-      <c r="E26" s="265"/>
-      <c r="F26" s="265"/>
-      <c r="G26" s="265"/>
-      <c r="H26" s="265"/>
-      <c r="I26" s="265"/>
-      <c r="J26" s="266"/>
-      <c r="K26" s="267"/>
-      <c r="L26" s="268"/>
-      <c r="M26" s="287"/>
-      <c r="N26" s="277"/>
-      <c r="O26" s="277"/>
-      <c r="P26" s="277"/>
-      <c r="Q26" s="277"/>
-      <c r="R26" s="278"/>
-      <c r="S26" s="263"/>
-      <c r="T26" s="263"/>
-      <c r="U26" s="263"/>
-      <c r="V26" s="279"/>
-      <c r="W26" s="280"/>
-      <c r="X26" s="280"/>
-      <c r="Y26" s="280"/>
-      <c r="Z26" s="280"/>
-      <c r="AA26" s="280"/>
-      <c r="AB26" s="280"/>
-      <c r="AC26" s="280"/>
-      <c r="AD26" s="280"/>
-      <c r="AE26" s="280"/>
-      <c r="AF26" s="280"/>
-      <c r="AG26" s="280"/>
-      <c r="AH26" s="280"/>
-      <c r="AI26" s="280"/>
-      <c r="AJ26" s="280"/>
-      <c r="AK26" s="280"/>
-      <c r="AL26" s="280"/>
-      <c r="AM26" s="281"/>
-      <c r="AN26" s="282"/>
-      <c r="AO26" s="283"/>
-      <c r="AP26" s="283"/>
-      <c r="AQ26" s="283"/>
-      <c r="AR26" s="284"/>
-      <c r="AS26" s="282"/>
-      <c r="AT26" s="283"/>
-      <c r="AU26" s="283"/>
-      <c r="AV26" s="283"/>
-      <c r="AW26" s="284"/>
+      <c r="B26" s="257"/>
+      <c r="C26" s="258"/>
+      <c r="D26" s="259"/>
+      <c r="E26" s="260"/>
+      <c r="F26" s="260"/>
+      <c r="G26" s="260"/>
+      <c r="H26" s="260"/>
+      <c r="I26" s="260"/>
+      <c r="J26" s="261"/>
+      <c r="K26" s="262"/>
+      <c r="L26" s="263"/>
+      <c r="M26" s="271"/>
+      <c r="N26" s="272"/>
+      <c r="O26" s="272"/>
+      <c r="P26" s="272"/>
+      <c r="Q26" s="272"/>
+      <c r="R26" s="273"/>
+      <c r="S26" s="267"/>
+      <c r="T26" s="267"/>
+      <c r="U26" s="267"/>
+      <c r="V26" s="268"/>
+      <c r="W26" s="269"/>
+      <c r="X26" s="269"/>
+      <c r="Y26" s="269"/>
+      <c r="Z26" s="269"/>
+      <c r="AA26" s="269"/>
+      <c r="AB26" s="269"/>
+      <c r="AC26" s="269"/>
+      <c r="AD26" s="269"/>
+      <c r="AE26" s="269"/>
+      <c r="AF26" s="269"/>
+      <c r="AG26" s="269"/>
+      <c r="AH26" s="269"/>
+      <c r="AI26" s="269"/>
+      <c r="AJ26" s="269"/>
+      <c r="AK26" s="269"/>
+      <c r="AL26" s="269"/>
+      <c r="AM26" s="270"/>
+      <c r="AN26" s="254"/>
+      <c r="AO26" s="255"/>
+      <c r="AP26" s="255"/>
+      <c r="AQ26" s="255"/>
+      <c r="AR26" s="256"/>
+      <c r="AS26" s="254"/>
+      <c r="AT26" s="255"/>
+      <c r="AU26" s="255"/>
+      <c r="AV26" s="255"/>
+      <c r="AW26" s="256"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="54"/>
-      <c r="B27" s="273"/>
-      <c r="C27" s="274"/>
-      <c r="D27" s="275"/>
-      <c r="E27" s="265"/>
-      <c r="F27" s="265"/>
-      <c r="G27" s="265"/>
-      <c r="H27" s="265"/>
-      <c r="I27" s="265"/>
-      <c r="J27" s="266"/>
-      <c r="K27" s="267"/>
-      <c r="L27" s="268"/>
-      <c r="M27" s="287"/>
-      <c r="N27" s="277"/>
-      <c r="O27" s="277"/>
-      <c r="P27" s="277"/>
-      <c r="Q27" s="277"/>
-      <c r="R27" s="278"/>
-      <c r="S27" s="263"/>
-      <c r="T27" s="263"/>
-      <c r="U27" s="263"/>
-      <c r="V27" s="279"/>
-      <c r="W27" s="280"/>
-      <c r="X27" s="280"/>
-      <c r="Y27" s="280"/>
-      <c r="Z27" s="280"/>
-      <c r="AA27" s="280"/>
-      <c r="AB27" s="280"/>
-      <c r="AC27" s="280"/>
-      <c r="AD27" s="280"/>
-      <c r="AE27" s="280"/>
-      <c r="AF27" s="280"/>
-      <c r="AG27" s="280"/>
-      <c r="AH27" s="280"/>
-      <c r="AI27" s="280"/>
-      <c r="AJ27" s="280"/>
-      <c r="AK27" s="280"/>
-      <c r="AL27" s="280"/>
-      <c r="AM27" s="281"/>
-      <c r="AN27" s="282"/>
-      <c r="AO27" s="283"/>
-      <c r="AP27" s="283"/>
-      <c r="AQ27" s="283"/>
-      <c r="AR27" s="284"/>
-      <c r="AS27" s="282"/>
-      <c r="AT27" s="283"/>
-      <c r="AU27" s="283"/>
-      <c r="AV27" s="283"/>
-      <c r="AW27" s="284"/>
+      <c r="B27" s="257"/>
+      <c r="C27" s="258"/>
+      <c r="D27" s="259"/>
+      <c r="E27" s="260"/>
+      <c r="F27" s="260"/>
+      <c r="G27" s="260"/>
+      <c r="H27" s="260"/>
+      <c r="I27" s="260"/>
+      <c r="J27" s="261"/>
+      <c r="K27" s="262"/>
+      <c r="L27" s="263"/>
+      <c r="M27" s="271"/>
+      <c r="N27" s="272"/>
+      <c r="O27" s="272"/>
+      <c r="P27" s="272"/>
+      <c r="Q27" s="272"/>
+      <c r="R27" s="273"/>
+      <c r="S27" s="267"/>
+      <c r="T27" s="267"/>
+      <c r="U27" s="267"/>
+      <c r="V27" s="268"/>
+      <c r="W27" s="269"/>
+      <c r="X27" s="269"/>
+      <c r="Y27" s="269"/>
+      <c r="Z27" s="269"/>
+      <c r="AA27" s="269"/>
+      <c r="AB27" s="269"/>
+      <c r="AC27" s="269"/>
+      <c r="AD27" s="269"/>
+      <c r="AE27" s="269"/>
+      <c r="AF27" s="269"/>
+      <c r="AG27" s="269"/>
+      <c r="AH27" s="269"/>
+      <c r="AI27" s="269"/>
+      <c r="AJ27" s="269"/>
+      <c r="AK27" s="269"/>
+      <c r="AL27" s="269"/>
+      <c r="AM27" s="270"/>
+      <c r="AN27" s="254"/>
+      <c r="AO27" s="255"/>
+      <c r="AP27" s="255"/>
+      <c r="AQ27" s="255"/>
+      <c r="AR27" s="256"/>
+      <c r="AS27" s="254"/>
+      <c r="AT27" s="255"/>
+      <c r="AU27" s="255"/>
+      <c r="AV27" s="255"/>
+      <c r="AW27" s="256"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="54"/>
-      <c r="B28" s="273"/>
-      <c r="C28" s="274"/>
-      <c r="D28" s="275"/>
-      <c r="E28" s="265"/>
-      <c r="F28" s="265"/>
-      <c r="G28" s="265"/>
-      <c r="H28" s="265"/>
-      <c r="I28" s="265"/>
-      <c r="J28" s="266"/>
-      <c r="K28" s="267"/>
-      <c r="L28" s="268"/>
-      <c r="M28" s="276"/>
-      <c r="N28" s="277"/>
-      <c r="O28" s="277"/>
-      <c r="P28" s="277"/>
-      <c r="Q28" s="277"/>
-      <c r="R28" s="278"/>
-      <c r="S28" s="263"/>
-      <c r="T28" s="263"/>
-      <c r="U28" s="263"/>
-      <c r="V28" s="279"/>
-      <c r="W28" s="280"/>
-      <c r="X28" s="280"/>
-      <c r="Y28" s="280"/>
-      <c r="Z28" s="280"/>
-      <c r="AA28" s="280"/>
-      <c r="AB28" s="280"/>
-      <c r="AC28" s="280"/>
-      <c r="AD28" s="280"/>
-      <c r="AE28" s="280"/>
-      <c r="AF28" s="280"/>
-      <c r="AG28" s="280"/>
-      <c r="AH28" s="280"/>
-      <c r="AI28" s="280"/>
-      <c r="AJ28" s="280"/>
-      <c r="AK28" s="280"/>
-      <c r="AL28" s="280"/>
-      <c r="AM28" s="281"/>
-      <c r="AN28" s="282"/>
-      <c r="AO28" s="283"/>
-      <c r="AP28" s="283"/>
-      <c r="AQ28" s="283"/>
-      <c r="AR28" s="284"/>
-      <c r="AS28" s="282"/>
-      <c r="AT28" s="283"/>
-      <c r="AU28" s="283"/>
-      <c r="AV28" s="283"/>
-      <c r="AW28" s="284"/>
+      <c r="B28" s="257"/>
+      <c r="C28" s="258"/>
+      <c r="D28" s="259"/>
+      <c r="E28" s="260"/>
+      <c r="F28" s="260"/>
+      <c r="G28" s="260"/>
+      <c r="H28" s="260"/>
+      <c r="I28" s="260"/>
+      <c r="J28" s="261"/>
+      <c r="K28" s="262"/>
+      <c r="L28" s="263"/>
+      <c r="M28" s="274"/>
+      <c r="N28" s="272"/>
+      <c r="O28" s="272"/>
+      <c r="P28" s="272"/>
+      <c r="Q28" s="272"/>
+      <c r="R28" s="273"/>
+      <c r="S28" s="267"/>
+      <c r="T28" s="267"/>
+      <c r="U28" s="267"/>
+      <c r="V28" s="268"/>
+      <c r="W28" s="269"/>
+      <c r="X28" s="269"/>
+      <c r="Y28" s="269"/>
+      <c r="Z28" s="269"/>
+      <c r="AA28" s="269"/>
+      <c r="AB28" s="269"/>
+      <c r="AC28" s="269"/>
+      <c r="AD28" s="269"/>
+      <c r="AE28" s="269"/>
+      <c r="AF28" s="269"/>
+      <c r="AG28" s="269"/>
+      <c r="AH28" s="269"/>
+      <c r="AI28" s="269"/>
+      <c r="AJ28" s="269"/>
+      <c r="AK28" s="269"/>
+      <c r="AL28" s="269"/>
+      <c r="AM28" s="270"/>
+      <c r="AN28" s="254"/>
+      <c r="AO28" s="255"/>
+      <c r="AP28" s="255"/>
+      <c r="AQ28" s="255"/>
+      <c r="AR28" s="256"/>
+      <c r="AS28" s="254"/>
+      <c r="AT28" s="255"/>
+      <c r="AU28" s="255"/>
+      <c r="AV28" s="255"/>
+      <c r="AW28" s="256"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="54"/>
-      <c r="B29" s="273"/>
-      <c r="C29" s="274"/>
-      <c r="D29" s="275"/>
-      <c r="E29" s="265"/>
-      <c r="F29" s="265"/>
-      <c r="G29" s="265"/>
-      <c r="H29" s="265"/>
-      <c r="I29" s="265"/>
-      <c r="J29" s="266"/>
-      <c r="K29" s="267"/>
-      <c r="L29" s="268"/>
-      <c r="M29" s="276"/>
-      <c r="N29" s="277"/>
-      <c r="O29" s="277"/>
-      <c r="P29" s="277"/>
-      <c r="Q29" s="277"/>
-      <c r="R29" s="278"/>
-      <c r="S29" s="263"/>
-      <c r="T29" s="263"/>
-      <c r="U29" s="263"/>
-      <c r="V29" s="279"/>
-      <c r="W29" s="280"/>
-      <c r="X29" s="280"/>
-      <c r="Y29" s="280"/>
-      <c r="Z29" s="280"/>
-      <c r="AA29" s="280"/>
-      <c r="AB29" s="280"/>
-      <c r="AC29" s="280"/>
-      <c r="AD29" s="280"/>
-      <c r="AE29" s="280"/>
-      <c r="AF29" s="280"/>
-      <c r="AG29" s="280"/>
-      <c r="AH29" s="280"/>
-      <c r="AI29" s="280"/>
-      <c r="AJ29" s="280"/>
-      <c r="AK29" s="280"/>
-      <c r="AL29" s="280"/>
-      <c r="AM29" s="281"/>
-      <c r="AN29" s="282"/>
-      <c r="AO29" s="283"/>
-      <c r="AP29" s="283"/>
-      <c r="AQ29" s="283"/>
-      <c r="AR29" s="284"/>
-      <c r="AS29" s="282"/>
-      <c r="AT29" s="283"/>
-      <c r="AU29" s="283"/>
-      <c r="AV29" s="283"/>
-      <c r="AW29" s="284"/>
+      <c r="B29" s="257"/>
+      <c r="C29" s="258"/>
+      <c r="D29" s="259"/>
+      <c r="E29" s="260"/>
+      <c r="F29" s="260"/>
+      <c r="G29" s="260"/>
+      <c r="H29" s="260"/>
+      <c r="I29" s="260"/>
+      <c r="J29" s="261"/>
+      <c r="K29" s="262"/>
+      <c r="L29" s="263"/>
+      <c r="M29" s="274"/>
+      <c r="N29" s="272"/>
+      <c r="O29" s="272"/>
+      <c r="P29" s="272"/>
+      <c r="Q29" s="272"/>
+      <c r="R29" s="273"/>
+      <c r="S29" s="267"/>
+      <c r="T29" s="267"/>
+      <c r="U29" s="267"/>
+      <c r="V29" s="268"/>
+      <c r="W29" s="269"/>
+      <c r="X29" s="269"/>
+      <c r="Y29" s="269"/>
+      <c r="Z29" s="269"/>
+      <c r="AA29" s="269"/>
+      <c r="AB29" s="269"/>
+      <c r="AC29" s="269"/>
+      <c r="AD29" s="269"/>
+      <c r="AE29" s="269"/>
+      <c r="AF29" s="269"/>
+      <c r="AG29" s="269"/>
+      <c r="AH29" s="269"/>
+      <c r="AI29" s="269"/>
+      <c r="AJ29" s="269"/>
+      <c r="AK29" s="269"/>
+      <c r="AL29" s="269"/>
+      <c r="AM29" s="270"/>
+      <c r="AN29" s="254"/>
+      <c r="AO29" s="255"/>
+      <c r="AP29" s="255"/>
+      <c r="AQ29" s="255"/>
+      <c r="AR29" s="256"/>
+      <c r="AS29" s="254"/>
+      <c r="AT29" s="255"/>
+      <c r="AU29" s="255"/>
+      <c r="AV29" s="255"/>
+      <c r="AW29" s="256"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="54"/>
-      <c r="B30" s="273"/>
-      <c r="C30" s="274"/>
-      <c r="D30" s="275"/>
-      <c r="E30" s="265"/>
-      <c r="F30" s="265"/>
-      <c r="G30" s="265"/>
-      <c r="H30" s="265"/>
-      <c r="I30" s="265"/>
-      <c r="J30" s="266"/>
-      <c r="K30" s="267"/>
-      <c r="L30" s="268"/>
-      <c r="M30" s="287"/>
-      <c r="N30" s="277"/>
-      <c r="O30" s="277"/>
-      <c r="P30" s="277"/>
-      <c r="Q30" s="277"/>
-      <c r="R30" s="278"/>
-      <c r="S30" s="263"/>
-      <c r="T30" s="263"/>
-      <c r="U30" s="263"/>
-      <c r="V30" s="279"/>
-      <c r="W30" s="280"/>
-      <c r="X30" s="280"/>
-      <c r="Y30" s="280"/>
-      <c r="Z30" s="280"/>
-      <c r="AA30" s="280"/>
-      <c r="AB30" s="280"/>
-      <c r="AC30" s="280"/>
-      <c r="AD30" s="280"/>
-      <c r="AE30" s="280"/>
-      <c r="AF30" s="280"/>
-      <c r="AG30" s="280"/>
-      <c r="AH30" s="280"/>
-      <c r="AI30" s="280"/>
-      <c r="AJ30" s="280"/>
-      <c r="AK30" s="280"/>
-      <c r="AL30" s="280"/>
-      <c r="AM30" s="281"/>
-      <c r="AN30" s="282"/>
-      <c r="AO30" s="283"/>
-      <c r="AP30" s="283"/>
-      <c r="AQ30" s="283"/>
-      <c r="AR30" s="284"/>
-      <c r="AS30" s="282"/>
-      <c r="AT30" s="283"/>
-      <c r="AU30" s="283"/>
-      <c r="AV30" s="283"/>
-      <c r="AW30" s="284"/>
+      <c r="B30" s="257"/>
+      <c r="C30" s="258"/>
+      <c r="D30" s="259"/>
+      <c r="E30" s="260"/>
+      <c r="F30" s="260"/>
+      <c r="G30" s="260"/>
+      <c r="H30" s="260"/>
+      <c r="I30" s="260"/>
+      <c r="J30" s="261"/>
+      <c r="K30" s="262"/>
+      <c r="L30" s="263"/>
+      <c r="M30" s="271"/>
+      <c r="N30" s="272"/>
+      <c r="O30" s="272"/>
+      <c r="P30" s="272"/>
+      <c r="Q30" s="272"/>
+      <c r="R30" s="273"/>
+      <c r="S30" s="267"/>
+      <c r="T30" s="267"/>
+      <c r="U30" s="267"/>
+      <c r="V30" s="268"/>
+      <c r="W30" s="269"/>
+      <c r="X30" s="269"/>
+      <c r="Y30" s="269"/>
+      <c r="Z30" s="269"/>
+      <c r="AA30" s="269"/>
+      <c r="AB30" s="269"/>
+      <c r="AC30" s="269"/>
+      <c r="AD30" s="269"/>
+      <c r="AE30" s="269"/>
+      <c r="AF30" s="269"/>
+      <c r="AG30" s="269"/>
+      <c r="AH30" s="269"/>
+      <c r="AI30" s="269"/>
+      <c r="AJ30" s="269"/>
+      <c r="AK30" s="269"/>
+      <c r="AL30" s="269"/>
+      <c r="AM30" s="270"/>
+      <c r="AN30" s="254"/>
+      <c r="AO30" s="255"/>
+      <c r="AP30" s="255"/>
+      <c r="AQ30" s="255"/>
+      <c r="AR30" s="256"/>
+      <c r="AS30" s="254"/>
+      <c r="AT30" s="255"/>
+      <c r="AU30" s="255"/>
+      <c r="AV30" s="255"/>
+      <c r="AW30" s="256"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="54"/>
-      <c r="B31" s="273"/>
-      <c r="C31" s="274"/>
-      <c r="D31" s="275"/>
-      <c r="E31" s="265"/>
-      <c r="F31" s="265"/>
-      <c r="G31" s="265"/>
-      <c r="H31" s="265"/>
-      <c r="I31" s="265"/>
-      <c r="J31" s="266"/>
-      <c r="K31" s="267"/>
-      <c r="L31" s="268"/>
-      <c r="M31" s="287"/>
-      <c r="N31" s="277"/>
-      <c r="O31" s="277"/>
-      <c r="P31" s="277"/>
-      <c r="Q31" s="277"/>
-      <c r="R31" s="278"/>
-      <c r="S31" s="263"/>
-      <c r="T31" s="263"/>
-      <c r="U31" s="263"/>
-      <c r="V31" s="279"/>
-      <c r="W31" s="280"/>
-      <c r="X31" s="280"/>
-      <c r="Y31" s="280"/>
-      <c r="Z31" s="280"/>
-      <c r="AA31" s="280"/>
-      <c r="AB31" s="280"/>
-      <c r="AC31" s="280"/>
-      <c r="AD31" s="280"/>
-      <c r="AE31" s="280"/>
-      <c r="AF31" s="280"/>
-      <c r="AG31" s="280"/>
-      <c r="AH31" s="280"/>
-      <c r="AI31" s="280"/>
-      <c r="AJ31" s="280"/>
-      <c r="AK31" s="280"/>
-      <c r="AL31" s="280"/>
-      <c r="AM31" s="281"/>
-      <c r="AN31" s="282"/>
-      <c r="AO31" s="283"/>
-      <c r="AP31" s="283"/>
-      <c r="AQ31" s="283"/>
-      <c r="AR31" s="284"/>
-      <c r="AS31" s="282"/>
-      <c r="AT31" s="283"/>
-      <c r="AU31" s="283"/>
-      <c r="AV31" s="283"/>
-      <c r="AW31" s="284"/>
+      <c r="B31" s="257"/>
+      <c r="C31" s="258"/>
+      <c r="D31" s="259"/>
+      <c r="E31" s="260"/>
+      <c r="F31" s="260"/>
+      <c r="G31" s="260"/>
+      <c r="H31" s="260"/>
+      <c r="I31" s="260"/>
+      <c r="J31" s="261"/>
+      <c r="K31" s="262"/>
+      <c r="L31" s="263"/>
+      <c r="M31" s="271"/>
+      <c r="N31" s="272"/>
+      <c r="O31" s="272"/>
+      <c r="P31" s="272"/>
+      <c r="Q31" s="272"/>
+      <c r="R31" s="273"/>
+      <c r="S31" s="267"/>
+      <c r="T31" s="267"/>
+      <c r="U31" s="267"/>
+      <c r="V31" s="268"/>
+      <c r="W31" s="269"/>
+      <c r="X31" s="269"/>
+      <c r="Y31" s="269"/>
+      <c r="Z31" s="269"/>
+      <c r="AA31" s="269"/>
+      <c r="AB31" s="269"/>
+      <c r="AC31" s="269"/>
+      <c r="AD31" s="269"/>
+      <c r="AE31" s="269"/>
+      <c r="AF31" s="269"/>
+      <c r="AG31" s="269"/>
+      <c r="AH31" s="269"/>
+      <c r="AI31" s="269"/>
+      <c r="AJ31" s="269"/>
+      <c r="AK31" s="269"/>
+      <c r="AL31" s="269"/>
+      <c r="AM31" s="270"/>
+      <c r="AN31" s="254"/>
+      <c r="AO31" s="255"/>
+      <c r="AP31" s="255"/>
+      <c r="AQ31" s="255"/>
+      <c r="AR31" s="256"/>
+      <c r="AS31" s="254"/>
+      <c r="AT31" s="255"/>
+      <c r="AU31" s="255"/>
+      <c r="AV31" s="255"/>
+      <c r="AW31" s="256"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="54"/>
-      <c r="B32" s="273"/>
-      <c r="C32" s="274"/>
-      <c r="D32" s="275"/>
-      <c r="E32" s="265"/>
-      <c r="F32" s="265"/>
-      <c r="G32" s="265"/>
-      <c r="H32" s="265"/>
-      <c r="I32" s="265"/>
-      <c r="J32" s="266"/>
-      <c r="K32" s="267"/>
-      <c r="L32" s="268"/>
-      <c r="M32" s="287"/>
-      <c r="N32" s="277"/>
-      <c r="O32" s="277"/>
-      <c r="P32" s="277"/>
-      <c r="Q32" s="277"/>
-      <c r="R32" s="278"/>
-      <c r="S32" s="263"/>
-      <c r="T32" s="263"/>
-      <c r="U32" s="263"/>
-      <c r="V32" s="279"/>
-      <c r="W32" s="280"/>
-      <c r="X32" s="280"/>
-      <c r="Y32" s="280"/>
-      <c r="Z32" s="280"/>
-      <c r="AA32" s="280"/>
-      <c r="AB32" s="280"/>
-      <c r="AC32" s="280"/>
-      <c r="AD32" s="280"/>
-      <c r="AE32" s="280"/>
-      <c r="AF32" s="280"/>
-      <c r="AG32" s="280"/>
-      <c r="AH32" s="280"/>
-      <c r="AI32" s="280"/>
-      <c r="AJ32" s="280"/>
-      <c r="AK32" s="280"/>
-      <c r="AL32" s="280"/>
-      <c r="AM32" s="281"/>
-      <c r="AN32" s="282"/>
-      <c r="AO32" s="283"/>
-      <c r="AP32" s="283"/>
-      <c r="AQ32" s="283"/>
-      <c r="AR32" s="284"/>
-      <c r="AS32" s="282"/>
-      <c r="AT32" s="283"/>
-      <c r="AU32" s="283"/>
-      <c r="AV32" s="283"/>
-      <c r="AW32" s="284"/>
+      <c r="B32" s="257"/>
+      <c r="C32" s="258"/>
+      <c r="D32" s="259"/>
+      <c r="E32" s="260"/>
+      <c r="F32" s="260"/>
+      <c r="G32" s="260"/>
+      <c r="H32" s="260"/>
+      <c r="I32" s="260"/>
+      <c r="J32" s="261"/>
+      <c r="K32" s="262"/>
+      <c r="L32" s="263"/>
+      <c r="M32" s="271"/>
+      <c r="N32" s="272"/>
+      <c r="O32" s="272"/>
+      <c r="P32" s="272"/>
+      <c r="Q32" s="272"/>
+      <c r="R32" s="273"/>
+      <c r="S32" s="267"/>
+      <c r="T32" s="267"/>
+      <c r="U32" s="267"/>
+      <c r="V32" s="268"/>
+      <c r="W32" s="269"/>
+      <c r="X32" s="269"/>
+      <c r="Y32" s="269"/>
+      <c r="Z32" s="269"/>
+      <c r="AA32" s="269"/>
+      <c r="AB32" s="269"/>
+      <c r="AC32" s="269"/>
+      <c r="AD32" s="269"/>
+      <c r="AE32" s="269"/>
+      <c r="AF32" s="269"/>
+      <c r="AG32" s="269"/>
+      <c r="AH32" s="269"/>
+      <c r="AI32" s="269"/>
+      <c r="AJ32" s="269"/>
+      <c r="AK32" s="269"/>
+      <c r="AL32" s="269"/>
+      <c r="AM32" s="270"/>
+      <c r="AN32" s="254"/>
+      <c r="AO32" s="255"/>
+      <c r="AP32" s="255"/>
+      <c r="AQ32" s="255"/>
+      <c r="AR32" s="256"/>
+      <c r="AS32" s="254"/>
+      <c r="AT32" s="255"/>
+      <c r="AU32" s="255"/>
+      <c r="AV32" s="255"/>
+      <c r="AW32" s="256"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="273"/>
-      <c r="C33" s="274"/>
-      <c r="D33" s="275"/>
-      <c r="E33" s="265"/>
-      <c r="F33" s="265"/>
-      <c r="G33" s="265"/>
-      <c r="H33" s="265"/>
-      <c r="I33" s="265"/>
-      <c r="J33" s="266"/>
-      <c r="K33" s="267"/>
-      <c r="L33" s="268"/>
-      <c r="M33" s="287"/>
-      <c r="N33" s="277"/>
-      <c r="O33" s="277"/>
-      <c r="P33" s="277"/>
-      <c r="Q33" s="277"/>
-      <c r="R33" s="278"/>
-      <c r="S33" s="263"/>
-      <c r="T33" s="263"/>
-      <c r="U33" s="263"/>
-      <c r="V33" s="279"/>
-      <c r="W33" s="280"/>
-      <c r="X33" s="280"/>
-      <c r="Y33" s="280"/>
-      <c r="Z33" s="280"/>
-      <c r="AA33" s="280"/>
-      <c r="AB33" s="280"/>
-      <c r="AC33" s="280"/>
-      <c r="AD33" s="280"/>
-      <c r="AE33" s="280"/>
-      <c r="AF33" s="280"/>
-      <c r="AG33" s="280"/>
-      <c r="AH33" s="280"/>
-      <c r="AI33" s="280"/>
-      <c r="AJ33" s="280"/>
-      <c r="AK33" s="280"/>
-      <c r="AL33" s="280"/>
-      <c r="AM33" s="281"/>
-      <c r="AN33" s="282"/>
-      <c r="AO33" s="283"/>
-      <c r="AP33" s="283"/>
-      <c r="AQ33" s="283"/>
-      <c r="AR33" s="284"/>
-      <c r="AS33" s="282"/>
-      <c r="AT33" s="283"/>
-      <c r="AU33" s="283"/>
-      <c r="AV33" s="283"/>
-      <c r="AW33" s="284"/>
+      <c r="B33" s="257"/>
+      <c r="C33" s="258"/>
+      <c r="D33" s="259"/>
+      <c r="E33" s="260"/>
+      <c r="F33" s="260"/>
+      <c r="G33" s="260"/>
+      <c r="H33" s="260"/>
+      <c r="I33" s="260"/>
+      <c r="J33" s="261"/>
+      <c r="K33" s="262"/>
+      <c r="L33" s="263"/>
+      <c r="M33" s="271"/>
+      <c r="N33" s="272"/>
+      <c r="O33" s="272"/>
+      <c r="P33" s="272"/>
+      <c r="Q33" s="272"/>
+      <c r="R33" s="273"/>
+      <c r="S33" s="267"/>
+      <c r="T33" s="267"/>
+      <c r="U33" s="267"/>
+      <c r="V33" s="268"/>
+      <c r="W33" s="269"/>
+      <c r="X33" s="269"/>
+      <c r="Y33" s="269"/>
+      <c r="Z33" s="269"/>
+      <c r="AA33" s="269"/>
+      <c r="AB33" s="269"/>
+      <c r="AC33" s="269"/>
+      <c r="AD33" s="269"/>
+      <c r="AE33" s="269"/>
+      <c r="AF33" s="269"/>
+      <c r="AG33" s="269"/>
+      <c r="AH33" s="269"/>
+      <c r="AI33" s="269"/>
+      <c r="AJ33" s="269"/>
+      <c r="AK33" s="269"/>
+      <c r="AL33" s="269"/>
+      <c r="AM33" s="270"/>
+      <c r="AN33" s="254"/>
+      <c r="AO33" s="255"/>
+      <c r="AP33" s="255"/>
+      <c r="AQ33" s="255"/>
+      <c r="AR33" s="256"/>
+      <c r="AS33" s="254"/>
+      <c r="AT33" s="255"/>
+      <c r="AU33" s="255"/>
+      <c r="AV33" s="255"/>
+      <c r="AW33" s="256"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="273"/>
-      <c r="C34" s="274"/>
-      <c r="D34" s="275"/>
-      <c r="E34" s="265"/>
-      <c r="F34" s="265"/>
-      <c r="G34" s="265"/>
-      <c r="H34" s="265"/>
-      <c r="I34" s="265"/>
-      <c r="J34" s="266"/>
-      <c r="K34" s="267"/>
-      <c r="L34" s="268"/>
-      <c r="M34" s="291"/>
-      <c r="N34" s="292"/>
-      <c r="O34" s="292"/>
-      <c r="P34" s="292"/>
-      <c r="Q34" s="292"/>
-      <c r="R34" s="293"/>
-      <c r="S34" s="263"/>
-      <c r="T34" s="263"/>
-      <c r="U34" s="263"/>
-      <c r="V34" s="279"/>
-      <c r="W34" s="280"/>
-      <c r="X34" s="280"/>
-      <c r="Y34" s="280"/>
-      <c r="Z34" s="280"/>
-      <c r="AA34" s="280"/>
-      <c r="AB34" s="280"/>
-      <c r="AC34" s="280"/>
-      <c r="AD34" s="280"/>
-      <c r="AE34" s="280"/>
-      <c r="AF34" s="280"/>
-      <c r="AG34" s="280"/>
-      <c r="AH34" s="280"/>
-      <c r="AI34" s="280"/>
-      <c r="AJ34" s="280"/>
-      <c r="AK34" s="280"/>
-      <c r="AL34" s="280"/>
-      <c r="AM34" s="281"/>
-      <c r="AN34" s="282"/>
-      <c r="AO34" s="283"/>
-      <c r="AP34" s="283"/>
-      <c r="AQ34" s="283"/>
-      <c r="AR34" s="284"/>
-      <c r="AS34" s="282"/>
-      <c r="AT34" s="283"/>
-      <c r="AU34" s="283"/>
-      <c r="AV34" s="283"/>
-      <c r="AW34" s="284"/>
+      <c r="B34" s="257"/>
+      <c r="C34" s="258"/>
+      <c r="D34" s="259"/>
+      <c r="E34" s="260"/>
+      <c r="F34" s="260"/>
+      <c r="G34" s="260"/>
+      <c r="H34" s="260"/>
+      <c r="I34" s="260"/>
+      <c r="J34" s="261"/>
+      <c r="K34" s="262"/>
+      <c r="L34" s="263"/>
+      <c r="M34" s="264"/>
+      <c r="N34" s="265"/>
+      <c r="O34" s="265"/>
+      <c r="P34" s="265"/>
+      <c r="Q34" s="265"/>
+      <c r="R34" s="266"/>
+      <c r="S34" s="267"/>
+      <c r="T34" s="267"/>
+      <c r="U34" s="267"/>
+      <c r="V34" s="268"/>
+      <c r="W34" s="269"/>
+      <c r="X34" s="269"/>
+      <c r="Y34" s="269"/>
+      <c r="Z34" s="269"/>
+      <c r="AA34" s="269"/>
+      <c r="AB34" s="269"/>
+      <c r="AC34" s="269"/>
+      <c r="AD34" s="269"/>
+      <c r="AE34" s="269"/>
+      <c r="AF34" s="269"/>
+      <c r="AG34" s="269"/>
+      <c r="AH34" s="269"/>
+      <c r="AI34" s="269"/>
+      <c r="AJ34" s="269"/>
+      <c r="AK34" s="269"/>
+      <c r="AL34" s="269"/>
+      <c r="AM34" s="270"/>
+      <c r="AN34" s="254"/>
+      <c r="AO34" s="255"/>
+      <c r="AP34" s="255"/>
+      <c r="AQ34" s="255"/>
+      <c r="AR34" s="256"/>
+      <c r="AS34" s="254"/>
+      <c r="AT34" s="255"/>
+      <c r="AU34" s="255"/>
+      <c r="AV34" s="255"/>
+      <c r="AW34" s="256"/>
     </row>
   </sheetData>
   <mergeCells count="249">
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN5:AR5"/>
+    <mergeCell ref="AS5:AW5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:AM6"/>
+    <mergeCell ref="AN6:AR6"/>
+    <mergeCell ref="AS6:AW6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:AM5"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
     <mergeCell ref="AN33:AR33"/>
     <mergeCell ref="AS33:AW33"/>
     <mergeCell ref="B34:D34"/>
@@ -10295,239 +10530,6 @@
     <mergeCell ref="M33:R33"/>
     <mergeCell ref="S33:U33"/>
     <mergeCell ref="V33:AM33"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN5:AR5"/>
-    <mergeCell ref="AS5:AW5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:AM6"/>
-    <mergeCell ref="AN6:AR6"/>
-    <mergeCell ref="AS6:AW6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10537,7 +10539,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BN54"/>
@@ -10659,14 +10661,14 @@
       <c r="P2" s="38"/>
       <c r="Q2" s="39"/>
       <c r="R2" s="90" t="s">
-        <v>312</v>
+        <v>442</v>
       </c>
       <c r="S2" s="91"/>
       <c r="T2" s="91"/>
       <c r="U2" s="91"/>
       <c r="V2" s="92"/>
       <c r="W2" s="37" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="X2" s="40"/>
       <c r="Y2" s="40"/>
@@ -12556,7 +12558,7 @@
       <c r="I51" s="214"/>
       <c r="J51" s="215"/>
       <c r="K51" s="213" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="L51" s="214"/>
       <c r="M51" s="214"/>
@@ -12588,7 +12590,7 @@
       <c r="AK51" s="234"/>
       <c r="AL51" s="235"/>
       <c r="AM51" s="216" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AN51" s="190"/>
       <c r="AO51" s="190"/>
@@ -12634,7 +12636,7 @@
       <c r="I52" s="214"/>
       <c r="J52" s="215"/>
       <c r="K52" s="213" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L52" s="214"/>
       <c r="M52" s="214"/>
@@ -12703,7 +12705,7 @@
       </c>
       <c r="C53" s="297"/>
       <c r="D53" s="213" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E53" s="214"/>
       <c r="F53" s="214"/>
@@ -12712,7 +12714,7 @@
       <c r="I53" s="214"/>
       <c r="J53" s="215"/>
       <c r="K53" s="213" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L53" s="214"/>
       <c r="M53" s="214"/>
@@ -12744,7 +12746,7 @@
       <c r="AK53" s="217"/>
       <c r="AL53" s="218"/>
       <c r="AM53" s="216" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AN53" s="190"/>
       <c r="AO53" s="190"/>
@@ -12794,7 +12796,7 @@
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" scale="74" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;P</oddFooter>
   </headerFooter>
@@ -12993,7 +12995,7 @@
       <c r="AG2" s="39"/>
       <c r="AH2" s="77" t="str">
         <f>'１．機能概要'!R2</f>
-        <v>SC-Z01</v>
+        <v>Z-01</v>
       </c>
       <c r="AI2" s="78"/>
       <c r="AJ2" s="78"/>
@@ -13241,7 +13243,7 @@
       </c>
       <c r="F2" s="37" t="str">
         <f>'１．機能概要'!R2</f>
-        <v>SC-Z01</v>
+        <v>Z-01</v>
       </c>
       <c r="G2" s="37" t="str">
         <f>'１．機能概要'!W2</f>
@@ -13283,22 +13285,22 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="256" t="s">
+      <c r="C6" s="287" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="256" t="s">
+      <c r="D6" s="287" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="256" t="s">
+      <c r="E6" s="287" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="256" t="s">
+      <c r="F6" s="287" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="256" t="s">
+      <c r="G6" s="287" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="256" t="s">
+      <c r="H6" s="287" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="315" t="s">
@@ -13307,13 +13309,13 @@
       <c r="J6" s="315" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="256" t="s">
+      <c r="K6" s="287" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="256" t="s">
+      <c r="L6" s="287" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="256" t="s">
+      <c r="M6" s="287" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="65" t="s">
@@ -13328,17 +13330,17 @@
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="256"/>
-      <c r="D7" s="256"/>
-      <c r="E7" s="256"/>
-      <c r="F7" s="256"/>
-      <c r="G7" s="256"/>
-      <c r="H7" s="256"/>
+      <c r="C7" s="287"/>
+      <c r="D7" s="287"/>
+      <c r="E7" s="287"/>
+      <c r="F7" s="287"/>
+      <c r="G7" s="287"/>
+      <c r="H7" s="287"/>
       <c r="I7" s="315"/>
       <c r="J7" s="315"/>
-      <c r="K7" s="256"/>
-      <c r="L7" s="256"/>
-      <c r="M7" s="256"/>
+      <c r="K7" s="287"/>
+      <c r="L7" s="287"/>
+      <c r="M7" s="287"/>
       <c r="N7" s="43" t="s">
         <v>77</v>
       </c>
@@ -13495,7 +13497,7 @@
         <v>245</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>121</v>
@@ -13592,22 +13594,22 @@
     <row r="15" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
-      <c r="C15" s="256" t="s">
+      <c r="C15" s="287" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="256" t="s">
+      <c r="D15" s="287" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="256" t="s">
+      <c r="E15" s="287" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="256" t="s">
+      <c r="F15" s="287" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="256" t="s">
+      <c r="G15" s="287" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="256" t="s">
+      <c r="H15" s="287" t="s">
         <v>29</v>
       </c>
       <c r="I15" s="316" t="s">
@@ -13616,13 +13618,13 @@
       <c r="J15" s="315" t="s">
         <v>48</v>
       </c>
-      <c r="K15" s="256" t="s">
+      <c r="K15" s="287" t="s">
         <v>31</v>
       </c>
-      <c r="L15" s="256" t="s">
+      <c r="L15" s="287" t="s">
         <v>30</v>
       </c>
-      <c r="M15" s="256" t="s">
+      <c r="M15" s="287" t="s">
         <v>33</v>
       </c>
       <c r="N15" s="65" t="s">
@@ -13637,17 +13639,17 @@
     <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
-      <c r="C16" s="256"/>
-      <c r="D16" s="256"/>
-      <c r="E16" s="256"/>
-      <c r="F16" s="256"/>
-      <c r="G16" s="256"/>
-      <c r="H16" s="256"/>
+      <c r="C16" s="287"/>
+      <c r="D16" s="287"/>
+      <c r="E16" s="287"/>
+      <c r="F16" s="287"/>
+      <c r="G16" s="287"/>
+      <c r="H16" s="287"/>
       <c r="I16" s="317"/>
       <c r="J16" s="315"/>
-      <c r="K16" s="256"/>
-      <c r="L16" s="256"/>
-      <c r="M16" s="256"/>
+      <c r="K16" s="287"/>
+      <c r="L16" s="287"/>
+      <c r="M16" s="287"/>
       <c r="N16" s="43" t="s">
         <v>77</v>
       </c>
@@ -14010,22 +14012,22 @@
     </row>
     <row r="26" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="95"/>
-      <c r="C26" s="256" t="s">
+      <c r="C26" s="287" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="256" t="s">
+      <c r="D26" s="287" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="256" t="s">
+      <c r="E26" s="287" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="256" t="s">
+      <c r="F26" s="287" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="256" t="s">
+      <c r="G26" s="287" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="256" t="s">
+      <c r="H26" s="287" t="s">
         <v>29</v>
       </c>
       <c r="I26" s="315" t="s">
@@ -14034,13 +14036,13 @@
       <c r="J26" s="315" t="s">
         <v>48</v>
       </c>
-      <c r="K26" s="256" t="s">
+      <c r="K26" s="287" t="s">
         <v>31</v>
       </c>
-      <c r="L26" s="256" t="s">
+      <c r="L26" s="287" t="s">
         <v>30</v>
       </c>
-      <c r="M26" s="256" t="s">
+      <c r="M26" s="287" t="s">
         <v>33</v>
       </c>
       <c r="N26" s="65" t="s">
@@ -14054,17 +14056,17 @@
     </row>
     <row r="27" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B27" s="95"/>
-      <c r="C27" s="256"/>
-      <c r="D27" s="256"/>
-      <c r="E27" s="256"/>
-      <c r="F27" s="256"/>
-      <c r="G27" s="256"/>
-      <c r="H27" s="256"/>
+      <c r="C27" s="287"/>
+      <c r="D27" s="287"/>
+      <c r="E27" s="287"/>
+      <c r="F27" s="287"/>
+      <c r="G27" s="287"/>
+      <c r="H27" s="287"/>
       <c r="I27" s="315"/>
       <c r="J27" s="315"/>
-      <c r="K27" s="256"/>
-      <c r="L27" s="256"/>
-      <c r="M27" s="256"/>
+      <c r="K27" s="287"/>
+      <c r="L27" s="287"/>
+      <c r="M27" s="287"/>
       <c r="N27" s="93" t="s">
         <v>77</v>
       </c>
@@ -14217,10 +14219,10 @@
         <v>4</v>
       </c>
       <c r="D31" s="248" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E31" s="249" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F31" s="248" t="s">
         <v>35</v>
@@ -14253,7 +14255,7 @@
         <v>35</v>
       </c>
       <c r="P31" s="250" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="Q31" s="250"/>
     </row>
@@ -14266,7 +14268,7 @@
         <v>136</v>
       </c>
       <c r="E32" s="249" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F32" s="248" t="s">
         <v>35</v>
@@ -14299,7 +14301,7 @@
         <v>35</v>
       </c>
       <c r="P32" s="250" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="Q32" s="250"/>
     </row>
@@ -14312,7 +14314,7 @@
         <v>198</v>
       </c>
       <c r="E33" s="249" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F33" s="248" t="s">
         <v>35</v>
@@ -14345,7 +14347,7 @@
         <v>35</v>
       </c>
       <c r="P33" s="250" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="Q33" s="250"/>
     </row>
@@ -14358,7 +14360,7 @@
         <v>199</v>
       </c>
       <c r="E34" s="249" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F34" s="248" t="s">
         <v>35</v>
@@ -14391,7 +14393,7 @@
         <v>35</v>
       </c>
       <c r="P34" s="250" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="Q34" s="250"/>
     </row>
@@ -14404,7 +14406,7 @@
         <v>200</v>
       </c>
       <c r="E35" s="249" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F35" s="248" t="s">
         <v>35</v>
@@ -14437,7 +14439,7 @@
         <v>35</v>
       </c>
       <c r="P35" s="250" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="Q35" s="250"/>
     </row>
@@ -14481,7 +14483,7 @@
         <v>35</v>
       </c>
       <c r="P36" s="242" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="Q36" s="8"/>
     </row>
@@ -14491,13 +14493,13 @@
         <v>10</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E37" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="G37" s="44" t="s">
         <v>51</v>
@@ -14525,7 +14527,7 @@
         <v>35</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Q37" s="8"/>
     </row>
@@ -14535,7 +14537,7 @@
         <v>11</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E38" s="16" t="s">
         <v>270</v>
@@ -14556,7 +14558,7 @@
         <v>35</v>
       </c>
       <c r="K38" s="219" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>35</v>
@@ -14581,7 +14583,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E39" s="16" t="s">
         <v>271</v>
@@ -14602,7 +14604,7 @@
         <v>35</v>
       </c>
       <c r="K39" s="219" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L39" s="7" t="s">
         <v>35</v>
@@ -14627,7 +14629,7 @@
         <v>13</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E40" s="16" t="s">
         <v>272</v>
@@ -14648,7 +14650,7 @@
         <v>35</v>
       </c>
       <c r="K40" s="219" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L40" s="7" t="s">
         <v>35</v>
@@ -14673,7 +14675,7 @@
         <v>14</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E41" s="16" t="s">
         <v>273</v>
@@ -14694,7 +14696,7 @@
         <v>35</v>
       </c>
       <c r="K41" s="219" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L41" s="7" t="s">
         <v>35</v>
@@ -14719,7 +14721,7 @@
         <v>15</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E42" s="16" t="s">
         <v>274</v>
@@ -14740,7 +14742,7 @@
         <v>35</v>
       </c>
       <c r="K42" s="219" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L42" s="7" t="s">
         <v>35</v>
@@ -14749,16 +14751,16 @@
         <v>34</v>
       </c>
       <c r="N42" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O42" s="7" t="s">
         <v>35</v>
       </c>
       <c r="P42" s="220" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q42" s="8" t="s">
         <v>333</v>
-      </c>
-      <c r="Q42" s="8" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -14767,7 +14769,7 @@
         <v>16</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E43" s="16" t="s">
         <v>275</v>
@@ -14788,7 +14790,7 @@
         <v>35</v>
       </c>
       <c r="K43" s="219" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L43" s="7" t="s">
         <v>35</v>
@@ -14797,16 +14799,16 @@
         <v>34</v>
       </c>
       <c r="N43" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>34</v>
       </c>
       <c r="P43" s="220" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q43" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -14815,7 +14817,7 @@
         <v>17</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E44" s="16" t="s">
         <v>276</v>
@@ -14836,7 +14838,7 @@
         <v>35</v>
       </c>
       <c r="K44" s="219" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L44" s="7" t="s">
         <v>35</v>
@@ -14845,16 +14847,16 @@
         <v>34</v>
       </c>
       <c r="N44" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O44" s="7" t="s">
         <v>34</v>
       </c>
       <c r="P44" s="220" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q44" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -14863,7 +14865,7 @@
         <v>18</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E45" s="16" t="s">
         <v>277</v>
@@ -14884,7 +14886,7 @@
         <v>35</v>
       </c>
       <c r="K45" s="219" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L45" s="7" t="s">
         <v>35</v>
@@ -14952,16 +14954,24 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="I15:I16"/>
     <mergeCell ref="J15:J16"/>
     <mergeCell ref="C15:C16"/>
@@ -14970,24 +14980,16 @@
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="H15:H16"/>
     <mergeCell ref="D15:D16"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -15000,7 +15002,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AZ245"/>
@@ -15106,7 +15108,7 @@
       <c r="M2" s="39"/>
       <c r="N2" s="37" t="str">
         <f>'１．機能概要'!R2</f>
-        <v>SC-Z01</v>
+        <v>Z-01</v>
       </c>
       <c r="O2" s="38"/>
       <c r="P2" s="38"/>
@@ -15609,7 +15611,7 @@
       <c r="L13" s="98"/>
       <c r="M13" s="69"/>
       <c r="N13" s="69" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="O13" s="69"/>
       <c r="P13" s="69"/>
@@ -15660,7 +15662,7 @@
       <c r="L14" s="98"/>
       <c r="M14" s="69"/>
       <c r="N14" s="228" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O14" s="69"/>
       <c r="P14" s="69"/>
@@ -15711,7 +15713,7 @@
       <c r="L15" s="98"/>
       <c r="M15" s="69"/>
       <c r="N15" s="69" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="O15" s="69"/>
       <c r="P15" s="69"/>
@@ -15966,7 +15968,7 @@
       <c r="L20" s="98"/>
       <c r="M20" s="69"/>
       <c r="N20" s="69" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O20" s="69"/>
       <c r="P20" s="69"/>
@@ -16017,7 +16019,7 @@
       <c r="L21" s="98"/>
       <c r="M21" s="69"/>
       <c r="N21" s="69" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O21" s="69"/>
       <c r="P21" s="69"/>
@@ -16068,7 +16070,7 @@
       <c r="L22" s="98"/>
       <c r="M22" s="69"/>
       <c r="N22" s="69" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="O22" s="69"/>
       <c r="P22" s="69"/>
@@ -16119,7 +16121,7 @@
       <c r="L23" s="98"/>
       <c r="M23" s="69"/>
       <c r="N23" s="69" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O23" s="69"/>
       <c r="P23" s="69"/>
@@ -16272,7 +16274,7 @@
       <c r="L26" s="98"/>
       <c r="M26" s="69"/>
       <c r="N26" s="69" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="O26" s="69"/>
       <c r="P26" s="69"/>
@@ -16316,13 +16318,13 @@
       <c r="G27" s="226"/>
       <c r="K27" s="227"/>
       <c r="O27" s="225" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AA27" s="225" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AB27" s="225" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AV27" s="227"/>
     </row>
@@ -16333,13 +16335,13 @@
       <c r="G28" s="226"/>
       <c r="K28" s="227"/>
       <c r="O28" s="225" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AA28" s="225" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AB28" s="225" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AV28" s="227"/>
     </row>
@@ -16350,13 +16352,13 @@
       <c r="G29" s="226"/>
       <c r="K29" s="227"/>
       <c r="O29" s="225" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AA29" s="225" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AB29" s="225" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV29" s="227"/>
     </row>
@@ -16367,13 +16369,13 @@
       <c r="G30" s="226"/>
       <c r="K30" s="227"/>
       <c r="O30" s="225" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AA30" s="225" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AB30" s="225" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AV30" s="227"/>
     </row>
@@ -16384,13 +16386,13 @@
       <c r="G31" s="226"/>
       <c r="K31" s="227"/>
       <c r="O31" s="225" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AA31" s="225" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AB31" s="225" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AV31" s="227"/>
     </row>
@@ -16401,7 +16403,7 @@
       <c r="G32" s="226"/>
       <c r="K32" s="227"/>
       <c r="N32" s="225" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AV32" s="227"/>
     </row>
@@ -16412,13 +16414,13 @@
       <c r="G33" s="226"/>
       <c r="K33" s="227"/>
       <c r="O33" s="225" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AA33" s="225" t="s">
+        <v>376</v>
+      </c>
+      <c r="AB33" s="225" t="s">
         <v>377</v>
-      </c>
-      <c r="AB33" s="225" t="s">
-        <v>378</v>
       </c>
       <c r="AV33" s="227"/>
     </row>
@@ -16429,13 +16431,13 @@
       <c r="G34" s="226"/>
       <c r="K34" s="227"/>
       <c r="O34" s="225" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AA34" s="225" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AB34" s="225" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AV34" s="227"/>
     </row>
@@ -16446,13 +16448,13 @@
       <c r="G35" s="226"/>
       <c r="K35" s="227"/>
       <c r="O35" s="225" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AA35" s="225" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AB35" s="225" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AV35" s="227"/>
     </row>
@@ -16463,13 +16465,13 @@
       <c r="G36" s="226"/>
       <c r="K36" s="227"/>
       <c r="O36" s="225" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AA36" s="225" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AB36" s="225" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AV36" s="227"/>
     </row>
@@ -16480,13 +16482,13 @@
       <c r="G37" s="226"/>
       <c r="K37" s="227"/>
       <c r="O37" s="225" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AA37" s="225" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AB37" s="225" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AV37" s="227"/>
     </row>
@@ -16504,7 +16506,7 @@
       <c r="L38" s="98"/>
       <c r="M38" s="69"/>
       <c r="N38" s="69" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="O38" s="69"/>
       <c r="P38" s="69"/>
@@ -16556,7 +16558,7 @@
       <c r="M39" s="69"/>
       <c r="N39" s="69"/>
       <c r="O39" s="98" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="P39" s="98"/>
       <c r="Q39" s="98"/>
@@ -16573,7 +16575,7 @@
         <v>38</v>
       </c>
       <c r="AB39" s="98" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AC39" s="98"/>
       <c r="AD39" s="98"/>
@@ -16611,7 +16613,7 @@
       <c r="M40" s="239"/>
       <c r="N40" s="239"/>
       <c r="O40" s="237" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="P40" s="237"/>
       <c r="Q40" s="237"/>
@@ -16628,7 +16630,7 @@
         <v>38</v>
       </c>
       <c r="AB40" s="237" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AC40" s="237"/>
       <c r="AD40" s="237"/>
@@ -16666,7 +16668,7 @@
       <c r="M41" s="69"/>
       <c r="N41" s="69"/>
       <c r="O41" s="98" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P41" s="98"/>
       <c r="Q41" s="98"/>
@@ -16683,7 +16685,7 @@
         <v>38</v>
       </c>
       <c r="AB41" s="98" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AC41" s="98"/>
       <c r="AD41" s="98"/>
@@ -16721,7 +16723,7 @@
       <c r="M42" s="69"/>
       <c r="N42" s="69"/>
       <c r="O42" s="98" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P42" s="98"/>
       <c r="Q42" s="98"/>
@@ -16738,7 +16740,7 @@
         <v>38</v>
       </c>
       <c r="AB42" s="98" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AC42" s="98"/>
       <c r="AD42" s="98"/>
@@ -16768,13 +16770,13 @@
       <c r="G43" s="226"/>
       <c r="K43" s="227"/>
       <c r="O43" s="225" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AA43" s="225" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AB43" s="225" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AV43" s="227"/>
     </row>
@@ -16793,7 +16795,7 @@
       <c r="M44" s="69"/>
       <c r="N44" s="69"/>
       <c r="O44" s="229" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="P44" s="229"/>
       <c r="Q44" s="229"/>
@@ -16810,7 +16812,7 @@
         <v>38</v>
       </c>
       <c r="AB44" s="96" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AC44" s="98"/>
       <c r="AD44" s="98"/>
@@ -16847,7 +16849,7 @@
       <c r="L45" s="98"/>
       <c r="M45" s="69"/>
       <c r="N45" s="69" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="O45" s="69"/>
       <c r="P45" s="69"/>
@@ -16899,7 +16901,7 @@
       <c r="M46" s="69"/>
       <c r="N46" s="69"/>
       <c r="O46" s="98" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="P46" s="98"/>
       <c r="Q46" s="98"/>
@@ -16916,7 +16918,7 @@
         <v>38</v>
       </c>
       <c r="AB46" s="98" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AC46" s="98"/>
       <c r="AD46" s="98"/>
@@ -16954,7 +16956,7 @@
       <c r="M47" s="239"/>
       <c r="N47" s="239"/>
       <c r="O47" s="237" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="P47" s="237"/>
       <c r="Q47" s="237"/>
@@ -16971,7 +16973,7 @@
         <v>38</v>
       </c>
       <c r="AB47" s="237" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AC47" s="237"/>
       <c r="AD47" s="237"/>
@@ -17009,7 +17011,7 @@
       <c r="M48" s="69"/>
       <c r="N48" s="69"/>
       <c r="O48" s="98" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P48" s="98"/>
       <c r="Q48" s="98"/>
@@ -17026,7 +17028,7 @@
         <v>38</v>
       </c>
       <c r="AB48" s="98" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AC48" s="98"/>
       <c r="AD48" s="98"/>
@@ -17064,7 +17066,7 @@
       <c r="M49" s="69"/>
       <c r="N49" s="69"/>
       <c r="O49" s="98" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P49" s="98"/>
       <c r="Q49" s="98"/>
@@ -17081,7 +17083,7 @@
         <v>38</v>
       </c>
       <c r="AB49" s="98" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AC49" s="98"/>
       <c r="AD49" s="98"/>
@@ -17111,13 +17113,13 @@
       <c r="G50" s="226"/>
       <c r="K50" s="227"/>
       <c r="O50" s="225" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AA50" s="225" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AB50" s="225" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AV50" s="227"/>
     </row>
@@ -17136,7 +17138,7 @@
       <c r="M51" s="69"/>
       <c r="N51" s="69"/>
       <c r="O51" s="229" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="P51" s="229"/>
       <c r="Q51" s="229"/>
@@ -17153,7 +17155,7 @@
         <v>38</v>
       </c>
       <c r="AB51" s="96" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AC51" s="98"/>
       <c r="AD51" s="98"/>
@@ -17190,7 +17192,7 @@
       <c r="L52" s="98"/>
       <c r="M52" s="69"/>
       <c r="N52" s="69" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="O52" s="69"/>
       <c r="P52" s="69"/>
@@ -17242,7 +17244,7 @@
       <c r="M53" s="69"/>
       <c r="N53" s="69"/>
       <c r="O53" s="98" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="P53" s="98"/>
       <c r="Q53" s="98"/>
@@ -17259,7 +17261,7 @@
         <v>38</v>
       </c>
       <c r="AB53" s="98" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AC53" s="98"/>
       <c r="AD53" s="98"/>
@@ -17297,7 +17299,7 @@
       <c r="M54" s="239"/>
       <c r="N54" s="239"/>
       <c r="O54" s="237" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="P54" s="237"/>
       <c r="Q54" s="237"/>
@@ -17314,7 +17316,7 @@
         <v>38</v>
       </c>
       <c r="AB54" s="237" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AC54" s="237"/>
       <c r="AD54" s="237"/>
@@ -17352,7 +17354,7 @@
       <c r="M55" s="69"/>
       <c r="N55" s="69"/>
       <c r="O55" s="98" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P55" s="98"/>
       <c r="Q55" s="98"/>
@@ -17369,7 +17371,7 @@
         <v>38</v>
       </c>
       <c r="AB55" s="98" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AC55" s="98"/>
       <c r="AD55" s="98"/>
@@ -17407,7 +17409,7 @@
       <c r="M56" s="69"/>
       <c r="N56" s="69"/>
       <c r="O56" s="98" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P56" s="98"/>
       <c r="Q56" s="98"/>
@@ -17424,7 +17426,7 @@
         <v>38</v>
       </c>
       <c r="AB56" s="98" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AC56" s="98"/>
       <c r="AD56" s="98"/>
@@ -17454,13 +17456,13 @@
       <c r="G57" s="226"/>
       <c r="K57" s="227"/>
       <c r="O57" s="225" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AA57" s="225" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AB57" s="225" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AV57" s="227"/>
     </row>
@@ -17479,7 +17481,7 @@
       <c r="M58" s="69"/>
       <c r="N58" s="69"/>
       <c r="O58" s="229" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P58" s="229"/>
       <c r="Q58" s="229"/>
@@ -17496,7 +17498,7 @@
         <v>38</v>
       </c>
       <c r="AB58" s="96" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AC58" s="98"/>
       <c r="AD58" s="98"/>
@@ -17533,7 +17535,7 @@
       <c r="L59" s="98"/>
       <c r="M59" s="69"/>
       <c r="N59" s="69" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O59" s="69"/>
       <c r="P59" s="69"/>
@@ -17585,7 +17587,7 @@
       <c r="M60" s="69"/>
       <c r="N60" s="69"/>
       <c r="O60" s="98" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="P60" s="98"/>
       <c r="Q60" s="98"/>
@@ -17602,7 +17604,7 @@
         <v>38</v>
       </c>
       <c r="AB60" s="98" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AC60" s="98"/>
       <c r="AD60" s="98"/>
@@ -17640,7 +17642,7 @@
       <c r="M61" s="239"/>
       <c r="N61" s="239"/>
       <c r="O61" s="237" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="P61" s="237"/>
       <c r="Q61" s="237"/>
@@ -17657,7 +17659,7 @@
         <v>38</v>
       </c>
       <c r="AB61" s="237" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AC61" s="237"/>
       <c r="AD61" s="237"/>
@@ -17695,7 +17697,7 @@
       <c r="M62" s="69"/>
       <c r="N62" s="69"/>
       <c r="O62" s="98" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P62" s="98"/>
       <c r="Q62" s="98"/>
@@ -17712,7 +17714,7 @@
         <v>38</v>
       </c>
       <c r="AB62" s="98" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AC62" s="98"/>
       <c r="AD62" s="98"/>
@@ -17750,7 +17752,7 @@
       <c r="M63" s="69"/>
       <c r="N63" s="69"/>
       <c r="O63" s="98" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P63" s="98"/>
       <c r="Q63" s="98"/>
@@ -17767,7 +17769,7 @@
         <v>38</v>
       </c>
       <c r="AB63" s="98" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AC63" s="98"/>
       <c r="AD63" s="98"/>
@@ -17797,13 +17799,13 @@
       <c r="G64" s="226"/>
       <c r="K64" s="227"/>
       <c r="O64" s="225" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AA64" s="225" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AB64" s="225" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AV64" s="227"/>
     </row>
@@ -17822,7 +17824,7 @@
       <c r="M65" s="69"/>
       <c r="N65" s="69"/>
       <c r="O65" s="229" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P65" s="229"/>
       <c r="Q65" s="229"/>
@@ -17839,7 +17841,7 @@
         <v>38</v>
       </c>
       <c r="AB65" s="96" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AC65" s="98"/>
       <c r="AD65" s="98"/>
@@ -17920,13 +17922,13 @@
       <c r="G67" s="244"/>
       <c r="K67" s="245"/>
       <c r="N67" s="243" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA67" s="243" t="s">
+        <v>376</v>
+      </c>
+      <c r="AB67" s="243" t="s">
         <v>441</v>
-      </c>
-      <c r="AA67" s="243" t="s">
-        <v>377</v>
-      </c>
-      <c r="AB67" s="243" t="s">
-        <v>442</v>
       </c>
       <c r="AV67" s="245"/>
     </row>
@@ -18058,7 +18060,7 @@
       <c r="L70" s="98"/>
       <c r="M70" s="69"/>
       <c r="N70" s="98" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="O70" s="98"/>
       <c r="P70" s="98"/>
@@ -18076,7 +18078,7 @@
         <v>38</v>
       </c>
       <c r="AB70" s="96" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AC70" s="98"/>
       <c r="AD70" s="98"/>
@@ -18115,7 +18117,7 @@
       <c r="L71" s="98"/>
       <c r="M71" s="69"/>
       <c r="N71" s="98" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="O71" s="98"/>
       <c r="P71" s="98"/>
@@ -18172,7 +18174,7 @@
       <c r="L72" s="98"/>
       <c r="M72" s="69"/>
       <c r="N72" s="98" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="O72" s="98"/>
       <c r="P72" s="98"/>
@@ -18284,7 +18286,7 @@
       <c r="L74" s="98"/>
       <c r="M74" s="69"/>
       <c r="N74" s="17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O74" s="98"/>
       <c r="P74" s="98"/>
@@ -18336,7 +18338,7 @@
       <c r="M75" s="69"/>
       <c r="N75" s="69"/>
       <c r="O75" s="98" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="P75" s="98"/>
       <c r="Q75" s="98"/>
@@ -18352,10 +18354,10 @@
       <c r="AA75" s="69"/>
       <c r="AB75" s="96"/>
       <c r="AC75" s="69" t="s">
+        <v>366</v>
+      </c>
+      <c r="AD75" s="98" t="s">
         <v>367</v>
-      </c>
-      <c r="AD75" s="98" t="s">
-        <v>368</v>
       </c>
       <c r="AE75" s="98"/>
       <c r="AF75" s="98"/>
@@ -18391,7 +18393,7 @@
       <c r="M76" s="69"/>
       <c r="N76" s="98"/>
       <c r="O76" s="98" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="P76" s="98"/>
       <c r="Q76" s="98"/>
@@ -18407,10 +18409,10 @@
       <c r="AA76" s="69"/>
       <c r="AB76" s="96"/>
       <c r="AC76" s="69" t="s">
+        <v>366</v>
+      </c>
+      <c r="AD76" s="98" t="s">
         <v>367</v>
-      </c>
-      <c r="AD76" s="98" t="s">
-        <v>368</v>
       </c>
       <c r="AE76" s="98"/>
       <c r="AF76" s="98"/>
@@ -18446,7 +18448,7 @@
       <c r="M77" s="69"/>
       <c r="N77" s="98"/>
       <c r="O77" s="98" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P77" s="98"/>
       <c r="Q77" s="98"/>
@@ -18462,10 +18464,10 @@
       <c r="AA77" s="69"/>
       <c r="AB77" s="96"/>
       <c r="AC77" s="69" t="s">
+        <v>366</v>
+      </c>
+      <c r="AD77" s="98" t="s">
         <v>367</v>
-      </c>
-      <c r="AD77" s="98" t="s">
-        <v>368</v>
       </c>
       <c r="AE77" s="98"/>
       <c r="AF77" s="98"/>
@@ -18501,7 +18503,7 @@
       <c r="M78" s="69"/>
       <c r="N78" s="98"/>
       <c r="O78" s="98" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="P78" s="98"/>
       <c r="Q78" s="98"/>
@@ -18517,10 +18519,10 @@
       <c r="AA78" s="69"/>
       <c r="AB78" s="96"/>
       <c r="AC78" s="69" t="s">
+        <v>366</v>
+      </c>
+      <c r="AD78" s="98" t="s">
         <v>367</v>
-      </c>
-      <c r="AD78" s="98" t="s">
-        <v>368</v>
       </c>
       <c r="AE78" s="98"/>
       <c r="AF78" s="98"/>
@@ -18556,7 +18558,7 @@
       <c r="M79" s="69"/>
       <c r="N79" s="98"/>
       <c r="O79" s="98" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="P79" s="98"/>
       <c r="Q79" s="98"/>
@@ -18572,10 +18574,10 @@
       <c r="AA79" s="69"/>
       <c r="AB79" s="96"/>
       <c r="AC79" s="69" t="s">
+        <v>366</v>
+      </c>
+      <c r="AD79" s="98" t="s">
         <v>367</v>
-      </c>
-      <c r="AD79" s="98" t="s">
-        <v>368</v>
       </c>
       <c r="AE79" s="98"/>
       <c r="AF79" s="98"/>
@@ -18611,7 +18613,7 @@
       <c r="M80" s="69"/>
       <c r="N80" s="98"/>
       <c r="O80" s="98" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="P80" s="98"/>
       <c r="Q80" s="98"/>
@@ -18627,10 +18629,10 @@
       <c r="AA80" s="69"/>
       <c r="AB80" s="96"/>
       <c r="AC80" s="69" t="s">
+        <v>366</v>
+      </c>
+      <c r="AD80" s="98" t="s">
         <v>367</v>
-      </c>
-      <c r="AD80" s="98" t="s">
-        <v>368</v>
       </c>
       <c r="AE80" s="98"/>
       <c r="AF80" s="98"/>
@@ -18666,7 +18668,7 @@
       <c r="M81" s="69"/>
       <c r="N81" s="98"/>
       <c r="O81" s="98" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="P81" s="98"/>
       <c r="Q81" s="98"/>
@@ -18682,10 +18684,10 @@
       <c r="AA81" s="69"/>
       <c r="AB81" s="96"/>
       <c r="AC81" s="69" t="s">
+        <v>366</v>
+      </c>
+      <c r="AD81" s="98" t="s">
         <v>367</v>
-      </c>
-      <c r="AD81" s="98" t="s">
-        <v>368</v>
       </c>
       <c r="AE81" s="98"/>
       <c r="AF81" s="98"/>
@@ -18721,7 +18723,7 @@
       <c r="M82" s="69"/>
       <c r="N82" s="98"/>
       <c r="O82" s="98" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="P82" s="98"/>
       <c r="Q82" s="98"/>
@@ -18737,10 +18739,10 @@
       <c r="AA82" s="69"/>
       <c r="AB82" s="96"/>
       <c r="AC82" s="69" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AD82" s="98" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AE82" s="98"/>
       <c r="AF82" s="98"/>
@@ -18775,7 +18777,7 @@
       <c r="L83" s="98"/>
       <c r="M83" s="69"/>
       <c r="N83" s="98" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O83" s="98"/>
       <c r="P83" s="98"/>
@@ -18827,7 +18829,7 @@
       <c r="M84" s="69"/>
       <c r="N84" s="98"/>
       <c r="O84" s="98" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P84" s="98"/>
       <c r="Q84" s="98"/>
@@ -18870,7 +18872,7 @@
       <c r="G85" s="67"/>
       <c r="K85" s="68"/>
       <c r="M85" s="223" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AA85" s="223"/>
       <c r="AB85" s="224"/>
@@ -18891,7 +18893,7 @@
       <c r="L86" s="229"/>
       <c r="M86" s="228"/>
       <c r="N86" s="228" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="O86" s="228"/>
       <c r="P86" s="228"/>
@@ -18942,7 +18944,7 @@
       <c r="L87" s="229"/>
       <c r="M87" s="228"/>
       <c r="N87" s="228" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O87" s="228"/>
       <c r="P87" s="228"/>
@@ -18993,7 +18995,7 @@
       <c r="L88" s="229"/>
       <c r="M88" s="228"/>
       <c r="N88" s="228" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="O88" s="228"/>
       <c r="P88" s="228"/>
@@ -19043,7 +19045,7 @@
       <c r="K89" s="99"/>
       <c r="L89" s="98"/>
       <c r="M89" s="223" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="N89" s="98"/>
       <c r="O89" s="98"/>
@@ -19095,7 +19097,7 @@
       <c r="L90" s="229"/>
       <c r="M90" s="228"/>
       <c r="N90" s="228" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="O90" s="228"/>
       <c r="P90" s="228"/>
@@ -19146,7 +19148,7 @@
       <c r="L91" s="229"/>
       <c r="M91" s="228"/>
       <c r="N91" s="228" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O91" s="228"/>
       <c r="P91" s="228"/>
@@ -19197,7 +19199,7 @@
       <c r="L92" s="229"/>
       <c r="M92" s="228"/>
       <c r="N92" s="228" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="O92" s="228"/>
       <c r="P92" s="228"/>
@@ -19349,7 +19351,7 @@
       </c>
       <c r="K95" s="68"/>
       <c r="L95" s="241" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AV95" s="68"/>
     </row>
@@ -19468,7 +19470,7 @@
       </c>
       <c r="K98" s="68"/>
       <c r="L98" s="241" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AV98" s="68"/>
     </row>
@@ -19490,13 +19492,13 @@
         <v>5</v>
       </c>
       <c r="C100" s="21" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D100" s="22"/>
       <c r="E100" s="22"/>
       <c r="F100" s="23"/>
       <c r="G100" s="21" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H100" s="22"/>
       <c r="I100" s="22"/>
@@ -19551,7 +19553,7 @@
       </c>
       <c r="K101" s="68"/>
       <c r="L101" s="241" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AV101" s="68"/>
     </row>
@@ -19562,7 +19564,7 @@
       <c r="G102" s="67"/>
       <c r="K102" s="68"/>
       <c r="L102" s="241" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AV102" s="68"/>
     </row>
@@ -19779,7 +19781,7 @@
         <v>7</v>
       </c>
       <c r="C107" s="21" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D107" s="22"/>
       <c r="E107" s="22"/>
@@ -27094,7 +27096,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet6">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AZ96"/>
@@ -27202,7 +27204,7 @@
       <c r="M2" s="39"/>
       <c r="N2" s="37" t="str">
         <f>'１．機能概要'!R2</f>
-        <v>SC-Z01</v>
+        <v>Z-01</v>
       </c>
       <c r="O2" s="38"/>
       <c r="P2" s="38"/>
@@ -28011,7 +28013,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
@@ -32330,7 +32332,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BK222"/>
@@ -32438,7 +32440,7 @@
       <c r="M2" s="39"/>
       <c r="N2" s="37" t="str">
         <f>'１．機能概要'!R2</f>
-        <v>SC-Z01</v>
+        <v>Z-01</v>
       </c>
       <c r="O2" s="38"/>
       <c r="P2" s="38"/>
@@ -44556,7 +44558,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F4FDC77-BE9D-4F29-A191-EDC6FB9C3BD6}">
-  <sheetPr>
+  <sheetPr codeName="Sheet9">
     <tabColor theme="0" tint="-0.34998626667073579"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -45625,7 +45627,7 @@
     </row>
     <row r="12" spans="2:102" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="125" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C12" s="123"/>
       <c r="D12" s="123"/>
@@ -46103,7 +46105,7 @@
       <c r="AN16" s="123"/>
       <c r="AO16" s="123"/>
       <c r="AP16" s="135" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AQ16" s="136"/>
       <c r="AR16" s="136"/>
@@ -47503,7 +47505,7 @@
       <c r="I29" s="195"/>
       <c r="J29" s="196"/>
       <c r="K29" s="205" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L29" s="206"/>
       <c r="M29" s="206"/>
@@ -47614,7 +47616,7 @@
       <c r="I30" s="195"/>
       <c r="J30" s="196"/>
       <c r="K30" s="205" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L30" s="206"/>
       <c r="M30" s="206"/>
@@ -47723,7 +47725,7 @@
       <c r="I31" s="195"/>
       <c r="J31" s="196"/>
       <c r="K31" s="205" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L31" s="206"/>
       <c r="M31" s="206"/>
@@ -47832,7 +47834,7 @@
       <c r="I32" s="195"/>
       <c r="J32" s="196"/>
       <c r="K32" s="205" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L32" s="206"/>
       <c r="M32" s="206"/>
@@ -47941,7 +47943,7 @@
       <c r="I33" s="195"/>
       <c r="J33" s="196"/>
       <c r="K33" s="205" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L33" s="206"/>
       <c r="M33" s="206"/>
@@ -48050,7 +48052,7 @@
       <c r="I34" s="195"/>
       <c r="J34" s="196"/>
       <c r="K34" s="205" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L34" s="206"/>
       <c r="M34" s="206"/>
@@ -48159,7 +48161,7 @@
       <c r="I35" s="195"/>
       <c r="J35" s="196"/>
       <c r="K35" s="205" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L35" s="206"/>
       <c r="M35" s="206"/>
@@ -48268,7 +48270,7 @@
       <c r="I36" s="195"/>
       <c r="J36" s="196"/>
       <c r="K36" s="205" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L36" s="206"/>
       <c r="M36" s="206"/>
@@ -48377,7 +48379,7 @@
       <c r="I37" s="195"/>
       <c r="J37" s="196"/>
       <c r="K37" s="205" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L37" s="206"/>
       <c r="M37" s="206"/>
@@ -48486,7 +48488,7 @@
       <c r="I38" s="195"/>
       <c r="J38" s="196"/>
       <c r="K38" s="205" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L38" s="206"/>
       <c r="M38" s="206"/>
@@ -48595,7 +48597,7 @@
       <c r="I39" s="195"/>
       <c r="J39" s="196"/>
       <c r="K39" s="205" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L39" s="206"/>
       <c r="M39" s="206"/>
@@ -48704,7 +48706,7 @@
       <c r="I40" s="195"/>
       <c r="J40" s="196"/>
       <c r="K40" s="205" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L40" s="206"/>
       <c r="M40" s="206"/>
@@ -48813,7 +48815,7 @@
       <c r="I41" s="195"/>
       <c r="J41" s="196"/>
       <c r="K41" s="205" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L41" s="206"/>
       <c r="M41" s="206"/>
@@ -48922,7 +48924,7 @@
       <c r="I42" s="195"/>
       <c r="J42" s="196"/>
       <c r="K42" s="205" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L42" s="206"/>
       <c r="M42" s="206"/>
@@ -49031,7 +49033,7 @@
       <c r="I43" s="195"/>
       <c r="J43" s="196"/>
       <c r="K43" s="205" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L43" s="206"/>
       <c r="M43" s="206"/>
@@ -49140,7 +49142,7 @@
       <c r="I44" s="195"/>
       <c r="J44" s="196"/>
       <c r="K44" s="205" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L44" s="206"/>
       <c r="M44" s="206"/>
@@ -49748,12 +49750,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -49911,6 +49907,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -49921,22 +49923,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -49954,6 +49940,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
   <ds:schemaRefs>

--- a/01_基本設計書/20200220リリース/SC-Z01_在庫照会.xlsx
+++ b/01_基本設計書/20200220リリース/SC-Z01_在庫照会.xlsx
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\BackDoor\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85287A2A-7B53-4A08-96A9-792F1F1A0566}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BC1607-BB2C-41BA-AFBC-B21773125B4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -3289,19 +3289,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>3000件を超えた場合</t>
-    <rPh sb="4" eb="5">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>検索結果件数は3000件超えた場合、警告メッセージが表示され、処理が中止する。</t>
     <rPh sb="0" eb="2">
       <t>ケンサク</t>
@@ -3348,6 +3335,19 @@
   </si>
   <si>
     <t>Finish</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>1000件を超えた場合</t>
+    <rPh sb="4" eb="5">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -4809,6 +4809,57 @@
     <xf numFmtId="0" fontId="56" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="9" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="9" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4818,6 +4869,91 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4844,91 +4980,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="7" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5040,57 +5091,6 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="9" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="9" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="9" borderId="9" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="9" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="9" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="9" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -6083,7 +6083,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$47" spid="_x0000_s3603"/>
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$47" spid="_x0000_s3606"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6716,15 +6716,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>62594</xdr:colOff>
+          <xdr:colOff>56879</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>156779</xdr:rowOff>
+          <xdr:rowOff>160589</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>8295</xdr:colOff>
-          <xdr:row>19</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>97830</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
@@ -6739,10 +6739,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="428354" y="2084639"/>
-              <a:ext cx="1774501" cy="1062421"/>
-              <a:chOff x="1787559" y="2316183"/>
-              <a:chExt cx="1341120" cy="969079"/>
+              <a:off x="422639" y="2088449"/>
+              <a:ext cx="1747831" cy="1089091"/>
+              <a:chOff x="1787559" y="2316185"/>
+              <a:chExt cx="1341120" cy="969080"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:grpSp>
@@ -6758,10 +6758,10 @@
             </xdr:nvGrpSpPr>
             <xdr:grpSpPr>
               <a:xfrm>
-                <a:off x="1823232" y="2656442"/>
-                <a:ext cx="777645" cy="485581"/>
-                <a:chOff x="191656" y="3020181"/>
-                <a:chExt cx="777645" cy="479393"/>
+                <a:off x="1823232" y="2656448"/>
+                <a:ext cx="777645" cy="485571"/>
+                <a:chOff x="191656" y="3020187"/>
+                <a:chExt cx="777645" cy="479383"/>
               </a:xfrm>
             </xdr:grpSpPr>
             <xdr:sp macro="" textlink="">
@@ -6780,7 +6780,7 @@
               </xdr:nvSpPr>
               <xdr:spPr bwMode="auto">
                 <a:xfrm>
-                  <a:off x="191656" y="3020181"/>
+                  <a:off x="191656" y="3020187"/>
                   <a:ext cx="777645" cy="164478"/>
                 </a:xfrm>
                 <a:prstGeom prst="rect">
@@ -6846,7 +6846,7 @@
               </xdr:nvSpPr>
               <xdr:spPr bwMode="auto">
                 <a:xfrm>
-                  <a:off x="196808" y="3348094"/>
+                  <a:off x="196808" y="3348090"/>
                   <a:ext cx="763862" cy="151480"/>
                 </a:xfrm>
                 <a:prstGeom prst="rect">
@@ -6913,8 +6913,8 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="1787559" y="2316183"/>
-                <a:ext cx="1341120" cy="969079"/>
+                <a:off x="1787559" y="2316185"/>
+                <a:ext cx="1341120" cy="969080"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -8233,108 +8233,108 @@
       <c r="AG31" s="3"/>
     </row>
     <row r="32" spans="1:49" ht="19.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="252" t="s">
+      <c r="A32" s="269" t="s">
         <v>198</v>
       </c>
-      <c r="B32" s="252"/>
-      <c r="C32" s="252"/>
-      <c r="D32" s="252"/>
-      <c r="E32" s="252"/>
-      <c r="F32" s="252"/>
-      <c r="G32" s="252"/>
-      <c r="H32" s="252"/>
-      <c r="I32" s="252"/>
-      <c r="J32" s="252"/>
-      <c r="K32" s="252"/>
-      <c r="L32" s="252"/>
-      <c r="M32" s="252"/>
-      <c r="N32" s="252"/>
-      <c r="O32" s="252"/>
-      <c r="P32" s="252"/>
-      <c r="Q32" s="252"/>
-      <c r="R32" s="252"/>
-      <c r="S32" s="252"/>
-      <c r="T32" s="252"/>
-      <c r="U32" s="252"/>
-      <c r="V32" s="252"/>
-      <c r="W32" s="252"/>
-      <c r="X32" s="252"/>
-      <c r="Y32" s="252"/>
-      <c r="Z32" s="252"/>
-      <c r="AA32" s="252"/>
-      <c r="AB32" s="252"/>
-      <c r="AC32" s="252"/>
-      <c r="AD32" s="252"/>
-      <c r="AE32" s="252"/>
-      <c r="AF32" s="252"/>
-      <c r="AG32" s="252"/>
-      <c r="AH32" s="252"/>
-      <c r="AI32" s="252"/>
-      <c r="AJ32" s="252"/>
-      <c r="AK32" s="252"/>
-      <c r="AL32" s="252"/>
-      <c r="AM32" s="252"/>
-      <c r="AN32" s="252"/>
-      <c r="AO32" s="252"/>
-      <c r="AP32" s="252"/>
-      <c r="AQ32" s="252"/>
-      <c r="AR32" s="252"/>
-      <c r="AS32" s="252"/>
-      <c r="AT32" s="252"/>
-      <c r="AU32" s="252"/>
-      <c r="AV32" s="252"/>
-      <c r="AW32" s="252"/>
+      <c r="B32" s="269"/>
+      <c r="C32" s="269"/>
+      <c r="D32" s="269"/>
+      <c r="E32" s="269"/>
+      <c r="F32" s="269"/>
+      <c r="G32" s="269"/>
+      <c r="H32" s="269"/>
+      <c r="I32" s="269"/>
+      <c r="J32" s="269"/>
+      <c r="K32" s="269"/>
+      <c r="L32" s="269"/>
+      <c r="M32" s="269"/>
+      <c r="N32" s="269"/>
+      <c r="O32" s="269"/>
+      <c r="P32" s="269"/>
+      <c r="Q32" s="269"/>
+      <c r="R32" s="269"/>
+      <c r="S32" s="269"/>
+      <c r="T32" s="269"/>
+      <c r="U32" s="269"/>
+      <c r="V32" s="269"/>
+      <c r="W32" s="269"/>
+      <c r="X32" s="269"/>
+      <c r="Y32" s="269"/>
+      <c r="Z32" s="269"/>
+      <c r="AA32" s="269"/>
+      <c r="AB32" s="269"/>
+      <c r="AC32" s="269"/>
+      <c r="AD32" s="269"/>
+      <c r="AE32" s="269"/>
+      <c r="AF32" s="269"/>
+      <c r="AG32" s="269"/>
+      <c r="AH32" s="269"/>
+      <c r="AI32" s="269"/>
+      <c r="AJ32" s="269"/>
+      <c r="AK32" s="269"/>
+      <c r="AL32" s="269"/>
+      <c r="AM32" s="269"/>
+      <c r="AN32" s="269"/>
+      <c r="AO32" s="269"/>
+      <c r="AP32" s="269"/>
+      <c r="AQ32" s="269"/>
+      <c r="AR32" s="269"/>
+      <c r="AS32" s="269"/>
+      <c r="AT32" s="269"/>
+      <c r="AU32" s="269"/>
+      <c r="AV32" s="269"/>
+      <c r="AW32" s="269"/>
     </row>
     <row r="33" spans="1:49" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A33" s="253"/>
-      <c r="B33" s="253"/>
-      <c r="C33" s="253"/>
-      <c r="D33" s="253"/>
-      <c r="E33" s="253"/>
-      <c r="F33" s="253"/>
-      <c r="G33" s="253"/>
-      <c r="H33" s="253"/>
-      <c r="I33" s="253"/>
-      <c r="J33" s="253"/>
-      <c r="K33" s="253"/>
-      <c r="L33" s="253"/>
-      <c r="M33" s="253"/>
-      <c r="N33" s="253"/>
-      <c r="O33" s="253"/>
-      <c r="P33" s="253"/>
-      <c r="Q33" s="253"/>
-      <c r="R33" s="253"/>
-      <c r="S33" s="253"/>
-      <c r="T33" s="253"/>
-      <c r="U33" s="253"/>
-      <c r="V33" s="253"/>
-      <c r="W33" s="253"/>
-      <c r="X33" s="253"/>
-      <c r="Y33" s="253"/>
-      <c r="Z33" s="253"/>
-      <c r="AA33" s="253"/>
-      <c r="AB33" s="253"/>
-      <c r="AC33" s="253"/>
-      <c r="AD33" s="253"/>
-      <c r="AE33" s="253"/>
-      <c r="AF33" s="253"/>
-      <c r="AG33" s="253"/>
-      <c r="AH33" s="253"/>
-      <c r="AI33" s="253"/>
-      <c r="AJ33" s="253"/>
-      <c r="AK33" s="253"/>
-      <c r="AL33" s="253"/>
-      <c r="AM33" s="253"/>
-      <c r="AN33" s="253"/>
-      <c r="AO33" s="253"/>
-      <c r="AP33" s="253"/>
-      <c r="AQ33" s="253"/>
-      <c r="AR33" s="253"/>
-      <c r="AS33" s="253"/>
-      <c r="AT33" s="253"/>
-      <c r="AU33" s="253"/>
-      <c r="AV33" s="253"/>
-      <c r="AW33" s="253"/>
+      <c r="A33" s="270"/>
+      <c r="B33" s="270"/>
+      <c r="C33" s="270"/>
+      <c r="D33" s="270"/>
+      <c r="E33" s="270"/>
+      <c r="F33" s="270"/>
+      <c r="G33" s="270"/>
+      <c r="H33" s="270"/>
+      <c r="I33" s="270"/>
+      <c r="J33" s="270"/>
+      <c r="K33" s="270"/>
+      <c r="L33" s="270"/>
+      <c r="M33" s="270"/>
+      <c r="N33" s="270"/>
+      <c r="O33" s="270"/>
+      <c r="P33" s="270"/>
+      <c r="Q33" s="270"/>
+      <c r="R33" s="270"/>
+      <c r="S33" s="270"/>
+      <c r="T33" s="270"/>
+      <c r="U33" s="270"/>
+      <c r="V33" s="270"/>
+      <c r="W33" s="270"/>
+      <c r="X33" s="270"/>
+      <c r="Y33" s="270"/>
+      <c r="Z33" s="270"/>
+      <c r="AA33" s="270"/>
+      <c r="AB33" s="270"/>
+      <c r="AC33" s="270"/>
+      <c r="AD33" s="270"/>
+      <c r="AE33" s="270"/>
+      <c r="AF33" s="270"/>
+      <c r="AG33" s="270"/>
+      <c r="AH33" s="270"/>
+      <c r="AI33" s="270"/>
+      <c r="AJ33" s="270"/>
+      <c r="AK33" s="270"/>
+      <c r="AL33" s="270"/>
+      <c r="AM33" s="270"/>
+      <c r="AN33" s="270"/>
+      <c r="AO33" s="270"/>
+      <c r="AP33" s="270"/>
+      <c r="AQ33" s="270"/>
+      <c r="AR33" s="270"/>
+      <c r="AS33" s="270"/>
+      <c r="AT33" s="270"/>
+      <c r="AU33" s="270"/>
+      <c r="AV33" s="270"/>
+      <c r="AW33" s="270"/>
     </row>
     <row r="34" spans="1:49" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
@@ -8372,55 +8372,55 @@
       <c r="AG34" s="4"/>
     </row>
     <row r="35" spans="1:49" ht="19.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="254"/>
-      <c r="B35" s="254"/>
-      <c r="C35" s="254"/>
-      <c r="D35" s="254"/>
-      <c r="E35" s="254"/>
-      <c r="F35" s="254"/>
-      <c r="G35" s="254"/>
-      <c r="H35" s="254"/>
-      <c r="I35" s="254"/>
-      <c r="J35" s="254"/>
-      <c r="K35" s="254"/>
-      <c r="L35" s="254"/>
-      <c r="M35" s="254"/>
-      <c r="N35" s="254"/>
-      <c r="O35" s="254"/>
-      <c r="P35" s="254"/>
-      <c r="Q35" s="254"/>
-      <c r="R35" s="254"/>
-      <c r="S35" s="254"/>
-      <c r="T35" s="254"/>
-      <c r="U35" s="254"/>
-      <c r="V35" s="254"/>
-      <c r="W35" s="254"/>
-      <c r="X35" s="254"/>
-      <c r="Y35" s="254"/>
-      <c r="Z35" s="254"/>
-      <c r="AA35" s="254"/>
-      <c r="AB35" s="254"/>
-      <c r="AC35" s="254"/>
-      <c r="AD35" s="254"/>
-      <c r="AE35" s="254"/>
-      <c r="AF35" s="254"/>
-      <c r="AG35" s="254"/>
-      <c r="AH35" s="254"/>
-      <c r="AI35" s="254"/>
-      <c r="AJ35" s="254"/>
-      <c r="AK35" s="254"/>
-      <c r="AL35" s="254"/>
-      <c r="AM35" s="254"/>
-      <c r="AN35" s="254"/>
-      <c r="AO35" s="254"/>
-      <c r="AP35" s="254"/>
-      <c r="AQ35" s="254"/>
-      <c r="AR35" s="254"/>
-      <c r="AS35" s="254"/>
-      <c r="AT35" s="254"/>
-      <c r="AU35" s="254"/>
-      <c r="AV35" s="254"/>
-      <c r="AW35" s="254"/>
+      <c r="A35" s="271"/>
+      <c r="B35" s="271"/>
+      <c r="C35" s="271"/>
+      <c r="D35" s="271"/>
+      <c r="E35" s="271"/>
+      <c r="F35" s="271"/>
+      <c r="G35" s="271"/>
+      <c r="H35" s="271"/>
+      <c r="I35" s="271"/>
+      <c r="J35" s="271"/>
+      <c r="K35" s="271"/>
+      <c r="L35" s="271"/>
+      <c r="M35" s="271"/>
+      <c r="N35" s="271"/>
+      <c r="O35" s="271"/>
+      <c r="P35" s="271"/>
+      <c r="Q35" s="271"/>
+      <c r="R35" s="271"/>
+      <c r="S35" s="271"/>
+      <c r="T35" s="271"/>
+      <c r="U35" s="271"/>
+      <c r="V35" s="271"/>
+      <c r="W35" s="271"/>
+      <c r="X35" s="271"/>
+      <c r="Y35" s="271"/>
+      <c r="Z35" s="271"/>
+      <c r="AA35" s="271"/>
+      <c r="AB35" s="271"/>
+      <c r="AC35" s="271"/>
+      <c r="AD35" s="271"/>
+      <c r="AE35" s="271"/>
+      <c r="AF35" s="271"/>
+      <c r="AG35" s="271"/>
+      <c r="AH35" s="271"/>
+      <c r="AI35" s="271"/>
+      <c r="AJ35" s="271"/>
+      <c r="AK35" s="271"/>
+      <c r="AL35" s="271"/>
+      <c r="AM35" s="271"/>
+      <c r="AN35" s="271"/>
+      <c r="AO35" s="271"/>
+      <c r="AP35" s="271"/>
+      <c r="AQ35" s="271"/>
+      <c r="AR35" s="271"/>
+      <c r="AS35" s="271"/>
+      <c r="AT35" s="271"/>
+      <c r="AU35" s="271"/>
+      <c r="AV35" s="271"/>
+      <c r="AW35" s="271"/>
     </row>
     <row r="42" spans="1:49" x14ac:dyDescent="0.2">
       <c r="P42" s="3" t="s">
@@ -8455,1770 +8455,2003 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="54"/>
-      <c r="B1" s="255" t="s">
+      <c r="B1" s="303" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="255"/>
-      <c r="D1" s="255"/>
-      <c r="E1" s="255"/>
-      <c r="F1" s="255"/>
-      <c r="G1" s="255"/>
-      <c r="H1" s="255"/>
-      <c r="I1" s="255"/>
-      <c r="J1" s="255"/>
-      <c r="K1" s="255"/>
-      <c r="L1" s="255"/>
-      <c r="M1" s="255"/>
-      <c r="N1" s="255"/>
-      <c r="O1" s="255"/>
-      <c r="P1" s="255"/>
-      <c r="Q1" s="255"/>
-      <c r="R1" s="255"/>
-      <c r="S1" s="255"/>
-      <c r="T1" s="255"/>
-      <c r="U1" s="255"/>
-      <c r="V1" s="255"/>
-      <c r="W1" s="255"/>
-      <c r="X1" s="255"/>
-      <c r="Y1" s="255"/>
-      <c r="Z1" s="255"/>
-      <c r="AA1" s="255"/>
-      <c r="AB1" s="255"/>
-      <c r="AC1" s="255"/>
-      <c r="AD1" s="255"/>
-      <c r="AE1" s="255"/>
-      <c r="AF1" s="255"/>
-      <c r="AG1" s="255"/>
-      <c r="AH1" s="255"/>
-      <c r="AI1" s="255"/>
-      <c r="AJ1" s="255"/>
-      <c r="AK1" s="255"/>
-      <c r="AL1" s="255"/>
-      <c r="AM1" s="255"/>
-      <c r="AN1" s="255"/>
-      <c r="AO1" s="255"/>
-      <c r="AP1" s="255"/>
-      <c r="AQ1" s="255"/>
-      <c r="AR1" s="255"/>
-      <c r="AS1" s="255"/>
-      <c r="AT1" s="255"/>
-      <c r="AU1" s="255"/>
-      <c r="AV1" s="255"/>
-      <c r="AW1" s="255"/>
+      <c r="C1" s="303"/>
+      <c r="D1" s="303"/>
+      <c r="E1" s="303"/>
+      <c r="F1" s="303"/>
+      <c r="G1" s="303"/>
+      <c r="H1" s="303"/>
+      <c r="I1" s="303"/>
+      <c r="J1" s="303"/>
+      <c r="K1" s="303"/>
+      <c r="L1" s="303"/>
+      <c r="M1" s="303"/>
+      <c r="N1" s="303"/>
+      <c r="O1" s="303"/>
+      <c r="P1" s="303"/>
+      <c r="Q1" s="303"/>
+      <c r="R1" s="303"/>
+      <c r="S1" s="303"/>
+      <c r="T1" s="303"/>
+      <c r="U1" s="303"/>
+      <c r="V1" s="303"/>
+      <c r="W1" s="303"/>
+      <c r="X1" s="303"/>
+      <c r="Y1" s="303"/>
+      <c r="Z1" s="303"/>
+      <c r="AA1" s="303"/>
+      <c r="AB1" s="303"/>
+      <c r="AC1" s="303"/>
+      <c r="AD1" s="303"/>
+      <c r="AE1" s="303"/>
+      <c r="AF1" s="303"/>
+      <c r="AG1" s="303"/>
+      <c r="AH1" s="303"/>
+      <c r="AI1" s="303"/>
+      <c r="AJ1" s="303"/>
+      <c r="AK1" s="303"/>
+      <c r="AL1" s="303"/>
+      <c r="AM1" s="303"/>
+      <c r="AN1" s="303"/>
+      <c r="AO1" s="303"/>
+      <c r="AP1" s="303"/>
+      <c r="AQ1" s="303"/>
+      <c r="AR1" s="303"/>
+      <c r="AS1" s="303"/>
+      <c r="AT1" s="303"/>
+      <c r="AU1" s="303"/>
+      <c r="AV1" s="303"/>
+      <c r="AW1" s="303"/>
     </row>
     <row r="2" spans="1:49" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="54"/>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
-      <c r="H2" s="256"/>
-      <c r="I2" s="256"/>
-      <c r="J2" s="256"/>
-      <c r="K2" s="256"/>
-      <c r="L2" s="256"/>
-      <c r="M2" s="256"/>
-      <c r="N2" s="256"/>
-      <c r="O2" s="256"/>
-      <c r="P2" s="256"/>
-      <c r="Q2" s="256"/>
-      <c r="R2" s="256"/>
-      <c r="S2" s="256"/>
-      <c r="T2" s="256"/>
-      <c r="U2" s="256"/>
-      <c r="V2" s="256"/>
-      <c r="W2" s="256"/>
-      <c r="X2" s="256"/>
-      <c r="Y2" s="256"/>
-      <c r="Z2" s="256"/>
-      <c r="AA2" s="256"/>
-      <c r="AB2" s="256"/>
-      <c r="AC2" s="256"/>
-      <c r="AD2" s="256"/>
-      <c r="AE2" s="256"/>
-      <c r="AF2" s="256"/>
-      <c r="AG2" s="256"/>
-      <c r="AH2" s="256"/>
-      <c r="AI2" s="256"/>
-      <c r="AJ2" s="256"/>
-      <c r="AK2" s="256"/>
-      <c r="AL2" s="256"/>
-      <c r="AM2" s="256"/>
-      <c r="AN2" s="256"/>
-      <c r="AO2" s="256"/>
-      <c r="AP2" s="256"/>
-      <c r="AQ2" s="256"/>
-      <c r="AR2" s="256"/>
-      <c r="AS2" s="256"/>
-      <c r="AT2" s="256"/>
-      <c r="AU2" s="256"/>
-      <c r="AV2" s="256"/>
-      <c r="AW2" s="256"/>
+      <c r="B2" s="304"/>
+      <c r="C2" s="304"/>
+      <c r="D2" s="304"/>
+      <c r="E2" s="304"/>
+      <c r="F2" s="304"/>
+      <c r="G2" s="304"/>
+      <c r="H2" s="304"/>
+      <c r="I2" s="304"/>
+      <c r="J2" s="304"/>
+      <c r="K2" s="304"/>
+      <c r="L2" s="304"/>
+      <c r="M2" s="304"/>
+      <c r="N2" s="304"/>
+      <c r="O2" s="304"/>
+      <c r="P2" s="304"/>
+      <c r="Q2" s="304"/>
+      <c r="R2" s="304"/>
+      <c r="S2" s="304"/>
+      <c r="T2" s="304"/>
+      <c r="U2" s="304"/>
+      <c r="V2" s="304"/>
+      <c r="W2" s="304"/>
+      <c r="X2" s="304"/>
+      <c r="Y2" s="304"/>
+      <c r="Z2" s="304"/>
+      <c r="AA2" s="304"/>
+      <c r="AB2" s="304"/>
+      <c r="AC2" s="304"/>
+      <c r="AD2" s="304"/>
+      <c r="AE2" s="304"/>
+      <c r="AF2" s="304"/>
+      <c r="AG2" s="304"/>
+      <c r="AH2" s="304"/>
+      <c r="AI2" s="304"/>
+      <c r="AJ2" s="304"/>
+      <c r="AK2" s="304"/>
+      <c r="AL2" s="304"/>
+      <c r="AM2" s="304"/>
+      <c r="AN2" s="304"/>
+      <c r="AO2" s="304"/>
+      <c r="AP2" s="304"/>
+      <c r="AQ2" s="304"/>
+      <c r="AR2" s="304"/>
+      <c r="AS2" s="304"/>
+      <c r="AT2" s="304"/>
+      <c r="AU2" s="304"/>
+      <c r="AV2" s="304"/>
+      <c r="AW2" s="304"/>
     </row>
     <row r="3" spans="1:49" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="54"/>
-      <c r="B3" s="257" t="s">
+      <c r="B3" s="305" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="257"/>
-      <c r="D3" s="257"/>
-      <c r="E3" s="257" t="s">
+      <c r="C3" s="305"/>
+      <c r="D3" s="305"/>
+      <c r="E3" s="305" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="257"/>
-      <c r="G3" s="257"/>
-      <c r="H3" s="257"/>
-      <c r="I3" s="257"/>
-      <c r="J3" s="258" t="s">
+      <c r="F3" s="305"/>
+      <c r="G3" s="305"/>
+      <c r="H3" s="305"/>
+      <c r="I3" s="305"/>
+      <c r="J3" s="306" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="259"/>
-      <c r="L3" s="260"/>
-      <c r="M3" s="258" t="s">
+      <c r="K3" s="307"/>
+      <c r="L3" s="308"/>
+      <c r="M3" s="306" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="259"/>
-      <c r="O3" s="259"/>
-      <c r="P3" s="259"/>
-      <c r="Q3" s="259"/>
-      <c r="R3" s="260"/>
-      <c r="S3" s="257" t="s">
+      <c r="N3" s="307"/>
+      <c r="O3" s="307"/>
+      <c r="P3" s="307"/>
+      <c r="Q3" s="307"/>
+      <c r="R3" s="308"/>
+      <c r="S3" s="305" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="257"/>
-      <c r="U3" s="257"/>
-      <c r="V3" s="257" t="s">
+      <c r="T3" s="305"/>
+      <c r="U3" s="305"/>
+      <c r="V3" s="305" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="257"/>
-      <c r="X3" s="257"/>
-      <c r="Y3" s="257"/>
-      <c r="Z3" s="257"/>
-      <c r="AA3" s="257"/>
-      <c r="AB3" s="257"/>
-      <c r="AC3" s="257"/>
-      <c r="AD3" s="257"/>
-      <c r="AE3" s="257"/>
-      <c r="AF3" s="257"/>
-      <c r="AG3" s="257"/>
-      <c r="AH3" s="257"/>
-      <c r="AI3" s="257"/>
-      <c r="AJ3" s="257"/>
-      <c r="AK3" s="257"/>
-      <c r="AL3" s="257"/>
-      <c r="AM3" s="257"/>
-      <c r="AN3" s="257" t="s">
+      <c r="W3" s="305"/>
+      <c r="X3" s="305"/>
+      <c r="Y3" s="305"/>
+      <c r="Z3" s="305"/>
+      <c r="AA3" s="305"/>
+      <c r="AB3" s="305"/>
+      <c r="AC3" s="305"/>
+      <c r="AD3" s="305"/>
+      <c r="AE3" s="305"/>
+      <c r="AF3" s="305"/>
+      <c r="AG3" s="305"/>
+      <c r="AH3" s="305"/>
+      <c r="AI3" s="305"/>
+      <c r="AJ3" s="305"/>
+      <c r="AK3" s="305"/>
+      <c r="AL3" s="305"/>
+      <c r="AM3" s="305"/>
+      <c r="AN3" s="305" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="257"/>
-      <c r="AP3" s="257"/>
-      <c r="AQ3" s="257"/>
-      <c r="AR3" s="257"/>
-      <c r="AS3" s="257" t="s">
+      <c r="AO3" s="305"/>
+      <c r="AP3" s="305"/>
+      <c r="AQ3" s="305"/>
+      <c r="AR3" s="305"/>
+      <c r="AS3" s="305" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="257"/>
-      <c r="AU3" s="257"/>
-      <c r="AV3" s="257"/>
-      <c r="AW3" s="257"/>
+      <c r="AT3" s="305"/>
+      <c r="AU3" s="305"/>
+      <c r="AV3" s="305"/>
+      <c r="AW3" s="305"/>
     </row>
     <row r="4" spans="1:49" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="54"/>
-      <c r="B4" s="257"/>
-      <c r="C4" s="257"/>
-      <c r="D4" s="257"/>
-      <c r="E4" s="257"/>
-      <c r="F4" s="257"/>
-      <c r="G4" s="257"/>
-      <c r="H4" s="257"/>
-      <c r="I4" s="257"/>
-      <c r="J4" s="261"/>
-      <c r="K4" s="262"/>
-      <c r="L4" s="263"/>
-      <c r="M4" s="261"/>
-      <c r="N4" s="262"/>
-      <c r="O4" s="262"/>
-      <c r="P4" s="262"/>
-      <c r="Q4" s="262"/>
-      <c r="R4" s="263"/>
-      <c r="S4" s="257"/>
-      <c r="T4" s="257"/>
-      <c r="U4" s="257"/>
-      <c r="V4" s="257"/>
-      <c r="W4" s="257"/>
-      <c r="X4" s="257"/>
-      <c r="Y4" s="257"/>
-      <c r="Z4" s="257"/>
-      <c r="AA4" s="257"/>
-      <c r="AB4" s="257"/>
-      <c r="AC4" s="257"/>
-      <c r="AD4" s="257"/>
-      <c r="AE4" s="257"/>
-      <c r="AF4" s="257"/>
-      <c r="AG4" s="257"/>
-      <c r="AH4" s="257"/>
-      <c r="AI4" s="257"/>
-      <c r="AJ4" s="257"/>
-      <c r="AK4" s="257"/>
-      <c r="AL4" s="257"/>
-      <c r="AM4" s="257"/>
-      <c r="AN4" s="257"/>
-      <c r="AO4" s="257"/>
-      <c r="AP4" s="257"/>
-      <c r="AQ4" s="257"/>
-      <c r="AR4" s="257"/>
-      <c r="AS4" s="257"/>
-      <c r="AT4" s="257"/>
-      <c r="AU4" s="257"/>
-      <c r="AV4" s="257"/>
-      <c r="AW4" s="257"/>
+      <c r="B4" s="305"/>
+      <c r="C4" s="305"/>
+      <c r="D4" s="305"/>
+      <c r="E4" s="305"/>
+      <c r="F4" s="305"/>
+      <c r="G4" s="305"/>
+      <c r="H4" s="305"/>
+      <c r="I4" s="305"/>
+      <c r="J4" s="309"/>
+      <c r="K4" s="310"/>
+      <c r="L4" s="311"/>
+      <c r="M4" s="309"/>
+      <c r="N4" s="310"/>
+      <c r="O4" s="310"/>
+      <c r="P4" s="310"/>
+      <c r="Q4" s="310"/>
+      <c r="R4" s="311"/>
+      <c r="S4" s="305"/>
+      <c r="T4" s="305"/>
+      <c r="U4" s="305"/>
+      <c r="V4" s="305"/>
+      <c r="W4" s="305"/>
+      <c r="X4" s="305"/>
+      <c r="Y4" s="305"/>
+      <c r="Z4" s="305"/>
+      <c r="AA4" s="305"/>
+      <c r="AB4" s="305"/>
+      <c r="AC4" s="305"/>
+      <c r="AD4" s="305"/>
+      <c r="AE4" s="305"/>
+      <c r="AF4" s="305"/>
+      <c r="AG4" s="305"/>
+      <c r="AH4" s="305"/>
+      <c r="AI4" s="305"/>
+      <c r="AJ4" s="305"/>
+      <c r="AK4" s="305"/>
+      <c r="AL4" s="305"/>
+      <c r="AM4" s="305"/>
+      <c r="AN4" s="305"/>
+      <c r="AO4" s="305"/>
+      <c r="AP4" s="305"/>
+      <c r="AQ4" s="305"/>
+      <c r="AR4" s="305"/>
+      <c r="AS4" s="305"/>
+      <c r="AT4" s="305"/>
+      <c r="AU4" s="305"/>
+      <c r="AV4" s="305"/>
+      <c r="AW4" s="305"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A5" s="56"/>
-      <c r="B5" s="265">
+      <c r="B5" s="297">
         <v>1</v>
       </c>
-      <c r="C5" s="265"/>
-      <c r="D5" s="265"/>
-      <c r="E5" s="266">
+      <c r="C5" s="297"/>
+      <c r="D5" s="297"/>
+      <c r="E5" s="278">
         <v>43734</v>
       </c>
-      <c r="F5" s="266"/>
-      <c r="G5" s="266"/>
-      <c r="H5" s="266"/>
-      <c r="I5" s="266"/>
-      <c r="J5" s="267" t="s">
+      <c r="F5" s="278"/>
+      <c r="G5" s="278"/>
+      <c r="H5" s="278"/>
+      <c r="I5" s="278"/>
+      <c r="J5" s="279" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="268"/>
-      <c r="L5" s="269"/>
-      <c r="M5" s="267" t="s">
+      <c r="K5" s="280"/>
+      <c r="L5" s="281"/>
+      <c r="M5" s="279" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="268"/>
-      <c r="O5" s="268"/>
-      <c r="P5" s="268"/>
-      <c r="Q5" s="268"/>
-      <c r="R5" s="269"/>
-      <c r="S5" s="264" t="s">
+      <c r="N5" s="280"/>
+      <c r="O5" s="280"/>
+      <c r="P5" s="280"/>
+      <c r="Q5" s="280"/>
+      <c r="R5" s="281"/>
+      <c r="S5" s="285" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="264"/>
-      <c r="U5" s="264"/>
-      <c r="V5" s="273" t="s">
+      <c r="T5" s="285"/>
+      <c r="U5" s="285"/>
+      <c r="V5" s="296" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="273"/>
-      <c r="X5" s="273"/>
-      <c r="Y5" s="273"/>
-      <c r="Z5" s="273"/>
-      <c r="AA5" s="273"/>
-      <c r="AB5" s="273"/>
-      <c r="AC5" s="273"/>
-      <c r="AD5" s="273"/>
-      <c r="AE5" s="273"/>
-      <c r="AF5" s="273"/>
-      <c r="AG5" s="273"/>
-      <c r="AH5" s="273"/>
-      <c r="AI5" s="273"/>
-      <c r="AJ5" s="273"/>
-      <c r="AK5" s="273"/>
-      <c r="AL5" s="273"/>
-      <c r="AM5" s="273"/>
-      <c r="AN5" s="264" t="s">
+      <c r="W5" s="296"/>
+      <c r="X5" s="296"/>
+      <c r="Y5" s="296"/>
+      <c r="Z5" s="296"/>
+      <c r="AA5" s="296"/>
+      <c r="AB5" s="296"/>
+      <c r="AC5" s="296"/>
+      <c r="AD5" s="296"/>
+      <c r="AE5" s="296"/>
+      <c r="AF5" s="296"/>
+      <c r="AG5" s="296"/>
+      <c r="AH5" s="296"/>
+      <c r="AI5" s="296"/>
+      <c r="AJ5" s="296"/>
+      <c r="AK5" s="296"/>
+      <c r="AL5" s="296"/>
+      <c r="AM5" s="296"/>
+      <c r="AN5" s="285" t="s">
         <v>184</v>
       </c>
-      <c r="AO5" s="264"/>
-      <c r="AP5" s="264"/>
-      <c r="AQ5" s="264"/>
-      <c r="AR5" s="264"/>
-      <c r="AS5" s="264"/>
-      <c r="AT5" s="264"/>
-      <c r="AU5" s="264"/>
-      <c r="AV5" s="264"/>
-      <c r="AW5" s="264"/>
+      <c r="AO5" s="285"/>
+      <c r="AP5" s="285"/>
+      <c r="AQ5" s="285"/>
+      <c r="AR5" s="285"/>
+      <c r="AS5" s="285"/>
+      <c r="AT5" s="285"/>
+      <c r="AU5" s="285"/>
+      <c r="AV5" s="285"/>
+      <c r="AW5" s="285"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A6" s="56"/>
-      <c r="B6" s="265"/>
-      <c r="C6" s="265"/>
-      <c r="D6" s="265"/>
-      <c r="E6" s="266"/>
-      <c r="F6" s="266"/>
-      <c r="G6" s="266"/>
-      <c r="H6" s="266"/>
-      <c r="I6" s="266"/>
-      <c r="J6" s="267"/>
-      <c r="K6" s="268"/>
-      <c r="L6" s="269"/>
-      <c r="M6" s="270"/>
-      <c r="N6" s="271"/>
-      <c r="O6" s="271"/>
-      <c r="P6" s="271"/>
-      <c r="Q6" s="271"/>
-      <c r="R6" s="272"/>
-      <c r="S6" s="264"/>
-      <c r="T6" s="264"/>
-      <c r="U6" s="264"/>
-      <c r="V6" s="273"/>
-      <c r="W6" s="273"/>
-      <c r="X6" s="273"/>
-      <c r="Y6" s="273"/>
-      <c r="Z6" s="273"/>
-      <c r="AA6" s="273"/>
-      <c r="AB6" s="273"/>
-      <c r="AC6" s="273"/>
-      <c r="AD6" s="273"/>
-      <c r="AE6" s="273"/>
-      <c r="AF6" s="273"/>
-      <c r="AG6" s="273"/>
-      <c r="AH6" s="273"/>
-      <c r="AI6" s="273"/>
-      <c r="AJ6" s="273"/>
-      <c r="AK6" s="273"/>
-      <c r="AL6" s="273"/>
-      <c r="AM6" s="273"/>
-      <c r="AN6" s="264"/>
-      <c r="AO6" s="264"/>
-      <c r="AP6" s="264"/>
-      <c r="AQ6" s="264"/>
-      <c r="AR6" s="264"/>
-      <c r="AS6" s="264"/>
-      <c r="AT6" s="264"/>
-      <c r="AU6" s="264"/>
-      <c r="AV6" s="264"/>
-      <c r="AW6" s="264"/>
+      <c r="B6" s="297"/>
+      <c r="C6" s="297"/>
+      <c r="D6" s="297"/>
+      <c r="E6" s="278"/>
+      <c r="F6" s="278"/>
+      <c r="G6" s="278"/>
+      <c r="H6" s="278"/>
+      <c r="I6" s="278"/>
+      <c r="J6" s="279"/>
+      <c r="K6" s="280"/>
+      <c r="L6" s="281"/>
+      <c r="M6" s="300"/>
+      <c r="N6" s="301"/>
+      <c r="O6" s="301"/>
+      <c r="P6" s="301"/>
+      <c r="Q6" s="301"/>
+      <c r="R6" s="302"/>
+      <c r="S6" s="285"/>
+      <c r="T6" s="285"/>
+      <c r="U6" s="285"/>
+      <c r="V6" s="296"/>
+      <c r="W6" s="296"/>
+      <c r="X6" s="296"/>
+      <c r="Y6" s="296"/>
+      <c r="Z6" s="296"/>
+      <c r="AA6" s="296"/>
+      <c r="AB6" s="296"/>
+      <c r="AC6" s="296"/>
+      <c r="AD6" s="296"/>
+      <c r="AE6" s="296"/>
+      <c r="AF6" s="296"/>
+      <c r="AG6" s="296"/>
+      <c r="AH6" s="296"/>
+      <c r="AI6" s="296"/>
+      <c r="AJ6" s="296"/>
+      <c r="AK6" s="296"/>
+      <c r="AL6" s="296"/>
+      <c r="AM6" s="296"/>
+      <c r="AN6" s="285"/>
+      <c r="AO6" s="285"/>
+      <c r="AP6" s="285"/>
+      <c r="AQ6" s="285"/>
+      <c r="AR6" s="285"/>
+      <c r="AS6" s="285"/>
+      <c r="AT6" s="285"/>
+      <c r="AU6" s="285"/>
+      <c r="AV6" s="285"/>
+      <c r="AW6" s="285"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A7" s="56"/>
-      <c r="B7" s="265"/>
-      <c r="C7" s="265"/>
-      <c r="D7" s="265"/>
-      <c r="E7" s="266"/>
-      <c r="F7" s="266"/>
-      <c r="G7" s="266"/>
-      <c r="H7" s="266"/>
-      <c r="I7" s="266"/>
-      <c r="J7" s="267"/>
-      <c r="K7" s="268"/>
-      <c r="L7" s="269"/>
-      <c r="M7" s="270"/>
-      <c r="N7" s="271"/>
-      <c r="O7" s="271"/>
-      <c r="P7" s="271"/>
-      <c r="Q7" s="271"/>
-      <c r="R7" s="272"/>
-      <c r="S7" s="264"/>
-      <c r="T7" s="264"/>
-      <c r="U7" s="264"/>
-      <c r="V7" s="273"/>
-      <c r="W7" s="273"/>
-      <c r="X7" s="273"/>
-      <c r="Y7" s="273"/>
-      <c r="Z7" s="273"/>
-      <c r="AA7" s="273"/>
-      <c r="AB7" s="273"/>
-      <c r="AC7" s="273"/>
-      <c r="AD7" s="273"/>
-      <c r="AE7" s="273"/>
-      <c r="AF7" s="273"/>
-      <c r="AG7" s="273"/>
-      <c r="AH7" s="273"/>
-      <c r="AI7" s="273"/>
-      <c r="AJ7" s="273"/>
-      <c r="AK7" s="273"/>
-      <c r="AL7" s="273"/>
-      <c r="AM7" s="273"/>
-      <c r="AN7" s="264"/>
-      <c r="AO7" s="264"/>
-      <c r="AP7" s="264"/>
-      <c r="AQ7" s="264"/>
-      <c r="AR7" s="264"/>
-      <c r="AS7" s="264"/>
-      <c r="AT7" s="264"/>
-      <c r="AU7" s="264"/>
-      <c r="AV7" s="264"/>
-      <c r="AW7" s="264"/>
+      <c r="B7" s="297"/>
+      <c r="C7" s="297"/>
+      <c r="D7" s="297"/>
+      <c r="E7" s="278"/>
+      <c r="F7" s="278"/>
+      <c r="G7" s="278"/>
+      <c r="H7" s="278"/>
+      <c r="I7" s="278"/>
+      <c r="J7" s="279"/>
+      <c r="K7" s="280"/>
+      <c r="L7" s="281"/>
+      <c r="M7" s="300"/>
+      <c r="N7" s="301"/>
+      <c r="O7" s="301"/>
+      <c r="P7" s="301"/>
+      <c r="Q7" s="301"/>
+      <c r="R7" s="302"/>
+      <c r="S7" s="285"/>
+      <c r="T7" s="285"/>
+      <c r="U7" s="285"/>
+      <c r="V7" s="296"/>
+      <c r="W7" s="296"/>
+      <c r="X7" s="296"/>
+      <c r="Y7" s="296"/>
+      <c r="Z7" s="296"/>
+      <c r="AA7" s="296"/>
+      <c r="AB7" s="296"/>
+      <c r="AC7" s="296"/>
+      <c r="AD7" s="296"/>
+      <c r="AE7" s="296"/>
+      <c r="AF7" s="296"/>
+      <c r="AG7" s="296"/>
+      <c r="AH7" s="296"/>
+      <c r="AI7" s="296"/>
+      <c r="AJ7" s="296"/>
+      <c r="AK7" s="296"/>
+      <c r="AL7" s="296"/>
+      <c r="AM7" s="296"/>
+      <c r="AN7" s="285"/>
+      <c r="AO7" s="285"/>
+      <c r="AP7" s="285"/>
+      <c r="AQ7" s="285"/>
+      <c r="AR7" s="285"/>
+      <c r="AS7" s="285"/>
+      <c r="AT7" s="285"/>
+      <c r="AU7" s="285"/>
+      <c r="AV7" s="285"/>
+      <c r="AW7" s="285"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A8" s="56"/>
-      <c r="B8" s="265"/>
-      <c r="C8" s="265"/>
-      <c r="D8" s="265"/>
-      <c r="E8" s="266"/>
-      <c r="F8" s="266"/>
-      <c r="G8" s="266"/>
-      <c r="H8" s="266"/>
-      <c r="I8" s="266"/>
-      <c r="J8" s="267"/>
-      <c r="K8" s="268"/>
-      <c r="L8" s="269"/>
-      <c r="M8" s="270"/>
-      <c r="N8" s="271"/>
-      <c r="O8" s="271"/>
-      <c r="P8" s="271"/>
-      <c r="Q8" s="271"/>
-      <c r="R8" s="272"/>
-      <c r="S8" s="264"/>
-      <c r="T8" s="264"/>
-      <c r="U8" s="264"/>
-      <c r="V8" s="273"/>
-      <c r="W8" s="273"/>
-      <c r="X8" s="273"/>
-      <c r="Y8" s="273"/>
-      <c r="Z8" s="273"/>
-      <c r="AA8" s="273"/>
-      <c r="AB8" s="273"/>
-      <c r="AC8" s="273"/>
-      <c r="AD8" s="273"/>
-      <c r="AE8" s="273"/>
-      <c r="AF8" s="273"/>
-      <c r="AG8" s="273"/>
-      <c r="AH8" s="273"/>
-      <c r="AI8" s="273"/>
-      <c r="AJ8" s="273"/>
-      <c r="AK8" s="273"/>
-      <c r="AL8" s="273"/>
-      <c r="AM8" s="273"/>
-      <c r="AN8" s="264"/>
-      <c r="AO8" s="264"/>
-      <c r="AP8" s="264"/>
-      <c r="AQ8" s="264"/>
-      <c r="AR8" s="264"/>
-      <c r="AS8" s="264"/>
-      <c r="AT8" s="264"/>
-      <c r="AU8" s="264"/>
-      <c r="AV8" s="264"/>
-      <c r="AW8" s="264"/>
+      <c r="B8" s="297"/>
+      <c r="C8" s="297"/>
+      <c r="D8" s="297"/>
+      <c r="E8" s="278"/>
+      <c r="F8" s="278"/>
+      <c r="G8" s="278"/>
+      <c r="H8" s="278"/>
+      <c r="I8" s="278"/>
+      <c r="J8" s="279"/>
+      <c r="K8" s="280"/>
+      <c r="L8" s="281"/>
+      <c r="M8" s="300"/>
+      <c r="N8" s="301"/>
+      <c r="O8" s="301"/>
+      <c r="P8" s="301"/>
+      <c r="Q8" s="301"/>
+      <c r="R8" s="302"/>
+      <c r="S8" s="285"/>
+      <c r="T8" s="285"/>
+      <c r="U8" s="285"/>
+      <c r="V8" s="296"/>
+      <c r="W8" s="296"/>
+      <c r="X8" s="296"/>
+      <c r="Y8" s="296"/>
+      <c r="Z8" s="296"/>
+      <c r="AA8" s="296"/>
+      <c r="AB8" s="296"/>
+      <c r="AC8" s="296"/>
+      <c r="AD8" s="296"/>
+      <c r="AE8" s="296"/>
+      <c r="AF8" s="296"/>
+      <c r="AG8" s="296"/>
+      <c r="AH8" s="296"/>
+      <c r="AI8" s="296"/>
+      <c r="AJ8" s="296"/>
+      <c r="AK8" s="296"/>
+      <c r="AL8" s="296"/>
+      <c r="AM8" s="296"/>
+      <c r="AN8" s="285"/>
+      <c r="AO8" s="285"/>
+      <c r="AP8" s="285"/>
+      <c r="AQ8" s="285"/>
+      <c r="AR8" s="285"/>
+      <c r="AS8" s="285"/>
+      <c r="AT8" s="285"/>
+      <c r="AU8" s="285"/>
+      <c r="AV8" s="285"/>
+      <c r="AW8" s="285"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A9" s="56"/>
-      <c r="B9" s="265"/>
-      <c r="C9" s="265"/>
-      <c r="D9" s="265"/>
-      <c r="E9" s="266"/>
-      <c r="F9" s="266"/>
-      <c r="G9" s="266"/>
-      <c r="H9" s="266"/>
-      <c r="I9" s="266"/>
-      <c r="J9" s="267"/>
-      <c r="K9" s="268"/>
-      <c r="L9" s="269"/>
-      <c r="M9" s="270"/>
-      <c r="N9" s="271"/>
-      <c r="O9" s="271"/>
-      <c r="P9" s="271"/>
-      <c r="Q9" s="271"/>
-      <c r="R9" s="272"/>
-      <c r="S9" s="264"/>
-      <c r="T9" s="264"/>
-      <c r="U9" s="264"/>
-      <c r="V9" s="273"/>
-      <c r="W9" s="273"/>
-      <c r="X9" s="273"/>
-      <c r="Y9" s="273"/>
-      <c r="Z9" s="273"/>
-      <c r="AA9" s="273"/>
-      <c r="AB9" s="273"/>
-      <c r="AC9" s="273"/>
-      <c r="AD9" s="273"/>
-      <c r="AE9" s="273"/>
-      <c r="AF9" s="273"/>
-      <c r="AG9" s="273"/>
-      <c r="AH9" s="273"/>
-      <c r="AI9" s="273"/>
-      <c r="AJ9" s="273"/>
-      <c r="AK9" s="273"/>
-      <c r="AL9" s="273"/>
-      <c r="AM9" s="273"/>
-      <c r="AN9" s="264"/>
-      <c r="AO9" s="264"/>
-      <c r="AP9" s="264"/>
-      <c r="AQ9" s="264"/>
-      <c r="AR9" s="264"/>
-      <c r="AS9" s="264"/>
-      <c r="AT9" s="264"/>
-      <c r="AU9" s="264"/>
-      <c r="AV9" s="264"/>
-      <c r="AW9" s="264"/>
+      <c r="B9" s="297"/>
+      <c r="C9" s="297"/>
+      <c r="D9" s="297"/>
+      <c r="E9" s="278"/>
+      <c r="F9" s="278"/>
+      <c r="G9" s="278"/>
+      <c r="H9" s="278"/>
+      <c r="I9" s="278"/>
+      <c r="J9" s="279"/>
+      <c r="K9" s="280"/>
+      <c r="L9" s="281"/>
+      <c r="M9" s="300"/>
+      <c r="N9" s="301"/>
+      <c r="O9" s="301"/>
+      <c r="P9" s="301"/>
+      <c r="Q9" s="301"/>
+      <c r="R9" s="302"/>
+      <c r="S9" s="285"/>
+      <c r="T9" s="285"/>
+      <c r="U9" s="285"/>
+      <c r="V9" s="296"/>
+      <c r="W9" s="296"/>
+      <c r="X9" s="296"/>
+      <c r="Y9" s="296"/>
+      <c r="Z9" s="296"/>
+      <c r="AA9" s="296"/>
+      <c r="AB9" s="296"/>
+      <c r="AC9" s="296"/>
+      <c r="AD9" s="296"/>
+      <c r="AE9" s="296"/>
+      <c r="AF9" s="296"/>
+      <c r="AG9" s="296"/>
+      <c r="AH9" s="296"/>
+      <c r="AI9" s="296"/>
+      <c r="AJ9" s="296"/>
+      <c r="AK9" s="296"/>
+      <c r="AL9" s="296"/>
+      <c r="AM9" s="296"/>
+      <c r="AN9" s="285"/>
+      <c r="AO9" s="285"/>
+      <c r="AP9" s="285"/>
+      <c r="AQ9" s="285"/>
+      <c r="AR9" s="285"/>
+      <c r="AS9" s="285"/>
+      <c r="AT9" s="285"/>
+      <c r="AU9" s="285"/>
+      <c r="AV9" s="285"/>
+      <c r="AW9" s="285"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A10" s="56"/>
-      <c r="B10" s="265"/>
-      <c r="C10" s="265"/>
-      <c r="D10" s="265"/>
-      <c r="E10" s="266"/>
-      <c r="F10" s="266"/>
-      <c r="G10" s="266"/>
-      <c r="H10" s="266"/>
-      <c r="I10" s="266"/>
-      <c r="J10" s="267"/>
-      <c r="K10" s="268"/>
-      <c r="L10" s="269"/>
-      <c r="M10" s="270"/>
-      <c r="N10" s="271"/>
-      <c r="O10" s="271"/>
-      <c r="P10" s="271"/>
-      <c r="Q10" s="271"/>
-      <c r="R10" s="272"/>
-      <c r="S10" s="264"/>
-      <c r="T10" s="264"/>
-      <c r="U10" s="264"/>
-      <c r="V10" s="273"/>
-      <c r="W10" s="273"/>
-      <c r="X10" s="273"/>
-      <c r="Y10" s="273"/>
-      <c r="Z10" s="273"/>
-      <c r="AA10" s="273"/>
-      <c r="AB10" s="273"/>
-      <c r="AC10" s="273"/>
-      <c r="AD10" s="273"/>
-      <c r="AE10" s="273"/>
-      <c r="AF10" s="273"/>
-      <c r="AG10" s="273"/>
-      <c r="AH10" s="273"/>
-      <c r="AI10" s="273"/>
-      <c r="AJ10" s="273"/>
-      <c r="AK10" s="273"/>
-      <c r="AL10" s="273"/>
-      <c r="AM10" s="273"/>
-      <c r="AN10" s="264"/>
-      <c r="AO10" s="264"/>
-      <c r="AP10" s="264"/>
-      <c r="AQ10" s="264"/>
-      <c r="AR10" s="264"/>
-      <c r="AS10" s="264"/>
-      <c r="AT10" s="264"/>
-      <c r="AU10" s="264"/>
-      <c r="AV10" s="264"/>
-      <c r="AW10" s="264"/>
+      <c r="B10" s="297"/>
+      <c r="C10" s="297"/>
+      <c r="D10" s="297"/>
+      <c r="E10" s="278"/>
+      <c r="F10" s="278"/>
+      <c r="G10" s="278"/>
+      <c r="H10" s="278"/>
+      <c r="I10" s="278"/>
+      <c r="J10" s="279"/>
+      <c r="K10" s="280"/>
+      <c r="L10" s="281"/>
+      <c r="M10" s="300"/>
+      <c r="N10" s="301"/>
+      <c r="O10" s="301"/>
+      <c r="P10" s="301"/>
+      <c r="Q10" s="301"/>
+      <c r="R10" s="302"/>
+      <c r="S10" s="285"/>
+      <c r="T10" s="285"/>
+      <c r="U10" s="285"/>
+      <c r="V10" s="296"/>
+      <c r="W10" s="296"/>
+      <c r="X10" s="296"/>
+      <c r="Y10" s="296"/>
+      <c r="Z10" s="296"/>
+      <c r="AA10" s="296"/>
+      <c r="AB10" s="296"/>
+      <c r="AC10" s="296"/>
+      <c r="AD10" s="296"/>
+      <c r="AE10" s="296"/>
+      <c r="AF10" s="296"/>
+      <c r="AG10" s="296"/>
+      <c r="AH10" s="296"/>
+      <c r="AI10" s="296"/>
+      <c r="AJ10" s="296"/>
+      <c r="AK10" s="296"/>
+      <c r="AL10" s="296"/>
+      <c r="AM10" s="296"/>
+      <c r="AN10" s="285"/>
+      <c r="AO10" s="285"/>
+      <c r="AP10" s="285"/>
+      <c r="AQ10" s="285"/>
+      <c r="AR10" s="285"/>
+      <c r="AS10" s="285"/>
+      <c r="AT10" s="285"/>
+      <c r="AU10" s="285"/>
+      <c r="AV10" s="285"/>
+      <c r="AW10" s="285"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A11" s="56"/>
-      <c r="B11" s="265"/>
-      <c r="C11" s="265"/>
-      <c r="D11" s="265"/>
-      <c r="E11" s="266"/>
-      <c r="F11" s="266"/>
-      <c r="G11" s="266"/>
-      <c r="H11" s="266"/>
-      <c r="I11" s="266"/>
-      <c r="J11" s="267"/>
-      <c r="K11" s="268"/>
-      <c r="L11" s="269"/>
-      <c r="M11" s="277"/>
-      <c r="N11" s="278"/>
-      <c r="O11" s="278"/>
-      <c r="P11" s="278"/>
-      <c r="Q11" s="278"/>
-      <c r="R11" s="279"/>
-      <c r="S11" s="264"/>
-      <c r="T11" s="264"/>
-      <c r="U11" s="264"/>
-      <c r="V11" s="280"/>
-      <c r="W11" s="286"/>
-      <c r="X11" s="286"/>
-      <c r="Y11" s="286"/>
-      <c r="Z11" s="286"/>
-      <c r="AA11" s="286"/>
-      <c r="AB11" s="286"/>
-      <c r="AC11" s="286"/>
-      <c r="AD11" s="286"/>
-      <c r="AE11" s="286"/>
-      <c r="AF11" s="286"/>
-      <c r="AG11" s="286"/>
-      <c r="AH11" s="286"/>
-      <c r="AI11" s="286"/>
-      <c r="AJ11" s="286"/>
-      <c r="AK11" s="286"/>
-      <c r="AL11" s="286"/>
-      <c r="AM11" s="287"/>
-      <c r="AN11" s="264"/>
-      <c r="AO11" s="264"/>
-      <c r="AP11" s="264"/>
-      <c r="AQ11" s="264"/>
-      <c r="AR11" s="264"/>
-      <c r="AS11" s="264"/>
-      <c r="AT11" s="264"/>
-      <c r="AU11" s="264"/>
-      <c r="AV11" s="264"/>
-      <c r="AW11" s="264"/>
+      <c r="B11" s="297"/>
+      <c r="C11" s="297"/>
+      <c r="D11" s="297"/>
+      <c r="E11" s="278"/>
+      <c r="F11" s="278"/>
+      <c r="G11" s="278"/>
+      <c r="H11" s="278"/>
+      <c r="I11" s="278"/>
+      <c r="J11" s="279"/>
+      <c r="K11" s="280"/>
+      <c r="L11" s="281"/>
+      <c r="M11" s="292"/>
+      <c r="N11" s="290"/>
+      <c r="O11" s="290"/>
+      <c r="P11" s="290"/>
+      <c r="Q11" s="290"/>
+      <c r="R11" s="291"/>
+      <c r="S11" s="285"/>
+      <c r="T11" s="285"/>
+      <c r="U11" s="285"/>
+      <c r="V11" s="286"/>
+      <c r="W11" s="298"/>
+      <c r="X11" s="298"/>
+      <c r="Y11" s="298"/>
+      <c r="Z11" s="298"/>
+      <c r="AA11" s="298"/>
+      <c r="AB11" s="298"/>
+      <c r="AC11" s="298"/>
+      <c r="AD11" s="298"/>
+      <c r="AE11" s="298"/>
+      <c r="AF11" s="298"/>
+      <c r="AG11" s="298"/>
+      <c r="AH11" s="298"/>
+      <c r="AI11" s="298"/>
+      <c r="AJ11" s="298"/>
+      <c r="AK11" s="298"/>
+      <c r="AL11" s="298"/>
+      <c r="AM11" s="299"/>
+      <c r="AN11" s="285"/>
+      <c r="AO11" s="285"/>
+      <c r="AP11" s="285"/>
+      <c r="AQ11" s="285"/>
+      <c r="AR11" s="285"/>
+      <c r="AS11" s="285"/>
+      <c r="AT11" s="285"/>
+      <c r="AU11" s="285"/>
+      <c r="AV11" s="285"/>
+      <c r="AW11" s="285"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A12" s="56"/>
-      <c r="B12" s="274"/>
-      <c r="C12" s="275"/>
-      <c r="D12" s="276"/>
-      <c r="E12" s="266"/>
-      <c r="F12" s="266"/>
-      <c r="G12" s="266"/>
-      <c r="H12" s="266"/>
-      <c r="I12" s="266"/>
-      <c r="J12" s="267"/>
-      <c r="K12" s="268"/>
-      <c r="L12" s="269"/>
-      <c r="M12" s="277"/>
-      <c r="N12" s="278"/>
-      <c r="O12" s="278"/>
-      <c r="P12" s="278"/>
-      <c r="Q12" s="278"/>
-      <c r="R12" s="279"/>
-      <c r="S12" s="264"/>
-      <c r="T12" s="264"/>
-      <c r="U12" s="264"/>
-      <c r="V12" s="280"/>
-      <c r="W12" s="281"/>
-      <c r="X12" s="281"/>
-      <c r="Y12" s="281"/>
-      <c r="Z12" s="281"/>
-      <c r="AA12" s="281"/>
-      <c r="AB12" s="281"/>
-      <c r="AC12" s="281"/>
-      <c r="AD12" s="281"/>
-      <c r="AE12" s="281"/>
-      <c r="AF12" s="281"/>
-      <c r="AG12" s="281"/>
-      <c r="AH12" s="281"/>
-      <c r="AI12" s="281"/>
-      <c r="AJ12" s="281"/>
-      <c r="AK12" s="281"/>
-      <c r="AL12" s="281"/>
-      <c r="AM12" s="282"/>
-      <c r="AN12" s="283"/>
-      <c r="AO12" s="284"/>
-      <c r="AP12" s="284"/>
-      <c r="AQ12" s="284"/>
-      <c r="AR12" s="285"/>
-      <c r="AS12" s="283"/>
-      <c r="AT12" s="284"/>
-      <c r="AU12" s="284"/>
-      <c r="AV12" s="284"/>
-      <c r="AW12" s="285"/>
+      <c r="B12" s="275"/>
+      <c r="C12" s="276"/>
+      <c r="D12" s="277"/>
+      <c r="E12" s="278"/>
+      <c r="F12" s="278"/>
+      <c r="G12" s="278"/>
+      <c r="H12" s="278"/>
+      <c r="I12" s="278"/>
+      <c r="J12" s="279"/>
+      <c r="K12" s="280"/>
+      <c r="L12" s="281"/>
+      <c r="M12" s="292"/>
+      <c r="N12" s="290"/>
+      <c r="O12" s="290"/>
+      <c r="P12" s="290"/>
+      <c r="Q12" s="290"/>
+      <c r="R12" s="291"/>
+      <c r="S12" s="285"/>
+      <c r="T12" s="285"/>
+      <c r="U12" s="285"/>
+      <c r="V12" s="286"/>
+      <c r="W12" s="287"/>
+      <c r="X12" s="287"/>
+      <c r="Y12" s="287"/>
+      <c r="Z12" s="287"/>
+      <c r="AA12" s="287"/>
+      <c r="AB12" s="287"/>
+      <c r="AC12" s="287"/>
+      <c r="AD12" s="287"/>
+      <c r="AE12" s="287"/>
+      <c r="AF12" s="287"/>
+      <c r="AG12" s="287"/>
+      <c r="AH12" s="287"/>
+      <c r="AI12" s="287"/>
+      <c r="AJ12" s="287"/>
+      <c r="AK12" s="287"/>
+      <c r="AL12" s="287"/>
+      <c r="AM12" s="288"/>
+      <c r="AN12" s="272"/>
+      <c r="AO12" s="273"/>
+      <c r="AP12" s="273"/>
+      <c r="AQ12" s="273"/>
+      <c r="AR12" s="274"/>
+      <c r="AS12" s="272"/>
+      <c r="AT12" s="273"/>
+      <c r="AU12" s="273"/>
+      <c r="AV12" s="273"/>
+      <c r="AW12" s="274"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A13" s="56"/>
-      <c r="B13" s="274"/>
-      <c r="C13" s="275"/>
-      <c r="D13" s="276"/>
-      <c r="E13" s="266"/>
-      <c r="F13" s="266"/>
-      <c r="G13" s="266"/>
-      <c r="H13" s="266"/>
-      <c r="I13" s="266"/>
-      <c r="J13" s="267"/>
-      <c r="K13" s="268"/>
-      <c r="L13" s="269"/>
-      <c r="M13" s="288"/>
-      <c r="N13" s="278"/>
-      <c r="O13" s="278"/>
-      <c r="P13" s="278"/>
-      <c r="Q13" s="278"/>
-      <c r="R13" s="279"/>
-      <c r="S13" s="264"/>
-      <c r="T13" s="264"/>
-      <c r="U13" s="264"/>
-      <c r="V13" s="280"/>
-      <c r="W13" s="281"/>
-      <c r="X13" s="281"/>
-      <c r="Y13" s="281"/>
-      <c r="Z13" s="281"/>
-      <c r="AA13" s="281"/>
-      <c r="AB13" s="281"/>
-      <c r="AC13" s="281"/>
-      <c r="AD13" s="281"/>
-      <c r="AE13" s="281"/>
-      <c r="AF13" s="281"/>
-      <c r="AG13" s="281"/>
-      <c r="AH13" s="281"/>
-      <c r="AI13" s="281"/>
-      <c r="AJ13" s="281"/>
-      <c r="AK13" s="281"/>
-      <c r="AL13" s="281"/>
-      <c r="AM13" s="282"/>
-      <c r="AN13" s="283"/>
-      <c r="AO13" s="284"/>
-      <c r="AP13" s="284"/>
-      <c r="AQ13" s="284"/>
-      <c r="AR13" s="285"/>
-      <c r="AS13" s="283"/>
-      <c r="AT13" s="284"/>
-      <c r="AU13" s="284"/>
-      <c r="AV13" s="284"/>
-      <c r="AW13" s="285"/>
+      <c r="B13" s="275"/>
+      <c r="C13" s="276"/>
+      <c r="D13" s="277"/>
+      <c r="E13" s="278"/>
+      <c r="F13" s="278"/>
+      <c r="G13" s="278"/>
+      <c r="H13" s="278"/>
+      <c r="I13" s="278"/>
+      <c r="J13" s="279"/>
+      <c r="K13" s="280"/>
+      <c r="L13" s="281"/>
+      <c r="M13" s="289"/>
+      <c r="N13" s="290"/>
+      <c r="O13" s="290"/>
+      <c r="P13" s="290"/>
+      <c r="Q13" s="290"/>
+      <c r="R13" s="291"/>
+      <c r="S13" s="285"/>
+      <c r="T13" s="285"/>
+      <c r="U13" s="285"/>
+      <c r="V13" s="286"/>
+      <c r="W13" s="287"/>
+      <c r="X13" s="287"/>
+      <c r="Y13" s="287"/>
+      <c r="Z13" s="287"/>
+      <c r="AA13" s="287"/>
+      <c r="AB13" s="287"/>
+      <c r="AC13" s="287"/>
+      <c r="AD13" s="287"/>
+      <c r="AE13" s="287"/>
+      <c r="AF13" s="287"/>
+      <c r="AG13" s="287"/>
+      <c r="AH13" s="287"/>
+      <c r="AI13" s="287"/>
+      <c r="AJ13" s="287"/>
+      <c r="AK13" s="287"/>
+      <c r="AL13" s="287"/>
+      <c r="AM13" s="288"/>
+      <c r="AN13" s="272"/>
+      <c r="AO13" s="273"/>
+      <c r="AP13" s="273"/>
+      <c r="AQ13" s="273"/>
+      <c r="AR13" s="274"/>
+      <c r="AS13" s="272"/>
+      <c r="AT13" s="273"/>
+      <c r="AU13" s="273"/>
+      <c r="AV13" s="273"/>
+      <c r="AW13" s="274"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A14" s="56"/>
-      <c r="B14" s="274"/>
-      <c r="C14" s="275"/>
-      <c r="D14" s="276"/>
-      <c r="E14" s="266"/>
-      <c r="F14" s="266"/>
-      <c r="G14" s="266"/>
-      <c r="H14" s="266"/>
-      <c r="I14" s="266"/>
-      <c r="J14" s="267"/>
-      <c r="K14" s="268"/>
-      <c r="L14" s="269"/>
-      <c r="M14" s="288"/>
-      <c r="N14" s="278"/>
-      <c r="O14" s="278"/>
-      <c r="P14" s="278"/>
-      <c r="Q14" s="278"/>
-      <c r="R14" s="279"/>
-      <c r="S14" s="264"/>
-      <c r="T14" s="264"/>
-      <c r="U14" s="264"/>
-      <c r="V14" s="289"/>
-      <c r="W14" s="273"/>
-      <c r="X14" s="273"/>
-      <c r="Y14" s="273"/>
-      <c r="Z14" s="273"/>
-      <c r="AA14" s="273"/>
-      <c r="AB14" s="273"/>
-      <c r="AC14" s="273"/>
-      <c r="AD14" s="273"/>
-      <c r="AE14" s="273"/>
-      <c r="AF14" s="273"/>
-      <c r="AG14" s="273"/>
-      <c r="AH14" s="273"/>
-      <c r="AI14" s="273"/>
-      <c r="AJ14" s="273"/>
-      <c r="AK14" s="273"/>
-      <c r="AL14" s="273"/>
-      <c r="AM14" s="273"/>
-      <c r="AN14" s="264"/>
-      <c r="AO14" s="264"/>
-      <c r="AP14" s="264"/>
-      <c r="AQ14" s="264"/>
-      <c r="AR14" s="264"/>
-      <c r="AS14" s="283"/>
-      <c r="AT14" s="284"/>
-      <c r="AU14" s="284"/>
-      <c r="AV14" s="284"/>
-      <c r="AW14" s="285"/>
+      <c r="B14" s="275"/>
+      <c r="C14" s="276"/>
+      <c r="D14" s="277"/>
+      <c r="E14" s="278"/>
+      <c r="F14" s="278"/>
+      <c r="G14" s="278"/>
+      <c r="H14" s="278"/>
+      <c r="I14" s="278"/>
+      <c r="J14" s="279"/>
+      <c r="K14" s="280"/>
+      <c r="L14" s="281"/>
+      <c r="M14" s="289"/>
+      <c r="N14" s="290"/>
+      <c r="O14" s="290"/>
+      <c r="P14" s="290"/>
+      <c r="Q14" s="290"/>
+      <c r="R14" s="291"/>
+      <c r="S14" s="285"/>
+      <c r="T14" s="285"/>
+      <c r="U14" s="285"/>
+      <c r="V14" s="295"/>
+      <c r="W14" s="296"/>
+      <c r="X14" s="296"/>
+      <c r="Y14" s="296"/>
+      <c r="Z14" s="296"/>
+      <c r="AA14" s="296"/>
+      <c r="AB14" s="296"/>
+      <c r="AC14" s="296"/>
+      <c r="AD14" s="296"/>
+      <c r="AE14" s="296"/>
+      <c r="AF14" s="296"/>
+      <c r="AG14" s="296"/>
+      <c r="AH14" s="296"/>
+      <c r="AI14" s="296"/>
+      <c r="AJ14" s="296"/>
+      <c r="AK14" s="296"/>
+      <c r="AL14" s="296"/>
+      <c r="AM14" s="296"/>
+      <c r="AN14" s="285"/>
+      <c r="AO14" s="285"/>
+      <c r="AP14" s="285"/>
+      <c r="AQ14" s="285"/>
+      <c r="AR14" s="285"/>
+      <c r="AS14" s="272"/>
+      <c r="AT14" s="273"/>
+      <c r="AU14" s="273"/>
+      <c r="AV14" s="273"/>
+      <c r="AW14" s="274"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A15" s="56"/>
-      <c r="B15" s="274"/>
-      <c r="C15" s="275"/>
-      <c r="D15" s="276"/>
-      <c r="E15" s="266"/>
-      <c r="F15" s="266"/>
-      <c r="G15" s="266"/>
-      <c r="H15" s="266"/>
-      <c r="I15" s="266"/>
-      <c r="J15" s="267"/>
-      <c r="K15" s="268"/>
-      <c r="L15" s="269"/>
-      <c r="M15" s="277"/>
-      <c r="N15" s="278"/>
-      <c r="O15" s="278"/>
-      <c r="P15" s="278"/>
-      <c r="Q15" s="278"/>
-      <c r="R15" s="279"/>
-      <c r="S15" s="264"/>
-      <c r="T15" s="264"/>
-      <c r="U15" s="264"/>
-      <c r="V15" s="280"/>
-      <c r="W15" s="281"/>
-      <c r="X15" s="281"/>
-      <c r="Y15" s="281"/>
-      <c r="Z15" s="281"/>
-      <c r="AA15" s="281"/>
-      <c r="AB15" s="281"/>
-      <c r="AC15" s="281"/>
-      <c r="AD15" s="281"/>
-      <c r="AE15" s="281"/>
-      <c r="AF15" s="281"/>
-      <c r="AG15" s="281"/>
-      <c r="AH15" s="281"/>
-      <c r="AI15" s="281"/>
-      <c r="AJ15" s="281"/>
-      <c r="AK15" s="281"/>
-      <c r="AL15" s="281"/>
-      <c r="AM15" s="282"/>
-      <c r="AN15" s="283"/>
-      <c r="AO15" s="284"/>
-      <c r="AP15" s="284"/>
-      <c r="AQ15" s="284"/>
-      <c r="AR15" s="285"/>
-      <c r="AS15" s="283"/>
-      <c r="AT15" s="284"/>
-      <c r="AU15" s="284"/>
-      <c r="AV15" s="284"/>
-      <c r="AW15" s="285"/>
+      <c r="B15" s="275"/>
+      <c r="C15" s="276"/>
+      <c r="D15" s="277"/>
+      <c r="E15" s="278"/>
+      <c r="F15" s="278"/>
+      <c r="G15" s="278"/>
+      <c r="H15" s="278"/>
+      <c r="I15" s="278"/>
+      <c r="J15" s="279"/>
+      <c r="K15" s="280"/>
+      <c r="L15" s="281"/>
+      <c r="M15" s="292"/>
+      <c r="N15" s="290"/>
+      <c r="O15" s="290"/>
+      <c r="P15" s="290"/>
+      <c r="Q15" s="290"/>
+      <c r="R15" s="291"/>
+      <c r="S15" s="285"/>
+      <c r="T15" s="285"/>
+      <c r="U15" s="285"/>
+      <c r="V15" s="286"/>
+      <c r="W15" s="287"/>
+      <c r="X15" s="287"/>
+      <c r="Y15" s="287"/>
+      <c r="Z15" s="287"/>
+      <c r="AA15" s="287"/>
+      <c r="AB15" s="287"/>
+      <c r="AC15" s="287"/>
+      <c r="AD15" s="287"/>
+      <c r="AE15" s="287"/>
+      <c r="AF15" s="287"/>
+      <c r="AG15" s="287"/>
+      <c r="AH15" s="287"/>
+      <c r="AI15" s="287"/>
+      <c r="AJ15" s="287"/>
+      <c r="AK15" s="287"/>
+      <c r="AL15" s="287"/>
+      <c r="AM15" s="288"/>
+      <c r="AN15" s="272"/>
+      <c r="AO15" s="273"/>
+      <c r="AP15" s="273"/>
+      <c r="AQ15" s="273"/>
+      <c r="AR15" s="274"/>
+      <c r="AS15" s="272"/>
+      <c r="AT15" s="273"/>
+      <c r="AU15" s="273"/>
+      <c r="AV15" s="273"/>
+      <c r="AW15" s="274"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A16" s="56"/>
-      <c r="B16" s="274"/>
-      <c r="C16" s="275"/>
-      <c r="D16" s="276"/>
-      <c r="E16" s="266"/>
-      <c r="F16" s="266"/>
-      <c r="G16" s="266"/>
-      <c r="H16" s="266"/>
-      <c r="I16" s="266"/>
-      <c r="J16" s="267"/>
-      <c r="K16" s="268"/>
-      <c r="L16" s="269"/>
-      <c r="M16" s="277"/>
-      <c r="N16" s="278"/>
-      <c r="O16" s="278"/>
-      <c r="P16" s="278"/>
-      <c r="Q16" s="278"/>
-      <c r="R16" s="279"/>
-      <c r="S16" s="264"/>
-      <c r="T16" s="264"/>
-      <c r="U16" s="264"/>
-      <c r="V16" s="280"/>
-      <c r="W16" s="281"/>
-      <c r="X16" s="281"/>
-      <c r="Y16" s="281"/>
-      <c r="Z16" s="281"/>
-      <c r="AA16" s="281"/>
-      <c r="AB16" s="281"/>
-      <c r="AC16" s="281"/>
-      <c r="AD16" s="281"/>
-      <c r="AE16" s="281"/>
-      <c r="AF16" s="281"/>
-      <c r="AG16" s="281"/>
-      <c r="AH16" s="281"/>
-      <c r="AI16" s="281"/>
-      <c r="AJ16" s="281"/>
-      <c r="AK16" s="281"/>
-      <c r="AL16" s="281"/>
-      <c r="AM16" s="282"/>
-      <c r="AN16" s="283"/>
-      <c r="AO16" s="284"/>
-      <c r="AP16" s="284"/>
-      <c r="AQ16" s="284"/>
-      <c r="AR16" s="285"/>
-      <c r="AS16" s="283"/>
-      <c r="AT16" s="284"/>
-      <c r="AU16" s="284"/>
-      <c r="AV16" s="284"/>
-      <c r="AW16" s="285"/>
+      <c r="B16" s="275"/>
+      <c r="C16" s="276"/>
+      <c r="D16" s="277"/>
+      <c r="E16" s="278"/>
+      <c r="F16" s="278"/>
+      <c r="G16" s="278"/>
+      <c r="H16" s="278"/>
+      <c r="I16" s="278"/>
+      <c r="J16" s="279"/>
+      <c r="K16" s="280"/>
+      <c r="L16" s="281"/>
+      <c r="M16" s="292"/>
+      <c r="N16" s="290"/>
+      <c r="O16" s="290"/>
+      <c r="P16" s="290"/>
+      <c r="Q16" s="290"/>
+      <c r="R16" s="291"/>
+      <c r="S16" s="285"/>
+      <c r="T16" s="285"/>
+      <c r="U16" s="285"/>
+      <c r="V16" s="286"/>
+      <c r="W16" s="287"/>
+      <c r="X16" s="287"/>
+      <c r="Y16" s="287"/>
+      <c r="Z16" s="287"/>
+      <c r="AA16" s="287"/>
+      <c r="AB16" s="287"/>
+      <c r="AC16" s="287"/>
+      <c r="AD16" s="287"/>
+      <c r="AE16" s="287"/>
+      <c r="AF16" s="287"/>
+      <c r="AG16" s="287"/>
+      <c r="AH16" s="287"/>
+      <c r="AI16" s="287"/>
+      <c r="AJ16" s="287"/>
+      <c r="AK16" s="287"/>
+      <c r="AL16" s="287"/>
+      <c r="AM16" s="288"/>
+      <c r="AN16" s="272"/>
+      <c r="AO16" s="273"/>
+      <c r="AP16" s="273"/>
+      <c r="AQ16" s="273"/>
+      <c r="AR16" s="274"/>
+      <c r="AS16" s="272"/>
+      <c r="AT16" s="273"/>
+      <c r="AU16" s="273"/>
+      <c r="AV16" s="273"/>
+      <c r="AW16" s="274"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A17" s="56"/>
-      <c r="B17" s="274"/>
-      <c r="C17" s="275"/>
-      <c r="D17" s="276"/>
-      <c r="E17" s="266"/>
-      <c r="F17" s="266"/>
-      <c r="G17" s="266"/>
-      <c r="H17" s="266"/>
-      <c r="I17" s="266"/>
-      <c r="J17" s="267"/>
-      <c r="K17" s="268"/>
-      <c r="L17" s="269"/>
-      <c r="M17" s="277"/>
-      <c r="N17" s="278"/>
-      <c r="O17" s="278"/>
-      <c r="P17" s="278"/>
-      <c r="Q17" s="278"/>
-      <c r="R17" s="290"/>
-      <c r="S17" s="291"/>
-      <c r="T17" s="291"/>
-      <c r="U17" s="291"/>
-      <c r="V17" s="280"/>
-      <c r="W17" s="281"/>
-      <c r="X17" s="281"/>
-      <c r="Y17" s="281"/>
-      <c r="Z17" s="281"/>
-      <c r="AA17" s="281"/>
-      <c r="AB17" s="281"/>
-      <c r="AC17" s="281"/>
-      <c r="AD17" s="281"/>
-      <c r="AE17" s="281"/>
-      <c r="AF17" s="281"/>
-      <c r="AG17" s="281"/>
-      <c r="AH17" s="281"/>
-      <c r="AI17" s="281"/>
-      <c r="AJ17" s="281"/>
-      <c r="AK17" s="281"/>
-      <c r="AL17" s="281"/>
-      <c r="AM17" s="282"/>
-      <c r="AN17" s="283"/>
-      <c r="AO17" s="284"/>
-      <c r="AP17" s="284"/>
-      <c r="AQ17" s="284"/>
-      <c r="AR17" s="285"/>
-      <c r="AS17" s="283"/>
-      <c r="AT17" s="284"/>
-      <c r="AU17" s="284"/>
-      <c r="AV17" s="284"/>
-      <c r="AW17" s="285"/>
+      <c r="B17" s="275"/>
+      <c r="C17" s="276"/>
+      <c r="D17" s="277"/>
+      <c r="E17" s="278"/>
+      <c r="F17" s="278"/>
+      <c r="G17" s="278"/>
+      <c r="H17" s="278"/>
+      <c r="I17" s="278"/>
+      <c r="J17" s="279"/>
+      <c r="K17" s="280"/>
+      <c r="L17" s="281"/>
+      <c r="M17" s="292"/>
+      <c r="N17" s="290"/>
+      <c r="O17" s="290"/>
+      <c r="P17" s="290"/>
+      <c r="Q17" s="290"/>
+      <c r="R17" s="293"/>
+      <c r="S17" s="294"/>
+      <c r="T17" s="294"/>
+      <c r="U17" s="294"/>
+      <c r="V17" s="286"/>
+      <c r="W17" s="287"/>
+      <c r="X17" s="287"/>
+      <c r="Y17" s="287"/>
+      <c r="Z17" s="287"/>
+      <c r="AA17" s="287"/>
+      <c r="AB17" s="287"/>
+      <c r="AC17" s="287"/>
+      <c r="AD17" s="287"/>
+      <c r="AE17" s="287"/>
+      <c r="AF17" s="287"/>
+      <c r="AG17" s="287"/>
+      <c r="AH17" s="287"/>
+      <c r="AI17" s="287"/>
+      <c r="AJ17" s="287"/>
+      <c r="AK17" s="287"/>
+      <c r="AL17" s="287"/>
+      <c r="AM17" s="288"/>
+      <c r="AN17" s="272"/>
+      <c r="AO17" s="273"/>
+      <c r="AP17" s="273"/>
+      <c r="AQ17" s="273"/>
+      <c r="AR17" s="274"/>
+      <c r="AS17" s="272"/>
+      <c r="AT17" s="273"/>
+      <c r="AU17" s="273"/>
+      <c r="AV17" s="273"/>
+      <c r="AW17" s="274"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A18" s="56"/>
-      <c r="B18" s="274"/>
-      <c r="C18" s="275"/>
-      <c r="D18" s="276"/>
-      <c r="E18" s="266"/>
-      <c r="F18" s="266"/>
-      <c r="G18" s="266"/>
-      <c r="H18" s="266"/>
-      <c r="I18" s="266"/>
-      <c r="J18" s="267"/>
-      <c r="K18" s="268"/>
-      <c r="L18" s="269"/>
-      <c r="M18" s="288"/>
-      <c r="N18" s="278"/>
-      <c r="O18" s="278"/>
-      <c r="P18" s="278"/>
-      <c r="Q18" s="278"/>
-      <c r="R18" s="279"/>
-      <c r="S18" s="264"/>
-      <c r="T18" s="264"/>
-      <c r="U18" s="264"/>
-      <c r="V18" s="280"/>
-      <c r="W18" s="281"/>
-      <c r="X18" s="281"/>
-      <c r="Y18" s="281"/>
-      <c r="Z18" s="281"/>
-      <c r="AA18" s="281"/>
-      <c r="AB18" s="281"/>
-      <c r="AC18" s="281"/>
-      <c r="AD18" s="281"/>
-      <c r="AE18" s="281"/>
-      <c r="AF18" s="281"/>
-      <c r="AG18" s="281"/>
-      <c r="AH18" s="281"/>
-      <c r="AI18" s="281"/>
-      <c r="AJ18" s="281"/>
-      <c r="AK18" s="281"/>
-      <c r="AL18" s="281"/>
-      <c r="AM18" s="282"/>
-      <c r="AN18" s="283"/>
-      <c r="AO18" s="284"/>
-      <c r="AP18" s="284"/>
-      <c r="AQ18" s="284"/>
-      <c r="AR18" s="285"/>
-      <c r="AS18" s="283"/>
-      <c r="AT18" s="284"/>
-      <c r="AU18" s="284"/>
-      <c r="AV18" s="284"/>
-      <c r="AW18" s="285"/>
+      <c r="B18" s="275"/>
+      <c r="C18" s="276"/>
+      <c r="D18" s="277"/>
+      <c r="E18" s="278"/>
+      <c r="F18" s="278"/>
+      <c r="G18" s="278"/>
+      <c r="H18" s="278"/>
+      <c r="I18" s="278"/>
+      <c r="J18" s="279"/>
+      <c r="K18" s="280"/>
+      <c r="L18" s="281"/>
+      <c r="M18" s="289"/>
+      <c r="N18" s="290"/>
+      <c r="O18" s="290"/>
+      <c r="P18" s="290"/>
+      <c r="Q18" s="290"/>
+      <c r="R18" s="291"/>
+      <c r="S18" s="285"/>
+      <c r="T18" s="285"/>
+      <c r="U18" s="285"/>
+      <c r="V18" s="286"/>
+      <c r="W18" s="287"/>
+      <c r="X18" s="287"/>
+      <c r="Y18" s="287"/>
+      <c r="Z18" s="287"/>
+      <c r="AA18" s="287"/>
+      <c r="AB18" s="287"/>
+      <c r="AC18" s="287"/>
+      <c r="AD18" s="287"/>
+      <c r="AE18" s="287"/>
+      <c r="AF18" s="287"/>
+      <c r="AG18" s="287"/>
+      <c r="AH18" s="287"/>
+      <c r="AI18" s="287"/>
+      <c r="AJ18" s="287"/>
+      <c r="AK18" s="287"/>
+      <c r="AL18" s="287"/>
+      <c r="AM18" s="288"/>
+      <c r="AN18" s="272"/>
+      <c r="AO18" s="273"/>
+      <c r="AP18" s="273"/>
+      <c r="AQ18" s="273"/>
+      <c r="AR18" s="274"/>
+      <c r="AS18" s="272"/>
+      <c r="AT18" s="273"/>
+      <c r="AU18" s="273"/>
+      <c r="AV18" s="273"/>
+      <c r="AW18" s="274"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A19" s="56"/>
-      <c r="B19" s="274"/>
-      <c r="C19" s="275"/>
-      <c r="D19" s="276"/>
-      <c r="E19" s="266"/>
-      <c r="F19" s="266"/>
-      <c r="G19" s="266"/>
-      <c r="H19" s="266"/>
-      <c r="I19" s="266"/>
-      <c r="J19" s="267"/>
-      <c r="K19" s="268"/>
-      <c r="L19" s="269"/>
-      <c r="M19" s="277"/>
-      <c r="N19" s="278"/>
-      <c r="O19" s="278"/>
-      <c r="P19" s="278"/>
-      <c r="Q19" s="278"/>
-      <c r="R19" s="279"/>
-      <c r="S19" s="264"/>
-      <c r="T19" s="264"/>
-      <c r="U19" s="264"/>
-      <c r="V19" s="280"/>
-      <c r="W19" s="281"/>
-      <c r="X19" s="281"/>
-      <c r="Y19" s="281"/>
-      <c r="Z19" s="281"/>
-      <c r="AA19" s="281"/>
-      <c r="AB19" s="281"/>
-      <c r="AC19" s="281"/>
-      <c r="AD19" s="281"/>
-      <c r="AE19" s="281"/>
-      <c r="AF19" s="281"/>
-      <c r="AG19" s="281"/>
-      <c r="AH19" s="281"/>
-      <c r="AI19" s="281"/>
-      <c r="AJ19" s="281"/>
-      <c r="AK19" s="281"/>
-      <c r="AL19" s="281"/>
-      <c r="AM19" s="282"/>
-      <c r="AN19" s="264"/>
-      <c r="AO19" s="264"/>
-      <c r="AP19" s="264"/>
-      <c r="AQ19" s="264"/>
-      <c r="AR19" s="264"/>
-      <c r="AS19" s="283"/>
-      <c r="AT19" s="284"/>
-      <c r="AU19" s="284"/>
-      <c r="AV19" s="284"/>
-      <c r="AW19" s="285"/>
+      <c r="B19" s="275"/>
+      <c r="C19" s="276"/>
+      <c r="D19" s="277"/>
+      <c r="E19" s="278"/>
+      <c r="F19" s="278"/>
+      <c r="G19" s="278"/>
+      <c r="H19" s="278"/>
+      <c r="I19" s="278"/>
+      <c r="J19" s="279"/>
+      <c r="K19" s="280"/>
+      <c r="L19" s="281"/>
+      <c r="M19" s="292"/>
+      <c r="N19" s="290"/>
+      <c r="O19" s="290"/>
+      <c r="P19" s="290"/>
+      <c r="Q19" s="290"/>
+      <c r="R19" s="291"/>
+      <c r="S19" s="285"/>
+      <c r="T19" s="285"/>
+      <c r="U19" s="285"/>
+      <c r="V19" s="286"/>
+      <c r="W19" s="287"/>
+      <c r="X19" s="287"/>
+      <c r="Y19" s="287"/>
+      <c r="Z19" s="287"/>
+      <c r="AA19" s="287"/>
+      <c r="AB19" s="287"/>
+      <c r="AC19" s="287"/>
+      <c r="AD19" s="287"/>
+      <c r="AE19" s="287"/>
+      <c r="AF19" s="287"/>
+      <c r="AG19" s="287"/>
+      <c r="AH19" s="287"/>
+      <c r="AI19" s="287"/>
+      <c r="AJ19" s="287"/>
+      <c r="AK19" s="287"/>
+      <c r="AL19" s="287"/>
+      <c r="AM19" s="288"/>
+      <c r="AN19" s="285"/>
+      <c r="AO19" s="285"/>
+      <c r="AP19" s="285"/>
+      <c r="AQ19" s="285"/>
+      <c r="AR19" s="285"/>
+      <c r="AS19" s="272"/>
+      <c r="AT19" s="273"/>
+      <c r="AU19" s="273"/>
+      <c r="AV19" s="273"/>
+      <c r="AW19" s="274"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A20" s="56"/>
-      <c r="B20" s="274"/>
-      <c r="C20" s="275"/>
-      <c r="D20" s="276"/>
-      <c r="E20" s="266"/>
-      <c r="F20" s="266"/>
-      <c r="G20" s="266"/>
-      <c r="H20" s="266"/>
-      <c r="I20" s="266"/>
-      <c r="J20" s="267"/>
-      <c r="K20" s="268"/>
-      <c r="L20" s="269"/>
-      <c r="M20" s="277"/>
-      <c r="N20" s="278"/>
-      <c r="O20" s="278"/>
-      <c r="P20" s="278"/>
-      <c r="Q20" s="278"/>
-      <c r="R20" s="279"/>
-      <c r="S20" s="283"/>
-      <c r="T20" s="284"/>
-      <c r="U20" s="285"/>
-      <c r="V20" s="280"/>
-      <c r="W20" s="281"/>
-      <c r="X20" s="281"/>
-      <c r="Y20" s="281"/>
-      <c r="Z20" s="281"/>
-      <c r="AA20" s="281"/>
-      <c r="AB20" s="281"/>
-      <c r="AC20" s="281"/>
-      <c r="AD20" s="281"/>
-      <c r="AE20" s="281"/>
-      <c r="AF20" s="281"/>
-      <c r="AG20" s="281"/>
-      <c r="AH20" s="281"/>
-      <c r="AI20" s="281"/>
-      <c r="AJ20" s="281"/>
-      <c r="AK20" s="281"/>
-      <c r="AL20" s="281"/>
-      <c r="AM20" s="282"/>
-      <c r="AN20" s="283"/>
-      <c r="AO20" s="284"/>
-      <c r="AP20" s="284"/>
-      <c r="AQ20" s="284"/>
-      <c r="AR20" s="285"/>
-      <c r="AS20" s="283"/>
-      <c r="AT20" s="284"/>
-      <c r="AU20" s="284"/>
-      <c r="AV20" s="284"/>
-      <c r="AW20" s="285"/>
+      <c r="B20" s="275"/>
+      <c r="C20" s="276"/>
+      <c r="D20" s="277"/>
+      <c r="E20" s="278"/>
+      <c r="F20" s="278"/>
+      <c r="G20" s="278"/>
+      <c r="H20" s="278"/>
+      <c r="I20" s="278"/>
+      <c r="J20" s="279"/>
+      <c r="K20" s="280"/>
+      <c r="L20" s="281"/>
+      <c r="M20" s="292"/>
+      <c r="N20" s="290"/>
+      <c r="O20" s="290"/>
+      <c r="P20" s="290"/>
+      <c r="Q20" s="290"/>
+      <c r="R20" s="291"/>
+      <c r="S20" s="272"/>
+      <c r="T20" s="273"/>
+      <c r="U20" s="274"/>
+      <c r="V20" s="286"/>
+      <c r="W20" s="287"/>
+      <c r="X20" s="287"/>
+      <c r="Y20" s="287"/>
+      <c r="Z20" s="287"/>
+      <c r="AA20" s="287"/>
+      <c r="AB20" s="287"/>
+      <c r="AC20" s="287"/>
+      <c r="AD20" s="287"/>
+      <c r="AE20" s="287"/>
+      <c r="AF20" s="287"/>
+      <c r="AG20" s="287"/>
+      <c r="AH20" s="287"/>
+      <c r="AI20" s="287"/>
+      <c r="AJ20" s="287"/>
+      <c r="AK20" s="287"/>
+      <c r="AL20" s="287"/>
+      <c r="AM20" s="288"/>
+      <c r="AN20" s="272"/>
+      <c r="AO20" s="273"/>
+      <c r="AP20" s="273"/>
+      <c r="AQ20" s="273"/>
+      <c r="AR20" s="274"/>
+      <c r="AS20" s="272"/>
+      <c r="AT20" s="273"/>
+      <c r="AU20" s="273"/>
+      <c r="AV20" s="273"/>
+      <c r="AW20" s="274"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A21" s="56"/>
-      <c r="B21" s="274"/>
-      <c r="C21" s="275"/>
-      <c r="D21" s="276"/>
-      <c r="E21" s="266"/>
-      <c r="F21" s="266"/>
-      <c r="G21" s="266"/>
-      <c r="H21" s="266"/>
-      <c r="I21" s="266"/>
-      <c r="J21" s="267"/>
-      <c r="K21" s="268"/>
-      <c r="L21" s="269"/>
-      <c r="M21" s="277"/>
-      <c r="N21" s="278"/>
-      <c r="O21" s="278"/>
-      <c r="P21" s="278"/>
-      <c r="Q21" s="278"/>
-      <c r="R21" s="279"/>
-      <c r="S21" s="264"/>
-      <c r="T21" s="264"/>
-      <c r="U21" s="264"/>
-      <c r="V21" s="280"/>
-      <c r="W21" s="281"/>
-      <c r="X21" s="281"/>
-      <c r="Y21" s="281"/>
-      <c r="Z21" s="281"/>
-      <c r="AA21" s="281"/>
-      <c r="AB21" s="281"/>
-      <c r="AC21" s="281"/>
-      <c r="AD21" s="281"/>
-      <c r="AE21" s="281"/>
-      <c r="AF21" s="281"/>
-      <c r="AG21" s="281"/>
-      <c r="AH21" s="281"/>
-      <c r="AI21" s="281"/>
-      <c r="AJ21" s="281"/>
-      <c r="AK21" s="281"/>
-      <c r="AL21" s="281"/>
-      <c r="AM21" s="282"/>
-      <c r="AN21" s="283"/>
-      <c r="AO21" s="284"/>
-      <c r="AP21" s="284"/>
-      <c r="AQ21" s="284"/>
-      <c r="AR21" s="285"/>
-      <c r="AS21" s="283"/>
-      <c r="AT21" s="284"/>
-      <c r="AU21" s="284"/>
-      <c r="AV21" s="284"/>
-      <c r="AW21" s="285"/>
+      <c r="B21" s="275"/>
+      <c r="C21" s="276"/>
+      <c r="D21" s="277"/>
+      <c r="E21" s="278"/>
+      <c r="F21" s="278"/>
+      <c r="G21" s="278"/>
+      <c r="H21" s="278"/>
+      <c r="I21" s="278"/>
+      <c r="J21" s="279"/>
+      <c r="K21" s="280"/>
+      <c r="L21" s="281"/>
+      <c r="M21" s="292"/>
+      <c r="N21" s="290"/>
+      <c r="O21" s="290"/>
+      <c r="P21" s="290"/>
+      <c r="Q21" s="290"/>
+      <c r="R21" s="291"/>
+      <c r="S21" s="285"/>
+      <c r="T21" s="285"/>
+      <c r="U21" s="285"/>
+      <c r="V21" s="286"/>
+      <c r="W21" s="287"/>
+      <c r="X21" s="287"/>
+      <c r="Y21" s="287"/>
+      <c r="Z21" s="287"/>
+      <c r="AA21" s="287"/>
+      <c r="AB21" s="287"/>
+      <c r="AC21" s="287"/>
+      <c r="AD21" s="287"/>
+      <c r="AE21" s="287"/>
+      <c r="AF21" s="287"/>
+      <c r="AG21" s="287"/>
+      <c r="AH21" s="287"/>
+      <c r="AI21" s="287"/>
+      <c r="AJ21" s="287"/>
+      <c r="AK21" s="287"/>
+      <c r="AL21" s="287"/>
+      <c r="AM21" s="288"/>
+      <c r="AN21" s="272"/>
+      <c r="AO21" s="273"/>
+      <c r="AP21" s="273"/>
+      <c r="AQ21" s="273"/>
+      <c r="AR21" s="274"/>
+      <c r="AS21" s="272"/>
+      <c r="AT21" s="273"/>
+      <c r="AU21" s="273"/>
+      <c r="AV21" s="273"/>
+      <c r="AW21" s="274"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A22" s="56"/>
-      <c r="B22" s="274"/>
-      <c r="C22" s="275"/>
-      <c r="D22" s="276"/>
-      <c r="E22" s="266"/>
-      <c r="F22" s="266"/>
-      <c r="G22" s="266"/>
-      <c r="H22" s="266"/>
-      <c r="I22" s="266"/>
-      <c r="J22" s="267"/>
-      <c r="K22" s="268"/>
-      <c r="L22" s="269"/>
-      <c r="M22" s="277"/>
-      <c r="N22" s="278"/>
-      <c r="O22" s="278"/>
-      <c r="P22" s="278"/>
-      <c r="Q22" s="278"/>
-      <c r="R22" s="279"/>
-      <c r="S22" s="264"/>
-      <c r="T22" s="264"/>
-      <c r="U22" s="264"/>
-      <c r="V22" s="280"/>
-      <c r="W22" s="281"/>
-      <c r="X22" s="281"/>
-      <c r="Y22" s="281"/>
-      <c r="Z22" s="281"/>
-      <c r="AA22" s="281"/>
-      <c r="AB22" s="281"/>
-      <c r="AC22" s="281"/>
-      <c r="AD22" s="281"/>
-      <c r="AE22" s="281"/>
-      <c r="AF22" s="281"/>
-      <c r="AG22" s="281"/>
-      <c r="AH22" s="281"/>
-      <c r="AI22" s="281"/>
-      <c r="AJ22" s="281"/>
-      <c r="AK22" s="281"/>
-      <c r="AL22" s="281"/>
-      <c r="AM22" s="282"/>
-      <c r="AN22" s="283"/>
-      <c r="AO22" s="284"/>
-      <c r="AP22" s="284"/>
-      <c r="AQ22" s="284"/>
-      <c r="AR22" s="285"/>
-      <c r="AS22" s="283"/>
-      <c r="AT22" s="284"/>
-      <c r="AU22" s="284"/>
-      <c r="AV22" s="284"/>
-      <c r="AW22" s="285"/>
+      <c r="B22" s="275"/>
+      <c r="C22" s="276"/>
+      <c r="D22" s="277"/>
+      <c r="E22" s="278"/>
+      <c r="F22" s="278"/>
+      <c r="G22" s="278"/>
+      <c r="H22" s="278"/>
+      <c r="I22" s="278"/>
+      <c r="J22" s="279"/>
+      <c r="K22" s="280"/>
+      <c r="L22" s="281"/>
+      <c r="M22" s="292"/>
+      <c r="N22" s="290"/>
+      <c r="O22" s="290"/>
+      <c r="P22" s="290"/>
+      <c r="Q22" s="290"/>
+      <c r="R22" s="291"/>
+      <c r="S22" s="285"/>
+      <c r="T22" s="285"/>
+      <c r="U22" s="285"/>
+      <c r="V22" s="286"/>
+      <c r="W22" s="287"/>
+      <c r="X22" s="287"/>
+      <c r="Y22" s="287"/>
+      <c r="Z22" s="287"/>
+      <c r="AA22" s="287"/>
+      <c r="AB22" s="287"/>
+      <c r="AC22" s="287"/>
+      <c r="AD22" s="287"/>
+      <c r="AE22" s="287"/>
+      <c r="AF22" s="287"/>
+      <c r="AG22" s="287"/>
+      <c r="AH22" s="287"/>
+      <c r="AI22" s="287"/>
+      <c r="AJ22" s="287"/>
+      <c r="AK22" s="287"/>
+      <c r="AL22" s="287"/>
+      <c r="AM22" s="288"/>
+      <c r="AN22" s="272"/>
+      <c r="AO22" s="273"/>
+      <c r="AP22" s="273"/>
+      <c r="AQ22" s="273"/>
+      <c r="AR22" s="274"/>
+      <c r="AS22" s="272"/>
+      <c r="AT22" s="273"/>
+      <c r="AU22" s="273"/>
+      <c r="AV22" s="273"/>
+      <c r="AW22" s="274"/>
     </row>
     <row r="23" spans="1:49" ht="15" x14ac:dyDescent="0.3">
       <c r="A23" s="54"/>
-      <c r="B23" s="274"/>
-      <c r="C23" s="275"/>
-      <c r="D23" s="276"/>
-      <c r="E23" s="266"/>
-      <c r="F23" s="266"/>
-      <c r="G23" s="266"/>
-      <c r="H23" s="266"/>
-      <c r="I23" s="266"/>
-      <c r="J23" s="267"/>
-      <c r="K23" s="268"/>
-      <c r="L23" s="269"/>
-      <c r="M23" s="277"/>
-      <c r="N23" s="278"/>
-      <c r="O23" s="278"/>
-      <c r="P23" s="278"/>
-      <c r="Q23" s="278"/>
-      <c r="R23" s="279"/>
-      <c r="S23" s="264"/>
-      <c r="T23" s="264"/>
-      <c r="U23" s="264"/>
-      <c r="V23" s="280"/>
-      <c r="W23" s="281"/>
-      <c r="X23" s="281"/>
-      <c r="Y23" s="281"/>
-      <c r="Z23" s="281"/>
-      <c r="AA23" s="281"/>
-      <c r="AB23" s="281"/>
-      <c r="AC23" s="281"/>
-      <c r="AD23" s="281"/>
-      <c r="AE23" s="281"/>
-      <c r="AF23" s="281"/>
-      <c r="AG23" s="281"/>
-      <c r="AH23" s="281"/>
-      <c r="AI23" s="281"/>
-      <c r="AJ23" s="281"/>
-      <c r="AK23" s="281"/>
-      <c r="AL23" s="281"/>
-      <c r="AM23" s="282"/>
-      <c r="AN23" s="283"/>
-      <c r="AO23" s="284"/>
-      <c r="AP23" s="284"/>
-      <c r="AQ23" s="284"/>
-      <c r="AR23" s="285"/>
-      <c r="AS23" s="283"/>
-      <c r="AT23" s="284"/>
-      <c r="AU23" s="284"/>
-      <c r="AV23" s="284"/>
-      <c r="AW23" s="285"/>
+      <c r="B23" s="275"/>
+      <c r="C23" s="276"/>
+      <c r="D23" s="277"/>
+      <c r="E23" s="278"/>
+      <c r="F23" s="278"/>
+      <c r="G23" s="278"/>
+      <c r="H23" s="278"/>
+      <c r="I23" s="278"/>
+      <c r="J23" s="279"/>
+      <c r="K23" s="280"/>
+      <c r="L23" s="281"/>
+      <c r="M23" s="292"/>
+      <c r="N23" s="290"/>
+      <c r="O23" s="290"/>
+      <c r="P23" s="290"/>
+      <c r="Q23" s="290"/>
+      <c r="R23" s="291"/>
+      <c r="S23" s="285"/>
+      <c r="T23" s="285"/>
+      <c r="U23" s="285"/>
+      <c r="V23" s="286"/>
+      <c r="W23" s="287"/>
+      <c r="X23" s="287"/>
+      <c r="Y23" s="287"/>
+      <c r="Z23" s="287"/>
+      <c r="AA23" s="287"/>
+      <c r="AB23" s="287"/>
+      <c r="AC23" s="287"/>
+      <c r="AD23" s="287"/>
+      <c r="AE23" s="287"/>
+      <c r="AF23" s="287"/>
+      <c r="AG23" s="287"/>
+      <c r="AH23" s="287"/>
+      <c r="AI23" s="287"/>
+      <c r="AJ23" s="287"/>
+      <c r="AK23" s="287"/>
+      <c r="AL23" s="287"/>
+      <c r="AM23" s="288"/>
+      <c r="AN23" s="272"/>
+      <c r="AO23" s="273"/>
+      <c r="AP23" s="273"/>
+      <c r="AQ23" s="273"/>
+      <c r="AR23" s="274"/>
+      <c r="AS23" s="272"/>
+      <c r="AT23" s="273"/>
+      <c r="AU23" s="273"/>
+      <c r="AV23" s="273"/>
+      <c r="AW23" s="274"/>
     </row>
     <row r="24" spans="1:49" ht="15" x14ac:dyDescent="0.3">
       <c r="A24" s="54"/>
-      <c r="B24" s="274"/>
-      <c r="C24" s="275"/>
-      <c r="D24" s="276"/>
-      <c r="E24" s="266"/>
-      <c r="F24" s="266"/>
-      <c r="G24" s="266"/>
-      <c r="H24" s="266"/>
-      <c r="I24" s="266"/>
-      <c r="J24" s="267"/>
-      <c r="K24" s="268"/>
-      <c r="L24" s="269"/>
-      <c r="M24" s="277"/>
-      <c r="N24" s="278"/>
-      <c r="O24" s="278"/>
-      <c r="P24" s="278"/>
-      <c r="Q24" s="278"/>
-      <c r="R24" s="279"/>
-      <c r="S24" s="264"/>
-      <c r="T24" s="264"/>
-      <c r="U24" s="264"/>
-      <c r="V24" s="280"/>
-      <c r="W24" s="281"/>
-      <c r="X24" s="281"/>
-      <c r="Y24" s="281"/>
-      <c r="Z24" s="281"/>
-      <c r="AA24" s="281"/>
-      <c r="AB24" s="281"/>
-      <c r="AC24" s="281"/>
-      <c r="AD24" s="281"/>
-      <c r="AE24" s="281"/>
-      <c r="AF24" s="281"/>
-      <c r="AG24" s="281"/>
-      <c r="AH24" s="281"/>
-      <c r="AI24" s="281"/>
-      <c r="AJ24" s="281"/>
-      <c r="AK24" s="281"/>
-      <c r="AL24" s="281"/>
-      <c r="AM24" s="282"/>
-      <c r="AN24" s="283"/>
-      <c r="AO24" s="284"/>
-      <c r="AP24" s="284"/>
-      <c r="AQ24" s="284"/>
-      <c r="AR24" s="285"/>
-      <c r="AS24" s="283"/>
-      <c r="AT24" s="284"/>
-      <c r="AU24" s="284"/>
-      <c r="AV24" s="284"/>
-      <c r="AW24" s="285"/>
+      <c r="B24" s="275"/>
+      <c r="C24" s="276"/>
+      <c r="D24" s="277"/>
+      <c r="E24" s="278"/>
+      <c r="F24" s="278"/>
+      <c r="G24" s="278"/>
+      <c r="H24" s="278"/>
+      <c r="I24" s="278"/>
+      <c r="J24" s="279"/>
+      <c r="K24" s="280"/>
+      <c r="L24" s="281"/>
+      <c r="M24" s="292"/>
+      <c r="N24" s="290"/>
+      <c r="O24" s="290"/>
+      <c r="P24" s="290"/>
+      <c r="Q24" s="290"/>
+      <c r="R24" s="291"/>
+      <c r="S24" s="285"/>
+      <c r="T24" s="285"/>
+      <c r="U24" s="285"/>
+      <c r="V24" s="286"/>
+      <c r="W24" s="287"/>
+      <c r="X24" s="287"/>
+      <c r="Y24" s="287"/>
+      <c r="Z24" s="287"/>
+      <c r="AA24" s="287"/>
+      <c r="AB24" s="287"/>
+      <c r="AC24" s="287"/>
+      <c r="AD24" s="287"/>
+      <c r="AE24" s="287"/>
+      <c r="AF24" s="287"/>
+      <c r="AG24" s="287"/>
+      <c r="AH24" s="287"/>
+      <c r="AI24" s="287"/>
+      <c r="AJ24" s="287"/>
+      <c r="AK24" s="287"/>
+      <c r="AL24" s="287"/>
+      <c r="AM24" s="288"/>
+      <c r="AN24" s="272"/>
+      <c r="AO24" s="273"/>
+      <c r="AP24" s="273"/>
+      <c r="AQ24" s="273"/>
+      <c r="AR24" s="274"/>
+      <c r="AS24" s="272"/>
+      <c r="AT24" s="273"/>
+      <c r="AU24" s="273"/>
+      <c r="AV24" s="273"/>
+      <c r="AW24" s="274"/>
     </row>
     <row r="25" spans="1:49" ht="15" x14ac:dyDescent="0.3">
       <c r="A25" s="54"/>
-      <c r="B25" s="274"/>
-      <c r="C25" s="275"/>
-      <c r="D25" s="276"/>
-      <c r="E25" s="266"/>
-      <c r="F25" s="266"/>
-      <c r="G25" s="266"/>
-      <c r="H25" s="266"/>
-      <c r="I25" s="266"/>
-      <c r="J25" s="267"/>
-      <c r="K25" s="268"/>
-      <c r="L25" s="269"/>
-      <c r="M25" s="288"/>
-      <c r="N25" s="278"/>
-      <c r="O25" s="278"/>
-      <c r="P25" s="278"/>
-      <c r="Q25" s="278"/>
-      <c r="R25" s="279"/>
-      <c r="S25" s="264"/>
-      <c r="T25" s="264"/>
-      <c r="U25" s="264"/>
-      <c r="V25" s="280"/>
-      <c r="W25" s="281"/>
-      <c r="X25" s="281"/>
-      <c r="Y25" s="281"/>
-      <c r="Z25" s="281"/>
-      <c r="AA25" s="281"/>
-      <c r="AB25" s="281"/>
-      <c r="AC25" s="281"/>
-      <c r="AD25" s="281"/>
-      <c r="AE25" s="281"/>
-      <c r="AF25" s="281"/>
-      <c r="AG25" s="281"/>
-      <c r="AH25" s="281"/>
-      <c r="AI25" s="281"/>
-      <c r="AJ25" s="281"/>
-      <c r="AK25" s="281"/>
-      <c r="AL25" s="281"/>
-      <c r="AM25" s="282"/>
-      <c r="AN25" s="283"/>
-      <c r="AO25" s="284"/>
-      <c r="AP25" s="284"/>
-      <c r="AQ25" s="284"/>
-      <c r="AR25" s="285"/>
-      <c r="AS25" s="283"/>
-      <c r="AT25" s="284"/>
-      <c r="AU25" s="284"/>
-      <c r="AV25" s="284"/>
-      <c r="AW25" s="285"/>
+      <c r="B25" s="275"/>
+      <c r="C25" s="276"/>
+      <c r="D25" s="277"/>
+      <c r="E25" s="278"/>
+      <c r="F25" s="278"/>
+      <c r="G25" s="278"/>
+      <c r="H25" s="278"/>
+      <c r="I25" s="278"/>
+      <c r="J25" s="279"/>
+      <c r="K25" s="280"/>
+      <c r="L25" s="281"/>
+      <c r="M25" s="289"/>
+      <c r="N25" s="290"/>
+      <c r="O25" s="290"/>
+      <c r="P25" s="290"/>
+      <c r="Q25" s="290"/>
+      <c r="R25" s="291"/>
+      <c r="S25" s="285"/>
+      <c r="T25" s="285"/>
+      <c r="U25" s="285"/>
+      <c r="V25" s="286"/>
+      <c r="W25" s="287"/>
+      <c r="X25" s="287"/>
+      <c r="Y25" s="287"/>
+      <c r="Z25" s="287"/>
+      <c r="AA25" s="287"/>
+      <c r="AB25" s="287"/>
+      <c r="AC25" s="287"/>
+      <c r="AD25" s="287"/>
+      <c r="AE25" s="287"/>
+      <c r="AF25" s="287"/>
+      <c r="AG25" s="287"/>
+      <c r="AH25" s="287"/>
+      <c r="AI25" s="287"/>
+      <c r="AJ25" s="287"/>
+      <c r="AK25" s="287"/>
+      <c r="AL25" s="287"/>
+      <c r="AM25" s="288"/>
+      <c r="AN25" s="272"/>
+      <c r="AO25" s="273"/>
+      <c r="AP25" s="273"/>
+      <c r="AQ25" s="273"/>
+      <c r="AR25" s="274"/>
+      <c r="AS25" s="272"/>
+      <c r="AT25" s="273"/>
+      <c r="AU25" s="273"/>
+      <c r="AV25" s="273"/>
+      <c r="AW25" s="274"/>
     </row>
     <row r="26" spans="1:49" ht="15" x14ac:dyDescent="0.3">
       <c r="A26" s="54"/>
-      <c r="B26" s="274"/>
-      <c r="C26" s="275"/>
-      <c r="D26" s="276"/>
-      <c r="E26" s="266"/>
-      <c r="F26" s="266"/>
-      <c r="G26" s="266"/>
-      <c r="H26" s="266"/>
-      <c r="I26" s="266"/>
-      <c r="J26" s="267"/>
-      <c r="K26" s="268"/>
-      <c r="L26" s="269"/>
-      <c r="M26" s="288"/>
-      <c r="N26" s="278"/>
-      <c r="O26" s="278"/>
-      <c r="P26" s="278"/>
-      <c r="Q26" s="278"/>
-      <c r="R26" s="279"/>
-      <c r="S26" s="264"/>
-      <c r="T26" s="264"/>
-      <c r="U26" s="264"/>
-      <c r="V26" s="280"/>
-      <c r="W26" s="281"/>
-      <c r="X26" s="281"/>
-      <c r="Y26" s="281"/>
-      <c r="Z26" s="281"/>
-      <c r="AA26" s="281"/>
-      <c r="AB26" s="281"/>
-      <c r="AC26" s="281"/>
-      <c r="AD26" s="281"/>
-      <c r="AE26" s="281"/>
-      <c r="AF26" s="281"/>
-      <c r="AG26" s="281"/>
-      <c r="AH26" s="281"/>
-      <c r="AI26" s="281"/>
-      <c r="AJ26" s="281"/>
-      <c r="AK26" s="281"/>
-      <c r="AL26" s="281"/>
-      <c r="AM26" s="282"/>
-      <c r="AN26" s="283"/>
-      <c r="AO26" s="284"/>
-      <c r="AP26" s="284"/>
-      <c r="AQ26" s="284"/>
-      <c r="AR26" s="285"/>
-      <c r="AS26" s="283"/>
-      <c r="AT26" s="284"/>
-      <c r="AU26" s="284"/>
-      <c r="AV26" s="284"/>
-      <c r="AW26" s="285"/>
+      <c r="B26" s="275"/>
+      <c r="C26" s="276"/>
+      <c r="D26" s="277"/>
+      <c r="E26" s="278"/>
+      <c r="F26" s="278"/>
+      <c r="G26" s="278"/>
+      <c r="H26" s="278"/>
+      <c r="I26" s="278"/>
+      <c r="J26" s="279"/>
+      <c r="K26" s="280"/>
+      <c r="L26" s="281"/>
+      <c r="M26" s="289"/>
+      <c r="N26" s="290"/>
+      <c r="O26" s="290"/>
+      <c r="P26" s="290"/>
+      <c r="Q26" s="290"/>
+      <c r="R26" s="291"/>
+      <c r="S26" s="285"/>
+      <c r="T26" s="285"/>
+      <c r="U26" s="285"/>
+      <c r="V26" s="286"/>
+      <c r="W26" s="287"/>
+      <c r="X26" s="287"/>
+      <c r="Y26" s="287"/>
+      <c r="Z26" s="287"/>
+      <c r="AA26" s="287"/>
+      <c r="AB26" s="287"/>
+      <c r="AC26" s="287"/>
+      <c r="AD26" s="287"/>
+      <c r="AE26" s="287"/>
+      <c r="AF26" s="287"/>
+      <c r="AG26" s="287"/>
+      <c r="AH26" s="287"/>
+      <c r="AI26" s="287"/>
+      <c r="AJ26" s="287"/>
+      <c r="AK26" s="287"/>
+      <c r="AL26" s="287"/>
+      <c r="AM26" s="288"/>
+      <c r="AN26" s="272"/>
+      <c r="AO26" s="273"/>
+      <c r="AP26" s="273"/>
+      <c r="AQ26" s="273"/>
+      <c r="AR26" s="274"/>
+      <c r="AS26" s="272"/>
+      <c r="AT26" s="273"/>
+      <c r="AU26" s="273"/>
+      <c r="AV26" s="273"/>
+      <c r="AW26" s="274"/>
     </row>
     <row r="27" spans="1:49" ht="15" x14ac:dyDescent="0.3">
       <c r="A27" s="54"/>
-      <c r="B27" s="274"/>
-      <c r="C27" s="275"/>
-      <c r="D27" s="276"/>
-      <c r="E27" s="266"/>
-      <c r="F27" s="266"/>
-      <c r="G27" s="266"/>
-      <c r="H27" s="266"/>
-      <c r="I27" s="266"/>
-      <c r="J27" s="267"/>
-      <c r="K27" s="268"/>
-      <c r="L27" s="269"/>
-      <c r="M27" s="288"/>
-      <c r="N27" s="278"/>
-      <c r="O27" s="278"/>
-      <c r="P27" s="278"/>
-      <c r="Q27" s="278"/>
-      <c r="R27" s="279"/>
-      <c r="S27" s="264"/>
-      <c r="T27" s="264"/>
-      <c r="U27" s="264"/>
-      <c r="V27" s="280"/>
-      <c r="W27" s="281"/>
-      <c r="X27" s="281"/>
-      <c r="Y27" s="281"/>
-      <c r="Z27" s="281"/>
-      <c r="AA27" s="281"/>
-      <c r="AB27" s="281"/>
-      <c r="AC27" s="281"/>
-      <c r="AD27" s="281"/>
-      <c r="AE27" s="281"/>
-      <c r="AF27" s="281"/>
-      <c r="AG27" s="281"/>
-      <c r="AH27" s="281"/>
-      <c r="AI27" s="281"/>
-      <c r="AJ27" s="281"/>
-      <c r="AK27" s="281"/>
-      <c r="AL27" s="281"/>
-      <c r="AM27" s="282"/>
-      <c r="AN27" s="283"/>
-      <c r="AO27" s="284"/>
-      <c r="AP27" s="284"/>
-      <c r="AQ27" s="284"/>
-      <c r="AR27" s="285"/>
-      <c r="AS27" s="283"/>
-      <c r="AT27" s="284"/>
-      <c r="AU27" s="284"/>
-      <c r="AV27" s="284"/>
-      <c r="AW27" s="285"/>
+      <c r="B27" s="275"/>
+      <c r="C27" s="276"/>
+      <c r="D27" s="277"/>
+      <c r="E27" s="278"/>
+      <c r="F27" s="278"/>
+      <c r="G27" s="278"/>
+      <c r="H27" s="278"/>
+      <c r="I27" s="278"/>
+      <c r="J27" s="279"/>
+      <c r="K27" s="280"/>
+      <c r="L27" s="281"/>
+      <c r="M27" s="289"/>
+      <c r="N27" s="290"/>
+      <c r="O27" s="290"/>
+      <c r="P27" s="290"/>
+      <c r="Q27" s="290"/>
+      <c r="R27" s="291"/>
+      <c r="S27" s="285"/>
+      <c r="T27" s="285"/>
+      <c r="U27" s="285"/>
+      <c r="V27" s="286"/>
+      <c r="W27" s="287"/>
+      <c r="X27" s="287"/>
+      <c r="Y27" s="287"/>
+      <c r="Z27" s="287"/>
+      <c r="AA27" s="287"/>
+      <c r="AB27" s="287"/>
+      <c r="AC27" s="287"/>
+      <c r="AD27" s="287"/>
+      <c r="AE27" s="287"/>
+      <c r="AF27" s="287"/>
+      <c r="AG27" s="287"/>
+      <c r="AH27" s="287"/>
+      <c r="AI27" s="287"/>
+      <c r="AJ27" s="287"/>
+      <c r="AK27" s="287"/>
+      <c r="AL27" s="287"/>
+      <c r="AM27" s="288"/>
+      <c r="AN27" s="272"/>
+      <c r="AO27" s="273"/>
+      <c r="AP27" s="273"/>
+      <c r="AQ27" s="273"/>
+      <c r="AR27" s="274"/>
+      <c r="AS27" s="272"/>
+      <c r="AT27" s="273"/>
+      <c r="AU27" s="273"/>
+      <c r="AV27" s="273"/>
+      <c r="AW27" s="274"/>
     </row>
     <row r="28" spans="1:49" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" s="54"/>
-      <c r="B28" s="274"/>
-      <c r="C28" s="275"/>
-      <c r="D28" s="276"/>
-      <c r="E28" s="266"/>
-      <c r="F28" s="266"/>
-      <c r="G28" s="266"/>
-      <c r="H28" s="266"/>
-      <c r="I28" s="266"/>
-      <c r="J28" s="267"/>
-      <c r="K28" s="268"/>
-      <c r="L28" s="269"/>
-      <c r="M28" s="277"/>
-      <c r="N28" s="278"/>
-      <c r="O28" s="278"/>
-      <c r="P28" s="278"/>
-      <c r="Q28" s="278"/>
-      <c r="R28" s="279"/>
-      <c r="S28" s="264"/>
-      <c r="T28" s="264"/>
-      <c r="U28" s="264"/>
-      <c r="V28" s="280"/>
-      <c r="W28" s="281"/>
-      <c r="X28" s="281"/>
-      <c r="Y28" s="281"/>
-      <c r="Z28" s="281"/>
-      <c r="AA28" s="281"/>
-      <c r="AB28" s="281"/>
-      <c r="AC28" s="281"/>
-      <c r="AD28" s="281"/>
-      <c r="AE28" s="281"/>
-      <c r="AF28" s="281"/>
-      <c r="AG28" s="281"/>
-      <c r="AH28" s="281"/>
-      <c r="AI28" s="281"/>
-      <c r="AJ28" s="281"/>
-      <c r="AK28" s="281"/>
-      <c r="AL28" s="281"/>
-      <c r="AM28" s="282"/>
-      <c r="AN28" s="283"/>
-      <c r="AO28" s="284"/>
-      <c r="AP28" s="284"/>
-      <c r="AQ28" s="284"/>
-      <c r="AR28" s="285"/>
-      <c r="AS28" s="283"/>
-      <c r="AT28" s="284"/>
-      <c r="AU28" s="284"/>
-      <c r="AV28" s="284"/>
-      <c r="AW28" s="285"/>
+      <c r="B28" s="275"/>
+      <c r="C28" s="276"/>
+      <c r="D28" s="277"/>
+      <c r="E28" s="278"/>
+      <c r="F28" s="278"/>
+      <c r="G28" s="278"/>
+      <c r="H28" s="278"/>
+      <c r="I28" s="278"/>
+      <c r="J28" s="279"/>
+      <c r="K28" s="280"/>
+      <c r="L28" s="281"/>
+      <c r="M28" s="292"/>
+      <c r="N28" s="290"/>
+      <c r="O28" s="290"/>
+      <c r="P28" s="290"/>
+      <c r="Q28" s="290"/>
+      <c r="R28" s="291"/>
+      <c r="S28" s="285"/>
+      <c r="T28" s="285"/>
+      <c r="U28" s="285"/>
+      <c r="V28" s="286"/>
+      <c r="W28" s="287"/>
+      <c r="X28" s="287"/>
+      <c r="Y28" s="287"/>
+      <c r="Z28" s="287"/>
+      <c r="AA28" s="287"/>
+      <c r="AB28" s="287"/>
+      <c r="AC28" s="287"/>
+      <c r="AD28" s="287"/>
+      <c r="AE28" s="287"/>
+      <c r="AF28" s="287"/>
+      <c r="AG28" s="287"/>
+      <c r="AH28" s="287"/>
+      <c r="AI28" s="287"/>
+      <c r="AJ28" s="287"/>
+      <c r="AK28" s="287"/>
+      <c r="AL28" s="287"/>
+      <c r="AM28" s="288"/>
+      <c r="AN28" s="272"/>
+      <c r="AO28" s="273"/>
+      <c r="AP28" s="273"/>
+      <c r="AQ28" s="273"/>
+      <c r="AR28" s="274"/>
+      <c r="AS28" s="272"/>
+      <c r="AT28" s="273"/>
+      <c r="AU28" s="273"/>
+      <c r="AV28" s="273"/>
+      <c r="AW28" s="274"/>
     </row>
     <row r="29" spans="1:49" ht="15" x14ac:dyDescent="0.3">
       <c r="A29" s="54"/>
-      <c r="B29" s="274"/>
-      <c r="C29" s="275"/>
-      <c r="D29" s="276"/>
-      <c r="E29" s="266"/>
-      <c r="F29" s="266"/>
-      <c r="G29" s="266"/>
-      <c r="H29" s="266"/>
-      <c r="I29" s="266"/>
-      <c r="J29" s="267"/>
-      <c r="K29" s="268"/>
-      <c r="L29" s="269"/>
-      <c r="M29" s="277"/>
-      <c r="N29" s="278"/>
-      <c r="O29" s="278"/>
-      <c r="P29" s="278"/>
-      <c r="Q29" s="278"/>
-      <c r="R29" s="279"/>
-      <c r="S29" s="264"/>
-      <c r="T29" s="264"/>
-      <c r="U29" s="264"/>
-      <c r="V29" s="280"/>
-      <c r="W29" s="281"/>
-      <c r="X29" s="281"/>
-      <c r="Y29" s="281"/>
-      <c r="Z29" s="281"/>
-      <c r="AA29" s="281"/>
-      <c r="AB29" s="281"/>
-      <c r="AC29" s="281"/>
-      <c r="AD29" s="281"/>
-      <c r="AE29" s="281"/>
-      <c r="AF29" s="281"/>
-      <c r="AG29" s="281"/>
-      <c r="AH29" s="281"/>
-      <c r="AI29" s="281"/>
-      <c r="AJ29" s="281"/>
-      <c r="AK29" s="281"/>
-      <c r="AL29" s="281"/>
-      <c r="AM29" s="282"/>
-      <c r="AN29" s="283"/>
-      <c r="AO29" s="284"/>
-      <c r="AP29" s="284"/>
-      <c r="AQ29" s="284"/>
-      <c r="AR29" s="285"/>
-      <c r="AS29" s="283"/>
-      <c r="AT29" s="284"/>
-      <c r="AU29" s="284"/>
-      <c r="AV29" s="284"/>
-      <c r="AW29" s="285"/>
+      <c r="B29" s="275"/>
+      <c r="C29" s="276"/>
+      <c r="D29" s="277"/>
+      <c r="E29" s="278"/>
+      <c r="F29" s="278"/>
+      <c r="G29" s="278"/>
+      <c r="H29" s="278"/>
+      <c r="I29" s="278"/>
+      <c r="J29" s="279"/>
+      <c r="K29" s="280"/>
+      <c r="L29" s="281"/>
+      <c r="M29" s="292"/>
+      <c r="N29" s="290"/>
+      <c r="O29" s="290"/>
+      <c r="P29" s="290"/>
+      <c r="Q29" s="290"/>
+      <c r="R29" s="291"/>
+      <c r="S29" s="285"/>
+      <c r="T29" s="285"/>
+      <c r="U29" s="285"/>
+      <c r="V29" s="286"/>
+      <c r="W29" s="287"/>
+      <c r="X29" s="287"/>
+      <c r="Y29" s="287"/>
+      <c r="Z29" s="287"/>
+      <c r="AA29" s="287"/>
+      <c r="AB29" s="287"/>
+      <c r="AC29" s="287"/>
+      <c r="AD29" s="287"/>
+      <c r="AE29" s="287"/>
+      <c r="AF29" s="287"/>
+      <c r="AG29" s="287"/>
+      <c r="AH29" s="287"/>
+      <c r="AI29" s="287"/>
+      <c r="AJ29" s="287"/>
+      <c r="AK29" s="287"/>
+      <c r="AL29" s="287"/>
+      <c r="AM29" s="288"/>
+      <c r="AN29" s="272"/>
+      <c r="AO29" s="273"/>
+      <c r="AP29" s="273"/>
+      <c r="AQ29" s="273"/>
+      <c r="AR29" s="274"/>
+      <c r="AS29" s="272"/>
+      <c r="AT29" s="273"/>
+      <c r="AU29" s="273"/>
+      <c r="AV29" s="273"/>
+      <c r="AW29" s="274"/>
     </row>
     <row r="30" spans="1:49" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" s="54"/>
-      <c r="B30" s="274"/>
-      <c r="C30" s="275"/>
-      <c r="D30" s="276"/>
-      <c r="E30" s="266"/>
-      <c r="F30" s="266"/>
-      <c r="G30" s="266"/>
-      <c r="H30" s="266"/>
-      <c r="I30" s="266"/>
-      <c r="J30" s="267"/>
-      <c r="K30" s="268"/>
-      <c r="L30" s="269"/>
-      <c r="M30" s="288"/>
-      <c r="N30" s="278"/>
-      <c r="O30" s="278"/>
-      <c r="P30" s="278"/>
-      <c r="Q30" s="278"/>
-      <c r="R30" s="279"/>
-      <c r="S30" s="264"/>
-      <c r="T30" s="264"/>
-      <c r="U30" s="264"/>
-      <c r="V30" s="280"/>
-      <c r="W30" s="281"/>
-      <c r="X30" s="281"/>
-      <c r="Y30" s="281"/>
-      <c r="Z30" s="281"/>
-      <c r="AA30" s="281"/>
-      <c r="AB30" s="281"/>
-      <c r="AC30" s="281"/>
-      <c r="AD30" s="281"/>
-      <c r="AE30" s="281"/>
-      <c r="AF30" s="281"/>
-      <c r="AG30" s="281"/>
-      <c r="AH30" s="281"/>
-      <c r="AI30" s="281"/>
-      <c r="AJ30" s="281"/>
-      <c r="AK30" s="281"/>
-      <c r="AL30" s="281"/>
-      <c r="AM30" s="282"/>
-      <c r="AN30" s="283"/>
-      <c r="AO30" s="284"/>
-      <c r="AP30" s="284"/>
-      <c r="AQ30" s="284"/>
-      <c r="AR30" s="285"/>
-      <c r="AS30" s="283"/>
-      <c r="AT30" s="284"/>
-      <c r="AU30" s="284"/>
-      <c r="AV30" s="284"/>
-      <c r="AW30" s="285"/>
+      <c r="B30" s="275"/>
+      <c r="C30" s="276"/>
+      <c r="D30" s="277"/>
+      <c r="E30" s="278"/>
+      <c r="F30" s="278"/>
+      <c r="G30" s="278"/>
+      <c r="H30" s="278"/>
+      <c r="I30" s="278"/>
+      <c r="J30" s="279"/>
+      <c r="K30" s="280"/>
+      <c r="L30" s="281"/>
+      <c r="M30" s="289"/>
+      <c r="N30" s="290"/>
+      <c r="O30" s="290"/>
+      <c r="P30" s="290"/>
+      <c r="Q30" s="290"/>
+      <c r="R30" s="291"/>
+      <c r="S30" s="285"/>
+      <c r="T30" s="285"/>
+      <c r="U30" s="285"/>
+      <c r="V30" s="286"/>
+      <c r="W30" s="287"/>
+      <c r="X30" s="287"/>
+      <c r="Y30" s="287"/>
+      <c r="Z30" s="287"/>
+      <c r="AA30" s="287"/>
+      <c r="AB30" s="287"/>
+      <c r="AC30" s="287"/>
+      <c r="AD30" s="287"/>
+      <c r="AE30" s="287"/>
+      <c r="AF30" s="287"/>
+      <c r="AG30" s="287"/>
+      <c r="AH30" s="287"/>
+      <c r="AI30" s="287"/>
+      <c r="AJ30" s="287"/>
+      <c r="AK30" s="287"/>
+      <c r="AL30" s="287"/>
+      <c r="AM30" s="288"/>
+      <c r="AN30" s="272"/>
+      <c r="AO30" s="273"/>
+      <c r="AP30" s="273"/>
+      <c r="AQ30" s="273"/>
+      <c r="AR30" s="274"/>
+      <c r="AS30" s="272"/>
+      <c r="AT30" s="273"/>
+      <c r="AU30" s="273"/>
+      <c r="AV30" s="273"/>
+      <c r="AW30" s="274"/>
     </row>
     <row r="31" spans="1:49" ht="15" x14ac:dyDescent="0.3">
       <c r="A31" s="54"/>
-      <c r="B31" s="274"/>
-      <c r="C31" s="275"/>
-      <c r="D31" s="276"/>
-      <c r="E31" s="266"/>
-      <c r="F31" s="266"/>
-      <c r="G31" s="266"/>
-      <c r="H31" s="266"/>
-      <c r="I31" s="266"/>
-      <c r="J31" s="267"/>
-      <c r="K31" s="268"/>
-      <c r="L31" s="269"/>
-      <c r="M31" s="288"/>
-      <c r="N31" s="278"/>
-      <c r="O31" s="278"/>
-      <c r="P31" s="278"/>
-      <c r="Q31" s="278"/>
-      <c r="R31" s="279"/>
-      <c r="S31" s="264"/>
-      <c r="T31" s="264"/>
-      <c r="U31" s="264"/>
-      <c r="V31" s="280"/>
-      <c r="W31" s="281"/>
-      <c r="X31" s="281"/>
-      <c r="Y31" s="281"/>
-      <c r="Z31" s="281"/>
-      <c r="AA31" s="281"/>
-      <c r="AB31" s="281"/>
-      <c r="AC31" s="281"/>
-      <c r="AD31" s="281"/>
-      <c r="AE31" s="281"/>
-      <c r="AF31" s="281"/>
-      <c r="AG31" s="281"/>
-      <c r="AH31" s="281"/>
-      <c r="AI31" s="281"/>
-      <c r="AJ31" s="281"/>
-      <c r="AK31" s="281"/>
-      <c r="AL31" s="281"/>
-      <c r="AM31" s="282"/>
-      <c r="AN31" s="283"/>
-      <c r="AO31" s="284"/>
-      <c r="AP31" s="284"/>
-      <c r="AQ31" s="284"/>
-      <c r="AR31" s="285"/>
-      <c r="AS31" s="283"/>
-      <c r="AT31" s="284"/>
-      <c r="AU31" s="284"/>
-      <c r="AV31" s="284"/>
-      <c r="AW31" s="285"/>
+      <c r="B31" s="275"/>
+      <c r="C31" s="276"/>
+      <c r="D31" s="277"/>
+      <c r="E31" s="278"/>
+      <c r="F31" s="278"/>
+      <c r="G31" s="278"/>
+      <c r="H31" s="278"/>
+      <c r="I31" s="278"/>
+      <c r="J31" s="279"/>
+      <c r="K31" s="280"/>
+      <c r="L31" s="281"/>
+      <c r="M31" s="289"/>
+      <c r="N31" s="290"/>
+      <c r="O31" s="290"/>
+      <c r="P31" s="290"/>
+      <c r="Q31" s="290"/>
+      <c r="R31" s="291"/>
+      <c r="S31" s="285"/>
+      <c r="T31" s="285"/>
+      <c r="U31" s="285"/>
+      <c r="V31" s="286"/>
+      <c r="W31" s="287"/>
+      <c r="X31" s="287"/>
+      <c r="Y31" s="287"/>
+      <c r="Z31" s="287"/>
+      <c r="AA31" s="287"/>
+      <c r="AB31" s="287"/>
+      <c r="AC31" s="287"/>
+      <c r="AD31" s="287"/>
+      <c r="AE31" s="287"/>
+      <c r="AF31" s="287"/>
+      <c r="AG31" s="287"/>
+      <c r="AH31" s="287"/>
+      <c r="AI31" s="287"/>
+      <c r="AJ31" s="287"/>
+      <c r="AK31" s="287"/>
+      <c r="AL31" s="287"/>
+      <c r="AM31" s="288"/>
+      <c r="AN31" s="272"/>
+      <c r="AO31" s="273"/>
+      <c r="AP31" s="273"/>
+      <c r="AQ31" s="273"/>
+      <c r="AR31" s="274"/>
+      <c r="AS31" s="272"/>
+      <c r="AT31" s="273"/>
+      <c r="AU31" s="273"/>
+      <c r="AV31" s="273"/>
+      <c r="AW31" s="274"/>
     </row>
     <row r="32" spans="1:49" ht="15" x14ac:dyDescent="0.3">
       <c r="A32" s="54"/>
-      <c r="B32" s="274"/>
-      <c r="C32" s="275"/>
-      <c r="D32" s="276"/>
-      <c r="E32" s="266"/>
-      <c r="F32" s="266"/>
-      <c r="G32" s="266"/>
-      <c r="H32" s="266"/>
-      <c r="I32" s="266"/>
-      <c r="J32" s="267"/>
-      <c r="K32" s="268"/>
-      <c r="L32" s="269"/>
-      <c r="M32" s="288"/>
-      <c r="N32" s="278"/>
-      <c r="O32" s="278"/>
-      <c r="P32" s="278"/>
-      <c r="Q32" s="278"/>
-      <c r="R32" s="279"/>
-      <c r="S32" s="264"/>
-      <c r="T32" s="264"/>
-      <c r="U32" s="264"/>
-      <c r="V32" s="280"/>
-      <c r="W32" s="281"/>
-      <c r="X32" s="281"/>
-      <c r="Y32" s="281"/>
-      <c r="Z32" s="281"/>
-      <c r="AA32" s="281"/>
-      <c r="AB32" s="281"/>
-      <c r="AC32" s="281"/>
-      <c r="AD32" s="281"/>
-      <c r="AE32" s="281"/>
-      <c r="AF32" s="281"/>
-      <c r="AG32" s="281"/>
-      <c r="AH32" s="281"/>
-      <c r="AI32" s="281"/>
-      <c r="AJ32" s="281"/>
-      <c r="AK32" s="281"/>
-      <c r="AL32" s="281"/>
-      <c r="AM32" s="282"/>
-      <c r="AN32" s="283"/>
-      <c r="AO32" s="284"/>
-      <c r="AP32" s="284"/>
-      <c r="AQ32" s="284"/>
-      <c r="AR32" s="285"/>
-      <c r="AS32" s="283"/>
-      <c r="AT32" s="284"/>
-      <c r="AU32" s="284"/>
-      <c r="AV32" s="284"/>
-      <c r="AW32" s="285"/>
+      <c r="B32" s="275"/>
+      <c r="C32" s="276"/>
+      <c r="D32" s="277"/>
+      <c r="E32" s="278"/>
+      <c r="F32" s="278"/>
+      <c r="G32" s="278"/>
+      <c r="H32" s="278"/>
+      <c r="I32" s="278"/>
+      <c r="J32" s="279"/>
+      <c r="K32" s="280"/>
+      <c r="L32" s="281"/>
+      <c r="M32" s="289"/>
+      <c r="N32" s="290"/>
+      <c r="O32" s="290"/>
+      <c r="P32" s="290"/>
+      <c r="Q32" s="290"/>
+      <c r="R32" s="291"/>
+      <c r="S32" s="285"/>
+      <c r="T32" s="285"/>
+      <c r="U32" s="285"/>
+      <c r="V32" s="286"/>
+      <c r="W32" s="287"/>
+      <c r="X32" s="287"/>
+      <c r="Y32" s="287"/>
+      <c r="Z32" s="287"/>
+      <c r="AA32" s="287"/>
+      <c r="AB32" s="287"/>
+      <c r="AC32" s="287"/>
+      <c r="AD32" s="287"/>
+      <c r="AE32" s="287"/>
+      <c r="AF32" s="287"/>
+      <c r="AG32" s="287"/>
+      <c r="AH32" s="287"/>
+      <c r="AI32" s="287"/>
+      <c r="AJ32" s="287"/>
+      <c r="AK32" s="287"/>
+      <c r="AL32" s="287"/>
+      <c r="AM32" s="288"/>
+      <c r="AN32" s="272"/>
+      <c r="AO32" s="273"/>
+      <c r="AP32" s="273"/>
+      <c r="AQ32" s="273"/>
+      <c r="AR32" s="274"/>
+      <c r="AS32" s="272"/>
+      <c r="AT32" s="273"/>
+      <c r="AU32" s="273"/>
+      <c r="AV32" s="273"/>
+      <c r="AW32" s="274"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B33" s="274"/>
-      <c r="C33" s="275"/>
-      <c r="D33" s="276"/>
-      <c r="E33" s="266"/>
-      <c r="F33" s="266"/>
-      <c r="G33" s="266"/>
-      <c r="H33" s="266"/>
-      <c r="I33" s="266"/>
-      <c r="J33" s="267"/>
-      <c r="K33" s="268"/>
-      <c r="L33" s="269"/>
-      <c r="M33" s="288"/>
-      <c r="N33" s="278"/>
-      <c r="O33" s="278"/>
-      <c r="P33" s="278"/>
-      <c r="Q33" s="278"/>
-      <c r="R33" s="279"/>
-      <c r="S33" s="264"/>
-      <c r="T33" s="264"/>
-      <c r="U33" s="264"/>
-      <c r="V33" s="280"/>
-      <c r="W33" s="281"/>
-      <c r="X33" s="281"/>
-      <c r="Y33" s="281"/>
-      <c r="Z33" s="281"/>
-      <c r="AA33" s="281"/>
-      <c r="AB33" s="281"/>
-      <c r="AC33" s="281"/>
-      <c r="AD33" s="281"/>
-      <c r="AE33" s="281"/>
-      <c r="AF33" s="281"/>
-      <c r="AG33" s="281"/>
-      <c r="AH33" s="281"/>
-      <c r="AI33" s="281"/>
-      <c r="AJ33" s="281"/>
-      <c r="AK33" s="281"/>
-      <c r="AL33" s="281"/>
-      <c r="AM33" s="282"/>
-      <c r="AN33" s="283"/>
-      <c r="AO33" s="284"/>
-      <c r="AP33" s="284"/>
-      <c r="AQ33" s="284"/>
-      <c r="AR33" s="285"/>
-      <c r="AS33" s="283"/>
-      <c r="AT33" s="284"/>
-      <c r="AU33" s="284"/>
-      <c r="AV33" s="284"/>
-      <c r="AW33" s="285"/>
+      <c r="B33" s="275"/>
+      <c r="C33" s="276"/>
+      <c r="D33" s="277"/>
+      <c r="E33" s="278"/>
+      <c r="F33" s="278"/>
+      <c r="G33" s="278"/>
+      <c r="H33" s="278"/>
+      <c r="I33" s="278"/>
+      <c r="J33" s="279"/>
+      <c r="K33" s="280"/>
+      <c r="L33" s="281"/>
+      <c r="M33" s="289"/>
+      <c r="N33" s="290"/>
+      <c r="O33" s="290"/>
+      <c r="P33" s="290"/>
+      <c r="Q33" s="290"/>
+      <c r="R33" s="291"/>
+      <c r="S33" s="285"/>
+      <c r="T33" s="285"/>
+      <c r="U33" s="285"/>
+      <c r="V33" s="286"/>
+      <c r="W33" s="287"/>
+      <c r="X33" s="287"/>
+      <c r="Y33" s="287"/>
+      <c r="Z33" s="287"/>
+      <c r="AA33" s="287"/>
+      <c r="AB33" s="287"/>
+      <c r="AC33" s="287"/>
+      <c r="AD33" s="287"/>
+      <c r="AE33" s="287"/>
+      <c r="AF33" s="287"/>
+      <c r="AG33" s="287"/>
+      <c r="AH33" s="287"/>
+      <c r="AI33" s="287"/>
+      <c r="AJ33" s="287"/>
+      <c r="AK33" s="287"/>
+      <c r="AL33" s="287"/>
+      <c r="AM33" s="288"/>
+      <c r="AN33" s="272"/>
+      <c r="AO33" s="273"/>
+      <c r="AP33" s="273"/>
+      <c r="AQ33" s="273"/>
+      <c r="AR33" s="274"/>
+      <c r="AS33" s="272"/>
+      <c r="AT33" s="273"/>
+      <c r="AU33" s="273"/>
+      <c r="AV33" s="273"/>
+      <c r="AW33" s="274"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B34" s="274"/>
-      <c r="C34" s="275"/>
-      <c r="D34" s="276"/>
-      <c r="E34" s="266"/>
-      <c r="F34" s="266"/>
-      <c r="G34" s="266"/>
-      <c r="H34" s="266"/>
-      <c r="I34" s="266"/>
-      <c r="J34" s="267"/>
-      <c r="K34" s="268"/>
-      <c r="L34" s="269"/>
-      <c r="M34" s="292"/>
-      <c r="N34" s="293"/>
-      <c r="O34" s="293"/>
-      <c r="P34" s="293"/>
-      <c r="Q34" s="293"/>
-      <c r="R34" s="294"/>
-      <c r="S34" s="264"/>
-      <c r="T34" s="264"/>
-      <c r="U34" s="264"/>
-      <c r="V34" s="280"/>
-      <c r="W34" s="281"/>
-      <c r="X34" s="281"/>
-      <c r="Y34" s="281"/>
-      <c r="Z34" s="281"/>
-      <c r="AA34" s="281"/>
-      <c r="AB34" s="281"/>
-      <c r="AC34" s="281"/>
-      <c r="AD34" s="281"/>
-      <c r="AE34" s="281"/>
-      <c r="AF34" s="281"/>
-      <c r="AG34" s="281"/>
-      <c r="AH34" s="281"/>
-      <c r="AI34" s="281"/>
-      <c r="AJ34" s="281"/>
-      <c r="AK34" s="281"/>
-      <c r="AL34" s="281"/>
-      <c r="AM34" s="282"/>
-      <c r="AN34" s="283"/>
-      <c r="AO34" s="284"/>
-      <c r="AP34" s="284"/>
-      <c r="AQ34" s="284"/>
-      <c r="AR34" s="285"/>
-      <c r="AS34" s="283"/>
-      <c r="AT34" s="284"/>
-      <c r="AU34" s="284"/>
-      <c r="AV34" s="284"/>
-      <c r="AW34" s="285"/>
+      <c r="B34" s="275"/>
+      <c r="C34" s="276"/>
+      <c r="D34" s="277"/>
+      <c r="E34" s="278"/>
+      <c r="F34" s="278"/>
+      <c r="G34" s="278"/>
+      <c r="H34" s="278"/>
+      <c r="I34" s="278"/>
+      <c r="J34" s="279"/>
+      <c r="K34" s="280"/>
+      <c r="L34" s="281"/>
+      <c r="M34" s="282"/>
+      <c r="N34" s="283"/>
+      <c r="O34" s="283"/>
+      <c r="P34" s="283"/>
+      <c r="Q34" s="283"/>
+      <c r="R34" s="284"/>
+      <c r="S34" s="285"/>
+      <c r="T34" s="285"/>
+      <c r="U34" s="285"/>
+      <c r="V34" s="286"/>
+      <c r="W34" s="287"/>
+      <c r="X34" s="287"/>
+      <c r="Y34" s="287"/>
+      <c r="Z34" s="287"/>
+      <c r="AA34" s="287"/>
+      <c r="AB34" s="287"/>
+      <c r="AC34" s="287"/>
+      <c r="AD34" s="287"/>
+      <c r="AE34" s="287"/>
+      <c r="AF34" s="287"/>
+      <c r="AG34" s="287"/>
+      <c r="AH34" s="287"/>
+      <c r="AI34" s="287"/>
+      <c r="AJ34" s="287"/>
+      <c r="AK34" s="287"/>
+      <c r="AL34" s="287"/>
+      <c r="AM34" s="288"/>
+      <c r="AN34" s="272"/>
+      <c r="AO34" s="273"/>
+      <c r="AP34" s="273"/>
+      <c r="AQ34" s="273"/>
+      <c r="AR34" s="274"/>
+      <c r="AS34" s="272"/>
+      <c r="AT34" s="273"/>
+      <c r="AU34" s="273"/>
+      <c r="AV34" s="273"/>
+      <c r="AW34" s="274"/>
     </row>
   </sheetData>
   <mergeCells count="249">
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN5:AR5"/>
+    <mergeCell ref="AS5:AW5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:AM6"/>
+    <mergeCell ref="AN6:AR6"/>
+    <mergeCell ref="AS6:AW6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:AM5"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
     <mergeCell ref="AN33:AR33"/>
     <mergeCell ref="AS33:AW33"/>
     <mergeCell ref="B34:D34"/>
@@ -10235,239 +10468,6 @@
     <mergeCell ref="M33:R33"/>
     <mergeCell ref="S33:U33"/>
     <mergeCell ref="V33:AM33"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN5:AR5"/>
-    <mergeCell ref="AS5:AW5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:AM6"/>
-    <mergeCell ref="AN6:AR6"/>
-    <mergeCell ref="AS6:AW6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10627,11 +10627,11 @@
       <c r="AL2" s="35"/>
       <c r="AM2" s="35"/>
       <c r="AN2" s="36"/>
-      <c r="AO2" s="299"/>
-      <c r="AP2" s="300"/>
-      <c r="AQ2" s="300"/>
-      <c r="AR2" s="300"/>
-      <c r="AS2" s="301"/>
+      <c r="AO2" s="316"/>
+      <c r="AP2" s="317"/>
+      <c r="AQ2" s="317"/>
+      <c r="AR2" s="317"/>
+      <c r="AS2" s="318"/>
       <c r="AT2" s="34" t="s">
         <v>26</v>
       </c>
@@ -10640,14 +10640,14 @@
       <c r="AW2" s="35"/>
       <c r="AX2" s="35"/>
       <c r="AY2" s="36"/>
-      <c r="AZ2" s="302"/>
-      <c r="BA2" s="303"/>
-      <c r="BB2" s="303"/>
-      <c r="BC2" s="303"/>
-      <c r="BD2" s="303"/>
-      <c r="BE2" s="303"/>
-      <c r="BF2" s="303"/>
-      <c r="BG2" s="304"/>
+      <c r="AZ2" s="319"/>
+      <c r="BA2" s="320"/>
+      <c r="BB2" s="320"/>
+      <c r="BC2" s="320"/>
+      <c r="BD2" s="320"/>
+      <c r="BE2" s="320"/>
+      <c r="BF2" s="320"/>
+      <c r="BG2" s="321"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A3" s="33"/>
@@ -12396,10 +12396,10 @@
     </row>
     <row r="50" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A50" s="29"/>
-      <c r="B50" s="305" t="s">
+      <c r="B50" s="322" t="s">
         <v>99</v>
       </c>
-      <c r="C50" s="306"/>
+      <c r="C50" s="323"/>
       <c r="D50" s="71" t="s">
         <v>98</v>
       </c>
@@ -12482,10 +12482,10 @@
     </row>
     <row r="51" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A51" s="29"/>
-      <c r="B51" s="297">
+      <c r="B51" s="314">
         <v>1</v>
       </c>
-      <c r="C51" s="298"/>
+      <c r="C51" s="315"/>
       <c r="D51" s="204" t="s">
         <v>119</v>
       </c>
@@ -12517,10 +12517,10 @@
       <c r="AB51" s="205"/>
       <c r="AC51" s="205"/>
       <c r="AD51" s="206"/>
-      <c r="AE51" s="295" t="s">
+      <c r="AE51" s="312" t="s">
         <v>107</v>
       </c>
-      <c r="AF51" s="296"/>
+      <c r="AF51" s="313"/>
       <c r="AG51" s="216"/>
       <c r="AH51" s="217"/>
       <c r="AI51" s="216"/>
@@ -12560,10 +12560,10 @@
     </row>
     <row r="52" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A52" s="29"/>
-      <c r="B52" s="297">
+      <c r="B52" s="314">
         <v>2</v>
       </c>
-      <c r="C52" s="298"/>
+      <c r="C52" s="315"/>
       <c r="D52" s="204" t="s">
         <v>119</v>
       </c>
@@ -12595,10 +12595,10 @@
       <c r="AB52" s="205"/>
       <c r="AC52" s="205"/>
       <c r="AD52" s="206"/>
-      <c r="AE52" s="295" t="s">
+      <c r="AE52" s="312" t="s">
         <v>107</v>
       </c>
-      <c r="AF52" s="296"/>
+      <c r="AF52" s="313"/>
       <c r="AG52" s="216"/>
       <c r="AH52" s="217"/>
       <c r="AI52" s="216"/>
@@ -12638,10 +12638,10 @@
     </row>
     <row r="53" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A53" s="29"/>
-      <c r="B53" s="297">
+      <c r="B53" s="314">
         <v>3</v>
       </c>
-      <c r="C53" s="298"/>
+      <c r="C53" s="315"/>
       <c r="D53" s="204" t="s">
         <v>301</v>
       </c>
@@ -12673,10 +12673,10 @@
       <c r="AB53" s="205"/>
       <c r="AC53" s="205"/>
       <c r="AD53" s="206"/>
-      <c r="AE53" s="295" t="s">
+      <c r="AE53" s="312" t="s">
         <v>107</v>
       </c>
-      <c r="AF53" s="296"/>
+      <c r="AF53" s="313"/>
       <c r="AG53" s="208"/>
       <c r="AH53" s="209"/>
       <c r="AI53" s="208"/>
@@ -12853,20 +12853,20 @@
       <c r="CA1" s="35"/>
       <c r="CB1" s="35"/>
       <c r="CC1" s="36"/>
-      <c r="CD1" s="309">
+      <c r="CD1" s="326">
         <f>変更履歴!E5</f>
         <v>43734</v>
       </c>
-      <c r="CE1" s="310"/>
-      <c r="CF1" s="310"/>
-      <c r="CG1" s="310"/>
-      <c r="CH1" s="310"/>
-      <c r="CI1" s="310"/>
-      <c r="CJ1" s="310"/>
-      <c r="CK1" s="310"/>
-      <c r="CL1" s="310"/>
-      <c r="CM1" s="310"/>
-      <c r="CN1" s="311"/>
+      <c r="CE1" s="327"/>
+      <c r="CF1" s="327"/>
+      <c r="CG1" s="327"/>
+      <c r="CH1" s="327"/>
+      <c r="CI1" s="327"/>
+      <c r="CJ1" s="327"/>
+      <c r="CK1" s="327"/>
+      <c r="CL1" s="327"/>
+      <c r="CM1" s="327"/>
+      <c r="CN1" s="328"/>
       <c r="CO1" s="34" t="s">
         <v>25</v>
       </c>
@@ -12875,23 +12875,23 @@
       <c r="CR1" s="35"/>
       <c r="CS1" s="35"/>
       <c r="CT1" s="36"/>
-      <c r="CU1" s="302" t="str">
+      <c r="CU1" s="319" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
-      <c r="CV1" s="307"/>
-      <c r="CW1" s="307"/>
-      <c r="CX1" s="307"/>
-      <c r="CY1" s="307"/>
-      <c r="CZ1" s="307"/>
-      <c r="DA1" s="307"/>
-      <c r="DB1" s="307"/>
-      <c r="DC1" s="307"/>
-      <c r="DD1" s="307"/>
-      <c r="DE1" s="307"/>
-      <c r="DF1" s="307"/>
-      <c r="DG1" s="307"/>
-      <c r="DH1" s="308"/>
+      <c r="CV1" s="324"/>
+      <c r="CW1" s="324"/>
+      <c r="CX1" s="324"/>
+      <c r="CY1" s="324"/>
+      <c r="CZ1" s="324"/>
+      <c r="DA1" s="324"/>
+      <c r="DB1" s="324"/>
+      <c r="DC1" s="324"/>
+      <c r="DD1" s="324"/>
+      <c r="DE1" s="324"/>
+      <c r="DF1" s="324"/>
+      <c r="DG1" s="324"/>
+      <c r="DH1" s="325"/>
     </row>
     <row r="2" spans="1:113" s="48" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="37" t="s">
@@ -12946,39 +12946,39 @@
       <c r="AQ2" s="77"/>
       <c r="AR2" s="77"/>
       <c r="AS2" s="78"/>
-      <c r="AT2" s="313" t="str">
+      <c r="AT2" s="330" t="str">
         <f>'１．機能概要'!W2</f>
         <v>在庫照会</v>
       </c>
-      <c r="AU2" s="314"/>
-      <c r="AV2" s="314"/>
-      <c r="AW2" s="314"/>
-      <c r="AX2" s="314"/>
-      <c r="AY2" s="314"/>
-      <c r="AZ2" s="314"/>
-      <c r="BA2" s="314"/>
-      <c r="BB2" s="314"/>
-      <c r="BC2" s="314"/>
-      <c r="BD2" s="314"/>
-      <c r="BE2" s="314"/>
-      <c r="BF2" s="314"/>
-      <c r="BG2" s="314"/>
-      <c r="BH2" s="314"/>
-      <c r="BI2" s="314"/>
-      <c r="BJ2" s="314"/>
-      <c r="BK2" s="314"/>
-      <c r="BL2" s="314"/>
-      <c r="BM2" s="314"/>
-      <c r="BN2" s="314"/>
-      <c r="BO2" s="314"/>
-      <c r="BP2" s="314"/>
-      <c r="BQ2" s="314"/>
-      <c r="BR2" s="314"/>
-      <c r="BS2" s="314"/>
-      <c r="BT2" s="314"/>
-      <c r="BU2" s="314"/>
-      <c r="BV2" s="314"/>
-      <c r="BW2" s="315"/>
+      <c r="AU2" s="331"/>
+      <c r="AV2" s="331"/>
+      <c r="AW2" s="331"/>
+      <c r="AX2" s="331"/>
+      <c r="AY2" s="331"/>
+      <c r="AZ2" s="331"/>
+      <c r="BA2" s="331"/>
+      <c r="BB2" s="331"/>
+      <c r="BC2" s="331"/>
+      <c r="BD2" s="331"/>
+      <c r="BE2" s="331"/>
+      <c r="BF2" s="331"/>
+      <c r="BG2" s="331"/>
+      <c r="BH2" s="331"/>
+      <c r="BI2" s="331"/>
+      <c r="BJ2" s="331"/>
+      <c r="BK2" s="331"/>
+      <c r="BL2" s="331"/>
+      <c r="BM2" s="331"/>
+      <c r="BN2" s="331"/>
+      <c r="BO2" s="331"/>
+      <c r="BP2" s="331"/>
+      <c r="BQ2" s="331"/>
+      <c r="BR2" s="331"/>
+      <c r="BS2" s="331"/>
+      <c r="BT2" s="331"/>
+      <c r="BU2" s="331"/>
+      <c r="BV2" s="331"/>
+      <c r="BW2" s="332"/>
       <c r="BX2" s="34" t="s">
         <v>24</v>
       </c>
@@ -12987,17 +12987,17 @@
       <c r="CA2" s="35"/>
       <c r="CB2" s="35"/>
       <c r="CC2" s="36"/>
-      <c r="CD2" s="312"/>
-      <c r="CE2" s="307"/>
-      <c r="CF2" s="307"/>
-      <c r="CG2" s="307"/>
-      <c r="CH2" s="307"/>
-      <c r="CI2" s="307"/>
-      <c r="CJ2" s="307"/>
-      <c r="CK2" s="307"/>
-      <c r="CL2" s="307"/>
-      <c r="CM2" s="307"/>
-      <c r="CN2" s="308"/>
+      <c r="CD2" s="329"/>
+      <c r="CE2" s="324"/>
+      <c r="CF2" s="324"/>
+      <c r="CG2" s="324"/>
+      <c r="CH2" s="324"/>
+      <c r="CI2" s="324"/>
+      <c r="CJ2" s="324"/>
+      <c r="CK2" s="324"/>
+      <c r="CL2" s="324"/>
+      <c r="CM2" s="324"/>
+      <c r="CN2" s="325"/>
       <c r="CO2" s="34" t="s">
         <v>26</v>
       </c>
@@ -13006,20 +13006,20 @@
       <c r="CR2" s="35"/>
       <c r="CS2" s="35"/>
       <c r="CT2" s="36"/>
-      <c r="CU2" s="302"/>
-      <c r="CV2" s="307"/>
-      <c r="CW2" s="307"/>
-      <c r="CX2" s="307"/>
-      <c r="CY2" s="307"/>
-      <c r="CZ2" s="307"/>
-      <c r="DA2" s="307"/>
-      <c r="DB2" s="307"/>
-      <c r="DC2" s="307"/>
-      <c r="DD2" s="307"/>
-      <c r="DE2" s="307"/>
-      <c r="DF2" s="307"/>
-      <c r="DG2" s="307"/>
-      <c r="DH2" s="308"/>
+      <c r="CU2" s="319"/>
+      <c r="CV2" s="324"/>
+      <c r="CW2" s="324"/>
+      <c r="CX2" s="324"/>
+      <c r="CY2" s="324"/>
+      <c r="CZ2" s="324"/>
+      <c r="DA2" s="324"/>
+      <c r="DB2" s="324"/>
+      <c r="DC2" s="324"/>
+      <c r="DD2" s="324"/>
+      <c r="DE2" s="324"/>
+      <c r="DF2" s="324"/>
+      <c r="DG2" s="324"/>
+      <c r="DH2" s="325"/>
     </row>
     <row r="3" spans="1:113" x14ac:dyDescent="0.3">
       <c r="AU3" s="50"/>
@@ -13223,37 +13223,37 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="257" t="s">
+      <c r="C6" s="305" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="257" t="s">
+      <c r="D6" s="305" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="257" t="s">
+      <c r="E6" s="305" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="257" t="s">
+      <c r="F6" s="305" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="257" t="s">
+      <c r="G6" s="305" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="257" t="s">
+      <c r="H6" s="305" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="316" t="s">
+      <c r="I6" s="333" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="316" t="s">
+      <c r="J6" s="333" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="257" t="s">
+      <c r="K6" s="305" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="257" t="s">
+      <c r="L6" s="305" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="257" t="s">
+      <c r="M6" s="305" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="64" t="s">
@@ -13261,24 +13261,24 @@
       </c>
       <c r="O6" s="64"/>
       <c r="P6" s="64"/>
-      <c r="Q6" s="316" t="s">
+      <c r="Q6" s="333" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="257"/>
-      <c r="D7" s="257"/>
-      <c r="E7" s="257"/>
-      <c r="F7" s="257"/>
-      <c r="G7" s="257"/>
-      <c r="H7" s="257"/>
-      <c r="I7" s="316"/>
-      <c r="J7" s="316"/>
-      <c r="K7" s="257"/>
-      <c r="L7" s="257"/>
-      <c r="M7" s="257"/>
+      <c r="C7" s="305"/>
+      <c r="D7" s="305"/>
+      <c r="E7" s="305"/>
+      <c r="F7" s="305"/>
+      <c r="G7" s="305"/>
+      <c r="H7" s="305"/>
+      <c r="I7" s="333"/>
+      <c r="J7" s="333"/>
+      <c r="K7" s="305"/>
+      <c r="L7" s="305"/>
+      <c r="M7" s="305"/>
       <c r="N7" s="43" t="s">
         <v>77</v>
       </c>
@@ -13288,7 +13288,7 @@
       <c r="P7" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="Q7" s="316"/>
+      <c r="Q7" s="333"/>
     </row>
     <row r="8" spans="1:18" ht="28.8" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
@@ -13484,8 +13484,8 @@
       <c r="E12" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="348" t="s">
-        <v>446</v>
+      <c r="F12" s="268" t="s">
+        <v>445</v>
       </c>
       <c r="G12" s="16" t="s">
         <v>43</v>
@@ -13532,37 +13532,37 @@
     <row r="15" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
-      <c r="C15" s="257" t="s">
+      <c r="C15" s="305" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="257" t="s">
+      <c r="D15" s="305" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="257" t="s">
+      <c r="E15" s="305" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="257" t="s">
+      <c r="F15" s="305" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="257" t="s">
+      <c r="G15" s="305" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="257" t="s">
+      <c r="H15" s="305" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="317" t="s">
+      <c r="I15" s="334" t="s">
         <v>47</v>
       </c>
-      <c r="J15" s="316" t="s">
+      <c r="J15" s="333" t="s">
         <v>48</v>
       </c>
-      <c r="K15" s="257" t="s">
+      <c r="K15" s="305" t="s">
         <v>31</v>
       </c>
-      <c r="L15" s="257" t="s">
+      <c r="L15" s="305" t="s">
         <v>30</v>
       </c>
-      <c r="M15" s="257" t="s">
+      <c r="M15" s="305" t="s">
         <v>33</v>
       </c>
       <c r="N15" s="64" t="s">
@@ -13570,24 +13570,24 @@
       </c>
       <c r="O15" s="64"/>
       <c r="P15" s="64"/>
-      <c r="Q15" s="317" t="s">
+      <c r="Q15" s="334" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
-      <c r="C16" s="257"/>
-      <c r="D16" s="257"/>
-      <c r="E16" s="257"/>
-      <c r="F16" s="257"/>
-      <c r="G16" s="257"/>
-      <c r="H16" s="257"/>
-      <c r="I16" s="318"/>
-      <c r="J16" s="316"/>
-      <c r="K16" s="257"/>
-      <c r="L16" s="257"/>
-      <c r="M16" s="257"/>
+      <c r="C16" s="305"/>
+      <c r="D16" s="305"/>
+      <c r="E16" s="305"/>
+      <c r="F16" s="305"/>
+      <c r="G16" s="305"/>
+      <c r="H16" s="305"/>
+      <c r="I16" s="335"/>
+      <c r="J16" s="333"/>
+      <c r="K16" s="305"/>
+      <c r="L16" s="305"/>
+      <c r="M16" s="305"/>
       <c r="N16" s="43" t="s">
         <v>77</v>
       </c>
@@ -13597,7 +13597,7 @@
       <c r="P16" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="Q16" s="318"/>
+      <c r="Q16" s="335"/>
     </row>
     <row r="17" spans="1:17" ht="43.2" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
@@ -13950,37 +13950,37 @@
     </row>
     <row r="26" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="94"/>
-      <c r="C26" s="257" t="s">
+      <c r="C26" s="305" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="257" t="s">
+      <c r="D26" s="305" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="257" t="s">
+      <c r="E26" s="305" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="257" t="s">
+      <c r="F26" s="305" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="257" t="s">
+      <c r="G26" s="305" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="257" t="s">
+      <c r="H26" s="305" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="316" t="s">
+      <c r="I26" s="333" t="s">
         <v>47</v>
       </c>
-      <c r="J26" s="316" t="s">
+      <c r="J26" s="333" t="s">
         <v>48</v>
       </c>
-      <c r="K26" s="257" t="s">
+      <c r="K26" s="305" t="s">
         <v>31</v>
       </c>
-      <c r="L26" s="257" t="s">
+      <c r="L26" s="305" t="s">
         <v>30</v>
       </c>
-      <c r="M26" s="257" t="s">
+      <c r="M26" s="305" t="s">
         <v>33</v>
       </c>
       <c r="N26" s="64" t="s">
@@ -13988,23 +13988,23 @@
       </c>
       <c r="O26" s="64"/>
       <c r="P26" s="64"/>
-      <c r="Q26" s="316" t="s">
+      <c r="Q26" s="333" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="16.2" x14ac:dyDescent="0.2">
       <c r="B27" s="94"/>
-      <c r="C27" s="257"/>
-      <c r="D27" s="257"/>
-      <c r="E27" s="257"/>
-      <c r="F27" s="257"/>
-      <c r="G27" s="257"/>
-      <c r="H27" s="257"/>
-      <c r="I27" s="316"/>
-      <c r="J27" s="316"/>
-      <c r="K27" s="257"/>
-      <c r="L27" s="257"/>
-      <c r="M27" s="257"/>
+      <c r="C27" s="305"/>
+      <c r="D27" s="305"/>
+      <c r="E27" s="305"/>
+      <c r="F27" s="305"/>
+      <c r="G27" s="305"/>
+      <c r="H27" s="305"/>
+      <c r="I27" s="333"/>
+      <c r="J27" s="333"/>
+      <c r="K27" s="305"/>
+      <c r="L27" s="305"/>
+      <c r="M27" s="305"/>
       <c r="N27" s="92" t="s">
         <v>77</v>
       </c>
@@ -14014,7 +14014,7 @@
       <c r="P27" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="Q27" s="316"/>
+      <c r="Q27" s="333"/>
     </row>
     <row r="28" spans="1:17" ht="16.2" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
@@ -14892,16 +14892,24 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="I15:I16"/>
     <mergeCell ref="J15:J16"/>
     <mergeCell ref="C15:C16"/>
@@ -14910,24 +14918,16 @@
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="H15:H16"/>
     <mergeCell ref="D15:D16"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -14999,14 +14999,14 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="299">
+      <c r="AI1" s="316">
         <f>変更履歴!E5</f>
         <v>43734</v>
       </c>
-      <c r="AJ1" s="319"/>
-      <c r="AK1" s="319"/>
-      <c r="AL1" s="319"/>
-      <c r="AM1" s="320"/>
+      <c r="AJ1" s="336"/>
+      <c r="AK1" s="336"/>
+      <c r="AL1" s="336"/>
+      <c r="AM1" s="337"/>
       <c r="AN1" s="34" t="s">
         <v>25</v>
       </c>
@@ -15015,16 +15015,16 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="302" t="str">
+      <c r="AT1" s="319" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
-      <c r="AU1" s="321"/>
-      <c r="AV1" s="321"/>
-      <c r="AW1" s="321"/>
-      <c r="AX1" s="321"/>
-      <c r="AY1" s="321"/>
-      <c r="AZ1" s="322"/>
+      <c r="AU1" s="338"/>
+      <c r="AV1" s="338"/>
+      <c r="AW1" s="338"/>
+      <c r="AX1" s="338"/>
+      <c r="AY1" s="338"/>
+      <c r="AZ1" s="339"/>
     </row>
     <row r="2" spans="1:52" s="219" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="37" t="s">
@@ -15052,32 +15052,32 @@
       <c r="P2" s="38"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="39"/>
-      <c r="S2" s="313" t="str">
+      <c r="S2" s="330" t="str">
         <f>'１．機能概要'!W2</f>
         <v>在庫照会</v>
       </c>
-      <c r="T2" s="319"/>
-      <c r="U2" s="319"/>
-      <c r="V2" s="319"/>
-      <c r="W2" s="319"/>
-      <c r="X2" s="319"/>
-      <c r="Y2" s="319"/>
-      <c r="Z2" s="319"/>
-      <c r="AA2" s="319"/>
-      <c r="AB2" s="319"/>
-      <c r="AC2" s="319"/>
-      <c r="AD2" s="320"/>
+      <c r="T2" s="336"/>
+      <c r="U2" s="336"/>
+      <c r="V2" s="336"/>
+      <c r="W2" s="336"/>
+      <c r="X2" s="336"/>
+      <c r="Y2" s="336"/>
+      <c r="Z2" s="336"/>
+      <c r="AA2" s="336"/>
+      <c r="AB2" s="336"/>
+      <c r="AC2" s="336"/>
+      <c r="AD2" s="337"/>
       <c r="AE2" s="34" t="s">
         <v>24</v>
       </c>
       <c r="AF2" s="35"/>
       <c r="AG2" s="35"/>
       <c r="AH2" s="36"/>
-      <c r="AI2" s="312"/>
-      <c r="AJ2" s="321"/>
-      <c r="AK2" s="321"/>
-      <c r="AL2" s="321"/>
-      <c r="AM2" s="322"/>
+      <c r="AI2" s="329"/>
+      <c r="AJ2" s="338"/>
+      <c r="AK2" s="338"/>
+      <c r="AL2" s="338"/>
+      <c r="AM2" s="339"/>
       <c r="AN2" s="34" t="s">
         <v>26</v>
       </c>
@@ -15086,13 +15086,13 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="302"/>
-      <c r="AU2" s="321"/>
-      <c r="AV2" s="321"/>
-      <c r="AW2" s="321"/>
-      <c r="AX2" s="321"/>
-      <c r="AY2" s="321"/>
-      <c r="AZ2" s="322"/>
+      <c r="AT2" s="319"/>
+      <c r="AU2" s="338"/>
+      <c r="AV2" s="338"/>
+      <c r="AW2" s="338"/>
+      <c r="AX2" s="338"/>
+      <c r="AY2" s="338"/>
+      <c r="AZ2" s="339"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A3" s="57"/>
@@ -19234,10 +19234,10 @@
       <c r="I94" s="238"/>
       <c r="J94" s="238"/>
       <c r="K94" s="239"/>
-      <c r="L94" s="334" t="s">
-        <v>443</v>
-      </c>
-      <c r="M94" s="333"/>
+      <c r="L94" s="254" t="s">
+        <v>442</v>
+      </c>
+      <c r="M94" s="253"/>
       <c r="N94" s="68"/>
       <c r="O94" s="68"/>
       <c r="P94" s="68"/>
@@ -19404,7 +19404,7 @@
       <c r="I98" s="234"/>
       <c r="J98" s="234"/>
       <c r="K98" s="235"/>
-      <c r="L98" s="332" t="s">
+      <c r="L98" s="252" t="s">
         <v>437</v>
       </c>
       <c r="M98" s="234"/>
@@ -19525,7 +19525,7 @@
       <c r="I101" s="234"/>
       <c r="J101" s="234"/>
       <c r="K101" s="235"/>
-      <c r="L101" s="332" t="s">
+      <c r="L101" s="252" t="s">
         <v>437</v>
       </c>
       <c r="AV101" s="232"/>
@@ -27203,14 +27203,14 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="299">
+      <c r="AI1" s="316">
         <f>変更履歴!E5</f>
         <v>43734</v>
       </c>
-      <c r="AJ1" s="314"/>
-      <c r="AK1" s="314"/>
-      <c r="AL1" s="314"/>
-      <c r="AM1" s="315"/>
+      <c r="AJ1" s="331"/>
+      <c r="AK1" s="331"/>
+      <c r="AL1" s="331"/>
+      <c r="AM1" s="332"/>
       <c r="AN1" s="34" t="s">
         <v>25</v>
       </c>
@@ -27219,16 +27219,16 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="302" t="str">
+      <c r="AT1" s="319" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
-      <c r="AU1" s="307"/>
-      <c r="AV1" s="307"/>
-      <c r="AW1" s="307"/>
-      <c r="AX1" s="307"/>
-      <c r="AY1" s="307"/>
-      <c r="AZ1" s="308"/>
+      <c r="AU1" s="324"/>
+      <c r="AV1" s="324"/>
+      <c r="AW1" s="324"/>
+      <c r="AX1" s="324"/>
+      <c r="AY1" s="324"/>
+      <c r="AZ1" s="325"/>
     </row>
     <row r="2" spans="1:52" s="48" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="37" t="s">
@@ -27256,32 +27256,32 @@
       <c r="P2" s="38"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="39"/>
-      <c r="S2" s="313" t="str">
+      <c r="S2" s="330" t="str">
         <f>'１．機能概要'!W2</f>
         <v>在庫照会</v>
       </c>
-      <c r="T2" s="314"/>
-      <c r="U2" s="314"/>
-      <c r="V2" s="314"/>
-      <c r="W2" s="314"/>
-      <c r="X2" s="314"/>
-      <c r="Y2" s="314"/>
-      <c r="Z2" s="314"/>
-      <c r="AA2" s="314"/>
-      <c r="AB2" s="314"/>
-      <c r="AC2" s="314"/>
-      <c r="AD2" s="315"/>
+      <c r="T2" s="331"/>
+      <c r="U2" s="331"/>
+      <c r="V2" s="331"/>
+      <c r="W2" s="331"/>
+      <c r="X2" s="331"/>
+      <c r="Y2" s="331"/>
+      <c r="Z2" s="331"/>
+      <c r="AA2" s="331"/>
+      <c r="AB2" s="331"/>
+      <c r="AC2" s="331"/>
+      <c r="AD2" s="332"/>
       <c r="AE2" s="34" t="s">
         <v>24</v>
       </c>
       <c r="AF2" s="35"/>
       <c r="AG2" s="35"/>
       <c r="AH2" s="36"/>
-      <c r="AI2" s="312"/>
-      <c r="AJ2" s="307"/>
-      <c r="AK2" s="307"/>
-      <c r="AL2" s="307"/>
-      <c r="AM2" s="308"/>
+      <c r="AI2" s="329"/>
+      <c r="AJ2" s="324"/>
+      <c r="AK2" s="324"/>
+      <c r="AL2" s="324"/>
+      <c r="AM2" s="325"/>
       <c r="AN2" s="34" t="s">
         <v>26</v>
       </c>
@@ -27290,13 +27290,13 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="302"/>
-      <c r="AU2" s="307"/>
-      <c r="AV2" s="307"/>
-      <c r="AW2" s="307"/>
-      <c r="AX2" s="307"/>
-      <c r="AY2" s="307"/>
-      <c r="AZ2" s="308"/>
+      <c r="AT2" s="319"/>
+      <c r="AU2" s="324"/>
+      <c r="AV2" s="324"/>
+      <c r="AW2" s="324"/>
+      <c r="AX2" s="324"/>
+      <c r="AY2" s="324"/>
+      <c r="AZ2" s="325"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A3" s="57"/>
@@ -27525,7 +27525,7 @@
       <c r="AW6" s="20"/>
     </row>
     <row r="7" spans="1:52" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B7" s="323">
+      <c r="B7" s="340">
         <v>1</v>
       </c>
       <c r="C7" s="21" t="s">
@@ -27579,7 +27579,7 @@
       <c r="AW7" s="23"/>
     </row>
     <row r="8" spans="1:52" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B8" s="324"/>
+      <c r="B8" s="341"/>
       <c r="C8" s="25"/>
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
@@ -27629,7 +27629,7 @@
       <c r="AW8" s="27"/>
     </row>
     <row r="9" spans="1:52" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B9" s="323">
+      <c r="B9" s="340">
         <v>2</v>
       </c>
       <c r="C9" s="21" t="s">
@@ -27691,7 +27691,7 @@
       <c r="AW9" s="23"/>
     </row>
     <row r="10" spans="1:52" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B10" s="325"/>
+      <c r="B10" s="342"/>
       <c r="C10" s="66"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
@@ -27741,7 +27741,7 @@
       <c r="AW10" s="27"/>
     </row>
     <row r="11" spans="1:52" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B11" s="325"/>
+      <c r="B11" s="342"/>
       <c r="C11" s="66"/>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
@@ -27797,7 +27797,7 @@
       <c r="AW11" s="67"/>
     </row>
     <row r="12" spans="1:52" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B12" s="325"/>
+      <c r="B12" s="342"/>
       <c r="C12" s="66"/>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
@@ -27846,31 +27846,31 @@
       <c r="AV12" s="26"/>
       <c r="AW12" s="27"/>
     </row>
-    <row r="13" spans="1:52" s="335" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B13" s="325"/>
-      <c r="C13" s="336"/>
-      <c r="D13" s="337"/>
-      <c r="E13" s="337"/>
-      <c r="F13" s="337"/>
-      <c r="G13" s="337"/>
-      <c r="H13" s="337"/>
-      <c r="I13" s="338"/>
-      <c r="J13" s="336" t="s">
+    <row r="13" spans="1:52" s="255" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B13" s="342"/>
+      <c r="C13" s="256"/>
+      <c r="D13" s="257"/>
+      <c r="E13" s="257"/>
+      <c r="F13" s="257"/>
+      <c r="G13" s="257"/>
+      <c r="H13" s="257"/>
+      <c r="I13" s="258"/>
+      <c r="J13" s="256" t="s">
         <v>440</v>
       </c>
-      <c r="K13" s="337"/>
-      <c r="L13" s="337"/>
-      <c r="M13" s="337"/>
-      <c r="N13" s="337"/>
-      <c r="O13" s="337"/>
-      <c r="P13" s="338"/>
+      <c r="K13" s="257"/>
+      <c r="L13" s="257"/>
+      <c r="M13" s="257"/>
+      <c r="N13" s="257"/>
+      <c r="O13" s="257"/>
+      <c r="P13" s="258"/>
       <c r="Q13" s="251" t="s">
         <v>75</v>
       </c>
       <c r="R13" s="250"/>
-      <c r="S13" s="339"/>
+      <c r="S13" s="259"/>
       <c r="T13" s="250" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="U13" s="250"/>
       <c r="V13" s="250"/>
@@ -27884,28 +27884,28 @@
       <c r="AD13" s="251" t="s">
         <v>441</v>
       </c>
-      <c r="AE13" s="337"/>
-      <c r="AF13" s="337"/>
-      <c r="AG13" s="337"/>
-      <c r="AH13" s="337"/>
-      <c r="AI13" s="337"/>
-      <c r="AJ13" s="337"/>
-      <c r="AK13" s="337"/>
-      <c r="AL13" s="337"/>
-      <c r="AM13" s="337"/>
-      <c r="AN13" s="337"/>
-      <c r="AO13" s="337"/>
-      <c r="AP13" s="337"/>
-      <c r="AQ13" s="337"/>
-      <c r="AR13" s="337"/>
-      <c r="AS13" s="337"/>
-      <c r="AT13" s="337"/>
-      <c r="AU13" s="337"/>
-      <c r="AV13" s="337"/>
-      <c r="AW13" s="338"/>
+      <c r="AE13" s="257"/>
+      <c r="AF13" s="257"/>
+      <c r="AG13" s="257"/>
+      <c r="AH13" s="257"/>
+      <c r="AI13" s="257"/>
+      <c r="AJ13" s="257"/>
+      <c r="AK13" s="257"/>
+      <c r="AL13" s="257"/>
+      <c r="AM13" s="257"/>
+      <c r="AN13" s="257"/>
+      <c r="AO13" s="257"/>
+      <c r="AP13" s="257"/>
+      <c r="AQ13" s="257"/>
+      <c r="AR13" s="257"/>
+      <c r="AS13" s="257"/>
+      <c r="AT13" s="257"/>
+      <c r="AU13" s="257"/>
+      <c r="AV13" s="257"/>
+      <c r="AW13" s="258"/>
     </row>
     <row r="14" spans="1:52" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B14" s="324"/>
+      <c r="B14" s="341"/>
       <c r="C14" s="25"/>
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
@@ -27955,7 +27955,7 @@
       <c r="AW14" s="27"/>
     </row>
     <row r="15" spans="1:52" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B15" s="323">
+      <c r="B15" s="340">
         <v>3</v>
       </c>
       <c r="C15" s="21" t="s">
@@ -28009,7 +28009,7 @@
       <c r="AW15" s="23"/>
     </row>
     <row r="16" spans="1:52" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B16" s="324"/>
+      <c r="B16" s="341"/>
       <c r="C16" s="25"/>
       <c r="D16" s="26"/>
       <c r="E16" s="26"/>
@@ -28059,7 +28059,7 @@
       <c r="AW16" s="27"/>
     </row>
     <row r="17" spans="1:52" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B17" s="323">
+      <c r="B17" s="340">
         <v>4</v>
       </c>
       <c r="C17" s="21" t="s">
@@ -28113,7 +28113,7 @@
       <c r="AW17" s="23"/>
     </row>
     <row r="18" spans="1:52" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B18" s="324"/>
+      <c r="B18" s="341"/>
       <c r="C18" s="25"/>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
@@ -28163,7 +28163,7 @@
       <c r="AW18" s="27"/>
     </row>
     <row r="19" spans="1:52" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B19" s="323">
+      <c r="B19" s="340">
         <v>5</v>
       </c>
       <c r="C19" s="21" t="s">
@@ -28223,7 +28223,7 @@
       <c r="AW19" s="23"/>
     </row>
     <row r="20" spans="1:52" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B20" s="324"/>
+      <c r="B20" s="341"/>
       <c r="C20" s="25"/>
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
@@ -28273,7 +28273,7 @@
       <c r="AW20" s="27"/>
     </row>
     <row r="21" spans="1:52" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="323">
+      <c r="B21" s="340">
         <v>6</v>
       </c>
       <c r="C21" s="21" t="s">
@@ -28331,7 +28331,7 @@
       <c r="AW21" s="23"/>
     </row>
     <row r="22" spans="1:52" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B22" s="324"/>
+      <c r="B22" s="341"/>
       <c r="C22" s="66"/>
       <c r="I22" s="67"/>
       <c r="J22" s="66"/>
@@ -28371,7 +28371,7 @@
       <c r="AW22" s="27"/>
     </row>
     <row r="23" spans="1:52" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="323">
+      <c r="B23" s="340">
         <v>7</v>
       </c>
       <c r="C23" s="21" t="s">
@@ -28425,7 +28425,7 @@
       <c r="AW23" s="23"/>
     </row>
     <row r="24" spans="1:52" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B24" s="324"/>
+      <c r="B24" s="341"/>
       <c r="C24" s="66"/>
       <c r="I24" s="67"/>
       <c r="J24" s="66"/>
@@ -32547,14 +32547,14 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="299">
+      <c r="AI1" s="316">
         <f>変更履歴!E5</f>
         <v>43734</v>
       </c>
-      <c r="AJ1" s="314"/>
-      <c r="AK1" s="314"/>
-      <c r="AL1" s="314"/>
-      <c r="AM1" s="315"/>
+      <c r="AJ1" s="331"/>
+      <c r="AK1" s="331"/>
+      <c r="AL1" s="331"/>
+      <c r="AM1" s="332"/>
       <c r="AN1" s="34" t="s">
         <v>25</v>
       </c>
@@ -32563,16 +32563,16 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="302" t="str">
+      <c r="AT1" s="319" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
-      <c r="AU1" s="307"/>
-      <c r="AV1" s="307"/>
-      <c r="AW1" s="307"/>
-      <c r="AX1" s="307"/>
-      <c r="AY1" s="307"/>
-      <c r="AZ1" s="308"/>
+      <c r="AU1" s="324"/>
+      <c r="AV1" s="324"/>
+      <c r="AW1" s="324"/>
+      <c r="AX1" s="324"/>
+      <c r="AY1" s="324"/>
+      <c r="AZ1" s="325"/>
     </row>
     <row r="2" spans="1:63" s="48" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="37" t="s">
@@ -32600,32 +32600,32 @@
       <c r="P2" s="38"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="39"/>
-      <c r="S2" s="313" t="str">
+      <c r="S2" s="330" t="str">
         <f>'１．機能概要'!W2</f>
         <v>在庫照会</v>
       </c>
-      <c r="T2" s="314"/>
-      <c r="U2" s="314"/>
-      <c r="V2" s="314"/>
-      <c r="W2" s="314"/>
-      <c r="X2" s="314"/>
-      <c r="Y2" s="314"/>
-      <c r="Z2" s="314"/>
-      <c r="AA2" s="314"/>
-      <c r="AB2" s="314"/>
-      <c r="AC2" s="314"/>
-      <c r="AD2" s="315"/>
+      <c r="T2" s="331"/>
+      <c r="U2" s="331"/>
+      <c r="V2" s="331"/>
+      <c r="W2" s="331"/>
+      <c r="X2" s="331"/>
+      <c r="Y2" s="331"/>
+      <c r="Z2" s="331"/>
+      <c r="AA2" s="331"/>
+      <c r="AB2" s="331"/>
+      <c r="AC2" s="331"/>
+      <c r="AD2" s="332"/>
       <c r="AE2" s="34" t="s">
         <v>24</v>
       </c>
       <c r="AF2" s="35"/>
       <c r="AG2" s="35"/>
       <c r="AH2" s="36"/>
-      <c r="AI2" s="312"/>
-      <c r="AJ2" s="307"/>
-      <c r="AK2" s="307"/>
-      <c r="AL2" s="307"/>
-      <c r="AM2" s="308"/>
+      <c r="AI2" s="329"/>
+      <c r="AJ2" s="324"/>
+      <c r="AK2" s="324"/>
+      <c r="AL2" s="324"/>
+      <c r="AM2" s="325"/>
       <c r="AN2" s="34" t="s">
         <v>26</v>
       </c>
@@ -32634,13 +32634,13 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="302"/>
-      <c r="AU2" s="307"/>
-      <c r="AV2" s="307"/>
-      <c r="AW2" s="307"/>
-      <c r="AX2" s="307"/>
-      <c r="AY2" s="307"/>
-      <c r="AZ2" s="308"/>
+      <c r="AT2" s="319"/>
+      <c r="AU2" s="324"/>
+      <c r="AV2" s="324"/>
+      <c r="AW2" s="324"/>
+      <c r="AX2" s="324"/>
+      <c r="AY2" s="324"/>
+      <c r="AZ2" s="325"/>
     </row>
     <row r="3" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A3" s="57"/>
@@ -44847,90 +44847,90 @@
       <c r="CX2" s="103"/>
     </row>
     <row r="3" spans="2:102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="326" t="s">
+      <c r="B3" s="343" t="s">
         <v>200</v>
       </c>
-      <c r="C3" s="327"/>
-      <c r="D3" s="327"/>
-      <c r="E3" s="327"/>
-      <c r="F3" s="327"/>
-      <c r="G3" s="327"/>
-      <c r="H3" s="327"/>
-      <c r="I3" s="327"/>
-      <c r="J3" s="327"/>
-      <c r="K3" s="327"/>
-      <c r="L3" s="327"/>
-      <c r="M3" s="327"/>
-      <c r="N3" s="327"/>
-      <c r="O3" s="327"/>
-      <c r="P3" s="327"/>
-      <c r="Q3" s="327"/>
-      <c r="R3" s="327"/>
-      <c r="S3" s="327"/>
-      <c r="T3" s="327"/>
-      <c r="U3" s="327"/>
-      <c r="V3" s="327"/>
-      <c r="W3" s="327"/>
-      <c r="X3" s="327"/>
-      <c r="Y3" s="327"/>
-      <c r="Z3" s="327"/>
-      <c r="AA3" s="327"/>
-      <c r="AB3" s="327"/>
-      <c r="AC3" s="327"/>
-      <c r="AD3" s="327"/>
-      <c r="AE3" s="327"/>
-      <c r="AF3" s="327"/>
-      <c r="AG3" s="327"/>
-      <c r="AH3" s="327"/>
-      <c r="AI3" s="327"/>
-      <c r="AJ3" s="327"/>
-      <c r="AK3" s="327"/>
-      <c r="AL3" s="327"/>
-      <c r="AM3" s="327"/>
-      <c r="AN3" s="327"/>
-      <c r="AO3" s="327"/>
-      <c r="AP3" s="327"/>
-      <c r="AQ3" s="327"/>
-      <c r="AR3" s="327"/>
-      <c r="AS3" s="327"/>
-      <c r="AT3" s="327"/>
-      <c r="AU3" s="327"/>
-      <c r="AV3" s="327"/>
-      <c r="AW3" s="327"/>
-      <c r="AX3" s="327"/>
-      <c r="AY3" s="327"/>
-      <c r="AZ3" s="327"/>
-      <c r="BA3" s="327"/>
-      <c r="BB3" s="327"/>
-      <c r="BC3" s="327"/>
-      <c r="BD3" s="327"/>
-      <c r="BE3" s="327"/>
-      <c r="BF3" s="327"/>
-      <c r="BG3" s="327"/>
-      <c r="BH3" s="327"/>
-      <c r="BI3" s="327"/>
-      <c r="BJ3" s="327"/>
-      <c r="BK3" s="327"/>
-      <c r="BL3" s="327"/>
-      <c r="BM3" s="327"/>
-      <c r="BN3" s="327"/>
-      <c r="BO3" s="327"/>
-      <c r="BP3" s="328"/>
-      <c r="BQ3" s="340"/>
-      <c r="BR3" s="341"/>
-      <c r="BS3" s="341"/>
-      <c r="BT3" s="341"/>
-      <c r="BU3" s="342"/>
-      <c r="BV3" s="341"/>
-      <c r="BW3" s="341"/>
-      <c r="BX3" s="341"/>
-      <c r="BY3" s="341"/>
-      <c r="BZ3" s="341"/>
-      <c r="CA3" s="341"/>
-      <c r="CB3" s="341"/>
-      <c r="CC3" s="341"/>
-      <c r="CD3" s="341"/>
-      <c r="CE3" s="342"/>
+      <c r="C3" s="344"/>
+      <c r="D3" s="344"/>
+      <c r="E3" s="344"/>
+      <c r="F3" s="344"/>
+      <c r="G3" s="344"/>
+      <c r="H3" s="344"/>
+      <c r="I3" s="344"/>
+      <c r="J3" s="344"/>
+      <c r="K3" s="344"/>
+      <c r="L3" s="344"/>
+      <c r="M3" s="344"/>
+      <c r="N3" s="344"/>
+      <c r="O3" s="344"/>
+      <c r="P3" s="344"/>
+      <c r="Q3" s="344"/>
+      <c r="R3" s="344"/>
+      <c r="S3" s="344"/>
+      <c r="T3" s="344"/>
+      <c r="U3" s="344"/>
+      <c r="V3" s="344"/>
+      <c r="W3" s="344"/>
+      <c r="X3" s="344"/>
+      <c r="Y3" s="344"/>
+      <c r="Z3" s="344"/>
+      <c r="AA3" s="344"/>
+      <c r="AB3" s="344"/>
+      <c r="AC3" s="344"/>
+      <c r="AD3" s="344"/>
+      <c r="AE3" s="344"/>
+      <c r="AF3" s="344"/>
+      <c r="AG3" s="344"/>
+      <c r="AH3" s="344"/>
+      <c r="AI3" s="344"/>
+      <c r="AJ3" s="344"/>
+      <c r="AK3" s="344"/>
+      <c r="AL3" s="344"/>
+      <c r="AM3" s="344"/>
+      <c r="AN3" s="344"/>
+      <c r="AO3" s="344"/>
+      <c r="AP3" s="344"/>
+      <c r="AQ3" s="344"/>
+      <c r="AR3" s="344"/>
+      <c r="AS3" s="344"/>
+      <c r="AT3" s="344"/>
+      <c r="AU3" s="344"/>
+      <c r="AV3" s="344"/>
+      <c r="AW3" s="344"/>
+      <c r="AX3" s="344"/>
+      <c r="AY3" s="344"/>
+      <c r="AZ3" s="344"/>
+      <c r="BA3" s="344"/>
+      <c r="BB3" s="344"/>
+      <c r="BC3" s="344"/>
+      <c r="BD3" s="344"/>
+      <c r="BE3" s="344"/>
+      <c r="BF3" s="344"/>
+      <c r="BG3" s="344"/>
+      <c r="BH3" s="344"/>
+      <c r="BI3" s="344"/>
+      <c r="BJ3" s="344"/>
+      <c r="BK3" s="344"/>
+      <c r="BL3" s="344"/>
+      <c r="BM3" s="344"/>
+      <c r="BN3" s="344"/>
+      <c r="BO3" s="344"/>
+      <c r="BP3" s="345"/>
+      <c r="BQ3" s="260"/>
+      <c r="BR3" s="261"/>
+      <c r="BS3" s="261"/>
+      <c r="BT3" s="261"/>
+      <c r="BU3" s="262"/>
+      <c r="BV3" s="261"/>
+      <c r="BW3" s="261"/>
+      <c r="BX3" s="261"/>
+      <c r="BY3" s="261"/>
+      <c r="BZ3" s="261"/>
+      <c r="CA3" s="261"/>
+      <c r="CB3" s="261"/>
+      <c r="CC3" s="261"/>
+      <c r="CD3" s="261"/>
+      <c r="CE3" s="262"/>
       <c r="CF3" s="104"/>
       <c r="CG3" s="104"/>
       <c r="CH3" s="104"/>
@@ -44939,8 +44939,8 @@
       <c r="CK3" s="104"/>
       <c r="CL3" s="104"/>
       <c r="CM3" s="104"/>
-      <c r="CN3" s="343" t="s">
-        <v>444</v>
+      <c r="CN3" s="263" t="s">
+        <v>443</v>
       </c>
       <c r="CO3" s="105" t="s">
         <v>149</v>
@@ -44956,88 +44956,88 @@
       <c r="CX3" s="107"/>
     </row>
     <row r="4" spans="2:102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="329"/>
-      <c r="C4" s="330"/>
-      <c r="D4" s="330"/>
-      <c r="E4" s="330"/>
-      <c r="F4" s="330"/>
-      <c r="G4" s="330"/>
-      <c r="H4" s="330"/>
-      <c r="I4" s="330"/>
-      <c r="J4" s="330"/>
-      <c r="K4" s="330"/>
-      <c r="L4" s="330"/>
-      <c r="M4" s="330"/>
-      <c r="N4" s="330"/>
-      <c r="O4" s="330"/>
-      <c r="P4" s="330"/>
-      <c r="Q4" s="330"/>
-      <c r="R4" s="330"/>
-      <c r="S4" s="330"/>
-      <c r="T4" s="330"/>
-      <c r="U4" s="330"/>
-      <c r="V4" s="330"/>
-      <c r="W4" s="330"/>
-      <c r="X4" s="330"/>
-      <c r="Y4" s="330"/>
-      <c r="Z4" s="330"/>
-      <c r="AA4" s="330"/>
-      <c r="AB4" s="330"/>
-      <c r="AC4" s="330"/>
-      <c r="AD4" s="330"/>
-      <c r="AE4" s="330"/>
-      <c r="AF4" s="330"/>
-      <c r="AG4" s="330"/>
-      <c r="AH4" s="330"/>
-      <c r="AI4" s="330"/>
-      <c r="AJ4" s="330"/>
-      <c r="AK4" s="330"/>
-      <c r="AL4" s="330"/>
-      <c r="AM4" s="330"/>
-      <c r="AN4" s="330"/>
-      <c r="AO4" s="330"/>
-      <c r="AP4" s="330"/>
-      <c r="AQ4" s="330"/>
-      <c r="AR4" s="330"/>
-      <c r="AS4" s="330"/>
-      <c r="AT4" s="330"/>
-      <c r="AU4" s="330"/>
-      <c r="AV4" s="330"/>
-      <c r="AW4" s="330"/>
-      <c r="AX4" s="330"/>
-      <c r="AY4" s="330"/>
-      <c r="AZ4" s="330"/>
-      <c r="BA4" s="330"/>
-      <c r="BB4" s="330"/>
-      <c r="BC4" s="330"/>
-      <c r="BD4" s="330"/>
-      <c r="BE4" s="330"/>
-      <c r="BF4" s="330"/>
-      <c r="BG4" s="330"/>
-      <c r="BH4" s="330"/>
-      <c r="BI4" s="330"/>
-      <c r="BJ4" s="330"/>
-      <c r="BK4" s="330"/>
-      <c r="BL4" s="330"/>
-      <c r="BM4" s="330"/>
-      <c r="BN4" s="330"/>
-      <c r="BO4" s="330"/>
-      <c r="BP4" s="331"/>
-      <c r="BQ4" s="344"/>
-      <c r="BR4" s="345"/>
-      <c r="BS4" s="345"/>
-      <c r="BT4" s="345"/>
-      <c r="BU4" s="346"/>
-      <c r="BV4" s="345"/>
-      <c r="BW4" s="345"/>
-      <c r="BX4" s="345"/>
-      <c r="BY4" s="345"/>
-      <c r="BZ4" s="345"/>
-      <c r="CA4" s="345"/>
-      <c r="CB4" s="345"/>
-      <c r="CC4" s="345"/>
-      <c r="CD4" s="345"/>
-      <c r="CE4" s="346"/>
+      <c r="B4" s="346"/>
+      <c r="C4" s="347"/>
+      <c r="D4" s="347"/>
+      <c r="E4" s="347"/>
+      <c r="F4" s="347"/>
+      <c r="G4" s="347"/>
+      <c r="H4" s="347"/>
+      <c r="I4" s="347"/>
+      <c r="J4" s="347"/>
+      <c r="K4" s="347"/>
+      <c r="L4" s="347"/>
+      <c r="M4" s="347"/>
+      <c r="N4" s="347"/>
+      <c r="O4" s="347"/>
+      <c r="P4" s="347"/>
+      <c r="Q4" s="347"/>
+      <c r="R4" s="347"/>
+      <c r="S4" s="347"/>
+      <c r="T4" s="347"/>
+      <c r="U4" s="347"/>
+      <c r="V4" s="347"/>
+      <c r="W4" s="347"/>
+      <c r="X4" s="347"/>
+      <c r="Y4" s="347"/>
+      <c r="Z4" s="347"/>
+      <c r="AA4" s="347"/>
+      <c r="AB4" s="347"/>
+      <c r="AC4" s="347"/>
+      <c r="AD4" s="347"/>
+      <c r="AE4" s="347"/>
+      <c r="AF4" s="347"/>
+      <c r="AG4" s="347"/>
+      <c r="AH4" s="347"/>
+      <c r="AI4" s="347"/>
+      <c r="AJ4" s="347"/>
+      <c r="AK4" s="347"/>
+      <c r="AL4" s="347"/>
+      <c r="AM4" s="347"/>
+      <c r="AN4" s="347"/>
+      <c r="AO4" s="347"/>
+      <c r="AP4" s="347"/>
+      <c r="AQ4" s="347"/>
+      <c r="AR4" s="347"/>
+      <c r="AS4" s="347"/>
+      <c r="AT4" s="347"/>
+      <c r="AU4" s="347"/>
+      <c r="AV4" s="347"/>
+      <c r="AW4" s="347"/>
+      <c r="AX4" s="347"/>
+      <c r="AY4" s="347"/>
+      <c r="AZ4" s="347"/>
+      <c r="BA4" s="347"/>
+      <c r="BB4" s="347"/>
+      <c r="BC4" s="347"/>
+      <c r="BD4" s="347"/>
+      <c r="BE4" s="347"/>
+      <c r="BF4" s="347"/>
+      <c r="BG4" s="347"/>
+      <c r="BH4" s="347"/>
+      <c r="BI4" s="347"/>
+      <c r="BJ4" s="347"/>
+      <c r="BK4" s="347"/>
+      <c r="BL4" s="347"/>
+      <c r="BM4" s="347"/>
+      <c r="BN4" s="347"/>
+      <c r="BO4" s="347"/>
+      <c r="BP4" s="348"/>
+      <c r="BQ4" s="264"/>
+      <c r="BR4" s="265"/>
+      <c r="BS4" s="265"/>
+      <c r="BT4" s="265"/>
+      <c r="BU4" s="266"/>
+      <c r="BV4" s="265"/>
+      <c r="BW4" s="265"/>
+      <c r="BX4" s="265"/>
+      <c r="BY4" s="265"/>
+      <c r="BZ4" s="265"/>
+      <c r="CA4" s="265"/>
+      <c r="CB4" s="265"/>
+      <c r="CC4" s="265"/>
+      <c r="CD4" s="265"/>
+      <c r="CE4" s="266"/>
       <c r="CF4" s="108"/>
       <c r="CG4" s="108"/>
       <c r="CH4" s="108"/>
@@ -45046,8 +45046,8 @@
       <c r="CK4" s="108"/>
       <c r="CL4" s="108"/>
       <c r="CM4" s="108"/>
-      <c r="CN4" s="347" t="s">
-        <v>445</v>
+      <c r="CN4" s="267" t="s">
+        <v>444</v>
       </c>
       <c r="CO4" s="105" t="s">
         <v>150</v>
@@ -49730,13 +49730,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>106680</xdr:colOff>
                     <xdr:row>16</xdr:row>
-                    <xdr:rowOff>7620</xdr:rowOff>
+                    <xdr:rowOff>15240</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>12</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:colOff>22860</xdr:colOff>
                     <xdr:row>17</xdr:row>
-                    <xdr:rowOff>7620</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -49750,15 +49750,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>114300</xdr:colOff>
+                    <xdr:colOff>106680</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>15240</xdr:rowOff>
+                    <xdr:rowOff>38100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>12</xdr:col>
-                    <xdr:colOff>30480</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>7620</xdr:rowOff>
+                    <xdr:rowOff>38100</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -49772,15 +49772,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>53340</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>160020</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>18</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
-                    <xdr:row>19</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
+                    <xdr:col>17</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -49904,21 +49904,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -50076,10 +50061,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -50101,19 +50111,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/01_基本設計書/20200220リリース/SC-Z01_在庫照会.xlsx
+++ b/01_基本設計書/20200220リリース/SC-Z01_在庫照会.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\BackDoor\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BC1607-BB2C-41BA-AFBC-B21773125B4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85511F69-0384-4B20-981A-9AD3225F1ECC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3289,7 +3289,35 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>検索結果件数は3000件超えた場合、警告メッセージが表示され、処理が中止する。</t>
+    <t>Login user(ログイン者)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Connection environment(接続環境)</t>
+    <rPh sb="23" eb="27">
+      <t>セツゾクカンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Finish</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>1000件を超えた場合</t>
+    <rPh sb="4" eb="5">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>検索結果件数は1000件超えた場合、警告メッセージが表示され、処理が中止する。</t>
     <rPh sb="0" eb="2">
       <t>ケンサク</t>
     </rPh>
@@ -3319,34 +3347,6 @@
     </rPh>
     <rPh sb="34" eb="36">
       <t>チュウシ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Login user(ログイン者)</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Connection environment(接続環境)</t>
-    <rPh sb="23" eb="27">
-      <t>セツゾクカンキョウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Finish</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>1000件を超えた場合</t>
-    <rPh sb="4" eb="5">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>バアイ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -4869,91 +4869,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4980,6 +4895,91 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="7" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6083,7 +6083,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$47" spid="_x0000_s3606"/>
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$47" spid="_x0000_s3608"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6716,15 +6716,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>56879</xdr:colOff>
+          <xdr:colOff>51164</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>160589</xdr:rowOff>
+          <xdr:rowOff>164399</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>97830</xdr:colOff>
+          <xdr:colOff>65445</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>53340</xdr:rowOff>
         </xdr:to>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
@@ -6739,10 +6739,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="422639" y="2088449"/>
-              <a:ext cx="1747831" cy="1089091"/>
-              <a:chOff x="1787559" y="2316185"/>
-              <a:chExt cx="1341120" cy="969080"/>
+              <a:off x="416924" y="2092259"/>
+              <a:ext cx="1721161" cy="1115761"/>
+              <a:chOff x="1787560" y="2316184"/>
+              <a:chExt cx="1341120" cy="969079"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:grpSp>
@@ -6759,9 +6759,9 @@
             <xdr:grpSpPr>
               <a:xfrm>
                 <a:off x="1823232" y="2656448"/>
-                <a:ext cx="777645" cy="485571"/>
-                <a:chOff x="191656" y="3020187"/>
-                <a:chExt cx="777645" cy="479383"/>
+                <a:ext cx="777645" cy="485559"/>
+                <a:chOff x="191656" y="3020193"/>
+                <a:chExt cx="777645" cy="479372"/>
               </a:xfrm>
             </xdr:grpSpPr>
             <xdr:sp macro="" textlink="">
@@ -6780,8 +6780,8 @@
               </xdr:nvSpPr>
               <xdr:spPr bwMode="auto">
                 <a:xfrm>
-                  <a:off x="191656" y="3020187"/>
-                  <a:ext cx="777645" cy="164478"/>
+                  <a:off x="191656" y="3020193"/>
+                  <a:ext cx="777645" cy="164479"/>
                 </a:xfrm>
                 <a:prstGeom prst="rect">
                   <a:avLst/>
@@ -6846,8 +6846,8 @@
               </xdr:nvSpPr>
               <xdr:spPr bwMode="auto">
                 <a:xfrm>
-                  <a:off x="196808" y="3348090"/>
-                  <a:ext cx="763862" cy="151480"/>
+                  <a:off x="196808" y="3348086"/>
+                  <a:ext cx="763862" cy="151479"/>
                 </a:xfrm>
                 <a:prstGeom prst="rect">
                   <a:avLst/>
@@ -6913,8 +6913,8 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="1787559" y="2316185"/>
-                <a:ext cx="1341120" cy="969080"/>
+                <a:off x="1787560" y="2316184"/>
+                <a:ext cx="1341120" cy="969079"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -8455,1779 +8455,1994 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="54"/>
-      <c r="B1" s="303" t="s">
+      <c r="B1" s="272" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="303"/>
-      <c r="D1" s="303"/>
-      <c r="E1" s="303"/>
-      <c r="F1" s="303"/>
-      <c r="G1" s="303"/>
-      <c r="H1" s="303"/>
-      <c r="I1" s="303"/>
-      <c r="J1" s="303"/>
-      <c r="K1" s="303"/>
-      <c r="L1" s="303"/>
-      <c r="M1" s="303"/>
-      <c r="N1" s="303"/>
-      <c r="O1" s="303"/>
-      <c r="P1" s="303"/>
-      <c r="Q1" s="303"/>
-      <c r="R1" s="303"/>
-      <c r="S1" s="303"/>
-      <c r="T1" s="303"/>
-      <c r="U1" s="303"/>
-      <c r="V1" s="303"/>
-      <c r="W1" s="303"/>
-      <c r="X1" s="303"/>
-      <c r="Y1" s="303"/>
-      <c r="Z1" s="303"/>
-      <c r="AA1" s="303"/>
-      <c r="AB1" s="303"/>
-      <c r="AC1" s="303"/>
-      <c r="AD1" s="303"/>
-      <c r="AE1" s="303"/>
-      <c r="AF1" s="303"/>
-      <c r="AG1" s="303"/>
-      <c r="AH1" s="303"/>
-      <c r="AI1" s="303"/>
-      <c r="AJ1" s="303"/>
-      <c r="AK1" s="303"/>
-      <c r="AL1" s="303"/>
-      <c r="AM1" s="303"/>
-      <c r="AN1" s="303"/>
-      <c r="AO1" s="303"/>
-      <c r="AP1" s="303"/>
-      <c r="AQ1" s="303"/>
-      <c r="AR1" s="303"/>
-      <c r="AS1" s="303"/>
-      <c r="AT1" s="303"/>
-      <c r="AU1" s="303"/>
-      <c r="AV1" s="303"/>
-      <c r="AW1" s="303"/>
+      <c r="C1" s="272"/>
+      <c r="D1" s="272"/>
+      <c r="E1" s="272"/>
+      <c r="F1" s="272"/>
+      <c r="G1" s="272"/>
+      <c r="H1" s="272"/>
+      <c r="I1" s="272"/>
+      <c r="J1" s="272"/>
+      <c r="K1" s="272"/>
+      <c r="L1" s="272"/>
+      <c r="M1" s="272"/>
+      <c r="N1" s="272"/>
+      <c r="O1" s="272"/>
+      <c r="P1" s="272"/>
+      <c r="Q1" s="272"/>
+      <c r="R1" s="272"/>
+      <c r="S1" s="272"/>
+      <c r="T1" s="272"/>
+      <c r="U1" s="272"/>
+      <c r="V1" s="272"/>
+      <c r="W1" s="272"/>
+      <c r="X1" s="272"/>
+      <c r="Y1" s="272"/>
+      <c r="Z1" s="272"/>
+      <c r="AA1" s="272"/>
+      <c r="AB1" s="272"/>
+      <c r="AC1" s="272"/>
+      <c r="AD1" s="272"/>
+      <c r="AE1" s="272"/>
+      <c r="AF1" s="272"/>
+      <c r="AG1" s="272"/>
+      <c r="AH1" s="272"/>
+      <c r="AI1" s="272"/>
+      <c r="AJ1" s="272"/>
+      <c r="AK1" s="272"/>
+      <c r="AL1" s="272"/>
+      <c r="AM1" s="272"/>
+      <c r="AN1" s="272"/>
+      <c r="AO1" s="272"/>
+      <c r="AP1" s="272"/>
+      <c r="AQ1" s="272"/>
+      <c r="AR1" s="272"/>
+      <c r="AS1" s="272"/>
+      <c r="AT1" s="272"/>
+      <c r="AU1" s="272"/>
+      <c r="AV1" s="272"/>
+      <c r="AW1" s="272"/>
     </row>
     <row r="2" spans="1:49" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="54"/>
-      <c r="B2" s="304"/>
-      <c r="C2" s="304"/>
-      <c r="D2" s="304"/>
-      <c r="E2" s="304"/>
-      <c r="F2" s="304"/>
-      <c r="G2" s="304"/>
-      <c r="H2" s="304"/>
-      <c r="I2" s="304"/>
-      <c r="J2" s="304"/>
-      <c r="K2" s="304"/>
-      <c r="L2" s="304"/>
-      <c r="M2" s="304"/>
-      <c r="N2" s="304"/>
-      <c r="O2" s="304"/>
-      <c r="P2" s="304"/>
-      <c r="Q2" s="304"/>
-      <c r="R2" s="304"/>
-      <c r="S2" s="304"/>
-      <c r="T2" s="304"/>
-      <c r="U2" s="304"/>
-      <c r="V2" s="304"/>
-      <c r="W2" s="304"/>
-      <c r="X2" s="304"/>
-      <c r="Y2" s="304"/>
-      <c r="Z2" s="304"/>
-      <c r="AA2" s="304"/>
-      <c r="AB2" s="304"/>
-      <c r="AC2" s="304"/>
-      <c r="AD2" s="304"/>
-      <c r="AE2" s="304"/>
-      <c r="AF2" s="304"/>
-      <c r="AG2" s="304"/>
-      <c r="AH2" s="304"/>
-      <c r="AI2" s="304"/>
-      <c r="AJ2" s="304"/>
-      <c r="AK2" s="304"/>
-      <c r="AL2" s="304"/>
-      <c r="AM2" s="304"/>
-      <c r="AN2" s="304"/>
-      <c r="AO2" s="304"/>
-      <c r="AP2" s="304"/>
-      <c r="AQ2" s="304"/>
-      <c r="AR2" s="304"/>
-      <c r="AS2" s="304"/>
-      <c r="AT2" s="304"/>
-      <c r="AU2" s="304"/>
-      <c r="AV2" s="304"/>
-      <c r="AW2" s="304"/>
+      <c r="B2" s="273"/>
+      <c r="C2" s="273"/>
+      <c r="D2" s="273"/>
+      <c r="E2" s="273"/>
+      <c r="F2" s="273"/>
+      <c r="G2" s="273"/>
+      <c r="H2" s="273"/>
+      <c r="I2" s="273"/>
+      <c r="J2" s="273"/>
+      <c r="K2" s="273"/>
+      <c r="L2" s="273"/>
+      <c r="M2" s="273"/>
+      <c r="N2" s="273"/>
+      <c r="O2" s="273"/>
+      <c r="P2" s="273"/>
+      <c r="Q2" s="273"/>
+      <c r="R2" s="273"/>
+      <c r="S2" s="273"/>
+      <c r="T2" s="273"/>
+      <c r="U2" s="273"/>
+      <c r="V2" s="273"/>
+      <c r="W2" s="273"/>
+      <c r="X2" s="273"/>
+      <c r="Y2" s="273"/>
+      <c r="Z2" s="273"/>
+      <c r="AA2" s="273"/>
+      <c r="AB2" s="273"/>
+      <c r="AC2" s="273"/>
+      <c r="AD2" s="273"/>
+      <c r="AE2" s="273"/>
+      <c r="AF2" s="273"/>
+      <c r="AG2" s="273"/>
+      <c r="AH2" s="273"/>
+      <c r="AI2" s="273"/>
+      <c r="AJ2" s="273"/>
+      <c r="AK2" s="273"/>
+      <c r="AL2" s="273"/>
+      <c r="AM2" s="273"/>
+      <c r="AN2" s="273"/>
+      <c r="AO2" s="273"/>
+      <c r="AP2" s="273"/>
+      <c r="AQ2" s="273"/>
+      <c r="AR2" s="273"/>
+      <c r="AS2" s="273"/>
+      <c r="AT2" s="273"/>
+      <c r="AU2" s="273"/>
+      <c r="AV2" s="273"/>
+      <c r="AW2" s="273"/>
     </row>
     <row r="3" spans="1:49" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="54"/>
-      <c r="B3" s="305" t="s">
+      <c r="B3" s="274" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="305"/>
-      <c r="D3" s="305"/>
-      <c r="E3" s="305" t="s">
+      <c r="C3" s="274"/>
+      <c r="D3" s="274"/>
+      <c r="E3" s="274" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="305"/>
-      <c r="G3" s="305"/>
-      <c r="H3" s="305"/>
-      <c r="I3" s="305"/>
-      <c r="J3" s="306" t="s">
+      <c r="F3" s="274"/>
+      <c r="G3" s="274"/>
+      <c r="H3" s="274"/>
+      <c r="I3" s="274"/>
+      <c r="J3" s="275" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="307"/>
-      <c r="L3" s="308"/>
-      <c r="M3" s="306" t="s">
+      <c r="K3" s="276"/>
+      <c r="L3" s="277"/>
+      <c r="M3" s="275" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="307"/>
-      <c r="O3" s="307"/>
-      <c r="P3" s="307"/>
-      <c r="Q3" s="307"/>
-      <c r="R3" s="308"/>
-      <c r="S3" s="305" t="s">
+      <c r="N3" s="276"/>
+      <c r="O3" s="276"/>
+      <c r="P3" s="276"/>
+      <c r="Q3" s="276"/>
+      <c r="R3" s="277"/>
+      <c r="S3" s="274" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="305"/>
-      <c r="U3" s="305"/>
-      <c r="V3" s="305" t="s">
+      <c r="T3" s="274"/>
+      <c r="U3" s="274"/>
+      <c r="V3" s="274" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="305"/>
-      <c r="X3" s="305"/>
-      <c r="Y3" s="305"/>
-      <c r="Z3" s="305"/>
-      <c r="AA3" s="305"/>
-      <c r="AB3" s="305"/>
-      <c r="AC3" s="305"/>
-      <c r="AD3" s="305"/>
-      <c r="AE3" s="305"/>
-      <c r="AF3" s="305"/>
-      <c r="AG3" s="305"/>
-      <c r="AH3" s="305"/>
-      <c r="AI3" s="305"/>
-      <c r="AJ3" s="305"/>
-      <c r="AK3" s="305"/>
-      <c r="AL3" s="305"/>
-      <c r="AM3" s="305"/>
-      <c r="AN3" s="305" t="s">
+      <c r="W3" s="274"/>
+      <c r="X3" s="274"/>
+      <c r="Y3" s="274"/>
+      <c r="Z3" s="274"/>
+      <c r="AA3" s="274"/>
+      <c r="AB3" s="274"/>
+      <c r="AC3" s="274"/>
+      <c r="AD3" s="274"/>
+      <c r="AE3" s="274"/>
+      <c r="AF3" s="274"/>
+      <c r="AG3" s="274"/>
+      <c r="AH3" s="274"/>
+      <c r="AI3" s="274"/>
+      <c r="AJ3" s="274"/>
+      <c r="AK3" s="274"/>
+      <c r="AL3" s="274"/>
+      <c r="AM3" s="274"/>
+      <c r="AN3" s="274" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="305"/>
-      <c r="AP3" s="305"/>
-      <c r="AQ3" s="305"/>
-      <c r="AR3" s="305"/>
-      <c r="AS3" s="305" t="s">
+      <c r="AO3" s="274"/>
+      <c r="AP3" s="274"/>
+      <c r="AQ3" s="274"/>
+      <c r="AR3" s="274"/>
+      <c r="AS3" s="274" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="305"/>
-      <c r="AU3" s="305"/>
-      <c r="AV3" s="305"/>
-      <c r="AW3" s="305"/>
+      <c r="AT3" s="274"/>
+      <c r="AU3" s="274"/>
+      <c r="AV3" s="274"/>
+      <c r="AW3" s="274"/>
     </row>
     <row r="4" spans="1:49" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="54"/>
-      <c r="B4" s="305"/>
-      <c r="C4" s="305"/>
-      <c r="D4" s="305"/>
-      <c r="E4" s="305"/>
-      <c r="F4" s="305"/>
-      <c r="G4" s="305"/>
-      <c r="H4" s="305"/>
-      <c r="I4" s="305"/>
-      <c r="J4" s="309"/>
-      <c r="K4" s="310"/>
-      <c r="L4" s="311"/>
-      <c r="M4" s="309"/>
-      <c r="N4" s="310"/>
-      <c r="O4" s="310"/>
-      <c r="P4" s="310"/>
-      <c r="Q4" s="310"/>
-      <c r="R4" s="311"/>
-      <c r="S4" s="305"/>
-      <c r="T4" s="305"/>
-      <c r="U4" s="305"/>
-      <c r="V4" s="305"/>
-      <c r="W4" s="305"/>
-      <c r="X4" s="305"/>
-      <c r="Y4" s="305"/>
-      <c r="Z4" s="305"/>
-      <c r="AA4" s="305"/>
-      <c r="AB4" s="305"/>
-      <c r="AC4" s="305"/>
-      <c r="AD4" s="305"/>
-      <c r="AE4" s="305"/>
-      <c r="AF4" s="305"/>
-      <c r="AG4" s="305"/>
-      <c r="AH4" s="305"/>
-      <c r="AI4" s="305"/>
-      <c r="AJ4" s="305"/>
-      <c r="AK4" s="305"/>
-      <c r="AL4" s="305"/>
-      <c r="AM4" s="305"/>
-      <c r="AN4" s="305"/>
-      <c r="AO4" s="305"/>
-      <c r="AP4" s="305"/>
-      <c r="AQ4" s="305"/>
-      <c r="AR4" s="305"/>
-      <c r="AS4" s="305"/>
-      <c r="AT4" s="305"/>
-      <c r="AU4" s="305"/>
-      <c r="AV4" s="305"/>
-      <c r="AW4" s="305"/>
+      <c r="B4" s="274"/>
+      <c r="C4" s="274"/>
+      <c r="D4" s="274"/>
+      <c r="E4" s="274"/>
+      <c r="F4" s="274"/>
+      <c r="G4" s="274"/>
+      <c r="H4" s="274"/>
+      <c r="I4" s="274"/>
+      <c r="J4" s="278"/>
+      <c r="K4" s="279"/>
+      <c r="L4" s="280"/>
+      <c r="M4" s="278"/>
+      <c r="N4" s="279"/>
+      <c r="O4" s="279"/>
+      <c r="P4" s="279"/>
+      <c r="Q4" s="279"/>
+      <c r="R4" s="280"/>
+      <c r="S4" s="274"/>
+      <c r="T4" s="274"/>
+      <c r="U4" s="274"/>
+      <c r="V4" s="274"/>
+      <c r="W4" s="274"/>
+      <c r="X4" s="274"/>
+      <c r="Y4" s="274"/>
+      <c r="Z4" s="274"/>
+      <c r="AA4" s="274"/>
+      <c r="AB4" s="274"/>
+      <c r="AC4" s="274"/>
+      <c r="AD4" s="274"/>
+      <c r="AE4" s="274"/>
+      <c r="AF4" s="274"/>
+      <c r="AG4" s="274"/>
+      <c r="AH4" s="274"/>
+      <c r="AI4" s="274"/>
+      <c r="AJ4" s="274"/>
+      <c r="AK4" s="274"/>
+      <c r="AL4" s="274"/>
+      <c r="AM4" s="274"/>
+      <c r="AN4" s="274"/>
+      <c r="AO4" s="274"/>
+      <c r="AP4" s="274"/>
+      <c r="AQ4" s="274"/>
+      <c r="AR4" s="274"/>
+      <c r="AS4" s="274"/>
+      <c r="AT4" s="274"/>
+      <c r="AU4" s="274"/>
+      <c r="AV4" s="274"/>
+      <c r="AW4" s="274"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A5" s="56"/>
-      <c r="B5" s="297">
+      <c r="B5" s="282">
         <v>1</v>
       </c>
-      <c r="C5" s="297"/>
-      <c r="D5" s="297"/>
-      <c r="E5" s="278">
+      <c r="C5" s="282"/>
+      <c r="D5" s="282"/>
+      <c r="E5" s="283">
         <v>43734</v>
       </c>
-      <c r="F5" s="278"/>
-      <c r="G5" s="278"/>
-      <c r="H5" s="278"/>
-      <c r="I5" s="278"/>
-      <c r="J5" s="279" t="s">
+      <c r="F5" s="283"/>
+      <c r="G5" s="283"/>
+      <c r="H5" s="283"/>
+      <c r="I5" s="283"/>
+      <c r="J5" s="284" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="280"/>
-      <c r="L5" s="281"/>
-      <c r="M5" s="279" t="s">
+      <c r="K5" s="285"/>
+      <c r="L5" s="286"/>
+      <c r="M5" s="284" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="280"/>
-      <c r="O5" s="280"/>
-      <c r="P5" s="280"/>
-      <c r="Q5" s="280"/>
-      <c r="R5" s="281"/>
-      <c r="S5" s="285" t="s">
+      <c r="N5" s="285"/>
+      <c r="O5" s="285"/>
+      <c r="P5" s="285"/>
+      <c r="Q5" s="285"/>
+      <c r="R5" s="286"/>
+      <c r="S5" s="281" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="285"/>
-      <c r="U5" s="285"/>
-      <c r="V5" s="296" t="s">
+      <c r="T5" s="281"/>
+      <c r="U5" s="281"/>
+      <c r="V5" s="290" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="296"/>
-      <c r="X5" s="296"/>
-      <c r="Y5" s="296"/>
-      <c r="Z5" s="296"/>
-      <c r="AA5" s="296"/>
-      <c r="AB5" s="296"/>
-      <c r="AC5" s="296"/>
-      <c r="AD5" s="296"/>
-      <c r="AE5" s="296"/>
-      <c r="AF5" s="296"/>
-      <c r="AG5" s="296"/>
-      <c r="AH5" s="296"/>
-      <c r="AI5" s="296"/>
-      <c r="AJ5" s="296"/>
-      <c r="AK5" s="296"/>
-      <c r="AL5" s="296"/>
-      <c r="AM5" s="296"/>
-      <c r="AN5" s="285" t="s">
+      <c r="W5" s="290"/>
+      <c r="X5" s="290"/>
+      <c r="Y5" s="290"/>
+      <c r="Z5" s="290"/>
+      <c r="AA5" s="290"/>
+      <c r="AB5" s="290"/>
+      <c r="AC5" s="290"/>
+      <c r="AD5" s="290"/>
+      <c r="AE5" s="290"/>
+      <c r="AF5" s="290"/>
+      <c r="AG5" s="290"/>
+      <c r="AH5" s="290"/>
+      <c r="AI5" s="290"/>
+      <c r="AJ5" s="290"/>
+      <c r="AK5" s="290"/>
+      <c r="AL5" s="290"/>
+      <c r="AM5" s="290"/>
+      <c r="AN5" s="281" t="s">
         <v>184</v>
       </c>
-      <c r="AO5" s="285"/>
-      <c r="AP5" s="285"/>
-      <c r="AQ5" s="285"/>
-      <c r="AR5" s="285"/>
-      <c r="AS5" s="285"/>
-      <c r="AT5" s="285"/>
-      <c r="AU5" s="285"/>
-      <c r="AV5" s="285"/>
-      <c r="AW5" s="285"/>
+      <c r="AO5" s="281"/>
+      <c r="AP5" s="281"/>
+      <c r="AQ5" s="281"/>
+      <c r="AR5" s="281"/>
+      <c r="AS5" s="281"/>
+      <c r="AT5" s="281"/>
+      <c r="AU5" s="281"/>
+      <c r="AV5" s="281"/>
+      <c r="AW5" s="281"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A6" s="56"/>
-      <c r="B6" s="297"/>
-      <c r="C6" s="297"/>
-      <c r="D6" s="297"/>
-      <c r="E6" s="278"/>
-      <c r="F6" s="278"/>
-      <c r="G6" s="278"/>
-      <c r="H6" s="278"/>
-      <c r="I6" s="278"/>
-      <c r="J6" s="279"/>
-      <c r="K6" s="280"/>
-      <c r="L6" s="281"/>
-      <c r="M6" s="300"/>
-      <c r="N6" s="301"/>
-      <c r="O6" s="301"/>
-      <c r="P6" s="301"/>
-      <c r="Q6" s="301"/>
-      <c r="R6" s="302"/>
-      <c r="S6" s="285"/>
-      <c r="T6" s="285"/>
-      <c r="U6" s="285"/>
-      <c r="V6" s="296"/>
-      <c r="W6" s="296"/>
-      <c r="X6" s="296"/>
-      <c r="Y6" s="296"/>
-      <c r="Z6" s="296"/>
-      <c r="AA6" s="296"/>
-      <c r="AB6" s="296"/>
-      <c r="AC6" s="296"/>
-      <c r="AD6" s="296"/>
-      <c r="AE6" s="296"/>
-      <c r="AF6" s="296"/>
-      <c r="AG6" s="296"/>
-      <c r="AH6" s="296"/>
-      <c r="AI6" s="296"/>
-      <c r="AJ6" s="296"/>
-      <c r="AK6" s="296"/>
-      <c r="AL6" s="296"/>
-      <c r="AM6" s="296"/>
-      <c r="AN6" s="285"/>
-      <c r="AO6" s="285"/>
-      <c r="AP6" s="285"/>
-      <c r="AQ6" s="285"/>
-      <c r="AR6" s="285"/>
-      <c r="AS6" s="285"/>
-      <c r="AT6" s="285"/>
-      <c r="AU6" s="285"/>
-      <c r="AV6" s="285"/>
-      <c r="AW6" s="285"/>
+      <c r="B6" s="282"/>
+      <c r="C6" s="282"/>
+      <c r="D6" s="282"/>
+      <c r="E6" s="283"/>
+      <c r="F6" s="283"/>
+      <c r="G6" s="283"/>
+      <c r="H6" s="283"/>
+      <c r="I6" s="283"/>
+      <c r="J6" s="284"/>
+      <c r="K6" s="285"/>
+      <c r="L6" s="286"/>
+      <c r="M6" s="287"/>
+      <c r="N6" s="288"/>
+      <c r="O6" s="288"/>
+      <c r="P6" s="288"/>
+      <c r="Q6" s="288"/>
+      <c r="R6" s="289"/>
+      <c r="S6" s="281"/>
+      <c r="T6" s="281"/>
+      <c r="U6" s="281"/>
+      <c r="V6" s="290"/>
+      <c r="W6" s="290"/>
+      <c r="X6" s="290"/>
+      <c r="Y6" s="290"/>
+      <c r="Z6" s="290"/>
+      <c r="AA6" s="290"/>
+      <c r="AB6" s="290"/>
+      <c r="AC6" s="290"/>
+      <c r="AD6" s="290"/>
+      <c r="AE6" s="290"/>
+      <c r="AF6" s="290"/>
+      <c r="AG6" s="290"/>
+      <c r="AH6" s="290"/>
+      <c r="AI6" s="290"/>
+      <c r="AJ6" s="290"/>
+      <c r="AK6" s="290"/>
+      <c r="AL6" s="290"/>
+      <c r="AM6" s="290"/>
+      <c r="AN6" s="281"/>
+      <c r="AO6" s="281"/>
+      <c r="AP6" s="281"/>
+      <c r="AQ6" s="281"/>
+      <c r="AR6" s="281"/>
+      <c r="AS6" s="281"/>
+      <c r="AT6" s="281"/>
+      <c r="AU6" s="281"/>
+      <c r="AV6" s="281"/>
+      <c r="AW6" s="281"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A7" s="56"/>
-      <c r="B7" s="297"/>
-      <c r="C7" s="297"/>
-      <c r="D7" s="297"/>
-      <c r="E7" s="278"/>
-      <c r="F7" s="278"/>
-      <c r="G7" s="278"/>
-      <c r="H7" s="278"/>
-      <c r="I7" s="278"/>
-      <c r="J7" s="279"/>
-      <c r="K7" s="280"/>
-      <c r="L7" s="281"/>
-      <c r="M7" s="300"/>
-      <c r="N7" s="301"/>
-      <c r="O7" s="301"/>
-      <c r="P7" s="301"/>
-      <c r="Q7" s="301"/>
-      <c r="R7" s="302"/>
-      <c r="S7" s="285"/>
-      <c r="T7" s="285"/>
-      <c r="U7" s="285"/>
-      <c r="V7" s="296"/>
-      <c r="W7" s="296"/>
-      <c r="X7" s="296"/>
-      <c r="Y7" s="296"/>
-      <c r="Z7" s="296"/>
-      <c r="AA7" s="296"/>
-      <c r="AB7" s="296"/>
-      <c r="AC7" s="296"/>
-      <c r="AD7" s="296"/>
-      <c r="AE7" s="296"/>
-      <c r="AF7" s="296"/>
-      <c r="AG7" s="296"/>
-      <c r="AH7" s="296"/>
-      <c r="AI7" s="296"/>
-      <c r="AJ7" s="296"/>
-      <c r="AK7" s="296"/>
-      <c r="AL7" s="296"/>
-      <c r="AM7" s="296"/>
-      <c r="AN7" s="285"/>
-      <c r="AO7" s="285"/>
-      <c r="AP7" s="285"/>
-      <c r="AQ7" s="285"/>
-      <c r="AR7" s="285"/>
-      <c r="AS7" s="285"/>
-      <c r="AT7" s="285"/>
-      <c r="AU7" s="285"/>
-      <c r="AV7" s="285"/>
-      <c r="AW7" s="285"/>
+      <c r="B7" s="282"/>
+      <c r="C7" s="282"/>
+      <c r="D7" s="282"/>
+      <c r="E7" s="283"/>
+      <c r="F7" s="283"/>
+      <c r="G7" s="283"/>
+      <c r="H7" s="283"/>
+      <c r="I7" s="283"/>
+      <c r="J7" s="284"/>
+      <c r="K7" s="285"/>
+      <c r="L7" s="286"/>
+      <c r="M7" s="287"/>
+      <c r="N7" s="288"/>
+      <c r="O7" s="288"/>
+      <c r="P7" s="288"/>
+      <c r="Q7" s="288"/>
+      <c r="R7" s="289"/>
+      <c r="S7" s="281"/>
+      <c r="T7" s="281"/>
+      <c r="U7" s="281"/>
+      <c r="V7" s="290"/>
+      <c r="W7" s="290"/>
+      <c r="X7" s="290"/>
+      <c r="Y7" s="290"/>
+      <c r="Z7" s="290"/>
+      <c r="AA7" s="290"/>
+      <c r="AB7" s="290"/>
+      <c r="AC7" s="290"/>
+      <c r="AD7" s="290"/>
+      <c r="AE7" s="290"/>
+      <c r="AF7" s="290"/>
+      <c r="AG7" s="290"/>
+      <c r="AH7" s="290"/>
+      <c r="AI7" s="290"/>
+      <c r="AJ7" s="290"/>
+      <c r="AK7" s="290"/>
+      <c r="AL7" s="290"/>
+      <c r="AM7" s="290"/>
+      <c r="AN7" s="281"/>
+      <c r="AO7" s="281"/>
+      <c r="AP7" s="281"/>
+      <c r="AQ7" s="281"/>
+      <c r="AR7" s="281"/>
+      <c r="AS7" s="281"/>
+      <c r="AT7" s="281"/>
+      <c r="AU7" s="281"/>
+      <c r="AV7" s="281"/>
+      <c r="AW7" s="281"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A8" s="56"/>
-      <c r="B8" s="297"/>
-      <c r="C8" s="297"/>
-      <c r="D8" s="297"/>
-      <c r="E8" s="278"/>
-      <c r="F8" s="278"/>
-      <c r="G8" s="278"/>
-      <c r="H8" s="278"/>
-      <c r="I8" s="278"/>
-      <c r="J8" s="279"/>
-      <c r="K8" s="280"/>
-      <c r="L8" s="281"/>
-      <c r="M8" s="300"/>
-      <c r="N8" s="301"/>
-      <c r="O8" s="301"/>
-      <c r="P8" s="301"/>
-      <c r="Q8" s="301"/>
-      <c r="R8" s="302"/>
-      <c r="S8" s="285"/>
-      <c r="T8" s="285"/>
-      <c r="U8" s="285"/>
-      <c r="V8" s="296"/>
-      <c r="W8" s="296"/>
-      <c r="X8" s="296"/>
-      <c r="Y8" s="296"/>
-      <c r="Z8" s="296"/>
-      <c r="AA8" s="296"/>
-      <c r="AB8" s="296"/>
-      <c r="AC8" s="296"/>
-      <c r="AD8" s="296"/>
-      <c r="AE8" s="296"/>
-      <c r="AF8" s="296"/>
-      <c r="AG8" s="296"/>
-      <c r="AH8" s="296"/>
-      <c r="AI8" s="296"/>
-      <c r="AJ8" s="296"/>
-      <c r="AK8" s="296"/>
-      <c r="AL8" s="296"/>
-      <c r="AM8" s="296"/>
-      <c r="AN8" s="285"/>
-      <c r="AO8" s="285"/>
-      <c r="AP8" s="285"/>
-      <c r="AQ8" s="285"/>
-      <c r="AR8" s="285"/>
-      <c r="AS8" s="285"/>
-      <c r="AT8" s="285"/>
-      <c r="AU8" s="285"/>
-      <c r="AV8" s="285"/>
-      <c r="AW8" s="285"/>
+      <c r="B8" s="282"/>
+      <c r="C8" s="282"/>
+      <c r="D8" s="282"/>
+      <c r="E8" s="283"/>
+      <c r="F8" s="283"/>
+      <c r="G8" s="283"/>
+      <c r="H8" s="283"/>
+      <c r="I8" s="283"/>
+      <c r="J8" s="284"/>
+      <c r="K8" s="285"/>
+      <c r="L8" s="286"/>
+      <c r="M8" s="287"/>
+      <c r="N8" s="288"/>
+      <c r="O8" s="288"/>
+      <c r="P8" s="288"/>
+      <c r="Q8" s="288"/>
+      <c r="R8" s="289"/>
+      <c r="S8" s="281"/>
+      <c r="T8" s="281"/>
+      <c r="U8" s="281"/>
+      <c r="V8" s="290"/>
+      <c r="W8" s="290"/>
+      <c r="X8" s="290"/>
+      <c r="Y8" s="290"/>
+      <c r="Z8" s="290"/>
+      <c r="AA8" s="290"/>
+      <c r="AB8" s="290"/>
+      <c r="AC8" s="290"/>
+      <c r="AD8" s="290"/>
+      <c r="AE8" s="290"/>
+      <c r="AF8" s="290"/>
+      <c r="AG8" s="290"/>
+      <c r="AH8" s="290"/>
+      <c r="AI8" s="290"/>
+      <c r="AJ8" s="290"/>
+      <c r="AK8" s="290"/>
+      <c r="AL8" s="290"/>
+      <c r="AM8" s="290"/>
+      <c r="AN8" s="281"/>
+      <c r="AO8" s="281"/>
+      <c r="AP8" s="281"/>
+      <c r="AQ8" s="281"/>
+      <c r="AR8" s="281"/>
+      <c r="AS8" s="281"/>
+      <c r="AT8" s="281"/>
+      <c r="AU8" s="281"/>
+      <c r="AV8" s="281"/>
+      <c r="AW8" s="281"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A9" s="56"/>
-      <c r="B9" s="297"/>
-      <c r="C9" s="297"/>
-      <c r="D9" s="297"/>
-      <c r="E9" s="278"/>
-      <c r="F9" s="278"/>
-      <c r="G9" s="278"/>
-      <c r="H9" s="278"/>
-      <c r="I9" s="278"/>
-      <c r="J9" s="279"/>
-      <c r="K9" s="280"/>
-      <c r="L9" s="281"/>
-      <c r="M9" s="300"/>
-      <c r="N9" s="301"/>
-      <c r="O9" s="301"/>
-      <c r="P9" s="301"/>
-      <c r="Q9" s="301"/>
-      <c r="R9" s="302"/>
-      <c r="S9" s="285"/>
-      <c r="T9" s="285"/>
-      <c r="U9" s="285"/>
-      <c r="V9" s="296"/>
-      <c r="W9" s="296"/>
-      <c r="X9" s="296"/>
-      <c r="Y9" s="296"/>
-      <c r="Z9" s="296"/>
-      <c r="AA9" s="296"/>
-      <c r="AB9" s="296"/>
-      <c r="AC9" s="296"/>
-      <c r="AD9" s="296"/>
-      <c r="AE9" s="296"/>
-      <c r="AF9" s="296"/>
-      <c r="AG9" s="296"/>
-      <c r="AH9" s="296"/>
-      <c r="AI9" s="296"/>
-      <c r="AJ9" s="296"/>
-      <c r="AK9" s="296"/>
-      <c r="AL9" s="296"/>
-      <c r="AM9" s="296"/>
-      <c r="AN9" s="285"/>
-      <c r="AO9" s="285"/>
-      <c r="AP9" s="285"/>
-      <c r="AQ9" s="285"/>
-      <c r="AR9" s="285"/>
-      <c r="AS9" s="285"/>
-      <c r="AT9" s="285"/>
-      <c r="AU9" s="285"/>
-      <c r="AV9" s="285"/>
-      <c r="AW9" s="285"/>
+      <c r="B9" s="282"/>
+      <c r="C9" s="282"/>
+      <c r="D9" s="282"/>
+      <c r="E9" s="283"/>
+      <c r="F9" s="283"/>
+      <c r="G9" s="283"/>
+      <c r="H9" s="283"/>
+      <c r="I9" s="283"/>
+      <c r="J9" s="284"/>
+      <c r="K9" s="285"/>
+      <c r="L9" s="286"/>
+      <c r="M9" s="287"/>
+      <c r="N9" s="288"/>
+      <c r="O9" s="288"/>
+      <c r="P9" s="288"/>
+      <c r="Q9" s="288"/>
+      <c r="R9" s="289"/>
+      <c r="S9" s="281"/>
+      <c r="T9" s="281"/>
+      <c r="U9" s="281"/>
+      <c r="V9" s="290"/>
+      <c r="W9" s="290"/>
+      <c r="X9" s="290"/>
+      <c r="Y9" s="290"/>
+      <c r="Z9" s="290"/>
+      <c r="AA9" s="290"/>
+      <c r="AB9" s="290"/>
+      <c r="AC9" s="290"/>
+      <c r="AD9" s="290"/>
+      <c r="AE9" s="290"/>
+      <c r="AF9" s="290"/>
+      <c r="AG9" s="290"/>
+      <c r="AH9" s="290"/>
+      <c r="AI9" s="290"/>
+      <c r="AJ9" s="290"/>
+      <c r="AK9" s="290"/>
+      <c r="AL9" s="290"/>
+      <c r="AM9" s="290"/>
+      <c r="AN9" s="281"/>
+      <c r="AO9" s="281"/>
+      <c r="AP9" s="281"/>
+      <c r="AQ9" s="281"/>
+      <c r="AR9" s="281"/>
+      <c r="AS9" s="281"/>
+      <c r="AT9" s="281"/>
+      <c r="AU9" s="281"/>
+      <c r="AV9" s="281"/>
+      <c r="AW9" s="281"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A10" s="56"/>
-      <c r="B10" s="297"/>
-      <c r="C10" s="297"/>
-      <c r="D10" s="297"/>
-      <c r="E10" s="278"/>
-      <c r="F10" s="278"/>
-      <c r="G10" s="278"/>
-      <c r="H10" s="278"/>
-      <c r="I10" s="278"/>
-      <c r="J10" s="279"/>
-      <c r="K10" s="280"/>
-      <c r="L10" s="281"/>
-      <c r="M10" s="300"/>
-      <c r="N10" s="301"/>
-      <c r="O10" s="301"/>
-      <c r="P10" s="301"/>
-      <c r="Q10" s="301"/>
-      <c r="R10" s="302"/>
-      <c r="S10" s="285"/>
-      <c r="T10" s="285"/>
-      <c r="U10" s="285"/>
-      <c r="V10" s="296"/>
-      <c r="W10" s="296"/>
-      <c r="X10" s="296"/>
-      <c r="Y10" s="296"/>
-      <c r="Z10" s="296"/>
-      <c r="AA10" s="296"/>
-      <c r="AB10" s="296"/>
-      <c r="AC10" s="296"/>
-      <c r="AD10" s="296"/>
-      <c r="AE10" s="296"/>
-      <c r="AF10" s="296"/>
-      <c r="AG10" s="296"/>
-      <c r="AH10" s="296"/>
-      <c r="AI10" s="296"/>
-      <c r="AJ10" s="296"/>
-      <c r="AK10" s="296"/>
-      <c r="AL10" s="296"/>
-      <c r="AM10" s="296"/>
-      <c r="AN10" s="285"/>
-      <c r="AO10" s="285"/>
-      <c r="AP10" s="285"/>
-      <c r="AQ10" s="285"/>
-      <c r="AR10" s="285"/>
-      <c r="AS10" s="285"/>
-      <c r="AT10" s="285"/>
-      <c r="AU10" s="285"/>
-      <c r="AV10" s="285"/>
-      <c r="AW10" s="285"/>
+      <c r="B10" s="282"/>
+      <c r="C10" s="282"/>
+      <c r="D10" s="282"/>
+      <c r="E10" s="283"/>
+      <c r="F10" s="283"/>
+      <c r="G10" s="283"/>
+      <c r="H10" s="283"/>
+      <c r="I10" s="283"/>
+      <c r="J10" s="284"/>
+      <c r="K10" s="285"/>
+      <c r="L10" s="286"/>
+      <c r="M10" s="287"/>
+      <c r="N10" s="288"/>
+      <c r="O10" s="288"/>
+      <c r="P10" s="288"/>
+      <c r="Q10" s="288"/>
+      <c r="R10" s="289"/>
+      <c r="S10" s="281"/>
+      <c r="T10" s="281"/>
+      <c r="U10" s="281"/>
+      <c r="V10" s="290"/>
+      <c r="W10" s="290"/>
+      <c r="X10" s="290"/>
+      <c r="Y10" s="290"/>
+      <c r="Z10" s="290"/>
+      <c r="AA10" s="290"/>
+      <c r="AB10" s="290"/>
+      <c r="AC10" s="290"/>
+      <c r="AD10" s="290"/>
+      <c r="AE10" s="290"/>
+      <c r="AF10" s="290"/>
+      <c r="AG10" s="290"/>
+      <c r="AH10" s="290"/>
+      <c r="AI10" s="290"/>
+      <c r="AJ10" s="290"/>
+      <c r="AK10" s="290"/>
+      <c r="AL10" s="290"/>
+      <c r="AM10" s="290"/>
+      <c r="AN10" s="281"/>
+      <c r="AO10" s="281"/>
+      <c r="AP10" s="281"/>
+      <c r="AQ10" s="281"/>
+      <c r="AR10" s="281"/>
+      <c r="AS10" s="281"/>
+      <c r="AT10" s="281"/>
+      <c r="AU10" s="281"/>
+      <c r="AV10" s="281"/>
+      <c r="AW10" s="281"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A11" s="56"/>
-      <c r="B11" s="297"/>
-      <c r="C11" s="297"/>
-      <c r="D11" s="297"/>
-      <c r="E11" s="278"/>
-      <c r="F11" s="278"/>
-      <c r="G11" s="278"/>
-      <c r="H11" s="278"/>
-      <c r="I11" s="278"/>
-      <c r="J11" s="279"/>
-      <c r="K11" s="280"/>
-      <c r="L11" s="281"/>
-      <c r="M11" s="292"/>
-      <c r="N11" s="290"/>
-      <c r="O11" s="290"/>
-      <c r="P11" s="290"/>
-      <c r="Q11" s="290"/>
-      <c r="R11" s="291"/>
-      <c r="S11" s="285"/>
-      <c r="T11" s="285"/>
-      <c r="U11" s="285"/>
-      <c r="V11" s="286"/>
-      <c r="W11" s="298"/>
-      <c r="X11" s="298"/>
-      <c r="Y11" s="298"/>
-      <c r="Z11" s="298"/>
-      <c r="AA11" s="298"/>
-      <c r="AB11" s="298"/>
-      <c r="AC11" s="298"/>
-      <c r="AD11" s="298"/>
-      <c r="AE11" s="298"/>
-      <c r="AF11" s="298"/>
-      <c r="AG11" s="298"/>
-      <c r="AH11" s="298"/>
-      <c r="AI11" s="298"/>
-      <c r="AJ11" s="298"/>
-      <c r="AK11" s="298"/>
-      <c r="AL11" s="298"/>
-      <c r="AM11" s="299"/>
-      <c r="AN11" s="285"/>
-      <c r="AO11" s="285"/>
-      <c r="AP11" s="285"/>
-      <c r="AQ11" s="285"/>
-      <c r="AR11" s="285"/>
-      <c r="AS11" s="285"/>
-      <c r="AT11" s="285"/>
-      <c r="AU11" s="285"/>
-      <c r="AV11" s="285"/>
-      <c r="AW11" s="285"/>
+      <c r="B11" s="282"/>
+      <c r="C11" s="282"/>
+      <c r="D11" s="282"/>
+      <c r="E11" s="283"/>
+      <c r="F11" s="283"/>
+      <c r="G11" s="283"/>
+      <c r="H11" s="283"/>
+      <c r="I11" s="283"/>
+      <c r="J11" s="284"/>
+      <c r="K11" s="285"/>
+      <c r="L11" s="286"/>
+      <c r="M11" s="294"/>
+      <c r="N11" s="295"/>
+      <c r="O11" s="295"/>
+      <c r="P11" s="295"/>
+      <c r="Q11" s="295"/>
+      <c r="R11" s="296"/>
+      <c r="S11" s="281"/>
+      <c r="T11" s="281"/>
+      <c r="U11" s="281"/>
+      <c r="V11" s="297"/>
+      <c r="W11" s="303"/>
+      <c r="X11" s="303"/>
+      <c r="Y11" s="303"/>
+      <c r="Z11" s="303"/>
+      <c r="AA11" s="303"/>
+      <c r="AB11" s="303"/>
+      <c r="AC11" s="303"/>
+      <c r="AD11" s="303"/>
+      <c r="AE11" s="303"/>
+      <c r="AF11" s="303"/>
+      <c r="AG11" s="303"/>
+      <c r="AH11" s="303"/>
+      <c r="AI11" s="303"/>
+      <c r="AJ11" s="303"/>
+      <c r="AK11" s="303"/>
+      <c r="AL11" s="303"/>
+      <c r="AM11" s="304"/>
+      <c r="AN11" s="281"/>
+      <c r="AO11" s="281"/>
+      <c r="AP11" s="281"/>
+      <c r="AQ11" s="281"/>
+      <c r="AR11" s="281"/>
+      <c r="AS11" s="281"/>
+      <c r="AT11" s="281"/>
+      <c r="AU11" s="281"/>
+      <c r="AV11" s="281"/>
+      <c r="AW11" s="281"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A12" s="56"/>
-      <c r="B12" s="275"/>
-      <c r="C12" s="276"/>
-      <c r="D12" s="277"/>
-      <c r="E12" s="278"/>
-      <c r="F12" s="278"/>
-      <c r="G12" s="278"/>
-      <c r="H12" s="278"/>
-      <c r="I12" s="278"/>
-      <c r="J12" s="279"/>
-      <c r="K12" s="280"/>
-      <c r="L12" s="281"/>
-      <c r="M12" s="292"/>
-      <c r="N12" s="290"/>
-      <c r="O12" s="290"/>
-      <c r="P12" s="290"/>
-      <c r="Q12" s="290"/>
-      <c r="R12" s="291"/>
-      <c r="S12" s="285"/>
-      <c r="T12" s="285"/>
-      <c r="U12" s="285"/>
-      <c r="V12" s="286"/>
-      <c r="W12" s="287"/>
-      <c r="X12" s="287"/>
-      <c r="Y12" s="287"/>
-      <c r="Z12" s="287"/>
-      <c r="AA12" s="287"/>
-      <c r="AB12" s="287"/>
-      <c r="AC12" s="287"/>
-      <c r="AD12" s="287"/>
-      <c r="AE12" s="287"/>
-      <c r="AF12" s="287"/>
-      <c r="AG12" s="287"/>
-      <c r="AH12" s="287"/>
-      <c r="AI12" s="287"/>
-      <c r="AJ12" s="287"/>
-      <c r="AK12" s="287"/>
-      <c r="AL12" s="287"/>
-      <c r="AM12" s="288"/>
-      <c r="AN12" s="272"/>
-      <c r="AO12" s="273"/>
-      <c r="AP12" s="273"/>
-      <c r="AQ12" s="273"/>
-      <c r="AR12" s="274"/>
-      <c r="AS12" s="272"/>
-      <c r="AT12" s="273"/>
-      <c r="AU12" s="273"/>
-      <c r="AV12" s="273"/>
-      <c r="AW12" s="274"/>
+      <c r="B12" s="291"/>
+      <c r="C12" s="292"/>
+      <c r="D12" s="293"/>
+      <c r="E12" s="283"/>
+      <c r="F12" s="283"/>
+      <c r="G12" s="283"/>
+      <c r="H12" s="283"/>
+      <c r="I12" s="283"/>
+      <c r="J12" s="284"/>
+      <c r="K12" s="285"/>
+      <c r="L12" s="286"/>
+      <c r="M12" s="294"/>
+      <c r="N12" s="295"/>
+      <c r="O12" s="295"/>
+      <c r="P12" s="295"/>
+      <c r="Q12" s="295"/>
+      <c r="R12" s="296"/>
+      <c r="S12" s="281"/>
+      <c r="T12" s="281"/>
+      <c r="U12" s="281"/>
+      <c r="V12" s="297"/>
+      <c r="W12" s="298"/>
+      <c r="X12" s="298"/>
+      <c r="Y12" s="298"/>
+      <c r="Z12" s="298"/>
+      <c r="AA12" s="298"/>
+      <c r="AB12" s="298"/>
+      <c r="AC12" s="298"/>
+      <c r="AD12" s="298"/>
+      <c r="AE12" s="298"/>
+      <c r="AF12" s="298"/>
+      <c r="AG12" s="298"/>
+      <c r="AH12" s="298"/>
+      <c r="AI12" s="298"/>
+      <c r="AJ12" s="298"/>
+      <c r="AK12" s="298"/>
+      <c r="AL12" s="298"/>
+      <c r="AM12" s="299"/>
+      <c r="AN12" s="300"/>
+      <c r="AO12" s="301"/>
+      <c r="AP12" s="301"/>
+      <c r="AQ12" s="301"/>
+      <c r="AR12" s="302"/>
+      <c r="AS12" s="300"/>
+      <c r="AT12" s="301"/>
+      <c r="AU12" s="301"/>
+      <c r="AV12" s="301"/>
+      <c r="AW12" s="302"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A13" s="56"/>
-      <c r="B13" s="275"/>
-      <c r="C13" s="276"/>
-      <c r="D13" s="277"/>
-      <c r="E13" s="278"/>
-      <c r="F13" s="278"/>
-      <c r="G13" s="278"/>
-      <c r="H13" s="278"/>
-      <c r="I13" s="278"/>
-      <c r="J13" s="279"/>
-      <c r="K13" s="280"/>
-      <c r="L13" s="281"/>
-      <c r="M13" s="289"/>
-      <c r="N13" s="290"/>
-      <c r="O13" s="290"/>
-      <c r="P13" s="290"/>
-      <c r="Q13" s="290"/>
-      <c r="R13" s="291"/>
-      <c r="S13" s="285"/>
-      <c r="T13" s="285"/>
-      <c r="U13" s="285"/>
-      <c r="V13" s="286"/>
-      <c r="W13" s="287"/>
-      <c r="X13" s="287"/>
-      <c r="Y13" s="287"/>
-      <c r="Z13" s="287"/>
-      <c r="AA13" s="287"/>
-      <c r="AB13" s="287"/>
-      <c r="AC13" s="287"/>
-      <c r="AD13" s="287"/>
-      <c r="AE13" s="287"/>
-      <c r="AF13" s="287"/>
-      <c r="AG13" s="287"/>
-      <c r="AH13" s="287"/>
-      <c r="AI13" s="287"/>
-      <c r="AJ13" s="287"/>
-      <c r="AK13" s="287"/>
-      <c r="AL13" s="287"/>
-      <c r="AM13" s="288"/>
-      <c r="AN13" s="272"/>
-      <c r="AO13" s="273"/>
-      <c r="AP13" s="273"/>
-      <c r="AQ13" s="273"/>
-      <c r="AR13" s="274"/>
-      <c r="AS13" s="272"/>
-      <c r="AT13" s="273"/>
-      <c r="AU13" s="273"/>
-      <c r="AV13" s="273"/>
-      <c r="AW13" s="274"/>
+      <c r="B13" s="291"/>
+      <c r="C13" s="292"/>
+      <c r="D13" s="293"/>
+      <c r="E13" s="283"/>
+      <c r="F13" s="283"/>
+      <c r="G13" s="283"/>
+      <c r="H13" s="283"/>
+      <c r="I13" s="283"/>
+      <c r="J13" s="284"/>
+      <c r="K13" s="285"/>
+      <c r="L13" s="286"/>
+      <c r="M13" s="305"/>
+      <c r="N13" s="295"/>
+      <c r="O13" s="295"/>
+      <c r="P13" s="295"/>
+      <c r="Q13" s="295"/>
+      <c r="R13" s="296"/>
+      <c r="S13" s="281"/>
+      <c r="T13" s="281"/>
+      <c r="U13" s="281"/>
+      <c r="V13" s="297"/>
+      <c r="W13" s="298"/>
+      <c r="X13" s="298"/>
+      <c r="Y13" s="298"/>
+      <c r="Z13" s="298"/>
+      <c r="AA13" s="298"/>
+      <c r="AB13" s="298"/>
+      <c r="AC13" s="298"/>
+      <c r="AD13" s="298"/>
+      <c r="AE13" s="298"/>
+      <c r="AF13" s="298"/>
+      <c r="AG13" s="298"/>
+      <c r="AH13" s="298"/>
+      <c r="AI13" s="298"/>
+      <c r="AJ13" s="298"/>
+      <c r="AK13" s="298"/>
+      <c r="AL13" s="298"/>
+      <c r="AM13" s="299"/>
+      <c r="AN13" s="300"/>
+      <c r="AO13" s="301"/>
+      <c r="AP13" s="301"/>
+      <c r="AQ13" s="301"/>
+      <c r="AR13" s="302"/>
+      <c r="AS13" s="300"/>
+      <c r="AT13" s="301"/>
+      <c r="AU13" s="301"/>
+      <c r="AV13" s="301"/>
+      <c r="AW13" s="302"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A14" s="56"/>
-      <c r="B14" s="275"/>
-      <c r="C14" s="276"/>
-      <c r="D14" s="277"/>
-      <c r="E14" s="278"/>
-      <c r="F14" s="278"/>
-      <c r="G14" s="278"/>
-      <c r="H14" s="278"/>
-      <c r="I14" s="278"/>
-      <c r="J14" s="279"/>
-      <c r="K14" s="280"/>
-      <c r="L14" s="281"/>
-      <c r="M14" s="289"/>
-      <c r="N14" s="290"/>
-      <c r="O14" s="290"/>
-      <c r="P14" s="290"/>
-      <c r="Q14" s="290"/>
-      <c r="R14" s="291"/>
-      <c r="S14" s="285"/>
-      <c r="T14" s="285"/>
-      <c r="U14" s="285"/>
-      <c r="V14" s="295"/>
-      <c r="W14" s="296"/>
-      <c r="X14" s="296"/>
-      <c r="Y14" s="296"/>
-      <c r="Z14" s="296"/>
-      <c r="AA14" s="296"/>
-      <c r="AB14" s="296"/>
-      <c r="AC14" s="296"/>
-      <c r="AD14" s="296"/>
-      <c r="AE14" s="296"/>
-      <c r="AF14" s="296"/>
-      <c r="AG14" s="296"/>
-      <c r="AH14" s="296"/>
-      <c r="AI14" s="296"/>
-      <c r="AJ14" s="296"/>
-      <c r="AK14" s="296"/>
-      <c r="AL14" s="296"/>
-      <c r="AM14" s="296"/>
-      <c r="AN14" s="285"/>
-      <c r="AO14" s="285"/>
-      <c r="AP14" s="285"/>
-      <c r="AQ14" s="285"/>
-      <c r="AR14" s="285"/>
-      <c r="AS14" s="272"/>
-      <c r="AT14" s="273"/>
-      <c r="AU14" s="273"/>
-      <c r="AV14" s="273"/>
-      <c r="AW14" s="274"/>
+      <c r="B14" s="291"/>
+      <c r="C14" s="292"/>
+      <c r="D14" s="293"/>
+      <c r="E14" s="283"/>
+      <c r="F14" s="283"/>
+      <c r="G14" s="283"/>
+      <c r="H14" s="283"/>
+      <c r="I14" s="283"/>
+      <c r="J14" s="284"/>
+      <c r="K14" s="285"/>
+      <c r="L14" s="286"/>
+      <c r="M14" s="305"/>
+      <c r="N14" s="295"/>
+      <c r="O14" s="295"/>
+      <c r="P14" s="295"/>
+      <c r="Q14" s="295"/>
+      <c r="R14" s="296"/>
+      <c r="S14" s="281"/>
+      <c r="T14" s="281"/>
+      <c r="U14" s="281"/>
+      <c r="V14" s="306"/>
+      <c r="W14" s="290"/>
+      <c r="X14" s="290"/>
+      <c r="Y14" s="290"/>
+      <c r="Z14" s="290"/>
+      <c r="AA14" s="290"/>
+      <c r="AB14" s="290"/>
+      <c r="AC14" s="290"/>
+      <c r="AD14" s="290"/>
+      <c r="AE14" s="290"/>
+      <c r="AF14" s="290"/>
+      <c r="AG14" s="290"/>
+      <c r="AH14" s="290"/>
+      <c r="AI14" s="290"/>
+      <c r="AJ14" s="290"/>
+      <c r="AK14" s="290"/>
+      <c r="AL14" s="290"/>
+      <c r="AM14" s="290"/>
+      <c r="AN14" s="281"/>
+      <c r="AO14" s="281"/>
+      <c r="AP14" s="281"/>
+      <c r="AQ14" s="281"/>
+      <c r="AR14" s="281"/>
+      <c r="AS14" s="300"/>
+      <c r="AT14" s="301"/>
+      <c r="AU14" s="301"/>
+      <c r="AV14" s="301"/>
+      <c r="AW14" s="302"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A15" s="56"/>
-      <c r="B15" s="275"/>
-      <c r="C15" s="276"/>
-      <c r="D15" s="277"/>
-      <c r="E15" s="278"/>
-      <c r="F15" s="278"/>
-      <c r="G15" s="278"/>
-      <c r="H15" s="278"/>
-      <c r="I15" s="278"/>
-      <c r="J15" s="279"/>
-      <c r="K15" s="280"/>
-      <c r="L15" s="281"/>
-      <c r="M15" s="292"/>
-      <c r="N15" s="290"/>
-      <c r="O15" s="290"/>
-      <c r="P15" s="290"/>
-      <c r="Q15" s="290"/>
-      <c r="R15" s="291"/>
-      <c r="S15" s="285"/>
-      <c r="T15" s="285"/>
-      <c r="U15" s="285"/>
-      <c r="V15" s="286"/>
-      <c r="W15" s="287"/>
-      <c r="X15" s="287"/>
-      <c r="Y15" s="287"/>
-      <c r="Z15" s="287"/>
-      <c r="AA15" s="287"/>
-      <c r="AB15" s="287"/>
-      <c r="AC15" s="287"/>
-      <c r="AD15" s="287"/>
-      <c r="AE15" s="287"/>
-      <c r="AF15" s="287"/>
-      <c r="AG15" s="287"/>
-      <c r="AH15" s="287"/>
-      <c r="AI15" s="287"/>
-      <c r="AJ15" s="287"/>
-      <c r="AK15" s="287"/>
-      <c r="AL15" s="287"/>
-      <c r="AM15" s="288"/>
-      <c r="AN15" s="272"/>
-      <c r="AO15" s="273"/>
-      <c r="AP15" s="273"/>
-      <c r="AQ15" s="273"/>
-      <c r="AR15" s="274"/>
-      <c r="AS15" s="272"/>
-      <c r="AT15" s="273"/>
-      <c r="AU15" s="273"/>
-      <c r="AV15" s="273"/>
-      <c r="AW15" s="274"/>
+      <c r="B15" s="291"/>
+      <c r="C15" s="292"/>
+      <c r="D15" s="293"/>
+      <c r="E15" s="283"/>
+      <c r="F15" s="283"/>
+      <c r="G15" s="283"/>
+      <c r="H15" s="283"/>
+      <c r="I15" s="283"/>
+      <c r="J15" s="284"/>
+      <c r="K15" s="285"/>
+      <c r="L15" s="286"/>
+      <c r="M15" s="294"/>
+      <c r="N15" s="